--- a/outputs/results_dataset.xlsx
+++ b/outputs/results_dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="1706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="1708">
   <si>
     <t>name_model_radius</t>
   </si>
@@ -775,7 +775,7 @@
     <t>[38.73272799538948, 41.125442516030056, 40.98769977156169, 51.805282765087156, 36.0316141705368, 33.887607880511595, 46.7040023009118, 44.00640571348235, 43.84939570976275, 39.620831159132436, 38.69524736968468, 36.48224632711502, 47.16096210033522, 44.578446102882296, 34.37279244262101, 34.4008667077877, 55.046549509047004, 29.900289494828435, 42.50263305685154, 33.95906945499656, 47.40635923734467, 29.399569915477816, 44.423253787510035, 50.01392804535359, 33.13663359947091, 40.136274348969465, 37.790150450305646, 33.32486235739235, 57.51713817364793, 40.59413082356897, 48.52015963443738, 37.55834518844264, 32.65473140094285, 52.041378667878575, 27.947901782404763, 41.00025803809688, 51.95221454347519, 32.22064563625803, 42.877098785786586, 45.84475530685946, 39.1582766232303, 53.15028096205242, 32.945228748171246, 37.99740902044857, 36.147543504363284, 30.119333802170207, 41.51111313764016, 47.40172063093795, 39.61832495725272, 53.40184703848519]</t>
   </si>
   <si>
-    <t>[32.954445881792275, 49.71206073859652, 51.65225727011902, 50.064640391986764, 41.643351938151355, 33.3807033936959, 52.30739161170466, 39.516733233370495, 50.85274794188489, 34.664492233187126, 38.335425763827295, 45.16802531800054, 52.39427488302863, 50.72881082721466, 43.876609813239234, 36.2270902702843, 65.14341069689179, 41.469280280649244, 49.31060094806072, 37.03902133470159, 54.40560801442036, 36.34915808681173, 48.65177084149305, 51.020064246932805, 47.91551641234704, 46.267100522894474, 40.961199054186295, 45.01629191372372, 68.092502539999, 38.72605434771044, 55.383519678498416, 41.44278912607193, 40.90096031207783, 54.34926649828445, 38.63874181812712, 47.87759639048541, 54.62093963801248, 37.33168605870999, 40.539314799874354, 58.7050194550709, 40.14682865586113, 43.66427009042679, 39.597648640514926, 35.45749956642531, 59.82554381748224, 47.60887079154124, 44.28669025360206, 49.013918728437645, 46.892982750817744, 37.979368507392635]</t>
+    <t>[32.958582147955546, 50.052619597518785, 51.84400823900245, 47.75740000017144, 44.32001413889771, 36.87788264039075, 51.69031202775028, 47.07888685537232, 51.6284820300706, 36.07092498732973, 41.753730336292236, 44.844920139631945, 50.27323806671433, 49.224839685958784, 42.73969182663427, 41.146609327823654, 66.46887585457897, 42.46425241892073, 47.44522380708917, 39.5299136597832, 53.553459351902255, 39.284651198567175, 49.366533805712905, 51.96212616784197, 48.38178626073642, 44.721644274138214, 41.67945844076912, 40.68062483375299, 71.07842332704114, 38.73391368201656, 52.98030162796353, 41.95798198076097, 40.16476680257813, 57.26345208879566, 36.0502827005564, 47.755410192578424, 51.44326136948663, 38.82728778474031, 42.471669651094075, 52.97801929958753, 41.46418986720095, 43.826735872557904, 38.58247235292951, 34.78959016134069, 59.59516582627015, 45.82879912394133, 46.43472307386454, 49.753157361138065, 46.653022459188605, 40.367559532026235]</t>
   </si>
   <si>
     <t>[23.603291610191608, 40.0729466847011, 52.353785160609654, 45.605914388384136, 34.14775494166783, 35.68390020830878, 43.43524287428175, 41.901485497610906, 39.2850227355957, 35.05542469024658, 27.451574654414735, 38.73740904671805, 51.680889865330286, 38.414558683122905, 35.01854228973389, 34.40016042775121, 49.310010365077424, 39.325059345790315, 40.455413818359375, 39.48849111284528, 45.244498548836546, 27.940632683890207, 50.074372782026025, 46.41424042837961, 33.3024787902832, 42.66965918705381, 34.6144586290632, 38.206225531441824, 53.05803850718907, 34.922979954310826, 45.04274736601731, 38.957920517240254, 37.60816614968436, 48.1713650567191, 33.702920995439804, 39.84928499419114, 51.38449336460659, 45.02425275530134, 31.557924815586635, 41.16200276783535, 43.642106960559715, 34.75285851614816, 37.383592333112446, 34.18815313066755, 45.78734874725342, 33.01629050024624, 46.414128984723774, 39.71368958268847, 37.535206522260395, 35.417150960649764]</t>
@@ -787,31 +787,31 @@
     <t>[41.22021841163638, 34.95989690622858, 64.00996098380237, 62.825732291755024, 34.2317881552534, 38.877933313037445, 41.70519036416217, 41.89391475755733, 45.16475580786744, 40.00858195360737, 35.302656421123885, 33.07422708315696, 53.93054917399805, 44.408498282662784, 34.88176826019059, 32.70393907917744, 47.08601118583294, 34.95634900492429, 53.92317379082254, 37.02017574619593, 39.199128143988524, 33.414502419159426, 47.247198324532555, 54.92678650243296, 47.9002121688789, 35.47205476350743, 37.41538408271056, 34.360169517524135, 69.82472376185851, 29.619678158924042, 60.81379183376296, 36.010355972281076, 55.360301086109835, 51.83361577203969, 36.27635706926355, 44.640500637725985, 55.51847278985618, 33.274252333591484, 37.98902198304677, 45.313810049885355, 41.61883765357687, 45.83579286328503, 51.28405801566938, 47.1353508441233, 38.898636610443816, 38.79170954527421, 56.318122334650134, 46.755327006349646, 42.750450508536694, 42.960057062926914]</t>
   </si>
   <si>
-    <t>[36.803687487668796, 54.40918875151637, 46.322740845841864, 48.45121275183258, 52.69914757986334, 38.423276698713174, 51.241999215544475, 38.1967905923762, 34.780339084107496, 40.42068707813369, 47.299264739616, 38.15774181010558, 55.64322115749321, 41.45054563852221, 34.252741435185904, 39.58333944501394, 58.99135875707726, 45.79059608968134, 39.63789607116444, 39.72678571428571, 46.425412339996065, 36.57298992693013, 62.39899007708925, 47.0821465957995, 39.721831134015666, 52.878647546533585, 43.695000461989615, 41.642857142857146, 51.74784507322606, 31.534184344412147, 47.84647947547948, 45.190322878728864, 32.03363129659239, 44.03957266668918, 49.254167702781125, 45.22219721641516, 49.855506212778145, 34.579029309795246, 37.13971651284636, 52.75543003078676, 38.47492817317661, 38.74515211704228, 43.37365995034255, 33.80179147476914, 54.35782845136968, 41.048023962048276, 45.45247811794479, 49.705324372327325, 45.74569163852572, 30.393152580539574]</t>
+    <t>[36.803687487668796, 54.40918875151637, 46.322740845841864, 48.45121275183258, 52.69914757986334, 34.8198284228511, 51.241999215544475, 38.1967905923762, 34.780339084107496, 40.42068707813369, 47.299264739616, 38.15774181010558, 55.64322115749321, 41.45054563852221, 34.252741435185904, 39.58333944501394, 58.99135875707726, 45.79059608968134, 39.63789607116444, 39.72678571428571, 46.425412339996065, 36.57298992693013, 62.39899007708925, 47.0821465957995, 39.721831134015666, 52.878647546533585, 43.695000461989615, 41.642857142857146, 51.74784507322606, 31.534184344412147, 47.84647947547948, 45.190322878728864, 32.03363129659239, 44.03957266668918, 49.254167702781125, 45.22219721641516, 49.855506212778145, 34.579029309795246, 37.13971651284636, 52.75543003078676, 38.47492817317661, 38.74515211704228, 43.37365995034255, 33.80179147476914, 54.35782845136968, 41.048023962048276, 45.45247811794479, 49.705324372327325, 45.74569163852572, 30.393152580539574]</t>
   </si>
   <si>
     <t>[30.8691235021857, 43.65277740220048, 53.3587837727923, 61.01439584747501, 35.03091394541385, 41.91259812291214, 45.66921408418653, 44.88799181162458, 46.13150074403837, 34.035895671084425, 40.1729059794042, 36.89192182038635, 49.230366185800456, 44.41615576217667, 39.53978994411164, 40.04772094752747, 45.887875947855754, 41.32730030339686, 54.76900331343446, 42.43635681473197, 48.417431785680705, 37.9681839331747, 49.48051084311867, 50.04581859486636, 50.886289498677066, 45.95337437796205, 42.74914924747467, 39.08137500702224, 74.10480274307004, 40.198418615027855, 56.3861789292554, 42.769930822916834, 34.65040143584033, 39.9089778211571, 42.62199235346947, 43.38018797556445, 67.29032140193893, 38.94413072887118, 38.01072902303633, 51.188296414357225, 38.54930422418228, 50.411414829228576, 30.066091014645842, 38.199366887063675, 48.972651097148116, 47.3622085853359, 50.22635955961007, 47.95413914019407, 51.61398527614989, 46.05757100265684]</t>
   </si>
   <si>
-    <t>[33.06547029751109, 49.81251938186974, 51.99533732184269, 49.17777350370282, 45.602645542560545, 34.61934013143582, 53.401440971790485, 40.950935476385155, 55.248623214640325, 36.984254571070075, 34.630553390253, 38.955080194710426, 55.76966309413591, 50.552362363214414, 41.43793536743435, 40.92082634549036, 60.524491601781634, 45.20022879682151, 45.75835857285631, 38.520142896554646, 53.29630330347375, 39.22382246436272, 47.5482934369241, 48.55248903278291, 49.444619032280464, 39.78219696490965, 42.40146154348253, 45.2819308625227, 69.57132906234779, 36.79374281209549, 52.680580764145255, 44.84734388558832, 43.45527397181605, 53.869963913178985, 41.631795247067274, 44.890976152438874, 51.832214893924935, 39.55233486345479, 41.69457920755382, 58.520556098670674, 40.65204489337123, 52.71811535054509, 37.202637676796535, 36.43300387198792, 57.42006474245505, 47.485345653598195, 43.00646389602618, 50.40341525126422, 50.61875913716038, 37.22046699717952]</t>
+    <t>[31.579045737240882, 46.829818224825075, 53.01041724227416, 50.92969125449143, 44.8895936807127, 35.13453904435719, 52.08032148878385, 38.74781684308255, 54.44289716173028, 37.949049618052925, 39.63076121709012, 42.583314112357776, 55.46302363154708, 48.08393876936881, 47.345009552694194, 43.014036397477476, 62.052213470209594, 45.72581227515894, 41.608920422409334, 39.65391082028922, 53.26668357819728, 38.73999178718311, 46.52779070276796, 45.54831721025248, 47.27518775958236, 42.26302334753586, 42.270985073322024, 45.229286751727706, 68.73308042878855, 37.52401487176836, 54.279245178276504, 47.82844627287835, 42.574816460060745, 51.87664264054622, 36.78807154427079, 45.713318834619415, 54.34650359894977, 39.113745883248235, 43.39526084078587, 58.947867006618665, 39.42609989679737, 53.15401682471967, 38.90095960007443, 33.08358118452336, 65.29433597511003, 49.98996097616625, 43.281236530655185, 49.11154696136456, 49.73679949433666, 39.09731476704347]</t>
   </si>
   <si>
     <t>[26.72916425507644, 48.51091085161482, 48.49148265293666, 48.94100408256054, 32.406414304460796, 24.89544177877492, 40.6628292628697, 38.02125632422311, 49.90615504128592, 42.93866103036063, 37.799839052660715, 36.646252393722534, 51.61099575587681, 42.53301239013672, 34.27424022129604, 38.402666355001514, 48.002952575683594, 38.2881954738072, 42.26591144289289, 35.63281529630934, 48.94552441301017, 23.666833060128347, 39.76093534401485, 47.20539883204869, 33.952896526881624, 43.525535057330956, 33.95127705165318, 44.982652459825786, 54.73800039291382, 29.86963985988072, 36.859699775432716, 44.960171290806365, 37.96350015912737, 50.8395791053772, 34.62673601422991, 33.210609699117725, 46.638677379063196, 34.305720806121826, 40.144604614802766, 47.68675300053188, 34.26129669978701, 61.04340129579816, 37.35757085255214, 28.86058214732579, 40.01828806740897, 50.915880926724135, 38.72903251647949, 41.8232981136867, 37.699075954301016, 41.38545235906328]</t>
   </si>
   <si>
-    <t>[47.143570173612154, 57.555411638659606, 60.084775193865504, 71.97637267999134, 53.233362627560766, 51.69996196192476, 70.38570407403247, 58.406598219937166, 70.56069769802548, 54.71948844735813, 50.01008823702509, 58.65391267903444, 63.461537901266034, 74.1106587423258, 59.460834137477896, 54.204028257867826, 69.20960970726192, 62.15372404850693, 59.57122921522113, 51.129072970120056, 74.64628809017273, 57.69752629616263, 59.723941028511796, 71.22490144665456, 67.27900452150458, 61.45745814810095, 69.27013295246938, 63.3792770751434, 59.24090532412897, 59.0268523263053, 62.90053713008371, 47.171141541644275, 51.44789536116595, 65.96248205228127, 50.22273343844511, 63.740085081415366, 73.90001142380187, 59.38224537596924, 50.27463487833495, 65.57419153326008, 56.836617491251246, 70.09045001600948, 40.37571214895868, 51.78353362770955, 66.9747821396714, 55.7163678679707, 64.60212198908462, 63.03584332720608, 53.62868491250146, 59.70433284988756]</t>
+    <t>[47.143570173612154, 57.555411638659606, 60.084775193865504, 71.97637267999134, 53.233362627560766, 51.69996196192476, 70.38570407403247, 58.406598219937166, 70.56069769802548, 54.71948844735813, 50.01008823702509, 58.65391267903444, 63.461537901266034, 74.11065874232554, 59.460834137477896, 54.204028257867826, 69.20960970726192, 62.15372404850693, 59.57122921522113, 51.129072970120056, 74.64628809017273, 57.69752629616263, 59.723941028511796, 71.22490144665456, 67.27900452150458, 61.45745814810095, 69.27013295246938, 63.3792770751434, 59.24090532412897, 59.0268523263053, 62.90053713008371, 47.171141541644275, 51.44789536116595, 65.96248205228127, 50.22273343844511, 63.740085081415366, 73.90001142380187, 59.382245375969056, 50.27463487833495, 65.57419153326008, 56.836617491251246, 70.09045001600948, 40.37571214895868, 51.78353362770955, 66.9747821396714, 55.7163678679707, 64.60212198908452, 63.03584332720608, 53.62868491250146, 59.70433284988756]</t>
   </si>
   <si>
     <t>[30.901026442650338, 39.298950229633725, 62.200242064058656, 64.20180151452756, 45.97648539768001, 40.51928000230832, 54.30831584565437, 47.24601667275788, 56.311334118209906, 41.10300035791097, 35.74053645814443, 35.7082627017456, 58.50246057199909, 52.41019829835348, 38.92334973001899, 40.144116444983126, 70.96612640813484, 47.456500916520554, 49.45846733565369, 37.455853860967444, 39.77138511758217, 43.52155004417409, 49.11572537598679, 39.969803857555426, 40.052617250117564, 53.16542532127065, 45.01193695403519, 33.63635274376664, 69.26160974842243, 32.45206870193383, 63.299700727095846, 38.79087655667643, 50.60699097181763, 53.84885516782203, 39.24354864912508, 54.4980709282178, 50.60382822421137, 32.550537816347216, 37.71673551643611, 47.41612346847288, 44.66924347577207, 63.03569577257242, 43.909990096136944, 34.69028438516242, 49.03385097133839, 36.01415172984143, 46.86685034861973, 47.598940295471444, 42.60188470170071, 44.178832561198945]</t>
   </si>
   <si>
-    <t>[35.76975108830312, 54.176832623127034, 49.19261047419325, 58.36292543336332, 40.089780353054344, 43.96551724137931, 56.841071428571425, 36.49319917099306, 54.778239352575234, 36.12321428571429, 41.99145121180734, 45.542842969004504, 61.72976190476191, 55.91683472860454, 41.544642857142854, 37.65764706760807, 63.810517861003824, 38.87610985342824, 43.95357142857143, 31.279644675828514, 51.28006073791342, 36.602378923236735, 53.02094413039162, 53.68928571428571, 43.63134186433033, 60.898904346990896, 51.61589481214571, 46.20833333333333, 60.89221629350592, 38.73663537459772, 54.759588321858274, 54.107142857142854, 45.660714285714285, 45.557235309827014, 51.199108948994855, 47.154872197634646, 54.11601219194118, 40.79075366491782, 48.12141155639792, 57.054768801655946, 43.105540701517434, 43.09077086289507, 37.32265825287519, 29.93365962541608, 63.37500000000001, 39.9352951218099, 45.6956490039517, 50.125400400633055, 48.56345592866338, 29.008484897305777]</t>
+    <t>[35.76975108830312, 54.176832623127034, 49.19261047419325, 58.36292543336332, 40.089780353054344, 43.96551724137931, 56.841071428571425, 36.49319917099306, 54.778239352575234, 36.12321428571429, 41.99145121180734, 45.542842969004504, 61.72976190476191, 55.91683472860454, 41.544642857142854, 37.65764706760807, 63.810517861003824, 38.87610985342824, 43.95357142857143, 31.279644675828514, 51.28006073791342, 36.602378923236735, 53.02094413039162, 53.68928571428571, 43.63134186433033, 60.898904346990896, 51.61589481214571, 38.336080155575225, 60.89221629350592, 38.73663537459772, 54.759588321858274, 54.107142857142854, 45.660714285714285, 45.557235309827014, 51.199108948994855, 47.154872197634646, 54.11601219194118, 40.79075366491782, 48.12141155639792, 57.054768801655946, 43.105540701517434, 43.09077086289507, 37.32265825287519, 29.93365962541608, 63.37500000000001, 39.9352951218099, 45.6956490039517, 50.125400400633055, 48.56345592866338, 29.008484897305777]</t>
   </si>
   <si>
     <t>[31.76034309889712, 45.226130948076964, 55.70354311206603, 57.65218567958677, 41.83719831458477, 36.194287122869966, 42.92556064314248, 41.86131951146915, 54.004676923485114, 40.475082427729504, 36.539165420170924, 40.75147158482846, 52.235515834056955, 43.89600782025008, 34.30669946424482, 41.74487716735667, 45.34955305584324, 40.10300148963887, 51.40591499061361, 35.48568584825846, 50.28554978789976, 42.06220159217077, 51.42846967232593, 36.4331992744107, 39.0594317527765, 36.72109540921007, 49.36070557922614, 39.45745630609967, 58.57671245624564, 33.377565444457495, 55.167150529625346, 40.527096989210385, 44.39116219630197, 42.264012785436016, 44.99644060734605, 49.51105195541178, 51.33578677949678, 36.03209319695435, 42.90468220267369, 53.108997894496724, 37.65735496466964, 51.15580894310074, 42.54596173030648, 34.84208336917446, 50.47523890284132, 32.17909485356997, 42.40079830483733, 46.54257338585815, 50.775553783250885, 49.47341769468358]</t>
   </si>
   <si>
-    <t>[30.74555066699929, 42.00309471373365, 43.82980918150677, 49.02366228806874, 34.96350470247665, 29.049216255082808, 50.389940579769664, 40.84703160515338, 52.41518041334971, 34.325583820254764, 39.758208389208974, 38.02553519682309, 46.0068147180014, 39.1687383467059, 35.123030254181906, 41.49235521966234, 52.840675762593506, 35.53380412412875, 42.80792009084739, 37.22881825357722, 44.84324312326635, 30.155796876801194, 46.36453797342699, 41.87498444201122, 42.66790618647434, 41.75411462633467, 37.88452521466907, 33.6254875911212, 59.34657596045603, 40.150155306859325, 38.00546634859022, 38.82105599617149, 43.33188556867896, 54.60680357027651, 35.59181590169578, 43.053648938763466, 45.72199819660396, 31.409192894849728, 36.678985106224104, 46.473524660118805, 36.570723404190495, 41.14277753693822, 34.308948845223206, 34.37777448483045, 48.16091613371098, 42.00714629991994, 36.53309135105396, 45.43632702341797, 48.85064366985299, 35.23444979161365]</t>
+    <t>[29.937855164662764, 40.19614919414413, 44.186093907286235, 47.88835631344296, 33.979421401646285, 29.529680523131557, 51.10323269683995, 37.2949413321448, 51.819870403047275, 33.5098923977648, 38.89542045090845, 38.325916638724756, 46.18873543215309, 40.697811953155586, 34.60033353302562, 40.86554448029664, 53.60333314853515, 32.96665572072488, 44.8927858739788, 39.070501235084855, 45.899783058919944, 32.76371635299258, 45.880285158665465, 42.92915803048128, 44.20328956573652, 44.39631389680755, 37.618383480944566, 34.98243896580095, 59.356883329208095, 41.255650539224895, 41.8900670937711, 40.17087553115817, 43.12266298464725, 54.187709646195366, 34.23168172846506, 43.20330229919096, 49.14549179757848, 35.15416623825208, 36.273831162994334, 47.348642569915306, 37.46185085428974, 43.74024629818492, 34.33755442005293, 34.19438008587785, 48.55495647779703, 42.835440349627135, 38.70113432648708, 46.47493547244265, 47.80761898015966, 36.01359417420587]</t>
   </si>
   <si>
     <t>[32.96350202889278, 31.708681651524135, 42.40082092285156, 43.50817943470819, 37.94108990260533, 29.21677885384395, 49.83990560259138, 39.213574627467565, 48.20377445220947, 32.408205202647615, 44.272513290931435, 38.904723576136995, 47.60896159580776, 36.48125118868692, 33.19865853445871, 32.66195205162312, 51.42091546739851, 34.51256138937814, 41.65788616452898, 38.837043843950546, 41.80334748892948, 25.237965720040457, 55.0088805607387, 42.11079025268555, 40.81890821456909, 45.91496099274734, 31.598337173461914, 32.44336496080671, 63.81839806692941, 31.154042870657783, 45.425091611927954, 43.987340211868286, 43.79087461744036, 53.04383965900966, 30.20622956412179, 45.17895902436355, 49.58776672908238, 34.312069756644114, 36.88549641200474, 45.54206643785749, 34.057968830240185, 34.69475751604353, 37.51755741664341, 26.767652579716273, 43.63618203571865, 36.44252928372087, 42.38957704816546, 42.4649156161717, 42.603659697941374, 41.30266824449812]</t>
@@ -823,13 +823,13 @@
     <t>[27.24200025902823, 39.872695238897485, 54.869259189207064, 59.15681977369878, 36.63711306879173, 36.631062089827054, 41.845369494091265, 39.99342036827769, 48.479361237217006, 46.388830732913284, 36.78807407778543, 34.98405573635778, 58.73524948387051, 47.1530475243909, 47.15961885658413, 29.98816952565312, 48.38597822556373, 49.91807748809182, 53.70888985189218, 34.75152423402226, 58.73239575997048, 51.63572482390686, 48.33159637944949, 42.24188532190669, 45.47707185514806, 38.621258580839395, 40.83571668089036, 34.24665964802461, 68.10457764030157, 38.45996044733712, 60.69800605130459, 35.45976811186097, 51.459424512319465, 54.75029329212008, 37.35786636839649, 54.45730146666847, 62.51103270785898, 33.74931191247065, 43.935911245503384, 69.87603517482434, 40.373323512086614, 38.63329757257787, 38.15248927507611, 48.504545422871665, 68.39475046932473, 42.8629072364084, 37.60194604696312, 46.05490277760405, 42.25060709485308, 42.488915284438576]</t>
   </si>
   <si>
-    <t>[30.949790049879947, 53.94358725468966, 43.66092007263717, 54.89902656476698, 41.360155511345525, 37.908593060411334, 60.915088830791646, 37.48168702362585, 42.918213385913795, 44.08782525561823, 36.9014465973988, 47.737718589262265, 58.1345238095238, 45.2708387944366, 31.757785996104566, 37.86725391332572, 73.76905643083852, 47.41193115597704, 45.51748862960158, 31.778708044376483, 42.18556280547013, 36.74107142857143, 57.67005407477331, 51.25892429219771, 40.06536958352031, 57.05792548408038, 43.601900590255774, 42.41747701077297, 57.15540597065337, 44.7217340256263, 58.25190806652693, 51.99687048999005, 47.12759060879755, 47.17849364561922, 40.79695742849994, 43.71555386128633, 50.03483762875188, 33.88288647850626, 39.3764093651309, 52.423871287183964, 37.62068965517241, 51.79885984963415, 36.16280280867554, 30.31054504059607, 61.28818876731769, 45.07218509381443, 34.10702309486587, 55.80751425131259, 47.81167372097466, 32.64702511033839]</t>
+    <t>[30.949790049879947, 53.94358725468966, 42.93676881644883, 54.89902656476698, 41.360155511345525, 37.908593060411334, 60.915088830791646, 37.48168702362585, 42.918213385913795, 44.08782525561823, 36.9014465973988, 47.737718589262265, 57.830952380952375, 45.2708387944366, 31.757785996104566, 37.86725391332572, 73.76905643083852, 47.41193115597704, 45.51748862960158, 31.778708044376483, 42.18556280547013, 36.74107142857143, 57.67005407477331, 51.25892429219771, 40.06536958352031, 57.05792548408038, 43.601900590255774, 39.74708889163889, 57.15540597065337, 44.7217340256263, 58.25190806652693, 51.99687048999005, 47.12759060879755, 47.17849364561922, 40.79695742849994, 43.71555386128633, 50.03483762875188, 33.88288647850626, 39.3764093651309, 52.423871287183964, 37.62068965517241, 51.79885984963415, 36.16280280867554, 30.31054504059607, 61.28818876731769, 45.07218509381443, 34.10702309486587, 55.80751425131259, 47.81167372097466, 32.64702511033839]</t>
   </si>
   <si>
     <t>[32.71692994033591, 45.277672687658885, 57.07563810741031, 53.01738113018895, 37.51085308742355, 40.503785731251966, 41.201602087680094, 43.09120906389761, 46.42917233696421, 42.41636247336423, 39.89682841700344, 39.96312279287485, 59.536317579794506, 41.33125878818755, 32.43989559665003, 33.23700641875425, 52.12546342382489, 47.26219555693824, 45.171169490065054, 34.00393477199583, 48.88266750425008, 35.357060558726495, 56.13249450621707, 44.487875362947385, 42.27108514025044, 37.64333532013433, 47.67298931127546, 38.162669858484946, 58.35406770285918, 41.82805751640977, 50.49094689855733, 35.5509140973821, 43.18960353531839, 43.94403237092342, 46.47654163434588, 47.598181954518594, 60.645819779055955, 41.16208058106147, 37.93704640039833, 56.3837233301363, 36.59360107149066, 51.33674033503074, 27.450605493286837, 50.03783905334127, 54.26389947606612, 37.92823532941932, 38.83241164813969, 49.42663790394915, 45.420345969098776, 43.00693503269662]</t>
   </si>
   <si>
-    <t>[33.387725883678364, 48.69020488406916, 54.17834306412686, 52.04747613427254, 39.71645067954273, 34.80062190344588, 54.020932530634475, 37.75107590646935, 56.837763532399585, 38.77660491129124, 35.48554791741091, 44.272614158195275, 58.19927148344214, 44.29780099434581, 41.84315541203161, 37.62973097307332, 63.90618640154968, 46.16632319440971, 48.007659912333644, 35.357798282551855, 51.72868184648817, 41.00526322560433, 48.23271385578449, 48.40015727396719, 45.22105598392326, 43.89978698985902, 42.38714258521319, 41.50427879526706, 66.06327637676046, 35.48649918063086, 52.09347559627258, 38.84711991422852, 45.16277642967827, 53.148055696626386, 38.81330220340481, 45.702338856124264, 51.28751802744524, 36.07221000627432, 40.173712765431866, 56.71618656897365, 38.94815258416285, 48.99728168136592, 35.361136661780975, 33.724462265909374, 58.7649621365572, 45.80727043212242, 40.40653833544275, 48.30675880026104, 45.90053617620591, 36.23248739882352]</t>
+    <t>[32.735988207709845, 49.81623791045028, 51.77765604559777, 53.550537556134316, 39.32622411859794, 36.163441975825386, 53.592516801209364, 39.908950216611444, 52.88101208370332, 39.87475696722918, 37.975866313012325, 41.80900673558137, 56.6600947768733, 46.42406173875075, 40.32984718391172, 36.66659165651746, 63.26961016588048, 45.75347296652705, 50.10086939538638, 36.93135123745733, 53.92334449355692, 39.81239644933582, 48.195198982653665, 45.14096290598229, 48.05592832874588, 44.10040952419612, 42.607590565111586, 43.24326941793275, 69.48133864529703, 35.79164297318471, 52.254542976847084, 41.81508888735908, 42.562989673173334, 53.84597050559732, 34.80086316856045, 46.03647958387796, 50.447370401821686, 39.61364427496833, 38.16847855908244, 57.988651382770264, 41.392623419981916, 47.76502897632873, 35.2976158027128, 37.22283185059867, 59.81475872291376, 48.188690662167495, 39.69859544030412, 46.7351749177257, 46.73218239624053, 38.38360259192943]</t>
   </si>
   <si>
     <t>[28.31050997766955, 45.138319969177246, 54.903159740992955, 55.42656653267996, 35.71414756774902, 29.87648291423403, 52.794088636125835, 39.02552133287702, 50.739259651729036, 39.37007059369768, 35.69924614347261, 39.58943149021694, 52.10421801975796, 39.444122655051096, 38.52116107940674, 30.46526889143319, 57.312741143362864, 43.890765871320454, 45.54725408554077, 29.700650031226022, 47.77431642598119, 32.74421146937779, 45.780821196522034, 49.94813128880092, 42.748562404087615, 46.26833027806775, 35.64582279750279, 42.649198804582866, 52.381469930921284, 30.11851141793387, 61.18683571651064, 34.182567732674734, 40.06788553510393, 50.051291031496866, 33.78071588788713, 47.12138011537749, 41.65352270943778, 39.191762515476775, 31.291547502790177, 51.75574002947126, 43.62371984021417, 43.149578312465124, 32.056194986615864, 32.328321729387554, 45.52719020843506, 46.48591094181455, 46.064114570617676, 48.38441514968872, 35.548828669956755, 34.595536313738144]</t>
@@ -841,13 +841,13 @@
     <t>[42.25871150908605, 44.19667214480179, 43.380098537068, 50.427938669653486, 41.2727637051139, 47.99707992260188, 35.719306160585724, 51.41911168120479, 46.51423811224855, 38.250574481847096, 42.923695446250164, 41.83903183999558, 46.02251067843952, 51.24964501097205, 35.54572315933702, 34.74423498101432, 52.36086574810023, 46.35849702101301, 38.1910869683461, 35.34653925809885, 51.238786117526864, 38.01019624591832, 41.774263154206814, 54.30603008378551, 36.685821150046, 48.079912100320456, 43.63528685058569, 38.34981410333733, 55.7940930312673, 42.457424227628636, 50.87753057770947, 45.794232179552374, 35.9513497947529, 55.450600151174285, 34.54142056853566, 47.702016803700865, 57.87477523606213, 35.20061826496801, 44.489652950774534, 43.00446303675666, 28.538632030964624, 54.40836169957769, 33.7647877551682, 41.87891664933496, 44.95756947184496, 34.876426651965474, 48.54435805805237, 49.3922017762582, 44.044021685977896, 55.23302248096237]</t>
   </si>
   <si>
-    <t>[35.1229749516196, 51.72023809523809, 46.146016755352164, 40.51379055267445, 41.982142857142854, 35.53038051517572, 47.339285714285715, 45.16428571428571, 41.201930813015046, 59.54243574933002, 43.7128761499463, 52.919642857142854, 52.07946428571428, 43.8125, 36.90091425406119, 38.03838211011321, 54.017857142857146, 42.30202356402856, 50.05330970122139, 37.758908633916654, 43.245951616338566, 35.875, 58.58162481305162, 50.7020441971067, 42.719678278056335, 59.695632594821305, 49.909523809523805, 34.56350889234191, 51.25, 41.12625384790009, 42.58585523497692, 50.39721008262774, 38.77675853638393, 48.05233677923437, 37.96829579375409, 43.479775065678375, 47.540046246123474, 44.16944287594412, 40.092386817714264, 55.18571428571429, 38.84274117824241, 52.18420176841078, 45.49434805418223, 43.39107142857143, 51.386904761904766, 41.897629625162566, 45.598214285714285, 56.75455515684268, 45.706186868996234, 41.399869577243514]</t>
+    <t>[35.1229749516196, 51.72023809523809, 46.146016755352164, 40.51379055267445, 41.982142857142854, 35.53038051517572, 47.339285714285715, 45.16428571428571, 41.201930813015046, 44.426785714285714, 43.7128761499463, 52.919642857142854, 52.07946428571428, 43.8125, 36.90091425406119, 38.03838211011321, 54.017857142857146, 42.30202356402856, 50.05330970122139, 37.758908633916654, 43.245951616338566, 35.875, 58.58162481305162, 50.7020441971067, 42.719678278056335, 59.695632594821305, 49.909523809523805, 34.56350889234191, 51.25, 41.12625384790009, 42.58585523497692, 50.39721008262774, 38.77675853638393, 48.05233677923437, 37.96829579375409, 43.479775065678375, 47.540046246123474, 44.16944287594412, 40.092386817714264, 55.18571428571429, 38.84274117824241, 52.18420176841078, 45.49434805418223, 43.39107142857143, 51.386904761904766, 41.897629625162566, 45.598214285714285, 56.75455515684268, 45.706186868996234, 41.399869577243514]</t>
   </si>
   <si>
     <t>[33.27390584547919, 42.99610519988088, 43.73230344116972, 50.37332269547584, 37.17937293425503, 36.23066853209325, 36.25802961418106, 46.33654590060142, 46.164918574174536, 41.796414359058716, 36.755232156342146, 33.53725935714862, 40.863881570329134, 46.935343084039744, 33.613924814459416, 30.421568667869593, 50.43252699463568, 39.629364343773396, 40.57489311122689, 34.31268731362275, 44.643499740230126, 33.49130761108422, 41.89526066101411, 49.38816029561102, 28.621035217210913, 46.02636824517907, 40.311217900391, 36.858481339721244, 43.909488441177004, 38.715252849900544, 41.01988356214751, 37.71342024992048, 32.29873714578801, 46.06703605182654, 33.193447598136125, 40.84732060492136, 55.447933433438116, 29.59251533943445, 43.98811081980721, 40.86323769349018, 26.515229695097474, 50.1005570618913, 29.80360473378115, 34.720135587813054, 36.95901018961077, 35.56334971635983, 37.66624767152867, 46.41358554067937, 36.45199370080688, 48.44265082399466]</t>
   </si>
   <si>
-    <t>[34.664093995959476, 48.16909660785148, 49.79855556454759, 45.75679807655966, 44.46557845850675, 35.09931880633682, 49.09866723736776, 42.40622061944708, 52.33551873914725, 41.80415543880654, 35.27906697585239, 41.848744263461356, 57.735520164421644, 48.892282004504466, 38.69512590369287, 39.4180044804391, 64.49282201313478, 40.21350906556918, 46.89849949382942, 34.98535127913986, 46.92329869836952, 39.27180289399545, 54.40051272210945, 49.3769936550159, 47.22535042231249, 46.147733742080725, 44.33907355969945, 41.70172641322994, 65.17021258928867, 42.62798790317992, 49.68225433210488, 40.17904849293963, 42.067387040930385, 56.861837666991015, 34.185732216291974, 48.575200002724465, 47.539915378732374, 37.15779012339866, 42.68282950733515, 54.65210328586718, 38.489982583039186, 46.5761529077781, 42.40004921741227, 36.76495000764822, 58.117486016096755, 46.10853676368384, 41.20330113095139, 52.55783009731941, 46.53163227074367, 33.735615664567554]</t>
+    <t>[33.25037378450007, 47.502403573001764, 48.64331706209851, 48.385674191738985, 40.84642226051195, 36.87491995609845, 50.39686033108344, 51.830211628919876, 52.787193255013065, 40.73418291834904, 38.116710853172506, 42.919361195478096, 57.11064074493079, 47.78772076517706, 39.312347097768175, 42.12115127657131, 65.8832296221418, 41.07538812183452, 47.7891940261664, 34.02482308560504, 50.15334637911105, 38.76113941270937, 53.474211989994345, 49.81178832232016, 49.150767977541086, 49.221665390988235, 42.227342961273415, 43.943425595822205, 65.75601493885124, 38.95579573144096, 50.6532550425645, 46.90851389372617, 40.87055823353382, 55.43468052601913, 38.491140723155546, 48.2755089106343, 47.35982710065529, 40.57567354880291, 42.43745772895469, 53.09677787886791, 39.870205911006785, 47.53039665968411, 43.06332102839825, 41.0256950306674, 59.16587158594611, 47.257920045225404, 43.62693236487683, 53.703741179109365, 45.28135798111348, 32.632185273777864]</t>
   </si>
   <si>
     <t>[20.874336130660154, 39.76488140651158, 40.14061143057687, 47.12427038805826, 36.813188144138884, 31.189787272749275, 45.82265417916434, 40.63941157204764, 35.38914353506906, 37.46900272369385, 31.114895261567213, 40.24926444462368, 54.28750046321324, 42.591656412397114, 27.50501755305699, 30.184267866200415, 48.4849910736084, 37.68227236611502, 33.858672278267996, 32.76365762438093, 37.94152319020238, 29.183394023350306, 45.95744339397975, 43.51814678737095, 45.68973854609898, 53.878797070733434, 29.132691519601003, 37.16322708129883, 53.74583748408726, 35.77608784266881, 42.31092216228617, 33.30082062312535, 34.76953778948103, 42.429783957345144, 32.40949621881757, 47.483510905298694, 41.1944764818464, 30.79850482940674, 36.154709219932556, 42.27479008265904, 41.764521796127845, 31.94753897530692, 41.75286306653704, 30.043047496250697, 46.489078521728516, 32.93029331338817, 40.29329899379185, 48.58296462467739, 39.64525975499834, 30.79555094582694]</t>
@@ -865,13 +865,13 @@
     <t>[30.584212467456616, 45.52453224575988, 54.65134281511882, 60.353665209239985, 35.904956273043446, 37.74600633993223, 41.340646581034726, 40.64383449834959, 49.9127778678132, 40.97555440119131, 41.20628327608868, 42.592579246456424, 50.769759926311494, 47.86292862884965, 34.92644790098069, 44.236192857214355, 58.49104139245769, 40.537899662630046, 52.184118411113204, 43.6968332208693, 48.37606932706053, 34.29459236461558, 53.26576227032083, 46.53028430519138, 38.57852960583455, 42.58963119607674, 46.58944818364868, 38.64780752778762, 74.8961869530866, 38.15983085094615, 51.19853632164925, 40.88329612330101, 37.21211265981345, 52.54281791410889, 37.353747560029205, 45.61683166418689, 65.17153219306311, 38.54700832403522, 38.49387616357621, 51.40089624415588, 37.77461539303773, 48.58778452266846, 32.08445797998772, 38.39587872225469, 49.16153278648256, 36.398663353045, 46.95568221148797, 45.408106328684234, 51.423479486299016, 46.51374973401194]</t>
   </si>
   <si>
-    <t>[28.523158318951953, 48.668452587350075, 53.318327465803, 51.183923724120426, 45.215390563996934, 35.66670186155589, 51.415134320846775, 44.603425998703855, 52.30707801489223, 38.0545108460859, 39.64856640863438, 41.914571056025466, 58.27816304908059, 54.76869171345582, 38.714549030388625, 42.15775107915273, 60.88614600152197, 41.70689366207279, 50.246333315979435, 41.98454034048931, 51.61826104527262, 39.00677939420369, 48.204828611122785, 44.48830824249848, 50.18429083977893, 46.58171686730338, 44.264429541772884, 43.28528584231931, 68.428907434337, 38.95447042964282, 51.18936819125218, 43.57981187408951, 42.56156331626846, 52.118322382659485, 36.95312576901394, 46.87650582341584, 51.68677292230475, 37.84387935685851, 44.91689891959457, 57.812244766515995, 39.01053173983897, 55.32160358661796, 35.91997344534028, 38.3322981694425, 58.71377321744904, 48.49874518328922, 40.451211700875376, 52.58608912890677, 46.06545995744017, 37.806095331942394]</t>
+    <t>[30.462148368940902, 47.87651878815792, 51.55541998627592, 51.70230311137469, 43.32552174791205, 37.17428498546253, 50.50098754793134, 44.18747043752014, 53.80860617771945, 36.5720255282721, 35.14319832683496, 42.115639326350845, 53.58130113826012, 48.55713355535789, 39.22468025562034, 43.128782141466324, 63.54495068562052, 42.38640778895802, 46.40016704487082, 37.75892990999633, 49.545971147267686, 37.36607376344548, 48.4472462028262, 41.9340961467425, 46.07618794338217, 41.6140443748808, 41.957996440339066, 41.908183372742165, 68.2586965159302, 36.330902054587256, 50.653103445903845, 45.2875767544439, 41.702325063356554, 52.165070737884776, 38.81448136298087, 45.92228123408924, 49.20079491374269, 37.71687611702238, 46.122466900205104, 56.828618051014814, 38.621029843028346, 51.457587201115636, 38.626545940597694, 37.13473148133596, 55.69468330459058, 46.98649370378745, 40.57355165429788, 51.12195009995834, 45.43268549422498, 36.578664973013254]</t>
   </si>
   <si>
     <t>[21.605188830145472, 44.76345252990723, 44.80083743504115, 57.0080862896783, 45.34496252877371, 32.334053997335765, 49.94963155473982, 42.322390695980616, 41.51645851135254, 35.268760681152344, 37.10469745767528, 34.92077655451639, 49.64833619253976, 38.591754640851704, 35.99238749912807, 30.443077087402344, 51.14812428610666, 36.243271827697754, 45.854234899793354, 30.082877588272094, 50.930828390450316, 33.35069615500314, 43.453715276718135, 41.35227993556431, 37.45069476536342, 51.33716629291403, 33.41253662109375, 38.01003616196768, 45.397166524614605, 29.312449645996093, 37.14897155761719, 37.0246958051409, 37.18719673156738, 46.59600532054901, 34.043276160103936, 44.25203014242238, 45.19389062608991, 43.5833420072283, 38.188220888376236, 40.76770823342459, 36.17905794340989, 56.012464441571915, 41.945115089416504, 28.854241371154785, 39.05395466940744, 39.04784182844491, 37.40933336530413, 46.44129882540022, 40.72882959459509, 43.801957150868006]</t>
   </si>
   <si>
-    <t>[32.843659839265186, 49.14790579091472, 50.036774309176614, 71.91322187901888, 55.14896410222598, 47.05880722495547, 59.1738477164189, 55.67485836451237, 56.274114281323726, 49.60628270153716, 45.79692208771897, 54.685033074649084, 64.57239740046099, 71.44460744756432, 51.61062186496185, 43.973760281363475, 71.90225368397343, 47.91694409114637, 60.17641445711721, 46.59243540884459, 70.67903513315025, 48.741164784277665, 57.76691491341172, 54.3033198934515, 70.2374666083277, 48.67177446991492, 54.8870792700783, 52.360036398774014, 68.93049811816739, 48.786586092112216, 59.561455044619784, 51.17418505022191, 53.8421705839054, 61.054592006067715, 49.51793975863516, 65.6205845350435, 74.98886386644155, 51.72838809841283, 49.6282164802005, 58.89782160972792, 48.221361218482954, 73.63114480811622, 41.078576087270584, 40.36178115475476, 64.26976843589422, 48.157360518382184, 66.24985033665054, 61.54974734311889, 51.23638088602585, 48.419960834081444]</t>
+    <t>[32.843659839265186, 49.14790579091472, 50.036774309176614, 71.91322187901888, 55.14896410222598, 47.05880722495547, 59.1738477164189, 55.67485836451237, 56.274114281323726, 49.60628270153716, 45.79692208771897, 54.685033074649084, 64.57239740046099, 71.44460744756456, 51.61062186496185, 43.973760281363475, 71.90225368397343, 47.91694409114637, 60.17641445711721, 46.59243540884459, 70.67903513315025, 48.741164784277665, 57.76691491341172, 54.3033198934515, 70.2374666083277, 48.67177446991492, 54.8870792700783, 52.360036398774014, 68.93049811816739, 48.786586092112216, 59.561455044619784, 51.17418505022191, 53.8421705839054, 61.054592006067715, 49.51793975863516, 65.6205845350435, 74.98886386644155, 51.72838809841283, 49.6282164802005, 58.89782160972761, 48.221361218482954, 73.63114480811622, 41.078576087270584, 40.36178115475476, 64.26976843589422, 48.157360518382184, 66.24985033665054, 61.54974734311889, 51.23638088602585, 48.419960834081444]</t>
   </si>
   <si>
     <t>[25.84847163303439, 38.960821389764696, 64.61365415636566, 64.3045759548029, 42.27593049504877, 33.44188404954133, 42.93544090478825, 43.293904189895606, 55.669653065949284, 44.38729524644139, 37.89022552692892, 41.1180267406994, 57.67568133176986, 46.65157342134107, 36.72815413455828, 32.549870972322566, 49.96332275989501, 46.51800670971498, 49.931537562538324, 34.17604703507632, 39.175164000995714, 46.722549922849446, 48.67761269369477, 40.42178727846457, 45.41112276741777, 53.35763659634565, 44.56318363592453, 47.67929865339998, 66.77218789432239, 30.40125587681572, 63.53319568165012, 38.56933389580373, 49.609574954658555, 52.03828998985981, 39.20232787106665, 50.389023246266305, 47.470551446681725, 33.858053685103606, 35.54084666171496, 47.46559365262692, 43.55887380493379, 44.61430145287784, 44.20712409121587, 37.824297067647294, 50.66273908111283, 34.807949501676184, 37.75727533542585, 46.66154114343534, 51.598936856914015, 37.42375846203363]</t>
@@ -883,7 +883,7 @@
     <t>[25.9975942418993, 44.079977461688244, 55.34391845070143, 56.99888474018946, 41.0002152550585, 32.17656441681696, 39.9418842977651, 43.25410191596172, 51.82879515284203, 45.08293114417218, 42.92035893514215, 37.67134609575661, 50.359615712741515, 43.450447904069236, 35.11056580959053, 41.753268547581804, 51.435128869432155, 47.435804845380176, 46.181763468994674, 37.155329499106905, 53.75805170499863, 34.31607530835264, 55.17250015949638, 34.16324178336712, 47.370729289049564, 42.28843728533049, 42.32939677980751, 40.80567843337538, 58.24346420201251, 33.906718419826156, 53.801336251287694, 42.090114169175116, 37.041233661821984, 44.71761249730649, 40.98721618489947, 47.29289336131885, 49.4952387773808, 35.81840640596641, 39.29272404903507, 52.716024132258724, 38.37995860229936, 46.57843343066311, 38.308907467853594, 35.375820110996024, 49.355708882580394, 34.231549507407905, 39.346855691671486, 46.837141416144355, 52.94748989187516, 47.013735502748936]</t>
   </si>
   <si>
-    <t>[29.28971651862457, 45.4963962003079, 41.779915075604194, 49.25254730302638, 35.614832721223415, 27.178805763376225, 48.585682472126905, 37.096087413203, 51.362280975989016, 36.0376492842223, 38.149974960013154, 40.348508295585816, 47.18309714535247, 43.05638643953848, 36.5687608041469, 42.95489291614823, 52.46958183842886, 34.590288104431366, 44.2359684073808, 37.5798905858702, 41.14746544490702, 34.60007066825117, 48.34898098995859, 37.28852756585927, 41.03240637716863, 43.674155455989094, 39.588457395099795, 32.71964390459395, 67.79018250290144, 42.52701593328281, 36.11964102495276, 38.998822164424055, 42.83615028905497, 53.98471341933975, 35.06467941266464, 45.038620223863994, 45.83774632269463, 34.91312853425104, 34.35477943548029, 47.69293236937206, 37.34106315149283, 43.46954600306695, 38.56349043627966, 33.287115746039184, 50.549427338018155, 41.372861200675125, 40.011638141603726, 48.11111612362236, 49.70053058562507, 39.099302652441864]</t>
+    <t>[30.467299994856567, 43.268075500173985, 43.70824829222806, 49.166933463884256, 35.75587132758585, 28.37393111411562, 52.047108045012656, 38.72579708233535, 54.025681777161765, 37.45544559932348, 38.73407284524272, 42.59870112985453, 48.900838352501935, 41.83222748563172, 35.441717901442686, 43.074732850902386, 53.06163082000587, 36.970934974100466, 43.66716206502016, 38.10598759926894, 41.89620633459798, 33.98106182463582, 48.02027811825818, 39.033021975436824, 43.89848207647493, 45.20293646186643, 39.91508866558432, 33.51587830643462, 65.86197457467192, 44.32783351877499, 39.25890769859506, 38.48644854970667, 43.53237665303514, 54.93655112146852, 34.682893787984696, 46.56800119468465, 44.72534136897644, 35.445549621993834, 34.03517190236713, 46.32154892110863, 35.2248019206769, 41.02652948196804, 37.169127663687355, 31.42018935236918, 52.48476876809945, 44.10447237175826, 38.37887875607121, 48.02166046856113, 49.41549781092671, 37.55043026602767]</t>
   </si>
   <si>
     <t>[29.335870085091425, 38.652179854256765, 41.448517036437984, 43.11461135319301, 33.949319294520784, 26.670046641908844, 47.54254606791905, 36.58091076442174, 49.85549899509975, 28.16922582898821, 47.23198864377778, 45.01611764090402, 45.72351824896676, 38.005786078316824, 31.172164576394216, 34.773578249174975, 47.29977989196777, 37.309599195207866, 41.12513308865683, 32.56598984854562, 39.63740263314083, 36.02449526105608, 53.12835040773665, 37.32548904418945, 40.55551150866917, 47.74328748111067, 32.866132736206055, 31.625802040100098, 55.227247510637554, 36.69879744393485, 40.330043069247544, 39.361819812229704, 44.07759966169085, 52.394553320748464, 35.06311835220882, 51.22806956850249, 45.28126935958863, 34.680504322052, 31.483849151858262, 43.90333230154855, 32.17105405084018, 34.816483415876114, 45.8680294581822, 24.178356851850236, 48.74810777391706, 35.793066945569265, 38.325696400233674, 40.50218037196568, 46.471209457942415, 46.33212520054409]</t>
@@ -901,7 +901,7 @@
     <t>[39.636459874941366, 48.743940958763844, 61.254490332655045, 56.74048536397464, 37.94390473417826, 42.86206196730468, 41.70454225432421, 39.259927414618815, 55.19981626687154, 45.1931351056242, 38.85107210096624, 44.19678464911523, 56.31617421353242, 44.29973792964768, 33.30080583129371, 33.4215084076344, 56.706541043023854, 42.731008008098065, 44.899501254167205, 34.01144414175068, 59.301285184558154, 45.44695671253203, 56.03239187019961, 40.8248301334561, 46.16799779081595, 38.23628770057615, 45.629728378382104, 44.24630265806128, 58.51604362574579, 41.301124561868676, 58.715320495183434, 36.67893038043804, 43.48200802477809, 44.91981336277515, 42.376634093383004, 45.59969323854983, 57.517145547519554, 39.65845114979725, 35.28916289602159, 55.813012970498576, 35.968697861340935, 48.600425727205355, 28.351460482843883, 40.75167625089205, 62.612518898642314, 36.53171157245536, 36.872528650586936, 54.588414817022326, 47.81169544194045, 40.199442567305134]</t>
   </si>
   <si>
-    <t>[31.043227027778013, 49.64500365839918, 51.40013842099927, 55.49888137600401, 41.519677381650865, 35.77965693166587, 53.17251003460704, 42.06042238202054, 57.378939757312956, 38.3013803117129, 36.479035183918135, 41.94927436656243, 59.07699296330615, 45.94410249274427, 39.692304067863596, 39.684190131622564, 61.17447375960779, 41.90169613901964, 50.68612481044249, 32.771726404803, 48.822235577653935, 42.91971681606575, 49.36563291767992, 43.607966262522915, 47.958446285339754, 46.30861815351236, 43.29502930257183, 42.63164870885905, 69.95380873997479, 39.32127722712026, 48.58085045371697, 41.80975373353403, 44.188649136048646, 53.38055018450145, 38.00518163969456, 48.190926625623106, 46.12685631194739, 38.174796134772414, 42.193222091735414, 56.961554414041565, 40.78532074604279, 44.67937062368262, 35.57517141353282, 39.543883732522524, 59.465648936803575, 46.265102242971835, 39.523474956900266, 50.86245667403737, 45.57709488121299, 32.63217336048552]</t>
+    <t>[32.32218942321286, 49.68143227338861, 53.454393785856205, 54.75270374531217, 41.47402712617153, 35.863753798381495, 50.994983981341896, 41.06003963859299, 54.71918079804796, 37.77653162709313, 39.39651899844543, 43.54399872292381, 57.59835633236058, 44.74299433680866, 42.39176063532609, 38.072334386065656, 63.53847959778598, 42.76843354274855, 49.55306453520116, 35.79206685882933, 48.85358840624942, 42.50368829573212, 48.31974303515784, 40.87223582729684, 44.04360215164917, 47.12753246777696, 46.541724920981615, 42.95960945465621, 69.47515835954111, 35.674028339143554, 51.162903791170706, 45.26717900816561, 41.83989761905285, 53.75059797658235, 37.37919663083181, 45.749585539546324, 48.173782535004406, 36.42721158843789, 43.9268093703161, 59.04709299052271, 39.448197209720114, 46.04371843063261, 33.93198180603274, 38.10829817653655, 58.009746695562384, 46.57484302496017, 41.53789955511882, 51.508569802303086, 50.91924044027139, 37.28079612857481]</t>
   </si>
   <si>
     <t>[23.45898411191743, 38.47161538260324, 48.94754537854875, 51.17322371261461, 33.471628189086914, 37.22649567702721, 52.54162557848862, 36.92439618791853, 42.95569092886789, 41.81076867239816, 30.41934190947434, 37.209085600716726, 45.436956306866236, 36.38339751107352, 33.142225061144146, 29.269556308614796, 60.33376393999372, 37.75201416015625, 41.381193910326274, 30.3013929775783, 41.238048816549366, 28.7927188873291, 48.97746568407331, 40.53119250706264, 41.65592411586216, 42.68070352488551, 49.06811022758484, 34.87399155753, 54.779632159641814, 33.013210787091936, 52.19965178391029, 39.761053630283904, 38.72791290283203, 50.05647737639291, 29.368245724269322, 42.06351234172953, 36.5717148917062, 41.2179273877825, 32.96196705954416, 58.609441552843364, 39.2049859145592, 38.2945941380092, 46.09453705378941, 27.561511993408203, 43.486879757472444, 43.43814488114982, 37.5619021824428, 44.34464154924665, 41.09868948800223, 31.40662760053362]</t>
@@ -913,13 +913,13 @@
     <t>[32.41939338445257, 41.226322265698684, 46.999558902238846, 54.63307059799964, 39.39518790453907, 36.06467471233065, 47.659172461125955, 47.575757684902406, 45.390840720689184, 35.36287118442651, 44.63488926338172, 39.841538020178504, 44.332114863012144, 38.4569205840132, 43.58457965270136, 30.45247833127199, 53.48169657777934, 40.509415118053376, 41.25622968606175, 33.27065312861222, 47.763688015455486, 35.95388806899843, 40.365371706451484, 51.07022942017544, 38.25841031293852, 48.86118685939913, 38.623244415397025, 40.12651695529348, 51.73786172486094, 39.06886858883892, 48.32003195993984, 44.418785852917736, 32.12970675780621, 50.95202334889096, 22.50376495301668, 36.62273880748408, 54.89802710740965, 33.93385961195976, 39.24758900667309, 36.9221532314051, 28.55518309864946, 45.26241100198678, 35.07997708468039, 39.37119491337598, 39.23349873279195, 34.91206568329603, 45.364337731273864, 48.853839962739585, 41.55959604376638, 47.10769190947623]</t>
   </si>
   <si>
-    <t>[42.491379310344826, 51.40357142857143, 46.6124369404422, 51.49203702825196, 43.87788766387939, 43.35344827586207, 46.535714285714285, 43.532274618830456, 44.17691180562916, 44.57857142857143, 47.24273876126235, 37.9160647092445, 51.387499999999996, 50.71428571428572, 37.09928571428571, 35.78221212620438, 56.34017888276768, 42.18912331561204, 43.88417457465943, 31.5891000136853, 45.603616849999604, 36.705357142857146, 56.199999999999996, 42.410141967608865, 35.47239229552023, 55.89655172413793, 46.24693591571128, 38.80541384652779, 64.7384044209064, 42.69166919639647, 51.071847288775736, 46.160714285714285, 37.857142857142854, 37.585663585789085, 34.7625, 45.724137931034484, 51.35697408653234, 48.852645838485486, 42.30923314301139, 44.48479844407773, 35.662183844321085, 39.800757543413944, 46.499501876812374, 43.03035714285714, 50.17857142857143, 40.85344827586207, 35.78768037640619, 55.74428514817306, 42.13611427783512, 48.785058792740806]</t>
+    <t>[42.491379310344826, 51.40357142857143, 46.6124369404422, 51.49203702825196, 43.87788766387939, 43.35344827586207, 46.535714285714285, 43.532274618830456, 44.17691180562916, 44.57857142857143, 47.24273876126235, 37.9160647092445, 51.387499999999996, 50.71428571428572, 37.09928571428571, 35.78221212620438, 56.34017888276768, 42.18912331561204, 43.88417457465943, 31.5891000136853, 45.603616849999604, 36.705357142857146, 56.199999999999996, 42.410141967608865, 35.47239229552023, 55.89655172413793, 46.24693591571128, 38.80541384652779, 64.7384044209064, 42.69166919639647, 51.071847288775736, 46.160714285714285, 37.857142857142854, 37.585663585789085, 34.7625, 45.724137931034484, 51.35697408653234, 39.62284433671797, 42.30923314301139, 44.48479844407773, 35.662183844321085, 39.800757543413944, 46.499501876812374, 43.03035714285714, 50.17857142857143, 40.85344827586207, 35.78768037640619, 55.74428514817306, 42.13611427783512, 48.785058792740806]</t>
   </si>
   <si>
     <t>[32.738369366126385, 45.00891283465978, 46.44287246395167, 49.567753099129604, 29.505529904614782, 31.04436300039535, 41.32769248359979, 44.241445318821704, 39.9935653625427, 36.57561586499354, 39.59494193420735, 29.242450848423402, 42.542636944694245, 47.59884991552246, 31.260639454726658, 26.804856868811274, 42.70555004549696, 42.80744743130077, 42.36872781628342, 33.24923713394811, 42.86764583621794, 28.13073710237528, 41.39229837189837, 50.81764632755142, 42.732366195018635, 42.165513547377955, 39.13608403287445, 33.400916743299774, 56.88766174918565, 41.23655559437909, 46.63977072005595, 36.67931743748289, 31.66834039315599, 47.939154100882924, 29.205597243061682, 38.643121841933954, 53.47950391097918, 34.10616603068562, 42.42336601107841, 37.11711759614028, 34.19729283414426, 49.718051637651016, 30.459414659902702, 34.302333639768676, 38.452068775023584, 34.01511103418663, 33.46533525150716, 45.47900052222423, 37.36122633203248, 51.079315657657226]</t>
   </si>
   <si>
-    <t>[36.32834177982973, 45.52207012294716, 47.79027907295485, 45.43369073702672, 39.27969293752828, 32.03778483679501, 50.55283750505537, 39.764677660306425, 50.82266208527478, 38.06917410543928, 35.96598510761397, 42.78566821726317, 55.48961446903622, 48.91640547217135, 37.301844211666904, 38.69696538258687, 59.1543885508332, 38.73441316857377, 46.63765257206871, 32.599913300574656, 44.82068848308516, 40.83388791298567, 51.72057212942914, 40.964604042930624, 45.270442167305774, 47.154289312215056, 37.55084199410455, 42.90009252499302, 71.60416914143889, 43.182410896762704, 51.47919765442913, 39.465925327617164, 38.94031975421933, 49.78886693087361, 34.021456295220496, 47.836377874210406, 46.31129574762179, 36.06238350564982, 42.384635890225105, 52.13276247475339, 39.28311550827678, 43.89264191342738, 37.81990232553246, 42.37588929323387, 54.79755414402977, 48.994820797964, 40.06806245141949, 50.62236735874963, 47.260365838459926, 32.01946397537306]</t>
+    <t>[36.37167621857717, 44.622030809091704, 52.51613632123394, 47.638342994249015, 37.219054056059804, 31.498601361757412, 50.20850680448127, 37.95937833123532, 49.36744029888556, 40.38254820919536, 37.55940612384179, 40.92302321995908, 55.90947346656448, 42.727465447257266, 38.97913113803603, 38.81014056912376, 59.07106793809431, 40.05817004688949, 49.39258319600888, 34.09317217442452, 45.115417450164564, 38.29531270667997, 49.99948272426899, 42.65460131091254, 41.783970361058024, 46.50942774343667, 37.270935416822645, 42.91062861267432, 69.14882301932354, 41.87854650755727, 46.46578632558018, 40.45651750503712, 39.03170573609032, 55.963617336811524, 33.82581726265854, 47.17951369772591, 45.989191380924936, 34.09229598841757, 39.55902145119934, 48.50897629619343, 38.92186799606514, 43.17197362386218, 37.68038769924341, 39.446897429340574, 54.12199763945653, 42.44510263884185, 41.63708086693681, 48.710370673160305, 49.73184414290466, 32.38319802642509]</t>
   </si>
   <si>
     <t>[34.82537042683568, 44.76265212467739, 44.31717156001499, 45.42714541299002, 37.409180232456755, 26.12014310113315, 43.094238008771626, 40.270058441162114, 38.29426520211356, 38.93673488071987, 37.20782628552667, 33.94123050144741, 58.31778473172869, 39.99974530083792, 32.09006609235491, 29.16113932379361, 48.378675256456646, 43.16397067478725, 43.34857600075858, 33.04951281547547, 42.24865643731479, 36.91211346217564, 55.346745402472365, 38.778327396937776, 31.087897981916154, 49.08409118652344, 30.22170271192278, 36.91446794782366, 49.84109892163958, 33.93835035051618, 41.667324789639174, 37.7035402570452, 29.615200178963796, 42.02451392582485, 30.138045365469797, 42.369258288679454, 44.90524790627616, 35.23971217019217, 42.824783665793284, 49.11835265159607, 35.050323157474914, 40.536931255885534, 38.44216087886265, 38.42615836007254, 46.88362298692976, 31.620234349678302, 40.305884633745464, 46.5478960445949, 39.54044382912772, 37.1805029460362]</t>
@@ -931,13 +931,13 @@
     <t>[37.19482924156552, 39.128275855537446, 43.24427139088515, 60.974506351564195, 30.14137289054204, 32.072846459853764, 42.48056676897044, 39.62884897560487, 44.12974332728258, 49.88162341906138, 36.64166545609292, 41.204792185349234, 59.43749209451648, 38.20025389258247, 33.672142207017366, 31.69939473160378, 49.095446338913355, 34.74885508071771, 37.06794357968214, 43.85800699500218, 41.77186838559621, 44.14885238134569, 46.54992192512299, 45.433662304117014, 45.906959477923124, 41.10884059689222, 32.18094110219464, 29.837818820072414, 67.21923328033427, 33.93099071031721, 59.710451010428564, 38.64678221864773, 42.46497470515787, 56.9004027299934, 32.61614773039026, 41.77508728541391, 60.45341339646935, 30.59469112455857, 38.16033321182114, 52.89706175323617, 37.18811896218048, 44.097916905601025, 52.41620690492789, 24.539283171192388, 46.66492973606502, 39.74636950398, 39.00849745627238, 48.154065803804826, 46.2863511710648, 49.16997941887468]</t>
   </si>
   <si>
-    <t>[38.34888794491547, 56.060714285714276, 53.31006573928321, 55.38690587528114, 31.8125, 34.50629478819507, 54.630194696785495, 35.55219408595965, 41.07266352896675, 39.29320613005143, 44.59183612683971, 38.776839477106286, 40.896428571428565, 46.041422018345266, 34.86966429862785, 38.021580647678626, 58.73818694217845, 34.67993026269459, 44.16498378548301, 31.08901860922268, 54.8220268251131, 36.41505215062517, 59.5257501914929, 50.025775517185956, 38.892857142857146, 56.88421559231077, 39.37393038866505, 39.51788429440734, 59.892356582924855, 36.959130603561526, 51.68720237221561, 46.48188061569084, 31.378404432255575, 47.55041885419199, 43.99969775106979, 45.10639637718099, 50.96751060615118, 47.28409163961059, 44.42056178627371, 49.92318504475141, 39.49695109115531, 44.5929888659438, 42.187780901904354, 35.81578547915397, 46.231088947920576, 41.006053574013684, 39.561287940670404, 51.277618595006416, 48.60457083860464, 31.851085568220437]</t>
+    <t>[38.34888794491547, 56.060714285714276, 53.31006573928321, 55.38690587528114, 31.8125, 34.50629478819507, 54.630194696785495, 35.55219408595965, 41.07266352896675, 39.29320613005143, 44.59183612683971, 38.776839477106286, 40.896428571428565, 46.041422018345266, 34.86966429862785, 38.021580647678626, 58.73818694217845, 34.67993026269459, 44.16498378548301, 31.08901860922268, 54.8220268251131, 36.41505215062517, 59.5257501914929, 50.025775517185956, 38.892857142857146, 56.88421559231077, 39.37393038866505, 39.51788429440734, 59.892356582924855, 36.959130603561526, 51.68720237221561, 46.48188061569084, 31.378404432255575, 47.55041885419199, 43.99969775106979, 45.10639637718099, 50.96751060615118, 46.81167842761841, 44.42056178627371, 49.92318504475141, 39.49695109115531, 44.5929888659438, 42.187780901904354, 35.81578547915397, 46.231088947920576, 41.006053574013684, 39.561287940670404, 51.277618595006416, 48.60457083860464, 31.851085568220437]</t>
   </si>
   <si>
     <t>[29.19547450440588, 42.131933972971716, 54.63949510563715, 52.53737886292874, 33.860920860203755, 30.934909949262273, 44.24640355234531, 45.747439896090945, 45.586015789674356, 38.04284230149673, 47.95908798801327, 34.1297406903589, 49.774549387523834, 43.32417174134048, 29.96602501092404, 38.32626344749092, 47.17557783121644, 40.532525957898024, 42.84088557670376, 38.195222229112055, 44.19883850534263, 31.77432353707588, 53.754501778713355, 43.62878035481423, 41.886132572561124, 38.498458247437334, 40.01986237449854, 38.32415783325515, 53.306324364460124, 37.73589061418196, 51.342864445692534, 39.69299103295739, 36.293573541334126, 44.65917080610637, 37.84754768747568, 42.78577223593644, 69.13504931784739, 38.26127261526974, 38.257857161170605, 48.43180146249789, 36.61991739717296, 43.72902530100965, 31.738961621185783, 35.452094690771325, 49.00195221831546, 39.36892592457335, 43.63308540767549, 41.034654499788886, 40.01688615804303, 47.940613183926644]</t>
   </si>
   <si>
-    <t>[34.37577464435423, 45.56323783605376, 55.02845694893171, 47.19983150661509, 41.102891185298425, 33.235669795004455, 49.73954551435366, 43.408071158769836, 51.13690080463347, 36.30436302928974, 36.41385269358609, 41.829419984668235, 54.68292911742338, 45.62163906013409, 35.52286581299877, 39.3739690998543, 59.006364768111396, 42.675692938258464, 48.18037050176535, 36.26691109771624, 50.58978733907771, 37.628416040749656, 47.566138800966655, 42.79466887922404, 46.02805902559762, 43.040556791437105, 40.366264553026994, 41.822780810401916, 65.76833661710405, 33.91232272344263, 49.38758387392083, 39.53740486041398, 39.34649599919264, 50.21381786950825, 36.22049338070234, 42.223370864452974, 51.97188764325341, 34.870248970682006, 41.00746901063962, 54.41796619382885, 35.93131475786046, 49.3322628505955, 36.68943939476857, 38.657650589681275, 55.66524295498568, 46.13850529420503, 37.44628483277363, 52.10818378590738, 48.48098168391389, 33.88346905810854]</t>
+    <t>[36.361657919893986, 46.37042770435204, 54.13367308046979, 48.29366737055927, 39.547785399680414, 34.44845453979682, 50.56954660499394, 39.43605644410676, 50.719235646713436, 35.02581567511589, 39.21565535484554, 42.07762116626969, 54.276167539808114, 45.03683201632463, 35.114072467112344, 37.96700413019717, 57.89033834444992, 41.90712451385137, 47.97266295797347, 37.41364344668352, 51.45047514151614, 37.23745106853968, 48.06451261158587, 40.93852350913737, 45.638523171691006, 44.262584932887926, 36.689658084569714, 43.381231643146194, 65.08941586367449, 34.094156771033724, 49.33559784001626, 40.32893771314705, 40.354905918780666, 51.95936830024823, 36.1244891192087, 45.462725280219566, 48.80450575724769, 34.89120354013287, 42.98780393334548, 52.05719227513094, 40.0447357092191, 47.393582036161646, 36.460601817956466, 39.514423800140726, 56.36898928757518, 45.80608932356207, 38.420365941974815, 51.22655256211791, 46.53142854109759, 34.360650972281334]</t>
   </si>
   <si>
     <t>[36.17438214400719, 48.570821217128206, 37.661257253374366, 42.07479889052255, 35.083791324070525, 26.246975931627997, 46.45423773356846, 36.12495256832668, 43.37271976470947, 37.73568820953369, 38.031649046930774, 27.250881595270975, 47.900134849548344, 45.46446030480521, 33.84567451477051, 29.317877736584894, 47.31216185433524, 35.909552165440154, 45.10514095851353, 24.354550416128976, 42.67001632164265, 25.059695652553014, 50.260165432521276, 42.07461302621024, 37.12859834943499, 46.23061239308324, 33.65383202689035, 35.37852794783456, 48.24804469517299, 32.33192776271275, 34.84083978061018, 38.817246845790315, 34.11333111354283, 51.447597231183735, 30.782885197230748, 36.53004120136129, 43.376568058558874, 25.95622648511614, 36.184812375477385, 46.53592072214399, 35.046010971069336, 58.95704250165394, 38.29600848470415, 31.256978852408274, 48.665443011692595, 35.24993357165106, 34.81441116333008, 42.45287486485073, 34.03750215257917, 45.639564364297044]</t>
@@ -955,7 +955,7 @@
     <t>[33.52320995704221, 43.299641362525946, 50.88550299413959, 55.90816333089246, 39.36865823717165, 35.780449934527844, 43.19746607942925, 40.75078619454148, 44.55816031123392, 40.03904446775007, 36.43171008495124, 40.38999318795332, 50.686834511406495, 43.378815401270806, 33.556380318054394, 36.98054009356886, 52.96119219296832, 37.27001758601635, 38.27535746606175, 32.78840731725111, 47.37219391816751, 36.044215043502746, 52.20630435127879, 38.50563233860011, 37.56422618038471, 35.38274374426838, 43.531375979613095, 39.57265476363441, 59.88855557046204, 34.3163187866515, 54.40373075435053, 43.3283231130791, 39.926643124231404, 41.688040497727116, 42.548406658525685, 45.137076122439055, 58.7739552581152, 33.469154679771826, 38.91191046817657, 49.77475912395174, 36.6093938546853, 49.61948853215227, 40.27375648738588, 33.169215835044454, 49.50801458065106, 40.93187880799787, 38.930429771601226, 44.520368066195054, 39.743426331899094, 45.92606793604384]</t>
   </si>
   <si>
-    <t>[27.502152080069475, 43.25247775977987, 42.57186622602641, 45.16856087702878, 32.77501104044638, 25.342894066323055, 49.22778268617919, 36.64855877655127, 49.99670528743086, 33.667075884459436, 38.92150592544044, 37.63205129743841, 49.36326890659619, 40.71613153166674, 29.939691357439326, 38.598219558857124, 48.73489963696244, 33.32775049382916, 42.82616719669541, 35.660684476139465, 42.63443963239385, 30.86772618769216, 44.291531754349386, 39.11211821173014, 41.92470579063336, 45.22227601978129, 37.608904024296486, 30.792675259516447, 60.499150896650185, 39.3546976987128, 38.20522397824901, 36.696450533553325, 40.59382419166188, 49.515368022239436, 35.16305414204587, 42.46778085682815, 43.458270071775964, 30.441653662852907, 35.245551095186514, 47.9078276351487, 32.08414537803193, 40.48121932514015, 37.30050554967129, 33.499580392241526, 51.72446539922827, 40.40603718789178, 35.314510858637036, 43.972621855265494, 46.290517782296334, 38.659102485024206]</t>
+    <t>[29.27317806601689, 40.50854001164389, 42.16213932223468, 46.97647909876376, 32.220336312516466, 26.46699355390514, 47.02109097504461, 39.058150424323046, 51.72631758481883, 34.999782414062686, 38.63928169030943, 37.40623072758955, 48.94041080668243, 40.54455914012858, 29.571068532064977, 40.426477343983606, 48.094019913012936, 32.65618614261896, 43.162780352408326, 34.19794085278602, 41.252194608498264, 31.437445677840703, 42.416866218249005, 39.83686042473091, 41.23092363483821, 47.09097561280088, 38.30527599723752, 31.809928621820774, 58.48293772896632, 41.08889653696978, 37.06811386844503, 33.360404892422764, 40.644725598940845, 51.03271930327173, 36.04277202552526, 42.71718298876493, 39.858633386871006, 30.18374936464869, 32.98042998855429, 48.330553684205775, 32.36288023483748, 41.533561287186174, 37.15035257245934, 31.686296819471757, 48.89157379223541, 42.065621524791744, 34.82044869272209, 44.05925696106886, 47.371426359329995, 36.869509869274154]</t>
   </si>
   <si>
     <t>[27.076528730063604, 30.40734236580985, 42.43895863124302, 51.253536224365234, 29.608289582388743, 26.47337111111345, 42.08084617342268, 33.95813956941877, 53.280296325683594, 29.268491881234304, 44.443637124423326, 37.040259974343435, 50.46472182955061, 34.26192174639021, 25.904151916503906, 35.65205617608695, 51.43756818771362, 28.557868685041154, 40.0545973607472, 29.169922569819857, 40.499266953303895, 23.630056926182338, 46.96790708473751, 40.06841318947928, 38.311678409576416, 47.41204774790797, 31.00567545209612, 26.921055930001394, 50.65438972200666, 34.880477578299384, 30.8861995236627, 35.603799888065886, 39.051679202488494, 50.475517068590435, 31.79151747567313, 45.40007045351226, 41.988444682529995, 30.61144290651594, 36.506867681230815, 48.45183553014483, 32.17869883570178, 32.93817133222307, 40.35639081682478, 29.553946290697372, 42.35075446537563, 34.756751997717494, 31.153803825378418, 38.32768477712359, 41.36068330492292, 43.53570629528591]</t>
@@ -967,13 +967,13 @@
     <t>[27.427654136626753, 32.993383343074676, 54.171451079920175, 55.72227469631904, 33.32117672257856, 29.23946501227669, 43.25997704463675, 34.95729801883329, 48.854972301860236, 40.213201623313985, 37.56312324007565, 39.64168138710628, 53.382574760643045, 42.794251050898175, 41.47704931066115, 27.228961951997245, 46.045553905582324, 33.31435695442368, 39.21805869560955, 33.98126880488657, 40.66053112410946, 37.45262648455108, 44.72850587619765, 41.300710007182, 45.06037086220086, 36.81980066048686, 36.452651753425634, 30.880527520181083, 66.16337053541295, 33.33519649182614, 58.082583007735764, 35.20157266711481, 40.05759979825637, 37.73532222088584, 31.574145034658052, 47.62834877468723, 41.3861240104675, 32.27317963969723, 34.867847029285244, 58.23115269275994, 34.818726349501375, 41.99616377688584, 34.49992317310354, 39.00211296657043, 54.46562996500351, 37.611221506923044, 46.92724404378545, 46.035386034460394, 41.981272307104575, 46.22242210436121]</t>
   </si>
   <si>
-    <t>[37.393325689575065, 52.56428571428571, 50.93646768219803, 54.96437030272707, 36.81468562720046, 32.60895304213271, 56.18035714285714, 34.63794648954241, 57.31455349642082, 45.48937931491786, 42.89747719562697, 38.81427166873984, 52.24923332902532, 46.255689892995896, 43.81879013237633, 35.47145711128101, 63.18490069291901, 40.47484519599335, 43.28757285059013, 29.178970154365366, 39.662439372921895, 37.59533666375313, 58.15285622381351, 51.11234333359987, 50.781719382021606, 56.47600115848197, 46.48792560308231, 37.53634667333842, 55.680977855488145, 32.22123572759254, 47.55611570174024, 41.38763780215165, 40.44090215380893, 45.37785123463319, 41.41197769427701, 46.21305641290526, 49.72330708819432, 33.20488993102681, 39.144245229088895, 53.78082011110179, 36.50569614457992, 48.90923575397135, 40.243465371716745, 36.76100619621637, 70.64880952380953, 40.81147545429503, 36.91359893331462, 48.269935509031406, 47.95055632127163, 31.217857142857145]</t>
+    <t>[37.393325689575065, 52.56428571428571, 50.93646768219803, 54.96437030272707, 36.81468562720046, 32.60895304213271, 56.18035714285714, 34.63794648954241, 57.31455349642082, 45.48937931491786, 42.89747719562697, 38.81427166873984, 53.88385238372, 46.255689892995896, 43.81879013237633, 35.47145711128101, 63.18490069291901, 40.47484519599335, 43.28757285059013, 29.178970154365366, 39.662439372921895, 37.59533666375313, 58.15285622381351, 51.11234333359987, 50.781719382021606, 56.47600115848197, 46.48792560308231, 37.53634667333842, 55.680977855488145, 32.22123572759254, 47.55611570174024, 41.38763780215165, 40.44090215380893, 45.37785123463319, 41.41197769427701, 46.21305641290526, 49.72330708819432, 33.20488993102681, 39.144245229088895, 53.78082011110179, 36.50569614457992, 48.90923575397135, 40.243465371716745, 36.76100619621637, 70.64880952380953, 40.81147545429503, 36.91359893331462, 48.269935509031406, 47.95055632127163, 31.217857142857145]</t>
   </si>
   <si>
     <t>[31.274805162813852, 47.593622798195106, 55.135966688360305, 54.1858102801382, 39.14961249498601, 25.668498308051586, 38.65235708936581, 39.40520510491751, 47.11766169797333, 41.38152216202109, 40.262563018670164, 40.201649149494905, 51.738357331398944, 40.47667763506251, 31.47749059369441, 30.313618506354487, 45.5522213745441, 46.31644622058658, 45.83809684804136, 36.71824952996082, 46.89915403393573, 34.77250565644823, 53.03523273213862, 44.1202208189599, 43.47869119214551, 40.20903215950868, 47.9090519534249, 37.48335011247425, 58.14095544992454, 38.39741752275824, 56.693155885663536, 35.45637386265967, 43.59419714571634, 43.99747618450221, 43.87316670951566, 39.94478867200732, 61.50171075515659, 32.13369354459015, 35.12665133370327, 53.716721001262194, 33.704208761929614, 50.44182353309007, 27.5413835799667, 29.216110925701816, 54.55931995931319, 39.55588268495232, 43.624312625408734, 49.88449858466013, 45.763549815411686, 46.49972678997991]</t>
   </si>
   <si>
-    <t>[34.53629519103824, 45.2288293361446, 54.58316830274618, 48.53486535680473, 36.27219788199542, 32.014624313932366, 50.38267113438818, 37.143741763143886, 53.07382823662348, 36.2459585054359, 36.62340694010131, 40.976531556557106, 58.668291275243014, 41.08231966116582, 36.394295831620425, 38.5422287143392, 56.88968151078998, 44.27127009454268, 52.21033159192655, 34.44520318822364, 49.99182164815338, 41.660952157794384, 49.315834047195644, 41.014842726591446, 44.49484320487795, 45.39095928243778, 40.67712226260649, 43.34004878312135, 67.45639781281592, 35.64633922102395, 51.65860377540979, 35.91808220120392, 40.05052863422275, 55.91745810044927, 35.83861533284837, 42.90883244772913, 45.74812272447806, 37.16936349371, 40.56719253935692, 54.478604043931696, 37.93735058189159, 40.42949788334631, 34.29094416348007, 41.85662338974822, 58.52038793328565, 45.321589648671974, 38.08330801102994, 50.61271475815425, 49.62382929077459, 32.45497597712175]</t>
+    <t>[34.28682794628759, 45.37602060971954, 54.09335272591407, 49.44035688719378, 39.39411362026031, 32.19528349437259, 51.520681166981475, 36.562678552524865, 52.55994690422187, 37.538030361932066, 37.79011420577521, 42.166369452644474, 55.86640550418968, 43.951456381288246, 36.02103318409646, 39.526854776672685, 59.10941264486072, 41.34710599668522, 46.50837091051119, 33.51636347827212, 48.89066807547244, 40.77094637805897, 50.262675567161786, 41.31385616199754, 41.88867008897402, 48.909043222758285, 40.91195559588766, 39.126843914149326, 67.4428236702107, 34.866543123812576, 50.28033059437686, 37.297060438063895, 40.1455283197029, 53.26068800987895, 33.68368664732286, 44.0633259753206, 45.64143576112375, 35.76031300997071, 40.624028163013506, 54.70838539463538, 35.865847775908335, 43.31327138844291, 36.74693159086792, 43.21196920841815, 58.510651500082396, 43.67128754291155, 39.16143889887952, 49.15305238111489, 46.42167531002717, 34.42054219016346]</t>
   </si>
   <si>
     <t>[34.334081978633485, 44.53262955801828, 53.491083301816666, 47.431387645857676, 32.771925245012554, 25.412643037993334, 47.57645852225168, 34.03687594277518, 47.1740654536656, 37.58590030670166, 33.49101046858163, 38.27947834559849, 48.9893082346235, 40.49479399408613, 34.58430944170271, 35.74317675623401, 38.478549821036204, 41.61486325945173, 47.096687589372905, 29.311614220482962, 48.115092705036034, 33.289734431675505, 48.19482902203288, 46.9623167855399, 33.96138300214495, 52.05077204211005, 32.43686212812151, 39.01610551561628, 50.102475030081614, 34.22786693572998, 47.85093610040073, 40.06673812866211, 36.190308707101, 52.42483571597508, 30.131916400364467, 40.5406828255489, 42.48987696511405, 39.47274939928736, 30.12446587426322, 44.14326245444162, 32.419040856690245, 42.33003093174526, 42.314714431762695, 38.91253852844238, 48.220312799726216, 39.573958429796946, 51.44730009351458, 48.787109647478374, 35.93191868918283, 39.954783759798325]</t>
@@ -985,31 +985,31 @@
     <t>[44.283383707081285, 44.13314647212686, 55.15025559397535, 46.12000418259361, 42.17017249033519, 46.622115049345105, 45.05929045080744, 48.35299523803053, 43.403016759034344, 35.1727941043141, 44.91390915112738, 41.09931468530028, 44.36645703227384, 47.977579258895275, 38.891914012476526, 33.25379775383747, 52.544597897369904, 48.77119123343645, 36.99958234937024, 36.914615038728144, 55.96921081730535, 39.64920086805182, 49.499618731457936, 51.48257874970269, 35.79144977976648, 45.76723091885676, 45.65477521878268, 38.07283290577886, 54.59308447791016, 41.99047084264459, 61.150636688356514, 44.77909923568599, 34.330467674175665, 59.630172312005975, 27.22331761651645, 39.69967975006911, 57.10591591833201, 34.69309224081943, 44.04293815418987, 37.370331872870985, 36.956623460238134, 54.794751728166425, 35.04346745067986, 42.88860958234208, 38.55600852555876, 37.86163179913801, 42.804838698581314, 41.710590199367424, 55.192591705549034, 56.1257131143548]</t>
   </si>
   <si>
-    <t>[33.36609344151769, 60.68928571428571, 46.63211891439683, 52.32404398566814, 42.82738095238095, 38.07625320493027, 54.57142857142857, 43.91428571428571, 39.82701002319576, 40.526785714285715, 39.18103448275862, 48.02581646098266, 48.93214285714286, 48.03320833681242, 41.9260555386921, 39.44042586811794, 59.910714285714285, 40.875, 46.91049192578076, 36.6853084280721, 43.81251620247419, 35.151785714285715, 55.28216959545528, 48.50278757116844, 37.026785714285715, 52.88933059847547, 52.95423276110538, 38.830357142857146, 55.90570465629386, 42.92199511111745, 47.278967588107044, 46.848214285714285, 37.36385430319145, 55.05729081925348, 38.384467067151704, 52.57394976358843, 52.93052128716369, 37.31398353851382, 44.61309523809524, 55.10238095238095, 33.340107943890544, 33.74464285714286, 45.10265006647285, 38.989285714285714, 54.92142857142857, 40.64655172413793, 37.518510166331986, 53.76809253251704, 45.58922269002086, 41.15928753137221]</t>
+    <t>[33.36609344151769, 60.68928571428571, 46.63211891439683, 52.32404398566814, 42.82738095238095, 38.07625320493027, 54.57142857142857, 43.91428571428571, 39.82701002319576, 40.526785714285715, 39.18103448275862, 48.02581646098266, 48.93214285714286, 48.03320833681242, 41.9260555386921, 39.44042586811794, 59.910714285714285, 39.19642857142857, 46.91049192578076, 36.6853084280721, 43.81251620247419, 35.151785714285715, 55.28216959545528, 48.50278757116844, 37.026785714285715, 52.88933059847547, 52.95423276110538, 38.830357142857146, 55.90570465629386, 42.92199511111745, 47.278967588107044, 46.848214285714285, 37.36385430319145, 55.05729081925348, 38.384467067151704, 52.57394976358843, 52.93052128716369, 37.31398353851382, 44.61309523809524, 55.10238095238095, 33.340107943890544, 33.74464285714286, 45.10265006647285, 38.989285714285714, 54.92142857142857, 40.64655172413793, 37.518510166331986, 53.76809253251704, 45.58922269002086, 41.15928753137221]</t>
   </si>
   <si>
     <t>[32.510714482045714, 45.133708114485124, 42.94307947324102, 45.07753274865545, 34.46272646966964, 34.73354586676338, 41.78613508955855, 41.497285562265915, 41.23896491251695, 32.98734261545459, 36.729383953778374, 28.86847106108423, 45.28601784380829, 49.063599235717035, 34.76737301496479, 29.869427238968942, 48.62186512281949, 40.546844231624014, 44.60299378537098, 33.2398912529462, 39.07727167830681, 43.110301167837996, 46.744570515797626, 49.64284964527815, 39.81511289345479, 42.19559368785741, 38.40557109336388, 33.03033390538955, 58.63962290356888, 35.74974308706082, 43.95327150284907, 38.21262993289955, 33.4268383363742, 48.22052625797092, 29.477566403669805, 39.39840042951674, 55.15331932707945, 35.4188182510733, 43.34797198036773, 36.61386082281829, 34.98634532990737, 50.82080430550575, 31.586276473052802, 35.33048712234812, 44.34247830859622, 33.05343869536726, 33.852490970675966, 41.99715945176232, 38.2700335923367, 49.6837479406433]</t>
   </si>
   <si>
-    <t>[36.824122665780905, 47.85104502192471, 50.20629519044519, 48.90006924213299, 39.70010138652766, 35.44029689691502, 51.94183907239876, 37.315139121469244, 47.718100232829876, 40.28674837218495, 41.57553723364534, 42.548913920271296, 54.594818093205326, 40.354963979286424, 30.074745249840596, 41.26049889341557, 56.07466664732983, 40.20120746331845, 43.91551123387749, 33.46816106700603, 45.38166409286007, 41.987092904913844, 50.69292229192729, 47.805227972244246, 42.109260578052876, 51.23056370457297, 39.768067315005794, 41.03836445483438, 67.68367586881048, 42.3087733093402, 49.767684882717305, 41.31092201869323, 37.30490100245384, 54.976712549696224, 37.25094527354664, 50.15629743185935, 44.61706014161068, 36.054412347632, 43.74159961944689, 55.94293357017981, 39.65921271345207, 43.4192909847388, 38.28392856571154, 41.38758375547718, 56.739769445723844, 43.73122720797405, 39.79665045648892, 48.82098610294133, 48.936831822104295, 38.99462173051076]</t>
+    <t>[38.02500477874886, 49.55675005293981, 52.92689490769002, 46.68222844875779, 38.635433197475365, 35.899322290636796, 51.052871194928365, 37.241728040264, 51.339820342532015, 34.59668153061294, 36.86400627916309, 39.9531028034737, 56.43837992003177, 43.70813902952064, 32.39609423053545, 39.01110612081427, 57.65665011738145, 40.584381127136666, 43.66331500993207, 33.51908704481879, 43.43894876617637, 43.313253048889315, 50.48588041973736, 44.406568592151054, 42.102577207452335, 47.67313785577602, 39.21788456211853, 38.335847646930254, 60.85462105918644, 39.07723829183414, 51.865865470696825, 40.957818323039874, 39.4564758471572, 55.1400997083084, 38.56900536129044, 47.004403984375905, 49.77938450324175, 36.434125472091736, 43.80364403295291, 54.07349284788892, 39.062519705132594, 40.89307170261781, 37.315893056125965, 42.76418109252396, 57.48898400957937, 42.964280286240935, 40.3669987887729, 50.77048459779608, 47.60781624813306, 38.07732911427393]</t>
   </si>
   <si>
     <t>[29.249969975701696, 41.700959069388254, 48.4374689238412, 45.34609392711094, 30.953650202069962, 39.33378699730183, 42.663834708077566, 30.26945174080985, 37.81840024675642, 24.175816672188894, 43.47276003607388, 23.905971935817174, 50.93926676341466, 42.12632254191807, 24.289147921970912, 23.20199940122407, 63.394500391823904, 40.62330600193569, 43.156998668398174, 37.029769679478235, 36.31189083230907, 31.914117540631974, 44.29754550457, 34.666194098336355, 27.413888999394008, 49.62124811369797, 34.18496649605887, 30.790947028568812, 52.461544854300364, 36.596669932774134, 41.264204617204335, 27.506668499537877, 32.872106960841585, 41.60309304509844, 27.95442899976458, 40.4177456559806, 45.06920686449324, 32.16500629697527, 42.32844468525478, 42.544241428375244, 37.66547604264884, 36.366031183515275, 41.2728727885655, 28.941492353166854, 45.972537653786794, 33.226730280909045, 41.10205159868513, 44.36703382219587, 38.746094124657766, 31.61482332774571]</t>
   </si>
   <si>
-    <t>[37.82609754566231, 56.885272489953294, 57.92135258537719, 65.19192738527762, 52.006642328089164, 49.846899691255906, 59.23213814835537, 53.573814560238766, 56.03580959437371, 56.27954236926428, 38.0288617003868, 54.74624288663812, 68.89485452904844, 66.29081534221358, 51.61684171483722, 48.725597075466105, 67.84105581899614, 67.29245808031519, 61.133316642233545, 49.24140315762746, 62.82862224381442, 48.57855012310459, 55.67720035398078, 68.74291427206963, 57.521426254856465, 51.65384430022053, 61.83419490605655, 52.652870376130785, 52.892006600488514, 57.51920434387754, 59.10288877911229, 51.334063087482626, 49.72138163426823, 57.61544235888967, 48.50798285695633, 58.15862975976149, 75.01505210955122, 48.17781782305446, 50.24947013998736, 65.97514886689468, 46.224555787117254, 61.66995339707895, 50.58444675354862, 40.28743714205689, 60.76354714598504, 50.908036083684976, 52.662669585833235, 61.207312412919414, 54.91944155837736, 61.54602704151153]</t>
+    <t>[37.82609754566231, 56.885272489953294, 57.92135258537719, 65.19192738527762, 52.006642328089164, 49.846899691255906, 59.23213814835537, 53.573814560238766, 56.03580959437371, 56.27954236926428, 38.0288617003868, 54.74624288663812, 68.89485452904844, 66.29081534221358, 51.61684171483722, 48.725597075466105, 67.84105581899614, 67.29245808031519, 61.133316642233545, 49.24140315762746, 62.82862224381442, 48.57855012310459, 55.67720035398078, 68.74291427206963, 57.521426254856465, 51.65384430022053, 61.83419490605655, 52.652870376130785, 52.892006600488514, 57.51920434387754, 59.10288877911229, 51.334063087482626, 49.72138163426823, 57.61544235888967, 48.50798285695633, 58.15862975976149, 75.01505210955122, 48.17781782305446, 50.24947013998736, 65.97514886689468, 46.224555787117254, 61.66995339707868, 50.58444675354862, 40.28743714205689, 60.76354714598504, 50.908036083684976, 52.662669585833235, 61.207312412919414, 54.91944155837736, 61.54602704151153]</t>
   </si>
   <si>
     <t>[39.26169644575326, 38.455018049266236, 62.07856643412539, 62.267903414299745, 30.537682071326113, 38.30858565255525, 43.960607420676, 40.95818108377888, 48.62980638073098, 44.106713504541176, 38.35709573152937, 37.23129096128254, 55.454179739274956, 44.043335773531, 32.17855997839953, 33.97194019946568, 49.37148813850449, 39.60133648004035, 48.58981656779523, 39.05269070603502, 38.905115193178446, 42.18791442268272, 46.34011154965169, 46.69826188654138, 46.16975413539742, 40.36195765284866, 35.70179176284885, 34.128062459564674, 65.81767573776668, 36.91101763484393, 60.92497265129285, 37.220219787545425, 38.084122493425006, 42.06827741763981, 32.824158301429115, 44.46528284429325, 63.36072031770144, 29.516035891668007, 40.92529079293284, 47.80287881303979, 39.38677042917054, 48.07162362802627, 54.9435993742916, 46.63075872216695, 41.894412508335904, 38.78703007628516, 37.33168649788278, 47.36533290382844, 46.03907420378435, 47.22095090277509]</t>
   </si>
   <si>
-    <t>[34.92811924450275, 51.7256955167622, 45.1780448974146, 52.99902949293956, 46.54269077238589, 32.28088124166738, 49.966390989900965, 35.800944632934346, 38.8636345775942, 39.41117330308024, 44.42820168724134, 36.84339404557034, 45.146428571428565, 46.83674654532418, 31.464023084613423, 40.87144095852978, 56.44009188549122, 36.602263054471265, 38.716124849073886, 33.6046097223545, 52.46555912896582, 34.58058581950002, 55.61612296699542, 51.19621226429183, 38.89999999999999, 54.665839283413796, 40.368465421705544, 40.31564687911817, 57.03849768209862, 35.69254156498888, 49.62245079083497, 41.00023132131694, 31.24511005899816, 46.77631086623142, 42.60178571428571, 47.228917144642985, 48.84883311160487, 36.30635509073507, 39.75000000000001, 48.09743371277053, 40.46619540744357, 41.82150016126351, 37.8994116686949, 34.619197837097055, 48.96071428571429, 37.24206462099089, 42.482198202518205, 53.06303110689506, 48.49115298754872, 32.67360957278072]</t>
+    <t>[34.92811924450275, 51.7256955167622, 45.1780448974146, 52.99902949293956, 46.54269077238589, 32.28088124166738, 49.966390989900965, 35.800944632934346, 38.8636345775942, 39.41117330308024, 44.42820168724134, 36.84339404557034, 45.146428571428565, 46.83674654532418, 31.464023084613423, 40.87144095852978, 56.44009188549122, 36.602263054471265, 38.716124849073886, 33.6046097223545, 52.46555912896582, 34.58058581950002, 55.61612296699542, 51.19621226429183, 38.28927444877234, 54.665839283413796, 40.368465421705544, 40.31564687911817, 52.17146978274586, 35.69254156498888, 49.62245079083497, 41.00023132131694, 31.24511005899816, 46.77631086623142, 42.60178571428571, 47.228917144642985, 48.84883311160487, 36.30635509073507, 39.75000000000001, 48.09743371277053, 40.46619540744357, 41.82150016126351, 37.8994116686949, 34.619197837097055, 48.96071428571429, 37.24206462099089, 42.482198202518205, 53.06303110689506, 48.49115298754872, 32.67360957278072]</t>
   </si>
   <si>
     <t>[33.3490142570737, 46.91480209594268, 50.01834810402066, 50.65605118575047, 32.338117968799736, 33.188382011589795, 45.0442881973977, 42.90383239520135, 47.129864599369185, 37.20624616467342, 48.55630164650151, 40.353418094381524, 48.74829819059352, 43.229123075487166, 33.777553652836964, 43.44547204680759, 48.66150115172932, 42.77810329919752, 49.15534632313408, 35.06951640792287, 48.80569383618673, 33.07371523967752, 49.745117168272934, 43.280143171972036, 44.55059487401627, 37.3228454228133, 39.05410023058027, 37.75472577741119, 67.45797618132988, 40.446665064814574, 61.457429402352304, 35.48514118452996, 39.159095370885616, 51.3927572578386, 38.626094869361275, 43.1040326836267, 51.21492799411993, 35.628138936378754, 38.95964119044554, 49.58423726406373, 37.15373021063436, 47.37967396728829, 34.052020989910766, 35.17131615003761, 47.84433663592278, 38.32489109007077, 46.628042854125866, 43.1829750524445, 42.75804845257499, 50.759054364205234]</t>
   </si>
   <si>
-    <t>[38.17165333249985, 46.652577536120766, 52.394916907564216, 50.07837926905741, 41.19456990544895, 36.22136828878116, 49.2738215169666, 41.685491837503086, 50.398802512723385, 30.78244347666919, 41.1032632048606, 39.76037270014985, 51.82752927297171, 42.40306440679831, 32.40400978629251, 40.13856621576486, 51.00441352901309, 45.682796510953494, 45.37889683123909, 36.24860273292051, 48.34464985945967, 40.93369761833113, 46.94601096300081, 43.15647234510005, 42.76295701412926, 44.067215132225186, 39.73333707718869, 41.87715004877771, 62.253600451163706, 37.76564856704727, 48.36765749816275, 40.986776817891275, 39.24544228531694, 52.23085242460736, 38.938622620236416, 47.03004612365101, 46.1783533019888, 34.26850672367762, 40.086720716792684, 55.84129748787093, 38.052823071856594, 50.06613234997652, 35.130589796159875, 40.43383852722526, 54.9988432715895, 44.270600667809006, 40.073523653464285, 48.45157449759515, 45.71472262451961, 36.155077719178074]</t>
+    <t>[34.75146883815607, 46.50551123070905, 53.850848745294, 49.62866582328719, 38.71069823415286, 37.150313035434195, 52.60518349204051, 41.35554062591284, 48.67717999017691, 33.447037556624075, 41.21224182462104, 41.84990779478628, 54.51574483923125, 44.11222828140963, 32.92119429763097, 36.94014798659163, 53.61940819401716, 42.7389572174187, 46.64066325160684, 35.43683619528084, 48.82108179576745, 41.877855513836074, 47.42193498778915, 41.945661197333564, 44.62314549259236, 43.12880803307803, 39.763355616806514, 43.77602760657372, 65.4944277531843, 39.16779678062726, 48.21851070100045, 39.93031718953053, 39.23957480624499, 53.33457400962062, 33.94570118388062, 46.17969310125167, 47.52376797391146, 33.01827107996556, 43.11843438673213, 54.0562734946697, 36.29716646949433, 51.23136953114585, 36.1564239237562, 38.096215993030505, 53.98700850118764, 46.85747570997399, 40.19488606929353, 48.189727951730944, 48.007030096718374, 33.14094090493755]</t>
   </si>
   <si>
     <t>[31.939342498779297, 48.45832906450544, 43.02897513253348, 43.832927976335796, 34.31225422450474, 37.97664668642241, 40.68763024466379, 32.7583648954119, 42.61929750442505, 32.66557747977121, 34.96369289529735, 29.942246505192347, 44.75221403666905, 40.32310833249773, 29.736851828438894, 27.43302345275879, 48.46316422734942, 39.12034525190081, 44.93121201651437, 27.782743161065238, 33.37323734678071, 30.75298854282924, 43.175044727325435, 36.885494232177734, 32.26921367645264, 46.558693458294044, 27.32734271458217, 32.46679537636893, 46.79533127376011, 30.874967520577567, 44.29550091973667, 33.561484473092214, 38.08978353227888, 41.799823079790386, 36.44036189488002, 45.91256501756865, 44.08807146889823, 30.954579532146454, 40.441092763628276, 44.100929975509644, 30.368365176792803, 53.917386058398655, 37.69097601515906, 31.355567932128906, 46.531244959150044, 30.11083694984173, 38.897168840680806, 45.03978756495884, 41.40455974851336, 40.302771145956854]</t>
@@ -1027,7 +1027,7 @@
     <t>[29.095667893227663, 47.80920273798545, 51.867962079405565, 53.42510324915639, 39.790573698152386, 30.049704310105213, 45.40094836283871, 36.85300609367677, 50.853302051759805, 42.726876533829845, 43.531396787836755, 36.796374519115275, 49.77121407392429, 41.93507842404686, 37.84502700025466, 40.70569094102098, 49.68054490389464, 48.080876832163696, 44.81881439636796, 33.04534992689357, 48.24910095583978, 38.93652483489729, 53.571910710229226, 41.68939953401855, 48.297873248370344, 38.024342076325745, 37.66730379956953, 38.58840641786251, 57.33903418065893, 35.84138133503014, 54.59302167841718, 41.284818901804826, 42.29945287722655, 50.550630752015024, 39.75680859820381, 46.536635847549014, 50.91035735591839, 32.983554127745286, 38.442822841223645, 50.51219673703042, 37.46836968296129, 51.14120840322422, 39.92479827240751, 35.91323040216691, 48.48710601462776, 36.412055631572045, 37.73400486974502, 37.771934513016205, 51.85629376003846, 38.604378873156826]</t>
   </si>
   <si>
-    <t>[30.51716532456848, 43.57818134582528, 44.86947290154081, 47.084931683206314, 32.92882297034839, 26.846813303457594, 50.37201381695981, 35.052488242682855, 51.67580736294792, 35.12294039175527, 40.22937558995008, 40.93707937790789, 49.014363981654434, 40.56401612158955, 34.335536089342206, 40.25827948596206, 52.26545720236479, 31.299791727675604, 43.84909874228289, 36.171224413130844, 42.748354282528204, 36.10253896142864, 46.28249424973102, 36.58965547452893, 44.26938840914084, 47.265135690774514, 36.180802724953615, 32.08168459576509, 64.19819743678156, 40.72599420823501, 48.06493111951773, 36.947567609538716, 42.55571637836727, 53.12983798764883, 37.63355256684206, 44.94499458875423, 48.126224281728234, 36.75131112690726, 35.703030456877414, 48.24498850228114, 33.412992427306264, 44.80447228099693, 33.78687163429024, 32.79956313454803, 50.922186217995964, 42.71072012097001, 38.65736497757697, 44.10024607768641, 48.00178465068909, 36.557343011151204]</t>
+    <t>[30.532173563980557, 43.5851265307294, 49.82938043372739, 46.641155074994565, 33.597688943404165, 29.750662419521774, 50.4956436456775, 36.994798799319874, 51.59629708459415, 35.91891702129869, 40.517509523663975, 42.69611061805163, 47.34202585084405, 40.530320988559865, 33.68824708612714, 41.17764011121076, 51.45683583909915, 32.38299588077262, 43.86977804197189, 37.93238751662453, 42.24001909603764, 33.067693076891814, 46.08840158007802, 38.17173288705953, 42.11587481552214, 47.75595592042535, 37.88143431635648, 33.58382652993547, 62.148719127553925, 38.94540384316381, 35.00907213247516, 37.9911151075987, 41.59402165894683, 52.669493854262434, 37.441955001725425, 42.44367107920098, 44.31098945698144, 36.91091839099315, 34.64608529570937, 49.54375748246053, 36.35663941434411, 43.38359804089232, 34.609816149771156, 34.55821199861761, 49.214479482511095, 40.79927419406232, 38.40775783275358, 49.263771885854545, 48.78243364378439, 36.193874052586025]</t>
   </si>
   <si>
     <t>[27.955455623824022, 41.568567412240164, 41.32842995779855, 47.89745484611818, 33.75356701442173, 34.53728537723936, 47.28058351789202, 38.33514759881156, 46.21119049617222, 32.04613821847098, 45.578760410177296, 42.64491326468332, 50.774368265696936, 37.641643149512156, 34.226541246686665, 31.117988717967066, 53.44458784375872, 31.709421975272043, 39.796853576387676, 31.17272276197161, 46.43096581820784, 22.316023962838308, 45.350263472965786, 37.659153257097515, 36.60651438576834, 49.96479606628418, 30.429068156651088, 33.16958720343454, 62.984439032418386, 36.40030610220773, 31.991539527629985, 34.25701304844448, 44.88196400233677, 45.26580333709717, 36.052353804452075, 38.97153643904061, 44.08902108328683, 34.03801482064383, 38.139356885637554, 52.0217216696058, 33.6856653936978, 39.31190975734166, 40.598365370716365, 28.135081904275076, 40.65242849077497, 34.438763059418775, 38.343835421970915, 39.815694672720774, 40.81633697237287, 46.18293824877058]</t>
@@ -1045,7 +1045,7 @@
     <t>[33.501102839591695, 46.32324163642905, 50.63012128923646, 52.7853550045371, 33.592892532418965, 40.001466413942474, 39.549581688686025, 38.51511335156541, 48.932681690031096, 41.22092760245416, 40.1904235832773, 40.9241512375542, 49.04567591367641, 39.10028786606413, 32.891640183211045, 30.141729404652615, 53.04178594772203, 53.946583219298965, 43.67192654750385, 34.426841441609575, 54.09774549811453, 39.9762964534243, 54.72397164779523, 40.49285441434445, 46.65642603134318, 38.82383009937859, 41.74257182865009, 40.07627360557622, 56.239218330006075, 35.118716085342605, 58.43160030490132, 44.75603336604466, 46.41868381349742, 48.91344125813775, 39.94603578266065, 43.429607650894525, 56.64538851761988, 32.029676111644434, 42.78521600631359, 55.41173365009484, 35.06559653350765, 47.83581479126018, 33.6168703234282, 37.77801584140822, 54.071773671481665, 36.3927241177673, 37.66969986907156, 49.082426254800005, 47.19297149379547, 39.764060302803145]</t>
   </si>
   <si>
-    <t>[35.633232866511904, 48.04289104806736, 55.187482479578364, 51.94680784813956, 36.78274589210291, 38.3326971941659, 52.634209098141575, 38.919159345505236, 52.87649660808439, 37.527090464179715, 41.176949525041735, 42.855044344883545, 54.557383449274006, 42.74621486238503, 37.81656117758002, 40.63263844557362, 60.0967415124201, 43.29529493773554, 50.99814368684596, 35.8238635520484, 46.635616724235824, 46.83211211042522, 49.3949392497859, 44.465202621517435, 42.51110947942617, 48.29484701369808, 41.12192085859018, 39.07321301911246, 64.56300930294357, 41.4771910042975, 51.9160495015329, 40.29478555176426, 40.42669402313266, 55.54221169484257, 38.317580753003575, 47.345921602378986, 45.36531002314895, 37.83291557785275, 42.49546162123628, 58.71608260722254, 39.084856269514134, 41.79455845770811, 35.85727962246478, 42.95372610398607, 56.21776110676079, 44.580117847867285, 39.653472575316364, 50.482734122554106, 49.09108439003865, 39.10235131336947]</t>
+    <t>[35.926786478591865, 46.82895250460428, 52.406381648514426, 49.46039016496634, 37.77377423003064, 37.051591737275636, 50.86607710770811, 42.05112000045559, 52.20598085005286, 34.82437974633093, 38.270340808752934, 42.83405178736026, 57.53980949533421, 40.745585738960656, 36.714690601725124, 38.26783681934297, 58.045267379017375, 43.4886476938511, 47.830077715455786, 34.00458202885237, 46.57355030777415, 42.473645274362134, 50.7508731199434, 44.310722555970415, 40.6790035906991, 50.35677378789953, 40.009131065426295, 41.120360550626394, 64.13301175140494, 39.94627059441082, 50.26444014300046, 41.63627479097188, 41.28492313143122, 53.30936179664577, 37.80738138994742, 45.4808429684575, 46.597962789402004, 37.00467303007093, 40.102435582070676, 51.90183366384928, 36.668588672961945, 44.58052519262715, 36.099238546078894, 41.30710965793827, 56.38878919093664, 42.96226160317501, 40.13318033594011, 49.842082712557, 47.95758234604314, 37.029410558776384]</t>
   </si>
   <si>
     <t>[31.134639213825093, 43.50115203857422, 44.81454081535339, 47.32743535723005, 29.90865080697196, 35.71380733621532, 43.606776101248606, 35.16066552570888, 42.402453558785574, 38.49360574994768, 37.981038849929284, 31.745657103402273, 47.326389326368066, 37.32918916429792, 29.225097639220103, 28.84207771564352, 52.48461464473179, 37.460287366594585, 44.272092138017925, 32.927776622772214, 46.50073715736126, 34.927850587027415, 47.14002901400839, 41.882677350725444, 29.55908570970808, 55.70411752010214, 33.33642455509731, 35.05269844191415, 50.719056946890696, 34.03114967346191, 48.74334289287699, 32.68718801225935, 43.621961866106304, 46.16042218889509, 37.34863902500698, 40.61911115975216, 39.34629925319127, 37.55811555044992, 36.57072680337088, 48.735357829502654, 37.84057816143694, 38.28323168073382, 41.20182313237871, 32.137486049107146, 43.05028765542166, 42.941404276880725, 36.98253543036325, 45.658996309552876, 38.486889702933176, 27.60954907621656]</t>
@@ -1057,19 +1057,19 @@
     <t>[36.94568728513189, 47.921591036240315, 44.46200710214756, 50.853756277680596, 41.92306766778399, 46.55989382981076, 50.45163055474404, 49.07232749566127, 48.40444097208956, 33.255548561694795, 40.46589586551098, 51.66893492471955, 52.14972011714958, 50.19490596259565, 42.99455370383761, 32.866463203182036, 54.3369628865052, 37.52526756877897, 49.74576510112638, 34.125786095510456, 43.76090482288698, 49.06533531582617, 43.5516397118082, 50.714584603669856, 41.24265968761775, 41.18093917695083, 44.33810966719903, 37.33202559276885, 53.88374893324144, 40.89146347173929, 54.38480376165535, 43.54452680531397, 36.900933633007824, 49.94534801121491, 33.01720862597363, 45.06317952700603, 58.680264335650456, 30.11483611374058, 45.61302503876089, 45.86657814654401, 31.937669366099993, 50.48021399303218, 33.35128126443799, 42.696211971596185, 41.5994168251141, 37.56822453914933, 46.85953232636056, 45.75662923646756, 53.80174860445842, 46.944306959272176]</t>
   </si>
   <si>
-    <t>[37.00628341508042, 44.06547619047619, 52.4631478277451, 50.51374076684662, 44.349566429797555, 43.677503321655344, 47.294642857142854, 43.262417024179975, 52.410682055483115, 42.8728207190108, 39.3586181054312, 33.930306520818554, 48.51621888698745, 45.430266922075376, 34.605923786753024, 37.87968697466887, 58.62708072714221, 39.77210475012574, 43.84589263297698, 31.2611832552175, 48.23208017461879, 35.169642857142854, 45.449999999999996, 53.66428571428571, 39.872648481926845, 53.62595250064446, 46.242414283776945, 41.410714285714285, 56.80527668907515, 36.9789392511067, 46.36728604117399, 41.94210173832572, 37.285714285714285, 50.46441470482607, 49.41428571428571, 43.37254162986431, 49.64658268874422, 37.35877712245916, 42.76552342259175, 53.123659892451414, 33.071841501826604, 38.88851528510131, 42.345536010118984, 29.164132933184824, 55.07142857142857, 44.025862068965516, 42.242220007216545, 53.45354907768687, 39.627151240873715, 51.373764979827186]</t>
+    <t>[37.00628341508042, 44.06547619047619, 52.4631478277451, 50.51374076684662, 44.349566429797555, 43.677503321655344, 47.294642857142854, 43.262417024179975, 52.410682055483115, 42.8728207190108, 39.3586181054312, 42.65442339117953, 48.51621888698745, 45.430266922075376, 34.34375639292592, 37.87968697466887, 58.62708072714221, 39.77210475012574, 43.84589263297698, 31.2611832552175, 48.23208017461879, 35.169642857142854, 45.449999999999996, 53.66428571428571, 39.872648481926845, 53.62595250064446, 46.242414283776945, 41.410714285714285, 56.80527668907515, 36.9789392511067, 46.36728604117399, 41.94210173832572, 37.285714285714285, 50.46441470482607, 49.41428571428571, 43.37254162986431, 49.64658268874422, 37.35877712245916, 42.76552342259175, 53.123659892451414, 33.071841501826604, 38.88851528510131, 42.345536010118984, 29.164132933184824, 55.07142857142857, 44.025862068965516, 42.242220007216545, 53.45354907768687, 39.627151240873715, 51.373764979827186]</t>
   </si>
   <si>
     <t>[35.72593910588404, 42.82948830698498, 43.13037010838597, 48.23901173793155, 36.64583070629352, 33.16366657397402, 41.407227371173455, 42.77840017463276, 42.93173136772263, 39.7975332849884, 36.92582950576935, 27.53378359312967, 44.31240935674201, 47.682097783139405, 34.82421584393548, 32.815540153561656, 52.33895430646947, 39.49215417705277, 43.536359183462714, 34.236629593584084, 41.044339794740175, 29.038911390740022, 52.271317024658565, 47.42281657363766, 41.945859945914506, 36.999723638338374, 41.21420423056645, 33.164256341592655, 57.005686648205675, 33.84268628494699, 45.66373915922885, 34.99775019923602, 33.926965316141384, 46.76281992734399, 30.477790389108975, 51.343650097552526, 54.7905031725785, 34.67657926781566, 40.99992636009976, 37.033572710405686, 31.809684012903677, 51.90756287840792, 25.988677192491263, 36.75817127052135, 47.256936092887024, 34.38686961015293, 33.226774015213465, 43.21774742890039, 37.5493627369416, 52.525067240420995]</t>
   </si>
   <si>
-    <t>[32.49816429493495, 44.55849047973537, 47.39795241017286, 49.27752098899636, 38.15941310812007, 38.74768503520625, 49.32368567849676, 40.82551976871964, 48.54287926702479, 38.81461537969885, 35.011815759223076, 41.84554424773614, 51.08911878552059, 46.000020076615144, 35.6918135873117, 41.19368100165485, 51.18883251292312, 34.28966778163292, 43.55761943842572, 34.88566140849237, 42.23871993966715, 43.445684825887646, 49.17147784396192, 40.48340943361351, 40.83206213019248, 44.968835492341725, 38.73206923734857, 32.21734566357335, 60.42243674975109, 34.47018417223277, 48.40012844258992, 40.39093396654838, 39.68231752535617, 53.13155656217152, 35.26232815488409, 46.506675889299046, 44.60712137930681, 33.429027545027324, 34.18983877895571, 56.5593223433674, 34.821116049491074, 39.17474762038045, 34.30947101750572, 41.55397243361118, 55.010445622562315, 46.378803385979325, 39.10655727689662, 49.23141895032102, 45.46309041624668, 37.37002060311853]</t>
+    <t>[31.45596994037964, 46.69182615840814, 46.33829969724703, 46.788826260423306, 35.503318945760334, 37.38536054759074, 48.271973311020034, 33.35923771323521, 49.126539130007295, 39.910166782020625, 34.06057544706914, 41.25854870052881, 44.359496583025205, 43.075255099287965, 32.711157407057506, 40.16324156873394, 58.044324996100734, 36.54873922748725, 43.443014615084785, 36.77028106161021, 40.56503970142722, 42.33661777030126, 43.428262221687184, 42.680480376134014, 42.19719597523852, 44.2011319962826, 36.04570440459987, 34.00491484144235, 63.474343648952676, 35.98260492195377, 49.7550009235604, 41.88344796118834, 40.15629405546314, 49.72638414966118, 34.16434489209134, 44.00423456291567, 46.743243395252875, 31.701608960818128, 34.400514451684394, 54.920004290069905, 33.33596552289383, 41.447379017060534, 33.50864101532099, 39.11684236176326, 59.77222193535021, 45.04946372632951, 39.83557044434868, 51.688034626448484, 46.988275054861255, 31.785113375113458]</t>
   </si>
   <si>
     <t>[33.10698739413557, 40.06000491550991, 47.56852073669433, 41.77325306619917, 31.468414851597377, 39.149340399380385, 46.166493211473735, 33.92185897827149, 36.41670690264021, 31.443474633353098, 36.315134114232556, 36.34009041104998, 39.51783270154681, 38.70432833262852, 30.832049778529576, 27.037237348227666, 54.236871991838726, 34.36444418770926, 45.90806286675589, 27.987185968671525, 38.7138917857203, 30.781435557774135, 44.16084611756461, 36.660448346819194, 31.581989560808456, 51.46770963997677, 33.26565660749163, 30.065653800964355, 50.170685631888254, 30.300690705435617, 39.56266916209254, 35.921485849789214, 32.85312993185861, 52.19652870723179, 30.911609431675505, 35.156556885817956, 47.55848756517683, 43.71593747820173, 28.980871609279088, 37.938068117414204, 33.5103939319479, 37.886317471095495, 37.09746633257185, 27.409612110682897, 40.40897423880441, 33.653601284684804, 37.33980369567871, 41.84222303118025, 36.72542245047433, 28.067797579084125]</t>
   </si>
   <si>
-    <t>[34.631649520342265, 53.473489777694034, 60.37139953513901, 65.87564958973859, 51.2139055852234, 39.727129096717015, 78.82837568678168, 47.895370213991825, 62.15757620970755, 58.49448093152813, 42.451828946997, 67.12695341955349, 58.10631916113429, 68.38030313683603, 61.59476428102327, 48.84543826081133, 64.74514395903711, 58.57158509745543, 62.60802224816269, 50.63931914355046, 66.34448886977077, 58.11142713457938, 65.56640400290718, 70.59244927498649, 70.93874552791326, 47.65996165105259, 54.99125752848041, 57.7444420484375, 69.5483412379218, 62.17075312421922, 60.65813190245048, 53.770127253632396, 48.717057786564126, 66.85993498365586, 48.21322220812847, 66.8083522780444, 76.36418536752964, 44.62817139228486, 49.001137615242, 71.6723912669651, 58.898261234317765, 62.736083033778655, 52.64391883263146, 46.16101450857184, 65.85451399456431, 50.32730289531902, 62.39071792479955, 61.279254173095865, 55.744750884178586, 64.18062633343737]</t>
+    <t>[34.631649520342265, 53.473489777694034, 60.37139953513901, 65.87564958973859, 51.2139055852234, 39.727129096717015, 78.82837568678168, 47.895370213991825, 62.15757620970755, 58.49448093152813, 42.451828946997, 67.12695341955349, 58.10631916113429, 68.38030313683603, 61.59476428102327, 48.84543826081133, 64.74514395903711, 58.57158509745543, 62.60802224816269, 50.63931914355046, 66.34448886977077, 58.11142713457938, 65.56640400290718, 70.59244927498649, 70.93874552791326, 47.65996165105259, 54.99125752848041, 57.7444420484375, 69.5483412379218, 62.17075312421922, 60.65813190245048, 53.770127253632396, 48.717057786564126, 66.85993498365586, 48.21322220812847, 66.80835227804441, 76.36418536752964, 44.62817139228486, 49.001137615242, 71.6723912669651, 58.898261234317765, 62.736083033778655, 52.64391883263146, 46.16101450857184, 65.85451399456431, 50.32730289531902, 62.39071792479955, 61.279254173095865, 55.744750884178586, 64.18062633343737]</t>
   </si>
   <si>
     <t>[40.30947197219288, 38.83610093899116, 63.90194360668789, 61.846622256682814, 32.76735407947872, 37.92788039086946, 44.07852620022468, 42.22851420029332, 48.04886269291118, 42.4657185634889, 38.44959021834602, 38.403562111961996, 56.282119585194614, 43.50507255184382, 37.73069052616107, 34.46770305989887, 49.75646321874293, 37.888581526870254, 39.38699462571424, 38.848702948567855, 38.553523914274386, 53.02874065961425, 50.38385838396529, 53.63634328214897, 46.276895628337634, 40.76831951979247, 34.90241774291356, 32.92182823258036, 81.07318948149934, 37.92797779882973, 60.03186005108284, 39.08268511302096, 49.65212533545817, 37.99514053935463, 33.39715213540323, 43.93944397470652, 52.04995017290319, 30.72021325624824, 39.59962411314045, 48.8602621565945, 40.11942972326874, 46.52941498186068, 55.457063569062974, 43.74787392508155, 46.44096892097069, 39.6360683549121, 36.08328611563909, 47.62647352701157, 45.526754149974586, 44.789982410955886]</t>
@@ -1081,7 +1081,7 @@
     <t>[35.19730526283117, 43.251928901515164, 46.57923213780172, 54.27106992683332, 33.48036595905302, 35.80713778166217, 44.05019858271635, 43.869131285508494, 46.28302877376875, 35.69406590998988, 41.6164907263944, 35.403719126213346, 47.415201703178, 38.37139946172236, 35.68748986096139, 44.073132015462285, 47.965827764317666, 40.2559630129742, 39.424676253427585, 35.85470708639654, 50.374825318550265, 36.79042623519183, 56.48192541466555, 43.73576857979682, 41.81394453415741, 37.48125664428565, 43.03938785890482, 37.88513269933758, 63.40554623219979, 37.5439210464823, 62.339963413707665, 35.03853044878177, 39.231227312821865, 48.97394730719194, 37.82952415853601, 42.10465150629624, 61.55761924817565, 38.38056465880391, 40.023753057008726, 48.364705504242075, 35.33192792976889, 44.63996115606049, 28.931723268151067, 33.08288496900799, 50.47075182845789, 39.27433897084592, 39.71626983655791, 48.855706395499865, 50.64737629776367, 49.52002918080552]</t>
   </si>
   <si>
-    <t>[31.389972674322923, 45.419005857693364, 50.91399388495928, 47.379850231611066, 38.74828008484101, 36.274091243265154, 49.09809203265913, 40.28296819223112, 47.32795391845348, 36.257145970851816, 38.20819532773914, 42.08638030508769, 50.8593218056022, 46.40964673361589, 31.083828250986695, 39.68261018543969, 52.33176298016205, 35.24616560432097, 45.7690675058459, 32.98218864768161, 46.483728731467245, 38.834495965887434, 46.82403460060751, 40.460746890605954, 40.2555280967697, 41.84532214765084, 32.63658504642047, 32.6469916610847, 60.48152232125593, 34.77625786825786, 47.24007553721576, 38.5552514428958, 39.66888774926759, 52.86080618719062, 37.478790286991895, 42.3592916198432, 47.92552500827596, 34.03727848800643, 32.59893529266544, 47.891816473366895, 35.04468280399033, 42.37813737024759, 33.43133416346827, 32.535623327046814, 54.466286438122665, 45.86498209492412, 39.51276189497863, 43.18677933778614, 45.60781078404657, 36.48231732893227]</t>
+    <t>[30.398058408685394, 43.69922454479142, 49.316643940241526, 46.837615425272055, 40.45298836679602, 35.350982319818826, 50.79164371625673, 35.24315878755725, 47.72696782002776, 37.61149384618634, 36.683300244233784, 40.46667964817815, 50.20251282927348, 43.266953385344756, 31.082022180776896, 40.67593963953147, 50.09879735758771, 35.022888355494345, 46.63261242710578, 35.21259756085986, 47.19829930596174, 40.99061501469627, 41.62735771870965, 42.39813012748446, 39.32264183252006, 48.29101953400006, 36.48445024026033, 40.21208861014711, 61.001785238754955, 35.74509265935547, 49.062879394978424, 38.5719887054451, 39.96956122345859, 50.33718954871448, 36.94494436987782, 43.62433776986546, 49.793947684200475, 34.183561520758424, 31.987841950188045, 52.46837475929181, 33.95984663101387, 43.78488992529147, 34.234009753547134, 33.60407392594802, 55.127153524625115, 44.41907551058132, 39.64919416740195, 46.158704124002114, 44.516422661796746, 34.85922367434889]</t>
   </si>
   <si>
     <t>[27.821039208050433, 43.51963642665318, 39.57050628662109, 45.77249817337309, 36.65740122113909, 38.664818796618235, 42.97144590105329, 29.01330778939383, 41.04905319213867, 28.13013117653983, 36.813485244224815, 27.878324099949428, 37.93605163778578, 44.301152910505024, 28.772326741899764, 31.814733505249023, 56.1684626851763, 30.844722475324357, 46.481927062783924, 24.5860000201634, 46.726301785173085, 27.609697886875697, 46.54217090436391, 34.686902727399556, 34.05466161455427, 42.79271329682449, 36.82217952183315, 28.512131554739817, 48.94869899749756, 28.153354317801337, 39.713229146497, 35.34014756338937, 30.352582250322616, 51.62478569575718, 32.230160522460935, 35.43532716816869, 44.377330998012, 35.392020906720845, 34.274958678654265, 38.10535723822458, 29.999305478457746, 45.875356456211634, 34.193496567862375, 29.114028521946498, 41.50867789132254, 34.40046534044989, 40.442039591925486, 40.77331379481724, 38.02193308302334, 35.92925583975656]</t>
@@ -1099,7 +1099,7 @@
     <t>[28.475998941596405, 46.8085935361708, 51.74931861068179, 50.38057791384894, 39.15799585542966, 34.64723351987788, 45.91474236644028, 42.54883814737258, 50.293046149546576, 38.58315902120505, 39.09259772471574, 36.592814736193766, 48.12641641251276, 42.48592820602561, 35.518859024086325, 38.89338635714371, 48.36441058698785, 35.94066621111073, 49.83537700179015, 38.712420999452846, 48.163961941849614, 47.233254486441076, 54.1236850236698, 48.62052115666645, 45.335033175448146, 38.96349029451612, 44.390637906607076, 39.309114212858894, 54.940187611548545, 40.7839571002645, 56.923751641898534, 40.04492509354176, 40.587609972655024, 41.57610008188567, 41.33526971716659, 45.54714906500172, 51.41395116497498, 29.639017293850916, 40.7564240948603, 50.30867517908465, 40.62801365173745, 49.846802537312044, 40.5057340033768, 32.445069171265, 48.83335889543036, 36.629415769266465, 42.11364488204298, 44.83430139410695, 50.06548012331865, 36.46235552031824]</t>
   </si>
   <si>
-    <t>[25.137971457478027, 42.62319690826002, 46.017397930936845, 48.143703820914446, 33.11194990991189, 32.14877545007071, 48.62074834727038, 37.509301165790724, 50.18017495063609, 35.044874895060325, 36.97047454122683, 39.50901075299385, 52.453721379056226, 41.60080820713673, 34.02662276725631, 35.885527566395, 52.208538768130566, 32.76328533108692, 45.8593705500798, 35.732291807289464, 40.25432954766437, 42.332291684586714, 45.70732063589204, 38.89604015766853, 41.284879982457326, 44.571161089879176, 37.4091959539423, 32.90009672481479, 64.44806861504513, 35.54235581743836, 47.938912130011374, 37.883984346967175, 39.34203003160134, 51.90403017518579, 37.85270906179397, 42.83520093688698, 44.166446805635154, 33.03205194866063, 34.10745628460834, 54.80187281786094, 35.87226627871306, 40.57051583440231, 37.69690916264523, 31.468281368984577, 56.85375929383041, 40.96130456069244, 39.739553182897104, 44.459329694802214, 46.53302943614146, 36.84215342730607]</t>
+    <t>[30.460107383931785, 45.198934225538345, 47.90188498807704, 46.74888359659569, 36.86962842268583, 33.35818195904301, 51.13623170834159, 35.93518100613576, 49.06314959840544, 36.36090826045676, 36.27850732372038, 43.021495665456015, 50.13405362464391, 41.601107773667124, 31.9083623104663, 37.45755393974952, 51.38172236976914, 32.909358490382274, 43.55943054825887, 35.827401276235264, 40.469955403167, 45.199597003032935, 46.01068090750107, 38.8845147522977, 41.042433778755154, 45.02864905421901, 36.972706534952636, 31.27412390467464, 60.52833585101276, 39.13663385803704, 48.20714098304163, 37.97091838572523, 40.83211794565092, 53.174592262112334, 37.081938701315345, 43.3430726269631, 45.079204310093886, 34.88501701142537, 40.43407073408641, 54.004817347037225, 34.69043427948521, 40.616368814704906, 33.9688434871286, 31.063638298572716, 54.786570636847436, 43.41466383252997, 39.42205837182816, 46.60124740857862, 44.782706981461146, 37.436261868612554]</t>
   </si>
   <si>
     <t>[24.770122264993603, 42.474771227155415, 40.87183004106794, 52.50980118342808, 36.036272048950195, 31.330900258031384, 55.90648371832712, 37.51044479097639, 47.221087319510325, 31.15609404018947, 41.77090062766239, 29.9509083202907, 48.6817242213658, 33.97353451592581, 32.47111633845738, 30.036720802044048, 51.626799310956685, 34.46785436357771, 46.06080763680594, 32.81559489113944, 41.338551488415945, 23.43235887799944, 44.95557176726205, 42.82777466092791, 39.28579725537981, 47.62307731447549, 31.70488943372454, 27.48887770516532, 51.15091977800642, 26.059669303894044, 38.9202959784146, 33.66028617961066, 36.87250491550991, 50.71263068062918, 35.392383555003576, 42.375093920477504, 50.390344905853276, 39.39282471793039, 37.54850333077567, 43.916491644723074, 25.805983181657464, 33.03854075840541, 33.95638908658709, 23.030957017626083, 40.50352028438023, 35.64970253253805, 40.838999135153635, 41.89456720011575, 42.15910816192627, 42.790736177989416]</t>
@@ -1111,13 +1111,13 @@
     <t>[30.294644755193612, 35.199930652510496, 48.75839109521332, 61.60244963803948, 35.358283393434874, 34.08517206092507, 42.232223315470826, 32.53990501805486, 48.54152968609315, 38.3105346868975, 26.588002783560274, 39.8327900978663, 45.802340845729226, 49.547895303352234, 37.509979099980896, 30.04049895120708, 48.358163475330116, 36.02751174754407, 43.10527793119194, 33.45527404971418, 37.53982331761807, 48.15987182112524, 47.661731648719424, 45.78778279227087, 43.29747558055111, 38.808100489667005, 38.30974039729108, 30.816294658248175, 62.99918856730049, 31.856046189838374, 59.44014769741269, 36.065650810316846, 43.79026812882953, 51.58758510623337, 32.72448422174989, 47.97915784138038, 44.26769571144569, 32.783349420927344, 43.03721373221236, 45.48307597784746, 36.216675013574786, 58.79249038129943, 37.74361182966061, 26.883135765218388, 64.50579511972579, 33.837111947886996, 46.794467812646225, 46.46709625026692, 47.28800385674391, 32.82827016094802]</t>
   </si>
   <si>
-    <t>[29.962715589219478, 63.3577380952381, 50.374657501925135, 49.41498365706839, 38.64492243282003, 27.62231316834663, 47.00588927346199, 37.269632459889614, 52.38983048152979, 38.55854381551493, 37.23202214133325, 39.286954038976674, 50.62777167041298, 44.69720095547459, 35.226652125034846, 37.83607593825149, 58.46658680701397, 34.32488051424385, 39.950814367089826, 31.67522760179273, 44.10788405817418, 35.8312084899091, 55.28083893397709, 50.68197266891814, 38.09718241109495, 47.62525952433819, 39.1656658256238, 35.82142857142857, 50.35113124168076, 32.61358260252731, 42.53089392402907, 42.78411904631407, 42.16415757351304, 45.092581926168954, 43.32078583650274, 37.19803695799696, 46.935819817295354, 32.91037023702227, 33.497439741818724, 56.1541904726604, 33.16072606193948, 51.54704134442109, 36.408472179473804, 28.638637833664593, 65.01190476190477, 41.75587445271926, 38.98963965850748, 49.67857142857143, 43.007783616308764, 26.180574141042342]</t>
+    <t>[29.962715589219478, 63.3577380952381, 50.374657501925135, 49.41498365706839, 38.64492243282003, 27.62231316834663, 47.00588927346199, 37.269632459889614, 52.38983048152979, 38.55854381551493, 37.23202214133325, 39.286954038976674, 51.12607945212881, 44.69720095547459, 35.226652125034846, 37.83607593825149, 58.46658680701397, 34.32488051424385, 39.950814367089826, 31.67522760179273, 44.10788405817418, 35.8312084899091, 55.28083893397709, 50.68197266891814, 38.09718241109495, 47.62525952433819, 39.1656658256238, 35.82142857142857, 50.35113124168076, 32.61358260252731, 42.53089392402907, 42.78411904631407, 42.16415757351304, 45.092581926168954, 43.32078583650274, 37.19803695799696, 46.935819817295354, 32.91037023702227, 33.497439741818724, 56.1541904726604, 33.16072606193948, 51.54704134442109, 36.408472179473804, 28.638637833664593, 65.01190476190477, 41.75587445271926, 38.98963965850748, 49.67857142857143, 43.007783616308764, 26.180574141042342]</t>
   </si>
   <si>
     <t>[31.63002453682163, 48.13228035345844, 46.74282518440849, 52.974570588922816, 34.850978878901245, 35.530744562795384, 42.52978024065637, 40.834634645515685, 49.86832286713633, 43.05362708580198, 41.41932622187612, 38.448682569192655, 49.54205752662081, 39.92574869700961, 33.90487469304551, 38.85302271950789, 54.55319157600893, 42.87438375611879, 47.818833742056015, 36.05346110532036, 57.567722640278404, 42.499414426078765, 54.29799341094565, 40.659707913577314, 42.45780724019411, 37.41665539094105, 39.290500276855596, 34.94421997861897, 56.369155863101504, 32.210731752177516, 59.83923612110767, 34.53874281437804, 42.342515516389874, 43.85578589759426, 41.88314634110178, 44.42881925630329, 58.064951332315424, 33.88263746156777, 37.632278077785955, 53.41148583574613, 36.344180298200094, 47.101219710726234, 27.98428621831328, 34.44733719516386, 54.582690218516, 35.52281185635783, 37.478679245597796, 48.66143772433429, 45.69665943730639, 42.58389248455957]</t>
   </si>
   <si>
-    <t>[27.942501730203045, 46.769671976070526, 50.469880339928295, 49.82925502234128, 37.13599562622368, 35.464218416147745, 46.28808561828807, 33.69737043230141, 50.32983012429236, 39.00960904674872, 37.10345134659327, 40.851673108392106, 55.490572656164794, 44.069728571410266, 38.83300701847041, 36.32895290440418, 55.47383916256636, 40.751174510958506, 44.25046782991933, 34.45493397975488, 47.23804065331945, 46.14885756558092, 49.06370265111468, 40.68606107996005, 41.33672956371423, 44.7486791299492, 39.75575159056336, 35.79246157797301, 63.09671231814881, 35.668862934616236, 46.9214886251628, 39.41912239558449, 39.00290412616245, 54.447068333407536, 35.31144126856773, 42.484733967480096, 45.728546396162, 36.854455804238604, 37.44374756300139, 57.46995583927181, 36.721089993098694, 41.94327543960771, 33.43426941711452, 38.247683176680084, 56.886780056731105, 45.14408373309121, 38.02863748337558, 46.44924365680662, 44.36953817321726, 31.924533604738617]</t>
+    <t>[30.39209268488517, 44.97632952816577, 53.27606187929803, 49.16308061605452, 34.87941137839993, 34.616534807825516, 47.9823499409028, 37.41366908509006, 51.05505330687456, 39.19028306360717, 36.14347213746739, 41.259441657229345, 55.24412385741935, 42.751990713323245, 37.40961427285327, 38.008912469180466, 58.209970233809166, 39.00675703602197, 49.26774160408669, 35.94435365936997, 45.207188734874016, 45.35101211990749, 46.564620170995035, 40.775219781812744, 39.86730478055588, 46.14851466347915, 36.55272323517288, 37.51162869161952, 66.83313130442113, 36.31396371051715, 46.56347489920469, 39.91818065735224, 41.27221532333097, 53.92830152833358, 36.34647576569133, 42.77237022788302, 48.95007318242843, 34.80731960632962, 38.87514512927826, 59.1389809047157, 35.87281470743806, 39.9800646168901, 32.825222218799944, 36.63518376335769, 55.47615160861835, 44.98072375948632, 37.2892059287886, 48.763727741679716, 45.63695033720156, 34.138881966817614]</t>
   </si>
   <si>
     <t>[32.24106216430664, 42.14990016392299, 47.8598915372576, 47.29407909938267, 30.978935922895158, 37.79358462629647, 47.078853607177734, 29.065541076660157, 42.435338156563894, 34.76789052145822, 34.139831411427465, 42.7998035975865, 40.77085767984391, 48.924799237932476, 31.491148403712682, 31.354465353077856, 58.36807305472238, 38.273999077933176, 43.91752140862601, 23.524661554609025, 41.36024350133435, 34.384500231061665, 52.49978966883251, 46.66982582637242, 37.313655035836355, 50.24730379828091, 24.6344507421766, 23.769968850272043, 51.123421805245535, 33.49560350690569, 50.34003053862473, 38.901032311575754, 38.01319122314453, 49.62787512370518, 32.816248771122524, 37.834267188762794, 45.27792516435896, 40.90133326394217, 29.23455388205392, 44.79871300288609, 34.93684689751987, 35.500318472726, 35.913123403276714, 30.241371699741908, 42.89027500152588, 37.248211827771414, 36.15149893079485, 43.70178631373814, 37.32902588163103, 31.54149513244629]</t>
@@ -1129,49 +1129,49 @@
     <t>[33.98724664506271, 51.242451897835636, 44.71909030746388, 45.46061453070013, 42.92932975814126, 43.93252126177761, 43.96985169628878, 49.71314320019322, 45.37266254718452, 33.25615996046968, 40.954639247172736, 50.85594962183078, 43.97504798338174, 59.07964797924654, 35.097972234998146, 33.1055404875932, 53.422367409766856, 38.2275291229211, 46.86233067245511, 33.38442968074613, 45.39775490164817, 42.29260550522596, 46.183608152493996, 48.95156165004362, 40.19107534435326, 43.286624847569726, 39.93607169339209, 43.27195953322187, 52.37146367192288, 38.45363546742554, 52.18135579039467, 40.73775499087843, 33.37740832655955, 59.64423448027086, 30.810519474101394, 49.17830935003377, 57.10411645674865, 36.17618749330677, 43.2723938186812, 41.03826889611706, 34.45565132394695, 50.624419559495905, 33.869061564026715, 42.31003261283282, 41.321953376990294, 37.64397689528822, 43.34792970604901, 48.764698204778014, 49.79170114605023, 58.210073510853135]</t>
   </si>
   <si>
-    <t>[30.94292406090747, 46.05220021932752, 42.96080381538568, 49.5329931412976, 51.8125, 38.185417378725106, 47.892857142857146, 46.24166666666667, 43.58439907334712, 41.030690919068284, 39.080674356045726, 44.357142857142854, 53.29821428571428, 50.07957438567729, 41.05357142857143, 37.404224683328245, 60.80357142857143, 41.61271158221249, 43.135714285714286, 33.690255110857365, 46.87061205747975, 38.875, 48.54821428571428, 61.114281897391585, 38.91649514696074, 55.10911368009304, 44.1678627345766, 44.61655083254617, 55.5085924851835, 45.96190476190477, 47.42327586206897, 40.151785714285715, 35.330357142857146, 43.88268843520036, 33.70506275293456, 43.32872476152996, 49.06079247272361, 36.91878403929587, 54.82367823464365, 46.52637643314465, 33.40835839067518, 47.6984003103077, 37.907639498218906, 50.47428571428571, 57.669642857142854, 41.94131136580879, 41.93888779581798, 52.481892718549155, 44.93642828889391, 55.682085854817764]</t>
+    <t>[30.94292406090747, 56.78214285714286, 42.96080381538568, 49.5329931412976, 51.8125, 33.214526354646615, 47.892857142857146, 46.24166666666667, 43.58439907334712, 39.97499999999999, 39.080674356045726, 44.357142857142854, 53.29821428571428, 50.07957438567729, 41.05357142857143, 39.135771264921864, 60.80357142857143, 41.61271158221249, 43.135714285714286, 33.690255110857365, 46.87061205747975, 38.875, 50.571439892584735, 61.114281897391585, 38.91649514696074, 55.10911368009304, 44.1678627345766, 44.61655083254617, 55.5085924851835, 45.96190476190477, 51.07586206896553, 40.151785714285715, 35.330357142857146, 43.88268843520036, 93.27142857142857, 43.32872476152996, 49.06079247272361, 36.91878403929587, 54.82367823464365, 46.52637643314465, 33.40835839067518, 47.6984003103077, 37.907639498218906, 50.47428571428571, 57.669642857142854, 41.94131136580879, 41.93888779581798, 52.481892718549155, 44.93642828889391, 55.682085854817764]</t>
   </si>
   <si>
     <t>[31.42682260735916, 44.17477054287645, 39.202528494808085, 48.318716576593204, 36.7593175420684, 33.60222051184059, 43.91182727635187, 42.36132424894299, 42.22045292122342, 36.09732830254388, 38.06660200971369, 41.480115413666894, 44.6330972826057, 47.0683225347377, 29.595266944083342, 26.004696949310183, 46.949815673665704, 40.906707468454094, 44.821991488491484, 33.975699233819476, 42.71184647557716, 38.09585439469868, 44.35219457726115, 48.33913162735728, 29.799809229989282, 35.97677214371412, 36.01006539309516, 32.80314466190021, 57.213091114131124, 32.03049453831991, 43.49591491617318, 39.673387963556976, 31.835905272729097, 46.3321632697044, 29.637216193172577, 38.196605392206784, 53.45849911435788, 37.53567588764587, 40.101440467770615, 36.66761349422069, 33.85941440142038, 50.493555623093776, 28.19085422579598, 32.964824115396944, 39.52276691069028, 31.714702609222538, 32.36651218237468, 41.71088110658231, 40.55105373671222, 52.30750563610383]</t>
   </si>
   <si>
-    <t>[33.20491627316376, 43.64285457360978, 44.85182227127302, 44.4619491856343, 32.96527016112976, 27.660008566173506, 45.91077448929365, 42.6521496448147, 48.10379843153937, 38.63652724620023, 35.64028480490618, 40.28854456152455, 54.25203663216352, 41.730458633832704, 34.34341619004367, 36.92649609962186, 55.9240524325482, 36.345268251327305, 44.710907483289496, 37.3732656729128, 41.94975460927385, 41.16978608480075, 48.44185538947564, 43.45021010842784, 43.369274954853736, 43.55191836265568, 36.48511901987848, 35.6671264996569, 53.30412956419794, 34.19457982500787, 47.49233370395223, 39.651519599135504, 37.80397251198896, 56.218655940676236, 34.71958987853481, 46.60433459409246, 42.34856555731354, 32.70590126155663, 33.44364531947016, 47.66460122241493, 34.784091108544615, 34.81556022935304, 38.07468508679199, 38.298978434794535, 52.787916112686574, 43.41338581667152, 38.089508140703586, 49.912265318541536, 44.989341421198205, 33.74631263694504]</t>
+    <t>[32.9082859629377, 43.441115048057895, 46.18592860327362, 44.31741328349282, 34.39785535974157, 26.23184814963612, 47.1514661348823, 32.985015228519366, 46.57855139000539, 39.27823112554865, 37.74188013852776, 37.01383043835829, 52.10722982808759, 40.588560954622594, 34.95740704007881, 38.09358550279239, 55.95489206771242, 37.139287663983325, 46.54193713838419, 37.44024681443854, 41.54745466198743, 40.42259637487426, 46.03422183620631, 42.05363322651173, 41.98400570339972, 41.451790517909735, 36.66235498538217, 40.44290645510268, 53.66112241006437, 34.59497289686726, 48.55576614925397, 39.07014466909048, 37.445726492293474, 48.29903846884671, 34.5448774339265, 46.46773257358353, 43.48703578293039, 34.237842887225376, 34.47368103313163, 52.152447962638554, 34.605433123268625, 37.66135053175803, 34.09257228193302, 42.013906390798645, 56.970133814516124, 46.241616044803344, 36.617240251667525, 50.23864765654891, 44.60038265168248, 33.13541175422747]</t>
   </si>
   <si>
     <t>[25.637749441738787, 39.43545872824533, 41.30068021501813, 43.88553656850542, 27.074711390904017, 28.24574845412682, 37.803957666669575, 35.766777869633266, 42.81047030857631, 30.825852121625626, 30.04193167850889, 34.32835224696568, 41.41460113525391, 37.237850597926546, 27.501811231885636, 29.793777794673524, 51.24990054539272, 34.74875014168875, 37.6958980517728, 38.31385188783918, 37.79318158379917, 31.68485709599086, 41.245526736123225, 35.04522432599749, 30.314899129526957, 48.74942404648353, 33.17921257019043, 30.278178896222794, 46.07346330370222, 32.14317943028041, 42.88800206677667, 32.30483790806362, 31.701021330697195, 42.11992522648403, 31.995673533848354, 41.419286037313526, 46.801592499869216, 29.17888287135533, 26.585809562887466, 36.48353113446917, 27.03227605490849, 35.18586970738002, 37.53525243486677, 38.29629789079939, 38.30935614449637, 39.7139436129866, 36.90677533830915, 45.0616773877825, 35.509113379887175, 41.46943411145891]</t>
   </si>
   <si>
-    <t>[46.72385168485486, 57.12740116628847, 57.62152013537749, 65.71323427635119, 52.46369364276368, 38.96167367275267, 61.99145712608925, 60.873278133760614, 65.04614590975544, 59.80891400765193, 50.77128086342062, 50.211322999023025, 53.1375060396844, 63.22517790893982, 59.137401937413, 50.11498386971312, 61.1400668109281, 49.23564937675086, 58.9577522868995, 47.714340673290664, 66.09908730461049, 51.423801295573966, 68.50807902318338, 64.55247650463623, 58.96686521638275, 63.55639579768306, 59.131017753410504, 58.19176280498764, 59.62811879426398, 61.00422559060954, 71.65818561788248, 48.58316907966907, 41.42068071455617, 65.4223701680904, 52.02369666821645, 61.734165969587266, 75.75395913024717, 44.41635281808549, 61.70281453170575, 69.77447008452249, 51.06223477166513, 61.34867971727702, 62.930393978259694, 44.51556768844955, 77.46782800340846, 49.483947828538255, 57.53496711377321, 70.31209984831081, 53.02507198253471, 64.27096983715187]</t>
+    <t>[46.72385168485486, 57.12740116628847, 57.62152013537749, 65.71323427635119, 52.46369364276368, 38.96167367275267, 61.99145712608925, 60.873278133760614, 65.04614590975544, 59.80891400765193, 50.77128086342062, 50.211322999023025, 53.1375060396844, 63.22517790893982, 59.13740193741294, 50.11498386971312, 61.1400668109281, 49.23564937675091, 58.9577522868995, 47.714340673290664, 66.09908730461049, 51.423801295573924, 68.50807902318338, 64.55247650463623, 58.96686521638275, 63.55639579768306, 59.131017753410504, 58.19176280498764, 59.62811879426398, 61.00422559060954, 71.65818561788248, 48.58316907966907, 41.42068071455617, 65.4223701680904, 52.02369666821645, 61.734165969587266, 75.75395913024717, 44.41635281808549, 61.70281453170577, 69.77447008452249, 51.06223477166513, 61.34867971727702, 62.930393978259694, 44.51556768844955, 77.46782800340846, 49.483947828538255, 57.53496711377318, 70.31209984831081, 53.02507198253471, 64.27096983715187]</t>
   </si>
   <si>
     <t>[41.902678088455744, 39.0563720531742, 63.328160453847225, 61.379597724733216, 33.72004331437099, 37.90368354487881, 43.60801196954846, 65.24254965136974, 46.091413282156736, 37.06209359696469, 56.82366068470131, 39.91185747586893, 57.11235740246746, 42.43294029686814, 33.77073712375918, 34.82241209237835, 48.488453549322564, 60.06425212446733, 51.63837470083198, 39.153437605278775, 37.30515370796284, 54.36669334318532, 50.299318589232016, 49.72645341448573, 45.327449471819634, 39.12391978041317, 35.802247515572, 33.555796097138554, 64.94412650749719, 36.30413093672413, 60.578593411056424, 39.371830732921616, 42.84324072315061, 72.62404060987839, 33.81110806837613, 74.72793321372491, 65.151605304932, 30.73497183300307, 41.75056692768809, 48.88324245158991, 38.514013059744855, 45.76464565448358, 56.79057392360067, 43.90824671896165, 62.78886285696977, 40.17190637338407, 48.780169349780245, 49.3508379244049, 44.31982262830304, 59.30570735859385]</t>
   </si>
   <si>
-    <t>[24.53448275862069, 55.46539358187224, 35.34285714285714, 42.81791858495716, 43.402755851908, 32.52924498391513, 50.19630941731828, 35.88143894425798, 38.60797643961066, 41.07193508167578, 39.024276688168186, 46.39284260964397, 41.47678571428571, 43.875139543239605, 32.31360369960557, 40.14659348491777, 51.70066999727146, 38.9375, 33.81858494192811, 34.003571428571426, 49.450014117622935, 37.454058940776704, 50.070601415498814, 48.98688300901919, 39.24250476420616, 47.91770974101535, 39.30815522843202, 39.017857142857146, 46.47896942556872, 46.24638697549072, 42.12068965517241, 40.9404761904762, 33.746911083608325, 44.50310528535375, 45.9907320878076, 39.71991773023473, 47.774411047132034, 40.30200873843751, 38.773680886787346, 40.14573845915311, 41.89647509787556, 44.06969796232442, 35.02529516910243, 30.844808430832483, 47.13035714285714, 38.07031591103018, 39.58682400694506, 48.54084871604936, 51.91310993725955, 43.280305107664375]</t>
+    <t>[24.53448275862069, 42.89530892521692, 35.34285714285714, 41.5930688400872, 43.402755851908, 32.52924498391513, 50.19630941731828, 35.88143894425798, 38.60797643961066, 41.07193508167578, 39.024276688168186, 46.39284260964397, 41.47678571428571, 43.875139543239605, 32.31360369960557, 40.14659348491777, 51.70066999727146, 38.9375, 33.81858494192811, 34.003571428571426, 49.450014117622935, 37.454058940776704, 50.070601415498814, 48.98688300901919, 39.24250476420616, 47.91770974101535, 39.30815522843202, 39.017857142857146, 46.47896942556872, 46.24638697549072, 42.12068965517241, 40.9404761904762, 33.746911083608325, 44.50310528535375, 45.9907320878076, 39.71991773023473, 47.774411047132034, 40.30200873843751, 38.773680886787346, 40.14573845915311, 40.68930296839601, 51.50152650771015, 35.02529516910243, 30.844808430832483, 47.13035714285714, 38.07031591103018, 39.58682400694506, 48.54084871604936, 51.91310993725955, 43.280305107664375]</t>
   </si>
   <si>
     <t>[27.229957009900843, 44.46318436518191, 53.957498659282614, 48.132748970510384, 32.028216048171146, 33.804604878711366, 50.94162233876246, 46.88719594825308, 44.60710424820973, 38.808614277588845, 41.36897586767075, 37.36257167953834, 47.560121871183334, 44.6719256189038, 34.257340393836046, 38.93814207476492, 64.89447640874322, 34.48235837940273, 52.95109601326759, 41.17785128483711, 50.195481604183364, 51.57125614816745, 56.31378908876224, 50.095767360130786, 41.01747243960061, 37.30114861799939, 39.68642033039755, 38.01851707682981, 50.70570515995444, 38.51642511839888, 57.59712834008912, 31.291513080662558, 38.18633359449934, 50.923063008712425, 38.46341108088071, 44.06315583743035, 65.0442185814907, 39.13869666293112, 39.155711293454885, 46.52219716839952, 35.90762876171841, 45.933275259431454, 31.53227365102153, 36.81142421254708, 60.870918114349855, 35.033938514860424, 41.211898134079895, 48.575428265669416, 44.35609744798968, 36.42405094984772]</t>
   </si>
   <si>
-    <t>[32.77179236682363, 44.95634706555529, 48.32972506551256, 45.12320072615876, 33.39636222272627, 27.029217691227316, 49.8406874579275, 36.354399385603564, 50.59515977338156, 34.028693734581864, 40.571416862972896, 39.593724259926425, 54.079351220413926, 38.6145270967376, 36.580209486740344, 40.56927748931698, 53.19596897739121, 37.54525879519277, 43.6889817750939, 37.08739164155575, 46.383436631387, 39.18606747152349, 44.64766559026892, 44.58494950829345, 36.912477127852284, 49.722457393081044, 33.59519341901598, 35.34658032041037, 52.18454316329792, 30.334908849145354, 43.87442781726832, 35.23548767279247, 36.149307169470525, 49.722277609153636, 36.83949695777232, 43.6456477051832, 48.424121334561235, 31.91264296396596, 40.38656115448197, 52.808663321210815, 35.839764723063496, 43.548628613932586, 31.029605780653732, 37.41878802828452, 56.669897462989134, 41.70241658664879, 38.400565888564074, 50.908138024848235, 45.43794497102432, 32.57228415909693]</t>
+    <t>[33.32446975855342, 43.06480836539307, 46.66099506722446, 49.2867659284333, 32.49229278830677, 24.935005708616117, 48.098400009511224, 35.74431894940792, 50.35422912816115, 35.02126958965111, 36.865313118704265, 37.4124088318747, 52.03361183701962, 39.78617668917171, 30.939650201448348, 38.855783294780224, 53.17439737836148, 36.18326114504119, 44.77842794425261, 36.280729671606856, 45.25231509715356, 39.225658608768356, 44.56189660352017, 42.93775405745187, 42.03296252543468, 50.388001313537345, 35.02473785734603, 35.78592039772128, 52.354215167978666, 31.33664919602092, 44.203839186655266, 34.204658540726385, 35.790819126304974, 48.77329881371264, 35.96179713948328, 43.66884527929727, 41.68527514204472, 30.628861949168215, 40.513193750964135, 46.625475873881314, 37.589640508042876, 45.643896991264945, 30.52024558824161, 37.1577528301819, 53.86779797371913, 42.5238928109926, 39.12454001097605, 48.38348634599015, 45.88505859537592, 30.650118175982737]</t>
   </si>
   <si>
     <t>[25.27392814899313, 39.92401858738491, 42.24599857330322, 45.43751014981951, 29.226355416434153, 24.501615423580695, 37.321096011570525, 30.93676653589521, 49.758116483688354, 32.14332021985735, 36.04802029708336, 31.67339743886675, 41.31140921456473, 39.41284670148577, 27.026556287493026, 31.339597373173156, 54.756992544446675, 33.02326420375279, 40.44592843736921, 31.77029597418649, 39.04625833445582, 27.81664194379534, 43.02517994471959, 38.63804299490793, 34.90596662248884, 42.1707192782698, 31.81266484941755, 30.48525789805821, 44.34169728415353, 31.548101098196845, 33.66225420195481, 28.917080198015487, 31.926857267107284, 39.938528946467805, 33.86389536176409, 40.256330753194874, 41.16529432024275, 31.757963044302805, 28.472059522356307, 40.44724696023123, 39.11918069679162, 53.040400832039964, 25.619091527802603, 30.696410724094935, 37.009226254054475, 33.28658584068562, 45.743412354162764, 54.17572157723563, 45.913681404931204, 34.792556980678015]</t>
   </si>
   <si>
-    <t>[49.90463196527889, 61.05023676803257, 61.15001393650698, 64.79940525178613, 57.06614548793507, 49.19424172472715, 56.74994015614551, 49.81782998563587, 56.0493621700084, 56.89908992078582, 44.23990125434952, 64.16800380763551, 61.192490914205585, 56.883111775116724, 55.67705074718436, 49.08682469229087, 64.36753558828322, 53.37550204288385, 58.93977758479069, 46.60528444319055, 59.69574748379713, 48.02801216343181, 56.216326158674995, 67.43717816534046, 62.18867328558334, 54.77846501785883, 54.94740934344338, 53.182084397748135, 62.68561800496948, 58.03679814559507, 58.46427354257632, 40.5878321770903, 46.510847021445834, 59.47041309610513, 52.131282668064124, 58.481022552465475, 70.56226833112753, 49.74304883152403, 48.2551608583082, 67.62133096140612, 55.01840665589258, 64.81192692969655, 51.261666766640644, 45.104846335727935, 75.21893677480601, 41.34961345632188, 54.522681321194284, 61.059882695367136, 50.711471620071585, 58.19676442947162]</t>
+    <t>[49.90463196527889, 61.05023676803257, 61.15001393650698, 64.79940525178613, 57.06614548793507, 49.19424172472715, 56.74994015614551, 49.81782998563587, 56.0493621700084, 56.89908992078582, 44.23990125434952, 64.16800380763551, 61.192490914205585, 56.883111775116724, 55.67705074718436, 49.08682469229087, 64.36753558828322, 53.37550204288385, 58.939777584790896, 46.60528444319055, 59.69574748379713, 48.02801216343181, 56.216326158674995, 67.43717816534046, 62.18867328558334, 54.77846501785883, 54.94740934344338, 53.182084397748135, 62.68561800496948, 58.03679814559507, 58.46427354257632, 40.587832177090306, 46.510847021445834, 59.47041309610513, 52.131282668064124, 58.481022552465475, 70.56226833112753, 49.74304883152403, 48.2551608583082, 67.62133096140612, 55.01840665589258, 64.81192692969655, 51.261666766640644, 45.104846335727935, 75.21893677480601, 41.34961345632188, 54.522681321194284, 61.059882695367136, 50.711471620071585, 58.19676442947162]</t>
   </si>
   <si>
     <t>[28.86900615338146, 40.83743095637016, 55.20956327777274, 51.32683627004777, 34.67734683152036, 36.91913947584881, 43.1529532356769, 39.36093447880499, 53.63400131203884, 46.802214081291766, 41.010496107154175, 44.789009293089514, 53.68531716263315, 49.06077655594969, 35.04838621020768, 38.51833399823747, 63.09403694647324, 60.06425212446733, 44.784664446353936, 27.969373347330226, 53.81163686230445, 50.55363218715438, 50.10536241451182, 47.74164047868232, 34.78545967574376, 54.75241458852593, 44.81816032578683, 34.10659205741915, 65.27081789205087, 42.551805658353764, 62.06858055847458, 40.8868794820201, 45.308194675693755, 72.62404060987839, 38.99106947092769, 50.3547283479777, 58.61224831173958, 31.841085506538498, 38.80674489386262, 53.87924117117109, 40.92223947211459, 55.70242128630598, 75.82514806313078, 41.35645442202047, 54.9433612455063, 44.285071733515736, 41.68513743872206, 45.818838183009575, 44.23499587248221, 44.486455189271744]</t>
   </si>
   <si>
-    <t>[28.785497377499603, 57.11632653061225, 45.20660905085668, 51.45729509871551, 32.439533988563895, 35.899026553434446, 49.312132267510115, 37.26621911700284, 54.702681720790636, 40.93571428571429, 41.03961844987052, 34.60985321857911, 54.35680329056998, 50.04245431109674, 47.392857142857146, 36.91908169029695, 57.50119047619048, 39.52836525237374, 40.22990752255695, 35.340402287191715, 40.97038556090775, 42.37500000000001, 49.63003055064956, 52.257106835829006, 42.21550191493078, 57.90079624882059, 42.38118193243055, 33.63930722692445, 53.60131084282801, 47.05924512140449, 49.45632183908045, 44.404413720778486, 41.50768568359771, 49.61464717365489, 53.26458416479032, 46.33484992812815, 45.646571542403365, 30.591008711718455, 43.54239616766419, 53.20006420888184, 46.57011399600246, 43.48609555713808, 37.89539820526529, 36.191795001121925, 46.3549012625277, 41.922413793103445, 33.99881284947943, 51.05418058169215, 48.475797086174275, 34.553885352613]</t>
+    <t>[28.785497377499603, 57.11632653061225, 45.20660905085668, 51.45729509871551, 32.439533988563895, 35.899026553434446, 49.312132267510115, 37.26621911700284, 54.702681720790636, 40.93571428571429, 41.03961844987052, 34.60985321857911, 54.35680329056998, 50.04245431109674, 47.392857142857146, 36.91908169029695, 57.50119047619048, 39.52836525237374, 40.22990752255695, 35.340402287191715, 40.97038556090775, 42.37500000000001, 49.63003055064956, 52.257106835829006, 42.21550191493078, 57.90079624882059, 42.38118193243055, 33.63930722692445, 53.60131084282801, 47.05924512140449, 49.45632183908045, 44.404413720778486, 41.50768568359771, 49.61464717365489, 53.26458416479032, 46.33484992812815, 45.646571542403365, 30.591008711718455, 43.54239616766419, 53.20006420888184, 41.24644863611633, 43.48609555713808, 37.89539820526529, 36.191795001121925, 46.3549012625277, 41.3067896949326, 33.99881284947943, 51.05418058169215, 48.475797086174275, 34.553885352613]</t>
   </si>
   <si>
     <t>[31.700801027117404, 42.24998527184126, 46.1541555980778, 60.768939372294874, 39.64756691567493, 42.84070888169685, 49.48556881003966, 38.29515675942718, 51.290894310995206, 44.261037574239424, 38.13454621360638, 40.54025223845107, 48.706186821765364, 44.93401255636758, 35.58207050649059, 38.644599841640584, 57.334073524085234, 35.88166149524355, 46.32125890834053, 31.306594263510682, 48.12588354060503, 48.99500898036423, 52.59424740995121, 42.96629979198779, 43.08815523991616, 37.83649211599244, 42.648307485042906, 38.92869030807388, 63.296630577734796, 43.49665874851866, 53.27939030964858, 39.56539350128259, 40.053070093266506, 43.0203462949245, 41.754322010870816, 46.80137709124028, 55.308435348528896, 30.056070873451453, 39.049887666031715, 49.37267113130493, 35.77334688699661, 50.903362713575184, 40.80702057730923, 46.8357452823246, 47.05344752369143, 34.97336320036294, 38.261763106278636, 42.65284519671841, 50.49397859258952, 38.46115631959827]</t>
   </si>
   <si>
-    <t>[28.038127897832048, 44.478493406124315, 42.55765809403313, 48.624632424776955, 33.71562822412106, 27.77817665184768, 47.78376928777656, 37.111207412798876, 55.246489957920616, 35.07764303881667, 38.011141823927275, 40.60077501054236, 50.10828223566772, 41.79560060643845, 33.55238451896684, 38.47915673477668, 55.008535127383745, 35.6104703860966, 42.19252025203281, 37.28544136680821, 45.71544304557248, 39.82822654825659, 46.59097934122948, 42.125489327647095, 41.16371147930162, 46.15745417823578, 37.25236879753567, 31.338826753349366, 60.50565037352577, 39.30567406217881, 41.17493464122741, 38.42938185273316, 40.91490568600919, 54.13155292296095, 36.70781025980519, 46.18990327109303, 42.25628799063174, 33.821298090026744, 35.52110551011931, 53.80778934215078, 37.54455056976081, 42.044725635870364, 30.55655104356659, 34.39670844359239, 54.846028925790925, 41.02789943675739, 36.84625265839322, 45.51587293299239, 47.55497406724237, 37.58184386599877]</t>
+    <t>[28.175129225523165, 45.96218437720711, 41.07029260858758, 47.52720322482986, 35.74422023389065, 29.060831410514588, 47.66284907358435, 40.4398266182498, 53.90307824342681, 34.44699570792196, 39.20368829928167, 38.01171537293208, 53.15403766782464, 42.803534575237904, 34.28648479468879, 40.20454319410601, 56.39949937815152, 35.31538434433558, 43.16822933156955, 37.51092475465854, 43.28720347106704, 32.467541683592245, 41.95263045966232, 41.641860624828205, 41.77589032320346, 44.831195685561845, 37.76013430478747, 34.25847048013409, 52.814417210504025, 36.37049020568421, 43.297246155192596, 39.508392093803465, 39.81537203625517, 51.51888672967528, 34.995881783100295, 46.13664759686205, 42.01256946116625, 35.135695392530444, 34.43957982570256, 53.9447620616325, 34.4114058372952, 44.54613259527406, 31.867255900311395, 34.412955169000895, 54.82191916414819, 41.91565057245627, 38.44838064206895, 47.04428062667288, 48.39917241619775, 36.00069776067418]</t>
   </si>
   <si>
     <t>[29.83495778050916, 43.18595749991281, 37.913212013244625, 46.42674065913473, 33.07161385672433, 28.416628738929486, 44.6107243682657, 32.64387792859758, 47.02796704428537, 29.354001888207026, 41.59128156201593, 35.02937780107771, 49.04022654124669, 37.968306865010945, 33.55160474777222, 31.524476347298457, 50.66664150782994, 35.971936907087056, 37.33843835762569, 38.92033173697335, 39.62566191574623, 30.236094883510045, 51.15361639090947, 43.969539182526724, 36.66744947433472, 51.7922734556527, 33.480326652526855, 26.13738754817418, 50.65059321267264, 32.77856507982526, 33.16153033026333, 37.80347728729248, 39.44135161808559, 45.89137994817325, 36.87827459062849, 40.90684180424131, 46.55470515659878, 37.230822154453826, 34.739741461617605, 49.215133803231375, 33.56630509475182, 37.75702086857387, 40.84340698378427, 29.07485505087035, 37.56732988357544, 35.38855822332974, 35.4015440600259, 44.17096933296749, 41.38341964994158, 45.31103339876448]</t>
@@ -1183,13 +1183,13 @@
     <t>[31.394788449802505, 36.66581665441676, 52.019848154311795, 53.76489442635654, 36.85914322816474, 37.15684610543934, 41.97245826720785, 65.24254965136974, 48.90071443582996, 37.432815499802, 31.370444052493532, 44.09803200497428, 55.068304564333, 48.38775153778748, 54.579224806426545, 30.834261544359293, 60.4480909990054, 60.06425212446733, 39.66738463946058, 31.07481279642608, 44.20321315037922, 41.78729894187687, 59.758323454937795, 44.48881705114048, 35.31024360815747, 57.32282639128168, 38.34037029628594, 31.406138373573167, 64.22412731108717, 29.96482054877479, 61.430946133554826, 38.31144483984974, 39.03017236655986, 72.62404060987839, 34.13728286370638, 48.75920502991561, 49.19019425794488, 35.18252231768293, 37.95635285296707, 55.62518744012453, 38.11182392562945, 55.889399541693756, 38.254971514659665, 34.6451606820915, 51.23578645780383, 42.458234919318535, 34.835293131734915, 47.714880194786964, 47.92358598245242, 59.30570735859385]</t>
   </si>
   <si>
-    <t>[28.94998339535449, 50.95134885311659, 48.78405269852324, 52.23650438055764, 35.90408025018293, 34.71013808125648, 43.63968446002163, 35.739042715336545, 47.4138606975453, 39.69718275647197, 37.426452326164586, 39.6354821819693, 65.10178571428571, 38.97339287415991, 39.65929840427375, 40.44669789418574, 56.24256008746242, 35.356326575002285, 40.19436090708804, 35.06348740416298, 42.1860562822046, 38.060233749578366, 54.767348675494226, 45.91340004463858, 32.29977881430973, 49.02668062415051, 47.09079506635522, 33.517857142857146, 52.360885588439096, 35.51432917794973, 49.196551724137926, 46.988745449620176, 36.2680914050241, 44.975007661145064, 65.63297246816215, 40.010905926412626, 44.151823266227794, 34.329606341713664, 33.16754142449802, 55.55355725686208, 36.71973236129828, 37.05476694284495, 38.2870040250374, 28.03642694988696, 49.32111826796563, 44.91944520036588, 33.85564922516412, 48.78349513116332, 41.74359206340281, 33.21785714285714]</t>
+    <t>[28.94998339535449, 50.95134885311659, 48.78405269852324, 52.23650438055764, 35.90408025018293, 34.71013808125648, 43.63968446002163, 35.739042715336545, 47.4138606975453, 39.69718275647197, 37.426452326164586, 39.6354821819693, 65.10178571428571, 38.97339287415991, 39.65929840427375, 40.44669789418574, 56.24256008746242, 35.356326575002285, 40.19436090708804, 35.06348740416298, 42.1860562822046, 38.060233749578366, 54.767348675494226, 45.91340004463858, 32.29977881430973, 49.02668062415051, 47.09079506635522, 33.517857142857146, 52.360885588439096, 35.51432917794973, 49.196551724137926, 46.988745449620176, 36.2680914050241, 44.975007661145064, 41.84656265407492, 40.010905926412626, 44.151823266227794, 30.90241538311201, 33.16754142449802, 55.55355725686208, 33.534783940521756, 37.05476694284495, 38.2870040250374, 28.03642694988696, 49.32111826796563, 44.91944520036588, 33.85564922516412, 48.78349513116332, 41.74359206340281, 33.21785714285714]</t>
   </si>
   <si>
     <t>[28.847558392979177, 47.45548812654722, 46.710887937515665, 48.56930767017006, 35.94345831733056, 27.018134749767263, 47.64222700181104, 36.2486862918192, 46.36370230570062, 41.82419060780375, 42.02379238176175, 44.118130721250736, 47.81847419619425, 40.936380470648544, 32.711724706594396, 37.575518589978586, 59.46261830326714, 40.956049732322754, 44.52531593730309, 35.76002933081786, 47.09815715061353, 39.190023157360706, 53.17294631416525, 40.65916543054844, 39.275136801484585, 37.21338472626362, 43.11230106987224, 36.6845381983887, 52.62272102584295, 38.31405729027354, 58.31945058127222, 32.65328580825405, 41.40281588308049, 43.37231223818409, 42.375793112708834, 46.196495927337594, 59.39208628468039, 32.50365359205167, 36.543055640157135, 52.36114861440264, 33.19973117275579, 51.808597382429376, 35.64850365816859, 35.11909393788502, 51.245260602583144, 34.873222847850236, 35.95419670330749, 46.773166007335824, 52.713247267464794, 33.72640596698594]</t>
   </si>
   <si>
-    <t>[34.32892461977234, 45.15544855297101, 50.531015384164824, 52.5834953700662, 35.369959693520265, 28.669643284099923, 48.252609619332866, 35.180856460530784, 52.5323863776077, 38.09004639598574, 36.59747418532715, 40.78595747110062, 55.49761143319732, 42.170164295854306, 39.894716943995384, 37.8773385054667, 56.29687943549029, 37.62420949142547, 45.0333405761305, 35.10821988571323, 47.27592305361539, 42.689305725947975, 47.38877145554233, 42.543540303034135, 45.08877438988018, 46.41070677211184, 38.30401266840477, 36.458191166665046, 61.16559279899982, 33.16541718871877, 48.08537819793364, 40.675792716078554, 39.42114739897177, 52.43225628169909, 35.81316907312096, 46.82806236634718, 42.18419246820714, 32.710269733309225, 34.26280051755348, 57.44892417751714, 34.97974690531866, 41.02511268495761, 33.95846886791852, 36.109017158380915, 53.21635559602711, 42.61822010428676, 39.55834210561782, 50.65272500850167, 46.49477044123325, 31.780293721917552]</t>
+    <t>[32.37266777310014, 45.45516691512807, 50.545368609519194, 51.95717616139502, 34.29745781003854, 28.82359830624193, 49.47810629629722, 35.098198850189775, 52.2550882496689, 39.95501841837102, 39.733288937291945, 37.87301998778531, 53.93381375221572, 41.54378293995966, 37.19879648073008, 37.67797467073747, 54.214344470766186, 37.46823216367678, 45.742766795857776, 38.35751411925942, 49.372523542846324, 44.63286765011617, 47.09795887401554, 44.780740921931496, 40.42280498977431, 45.34106715477054, 38.33610221125603, 35.79653913439665, 64.10627211130475, 34.96222068452164, 46.54765564131094, 42.824622934772954, 38.362406196416565, 50.15634800707324, 34.98761464304683, 44.52612629601475, 44.22074819322054, 36.24885426288365, 38.51192450124593, 58.0482084116735, 35.39693789514852, 43.97407281453623, 36.51131411429542, 37.065019506729485, 54.32484271070464, 44.04070114032026, 38.508861491466696, 49.71718980847452, 47.25664838098142, 33.43533614218166]</t>
   </si>
   <si>
     <t>[28.499609059300916, 35.161886487688335, 49.95788933890206, 47.76604659216745, 34.24245616367885, 29.75613968947838, 46.81082902635847, 27.862260491507392, 46.93568229675293, 35.52076581546238, 34.71612798756566, 37.767570223127095, 41.48011331558228, 46.59715134756906, 30.62474032810756, 27.941075818292028, 65.11120288712638, 35.35779980250767, 39.5936028616769, 36.13138425009591, 41.93004923853381, 32.25679792676653, 44.71591732842582, 37.64551203591483, 29.34047552517482, 57.14849353658742, 29.69979395185198, 31.10720716203962, 48.241210324423655, 24.863795362200054, 42.607990133351294, 32.91813741411482, 41.433152607509065, 47.67476837975638, 31.227341052464077, 42.72130689949825, 42.2157133102417, 42.07806927817209, 25.925825153078353, 45.6593610899789, 30.13751457477438, 38.75307295663016, 29.081208297184535, 31.64196995326451, 44.736954144069124, 34.25622479668979, 49.23293849400112, 44.37287180764334, 41.322468757629395, 32.041250991821286]</t>
@@ -1201,13 +1201,13 @@
     <t>[39.13011535482041, 39.46750755929195, 45.59267560809925, 58.97597533641082, 44.064552417752175, 43.40615059441088, 40.37200084469636, 50.39762361609173, 45.23687462761235, 35.14769009048192, 44.56446526913878, 45.13831757963407, 48.799799829373455, 46.467064224228, 33.12280479132993, 32.49100212373077, 56.34979136349492, 38.40033999826709, 43.959372377782195, 33.88456897660732, 45.202739295400185, 53.00501768119336, 52.724304808577486, 59.614608255893735, 38.72943198865115, 50.09686679749123, 39.53187454189775, 32.78582989959146, 56.866104401024394, 40.129236383018906, 53.28989075000623, 46.264071089690795, 34.49363006263534, 51.7758373303488, 31.32975478175254, 39.60940230968807, 52.42730294504765, 36.36802698314607, 44.6976985338978, 38.52696190724445, 38.025559586341906, 44.955540664053665, 40.18250871373415, 41.61753059938298, 45.991554442695, 34.45840729779593, 41.072985361726346, 41.07860441544507, 47.770162499888805, 54.461431217748036]</t>
   </si>
   <si>
-    <t>[36.027239195812115, 54.041666666666664, 51.920744795430814, 50.40625, 43.4958071356563, 39.19396551724138, 52.026085575053436, 42.509523809523806, 42.35634760754039, 44.042857142857144, 37.01360041031113, 56.32142857142857, 48.92321428571428, 45.05357142857143, 47.332142857142856, 38.50844044822147, 53.348214285714285, 50.77874085853609, 43.69880860042984, 35.20134559555824, 52.64196799009114, 40.642857142857146, 54.71102503106137, 58.04773403320963, 32.517857142857146, 57.03448275862069, 55.02321428571429, 39.80357142857143, 58.94077785351963, 40.566071428571426, 48.718309577925375, 45.964285714285715, 37.02590092676773, 44.07786772124719, 43.27649568227465, 40.06243579824652, 51.79338196977955, 39.18345721963368, 41.07134194799814, 49.688193454604, 32.389039049309375, 35.57260028180725, 46.284289600523756, 36.20357142857143, 61.43035714285714, 39.62931034482759, 40.205357142857146, 50.33989921532331, 39.52538290941665, 51.50702211553486]</t>
+    <t>[36.027239195812115, 54.041666666666664, 51.920744795430814, 50.40625, 43.4958071356563, 39.19396551724138, 52.026085575053436, 42.509523809523806, 42.35634760754039, 44.042857142857144, 37.01360041031113, 56.32142857142857, 48.92321428571428, 45.05357142857143, 47.332142857142856, 38.50844044822147, 53.348214285714285, 51.0217991810079, 43.69880860042984, 35.20134559555824, 52.64196799009114, 40.642857142857146, 54.71102503106137, 58.04773403320963, 32.517857142857146, 57.03448275862069, 55.02321428571429, 39.80357142857143, 58.94077785351963, 40.566071428571426, 48.718309577925375, 45.964285714285715, 37.02590092676773, 44.07786772124719, 43.27649568227465, 40.06243579824652, 51.79338196977955, 39.18345721963368, 41.07134194799814, 49.688193454604, 32.389039049309375, 35.57260028180725, 46.284289600523756, 36.20357142857143, 58.966071428571425, 39.62931034482759, 40.205357142857146, 50.33989921532331, 39.52538290941665, 51.50702211553486]</t>
   </si>
   <si>
     <t>[32.21751488799369, 37.765413152702, 42.253123179391125, 49.54226387827617, 36.438745810883404, 33.72434445392736, 38.86707480372682, 43.61302693363188, 40.795734642504485, 37.37674513948635, 38.49667663976895, 43.10870659501362, 44.76601390061614, 47.94096161581389, 28.940642531662736, 26.150884079776045, 47.6967220675585, 41.221143449418214, 44.35390526754223, 34.40763514499246, 40.568326237115315, 29.29446824192194, 45.62335470730873, 48.54610454025042, 31.365251400353788, 37.36643039420675, 35.36347680475775, 33.914250406769455, 56.240585008572225, 41.18416632937367, 43.54762302254378, 35.41045694279655, 32.976765899819235, 48.42294346073049, 29.44835942779809, 39.482711335412816, 44.86227058425289, 36.25715631231584, 34.39455811784991, 38.39246328812084, 36.29163622192208, 51.388790799282404, 32.53092291913286, 33.053607795189166, 53.290022729782585, 34.802483658575404, 32.47423764567097, 36.5894369876568, 49.545970608163394, 53.167471879156935]</t>
   </si>
   <si>
-    <t>[32.5233248531023, 42.91050016947783, 49.44450912061289, 49.04703977734671, 40.07988917059209, 34.95006524427128, 49.54000858026393, 42.286080604791074, 50.3410070057432, 38.37346175670184, 36.57100073247813, 44.70813339966427, 56.55591976292137, 44.63580766718511, 39.11810004964317, 39.59330971607202, 56.389309932951114, 41.04372683636044, 47.16963563602045, 36.350813693027916, 43.61851152742883, 41.195677177020514, 50.132924157396154, 42.27150992848071, 40.45674884533599, 43.984268401828345, 39.99324473142733, 41.224816688660596, 67.87212980779508, 37.57000763576634, 50.12865304656968, 42.6365542083606, 39.83113200914526, 54.60767873837967, 32.88258795372529, 43.55706962214165, 47.403951893599654, 34.882111158906966, 43.005815386758265, 50.510515505249955, 37.741008497040944, 38.45530400293962, 36.8468789437087, 40.70162223601358, 54.716700666289874, 44.45699500276638, 41.444472289288775, 47.09734457013592, 48.65773321578221, 35.73450815823678]</t>
+    <t>[33.641954556958154, 47.1537270485504, 50.42241500721338, 50.80066968024965, 39.280179952982905, 36.536059435869745, 49.174860721156016, 44.57379151108053, 50.28308316634857, 37.620190851111786, 37.12250530353607, 45.55601174816953, 53.07776606130638, 45.83993645113382, 38.632833847447095, 34.772396320248866, 57.66997947412805, 41.04896105318606, 48.33591078301167, 36.996560007673004, 44.78721986360245, 41.650159871875964, 52.930963379795045, 42.14979028403511, 45.83320483262427, 46.139018785483515, 40.32430200107941, 41.28905408580234, 69.2171010201679, 38.18339701942062, 50.595630716795846, 45.76526166686475, 39.52097904047893, 56.99110959381475, 33.324285379927474, 46.20085101503985, 49.4742622197832, 37.16893943453696, 45.198302530415255, 49.77809980398859, 37.7603339998272, 39.765047973830114, 38.54737344167412, 39.41859518827631, 55.74901609852423, 47.042573548188656, 39.1037371180257, 50.08970556776196, 48.75891152549692, 37.57101071388528]</t>
   </si>
   <si>
     <t>[27.357709621560986, 43.25455829075405, 51.545838138035364, 48.45988708308765, 33.22340038844517, 31.346385429645405, 37.585261481148855, 36.61714248657227, 39.57436997549875, 41.996844972882954, 33.98009280500741, 36.70008645738874, 49.52706576756069, 38.02161380222866, 28.002807753426687, 28.921081921149945, 45.01323046003069, 33.09234046936035, 38.81038696425302, 39.786327484675816, 36.79476106577906, 33.21457862854004, 45.211222526005336, 41.648263931274414, 34.15164017677307, 45.05726761653506, 36.14932932172503, 39.82776042393276, 49.79110704149519, 35.83481374468122, 46.00746720412682, 31.93892969403948, 30.659532683236257, 52.57890396458762, 35.87557909829276, 39.31677278979071, 48.636719485691614, 36.82713385990688, 37.84614249638149, 47.167508772441316, 32.24330287144102, 36.13454704284668, 47.873838560921804, 30.73205198560442, 42.6998553957258, 33.60180322055159, 35.71827616010393, 42.536075592041016, 39.53662259238107, 32.862995638166154]</t>
@@ -1225,25 +1225,25 @@
     <t>[32.702991252188546, 43.3712220572915, 49.48825425267133, 55.01702255289639, 34.135589473671835, 30.06173938739981, 43.55599151157222, 44.62642737341228, 45.65000607536864, 35.01060655935965, 41.22387577378115, 41.9284171456045, 48.12939043112234, 45.51854740059135, 33.84108660831587, 37.188113411285876, 46.053132417712185, 39.25476192978241, 49.72691491300544, 38.49145951545882, 47.709731377027026, 33.49845476506902, 55.70748872484113, 50.86944611033975, 39.837912688541586, 39.453809869018315, 41.80649362198796, 38.41147036771598, 56.05615668765956, 45.605350865751184, 55.352629446207786, 38.12751759268924, 36.38992664574242, 41.98405149258469, 39.974570239460846, 43.33116971138328, 68.46623836121391, 42.31655913835171, 37.54686891198414, 47.346457609995056, 31.939576595409346, 48.748131986907545, 31.412368117383846, 38.050702647615026, 50.566311212106044, 37.50756411910232, 46.68610097208817, 47.00656876598152, 51.220789973334995, 50.49267288074099]</t>
   </si>
   <si>
-    <t>[31.388595374450436, 42.549898410814244, 50.1655007228638, 48.04587929552359, 41.36970045895144, 30.86506576977858, 48.62766390868418, 42.57678888260278, 51.09595745765849, 31.929277658518146, 36.39061617664146, 44.559814237919205, 50.79399065185661, 44.61711523813256, 34.632145722837954, 38.862551866807344, 52.81751966950924, 40.53260210056664, 47.270249272116565, 35.580087148403855, 48.51987709343304, 42.98682721750132, 45.54695512744384, 41.754300696217186, 44.63092102888025, 47.028668117278336, 38.71636723850274, 40.8563081966896, 65.0491450155496, 36.51110842490652, 50.76504947657337, 41.81940089213213, 41.16294254061938, 52.35928090260806, 36.41715149088119, 39.602618919012656, 46.73166040123973, 34.72852786130427, 43.42085652004251, 52.53079315311821, 40.36285132947377, 46.31746839364144, 35.8602605827996, 39.63486314513324, 51.54497737584971, 45.53171228232497, 38.69019161935686, 50.402714371295524, 46.57981278785199, 28.56308839889808]</t>
+    <t>[29.32286224943766, 43.991366382598244, 48.01709382437942, 50.16243980158083, 41.997769530474834, 33.91829723977976, 49.328063105159536, 40.3699137276491, 51.576691877108665, 30.612072590411703, 35.88754937167208, 45.96881529289755, 53.90120030128331, 45.7778966181578, 37.48719311141633, 35.23180520828226, 52.46101676380999, 40.419637318502005, 46.339498351683446, 36.512713871428886, 48.0399722130507, 32.40022552531871, 46.834255575647774, 42.87392445173579, 41.71605869771024, 45.04804331450082, 37.69188619779478, 41.98373375152466, 59.76355307578341, 34.60685459029008, 47.08928311238082, 40.30403860020236, 40.117507865348095, 49.445809406117455, 34.80297856062228, 42.165258677286786, 52.67111521453808, 38.85753631343659, 42.9165716519992, 56.71220130000931, 39.10653356974778, 49.41126870645702, 36.650735429424735, 35.873019819303344, 51.05254605810473, 45.293052993167464, 38.424728218241164, 49.29784253116867, 46.35195368229635, 32.899422723142024]</t>
   </si>
   <si>
     <t>[27.091059980721308, 37.85218702043806, 41.86027927398681, 52.346823123948916, 32.13994625636509, 29.43065248686692, 35.85858685629709, 35.56762921469552, 42.91697086606707, 35.644248962402344, 37.86188533388335, 35.91984823771885, 43.35949238368443, 39.90921551840646, 33.35273960658482, 37.09108944596915, 47.78030586242676, 36.29181071690151, 43.01949392046247, 37.309749071938654, 41.79703317839524, 30.0164179120745, 46.094870417458665, 44.88871438162668, 40.25636264256069, 48.75576584914635, 31.042467662266322, 34.2988372530256, 49.36874117170061, 32.401056098937985, 44.37648694268589, 41.25011553083147, 37.27733721051897, 44.74319989340646, 36.74350280761718, 31.57332084918844, 43.75959731510708, 41.463589259556365, 39.078162465776714, 37.91303225925991, 35.39070734484442, 48.93917157309396, 36.9463905606951, 31.76889487675258, 38.858036688395906, 35.53549246952451, 41.93437222072056, 42.54858473369053, 38.93113054547991, 44.465019529206415]</t>
   </si>
   <si>
-    <t>[37.22388853106868, 65.43652191539528, 67.1666006846003, 67.73856045966563, 54.004700724536406, 56.08931044553252, 59.24620829519707, 54.78275184464165, 67.78905219477953, 68.29109432013921, 47.979561053438296, 66.42592778770255, 60.78965154309483, 75.14913204741148, 56.05270808101094, 47.4471579164943, 63.14839575441572, 55.68149543340202, 53.938418602419674, 47.72847171171514, 68.05910558032329, 56.75258491422602, 54.09374490523006, 63.00846074260071, 68.30255067608782, 52.62516068674644, 54.17769873106253, 50.83136857616604, 66.84506835488743, 57.7564835358299, 57.11383240795683, 62.29439602601825, 50.828476002171406, 61.237174795649814, 52.380885034376504, 54.91043384214085, 77.30114702395942, 58.80333279914317, 49.63938891684462, 67.3904382082112, 54.50770425352365, 63.657903448833494, 45.9435446181082, 49.750695671655954, 81.41940686540228, 49.32069022471507, 66.57638341539509, 60.971648466468515, 52.00805348095356, 64.05172721891851]</t>
+    <t>[37.22388853106868, 65.43652191539528, 67.1666006846003, 67.73856045966563, 54.004700724536406, 56.08931044553252, 59.24620829519707, 54.78275184464165, 67.78905219477953, 68.29109432013941, 47.979561053438296, 66.42592778770255, 60.78965154309483, 75.14913204741087, 56.05270808101094, 47.4471579164943, 63.14839575441572, 55.68149543340202, 53.938418602419674, 47.72847171171514, 68.05910558032329, 56.75258491422602, 54.09374490523006, 63.00846074260071, 68.30255067608782, 52.62516068674644, 54.17769873106253, 50.83136857616604, 66.84506835488743, 57.7564835358299, 57.11383240795683, 62.29439602601825, 50.828476002171406, 61.237174795649814, 52.380885034376504, 54.91043384214085, 77.30114702395942, 58.80333279914317, 49.63938891684462, 67.3904382082112, 54.50770425352365, 63.657903448833494, 45.9435446181082, 49.750695671655954, 81.41940686540228, 49.32069022471507, 66.57638341539509, 60.971648466468515, 52.00805348095356, 64.05172721891851]</t>
   </si>
   <si>
     <t>[29.214592206363932, 38.263053361773764, 60.07927229116852, 56.751634504118044, 42.49231692614608, 36.658424944840306, 41.00995544760677, 41.03567172766647, 55.74942075703065, 37.82974607643359, 33.267762325374925, 38.57529931281327, 54.488613002637905, 45.509972339512466, 34.92399790449127, 31.699648033966426, 75.10317122219463, 38.55562061254167, 47.56163140491156, 37.339004381057876, 41.58414161684263, 45.981368023839686, 48.295719437269995, 42.84555469903786, 35.26097811556773, 52.605110292721854, 45.459218428411916, 31.702551451557124, 66.29496429971691, 40.94508045712323, 61.57664231138112, 42.623389128462655, 39.8397080545627, 42.104757016104266, 33.954042314694334, 49.7911710986597, 62.26605920150827, 36.817116357044355, 37.96068766055097, 45.780807794831716, 42.56148494667917, 62.42458129263401, 41.30280173260786, 42.125085968276956, 39.349631688568216, 36.51175425339198, 43.76408782948108, 48.887870561191015, 47.76636320589996, 42.3067304711427]</t>
   </si>
   <si>
-    <t>[22.73832425679267, 52.45862635749136, 40.96709987295321, 55.300934904432, 43.14442145474886, 42.15685876099738, 52.27924595397446, 36.341077771753916, 54.62609328667895, 43.74880952380953, 40.734760619345394, 42.3952413637607, 56.902380952380945, 55.37500000000001, 32.68524947699156, 39.79124731711451, 53.883207197128776, 33.394425776950094, 34.91147605239547, 35.171755892470614, 42.5341577270959, 45.910714285714285, 52.86049861132401, 50.48306436554316, 43.30889765294468, 57.66185355142609, 40.59768929009006, 35.047220411266096, 58.92830835877736, 37.07866228669976, 46.019570761918814, 38.21896647175121, 33.52374783350835, 45.7543624222501, 53.90924395648587, 42.71648460492723, 46.33238341092282, 45.04702168416555, 46.72997766473403, 45.00268543729846, 47.11195697842673, 41.252278912646865, 38.638468110581584, 27.82921770094605, 47.89864973636905, 43.220632735908644, 42.34020112114573, 57.47574260198903, 48.81242402826168, 36.500083618639714]</t>
+    <t>[22.73832425679267, 52.45862635749136, 40.96709987295321, 55.300934904432, 43.14442145474886, 42.15685876099738, 52.27924595397446, 36.341077771753916, 54.044642857142854, 43.74880952380953, 40.734760619345394, 42.3952413637607, 56.902380952380945, 55.37500000000001, 32.68524947699156, 39.79124731711451, 53.883207197128776, 33.394425776950094, 34.91147605239547, 35.171755892470614, 42.5341577270959, 45.910714285714285, 52.86049861132401, 50.48306436554316, 43.30889765294468, 57.66185355142609, 40.59768929009006, 35.047220411266096, 58.92830835877736, 37.07866228669976, 46.019570761918814, 38.21896647175121, 33.52374783350835, 45.7543624222501, 53.90924395648587, 42.71648460492723, 46.33238341092282, 45.04702168416555, 46.72997766473403, 45.00268543729846, 47.11195697842673, 41.252278912646865, 38.638468110581584, 27.82921770094605, 47.89864973636905, 43.220632735908644, 42.34020112114573, 57.47574260198903, 48.81242402826168, 36.500083618639714]</t>
   </si>
   <si>
     <t>[31.981130537734607, 45.318251716400674, 55.56198432855593, 56.69899015262625, 40.817618288076645, 33.15392970767421, 46.24935887680834, 41.10023904123572, 53.35686858511911, 40.14434124141871, 39.49407842422122, 41.242699323113456, 48.37754892285069, 47.37521770185846, 33.89184718429565, 41.40518511706145, 46.634024494006084, 37.62423721195122, 48.90952648811288, 33.25866006634222, 52.344961995297425, 40.97830731534965, 51.108803798370865, 38.80036675684589, 39.11677474272461, 37.95195840581588, 42.936074023376, 40.3391813772943, 57.4453977228436, 30.61753519342047, 55.61964533937271, 37.3777382140212, 39.02458608136609, 52.91413930310801, 44.344417227746916, 46.84595789584017, 50.58515011591555, 35.10545609250288, 39.70567593905269, 51.53472760955635, 39.071552491137176, 52.08722107428497, 39.374249303129865, 35.11229354346164, 50.43449073843034, 37.1796102955492, 38.84299684550598, 42.084991189627736, 50.551187650466105, 37.08463262724315]</t>
   </si>
   <si>
-    <t>[29.623367351453194, 43.7429738557768, 45.35733675177766, 47.18316791844443, 35.44574903827635, 32.863290950786514, 49.92034813148857, 38.367836612485185, 52.47915667813391, 34.00078379025993, 40.652985942844936, 38.526098674812275, 49.73486286692536, 39.53403046151306, 33.476698348654914, 39.22629630310176, 51.83189416974441, 41.47127362482073, 43.43651576774621, 41.12087123029212, 41.251073940571565, 32.59455032750726, 47.12267816574037, 39.79793430746354, 42.90280117236697, 43.851274100147904, 39.30224338114006, 32.46497783170379, 63.42388665207307, 40.55560628171405, 35.86189675833988, 37.657266388328985, 43.651179184061114, 55.103812868619606, 39.211273428591845, 43.195145370415005, 48.64867172056379, 35.80253636307244, 34.82262254258923, 49.628022935160416, 37.948127007026315, 42.18129320446019, 36.663394551304755, 35.39764815483264, 49.496080440783935, 41.85828669357606, 36.78867486508784, 46.760033605060656, 47.964308586838406, 38.16040878848797]</t>
+    <t>[28.36477778990233, 40.65676334849848, 45.96182448809413, 46.67971115866736, 37.42919401888418, 28.66123009483389, 48.698199660285454, 36.9854869993294, 55.19209025981398, 33.71532895585549, 42.889300839773504, 41.30221969370192, 47.58670943373128, 40.08743168840959, 32.4969960375383, 40.49630239702939, 50.409484434276045, 41.271570639149694, 47.543033928949576, 40.342314383308285, 40.77040752294188, 35.8081261213511, 50.83082851964927, 40.42314270914466, 41.75578669756036, 46.46364861439259, 39.284048146529315, 33.350451025026764, 65.90926847676903, 39.58935353045519, 52.070425344088335, 37.151358759827495, 43.10165288245245, 55.14972321683411, 37.59587570330858, 43.0643975663928, 47.39973273764368, 31.800610030900316, 35.64258911000152, 47.7219110935745, 38.75019845903138, 43.655887514153854, 34.816047199602075, 31.247524134453478, 50.09572466863461, 41.9421874281503, 37.365354782137764, 47.03522931473564, 49.166890356451894, 38.99339858407582]</t>
   </si>
   <si>
     <t>[31.333942413330078, 37.04333414350237, 42.15769371305193, 44.42992893819298, 31.599705968584335, 28.1165042745656, 47.26428018297468, 35.119478239331926, 47.0882351739066, 32.53436960492815, 48.5552622696449, 39.55628258841379, 49.569138165882656, 35.29264755334173, 30.415533746991837, 34.04797849984005, 46.191724232264924, 32.78991617475237, 39.35157803126744, 38.022204753330776, 39.62089393878805, 28.687362125941686, 47.22616088581937, 38.41897814614432, 42.34987585885184, 50.82702531485722, 36.35168729509626, 27.101284980773926, 49.27387728009905, 33.71108989715576, 40.36784310176455, 38.71137087685721, 43.67005232402256, 54.50005527905056, 35.2561653818403, 37.38599974533607, 47.69500849587577, 32.33835860661098, 37.44872178350176, 45.603579316820415, 30.015664955665326, 36.23324933733259, 37.54217447553362, 25.769051006862096, 43.248170375823975, 35.64421252546639, 30.404175077165878, 45.49283868925912, 45.0476678780147, 46.65269141197205]</t>
@@ -1261,7 +1261,7 @@
     <t>[31.72255962899442, 48.418379920701135, 51.17378301098722, 62.22232414419117, 35.835538068897854, 31.05704324951273, 44.15329399873621, 38.74271043710667, 45.94912435058249, 41.90104304070149, 39.029505534169374, 39.46057941830629, 48.13534444786442, 40.987940909985824, 31.944449998502098, 32.293606593468844, 42.83752392010892, 41.78721485348268, 45.13004574577547, 36.91264957274168, 49.42834642757111, 35.06572401281054, 55.12825091021349, 40.26100807872041, 41.96868993024596, 38.702437587291406, 46.250909307555844, 38.27378544589514, 56.34878003058924, 28.589926559051623, 57.69977526761712, 34.84295822159884, 41.7995977635059, 43.564499188126305, 46.020598604187164, 43.56950603652102, 60.00591943673455, 40.493272587133795, 35.90088876385622, 53.63792172835382, 37.13791562689231, 52.354365606427244, 27.8983851364847, 30.10608693592287, 53.177065686706534, 34.79556385951468, 38.03723802398519, 50.65766969222865, 44.73608484654884, 34.242735052772]</t>
   </si>
   <si>
-    <t>[32.54768572328695, 44.14090459269271, 51.62697356864192, 52.90371319751841, 39.03652928724614, 33.35023243864924, 49.880793285389686, 41.17980518745659, 57.428389659467925, 36.26323557376343, 39.03432751067916, 41.94856998294516, 57.99455608672623, 39.84732395939538, 39.238369266098644, 38.51122796682586, 55.77806601415492, 40.91596914309078, 47.9415408771398, 37.23995309955218, 48.0738024084943, 42.14316008408314, 49.806215987199, 40.643577241287424, 41.05819879829728, 50.73440853815232, 39.646854831171375, 40.8356386289632, 64.76277404322494, 37.347634448181665, 50.37066115968898, 41.772204171619066, 41.78505353066252, 54.51786892725703, 33.28798047545599, 44.10983542999846, 46.36429003571163, 39.256551721080314, 42.62425841925285, 57.0017471727653, 36.18925149381936, 41.621112701826306, 36.63981225704701, 40.00685779864856, 53.80129039734898, 46.77114499381331, 37.00601302585223, 47.31729939317471, 46.5406887808663, 36.03332960893247]</t>
+    <t>[33.050382693762906, 43.850602196470774, 54.19511023337752, 51.422948202598725, 38.157905549517814, 35.24601412778007, 48.29431870223941, 37.84525683600647, 54.52248376794597, 38.00251540038151, 38.91081037232484, 42.50962234119998, 58.105639243116336, 42.48197939797108, 37.73639983386085, 34.86657318041683, 55.572057170378855, 43.5869140428863, 50.60997886609149, 33.67077377548947, 46.408788381063275, 45.69887242113071, 48.632275588957825, 42.103550688049275, 41.13031566790873, 47.74690282304591, 40.863793970408196, 39.03404357022777, 63.39507759630148, 35.333676232478005, 52.265880393499984, 40.65835936531608, 41.529810039496454, 53.01180195106373, 35.32188643173557, 44.240165795869444, 45.05759826702609, 36.255368506744034, 40.934265221143825, 52.898268203551645, 37.58903695330066, 47.33702248551039, 36.6814608066636, 39.3088970719812, 55.751095080282326, 44.334205014471934, 36.94142710102643, 48.62217311319939, 46.33851287044744, 35.07256503187074]</t>
   </si>
   <si>
     <t>[27.2585045387005, 41.221895354134695, 50.72640288216727, 59.9636366878237, 37.31720978873117, 34.92626204161808, 41.62747996194022, 33.284003611973354, 43.31264509473528, 39.84083979470389, 33.953360458900185, 40.927055086408345, 48.535082353864404, 44.54008265904018, 33.983324595860076, 27.448039087755927, 47.808527673993794, 34.02733285086496, 44.70559474400112, 34.600036702837265, 41.104137617966224, 37.22648130144392, 49.54824619293213, 48.611023902893066, 30.731013570513046, 44.184227910535085, 28.45962142944336, 34.36446598597935, 51.66727951594761, 34.537931660243444, 38.222298983869884, 33.49695587158203, 38.10466630118234, 54.05346781866891, 34.26633243560791, 36.324147849247375, 38.52018623352051, 42.60438813482012, 33.48925168173654, 48.20163992473057, 32.26977433829472, 35.742173072269985, 34.09147344316755, 30.88001114981515, 40.42323017120361, 41.40320429308661, 28.721516336713517, 40.302487237112864, 35.84806101662772, 31.05928020477295]</t>
@@ -1279,7 +1279,7 @@
     <t>[33.53321428407541, 43.09699988774848, 43.900315527745484, 51.795590719873225, 36.404642250625315, 36.287940037179105, 38.721572799002764, 42.44295230441975, 42.528148377531515, 36.60417766135223, 39.426801079943544, 46.31413545021786, 48.62866968191732, 48.91860070871367, 30.012288740090952, 26.359542197594394, 47.93328199066216, 39.08478417929374, 46.98248004315575, 33.77964202439448, 46.034912783024694, 29.199527366852475, 46.3643494996823, 49.11488428139646, 31.938434228251815, 37.64389338692036, 36.3333645491965, 34.61393282679204, 58.2052712023476, 38.74011511744339, 49.69626189542457, 37.230578872705884, 33.60526632914303, 49.2382762154125, 28.239085008017042, 41.861225696582, 52.68768257986761, 42.34415829615802, 35.30868953318524, 35.6661795348144, 36.82071623354907, 51.80731676420714, 30.962732741808615, 37.844091307765495, 42.68781906918637, 34.42156452174661, 32.94412115787534, 40.42697832972614, 54.147560960639986, 55.00546740749221]</t>
   </si>
   <si>
-    <t>[35.12510076061624, 47.47144899752701, 53.55070435702093, 52.08382292174398, 42.71264015664023, 35.912357516700936, 48.40988127374531, 47.82018016540582, 51.51663380692339, 39.902445454397885, 39.504622833343014, 41.422657033468276, 57.65556066583762, 45.632397999026935, 37.88063132921723, 41.248786603302115, 58.46699106452138, 41.196507409283285, 46.238636490670764, 35.17981184978219, 48.08060446573305, 39.957032180924685, 49.30243420114584, 44.12170341091295, 46.07347455055079, 47.72161655749181, 39.22201527713869, 43.17795114137509, 66.15681593643771, 43.20670213095529, 51.868197389998485, 41.15451216481887, 41.70750629327826, 56.14833126291523, 36.645360566090645, 45.83265916826062, 47.95497404524271, 41.26672557568621, 44.630660435476194, 53.311880557549436, 41.05744937597383, 40.42897480543075, 37.787050601463896, 41.594704299058755, 59.40738955857845, 45.552027236390295, 37.86891851489469, 49.22726877899567, 48.13873668764048, 37.72008016622614]</t>
+    <t>[32.42112982735327, 47.75660573347761, 53.21066340352117, 48.524821755340284, 40.85812255118872, 36.84250277838227, 46.87201907207981, 40.28578562961257, 51.649342343251924, 39.49375660024456, 36.578669508332936, 43.58262816281194, 55.17640191723439, 46.044059843192315, 39.266078782692105, 39.862178515607496, 58.84071349204721, 41.9981213865831, 48.85358902156856, 37.79031851663495, 46.09786879028813, 39.957769877819146, 49.99501926699491, 43.97373307734087, 43.67483853479654, 50.570840965539034, 40.42983541287647, 42.43182350304987, 69.25346164641357, 41.98280100363724, 52.594268511485836, 42.96518684259799, 39.18039303293583, 57.89429231578156, 38.451239965627884, 46.90498344811484, 47.68882465912782, 39.6401709250108, 43.10961891101548, 55.50469827611347, 39.41985798612485, 42.55578960274863, 38.92426217832025, 41.3886211430232, 57.31116906974838, 48.5295223210238, 43.113391211154976, 50.383656612162774, 47.849330875530775, 37.64419753842769]</t>
   </si>
   <si>
     <t>[33.440887188089306, 41.637668882097515, 43.85162413460868, 46.45756367274693, 31.96503244127546, 35.18830832119646, 43.165408270699636, 35.282942581176755, 38.31924792698452, 27.55354458945138, 33.75924419534618, 36.35110465117863, 55.757530266898016, 43.36329664502825, 24.02766282217843, 33.925414101830846, 40.724261556352886, 34.951826095581055, 43.83099611316408, 35.01296171460833, 38.09355847588901, 32.04372365134103, 47.18210302421024, 42.052933829171316, 36.5548802784511, 55.94994840950802, 29.437870843069895, 37.535185950142996, 59.337062563214985, 47.21594339098249, 47.241334980931775, 34.31402569157736, 36.79332855769566, 44.790933745247976, 31.913441848754882, 36.08598617027546, 45.19697974068778, 41.92243916647775, 50.09334414345877, 42.48544846262251, 34.64373216957882, 36.93743972778321, 45.911752700805664, 29.11730194091797, 49.64130360739572, 35.404637435386924, 37.77558544703892, 40.20021200180054, 41.30360085623605, 38.644698224748886]</t>
@@ -1297,13 +1297,13 @@
     <t>[32.320028090296006, 43.383187623199056, 53.22553868466955, 52.62720710788095, 34.28511170466992, 35.712967516081584, 44.89878582049995, 44.14214861062986, 47.59114740565508, 43.907262495225545, 41.910591441480236, 37.40575450934239, 49.653028647266886, 46.29809056478382, 34.751904935347675, 36.991983342983055, 43.890941772206254, 42.1251033277336, 52.615148812818454, 39.683408450556335, 48.81586735210234, 37.764461199149785, 51.28314891251131, 51.986997412741644, 41.57253188450153, 38.926323366818295, 45.80569124398549, 38.199845009531884, 54.90400846451772, 39.48503170017177, 61.60379043312016, 42.05060868254669, 37.55010308284566, 44.574309666019005, 41.272070178625725, 41.967298078650316, 63.98374659208379, 36.05617535260779, 38.30039971979014, 47.98617830387053, 37.48460629205203, 50.444470802486045, 32.00879851344645, 38.6020262049233, 48.936699413016754, 39.25989364909545, 47.65390183771324, 48.66883336425457, 51.68102768700135, 49.436267626847346]</t>
   </si>
   <si>
-    <t>[32.875755158753904, 43.08414687127318, 51.01237323489418, 50.58357677832414, 41.97666639671703, 36.935682701174606, 49.53558179216695, 39.02561186178899, 52.73775347661804, 34.74627564296132, 41.34908884114188, 41.99284073986711, 54.549306590041354, 44.588820377339005, 37.03445989224513, 42.30244230138215, 53.4728256454036, 41.0715804295889, 47.77478122059675, 36.41207967159708, 50.626495486229324, 33.2591388209964, 47.47848130418822, 42.40981761524671, 45.51435014004199, 43.22507281495437, 40.11174923687834, 43.6193515218471, 69.80639301569418, 36.61446115821689, 50.39923684435062, 42.95258550158912, 41.6657760846645, 53.3324019078371, 38.56915300449511, 42.65241048061594, 55.051355845972196, 40.502042966905286, 41.264208098761216, 55.66207352656271, 38.03208059739496, 47.21330239609849, 36.7378444966627, 39.36629036011842, 56.035736216085624, 48.887176613903314, 40.311023949733105, 51.44088482229139, 49.10312609853967, 39.13808462119022]</t>
+    <t>[32.16233097969217, 45.57115793936488, 53.724429848870614, 49.57444186991021, 43.26301653219283, 36.241266997381416, 48.88345206259463, 37.802510877345256, 53.452535225711905, 36.21090596841434, 41.41857602770008, 45.41566072568675, 55.604632499102976, 44.78917908999603, 36.360068079311255, 39.52930552892055, 54.06572223088856, 40.0051236298871, 46.94353609321025, 35.957513923984074, 49.94444738359643, 41.95268194920266, 48.60545996012949, 42.46377249190389, 40.47017912926871, 42.728690896870546, 41.649198515732046, 43.644966525037425, 68.33970579488432, 35.93517020812938, 49.68507948915744, 41.493758819534904, 39.93663179769002, 51.76066268111303, 38.65932327682051, 43.15505658975035, 52.650411507212304, 39.163575431875344, 43.334424821304125, 56.67990303874596, 38.46184984132452, 49.77897407264449, 36.90762522882175, 36.645084521860156, 54.58425486859898, 47.598128978219435, 40.265595508489106, 48.2921582197908, 45.21641225894556, 40.56627427721633]</t>
   </si>
   <si>
     <t>[25.40197517131937, 37.48049191066197, 51.54619331359863, 48.27904602459499, 36.60878808157785, 36.156823520002696, 39.75550120217459, 38.45557847704207, 45.5240204674857, 31.600949151175364, 44.47672955743198, 34.106733730861116, 51.59505920410157, 41.43714182717459, 32.80384908403669, 32.27719418755893, 43.459213393075125, 31.01232855660575, 46.71746272700174, 33.31443137441362, 43.789580969974914, 29.372155598231725, 51.531526719831994, 39.77657018389021, 42.71866307939802, 51.668030508633315, 27.835025242396764, 34.487154722213745, 53.84277629852295, 34.41809839521135, 35.51206766325852, 47.408765247889924, 37.37960829053606, 39.24809551239014, 37.95780884878976, 36.94011974334717, 49.561571950571874, 38.073746936661856, 42.63317680358887, 38.88305071422032, 28.586773757276863, 54.488959503173824, 39.07505260195051, 28.854139464242117, 40.51178986685617, 37.94804566482018, 34.2459956577846, 45.97144562857492, 43.693655780383516, 35.02501923356737]</t>
   </si>
   <si>
-    <t>[35.573649043492246, 72.96304478802918, 57.99813772165202, 69.22245691432678, 56.58466202620606, 55.965208284860864, 61.54924908437669, 58.02473464516788, 61.059717750206026, 61.63479474813387, 47.6684319195588, 59.023621620821196, 60.60467546426496, 60.80270353482854, 56.085949119007864, 45.2210180609658, 63.51778545534801, 56.2595090903958, 55.52786450820469, 47.03168728871923, 66.08000671923116, 51.09009627364109, 52.18318120270546, 66.1946597052139, 43.82050140464152, 56.63324110923772, 54.03979777223846, 49.30737325789048, 66.84506835488743, 58.663079558512926, 66.53927667523568, 57.26991073583496, 50.81208874206417, 63.58814773341155, 53.414093473853846, 54.630161995050386, 79.68076680761581, 53.76065265700449, 51.299658076334936, 65.47574182832345, 55.32115766404398, 67.11667206362203, 42.32024176618254, 48.12283459208212, 81.8678358347792, 51.88705102458272, 65.2142942800715, 67.88909093538167, 51.52721010013496, 61.588569526380034]</t>
+    <t>[35.573649043492246, 72.9630447880292, 57.99813772165202, 69.22245691432678, 56.58466202620606, 55.965208284860864, 61.54924908437669, 58.02473464516788, 61.059717750206026, 61.63479474813387, 47.6684319195588, 59.023621620821196, 60.60467546426496, 60.80270353482854, 56.085949119007864, 45.2210180609658, 63.51778545534801, 56.2595090903958, 55.52786450820469, 47.03168728871923, 66.08000671923116, 51.09009627364109, 52.18318120270546, 66.1946597052139, 43.82050140464152, 56.63324110923772, 54.03979777223846, 49.30737325789048, 66.84506835488743, 58.663079558512926, 66.53927667523568, 57.26991073583496, 50.81208874206417, 63.58814773341155, 53.414093473853846, 54.630161995050386, 79.68076680761581, 53.76065265700449, 51.299658076334936, 65.47574182832345, 55.32115766404398, 67.11667206362203, 42.32024176618254, 48.12283459208212, 81.8678358347792, 51.88705102458272, 65.2142942800715, 67.88909093538167, 51.52721010013496, 61.588569526380034]</t>
   </si>
   <si>
     <t>[26.73101260299677, 38.406522691400724, 59.140485773185574, 53.83923106672105, 42.62674324150443, 36.62683469969195, 46.320111324621, 44.33725796366169, 54.676790592785856, 43.40124899124866, 33.631306850650944, 39.601591136537145, 56.2161706843709, 47.96138068026038, 37.9019167154566, 32.2844849293998, 49.85261559977444, 45.985642661865576, 45.221718378445466, 37.023724086602215, 42.36232653966972, 48.729106667803535, 49.386392739928674, 45.90983162778817, 32.80759220379942, 44.36835652376334, 43.98898768149066, 37.876564145332054, 66.55589852325716, 41.19161135496826, 60.60405708565011, 43.663074324573095, 41.01056534772202, 41.847745560360465, 34.63634619060523, 51.42645336734899, 50.16666475260427, 39.508085011295584, 37.495575563929144, 45.70254842918723, 43.2895536668885, 60.057428325771426, 40.34505146248173, 37.489383700601785, 50.16590070492446, 37.890479321301186, 39.17595805020528, 48.64948160825792, 48.498233240080936, 40.85327543729914]</t>
@@ -1315,7 +1315,7 @@
     <t>[31.62386551475923, 41.4087781432181, 49.077329291269955, 57.272931019262685, 39.25209831090717, 39.3251215935013, 51.668793950287444, 43.26624940684028, 51.50506482619681, 42.73843941103239, 39.53906571093989, 37.830315779136434, 50.68787893716526, 44.213645913430476, 34.55423483842568, 34.44925218041509, 45.95859046542929, 37.50461988039245, 48.99412627093011, 35.85188750661083, 57.54941598952421, 39.406882643744765, 54.913110657185385, 42.01366570650267, 37.485047173708836, 36.376535159449894, 42.55221609154455, 40.56628282838385, 57.91586711082563, 33.07631307174183, 59.19832400758536, 45.662369281449735, 42.0580829382921, 42.90242122523962, 42.839526484679254, 45.78416646975767, 51.555413987092884, 35.640187524996335, 39.42628629213193, 51.85657911078723, 35.25593636245333, 52.30976678175624, 38.67418881548731, 35.11951769812442, 49.304199317714065, 38.85229530848423, 39.469799109406345, 43.31163369948716, 50.66710277119181, 36.471879279001406]</t>
   </si>
   <si>
-    <t>[30.085312626785402, 43.02599026379367, 46.13791812723786, 48.126839781557905, 34.96712484165401, 27.424781735506016, 49.540537727297135, 40.86601294305149, 53.500788709023546, 35.84760143473009, 41.25638680560701, 40.68186278626358, 47.54512606792249, 42.16766569766861, 35.087498725585895, 41.39590339936928, 50.86267136328343, 33.32970815543591, 45.122427728221474, 38.032986089379555, 43.00845307068434, 34.16261311867661, 48.297385907716865, 41.878090808132036, 47.437672742257064, 46.957232656913064, 37.162425727431845, 33.00307484304675, 67.0428982847754, 41.92989943383476, 39.50629305911955, 37.584086932872545, 44.1054518907931, 53.06800461209519, 36.48605065305951, 45.75566555136256, 45.8900145694197, 34.87631839570862, 38.327369435664785, 48.44976736428868, 39.01785910997075, 43.12509616956703, 33.4712228564252, 32.73987466560278, 52.66217595377164, 43.963299419299986, 36.983633884397754, 45.89437790105175, 49.994677772142076, 39.98415379166787]</t>
+    <t>[28.65308270414398, 43.36035063703212, 44.06591936448966, 48.4261928159768, 33.91248251740537, 32.44943947198193, 50.75341462469333, 38.682508681332344, 51.97154980888075, 34.05708245454409, 39.34446356296106, 41.92760375542938, 48.78946720638557, 41.25818130200786, 34.684164365951844, 42.00427927600957, 51.987744338054306, 35.41902934710451, 42.361579707756974, 39.5768253722044, 43.52420985253536, 33.958143379354276, 46.328221754616955, 37.25414501629302, 45.08695819192564, 45.50236006606724, 36.96918260385716, 32.88074484999457, 67.33672486660453, 41.95665832461752, 37.69319885933527, 41.48197221168757, 43.13246404165909, 53.082013447074964, 36.07480305512178, 42.818036223627914, 43.26090075220477, 34.61472440554692, 35.44224329836332, 57.581945410326746, 36.952781416356245, 45.45185889554476, 33.75029918976861, 31.90049207354604, 53.8367654267811, 44.24605130411319, 35.55015309052916, 46.55298908676906, 46.23742216526859, 35.647690105033725]</t>
   </si>
   <si>
     <t>[25.723085534983667, 34.338689531598774, 42.452076012747625, 50.60699680873326, 34.2154426574707, 29.576194763183594, 41.63763427734375, 41.17754539081029, 50.00887668132782, 34.946908133370535, 47.438987731933594, 35.04804720197405, 51.14468339170729, 43.73275688716343, 35.058709144592285, 37.96366040459995, 50.51258945465088, 34.84886768886021, 44.66964595658438, 35.82989986964635, 43.08070087432861, 23.57727268763951, 54.75810851028988, 40.10942145756313, 41.51436029161726, 47.52217490097572, 34.66058077130999, 29.501140594482422, 59.20261151450021, 34.54156733921596, 37.44089882949303, 33.98438794272287, 42.230892181396484, 58.5835599899292, 28.415860394069124, 40.79124213909281, 46.75471300397601, 31.912584168570383, 32.28726468767439, 44.09183195659092, 32.93822492402175, 34.14559331621442, 36.89680446897234, 29.25781766005925, 45.084928716932026, 39.11930426235857, 32.087770325796946, 40.302554096494404, 46.93955455507551, 45.277702413286484]</t>
@@ -1327,13 +1327,13 @@
     <t>[27.143178312446633, 39.413919949864855, 55.96156994188823, 58.087079911962846, 38.80507025886171, 35.33230134683417, 41.21193735077507, 37.45640506857655, 49.731827924685874, 38.45577293174843, 37.70591958808366, 42.70171340405856, 63.24592356068086, 49.54067879515664, 39.63149137649858, 30.899304422924033, 48.29891621213124, 48.94322290988813, 45.801879779069324, 34.56820944361494, 44.63435989406809, 46.85517484446877, 48.19078954615621, 46.00587448008026, 43.62966288444152, 36.56450946022656, 41.650131292150306, 32.52369612579234, 65.96875140703781, 35.96439345225724, 60.773994044016064, 39.981935611223356, 39.99832731638667, 51.93417440671757, 33.868932284449244, 47.603223386854395, 55.48400052387319, 37.54693506110353, 34.14880208904254, 63.411468859668666, 37.9799561878069, 46.04136707564104, 37.41044273806208, 39.801727060050325, 75.90018524503974, 42.03132065572057, 38.79099630731902, 47.344025390383045, 47.39877885529629, 36.681777833139414]</t>
   </si>
   <si>
-    <t>[28.268628561374932, 47.81772155688641, 44.78024621895438, 59.036472258999474, 40.9024249029768, 36.61734801117144, 50.674285408087165, 34.88023309231884, 46.12754206376325, 42.49774629250396, 38.69197062767016, 40.40608933283114, 57.3261128886998, 52.381880404971, 33.66955787028109, 37.29699739269365, 64.4120229406892, 35.82636821956569, 42.585262520252684, 36.71345541080542, 41.7780171628793, 38.041994671742486, 58.11964285714286, 55.05318518818833, 44.47466433252362, 49.399309206861396, 45.83942834784135, 30.942971442342543, 58.24896321365119, 39.97326394143442, 44.37990844879483, 44.89418017857104, 37.61571731820281, 44.42759430924002, 44.03539422891824, 41.18280711268066, 46.42678325268364, 34.028997181219474, 33.24202691661624, 52.61618709928028, 36.437911489182895, 45.88477695453043, 40.66500501551343, 29.836371831932798, 54.084708662828284, 43.72974336435845, 37.661089370605175, 45.95881730259881, 48.62896272869461, 31.180502892432038]</t>
+    <t>[28.268628561374932, 47.81772155688641, 44.78024621895438, 59.036472258999474, 40.9024249029768, 36.61734801117144, 50.674285408087165, 34.88023309231884, 46.12754206376325, 42.49774629250396, 38.69197062767016, 40.40608933283114, 61.49323478308747, 52.381880404971, 33.66955787028109, 37.29699739269365, 64.4120229406892, 35.82636821956569, 42.585262520252684, 36.71345541080542, 41.7780171628793, 38.041994671742486, 58.11964285714286, 55.05318518818833, 44.47466433252362, 49.399309206861396, 45.83942834784135, 30.942971442342543, 58.24896321365119, 39.97326394143442, 44.37990844879483, 44.89418017857104, 37.61571731820281, 44.42759430924002, 44.03539422891824, 41.18280711268066, 46.42678325268364, 34.028997181219474, 33.24202691661624, 52.61618709928028, 36.437911489182895, 45.88477695453043, 40.66500501551343, 29.836371831932798, 54.084708662828284, 43.72974336435845, 37.661089370605175, 45.95881730259881, 48.62896272869461, 31.180502892432038]</t>
   </si>
   <si>
     <t>[32.220270549814366, 47.18446998616135, 50.58652437973985, 57.194890970239264, 36.24664861329934, 30.25528240860202, 40.69013197942561, 42.62249622803501, 52.99470893972317, 41.8901606155459, 41.12273096641748, 39.765959045244365, 51.302059801860764, 41.60153101914194, 40.370005699562945, 32.44362384258892, 54.59182871776831, 44.982870054981994, 45.99682981348532, 37.08561582731907, 51.444970248882, 33.84420047334081, 56.53639567234887, 41.46665461216919, 42.31167182524931, 40.857958567116675, 46.4774840621161, 37.686391143790495, 57.273945320223575, 39.28701862783753, 58.8079870258779, 36.109943795733535, 38.949855664751986, 54.4599189767182, 43.54655830182002, 44.06019242710702, 56.71466940470498, 32.2489112264931, 36.59498895660291, 52.89245529524118, 37.61424728268887, 48.186420832427665, 27.98227439394889, 39.41707616149855, 52.803484456180726, 38.57706438061279, 37.06567774443352, 48.925391305682616, 45.51094598999272, 33.44081859888445]</t>
   </si>
   <si>
-    <t>[35.38174356547592, 45.59305337876434, 52.40529990384742, 55.90061057362038, 39.1129730443737, 38.784194636921335, 48.12633876895736, 40.39802276237939, 53.84428756589458, 38.54241224507638, 40.22403119202166, 43.196324900819, 55.43494433774239, 41.73193454975142, 41.00577517134938, 40.18051120411488, 58.07410893774733, 41.2782709223732, 50.69191369108022, 35.25501275349265, 50.14451248074614, 42.89389396073058, 50.75997213817891, 44.517516276368305, 45.299364684821555, 43.54945697891863, 40.16087422697279, 41.766975332121376, 65.75213140676054, 38.25813333704006, 52.73876061738669, 40.759258904954436, 42.07677357387664, 52.88498401241713, 36.742339823675415, 44.55959434227931, 47.773024346142115, 38.847130115721804, 44.32081588243108, 56.67224793591192, 40.73473989446466, 44.89254517178636, 38.21562182445516, 39.00590013759838, 55.73920940639567, 47.942598124469136, 36.73039580743411, 47.489535406391205, 46.96635411104281, 37.005127846401045]</t>
+    <t>[33.7141531334465, 47.49564455241117, 52.62450463577051, 54.36932744739666, 37.66846317610324, 36.40757932421261, 48.75685009229606, 42.13961721915592, 53.47647042771059, 38.06247755937496, 38.77699015685297, 42.58904161556219, 55.50779017365503, 43.575116448625366, 38.790243840558546, 37.05940963464756, 57.86603977748154, 43.01431630912439, 46.579919993947314, 39.82086368634198, 50.98134821579112, 39.984073798629595, 49.317603045079814, 42.7513288818135, 42.87367727451931, 48.50783237979793, 40.35199960583884, 42.66064559905903, 66.69839244256147, 39.4042901818785, 54.27895632774808, 43.43039866341827, 40.93820759459118, 53.08813886261503, 37.61764134980824, 42.316547101637696, 47.54627003951087, 37.286459101386164, 41.58107757584184, 57.70031842257583, 38.017806099845124, 47.487460456871915, 35.49329127121433, 38.81310878823653, 56.16446280607973, 45.79000012584698, 37.46731209159363, 51.12115181680535, 46.83497656335185, 38.40879691192843]</t>
   </si>
   <si>
     <t>[33.10001623219457, 39.56740174974714, 46.15628779275077, 51.76226915631975, 34.951050349644255, 38.90985258694353, 47.960151127406526, 43.52725704738072, 52.386115891592844, 41.61062281472342, 33.623541996396824, 30.987450872148788, 56.23427058628628, 40.29216602870396, 33.49282741546631, 26.084119139046503, 45.69052859715053, 38.13696043831961, 47.36635398864746, 40.466549205780034, 49.248874532765356, 28.37469741276332, 49.2848336832864, 44.27102211543492, 35.579345975603374, 52.632785270954, 30.793195724487305, 36.54485239301409, 58.42299379621233, 38.61084523882185, 48.54910383553341, 35.2687155178615, 41.732671465192524, 49.955867290496826, 35.054567963736396, 39.21470681552229, 51.464934430803574, 49.70061690466745, 33.995694160461426, 48.38435459136963, 39.67174201176084, 38.88123506818499, 36.14798280170986, 34.43311282566616, 44.12287296567644, 46.81462781182651, 35.7741824558803, 42.793314116341726, 38.624756131853374, 32.24551318032401]</t>
@@ -1351,7 +1351,7 @@
     <t>[34.95092390023784, 43.772708111653074, 45.711055170036275, 51.20991232880697, 36.86453978330975, 34.66466965277056, 35.37901758589845, 41.773484208956724, 41.56191048903371, 37.68172998838001, 42.919292560324216, 44.6905786518278, 43.90928990341244, 49.976753658786386, 30.479251764174876, 25.44474850127367, 49.16902096080429, 37.46309082145414, 43.78405956787459, 33.23759137177228, 46.42313492105799, 30.078700799884775, 46.55711393554946, 49.11251354064324, 31.011337692592132, 38.351844001921506, 41.732985791858155, 34.98230120462519, 58.132601543026105, 37.37972397639698, 42.508522368327355, 37.726110503725764, 33.11355402342724, 49.64946302615169, 28.91229827762833, 42.74711565407101, 52.10720068582124, 30.818740340249377, 36.41446209380739, 34.83977052894888, 34.94756226012545, 52.153786328080685, 30.38224064037991, 41.99053222799531, 40.42646212660876, 34.04920290294346, 32.79564062770233, 40.821323203143585, 38.7848975225405, 54.81713943838328]</t>
   </si>
   <si>
-    <t>[32.058285972539814, 44.686933225667225, 49.300312334838864, 49.55088593496884, 39.18916578452849, 38.0978768112394, 48.70747477277335, 44.37396671220757, 52.289897873855594, 37.763185067280844, 38.91931903077207, 45.801443850364365, 53.93754250778857, 44.667802321572715, 38.05116104524735, 41.34040126101431, 61.374304656909196, 38.71365530880097, 48.201299570966746, 35.00013126256582, 43.383841622502494, 42.81886854198443, 50.56437125564157, 44.47844610440258, 43.97598249342411, 53.94023366570944, 42.494274210075936, 39.90391829026408, 63.81732126657078, 44.1470126777598, 49.75930729397613, 43.22685408359318, 38.22214851534435, 53.63084997029212, 36.97144788053095, 43.096875701779325, 48.54767023280744, 37.612789222830074, 46.10164931670898, 51.4950593054075, 35.096321246292035, 43.288348359192696, 39.60467861414678, 39.934640744017706, 55.17028256918381, 47.46499604576982, 39.24779318163758, 44.73616564200484, 47.89578718304737, 38.94453628690138]</t>
+    <t>[37.460177854785265, 46.93343016491178, 47.46372844596289, 49.15253654893858, 38.005954557734135, 37.68768167525496, 50.17138026698303, 44.78608464960511, 50.275253794636505, 39.470832276724614, 37.10192828611339, 43.59607552057925, 54.185261885309515, 42.76281966499248, 45.06739093603614, 43.488136197080976, 60.39247634112315, 40.305829812910474, 45.56728157371093, 33.67528083499763, 49.90697801606257, 41.136042935978935, 50.72732738638372, 43.91116586947607, 42.71971650526093, 48.32262048101317, 41.03374335740131, 41.2956090285454, 65.75346107093777, 42.091809727704735, 49.398953024892386, 43.988067325051716, 40.32366962934602, 54.65300079383559, 31.807419622312356, 43.3237710578532, 48.867769417500185, 37.09866307976734, 42.057958515451446, 56.58799792241781, 38.87872455621272, 45.5848002614134, 38.839581147258116, 41.011286748642405, 55.19299905512175, 46.465791403986486, 38.78349150518462, 49.75561964359809, 48.76539806372535, 38.38469160416735]</t>
   </si>
   <si>
     <t>[34.196092145196324, 32.92857265472412, 43.243259007590154, 45.076130628585815, 35.28114645821707, 33.20883208307727, 41.58830377033779, 35.85641828264509, 39.90055438450405, 30.18350260598319, 34.325837694365404, 41.07029547010149, 59.72241082872664, 41.56379999433245, 35.159767968314036, 34.22684922711603, 44.59048012324742, 33.935595103672576, 40.02415697915213, 32.51165129797799, 38.98924939385776, 31.94573770250593, 54.08639398302351, 37.36768272944859, 34.56642736707415, 44.50313078123948, 28.812700407845632, 30.54420416695731, 53.077148641858784, 35.03881939479283, 36.37866848912732, 39.88227789742606, 34.09577192578997, 41.96232441493443, 30.01081781387329, 38.12857463442046, 46.47309188842774, 37.55364063807896, 30.663503919328964, 40.53055378368923, 33.88900072821255, 32.65942213875907, 47.41843591417585, 35.8751414162772, 34.64928831372942, 38.36544497259732, 31.769449506487167, 36.82393223898752, 36.28219594274248, 34.280065999712264]</t>
@@ -1363,19 +1363,19 @@
     <t>[46.27547104315759, 37.51526171123347, 60.88964690845038, 62.09071759122992, 37.20213280559106, 36.381971809681765, 45.7543850843161, 42.504577785639, 48.396972317893834, 40.02136417065051, 40.01443993140947, 37.48595186327993, 60.7993778553073, 40.70099491640196, 35.93776748312293, 34.78671712882664, 49.15544797470337, 38.73362607430033, 38.312027417862275, 37.344357820738146, 38.83834468487603, 36.70718010131858, 47.58654133541909, 63.633212679873914, 46.21078752970175, 40.040462569105834, 36.86784101938146, 34.189820707116084, 65.81530720441349, 37.41548733183875, 56.237614649576635, 41.25937312069363, 42.42712714948427, 50.34766626969901, 34.500966631076615, 44.822877933598654, 50.2186024035097, 31.833926026623676, 38.897433447691014, 48.213845118221506, 39.179881304364336, 47.96807182934616, 56.056919903816414, 47.27456961877046, 41.23776896598757, 42.35676220521886, 55.7116651644296, 49.11358106271315, 44.82568445146315, 46.80759406582358]</t>
   </si>
   <si>
-    <t>[36.880208175627175, 43.43989130570621, 48.27899239273398, 54.9178296106772, 47.60809618371312, 35.49630521549694, 43.913267173753994, 35.16069139232895, 40.23732762103328, 31.428907554269635, 45.516141152990386, 42.69840654847998, 43.128571428571426, 43.70509865470626, 30.728545172880526, 41.35830559164656, 49.41431050338311, 46.45975043870997, 46.69464285714286, 30.550903924704823, 45.23614084812589, 36.8114153724801, 60.77994601935409, 43.88308609703787, 42.43249813920591, 55.88160186742472, 40.81586783792523, 39.40472695824691, 58.79941188257036, 41.16242209604368, 44.73700661222692, 45.55004305061808, 29.69285025250148, 46.26660351550332, 42.48174939908791, 47.78914896696876, 52.32190888829319, 42.061041171789974, 33.090645045979386, 47.67245264918562, 43.55804375491776, 31.461226245047346, 40.466570865298266, 40.099259258213046, 53.496428571428574, 37.49147479071268, 34.598214285714285, 59.11728287489408, 49.05319727875858, 30.060994901167128]</t>
+    <t>[36.880208175627175, 42.31249972828625, 48.27899239273398, 54.9178296106772, 47.60809618371312, 35.49630521549694, 43.913267173753994, 35.16069139232895, 40.23732762103328, 31.428907554269635, 45.516141152990386, 42.69840654847998, 43.128571428571426, 43.70509865470626, 30.728545172880526, 41.35830559164656, 49.41431050338311, 46.45975043870997, 46.69464285714286, 30.550903924704823, 45.23614084812589, 36.8114153724801, 60.77994601935409, 43.88308609703787, 42.43249813920591, 55.88160186742472, 40.81586783792523, 39.40472695824691, 58.79941188257036, 41.16242209604368, 44.73700661222692, 45.55004305061808, 29.69285025250148, 46.26660351550332, 42.48174939908791, 47.78914896696876, 52.32190888829319, 42.061041171789974, 33.090645045979386, 47.67245264918562, 43.55804375491776, 31.461226245047346, 40.466570865298266, 40.099259258213046, 53.496428571428574, 37.49147479071268, 34.598214285714285, 59.11728287489408, 49.05319727875858, 30.060994901167128]</t>
   </si>
   <si>
     <t>[32.20138429389847, 42.63994248593931, 53.822687891286975, 53.68239606900347, 35.20772406144094, 35.753387244495556, 43.41175332453402, 44.18330426153225, 46.709183573169355, 37.65231366196612, 41.59072547776629, 37.82363049495585, 49.794323737685296, 39.20187886811561, 36.15457810236218, 36.18828651387425, 45.529575254964705, 42.64025641374993, 50.32671626862107, 38.22710331930694, 48.235523398727736, 37.82253949542193, 60.29935155818581, 51.65165908686153, 40.672954522440925, 38.41280375449942, 45.12362129564449, 37.76352908671854, 73.16320264696242, 40.15103002224094, 53.57004315716755, 42.40714725662916, 37.4877991271565, 50.749960552918935, 54.43247956247653, 41.328913954500706, 63.540726571959055, 39.36015953893117, 37.981991365637164, 48.95494838010183, 36.75653208014816, 41.69404088017523, 31.602135079200355, 37.993618394442436, 49.89563454893506, 47.66517855595409, 47.58519676349726, 47.984016683451856, 51.4367858191482, 48.784509958820664]</t>
   </si>
   <si>
-    <t>[33.82235971058414, 47.37022612213703, 52.6672158124863, 47.488121708806965, 43.33556567147629, 34.73583269686402, 48.69275891552646, 38.413566474615095, 50.14647084087985, 33.732487285328276, 39.40875710823319, 45.998352019162255, 52.345059189300514, 46.600835809518955, 38.639080290230446, 41.02072603135643, 50.817293770598766, 47.52737769934622, 48.39992615218824, 36.848174034415365, 49.312525818900184, 38.86769528998011, 47.19832377481056, 40.58533054632028, 40.42035967510004, 46.56889345660352, 38.61659440947009, 43.28817370971249, 64.60868513508508, 37.61958596251628, 49.5092576882199, 44.40162723281728, 41.2501073153659, 51.29599349814083, 39.883229181808865, 43.93946191486604, 53.352023704192106, 37.11519299630966, 42.53404033913684, 53.95563281472095, 39.574359438961906, 47.10447767342036, 35.04829902790196, 32.05165957599825, 55.724495276245655, 46.292416344115274, 38.17433231330803, 48.44233037250502, 46.451478053653105, 38.928061246729996]</t>
+    <t>[34.71605036727485, 47.08137186379601, 50.35635271835416, 48.04620005110804, 40.19634151645027, 36.397215733895365, 50.58727852456669, 41.61499815238606, 52.59590151548284, 34.35144588494739, 39.56191870131177, 43.21494644964019, 52.66991826999185, 48.32877565827298, 37.64501611071277, 40.95128118636404, 54.18689631479358, 45.96968241595602, 43.718962375835225, 36.21060451701725, 48.71721374768982, 36.53561887124766, 46.035546527706266, 42.844014491251684, 45.47990143444236, 42.40348851044901, 39.10761597694079, 42.586214153389555, 66.92911698343715, 39.14285089310844, 51.080067322035966, 46.90728354593049, 40.499431086921405, 51.59390238106389, 39.164906476173584, 44.8500596195564, 45.41477014402299, 37.31501529345622, 41.64958234107257, 54.104038030915824, 37.694868790223794, 49.58601736136791, 36.660279133515665, 35.418485843006394, 56.22871475788333, 49.19294520050283, 38.88897955379032, 49.490450322389044, 45.69298376946688, 35.860003035159714]</t>
   </si>
   <si>
     <t>[27.10047570590315, 40.49385942731585, 47.08590403965541, 45.97540586335318, 42.59147698538644, 30.475654470509497, 46.82739588192531, 28.457658304486955, 41.46550818852016, 31.387099947248185, 41.773613666665966, 38.35901921136038, 47.26902315957206, 40.19268717084612, 36.42148331233433, 30.166153019872205, 46.98924037388393, 41.645904813494, 40.774501187460764, 34.42767326831817, 46.09809852468556, 28.205211094447545, 46.654154533999304, 42.347466877528596, 30.842630250113352, 51.9888560196449, 40.53980132511684, 41.85393401554653, 51.118403162275044, 33.73648420061384, 36.69980424025963, 39.72052601405552, 37.918270519801546, 45.66785362788609, 32.41571202959333, 39.54174944450115, 46.633284582410546, 44.58662108012608, 40.09944180079869, 39.91915709631784, 33.06941604614258, 45.22116893018995, 44.24873093196324, 26.73663398197719, 36.08108343396868, 40.31487274169922, 38.46213218144008, 39.740441049848286, 37.69273393494742, 41.16178409031459]</t>
   </si>
   <si>
-    <t>[37.804457398408886, 58.99291785545122, 58.7932556793211, 69.43521022233725, 55.26983570902258, 48.628788351200065, 61.78490410293091, 52.08286768312513, 66.08615167481778, 64.09553031377789, 45.64227010349065, 52.2973306025779, 65.5840757707039, 63.522262215139044, 56.501117364989916, 50.46045213569931, 65.6093611577235, 55.59069082227232, 56.44090987596798, 45.18451646302571, 64.33012847351326, 52.22551024231628, 53.76304947844735, 66.6200525609449, 43.82050140464152, 58.99522711197392, 53.429251384449564, 47.840111508022275, 66.84506835488743, 54.60441340272322, 55.095044504972684, 61.54378100755592, 49.94237803448275, 65.75590736818766, 54.71925809151089, 52.36608036897868, 72.69950684666573, 60.4424305323795, 48.080908374673854, 64.04977726558256, 52.578903300575526, 66.23761914011148, 42.6990870777024, 48.289324802943966, 82.53908367684839, 50.127519653231374, 66.75351851164372, 65.39297898649484, 50.52322302610803, 60.352169101631894]</t>
+    <t>[37.804457398408886, 58.99291785545122, 58.7932556793211, 69.43521022233725, 55.26983570902258, 48.628788351200065, 61.78490410293091, 52.08286768312513, 66.08615167481778, 64.09553031377789, 45.64227010349065, 52.2973306025779, 65.5840757707039, 63.522262215139044, 56.501117364989916, 50.46045213569931, 65.6093611577235, 55.59069082227232, 56.44090987596798, 45.18451646302571, 64.33012847351326, 52.22551024231628, 53.76304947844735, 66.6200525609449, 43.82050140464152, 58.99522711197392, 53.429251384449564, 47.840111508022275, 66.84506835488743, 54.60441340272322, 55.095044504972684, 61.54378100755592, 49.94237803448275, 65.75590736818766, 54.71925809151089, 52.36608036897868, 72.69950684666573, 60.442430532379554, 48.080908374673854, 64.04977726558256, 52.578903300575526, 66.23761914011148, 42.6990870777024, 48.289324802943966, 82.53908367684839, 50.127519653231374, 66.75351851164372, 65.39297898649484, 50.52322302610803, 60.352169101631894]</t>
   </si>
   <si>
     <t>[27.71455248339385, 38.06992645754986, 60.860161527159974, 56.530682880528055, 42.850668507524134, 35.62558093106946, 47.59333544054932, 44.10271242668485, 55.08553827648346, 47.363389806723454, 32.743668216286885, 39.39977186797431, 53.222621460647666, 47.9175794487502, 36.03247501579598, 40.1104587053894, 72.18346234325352, 43.11580670688746, 47.47688113049259, 35.34892663670306, 41.42696579362655, 44.56855385645232, 48.060095158170284, 50.964090070739466, 40.052617250117564, 44.18006031853126, 44.42075136633061, 30.946539229124046, 66.30619544515973, 39.48011235999733, 59.055438471603495, 43.4481866837512, 40.96263649763661, 41.800566024746686, 35.627379302614415, 51.51710227459293, 47.17188966061058, 34.560170358705214, 37.25441980087981, 45.16862231446032, 43.25179531521765, 62.48349031524973, 40.021017077880124, 35.59330688017989, 51.127563498470714, 41.423425067491344, 42.379241300660915, 47.622142819241326, 46.959968675392304, 40.566030756526125]</t>
@@ -1387,7 +1387,7 @@
     <t>[29.16296697446765, 44.26817383763476, 54.19628004045542, 57.518280483090784, 39.55299685394732, 39.152251355160566, 52.0332776849004, 42.99815847418431, 51.776969750385135, 43.74049164054007, 40.20994286999359, 41.051858926405096, 50.45671247600212, 44.953178236521026, 34.6514875863067, 40.44505802790401, 47.21122471688384, 36.823427920811525, 48.52822952754031, 35.90534676451981, 54.69515256709293, 38.60562333472784, 54.75610145851095, 40.01095563295439, 39.0594317527765, 36.20709432810782, 42.37823662378886, 38.484102427824276, 58.3312481319371, 37.41740249691737, 55.334309748785465, 46.795462976090946, 42.31601616789841, 41.38174020355426, 45.14179230218896, 47.79566903327246, 51.659796418657436, 35.52876179217202, 40.11169578964128, 52.7842253504469, 37.57027494556076, 47.477534986640045, 39.26309366041111, 34.7769920033544, 50.32123809187834, 41.198548775725286, 41.824276646657935, 43.207208598150835, 50.57888842076347, 40.539871290421594]</t>
   </si>
   <si>
-    <t>[31.559895034764644, 42.37082913329848, 48.44559848697783, 46.71401122141641, 34.49369823103466, 28.861509810074878, 50.333766624337464, 36.33989700237708, 49.75387290166214, 35.72656840906331, 40.23860271304969, 41.75945503926577, 47.05730961555562, 43.34591569483434, 34.19514342654265, 41.838415773672956, 52.8933340223875, 38.393324768304545, 47.10129202529777, 37.390962632020184, 42.469187624417266, 38.5057603543767, 45.60487775419059, 37.79480942781773, 41.314197634616036, 45.58923010111454, 36.12069838349604, 34.00297738239577, 66.22480368495395, 43.359203620115686, 48.949369011925214, 37.42444142667454, 42.95227559879322, 53.50475426249891, 37.672733759393914, 44.887050558228886, 46.19517280500715, 35.06285532298735, 36.43626531000943, 50.12535918806244, 35.69734665296519, 42.20307211106457, 35.010129979284834, 33.026175587177455, 52.597442128211775, 44.4087010795475, 35.52012363716873, 46.53417025199444, 49.22795327155016, 39.94377013756639]</t>
+    <t>[30.09331657852916, 42.50378955523598, 50.42555003457069, 48.325408952440895, 35.2741164403465, 29.271672193531423, 50.21299084981342, 39.76863881957848, 50.90050270222463, 35.469381681741, 41.74695578728248, 40.30975372855892, 47.1366928473783, 41.50349719608157, 34.79965358562793, 42.071119126495184, 54.47201468738359, 37.30062624802895, 43.00636771662486, 40.05657062233016, 42.84932058906485, 31.997939700017273, 47.77044842827193, 38.87616939872769, 42.82840291104157, 44.027920720963415, 37.685605313511196, 34.08231633630765, 65.7181449424914, 44.059669906253625, 50.17872323016806, 41.012236073222354, 41.17867643831199, 54.202403369797985, 33.93567826359709, 45.63027503881588, 47.96422404470953, 34.4760404076444, 35.89980732974402, 51.221876354393395, 37.07854677593288, 41.94632372655623, 35.98874773015598, 33.19060194753225, 52.08066942706887, 42.84343572335552, 36.15351373289277, 46.31708066580648, 51.98303598695242, 40.04436765638057]</t>
   </si>
   <si>
     <t>[21.997333460840686, 35.670206614903044, 39.01062565531049, 49.38766935893467, 32.28259590693882, 29.302777520541486, 46.44558266230992, 38.20978908538819, 48.761254038129536, 33.158594267708914, 46.3625224129907, 35.31028297969273, 51.6230915750776, 34.23670953512192, 31.5552180153983, 35.653710332410085, 51.10072013310024, 43.02182061331613, 40.74847483634949, 32.011775915963305, 45.32026119889884, 30.988692147391184, 46.2780900818961, 33.53462832314627, 43.92165047781808, 48.80740139402192, 41.24896812438965, 32.37448515210833, 57.747826303754536, 34.76714646475656, 38.30717790537867, 42.12169790267944, 42.35049165998186, 52.33748231615339, 30.078703553336005, 43.44636101558291, 44.75989118303572, 41.17561878476824, 34.43044512612479, 45.0181508745466, 29.16690074986425, 39.273045730590816, 36.66250337873186, 32.39479528154646, 44.55324111665998, 37.81087033501987, 47.33558784212385, 42.60209252153124, 41.509924684252056, 44.077231317013506]</t>
@@ -1399,13 +1399,13 @@
     <t>[28.953543767025433, 38.71157637789441, 54.57115775108956, 60.592623681455926, 39.10467257341111, 35.11805657052263, 41.88392859806895, 34.89497309089638, 49.34444082490144, 45.661142285842, 36.8066076410719, 44.808243295924974, 63.52747417830782, 48.67389173512629, 39.949816316878355, 30.732521893049384, 47.2841292371928, 49.13364946815351, 47.87350518458768, 32.64769611086102, 46.92547100340312, 48.68121164236426, 46.69574365260127, 45.91364189694449, 45.47707185514806, 42.245634095226634, 43.39651360472999, 32.25861162540408, 65.73891617347337, 31.923611399044518, 59.51769031697553, 40.489205142631874, 41.314592658697656, 55.001527985901866, 50.4783376688431, 46.19289389000309, 55.539600280438485, 37.05937748678475, 36.29096322239066, 60.894279315828726, 39.297636758066496, 63.48755272292397, 37.111938716856166, 50.43511339642158, 73.36361342346274, 34.889634525049956, 37.909244482363256, 46.99000934790837, 46.279625527913986, 35.78578790993775]</t>
   </si>
   <si>
-    <t>[29.465906307417605, 50.10165347441397, 51.396638137760014, 55.804167812702175, 43.300318641113925, 35.32542756957015, 50.112828578804006, 35.08787901818222, 43.49289221492383, 45.2697229279312, 40.485595995944934, 39.026566232219345, 60.5154761904762, 46.53236214493611, 37.2725831520919, 37.330626064378386, 64.6880974146391, 35.7489667582148, 39.00156371060052, 35.99575078671113, 41.787068485993714, 34.65718024661872, 67.92259686805222, 44.3706223413461, 43.305824904664576, 49.19577676231684, 44.619785610693, 32.03917318176377, 65.75083504047645, 33.25601743920789, 50.779507227211674, 41.57987382696883, 37.41045043378057, 44.359642906069794, 44.8973713022911, 42.76105605160114, 47.017408724097514, 33.152435339614144, 38.4464013700191, 52.40506768895687, 41.38881672800934, 41.46525736516704, 37.69732120890181, 30.536827676363494, 58.101028994241894, 49.770427345367395, 26.497476031365373, 48.358039413553115, 43.59415937856142, 31.9302092726592]</t>
+    <t>[29.465906307417605, 50.10165347441397, 51.396638137760014, 55.804167812702175, 43.300318641113925, 35.32542756957015, 50.112828578804006, 35.08787901818222, 43.49289221492383, 45.2697229279312, 40.485595995944934, 39.026566232219345, 60.5154761904762, 46.53236214493611, 37.2725831520919, 37.330626064378386, 64.6880974146391, 35.7489667582148, 39.00156371060052, 35.99575078671113, 41.787068485993714, 34.65718024661872, 67.92259686805222, 44.3706223413461, 43.305824904664576, 49.19577676231684, 44.619785610693, 32.03917318176377, 66.82418037088313, 33.25601743920789, 50.779507227211674, 41.57987382696883, 37.41045043378057, 44.359642906069794, 44.8973713022911, 42.76105605160114, 47.017408724097514, 33.152435339614144, 38.4464013700191, 52.40506768895687, 41.38881672800934, 41.46525736516704, 37.69732120890181, 30.536827676363494, 58.101028994241894, 49.770427345367395, 26.497476031365373, 48.358039413553115, 43.59415937856142, 31.9302092726592]</t>
   </si>
   <si>
     <t>[31.853652531068253, 47.258121433594866, 49.94851858188712, 59.71655991276051, 36.267476072218564, 40.70173433632547, 46.510149241590725, 40.10078844529001, 46.607508350976616, 41.34852820062669, 40.576518760331446, 42.843700334634164, 53.67790569842826, 41.08568367952734, 33.02811425488553, 31.79305513573815, 53.81061277664104, 42.820012699099834, 45.36837861090154, 39.76529804287448, 56.90033761840829, 34.526776399026005, 56.84382364592097, 40.91915235451496, 42.27108514025044, 36.686505381020346, 48.65778152510525, 36.304660583448815, 58.419999220024074, 33.982616297115, 56.687159361457944, 35.218657551686135, 43.858458819886, 43.60813078796262, 45.55169372246335, 59.97517358499428, 58.01445620265705, 33.851088176041834, 37.12655431211169, 56.12054807775588, 33.05375173766623, 51.58514280137687, 29.443291930909655, 38.62026275590688, 52.97696698663901, 40.9259842609218, 36.87343299030341, 52.36861965930217, 44.626699861087445, 35.64371038642201]</t>
   </si>
   <si>
-    <t>[36.01743184810753, 45.25505669485938, 52.510811790731985, 52.44170188783129, 40.40188325959978, 36.94553759156325, 49.49582282244956, 39.77689957971646, 52.70359792230313, 38.05132355254557, 39.73927940873382, 45.4524717972649, 57.65691373507082, 44.624281369610756, 40.08244123862795, 41.13198717461143, 54.46252413293301, 45.92036712988706, 51.426985174794765, 34.22585887469453, 49.73394808269256, 39.866940570481724, 47.87457004518573, 43.194880062960706, 46.700783089883664, 49.155797993194504, 41.93574228894911, 38.40644949989329, 65.99367653426005, 41.10932995366766, 51.889251069826074, 40.45636566791431, 41.50534681469667, 52.83399768011952, 38.79034389902875, 43.55368593751293, 46.869421098001794, 37.899919849910134, 40.36700926847691, 54.305428347443694, 37.61886038885177, 42.231049344301645, 37.809068667326244, 36.73113575252608, 53.299324215316595, 46.45568465457795, 37.71338919912917, 48.410038437652425, 48.032050892292645, 37.18056173629359]</t>
+    <t>[36.55267889104075, 45.67806916040869, 54.462600000917746, 52.03232903231669, 40.07026435632513, 37.21203208743423, 50.60678026638523, 36.6678157476333, 52.63336393875109, 34.873071393823835, 36.714910290488206, 43.311810047783446, 54.37736772609939, 45.10416401196666, 40.93542482959255, 39.7674207287631, 58.841027979341746, 45.424028199661386, 51.30927308303648, 32.99505146894883, 50.31689667165036, 42.56620716459314, 49.31117985640043, 45.3104722918804, 45.54910641248255, 46.199088180883365, 42.22345057523737, 40.899760891120884, 67.15749298502922, 37.29023548784243, 52.62136029476825, 42.16685822373671, 40.162631046582696, 54.879770549601616, 34.80646871869339, 44.0298591320938, 49.06784489877631, 38.099491725032415, 41.203404212441384, 52.479057513061264, 37.917011314531926, 44.60813530062071, 36.50261348184774, 33.93457458954479, 56.29148928004545, 45.87098035595158, 37.999095842890824, 48.89240216894082, 47.42948319409562, 35.764960995021596]</t>
   </si>
   <si>
     <t>[36.233770304712756, 39.419285093035015, 45.787196622576026, 48.86341885157994, 45.5408421925136, 29.355984589149212, 47.750566482543945, 35.65416875566755, 46.19334030151367, 33.086878640311106, 37.58588527810985, 40.48555019923619, 46.93012668064663, 41.99983242579869, 33.65255226407732, 26.250831077838765, 44.17877510615757, 41.069960185459685, 41.30713544573103, 27.98133510862078, 47.92485138465618, 38.25693375723703, 46.94112022944859, 46.01328045981271, 36.14492852347238, 48.376953848477065, 36.39158548627581, 31.366140638078964, 50.87933622087751, 41.20699659075056, 41.21747891656284, 34.20425633021763, 39.234755107334685, 43.16354942321777, 32.66086504799979, 38.77858510510675, 51.31048224312919, 38.752007484436035, 34.64306518009731, 50.24895463671003, 35.9809078348094, 39.88874034881592, 41.49010535648891, 34.741754804338726, 44.198163577488494, 31.46567390704977, 32.657328196934294, 52.03859451838902, 42.789928027561736, 35.63308887481689]</t>
@@ -1417,13 +1417,13 @@
     <t>[52.47897916745175, 54.21225676616898, 47.163149471294744, 52.10504724190514, 54.05507104959762, 53.66873124345277, 48.6438178328955, 52.255326069040834, 52.53031373278547, 50.15968877422955, 53.484111114289966, 56.99166230184212, 50.582864577269504, 51.44065360613138, 51.78216396020753, 49.922198375347975, 49.072044231815184, 48.221402244312316, 52.524632983973746, 55.13455773904756, 55.46981539522237, 53.546597755209305, 47.776803725150934, 45.191949430886375, 55.9662354195586, 54.64023699836393, 50.63444224457949, 50.46458966863649, 60.54046212618018, 48.02524472298042, 46.26265274670668, 54.709853778317196, 50.16020961682925, 50.733173571239135, 54.45561894463625, 51.61870749813875, 46.308363439963976, 56.58238310291841, 53.78224032715021, 53.63768192526832, 57.27654260883976, 47.98675503627712, 55.80681318459656, 48.33685537107906, 50.938210715982564, 56.038202319859636, 54.602695642627296, 53.61771039627111, 52.294558392479345, 43.34408473322276]</t>
   </si>
   <si>
-    <t>[53.44314434638958, 53.281709486166015, 48.149991054035596, 49.751263967032195, 52.91035573122529, 56.65034584980238, 45.670928853754944, 52.63778899787078, 47.96846926192146, 49.35575098814229, 48.71030761140868, 54.689565217391305, 52.39505928853755, 55.66225017652373, 51.962124505928855, 46.786077866931365, 52.53075945177251, 53.03736709642008, 49.7702511326935, 51.39338874612075, 50.1484049872448, 48.82187353803484, 50.72918844622153, 49.36862879124489, 56.2880734934505, 48.24574119729, 48.36137030547482, 51.12164526448662, 53.13411067193675, 44.595415895471454, 49.01768408227092, 49.85270750988143, 49.777625123919634, 47.44654998798485, 51.84153478818072, 49.863224473207616, 45.47168541572595, 52.263275487958666, 50.06623342877584, 47.390749549212366, 51.36438111123722, 48.24024642909327, 50.809545745910974, 51.207450592885365, 49.51954533918515, 51.4541699604743, 50.419549171354916, 50.99662055335968, 48.194669751932395, 47.4584317415682]</t>
+    <t>[53.44314434638958, 53.281709486166015, 48.149991054035596, 49.751263967032195, 52.91035573122529, 56.65034584980238, 45.670928853754944, 52.63778899787078, 47.96846926192146, 49.35575098814229, 48.71030761140868, 54.689565217391305, 52.39505928853755, 55.66225017652373, 51.962124505928855, 46.786077866931365, 52.53075945177251, 53.03736709642008, 49.7702511326935, 51.39338874612075, 50.094781077926534, 48.82187353803484, 50.72918844622153, 49.36862879124489, 56.2880734934505, 48.24574119729, 48.36137030547482, 51.12164526448662, 53.13411067193675, 44.595415895471454, 49.01768408227092, 49.85270750988143, 49.777625123919634, 47.44654998798485, 51.84153478818072, 49.863224473207616, 45.47168541572595, 52.263275487958666, 50.06623342877584, 47.390749549212366, 51.36438111123722, 48.24024642909327, 50.809545745910974, 51.207450592885365, 49.51954533918515, 51.4541699604743, 50.419549171354916, 50.99662055335968, 48.194669751932395, 47.4584317415682]</t>
   </si>
   <si>
     <t>[51.680778458263106, 48.27205200597918, 48.885337717657265, 48.882099163663625, 48.8119481541926, 49.968465510715966, 47.48821017665425, 47.29300696050497, 50.228742462400525, 47.05251069384819, 50.29178226197823, 54.256439009881944, 53.646088462166304, 47.104296039259104, 48.101515180659284, 46.82341064807907, 53.46746319803911, 47.97444407883772, 46.52336952715374, 47.93625926635217, 51.38779997925825, 50.52179278731104, 45.46857640621497, 42.955048216596815, 54.7798256845904, 49.824072329159954, 49.450911572494796, 48.75853295780947, 58.31090749347322, 45.01830637476364, 44.99710064168367, 52.32366541875524, 48.14455340167414, 46.98398325369918, 51.48699739152123, 49.63807894880724, 45.3768631199955, 52.87309344660853, 51.06246674485077, 48.98741761278427, 55.814817148977184, 43.55317126058444, 53.746225566839556, 44.06612888882951, 49.93933903335196, 51.85589872815622, 52.02914448668737, 51.94466660924677, 50.25889856564004, 44.04880148065695]</t>
   </si>
   <si>
-    <t>[62.339594270260264, 55.123685655957125, 56.711114386738245, 54.75652937975864, 56.2421899055211, 57.5286656483804, 53.329226000028314, 51.898273220615636, 60.186772724842186, 50.841585316294264, 56.955422884364, 59.33785752277985, 61.086688754403454, 59.677499156855596, 54.38006147327762, 53.476371614300625, 62.58760005125191, 54.98910968276427, 52.276288520898355, 56.63974307221272, 57.5615557869848, 58.87179596832323, 51.19864990265714, 56.715171453430955, 61.75434123368908, 60.65034470116166, 55.80235966191306, 56.65416220268926, 63.51984582808078, 50.40131573535559, 54.45953287105938, 60.09739578466893, 58.40346834211764, 54.50075492126975, 56.56659748065797, 54.908255890870535, 55.3705826251349, 61.58205762909559, 58.27619411419992, 54.56627763834744, 63.929182995246705, 49.88952099108999, 58.97307750796358, 55.74800663530459, 57.38743189426701, 61.52676697010651, 60.254743039921195, 60.449957453225785, 56.19255790554469, 55.36169476159652]</t>
+    <t>[62.84514253054897, 55.5224385365417, 56.660862977419, 55.03025034879916, 56.75627535801952, 57.43636985548901, 54.84962230894165, 51.711165008851935, 59.839334293068724, 50.52446243274611, 58.355682530276226, 59.42894909265891, 62.2235903502884, 59.257994926180665, 54.209061383809534, 53.37776124403514, 62.76591457274969, 54.76980203488158, 51.53498441480751, 56.68097314372086, 57.153886045620524, 58.03343350676522, 50.5414708424154, 56.675792120255245, 60.78960491777019, 60.62785724241197, 56.9123715924361, 56.698518750014884, 63.103035861717345, 51.628640700092106, 55.28977149949153, 60.76329414890049, 58.72821432490416, 54.80175130785212, 55.52805586487565, 55.457812232881544, 54.59020313786859, 61.118042650285666, 58.57791435268041, 55.42627598011906, 64.16472661065573, 49.724262175764935, 58.41718500736721, 56.796187562341345, 56.8194715468656, 62.018757596342994, 60.71225595486044, 61.15901191476901, 55.95486991883173, 55.568246305569424]</t>
   </si>
   <si>
     <t>[59.26299738942398, 52.837440867179, 49.94857585778821, 48.52699445667945, 55.30717683939124, 52.46092284613447, 49.7854337907874, 47.19436963765988, 55.86842506683862, 47.41579545390465, 53.88702537186062, 54.25252838707725, 54.797489329854486, 53.22447442139561, 47.26101848737996, 49.564535660724864, 64.20032085343311, 48.95618637152811, 46.849436693681554, 45.775596583973275, 49.89797999860741, 51.90253134610625, 42.16749103380286, 47.9797323491545, 62.75246195659336, 45.48059842088948, 50.71794287553418, 50.357632816902736, 64.99687391258512, 43.95999471830285, 53.6863219812265, 53.61254935554835, 58.3184166909018, 48.08304727443122, 49.052712101144756, 49.159739435067756, 49.75640509156842, 55.15448014300803, 53.95222480250442, 46.9120474665344, 56.562216518537795, 43.99814898227986, 49.9089822015555, 51.48337275056499, 56.06792838175777, 61.534832776035714, 51.52570273629291, 57.279297310448456, 51.15802912625399, 52.32600526696608]</t>
@@ -1435,31 +1435,31 @@
     <t>[59.19579134259285, 58.408158296498286, 55.88754916615953, 52.82924695356727, 59.615246503725395, 54.25760916792152, 52.31622459659246, 56.99303596204047, 54.84980653121663, 52.84332198776885, 60.092176334982824, 59.7339251113858, 60.89793056516454, 54.46287365363882, 58.27022136893167, 54.22468551652895, 60.78291979751448, 58.06207171922331, 53.86535255288553, 54.43748387125095, 56.632212833680526, 59.08760471352836, 50.89624050357786, 51.374067183683984, 59.96452802676954, 57.75900536523254, 54.37490254719778, 59.05676348851762, 60.37128120028615, 53.64800561399785, 53.33491279620834, 59.85980049716811, 60.89598348848839, 55.94455865629726, 55.041231995733675, 55.24677052511957, 52.184598931158874, 56.138580058502065, 61.227613461085, 52.376905613083785, 60.22743432456623, 50.25553171207371, 57.765150094651084, 57.99886875146585, 58.63060673736891, 53.88703224111352, 59.35528883423571, 58.06253905493122, 56.30801087351942, 56.637263258177015]</t>
   </si>
   <si>
-    <t>[55.09505760915705, 52.79680717536851, 48.134379166130955, 51.91537625648997, 54.0886948521268, 51.518778196238635, 47.583378131283354, 54.147823193538805, 48.26843771279034, 49.79539312941962, 48.12016710992966, 53.94913717799541, 50.36242218454936, 54.66177905800022, 52.16058501644386, 47.44726934063978, 54.37922688557107, 53.71642984887112, 50.24564097489722, 50.379743083003945, 53.65235506449744, 51.24825902481037, 51.18062469295431, 48.51391865216525, 55.826384502432425, 51.062634649713615, 47.61215265745135, 48.17310276679842, 59.033997958915506, 45.762637092600286, 52.0157606768076, 52.24677337584815, 51.367624074003245, 48.811783289239656, 51.32804896943154, 50.44648379086641, 47.48870360007767, 52.25830819033973, 51.86278923270346, 48.326550516622056, 54.41731678059959, 47.67833653022104, 53.80070662747512, 52.82473461320082, 50.232763613410576, 52.60101752905045, 50.409568518082224, 52.53072954992511, 49.36935976613887, 49.836658579118094]</t>
+    <t>[55.09505760915705, 52.79680717536851, 48.134379166130955, 51.91537625648997, 54.0886948521268, 51.8013460819403, 47.583378131283354, 54.147823193538805, 48.26843771279034, 49.79539312941962, 48.12016710992966, 53.94913717799541, 50.36242218454936, 54.66177905800022, 52.16058501644386, 47.44726934063978, 54.37922688557107, 53.71642984887112, 50.24564097489722, 50.379743083003945, 53.65235506449744, 51.24825902481037, 51.18062469295431, 48.51391865216525, 55.826384502432425, 51.062634649713615, 47.61215265745135, 48.17310276679842, 59.033997958915506, 45.762637092600286, 52.0157606768076, 52.24677337584815, 51.367624074003245, 48.811783289239656, 51.32804896943154, 50.44648379086641, 47.48870360007767, 52.25830819033973, 51.86278923270346, 48.326550516622056, 54.41731678059959, 47.67833653022104, 53.80070662747512, 52.82473461320082, 50.232763613410576, 52.60101752905045, 50.409568518082224, 52.53072954992511, 49.36935976613887, 49.836658579118094]</t>
   </si>
   <si>
     <t>[58.499145653628524, 54.94094974433934, 51.867839523075574, 53.749306919528806, 54.27811063737837, 55.01217282075218, 49.543397418796424, 53.317411983340136, 52.99404266159159, 50.23430320288112, 52.458235972564616, 59.90610202893438, 58.61183035728065, 56.219364181013454, 54.69287772545756, 51.90474766471611, 60.7300061741106, 50.99989638487396, 50.343925350402756, 51.83034691603101, 55.494239631177734, 55.69135697434558, 49.43233958698767, 51.5530149130022, 59.82407400987457, 58.20384645441918, 55.73822591140508, 51.48774905258525, 59.49689642797962, 50.643753777123536, 51.03065819590445, 59.811076356664145, 56.907247535025114, 53.001439792447854, 53.01791323477181, 51.76814013316557, 49.59706816923866, 57.74995811078371, 56.356451091142674, 51.27051115037411, 60.13121637140148, 49.05033940781362, 59.13362631270088, 55.61306871831657, 55.02016423177147, 54.12165532565099, 57.72795746292489, 59.75646955180648, 52.42352790302325, 53.717765213359556]</t>
   </si>
   <si>
-    <t>[65.12392325859388, 54.58492792004158, 56.2169656531245, 55.40290272062109, 57.665495443806755, 57.95429139137839, 54.972392894769726, 54.38389298637649, 57.91500669959861, 51.90047206130693, 56.36411868441295, 59.36269451675518, 60.41728519233923, 60.60146370630887, 54.93714819206726, 55.527710811545305, 63.57222444231038, 54.24460485644185, 53.904725328771214, 54.715407051819, 55.21568219331952, 57.433481952962936, 51.77317173040251, 57.40358336149467, 61.83382746681997, 60.64718821929872, 57.97684222740647, 56.128201495513835, 63.69432587609564, 53.527538643802245, 56.095076517000315, 62.14014674601574, 60.74694860740906, 55.10362887306449, 54.80926946535662, 56.69215023786304, 54.677098112988276, 61.500425231260124, 60.03144677242697, 53.11289338631982, 64.65359724150255, 48.11756889121762, 61.0524966316013, 59.32696135567122, 57.40373600550763, 59.20326464873735, 60.97461816292655, 62.890896951822285, 58.20525106459481, 56.921259961913314]</t>
+    <t>[65.12717235403599, 55.198939098863754, 55.68609496458993, 54.117810287382476, 55.33188908282126, 58.796726151107805, 54.59748582428796, 55.4099200921439, 58.526607676915866, 52.779085008105746, 57.69130339163276, 60.011607644186526, 60.955742352695516, 60.833850890589076, 55.08776966416592, 54.85855918665957, 63.57462837482446, 54.77718760150164, 53.437116223866994, 54.91931209609138, 54.967324840814776, 58.9161574471634, 52.4693073200477, 57.6760332179132, 62.22807452456777, 60.019783892651205, 57.57965819927732, 54.91732241710862, 62.83674779136919, 52.952248613507535, 56.467581755061, 62.50748623644337, 60.42918276379703, 55.154889299625765, 54.77255440671699, 56.48142779549222, 54.97536758873946, 62.12204903682074, 59.362699291689026, 52.60905592127275, 64.32164943989501, 48.94225722475959, 61.86943072804356, 59.36682539421024, 56.823785944527756, 59.27487001320161, 61.584650305640785, 61.28556845014225, 58.36766773690469, 56.98749729939809]</t>
   </si>
   <si>
     <t>[63.80836509001584, 53.07977475863671, 54.52027022772627, 49.54176630284004, 52.06427030344726, 50.47401146598484, 50.37369632389234, 50.16332018212839, 56.14242822594322, 49.73135906573812, 51.964003855362236, 55.051651193671546, 54.6323404711697, 57.50091855618323, 52.31139034723576, 53.2158267367216, 67.00573374224274, 46.91621941585315, 51.138577540476795, 52.83967048056983, 54.73071554538289, 57.564036298533196, 52.44890011572554, 50.07652335117928, 57.868604937730574, 58.39636248743111, 54.646025955893776, 53.555340852878786, 56.00122323741084, 48.78058850510789, 54.326957219843806, 60.689536703509305, 58.60140471824072, 50.860513520127704, 53.82086711928779, 54.23059100380999, 53.854292194456924, 62.59429439092342, 60.00061897560541, 49.028628214432786, 66.7797746427634, 48.668281734602246, 56.37468425547181, 55.199268075958074, 58.46360823484277, 58.71652037609236, 57.67850278741285, 59.27017977688153, 53.51595673512092, 51.62454804281001]</t>
   </si>
   <si>
-    <t>[75.7943441682001, 75.11606455922609, 65.45513257605407, 67.56626671995726, 75.34414245564608, 69.00227266617897, 59.019768446158764, 66.68641686512642, 76.45087721032355, 70.61042648629551, 77.76218514287288, 74.27150254151226, 70.81623833640681, 66.3589195709134, 73.72773176833803, 71.81279020646491, 71.07811429755711, 68.19013317132321, 69.03436717844122, 74.39164520364368, 72.89856484188935, 75.89412240238006, 79.07065970878034, 67.54755884313849, 74.87632433208182, 81.14807376472473, 67.12731343232807, 72.49392218145954, 78.46640943987265, 71.57958263608867, 68.81466232379091, 73.50432378194014, 72.22951611317472, 63.90337506345294, 74.45520162669746, 65.37356355241445, 66.81602467068453, 80.70098961083133, 76.73685327123971, 65.51347988797983, 82.40986064666042, 62.343815651884164, 78.44968096041472, 75.24727310510193, 68.99432372458753, 68.54996324395984, 78.2958780174446, 75.18616650311506, 75.60089307973703, 65.54233879490887]</t>
+    <t>[75.7943441682001, 75.11606455922609, 65.45513257605407, 67.56626671995726, 75.34414245564608, 69.00227266617897, 59.019768446158764, 66.68641686512642, 76.45087721032355, 70.61042648629551, 77.76218514287288, 74.27150254151226, 70.81623833640681, 66.35891957090953, 73.72773176833803, 71.81279020646491, 71.07811429755711, 68.19013317132321, 69.03436717844122, 74.39164520364368, 72.89856484188935, 75.89412240238006, 79.07065970878034, 67.54755884313849, 74.87632433207115, 81.14807376472473, 67.12731343232807, 72.49392218145954, 78.46640943987265, 71.57958263608867, 68.81466232379091, 73.50432378194031, 72.22951611317472, 63.90337506345294, 74.45520162669746, 65.37356355241445, 66.81602467068453, 80.70098961083129, 76.73685327123971, 65.51347988797983, 82.40986064666042, 62.343815651884164, 78.44968096041472, 75.24727310510193, 68.99432372458753, 68.54996324395984, 78.29587801744455, 75.18616650311506, 75.60089307973703, 65.54233879490887]</t>
   </si>
   <si>
     <t>[62.78897221851845, 56.06035469038308, 53.52564809736327, 55.09946353106327, 51.86197893186088, 54.1017631828834, 52.28664070992458, 54.772970060702754, 52.231354111378224, 53.617103599977156, 60.83615870824117, 59.49694758450073, 59.06449352209859, 51.9667499685419, 56.982650565832145, 54.187970609530836, 61.79697560939511, 53.36599173957899, 49.50524865416706, 55.22298553914705, 57.804633129358, 56.3254673537791, 52.186077484164755, 53.61888007803325, 51.78246062104472, 60.60060536896685, 48.44038070503532, 59.30516373639584, 59.48435788507891, 51.71381491003725, 54.52035789210056, 59.086589179976386, 58.31875860919912, 55.41776627884214, 52.0547908503922, 50.97504477043324, 48.96022133013484, 58.334749179079246, 57.47189511289575, 53.415202192388755, 60.61916333413328, 47.94638775758864, 56.58049135650581, 54.750747828286784, 56.38636571807912, 55.30908820295284, 55.51160358798934, 56.99785566203771, 56.03153959499301, 58.292747736462935]</t>
   </si>
   <si>
-    <t>[54.74211676580376, 52.87038459842917, 48.96771331175317, 49.25937933726485, 53.60764387886102, 54.221422924901184, 47.492569169960476, 52.78008353913835, 47.24943334214061, 50.049743083003946, 51.73804324389541, 51.59021398024406, 48.148550724637694, 53.91153051455145, 52.06533596837944, 49.79653358079238, 52.376554173979095, 53.82882372345897, 48.73482213438735, 51.859912783669905, 52.11523788648826, 50.74538211773542, 47.412707169570716, 50.42132411067193, 54.915279654715086, 46.77875556819873, 46.07810615950112, 52.54026350461133, 55.31657037273936, 46.01564548016579, 50.218940686569795, 49.8847233201581, 49.18930830039526, 48.296829336776234, 48.298154495265536, 50.79681561371762, 47.55007516523223, 55.93691733883097, 49.95925650786118, 48.2702399521921, 54.04748014780934, 45.11392270645652, 52.90040349089686, 52.98717196562154, 49.58233201581027, 52.09244504321841, 50.36598995403665, 54.68268120220118, 47.02469856119973, 50.14950300717247]</t>
+    <t>[54.74211676580376, 52.87038459842917, 48.96771331175317, 49.25937933726485, 53.60764387886102, 54.221422924901184, 47.492569169960476, 52.78008353913835, 47.24943334214061, 50.049743083003946, 51.73804324389541, 51.59021398024406, 48.148550724637694, 53.91153051455145, 52.06533596837944, 49.17854478769465, 52.376554173979095, 53.82882372345897, 48.73482213438735, 51.859912783669905, 52.11523788648826, 50.74538211773542, 47.412707169570716, 50.42132411067193, 54.915279654715086, 46.77875556819873, 46.07810615950112, 52.752803600480476, 55.31657037273936, 46.01564548016579, 50.218940686569795, 49.8847233201581, 49.18930830039526, 48.296829336776234, 48.298154495265536, 50.79681561371762, 47.55007516523223, 55.93691733883097, 49.95925650786118, 48.2702399521921, 54.04748014780934, 45.11392270645652, 52.90040349089686, 52.98717196562154, 49.58233201581027, 52.09244504321841, 50.36598995403665, 54.68268120220118, 47.02469856119973, 50.14950300717247]</t>
   </si>
   <si>
     <t>[59.49599260304127, 53.83834934807542, 51.59206525838098, 48.67928971991753, 50.7482760954897, 53.889795159560684, 50.31055904573489, 50.03642004814354, 49.93800182326497, 48.33442712019048, 54.894011947545195, 56.81590038010921, 55.230075139637144, 52.57940456254539, 48.49932075945414, 48.59858471605181, 59.897687587148354, 52.75297025491518, 46.98757232572732, 48.50281954773483, 53.21493978780294, 51.366385600480704, 44.67388193376596, 52.48205411621261, 54.46596523193675, 53.801582362301836, 47.070830183858064, 54.03586244568559, 56.77819114790996, 45.40513965856006, 49.42218155194837, 58.62014129320837, 53.68083794138363, 52.60651850441432, 48.610273974631, 51.3829357377452, 48.34945583367037, 54.52607871701882, 54.50522998198532, 46.64515747226506, 59.650993139061214, 46.634556120755065, 50.14652125085162, 50.792566862914896, 51.4255393517353, 51.509930315317504, 57.846963622038665, 56.89740912950558, 49.37934739390715, 55.54514697635288]</t>
   </si>
   <si>
-    <t>[52.2998186847429, 47.894790788797586, 50.785442838729466, 48.154991555969296, 51.54548712858086, 52.61530074595305, 49.0825388645319, 50.23363420930993, 49.98287110499865, 45.29454065981055, 48.63245983238981, 53.183181708116976, 54.04550074587375, 50.39453313931151, 47.875247950295105, 46.21983285907075, 57.907924621612764, 50.84226466183404, 46.07423758423907, 48.455602770273764, 49.77739141404326, 48.41281606651002, 46.263925443417136, 46.88725109367493, 56.35974091221507, 53.95361725969845, 45.84821184245645, 52.07170218977784, 58.39263774080098, 42.67939342297866, 52.55999767840818, 52.24765191830172, 51.28759412207584, 46.805827047314956, 45.97637382899063, 50.16339273334167, 44.848226450738615, 56.22623374059428, 52.442568240368836, 48.193660090198115, 59.13520139517131, 43.89160139744475, 51.5991160156196, 48.99680541712581, 50.62863242327417, 48.59586760366528, 52.70789057943502, 53.439473800225095, 50.0746180715452, 50.326032899867634]</t>
+    <t>[52.70709825781493, 48.44952527912069, 51.079041985496005, 47.94642567941763, 51.13861633412121, 51.33680044313994, 48.53784528512022, 50.743977790237885, 50.22416687851868, 45.3511447756816, 49.12609113787246, 52.40785236955554, 52.47306057765744, 50.470882028553575, 48.10918211866941, 46.466462507011556, 56.20432195734206, 50.886887609990524, 46.61246257700884, 47.212402716795125, 50.05118961629155, 48.21153359485495, 45.92630721845539, 47.82915800373669, 55.02285325221801, 53.06968951800832, 45.89084824801879, 51.79391730046966, 58.85451796667144, 43.00317984734392, 52.686939271026304, 53.44154134208653, 51.44279576401004, 47.87261352184429, 45.56156738733897, 49.87282861015235, 44.53726179943747, 55.771970969264636, 51.79463472294909, 47.54296391427539, 59.36523501885013, 44.51289457646472, 51.215039097602016, 48.94767043052133, 50.31039166801041, 48.83083150028109, 53.69586631468239, 53.999471450478396, 49.8038510860392, 49.47076696125098]</t>
   </si>
   <si>
     <t>[48.115035618745644, 49.222201285230305, 48.32203965601714, 46.89827066813533, 47.20377631176131, 51.08254005967392, 39.435578656554696, 49.26734014443258, 47.92707740316278, 43.35721863690101, 43.935872005822624, 53.72117041606676, 54.04929997836177, 46.85611721091591, 45.34434876543732, 46.30343228604012, 53.99025648335694, 46.56304778956612, 44.060488127606654, 43.47714494245325, 47.8522589948526, 49.552853063802004, 42.225388448134716, 44.72545271450352, 50.451019685428605, 47.21498984453707, 43.555078601158655, 48.70940138895992, 50.79583730102057, 41.006642176511264, 51.306449538709614, 48.7276511317468, 47.8098816337133, 42.74391516760875, 43.80046476582764, 46.52659415215843, 43.38081588382307, 51.36524646563021, 48.32182758135286, 44.490489661062185, 55.61389492615409, 42.42230788780295, 44.97087706061691, 47.28385257125372, 47.1883521291861, 45.19580046642439, 48.695594757894284, 55.3732755047342, 46.8114632833428, 46.940169089396484]</t>
@@ -1471,13 +1471,13 @@
     <t>[64.49926834605643, 56.75842164765152, 50.78575702564065, 53.45741338443831, 58.26198147995187, 57.42510500698097, 54.412398743785104, 57.76477312208472, 56.667769632323186, 52.012708554438085, 59.07868895930424, 58.76177578708454, 58.2906293644665, 53.0020373491804, 54.87879270209489, 55.9160025348526, 61.13155070269926, 53.97238376556303, 52.48714942095885, 55.15500504717441, 58.08777238843105, 58.177310878868084, 52.195440968334346, 54.59712422228667, 55.09654228505788, 59.28018748324409, 53.60557652430839, 59.79410203127659, 60.152219635523124, 53.75248258885368, 53.83098466575198, 61.532191897097164, 58.89661079357423, 54.68992959525544, 55.132651030764656, 55.07036186308587, 53.38277578437383, 56.57402371970517, 60.39790363466242, 51.704511669577904, 59.64093501959947, 51.358449235335364, 60.008866859733374, 55.389744794519025, 55.354562738606965, 55.992789171605196, 60.34624893955488, 55.66552687972079, 55.75247864076829, 59.32191875114995]</t>
   </si>
   <si>
-    <t>[55.386916486451284, 53.56443063701387, 48.62558085428207, 47.95094365717955, 52.594674909574294, 54.14148395158875, 46.549906201323736, 52.26925678699649, 48.9702038998813, 44.95069911268833, 49.34135173247576, 50.87993248202005, 46.796837944664034, 54.47677597894999, 49.05822510600363, 48.665271749769666, 52.45613634479058, 49.36115214740228, 49.65010206805207, 50.68826901020289, 54.3492215021919, 47.960454545454546, 48.66002182039979, 51.657247711454396, 52.444007505626246, 49.83651943273235, 47.289964094702206, 48.65835290881351, 54.07113353977046, 48.11093318015645, 52.19873542625034, 49.94500197015013, 51.71040106370706, 47.44110055995305, 48.85028140174084, 50.94860219904545, 44.250682840826, 50.11643134228781, 52.320370398238744, 40.42419391787559, 54.202154150197636, 45.92295916313148, 52.441777635399454, 52.13007879756849, 49.90440199164576, 47.36841201762178, 49.42195109701895, 50.88099576833214, 46.21809007013655, 54.225657826803186]</t>
+    <t>[55.386916486451284, 53.56443063701387, 48.53186957605783, 47.95094365717955, 52.594674909574294, 54.14148395158875, 46.549906201323736, 52.26925678699649, 48.9702038998813, 44.95069911268833, 49.34135173247576, 50.87993248202005, 46.827140974967065, 54.79499964523558, 49.05822510600363, 48.665271749769666, 52.45613634479058, 49.736909723159854, 49.65010206805207, 50.68826901020289, 54.3492215021919, 47.960454545454546, 48.651083006271215, 51.657247711454396, 52.41629370970746, 49.83651943273235, 47.289964094702206, 48.65835290881351, 54.07113353977046, 48.11093318015645, 52.169068070256856, 49.94500197015013, 51.71040106370706, 47.44110055995305, 48.85028140174084, 50.94860219904545, 44.250682840826, 50.11643134228781, 52.320370398238744, 40.36342967485524, 54.202154150197636, 45.90466531114923, 52.441777635399454, 52.13007879756849, 49.90440199164576, 47.36841201762178, 49.42195109701895, 50.88099576833214, 46.21809007013655, 54.225657826803186]</t>
   </si>
   <si>
     <t>[61.893443736966354, 52.32777567359913, 50.35983545894752, 51.21491134881607, 55.179788947712666, 55.28992193977789, 49.00276339850223, 53.72103321016327, 54.60320241443412, 46.359238811013455, 55.15828330887304, 57.91329686843916, 53.91580747868809, 53.12316095755553, 50.84547076847615, 52.56314669954539, 60.37142632826177, 50.40471344950773, 50.832829178141836, 49.72884984870261, 54.85855766053936, 54.18040875882225, 47.91763814010224, 52.19430276136579, 55.85351591933686, 57.30308901083281, 52.900852236562585, 54.61749087276045, 56.22584702711977, 48.790516617214486, 52.92920617609516, 58.29649015277589, 54.47743429268786, 52.613952089237365, 49.080845310395475, 54.19902927199778, 49.91336032068532, 56.03891564414092, 56.09392503046869, 44.96800440699468, 61.765145928657965, 47.648168901711585, 58.72080330501694, 53.77609991317926, 50.23793396212352, 51.79244904343553, 59.564827605143776, 53.212954153137574, 53.137434569227686, 54.89506208004824]</t>
   </si>
   <si>
-    <t>[61.82800393955235, 54.67434736754376, 55.19474336023745, 52.071247150954015, 56.68001717922401, 56.18237368645102, 51.65099775381417, 55.50333298322558, 55.820433479973175, 51.32909892070804, 57.11064226750405, 57.77699359423823, 57.968967368211, 58.80505828473762, 51.99563148367091, 52.782786046560794, 61.6898598556975, 53.984124496059245, 53.37881794359059, 53.46328113415181, 54.254581520050934, 55.71080886678611, 51.4195474653773, 56.02993721955454, 61.02341032672107, 57.942793948122855, 53.973609576052525, 56.93835230595967, 59.68949732807116, 50.87113270681383, 54.2387097644729, 59.54086523951931, 55.30957017615903, 53.34152390139474, 54.498377872709696, 53.80556375866729, 53.98647854396302, 58.639018272469286, 59.495628038565144, 50.24687525412387, 61.97937209628209, 46.56681720305882, 57.504138921722074, 57.3205214481099, 55.8345852227083, 58.413193835274896, 59.238202252708696, 58.12948309798249, 55.35148313985498, 56.0197726004511]</t>
+    <t>[62.48857600587424, 55.028217689352324, 55.191579281207055, 52.07656152892556, 56.81247248033075, 56.93975413254854, 51.454432641672255, 55.32087580510377, 54.86933519973593, 50.85291598274973, 56.97234390345342, 56.43339167164405, 56.99528257444408, 59.315227332005044, 52.891674529597786, 54.37866077412851, 60.144308572216325, 54.280808042819146, 53.56735575127601, 53.77889751582395, 54.23510291202439, 56.290164705912254, 50.919682107906794, 56.00656262844207, 61.011151315228105, 59.28852401555755, 54.288140533980894, 57.366977675248634, 60.35809683221798, 51.872592208236995, 54.01914052449526, 60.987514789163455, 55.6223651822144, 53.927945893566516, 55.03645344435921, 55.01665236694423, 54.27840110119064, 58.56218705427775, 57.935788595162464, 48.369241160184494, 62.58175091302637, 47.66387343912241, 58.17659951061396, 57.20683243557984, 55.526834215084, 57.60216351764395, 58.99907176026012, 58.598482729101576, 54.58463811575863, 55.314944943813394]</t>
   </si>
   <si>
     <t>[60.113992425971354, 55.43986002398103, 47.72638359578703, 51.484345700411, 54.524877655345925, 52.46462941105658, 50.68144302262619, 55.38376296047166, 57.6866113260141, 49.11659752359504, 55.598089299107734, 56.39439484298464, 60.2053985610781, 59.84291381655002, 51.27808988865185, 52.34675025065426, 65.8073785447132, 46.8946410377789, 53.39632305296042, 51.70983897574805, 50.3630678119584, 55.55053449909677, 48.93043413124536, 53.730508885440145, 55.06964835638114, 55.73284479932822, 53.45715619309617, 54.163224958412265, 62.88274340241323, 48.383507488084874, 55.48479680570218, 58.532311463030894, 56.61674566050292, 54.442000901444636, 51.70373615747384, 54.83361836339175, 51.88008602353424, 60.58553341309543, 56.13925220700592, 44.62612330252003, 61.157607415843856, 49.05966055011561, 49.543302805791264, 55.18183981823827, 56.21081905259446, 57.86467236786492, 58.60474243096212, 57.42969409324435, 54.762419025775465, 54.90252132312112]</t>
@@ -1489,49 +1489,49 @@
     <t>[50.08809734526053, 53.110266167980456, 51.28612150741488, 49.08694471033817, 52.12279654591272, 49.23872580875887, 50.28901827227364, 48.3811217142959, 50.3702759465985, 50.67606064667933, 52.75458536332942, 54.246951729061365, 48.22930852620121, 51.34188886061857, 50.270309827035845, 50.891700259343125, 51.982361336110934, 47.8278918906124, 49.57764497679574, 54.27134735535903, 53.59275126481653, 51.958242758045365, 47.896950044730104, 45.07103195765055, 53.94167623600968, 50.33538024811746, 51.37928205615066, 48.168186543413434, 58.27438683645871, 47.847030446933644, 40.73297309758722, 52.79122613580775, 50.709388941150905, 50.585794176157336, 53.13482312134704, 50.85154280197653, 44.54488472190483, 56.47293786509749, 48.95348577358776, 51.32310124473587, 57.97012328766402, 45.684332468395716, 55.125643011951254, 47.5678086372817, 48.10632618840043, 52.534995031772816, 56.13381372298056, 48.38504962730509, 52.05034622212763, 44.36873997465812]</t>
   </si>
   <si>
-    <t>[53.756310345731336, 52.27550724637681, 47.74299307785195, 49.826469433008945, 51.215889328063234, 56.22213810139842, 48.11361660079051, 51.54703557312253, 49.323108367223256, 47.98568805222298, 49.26441730288944, 52.0498814229249, 49.716650197628454, 54.32903162055336, 52.45969940421206, 50.109585251337194, 53.13377470355731, 52.684361293101496, 49.88887775362771, 53.24608426794284, 55.43821261728306, 50.208083003952574, 48.87152574020861, 46.92478192753123, 55.53826969478045, 49.98223768963469, 45.210671936758885, 49.162964626779306, 54.924486166007895, 45.93414348730862, 52.69193313258859, 49.782845452578755, 49.22030097362614, 50.69407863813852, 52.965859098379305, 53.701867846831306, 46.30087670794285, 56.91524405855586, 47.78655162987904, 47.11134387351778, 51.75102629358882, 44.30853293633597, 54.08064723871447, 52.602944664031625, 47.98295125164691, 52.16747234202313, 52.49227272727272, 51.532328028881956, 49.365767298737396, 46.79673106572234]</t>
+    <t>[53.756310345731336, 52.27550724637681, 47.74299307785195, 49.826469433008945, 51.215889328063234, 56.22213810139842, 48.11361660079051, 51.54703557312253, 49.323108367223256, 49.315395256917, 49.26441730288944, 52.0498814229249, 49.716650197628454, 54.32903162055336, 52.45969940421206, 50.109585251337194, 53.13377470355731, 52.684361293101496, 49.88887775362771, 53.24608426794284, 55.43821261728306, 50.208083003952574, 48.87152574020861, 46.92478192753123, 55.53826969478045, 49.98223768963469, 45.210671936758885, 49.162964626779306, 54.924486166007895, 45.93414348730862, 52.69193313258859, 49.782845452578755, 49.22030097362614, 50.69407863813852, 52.965859098379305, 53.701867846831306, 46.30087670794285, 56.91524405855586, 47.78655162987904, 46.367865612648224, 51.75102629358882, 44.60678140608253, 54.08064723871447, 52.602944664031625, 47.98295125164691, 52.16747234202313, 52.49227272727272, 51.532328028881956, 49.365767298737396, 46.79673106572234]</t>
   </si>
   <si>
     <t>[49.00869818948412, 48.30604095636214, 49.95828438572276, 46.475285113581165, 47.663513139880465, 48.70060761760168, 47.70448112314859, 46.47188157444059, 50.21518983206094, 46.619087575605164, 49.458009140983, 56.39019043057256, 50.72939474584511, 47.29325648017842, 47.97974558694689, 47.71900065197058, 52.777501147687985, 45.714469223115834, 45.617882749070176, 49.77327692266221, 50.31806011916089, 47.19918904838337, 43.76301164769089, 43.31665881640724, 54.65113297082528, 47.05443445993506, 49.708188604902205, 47.43717713511269, 57.1209634359495, 45.22394314928469, 42.87640482197082, 53.51496334834371, 49.09315382564555, 49.191001253651805, 49.102237583650705, 49.80608676341765, 46.58347682287405, 55.265753595747995, 46.2247287210365, 48.53537944362347, 56.93946733848976, 41.73650730526104, 53.808403377500305, 46.312318643619655, 47.180187013516175, 47.012141963537296, 53.532741092556066, 47.4436504194435, 50.61284683750284, 43.5738552990163]</t>
   </si>
   <si>
-    <t>[60.58568381720202, 54.79299987471798, 57.92773033905628, 52.58638266005852, 57.121582663090294, 56.777783454741304, 54.08858705500912, 53.727836438527916, 56.61775025081162, 50.60088880670776, 57.93441955056778, 58.029501017115535, 58.33191502766734, 58.49348762190855, 54.64709384613843, 53.91119093289494, 62.37222726807429, 53.93111057611246, 51.53836962404743, 55.186478409175194, 56.38548628178946, 57.589498834446644, 49.835099211900754, 55.29278060198177, 63.227664152124774, 58.55714787713157, 54.94794537448401, 56.44652522950342, 62.05770168386674, 52.3962369873102, 55.59663560089391, 60.72841024157265, 58.68037226624087, 54.323074882800995, 55.404657048787556, 55.33924984443324, 53.280240133554436, 58.858777173704354, 56.700133526746775, 53.2244063822818, 62.71309680165135, 49.912973052013875, 57.007026244265866, 56.92848211086867, 56.41616979082094, 59.56783605848555, 59.93840117300937, 58.78517577303445, 55.4237810950868, 55.14430285631748]</t>
+    <t>[61.11272720709102, 54.95657701108799, 57.33960827781647, 52.83141558005931, 56.40476405379623, 56.901962711037115, 54.11129541484077, 53.541757247980215, 57.22813037866142, 51.205894353893726, 57.087083769766195, 57.333915623277605, 58.35719518962874, 58.540746701928775, 54.331096429157654, 54.86290268033539, 61.74724747441077, 53.931959624339086, 51.080876147901684, 55.186338360545946, 56.77719981132246, 57.94475722647235, 49.764901335549396, 55.54032851152017, 63.61466746359256, 58.95969627201568, 55.647360803818074, 56.217037858399486, 61.8187942912572, 52.07721697972504, 53.332631023734905, 60.243300208665254, 58.16393539128742, 55.82911252470294, 54.63506594085631, 55.62338149337918, 53.640827230439776, 59.035992058490685, 56.116669333411245, 52.69270976118471, 62.57967909657309, 48.53063230620138, 57.78668404197542, 56.55284472619517, 57.06838227647768, 59.925446967464254, 59.116867097456385, 58.901481123121926, 56.16060107363255, 55.28324122713502]</t>
   </si>
   <si>
     <t>[59.151211471256055, 56.86082393499231, 53.142814831677164, 46.298463138836645, 55.91338193567551, 49.80579929080405, 47.9162997502866, 50.88511601059804, 55.45052874237181, 48.335994386559896, 54.271695691153944, 53.36125102710347, 59.599541846977864, 56.536772391522824, 51.247334994892825, 54.82082251863517, 61.677227826627345, 50.69401266836837, 44.844848034674, 45.95183168644962, 51.163779775446116, 55.19903582214838, 46.35469202825674, 47.586138600209964, 63.54790922660602, 45.55301598392457, 50.30716572757766, 49.80367234486364, 63.11297577386788, 46.24172208064158, 53.96667421069541, 58.44886354182548, 58.59785622314031, 49.51766597355779, 52.398591633512105, 48.6048568268727, 49.267012423206225, 57.08926248181008, 51.62957500269291, 47.61374343344345, 56.366922736563694, 44.41426275803637, 53.527298773211456, 52.62815763043792, 57.989231080669654, 56.67016467248969, 53.47201766730298, 58.17224549727007, 48.65673136925981, 51.247625507007946]</t>
   </si>
   <si>
-    <t>[74.24454959852122, 73.3067556990065, 67.5879588279445, 65.57283458005469, 71.29012211762772, 70.83256716644351, 68.960170659807, 69.39087287475976, 69.13878147355345, 71.13704596763446, 72.39565835286773, 69.40284657626586, 69.92450083779477, 75.7214629076739, 65.2960882666381, 69.70726657025112, 72.6080412154416, 66.6783001750075, 63.74358466474391, 69.89155274243937, 75.1044852731127, 74.51908694134423, 63.81367262539521, 72.35766526144026, 72.89378980865933, 75.97306284717236, 72.04943178428134, 68.99001853320608, 72.00101978462014, 64.47254001782957, 70.26969043547032, 76.60864411027163, 79.30036417042419, 66.37821855213996, 71.98496893632856, 70.89347678803185, 66.31756178625486, 78.77571490312357, 67.28033306560089, 69.04953528633216, 77.45162964219831, 62.92138975467501, 75.18634017265175, 71.63880012651227, 62.471072965531036, 66.71815351785577, 73.31558046359883, 67.11495773684989, 72.3122572280535, 68.92654211925182]</t>
+    <t>[74.24454959852122, 73.3067556990065, 67.5879588279445, 65.57283458005466, 71.29012211762772, 70.83256716644351, 68.960170659807, 69.39087287475976, 69.13878147355345, 71.13704596763446, 72.39565835286773, 69.40284657626586, 69.92450083779484, 75.7214629076739, 65.2960882666381, 69.70726657025112, 72.6080412154416, 66.6783001750075, 63.74358466474391, 69.89155274243937, 75.1044852731127, 74.51908694134423, 63.81367262539521, 72.35766526144026, 72.89378980865933, 75.97306284717236, 72.04943178428134, 68.99001853320608, 72.00101978462014, 64.47254001782957, 70.26969043547031, 76.60864411027163, 79.30036417042419, 66.37821855213996, 71.98496893632856, 70.89347678803185, 66.31756178625486, 78.77571490312357, 67.28033306560089, 69.04953528633216, 77.45162964219831, 62.92138975467501, 75.18634017265175, 71.63880012651227, 62.471072965531036, 66.71815351785577, 73.31558046359883, 67.11495773684989, 72.3122572280535, 68.92654211925182]</t>
   </si>
   <si>
     <t>[57.77011371989407, 57.26184399094063, 56.57183279626922, 52.23801219196075, 59.53352934720201, 54.952537129722046, 52.66862996966131, 56.008351951373854, 54.307142901021976, 51.589757221380296, 58.95920986491243, 58.17790910192455, 55.57019566635944, 54.700567623414216, 58.40959308972987, 54.22351760646361, 60.671367985879705, 56.72902898291335, 52.71410195467909, 52.21561625675006, 54.46275584605985, 57.10824253506744, 50.12211318336266, 53.91422010154541, 60.35831260126764, 55.793158165696546, 54.31322113094495, 58.17051994176072, 60.746388543373676, 53.72381800761516, 51.74707955672981, 60.19339190758328, 60.49226513938603, 54.42930205923115, 55.21774725688399, 56.372764338647656, 52.63346717760569, 55.33255191295643, 57.484446287883564, 51.14159254061098, 58.34648418451589, 51.2412411420823, 57.92805616447017, 58.024291959070105, 55.947772382207575, 52.80833206666965, 61.01236745723429, 56.61370816624831, 52.44571651335298, 55.58493635007899]</t>
   </si>
   <si>
-    <t>[51.395037227915125, 53.32491436100131, 47.673374312554586, 50.79445417760175, 54.579236354635555, 53.03032606612497, 45.11465133790709, 52.91291144982854, 46.63522825492602, 45.84646021427367, 50.55116040157488, 52.42553931763257, 50.68610013175231, 54.0863653048253, 51.959252189009, 44.431091822004085, 52.186942399761826, 52.617281352248824, 48.89417250478503, 50.043065717781566, 53.29269998798568, 46.48595704524472, 47.90143597011142, 46.0391167207175, 53.81380937042318, 48.18331280335299, 47.041948158282516, 46.75821573191105, 56.135945417038286, 44.93274865580063, 50.11648122201081, 51.25464935704324, 48.77408738715571, 51.61369450490772, 50.557786863116135, 47.69614118435215, 44.99343255984677, 54.41112877571163, 46.700467629408195, 48.255745205031175, 53.83894067679786, 47.34346593345275, 50.647488028537865, 50.09559726350735, 52.04698638881181, 53.559242483012824, 46.73332850279088, 49.56549634079206, 49.059769429875416, 49.0930213729316]</t>
+    <t>[51.395037227915125, 53.32491436100131, 47.673374312554586, 50.79445417760175, 54.579236354635555, 53.03032606612497, 45.11465133790709, 52.91291144982854, 46.63522825492602, 45.77056817437604, 50.55116040157488, 52.51675511763826, 50.68610013175231, 54.0863653048253, 51.959252189009, 44.431091822004085, 52.186942399761826, 52.617281352248824, 48.89417250478503, 50.043065717781566, 53.24991248253402, 46.48595704524472, 47.90143597011142, 46.0391167207175, 53.81380937042318, 48.18331280335299, 47.041948158282516, 46.75821573191105, 56.135945417038286, 44.93274865580063, 50.11648122201081, 51.25464935704324, 48.77408738715571, 51.61369450490772, 50.557786863116135, 47.69614118435215, 44.99343255984677, 54.41112877571163, 46.700467629408195, 48.255745205031175, 53.83894067679786, 47.34346593345275, 50.647488028537865, 50.09559726350735, 52.04698638881181, 53.559242483012824, 46.73332850279088, 49.56549634079206, 49.059769429875416, 49.0930213729316]</t>
   </si>
   <si>
     <t>[57.29221767636333, 54.19381863943613, 52.535087655801405, 53.75137076818603, 54.63111332557969, 55.47001293508706, 49.41786882703523, 52.84323611592761, 55.569945061204706, 50.61371925294322, 53.729287025863655, 57.6276300404449, 56.79979814890464, 56.901008485827255, 52.97679296086962, 49.902987808778285, 61.693158559594075, 51.78137803354222, 51.602538437419675, 51.972607551144186, 53.644850197270145, 55.607706737296304, 44.810373555661485, 55.42015659617823, 60.68182254672612, 55.44488090963366, 55.631673310863434, 52.92448732099642, 59.53793044432861, 49.87655336682367, 49.359980352547794, 57.00364775843069, 55.37271339058286, 52.95177904687564, 52.59185184884177, 52.0617541805457, 51.09741576790201, 57.66896868960988, 54.273782293086825, 48.63221976196138, 59.412141534013905, 49.81373967090663, 58.90867781477018, 55.96890163512434, 54.20165378932218, 54.19864383190541, 59.18739692165068, 58.24277647196586, 53.21922559978602, 52.84231249369574]</t>
   </si>
   <si>
-    <t>[63.318459294621185, 54.386981196852254, 56.388822676815074, 53.966253296145226, 56.32874926031881, 57.08076175629494, 54.4700040671906, 53.98463773293404, 55.32663284700923, 50.619052756000066, 56.42736794499024, 58.143166206352, 59.161907588975126, 59.100241718424016, 53.98890474051776, 53.683064128434395, 62.936183521412, 53.13289089182852, 52.262900507487544, 52.03455247151305, 53.101482591350894, 56.605265934326006, 51.66338034151498, 55.99554537726861, 62.82384373454281, 58.83973731704818, 55.90628510225126, 56.32433679412959, 62.49160135967302, 50.89398511261301, 56.45683280143358, 61.9301639066937, 59.32380844832596, 55.37851034531646, 54.525094887331896, 55.09854246895395, 53.82024815330044, 60.523690534472415, 57.80871987010396, 51.786479655038605, 62.54771358512117, 48.34313949653033, 60.145030917614974, 56.55944166491454, 55.70827242042164, 58.07146644461075, 61.51827503932576, 59.058997247713116, 56.23602417065017, 56.17041177769189]</t>
+    <t>[63.62890805772004, 54.34789679166012, 56.197220626525066, 52.47857464841036, 56.27046142708126, 56.752287436479946, 53.25251235453503, 53.97560580272517, 56.21583581624051, 50.701572965544166, 56.222515568379755, 59.2268130618795, 59.032323438703614, 58.69074407439298, 54.73774236550837, 54.135794549847446, 63.42993938958956, 53.037941107979506, 51.39583555005694, 54.52204489304711, 52.350782521063536, 56.47477849743505, 51.505021142747, 56.483367961598546, 63.114281983672356, 58.515417352566985, 56.203908979375385, 56.013572802288174, 62.834841212816215, 50.8805369958703, 55.36504976672995, 59.32096328168298, 59.034387700184666, 56.16647588748505, 54.763642462525276, 54.85738355463425, 53.25516501944605, 59.77152629964296, 57.29990593479907, 52.34243812797263, 61.412300012915374, 48.59491306154013, 60.373482506785436, 56.73045931304724, 56.12624590556868, 58.26960306523595, 60.764418215080056, 59.95508576197481, 56.14855448834904, 55.976025772118454]</t>
   </si>
   <si>
     <t>[62.71480167130708, 52.292085795704075, 55.01905149226131, 48.709587245571754, 58.0149054208339, 48.0610274155809, 50.995503926635266, 54.61098762628118, 57.30307711907526, 52.01451525337611, 52.391542059555356, 53.44679646066055, 56.81356469256134, 56.29483075170649, 53.16020597721748, 53.32394402519045, 66.84740518984587, 46.97672773338589, 48.44639888514643, 49.95263947799743, 51.189597387200756, 56.64547911602517, 51.36735045542359, 50.82727723949041, 58.26553442551684, 55.82402894272635, 52.88135920370049, 52.69672017274638, 60.7802687886958, 50.28830393538645, 54.282307219674934, 60.69274625031844, 59.98781867543698, 52.0404140213073, 55.95572963005941, 51.26726041228403, 54.42646824832961, 61.884809646898574, 58.19406039166356, 50.68204690277341, 61.86983396386911, 46.234528686783534, 55.68579173943741, 54.07576516954324, 57.687762516223394, 56.986400024052195, 65.62988409749133, 59.96622607536466, 52.730737231446824, 52.236131169767724]</t>
   </si>
   <si>
-    <t>[72.5808418382517, 72.28907374952294, 69.3555495689969, 68.25229123004374, 62.62500277779505, 68.10843428610833, 67.59740970627807, 60.978025860652664, 77.60510711143489, 66.91504417931972, 72.6379586655199, 67.45259598903993, 69.11128195022891, 70.25524822288916, 72.87009705392173, 69.47700728850455, 77.45831659173496, 65.05218868341083, 69.00926592357852, 68.29070649374427, 70.11926048984157, 69.35573730510194, 68.79922785325134, 72.53676550910255, 70.92072142506015, 74.70093528551502, 70.6976315377119, 64.36735230916113, 76.66865809508258, 63.72633624616191, 67.27998437177281, 73.30797984890927, 77.52843851701373, 66.18618495180321, 72.93388787622231, 74.89519690321501, 56.75704892675459, 75.2735505830486, 66.02947013002165, 69.62173672119, 80.03712741504143, 65.558500221305, 76.38432469079756, 72.93867883781574, 56.98356202706175, 68.55003949968071, 78.99863498697839, 68.49040326510242, 70.61363048883885, 66.70764617157577]</t>
+    <t>[72.5808418382517, 72.28907374952294, 69.3555495689969, 68.25229123004374, 62.62500277779505, 68.10843428610833, 67.59740970627807, 60.978025860652664, 77.60510711143489, 66.91504417931972, 72.6379586655199, 67.45259598903993, 69.11128195022891, 70.25524822288784, 72.87009705392173, 69.47700728850455, 77.45831659173496, 65.05218868341083, 69.00926592357852, 68.29070649374427, 70.11926048984157, 69.35573730510194, 68.79922785325134, 72.53676550910255, 70.92072142500336, 74.70093528551502, 70.6976315377119, 64.36735230916113, 76.66865809508263, 63.72633624616191, 67.27998437177281, 73.30797984890927, 77.52843851701373, 66.18618495180321, 72.93388787622231, 74.89519690321501, 56.75704892675459, 75.2735505830486, 66.02947013002165, 69.62173672119016, 80.03712741504143, 65.558500221305, 76.38432469079756, 72.93867883781574, 56.98356202706175, 68.55003949968071, 78.99863498697839, 68.49040326510242, 70.61363048883885, 66.70764617157577]</t>
   </si>
   <si>
     <t>[61.43864874881615, 56.57036718594011, 51.917189925005616, 52.96490919994592, 51.80218828037488, 54.93045297696673, 52.0995670039679, 56.464729134862296, 51.08812343215003, 49.91330790070469, 60.214183329858585, 57.22438406271815, 58.247392643378625, 47.18533498462684, 53.878574114540584, 54.35584568313508, 62.11951684194291, 51.74047307399096, 49.587883593673226, 50.913502013753295, 55.212553249327506, 56.7377029178417, 50.967302363454394, 53.47588887716787, 52.071768010890345, 55.56812373069778, 47.28756398204764, 58.09131559020195, 59.139197968509315, 53.56816311871442, 52.7474327165025, 58.36682654216632, 59.05979156585961, 55.75012382346017, 49.742048454829224, 51.67907548478554, 47.87750251171979, 56.156540413688845, 57.004395542776614, 51.65984560081038, 57.97533993523596, 46.208001942469096, 57.85764470736059, 53.00760349937705, 53.696627602718785, 56.59760946258873, 59.660337088235316, 55.41537873929532, 53.289791810360896, 57.44516956356161]</t>
   </si>
   <si>
-    <t>[54.36306713353717, 53.09522706289412, 48.98062640596998, 47.22166795815052, 51.12991423333519, 55.515130519429285, 46.321022796767835, 49.56205533596839, 48.13622869315557, 44.22562296723738, 52.79550218665281, 51.534777138606955, 47.774802371541504, 52.84154228382571, 53.47078204102927, 49.77360774731689, 53.8432707162709, 54.000455856098895, 48.7044071146245, 52.30250084532147, 51.35074190678665, 50.60135555661386, 45.363796612905475, 49.96289118066364, 54.91068290537244, 46.88216738628735, 46.955679694964616, 50.98205520528195, 55.70565355390961, 46.03097434595088, 50.7803114243185, 51.96094378022227, 50.91158588747158, 47.286004916539504, 48.41929154410353, 50.42473104797931, 44.01373190679542, 56.254867692802655, 49.18234075891085, 47.69963218894906, 52.6023559825126, 45.781719367588934, 51.29193675889328, 51.41802371541503, 50.51629776021081, 52.874352798596284, 50.44599048560873, 50.33689723320158, 45.97471926558747, 50.00527172647539]</t>
+    <t>[54.36306713353717, 53.09522706289412, 48.98062640596998, 47.22166795815052, 51.12991423333519, 55.68062721021279, 46.321022796767835, 49.56205533596839, 48.13622869315557, 44.22562296723738, 52.79550218665281, 51.534777138606955, 47.774802371541504, 52.84154228382571, 53.47078204102927, 49.77360774731689, 53.8432707162709, 54.000455856098895, 48.7044071146245, 52.30250084532147, 51.35074190678665, 50.60135555661386, 45.363796612905475, 49.96289118066364, 54.91068290537244, 46.88216738628735, 46.955679694964616, 50.98205520528195, 55.70565355390961, 46.03097434595088, 50.7803114243185, 51.96094378022227, 50.91158588747158, 47.286004916539504, 48.41929154410353, 50.42473104797931, 44.01373190679542, 56.254867692802655, 49.18234075891085, 47.69963218894906, 52.6023559825126, 45.781719367588934, 51.29193675889328, 51.41802371541503, 50.51629776021081, 52.874352798596284, 50.44599048560873, 50.33689723320158, 45.97471926558747, 50.00527172647539]</t>
   </si>
   <si>
     <t>[59.94974961443238, 52.907599552664394, 50.88335785344257, 50.20397988216929, 48.856707321534984, 54.17778158627706, 47.6144090521841, 50.96702272601235, 51.55975413894661, 48.087732013339014, 56.25851480967445, 55.29821092273335, 55.34434188029762, 50.33968240539299, 49.84425693031319, 48.343647087547595, 62.53073686274702, 50.32009349373175, 47.92718057363798, 49.1962781022225, 51.021545671136366, 52.166186365048375, 44.574491032472224, 54.56023086151104, 56.07741199939669, 52.512437862945546, 46.72906100486076, 54.62608353317457, 58.671617868878094, 48.07478479971784, 49.298250773913466, 55.6912278952552, 53.253704988810526, 54.04921633963206, 47.94621527068789, 51.876240078563214, 49.06657892213119, 55.658732370448796, 54.26869740521765, 46.93617288086059, 59.96727703791156, 45.58397093184949, 52.64020394630951, 50.57502297295902, 52.20358472715194, 53.44745203820871, 59.63001601655621, 55.52564916971551, 51.76972700607227, 54.93179487004954]</t>
   </si>
   <si>
-    <t>[53.52957521303098, 49.85286947245611, 53.484437618423655, 48.029324283852425, 53.09085936720574, 53.11339044834746, 48.10413090455372, 50.506578033477375, 51.253904064176915, 46.8346771551891, 50.644900352513545, 52.02389068712249, 55.338419676509474, 52.3824590160972, 50.47468074724102, 47.36308390252522, 58.91783818240388, 51.21912846788102, 48.22410341819987, 50.8166000967956, 51.170134942482676, 49.20084209096916, 46.64734386310197, 50.73305935251572, 57.53114137268815, 55.04072844122004, 48.88967009584128, 52.656518882340414, 60.14394561818965, 43.66544568064573, 51.90230479701662, 54.51558615913548, 53.532492270141994, 48.77828324237301, 48.0602211370192, 50.18914435336997, 46.86720202434621, 56.04462166413232, 52.950213667790024, 48.882486876524375, 59.062875158525436, 44.882902310051755, 52.67499001276675, 51.734519767028964, 50.79232947265391, 49.57476902573258, 52.73223457419808, 55.274874810990944, 52.388551659972094, 52.12428804544686]</t>
+    <t>[53.64492852347346, 48.53414633652945, 53.65096586557655, 49.45036609205399, 52.968602914302004, 54.010566580452654, 47.771000907924495, 51.47873140599253, 51.425685594288396, 46.23151797106283, 50.24166782719082, 53.01380412299843, 54.52913227448437, 52.441330508185125, 50.360271812018134, 48.07358767099994, 58.68291750739947, 51.231177556767854, 47.856891742687495, 50.55973992441004, 51.050260858769306, 48.303665435863806, 46.31600553376106, 51.061333137136145, 57.903226813881396, 54.87991085352424, 48.15109124633612, 53.23807707798049, 59.99035368402001, 43.50618158816772, 52.98967252553607, 53.83857968742835, 53.40793743099539, 49.72935788230368, 48.52327923753014, 49.136587386027536, 46.448848276613866, 55.87344802235366, 53.763456565615265, 49.10138377836029, 58.70301778231298, 44.98251566515621, 50.98342218450449, 51.311744670796614, 51.68362743701023, 50.60268559707905, 54.6954721445151, 54.947403206529714, 52.7890392997319, 51.90681706076805]</t>
   </si>
   <si>
     <t>[50.019219660212386, 49.87678368678677, 53.61160982908467, 47.386903959658774, 50.43599003245237, 52.87645013409641, 40.49225054779542, 50.99663777406744, 49.11216847819302, 46.823944780553276, 46.68858908369607, 50.92835978376065, 55.79890840779179, 48.904083001736126, 48.51158782312521, 44.77853563964602, 56.62842619869548, 49.40598834407188, 43.17521701903211, 47.155955847638396, 47.69489038294012, 49.23371113833703, 44.35718010913713, 50.68143713896453, 53.4445089065793, 49.61088196008102, 46.74633627171572, 52.80184332323639, 54.691914206041176, 41.44505755609204, 48.74483281131789, 49.97268619582587, 50.638773883548176, 45.50219391986845, 48.127968063279106, 45.763468296744605, 43.904691691643634, 54.45524651418091, 49.1072341190308, 49.893290958178376, 53.54836205373168, 42.94035836359258, 44.15487937293976, 51.66319431097611, 47.77044073986913, 46.16183846884566, 50.745650665072105, 57.902326845915425, 46.444226479511485, 49.501645835303506]</t>
@@ -1549,7 +1549,7 @@
     <t>[60.01105008682242, 52.07090998664506, 51.143888677619124, 50.74605458919144, 54.660890154432266, 54.939050438359686, 51.27494992380349, 54.60786238062208, 54.67619910293875, 48.28199423128918, 53.22876098751294, 54.06477722246226, 52.99346730987192, 52.46035888252682, 52.18814976412291, 51.146890054040526, 62.45526868086286, 51.58058847170425, 50.757466229604674, 51.96528480669044, 50.88596229995316, 54.58148004698984, 48.601231903358894, 54.970639103154646, 56.362595474686486, 55.13147152158611, 52.45152872155121, 54.27435756316468, 57.16707073556442, 49.56368258408947, 50.9914564242537, 59.627867992120514, 55.084984040979165, 53.20494747954424, 48.83479699690349, 54.06522322154028, 50.484244191252515, 56.06489186547922, 56.81671607859107, 47.25609723185793, 60.561888744876185, 43.80260699429902, 59.75213578698511, 55.0744978686742, 48.684551335824594, 52.852037297834116, 60.25987089711883, 52.91373080550657, 52.44203986161004, 54.451323291013715]</t>
   </si>
   <si>
-    <t>[62.685631631162735, 56.56162773999538, 56.1031235269669, 52.260668819403826, 57.30152972483322, 56.19702215693925, 52.54363508820488, 55.10376469912546, 55.841829981238064, 51.194072625795755, 57.21897013175986, 56.83096883573853, 57.95124582524339, 59.33531533543728, 54.829327196237, 54.01550152133785, 61.78507006282564, 54.09392736877851, 52.75829975067647, 53.99534503617201, 53.23738710916738, 55.9069119956045, 50.55100250404449, 54.67017936384714, 62.81272208678428, 58.77104979417239, 55.50979921376859, 56.64390173395613, 59.52090849911646, 51.37416293815414, 55.173818758885474, 60.846413553069304, 57.43330678665389, 55.56863704380876, 54.98875691449067, 56.02792041157649, 54.22595284212612, 58.004609749623114, 57.330264486095, 49.13959249691281, 61.18631527594857, 47.74474532016053, 58.88387202916217, 57.892048494244264, 55.12680720754391, 58.64504084438346, 60.73996329392296, 57.87635113799141, 55.813014110124755, 55.90031638895084]</t>
+    <t>[61.940597244819095, 54.44959909560038, 56.72584749418896, 51.41756922772597, 56.82879394958377, 56.231487920667426, 52.75211783659847, 54.88079380736126, 55.566253586221876, 51.12261901864726, 58.2811266934414, 57.28269542827163, 57.73687215407274, 58.786229747260165, 54.087812892176, 54.64699751980724, 62.98028019028031, 52.45129339790468, 52.96563855960731, 53.18641774972066, 53.22485470431532, 55.868386174173835, 51.26899017386963, 56.57161469061369, 63.080626131654164, 59.361600814432165, 55.250671529322304, 57.488600928580105, 60.09217022332548, 51.57492579513123, 54.38125902117834, 60.48903159772131, 56.85016000188243, 54.39797666151039, 55.67661236431778, 55.082121093536514, 53.818456623189874, 58.3909661039704, 57.9732240302812, 49.77383606736779, 61.551427195081644, 47.860898444413706, 58.98725019371667, 57.80564255683578, 56.70009634138214, 57.11140512377066, 61.223342437021756, 58.14479408121209, 54.66495690111558, 56.041723118496336]</t>
   </si>
   <si>
     <t>[60.708825263977054, 56.254181447123344, 52.60129538977098, 51.84652073645309, 56.256293285580966, 54.57524330259783, 46.95047904274681, 56.16162359365833, 59.93682230138967, 49.82200971882334, 57.5268944833778, 52.57188972699312, 60.604133680969355, 59.75551094903305, 53.52875865314318, 56.10745067551202, 64.48902988479071, 49.35320725015029, 52.40315123007703, 52.359625719093046, 49.39603850956491, 56.03912449229847, 50.453566381582625, 53.095051397617624, 61.67878118888192, 53.53878678090016, 55.58846859129051, 54.145229935627206, 59.74868587569286, 51.16675491785343, 56.36418011073539, 61.473142895001196, 56.44682097612163, 52.7577635313494, 55.84446097362654, 52.84375207312964, 52.78621207847897, 58.24990779710853, 55.92832148110914, 47.802870491540475, 59.40866512283507, 44.8851866781476, 51.50594230176904, 57.078849721313, 56.58201862048726, 54.78907082930855, 60.0440241516626, 59.50783763749797, 54.04388067871214, 54.17070685676906]</t>
@@ -1561,31 +1561,31 @@
     <t>[49.98389445578967, 49.363642189763695, 48.26757613591551, 47.31982893999561, 52.131719407205686, 48.433266207471014, 44.7477335377636, 48.126666659744515, 52.9356970350545, 46.43035520215345, 49.814394091451526, 52.10795096903841, 50.472579579217395, 50.89473663979048, 49.04043682895141, 48.121043716116326, 50.75939851264102, 48.24977412755379, 47.16028634358704, 48.995285240745446, 50.84536099471357, 50.93794868814521, 46.216384344026494, 39.67371926937628, 51.97348237641985, 48.25386629028354, 50.30074050482533, 46.0176357731073, 55.2011447329307, 45.33655784443293, 39.82202959129533, 52.25055988659485, 49.060772724899024, 49.09339107718116, 51.15416946814741, 49.00510566050196, 44.2970494681583, 51.04527335101141, 48.62111070072948, 51.05006099093938, 58.529449926178835, 44.95133921403015, 53.25401331328271, 48.29066167671455, 45.77310349693155, 49.66592966930815, 55.42854440933944, 47.94909869217504, 46.93375472184273, 44.00061478752956]</t>
   </si>
   <si>
-    <t>[51.23529644268774, 50.864901185770755, 41.59731748801545, 47.115155387986675, 50.213036992371194, 53.96800395256918, 45.972411067193676, 52.498025683497175, 49.07718879259294, 48.98762845849802, 48.53291564131331, 50.294772899315845, 51.363735177865614, 52.93901185770751, 49.820015810276686, 48.16135439873845, 50.785962014564234, 51.375307578340994, 46.96242921404063, 47.95404910169086, 49.53596046661234, 47.71776679841897, 48.438043478260866, 46.66107222598277, 52.25757331693857, 47.327549407114624, 46.03804179792495, 48.39078305401423, 53.20930370321416, 46.04311806622919, 51.198127918488396, 47.152905138339925, 50.12201581027668, 47.17719593013394, 49.71946640316206, 50.42778656126482, 45.91486515336876, 49.486994101226415, 47.590190946452495, 48.30908344541516, 50.99956674035104, 45.67400872225075, 52.39372782082148, 51.059673913043476, 47.408537549407114, 51.42778656126482, 49.265577513412936, 48.53873815607674, 46.55612098581986, 48.02658330181729]</t>
+    <t>[51.23529644268774, 50.864901185770755, 41.59731748801545, 47.115155387986675, 50.213036992371194, 53.96800395256918, 45.972411067193676, 52.498025683497175, 49.07718879259294, 48.98762845849802, 48.53291564131331, 50.294772899315845, 51.363735177865614, 52.93901185770751, 49.820015810276686, 48.16135439873845, 50.785962014564234, 51.375307578340994, 46.96242921404063, 47.95404910169086, 49.53596046661234, 47.71776679841897, 48.438043478260866, 46.66107222598277, 52.25757331693857, 47.327549407114624, 46.03804179792495, 48.39078305401423, 53.20930370321416, 46.04311806622919, 51.198127918488396, 47.152905138339925, 50.12201581027668, 47.17719593013394, 49.71946640316206, 50.42778656126482, 45.91486515336876, 50.53814559751496, 47.590190946452495, 48.30908344541516, 50.99956674035104, 45.67400872225075, 52.39372782082148, 51.059673913043476, 47.408537549407114, 51.42778656126482, 49.62507235760755, 48.53873815607674, 46.55612098581986, 48.02658330181729]</t>
   </si>
   <si>
     <t>[47.679267993413795, 45.619597894337275, 47.34642333849371, 46.04803405141328, 49.519662795428786, 46.73146075368039, 44.53790517167846, 46.38219087352868, 49.67734250567803, 42.54187978361719, 48.66779660759272, 51.42932781799541, 50.70771186505167, 45.649136965575224, 47.01999376222874, 44.980653463124156, 53.48509060842362, 43.1576126078312, 42.87831095363829, 45.17302233531063, 47.59376315220358, 48.73854071548979, 44.34818227468091, 39.29508600320162, 53.277390783027286, 46.022181264894854, 48.120074663191694, 46.76257401013698, 53.96063857108275, 43.16740451204138, 40.22767630304516, 51.006500824872546, 47.27235576267647, 47.70718591444486, 47.45106606153721, 50.07691351276006, 44.394371523560224, 48.73320907285573, 46.105497305708425, 45.36667729020495, 54.29979757068374, 41.63464844916285, 52.60568533363348, 43.77695261975923, 46.201694771413266, 45.66159361773076, 51.26152775596711, 46.61616947347066, 46.101252425745024, 42.11822755934809]</t>
   </si>
   <si>
-    <t>[57.90037229527633, 55.01976735822599, 52.44354985936684, 52.34129293085048, 55.014794614736466, 55.18999477241594, 51.55497400699237, 52.40003819251583, 55.231329882863534, 49.52537927518513, 55.26136680432988, 55.11682401965545, 56.650435253790384, 56.08941487000034, 53.48788862778182, 52.52456234126187, 59.45829598880854, 52.16907890478984, 46.70873670381835, 52.935059396271186, 51.697449825869015, 54.77931891834072, 46.95940627512549, 54.31235471895536, 59.37950736619579, 55.61013463950129, 51.96290244164334, 51.49025605852073, 58.411468244629496, 49.64128685478523, 52.56671765225248, 57.737010677673325, 56.577370937003664, 51.3687730371012, 50.795399930612845, 52.03349615978554, 51.04937648467151, 57.67089551174719, 53.48835640636819, 51.09763253234881, 58.21701330624394, 45.633313553863005, 56.34472230532306, 53.131472282902905, 54.73586170718677, 58.857170517793705, 56.27373593996941, 55.87490456436127, 51.65939812443897, 52.45001901192768]</t>
+    <t>[58.23738447432047, 54.97956676102454, 52.89973361744386, 52.51134863108355, 55.789110866354726, 54.479543267968076, 51.94843094710505, 52.808346522328044, 54.06224935612248, 49.93422497151992, 55.270087151031966, 55.210232537367425, 57.48683488196987, 57.09247500551048, 52.7584639916721, 53.322919343744545, 59.45916455138685, 52.28919438385941, 47.470485734847486, 52.879270505741616, 51.49106956884128, 55.6198415106868, 47.46281739189196, 53.64464866056968, 60.74013714658959, 56.23947626537777, 51.8576515456503, 53.46675044825582, 59.10264345234716, 50.053728179433406, 52.56767551843579, 57.47142896423047, 56.37834908795212, 50.1029960362869, 50.62318065019779, 52.03073919081912, 51.30420762050945, 57.08183797764993, 54.1438637453306, 50.41770330414555, 58.36176681053841, 46.11153268558643, 56.607403781912936, 53.07062881085604, 53.34839943003925, 58.136337160744574, 57.01762141806412, 54.54041877332187, 53.11914818062935, 51.7381616720352]</t>
   </si>
   <si>
     <t>[55.050212450668276, 52.23084158886091, 48.91079215928029, 43.54769722980002, 54.47127517700195, 49.66839649698009, 51.15825254990649, 49.23801897373124, 52.71858208931483, 46.072863998625124, 48.47542200834855, 51.20329988622855, 52.93761482540326, 54.34557860611926, 48.65264293485951, 51.29046927546324, 62.910044227268386, 46.94649636828382, 46.88661886136051, 47.28878649836001, 47.49398388346193, 51.45500658187941, 45.94905508365555, 44.261904266116176, 60.62640452825976, 49.67864761736082, 48.15687329786097, 48.801997654127035, 58.66610176297515, 45.8980395743027, 52.692791006291806, 49.964052536252, 57.432084696170364, 46.42502040154378, 49.88522374790176, 47.85152703341759, 48.41522469690783, 56.022943018434546, 49.895593312681896, 51.810222553057166, 52.38595340593059, 41.750897767138575, 51.021030665461716, 48.131949880547204, 56.06300146276301, 55.598890772280484, 50.6023846378251, 56.93475771636359, 47.42939437706009, 47.54815140949644]</t>
   </si>
   <si>
-    <t>[68.16462477819611, 73.91858523610722, 67.90505460695765, 71.4982393458547, 70.57919067869592, 67.09205407540824, 65.06596256812087, 65.60067785046753, 76.95060784910531, 66.71012152568056, 72.56255974237266, 64.95930583471167, 71.70532668814079, 76.38124612619973, 66.91598836062671, 62.92581336263636, 73.27474347837047, 69.65622528081494, 71.7544169834867, 65.97068798940498, 68.09761621641942, 66.62143613329548, 71.52844096467204, 77.45253301545647, 70.56324149689613, 72.26452104422908, 72.3904722223184, 66.61335868659278, 82.4508382266345, 68.4331495850341, 70.32700797738707, 75.05317199585741, 74.31714301647453, 67.75599914961873, 69.03102758084233, 73.58768096688706, 64.55281185033584, 75.23627452733807, 64.89760376888957, 63.57555238380261, 84.78615618471285, 65.35180950054546, 72.95673241784618, 69.0172360037636, 58.607162724978494, 59.983417502703126, 78.59049137053258, 68.50342133779746, 74.86444744950667, 64.6946805292753]</t>
+    <t>[68.16462477819611, 73.91858523610722, 67.90505460695765, 71.4982393458547, 70.57919067869592, 67.09205407540824, 65.06596256812087, 65.60067785046753, 76.95060784910531, 66.71012152568056, 72.56255974237266, 64.95930583471167, 71.70532668814079, 76.38124612619973, 66.91598836062671, 62.92581336263636, 73.27474347837047, 69.65622528081494, 71.7544169834867, 65.97068798940498, 68.09761621641942, 66.62143613329548, 71.52844096467204, 77.45253301545647, 70.56324149689613, 72.26452104422908, 72.3904722223184, 66.61335868659278, 82.4508382266345, 68.4331495850341, 70.32700797738707, 75.05317199585741, 74.31714301647453, 67.75599914961872, 69.03102758084233, 73.58768096688704, 64.55281185033584, 75.23627452733807, 64.89760376888957, 63.57555238380261, 84.78615618471285, 65.35180950054546, 72.95673241784618, 69.0172360037636, 58.607162724978494, 59.983417502703126, 78.59049137053258, 68.50342133779746, 74.86444744950667, 64.6946805292753]</t>
   </si>
   <si>
     <t>[56.17432907580559, 55.08384578642169, 55.149177394207996, 51.118433185556015, 59.37728271412567, 53.34845697350503, 51.01660980863849, 56.55527189079462, 52.492544072420365, 48.89633528200936, 57.48429108803541, 53.5486360992649, 52.19190304349801, 53.12022036757346, 57.2939255488411, 53.5555502197314, 58.76590288678526, 54.74047241424139, 52.352387951922175, 49.47210270742138, 48.78380421753835, 53.87521525401526, 50.074724089908514, 50.71191957433499, 59.76003228894575, 52.18186468592186, 50.61155978241114, 56.25110646762054, 57.86997459320645, 52.91899455332613, 50.52888425184675, 58.400158476066714, 58.565702084355074, 50.71628059469684, 53.90056346305507, 54.068962232283695, 48.29822465323339, 54.531175457335486, 55.060311137379394, 48.825540383622055, 57.55138647375934, 48.508858847311856, 57.94454413549063, 58.00462893421845, 53.735853622321386, 53.674402680659185, 57.87947120142413, 55.05836836362495, 49.310663432452735, 53.532453581883985]</t>
   </si>
   <si>
-    <t>[51.39788262942055, 49.696393280632414, 47.826946507608525, 50.37414647847394, 53.508083003952564, 52.45093325249705, 44.806268934643484, 50.191836428612305, 46.68063635278897, 44.32045881566252, 48.52103135357467, 51.69962430823013, 50.85108695652174, 54.35253020978854, 47.39308242156595, 47.08445103654412, 54.61912798909721, 51.485489440926116, 46.33383575312426, 48.18030085745831, 51.408946933959555, 47.12953725712413, 45.60661628855634, 46.81555218542038, 53.05488142292491, 47.44577320226314, 46.934143787271886, 45.291872469282865, 56.85833643996398, 44.1054444789071, 49.63683590688239, 52.14343817182978, 47.54534753299764, 48.22609259213736, 46.90503224510359, 49.85021314823598, 43.82589811826488, 52.17342240661785, 48.59325752662612, 47.73731351210329, 54.159506699169356, 47.13546164323162, 50.31747244549387, 49.40947258280589, 47.595391322169974, 51.16533990879062, 49.268471915127094, 48.84208626623948, 46.2493730262256, 48.481505258663276]</t>
+    <t>[51.39788262942055, 49.696393280632414, 47.826946507608525, 50.37414647847394, 53.508083003952564, 52.45093325249705, 44.515362313148955, 50.191836428612305, 46.68063635278897, 44.32045881566252, 48.52103135357467, 51.69962430823013, 50.85108695652174, 54.35253020978854, 47.39308242156595, 47.08445103654412, 54.61912798909721, 51.485489440926116, 46.33383575312426, 48.18030085745831, 51.408946933959555, 47.12953725712413, 45.60661628855634, 46.81555218542038, 53.05488142292491, 47.44577320226314, 46.934143787271886, 45.291872469282865, 56.85833643996398, 44.1054444789071, 49.63683590688239, 52.14343817182978, 47.54534753299764, 48.22609259213736, 46.90503224510359, 49.85021314823598, 43.82589811826488, 52.181764175090244, 48.59325752662612, 47.804254933895294, 54.159506699169356, 47.13546164323162, 50.31747244549387, 49.40947258280589, 47.595391322169974, 51.16533990879062, 49.268471915127094, 48.84208626623948, 46.2493730262256, 48.481505258663276]</t>
   </si>
   <si>
     <t>[55.88657436662055, 54.02952976505183, 51.20278318547937, 52.308890538571596, 53.96226017754564, 54.147980268361174, 47.31531158766363, 51.2689054307116, 53.5738804450139, 48.12911589783078, 51.074923943719526, 57.50766939180202, 54.14051107359485, 56.529417901250625, 51.18760213877336, 47.160193454268196, 56.14163910811129, 50.2746326034444, 51.02205519517204, 49.280135705295166, 51.36543829576897, 53.22790284163379, 47.610969622021685, 53.59649497585635, 55.549520915167975, 55.25362439580543, 52.51140476619916, 50.98093528304887, 57.436469020888396, 48.28216064973582, 48.925549767218776, 58.94244575658629, 52.38352081326707, 51.51361542954214, 50.9771862917937, 50.746628292856514, 47.99006922633925, 54.69996601486961, 52.78192693876397, 47.25671346364165, 58.72343499398107, 47.818793847155625, 56.222369038894634, 53.48399940398072, 52.09428990077604, 53.76053993184168, 54.35474451656339, 57.00554915323812, 49.95608602658882, 49.24459935622254]</t>
   </si>
   <si>
-    <t>[59.64597803491332, 52.62858743198948, 51.216817557122155, 51.78438665824134, 55.94647303096483, 56.00460012972784, 50.913976098108876, 51.98790844471375, 53.54377317109903, 48.839846823772206, 53.607232770222694, 55.54928072177695, 55.289886152385364, 58.21326263509498, 52.55099719447749, 52.645056009589815, 61.27947418900406, 51.308132002597304, 49.18884776903208, 51.805279491563866, 51.27211878328268, 54.64928275814752, 48.16623185262659, 54.426963560955414, 59.11155721123676, 56.76820614645853, 53.507374413994135, 54.14979848593779, 58.56065233472877, 49.39867469144616, 53.99612572792845, 59.65815722259837, 57.19226829508418, 51.16414395228816, 52.43682546899529, 52.61151958507278, 51.92572717833684, 57.60795462615522, 55.12624368518626, 50.437062649017555, 59.91046475528496, 46.15316602897262, 58.2007141891843, 52.29552303203714, 54.27083016372751, 57.872983692860394, 57.85308264208767, 56.52029313560693, 53.4738948562681, 53.0190130446044]</t>
+    <t>[58.89101247859022, 53.529168047325435, 52.8782574502347, 51.60251577821939, 55.71102325629554, 55.21399065642589, 51.52042572566304, 51.88832171681206, 53.56810614730256, 48.98085663265667, 53.34382398346357, 55.94058168975134, 55.49703626079944, 58.187856862974265, 51.97831622479174, 51.48350034726243, 60.619057101072826, 50.49691601137965, 49.64737389557919, 51.7184274394465, 50.729712354236014, 55.41200805545842, 49.081120210714474, 55.856390666077104, 60.236173791787664, 56.343207320066675, 53.33070129315199, 53.25081994473608, 59.231039343610384, 49.17947163133958, 54.39748342555142, 59.979127141476646, 56.63123104746636, 51.6475166062708, 51.67711881558254, 52.71522201953411, 51.354333879612625, 58.76448442974089, 54.36317682283834, 50.199179680674916, 61.65263381359598, 46.12526215364671, 57.80202580313954, 52.853787319757416, 53.93852033709595, 56.93017520003535, 58.47761073813702, 56.481804775765724, 53.03327772554447, 53.15673945026608]</t>
   </si>
   <si>
     <t>[61.210195008681225, 49.45997989948559, 51.345660379281625, 50.57937798149501, 51.205540915515584, 48.10422107590988, 49.644678779722675, 49.86812793897546, 55.32936524900051, 51.4993934306043, 48.708351329729965, 54.55102007990298, 52.1694921727237, 53.94758519379989, 49.06572722755402, 51.37233173933896, 66.34927208610203, 49.65558586316618, 48.898966367141064, 57.45508418328207, 52.31464991392354, 57.52935640131532, 51.60172696622463, 50.340574327174856, 56.55991555304395, 54.81635523513372, 48.304451155832155, 50.76339925181724, 55.923096991980024, 48.116888751908256, 53.02784970106344, 59.96283601723169, 57.3640809576792, 50.1930819037215, 54.917062233182286, 54.07306508803085, 48.88196076969856, 57.279976208954466, 53.83496124855615, 50.32341314481652, 61.43317779299771, 44.9382220117471, 56.844789327161585, 53.491949123337335, 55.89548523688033, 55.89992582781041, 61.988518094149505, 55.532910880062424, 55.66738917354538, 48.078029818025975]</t>
@@ -1597,13 +1597,13 @@
     <t>[58.664406858225846, 54.499548441605874, 51.234616869957485, 52.60946986034314, 52.01657726806894, 53.60827330481639, 49.54920618974713, 56.53254436182067, 53.21122678549733, 50.22547013394718, 58.18435162972529, 54.57852874748655, 53.47951158658376, 50.72893747092727, 54.82073310596858, 52.27964222813432, 56.48875916652611, 53.09927579280412, 51.145471173234476, 51.34743400923725, 51.93009859185777, 56.15651077725363, 51.566787815149965, 52.229271713950155, 48.55930667225853, 55.1047921131126, 48.1151298589705, 56.349596306796776, 55.650423066646, 51.70912277291701, 51.83612133247531, 56.32110326788118, 57.18773070695465, 51.88936040684696, 52.33211275792286, 51.586130611269894, 46.88272263645789, 55.80226660418341, 53.48634445379806, 50.949334236108996, 56.892169558109934, 47.52065076259424, 56.934160096343064, 55.76348394751629, 52.89171274545754, 55.36160415271879, 57.13782792593114, 53.56024034566765, 47.18160948097073, 53.7063368584209]</t>
   </si>
   <si>
-    <t>[52.535177178795195, 49.9621673254282, 46.65659410655858, 47.3757944270039, 50.789604743083, 52.354511960260524, 45.70824658297229, 50.62890622309895, 48.1521691199127, 43.33923070157583, 52.31371405424064, 50.57123686152248, 49.13860342555995, 53.287015999052485, 50.470833241176216, 47.50001779726107, 54.457853461268726, 51.48157345293181, 47.25142292490118, 47.56336884771091, 51.02126938653477, 47.10205533596838, 43.0701099102322, 46.98712915073544, 53.30545296106608, 46.06201208272057, 43.31321478612121, 52.40804347826088, 55.80953353646855, 44.76834500603324, 49.18353673762549, 51.51838105313077, 49.02564172511505, 45.71539213777557, 46.81630434782609, 50.66964454977766, 43.59879790374545, 50.35435486907459, 49.50343119482988, 43.54346533993262, 53.739494959739275, 43.32318898097067, 52.03094007938481, 49.725952348134555, 48.25995801520243, 51.132133121649986, 48.82250988142292, 46.2541304347826, 45.525122672779084, 48.397855026287615]</t>
+    <t>[52.535177178795195, 49.9621673254282, 46.65659410655858, 47.3757944270039, 50.789604743083, 52.354511960260524, 45.70824658297229, 50.62890622309895, 48.1521691199127, 43.33923070157583, 52.31371405424064, 50.57123686152248, 49.13860342555995, 53.287015999052485, 50.470833241176216, 47.7883408196239, 54.457853461268726, 51.48157345293181, 47.25142292490118, 47.56336884771091, 51.02126938653477, 47.10205533596838, 43.0701099102322, 46.98712915073544, 53.30545296106608, 46.06201208272057, 43.31321478612121, 52.40804347826088, 55.80953353646855, 44.76834500603324, 49.18353673762549, 51.51838105313077, 49.02564172511505, 45.71539213777557, 46.81630434782609, 50.66964454977766, 43.59879790374545, 50.35435486907459, 49.50343119482988, 43.75853850563245, 53.739494959739275, 43.32318898097067, 52.03094007938481, 49.725952348134555, 48.25995801520243, 51.132133121649986, 48.82250988142292, 46.2541304347826, 45.525122672779084, 48.397855026287615]</t>
   </si>
   <si>
     <t>[58.18967022090775, 50.85292833445182, 48.579591910992626, 47.72964145828372, 49.134300807884216, 51.90522648647933, 46.111752940844546, 50.407063232474044, 51.125955318904424, 46.74237508295685, 52.38845117698511, 54.82054221828222, 51.678699110509946, 50.65986548614272, 45.338218392015435, 46.91925717945698, 56.0787941567085, 51.69870446654638, 48.73255117639455, 49.30581654806341, 50.08248793256155, 52.75118951775956, 44.46274071082446, 51.134591025336206, 51.93432848700852, 52.113878096942415, 48.22188259729442, 52.78126978560789, 53.288524560219955, 46.26656206218518, 47.56251032614487, 56.2129382656354, 52.66150086616409, 50.58059648073396, 47.990435394123224, 49.628810063802895, 48.0031638541583, 51.037562003615896, 51.86782893898494, 45.019133119797885, 57.93144842204422, 45.383819476024584, 52.29880177275438, 51.527577657619965, 49.90151510259126, 51.62106950285541, 54.67983241627169, 53.12028396074554, 47.67574754450394, 50.79358834326368]</t>
   </si>
   <si>
-    <t>[52.331489236016424, 46.185402259387466, 49.733715383652836, 45.47232135069405, 51.20687617228689, 50.928835159298494, 47.592558777413835, 48.14897036669609, 47.65606035440874, 44.33781903467926, 46.03826538004569, 51.6081145513249, 52.50402301571944, 48.91981152240384, 47.80512138943903, 45.70515225331502, 55.255350463990204, 49.00454008289697, 44.532039516915006, 46.25334394931859, 48.66816833145207, 46.842051577623, 45.336357832453274, 46.11794761054907, 53.54375739662406, 54.1677544047044, 44.49230677437267, 50.08766357811571, 56.51366215189425, 42.3127100678192, 51.17472600353493, 50.321895756255486, 48.69040576018796, 44.902867976961645, 44.69588869170065, 48.102859618035986, 42.74785988371432, 52.59333163419559, 49.33917237700509, 46.044429362203026, 57.48466498078578, 41.10661194635577, 48.94487383846034, 48.2872200970411, 46.00166802068894, 47.099170592084555, 51.117027581741446, 52.00160918938415, 47.649984549029995, 47.05495078538239]</t>
+    <t>[52.208835663479555, 46.44470338282834, 49.289421618873, 45.54442411187917, 51.308241946432474, 49.945617433646916, 47.606304690170106, 48.46557173560659, 47.90851699653727, 43.62248168440599, 46.77918938359349, 51.40983820518231, 51.64899589541314, 48.90839482955561, 47.94819519165851, 45.287221194167884, 56.08461369494755, 49.18283319857119, 44.41270947620269, 46.53114573635678, 48.5201623477492, 47.14201391664737, 45.64258175511565, 46.03082324856738, 53.582374736628836, 54.20036239408499, 44.101041105051685, 50.55840078075486, 56.33087608370208, 42.3123465279689, 50.86872269401261, 50.78512052379172, 49.38508096576905, 44.741933366760236, 45.09911682275418, 46.78286704617596, 42.24139154272629, 52.722010521795575, 49.02491246729306, 47.15144772411698, 57.74979696797554, 42.13708110053197, 48.85615954399407, 48.58921768177218, 47.06318575219855, 47.751497913111606, 51.43141660922839, 51.6747602279366, 48.66285142233457, 47.2278738912042]</t>
   </si>
   <si>
     <t>[48.263624331055894, 48.559508488847335, 47.83027531016957, 42.32216173978662, 45.77403260773821, 46.23374453111128, 38.89249064406859, 46.18226570103008, 45.96367983194208, 41.59244509721462, 41.845796784789194, 48.83231742700569, 48.08083846769314, 43.59019703288323, 46.09805285796817, 42.59596066985677, 52.34881220097598, 46.817244089626826, 41.424148886081255, 42.242136173474464, 44.49716020471023, 45.61254644929185, 41.54315664890727, 44.20541147156666, 48.69747862126045, 48.345635512054194, 39.500195471646755, 46.93512271504157, 49.09838148697563, 40.18359416091866, 50.36647825927131, 47.63743672171129, 44.65898931703078, 42.56486417378361, 43.882939902972794, 43.983264152164985, 39.76794850006406, 50.82402707171534, 45.74470536235764, 47.26301236179036, 54.86166556769209, 38.72868349429647, 42.16372061612578, 46.249158926047826, 45.04192886322384, 45.28898975869883, 46.149932775440966, 53.547550751456164, 44.20678621269498, 42.35943907485178]</t>
@@ -1615,13 +1615,13 @@
     <t>[60.28659225343152, 53.14522045162944, 50.835517655184745, 52.24938654949839, 57.24739490109653, 54.77204051072978, 51.57805398160036, 57.66329563222384, 55.308977029897775, 49.56436068738071, 57.85989484713698, 53.14745237107966, 55.35535311164508, 52.128385141030684, 53.564110413146146, 55.07042631638681, 60.36204588352864, 53.1977696507274, 52.201210504600645, 51.62171986689246, 52.71715050901257, 54.888614269031656, 52.058957700881855, 52.66695148652967, 52.74769860832765, 53.897398449440516, 50.78794139194722, 56.99449963258881, 56.464459037027474, 52.218653965628825, 50.56935642228606, 59.53208124643461, 58.350281527723666, 53.679002908983236, 52.93413876190319, 51.34466983907836, 51.316737882183155, 55.370705238046945, 55.8453493139227, 49.292696193455235, 57.36393071110772, 49.999968786052754, 58.567905050968534, 54.6643757808839, 54.145264264668846, 55.681354127791394, 57.43254426877222, 53.113919179474884, 49.92493017857491, 55.27130299443464]</t>
   </si>
   <si>
-    <t>[52.558121973567, 51.76035573122529, 46.025871553878815, 46.563573964445034, 53.24335799441169, 52.12297981928206, 43.88407114624506, 51.18983287272353, 48.92935393077579, 43.34595933614263, 47.917392560162114, 50.22154323161935, 49.87168746358191, 55.07709012400217, 46.401326248642626, 47.65105203201398, 52.492824527874504, 50.074671250563505, 44.806074621685994, 48.606380900955564, 51.22228461925569, 49.085338469555936, 44.93323562750956, 49.23763224657361, 55.14797169726095, 46.515262017309034, 46.324950787050255, 44.63980945920889, 50.85942770781729, 46.70652437018758, 51.06046472731432, 46.920868828558966, 50.38608609159356, 46.736894445804936, 47.99142066779696, 50.65328819218029, 44.28236151342215, 48.56228340431488, 49.5827960561205, 40.90013006473073, 51.24618766890429, 43.46793749528694, 51.56207385834197, 50.14672977302162, 44.80226613965744, 50.57708109481807, 50.622859774972696, 46.01573536223242, 46.055155745324235, 50.64337944664031]</t>
+    <t>[52.558121973567, 51.76035573122529, 46.025871553878815, 46.563573964445034, 53.24335799441169, 52.12297981928206, 43.88407114624506, 51.18983287272353, 48.92935393077579, 43.34595933614263, 47.917392560162114, 50.22154323161935, 49.95327820320562, 55.07709012400217, 46.401326248642626, 47.65105203201398, 51.97411549122834, 50.074671250563505, 44.806074621685994, 48.606380900955564, 51.22228461925569, 49.085338469555936, 44.93323562750956, 49.23763224657361, 55.14797169726095, 46.515262017309034, 46.324950787050255, 44.63980945920889, 50.85942770781729, 46.70652437018758, 51.06046472731432, 46.920868828558966, 50.38608609159356, 46.736894445804936, 47.99142066779696, 50.65328819218029, 44.28236151342215, 48.56228340431488, 49.5827960561205, 40.83936582171037, 51.24618766890429, 43.46793749528694, 51.56207385834197, 50.14672977302162, 44.80226613965744, 50.57708109481807, 50.622859774972696, 46.01573536223242, 46.055155745324235, 50.64337944664031]</t>
   </si>
   <si>
     <t>[57.94584566997385, 50.61122078626979, 50.712462845908234, 50.576523389310616, 54.57154681829002, 53.52999652424437, 49.26325098941811, 53.51167168125282, 53.29049893189257, 45.56103354382424, 51.776594796445536, 54.928796378326204, 53.02410902044711, 53.04845976209324, 50.744442084622435, 51.33860552909963, 59.75680602045736, 49.31759592950444, 50.610047218715316, 49.84267177871427, 50.30050874106009, 52.997365828622925, 44.45405296617435, 53.19199568838137, 54.42916770963522, 52.327883414258245, 52.321619931221434, 54.02782208764701, 53.82237340105947, 47.9205205862649, 48.96728312474447, 57.51534497796932, 52.0005439553366, 51.35757811579092, 49.734425698267344, 52.52109667984507, 48.09603143134103, 53.74910783982767, 54.81912771305108, 44.41395067200493, 59.239039297159955, 43.73834851603997, 57.520484295447275, 51.91343526979731, 49.55780271132356, 52.11278571479422, 56.283161932506026, 50.95694876803359, 50.9446542704612, 50.59250098074854]</t>
   </si>
   <si>
-    <t>[60.371648298881425, 53.95954567799906, 50.76807350358773, 50.98495705678969, 55.6668289275691, 53.75929133928853, 50.735984433954016, 54.27018349831811, 53.07290075821159, 49.56784850520684, 56.34784282601538, 53.44756214869583, 54.78894249943403, 58.04153065942321, 52.72614188482237, 52.76076159984059, 60.073468294971576, 51.31843271485584, 51.02123945058122, 52.10988753440504, 50.52789217546278, 54.812907644063955, 48.81580075976263, 53.76899062084836, 59.86967154901424, 56.54415808931268, 51.89914862761765, 54.539752742073304, 56.63354534228588, 50.11679502152249, 53.20042683778032, 58.79060463356158, 54.89118131526034, 50.24033754469241, 51.965052299666844, 53.44293045245631, 51.68746385038664, 56.42536770887349, 55.46836220398451, 49.03565048563375, 59.25961209337068, 44.049702689538684, 56.4859315634357, 53.87965113269564, 53.5573285044281, 56.24112355201953, 57.71901414570814, 55.86566171953778, 51.97878283620897, 53.361576263866496]</t>
+    <t>[58.95766948483008, 53.80461224515907, 52.079668732251335, 50.79926946033539, 54.70199244368058, 53.228380654570195, 50.3850698903968, 53.4449543072814, 52.959180215263565, 49.07908067568847, 56.09471032134458, 53.244066084293266, 53.9168306800169, 57.61149769426893, 52.706516128533416, 53.4667115353595, 59.830683527476445, 51.79096458471891, 50.05403935545354, 51.423879412889825, 51.23326405687959, 54.741716390056276, 49.27388488418217, 54.20381651354505, 58.61761353622849, 56.38670875347517, 53.100151337914596, 55.143692538037996, 57.756106609377504, 50.584832605211844, 53.418325496141065, 57.81308723703935, 54.429496669754634, 51.08094197769115, 51.87228439020011, 53.44472609707195, 51.62870042717848, 56.44172324061195, 55.43578788057173, 48.38694318421947, 59.55885033236984, 45.29853198281245, 56.23841946839461, 53.25535728366803, 52.903609990274596, 56.92285046474937, 57.04096668076227, 55.426531045548835, 52.76969967279463, 53.826859613855504]</t>
   </si>
   <si>
     <t>[62.33548467161156, 55.06591445756995, 50.73215017657977, 46.493816145870525, 58.928460163825115, 48.74663781886044, 49.31864406306753, 53.00190724158004, 57.068763864539825, 48.47039331850799, 51.38386995360785, 54.72801865785018, 54.42390611369619, 58.239526375932655, 51.99088378845939, 54.895051917935554, 64.61545488681718, 46.86587176990132, 50.93255012165416, 50.958683399909106, 45.047465786462716, 54.38472243267556, 48.91753232601603, 55.72999697096027, 59.143243254107446, 50.98441194820781, 49.67411128982725, 52.62913501392711, 58.700944520249195, 51.78789428533772, 56.80393197892683, 55.51593637097024, 54.118799160290145, 52.21240398693461, 53.291789262944995, 53.985204104397134, 49.83505155691516, 56.012910844855625, 53.86487962745396, 45.029523681067666, 57.15209634833657, 42.52474895597918, 52.07168644961632, 53.54037423075423, 55.12462231451343, 53.53829059027871, 56.575321320092726, 59.15214788497201, 55.2741834253002, 49.81499429239115]</t>
@@ -1633,31 +1633,31 @@
     <t>[51.10848990325211, 53.54821933707162, 50.33667666572715, 48.467147148396066, 51.77637467889529, 47.765645105172425, 50.79089435601062, 49.31786537529821, 50.68446825347961, 51.211024695716766, 52.905352344002665, 54.30093854783778, 51.76868071503892, 50.84171933331365, 50.99456247258794, 49.829010726767166, 53.64409195769201, 49.795509737623604, 50.26865621013665, 51.910282675533054, 51.75015588649162, 53.03180595105435, 46.356030911138006, 44.443576102439735, 53.96307822832371, 52.07052239405332, 51.90454858234184, 46.36453469263441, 52.75401390212473, 46.53099136717975, 41.81963708555243, 53.404171546190966, 50.61905683660015, 50.62222788254674, 51.79449397671217, 51.04740465973127, 44.426943511254635, 52.49520010898683, 49.58789725985333, 52.31540881583091, 56.852724519508726, 45.75644760430373, 54.26250061562213, 47.18696704531493, 50.95232586935077, 51.38481369170878, 56.101570460268235, 48.7364781647075, 51.80992969448117, 41.154639356853416]</t>
   </si>
   <si>
-    <t>[54.08220582524825, 51.97903162055336, 44.52152565630367, 48.47718997525548, 51.855678524374184, 53.97419534549776, 48.59059288537549, 53.503557312252966, 48.36020108194866, 48.25077075098814, 49.67758893280633, 50.28598250661433, 50.6403162055336, 53.04751100517866, 49.90360324264924, 47.92625654680402, 51.075335968379456, 53.85341238471673, 48.94194800621801, 49.21525571674502, 49.91065869143516, 48.89701581027668, 49.21463594205333, 49.65399317292084, 56.69385375494071, 48.79798395112173, 47.2848356976342, 46.005316205533596, 51.75749208237009, 46.81368924732113, 53.43016178500395, 47.96312252964427, 50.400600476655484, 49.67817381134863, 49.05451506678539, 52.23391130963753, 45.942797538127415, 52.03807431097383, 46.462727272727264, 49.32478260869565, 54.47869368431609, 46.76857707509881, 53.309350599582466, 49.6347628458498, 47.66974308300395, 50.57966403162055, 52.6009300887754, 50.2623944213643, 49.106843770380365, 47.26146560226065]</t>
+    <t>[54.08220582524825, 51.97903162055336, 44.52152565630367, 48.57442021769248, 51.855678524374184, 53.97419534549776, 48.59059288537549, 53.503557312252966, 48.36020108194866, 48.85077075098813, 49.67758893280633, 50.57095257532147, 50.6403162055336, 53.04751100517866, 49.90360324264924, 47.92625654680402, 51.075335968379456, 53.96025691699606, 48.94194800621801, 49.21525571674502, 49.91065869143516, 48.89701581027668, 49.21463594205333, 49.65399317292084, 56.69385375494071, 48.79798395112173, 47.2848356976342, 46.005316205533596, 51.75749208237009, 46.81368924732113, 53.43016178500395, 47.96312252964427, 50.400600476655484, 49.67817381134863, 49.05451506678539, 52.23391130963753, 45.942797538127415, 52.03807431097383, 46.462727272727264, 49.513188405797095, 54.47869368431609, 46.76857707509881, 53.309350599582466, 49.6347628458498, 47.66974308300395, 50.57966403162055, 52.6009300887754, 50.2623944213643, 49.106843770380365, 47.26146560226065]</t>
   </si>
   <si>
     <t>[49.871559157713236, 49.562227320163615, 50.564988424458114, 46.471966185858534, 47.80297464156465, 46.9540606372325, 46.78498899758451, 47.08590180941413, 49.26616230082116, 47.11568709174466, 50.472696567847684, 51.75883762936455, 53.78187380953009, 46.81344500880184, 49.224448584117, 46.96293396731802, 54.04190832643508, 44.90099099829551, 45.387278911694594, 45.70830638732984, 49.33329717452456, 49.024489565125876, 44.895255510329754, 41.53580581062114, 53.4312228657548, 48.24749750444323, 49.59815091741948, 47.1593526313837, 52.78467179456892, 45.160762485637896, 44.28688410185472, 51.45995752500609, 47.75513534666425, 46.261061021417994, 49.14758304868023, 51.56950756033128, 44.16773684045353, 49.77113091314954, 46.473178355200886, 48.09618929354653, 53.14576073435954, 41.035009152538215, 51.358735692773834, 41.56027870818478, 48.59073812689461, 47.92856978524896, 53.3556193472427, 48.78795083156223, 49.800040216857994, 41.925388336783485]</t>
   </si>
   <si>
-    <t>[58.69863226414266, 53.95460733889399, 54.28974920133336, 52.417709681512974, 55.09219924143306, 53.451462732578364, 52.52824101053561, 52.86194061195111, 54.78254141300522, 51.83656964946039, 54.635720074383855, 54.969167463180156, 56.45811742717673, 55.88792209227429, 52.10275629874111, 51.27070980035071, 59.947327333377004, 53.56514680522279, 49.80729684673385, 54.05215824419506, 53.293611922741526, 55.2076259106757, 48.38094781158402, 52.83294133959431, 58.56365532658523, 55.42885716471877, 51.90049845083165, 52.477456734075076, 57.7571125247578, 49.257099741329014, 52.102860530529654, 57.1306351002479, 56.14871681863703, 51.65214732436507, 52.666431312975305, 52.75862851175653, 51.57399568545632, 58.24191612903896, 53.68989676972344, 52.318620547469344, 59.338004449458275, 46.3220654910065, 57.24816799411694, 54.07905677972548, 53.9050979357526, 57.30900541464315, 56.57260616041034, 56.0130023765549, 51.84988321093475, 52.61639738166125]</t>
+    <t>[58.886833051879265, 53.83228177608159, 54.01431269239883, 51.0951720428649, 54.01394939500894, 53.42357975533573, 52.05071093630643, 53.287666832828414, 53.9745808333348, 51.98672726417012, 55.24901897659331, 54.784087730395, 57.38744864526666, 55.26085044401342, 52.79051795553439, 51.442247364210345, 59.94254417498187, 53.10306806703504, 50.03510728433491, 53.10834245769403, 53.21183875428327, 55.153221099100826, 49.29614328538143, 52.5283432437942, 59.64891523552099, 56.850698192868094, 51.874027636792356, 53.99657199898634, 59.607278989160214, 49.743429928422465, 52.50296370645672, 56.345478313866295, 56.0622801314373, 49.93109084355173, 53.05693886507248, 51.033833177869006, 50.93376486858366, 56.960391546520825, 55.41519759414373, 52.24100860968518, 59.03983807974821, 46.31100628037005, 57.472062313141976, 54.17194365861301, 52.98617016573983, 57.21918868533264, 55.44210876132723, 54.27375022181336, 52.071322493857835, 52.6212363580285]</t>
   </si>
   <si>
     <t>[60.50678458828229, 50.99796643848947, 49.8998915427287, 46.84242995009591, 55.22900750204038, 45.556698877085815, 49.97900224286106, 48.94430943364682, 56.378975720914454, 50.559014465196334, 50.31231424414593, 54.298373112735064, 60.292910812683246, 54.85550173250583, 50.85876672661823, 50.500178087106335, 65.6078674901427, 51.8429129802945, 46.08123649597168, 45.9190068301476, 49.95402984196961, 51.83069650451184, 47.74322752669865, 48.933559879936254, 63.02041904132828, 49.41442395945311, 47.20993282039175, 47.54578077075038, 57.125520000231596, 42.89840498008276, 46.011858849921246, 56.20306993688048, 59.923883899945054, 45.662691325236686, 47.73416348559112, 49.1890969720471, 46.46452468676058, 57.215317769559476, 49.17846265016337, 48.325711777728536, 53.92094517915145, 41.21769000013826, 51.11335563206625, 51.950619281497396, 54.248851650162884, 58.092544248377386, 49.208548956407384, 57.49327139390787, 50.59623887555872, 49.57466965437878]</t>
   </si>
   <si>
-    <t>[70.1400848003918, 73.72102942172691, 68.75258022840691, 61.026222581249705, 69.24067787974545, 68.70769285225563, 67.26118974825759, 71.03389530956136, 74.8838193340157, 65.69866280924785, 68.10547959589739, 67.45784281139656, 69.8882665639498, 70.26898174657639, 67.56013251130497, 62.63545704364519, 69.13518422928036, 67.12338083551501, 70.61849629536974, 67.43858180506861, 69.48061466020197, 69.48636608783374, 71.77200029084803, 74.45172165582692, 76.56788980790085, 73.17077622305445, 73.66996211652065, 71.32602860167694, 78.04403849071053, 58.1040981858326, 69.01558534524483, 75.89082204453393, 73.02092318919793, 66.63247838350563, 75.15447754236128, 69.48231655072715, 61.84770130961012, 75.88795152640688, 68.98236648704447, 67.37403918332213, 77.94781760074692, 62.45924489024999, 70.69708097666606, 73.15558161914075, 68.68130772975971, 69.66926986332223, 76.35058667041555, 65.79146869602647, 73.27344896967625, 59.40242947973893]</t>
+    <t>[70.1400848003918, 73.72102942172691, 68.75258022840691, 61.026222581249705, 69.24067787974545, 68.70769285225563, 67.26118974825759, 71.03389530956136, 74.8838193340157, 65.69866280924785, 68.10547959589739, 67.45784281139656, 69.8882665639498, 70.26898174657639, 67.56013251130497, 62.63545704364519, 69.13518422928036, 67.12338083551501, 70.61849629536974, 67.43858180506861, 69.48061466020197, 69.48636608783374, 71.77200029084803, 74.45172165582692, 76.56788980790085, 73.17077622305445, 73.66996211652065, 71.32602860167694, 78.04403849071053, 58.1040981858326, 69.01558534524483, 75.89082204453393, 73.02092318919793, 66.63247838350563, 75.15447754236128, 69.48231655072715, 61.84770130961012, 75.88795152640688, 68.98236648704447, 67.37403918332213, 77.94781760074692, 62.45924489025018, 70.69708097666606, 73.15558161914075, 68.68130772975971, 69.66926986332223, 76.35058667041555, 65.79146869602647, 73.27344896967625, 59.40242947973893]</t>
   </si>
   <si>
     <t>[57.86122661788365, 56.84829368238432, 54.918693119767944, 51.82183845715592, 59.63663003509091, 52.75006299225994, 52.44136822340414, 57.18161960146246, 53.56724935438568, 52.54382238581938, 58.3157818541653, 56.54829992840335, 58.23739182143039, 52.7811648784802, 58.11688154558461, 53.96387866087112, 59.33849356160847, 55.895287605242274, 53.331634684825474, 51.592557844492696, 52.999877229543735, 56.842570819173375, 50.452349022158934, 52.777480709188886, 60.12316834471428, 55.988851893681804, 54.08743493896875, 56.86079858036193, 58.122757003661846, 51.2864419717273, 51.81608780643154, 59.126682270863604, 58.174223372382905, 54.19138687359879, 54.98008948128664, 55.41169594943083, 50.1689258226265, 55.34896729769757, 56.9728562156482, 51.247350788633085, 57.37200271830071, 49.545317260993734, 57.44497936454295, 58.93658848267795, 56.29908436667277, 55.31736850576023, 59.77922992597071, 55.228155553081045, 53.44091253030282, 51.623859682480976]</t>
   </si>
   <si>
-    <t>[52.0597478139902, 51.797817544556594, 47.857484932112676, 49.71796744863796, 51.66887842670294, 53.30144142041362, 46.058836057698485, 49.8750410459583, 49.67411169599325, 46.770771540154115, 48.60178927064007, 49.86613346747136, 52.36857707509881, 52.700411389572494, 48.75979410949443, 47.65287742192836, 56.30728277512806, 51.48458844740158, 47.08240378495911, 47.87421629300332, 51.36513238160978, 49.33267833348367, 46.635299747836044, 48.06101142932272, 53.57985507246377, 49.44543329889786, 48.72542908499706, 44.46773701661924, 56.08183103045356, 43.75131317872325, 50.804050258935746, 49.23958690561599, 50.81562248677995, 48.66994275851393, 45.93330039525692, 50.73905448118131, 44.61525372076079, 50.15334240724488, 49.33981554677207, 45.55977282897981, 54.50265652996882, 46.58400695613186, 52.308626080993825, 49.55969351016569, 46.89073122529644, 49.93365647628246, 52.81504361074256, 49.36340929599172, 46.00364243626254, 49.09349522099639]</t>
+    <t>[52.0597478139902, 51.797817544556594, 47.857484932112676, 49.878307228255224, 51.66887842670294, 53.30144142041362, 46.058836057698485, 49.8750410459583, 49.67411169599325, 46.93981687023465, 48.60178927064007, 49.86613346747136, 52.36857707509881, 52.700411389572494, 48.75979410949443, 47.65287742192836, 56.30728277512806, 51.48458844740158, 47.08240378495911, 47.87421629300332, 51.36513238160978, 49.33267833348367, 46.635299747836044, 48.06101142932272, 54.038452015947584, 49.44543329889786, 48.72542908499706, 44.46773701661924, 55.193432930417906, 43.75131317872325, 50.804050258935746, 49.23958690561599, 50.81562248677995, 48.66994275851393, 45.93330039525692, 50.73905448118131, 44.61525372076079, 50.15334240724488, 49.33981554677207, 45.656859125946866, 54.50265652996882, 46.58400695613186, 52.308626080993825, 49.55969351016569, 46.89073122529644, 49.93365647628246, 52.81504361074256, 49.36340929599172, 46.00364243626254, 49.09349522099639]</t>
   </si>
   <si>
     <t>[56.70369211152894, 54.199540868024826, 52.11205213879181, 50.952300406989096, 55.11157265280078, 51.397339971748714, 49.512348663525486, 53.35417818235699, 53.765335384616336, 48.21578369476965, 52.999846651764074, 57.68616407937672, 56.96455413113593, 56.38104724301529, 52.94536828584296, 47.62410802867272, 59.55550267596051, 51.59037770705229, 50.72415442993107, 48.82604798429069, 51.264054772063425, 55.06139000459022, 49.1487902431236, 52.93732037224893, 56.134271122860184, 55.04911817835546, 55.758710910037756, 52.30154195354451, 55.67824123785175, 47.45302748451012, 48.46706374884799, 57.96568675082359, 54.333544411652895, 53.359320016820405, 50.63969584517544, 51.02608635430391, 49.9908285328184, 53.01440818920281, 51.5714647040369, 45.21615402635393, 58.19275747740701, 47.6546861783019, 57.14969289630145, 54.13230649597616, 52.72400470679495, 54.70509417945872, 58.31204259334722, 57.353774294079884, 52.686143510968634, 48.08939616524497]</t>
   </si>
   <si>
-    <t>[59.50855776348017, 52.35535049070502, 51.83696391161902, 51.88127073241883, 55.09949689916605, 53.99972474230633, 52.36681484071899, 51.97091262024187, 53.75470066997802, 47.98592479480246, 53.370372444239294, 56.47491164702677, 55.971169826347854, 56.974360524566826, 51.414505317248995, 52.07956794074589, 58.879537595169474, 52.528871552768656, 50.42818054963216, 51.33961143417243, 52.96187855471989, 54.23707027530406, 49.0012450178278, 53.93668189185153, 58.06206296112647, 55.65271207874709, 52.21362943137336, 52.52504864754061, 59.33168240107316, 47.7247744368512, 53.05363013040792, 59.11951810627295, 54.99160445214189, 51.3802862620556, 51.91830405346688, 52.318915431890446, 50.470950180797125, 58.21829897179241, 53.107922108305296, 50.13986625008153, 60.84203870734522, 42.67994672115687, 57.81599884011415, 53.471294647614286, 52.758346886146384, 56.846031444755475, 57.538699476141595, 56.78300611184967, 52.710389937179045, 52.27976348660617]</t>
+    <t>[59.833132980752495, 52.56263329199148, 52.6597479437675, 50.682262641132084, 54.03988651742715, 53.555093252904854, 51.5183553462378, 52.1742566407474, 53.31579668227452, 47.71101845983422, 53.895256859836536, 55.86897560894653, 55.84424036471304, 56.58601975707701, 51.88593821556308, 51.905346761645134, 60.02634620956104, 50.85548414118081, 50.38747685761674, 51.78778179026817, 51.73557239840255, 53.33072190618107, 48.606961674918935, 52.93792892037146, 57.5951537982206, 55.20527104127014, 52.821977551267665, 53.64662039340635, 58.8691800919118, 47.461811430459306, 53.18177705412095, 59.13780577045586, 55.96112070930824, 50.95640606388145, 52.01588699618226, 51.55864963116236, 50.56295209422225, 57.95350846723826, 53.8343847518437, 50.147646875589444, 58.855970675363054, 46.10324859934725, 58.21563423157464, 53.03751374390417, 52.1909390869323, 56.81561158348156, 57.445661512582774, 56.42858610842329, 52.21989990451273, 52.51193975110707]</t>
   </si>
   <si>
     <t>[63.054952439131, 47.880027165318666, 51.52111519900235, 48.354659488059795, 54.16184182419606, 48.257151773626155, 48.224965154940904, 53.275761685069845, 54.203461874596215, 44.78814709957409, 49.84828985135074, 54.566907790413964, 57.430911918308425, 49.24640644782146, 46.227262893571215, 45.82831475510427, 67.63294466614252, 48.30795574761191, 46.26612244715333, 50.243166119119394, 50.23380682225284, 54.02828394139708, 48.18990497212165, 49.61654673949532, 55.97526715214544, 54.718852185185256, 48.597847694351735, 51.32179011665314, 56.3158572846062, 45.766033188439174, 46.57964906926211, 60.90673194071049, 57.4967848384616, 53.435449294968556, 49.233854820794264, 49.88908448607555, 49.451563226752604, 59.946097038932464, 56.457101667426784, 44.231449291244324, 61.99796210496322, 40.24192706756441, 54.66228019614465, 56.07192171635835, 54.147571899655304, 57.60354516131133, 59.22732304554212, 55.63346060997884, 47.465244548480975, 48.0586120786403]</t>
@@ -1669,13 +1669,13 @@
     <t>[59.12532274809033, 55.328708391330544, 50.12770637843835, 52.424590100050466, 54.867893986902445, 51.81593677249342, 51.6004339779317, 55.01549404307467, 53.445866243557894, 51.53247192737956, 59.47355739238033, 55.520613386395134, 57.672760795329246, 48.994976700053165, 55.23550704906353, 50.241004084707235, 58.21610081720778, 51.668530090328474, 51.701890294672936, 51.95518584683979, 53.18960045289583, 55.12962719849806, 51.012612819968425, 52.45382866249546, 55.092854879763465, 56.04312956720921, 49.460263470411086, 56.71325673621866, 55.63762026594791, 50.99507330388279, 52.152079787847676, 56.63088731816795, 55.71517882575523, 52.435221949508765, 52.93890153260755, 51.8757150835057, 47.40289500901465, 56.34767470228094, 56.70203517207491, 51.21437893669067, 56.64952467093557, 47.08468062674855, 56.55152846656605, 54.65742579773259, 55.71544281037395, 57.1069678988102, 57.588419515097144, 53.75268469994863, 52.27212317310001, 53.05262860597067]</t>
   </si>
   <si>
-    <t>[52.71623901431076, 51.41619388780431, 47.48771565369889, 45.55347606609945, 51.7494861660079, 53.345076076632736, 45.40081061394666, 50.430286495202346, 46.30304217105288, 46.39015810276679, 53.18652549595604, 48.365001616866145, 50.93221343873519, 52.371791526144214, 51.06026566075616, 47.80243481299283, 56.144972252107856, 51.19116289966506, 46.739880628332806, 49.21160232778205, 50.46817568895699, 48.150770750988144, 44.40092749885268, 49.278037657156354, 52.843591602698986, 46.710118747689926, 44.26771717096631, 51.36168084481053, 56.663507505520464, 45.45338418239535, 50.120192718896995, 50.67235402594293, 51.26863792303807, 46.607741339144226, 46.5853149151158, 50.45866117639408, 43.63851870082952, 50.57203464551664, 50.961045645855606, 45.6667003700046, 52.735061278456314, 44.584058228915424, 52.19883684457125, 47.018789764871244, 47.826175263729205, 51.776640316205544, 51.91021745347773, 51.84900993667547, 46.00908505639742, 49.36244513806093]</t>
+    <t>[52.71623901431076, 51.41619388780431, 47.48771565369889, 45.55347606609945, 51.7494861660079, 53.345076076632736, 45.40081061394666, 50.430286495202346, 46.30304217105288, 46.39015810276679, 53.18652549595604, 48.365001616866145, 50.93221343873519, 52.371791526144214, 51.06026566075616, 47.80243481299283, 56.144972252107856, 51.19116289966506, 46.739880628332806, 49.21160232778205, 50.46817568895699, 48.150770750988144, 44.40092749885268, 49.278037657156354, 52.701431089724245, 46.710118747689926, 44.26771717096631, 51.36168084481053, 56.663507505520464, 45.45338418239535, 50.120192718896995, 50.67235402594293, 51.26863792303807, 46.607741339144226, 46.5853149151158, 50.45866117639408, 43.63851870082952, 50.57203464551664, 50.961045645855606, 45.6667003700046, 52.735061278456314, 44.584058228915424, 52.19883684457125, 47.018789764871244, 47.826175263729205, 51.776640316205544, 51.91021745347773, 51.84900993667547, 46.00908505639742, 49.36244513806093]</t>
   </si>
   <si>
     <t>[57.40849368360669, 51.86823820189611, 48.679454588848316, 46.49924324434564, 53.21332387105948, 51.243094398448605, 47.97132726349344, 49.34039582442459, 52.117110147859606, 45.59968728716774, 52.74801618133269, 56.183330944104284, 54.971567094950686, 52.354054547926694, 48.37910052432451, 47.11110241772233, 57.87079945338419, 48.2040908822946, 49.46286646742323, 46.68623819892804, 48.6819637662844, 51.432883675192215, 45.21055357317918, 50.30519810427914, 52.230539055610016, 54.944073293081075, 49.13409217847092, 53.26539440256823, 55.45983722695172, 46.41069954913765, 48.58706054434809, 56.115375269530844, 51.437654093011034, 49.58572296710376, 47.274915114443594, 51.29852153593057, 47.909488914585154, 50.01567772316827, 52.955673562044794, 45.81766342726273, 57.89297378044002, 45.915598739481744, 54.332372586111035, 50.87912363036469, 51.761318948145615, 52.3963648949153, 56.794707322620624, 54.5090531105151, 49.058018299898364, 51.74568555503024]</t>
   </si>
   <si>
-    <t>[55.3782065897005, 48.55437374057918, 51.66251504777582, 48.25620265050224, 51.88919886029197, 51.48856018226418, 50.21795416724855, 50.765112062563944, 49.16968341103834, 47.12706021140773, 49.073200257580034, 52.0171927205821, 55.27870550624277, 50.56899733953164, 49.14028943432002, 47.10117913983519, 57.14249511102325, 51.06744211885827, 46.344001009974406, 49.80052246420489, 51.02276503997196, 50.8662501955317, 47.529134003687076, 48.53823301895589, 53.957315679303385, 54.058636691135916, 46.59696392730982, 51.31854533969484, 57.98505790424598, 44.364022194101736, 51.52009711512331, 53.804573974483404, 51.68340173070997, 46.99635933613329, 47.21657774726923, 50.29525032083281, 44.8405629889579, 56.16389756044365, 51.21449502586169, 49.2036879343593, 58.50185698473267, 42.59150598149072, 52.37060397145401, 50.601185202078774, 50.29845742079975, 49.994266594695844, 54.01099303586623, 54.707801107371836, 50.051695936767096, 50.232292477163384]</t>
+    <t>[54.397289299974545, 49.42530412711845, 51.29448023165378, 47.03821662721075, 52.02783806626176, 52.620471154524054, 49.94756784304013, 50.08329213630195, 48.413043300350985, 47.7965790891802, 49.47047974094636, 51.848892281478356, 55.572109479884354, 50.840232284951966, 48.26013661014292, 47.09342830692566, 58.28150740620398, 50.198338947968566, 46.12962586488506, 49.518453987582646, 50.237118763108086, 50.002401357957574, 47.525722958857415, 48.71784401872945, 56.02515744067879, 52.673992748104084, 46.493084825919105, 52.40389773359491, 57.85484138152068, 44.0521811315041, 52.87440128007787, 53.63328697193748, 52.25617763399232, 45.35794060506919, 47.69023336402075, 49.98268794894225, 44.711688544768265, 55.458227423309516, 50.90841603259682, 49.05714244747968, 58.24409925058533, 44.22950368488351, 53.00676248436211, 51.899606010889826, 51.07229977328868, 50.919041073840646, 53.45464863311061, 54.62189839098444, 50.452428935500116, 51.12118678584055]</t>
   </si>
   <si>
     <t>[50.255884256212134, 47.2782460286966, 49.48825212486177, 44.20332325765738, 50.87266036708364, 48.808407570458215, 45.38581518210913, 47.659739856569196, 47.551421321880206, 44.202281737874145, 43.5509007070564, 48.51429668356779, 52.792162373650214, 46.57900169836203, 47.68135579619954, 44.59746700852285, 56.98327630732841, 47.038268315013454, 42.137395136469436, 44.92095661841834, 47.08135229299191, 49.21775416883084, 43.46527825928489, 48.1866486132192, 50.1246689548417, 48.812794912009835, 43.077477668189246, 47.67198005839769, 49.3544744541334, 40.19217469782933, 47.57343079862858, 51.44812231768732, 46.70092048313306, 44.266134984106884, 47.8407100081915, 45.809817806364514, 41.65615197509645, 51.456335628343666, 47.405234863522494, 50.280610742380496, 52.53568238752162, 38.98035915058121, 45.318617246348865, 48.810248539551445, 46.35584198088514, 45.553757244155335, 49.356166068819675, 55.405566179026735, 43.884528762153955, 44.94904376847943]</t>
@@ -1687,13 +1687,13 @@
     <t>[61.465699585959534, 55.53434705655955, 49.513295938828094, 51.38109681579674, 59.57919150950388, 54.76780537311421, 53.49210608109057, 59.44639621817985, 55.31831777478298, 48.92450318441532, 59.9637257501815, 57.006151604620314, 60.868177925553766, 52.35709841099134, 55.6688363924138, 55.12050976140358, 60.88602087750919, 49.51121632650397, 54.606241966298924, 54.088272668023116, 54.50964624872175, 57.495421722674266, 52.55591860352964, 54.1991418307648, 54.055438561474986, 55.09888419732804, 53.39520114597171, 59.236115860232, 58.098113212273844, 52.685066964525774, 51.715819428485815, 60.57685589763349, 57.984348522970414, 52.415813750182295, 53.258241453879236, 49.91763388716309, 48.949632590782294, 56.22890847472364, 58.69313209881445, 50.149298339088396, 57.59172469679479, 47.61379197411939, 59.95026723608331, 55.31322501541452, 56.77959251214686, 59.173223165627086, 59.962038756601615, 54.62329662041984, 53.861901655536236, 51.73069141905006]</t>
   </si>
   <si>
-    <t>[52.074312874964235, 51.69080368906456, 47.125487796044794, 45.041681742918364, 52.12838450784989, 50.261158796588475, 45.48049256484128, 51.161789367273094, 49.87508743301769, 46.45354602170311, 50.873436093291346, 47.27619446017014, 52.30228488118729, 52.46391560812778, 48.36201061433521, 47.655991812588624, 55.71050672642982, 49.97744816028415, 45.9792649982584, 48.221763342532505, 50.68351935490394, 48.10297580580445, 46.85212770733934, 50.98256020487003, 51.147073608362255, 47.58753312258708, 46.397205846713575, 51.2042454290092, 53.452902485861, 46.79483014567906, 51.89415851840192, 48.12770852912608, 47.73314431338677, 47.503920836190375, 46.553176929577994, 51.529427894197376, 43.83896270933239, 48.988092950121015, 50.10721724850253, 43.1847426952286, 52.41857259981697, 44.32063731896602, 49.727609491542374, 50.813348816766684, 45.49353096179183, 50.354506774024706, 51.0864206179337, 48.884113286816344, 45.085867165295035, 48.49319525453376]</t>
+    <t>[52.074312874964235, 51.69080368906456, 47.125487796044794, 45.041681742918364, 52.14478590325025, 50.261158796588475, 45.48049256484128, 51.161789367273094, 49.87508743301769, 46.45354602170311, 50.873436093291346, 47.27619446017014, 52.30228488118729, 52.46391560812778, 48.36201061433521, 47.655991812588624, 55.71050672642982, 49.97744816028415, 45.9792649982584, 48.221763342532505, 50.68351935490394, 48.10297580580445, 46.85212770733934, 50.98256020487003, 51.147073608362255, 47.58753312258708, 46.397205846713575, 51.2042454290092, 53.452902485861, 46.79483014567906, 51.89415851840192, 48.12770852912608, 47.73314431338677, 47.503920836190375, 46.553176929577994, 51.529427894197376, 43.83896270933239, 48.988092950121015, 50.10721724850253, 43.1847426952286, 52.41857259981697, 44.32063731896602, 49.727609491542374, 50.813348816766684, 45.49353096179183, 50.354506774024706, 51.0864206179337, 48.884113286816344, 45.085867165295035, 48.49319525453376]</t>
   </si>
   <si>
     <t>[57.84041637992466, 53.97960877810912, 51.63418275572724, 48.65297587897932, 55.729233728563045, 54.16012579874839, 52.68200010811631, 53.97406784907243, 55.08510287302486, 47.328838974179746, 51.59146480745542, 56.11629534543336, 57.04521207828302, 54.97490048286586, 51.15263047550563, 49.30121954075647, 59.02040762237175, 48.90585950798812, 52.11983165628752, 50.91937057459916, 50.85696951565855, 53.56902252333873, 45.02407705846255, 54.405384452222975, 54.88676684115162, 55.99480224489825, 54.406530559914245, 55.838973971256145, 55.485374284551355, 47.44713026912909, 49.62452240128693, 58.933075579045166, 51.98952653313067, 53.55005388376825, 47.50244177160179, 54.03786055760512, 50.36691360459166, 51.998705503936755, 55.76162923991259, 45.657189200203284, 58.9162229018847, 44.26190016702381, 60.35537892664522, 54.755196554629606, 51.77965369435343, 56.47246648445999, 58.67192954519404, 53.506825419018945, 51.94518732747982, 51.763153713249345]</t>
   </si>
   <si>
-    <t>[60.414268820405674, 54.07439154435865, 53.42144859035659, 51.35334874991081, 55.96748053027899, 53.56941655680612, 51.932166669738606, 55.21721234451203, 53.33461104616863, 51.31979990770369, 56.46674350002435, 54.654330621326245, 57.1700968908252, 57.38283146546225, 53.17945613732875, 52.35397990312855, 58.92684823011115, 52.5651994208499, 51.78189213282749, 53.950751839567275, 51.33691706599031, 54.113206844298176, 49.83915394401091, 54.458863519763575, 59.57896396739362, 55.57796154738222, 53.173341781724346, 54.08884284434513, 57.42004115023419, 49.977989346913844, 53.1170695421898, 57.50893147544947, 55.934493650388845, 52.346172154213775, 53.63758180451064, 52.712333775734905, 51.2467307459759, 57.13764788844499, 56.345920453595525, 49.86584762391175, 59.65893787154009, 45.808691684199694, 57.453014055000494, 55.95531970949564, 53.40467671050576, 55.60178734480239, 57.99946545235332, 56.08580372056938, 53.59384402050546, 52.66362400099483]</t>
+    <t>[59.379817495256646, 53.950416769889344, 53.687278722850635, 51.50247035080711, 56.471532247401534, 54.395942515059815, 52.18928093931737, 54.91854177376884, 53.10367115530497, 51.496500567335815, 55.847031821591806, 54.0286569079898, 57.28613375842235, 57.08303718478934, 52.74232457020738, 51.681217612056116, 60.32672440542814, 51.80631440427025, 51.65498692190312, 53.42544249329512, 52.46486254842593, 54.29915369222365, 48.95428488361654, 53.728113586877576, 59.33229061721206, 56.035764707377744, 54.03996256071491, 54.59802619992051, 58.22660059284391, 49.71290582432001, 53.44833296744487, 56.714512264766746, 54.44334376418931, 51.73740605628281, 52.90220372426337, 52.41682146970154, 51.190531589436404, 56.545050626015495, 56.43792348958935, 50.12922519781061, 60.32054231213107, 45.6798729128046, 57.43378006896195, 55.27792727416865, 53.67210034686379, 56.44442462268387, 58.384566928948686, 56.86872929449081, 52.046972313932066, 53.93411984836306]</t>
   </si>
   <si>
     <t>[61.68050587838818, 51.208114859690305, 50.91996440208948, 50.70290266033218, 55.647712047561825, 48.8851311984458, 52.301683610682424, 52.2483515731902, 55.77724754846143, 49.38747236283872, 52.03438228516711, 54.505064435514065, 58.3349442907944, 58.7740815803279, 50.664302578914786, 47.91795433568389, 65.65229374625466, 48.209360851393384, 48.85947773416994, 48.51818221020604, 47.645765474587094, 54.05624359175151, 47.87397966007942, 53.06615756046159, 59.96763160203286, 50.546263128514354, 51.866415639997946, 51.44188909236622, 59.892768502216576, 45.95646840498853, 47.53239285322046, 60.454401887433804, 60.5960004108037, 50.74601620287764, 50.72898486442717, 50.95783369599595, 50.53427737428266, 58.85321073991979, 57.448639184099875, 45.37327802273595, 59.84913819648532, 42.83849678190329, 54.862967406600845, 55.19781766878286, 56.01612405558349, 54.410617810954214, 55.64290796634238, 58.100442215086446, 53.41451096297253, 51.045926928614435]</t>
@@ -1705,37 +1705,37 @@
     <t>[53.372552621267175, 53.18927978451128, 52.35327130550966, 48.82010282034221, 51.97111528096991, 49.31198165192788, 50.452719206833706, 50.05036100332453, 50.660265496663044, 52.75455403114468, 52.78359247093611, 52.97656764965236, 49.57744025245863, 51.74622357174489, 50.06336136164924, 50.38858552736461, 52.039413021365746, 49.911449642939836, 46.63238011752216, 53.086497448067135, 50.78150550115659, 50.864817520281406, 48.18347416604102, 46.12489660740755, 50.22296992287182, 53.00121917802842, 50.57172978858095, 50.61228343614575, 56.019931750656895, 47.552906487721984, 45.09166390146109, 51.706260834593785, 50.57468505137181, 50.9373413897553, 52.593462286006, 51.56016180644779, 46.47633593546139, 53.58681501065486, 49.7420413228356, 53.773383379185496, 55.96567608132559, 45.0723261505381, 54.27821501366172, 50.365652762641844, 50.3351711110996, 53.315639984681276, 55.39982775835043, 49.92945897347899, 49.709190137743704, 46.81860027950254]</t>
   </si>
   <si>
-    <t>[53.96403527608754, 48.69246376811594, 44.9790943698849, 46.88612465140794, 50.80182864718206, 53.34093094640055, 47.22349802371541, 53.14873900334197, 50.26342078706917, 46.35470154991501, 50.579402628021896, 50.8508704352791, 52.43995371890619, 52.760398125605036, 49.92568814235933, 45.850894863396675, 51.78566138720784, 50.92460260287855, 49.1908889248572, 50.6788745869558, 47.310937007396866, 49.45610671936758, 47.18784584980237, 49.7254743083004, 52.903449947170124, 46.780896491425906, 47.36819821486109, 48.3055533596838, 51.99746053098336, 45.82355283959335, 52.998438844429096, 49.25057657681459, 48.4148023715415, 50.06415640539917, 51.31432806324111, 52.81147361318756, 45.835640805259885, 49.926120004895694, 49.67956670676184, 46.32152159534798, 51.30423529384618, 44.85430037384681, 52.624245704983764, 51.87172510753144, 46.48063241106719, 52.27630434782609, 52.962826095397475, 48.87034513397676, 49.8309411206085, 49.22119195287004]</t>
+    <t>[53.96403527608754, 48.486666666666665, 44.9790943698849, 47.409195673814594, 50.80182864718206, 53.4148943264183, 47.22349802371541, 53.14873900334197, 50.26342078706917, 46.518049849444175, 50.579402628021896, 50.74224507001324, 52.06628730887403, 52.824429142346254, 49.92568814235933, 45.316994461250445, 51.78566138720784, 50.92460260287855, 49.1908889248572, 50.6788745869558, 47.310937007396866, 49.45610671936758, 47.18784584980237, 49.7254743083004, 53.00442336990456, 46.780896491425906, 47.36819821486109, 48.3055533596838, 51.99746053098336, 45.82355283959335, 53.02271427054918, 49.25057657681459, 48.4148023715415, 50.06415640539917, 51.31432806324111, 52.81147361318756, 45.835640805259885, 49.926120004895694, 49.67956670676184, 46.353993177670255, 51.30423529384618, 44.85430037384681, 52.624245704983764, 51.87172510753144, 46.48063241106719, 52.27630434782609, 52.962826095397475, 48.87034513397676, 49.8309411206085, 49.22119195287004]</t>
   </si>
   <si>
     <t>[51.922210977752755, 47.695594217770655, 50.81277380163108, 48.267294387820016, 47.71544476444624, 45.98268184163703, 48.745305341044286, 46.825540557542034, 47.864148955305474, 49.052387358463356, 49.57194062710155, 51.47346224878586, 49.23517247279773, 48.183424308294306, 47.7300765112938, 48.18205534500071, 51.02893542808176, 45.31511153904214, 46.30531077749005, 45.13011589862633, 48.90301529615188, 50.38558262403812, 44.68454026905154, 44.17241134383248, 53.0723878308472, 48.68559692710657, 48.19893780133444, 47.31324904168098, 54.22246963261252, 45.55919128349685, 45.591680426229615, 51.538795615377104, 48.83274674600397, 48.314064798844285, 49.633652172471116, 51.73831202594274, 47.40569915962116, 50.992435194292135, 49.37319117621918, 47.82572017736035, 53.48457974395179, 42.34870088208779, 53.02899751870193, 46.25845474428529, 47.43788084468634, 46.365798579211805, 53.315718677441524, 49.49456540421538, 51.06773280075639, 46.661522389424015]</t>
   </si>
   <si>
-    <t>[57.414107568360166, 52.57784028730123, 51.45509054303144, 49.89615673382042, 54.222044565689636, 52.03171766982346, 51.10939518775469, 52.28851402755747, 52.82238997538623, 49.78105978720864, 53.52394496770076, 51.64502507706975, 56.58784010917992, 54.91612400962786, 50.98639984244454, 51.26197078411592, 58.83674949536777, 50.09977097290893, 46.72333845022391, 51.78148594120155, 48.82801055344437, 52.19863715325897, 47.56587448161178, 52.19967647861027, 57.7383291822414, 54.50192589020694, 51.60104306057347, 52.82430818434032, 58.139390936504945, 48.42602857371733, 51.42516290296644, 56.2783818780994, 54.739949279084556, 50.78220697034677, 50.94618325730549, 50.37059370115215, 50.24418511384217, 56.29896051549561, 53.78611887123187, 50.367355767106275, 57.84441700934879, 43.1643464851512, 56.33918110375125, 53.60523269585563, 52.582932413385514, 55.25667892849445, 55.065148610688425, 55.09117595219266, 50.84926742265207, 51.02197046929827]</t>
+    <t>[57.90480659390835, 51.52833688431313, 51.24823894847076, 50.3765347900031, 53.15809611582316, 51.59872640898239, 50.36066668216486, 51.77556526377133, 53.513366433388896, 50.34163839280812, 52.811877430358855, 51.14520038864559, 56.41558928339318, 55.27690243913402, 50.61182345141417, 50.09101240965874, 59.136513304882726, 50.99948437783619, 45.67795591852646, 51.323799249772854, 49.435889683805314, 53.66746063742952, 47.404747027787735, 52.71265703374651, 57.58851353329542, 54.54841557673874, 50.66836862755904, 52.11073756371741, 57.1795515981197, 48.483212359121325, 51.25731402086169, 55.34851281850139, 54.52815230403754, 50.98460435138585, 50.05080094736076, 50.234733801809774, 49.900584029745986, 55.39055851425851, 54.20949298902309, 50.03560480950956, 58.53724364190835, 43.84353252705334, 55.60397084108429, 53.35301620724342, 51.76549170471971, 54.44991332540754, 55.48623131222105, 55.54691837094449, 51.65763769753323, 51.226952366156254]</t>
   </si>
   <si>
     <t>[57.89344025140694, 46.42471715572795, 48.87199398086005, 46.48727844268437, 54.548495412984856, 47.62083227240521, 47.654547815812904, 53.64771629529508, 58.252300135495624, 47.232642588106536, 50.51808278293949, 47.65282584148905, 57.474586626286566, 54.89814092357168, 50.05771205272599, 54.138469348048034, 57.15165067951669, 46.662993286419294, 43.50656888615001, 49.19946466764442, 48.735739295869, 55.622912650127184, 46.11576948203588, 48.63927212862158, 62.41894831947659, 51.05955514202947, 47.58685761862593, 50.10574394768877, 58.39566139673527, 48.78406998371418, 54.183797857228946, 54.70328100272318, 55.0407868947719, 47.65805397192009, 51.40488462523509, 47.06095431060188, 46.02501401232165, 55.88530774821405, 54.688880140206564, 51.76161238071004, 54.055128599928295, 42.631976508340344, 54.48654969792121, 54.744727347754676, 49.77659320122639, 53.205643414433304, 49.430764241727445, 57.45018377613172, 51.01081707400296, 49.07400471796631]</t>
   </si>
   <si>
-    <t>[73.39211879150832, 80.30346946861212, 75.49491843783174, 64.78061606468619, 72.8571549214868, 70.51108192259967, 68.90314618533259, 70.70439325308644, 67.64051606257576, 66.77943357712468, 66.59001407201163, 67.71097605642242, 76.98933298173799, 72.41684118436737, 66.41340412707976, 64.84405192134535, 69.66951735048539, 73.63543896002832, 64.09207161106279, 71.50717214229438, 64.82752472302903, 76.13971341076355, 69.35065367122502, 72.09858508774354, 72.25090511892066, 70.76761726793367, 68.48007547626534, 71.05102080640143, 73.84983993483881, 60.1391243425832, 67.36299809697324, 71.4968077678286, 66.71693380899562, 70.012846950152, 72.22191719714968, 70.05910658516667, 63.48694699253117, 76.27688076709828, 68.60958916605894, 65.21614187951775, 76.91783052839142, 63.06023556248584, 74.2065795034459, 72.62987618940616, 66.13868838826151, 71.74709346318511, 78.72273445825638, 71.6409313676378, 67.92306614400182, 64.83233155075418]</t>
+    <t>[73.39211879150832, 80.30346946861212, 75.49491843783174, 64.78061606468619, 72.8571549214868, 70.51108192259967, 68.90314618533259, 70.70439325308644, 67.64051606257576, 66.77943357712468, 66.59001407201163, 67.71097605642242, 76.98933298173799, 72.41684118436737, 66.41340412707976, 64.84405192134535, 69.66951735048539, 73.63543896002832, 64.09207161106279, 71.50717214229438, 64.82752472302903, 76.13971341076355, 69.35065367122502, 72.09858508774354, 72.25090511892066, 70.76761726793367, 68.48007547626534, 71.05102080640143, 73.84983993483881, 60.1391243425832, 67.36299809697324, 71.4968077678286, 66.71693380899562, 70.012846950152, 72.22191719714968, 70.05910658516677, 63.48694699253117, 76.27688076709828, 68.60958916605894, 65.21614187951775, 76.91783052839142, 63.06023556248584, 74.2065795034459, 72.62987618940616, 66.13868838826151, 71.74709346318511, 78.72273445825638, 71.6409313676378, 67.92306614400182, 64.83233155075418]</t>
   </si>
   <si>
     <t>[56.72100840873337, 57.571588003049854, 57.461997141219584, 52.33351803764502, 58.69785393830354, 52.65252768527061, 52.29877182012483, 56.07733006766415, 53.18540233116214, 52.80160260451796, 58.46418928637362, 57.20100593725846, 57.755926074557195, 53.91940673985404, 57.56743806509162, 54.19592230364284, 57.93862461530442, 56.77036273998836, 52.613973101711636, 50.673364508046284, 54.22137073458877, 55.20814043403526, 49.603330245481956, 53.849454708608434, 54.707797018217875, 55.94048260482043, 53.64139736273635, 56.575742975518345, 58.424005383076484, 52.45848517201797, 52.174074581185096, 58.63967304335641, 58.90753025036465, 53.5641225849422, 54.730254567237694, 54.42226350272788, 51.41911411656108, 54.86872283264986, 56.29892731608453, 51.40370599426855, 56.72481204166595, 50.303956540891775, 56.171958329629845, 58.536139567434056, 55.956686865554424, 51.80120862378082, 59.624076112429066, 55.43199165431382, 52.261461353804215, 54.85402473367242]</t>
   </si>
   <si>
-    <t>[52.33401250924162, 49.29319727177574, 48.34773832005201, 45.96462063978164, 53.0370167602897, 51.665418750648406, 45.13583451767063, 50.301129456368756, 49.107905138339916, 45.46990700042976, 50.95777428297808, 50.1745256916996, 52.26383399209486, 52.895107480409834, 47.73900061519306, 46.72408130614594, 52.09929501080213, 50.846383153795614, 47.09150197628459, 46.601120167464494, 48.24066356100068, 48.17736124131689, 43.32694218033497, 48.79553755857688, 54.81680874825021, 47.538099561826954, 46.240930198882694, 48.67016269480729, 54.96959157555199, 45.97968126855717, 52.79610433238903, 48.60660079051384, 49.80393618884945, 46.939378575199, 45.01920884130081, 48.962370277665954, 44.23538657801666, 50.22958494165423, 48.77820287239335, 43.94799961897219, 53.42274376230789, 44.2612316686003, 53.27340575940441, 50.009353721098634, 45.40268774703557, 51.6204019860855, 53.7763401943678, 49.4160623555011, 45.01468389366383, 48.553069284684256]</t>
+    <t>[52.33401250924162, 49.258797251374936, 48.34773832005201, 45.85552973069074, 53.0370167602897, 51.665418750648406, 45.13583451767063, 50.301129456368756, 49.107905138339916, 45.46990700042976, 50.95777428297808, 50.1745256916996, 52.26383399209486, 52.895107480409834, 47.73900061519306, 46.72408130614594, 52.09929501080213, 50.846383153795614, 47.09150197628459, 46.601120167464494, 48.24066356100068, 48.17736124131689, 43.32694218033497, 48.79553755857688, 54.81680874825021, 47.538099561826954, 46.240930198882694, 48.67016269480729, 54.96959157555199, 45.97968126855717, 52.79610433238903, 48.60660079051384, 49.80393618884945, 46.939378575199, 45.01920884130081, 48.962370277665954, 44.23538657801666, 50.22958494165423, 48.77820287239335, 43.94799961897219, 53.42274376230789, 44.2612316686003, 53.27340575940441, 50.009353721098634, 45.40268774703557, 51.6204019860855, 53.7763401943678, 49.4160623555011, 45.01468389366383, 48.553069284684256]</t>
   </si>
   <si>
     <t>[56.82638680266119, 51.7798933919225, 52.26945326037465, 51.48552211299024, 55.39954764961321, 49.22186636666108, 49.393258143964815, 52.78790951322052, 53.974793208477685, 48.30814782875082, 52.6827377437949, 56.3847131702366, 54.218045563916064, 56.27153427979183, 50.30323335786263, 47.75006948875108, 57.75942395246341, 50.890993968881006, 50.086126630786396, 50.61075088540185, 50.24747932783278, 54.17759480726672, 44.848842142622416, 50.94853653444661, 52.03737402946814, 52.67907377478964, 53.94110210631692, 51.33308573291318, 56.67805960974198, 47.42022692271845, 50.95562628968365, 55.71535748297733, 52.562943551034074, 52.27761767703633, 50.942337609698704, 49.53696306611287, 48.01153291996007, 49.97013278803839, 50.55141680724607, 46.29394062736511, 59.25448859206976, 47.34424920374378, 56.232852856887575, 53.27855543233608, 50.17410213161783, 53.76306514255733, 57.851655537203285, 56.320487936339795, 50.865964927195876, 52.40970039028772]</t>
   </si>
   <si>
-    <t>[59.396888526937154, 51.337421757812635, 49.30842544081436, 49.8389346295029, 54.04225644414869, 50.10127029076955, 48.52357841154036, 51.61901348696208, 50.98804480520435, 48.038017291174484, 50.06529815986382, 52.35836633045214, 55.82734450303358, 55.25425958297942, 50.43782207727585, 50.19456495954139, 57.258556862124884, 51.27171837288008, 44.79084124099863, 49.73961515268685, 48.81778916152789, 51.88338532893291, 47.76255765561524, 53.130199291967514, 57.03540219581042, 54.82135623240619, 51.64980018852184, 52.397154389125504, 58.04290370593351, 46.81061753521543, 52.58810979744678, 55.4466214681953, 54.51049311863933, 49.920969059920466, 51.068948634496785, 48.60285549727525, 49.82169611236085, 55.22242944821229, 53.04705560450267, 48.450424962351285, 57.02436575810854, 42.26321496886662, 56.172363832958524, 51.97893074756009, 51.74681463081315, 54.535300998592334, 53.69410320186823, 55.2093605121643, 52.03394845797584, 50.50151876794328]</t>
+    <t>[57.78694926546119, 50.85186976014888, 48.79112528027392, 49.70698342006974, 53.80744637668447, 50.70141752231224, 48.59074661322687, 51.937226547640535, 51.90705741433679, 47.92495761770935, 50.666810182823596, 52.74708401459274, 54.45290288137403, 54.469767842018975, 49.87337050153478, 49.05454075683101, 58.39751523480743, 50.96817631149732, 44.23755053921097, 49.93336665296143, 47.86887701228324, 51.94268312607721, 47.53404106402931, 52.18918257514315, 57.286133324655374, 54.586400268783066, 50.844934542273606, 52.49010552011977, 57.89954999443163, 46.57380298536415, 52.81648546833959, 55.463297870680336, 53.65553833026995, 50.764495668341375, 49.60886980684972, 49.948690560650235, 50.13369786694221, 56.27137898413544, 53.61240573228351, 48.470206614488895, 57.10407941396884, 43.770318889892465, 56.610745422348785, 52.22503048128679, 51.546474966571694, 54.524219582781825, 53.192941451596184, 55.79026771182579, 51.385146549820476, 48.90720384891293]</t>
   </si>
   <si>
     <t>[58.78769596336387, 50.51941885861483, 49.855063648751596, 49.494776982544906, 54.298649276462, 45.40270904827495, 45.02862185874004, 53.06186876447775, 54.480243454318746, 49.63072213436775, 46.045377575192056, 50.47691709239492, 56.427604115339136, 54.074126956542955, 48.864461914710844, 53.214411316294914, 57.99846877343098, 50.74319986776872, 40.676589086856765, 51.66696352299023, 47.50761988164879, 52.86654839391294, 45.72414175003413, 51.808400067303026, 56.051077123197175, 54.506119102282014, 48.42232393076297, 54.78190702560862, 52.59670716960439, 46.304839796888025, 53.51596096212685, 58.44258334088231, 56.305142864483614, 49.60602804104801, 51.2793023088704, 48.01591305536715, 47.03360429432081, 54.36432591509913, 56.648142575350676, 50.910530948808535, 57.232962494047264, 40.941773608927676, 53.66590775320181, 52.68582402790959, 53.55643588100027, 54.874178308479394, 49.709594549096145, 60.55311588362743, 50.746841504244, 48.62257750816496]</t>
   </si>
   <si>
-    <t>[65.76050067831393, 72.02735861755266, 68.31570294808004, 65.73278495543937, 70.02660444079845, 63.338771189265024, 64.71628160263921, 72.15177086579074, 63.31017652774083, 64.90371237210759, 68.42165648795236, 68.63058945056729, 73.29863336829285, 65.82082133473506, 64.73416805758814, 61.708989412835955, 70.45381239813607, 67.47436936697066, 64.28805508965715, 68.21566871346539, 64.13388630868351, 66.2130821505117, 69.37988045305657, 61.40658902710662, 71.85810835238433, 68.36552082122667, 63.827249709904336, 69.61234119636474, 82.35035531385667, 58.32869802842026, 65.49436544948166, 69.1546024246395, 65.5009900471545, 70.03859415839399, 65.49226380033794, 70.2108721914731, 61.813767476560564, 69.60060895431972, 67.52279025384799, 63.43915260207134, 68.44012065231401, 61.163515613652386, 70.1833238590846, 64.95406104625945, 69.10578426226684, 68.65635838907994, 70.25859299012615, 68.9492829147417, 63.90286095608709, 61.60210507256545]</t>
+    <t>[65.76050067831393, 72.02735861755266, 68.31570294808004, 65.73278495543937, 70.02660444079845, 63.338771189265024, 64.71628160263921, 72.15177086579074, 63.31017652774083, 64.90371237210759, 68.42165648795236, 68.63058945056729, 73.29863336829285, 65.82082133473506, 64.73416805758814, 61.708989412835955, 70.45381239813607, 67.47436936697066, 64.28805508965715, 68.21566871346539, 64.13388630868351, 66.2130821505117, 69.37988045305657, 61.40658902710662, 71.85810835238433, 68.36552082122667, 63.827249709904336, 69.61234119636474, 82.35035531385667, 58.32869802842026, 65.49436544948166, 69.1546024246395, 65.5009900471545, 70.03859415839399, 65.49226380033794, 70.2108721914731, 61.813767476560564, 69.60060895431972, 67.52279025384799, 63.43915260207134, 68.44012065231401, 61.163515613652386, 70.1833238590846, 64.95406104625945, 69.10578426226678, 68.65635838907994, 70.25859299012615, 68.9492829147417, 63.90286095608709, 61.60210507256545]</t>
   </si>
   <si>
     <t>[58.53161099966593, 56.10734386729045, 52.38975944793896, 52.4374000662836, 56.02991594224689, 52.49009481004985, 51.422605035537835, 57.269301529282835, 52.554437860160064, 51.99302959630046, 59.499831578577655, 55.50487583741615, 57.22527557973808, 49.4841501464804, 54.970136737502926, 53.35021634697382, 56.02669767008189, 54.89912081500445, 51.332853553943075, 51.71881951372541, 53.80583173438646, 54.568828449042954, 50.273703115569376, 54.05191456736408, 56.54529551525924, 56.9543929382843, 49.41798661388868, 56.054886324177446, 57.23322839618079, 50.82090878407875, 52.17575214766375, 55.96835690901435, 54.9563696331047, 54.19341553783421, 53.03223344961812, 52.080438007094074, 49.7856488784024, 55.71663182481958, 55.5406965789968, 51.40094414784725, 55.52245085481883, 49.02653439329335, 55.93160364757682, 56.10145996629622, 53.761724243451795, 55.578408852125264, 57.54969786413138, 53.78136072816593, 51.08895470445968, 55.694256513066534]</t>
@@ -1747,7 +1747,7 @@
     <t>[56.403595307493006, 51.23873168312967, 50.66727138950612, 50.71911812081154, 53.06856402504883, 51.3251785232987, 48.583380235173244, 50.58656005793123, 50.1972431733514, 47.0078434372384, 53.77899650270759, 55.109125796446655, 52.52727961653147, 50.665208141935054, 49.00493624168463, 47.10572469078079, 55.342456385008724, 52.30423953787689, 47.99120966603743, 50.374566684750015, 49.84688585364618, 53.52909807351152, 45.02185051916301, 51.53916935827915, 52.942952389082144, 52.257515271008444, 49.05322227320049, 53.5707297271637, 54.984040924732255, 47.04143928102121, 49.774282261527915, 55.36886324267308, 49.931040711300135, 52.311034973743254, 49.897514950887185, 51.01770487533834, 49.57301042138026, 52.80793846646269, 51.49043373298341, 44.71144680622594, 58.521463228148605, 45.86376727669659, 55.325567999287, 53.36452602488275, 49.41325443045878, 50.81687699791627, 55.727843437062255, 54.121092123416815, 49.80033652027767, 53.47502882813585]</t>
   </si>
   <si>
-    <t>[56.476204233064266, 50.318897364035045, 50.33575969962103, 47.58033574544839, 51.94532106801148, 51.555309828642045, 48.08803615819788, 51.4277053095751, 50.26491311437336, 49.22127114241202, 50.75660518147644, 51.44343739251305, 53.68688782736613, 51.30202340601024, 49.027988209214705, 49.125475197433026, 56.933577153143275, 51.08234111011119, 45.52518517031683, 48.96535430177751, 48.78741546516776, 51.45110763650418, 47.9332638705088, 49.58061263113957, 53.52144393322676, 53.30930361596154, 46.15492130618177, 51.64532690044781, 56.15810259459065, 45.290188907186035, 51.91504219331389, 53.23041298036966, 52.02114176407857, 46.67903339664667, 49.17291251454679, 49.35710798053588, 45.34349500495935, 54.54938231924075, 52.33470214077472, 47.75823314450164, 56.95343635334327, 43.60870387336161, 54.45383776426836, 51.148178936156775, 50.795880078514315, 52.06863618029122, 52.525975947762184, 53.872254064714426, 50.508661300388816, 50.47950979290337]</t>
+    <t>[56.438161556940756, 51.60019096553928, 49.32387158156776, 48.22564719841906, 52.387640127749364, 51.60831088931957, 48.53963044004487, 52.0634346330953, 49.93705868245089, 48.93462841607697, 50.103232614190524, 51.05589199296351, 54.42018416698879, 51.040873974467004, 49.11772959485852, 48.1375453891404, 57.687115572457685, 50.99914701094707, 45.309784186988885, 48.25545907831605, 48.80422477021844, 51.250818068924254, 47.60175705488373, 49.84928462065854, 55.26819079893157, 52.507979569499284, 46.31375442971121, 52.41417728299242, 56.59644548707263, 45.14262510070628, 52.43518171691507, 52.59080775762243, 52.44287845301248, 46.11954582885782, 49.552713057716836, 49.526140033969206, 46.03187037539899, 54.80921323212035, 52.67327034206473, 48.35121439618787, 57.1171362716801, 43.85453807640638, 53.91283765529404, 50.70960866451343, 50.23805724351506, 52.02932131795812, 51.97803061462762, 54.31034142350843, 49.68229236802229, 50.65293081026645]</t>
   </si>
   <si>
     <t>[53.57225570558088, 51.09847770630606, 49.91836456819014, 45.6117424580231, 48.223181656019484, 48.496099846278256, 43.76216596565698, 50.07846164854148, 48.05165933510061, 48.83186002180982, 44.95616016601857, 49.89924574508969, 53.55699540843134, 48.906508279581786, 46.657755787551636, 49.75190215536728, 59.68136965680028, 47.97245337640815, 42.89587021084171, 47.600703556829764, 48.16630726729457, 49.88162665958932, 50.241364915568845, 49.35946958100843, 51.331180141735445, 53.80084461102844, 42.75279449293265, 52.11162835908973, 49.77359348462976, 45.16557686168686, 49.976557731232624, 52.02620909909486, 48.78616018811705, 43.3839107729041, 50.032201247276525, 44.92047347774619, 43.62426379235837, 56.60275863308209, 49.46278802705848, 51.56112889497176, 56.87985911870662, 42.30392199599224, 49.48422281589433, 51.34793647841502, 47.89098666070478, 48.95949151970181, 49.282145306696535, 57.12756557359054, 47.23512244514798, 45.07111635170435]</t>
@@ -1759,13 +1759,13 @@
     <t>[60.20586285322355, 54.750273061600254, 52.557397055526124, 51.951573756707816, 57.4601893447673, 53.674641669400216, 52.160233849108046, 58.03898613485514, 54.40296424575403, 50.65803097496157, 59.25104334724021, 55.28858590800254, 59.219301338554146, 52.00874653200829, 54.82782875682267, 54.476540070886344, 58.14617477233577, 53.93907831131113, 53.08661688019619, 52.50481426003957, 54.83090185521913, 54.16692675458533, 50.88414679017844, 53.28546958660688, 57.52534157433702, 53.68157006681237, 52.32432988351072, 57.45082629574746, 58.02410875753992, 51.49884261407785, 51.20109059159781, 58.785378531823675, 57.4345545819135, 55.18870388832065, 53.477898595975695, 52.157126228978406, 53.083027852995066, 54.91267804085104, 59.28820404621439, 50.93406550203203, 55.668754558840746, 50.45701939305063, 57.745268783393385, 55.69406958973228, 55.12136061054504, 56.373516201482246, 57.952335566945315, 52.8689372884066, 51.769467167765605, 56.602999936769024]</t>
   </si>
   <si>
-    <t>[49.77768848229293, 50.096139657444006, 47.59995672495208, 47.06533850710156, 53.35355934513721, 49.33050281406149, 45.53367477377948, 49.100204372179974, 47.167267033841405, 46.38483618542072, 49.776305575216995, 48.24452044270019, 50.783267148971404, 52.23517116272062, 47.46513279144857, 46.90703254181436, 53.25033872239144, 49.77019174466418, 45.370203984416, 46.22420403835848, 47.39712450973417, 49.03851856311716, 45.274909793255375, 49.10003103820271, 52.563805928586405, 46.971639582157025, 44.529257836826964, 50.26229249011857, 53.69511218097283, 45.49892431445911, 51.5796744900484, 47.00706246580648, 49.60821454300507, 46.946637468663596, 48.17834556100527, 49.67303090196526, 42.91552341014057, 47.77906008591978, 49.58413890204165, 43.98643880575116, 49.45960155750616, 43.94817772565968, 51.17966323849693, 47.10427080873684, 44.27548089591568, 50.58997290733255, 51.78437997428396, 47.12685770750988, 44.8431830932711, 49.64370700033918]</t>
+    <t>[49.77768848229293, 50.096139657444006, 47.59995672495208, 47.06533850710156, 53.35355934513721, 49.33050281406149, 45.53367477377948, 49.100204372179974, 47.167267033841405, 46.38483618542072, 49.776305575216995, 48.24452044270019, 50.66141375247802, 52.23517116272062, 47.46513279144857, 46.90703254181436, 53.25033872239144, 49.77019174466418, 45.370203984416, 46.22420403835848, 47.39712450973417, 49.03851856311716, 45.274909793255375, 49.10003103820271, 52.563805928586405, 46.971639582157025, 44.529257836826964, 50.26229249011857, 53.69511218097283, 45.49892431445911, 51.5796744900484, 47.00706246580648, 49.60821454300507, 46.946637468663596, 48.17834556100527, 49.67303090196526, 42.91552341014057, 47.77906008591978, 49.58413890204165, 43.98643880575116, 49.45960155750616, 43.94817772565968, 51.17966323849693, 47.10427080873684, 44.27548089591568, 50.58997290733255, 51.78437997428396, 47.12685770750988, 44.8431830932711, 49.64370700033918]</t>
   </si>
   <si>
     <t>[57.91006772610782, 49.99115006182447, 53.89462936065512, 50.9986378922096, 55.15169934783959, 53.47026370173197, 52.05374320099294, 52.42326933775625, 54.35116195213335, 48.202551611178706, 52.42404606160392, 56.32712391268431, 53.70031499559627, 54.084980349231465, 50.780290329486924, 49.116843237242655, 59.90287431905752, 53.0207910395791, 50.6159996055937, 51.48158569523832, 50.71521996892225, 52.51705075376159, 45.73190420257814, 54.069674836590174, 55.01547327597704, 54.28371990638967, 52.775406082627114, 55.343342623612514, 55.24652169794738, 47.23623459719511, 50.068623801030974, 57.652023670015204, 52.38148022795015, 53.40814952154311, 50.2529408634416, 52.278066112116065, 49.4288369866692, 52.92732759854256, 54.5454991196108, 44.530841772777194, 59.000479638440694, 46.91953284104125, 58.95228130903433, 54.71431768230427, 48.943638646054936, 54.278779914483025, 57.74311189568105, 52.073591823487206, 52.20487598235998, 54.10098925236237]</t>
   </si>
   <si>
-    <t>[58.757810168327026, 53.469914007847066, 52.42708854166487, 48.89194684430101, 54.672073414510486, 52.01994212198947, 49.92370619746494, 53.83935139546194, 52.69668368186774, 48.81088107267586, 54.41704613488973, 53.001960910168165, 55.62747369129785, 56.341878294570826, 52.163593996837314, 51.568812183873526, 58.65313349502729, 52.27718285867977, 48.61047705053305, 50.65483217312944, 48.89204618996992, 52.08792751765905, 48.50898065141635, 52.90606253293208, 57.65553246914269, 55.078817826619726, 52.28772015299988, 53.90714380510192, 57.20368487849985, 48.882994287251655, 52.66911099191102, 56.094024441630665, 53.43883498375861, 51.47596714764934, 49.99603084676106, 52.29759093515736, 50.52711811066854, 55.893808223803305, 55.90404162813403, 48.989549036832834, 59.02019468616099, 45.05848117773009, 56.37575917179, 54.08051652755537, 52.282896806007855, 55.00725776696157, 55.02180705148319, 55.2054254204502, 51.842564036926284, 53.505200335595895]</t>
+    <t>[58.81922730600255, 52.33618523766702, 52.79430200969553, 49.92511247215939, 54.50191025821707, 52.42739067566866, 50.009980796949435, 53.38870628433597, 53.251085906304596, 50.113154845839375, 54.27572932168031, 52.011351556586064, 55.942135702721245, 56.79023904466719, 52.42248296843407, 51.0749308693597, 59.00111448259584, 52.327063174308215, 49.06371899126363, 49.831251424524545, 49.943573840507014, 52.70397816525848, 47.24684182168972, 52.987511148322675, 58.83360673458865, 54.50776548975212, 51.780717358881326, 53.93623970263883, 56.00845138429312, 48.858756566100226, 52.651968838948235, 55.857448317908755, 53.92123238314723, 51.841539241751875, 51.89408020697134, 52.748359373781135, 51.271069303859235, 54.331312935229334, 56.2742922642153, 49.57355721548633, 58.39546865789255, 45.17630815429122, 55.0829345807899, 54.56893836542431, 52.33975707096327, 54.07945483689922, 55.88520913497268, 55.37703595981709, 52.402781410566206, 53.333386203965475]</t>
   </si>
   <si>
     <t>[60.39977186292292, 51.93254148128947, 50.790318593111905, 50.55840112708775, 56.806299450821555, 50.96297537980815, 46.719673948825104, 55.7883957321936, 57.04866674943403, 50.31603478035908, 51.442507675155824, 50.730052293977245, 53.316941181567344, 61.105359697605785, 50.20697328698494, 54.27841498288241, 60.0624346790389, 50.495604192108026, 47.18538185172402, 54.228627113673994, 49.125611217332924, 57.68003703528241, 49.63256845888884, 56.16845325394581, 63.87154757503464, 54.55718601468052, 53.35895033342565, 54.95760865671362, 57.26035781196926, 49.95397036857756, 54.467496356737946, 60.19112589055842, 56.36964716014184, 50.47416833387532, 51.21260954061516, 51.89603288382881, 49.28708228386438, 56.77560436610647, 57.350192585368404, 50.152423809337996, 58.58446831073686, 43.63122709193249, 56.185584712198136, 59.365240354575654, 50.54790807098267, 50.43251837357231, 53.78798697577163, 58.439451182670744, 52.405385826774264, 52.73539189166231]</t>
@@ -1777,49 +1777,49 @@
     <t>[51.815594113932136, 49.31603700215051, 51.9886038200945, 48.29386611261287, 52.85222894708453, 47.22737203579552, 49.26920429131708, 50.74600017262534, 52.260361114785155, 51.176822251158534, 52.15860829169641, 52.15397249657584, 49.53631388960056, 49.062691296414314, 50.72400937757707, 49.27017819285785, 52.81148032403636, 50.1876050023252, 46.20186465109595, 51.85425395356136, 50.9395916472745, 51.07422472015195, 46.434528128374005, 46.06511977377819, 54.86470171705999, 52.0623519264941, 50.434709611493744, 49.029335047409056, 57.03301158789818, 47.34941664018135, 45.66657483465733, 52.787061057382004, 51.22601785832558, 51.03715386459906, 51.48309794777443, 51.643456393908956, 44.38558265283709, 52.78306093580352, 51.352651232378335, 53.26366669090693, 55.14349598708575, 45.070868822630075, 54.76781501837898, 49.01925842163349, 51.069169725615005, 53.77533818268527, 55.24220477881922, 49.541533473656465, 49.4282494054864, 47.489137229617086]</t>
   </si>
   <si>
-    <t>[54.28379184492577, 49.550745199569164, 47.434180850369685, 49.56828844921159, 52.683438735177866, 55.004234649307065, 46.110948616600794, 52.95823451910409, 50.26072928280925, 50.35848953484959, 50.80556947995153, 49.798537549407115, 50.339031620553364, 53.406404428695645, 50.84799736495388, 49.84709906051194, 52.97586297760212, 49.89508289938098, 48.612687747035565, 49.476308354247536, 48.754002029581194, 49.51061264822134, 41.210869565217386, 52.97238491480708, 53.05157393497973, 47.424119554640455, 48.583708359299585, 48.60745350655322, 51.92835693206572, 48.32127799736495, 48.665009881422925, 50.571620553359686, 49.29177865612648, 50.30236610302937, 49.77826732146809, 49.04365686320743, 46.7591563954516, 51.44336195879846, 49.6362066066348, 46.08723031169056, 49.40327206093082, 46.73630548800261, 52.27074522363448, 51.594102766798414, 48.400326086956525, 52.21818292241674, 53.24123806069393, 47.48088666015332, 48.91149806941277, 46.92856765117658]</t>
+    <t>[54.28379184492577, 49.3140937323546, 47.434180850369685, 49.56828844921159, 52.683438735177866, 54.794933046426266, 46.110948616600794, 52.95823451910409, 50.26072928280925, 50.66363636363636, 50.80556947995153, 49.798537549407115, 50.339031620553364, 53.406404428695645, 50.84799736495388, 50.01378623076964, 52.97586297760212, 49.878742707555624, 48.612687747035565, 49.476308354247536, 48.74116178829327, 49.51061264822134, 43.849846306662215, 52.97238491480708, 53.05157393497973, 47.424119554640455, 48.583708359299585, 48.60745350655322, 51.92835693206572, 48.32127799736495, 47.49922266139658, 50.571620553359686, 49.29177865612648, 50.30236610302937, 49.45909090909091, 49.04365686320743, 46.7591563954516, 51.44336195879846, 49.6362066066348, 46.08723031169056, 49.00037351020618, 46.73630548800261, 52.27074522363448, 51.594102766798414, 48.498053359683794, 52.21818292241674, 53.24123806069393, 48.32375628798845, 48.91149806941277, 46.92856765117658]</t>
   </si>
   <si>
     <t>[50.87711347933318, 47.66723419252991, 49.504978781051776, 46.89515354808894, 47.90412790269202, 45.415973753647776, 45.20138647256889, 48.451146300618284, 47.90234970204992, 46.047748543012965, 47.742879595251665, 50.12987993014649, 49.07366953824167, 46.4661249769858, 48.36057384950051, 46.89687824512693, 53.84832752810941, 46.239974630143955, 45.74638658213445, 44.72120085724625, 47.907236616093556, 50.665674940901546, 45.46842372192403, 42.57346543833965, 55.508122699433954, 47.55319011738215, 48.98475735437033, 46.16029885758295, 54.827018905632926, 44.15149990713186, 45.73060005597182, 52.095552638557855, 49.05345757134907, 48.71019613696029, 47.65460755315299, 51.273866132061315, 45.44653870599609, 50.79991560596646, 48.42146025789481, 46.74749501806325, 53.95863453253634, 43.92051316736363, 52.40226272810511, 46.79992616928359, 48.13623336581245, 47.230956114860994, 52.98667474747316, 50.14980992395598, 49.51469832213591, 45.14864198827759]</t>
   </si>
   <si>
-    <t>[55.16655470048427, 51.15191999942825, 51.168094144570674, 48.20575742320139, 52.606966026068925, 50.72718648257603, 47.38461230272211, 50.04555087414944, 52.16125706264258, 46.8888711741343, 53.47148220685492, 50.13214416758243, 56.19757319674407, 54.197938045979924, 50.2534897733439, 49.16115530370917, 58.47951507519158, 47.28178713508205, 43.55510171303024, 49.01075956067815, 47.05651389618689, 52.55589486676648, 45.885665361933476, 47.63122644664512, 58.9220152187023, 55.16398737614676, 50.70279999536528, 50.5524106133336, 56.638551065399994, 48.647621663646575, 46.754121290183775, 56.05042248035554, 54.1463904133435, 51.34223065391184, 50.29480829442166, 49.99357178325967, 49.46965379000524, 55.468952633029915, 50.450835076470355, 48.730302940361064, 58.01209779535702, 43.45030881683318, 54.658820786420506, 52.21205844691842, 52.39618339911688, 54.65212534368652, 55.334688397380134, 54.56957552942627, 51.42357817568454, 50.45402990584252]</t>
+    <t>[55.81105217195113, 51.77865803147521, 51.123055540073224, 48.624530167126636, 52.95170635330949, 51.08096057783105, 48.426349181212444, 50.90615532894704, 53.2126482868257, 46.524481731116644, 53.86584177767212, 50.75983492457652, 56.23242085157917, 53.47014254031833, 50.290048432191675, 49.22708275536247, 57.880385307385666, 48.19664201498854, 43.67556861858275, 48.49837587966467, 46.16623119453288, 51.608893117415185, 46.29112382090407, 46.99825747541674, 58.65828031348002, 54.468158958304, 50.4333929777204, 49.8666778209816, 56.67297052898205, 48.475390174338244, 47.241382769691974, 55.48317562587577, 53.98714472400339, 51.647332063204736, 49.87372553719681, 49.85972540994593, 49.123020278277544, 55.885944213469564, 52.11467110945877, 48.163388970772445, 58.53252383333662, 43.56070124504369, 54.52826343798731, 51.63660667150425, 52.50624851136577, 54.502262652812554, 55.340282373941214, 55.18231520339869, 50.39518378056719, 51.45940754729762]</t>
   </si>
   <si>
     <t>[52.084371483014976, 47.60549016538816, 48.88549857158435, 42.971667680702666, 53.00144950173118, 45.690330749180006, 42.67244957151149, 48.96787352731577, 53.25382455034219, 42.143574882100225, 48.5050954710542, 44.79000335180712, 58.657840641685155, 52.35870777578693, 47.15498329328454, 47.79034228091184, 51.407685336652, 42.49699589148812, 42.236993105213635, 40.49947103408014, 41.009891910251426, 50.38083165933963, 42.75699508538831, 47.82689261726711, 56.5704770697718, 50.356028728824356, 45.855696383088, 46.5319851672508, 52.47259842461748, 46.475175561264095, 45.21697880937177, 51.40487161689125, 56.468844628315196, 46.89948150921245, 44.7135985491304, 43.445652956001375, 46.25356585517702, 48.85190452651073, 52.156324644503385, 42.78532329385931, 52.387578514461, 40.856236396005514, 50.10965361734624, 46.51998883695942, 54.25884000249531, 51.24806157394831, 50.489703979774895, 54.521506639412735, 47.26461404611941, 51.2393432466409]</t>
   </si>
   <si>
-    <t>[73.23400819313407, 61.075434482727054, 71.88986976388824, 74.17559162325935, 72.3185683079352, 69.81108162503679, 65.51463271206167, 74.78540695141987, 73.95783123465927, 65.61645099685609, 68.88627451316746, 65.45318208902083, 79.50394264780071, 69.48841761920792, 65.56637820942932, 64.31986828634106, 70.97183581960475, 72.56290885457466, 68.39612302243043, 73.98675202073994, 68.61405406101947, 75.19300952483917, 65.2854822042252, 71.55494011062675, 83.08485076965475, 74.4444002393475, 66.89803721353181, 69.16206712349853, 75.20396215708709, 58.00410213181741, 62.52296940107683, 68.18409789147529, 76.95207670372308, 72.6809019948884, 65.96000100286628, 74.9526680342437, 65.77181592300877, 65.70214103201836, 75.07584499369094, 63.5946406841435, 73.70795212654278, 62.72643893724929, 77.31041666784083, 72.24270032084942, 66.59921929162321, 70.77349040103147, 76.06905335997978, 72.45600322673144, 70.89574652081384, 64.80667450051736]</t>
+    <t>[73.23400819313407, 61.07543448273164, 71.88986976388824, 74.17559162325935, 72.3185683079352, 69.81108162503679, 65.51463271206167, 74.78540695141987, 73.95783123465927, 65.61645099685609, 68.88627451316746, 65.45318208902083, 79.50394264780071, 69.48841761920792, 65.56637820942856, 64.31986828634106, 70.97183581960473, 72.56290885457466, 68.39612302243043, 73.98675202073994, 68.61405406101947, 75.1930095248392, 65.2854822042252, 71.55494011062675, 83.08485076964462, 74.4444002393475, 66.89803721353181, 69.16206712349853, 75.20396215708709, 58.00410213181741, 62.52296940107682, 68.18409789147529, 76.95207670372308, 72.6809019948884, 65.96000100286628, 74.9526680342437, 65.77181592300877, 65.70214103201836, 75.07584499369106, 63.5946406841435, 73.70795212654278, 62.72643893724929, 77.31041666784083, 72.24270032084942, 66.59921929162321, 70.77349040103147, 76.06905335997978, 72.45600322673144, 70.89574652081384, 64.80667450051736]</t>
   </si>
   <si>
     <t>[55.7416304144099, 57.54145496719129, 56.18079171469227, 53.64986986318288, 59.86661711063857, 54.71504137434363, 52.66025743668431, 54.307472962397526, 54.24046336729847, 53.83328560769898, 58.07520520184782, 58.7696286136278, 58.60143003406815, 54.31270501872763, 58.12305357610431, 54.143194084903975, 59.13825107112498, 55.48048274224717, 52.74314484106086, 51.97510188288295, 55.13510326532016, 55.41258869402052, 49.89369011564162, 53.71536429002329, 61.72092719594557, 57.48118272738689, 54.92874969218212, 57.01198760686219, 60.674490124270804, 53.54973830252929, 52.858041767402256, 59.85914376692197, 58.46388753413537, 54.4245970536157, 54.74706974746357, 53.954461076509894, 50.74784273525318, 56.03344324122851, 57.439781307586465, 52.31393134834292, 58.47225439027716, 51.28899620664164, 58.590752210717575, 57.93717558418632, 52.194131410673435, 56.01935545109781, 60.201093353810975, 56.62914397454515, 50.56625566166317, 53.86316478017926]</t>
   </si>
   <si>
-    <t>[53.88233201581028, 50.4921785356028, 47.196541501976284, 47.510765713165874, 53.59453156613532, 50.90679128484264, 45.7757661470542, 51.89313277532919, 47.39740182692619, 44.97511710943722, 47.86075919121764, 51.78197625545279, 53.41699604743083, 53.586439225607094, 50.12898252109519, 44.73579206971012, 49.99903729959726, 51.78575098814228, 49.1397720506468, 47.451086956521735, 52.216235630931145, 47.40780672979308, 42.99588421574918, 48.62390338812551, 54.670931747672725, 46.28554898155899, 47.42060929368576, 49.13650856389987, 54.14825166903288, 44.06921887405018, 49.61193675889328, 51.123833992094866, 51.3537743909907, 47.655475936845235, 47.53010522196875, 49.178964545583185, 45.271044966239785, 49.82244548812841, 48.56366564804587, 46.01495526408091, 51.547941812091594, 45.58081509322881, 52.825419825080004, 51.08531384272469, 46.77600790513834, 50.11255949069984, 48.82636675808377, 48.64138156352053, 45.09671918688076, 47.20877236453235]</t>
+    <t>[53.88233201581028, 50.30019109909289, 47.196541501976284, 47.510765713165874, 53.59453156613532, 50.90679128484264, 45.7757661470542, 51.89313277532919, 47.39740182692619, 44.97511710943722, 47.86075919121764, 51.78197625545279, 53.25415019762846, 53.586439225607094, 50.12898252109519, 45.04238598073208, 49.99903729959726, 51.78575098814228, 49.1397720506468, 47.451086956521735, 52.216235630931145, 47.40780672979308, 45.068347983865124, 48.62390338812551, 54.670931747672725, 46.34108864424758, 47.42060929368576, 49.13650856389987, 54.14825166903288, 44.06921887405018, 48.19098814229249, 51.123833992094866, 51.3537743909907, 47.655475936845235, 47.53010522196875, 49.178964545583185, 45.271044966239785, 50.019428537454026, 48.56366564804587, 45.34180306337673, 54.341381175563356, 45.501463246641904, 52.825419825080004, 51.08531384272469, 46.77600790513834, 50.11255949069984, 48.82636675808377, 48.64138156352053, 45.09671918688076, 47.20877236453235]</t>
   </si>
   <si>
     <t>[57.433166999370634, 54.63016184536433, 51.320062489868086, 52.30184404324147, 54.56558604608394, 52.68189042245342, 48.75612787954316, 52.81612114788472, 54.02617015331691, 49.546072618050545, 50.888429777383195, 54.400371190400065, 55.24881500583425, 56.342162778253225, 51.1493455796852, 46.25474737972706, 57.15002945475893, 51.874416808790485, 50.5066664194567, 49.85189443886763, 51.17965268617565, 53.77964173472519, 45.28989404386374, 54.53538803565975, 56.73932214607072, 51.72078383100027, 55.42794122658616, 50.05344736118, 57.141240902082096, 47.67222394761177, 50.94374848497434, 55.7032034207805, 53.14980501303389, 53.505078565113664, 51.19783531956888, 51.48420866830603, 48.90795711768142, 50.49998699078996, 51.9622464406144, 48.04644521716737, 58.98140391173174, 48.6930177957175, 55.95008480863889, 52.88368802713016, 51.29621180040944, 53.54499577453943, 57.97315655115723, 56.70320126975044, 52.087329555508276, 53.210004026687635]</t>
   </si>
   <si>
-    <t>[54.96067100308345, 50.86597406597028, 49.37481987342818, 49.350254235828075, 52.64676524251138, 49.76486496278669, 48.352027825947715, 50.1991376007869, 51.91993785170674, 44.191416702743616, 51.98920306141615, 52.23222281580051, 54.74492882879713, 54.260746488792094, 49.89857651825828, 48.750406955024296, 57.859845022750754, 48.58580813965676, 45.93906225293313, 47.2707293617044, 48.33091116174835, 49.818593073095414, 46.629669978767744, 49.24295792207931, 58.436153771140695, 54.503606152426585, 50.13382407435387, 50.637346218875884, 57.40680553259184, 47.09104368317573, 46.539409719343666, 55.821172544315324, 54.77599573301829, 50.846953466049676, 50.417303273781215, 48.09557871291186, 50.40435083558394, 56.14422810653632, 52.47457576729075, 47.36081996207349, 57.704554738477874, 44.02388812293992, 55.24253054784042, 50.03431645690313, 52.426629936847256, 54.75167644732596, 53.9147739149867, 55.23049610496529, 49.65091614655794, 49.54471124614158]</t>
+    <t>[56.556331680187725, 51.068302371993965, 48.9533384878059, 49.664399083455564, 52.928402958236305, 50.01455353283567, 47.08390412673378, 51.03549312590902, 52.205892430178174, 44.64850204033355, 52.39847647469596, 53.545436275527415, 53.44515677907866, 53.99569370543791, 49.009878560662955, 49.07707814284781, 58.06516075633154, 48.40828127776557, 45.12412494114413, 47.98552508681191, 48.89557233037142, 48.93336536492193, 47.270243230617595, 49.14738363693196, 57.673360493627776, 53.22225633712062, 50.11738263955594, 51.381897032124016, 56.75931142090801, 47.29426247663762, 46.11896636187828, 56.164802996786115, 54.44248463405614, 50.34280889168798, 50.4225198693812, 48.728997204863894, 50.200034587471386, 56.51088624600477, 53.23056497398534, 47.41520942162293, 58.3617557759802, 43.99178511416838, 54.56337073021173, 50.47964722865596, 52.1873770488606, 54.895354937069065, 53.74300668496213, 54.896201533700435, 51.6214913228128, 49.58155371817739]</t>
   </si>
   <si>
     <t>[55.503034459668186, 49.37367638870662, 47.5328152524624, 46.73594333482825, 50.624034180358464, 43.681019980087584, 43.51730940415454, 49.4123214163799, 52.45329373027025, 43.01045150151837, 51.73127718350632, 48.998150788258194, 54.887126766551624, 51.761312717015564, 46.15624543864736, 44.96151097317458, 54.74031846069065, 48.26609429717534, 41.727408490237515, 42.43459425161007, 40.40485295035622, 48.13217669191097, 44.673138038725725, 47.43410924023319, 51.612434344687486, 51.891995128972724, 45.03229824533575, 47.22716305668646, 49.60536766625204, 44.71565526427016, 45.95618312234464, 57.82642343400495, 55.015786400595196, 49.22813882872992, 45.45936881657174, 46.94563936708472, 48.12118477444404, 49.09904932285957, 55.18317215139216, 44.269261556727145, 56.395499484548466, 41.47954671505412, 49.447092914656686, 47.40566685687883, 52.68800819577907, 48.50419300395981, 49.58487700481188, 55.92629766207911, 45.931025952199704, 49.427337342382884]</t>
   </si>
   <si>
-    <t>[68.19712850887512, 65.84532640861127, 70.37239344443103, 71.5167897003954, 76.42791528906045, 63.253363818238014, 67.17994615339985, 74.8091059320668, 70.19979270655355, 66.47989810472197, 73.65589546706443, 66.85251811010764, 77.66042458411614, 62.40637920637603, 64.55471618923121, 59.12218518377638, 68.0024193757005, 74.05882710262682, 67.18420779626624, 67.20499948729767, 66.0238462695053, 68.14215859358762, 66.72562267232688, 61.809229787010295, 72.36031409019833, 72.25530468989, 64.24073307233712, 72.23104191707141, 82.41830143452744, 63.10148701883679, 66.92548178048597, 74.49303669782762, 77.27687027176748, 67.43245160259326, 60.155117751179965, 74.64082472130121, 64.46851349998411, 70.89969822575532, 74.05417657697821, 61.66895617278972, 78.01257969137501, 62.34285985600076, 69.84963102071814, 68.19211799100734, 65.91151603672587, 65.60427279087774, 68.59839782109415, 74.64609045425941, 65.99308286763348, 69.35183256829524]</t>
+    <t>[68.19712850887512, 65.84532640861127, 70.37239344443103, 71.5167897003954, 76.42791528906045, 63.253363818238014, 67.17994615339985, 74.8091059320668, 70.19979270655355, 66.47989810472197, 73.65589546706443, 66.85251811010764, 77.66042458411614, 62.40637920637603, 64.55471618923121, 59.12218518377638, 68.0024193757005, 74.05882710262682, 67.18420779626629, 67.20499948729767, 66.0238462695053, 68.14215859358762, 66.72562267232688, 61.809229787010295, 72.36031409018062, 72.25530468989, 64.24073307233712, 72.23104191707141, 82.41830143452744, 63.10148701883679, 66.92548178048597, 74.49303669782749, 77.27687027176748, 67.43245160259326, 60.155117751179965, 74.64082472130121, 64.46851349998411, 70.89969822575532, 74.05417657697821, 61.66895617278972, 78.01257969137501, 62.34285985600076, 69.84963102071814, 68.19211799100734, 65.91151603672587, 65.60427279087774, 68.59839782109415, 74.64609045425941, 65.99308286763348, 69.35183256829524]</t>
   </si>
   <si>
     <t>[55.93798235122288, 56.40039999728759, 51.3495058313237, 53.06030839331184, 56.95454228846806, 53.483205688130546, 50.908714409456124, 54.208984764659895, 51.85991240048611, 51.70808414972996, 58.86904655671928, 54.06893205485583, 57.51990996582924, 52.32490468930124, 55.05723367929632, 52.57034403003739, 53.25763463808141, 52.95420343462443, 50.58221994748626, 51.16938950155274, 54.52224533483595, 52.87139457829367, 51.1618389632851, 54.574096724508664, 51.49213082417653, 54.09413282105246, 51.545946115534626, 55.26577132724624, 58.3135702868412, 50.155045933454616, 52.89040269906228, 57.29608992523881, 55.73129835701991, 54.26011639853478, 50.69909151096336, 51.94875407654355, 48.25597848770282, 56.55686258931828, 54.39686900133502, 50.82754426728995, 57.36720635477648, 48.344626651597174, 56.38895422802794, 53.954878073638966, 54.26733259252025, 57.107776530400045, 57.73453440517037, 54.292941402947164, 51.994417906370586, 55.646256846585615]</t>
   </si>
   <si>
-    <t>[54.66740114855505, 50.866939582156974, 47.120683514698804, 47.68256714359143, 51.95683522712295, 52.454674322007314, 47.66048696368974, 50.93171588186946, 46.508013968007134, 46.850869565217394, 52.353633675504874, 49.47923355965323, 51.158101811251335, 53.07379342288446, 48.88747035573122, 47.10849824026234, 52.704005270092225, 52.370419462069364, 48.54995097753523, 49.04986365535118, 50.34958406032895, 48.37449275362319, 44.02238559084888, 49.929512017536936, 53.78694700370771, 44.85499015790496, 44.52826442485455, 51.23114678852251, 56.60436072386508, 44.102609111222385, 46.19309617918313, 50.219261443702514, 49.58688543095789, 46.79324768132197, 44.66923795660521, 49.48011552211379, 43.44386112173423, 49.185090839181655, 47.84757401042968, 47.29650317179399, 49.187612336235006, 43.70443839240393, 52.54105252049461, 48.80090412543139, 49.68027217648631, 52.14073122529644, 47.75805226998555, 51.66574465473285, 46.88114319954928, 49.19878992373491]</t>
+    <t>[54.66740114855505, 50.866939582156974, 47.120683514698804, 47.68256714359143, 51.95683522712295, 52.454674322007314, 47.66048696368974, 50.93171588186946, 46.508013968007134, 46.850869565217394, 52.353633675504874, 49.47923355965323, 51.158101811251335, 53.07379342288446, 48.88747035573122, 47.10849824026234, 52.704005270092225, 52.370419462069364, 48.54995097753523, 49.04986365535118, 50.34958406032895, 48.37449275362319, 46.09484935896482, 49.929512017536936, 53.78694700370771, 44.85499015790496, 44.52826442485455, 51.23114678852251, 56.60436072386508, 44.102609111222385, 44.742964426877464, 50.219261443702514, 49.58688543095789, 46.79324768132197, 44.66923795660521, 49.48011552211379, 43.44386112173423, 49.185090839181655, 47.84757401042968, 47.50367578276707, 48.99362467890446, 43.70443839240393, 52.54105252049461, 48.80090412543139, 49.68027217648631, 52.39851798638413, 47.75805226998555, 51.66574465473285, 46.88114319954928, 49.19878992373491]</t>
   </si>
   <si>
     <t>[54.05630822674793, 52.61422994530143, 49.95893184634669, 50.80041124486593, 52.16534832118693, 49.61321863114529, 48.63021421163287, 49.62815575990682, 49.261652178449125, 48.2137840022504, 54.11442203571155, 53.51255944086806, 52.8610615349614, 51.99286859423705, 46.86075775747612, 46.83204060151014, 54.876668289024394, 52.47172467768564, 47.62590375288816, 48.12459513317675, 50.627274826001724, 50.1296321771831, 42.97985709433797, 51.461749921486145, 53.20553188282584, 50.25679214717253, 49.90045200803887, 52.74422287311321, 54.21137814572406, 46.869280983775724, 47.856384112136915, 56.053300026343905, 50.22482276748455, 52.301181481643745, 47.587393461521586, 51.47516148633948, 48.920448524605604, 50.637788184212965, 50.64624632635629, 45.72944901228435, 57.36371588927327, 43.92053660379126, 55.613636588248575, 52.592006633940365, 50.11509140001249, 50.64881406040692, 56.177048899723744, 53.75784908382599, 50.077785496718505, 52.56168873594318]</t>
   </si>
   <si>
-    <t>[52.93842807153319, 50.646636569649516, 49.18500560684404, 47.73983848583208, 50.977729935686206, 50.784790955212074, 45.96419923119392, 50.810555484419105, 49.25967775898238, 45.503018738678634, 50.29194099567284, 50.6353506628944, 53.20874662453623, 50.132081588221766, 48.34774626064616, 47.69846816379337, 56.08365317806742, 48.45888601571358, 45.313421953729744, 47.44841284140442, 47.95153545932099, 50.741021224534684, 47.41296670100012, 47.18337053013109, 55.029815248827035, 53.02377789374333, 44.51845763998724, 52.05526539215958, 56.60109772510209, 44.8083886674237, 48.43676515016952, 52.91364575022095, 51.704478167972255, 46.63337367711523, 48.080138104844416, 48.64269658815524, 44.00310053113371, 53.811051404993655, 52.75556122929411, 47.93419819610592, 56.45964974653039, 43.55929833913778, 53.42923866733214, 49.67572988470827, 50.78132244884655, 51.01968390244945, 51.46401661959565, 53.78749570387398, 49.53170227051365, 50.72334380333005]</t>
+    <t>[53.04628627746526, 51.1974436366905, 49.19173999925109, 46.84679441823725, 50.21629710761432, 50.52164558087348, 46.846470425062954, 51.03627349565623, 48.36631184493949, 45.979632950420054, 50.06148977798055, 51.4759333991261, 54.08570740221286, 50.50312649377658, 49.153759130864614, 46.61134701029668, 56.73612940050096, 47.996026030674784, 45.60145773989221, 48.1064156094762, 46.95751700784329, 49.341797454546324, 45.98820023121453, 47.452099006025115, 55.144915438683405, 53.43180053259465, 44.40279139365224, 51.11708972022912, 56.77471917728034, 44.51951955255167, 48.27980798510672, 53.08800586850229, 51.55547595392684, 45.72972949625894, 48.21514565070875, 48.80081043890886, 43.80618090564123, 54.5882601920398, 52.09952494608323, 47.07374831989857, 57.07787010409212, 43.070435317381566, 52.23600415358205, 49.43378578383213, 49.94089637333199, 51.9377191315015, 52.01143420876669, 52.73049373208296, 49.51506650631604, 49.64257155540326]</t>
   </si>
   <si>
     <t>[44.671151025794714, 49.69402141691668, 49.680923407633784, 42.039573947695395, 48.80707050263175, 48.78460071126462, 42.46619363762172, 49.03699061879998, 44.484437153254575, 45.380453583638186, 44.08930423676261, 51.52448876844564, 54.33489164688841, 48.374974645531694, 45.84509406380032, 42.600709395276695, 52.84497098430815, 45.75860523751602, 42.97890454213139, 43.808708997583196, 45.55142506867058, 48.2610797313645, 43.643374553876434, 44.767516586507256, 48.94399144553384, 48.30848984616547, 44.49043746247122, 50.317568247984994, 51.40587363985687, 42.09867378657043, 47.7614133130703, 52.982646360585804, 47.20748433848143, 43.00223800681796, 47.6890581078209, 46.39616680891618, 40.33534564104947, 51.151085792586734, 47.80697791480264, 45.06617587440099, 54.8237735600528, 43.75081068348037, 47.86385048055837, 48.306623394856814, 49.29928535734712, 47.86745134315943, 49.136839134118304, 55.87113248621522, 43.0799741928568, 47.391275630166874]</t>
@@ -1831,13 +1831,13 @@
     <t>[56.97071307940705, 55.16503936480622, 51.39328217894247, 52.52181363071097, 58.730343320924774, 54.484870258325984, 53.07650383366845, 54.61466497033503, 56.0358505205377, 52.217196759402285, 57.88021989011115, 55.96604995433779, 58.834245957500514, 52.25148310837328, 56.01302331793617, 55.027722024723346, 55.844704134820724, 52.33970334321962, 53.42742685456467, 52.2862063127615, 54.86779791303329, 51.597062221769775, 46.8826699904426, 55.7873917248926, 52.50914710149908, 55.25340158321359, 54.505008656899385, 59.029923088850055, 59.25407362527811, 52.30843542366349, 52.51634960345725, 60.7922809230203, 58.887036576888384, 55.68706689884755, 49.348577617566946, 50.47263122846754, 52.9058622786639, 54.832850782462856, 59.17502834140303, 49.741659682589045, 56.86209346762055, 50.34665739594176, 59.81063049147313, 52.42188166441715, 55.19984673145497, 57.094394337449806, 60.74191958029481, 52.9481486920806, 52.060983351417256, 51.95390947110707]</t>
   </si>
   <si>
-    <t>[50.10016387827502, 50.218207201921906, 46.79969758442237, 47.224088944292944, 51.623385915459494, 48.05298455348616, 43.7448561207595, 49.67878889702783, 47.8773699998268, 45.468959129348455, 46.752705820858736, 47.52233007774369, 48.18418972332016, 53.378739465188644, 47.28641403657664, 46.21760201109059, 52.3533524881082, 50.04032167359067, 46.37635949921485, 46.378663715187855, 49.23576340303505, 49.09725642284817, 41.552735739700516, 47.574639489715246, 53.36475075793743, 46.14088644752803, 45.26979847091527, 49.41970355731225, 51.32180468156547, 45.41506767763737, 48.6591699604743, 46.85085915207534, 49.246425337219435, 46.94127539821951, 47.30056984466129, 48.964971945575975, 43.08167765125394, 47.02174413432802, 49.80578282083686, 42.011717153966266, 46.33842530168177, 44.982811695962994, 51.19144953921905, 47.778008782419064, 44.68563806948908, 47.017500407241386, 50.31939199217247, 45.77672855568417, 44.057075580492565, 50.19505928853755]</t>
+    <t>[50.10016387827502, 50.218207201921906, 46.79969758442237, 47.224088944292944, 51.623385915459494, 48.05298455348616, 44.50907783514156, 49.67878889702783, 47.8773699998268, 45.468959129348455, 46.752705820858736, 47.52233007774369, 48.18418972332016, 53.378739465188644, 47.28641403657664, 46.21760201109059, 52.3533524881082, 50.04032167359067, 46.37635949921485, 46.378663715187855, 49.23576340303505, 49.09725642284817, 43.62519950781647, 47.574639489715246, 53.36475075793743, 46.14088644752803, 45.26979847091527, 49.41970355731225, 51.32180468156547, 45.41506767763737, 47.02353096179182, 46.85085915207534, 49.246425337219435, 46.94127539821951, 48.77877843807539, 48.964971945575975, 43.08167765125394, 48.10364226420687, 49.80578282083686, 42.011717153966266, 47.14820206654899, 44.982811695962994, 51.19144953921905, 47.778008782419064, 44.68563806948908, 47.017500407241386, 50.31939199217247, 45.77672855568417, 44.057075580492565, 50.19505928853755]</t>
   </si>
   <si>
     <t>[58.381244048390116, 49.147059040988744, 52.17046419776915, 49.33606532879585, 53.81896085153941, 52.31688465027403, 49.40603585143525, 52.45579690589757, 52.85895904723937, 47.231879943124, 52.249473603852515, 54.14239433591682, 53.296809047336545, 53.28261604298602, 50.79309068021072, 48.86198569938746, 54.829426946648695, 52.92800254813678, 49.88259736101138, 47.76389859558855, 50.44388503279338, 51.067103133996945, 43.912005448619134, 51.98517327010774, 53.298108401424244, 53.877654568894194, 50.74833827875172, 51.528314772086375, 52.40210263486298, 46.51645741326986, 50.3573619421525, 55.10109971183093, 51.88201542036586, 52.21264659546824, 47.76543494914111, 51.02964517968633, 49.01163877232834, 52.4637221791142, 52.71736701905762, 43.113740498545965, 58.01977542557721, 44.17121116071605, 55.95623664122974, 52.320369037070364, 49.011390501382024, 52.407734801022364, 55.74673904850287, 50.7031630167954, 49.70283445167691, 54.28338237260723]</t>
   </si>
   <si>
-    <t>[56.41347551172775, 52.5257611414728, 52.03631826783798, 49.97881844686738, 53.12700902534152, 50.86975881896834, 48.6644556462669, 52.990713839550025, 52.44743147010083, 47.12623749408281, 55.56479685248629, 52.50080192891407, 53.62244756862625, 56.51459248869761, 51.10333638496069, 49.887131837919824, 59.013286899252435, 49.76857084493349, 47.19527489393812, 48.89409302998057, 47.86192982889703, 52.98015934695295, 48.28111452290721, 49.98738788305327, 59.26566206148543, 55.21721728530984, 51.86340374244968, 52.10947331313754, 57.13045970398256, 49.1440320171748, 48.103466030888185, 56.987566333748894, 54.429089092012376, 51.4790075783509, 50.93124243719352, 51.53001870609224, 50.70090436363961, 54.57427354372548, 54.9347211161446, 48.01170834261, 58.648463856743625, 44.59576732873703, 55.729932123064906, 53.06046083525514, 51.95967454056116, 54.658839274475966, 55.02626474649088, 54.118358779134745, 51.85275077476049, 54.009871933044224]</t>
+    <t>[57.43890242644729, 52.701930309712225, 52.380105273841835, 49.142573509684595, 53.03272334698603, 50.97158908765678, 48.93541778785698, 53.09764679265834, 52.172851212231784, 47.13804534661937, 55.59379720677217, 53.035519923699496, 55.56747753631595, 56.24649213881603, 51.88824708423887, 49.496784396211034, 58.55394576276255, 49.342110325256456, 47.62232728516659, 49.0773013015767, 47.382256130123096, 52.469597929408266, 47.471412226501286, 50.467059599329545, 59.406697885822496, 55.386752178812436, 52.06679763336158, 52.13183140583411, 56.546594082059755, 49.02904671460986, 48.09000623302539, 56.92659289358981, 52.396087469775594, 50.331427012376125, 51.04481735033967, 50.521386842886145, 50.184011109509925, 55.595292330885584, 54.28539602646127, 48.3928598539995, 58.25329400735268, 45.41313660672729, 55.987871044718155, 53.59038811278655, 52.499518819466275, 54.80880936735258, 54.13103499853048, 54.787653561503795, 51.54191802301118, 53.47007749037177]</t>
   </si>
   <si>
     <t>[54.20435971339229, 51.0353200445816, 48.18818266514262, 46.26685827021542, 54.13720338738483, 48.44562563568236, 45.677401936270975, 53.57019524216181, 56.78358296827837, 42.98843803865636, 53.56306955382759, 48.169371276863004, 56.87924854293642, 53.0528014108409, 47.6628232643821, 48.68190292117153, 54.52541060436384, 48.931372594154865, 45.584649517300576, 43.910360751698605, 42.066067364112186, 48.949033292744005, 43.85942566460771, 49.971164808612556, 57.56803769658205, 48.151383465853606, 49.435294833277524, 50.866895435619725, 53.91415908391296, 48.20202570753135, 46.092619649110574, 53.43735619315046, 54.643129401602756, 48.05875188774742, 46.246798095401566, 48.657139843273534, 47.6154206528494, 52.349573236849935, 51.82432703960554, 44.02123884540301, 53.49607415776008, 42.17903707376111, 52.920195382461245, 49.24756945308489, 54.12176072011353, 50.849912157850305, 51.90238422940372, 56.47177757037015, 46.34041046444135, 51.341841708812794]</t>
@@ -1849,19 +1849,19 @@
     <t>[50.48823921576255, 52.04798983903892, 50.27602198259979, 50.0872547609903, 53.27040745111909, 48.348816624039785, 48.78132291143742, 52.150094838686925, 51.668236464912255, 51.49668908337632, 50.88983254206238, 51.01268595342678, 51.10686448104643, 51.635132815832016, 53.10921818710258, 48.62859494215961, 53.394282918482475, 49.480218419003656, 49.21621661064379, 51.61924101882981, 50.11388494898441, 52.17628782533129, 44.9820058955372, 44.81203636095507, 55.35454697038453, 50.30075775622028, 51.97488949430574, 49.73909853201906, 55.36141721728062, 46.697381267832064, 46.996273628327685, 53.35785147289114, 49.91137890083906, 50.16708219272145, 50.17873749970693, 51.913373569986575, 44.92568726952815, 50.409704915077086, 52.02695522511012, 51.29718058991, 52.9639899247769, 47.47249901608819, 51.87134406007463, 48.79581025485591, 49.905524498489534, 53.83682623297379, 55.440073173490916, 46.064318324526155, 51.744902539148555, 45.05844230870752]</t>
   </si>
   <si>
-    <t>[52.970443636574466, 53.07902503293807, 47.58316077892129, 48.79749011857707, 52.89904796102676, 55.86271739130434, 42.68988506781638, 53.16218708827405, 49.535849430432144, 50.1046837944664, 49.39429350387135, 51.33268774703557, 50.87974308300396, 54.38205533596838, 51.48469565217391, 48.07107543132391, 50.88486166007905, 52.79662905183689, 48.45797811091977, 50.35520717702251, 49.29403181858242, 50.669420289855076, 47.95692011441977, 52.208722606337496, 56.1849604743083, 49.92640316205533, 47.87474308300395, 50.79079051383399, 51.706024978838215, 46.274110671936754, 52.06992971602703, 49.7448418972332, 49.09696806578891, 50.51837157199818, 51.9255204908816, 52.95798023520043, 47.050350635269055, 52.11195440475008, 49.926417011934326, 48.69699657702172, 52.720163293741166, 47.44743884116002, 51.13370777090751, 52.92221343873517, 48.643557312252966, 50.576996047430825, 52.13861660079051, 50.32514460972254, 47.47507109271419, 47.77248487186337]</t>
+    <t>[52.970443636574466, 53.07902503293807, 47.58316077892129, 48.79749011857707, 52.89904796102676, 55.86271739130434, 42.667049183840405, 53.16218708827405, 49.535849430432144, 50.1046837944664, 49.39429350387135, 51.33268774703557, 50.87974308300396, 54.38205533596838, 51.48469565217391, 48.07107543132391, 50.88486166007905, 52.78540266613311, 48.45797811091977, 50.35520717702251, 49.29403181858242, 50.669420289855076, 47.95692011441977, 52.208722606337496, 56.1849604743083, 49.92640316205533, 47.87474308300395, 50.79079051383399, 51.706024978838215, 46.274110671936754, 52.06992971602703, 49.7448418972332, 49.09696806578891, 50.51837157199818, 52.03510604858925, 52.95798023520043, 47.050350635269055, 52.11195440475008, 49.926417011934326, 48.69699657702172, 52.720163293741166, 47.44743884116002, 51.13370777090751, 52.92221343873517, 48.643557312252966, 50.576996047430825, 52.13861660079051, 50.32514460972254, 47.47507109271419, 47.75526060042629]</t>
   </si>
   <si>
     <t>[49.49301313517721, 45.66686918234116, 48.461094183102894, 46.15408608397589, 46.20627528772114, 45.63166312112944, 48.54719735319419, 47.39109802220312, 46.66882890781211, 47.47750205011658, 47.59833245969947, 49.29243213647818, 50.38992164376282, 44.417325140985156, 48.21024991614878, 45.78216397826277, 54.68947748934388, 45.60147654346647, 46.61852647627188, 46.62314964554355, 47.927582888494996, 48.22334737421171, 44.70175684647954, 41.8196349072618, 53.65859585979281, 47.4697761707708, 49.064600818509454, 45.13959606621425, 53.99096920168233, 42.205736358881396, 44.83792114393052, 52.165082381630654, 46.62263423999098, 47.39918351319696, 48.81782949260974, 51.58736771081915, 45.19035885270924, 50.253406174996, 49.757028190876824, 45.231895632179, 51.445588957527626, 44.64265026172232, 48.77084443880475, 44.93401112307525, 47.739709402814334, 47.18783723844326, 50.355778522236236, 45.268275342512396, 48.70132609701035, 43.904189550462924]</t>
   </si>
   <si>
-    <t>[58.222592786159225, 52.94291534812727, 52.87069129435889, 50.000427193546706, 54.447227398616384, 53.72992202266933, 51.84498060903415, 52.981202364872594, 55.04263056506419, 50.100956206896726, 55.5635403314281, 54.87810028698971, 58.01769768119741, 56.4003962515442, 52.80984672474524, 50.42606315520414, 59.717953217563675, 52.9400169992568, 49.37185375580161, 52.379167308580655, 53.49170784066111, 54.033881506393854, 47.679069136111885, 53.529549979875256, 60.16543038928918, 54.65718395900863, 52.50021246838476, 53.10350686888903, 59.61260801928434, 48.210541178687905, 52.202897063914364, 57.35647472478939, 55.19875298699385, 50.62042725073676, 51.38436489325659, 51.65165112163196, 51.134424133305764, 57.20949205684019, 54.589538383124854, 50.45328203596599, 58.47236430747948, 46.98427840136053, 55.59273617007733, 54.667105552321516, 53.863583395960916, 57.14667867796029, 57.29976927057926, 57.71003666997118, 51.97604532758076, 53.276626562691646]</t>
+    <t>[58.665310039126496, 52.52128722820987, 52.34513264505792, 50.56827149240163, 55.1249483581622, 54.16482153965639, 52.01869754327771, 52.64205102186723, 54.78105488368408, 50.49557261726731, 55.334917598893924, 53.401949388935165, 57.66042123635849, 56.634738907486984, 52.48844705681962, 51.700114337465, 58.997440226850664, 53.539040410274914, 49.76451422459793, 52.04426613574267, 53.44704905546465, 54.61216051669764, 46.620532314263066, 53.666654153401325, 59.825709844211055, 55.347060863013326, 52.00871630313634, 53.16656560306385, 59.427059758487005, 48.51045465991314, 52.05830283416536, 57.066164024937464, 55.06995541619401, 52.19491336221554, 51.216775518502104, 51.746094728812736, 51.64806916060313, 57.04152444089567, 54.39386294947487, 50.003439858330616, 57.729343773908546, 46.73183101482043, 55.30528087898729, 54.53973327790986, 53.74641682895496, 57.06123889735527, 56.757459249399425, 57.0304962533919, 51.922362763101134, 52.949083599022046]</t>
   </si>
   <si>
     <t>[57.07477951117655, 53.580067085824, 49.962927769389545, 42.21396074227194, 53.325871663300894, 51.10766935717918, 48.6171789580937, 50.79022440966882, 52.65003153540872, 48.22882791421159, 50.00217951363726, 50.70825473822153, 53.31399382809876, 58.1422253978865, 52.57152053290205, 53.32751601893911, 56.79705622722038, 49.73335064746645, 45.61861916387505, 47.2680267469685, 47.3068389759893, 52.7342459136601, 46.304465242996514, 48.271974859576915, 59.143239355728085, 50.61854813835838, 50.04988089369219, 48.141555951687664, 58.06855048500031, 47.17640401817593, 53.037524487265486, 51.77198433450087, 52.93116215460857, 46.327942728883194, 48.795171992486644, 49.16225749788548, 49.58199306156324, 52.48210133684482, 52.20425525341109, 49.398039574378096, 51.09633347914624, 40.83837235077568, 53.089480607858285, 52.8085898083472, 55.53080955445059, 58.28033982861183, 54.41987516237341, 55.9448147721724, 46.84515552998296, 49.66527845812409]</t>
   </si>
   <si>
-    <t>[72.76671168398549, 65.68428719632342, 71.07968277993798, 71.16417292436725, 75.17502758077192, 68.98274459261054, 68.78583747210699, 71.7674663014576, 79.77262951085683, 62.317786492326114, 71.38154699388565, 70.20959182167664, 74.80219333880085, 80.99252664717088, 67.49336187955605, 70.4659137715556, 74.29704023094166, 71.63269387858696, 71.51026306324195, 72.31669056039871, 68.7524493541689, 76.32643713720987, 65.18298677107812, 74.35400853419026, 82.09636684923635, 76.4577922689539, 71.69361672866951, 72.00182185769533, 83.50468823695886, 66.7494759027276, 71.17079294638269, 75.10061193018998, 78.6220898360965, 69.82861217961647, 69.41313710178981, 76.41890685563558, 68.75880795124888, 79.13292348061603, 72.35084521935218, 68.7922229986187, 75.13349979275648, 63.82616381543501, 72.24173983478269, 71.29423561979178, 67.75642060525965, 65.05387921389085, 67.68289867125455, 79.75336516868506, 74.55128125210837, 66.24185381183999]</t>
+    <t>[72.76671168398549, 65.68428719632342, 71.07968277993798, 71.16417292436725, 75.17502758077192, 68.98274459261054, 68.78583747210699, 71.7674663014576, 79.77262951085683, 62.317786492326114, 71.38154699388565, 70.20959182167664, 74.80219333880085, 80.99252664717088, 67.49336187955605, 70.4659137715556, 74.29704023094166, 71.63269387858696, 71.51026306324195, 72.31669056039871, 68.7524493541689, 76.32643713720987, 65.18298677107813, 74.35400853419026, 82.09636684927641, 76.4577922689539, 71.69361672866951, 72.00182185769533, 83.50468823695886, 66.7494759027276, 71.17079294638269, 75.10061193018997, 78.62208983611933, 69.82861217961647, 69.41313710178981, 76.41890685563558, 68.75880795124888, 79.13292348061603, 72.35084521935218, 68.7922229986187, 75.13349979275648, 63.82616381543501, 72.24173983478269, 71.29423561979178, 67.75642060525965, 65.05387921389085, 67.68289867125453, 79.75336516868506, 74.55128125210837, 66.24185381183999]</t>
   </si>
   <si>
     <t>[56.13714381284886, 58.179224282583576, 56.2927376678083, 54.02105119935894, 59.600514192321064, 54.782586208075315, 53.04355561733418, 56.409501643026395, 54.13263699358582, 53.13962157950713, 58.124471570285245, 59.107667228158355, 59.88892055342406, 54.10114970392228, 58.4583396622755, 54.41489311837749, 60.15090259000597, 57.29425991225933, 54.054539644383155, 52.034927631668666, 54.796507481319644, 55.684589048950144, 50.75751665279779, 53.34986697485484, 61.09755888986497, 56.714834635484706, 55.249083953455795, 56.68842761127953, 58.77974897156258, 52.194202453418406, 53.22359044280488, 59.54357802738483, 58.731699364078416, 54.62239045169157, 54.80593636580377, 55.34182348299146, 51.12754844150582, 56.827114058162884, 58.28953225516676, 52.46832969913028, 58.48346158107056, 51.4336765359541, 58.15897461221666, 58.425220538375356, 56.743234683260695, 55.581428650616694, 60.06933333869817, 56.75834427488765, 52.739921005581834, 55.297839624111724]</t>
@@ -1873,25 +1873,25 @@
     <t>[55.668841748536195, 55.150763640640776, 52.22973208702545, 51.78592725129418, 53.376025731127015, 54.32366089906374, 49.801238072551165, 51.96126872646867, 54.48563201194438, 50.063439442176374, 53.1509918662493, 57.775217696879906, 57.14567246276748, 57.5666330644723, 53.382103163435275, 49.00477361254322, 57.247149408673955, 50.99297876511996, 50.982940932736696, 51.37754048915133, 52.360718213044834, 54.138225351537855, 49.89549830939203, 53.78874289904964, 58.148373063560555, 54.69819907837798, 55.82587726057441, 49.5824151140137, 57.029939702494744, 47.349966540671836, 50.69561733695772, 59.64878291109666, 52.730696194573184, 53.56938012472049, 52.889422748255626, 50.184404654561305, 49.810757141977106, 55.63883094849916, 53.903825526611605, 48.669728819846476, 58.842511816060515, 49.76303831088346, 56.139870174943, 55.35597145889799, 52.97985731025799, 54.8085261204872, 56.164898923060306, 57.19722801879791, 52.58818552935138, 51.865311017228215]</t>
   </si>
   <si>
-    <t>[59.76045099933617, 52.37688889322017, 51.38230389613748, 51.720012876188186, 55.35085507966073, 53.26643142748426, 52.49501679487595, 52.81663220337559, 53.416989594937036, 48.58474438576057, 52.769693359427706, 55.514129988979676, 56.49880595066088, 57.87066378258921, 51.35435460108359, 50.99490981792353, 60.00670680715656, 52.39228307311255, 49.07831555935197, 50.56942585432212, 51.57208355815264, 53.994729805796375, 48.321168581958844, 54.702406590210714, 58.55266764287161, 54.851381704263645, 53.9866044023841, 53.56937480091998, 60.13965205800376, 47.717497771305055, 53.669724628168886, 57.75468917882095, 56.078498490962396, 51.50223923801026, 50.24290702980828, 50.33994743433183, 52.13181981860653, 58.17316315801063, 54.100806108954245, 48.96876916792591, 57.99277239483949, 47.21958228221559, 56.77555663615192, 54.03906183590324, 52.99415603455092, 56.368906694766245, 58.73786946652213, 57.498227659446876, 53.22521626068708, 53.3574400894276]</t>
+    <t>[60.57328730749322, 51.498714572923745, 49.92918559718718, 51.61773918531615, 55.28825213636416, 54.73299706066729, 51.529021914568695, 52.77766413890015, 54.450616576715746, 48.34865087556484, 52.70371557356653, 55.71505839073037, 54.8209939298513, 57.82470448179875, 52.22869267695235, 50.49970310330673, 60.56111790627731, 52.58423275887392, 48.65773493243497, 52.07820198286281, 52.552737234277075, 54.19282900040567, 48.31664793410643, 54.831673815112914, 59.322786163995204, 54.535441929995685, 54.72136252397888, 53.103539081111045, 60.66523700613011, 46.4535697129283, 52.89852857176256, 59.43673903730628, 56.55433752198485, 51.256206117389716, 50.190017389334116, 51.35266342141167, 51.568091399844754, 57.97908591430537, 54.23451843895782, 49.62294635934323, 59.56453446856317, 47.11673686712252, 57.373997469847346, 53.57587363474776, 53.892063090203656, 55.9684524702721, 58.5837182711393, 58.084447595772204, 53.08782356233579, 53.4747757375073]</t>
   </si>
   <si>
     <t>[55.50216109566067, 51.82218864018738, 49.43804350464711, 46.06074779163707, 53.25770866077407, 43.33558831150824, 46.98869959703076, 48.874834543160304, 52.35423110773441, 47.850071026383645, 48.075094509332075, 49.339382677945224, 55.4374119694525, 54.10681212285762, 50.47057516346807, 45.006988624075184, 61.119399413459384, 48.72498380834406, 45.01280064533821, 52.1843421227376, 51.77626037100087, 52.65423836055952, 43.094634158997664, 47.60579087280003, 54.94190184973917, 51.864384846743846, 48.32527360584426, 51.26134001038291, 55.529132069222065, 41.89737769869476, 52.85032504168423, 57.860174251149296, 55.72195806209277, 51.485201910720036, 47.32659956400573, 49.13625962811496, 50.885940928138766, 55.402591442100615, 55.229350933331276, 47.19667735390041, 57.19970432055326, 43.06607808501353, 54.81160075888804, 52.86491966405875, 54.70149321394005, 55.756018197131255, 59.36250258988542, 56.71654158098424, 51.355110109351834, 45.945892352077806]</t>
   </si>
   <si>
-    <t>[72.72317863983645, 74.08357497056754, 70.26637304516451, 61.119004100556324, 75.96718743329866, 67.22894444412165, 67.81322022121735, 69.70526386712898, 74.32649159446011, 69.76614515105393, 77.83494154300381, 70.05411881731735, 75.60941942040468, 75.89471086641467, 70.4450426050773, 68.22303721514251, 77.70110340589278, 73.00014752997274, 65.60456858862203, 74.26067423083649, 66.91272824540259, 72.51749235989277, 71.26916793792326, 65.24524693241851, 78.6959477000174, 76.04054152187267, 67.37126035777608, 75.75027385409328, 76.33048782861235, 66.26719661298345, 70.37899199698772, 72.77383271676375, 74.67884770345229, 69.09216406941525, 73.05975998148804, 72.26905038600344, 66.41853394377236, 76.495284066368, 70.06428127966933, 65.02718708082028, 73.36657763191297, 60.6266902589975, 74.94716428509223, 71.98510831771866, 67.17117250028294, 66.09116799150661, 78.11671084734118, 74.62185998686597, 71.95981437775157, 63.75673136691264]</t>
+    <t>[72.72317863983645, 74.08357497056754, 70.26637304516451, 61.119004100556324, 75.96718743329866, 67.22894444412165, 67.81322022121735, 69.70526386712898, 74.32649159446011, 69.76614515105383, 77.83494154300381, 70.05411881731735, 75.60941942040468, 75.8947108664009, 70.4450426050773, 68.22303721514251, 77.70110340589278, 73.00014752997274, 65.60456858862203, 74.26067423083649, 66.91272824540259, 72.51749235989277, 71.26916793792326, 65.24524693241851, 78.69594769997977, 76.04054152187267, 67.37126035777608, 75.75027385409328, 76.33048782861239, 66.26719661298345, 70.37899199698772, 72.77383271676375, 74.67884770345229, 69.09216406941525, 73.05975998148804, 72.26905038600344, 66.41853394377236, 76.495284066368, 70.06428127966933, 65.02718708082028, 73.36657763191297, 60.6266902589975, 74.94716428509223, 71.98510831771866, 67.17117250028294, 66.09116799150661, 78.11671084734118, 74.62185998686597, 71.95981437775157, 63.75673136691264]</t>
   </si>
   <si>
     <t>[60.178709405771755, 56.81916995527122, 51.799671868037024, 53.86941560221286, 52.0925340962033, 53.5492873497662, 52.57124419303841, 51.94780304217684, 54.20843429535133, 52.870669709797106, 59.56705239298358, 57.97199808954603, 58.751617922787446, 51.64048843554533, 55.898075226734, 54.05530100556659, 55.20938662059592, 55.38929235534024, 51.44106486834333, 52.6732192435086, 54.72656233533422, 52.889032146392694, 51.25340458880627, 56.19118928328389, 53.46415888409109, 54.78832351076626, 48.99647405354252, 57.11426932920246, 58.43956128778801, 51.105053135174195, 53.26826284249323, 56.74919837006736, 56.385567675564076, 55.19628749224235, 53.48315919398258, 49.746713214317914, 49.51762831194971, 55.74796993265244, 56.515624181857675, 52.07703828050516, 57.1113925771686, 47.81363290170377, 56.960755421757334, 54.56830125911431, 57.40460648193986, 56.75594039034282, 54.65973782145081, 55.0250100270636, 53.47165460835345, 55.48725370440435]</t>
   </si>
   <si>
-    <t>[53.44823866490027, 52.655571957879275, 47.15960107234727, 48.84114652949823, 52.70809440002504, 54.16436372465216, 47.0145486007052, 51.88807320042073, 46.8926574652137, 48.339762845849805, 51.44068167907483, 50.491161806751144, 48.979446640316205, 53.50808959156785, 52.247235578664764, 50.19219188832772, 56.193032663650044, 52.55406380313675, 47.97365872210172, 49.55225704427064, 52.61605693778163, 48.901442687747036, 48.96685874479715, 51.08674764361422, 53.4519466995543, 46.25390684833634, 44.59902836493278, 53.149744034547226, 56.51493382474075, 44.98787107868553, 52.71311419191212, 52.56406739753569, 51.450297195385204, 45.54248691189029, 49.49655101511678, 51.84380253350091, 41.308406743826836, 54.30591710073535, 49.332438471795335, 48.486525867604755, 53.432860803842956, 47.712805150476164, 52.32381970158724, 49.55023897386275, 49.13060925795806, 51.514547476416965, 49.53944128520349, 53.658907503615424, 47.120728587120375, 48.56824680989606]</t>
+    <t>[53.44823866490027, 52.655571957879275, 47.15960107234727, 48.84114652949823, 52.70809440002504, 54.16436372465216, 47.0145486007052, 51.88807320042073, 46.64847826086956, 48.339762845849805, 51.44068167907483, 50.491161806751144, 48.979446640316205, 53.50808959156785, 52.247235578664764, 50.19219188832772, 56.193032663650044, 52.55406380313675, 47.97365872210172, 49.55225704427064, 52.61605693778163, 48.901442687747036, 48.96685874479715, 51.08674764361422, 53.4519466995543, 46.25390684833634, 44.59902836493278, 53.149744034547226, 56.51493382474075, 44.98787107868553, 52.71311419191212, 52.56406739753569, 51.450297195385204, 45.54248691189029, 49.49655101511678, 51.84380253350091, 41.308406743826836, 54.30591710073535, 49.332438471795335, 48.486525867604755, 53.432860803842956, 47.712805150476164, 52.32381970158724, 49.55023897386275, 49.13060925795806, 51.514547476416965, 49.53944128520349, 53.658907503615424, 47.120728587120375, 48.56824680989606]</t>
   </si>
   <si>
     <t>[57.74239327733325, 54.39898410723075, 50.31432906961172, 49.57986450408172, 48.17285018960577, 52.5325962749781, 48.30802926576757, 49.86619735234135, 50.02414438329551, 48.26838021131511, 55.691743887810425, 51.796783560939595, 54.44034411991097, 52.70652683072765, 48.54016873998987, 49.54713061346219, 56.43970613359251, 52.6541798238584, 47.536631794856554, 49.45902885217681, 50.786318924146386, 49.284157479618116, 45.54569613744799, 54.41721604519677, 53.871395633711494, 51.92738017574752, 47.10056598816146, 53.772533260460875, 55.140827827543305, 44.836980746787745, 50.054945787547204, 56.659067381201965, 52.7016825524687, 51.229397032571455, 49.188166839399685, 48.9905207746787, 49.92048257648109, 52.1046651361501, 52.92367937797057, 45.67116672472806, 57.0772156728479, 46.75919039921526, 50.17368875388521, 50.39265112918197, 51.47454646604162, 51.31391402941371, 55.0691792847813, 55.73837785569841, 50.65494440960231, 53.6762048774482]</t>
   </si>
   <si>
-    <t>[52.2996604339701, 51.006872376070824, 50.388869963647736, 47.264324686397245, 51.822904548806, 51.39631912814474, 47.858433915555594, 50.26336128012453, 48.96492514014813, 46.73430061185793, 48.544256401334586, 50.81383986732111, 53.46824669449619, 51.25183466405281, 48.813124965697526, 45.55045885055258, 57.17988905302261, 51.50306243674893, 46.852755514749546, 48.1749216520672, 49.59475596442921, 49.22319268872237, 46.11933235660079, 49.0907971265397, 55.47793329356548, 52.53303923379754, 45.584501072722546, 51.89294128435269, 56.76749144756077, 43.81293183852853, 51.9936670382256, 52.019022467106325, 51.77847985106992, 45.27477558141892, 46.28021213848875, 49.02015046925355, 43.01378535098806, 56.29858255353348, 52.725079961465404, 48.105662350961765, 57.50456371380359, 43.86622344626021, 51.877707534837285, 50.014005234050444, 49.799251002483494, 51.06394947242454, 52.53599103323769, 54.082578765554715, 49.898721474238116, 51.26104736379123]</t>
+    <t>[52.21992847291684, 50.84202998754264, 49.76553280068412, 46.86195601108148, 51.88129936861712, 52.14785865674671, 47.112743336494574, 51.2276812744071, 48.143892961684855, 46.638160860659184, 49.50296348299031, 51.62059179434493, 53.65824913887415, 51.022385772874166, 48.31051673203879, 45.011350421476756, 57.72914823253775, 51.974046556431496, 46.64862273231656, 48.81261672959383, 49.117803340334675, 50.03905577977489, 46.42690321155241, 49.66692068636155, 55.78622292936973, 53.35023006185848, 45.427125024835064, 51.9702711978875, 57.01494885752368, 42.83985935405643, 51.3361698362571, 52.162937895365374, 51.432353010751186, 46.6955941505895, 47.21147912067696, 49.71376840193834, 43.41526330152654, 54.59700468229188, 51.48031685121767, 47.893176514772904, 57.568975163845515, 44.28945460345986, 51.44002169920485, 49.29878583710299, 49.97020861678217, 50.94539233162409, 53.99526590178556, 54.89622521666091, 48.975334313577065, 49.80656199076705]</t>
   </si>
   <si>
     <t>[48.860690350513686, 51.31943605660449, 50.040849444423266, 44.09221357826188, 50.037044247412396, 49.354306398474655, 41.12738484816118, 51.2764726533249, 44.90121190187959, 44.2266854594159, 44.49547855789953, 50.351140617551536, 56.56833736208588, 48.49804635300466, 44.57891525871669, 42.46672170286594, 59.1307073808753, 48.151762216345595, 44.56761018851058, 42.47639284246995, 45.43269714717337, 45.48448247992474, 44.71286419917472, 47.4144358183367, 52.8321924010567, 52.3247700187717, 44.0633403670458, 48.97190715605091, 52.99789202663739, 38.579402846686925, 51.2871465425529, 51.7232168111688, 48.52853533758005, 44.9250831146768, 46.14540041369411, 46.31360416385967, 42.919291481199004, 48.489976119693566, 49.240142656107665, 46.85166093980842, 52.482107532373064, 44.67520861719908, 48.065363993738956, 50.70381236441993, 48.177279350672784, 47.055746899216544, 49.65077227309759, 58.4228821807982, 42.79258457613557, 47.41563950338853]</t>
@@ -1903,13 +1903,13 @@
     <t>[63.29647145059207, 56.001861014615294, 51.56666577910846, 53.97902905642809, 58.57187438510708, 55.105481953035486, 53.68091876849168, 58.748167962444356, 56.22199080911476, 51.696836347777094, 59.577163098820776, 57.22848293973482, 60.202821686018936, 54.097679758350786, 56.120483814426606, 55.04787731053415, 62.31034683623508, 54.40058905796133, 53.922386313061054, 53.45197449315158, 55.38929430456864, 53.385975003024534, 51.72225793188659, 56.45114660752556, 52.52381142107025, 56.51427206734627, 54.313019239514674, 58.5134967131908, 59.15735846224551, 52.28193863090379, 52.4217533180234, 60.213007168977754, 59.5611218162724, 56.484669469667686, 53.837890678646396, 51.39873757958035, 54.67113014966576, 55.40057920394874, 60.058285809446474, 50.82619346134683, 56.45034068645748, 52.860119199247734, 59.37150311843508, 55.62905797848659, 54.974504660521994, 58.37094577776391, 57.19717067917158, 53.5978341438896, 54.05897483495742, 57.66935899227025]</t>
   </si>
   <si>
-    <t>[52.047636490628314, 52.27747035573121, 47.51295721904263, 47.428980870322434, 54.94811629290316, 50.87788130030339, 45.63546867647913, 49.94291505731195, 49.00703011387307, 48.386305842048, 51.60141651758897, 49.173024284994376, 48.38322397568355, 53.544890841512974, 47.072936996043666, 49.30734828778991, 55.826149763947285, 51.49867676635554, 46.11851574763158, 48.73773614548756, 50.656629032234164, 50.138622523212874, 47.428458498023716, 51.674481731401286, 55.08309424291442, 47.56440975930833, 46.18050242772749, 50.23154134930905, 54.86806586056114, 47.14465309939784, 52.39193065889835, 51.138230742043234, 51.09925177178222, 48.159792999242185, 50.03481465858239, 52.80116250691181, 43.035031107060036, 51.90049241036011, 51.03048281810627, 41.0248974013744, 52.35303534627135, 46.94247486411788, 52.42137901107469, 49.251059181422725, 47.2641597588328, 50.77595748767977, 50.89049407114625, 50.35691208793884, 45.4090780526067, 51.023752066029765]</t>
+    <t>[52.047636490628314, 52.27747035573121, 47.51295721904263, 47.428980870322434, 54.94811629290316, 50.87788130030339, 45.61678231834827, 49.94291505731195, 49.00703011387307, 48.386305842048, 51.60141651758897, 49.173024284994376, 48.38322397568355, 53.544890841512974, 47.072936996043666, 49.30734828778991, 55.826149763947285, 51.49867676635554, 46.11851574763158, 48.73773614548756, 50.656629032234164, 50.138622523212874, 47.428458498023716, 51.634372579559304, 55.08309424291442, 47.56440975930833, 46.18050242772749, 50.23154134930905, 54.86806586056114, 47.14465309939784, 52.39193065889835, 51.138230742043234, 51.09925177178222, 48.159792999242185, 50.03481465858239, 52.80116250691181, 43.035031107060036, 51.90049241036011, 51.03048281810627, 40.96413315835405, 52.35303534627135, 46.94247486411788, 52.42137901107469, 49.251059181422725, 47.2641597588328, 50.77595748767977, 50.89049407114625, 50.16713091716155, 45.4090780526067, 51.023752066029765]</t>
   </si>
   <si>
     <t>[58.96385263047834, 51.026456125672254, 51.909235819350556, 48.91204880993515, 55.54476956835906, 52.85404460270807, 51.89925708710497, 54.05652648213752, 55.07616572698389, 47.75431937313809, 54.08721914752099, 56.18876781685147, 55.11372003927094, 55.66517541927351, 52.42954257595618, 51.939195421325735, 61.028913471048064, 51.42373997538224, 50.725545413226804, 50.31453238881658, 51.94799261273007, 53.506611853948506, 49.23627562168426, 54.14440349672691, 55.407808528120526, 55.750421700215064, 51.69094015451229, 53.949951255843494, 55.81045223342742, 47.52226096513725, 50.53654595123851, 57.09001307905637, 54.63293755467704, 53.167129134409535, 50.052151806369935, 54.873757729517344, 50.94633291055283, 54.72418668084414, 54.827831375787085, 45.25682960108352, 58.62533584129186, 46.83026379902776, 58.75984944751713, 54.92966008280625, 50.8088493918318, 53.78694497200638, 57.08911220734005, 52.79592631175046, 53.209711077914164, 53.730467432121294]</t>
   </si>
   <si>
-    <t>[59.766607477367344, 54.39649888388882, 53.17602761155736, 49.478537112038644, 54.99393742022105, 53.23164454461365, 50.94756924090196, 54.48609417838112, 53.13077308813015, 49.81405822543938, 55.85604010011387, 54.16983853102149, 55.40772160548031, 56.37161031175881, 51.95137601203896, 50.111192118122176, 59.7444596071712, 52.378686790510685, 51.310060591069046, 52.39631131748462, 51.94561445596308, 53.19893088945956, 47.5623569022398, 54.008992464493225, 59.31271393301612, 54.56581276012421, 53.40215990737327, 54.48866174718129, 58.51172571057568, 48.72420447910726, 52.36782922218116, 57.70465126825106, 53.81031288605193, 51.64378906134542, 51.41853955598924, 53.00540965804132, 51.71876859780762, 55.432743852759224, 55.2708355894916, 48.422790443202906, 58.937242882237435, 46.26570946471668, 55.96622995300604, 54.624592033008035, 53.8553262006699, 55.890162689774264, 58.011349050637214, 55.46525495490971, 53.08008230356381, 54.40389139956572]</t>
+    <t>[58.25497069776069, 53.55990623774103, 53.232944144830505, 49.885783311619036, 54.6805037752202, 53.59365550387177, 50.55967137364021, 54.48038936805434, 53.03312078879553, 49.97870320069244, 56.04725346724898, 54.77869174778864, 55.82595562409294, 57.58073201709141, 52.585245263374894, 51.25982179435731, 59.22214914597539, 52.673247383324245, 50.860352972493324, 51.63653661184209, 51.33880236150325, 54.11783557213296, 48.253159438437294, 54.67404697028392, 59.66663107146549, 55.04530913407153, 53.43362746694256, 54.62931359533877, 58.52307597308288, 49.339641272560044, 53.3683491687205, 57.781589131859675, 54.77967496418597, 52.23198116168389, 51.24053279713754, 52.841940994388985, 51.88430331790653, 55.49133297560898, 55.24252140767701, 48.64958190232697, 57.46168944655402, 45.640493927671024, 57.09224491193953, 54.97154530403392, 53.967029674358244, 56.143548007414985, 57.62449209251497, 56.59124647410456, 52.92514225693321, 55.11057021848916]</t>
   </si>
   <si>
     <t>[56.14454570072913, 56.180052154601334, 49.38466091306785, 44.12516275157098, 54.476703046414215, 48.51155334849603, 46.401060759766764, 52.68409083596331, 55.74144902180306, 49.3330656794974, 50.688633746422326, 50.58217130864561, 55.506295052630165, 59.05637878154107, 51.75362149762542, 50.80138778754374, 61.92122474365084, 50.330488066692126, 50.96284168537427, 48.69036539854268, 46.84774559111464, 55.6077311622107, 49.793524073423605, 52.349280602074415, 58.456614601828825, 51.51328644999402, 54.56857626360867, 51.42124465659673, 61.5076842338954, 45.11247058612084, 56.82422786916197, 58.52662892217221, 55.428233827131066, 50.65223252337912, 47.04342349178706, 50.24886701975887, 51.434268707154764, 53.3011633526949, 54.585836963578174, 44.6070734514832, 57.64378369930705, 42.65204841628848, 56.82330947457566, 55.405727134184396, 55.93724682140727, 55.973115867795684, 55.80374918076361, 56.286982312108215, 51.33433209415481, 53.392984051666716]</t>
@@ -1921,49 +1921,49 @@
     <t>[51.80389741091322, 53.300864782617204, 52.59672419215057, 51.17185698020101, 53.737175573716456, 49.738516492179784, 50.47837017151677, 52.723582118027444, 51.900194876471254, 50.764693656200315, 52.01677160040831, 52.23811615696957, 49.776968240230005, 51.61103683586158, 52.74551594245575, 49.020725480787696, 52.95773360634435, 49.82289672792026, 49.23565921332649, 51.46672398621651, 52.03725471859317, 53.360054149547025, 43.38564325288917, 47.406338454673254, 56.45429440092871, 51.76492586883048, 52.523632902337155, 51.66803364536988, 54.29424536544709, 44.28275598499799, 45.39027947109255, 54.698221786416774, 48.51469063443842, 52.61124698621107, 52.01548803199391, 51.94968762907583, 45.00539446015314, 49.38468909129243, 51.04415693206907, 51.75774914928671, 50.34197476312907, 47.62914975271788, 55.74117075039, 48.577867294518974, 50.47248769314696, 53.964675812301586, 57.09204149984123, 47.87881941981848, 52.779468921125954, 44.69061551481203]</t>
   </si>
   <si>
-    <t>[53.75306750754129, 51.76412384716733, 48.11666666666667, 50.75920572720936, 52.75498344895923, 55.12390407042138, 43.91910523837456, 53.07287347332605, 46.60021355846472, 50.308379446640316, 49.7294013445765, 52.06351778656126, 52.754569247160724, 55.18204853142585, 52.998226909932626, 49.04095819397013, 53.414137022397895, 52.91389925347495, 49.19057312252964, 49.18464333757675, 54.253733180400445, 49.88106719367589, 47.67045454545455, 51.08980379826036, 55.88618103055271, 49.72379446640316, 47.20610874994514, 50.918260869565216, 53.96131752305665, 46.959554014710385, 52.22287701316297, 46.248260869565215, 49.68395029126658, 49.57144601684068, 51.461417463678075, 53.00130434782608, 46.739845043499336, 51.67578963229613, 49.711364439422866, 50.87814229249012, 52.76019762845849, 46.51403162055336, 50.81174873706152, 53.09695652173914, 49.963781291172594, 50.66948616600791, 53.841988172257096, 49.726600790513835, 51.194273549751365, 48.020886877003775]</t>
+    <t>[53.75306750754129, 51.76412384716733, 48.11666666666667, 50.75920572720936, 52.75498344895923, 55.12390407042138, 43.975393233815566, 53.07287347332605, 46.60021355846472, 50.21272727272727, 49.7294013445765, 52.06351778656126, 52.754569247160724, 55.18204853142585, 52.998226909932626, 49.04095819397013, 53.414137022397895, 52.92640181615311, 49.19057312252964, 49.18464333757675, 54.253733180400445, 49.88106719367589, 47.67045454545455, 51.131180179382866, 55.88618103055271, 49.72379446640316, 47.20610874994514, 50.918260869565216, 53.96131752305665, 46.959554014710385, 52.22287701316297, 46.248260869565215, 49.68395029126658, 49.57144601684068, 51.461417463678075, 53.00130434782608, 46.739845043499336, 51.67578963229613, 49.711364439422866, 50.87814229249012, 52.76019762845849, 46.51403162055336, 50.81174873706152, 53.09695652173914, 49.963781291172594, 50.66948616600791, 53.841988172257096, 49.726600790513835, 51.194273549751365, 48.020886877003775]</t>
   </si>
   <si>
     <t>[50.940210921125605, 47.91618649822113, 50.22413770312356, 47.243146607184514, 47.808886774592665, 46.88623975445614, 49.217863263120684, 47.522292710902796, 47.83949671144069, 48.081633426712585, 49.289967975335834, 50.68523490379074, 47.302095486043434, 46.167057828773906, 48.66826709978717, 47.52847674187798, 54.715377446979936, 47.00244794711787, 45.79108067846228, 47.37835260531243, 47.98754740705349, 50.43650081585286, 44.28742939710982, 42.7905283380278, 54.260312767204674, 48.95619548312495, 49.73507451605009, 45.87804846654291, 54.23193385370247, 43.633170795577904, 44.22975212783233, 52.809491975210655, 45.522943358215024, 48.336462473282985, 51.371370068559486, 51.347336123435504, 46.09644123785038, 50.17930032640961, 49.74275868240947, 47.531211241249245, 52.58530868151841, 45.493393495585224, 50.454559208958955, 45.037214824232805, 49.39099131338878, 49.84746820631593, 51.89946144158663, 47.960782153790504, 50.26686568341361, 43.15424524125532]</t>
   </si>
   <si>
-    <t>[59.5336046406354, 53.8981904335098, 54.77785784643545, 52.19131508930832, 56.02519099474923, 55.443396887481505, 54.215729170885126, 53.49248271173256, 56.361930102294686, 50.4311495602239, 55.26172608051006, 56.93678623698247, 60.227889692087764, 57.14085669793845, 53.14054494261315, 51.361061406270665, 61.35340683387632, 53.656492263438054, 51.507060398990276, 53.04246336833679, 55.099849907833594, 56.65837173718937, 47.09868773310748, 55.137990702690104, 61.49949973186906, 56.69603102616973, 53.95741634430798, 54.53352362063314, 61.08944385411221, 49.20265473425561, 53.2751305732957, 58.81661181541747, 56.913698638550485, 52.806491268868264, 53.8578185141583, 54.11352474444648, 52.27114681134142, 58.65668198961207, 55.697882515680895, 51.2714043746501, 60.27916851957487, 47.48544586008801, 57.92455822920594, 55.57736898311681, 55.064757766575404, 57.90663359117381, 58.42277018134082, 57.584326285398845, 53.7789286123058, 54.12162800524542]</t>
+    <t>[60.009641699421294, 54.31696417388726, 56.0589650911035, 52.549639600634634, 56.257505764550594, 55.269286850866024, 53.59274643719383, 52.69486671628211, 56.04555769211597, 50.44189063113872, 56.63892187677832, 56.991572175587706, 58.27726770338165, 57.478281502613314, 53.7834547290217, 51.69717416080889, 61.83470018608206, 54.070533389581314, 52.16765357719025, 54.242107792254366, 54.367072165952024, 56.48117984460983, 46.9001956403307, 54.650752132708156, 61.45845183046854, 57.15322547946575, 54.61326403094199, 55.06339775377726, 60.46807032749716, 48.753858526268075, 52.366638625479915, 58.89788796333521, 56.80964607415483, 53.695252150036524, 54.17910513678557, 54.57462265754757, 52.71975921978202, 57.94920363026411, 56.451340646498906, 51.855611253444216, 61.2159063444362, 47.96285403104704, 57.676819722218895, 55.630850257721264, 54.759995944139156, 59.08139210012602, 59.19775226990505, 57.983588962233114, 54.26616953201233, 54.24082067745955]</t>
   </si>
   <si>
     <t>[57.3753720861367, 52.00307877255052, 52.4055071407156, 47.55275555833056, 52.73697887313225, 50.54623166593167, 51.600265330740584, 48.17021851746932, 54.577112630308854, 50.02750725131732, 53.663284939098745, 50.937367100470624, 61.32912051668279, 54.05553829630374, 53.15476446196967, 54.27533929425266, 62.67116752526506, 49.64284919701075, 46.43763476405691, 48.618506674238816, 50.12213465302358, 53.96509736260877, 42.11717166165589, 49.20894916036855, 62.15762927813021, 50.5842184950429, 49.97474574070202, 46.118168400097275, 57.428875413977586, 46.37889839745321, 53.38604380771576, 55.089209668608056, 53.91120094751652, 49.50129742686456, 49.98613130617518, 49.05049450644391, 49.51916230017017, 49.35413755322634, 52.521675506109304, 50.358883693076876, 51.85996056236297, 44.86991727851596, 51.42063612097337, 52.54095878759392, 54.08920132829267, 58.43625172505737, 50.83775647391444, 60.43296115528453, 51.385153729411456, 54.97287144981353]</t>
   </si>
   <si>
-    <t>[71.6419783389438, 77.224386975517, 71.26688909525377, 70.59912792315463, 74.71386515714278, 73.68676496449748, 69.44977657911171, 72.62328306086371, 77.55849005988824, 66.37362531740365, 68.21055914897576, 72.67216410854907, 73.98188601980628, 79.07114232406687, 66.48873238994629, 71.5457825445748, 78.64038056356829, 72.57779572027196, 71.98471444408366, 69.68577995526654, 67.33125612314905, 78.73953799983956, 71.026340111242, 73.69426374791804, 84.10486629519461, 79.63788475908872, 74.445248524039, 72.96914407173297, 85.005618110012, 68.35878298998026, 67.88931513551549, 77.84254602580101, 77.07775434989757, 72.74973054904731, 68.53397182914746, 75.6770549087956, 67.7485538348005, 78.67945878402004, 72.46465542643489, 66.82251899993672, 78.62481274651402, 61.93996109936889, 77.48837149225484, 72.17718438681449, 68.8058868737294, 68.88118290173574, 75.07849892946297, 72.76530896793642, 74.28720766567666, 71.30823855364747]</t>
+    <t>[71.6419783389438, 77.224386975517, 71.26688909525377, 70.59912792315463, 74.71386515714278, 73.68676496449748, 69.44977657911171, 72.62328306086371, 77.55849005988824, 66.37362531740365, 68.21055914897576, 72.67216410854907, 73.98188601980634, 79.07114232406687, 66.48873238994629, 71.5457825445748, 78.64038056356829, 72.57779572027196, 71.98471444408366, 69.68577995526654, 67.33125612314905, 78.73953799983956, 71.026340111242, 73.69426374791804, 84.10486629519461, 79.63788475908872, 74.445248524039, 72.96914407173297, 85.005618110012, 68.35878298998026, 67.88931513551549, 77.84254602580101, 77.07775434989757, 72.74973054904731, 68.53397182914746, 75.6770549087956, 67.7485538348005, 78.67945878402004, 72.46465542643489, 66.82251899993672, 78.62481274651402, 61.93996109936889, 77.48837149225484, 72.17718438681449, 68.80588687373685, 68.88118290173574, 75.07849892946297, 72.76530896793642, 74.28720766567666, 71.30823855364747]</t>
   </si>
   <si>
     <t>[57.71073392866549, 58.13007490150765, 56.257929127621665, 53.85645439326936, 59.509079582100185, 54.69973017027773, 53.15827231023134, 56.530062640338926, 54.06597230604291, 53.033825578845025, 58.16817261148465, 57.97249868815343, 59.88883055215324, 54.27930395937617, 58.14840031967734, 54.667556579511576, 60.1867088907652, 57.217547024091594, 53.29453363578851, 51.92718255350884, 54.04145033721695, 58.21431643934866, 50.37579748565168, 51.60368871884435, 61.44564949792897, 56.97698055795975, 54.92691378771046, 57.09430935533295, 60.28904611939198, 51.02942586366158, 53.5009743739425, 60.01144521679272, 58.42901961289986, 53.629083879155374, 55.243682186091405, 56.64961732249412, 51.252060550099166, 56.89409295610593, 58.63069387243886, 52.62737378996762, 58.98563130709442, 50.53912258378739, 58.16308604980587, 58.15927105532277, 57.50223933634135, 55.485478266444524, 60.308431967234114, 56.858580303033094, 53.91154838387821, 55.52004228631803]</t>
   </si>
   <si>
-    <t>[54.78715753219141, 52.25434782608695, 47.13954304967384, 50.8913897021775, 53.711530689400135, 55.15626546555173, 48.05669770654636, 51.055882049956935, 44.25477056768939, 47.91335878135995, 50.9061237477696, 49.92293537871427, 52.54196310935443, 55.17800998341676, 52.3634582266367, 48.07528175699563, 54.4044703246265, 49.7691922459981, 46.88962450592885, 51.0800395256917, 53.51886601718901, 50.70596193340869, 46.48856737329357, 52.94474308300395, 55.30029188877147, 49.0355976754434, 46.788423327239656, 50.409655525877234, 58.97779981444609, 44.39801075755552, 51.310173182354404, 53.15733623803078, 47.71242695685884, 47.36137068404944, 52.17038241399585, 53.32904387723049, 44.7412559215482, 51.68504427405386, 50.84583280151046, 46.89840822935143, 54.95569814204107, 46.07044878088785, 52.55953550671128, 52.46370691799482, 45.86780632411067, 49.84568083384383, 54.30515810276679, 54.23173774455124, 45.55314338138976, 48.98992075620928]</t>
+    <t>[54.78715753219141, 52.25434782608695, 47.13954304967384, 50.8913897021775, 53.711530689400135, 55.099695719819906, 48.05669770654636, 51.055882049956935, 44.25477056768939, 47.91335878135995, 50.9061237477696, 49.92293537871427, 52.54196310935443, 55.17800998341676, 52.3634582266367, 48.07528175699563, 54.4044703246265, 49.7691922459981, 46.88962450592885, 51.0800395256917, 53.51886601718901, 50.70596193340869, 46.48856737329357, 52.94474308300395, 55.30029188877147, 49.0355976754434, 46.788423327239656, 50.409655525877234, 58.97779981444609, 44.39801075755552, 51.310173182354404, 53.15733623803078, 47.71242695685884, 47.36137068404944, 52.17038241399585, 53.32904387723049, 44.7412559215482, 51.68504427405386, 50.84583280151046, 46.89840822935143, 54.95569814204107, 46.07044878088785, 52.55953550671128, 52.46370691799482, 45.86780632411067, 49.84568083384383, 54.30515810276679, 54.23173774455124, 45.55314338138976, 48.98992075620928]</t>
   </si>
   <si>
     <t>[57.63338051306103, 55.023091299485955, 52.530465062137935, 52.3401754608066, 54.65969604511362, 53.404393305209126, 49.80851236962094, 53.84049923136409, 55.17698282790684, 49.826219318411624, 54.37135148697699, 59.01239048456491, 57.29591754347848, 58.02092791799849, 54.668340941384216, 48.46507303786059, 60.31749571899833, 51.055329006993425, 48.90883886985405, 51.33578189197938, 52.58023069278299, 56.90159359524746, 50.108774724768935, 52.51595379179967, 59.30497800774468, 54.68254806214278, 54.69039912524497, 51.07414405480246, 57.86006399921384, 47.73857831773278, 49.99494836764278, 60.13471119637238, 52.974672131312126, 52.85839509450888, 52.16345226397539, 53.10736096810566, 49.95632866319102, 54.409678781999375, 54.2286170423126, 49.63000391554506, 58.63397097284576, 49.536979636230065, 57.399326502243596, 55.20652250717539, 54.17503120986489, 55.11322061901633, 57.664911227342444, 58.674430331924455, 53.74298581132631, 52.397867929514916]</t>
   </si>
   <si>
-    <t>[61.819475320527374, 53.83101074180256, 53.81941361247355, 52.566785503521416, 55.64144980437967, 56.032216479375485, 54.067040924591154, 51.916172412268075, 54.682000449529006, 49.45729652962244, 55.37764822699652, 58.04956840437883, 57.59696918681932, 58.48149389680026, 53.40145207629505, 52.802546238523384, 62.9665214086683, 52.82553934498171, 50.93009350465326, 52.87239989178819, 52.397593198480365, 56.04553397462903, 50.278930290324396, 57.64415993963182, 61.55627912596253, 58.11280381887317, 55.43440509629728, 54.44561287690465, 61.679751711366336, 49.51993421325371, 53.55663418507004, 61.664494480878076, 58.13648074811708, 53.101479100102, 52.566921642327216, 54.20275205916839, 53.38228523146127, 59.572943253653555, 55.93287578481265, 50.41046209568163, 61.584360039487684, 48.082119973702845, 58.71619952200249, 55.4231394384042, 54.29395131518862, 56.90419704292822, 59.51717850622394, 58.67247200826338, 55.06822362188548, 54.0755564499702]</t>
+    <t>[62.49471941423474, 53.03469403235391, 54.738342683829764, 52.783318014077466, 55.9849744418128, 54.95523111525402, 53.80804130335626, 51.989983290969995, 55.27338198607771, 49.32984709287159, 55.095197714228505, 58.37436917115625, 57.530846602808495, 59.48168136204756, 53.534892009597364, 52.33432615669021, 63.52928170707867, 52.32538215711453, 52.11480122559724, 52.951122271953366, 54.10959439838452, 55.048272070520895, 50.001057070194506, 56.43033191002384, 61.050380463685016, 57.746636639948086, 55.66504436392988, 54.5225032037374, 61.06456867751033, 49.36750560413275, 53.80773452370504, 61.383696284380406, 58.29744837664405, 53.819692847473604, 52.796382161962946, 53.71169497135229, 52.78033093782428, 59.28973566055113, 56.97965586701929, 50.30502646382249, 61.82836468391076, 48.424183379132714, 58.74435346330027, 53.36743810718248, 55.70185703252555, 57.0919497642617, 59.464659045134944, 58.06853782694465, 55.27711773765568, 54.72118730819145]</t>
   </si>
   <si>
     <t>[59.764159386073175, 49.2027808074235, 49.88977935889021, 49.23707529799269, 55.56731562113102, 50.93473288675542, 48.653331605511696, 51.231691950771655, 55.785320213830516, 50.38298069919993, 52.562496227633815, 53.88034295967916, 54.29612096552792, 51.745092304968544, 47.46114637699052, 48.947178434590576, 67.10190720358385, 50.55110403339853, 47.88094129871474, 54.91674896926277, 50.12134671750276, 51.55228003822297, 45.96095267435308, 51.7964630542348, 57.380367182252904, 56.0123591505209, 49.63391054598239, 50.03172888156689, 58.00600232030092, 43.12282936262048, 54.521976851644254, 61.349248858666705, 53.218106252195334, 54.63480089783197, 53.853565383805595, 47.07823325845093, 50.939144559716986, 56.57447874921113, 56.38870924591547, 49.663035274852405, 61.47036528636344, 45.20793954600458, 52.8682428390895, 54.282794446982884, 56.7903142044007, 53.364178988792204, 62.15576465957249, 56.24095919733462, 52.818205347626574, 49.4807663190035]</t>
   </si>
   <si>
-    <t>[76.12186370735705, 74.45590114477632, 69.61168497107482, 62.62728470416573, 72.90917356147084, 63.95302611980511, 66.56024417986993, 74.40220518612793, 70.80471615179007, 71.66788732511844, 78.69264705776536, 72.30713526688245, 74.84294643853977, 75.12819993950116, 72.15477120226676, 72.64944886802567, 81.88558115228865, 70.31020526017376, 67.21057056296263, 70.59286762721261, 65.04315357514739, 75.1641882944987, 71.6530984429608, 63.64645656185214, 78.72485661851668, 77.49289197001978, 67.61228037856772, 75.73056382723439, 76.93784491129912, 67.59894285164269, 66.56111755037578, 72.80402894891569, 70.01191150989129, 67.73570545136205, 73.39398061341015, 71.21563421964507, 68.17438417667356, 78.25670210755115, 70.64380801219099, 65.94835806007478, 72.40997759976477, 60.46709231584392, 79.68057179782684, 70.38728569133404, 68.79761637917869, 66.60000008353525, 78.60096440374575, 73.06961172243777, 75.0431799473721, 64.0183192838497]</t>
+    <t>[76.12186370735705, 74.45590114477633, 69.61168497107482, 62.62728470416573, 72.90917356147084, 63.95302611980511, 66.56024417986993, 74.40220518612793, 70.80471615179007, 71.66788732511844, 78.69264705776536, 72.30713526688245, 74.84294643853977, 75.12819993950116, 72.15477120226676, 72.64944886802567, 81.88558115228865, 70.31020526017376, 67.21057056296263, 70.59286762721261, 65.04315357514739, 75.1641882944987, 71.6530984429608, 63.64645656185214, 78.72485661851668, 77.49289197001978, 67.61228037856772, 75.73056382723439, 76.93784491129912, 67.59894285164269, 66.56111755037578, 72.80402894891569, 70.01191150989129, 67.73570545136205, 73.39398061341015, 71.21563421964507, 68.17438417667356, 78.25670210755115, 70.64380801219099, 65.94835806007478, 72.40997759976477, 60.46709231584392, 79.68057179782684, 70.38728569133404, 68.79761637917876, 66.60000008353525, 78.60096440374575, 73.06961172243777, 75.0431799473721, 64.0183192838497]</t>
   </si>
   <si>
     <t>[60.4295480701291, 56.69082284502738, 51.933955521536994, 53.65162714016712, 51.95062181122482, 53.592510470104955, 52.357302909662295, 55.47203859295497, 54.002912930558296, 52.02946875668937, 59.54104411819833, 57.73702930981749, 59.389481407531775, 51.430537633880434, 53.90587237423661, 54.56313249233199, 60.876077657387, 54.23534753895846, 52.33676091009782, 52.397836779897816, 54.500136940930005, 56.447034774424914, 50.62277165910625, 55.2324097026321, 53.261134135695386, 58.507787657362485, 49.40254577761006, 56.9808520608673, 59.02070667711663, 49.492948934266686, 53.42996141414003, 57.35188890067114, 55.91089711489137, 55.40755829131962, 53.5318678302523, 52.679366011168796, 49.088288655157314, 55.27296029457493, 56.58432480704592, 52.209245935333726, 57.28398359467824, 48.7592927923706, 57.33471781661528, 54.5040458931569, 55.8963458219652, 57.39202192938454, 54.140807945802464, 54.67066438573092, 53.318135364854605, 55.035417951514546]</t>
   </si>
   <si>
-    <t>[53.86188474685095, 52.41394127611519, 47.62228338104322, 48.620045981387555, 50.61298418972332, 55.10989548926815, 45.482889931118756, 50.87363416473046, 47.27361030852303, 47.471561865952175, 51.93609174797562, 50.03117275137644, 49.33366271409751, 54.549375644907585, 50.951980539849295, 50.58177342563091, 54.449178477700926, 53.111062882792965, 47.93953170047111, 49.81612107440451, 51.39733143500562, 51.24851643693453, 49.879399316670955, 47.41938836108801, 53.66879245663743, 47.58229158643839, 45.036536281927496, 52.85999217272617, 56.48754983394006, 45.455585317757645, 52.18966013566468, 49.75246468184082, 50.842488351010466, 46.70468778313857, 49.287730296628084, 51.82017786561265, 42.043405497535524, 53.69314741559647, 49.059003812236796, 47.84760869565217, 54.23642472411969, 46.52075198580168, 52.69492617735335, 50.307299772305406, 49.89563463471017, 52.848352760801546, 50.251983848869074, 52.160557728082, 45.66067893464393, 48.90246531929684]</t>
+    <t>[53.86188474685095, 52.41394127611519, 47.62228338104322, 48.620045981387555, 50.61298418972332, 55.10989548926815, 45.482833156430395, 50.87363416473046, 47.27361030852303, 47.471561865952175, 51.93609174797562, 50.03117275137644, 49.33366271409751, 54.549375644907585, 50.951980539849295, 50.58177342563091, 54.449178477700926, 53.111062882792965, 47.93953170047111, 49.81612107440451, 51.39733143500562, 51.24851643693453, 49.879399316670955, 47.41938836108801, 53.66879245663743, 47.58229158643839, 45.036536281927496, 52.85999217272617, 56.48754983394006, 45.455585317757645, 52.18966013566468, 49.75246468184082, 50.842488351010466, 46.70468778313857, 49.287730296628084, 51.82017786561265, 42.043405497535524, 53.69314741559647, 49.059003812236796, 48.025869565217384, 54.23642472411969, 46.52075198580168, 52.69492617735335, 50.307299772305406, 49.89563463471017, 52.848352760801546, 50.251983848869074, 52.160557728082, 45.66067893464393, 48.90246531929684]</t>
   </si>
   <si>
     <t>[58.3566679502303, 53.993504721203486, 52.34573090152933, 50.31992448669543, 49.64773468231379, 52.87352245262508, 47.23652552395594, 52.64116969445919, 50.70220448578571, 48.457671451453294, 56.18384809389852, 57.35206142609451, 54.024405526071824, 53.23142998260882, 48.910347466827524, 50.35993780581519, 58.710109177230834, 52.6795501960119, 48.32719699389112, 49.076293997167106, 49.93917204082344, 53.70915616364293, 45.98029323636126, 53.55401054747436, 53.50999668892477, 53.84541714713841, 48.505831489443146, 53.50761082202344, 55.527327931746285, 45.98933086863205, 49.9012084542937, 58.03936444767228, 52.20433811561448, 53.522163310920675, 47.31732776195419, 52.61432742554973, 49.48181158624126, 53.171618680435984, 53.27093048054384, 46.51689614860144, 57.923206006148654, 45.78796956576666, 53.51050515134635, 50.06341601563672, 51.09652755721107, 51.75578129409782, 56.3889736430304, 54.51679058859649, 50.98699503118628, 54.39914012762125]</t>
   </si>
   <si>
-    <t>[53.761186584590725, 49.2484348568368, 51.76470243510657, 48.32499204584782, 52.738908819958624, 53.663117771039936, 49.62947770844457, 50.808248032911514, 49.48003297409793, 46.78945248975791, 50.92074930871452, 51.72947234289611, 54.71187326858173, 50.18261644761357, 50.08397304404534, 47.47862512888214, 59.21251569732927, 51.33626997279721, 47.643525506262314, 49.06588776362577, 49.682700443825375, 48.756602452719235, 47.02862077571582, 49.526000942896516, 56.41487339759177, 54.27129867691103, 46.63799732600911, 51.95492901965707, 59.36757932961757, 43.30240030296158, 52.63906390957893, 51.77061194532646, 52.911588326869925, 46.469589177805226, 46.58624910162128, 50.196966284316844, 45.53678633200563, 55.53952712892618, 52.086153316537185, 48.83167773648209, 58.22995435880863, 44.449501639093036, 52.637971550424126, 50.509844688569345, 50.671927087127884, 51.160174623746094, 53.36342343299924, 54.637036238159794, 49.77528769616195, 51.420715015596635]</t>
+    <t>[53.61518473628786, 49.63608418436898, 51.252009210283084, 48.55209479036249, 52.217434028722025, 52.21689363167976, 49.85130674042502, 50.89203198350711, 48.438644021706466, 47.3195314951622, 50.76821528453668, 51.972896700773006, 53.009246411182765, 50.43136224290722, 50.66464240901103, 46.77232037328014, 57.224843595337504, 50.78837095402567, 47.05467138755358, 48.364084823768, 49.90112281675146, 49.68558421845366, 46.87384319600125, 48.74047588898069, 56.537812161606325, 54.84000468400836, 46.62795969609949, 52.303467626247084, 59.16941802613364, 43.23128245696019, 52.86376346735621, 52.987501898298966, 52.54664352774978, 46.81412856066227, 47.129534997976045, 50.00876690985498, 45.5526963678887, 54.91627284512041, 52.403792572374506, 48.17352654733043, 59.237557818619145, 44.612812836563464, 52.87366274313818, 50.572524417292485, 49.54874631608832, 50.846336315331015, 53.26242309849575, 54.559902319063305, 50.247072004117605, 52.09223060463565]</t>
   </si>
   <si>
     <t>[48.60450417921948, 49.601315785472096, 51.029674352864504, 45.7236928808642, 50.17587871747526, 49.90230003055377, 42.412892410670345, 52.46151406345632, 46.555133048611665, 46.028131827516525, 43.055978282657065, 49.73909850561572, 54.84537215704032, 46.88513508642144, 45.776107754895804, 44.20390172958374, 59.04246832870213, 47.04682363001255, 44.94453314046144, 45.96375405100495, 45.54556684863426, 48.94412582945918, 41.52490362310598, 48.77997123778573, 53.0356892609125, 51.70878638082813, 44.113977437603616, 48.95181091451833, 53.20906313990415, 39.79517875075811, 52.17493683177963, 52.7470455807471, 49.49973054147049, 44.401520941078424, 44.298708893988916, 46.50743605376231, 43.72304729758044, 50.651415223736066, 52.14026480557891, 48.179774080698664, 54.576197723079574, 42.08896955482574, 46.62140159642744, 49.7741552790917, 47.24868813887887, 45.540200442589324, 49.953456147084594, 54.16672658173934, 46.13961011381488, 47.99808609853149]</t>
@@ -1975,13 +1975,13 @@
     <t>[63.549189688160865, 56.20324449014762, 52.27305248941311, 53.55793137678353, 58.32424624647884, 55.518298251833656, 54.344947309791564, 58.49059235630185, 56.31458476510628, 51.990483584798916, 57.340814110709154, 57.18478796260708, 59.35335727455977, 54.580818119355854, 55.873196142345634, 55.98217488741609, 62.088993164623176, 51.30564404520608, 53.867362651141136, 53.52272971623542, 54.834467113830236, 55.465689588343345, 51.23942576980831, 56.100478385977794, 53.725281741260424, 56.65209273711016, 54.27867172195962, 58.9706640557922, 59.75015087070658, 52.22843921737562, 52.98273647087401, 61.277199698518245, 58.59369352813803, 56.71396351059656, 53.993169065979394, 52.695434472744026, 53.88047888034121, 55.343678157762724, 59.713845149629535, 50.82457993014351, 56.550698835187326, 51.56727879060956, 60.10306139937167, 55.56984990275257, 57.06925917647, 59.5054804361767, 59.99801077367526, 53.67436438955294, 54.3863763183106, 57.03295948219916]</t>
   </si>
   <si>
-    <t>[53.57025255427156, 51.18114277105385, 47.44973962481064, 47.743278264915276, 54.74035884712687, 50.80810316149257, 44.552257869478595, 50.64431513634215, 49.13799466338862, 48.54077045218601, 52.363578152814306, 49.119372576515175, 48.68493485123205, 53.55499168317549, 49.167980499684866, 47.72338260409687, 56.24817050134843, 51.51776908789274, 45.6385842735227, 48.05222620729048, 50.63164339750939, 50.68241997987977, 47.574110671936765, 50.232888573441215, 57.19074202666036, 47.394904800197146, 45.007247199247644, 51.61845382242618, 54.408273780532475, 46.866131880026735, 52.59285693848644, 47.924455488493024, 50.72867857136548, 48.10566634658792, 50.45598084211265, 53.843086086010736, 43.44748900925655, 50.62923048664317, 51.561949058615745, 39.41130190673023, 52.0254485305958, 45.084814715717954, 52.401849146287326, 50.47620183849917, 47.821155188649804, 49.28162489208269, 54.176333427207716, 49.310632844551655, 45.90675846700765, 51.263690838232364]</t>
+    <t>[53.57025255427156, 51.18114277105385, 47.16912678522338, 47.743278264915276, 54.74035884712687, 50.80810316149257, 44.552257869478595, 50.64431513634215, 49.13799466338862, 48.54077045218601, 52.363578152814306, 49.119372576515175, 48.65421957448113, 53.55499168317549, 49.167980499684866, 47.72338260409687, 56.36259045826851, 51.51776908789274, 45.6385842735227, 48.05222620729048, 50.63164339750939, 50.68241997987977, 47.574110671936765, 50.34730277465259, 57.19074202666036, 47.394904800197146, 45.007247199247644, 51.61845382242618, 54.408273780532475, 46.866131880026735, 52.59285693848644, 47.924455488493024, 50.72867857136548, 48.10566634658792, 50.45598084211265, 53.843086086010736, 43.44748900925655, 50.62923048664317, 51.561949058615745, 39.35053766370988, 52.0254485305958, 45.084814715717954, 52.401849146287326, 50.47620183849917, 47.821155188649804, 49.28162489208269, 54.176333427207716, 49.310632844551655, 45.90675846700765, 51.263690838232364]</t>
   </si>
   <si>
     <t>[59.20876445405886, 51.73082539988779, 52.59604408578465, 51.12579552158155, 56.14123268707591, 54.816935443260355, 52.54594495626865, 54.81257770244845, 54.005099886722725, 47.99414073020573, 54.61048389146458, 55.90960224190388, 55.43520287219885, 54.690063272615724, 51.71905266927824, 52.601245068693274, 61.32574297767703, 52.212969221623574, 50.587584935767, 50.03855000023361, 51.486041419198, 53.562945712770315, 50.28197946500027, 54.71838782317379, 55.41724047418427, 55.95068716140595, 52.99686016228752, 54.56259877321635, 55.42454809319912, 47.94339971741514, 50.64181116621895, 57.98946909781123, 53.967632096718674, 53.7654489494744, 49.324752771063594, 53.877460037318386, 50.74659395200932, 54.08067152036739, 55.17977747240737, 44.426300309820284, 59.2592703185421, 45.72266170493709, 59.039890183335864, 54.51148638600879, 50.1822661583191, 55.022556588194746, 57.96796459183181, 51.51042488326832, 54.06549110588736, 53.602321415635274]</t>
   </si>
   <si>
-    <t>[59.86290210182416, 54.782652617101995, 55.21638656637687, 51.859515036458426, 56.809980422841136, 56.131585587516405, 53.05669389861064, 54.782458233186674, 54.63637506826443, 50.731246238896134, 57.231847877428606, 56.58352611090156, 57.17548679940658, 58.788964703332304, 53.7727782618981, 52.89056917511116, 61.740028756748686, 53.5006304550216, 52.448911664289724, 52.63414315077305, 52.87137996009388, 54.51668457316159, 49.795855792187446, 55.469297041378994, 61.24473118036534, 57.13350895307703, 54.098339630236, 56.01401198326748, 59.238773365437204, 49.7137822669142, 53.01519449824637, 58.837460136556125, 55.779963479519346, 53.28982753528803, 53.491926013955016, 54.92920223881252, 53.07964247775087, 57.15736177395754, 56.08680067155765, 50.1565854133119, 60.415896722479076, 47.58218915891681, 58.234764719207305, 56.546669327734094, 55.099210840441266, 56.34974469494953, 58.444984432406294, 56.296173627138685, 54.16528138232976, 54.288522978654576]</t>
+    <t>[61.56172701796309, 54.72207074998431, 55.02960623826228, 51.98116702222832, 56.600801941329294, 55.19738007538174, 52.234576172912696, 55.067013417708196, 55.074709304256636, 50.5525245036428, 57.44283849034669, 55.835409025784884, 57.21699042038855, 58.7451649803588, 53.08519203894283, 52.446004908194894, 61.974379846060195, 53.55892789993302, 52.18759016874795, 53.40828808575141, 52.03515701700776, 53.846118344083564, 50.038435450497516, 56.31929034408397, 61.84290377974636, 57.68300100342968, 54.33247850570301, 57.01980010131494, 59.90780363028538, 50.46922774854667, 53.232105103803846, 60.355563290024335, 55.62022583166299, 53.65837974359367, 53.92734737485239, 54.818286646016965, 52.91255007234154, 57.100919744455815, 57.47202843321596, 50.40746386895164, 60.00887349056088, 46.84143408627058, 58.512984824843876, 56.400688443030255, 54.675314110733005, 57.275172794084995, 59.65816202850245, 56.65710805059799, 54.190080158265665, 54.45430019932081]</t>
   </si>
   <si>
     <t>[59.829602351132124, 55.287067890619575, 52.11635246729192, 50.37986813843015, 57.83871512203821, 52.96035394962597, 50.85901696812023, 53.23640206599896, 57.223807932435285, 51.33700834553232, 56.01467783886453, 55.633691111930275, 62.05537865680196, 59.43417852921918, 54.90831133733154, 54.04785893964201, 62.64625503901908, 50.121657769463276, 51.51075691826259, 51.62307140666977, 49.79698187364419, 54.064566954492115, 46.27180142647664, 54.892558694243895, 60.914899252789766, 56.4258168853036, 55.69671533275499, 51.3918233481132, 59.29183480002663, 49.65376786017136, 57.96072564113753, 59.054893992427786, 53.64511587617896, 52.42969800971714, 54.44414272854922, 53.09665629450983, 52.558860550379094, 55.464314265194616, 55.920007057039165, 48.20909979058819, 57.4241582247768, 45.15626123356725, 55.73009546272368, 53.87593337394503, 54.42985580926827, 56.7199050265527, 55.969472555850324, 59.64094702573633, 53.88733839713537, 54.90135806728257]</t>
@@ -1993,67 +1993,67 @@
     <t>[51.589864552369896, 52.45003774198955, 52.62205977471508, 51.364387475885245, 52.595871266202764, 49.3557758053582, 48.21785600902336, 51.74362373533806, 51.42192218695372, 49.66895440261732, 52.53275823948926, 52.25465997741903, 52.05411695478282, 50.814365448747935, 51.16982853782703, 50.335008355904584, 52.46389584627381, 47.49945608939365, 50.66090143970375, 50.39485289819396, 49.12435725838937, 52.45618609999718, 45.830143181346656, 47.06689782393848, 55.56300734152542, 52.13894955769257, 48.393990967766754, 51.21610257286236, 56.332016640656775, 44.62702163848616, 47.3336552936486, 54.144906875045606, 49.629579572204385, 51.17345027750308, 52.269506519910536, 51.01044586031905, 43.35008500890996, 52.947933811345706, 50.82030290162662, 51.88684004500391, 53.78037865344611, 47.54013494875598, 55.57547660859183, 47.10770961228443, 50.56331319397115, 54.980186323413236, 56.153991797301174, 47.459801529242135, 52.13972897180365, 43.54918715529416]</t>
   </si>
   <si>
-    <t>[51.45743083003953, 51.68541501976283, 48.689134615945534, 50.50919543841355, 51.284894708988546, 55.771070951100015, 45.0940803688335, 53.52361660079051, 49.169273222830306, 49.328339920948615, 50.68202318567014, 51.39367322873377, 53.913083198684184, 54.232639699554625, 51.18305665349143, 48.94749504927675, 54.66935559150236, 50.79510540971778, 48.790272789381795, 50.20007502219614, 51.368455926544286, 50.98604743083004, 48.35187747035573, 50.86019965053523, 56.865663406853194, 46.66411067193676, 47.85501786318458, 51.0649604743083, 55.22367301792608, 45.73393764983975, 53.030496697429314, 46.87045454545454, 48.74968379446641, 51.18100645265703, 50.941205533596836, 54.07600790513834, 46.543932436160915, 52.28425048837867, 49.69645229493794, 51.637035573122525, 54.76396681744816, 50.37332015810277, 53.70937142611494, 51.91847167325428, 49.188656126482215, 48.79824110671937, 53.104215363407874, 48.31005497537527, 51.22292313527216, 49.01741212342141]</t>
+    <t>[51.45743083003953, 51.68541501976283, 48.689134615945534, 50.50919543841355, 51.284894708988546, 55.771070951100015, 45.15442456039276, 53.52361660079051, 49.169273222830306, 49.328339920948615, 50.68202318567014, 51.39367322873377, 53.913083198684184, 54.232639699554625, 51.18305665349143, 48.94749504927675, 54.66935559150236, 50.79510540971778, 48.790272789381795, 50.20007502219614, 51.368455926544286, 50.98604743083004, 48.35187747035573, 50.86019965053523, 56.865663406853194, 46.66411067193676, 47.85501786318458, 51.0649604743083, 55.22367301792608, 45.73393764983975, 53.030496697429314, 46.87045454545454, 48.74968379446641, 51.18100645265703, 50.941205533596836, 54.07600790513834, 46.543932436160915, 52.28425048837867, 49.69645229493794, 51.637035573122525, 54.76396681744816, 50.37332015810277, 53.70937142611494, 51.91847167325428, 49.188656126482215, 48.79824110671937, 53.104215363407874, 48.31005497537527, 51.22292313527216, 49.01741212342141]</t>
   </si>
   <si>
     <t>[50.801404914794794, 47.89964443525683, 49.89683012763136, 47.36550026428634, 48.32327214394762, 46.74120030543791, 49.93602895122589, 47.386851793661755, 48.306180382059026, 47.17681257109578, 49.77768078807469, 51.65881687761015, 50.822648870417446, 46.27740942327584, 48.136295777332926, 48.146192670874925, 54.500339962257655, 46.52072454412703, 48.021673770976676, 47.726667389895894, 47.61595881819451, 50.94988343966686, 45.164962296700985, 43.0129721400358, 54.78465435687864, 48.787565367955416, 49.05108738935464, 45.75217802559759, 55.83057763844429, 43.688169255671745, 44.29827966736392, 52.6105037260714, 45.90545943729482, 48.91836509267447, 49.16011960213024, 50.86548117586263, 45.85377103881302, 52.63020376238662, 49.76074302434016, 48.65037741833284, 53.92344797280373, 45.62091310716495, 52.07853297789859, 41.65967518870192, 49.33898513619725, 49.117685371089564, 52.19950383820824, 47.79428824864012, 50.66309130170107, 42.79983708819351]</t>
   </si>
   <si>
-    <t>[59.097648039449666, 52.76808765887338, 55.41239254099537, 52.29570520419941, 55.45816197379393, 55.078893870986896, 52.700436165130704, 54.72422857864368, 55.66421048313688, 50.969665522306215, 55.36080683783909, 54.78345511455184, 58.99565426000195, 58.13102468173994, 52.67755844724659, 52.05190172801637, 62.17955267870324, 53.95210252127716, 51.45820807315961, 54.2066543347774, 52.790026579340314, 56.64590255405898, 46.65181862222571, 54.674326056640176, 61.30458209558027, 56.74983631467127, 52.395911702227366, 54.18061273535302, 61.34154738420549, 48.982735021372406, 53.133055226048306, 58.21662547047548, 57.25881387643549, 52.97359249901244, 54.92109976133405, 53.99393799189913, 52.95767375824763, 57.32763604148884, 55.52082868366671, 52.9997980783548, 60.609379232051786, 47.77278232507645, 56.29012401777194, 54.65615143580335, 55.214290269506115, 58.78283256875024, 58.32928238903132, 57.33382382630266, 53.20028611506134, 54.225551276754665]</t>
+    <t>[59.84569164110385, 53.66022430129557, 55.94990500998578, 51.747647173217366, 55.95174578590205, 54.92714100596628, 53.546443887461294, 53.60125179019008, 56.64324981149637, 50.606703260140605, 56.04737789487293, 54.38561000487579, 58.77730848403648, 58.59493913640504, 52.4334960691455, 51.90466564615133, 61.53237215594055, 52.926700918034136, 51.808904309916784, 53.11901073569824, 53.738980044929214, 56.57451698928933, 46.95756516229348, 54.57030515906024, 61.98732003704123, 56.410318542682504, 53.76464301729362, 55.2436265355703, 61.07996991987422, 48.68281839598656, 54.16422525899172, 58.27260342055822, 57.355248301064364, 52.54333994602564, 54.40339121783304, 53.80392814323841, 52.52286614943959, 57.64682243674703, 56.26114581502704, 52.98795738938545, 60.54235556810121, 48.43257302573718, 57.67971988644656, 55.639138157391656, 55.33923478623916, 57.6163733509801, 58.424518016822574, 58.05556692867651, 53.73038707280559, 54.264920866956686]</t>
   </si>
   <si>
     <t>[56.860170642113964, 53.20940194608666, 51.81820252384593, 47.85319253944125, 51.19761947481057, 52.04440418469576, 48.83794466523785, 50.19343852808353, 54.11064412101926, 50.24531068583251, 53.79560060719727, 49.80791239802545, 60.870935867143714, 51.731043467766675, 50.00704429656621, 53.001254725098136, 62.41616616803195, 47.596622927744875, 45.927048216959236, 51.71880513217609, 49.5252070019085, 53.2165543847216, 46.39380433681926, 48.411720611813514, 59.66305884794756, 47.99334441505402, 49.90728740134258, 47.580095902997044, 56.32921795569861, 47.65341455663146, 53.18293957359706, 54.227717193482896, 53.28661844276157, 48.945024384403894, 50.484870237606785, 49.14089921710048, 49.41537981561051, 54.192661726879976, 54.30296088478781, 51.45081766799505, 53.31334233370694, 45.280052032772254, 50.92167981083686, 52.97656092255484, 57.58897658758955, 55.63555943967797, 51.82389055757183, 56.66113498340953, 52.586931644107985, 53.52436369530297]</t>
   </si>
   <si>
-    <t>[69.22485938349453, 76.26663598749471, 68.83172580641873, 70.07209274072014, 73.23038593726947, 74.92692538847628, 70.88253823167206, 71.83431863216006, 77.44789972516834, 62.20837052819063, 72.56456769863324, 68.5453137782877, 70.74711417407543, 80.07797056001789, 64.61590970109106, 69.25661172860048, 73.78512718502864, 70.44816212633093, 71.69614930240965, 74.29385157628006, 69.95717750593137, 74.87422597148635, 70.57976895788438, 76.48376242076327, 84.79357943900582, 79.66886400047144, 74.09039368756126, 70.26058135680064, 80.59314514310805, 70.11064099573944, 71.78603653345381, 76.17185937903328, 74.32804639742542, 69.111617309381, 67.72130511647406, 76.05284134170651, 66.45640794290054, 80.3216791543496, 70.61686193666164, 63.23582254837471, 81.07638196173414, 62.18814543827259, 76.98163392621163, 72.82940739348595, 69.19735449269311, 68.32414427359336, 75.48740736595032, 76.94822041377776, 71.36928056118862, 71.30514566610333]</t>
+    <t>[69.22485938349453, 76.26663598749471, 68.83172580641957, 70.07209274072014, 73.23038593726947, 74.92692538847628, 70.88253823167206, 71.83431863216006, 77.44789972516834, 62.20837052819063, 72.56456769863324, 68.5453137782877, 70.7471141740755, 80.07797056001789, 64.61590970109106, 69.25661172860048, 73.78512718502876, 70.44816212633093, 71.69614930240965, 74.29385157628006, 69.95717750593137, 74.87422597148635, 70.57976895788438, 76.48376242076327, 84.79357943900582, 79.66886400047144, 74.09039368756126, 70.26058135680064, 80.59314514310805, 70.11064099573944, 71.78603653345381, 76.1718593790333, 74.32804639742544, 69.111617309381, 67.72130511647406, 76.05284134170651, 66.45640794290054, 80.3216791543496, 70.61686193666164, 63.23582254837471, 81.07638196173414, 62.18814543827259, 76.98163392621163, 72.82940739348595, 69.19735449269311, 68.32414427359336, 75.48740736595032, 76.94822041377776, 71.36928056118862, 71.30514566610333]</t>
   </si>
   <si>
     <t>[58.11667623555303, 59.22458545360907, 57.101937114722446, 54.293114764779865, 59.572201928552474, 54.83503129019506, 53.449765411216916, 56.93069634904778, 54.37591452521893, 52.77042274264695, 59.63277767581576, 59.01674029334699, 59.37384060836623, 55.57752995827716, 58.253596064609305, 54.79862433491239, 61.79192288512968, 57.146699094098686, 55.66887352005337, 52.12694756176497, 55.106507584346694, 59.14605045277291, 51.15783481472498, 53.97577740290893, 62.18793843659845, 57.58438000560741, 55.69920053344813, 57.56198232899216, 61.81178319640789, 51.82036920122722, 54.33236060376847, 60.710270200339586, 61.031271692670714, 53.51644731557822, 55.726997644376944, 57.349426596018745, 52.82748449138321, 57.16570467614397, 57.99860352214995, 53.22738068521973, 59.86783581595586, 50.65973503040175, 58.9164553046768, 58.11270387572752, 58.41448592634363, 55.02361710143107, 58.94577102202012, 58.0472584343615, 53.80051123100386, 56.14343934933172]</t>
   </si>
   <si>
-    <t>[56.24850862768824, 54.147785128613066, 49.854276985647104, 51.66211170143631, 53.23487804956443, 56.80591386973934, 48.42060534865017, 52.07473295480122, 46.73459150927344, 48.1328658488521, 51.7440995863751, 53.4529776998523, 54.618181818181824, 56.81267912249742, 53.576974134768975, 49.90414740972508, 57.3827975573502, 52.376886222998884, 46.1346837944664, 50.424966408238234, 53.39899425700439, 53.0885813492164, 47.83805981897009, 54.71551150251561, 55.12789569948548, 50.76925267552831, 49.192089497677166, 53.390773072401586, 60.308052441927636, 44.133727794619446, 50.175286856877946, 55.233824070617516, 52.66964355655193, 47.64725948185959, 51.244433759216726, 54.24031475680083, 44.557661295805175, 53.23017318340087, 51.330122101266326, 48.746892683654124, 56.48611487163414, 50.14543680169208, 54.847461989334704, 52.01101613024237, 49.34739130434782, 53.03244369034496, 55.30660079051383, 52.85837335027054, 49.36514416995017, 49.38760695443414]</t>
+    <t>[56.24850862768824, 54.01093075176699, 49.854276985647104, 51.66211170143631, 53.23487804956443, 56.80591386973934, 48.42060534865017, 52.07473295480122, 46.73459150927344, 48.1328658488521, 51.7440995863751, 53.4529776998523, 54.618181818181824, 56.81267912249742, 53.576974134768975, 49.90414740972508, 57.3827975573502, 52.376886222998884, 46.1346837944664, 50.424966408238234, 53.39899425700439, 53.0885813492164, 47.83805981897009, 54.71551150251561, 55.12789569948548, 50.76925267552831, 49.192089497677166, 53.390773072401586, 60.308052441927636, 44.133727794619446, 50.175286856877946, 55.233824070617516, 52.66964355655193, 47.64725948185959, 51.244433759216726, 54.24031475680083, 44.557661295805175, 53.23017318340087, 51.330122101266326, 48.746892683654124, 56.48611487163414, 50.17380918247404, 54.847461989334704, 52.01101613024237, 49.34739130434782, 53.03244369034496, 55.30660079051383, 52.85837335027054, 49.36514416995017, 49.38760695443414]</t>
   </si>
   <si>
     <t>[58.81990911776478, 55.12631041536372, 52.602774507248355, 52.99038790434575, 55.054321775723, 52.76154883233274, 49.870776290860505, 54.42774118362138, 55.05605203716963, 50.05821454516075, 54.25149455564929, 59.39217832215528, 57.94490157133354, 59.13970182609735, 55.40354895743123, 48.68376159499581, 60.81334786053615, 51.8468999793349, 51.28396875490607, 52.3887169559495, 53.66785772979277, 57.119072607223984, 50.14578531955092, 54.341958256416376, 59.418010921202665, 55.050640469487725, 56.42630182712977, 51.195817146952756, 58.6032247398108, 49.25654496129876, 50.73429291707835, 60.16674480967358, 54.8349942076891, 53.89038079555805, 53.0154718940085, 53.5314650971921, 51.04768179839293, 56.7497039568497, 54.70238731203997, 51.17205970532872, 59.1662447499494, 50.213090817734205, 58.63569284843736, 55.78326310318489, 55.58609113535873, 54.21503361367655, 56.711539904302754, 58.74184327561049, 53.71119346735022, 52.069981391253734]</t>
   </si>
   <si>
-    <t>[61.64754210797845, 53.667879177885695, 55.24792293989643, 52.818107295812446, 55.979598609544325, 55.38783601142202, 53.517170584035156, 54.160188944728894, 55.30764578797929, 50.26163704939915, 55.70987517501918, 56.926451601118025, 58.2751830262017, 59.28017104439882, 53.47933069683795, 52.596687107834825, 63.202350937147116, 51.40001926474552, 52.19245565914955, 53.60679406890464, 51.72740474040106, 56.31930758504969, 49.225236782953914, 56.54237488636411, 61.743824853504634, 56.886055086019255, 55.81463861488858, 55.498105510936604, 61.83403116301049, 49.278925456866226, 54.51207543007431, 60.40061649498934, 58.14126001749004, 54.13230190505934, 52.893049608076886, 52.773459453569195, 52.97608018235519, 58.986730064758675, 55.662855621834595, 51.529544273976605, 62.5395775979995, 47.796162653716614, 58.13672115720468, 54.98920475012792, 55.42878266917438, 56.42222697173499, 60.37787892593352, 58.49478018210749, 55.880552803144084, 54.68504521881805]</t>
+    <t>[61.771018010140935, 53.85883757555945, 54.99875068037759, 52.02742550780475, 56.372612186869574, 56.35080489637905, 52.95204915635909, 53.579315349072374, 55.47749271591456, 50.57327004461486, 55.96998951130509, 57.044144054725834, 57.54998808435816, 58.50038531093494, 53.82578921924994, 52.06150861007527, 62.967318766816106, 51.44146295419945, 51.96290382898593, 52.283151038174495, 53.29333484369918, 56.6959309087599, 49.17875921846779, 55.38277043906928, 61.4149130315612, 57.43308295969191, 55.359514248316295, 54.31853699958251, 62.18333647760498, 48.907926218682704, 54.84754666545513, 61.62594977784265, 58.43197178624358, 52.68639104633958, 53.34577929786216, 53.04277930248693, 52.80284535476723, 59.10619224374288, 57.034268653066476, 51.37879442687955, 61.83660442266243, 46.62417774167168, 59.464254404815314, 55.36861202265824, 54.51593384134128, 56.945813671877396, 59.44755240502415, 59.02583934072957, 55.71416598168548, 54.31090241291906]</t>
   </si>
   <si>
     <t>[58.026984622186355, 50.008199502432305, 51.483680646692804, 51.05736353697042, 56.20786031308381, 50.214994213722434, 47.47334589871493, 51.67293673315538, 55.86708276576204, 53.43759536788398, 50.388556368002305, 56.73939745876629, 56.28191053971001, 54.289926494703934, 51.41135197560307, 49.72099031734844, 68.01062579822164, 49.22364003072143, 48.388758503005434, 54.338850613922, 47.06101996561285, 56.17871994923225, 48.23621935335543, 50.70253908594607, 56.39404176372784, 53.34249236491358, 49.73822043882528, 48.62107963984191, 54.771368593359185, 46.47168236004977, 52.96111975798023, 58.86324778590748, 55.94210248170634, 53.0740281663676, 53.164428392417825, 49.082759571000054, 50.10452168675751, 56.749990152539944, 56.38330129340703, 49.80663250678142, 61.20458778743216, 43.37674449988505, 52.66405829146917, 54.322943834146486, 56.568192489232004, 57.59091967284915, 60.41990175933235, 56.22483080053519, 53.951765372234846, 50.33218780638201]</t>
   </si>
   <si>
-    <t>[72.01847488013378, 73.66157345884, 69.01126953507574, 63.200627225649306, 70.15872954310085, 63.33526593458532, 66.49830555462961, 74.44873862924634, 71.87181387295075, 65.18024746262742, 74.38174859640898, 69.49352245964371, 74.52653010310667, 74.6318057306924, 69.99800413938645, 66.215502570501, 71.55500400750503, 68.93031584954876, 65.77635697288255, 70.57821937155387, 62.4515645292296, 74.38773522580846, 70.93733962925897, 64.4529088580133, 77.89553670106997, 72.78684208922901, 65.77134352504848, 71.11606175309589, 76.07661347958597, 64.44698210674731, 73.47174005987115, 74.32427984808248, 68.2598951775409, 64.83918343388636, 67.31340825360117, 70.7122558424553, 65.90203111714133, 73.23084368530331, 72.28936412620347, 62.35189696769201, 73.78683024163274, 59.606480350508136, 79.43150605564983, 67.09853561749576, 68.45565803106994, 63.67896507569634, 76.38146312287094, 68.34471212951239, 72.18908762363847, 64.3974422639725]</t>
+    <t>[72.01847488013378, 73.66157345884, 69.01126953507574, 63.200627225649306, 70.15872954310085, 63.33526593458532, 66.49830555462961, 74.44873862924634, 71.87181387295075, 65.18024746262742, 74.38174859640898, 69.49352245964371, 74.52653010310667, 74.6318057306924, 69.99800413938645, 66.215502570501, 71.55500400750488, 68.93031584954876, 65.77635697288255, 70.57821937155387, 62.4515645292296, 74.38773522580846, 70.93733962925897, 64.4529088580133, 77.89553670106997, 72.78684208922901, 65.77134352504848, 71.11606175309589, 76.07661347958597, 64.44698210674731, 73.47174005987115, 74.32427984808248, 68.2598951775409, 64.83918343388636, 67.31340825360117, 70.7122558424553, 65.90203111714133, 73.23084368530324, 72.28936412620347, 62.35189696769201, 73.78683024163274, 59.606480350508136, 79.43150605564983, 67.09853561749576, 68.45565803106994, 63.67896507569634, 76.38146312287094, 68.34471212951239, 72.18908762363847, 64.3974422639725]</t>
   </si>
   <si>
     <t>[62.01627115446608, 57.893370807576716, 52.981375416581685, 54.00209262951838, 51.77563810290483, 54.02775562106996, 52.51211241447212, 56.782250242474866, 54.599057580316995, 52.77162981117455, 60.715283109277, 58.329152167376606, 59.75514948913876, 52.08200727492921, 55.90188704972361, 54.16819301163359, 61.193198392350766, 55.15113927058714, 52.94181657681669, 52.918226386487184, 54.90457430624082, 57.17707502448765, 52.08459809088647, 55.43657401168857, 52.34652352238775, 59.337663976320485, 51.050315786378, 57.78616745003086, 59.95501660065073, 50.27698639858132, 54.79962958688102, 58.034423818861306, 57.21136727177617, 55.770741275348335, 54.3661919767765, 54.13685890083359, 49.67738108546026, 57.41883496197454, 57.08239383520238, 53.15968478965999, 58.27340005858228, 48.05551319247839, 58.285770112690635, 53.82895651371791, 57.891113929168554, 56.65625309649587, 54.37003146208906, 56.35967302209069, 54.36360765438512, 56.65489084148712]</t>
   </si>
   <si>
-    <t>[54.24229093457446, 51.350434782608694, 48.15253026771292, 49.94033689707307, 53.128596790219945, 55.27319497550906, 47.59959214468707, 51.39563720623674, 47.822269313912656, 48.48387464381489, 52.95850193226819, 49.64576182602295, 50.74591567852438, 55.79862244641856, 52.09080164028542, 50.257320390977, 56.90878910422733, 52.998105100933024, 48.95256728145229, 50.77887700604301, 52.69671281620322, 50.6853843612321, 46.470717701468054, 48.392950556734924, 53.826187227718776, 49.405988142292486, 44.573430028290296, 51.88366191936963, 58.59599415655062, 45.53029544858792, 52.916098743486074, 48.53481594718603, 50.7257665215793, 46.17084353793844, 49.8939825498983, 52.387327878055885, 42.6954363725531, 55.114395934122555, 51.35531361301039, 46.70833992094862, 54.910163485235294, 44.36719367588933, 53.138407128700486, 50.727851974869026, 49.26219420488262, 52.64094711393919, 50.26165752371811, 52.76642292490119, 46.67467980943025, 49.49836286887547]</t>
+    <t>[54.24229093457446, 51.350434782608694, 48.15253026771292, 49.94033689707307, 53.128596790219945, 55.27319497550906, 47.59959214468707, 51.39563720623674, 47.822269313912656, 48.48387464381489, 52.95850193226819, 49.64576182602295, 50.74591567852438, 55.79862244641856, 52.09080164028542, 50.257320390977, 56.90878910422733, 52.998105100933024, 48.95256728145229, 50.77887700604301, 52.69671281620322, 50.6853843612321, 46.470717701468054, 48.392950556734924, 53.826187227718776, 49.405988142292486, 44.573430028290296, 51.88366191936963, 58.59599415655062, 45.53029544858792, 52.916098743486074, 48.53481594718603, 50.7257665215793, 46.17084353793844, 49.8939825498983, 52.387327878055885, 42.6954363725531, 55.114395934122555, 51.35531361301039, 46.70833992094862, 54.910163485235294, 44.36719367588933, 53.138407128700486, 50.727851974869026, 49.26219420488262, 52.64094711393919, 50.26165752371811, 52.984604743083004, 46.67467980943025, 49.49836286887547]</t>
   </si>
   <si>
     <t>[59.46098180689935, 54.413127431466606, 52.57216209074763, 49.18495295898669, 50.49359862808353, 53.2210634831618, 46.471445992965066, 54.105280608083135, 51.76107841331682, 47.82377571952924, 57.951350163340564, 57.562541039078006, 55.25129564800611, 54.09770794011301, 48.67624633484301, 49.207359131493, 59.79871291855242, 53.39236690475518, 48.171841408586445, 50.36109156254861, 51.20932806241119, 54.19831254037341, 44.76733080028638, 52.47189893319687, 54.631478327798426, 53.86342808439925, 47.50314586088994, 53.786012731847826, 56.71519045510979, 45.39130593734044, 49.749328637448514, 57.62657901816838, 53.011275026039314, 54.0702028221855, 47.80054492580764, 52.42935401124108, 49.93205700853731, 53.77165241126996, 53.6045453958229, 46.576951007693815, 58.595000715404545, 46.86774874367287, 54.03853406583761, 49.48166323498483, 52.167251504246124, 51.90793442704218, 57.09386323990462, 55.6535174354362, 51.177474824860305, 54.60161329709466]</t>
   </si>
   <si>
-    <t>[53.38672290635391, 49.724090334362316, 53.58270334126256, 47.993279703507575, 52.878385778049775, 53.80938932298809, 48.76904468193258, 51.87802044838615, 50.366044788707015, 47.23307328664375, 51.560190192252136, 51.45013614184897, 53.83825597385343, 52.65039962153092, 49.683951306754224, 46.8610464544318, 59.67171684257711, 51.78248279416748, 48.4378494036002, 48.856186819111414, 49.890298822142654, 49.443087219973236, 47.70912920377337, 49.85797403675704, 57.1891502269504, 54.65908473117796, 47.34491919310925, 51.739892629383846, 59.209381866860916, 43.58711311924755, 53.43712258865291, 53.07734384330646, 53.10659768605255, 48.13853873105681, 48.7041787252882, 50.79519195649595, 45.70534347557568, 55.42790971962961, 53.34309927224094, 48.301356731818785, 58.7735888031081, 44.09181649283897, 53.35729721853393, 50.10963809356356, 50.04873890881627, 49.993667901820366, 53.19385508703914, 55.52789266144928, 51.2820354902675, 52.365012320251324]</t>
+    <t>[52.915387487402064, 49.78765548474706, 54.14701547782547, 47.06926520883872, 52.26751082036107, 53.25871238699362, 48.28255781847647, 51.778203567151806, 51.14459458684155, 46.85926468505566, 50.69510037902846, 51.40680888131635, 54.38296575045217, 52.05465751235802, 48.95195335744253, 46.55022019765821, 59.000047113099434, 52.36450654342143, 47.35365163318452, 49.05144756183436, 50.28260300306169, 49.18019104699245, 47.03467959939951, 49.79338548792441, 57.47598877176987, 53.47319213824935, 47.73864185884692, 51.059138791351494, 58.99791760160118, 43.27423292329, 53.304392801486586, 53.61534474237194, 52.37227725073975, 48.045757288051036, 48.773848352698344, 51.0745008499692, 45.919802512462084, 55.157259740732876, 52.81113995539224, 49.155396385929436, 57.98385865272206, 44.81118389567949, 53.18760731645822, 49.75328987174473, 50.502229382383426, 50.83080756272064, 54.80733624925299, 55.48956611562924, 50.297424626409416, 51.39596179952898]</t>
   </si>
   <si>
     <t>[49.90909083720724, 50.887547130056994, 52.67428080441924, 42.88352017202867, 50.669597225113826, 51.17646111529806, 39.71438788696712, 51.807220419405, 46.3606435071621, 47.12205849719142, 44.41020790326265, 50.54393122797427, 53.98093408162415, 47.347766713078315, 47.95238894481433, 44.905203966585546, 58.92179916411991, 46.70266859981853, 43.34378391770977, 44.651954531763856, 46.33986335264365, 49.384616809287095, 45.26995867702801, 48.315582907793555, 53.72446623308385, 48.36300367453352, 45.487219253057546, 49.837823481691686, 53.52270448224819, 40.04113974100046, 53.354388543155345, 52.02811886904268, 50.32692499206, 44.187907177167446, 49.64921560174391, 48.23723479676151, 44.10437926416812, 50.81100666483401, 48.567425605412055, 47.17035760511287, 53.61065145831806, 42.53583212087277, 47.35652396844309, 48.788890346406475, 50.01423841604602, 47.79935443714202, 50.44239195088623, 59.1255709875054, 47.07089618682861, 50.286755860370135]</t>
   </si>
   <si>
-    <t>[75.38376561615776, 67.19846204008533, 54.73229023177712, 65.79942949496204, 74.22790656439533, 68.83024045149313, 67.84082277188301, 69.38924903419942, 73.39804357948596, 62.35567679200004, 69.95789938827849, 72.29564555302157, 67.80221433772891, 78.82482329102322, 63.34967630342385, 68.11258194780706, 83.43919418606717, 64.18966974762145, 61.48888028321081, 65.12158179852256, 60.44268522869864, 69.1880389363205, 64.45684439883817, 71.47365097879033, 78.44270884341843, 71.94527919432343, 61.54174778762672, 68.60774019509918, 81.88239478584947, 64.5181513826932, 67.26425333828402, 82.06499007578016, 68.2782422436971, 61.10230356172762, 64.45629489067045, 67.86745050328986, 64.84100384402699, 79.65318569838931, 70.85031179462442, 57.803725311054144, 75.79707520454784, 59.610861772488406, 77.111362836509, 59.06108349544329, 67.13594699344016, 65.49968359385792, 72.46410875969596, 64.5015057394346, 63.752833274654485, 63.4249053252611]</t>
+    <t>[75.38376561615776, 67.19846204008533, 54.73229023177712, 65.79942949496204, 74.22790656439533, 68.83024045149313, 67.84082277188301, 69.38924903419942, 73.39804357948596, 62.35567679200004, 69.95789938827849, 72.29564555302157, 67.80221433772891, 78.82482329102322, 63.34967630342385, 68.11258194780706, 83.43919418606717, 64.18966974762145, 61.48888028321081, 65.12158179852256, 60.44268522869864, 69.1880389363205, 64.45684439883817, 71.47365097879033, 78.44270884341843, 71.94527919432343, 61.54174778762672, 68.60774019509918, 81.88239478584897, 64.5181513826932, 67.26425333828402, 82.06499007578016, 68.2782422436971, 61.10230356172762, 64.45629489067045, 67.86745050328986, 64.84100384402699, 79.65318569838931, 70.85031179462442, 57.803725311054144, 75.79707520454784, 59.610861772488406, 77.111362836509, 59.06108349544329, 67.13594699344016, 65.49968359385792, 72.46410875969596, 64.5015057394346, 63.752833274654485, 63.4249053252611]</t>
   </si>
   <si>
     <t>[64.84410258382633, 57.79117827948227, 53.48729033584043, 53.43790729498674, 56.19984105260308, 56.36297716483837, 55.073258216272336, 60.25068543630582, 57.214080444223384, 52.2029561462459, 60.43467477988797, 59.18764814461783, 59.398372982900675, 55.630378021113344, 56.83207017889639, 56.50130143266351, 64.22472416262625, 51.74215463938767, 54.84816893332599, 54.40033368575911, 56.132445444393525, 58.63232935413116, 52.86788177564025, 57.18720981628705, 53.595734332211954, 58.974568597840666, 54.19795349262391, 60.39257891375306, 62.03491183591761, 52.76798639666514, 54.78968679401604, 62.43641461950831, 61.00866974173148, 57.82094639011564, 53.7308966384172, 53.81402431031951, 55.486224155958624, 56.437564793199805, 61.428553664514155, 52.61787071264443, 58.62967108284188, 51.492875461605365, 61.665257489493754, 55.5593486157379, 58.783087080746654, 60.35121082742394, 60.48561940076856, 55.93873814515871, 56.18713256246497, 59.02298108431343]</t>
   </si>
   <si>
-    <t>[52.747297842871504, 52.448546132974094, 49.8245652770594, 48.34410438719961, 52.73401649627683, 50.95263995048739, 45.87129920824118, 51.97785725757981, 49.77570632488967, 48.61938879819724, 52.68928330209676, 50.64894537862866, 52.900131752305676, 55.77386708901444, 50.016591542227204, 49.128725471293194, 56.394399876545855, 51.48917415825705, 47.9083034453454, 49.27324258245062, 51.12368067284689, 52.22984295221473, 47.94573000002069, 51.476560395900364, 57.72219725517815, 48.658346514221215, 46.27034551984576, 53.93196942643738, 54.6974670095863, 47.34296630840685, 53.23995837634692, 49.34113309257102, 51.501556193479, 48.003721921810424, 51.00864587122726, 53.95609477381676, 43.73282197174585, 52.26300248536951, 51.35069280937294, 40.99815046521458, 53.38716462458083, 45.845929277453635, 52.40797544373631, 49.94910502211951, 49.07130431278587, 49.57217837928429, 54.36683671837475, 48.62803275390964, 46.93281353808597, 51.152947055321874]</t>
+    <t>[52.747297842871504, 52.461716146930655, 49.8245652770594, 48.34410438719961, 52.73401649627683, 50.95263995048739, 45.87129920824118, 51.97785725757981, 49.77570632488967, 48.61938879819724, 52.68928330209676, 50.64894537862866, 52.98498023715415, 55.77386708901444, 50.016591542227204, 49.128725471293194, 56.31995972419221, 51.48917415825705, 47.9083034453454, 49.27324258245062, 51.12368067284689, 52.22984295221473, 48.03148131701076, 51.476560395900364, 57.72219725517815, 48.658346514221215, 46.27034551984576, 53.93196942643738, 54.592293671377796, 47.34296630840685, 53.23995837634692, 49.34113309257102, 51.501556193479, 48.003721921810424, 51.00864587122726, 53.95609477381676, 43.73282197174585, 52.26300248536951, 51.35069280937294, 40.99815046521458, 53.38716462458083, 45.845929277453635, 52.40797544373631, 49.94910502211951, 49.07130431278587, 49.57217837928429, 54.36683671837475, 48.62803275390964, 46.93281353808597, 51.152947055321874]</t>
   </si>
   <si>
     <t>[59.70975069570941, 53.51486345602761, 51.80102963824781, 51.499944696806416, 55.61310593401056, 54.92960213326548, 52.45523472558585, 54.914402599844905, 55.587905208893105, 47.46883856553232, 54.03832957177938, 56.024651781164536, 55.13259675116238, 56.77611657003441, 52.4239925336669, 52.035228627285846, 61.65349802172766, 51.801263800743925, 50.96729712256282, 50.19790701728948, 49.2232990163984, 55.2175889678294, 47.86493984702203, 55.712832598360635, 55.524901492996875, 56.94454244953838, 52.75145459741257, 53.63236253977347, 57.2429747519192, 48.82202202688524, 51.33385285319578, 59.761168292693604, 55.82554146046814, 53.89475335388272, 48.479933735860946, 56.74324839661081, 49.55018501879378, 54.32578718737443, 55.9855977318442, 45.559732643589, 59.41045213709267, 44.61404425528136, 60.59907789040835, 54.18768662241816, 51.10242500100004, 55.62936674620623, 58.2744540489506, 52.45358200839381, 53.327539808182635, 54.56407128116017]</t>
   </si>
   <si>
-    <t>[59.5524266112699, 54.22055283891361, 55.13841932271159, 51.743659162580876, 56.721663434513616, 54.86403650948584, 52.13079801650788, 55.802107973022956, 54.332333996928, 51.5660936884648, 57.04661936571256, 55.397285223951236, 57.73195271758698, 59.13757111983888, 53.65922417463379, 51.64863079455314, 61.67361629965956, 53.498429321261185, 52.74358748936892, 53.199699717820295, 51.70124352887937, 56.11746758282122, 49.52866647870137, 55.416090751851996, 62.298310299386046, 57.221944397758094, 54.848423434240296, 56.30681558070118, 60.00651770844686, 51.86027736748188, 54.94450886108571, 60.37874195417678, 55.956576785169524, 53.289049477940395, 54.23905130192558, 54.96152035453881, 53.4876028938481, 56.086586029358386, 57.25528290354456, 50.380784507867716, 60.76544740605466, 46.249556589906625, 58.23434238789169, 56.29258901983452, 55.107005988743346, 56.63584289743066, 59.367634584821154, 56.52043276748655, 54.66315880962463, 55.63363792934176]</t>
+    <t>[61.137781186640574, 54.41862245025838, 56.013734578480125, 50.992119370880516, 56.77842994248306, 54.92878329614698, 52.62510201746026, 55.78714571206099, 54.96945038135127, 51.01244180782208, 57.90842018545537, 54.853028922399105, 57.05825868172285, 59.13375482103387, 53.69515371262207, 53.462961922257406, 62.48708760602822, 53.297689135503184, 52.80579658859995, 53.23315607893628, 50.98712283250828, 55.09904755628986, 50.119249832613086, 54.726353764303305, 62.08841192454181, 56.9206741515462, 53.91529255395168, 56.0854826123288, 59.76359963708152, 50.06751363287899, 54.130427147782406, 59.10904124924622, 55.72080990590139, 53.62433853237919, 54.49150867947033, 54.24869199740749, 54.028078797141134, 57.078614595724105, 57.869383826069864, 50.81924516696968, 61.07598515617052, 47.346244493009365, 58.17026657477047, 54.698865681281745, 55.3323801479681, 57.02966038444318, 59.773943150682406, 56.36579309877554, 54.277631439688186, 54.43926585798749]</t>
   </si>
   <si>
     <t>[60.100900289211346, 50.17645077204045, 51.676108836750736, 51.04161572331967, 56.45363249673202, 53.32820131987923, 45.61053875527362, 54.92019794166324, 57.473489221263776, 49.144265477157866, 52.228274090129865, 50.6376166589458, 59.1880773597084, 56.76700734647367, 53.72311003981372, 56.15389278125385, 62.94306331762683, 47.075752982490144, 50.60701608213041, 52.84598728639806, 46.58705792626845, 55.89096433586754, 48.15549641032464, 54.80886077398368, 60.97465485704746, 45.68269042094234, 55.920865844907496, 53.0030057278358, 58.164698301172066, 47.62108660837407, 55.41783284319248, 57.089534834609196, 57.17669525870222, 49.528112947215206, 54.03631512185801, 51.908610945087176, 53.024907447603844, 56.02558144927495, 55.68850985862521, 46.454909618362606, 54.23452690999498, 42.29831763293903, 54.15968455031926, 54.465084601089416, 55.304533182377874, 57.91782233679248, 55.812746351490844, 53.359639955302, 52.06605795587004, 54.21813806752442]</t>
@@ -2071,7 +2071,7 @@
     <t>[62.82693308035304, 66.4148413866204, 62.86779818847187, 74.13641635906745, 46.93932270819901, 51.22625073005641, 67.30097218300519, 57.71507215238658, 74.79435110206212, 51.97880572071691, 48.94549781276671, 58.392022928243435, 64.83820652431348, 66.50007224424932, 52.1198012218401, 49.41745447652035, 84.55502740656287, 49.37689782884296, 65.44611245836884, 48.59955878046609, 62.76578678445291, 48.30275778283919, 62.063924702693946, 82.588147090647, 46.99523909463638, 52.3608575617124, 67.3624487533155, 45.00724485394073, 74.42320720405814, 69.8087643703495, 69.80036153627887, 55.540096155489415, 52.93943067560624, 69.4752176350378, 37.48307016378925, 65.51273877737681, 78.12355354563638, 49.33230012344823, 56.15763733634472, 62.55593306449105, 54.80606901041935, 74.66281177468744, 48.81814741611629, 61.441069653656356, 50.1681883696489, 40.35479090117305, 61.94820174667806, 61.8416036278474, 58.846638970298606, 74.48607786979701]</t>
   </si>
   <si>
-    <t>[42.49220928124463, 61.225895235844064, 75.49398435625618, 69.97779723100672, 48.90023765605477, 49.488665334297664, 70.14628855253116, 47.40693867363443, 76.73298324530478, 47.88520909284254, 47.83430715034644, 54.152416650308645, 71.99418894200015, 64.71913148027433, 63.19581822075519, 46.046323599527355, 89.21160063282123, 54.903662019208866, 67.04772358506214, 50.13582643906045, 72.7230288607014, 47.61034071673753, 64.98029750906507, 72.26204380603457, 61.902818946189214, 56.8150334387542, 64.8145465385148, 51.37317923572117, 83.12363919598434, 56.71935377143271, 66.18281588963, 57.03087408160588, 64.09627689527774, 69.2523272968053, 49.20134247518601, 63.608499308192776, 69.1089666742406, 51.57650761996559, 51.41161627735018, 76.08929009090005, 56.477408666261894, 64.76833656591799, 47.93540593059534, 51.22444798991388, 75.07423368325684, 62.861614945639566, 59.72067361500979, 66.92188783460095, 64.95658954583382, 50.32524675710945]</t>
+    <t>[44.55460841145809, 61.25348537608895, 76.44309476444452, 69.44979006830728, 52.897588758007224, 56.23552266304177, 70.23794964778256, 53.470516019623446, 77.86755265229421, 48.75128719229754, 51.84852468250957, 55.53702143802016, 69.72918227041802, 68.58935356901864, 60.04544312157184, 51.57759507139798, 89.40617353362906, 55.482785489461065, 63.99241780398935, 50.49399508162014, 72.33254047435936, 50.49007657886453, 67.15538792661384, 75.13152302481758, 61.03985624716209, 56.345991828434556, 66.80538175628305, 49.97273000289915, 86.56458274513238, 58.08917803800841, 65.02043655302744, 56.492936298234085, 63.63438095437699, 72.35000178857833, 48.33922096332117, 64.39907141323427, 68.81058316449501, 54.09781019165249, 54.32068585612098, 67.66046576546954, 56.04899521745595, 64.6190056437229, 46.04761462901089, 48.54571371830806, 74.49544317474242, 60.167999830370455, 63.07409627000975, 66.55728832481532, 65.33794809149235, 52.160141991626865]</t>
   </si>
   <si>
     <t>[30.19740100478362, 52.869536149263375, 73.16880343961671, 66.89737378628081, 44.51585318710908, 51.426931192627066, 62.436060898485444, 56.06122792242656, 65.27573861054104, 46.45483235996147, 37.69938561037091, 51.38227668687468, 71.62672576477816, 52.41580728321696, 46.249672041815614, 49.26269651797548, 74.15376059708008, 54.04799405464989, 57.87450423778929, 52.491647814322825, 63.324047776072035, 45.688239386976626, 71.60527367268985, 70.06309145063861, 50.97236928730689, 56.22105344861504, 54.16889678185256, 54.75367264078885, 69.5928882244406, 57.63400846657925, 69.07444413371095, 54.86057627192653, 54.20155946248201, 68.14786549944257, 44.413636863563006, 53.72294082978342, 67.78849580496133, 60.55728412334809, 44.27596655617516, 54.098472243432994, 67.4828216952698, 54.699523685152016, 46.595421908633796, 47.67228642148467, 65.1882406081792, 45.834860871550966, 66.55793636013316, 57.895682329875754, 50.881031477085706, 49.83720045792288]</t>
@@ -2083,31 +2083,31 @@
     <t>[63.42744772213854, 53.555807730388025, 86.04308549133722, 82.09012402230474, 42.166978791645406, 54.79517012149692, 59.218446893326075, 55.94885818712414, 72.81600464816255, 59.7966590670228, 52.88984930008739, 49.37024231449632, 76.30258703587307, 60.2490866169369, 49.58330421181473, 47.37526756159538, 66.50502637249114, 44.905379780101036, 82.87856466467348, 53.32705184122437, 56.14767747115986, 50.77721591591423, 61.17282514545589, 83.77442371320944, 72.00120115647043, 46.33006760061071, 57.23172592459663, 42.60145815485127, 87.37495082263078, 43.28604506135757, 82.97443342507943, 53.5007488688939, 81.73698115714085, 68.56141743963188, 44.145267735066916, 63.12684482771744, 77.13861408436381, 49.293561367691176, 54.64051857044515, 65.91136253600301, 62.241608040855404, 64.0658579801564, 68.58583827381513, 63.73672627801906, 50.87311502815286, 56.91142309132143, 82.23820613223953, 61.47299235385518, 59.236960352934474, 57.52133503051995]</t>
   </si>
   <si>
-    <t>[55.23294975452011, 74.93411869447458, 70.2068270478852, 72.03511784775924, 58.93452363237391, 61.41993330030745, 78.17025644284081, 51.654748204215196, 59.58820337149199, 47.550561104187736, 63.72692781901989, 47.69988512660201, 84.845608541828, 61.076151005775145, 50.31019256414138, 56.32985778828218, 87.71143477522618, 59.96994875543976, 59.31627749086081, 53.2625815116552, 67.61406009878502, 58.434289447118466, 79.51681229021419, 73.83720383488945, 66.64062900095887, 70.72981120121848, 72.24086213187888, 61.93054865850017, 76.12998652265831, 49.590157527506896, 70.55258133029173, 71.27723334012927, 52.70960751999564, 57.799968063595735, 64.44002865978668, 68.08481776992267, 70.1853964757194, 54.65943969730548, 53.91459404803998, 72.03660540251907, 59.838441581984576, 61.39739785086715, 59.42602628949068, 45.03929016451854, 73.79044187488346, 55.044668928442626, 72.0834509260791, 63.395116354422825, 62.253706276719534, 45.46197610991657]</t>
+    <t>[55.23294975452011, 74.93411869447458, 70.2068270478852, 72.03511784775924, 58.93452363237391, 49.75078858907571, 78.17025644284081, 51.654748204215196, 59.58820337149199, 47.550561104187736, 63.72692781901989, 47.69988512660201, 84.845608541828, 61.076151005775145, 50.31019256414138, 56.32985778828218, 87.71143477522618, 59.96994875543976, 59.31627749086081, 53.2625815116552, 67.61406009878502, 58.434289447118466, 79.51681229021419, 73.83720383488945, 66.64062900095887, 70.72981120121848, 72.24086213187888, 61.93054865850017, 76.12998652265831, 49.590157527506896, 70.55258133029173, 71.27723334012927, 52.70960751999564, 57.799968063595735, 64.44002865978668, 68.08481776992267, 70.1853964757194, 54.65943969730548, 53.91459404803998, 72.03660540251907, 59.838441581984576, 61.39739785086715, 59.42602628949068, 45.03929016451854, 73.79044187488346, 55.044668928442626, 72.0834509260791, 63.395116354422825, 62.253706276719534, 45.46197610991657]</t>
   </si>
   <si>
     <t>[43.66658879590051, 61.85549816719084, 82.45389998648015, 76.45841822235796, 45.25222524726255, 60.52144361426608, 78.02423383839191, 61.46814468059586, 73.59868113442896, 45.03613499033315, 51.27966447561852, 54.27964780476062, 69.27661202457539, 61.23773292653475, 58.3647416154246, 56.03519022774721, 73.15815369476792, 60.99030095387067, 84.78397200709347, 59.22407412255662, 69.06753256149455, 54.72099180474913, 64.84460535052928, 79.37790473096614, 75.7292173527756, 60.79672988240059, 63.93549174558272, 48.03479151187467, 95.91644846376616, 58.64096353164949, 77.52896754768817, 64.62288575447643, 64.1570299513994, 57.80567358927121, 55.07390547634259, 63.16523885596327, 89.31106537754566, 57.06108250739351, 56.77899726282549, 73.29406203388871, 58.29390300970543, 71.26703778961766, 38.10774924797261, 55.50244450436469, 71.95428914260788, 70.71593392602706, 72.82678718452448, 65.56902021323023, 69.09013828231863, 61.68608660658681]</t>
   </si>
   <si>
-    <t>[44.63115161617276, 64.04680772159233, 78.95445567681037, 71.27716911921893, 54.950763086680176, 51.55610888145626, 74.85767804711504, 48.31252760739643, 80.98818144437537, 50.40450618560372, 45.03649233342694, 50.60292020315752, 74.87829536457323, 69.1513675949128, 56.103259516936994, 52.92118950519423, 85.08312934382651, 58.91345543891338, 66.49783489367178, 50.52590476403312, 72.31443503922274, 51.48761319024705, 63.972627093573195, 72.98417988420819, 66.08467188372923, 49.393038654783666, 64.00393682049848, 52.254191593146075, 87.08546381171094, 52.161589785248964, 63.54228385261127, 59.560208505312005, 69.50295749893971, 71.23089251945431, 54.33483641835896, 59.604539031652074, 65.71699960576211, 55.783042582029026, 58.78997337398707, 74.77636701331579, 58.72406252244146, 72.31160869783253, 42.87122337118156, 49.22779222169729, 73.09537832601396, 64.0874416275037, 58.179411536993115, 68.62679642788774, 67.56266436164108, 50.61833321302777]</t>
+    <t>[43.92760121433153, 61.63934011359807, 77.99301184747938, 71.526597381987, 54.07438102689019, 51.7819151572187, 73.04806449703538, 47.20170236319878, 77.88165303941878, 51.2651851615648, 48.64821096969575, 53.6039849515908, 75.3838292661157, 67.51904566215742, 63.72879875648939, 56.943604034900716, 83.69615973098796, 58.29008444161224, 62.2319690515383, 52.343404493635404, 72.15500802486932, 50.81704849344368, 62.94720955077213, 67.2265615784694, 64.66725426298531, 51.6005784059782, 65.06756303295674, 52.42192365146917, 85.92387845059366, 51.97778146402821, 65.4978976192647, 64.19214643766945, 68.24244999126283, 71.607041188016, 49.310873632991466, 60.49004901033313, 68.1889383961986, 55.635005763814796, 60.51287666029792, 75.58232298651485, 55.19894506274025, 73.48520319529888, 46.82171178440356, 48.02753005088104, 82.75016952070699, 68.00743587728266, 56.384436038599944, 66.51366365460372, 67.57141769252024, 53.00584680516575]</t>
   </si>
   <si>
     <t>[40.09310880123183, 68.77034559396067, 75.07387552443022, 66.52001611631536, 38.30643259734653, 41.09726186100259, 66.0643114444109, 59.239836614657314, 74.09738290060272, 57.22061496004058, 52.62985165260631, 47.461903957695355, 78.77733054892015, 57.896795512874405, 51.96839609073001, 58.31802237165243, 67.92562394125746, 55.317058862090875, 63.959025138285185, 53.30626234819806, 72.06959463543936, 37.995582812164464, 52.91325521597193, 73.5812686260118, 49.62590789593549, 57.25988533770521, 55.50939808699259, 56.88283444054225, 74.07888950207517, 46.82981089480172, 57.35340644751479, 60.965400102290076, 61.20168505494773, 69.61466431796795, 46.269759511010804, 56.56517367823222, 63.01199415694781, 49.4113115694319, 60.990497777913745, 66.17410756773646, 51.54752169784017, 87.08313369305768, 47.90247326451288, 44.70369402378805, 62.959200866746265, 71.04738437984591, 61.75492176882565, 61.20460639775027, 54.31219071373188, 62.85275348831508]</t>
   </si>
   <si>
-    <t>[57.50508027065012, 74.6002029430448, 89.84638071998282, 92.8532021091807, 63.196066619877385, 63.856331520123526, 101.5397112087228, 71.19365128475944, 92.35438824252446, 76.72125949981194, 62.568424510577195, 73.69567788852272, 92.172141082635, 97.86919956147449, 77.73863731398949, 64.36814428371167, 99.77035936535654, 77.95902086831833, 89.06216679348698, 59.97942086256819, 90.88299590835524, 77.11933082016746, 72.32216370747057, 87.42193660175907, 86.429292059001, 79.00732966818374, 95.4476240413621, 72.67407584300904, 75.68118367324232, 77.87454770521379, 78.2352000824136, 56.802611017976936, 87.75185560944894, 89.56304420221875, 63.95711730074294, 86.59172483372133, 88.57269301123624, 76.16147492198478, 74.25619019120947, 90.47122236373893, 67.4426595131772, 89.40097241156944, 53.961043715700455, 67.92501005341013, 89.63252411209298, 80.50988656738558, 88.03569299073023, 80.50858166425246, 75.01043672551, 76.47422594031192]</t>
+    <t>[57.50508027065012, 74.6002029430448, 89.84638071998282, 92.8532021091807, 63.196066619877385, 63.856331520123526, 101.5397112087228, 71.19365128475944, 92.35438824252446, 76.72125949981194, 62.568424510577195, 73.69567788852272, 92.172141082635, 97.8691995614748, 77.73863731398949, 64.36814428371167, 99.77035936535654, 77.95902086831833, 89.06216679348698, 59.97942086256819, 90.88299590835524, 77.11933082016746, 72.32216370747057, 87.42193660175907, 86.429292059001, 79.00732966818374, 95.4476240413621, 72.67407584300904, 75.68118367324232, 77.87454770521379, 78.2352000824136, 56.802611017976936, 87.75185560944894, 89.56304420221875, 63.95711730074294, 86.59172483372133, 88.57269301123624, 76.16147492198473, 74.25619019120947, 90.47122236373893, 67.4426595131772, 89.40097241156944, 53.961043715700455, 67.92501005341013, 89.63252411209298, 80.50988656738558, 88.03569299073008, 80.50858166425246, 75.01043672551, 76.47422594031192]</t>
   </si>
   <si>
     <t>[40.5885401129906, 59.659789440194544, 83.81110643423666, 87.84477042800893, 58.11334515957899, 54.89690559363024, 79.54087730533892, 65.24349661050147, 90.07112883080093, 58.16758639658579, 46.99759051054409, 52.454522565214056, 76.50428224814952, 68.47306329342554, 52.33355316819516, 50.918485452651865, 108.6434412591442, 63.444613999598985, 77.28383199249535, 53.59951120037689, 52.09884077767716, 61.28524443274347, 62.0512994338457, 69.03869218890937, 51.39667505340254, 71.0020496716976, 66.50132823471351, 42.414028589369074, 86.44621985282178, 56.68008084248821, 81.33836480652558, 54.379102359351094, 71.35422403313028, 81.0163449266897, 52.19281001701832, 78.50132459953302, 67.45501235783033, 47.90843477419955, 58.10368527898912, 64.89627263071701, 66.43784194324941, 81.94398028346622, 55.68002343487739, 48.29853906380384, 66.49206124056504, 49.942981325685174, 64.79434609955162, 61.508586318695045, 57.4744690502165, 60.72181200389004]</t>
   </si>
   <si>
-    <t>[54.081565991771434, 72.20484288628917, 82.51191888795617, 85.43728219827096, 47.16943226997505, 59.0946420933229, 87.41617464340175, 48.21418948383778, 87.05065766269064, 49.565163637665634, 55.97217369034241, 58.792151560624895, 80.28618923911935, 77.52993805237001, 62.5093043074389, 51.845766399064104, 95.8093915056788, 50.011456660098986, 73.53060344412484, 40.45561823962666, 70.07950980257135, 53.49327116961681, 70.14229416902586, 90.7101968988524, 69.57208314195796, 77.55089334678924, 76.30072262316625, 60.110983664741816, 89.92414008247242, 59.30739282214704, 90.05558384569413, 88.22751129891401, 67.95090796197755, 58.23261317195199, 66.53392565838111, 79.49840829315816, 69.33590406251294, 62.22220567413219, 71.74301195667826, 83.83766001219739, 62.59070863664587, 68.59169401028493, 44.685143704809434, 37.762520821019685, 88.56300443169403, 67.63582262221519, 82.3367874974954, 62.78256020450571, 64.3490437581885, 40.303863375451954]</t>
+    <t>[54.081565991771434, 72.20484288628917, 82.51191888795617, 85.43728219827096, 47.16943226997505, 59.0946420933229, 87.41617464340175, 48.21418948383778, 87.05065766269064, 49.565163637665634, 55.97217369034241, 58.792151560624895, 80.28618923911935, 77.52993805237001, 62.5093043074389, 51.845766399064104, 95.8093915056788, 50.011456660098986, 73.53060344412484, 40.45561823962666, 70.07950980257135, 53.49327116961681, 70.14229416902586, 90.7101968988524, 69.57208314195796, 77.55089334678924, 76.30072262316625, 54.73171320023739, 89.92414008247242, 59.30739282214704, 90.05558384569413, 88.22751129891401, 67.95090796197755, 58.23261317195199, 66.53392565838111, 79.49840829315816, 69.33590406251294, 62.22220567413219, 71.74301195667826, 83.83766001219739, 62.59070863664587, 68.59169401028493, 44.685143704809434, 37.762520821019685, 88.56300443169403, 67.63582262221519, 82.3367874974954, 62.78256020450571, 64.3490437581885, 40.303863375451954]</t>
   </si>
   <si>
     <t>[44.70477309690192, 59.87591799487667, 79.63826772737335, 88.65560727111341, 53.635139682923196, 48.33114460438414, 71.24127163136197, 54.340108066898914, 88.39221644549555, 61.258336209213795, 48.90465005577573, 54.725104390627344, 77.32887850156563, 61.781895216302175, 43.07102347063526, 52.58681240126825, 65.71609071617026, 50.69203725458174, 80.03237579982626, 50.67156794102172, 67.84641037037417, 59.553958336273624, 66.10591200744508, 59.90131925537641, 53.4471235932368, 50.86398435288504, 74.39999035146415, 50.31415744328514, 80.1740938636861, 51.57793953725011, 79.30803842422178, 54.458204877258396, 73.62077582253497, 59.2312975977164, 57.785898329047164, 68.65293190174138, 71.60678423228819, 50.93665353537275, 62.737724383833545, 72.81214257830581, 54.80555578362316, 73.46712403058987, 52.41316187369051, 52.734394780719626, 70.61828082241767, 49.30085139327077, 57.03818555213002, 62.90355079610515, 66.6053123292637, 74.43144957422389]</t>
   </si>
   <si>
-    <t>[42.8489901828032, 59.21181078739114, 65.47344439302417, 74.96235617142908, 43.65464388546503, 44.991365101118994, 80.0665898920937, 49.739927002184125, 81.13447532291588, 47.3650848086879, 51.944282101178, 46.54741975102117, 69.41349926622568, 57.37689561413651, 49.27075545823633, 55.27198414146308, 85.91290820862271, 43.221173652457125, 64.68274037331632, 52.60814081903185, 60.72683347948042, 39.070978488214934, 62.608962919290725, 64.80091425028105, 59.22698857128128, 54.16631597524003, 62.680283668451736, 40.45506685863236, 77.06664438343303, 58.495839677425366, 57.105505141115195, 59.14663944788243, 72.91280010924525, 70.29369623226573, 43.1668064828862, 58.681171255358144, 62.69083678463516, 48.71822422478455, 54.21901250556353, 63.118934287796506, 53.5543833788974, 65.87379130746758, 43.79253287939932, 46.972107809634544, 66.47826771988787, 62.42725651498743, 54.460455283517604, 62.59750390469226, 68.44555125462001, 51.70395993989647]</t>
+    <t>[43.40179409265038, 57.943525052350424, 65.79336563255701, 71.05658661916674, 43.07894785616958, 45.5213267800393, 78.00275261219134, 46.79035155339524, 81.41020347253188, 47.14753292574086, 50.609843978329316, 46.13669628767079, 72.75562853344582, 59.47775593388805, 48.391587906691726, 54.31433235353005, 87.18772657934826, 41.987560573269654, 67.45720579613138, 54.07328099577308, 63.16084238650642, 43.4852381205416, 61.19530683612076, 65.30737477147017, 60.68122084104787, 58.05706354616832, 60.693238099905834, 42.710232770833294, 78.15768371367716, 59.25805162330631, 56.361900188374484, 60.09465909610339, 69.62590804809783, 71.75143720426118, 41.6918065718533, 61.623505925562895, 65.18490303213, 52.82298648104246, 56.36612227908504, 64.79057534206632, 53.138906414737754, 68.84493913675674, 43.28244874922934, 49.29177593933069, 68.92167635826553, 61.657893340825275, 59.0412481126602, 61.390214275965064, 67.0177555104644, 51.82888429389305]</t>
   </si>
   <si>
     <t>[45.09572188370223, 46.42483217042191, 63.945666043096466, 62.718128477841994, 45.9507436660355, 42.32726731860743, 85.11052128867196, 52.529362210436, 75.41717965981935, 39.134768737602094, 64.17895557895565, 48.70179066197011, 72.99312508031157, 56.45664909073314, 46.91751996220342, 47.59335188061196, 94.03447902761253, 43.43371559288396, 59.4731977608025, 52.57567507722831, 57.68772305779994, 36.294491643026504, 68.69357084208926, 65.10938140770452, 59.41665693441304, 55.9078360491171, 49.81910421309988, 42.10154821041281, 82.74497482754718, 47.406937325573864, 62.356958545681756, 70.45874445253607, 79.23619961256202, 67.78191069945395, 38.87696268371716, 63.911433439408505, 65.30125043905062, 54.12159142634807, 52.86866772346676, 63.12819127784531, 51.76929280694993, 54.952156452575416, 49.34651877328069, 39.922592286556814, 55.953053061242734, 57.84380308392565, 60.70370053108938, 55.15990636224375, 57.691307717917056, 58.852777462992755]</t>
@@ -2119,13 +2119,13 @@
     <t>[38.40148884328493, 56.79202096026035, 94.69307717433962, 84.03965691186161, 43.54623386214484, 48.75337922500504, 58.586468949876654, 50.464634667149156, 82.06607410025538, 59.8583962508066, 48.896397931524504, 50.09427347388683, 86.8345096290482, 60.59891686402407, 61.08035463398536, 39.275364678058864, 68.95527391860865, 67.82022081766429, 78.7984275976314, 49.37917326120602, 78.57254459233795, 74.11010607799736, 64.27379040346422, 64.41400669998795, 64.61301377730855, 53.26679134112802, 54.92460041977427, 43.76691269841948, 84.0492378483331, 56.978114427567846, 78.28430119428991, 49.02556434614846, 75.4556348497228, 79.63058754024429, 47.05051473003665, 69.8186037632515, 89.78008656938005, 50.58755860686049, 55.92396960463226, 92.65777380670174, 63.123593476813085, 56.70513886841448, 46.703279539364836, 66.57180348068908, 97.15843090009233, 64.64707883540054, 53.819454839133975, 61.30123035337989, 57.69080613543942, 58.90110507286918]</t>
   </si>
   <si>
-    <t>[48.01573696088019, 72.06695482409467, 75.87133737992858, 73.63828817545452, 49.91404268962629, 55.32297902576572, 96.59262193558345, 53.06394526782027, 73.08441723789747, 61.169333627424756, 50.97877745797369, 59.70923361146703, 85.80794099671218, 63.29786003914204, 42.28271737525076, 50.00050885149368, 122.57643368953838, 66.7044785014603, 69.90155278665004, 41.12486056262298, 58.946943356714044, 51.14294131577271, 75.68154607925925, 87.76507620553117, 66.01504525335335, 76.742891175915, 65.82642603761971, 62.1931047848706, 82.4186098617494, 62.28689099828543, 85.62124272376677, 72.2450708799076, 77.19740360260494, 61.74446457520495, 56.26227865615309, 72.64142826207969, 65.33936180508037, 49.2788786692072, 55.71872549351978, 71.8189768717713, 58.853412287912704, 87.17641867880843, 47.235300123933, 40.950501845144856, 93.7712065086348, 65.35241964477026, 58.394054473189975, 67.54714781205315, 63.6303859491452, 45.207871613832424]</t>
+    <t>[48.01573696088019, 72.06695482409467, 79.2170610900014, 73.63828817545452, 49.91404268962629, 55.32297902576572, 96.59262193558345, 53.06394526782027, 73.08441723789747, 61.169333627424756, 50.97877745797369, 59.70923361146703, 85.59448830720018, 63.29786003914204, 42.28271737525076, 50.00050885149368, 122.57643368953838, 66.7044785014603, 69.90155278665004, 41.12486056262298, 58.946943356714044, 51.14294131577271, 75.68154607925925, 87.76507620553117, 66.01504525335335, 76.742891175915, 65.82642603761971, 59.234462265113805, 82.4186098617494, 62.28689099828543, 85.62124272376677, 72.2450708799076, 77.19740360260494, 61.74446457520495, 56.26227865615309, 72.64142826207969, 65.33936180508037, 49.2788786692072, 55.71872549351978, 71.8189768717713, 58.853412287912704, 87.17641867880843, 47.235300123933, 40.950501845144856, 93.7712065086348, 65.35241964477026, 58.394054473189975, 67.54714781205315, 63.6303859491452, 45.207871613832424]</t>
   </si>
   <si>
     <t>[46.25091889443064, 59.566876217717216, 102.38896748840929, 77.97624790061543, 46.173003587971266, 56.011149191426306, 75.964576372636, 57.87978679884992, 80.05586721290915, 54.61387910502956, 53.005567414058284, 56.93094210814371, 89.14639983864583, 56.72353680097836, 46.577316148658156, 47.63066068232597, 84.88493743094307, 60.644146156465595, 65.97255746144104, 48.33752208309709, 71.82971198049246, 51.61225785832835, 71.53068559312221, 65.7863670052135, 60.133746233813945, 55.024611185164666, 77.7538454682429, 48.513506201369275, 81.23490369218875, 66.26625674890066, 67.42053454551609, 50.534233154686135, 66.7667519891835, 65.90642632950427, 60.91523011659763, 68.28618084312463, 81.53910046221657, 59.33845150847043, 54.05311918979581, 79.67688149050487, 57.778622287544955, 75.49833818741138, 36.89647245485431, 71.83394773313992, 75.53473455095241, 63.44980553566197, 53.7720883906617, 68.54779462687017, 60.73039101974546, 56.821483656004375]</t>
   </si>
   <si>
-    <t>[43.72811226062468, 60.620951993895495, 82.34263975749914, 76.59928038196081, 49.162046550572036, 50.08623514971064, 76.9374024537251, 46.54252196036616, 84.51365256177591, 56.373155057082755, 45.18849174418039, 57.718140495654666, 77.78587986499468, 63.0990605255135, 57.82852022218669, 47.92996505121411, 89.31366445134776, 60.11308601114918, 69.03932824380273, 47.99682951880562, 70.80025872759943, 54.03296446515804, 65.76302400824883, 67.4972626024197, 62.89655029938438, 56.632259414594685, 65.10568059414368, 48.46174523472287, 83.61147452749633, 53.721142914018166, 62.86650712319604, 51.320324238695825, 71.67635373553756, 72.45692949880932, 50.88239009859245, 63.35253782621641, 67.27988352221347, 55.05467041332945, 53.67317895151859, 75.87571742318713, 55.700562586743814, 73.53927222003145, 44.893792140049534, 48.897318217079, 75.00355876701106, 63.56140704563442, 51.128825935828345, 68.19182786076365, 65.07949036405645, 52.74909397436549]</t>
+    <t>[43.463112861330565, 61.49067872135364, 79.84776706704291, 76.7092279358381, 49.69587712043585, 51.409813611857494, 74.0328140637237, 49.25192598138836, 81.6461986309279, 57.218692950010855, 48.091567580934274, 55.34778255849073, 76.32857773344301, 65.67686970123775, 56.68133813704956, 47.62955813912552, 92.6730515406582, 59.177683355655546, 69.63195808349596, 50.963035819685395, 71.51196444070905, 54.72202783459555, 66.22987545119973, 64.41889544516573, 65.84913828238712, 57.00336988999246, 66.62530270357044, 50.43034532627185, 87.35377389190425, 53.830885400627714, 62.516722796399904, 56.66930723828089, 68.14131907082059, 71.70914549405133, 48.57550004537788, 63.804701876522635, 65.81135711953733, 57.607692133377114, 54.8723241038387, 78.94336975615711, 57.39118242681692, 71.6183325810715, 44.514510808970385, 51.977950174646395, 77.64556335933285, 65.38960147680213, 51.778887229743816, 63.39050404705911, 66.07217988188422, 54.09433187245922]</t>
   </si>
   <si>
     <t>[42.31789549212387, 59.773676411801816, 84.72581692701452, 76.85684263400626, 45.94798175982469, 41.223549546629116, 87.61073349536944, 49.42945512855807, 80.6974083752929, 53.51843226093568, 50.470664521354, 54.67107405256992, 74.76024855815264, 55.670862967584526, 53.375526135423875, 40.99906380319676, 91.42959616050332, 63.39421228829217, 61.41196854751556, 42.90157392530028, 66.01889932046728, 50.7907873380616, 65.64678555264648, 73.75821789698354, 62.48101513934787, 64.84122243069737, 55.63226503400024, 61.16016554850073, 78.33421146898642, 48.95783006260156, 76.93284996012962, 53.03084926865359, 66.78760632524147, 72.67083662122732, 43.75789045151365, 68.68697657923909, 55.67178026983675, 62.027385216124976, 44.229572329504784, 73.66082237431347, 64.19814202549122, 68.31736639298516, 42.08748060997298, 41.95265893694474, 69.90151305164537, 63.68729087839587, 72.04133116786821, 67.39828752622773, 51.66763997151126, 57.52191913750629]</t>
@@ -2137,13 +2137,13 @@
     <t>[64.95140902490903, 67.37338751933828, 62.28671219092394, 69.93198060448705, 52.1135403668959, 62.84697383467983, 51.28761100998915, 58.72767759289075, 71.07705687758043, 46.57009844881594, 51.58987339934675, 49.364504981117626, 67.32127502725224, 66.16614036412604, 50.24353279753401, 43.57257211922045, 74.77031589933426, 68.94676171735567, 57.29581007605376, 47.878426644808115, 65.76836307697869, 57.60714204589371, 55.487475044194184, 76.00039622400453, 53.225874899905364, 55.20473885625643, 69.06361053281013, 51.15089594932758, 83.67270922212306, 65.99156752692699, 72.0369501455352, 56.70839760227964, 53.42017961908331, 69.22565165623435, 42.02386830490648, 61.139106971072806, 82.083451318845, 49.62989656608293, 57.14361030036694, 55.27503552560517, 46.23760075941549, 70.15421912305442, 42.29616054787433, 59.84849972972617, 63.08802694399649, 51.97904768753516, 61.559882738686575, 64.4905276256242, 63.45965908536319, 77.78097589942672]</t>
   </si>
   <si>
-    <t>[56.11745363606269, 70.19671198151572, 65.91012352461149, 59.145335687096235, 56.00801122543606, 47.494754050667126, 75.89625202490944, 62.8998168859474, 66.20328911866088, 87.45309524664395, 60.50456868122776, 66.98612262998957, 67.28073530922504, 63.81965732213145, 59.89299843824347, 50.718893400088795, 79.40144385157166, 61.63442106439201, 68.5128593208125, 52.85443048445765, 61.87563002863667, 58.72237192319222, 76.95544890661414, 77.03667925522454, 56.839508178216825, 78.74801317723805, 72.56993780496076, 47.58182304079815, 68.5143037724866, 61.70558137359617, 61.93505889260795, 73.34519382181611, 61.20120725648984, 59.67891218993278, 53.32949852188662, 69.13615251119136, 62.95648859755321, 59.94706634516191, 55.60404048996537, 80.13025445218197, 60.36918950448137, 80.31042293688095, 60.26726842669576, 65.26009158414834, 67.16159291955532, 58.30879134736824, 78.24539294972672, 69.07025086724842, 58.60704055289534, 59.55205572636419]</t>
+    <t>[56.11745363606269, 70.19671198151572, 65.91012352461149, 59.145335687096235, 56.00801122543606, 47.494754050667126, 75.89625202490944, 62.8998168859474, 66.20328911866088, 61.691868965274274, 60.50456868122776, 66.98612262998957, 67.28073530922504, 63.81965732213145, 59.89299843824347, 50.718893400088795, 79.40144385157166, 61.63442106439201, 68.5128593208125, 52.85443048445765, 61.87563002863667, 58.72237192319222, 76.95544890661414, 77.03667925522454, 56.839508178216825, 78.74801317723805, 72.56993780496076, 47.58182304079815, 68.5143037724866, 61.70558137359617, 61.93505889260795, 73.34519382181611, 61.20120725648984, 59.67891218993278, 53.32949852188662, 69.13615251119136, 62.95648859755321, 59.94706634516191, 55.60404048996537, 80.13025445218197, 60.36918950448137, 80.31042293688095, 60.26726842669576, 65.26009158414834, 67.16159291955532, 58.30879134736824, 78.24539294972672, 69.07025086724842, 58.60704055289534, 59.55205572636419]</t>
   </si>
   <si>
     <t>[48.93609400026481, 63.962837957569334, 64.4624757633257, 74.0678550781003, 48.49719785376973, 52.750264167778354, 52.778833019031914, 60.51294269524794, 70.77276074447964, 58.691794023039215, 49.3478363675555, 42.577030333809915, 57.784710023156634, 66.01778967544851, 52.56710278968629, 39.33380728199668, 73.95505922025771, 52.162220491177465, 66.14573925730258, 49.062193026602955, 61.15970601592712, 48.488584823281506, 58.01447966389496, 73.56881899593948, 38.594166025490104, 54.86481620009676, 68.61742516848041, 50.57696377258913, 59.95436335789377, 56.26124695044555, 66.62009355062264, 48.68728039593433, 51.91003389031178, 64.92680335606396, 42.72959019707547, 59.55602847941247, 79.98896716525364, 49.29654621100554, 57.67346990828251, 54.44746126803025, 45.329208630876195, 70.69748214666132, 42.691706335559864, 51.96107808983968, 48.89546216558166, 48.20008525063458, 52.98410000072083, 64.54004992839054, 58.82463415628886, 71.68744748847925]</t>
   </si>
   <si>
-    <t>[47.03602773166113, 61.787279176864665, 73.24900784127098, 67.7446433265245, 52.70455964768841, 51.19994209765932, 65.81692568965835, 50.14297269118314, 77.25388423655268, 55.85494473847553, 47.40244711232607, 50.397864962751704, 76.77619487444862, 64.16712751773805, 52.84616601310918, 49.707179107574454, 85.84618149613468, 51.31886812767776, 62.41458066975615, 48.63124817545804, 62.41956247315566, 48.954995539684425, 73.77957511828978, 67.81065924563728, 60.76329121701752, 59.81887549706857, 66.22602234091579, 48.767515678282976, 80.40882762767512, 58.54115954928348, 59.901247190087346, 53.549193847913045, 65.01371552871558, 70.05024774796499, 48.5684012570247, 62.91763852938531, 63.239343649329435, 53.132188027016305, 55.398218014560314, 78.1839131038683, 55.8366705848332, 65.46482041804056, 54.288415665957736, 49.935946624028404, 73.14792711608231, 62.552641949582096, 57.61354975820347, 70.26140037286622, 64.67143647278333, 45.78519356698948]</t>
+    <t>[45.4791325240414, 61.260590017455335, 73.92721606597908, 69.41691082429415, 48.67141070368904, 52.61909343150954, 68.19679729138397, 59.2092362655125, 79.04486902187479, 55.43037565921618, 51.179311582081304, 53.187170308249755, 75.02706168413727, 64.72326653301904, 52.799071286452424, 51.268299044153395, 86.71639277004925, 53.572663229862954, 66.10843523221975, 46.47551134256046, 66.95150588578552, 48.749306463283304, 72.403987644725, 70.25926633466736, 62.979902069135576, 61.469366020855055, 65.90847141587226, 50.5870412395775, 80.73820705440686, 53.94033314044522, 62.101679678687034, 60.393293938663476, 64.69606295368882, 68.81371449231037, 51.07048172940678, 62.585638051314525, 62.61407631348109, 56.172615495803996, 54.84850495487544, 77.06718936224273, 55.27854716745658, 66.70046276644798, 56.12526986053698, 54.68163202384942, 72.72075070650494, 63.91006291063123, 58.04017727592683, 72.52003230500272, 63.712499655040475, 41.75754034911112]</t>
   </si>
   <si>
     <t>[26.53874071921109, 52.23387943052573, 57.38425546229082, 66.02420797249988, 49.086741285250156, 48.454668971810605, 61.42746085096983, 52.6005930422607, 61.1262572296294, 44.652224000309324, 42.15609898239315, 49.35685730921175, 76.89249074140153, 56.83195160909668, 39.76997451519666, 40.816743390325264, 71.0997892114222, 53.57522902604679, 47.990859227574376, 42.275123799740626, 51.065576581608056, 47.87006609306682, 61.926354773485, 67.84607849582441, 60.083774197591964, 72.38973075035135, 47.537169063326395, 51.42293825469997, 73.25692470590577, 61.49629258386378, 65.40884160263582, 53.778063813133194, 54.69485244162343, 54.80366354674499, 44.39335090905711, 66.90724247228232, 56.01059437059025, 48.95922265215335, 56.3227734127954, 63.12736766262858, 64.02653360248284, 53.830109718101866, 58.10797514635232, 38.32067136422397, 64.08689572501456, 47.66888015769025, 59.27401901753841, 67.3123614832214, 55.7561123552865, 46.08108421419559]</t>
@@ -2161,13 +2161,13 @@
     <t>[42.72577131976552, 63.18078805798367, 80.92321935776476, 75.72636105077751, 45.21963988004555, 54.95563075879758, 70.47037853240033, 50.996456323157794, 77.69266712840289, 59.80187337790006, 52.68601541345208, 60.48830738116626, 76.024065194105, 58.407448323130566, 45.74548160170503, 64.5995851030917, 87.61309839303631, 55.67579999017618, 79.13835562295931, 59.847240280913134, 68.84396224112525, 53.29573588225638, 70.00882431950328, 74.1070899641785, 62.457938226147746, 55.98177502705356, 67.55959285722284, 47.74376678264429, 94.55077541947169, 56.44780490305094, 66.78759385017355, 52.4045234909615, 64.38633393819472, 69.07043214998892, 50.541038878194094, 64.12736110040376, 88.30728799277126, 57.416697649175255, 55.80721895747251, 74.60640651799146, 57.538862534923744, 68.55990534327181, 40.24902297153014, 52.14347553689948, 71.80872163360696, 61.518524542915614, 69.22653754085519, 62.480293397793076, 68.48841916593634, 64.37904729952405]</t>
   </si>
   <si>
-    <t>[43.76921938046656, 62.28951030473827, 80.5327188065138, 73.19086766277648, 54.00171572993403, 51.725469221088474, 72.10741745292395, 50.98171658379916, 78.2403755878509, 50.829011453554884, 49.54454432293301, 52.415750293822214, 77.039412196986, 75.15822614862684, 54.50669213527373, 53.78513117276163, 84.47424404985351, 53.219237683496445, 70.67792866842989, 55.46805701324996, 69.66424430473417, 51.33875543154413, 65.90331201823227, 62.385051101685704, 64.76841857887035, 58.503072744847216, 66.43274143855557, 49.847272774518146, 86.27004207316845, 54.90004661780311, 61.94206688163472, 59.36540688975705, 68.57215646717896, 69.91477973360554, 50.343801453443675, 59.76808354097053, 66.91598930017017, 54.1267813397151, 58.83675430714517, 75.14626537450216, 55.44396015159869, 74.58803582192597, 43.24764490008494, 53.4789381983973, 75.12063885187372, 63.80751570180567, 53.03266347042192, 71.62028497382065, 64.55903156177276, 51.81315275427229]</t>
+    <t>[45.90210040231815, 62.51270267212214, 79.28516545424478, 71.55102665086298, 51.985290359077794, 52.12122106937897, 69.1492190049697, 50.98247436668605, 79.87662821142823, 50.08647107754232, 45.7395921733901, 52.77961935959225, 72.3167552637079, 68.05429126686714, 55.389101746053356, 54.7538176822649, 88.03243652711421, 53.96168927085604, 66.1871394596384, 50.546285445803775, 67.27365628273019, 49.55008369255225, 68.11667846573773, 61.01335280554677, 62.31740586493042, 53.47155098629246, 64.54142373182339, 48.16443370861747, 86.51122194301902, 52.874095287427316, 61.34042950367394, 59.43882257606268, 67.44538443196058, 67.4823531629742, 51.285263065321686, 59.58392463477619, 64.74290448852668, 55.158800641306655, 62.00166447462882, 75.31513496610836, 54.490446142092445, 70.37085782603152, 47.29163239871877, 50.15296039758712, 72.04018623187105, 63.67243641261893, 53.20660221921597, 69.51474548027173, 64.58849957525378, 50.68642097185159]</t>
   </si>
   <si>
     <t>[34.82848373291577, 68.77611196813537, 70.4955841862636, 83.47423744168499, 53.8937410148491, 48.59826528184084, 76.08599127886134, 55.646878973859586, 64.89562455955544, 46.12217731238247, 53.66296893639649, 44.298299724176566, 71.88758208713071, 55.76907360188168, 53.04244744865253, 45.578722794511094, 75.29397038782983, 52.56793488711442, 67.04932064319803, 46.69014624579302, 68.99566314214034, 51.16357992616423, 58.61193635631289, 65.99068841742759, 52.14807244479404, 70.5154222010809, 53.42649740940275, 51.136916731371365, 66.12504145265953, 46.04819998506681, 57.857970837765535, 53.814676490814655, 61.929600272497765, 62.35621686042784, 46.046164972227224, 69.99215506306814, 60.693238760362796, 62.31328743658697, 60.077087857265134, 68.94438468934467, 57.260938722029785, 83.8255017610308, 52.7948013262525, 46.31637717898615, 53.815473001862784, 57.31102610472482, 60.28454727094152, 64.0078903601055, 56.15760264528675, 64.66543384931455]</t>
   </si>
   <si>
-    <t>[41.003582671527724, 59.099936957539924, 75.80936140474279, 91.84973447468279, 69.004183459165, 54.76490539780347, 82.37506108935757, 67.17727205350582, 85.12407988211181, 66.77099852148481, 53.078110048900626, 67.18190210427075, 91.37465047353773, 98.16778291120147, 65.94749928626476, 54.80495851667392, 101.28237283908629, 61.61728392197424, 86.33452188062837, 60.99856642115602, 85.51605197320666, 72.5647804329499, 77.57632135484322, 71.7358595651863, 94.44042350605592, 60.847902350152694, 81.0845049840366, 64.94324372656888, 86.82556005095549, 64.94784402739715, 73.75669150057348, 66.03900029079988, 84.31795835476866, 79.18683725605747, 57.21040595247511, 85.39824637222365, 89.01349485010374, 65.50698204024856, 61.429448924249506, 75.55594522109357, 61.5426612024951, 92.35301980434559, 55.37113829965589, 53.66185941285847, 83.51215421199433, 67.26590885234748, 89.03686882215021, 74.2966531075865, 71.94824891189825, 64.8877308286257]</t>
+    <t>[41.003582671527724, 59.099936957539924, 75.80936140474279, 91.84973447468279, 69.004183459165, 54.76490539780347, 82.37506108935757, 67.17727205350582, 85.12407988211181, 66.77099852148481, 53.078110048900626, 67.18190210427075, 91.37465047353773, 98.16778291120211, 65.94749928626476, 54.80495851667392, 101.28237283908629, 61.61728392197424, 86.33452188062837, 60.99856642115602, 85.51605197320666, 72.5647804329499, 77.57632135484322, 71.7358595651863, 94.44042350605592, 60.847902350152694, 81.0845049840366, 64.94324372656888, 86.82556005095549, 64.94784402739715, 73.75669150057348, 66.03900029079988, 84.31795835476866, 79.18683725605747, 57.21040595247511, 85.39824637222365, 89.01349485010374, 65.50698204024856, 61.429448924249506, 75.55594522109325, 61.5426612024951, 92.35301980434559, 55.37113829965589, 53.66185941285847, 83.51215421199433, 67.26590885234748, 89.03686882215021, 74.2966531075865, 71.94824891189825, 64.8877308286257]</t>
   </si>
   <si>
     <t>[38.493401445230596, 56.74349415807439, 84.65395355469327, 89.2634572751911, 51.549588675218345, 47.79425170771956, 58.5330564487236, 52.535153349739026, 86.13346143408852, 55.32928300297054, 50.145659389145635, 58.67860469705366, 76.40011022975044, 62.454710846415864, 48.418148549950786, 42.28728090134685, 67.18888600687843, 61.78243187263787, 72.49045038086057, 48.243781208675145, 50.51349534265234, 60.67434309297926, 63.179337779412776, 65.91673740325086, 59.08514172792654, 71.03926260366843, 63.61798037351558, 53.54465847791621, 84.80566725571259, 47.232714149674926, 84.30634349351214, 52.04170245314815, 71.34454477174849, 78.6043317178794, 50.07535118654282, 74.32562589980863, 65.04272755226246, 50.050813722583825, 52.55525452455746, 67.727307857618, 67.08697191090062, 67.72581446063005, 54.72859724916953, 50.181035966379326, 70.16024090483904, 45.57925402714998, 56.185087844802695, 62.36881647394443, 70.30816318937475, 53.056245953056354]</t>
@@ -2179,7 +2179,7 @@
     <t>[40.324830370462585, 59.64511166984413, 79.52035549794996, 86.79932675856779, 50.40223098079636, 46.710281345313426, 68.19769976036805, 54.167039038180334, 84.04288146089084, 57.51115767012979, 55.743350250791536, 50.992712655827525, 76.00221167015384, 62.83402453223155, 46.52360537074001, 52.334684268180624, 71.14301071187147, 67.27148927033076, 70.99703299681241, 52.26988896790911, 73.17470552028583, 52.00906039773977, 72.97757232025909, 56.8989162060063, 65.75661771649631, 60.60065528964746, 63.10120251556015, 48.74683918490154, 80.8760165272506, 49.32725958983138, 75.72792937982157, 54.80852951061167, 61.60615177649822, 60.35095199627312, 50.98870371366167, 68.26095914616918, 72.51335493901453, 51.01793860525637, 57.88419289682309, 74.19491924111435, 58.705582694917986, 72.3931182007739, 45.08937565263619, 53.2173042880329, 69.71250009973859, 53.43534120755448, 58.586469415286466, 63.68679230168488, 68.93905127865189, 66.23449082046565]</t>
   </si>
   <si>
-    <t>[42.84254300983384, 64.8871739797313, 60.33145456267238, 71.66298461412434, 44.26790352569655, 42.8255910581132, 72.04467624965866, 45.444868178801926, 81.45094666933377, 48.702491878584446, 51.87900259395352, 49.67262323274886, 68.91691279276164, 62.677254619067874, 50.7254663174274, 56.181018097953235, 82.1814623969193, 44.249534108959494, 66.40712277674967, 52.817419206109186, 58.547023329741364, 43.683810990586196, 65.30802220045592, 59.07270099480111, 55.612136846102146, 55.73684126893585, 61.73637547630993, 40.34764963286019, 84.50142177251159, 61.130255704349054, 54.4857485211105, 55.76947388685705, 68.79895010235805, 68.35804526257394, 43.9221590912504, 65.82634688221293, 64.26592437193759, 52.1421998020985, 51.26400444661213, 65.93396968534438, 51.48056105610443, 67.31834167746695, 49.84525205737312, 45.350654076588235, 68.38805768960978, 60.39590438741769, 60.10044390344019, 65.42258827143476, 68.07051845143687, 54.48289461772113]</t>
+    <t>[44.712129323706236, 62.0685797022033, 62.73556469540255, 72.24149609377812, 43.846988974195924, 44.033759414642276, 76.07734534305158, 46.64408403019428, 81.742890245042, 50.32224917897754, 52.50032982210089, 51.58995745061802, 69.80009899652215, 60.43037015720056, 50.24541424864038, 55.59972565793614, 80.77051875932314, 46.978121340116964, 66.62323250571902, 52.511783779854085, 59.781835003620735, 44.13712890392755, 64.40233269636447, 61.30962947763862, 58.48526291553782, 57.14332387753172, 63.087783430122904, 41.54750110295142, 82.24901704581842, 62.51876781842157, 57.05192913981077, 57.63774519114189, 70.05302170616483, 70.25586482176104, 42.93226453123964, 67.28401772872468, 62.41615675310846, 53.255423845104715, 51.00010639011949, 63.061001618243864, 50.30918892261681, 64.73138905879917, 49.48625444016107, 44.53470608505359, 68.39956835724958, 60.5426673837322, 59.09562221705846, 63.23819941046294, 68.52350379784289, 52.019082724981025]</t>
   </si>
   <si>
     <t>[41.99001880224879, 50.526371135919355, 61.91381348820533, 64.38653718603824, 41.7692055258377, 39.429572388401205, 79.97461517930418, 52.80295550246346, 79.39518918968052, 40.97666713169184, 63.452740253027315, 56.1306245227691, 68.6667187110073, 52.69975387070264, 45.26832696257844, 53.87333734799459, 83.69976272140256, 48.946243053583004, 59.95414407114594, 46.60872853001763, 56.21984359314254, 49.29890495683088, 68.61416560982924, 61.67332590201307, 59.028754165382544, 61.123936668166955, 50.79891682975529, 44.851796037856545, 75.36712403456143, 55.44418779825202, 61.38048948901765, 65.79298806806722, 76.11239002171494, 69.57005419354505, 44.43065876171914, 75.84065980758655, 61.363690204012265, 50.97688993908929, 54.15369237257506, 60.974211230833696, 51.060735435736134, 54.98145372603276, 60.37068484759642, 37.05076771437523, 66.61499110427056, 50.363222658513095, 65.97755849596707, 56.59884206114804, 64.7467131032627, 65.26436154745136]</t>
@@ -2191,13 +2191,13 @@
     <t>[38.4456111469674, 53.787672172595116, 92.62407384755613, 88.03967362992644, 44.783096421140115, 44.14329878223508, 59.933738912601264, 46.799429872557184, 83.15872082718317, 61.43547209780554, 44.84735004106348, 56.98157290826458, 91.45731222915674, 60.43134129074139, 49.0029562264789, 39.61305893403437, 68.7955043971935, 69.50536656390844, 67.34423334244288, 54.83994412831873, 52.521912020790836, 75.43909092917305, 65.13388315699471, 63.52953383131168, 70.21942235566284, 53.42710248300026, 64.98335332980687, 54.31067026825958, 82.84401590934895, 47.05835597820956, 79.84780803233289, 49.24927746887061, 67.95752273851316, 78.35084775424649, 47.03487225880071, 67.61754936440263, 78.66590493800095, 55.33837844481536, 55.60419107097475, 68.25023743268069, 64.23447984907219, 69.60190186672418, 49.92157453132125, 68.67294715652395, 89.50679191848245, 58.27490015356621, 52.197527020850366, 62.4852190566965, 67.5108939185586, 47.176744220657795]</t>
   </si>
   <si>
-    <t>[47.534087392072735, 80.12910439119929, 79.30212367534078, 79.93048388367433, 55.20026782932756, 48.517082837893376, 93.00995098452024, 59.0101901871752, 73.59465252418994, 67.11742439413314, 50.163157205963856, 62.18383781151712, 78.83875164574842, 78.04356672565078, 57.67090200863454, 50.16767351085537, 128.95068088248985, 55.03997626349798, 65.54804989687976, 49.89664009579791, 55.73752757487231, 53.35315566948379, 78.42376583082067, 75.68767675257088, 70.95725519985203, 69.86920582605025, 75.19053840970233, 57.862864698449826, 91.68808102197634, 49.98664735338039, 78.96789300340623, 82.91197192978656, 65.71846047920755, 54.63738023144731, 64.45809849874239, 63.331715171573904, 67.38988815023606, 50.88767635726221, 48.91688412128852, 79.9052070764886, 54.27051622800367, 70.14171175995804, 51.64603295579172, 46.12763349044227, 85.63248883532822, 74.7864544039716, 61.41409007244156, 56.27036585074153, 61.56742124348035, 36.816752909299375]</t>
+    <t>[47.534087392072735, 80.12910439119929, 79.30212367534078, 79.93048388367433, 55.20026782932756, 48.517082837893376, 93.00995098452024, 59.0101901871752, 73.59465252418994, 67.11742439413314, 50.163157205963856, 62.18383781151712, 78.83875164574842, 78.04356672565078, 57.67090200863454, 50.16767351085537, 128.95068088248985, 55.03997626349798, 65.54804989687976, 49.89664009579791, 55.73752757487231, 53.35315566948379, 78.42376583082067, 75.68767675257088, 70.95725519985203, 69.86920582605025, 75.19053840970233, 57.70463930071305, 91.68808102197634, 49.98664735338039, 78.96789300340623, 82.91197192978656, 65.71846047920755, 54.63738023144731, 64.45809849874239, 63.331715171573904, 67.38988815023606, 50.88767635726221, 48.91688412128852, 79.9052070764886, 54.27051622800367, 70.14171175995804, 51.64603295579172, 46.12763349044227, 85.63248883532822, 74.7864544039716, 61.41409007244156, 56.27036585074153, 61.56742124348035, 36.816752909299375]</t>
   </si>
   <si>
     <t>[58.52371726585339, 63.09157481488297, 103.04045696189809, 83.31905453603557, 46.292309029503365, 59.99305385737568, 69.58847776480594, 47.08489046574052, 86.01837401587873, 57.65139980484385, 53.22710818135862, 61.31180628245525, 86.96262281030454, 58.348844066986786, 48.11092652620915, 47.59792784073222, 86.08405072418921, 57.36806524626498, 64.99703240625635, 46.236432449591874, 81.09048560426271, 59.74179276508978, 71.61877993979459, 62.79440962323891, 64.87029468041057, 55.50980698878918, 65.74770231563161, 60.516404958915125, 84.39151810248086, 65.97359683781859, 75.14157858147567, 50.16989948442847, 74.47463754176533, 63.85563816219399, 53.22229226446865, 65.95691718531596, 78.00990922388303, 59.55508650731391, 50.48280165683712, 79.17534590699223, 56.8283326625587, 71.71171864071542, 37.42673613200244, 68.1729952496092, 87.78084416556507, 59.695061814002656, 52.937390935498485, 74.60100654560522, 62.94507708933787, 54.4921255288712]</t>
   </si>
   <si>
-    <t>[43.2622806992584, 62.60589497965363, 78.88953488049124, 77.70582417504684, 49.5456847316551, 49.50380903710246, 73.39500311896185, 48.65907964320234, 84.63571455647396, 53.26663558575862, 47.32496579103993, 52.83461450694722, 77.86338127276389, 65.19305858803631, 54.54116788144498, 49.06857288642454, 86.18196325599088, 55.68432387395542, 70.18961542954405, 46.32215190275801, 66.16031272633435, 53.217618029836146, 68.65335841265205, 62.8754155878236, 65.16831004979431, 59.368712925191744, 63.9654004072561, 49.04448784693646, 86.74605166147118, 57.28012418641064, 60.23147981882785, 53.71535465567438, 69.50237728680908, 71.48256531362478, 50.59199675513765, 63.29505108152846, 63.03448342908527, 57.39659252902545, 57.041427941645324, 76.08775563702541, 56.14098898781904, 69.19250346508062, 46.20351817200917, 53.861016577548654, 75.380645019454, 63.62681417017268, 52.138051651131654, 70.06922784537096, 64.97020979869298, 52.255885544879966]</t>
+    <t>[44.37172731075963, 64.10718177543177, 79.38759533988218, 77.07414049647214, 49.78577361840164, 50.976144039939975, 70.49500789089353, 49.04591852232179, 81.01251280582404, 52.253417971095544, 50.06963410518593, 56.398070288649876, 76.99961653991035, 64.59319204183909, 58.67188555028822, 48.58881147913053, 88.2824932496141, 58.31105343748311, 69.96207373184066, 48.021871492914215, 65.76103098803084, 55.06186475564555, 68.2092016373802, 58.361872085578284, 61.34801573533386, 60.46291504038569, 68.64576494691393, 49.54628346954531, 87.63082814482587, 54.87120924844321, 62.597266131226746, 56.622268174528806, 68.2395774615718, 70.35342700666824, 50.41758759134204, 61.91349563129375, 67.1169335680444, 54.57041643872033, 59.334358952529065, 79.00052951354648, 56.39039373359609, 69.89522057151221, 43.405112136791466, 51.98546176018266, 73.11083318860791, 63.680531430456575, 51.87944350187611, 70.5964455046865, 69.63381265639, 51.89148919689804]</t>
   </si>
   <si>
     <t>[33.516391118980785, 50.312425071080796, 82.37915295076193, 72.15493536686438, 42.90127220773777, 51.72804054254768, 76.71378321259911, 51.77116094935897, 69.27200610748585, 60.06901525119176, 44.60358336038643, 53.36534616703529, 67.35893073939886, 51.832902628339085, 44.931913109996486, 38.691478757409364, 87.5479529880959, 56.52679003382985, 59.8729191339554, 41.46685768083954, 63.117238206447134, 47.709417652630194, 64.87912075845675, 64.72487170491026, 58.22720085844822, 64.44131664757703, 70.83698996975227, 54.542713984795064, 73.27645698549036, 51.487660752778936, 68.92877077356994, 57.301918717131294, 66.19479345849295, 68.67571853067295, 42.08406254076363, 60.53433916765043, 49.77186461242241, 58.38230831307471, 48.98445861421309, 83.50416418208756, 60.89986927261502, 65.24407502923444, 60.97497383139846, 38.26049770316423, 63.57519601803714, 62.41030693812302, 56.222848167769726, 59.83070590452332, 57.369590102351715, 46.26023854605897]</t>
@@ -2209,13 +2209,13 @@
     <t>[48.93743438421535, 53.57239813221069, 67.36278528093163, 69.76555770349364, 50.30929100686374, 52.877353711891175, 70.59349515236345, 56.60372115465664, 67.49003505509168, 44.64320730213985, 59.05579399787504, 48.297942563588464, 61.85203437756191, 56.89931239461875, 64.22954895641585, 41.322774527621306, 73.76196743815233, 57.97499077601783, 61.32707308118055, 46.186988367094486, 61.81914313870494, 49.935435547368165, 55.08823469804117, 81.31404149327099, 55.00066497981582, 59.81528155318775, 62.31505066616451, 49.65595590827916, 71.2208718063842, 57.36752618799795, 75.45995870909628, 55.78529431934933, 48.084922274600075, 66.59286293331647, 30.906547937578853, 53.20559022732251, 79.72362081338703, 46.867376697826906, 53.36221472794993, 46.83636060109396, 41.18543061488749, 67.76403554962614, 44.5154393160434, 59.311840203782545, 54.12114943067105, 50.116542322516935, 57.913647403706875, 66.2459628175186, 61.33679285507826, 65.48505639073001]</t>
   </si>
   <si>
-    <t>[73.37170658766365, 69.67527999841224, 66.58437744236218, 69.52651163128036, 59.26273059072311, 62.948853759660885, 71.42247295394597, 58.91863159414616, 72.41382439084228, 59.3909384622652, 70.45187763822375, 52.52724106842366, 72.94601661013242, 66.88451015304439, 57.49036577673565, 47.71266703563147, 82.66514393914015, 57.44553983362487, 62.43939832509744, 43.69243115558109, 66.13650310990538, 51.16833650524791, 80.67739659550605, 55.550450080077496, 47.70254881256118, 76.17878245648012, 73.1624570814792, 52.09177224965338, 80.86864871964623, 64.41656884179163, 73.768779072073, 65.8465139005638, 54.41601490895331, 54.85907381868702, 45.72107692301221, 68.69949555604592, 69.76516042957374, 73.31307333527282, 68.01337589083046, 61.265592514785745, 55.11325589160978, 68.01579036716717, 64.15737979387896, 55.9534217165109, 74.52354613524123, 58.33462847494912, 67.01367206895425, 67.37899645431713, 56.50932650340966, 71.17057972045046]</t>
+    <t>[73.37170658766365, 69.67527999841224, 66.58437744236218, 69.52651163128036, 59.26273059072311, 62.948853759660885, 71.42247295394597, 58.91863159414616, 72.41382439084228, 59.3909384622652, 70.45187763822375, 52.52724106842366, 72.94601661013242, 66.88451015304439, 57.49036577673565, 47.71266703563147, 82.66514393914015, 57.44553983362487, 62.43939832509744, 43.69243115558109, 66.13650310990538, 51.16833650524791, 80.67739659550605, 55.550450080077496, 47.70254881256118, 76.17878245648012, 73.1624570814792, 52.09177224965338, 80.86864871964623, 64.41656884179163, 73.768779072073, 65.8465139005638, 54.41601490895331, 54.85907381868702, 45.72107692301221, 68.69949555604592, 69.76516042957374, 54.928238006037304, 68.01337589083046, 61.265592514785745, 55.11325589160978, 68.01579036716717, 64.15737979387896, 55.9534217165109, 74.52354613524123, 58.33462847494912, 67.01367206895425, 67.37899645431713, 56.50932650340966, 71.17057972045046]</t>
   </si>
   <si>
     <t>[52.24377521264294, 62.35846826363599, 68.71893970156997, 71.19227415297522, 40.93440575934847, 45.254199086256854, 59.8663320796719, 60.72073823500802, 64.7116043455098, 53.65692567501026, 51.8303346046846, 45.22413672861928, 56.607132393943935, 67.72672203751581, 50.34465880674425, 34.38254632383654, 66.77090770811249, 57.020745908477316, 64.21657524202212, 50.16946642994662, 59.24115452537343, 47.80887349295969, 56.59461535072528, 80.25210234703924, 58.7804786835154, 53.29373603163613, 67.62749434907589, 43.10284811685637, 78.16071542628752, 59.305506864415015, 71.60362255397166, 47.95621552676323, 50.795416169249485, 65.9986015697725, 38.75746330729628, 56.5302088517525, 78.16051335445596, 49.5028958466039, 54.11972422809765, 50.8876367490955, 49.83767721223837, 72.88971059867069, 43.12620061948529, 51.66893719356879, 51.278336137948834, 45.852531963402534, 49.963709050161846, 61.94495670537978, 59.63574767642928, 70.30874401421073]</t>
   </si>
   <si>
-    <t>[51.06528525484806, 58.84855854305652, 76.40515000363298, 66.83826939957083, 47.5620336176307, 48.07235056379232, 67.95636100485267, 47.619309581834784, 75.47008765277579, 58.87888488505534, 52.41175403598841, 54.175230835827655, 72.50640834171527, 62.73329823234791, 51.019932010086066, 48.532262168963335, 78.38757381888631, 50.71091494261133, 65.59906538382229, 43.97897909235189, 64.1396875945643, 51.646093240461305, 71.21809986355764, 60.81857727745047, 59.39070806726269, 59.60417667742297, 62.45982749771249, 49.11917569676367, 85.81666733107265, 61.734243128780896, 62.08502938919451, 53.78747146373776, 61.71926693816634, 68.3188349141319, 45.65071569862413, 60.88292715723044, 61.766302943784304, 52.25994605689694, 56.50585015035939, 69.67089490509424, 55.68250848021432, 63.16253880270823, 47.91865095391012, 58.410722986180836, 68.45940722410775, 63.167008085106254, 53.442835342594535, 68.84360611581805, 65.39726743574586, 43.69037397612776]</t>
+    <t>[48.57866948776676, 57.16502343874779, 78.69497318074497, 68.63300045699746, 45.53938214058235, 47.92850472996399, 67.05068976718344, 45.48850988105259, 75.85924859990706, 59.85414781234136, 52.1704268042704, 53.95361290746508, 71.6362906741844, 62.081171012595284, 53.17766993082525, 47.88636299225078, 78.75316915026909, 53.068134401446976, 69.29975928954327, 45.102962759989865, 65.40835486583484, 49.226032398295764, 70.4592238323814, 61.67249750692544, 53.78488440633091, 61.89650600427871, 61.6694713890716, 49.015231629673494, 84.2026785859755, 59.6001012431884, 57.44641693743754, 55.20096205598378, 62.11383021574254, 72.64035100785946, 46.10239191851441, 61.914051926141276, 61.676811711709405, 50.94394676418885, 53.552099834155534, 68.38938120613422, 54.97323022965388, 64.19603462800309, 46.16733176458235, 59.28919990618523, 68.36553014046004, 59.49310978237752, 53.463322168299165, 66.97335648625257, 67.56780645760544, 45.814996097848386]</t>
   </si>
   <si>
     <t>[51.554567167107095, 60.819565245099696, 68.37353853811699, 67.22254154396478, 45.86318128572514, 37.09595069770585, 61.4592032801677, 50.20757503559253, 63.81900115429815, 54.20867539817392, 56.113867415592196, 44.870206977466076, 80.46895236118505, 57.61010476783646, 47.327333389133045, 36.48667945677249, 71.50687577944997, 58.39895567016206, 59.43010730829158, 47.29802359686836, 60.96357591886242, 55.09529402601445, 74.87550244952446, 58.32598061101453, 42.635376148650614, 68.00069473546122, 49.35175141450336, 50.571875432291804, 63.23328671333326, 52.65293530606296, 60.160932820714734, 48.952739677152024, 49.024018357717765, 59.95411112774862, 39.8838745955429, 60.929863677651106, 55.83197339013245, 52.667116368429895, 58.82129804784268, 70.05319015997331, 60.003354213245395, 61.05949470145898, 57.507981197911114, 57.20132801559933, 60.55281932252914, 45.12168119007555, 54.23110642580866, 63.397708193266354, 55.95911923621337, 56.00703998770631]</t>
@@ -2227,13 +2227,13 @@
     <t>[57.210268800129285, 63.82091849037362, 72.34976297378108, 79.80650249679267, 37.25563907326465, 44.172125094675636, 64.21098068168837, 56.69732369094676, 69.08166256649147, 77.84274664862102, 55.852083206920994, 56.593485774293036, 95.83000796758213, 53.9253337417456, 51.14123128311254, 47.30751247502745, 67.59762019130828, 52.8144407532193, 58.475299596349224, 72.21473482841073, 61.72109184031244, 75.71780096844161, 60.01233597923448, 70.30027021594557, 71.52077295736147, 56.90963452733389, 54.128968761077445, 39.554736558972614, 83.43312218281706, 47.71197613574974, 88.9189530577268, 51.34079252058793, 63.75114860106122, 88.59462299103411, 41.08685811980069, 63.31703619314343, 82.09084842424798, 47.979126233568344, 55.704101185885506, 83.71514739143082, 60.29703716958012, 65.54541338928917, 70.70425600931061, 43.54492963320353, 70.85280652540078, 62.89714056134465, 63.3849101654557, 62.559154267819, 66.36508213708315, 70.06199029671463]</t>
   </si>
   <si>
-    <t>[63.81653917836466, 74.56337159710907, 80.51880229257971, 78.2925749801462, 39.37630383328822, 51.599935281200025, 92.76674372445169, 48.59330232929258, 67.23206814548614, 49.832505544136865, 61.644020624302804, 47.31263788279135, 56.801843845826994, 65.50403904865983, 57.02492864846042, 51.51655194047451, 96.63356802034967, 47.067540392776955, 70.22676911782803, 41.406304251040595, 80.20125256667221, 56.33672628276635, 80.73004060391578, 86.06294628834593, 63.52962610355221, 75.2211557115266, 59.43429164530646, 57.02869930410336, 87.0933354607789, 55.59602832775403, 73.58769951723694, 69.0255111198573, 51.38482560644187, 62.87173819547304, 57.712740243584534, 78.23482719749343, 67.03372091329953, 72.86217395803085, 65.0632943698309, 72.65317403834436, 59.03460159517145, 80.804319319348, 56.993026871351326, 57.18063724451858, 64.07480543127377, 67.07062101284755, 70.63891587679588, 65.18444999570943, 63.99625991077585, 46.56686260866856]</t>
+    <t>[63.81653917836466, 74.56337159710907, 80.51880229257971, 78.2925749801462, 39.37630383328822, 51.599935281200025, 92.76674372445169, 48.59330232929258, 67.23206814548614, 49.832505544136865, 61.644020624302804, 47.31263788279135, 56.801843845826994, 65.50403904865983, 57.02492864846042, 51.51655194047451, 96.63356802034967, 47.067540392776955, 70.22676911782803, 41.406304251040595, 80.20125256667221, 56.33672628276635, 80.73004060391578, 86.06294628834593, 63.52962610355221, 75.2211557115266, 59.43429164530646, 57.02869930410336, 87.0933354607789, 55.59602832775403, 73.58769951723694, 69.0255111198573, 51.38482560644187, 62.87173819547304, 57.712740243584534, 78.23482719749343, 67.03372091329953, 74.4428091336979, 65.0632943698309, 72.65317403834436, 59.03460159517145, 80.804319319348, 56.993026871351326, 57.18063724451858, 64.07480543127377, 67.07062101284755, 70.63891587679588, 65.18444999570943, 63.99625991077585, 46.56686260866856]</t>
   </si>
   <si>
     <t>[39.450179128250234, 58.97012789150654, 84.12165564453574, 68.51581925318239, 43.975068376717, 37.506061323439354, 76.00141542975724, 63.1082108029953, 72.11205947147369, 56.17630324940184, 62.68611927187451, 49.50337876897211, 72.10305317480297, 60.53923241717295, 41.47761332568053, 54.01436372703213, 77.05467692654126, 58.34265608333214, 61.18583700485114, 58.59377967964728, 62.3782603644944, 51.45338557590371, 68.18720492056198, 65.10491349440743, 68.93106565283671, 52.49108530730747, 66.14160714893912, 47.3390460213558, 78.584329643783, 55.16901024908988, 72.0504806658879, 51.1915918474414, 66.00362067654821, 67.48017539136171, 50.91957311941566, 61.607322108177904, 92.20130715956094, 56.12535481607837, 57.64395507207518, 71.74427915809599, 56.217898185786126, 74.46111568245293, 39.58914819524145, 47.86247034637697, 69.1034143129843, 62.95717037013587, 64.19030777212961, 58.41198724914566, 59.65271240658364, 67.91974590468666]</t>
   </si>
   <si>
-    <t>[49.569455421356615, 59.972647368905534, 83.33268419365363, 68.63510180407886, 48.997393108520484, 50.29999163977459, 67.30637248617737, 49.2721374797185, 76.71182594771369, 54.118544787384224, 47.57619723756681, 53.56933745645355, 71.98925942405268, 61.66648279521949, 50.80319786588138, 51.14005749747451, 78.02829613569483, 57.393388062150585, 68.59436052435787, 47.3898822483427, 70.69829144742025, 50.781728173237624, 65.00077606590004, 61.2091281210251, 61.743059233882235, 57.7006130750592, 62.47047581659934, 48.34372719763466, 83.5890775531124, 52.411081452966314, 58.90713583004641, 55.37608515277595, 62.675177716607614, 70.49049413001717, 49.18121274841865, 58.601841939907025, 65.19450777464404, 51.52401156133366, 57.09943162142278, 71.48414222392117, 51.46722181433179, 69.21187264015228, 45.44170552309071, 54.57152034290239, 71.37421743972197, 61.60229330903788, 50.018137994509196, 69.14958921304604, 65.09854424107704, 49.239964797458356]</t>
+    <t>[50.91865938307584, 58.73596160747418, 81.16182453746495, 68.95623937425341, 46.58456415664492, 51.0285577461236, 69.26094314925953, 45.259108549517656, 76.20700658760511, 53.05192463221906, 49.159990754227, 54.3151198365349, 71.63573498169085, 62.540174218594274, 50.287460584731015, 48.63967642479119, 77.6417945024076, 56.54615608722259, 67.04075468573492, 48.453728121308764, 71.41814147214534, 50.181419614633384, 66.82199372079089, 58.98458206452602, 61.754126671482, 56.54253231328813, 59.50019207884955, 50.418607997897304, 83.42594862967343, 49.985126968526764, 60.14069973084794, 54.97643405245278, 65.38634105969588, 71.88181634311783, 50.3013156162344, 60.22186031296329, 62.840766996393796, 51.366474161570984, 59.90632877998368, 68.61953363039183, 56.830118393923094, 70.01476180865707, 43.178268669287455, 55.37963919746562, 72.40280836141359, 61.071826394286866, 49.17499143896206, 69.90629630844447, 63.799709421928135, 50.66708641243885]</t>
   </si>
   <si>
     <t>[51.379561266427515, 68.23770449785306, 61.714476041546604, 59.6694962768013, 42.40567478613317, 39.474094795317754, 69.56871920189216, 54.184472571100954, 68.77025469130461, 49.10485713969112, 55.993126984528935, 37.16694961586137, 70.73870635574112, 59.482919845188505, 55.62873327927536, 41.447971879296695, 73.80167847589011, 50.252712049657944, 62.40686189228852, 35.62895496698682, 62.23382021694314, 41.56282713401842, 65.97939349000782, 65.30333740033417, 52.23403118609786, 61.40036391157711, 50.26091289027893, 47.696646835469956, 70.31878764932863, 48.7617158266486, 51.48467966935034, 50.1334238762145, 56.498119090622076, 68.75514557857498, 45.04677731330648, 52.03190574554567, 56.53169588191346, 41.53010536463655, 57.12189335880459, 69.00037593373075, 58.71148736768912, 83.64866862458497, 53.165909315120516, 47.695734755600476, 67.9261002898882, 50.29070299827873, 53.052312683931824, 61.77327649679454, 48.03338628091048, 66.1951720032865]</t>
@@ -2251,7 +2251,7 @@
     <t>[45.550430854499716, 59.28077927693318, 78.83475653174739, 86.4706702026424, 49.446952252207794, 47.23769343789, 71.83654736046032, 51.523554613553785, 73.72464266021447, 58.069566119934215, 47.81971525606034, 54.350038217465546, 74.09886716216079, 61.256017343976765, 44.23176680862637, 49.03301239688153, 74.63854479723122, 48.764609078037374, 64.27405330764766, 46.763255225416515, 70.16422257756837, 49.08351242710569, 67.00670927359472, 60.737761240266494, 58.10348819256991, 51.36512255754531, 66.4772511819509, 50.116001845894765, 81.5764750895847, 50.912418258164756, 74.99204360525825, 60.630501525827135, 66.0415725945853, 58.74990878436171, 53.222341456312456, 65.27575934705735, 79.05068501851797, 48.82680589255763, 59.43949260494996, 71.06478252797005, 56.404143153296985, 72.30989258677616, 48.12065460538992, 50.38721423832291, 69.11676433978396, 59.6548560900035, 56.236790644189405, 59.42437077012445, 58.99483431713766, 65.97412081242699]</t>
   </si>
   <si>
-    <t>[45.409608514194225, 62.01825950063755, 65.70069664753434, 68.46870384143278, 45.15266384705406, 43.41145102669845, 74.54079855699736, 48.217122360348974, 80.11390727201028, 48.02973056750992, 51.088258214663405, 46.41023320309849, 72.01874904965295, 60.6573181129427, 44.16741753631214, 50.26240433886039, 80.41379656079988, 44.079823660271515, 66.88239541852595, 52.33500356718851, 59.320320078516325, 46.43279014459853, 59.73325248213133, 61.22024551120168, 57.66790245131827, 59.572176952930185, 60.29549008578757, 38.275235163253924, 78.12328893085198, 57.53285392211283, 53.18927339033156, 57.05647631752439, 69.60372420244884, 65.99271610932938, 43.47193023971672, 59.87575145172212, 61.91276205799254, 49.31538839759618, 54.5572729584023, 65.80573382173985, 47.931831074760915, 67.1417234464737, 51.247947820821686, 46.01166282303536, 69.47225407703341, 59.050073095707916, 50.44478446117997, 59.40507899984274, 64.70553972106094, 58.53794837403514]</t>
+    <t>[48.03700611396797, 58.103126492767096, 64.7756956903874, 68.60848534128793, 43.698041418716855, 41.92557877198382, 73.2969934271887, 50.32171358563386, 79.80370108687886, 49.428641696494424, 50.01085020661027, 46.3248022000506, 71.40756704026533, 60.4576074534593, 42.83522486112969, 53.448520532196476, 78.63635486862425, 44.217957037782625, 65.3852314083127, 51.75009553177806, 57.96857464660004, 46.91831363214117, 58.40289121594652, 62.92766027942689, 58.71196888296969, 59.81672797510972, 62.883082785482486, 39.5228634550356, 77.51255232750754, 57.78204434662908, 51.62654668781568, 55.41357218133321, 68.66928244887174, 66.0005095544167, 44.107292970910365, 59.72797892970416, 57.15591537043413, 49.01864785269001, 54.61191060831879, 64.65752118575907, 47.732959591390056, 65.29019585742945, 49.37327458383723, 46.21967649612605, 66.91172745036111, 60.62889586063402, 50.366390855236325, 61.35466243079037, 67.11322094625173, 56.92983677147484]</t>
   </si>
   <si>
     <t>[39.57056973313897, 40.23271767842759, 66.9732803482005, 72.39786901262272, 37.46022880806481, 42.32401016402063, 73.0428280349681, 50.0940067521533, 78.65311275697867, 39.120772214883985, 60.49735117003696, 49.10316871962974, 73.192425435701, 50.420982140039854, 34.97691610020317, 53.67614969248141, 87.25095268126522, 41.85536910145865, 59.789080955011755, 45.06999880269593, 55.98399607048195, 38.71176735019213, 60.633266269267615, 64.79954775951065, 59.48308939607967, 62.26948703295036, 46.48330382907086, 34.64713222749191, 67.01179081453428, 52.20777204498186, 44.13610293175357, 53.058866257126034, 71.72328290667924, 68.71713177434422, 39.5685573447292, 63.41661344974157, 59.068684471793496, 47.52392789814644, 62.80629633468751, 64.66287212916595, 49.52123839559111, 52.19632669510727, 54.75859489779756, 42.11758820721555, 61.13150605108588, 51.705930898038716, 45.34819142006054, 53.37084657289365, 56.68896393442153, 63.47199231652951]</t>
@@ -2263,13 +2263,13 @@
     <t>[38.02736076783507, 54.501936733180244, 85.43642723697273, 76.09888503481618, 38.14646473894763, 42.98107885674761, 60.802118946878345, 45.599524870652274, 78.96994066946071, 58.201193762306204, 51.00136801168777, 57.42815178203812, 74.64611014466561, 56.65057110483024, 54.48261469106435, 36.40516083816414, 67.5475557530493, 50.10662343520253, 57.58863956478921, 49.931428960214255, 54.73157380207284, 55.90617390388817, 61.80587750743191, 63.983217005778975, 64.7252010171565, 50.45957058227205, 51.90830983628867, 39.147243112115966, 81.75767858899931, 51.235355493767884, 77.11816394033112, 46.877192445138554, 67.2640994629061, 55.0225719808899, 40.057326800016746, 71.57521512477506, 55.17654985343802, 49.07276322843965, 49.24264667343748, 83.57989868509546, 58.644623752456525, 62.933571117418204, 42.89037085159951, 50.16439336360936, 75.81959156160102, 55.34272063045368, 64.94193794166812, 62.058597306855056, 58.01271342900386, 62.81544481813187]</t>
   </si>
   <si>
-    <t>[57.77138442366998, 85.44800841948947, 78.1360747766073, 77.38332080460098, 45.59898864544613, 45.921540364258576, 86.79739905171617, 47.124592184166815, 90.67591370922334, 60.73998674868387, 61.67509073325319, 49.620485246960854, 80.01844164896117, 63.74177585704595, 72.69985651644365, 47.22238343461862, 92.52277935092829, 51.60930404471168, 62.74373431921788, 41.52847970398532, 54.21358736607233, 51.48241212244344, 72.6538980675385, 82.17402119122232, 94.44862737107469, 73.39109080878467, 67.89940462634591, 48.20152124477359, 80.67520015931534, 50.588216899103195, 78.92445135148002, 60.55535689681699, 68.67132492351952, 59.21709160050251, 57.63426783856698, 76.63314794819597, 65.01092427615787, 49.455688401164174, 56.033314072870404, 73.1651282376168, 57.18819877107855, 75.43987892618263, 50.93594653557368, 53.6465443567697, 95.3831090917045, 59.92584512791856, 67.59938274083542, 61.766050825881216, 64.26479035381196, 45.648241634105844]</t>
+    <t>[57.77138442366998, 85.44800841948947, 78.1360747766073, 77.38332080460098, 45.59898864544613, 45.921540364258576, 86.79739905171617, 47.124592184166815, 90.67591370922334, 60.73998674868387, 61.67509073325319, 49.620485246960854, 80.63950758387087, 63.74177585704595, 72.69985651644365, 47.22238343461862, 92.52277935092829, 51.60930404471168, 62.74373431921788, 41.52847970398532, 54.21358736607233, 51.48241212244344, 72.6538980675385, 82.17402119122232, 94.44862737107469, 73.39109080878467, 67.89940462634591, 48.20152124477359, 80.67520015931534, 50.588216899103195, 78.92445135148002, 60.55535689681699, 68.67132492351952, 59.21709160050251, 57.63426783856698, 76.63314794819597, 65.01092427615787, 49.455688401164174, 56.033314072870404, 73.1651282376168, 57.18819877107855, 75.43987892618263, 50.93594653557368, 53.6465443567697, 95.3831090917045, 59.92584512791856, 67.59938274083542, 61.766050825881216, 64.26479035381196, 45.648241634105844]</t>
   </si>
   <si>
     <t>[43.23712083120917, 61.46085326998586, 82.04153207946878, 73.12364902879123, 46.32331254396144, 39.27833482670691, 70.01980373479388, 46.83489187844917, 78.55552209697733, 52.98738686151507, 52.98557356247025, 60.49524967054433, 77.03039764464161, 55.836061607981215, 46.502690675121315, 42.6394331121164, 72.64247885725739, 59.42876976901632, 66.0219723100916, 55.33004547801998, 68.29826240255399, 48.34478281065069, 67.17687995674144, 64.35276394281674, 63.917934982801306, 54.73376329118539, 78.42019902935685, 47.542268504375045, 81.4981071943674, 61.180327089345454, 75.11900958090192, 49.71199941442958, 69.214947892685, 65.23850748649645, 55.89794414873401, 63.14867562575733, 82.02178784952413, 40.605547706612235, 52.84167931538087, 73.83155235448658, 53.880963051405196, 74.53254405145623, 37.14324398198872, 42.35570203597953, 75.54761642915163, 61.044284330937785, 67.68985358771769, 66.97931086757384, 76.17725953165771, 68.30310219474795]</t>
   </si>
   <si>
-    <t>[48.48179952561304, 58.05546076220625, 84.34944099627286, 72.04217776576894, 45.38994331837919, 44.79403780428392, 69.4754403554788, 46.0657305270318, 81.16187318032486, 55.377508159294955, 47.233254311897255, 53.27456553299574, 76.43844795256359, 59.815412680183705, 49.62119799117492, 49.9604017908447, 81.72244903755605, 59.12140657189935, 71.52464755844838, 45.06378472283039, 69.1305302651956, 55.14338499405399, 67.47208803940337, 58.58775869027769, 60.08787695745533, 60.369889081678494, 62.02228045250181, 50.038469254878095, 83.8683843066323, 54.16274979219646, 61.269832995436246, 49.95385493026428, 66.67361945390428, 74.61846787216022, 48.52480513748571, 60.269528422393215, 62.24786860826653, 53.745372351788134, 56.67005027087493, 73.25483412361797, 53.756842431551185, 64.27923380053511, 44.06906935946654, 57.01422423997878, 74.85773652096198, 60.93874275755613, 48.6411130968677, 67.26480482007065, 68.10324139625483, 48.98645891171038]</t>
+    <t>[47.941454882829355, 57.593348924903395, 83.1531929566346, 72.29316717383246, 48.67925230352475, 45.964519000242085, 71.80742531537828, 44.24158259482898, 81.59003531315523, 55.117784582064345, 49.24801308587567, 55.355727618213365, 73.90565973837013, 61.64820605110823, 51.10258046922782, 49.42946765641629, 82.94026119531763, 57.78974325600814, 66.25990710036548, 44.2384412196872, 68.3276911477788, 52.94952571592453, 68.78318015110513, 59.02240551924002, 57.6947790645925, 64.58510389811596, 63.070643755239985, 45.89804781409707, 85.21298799560968, 52.561788055987435, 61.08655053077231, 51.27338950167965, 67.02686233486152, 72.51508522837945, 46.56720873380375, 60.28528813012611, 62.15636391461312, 52.95421395252712, 54.76326399436523, 75.82883100958323, 53.56903339147594, 68.79310205037389, 46.42616479541157, 58.9219893477104, 74.54233355347147, 60.211395466913075, 50.729943361785914, 67.55677951433171, 65.1557806702161, 51.65166959559885]</t>
   </si>
   <si>
     <t>[45.693598464759155, 55.51777175730159, 83.38697140875252, 66.64160809913564, 42.752811476630896, 45.968153599579786, 77.25323830246786, 44.39461906213068, 76.59467496531492, 51.21597621971949, 47.02627514457803, 52.26561053486509, 66.04303645155639, 53.764442878073524, 49.86564911160219, 45.145483539704315, 61.59034357549501, 59.276808008572665, 70.68375301078957, 40.963987608876586, 68.63296522438922, 55.382902568866925, 67.80984586085731, 68.68120883538909, 57.9095870740824, 76.31958052038014, 48.49670066449422, 55.055008321492785, 73.35293978821076, 51.87942387694302, 64.518277912498, 54.64472685871203, 56.1048012670864, 73.44955596704618, 38.80946297810841, 59.918621813780305, 54.604371593541245, 61.42951547622033, 44.73545617424556, 68.00624787790231, 53.23745426828138, 66.03476922637226, 56.13188498282818, 57.29074093921599, 67.36497687916761, 58.85471212851446, 72.50251517124558, 63.910885230116136, 52.75486343683422, 56.39809011768612]</t>
@@ -2281,31 +2281,31 @@
     <t>[77.86316055020497, 60.04585553304582, 94.49445010705323, 65.63981283929485, 53.283595250920364, 68.32928527635868, 71.40246872692795, 56.01522297915116, 69.01437338356236, 46.13352511718375, 53.698238631834116, 49.7976530896596, 62.54880228637568, 69.01020508791353, 55.24880920795757, 43.51010825568589, 77.32349786883056, 68.42325925410921, 54.99655529727722, 49.975791247935774, 77.90200027475142, 54.8644350605001, 70.76617498853805, 84.83202016872832, 54.03591592466819, 56.83902772577824, 69.54145735480702, 51.844486358628544, 74.8180912145855, 66.63115052494368, 92.35707014587015, 54.717311921372335, 53.045635980436515, 71.53117779745706, 35.70273953383797, 61.195416999582434, 81.38239241265688, 50.46778571410633, 56.51114054837335, 46.541676142407795, 56.73109805247052, 70.63669083823733, 44.79694504831421, 62.27290495020364, 49.02432961123904, 52.05658859524051, 64.86192808202932, 55.91711931353423, 80.8138480155129, 79.02941737977956]</t>
   </si>
   <si>
-    <t>[43.92120775715106, 77.90048797527339, 68.60327088973543, 73.47972465861413, 55.811411830164175, 50.986380083308084, 82.34381861612755, 61.59091276896524, 68.03567606417548, 56.4725336209686, 53.64613059286016, 75.78603631238293, 70.30046103283087, 72.8865117565503, 61.76928581016815, 52.20356593007896, 87.15829537330886, 57.18786050281029, 66.0723113585118, 53.5973330893086, 64.95976343313275, 58.274615430489355, 71.95355465546591, 69.1377491199809, 50.18890653606347, 68.47876761961146, 89.01705509379758, 50.4313757567081, 74.36066460685316, 68.58812811177106, 64.11589486894107, 67.62209526373124, 57.206747337523616, 71.59961750877576, 48.50314063908753, 77.42568144505961, 69.64667929704555, 49.392101863594874, 63.25461116261275, 79.05269691091435, 51.768825658711656, 47.89899063207312, 61.91776672641637, 63.45859589415088, 76.3268266357623, 54.7042794455349, 59.35628832589678, 67.48881316983996, 63.19038331277296, 59.61057141053956]</t>
+    <t>[43.92120775715106, 77.90048797527339, 68.60327088973543, 73.47972465861413, 55.811411830164175, 50.986380083308084, 82.34381861612755, 61.59091276896524, 68.03567606417548, 56.4725336209686, 53.64613059286016, 75.78603631238293, 70.30046103283087, 72.8865117565503, 61.76928581016815, 52.20356593007896, 87.15829537330886, 62.38947370006761, 66.0723113585118, 53.5973330893086, 64.95976343313275, 58.274615430489355, 71.95355465546591, 69.1377491199809, 50.18890653606347, 68.47876761961146, 89.01705509379758, 50.4313757567081, 74.36066460685316, 68.58812811177106, 64.11589486894107, 67.62209526373124, 57.206747337523616, 71.59961750877576, 48.50314063908753, 77.42568144505961, 69.64667929704555, 49.392101863594874, 63.25461116261275, 79.05269691091435, 51.768825658711656, 47.89899063207312, 61.91776672641637, 63.45859589415088, 76.3268266357623, 54.7042794455349, 59.35628832589678, 67.48881316983996, 63.19038331277296, 59.61057141053956]</t>
   </si>
   <si>
     <t>[48.54730810440586, 60.2794616458596, 64.67251603525733, 70.14762037960504, 47.428084958077626, 50.66669129345301, 63.92864453130138, 57.232170471240195, 67.30320055294568, 47.0383163897592, 47.93550009311678, 42.95563470329468, 61.17165523027016, 70.1960186941549, 54.993350423336835, 39.56078588272578, 75.9001826230728, 56.25901880534418, 67.49131577167616, 49.92940866326218, 54.74172743676437, 62.425294319826584, 63.943764708347445, 84.9351594494238, 56.59387409121442, 52.6261359827937, 67.01785160569467, 44.90745399082761, 80.1539991429658, 57.16577551239338, 68.53349897806025, 53.70129097148253, 54.43388130117992, 67.091651694261, 40.668447288025696, 58.8693523780541, 80.23243335803019, 52.8700655663746, 55.7037339696464, 50.610844752082976, 51.66838655693159, 72.64776741747791, 43.52878680721581, 61.17768205418043, 58.690001655249624, 45.22608793177906, 50.881927981266436, 56.4277693286578, 57.754883238374305, 69.77910332687628]</t>
   </si>
   <si>
-    <t>[49.43927289939955, 61.21903847471719, 77.73670445232692, 66.83559422652914, 47.412040898929064, 50.23325758050017, 69.03615445643544, 44.70389729766989, 74.69576489943293, 53.09068657900618, 53.42983943419256, 53.07041927635584, 71.0773412546267, 57.12678222797272, 43.404095188631494, 51.67608787836219, 77.31495619206122, 51.2177781495964, 59.0107153632516, 46.60569215572461, 64.57867948654628, 53.004693929104405, 68.09384535452712, 66.24433298883633, 54.783065221546764, 65.73825524591926, 62.91484545610177, 47.2054422625193, 82.20707827123607, 57.20697537898464, 60.12496152511528, 56.25925594000584, 60.43752602234656, 69.10285566550039, 47.56193243021821, 64.13324016110231, 60.48932927043532, 51.20993571847973, 56.112731897287006, 71.94688538707541, 54.53464024973712, 62.64422667007402, 49.11688071872152, 54.075466452576364, 71.07019212005372, 59.114716098542736, 52.5236959037419, 65.0986224740936, 66.14528327847464, 47.79751756640405]</t>
+    <t>[48.390793181339596, 63.67783768352488, 77.84273831589766, 66.79728845864834, 46.653008261060606, 52.01907039651881, 67.67990898267404, 45.01232034894396, 75.59069581902625, 47.19207115083378, 50.03996675592683, 50.95456900740528, 71.08359429657108, 59.25440889200839, 46.40758363950693, 51.34263884965134, 80.21464175697085, 54.107467675477864, 59.24611356670483, 47.48196050426921, 63.063058268763136, 53.961435796923894, 67.0259426693529, 61.81299215705566, 55.05796468549668, 60.65503520826707, 62.59954392855301, 43.74681095695065, 76.33916428961463, 56.12935040734777, 60.902560430274214, 55.894037162302034, 62.01449140253133, 70.39110989915392, 50.28671188958779, 63.51293385134395, 65.49351904952577, 53.6377752121095, 56.82080275847911, 73.25019914976959, 54.533432078737384, 61.36368809737697, 44.668485901924335, 58.14675752285638, 70.24700234557142, 58.31101273012785, 52.53608709585973, 67.03229369184369, 65.02862455721463, 49.37762553308393]</t>
   </si>
   <si>
     <t>[43.71813696204481, 55.57948045751982, 71.2312666494998, 65.48011335361437, 40.64458723874312, 57.52029367714856, 62.90141117819578, 40.25736089795932, 61.136544501203645, 29.98344130091182, 59.54979140043076, 31.679268588871548, 74.11390009900123, 53.07424451412057, 34.8503789309827, 32.637824942420195, 98.04532644666563, 57.42262863414841, 59.33666768643239, 51.95773519270216, 51.086227874584964, 48.68347100252072, 59.74041852828012, 55.08549557179235, 33.85625346964585, 68.25565821480413, 48.416915693700936, 40.497121043344215, 67.42292305181698, 55.65090657908168, 61.378871605807404, 39.150452209191606, 55.63001070877937, 55.31776183704798, 36.240572103217396, 57.83245360945493, 61.01239320754157, 47.51344467171749, 57.290943946127854, 63.84528610141722, 60.46752877583202, 54.89355290054855, 56.097712372171664, 43.139392828684045, 62.048113016286486, 45.05598082644322, 60.22373309685441, 62.69225299141603, 51.430587305167755, 41.60181997844824]</t>
   </si>
   <si>
-    <t>[48.37099380178026, 71.51284476164979, 85.50788905986755, 84.3637515211147, 63.809312067876874, 64.13705188668031, 78.03370246828456, 66.18663268156168, 83.55242257736667, 74.13189542096681, 47.264897510471144, 66.11511086150031, 88.81304532807611, 79.93740131896998, 63.53786677028778, 59.58803498616548, 92.73251952846327, 79.69941491770878, 86.63582613533214, 61.592915656365065, 82.16710293241174, 64.06657453210491, 67.22231084353797, 87.11748665652331, 87.30212901521357, 68.41421032491155, 83.29038226796216, 64.23589683905394, 73.1833280248795, 75.27613095856323, 76.67774807995544, 64.1452612967046, 71.72448804695111, 73.00830225914439, 65.09593720947183, 75.15110502039059, 96.38186608422895, 68.70298891645498, 67.443939169366, 85.7360953840691, 58.65543268170535, 94.69849903652938, 69.5019477406508, 54.98263735710507, 78.71146534066791, 66.46493079176605, 69.61445415592301, 79.41513957103014, 76.06987934284453, 81.07701399713777]</t>
+    <t>[48.37099380178026, 71.51284476164979, 85.50788905986755, 84.3637515211147, 63.809312067876874, 64.13705188668031, 78.03370246828456, 66.18663268156168, 83.55242257736667, 74.13189542096681, 47.264897510471144, 66.11511086150031, 88.81304532807611, 79.93740131896998, 63.53786677028778, 59.58803498616548, 92.73251952846327, 79.69941491770878, 86.63582613533214, 61.592915656365065, 82.16710293241174, 64.06657453210491, 67.22231084353797, 87.11748665652331, 87.30212901521357, 68.41421032491155, 83.29038226796216, 64.23589683905394, 73.1833280248795, 75.27613095856323, 76.67774807995544, 64.1452612967046, 71.72448804695111, 73.00830225914439, 65.09593720947183, 75.15110502039059, 96.38186608422895, 68.70298891645498, 67.443939169366, 85.7360953840691, 58.65543268170535, 94.6984990365293, 69.5019477406508, 54.98263735710507, 78.71146534066791, 66.46493079176605, 69.61445415592301, 79.41513957103014, 76.06987934284453, 81.07701399713777]</t>
   </si>
   <si>
     <t>[62.124487228459216, 54.91457436826777, 88.69724489066023, 82.58742334774898, 37.287682146106896, 53.95725384449193, 60.794808775817444, 56.57128065540716, 75.08432146201336, 68.41721277704248, 53.647336981218054, 55.03036606292708, 80.8139187499344, 61.047834453477044, 48.35567151216751, 50.410971694548756, 66.65200263884799, 52.29105026457776, 76.32205587343084, 58.00297345103577, 57.38505205279619, 69.17824731868036, 60.75082147227732, 74.12721555748581, 71.02243693492855, 54.70254686908261, 55.071182419318795, 41.88881740655329, 82.71194742007874, 50.26147385770093, 88.76831704409486, 51.20967935430317, 64.21804844631652, 60.24111040452224, 41.88602955768079, 61.36584886090085, 84.48336392185723, 45.74196302038027, 58.67707305799528, 67.55305321175243, 60.2733203634902, 70.79620823718125, 73.92812477936289, 63.401937421612644, 55.47558999520838, 61.27778179700195, 55.311855534224684, 62.01179632658785, 63.39095044584546, 64.92324785802894]</t>
   </si>
   <si>
-    <t>[52.4199987647497, 67.59256209342637, 67.84128590257059, 75.24102154858355, 57.12028028113391, 49.41540089226505, 73.7183591188467, 48.709018911075965, 64.72008442828039, 50.55037986216631, 61.384553456853894, 46.45417337695887, 58.40315090570273, 63.59926919794671, 45.0307436993427, 55.363007195018874, 87.89290900449657, 49.66764586566078, 59.40813042646964, 48.98213605571646, 75.624853675846, 52.20614486290415, 74.69759671232605, 84.24351758756298, 54.74801438741938, 70.83901324945063, 61.08030484845866, 59.98279829583589, 78.52737660951739, 52.36361527748722, 62.81003303967092, 59.360323968796386, 51.94331503542193, 62.216336943786146, 55.53514733288923, 69.95968621018602, 66.12561305412943, 54.60651035695513, 53.79047018329253, 64.05914655560488, 58.267911490428965, 66.48910663628448, 49.789003560224316, 46.545710401956505, 68.89920692058591, 52.821183763356316, 77.32169435627276, 65.51694166618941, 63.715432059148796, 46.36156520522437]</t>
+    <t>[52.4199987647497, 67.59256209342637, 67.84128590257059, 75.24102154858355, 57.12028028113391, 49.41540089226505, 73.7183591188467, 48.709018911075965, 64.72008442828039, 50.55037986216631, 61.384553456853894, 46.45417337695887, 58.40315090570273, 63.59926919794671, 45.0307436993427, 55.363007195018874, 87.89290900449657, 49.66764586566078, 59.40813042646964, 48.98213605571646, 75.624853675846, 52.20614486290415, 74.69759671232605, 84.24351758756298, 51.07632321357501, 70.83901324945063, 61.08030484845866, 59.98279829583589, 73.04234207458715, 52.36361527748722, 62.81003303967092, 59.360323968796386, 51.94331503542193, 62.216336943786146, 55.53514733288923, 69.95968621018602, 66.12561305412943, 54.60651035695513, 53.79047018329253, 64.05914655560488, 58.267911490428965, 66.48910663628448, 49.789003560224316, 46.545710401956505, 68.89920692058591, 52.821183763356316, 77.32169435627276, 65.51694166618941, 63.715432059148796, 46.36156520522437]</t>
   </si>
   <si>
     <t>[47.39168105551964, 60.51829590599418, 81.54262898863388, 73.13249400164801, 42.52307067759964, 47.82925376058227, 74.58132223403334, 58.50694035642346, 75.63588170177765, 54.75565641991043, 61.668699367056405, 57.18420749028447, 72.55168262907627, 61.15215711683982, 50.713282557240284, 60.29618986361107, 77.38737230400885, 55.43388939122731, 75.56547178355287, 55.74902707473323, 69.51157044765965, 49.2560875944747, 65.61639984650927, 66.38526176972469, 68.24487082802736, 55.39227382370026, 61.23300771772476, 47.37859225541289, 88.43283577355966, 59.0626861528069, 76.08637035498067, 46.88164394745199, 66.63746407164106, 76.19502263427357, 51.946104707145146, 65.64597752246361, 67.59898543479916, 52.09915538022669, 57.12813889420362, 70.5646610104902, 56.037272194908475, 69.32389234686659, 46.65009281312337, 51.64421699276258, 67.47731734444972, 60.500569545097854, 67.31454303593394, 60.01800905309865, 67.49032229902946, 70.74886442004981]</t>
   </si>
   <si>
-    <t>[48.661940649921476, 61.53274802718418, 79.59488751407163, 70.46803231472774, 48.08400320441035, 52.26174945580166, 67.71054924285184, 47.38296799812753, 75.21994454140282, 45.561257387993116, 51.85198368373274, 48.93434059381473, 69.86468325862973, 58.59847550309721, 47.16348714130262, 50.96384514021495, 72.70471897694962, 56.60026741648619, 64.49489356423399, 48.4068062903152, 68.16479458412367, 52.88969964359487, 64.1627645628942, 59.29458439082419, 55.85756682104626, 56.15473855641515, 60.74740172496483, 48.77950146604978, 77.38087280600449, 54.206830424778346, 58.67013584782219, 56.19750524071057, 63.7866569231353, 70.40168280656627, 50.36208646154175, 59.95586794597233, 61.38404182161524, 51.68806781525664, 56.19538828402006, 73.34945273877376, 54.255805657596184, 71.87208942655708, 44.180305235754055, 55.53315188742601, 70.54205683681437, 60.76227980441997, 51.48780274934282, 65.53907862220416, 62.87520477316743, 50.55895171352036]</t>
+    <t>[47.47973220314477, 61.57870691589385, 80.88920463516624, 68.99565789497733, 46.47829637256619, 53.84833530511099, 70.47989765259412, 47.539461408092464, 72.28798002520801, 45.568546035288, 52.40194024802048, 53.77843367689721, 72.2653976196557, 63.219549319836084, 47.09859531323788, 48.24338528574253, 75.1371405255694, 55.45314069150745, 64.3288148774362, 48.89496866629885, 68.3987139852926, 54.42989791767791, 64.40812811987362, 59.982393916042824, 58.79277549751732, 54.66295742188326, 62.26168114764862, 50.64114611374552, 84.30477284380211, 54.63048084558036, 58.504756856602576, 52.80038016442242, 62.290250586351775, 70.46211298398717, 45.80833212231363, 58.24017023541667, 61.69203681389157, 48.63908653583551, 59.63851192243872, 70.92521628570124, 50.222380505731174, 71.65523014592327, 42.02342180446962, 52.89187808527473, 69.42988841594732, 61.68240426545046, 53.52112185970376, 64.21130590550109, 66.25377836805437, 49.584174675634515]</t>
   </si>
   <si>
     <t>[49.019015437570495, 62.916111820502586, 68.29170158621653, 63.03197512289338, 41.69832663236248, 62.46246164420821, 64.6942522713654, 43.68878387126998, 67.86929499246547, 44.339227670046895, 49.35645644795689, 35.00437346585412, 68.26734523967997, 53.37705881653773, 38.37827412843473, 35.6106995516792, 77.0800116275576, 56.982550064731896, 61.573882325647624, 43.62159278026797, 47.709834777735416, 47.56540436987251, 57.95957107325013, 60.22111785418507, 47.634253055936526, 65.47717259228553, 44.628489827314226, 44.416164188565745, 62.95674630821392, 43.576083018456416, 63.4977755731581, 47.0317130230158, 63.64732675537566, 55.2422666010987, 46.5234921144169, 61.80986615131126, 56.79628713767785, 48.767285263822586, 64.03303129651908, 64.01043174860335, 45.294881811167656, 76.38121787773973, 47.74667226148469, 44.67827165811811, 68.23585323768458, 48.062132717833045, 56.966189732403414, 64.16746033869325, 58.16340793457563, 53.25388761795642]</t>
@@ -2323,7 +2323,7 @@
     <t>[40.32794214505282, 66.03172511073849, 77.03561132894647, 77.03960237479166, 47.71936068103532, 42.76194127579969, 70.43578578710768, 45.450071983447195, 83.47528810010695, 55.543959395369946, 56.13152887959555, 51.414032942638244, 73.99564848139669, 60.98623788751972, 48.76343007821041, 50.74296686604411, 75.46075338128053, 63.03299506954377, 70.70224173431335, 47.59637952604857, 68.47107840203975, 51.90143641188511, 69.92188215793027, 67.68566671610084, 70.5719469494813, 57.34139308073688, 58.58815567323621, 46.80117823417856, 79.76783963492711, 54.44024797975257, 77.76199726937729, 54.088676272615174, 68.50213300648105, 75.4980388509921, 50.6768002345814, 66.91285417947203, 70.26055728281071, 49.01359705231831, 56.943935005944596, 69.63301915154547, 56.603381778472055, 73.38172295936279, 46.90472578597248, 52.30064082266162, 67.16130171546709, 54.39404113282809, 56.49809926042708, 55.32286528651154, 69.85712802997321, 59.429151770923475]</t>
   </si>
   <si>
-    <t>[43.17678896390316, 60.60865652442211, 66.92343564120851, 72.82089309118862, 40.55591865883774, 43.34331426448631, 76.92455575944612, 41.6928613711311, 81.74680044098565, 46.231749212760484, 53.73009290016975, 49.258280833868355, 70.16997996488324, 59.73905843255751, 46.893990143369514, 52.51665254142692, 75.36487092164197, 41.76391977970225, 65.99272958238184, 51.26631372290174, 60.571528409393494, 45.73237355120075, 63.48132263497879, 58.317150247554906, 59.85708955830913, 59.393430628924506, 58.79190915869949, 40.18135824138636, 79.7702350940846, 61.08997092282295, 58.927088842287006, 55.41398803958318, 69.33546730403597, 68.16224033156038, 45.773377546635, 59.25481849834619, 66.21234644612498, 52.705348945967884, 54.29509359389537, 65.29597425502932, 49.6756286985531, 71.13253408606899, 44.77015969250235, 45.43881300783493, 68.93272448026185, 61.47840442045198, 57.34352886574068, 61.39048417861434, 65.73972562938565, 51.752284956610175]</t>
+    <t>[45.25380355170521, 61.80381083851804, 75.71251940912784, 72.10863392504446, 41.35140739726059, 49.66877521213141, 76.32355173895046, 42.85732336360282, 82.00470409598134, 47.670782414228846, 53.970754874376446, 50.69339315473264, 70.84738844929808, 59.64167486941698, 47.86606631975416, 54.41669142649691, 79.81332638598994, 42.80683627950682, 68.08119501312945, 51.91575216113549, 60.151301120557044, 42.92198743725458, 61.436610686567356, 58.369208915536774, 57.16610589560869, 60.20408651053981, 60.196906388822356, 41.120062321987476, 78.0314240044705, 57.474316940242, 50.767060402626576, 56.05114163142328, 68.98094467550492, 67.5909625818084, 46.40849558455916, 60.756675381108934, 63.707817491430106, 53.418783514544906, 54.72156925856273, 66.0638457475507, 52.70099878600948, 70.04689854875777, 44.38222639709173, 49.05430017693398, 67.03520523019202, 60.33254017221859, 54.0122442977871, 64.03511955320012, 68.30810132925457, 52.55886035827997]</t>
   </si>
   <si>
     <t>[38.38505085872467, 54.62580483949211, 65.7207387933375, 70.87294848384612, 40.775817984913346, 53.26759854259349, 69.15422018078637, 52.98052002494901, 72.86898547055652, 40.81846708650642, 62.49345554651991, 56.009069669742196, 78.43627863385376, 56.47644375191088, 48.16468059728011, 47.49205088477434, 91.41293723186777, 43.187816117583935, 58.47601959902595, 43.019556576396866, 61.53905966508827, 30.25651663788493, 60.63594253667149, 64.87698469005983, 52.4088369411665, 65.04792739292871, 47.54761090463211, 43.00099329295643, 83.04555080949552, 57.58272984497888, 47.29509832424884, 53.01664411364765, 77.25592515520694, 56.415282126994995, 44.328338287134954, 52.801814082370534, 58.21522955932757, 51.853053966840875, 61.11633664109006, 68.32273959447254, 52.416453809989626, 64.05990805265428, 51.46616281360098, 38.80149110224445, 54.75954745193007, 54.20810356407142, 58.46464326863835, 57.03397410726917, 55.9386685740426, 64.08721989077763]</t>
@@ -2341,7 +2341,7 @@
     <t>[47.59304447152892, 60.07747909448853, 78.60920653377731, 76.14096437426754, 41.83450266125452, 55.087140461529714, 66.8767802513157, 46.52361286584, 78.52834483369513, 52.19776497669516, 51.212806789698625, 54.238507429127644, 76.31727348736054, 55.42595169186227, 48.214840425375854, 40.96405759290147, 86.62827038172209, 69.34381093406917, 64.4319288776547, 47.449620283933726, 74.77894064030276, 53.620716381018774, 69.25005144592346, 60.61006491300815, 69.73880001977335, 51.27465423142156, 60.49052070178362, 51.3556654901965, 78.85714143982554, 53.61863079110869, 75.69290163902812, 62.217499632579056, 73.15158171848326, 77.72469910073255, 51.89157018529727, 59.27208722082662, 78.00505295976582, 41.19515724900398, 60.56925437120988, 74.61548467917925, 55.05197788766227, 71.11179129895638, 42.42819849478012, 55.496420273758915, 73.98279592436535, 57.86864970492792, 56.3661228388769, 67.06901336311545, 62.437935890636005, 55.56064138502141]</t>
   </si>
   <si>
-    <t>[47.28222526706871, 60.254244926291456, 82.38205686849588, 73.98562352599009, 44.75910112303786, 52.38086671957172, 72.08162777584695, 46.361862119525824, 80.07269779454397, 53.62695784740934, 51.3878391459586, 53.547596192286505, 72.0492070685103, 61.80801940490099, 50.852876500339285, 51.53611835927827, 83.3261723537632, 60.10317898391625, 69.49568164233024, 48.86087622126529, 65.69745793164851, 58.48740932673384, 68.59482409272549, 62.39607678637363, 56.82373851098026, 62.65541994494306, 61.95893261065989, 47.619391172340066, 80.21757782949558, 58.45737473690753, 61.445848606902636, 54.175046794035495, 64.73325655529842, 71.96783568069009, 50.4946647216741, 60.78862533668681, 62.192322539980246, 55.636403035320974, 56.61918268346927, 76.1312710713286, 54.14402829161276, 63.554226463600926, 44.344939688322235, 57.115789652461515, 71.89216489954616, 62.118302317127174, 51.2818617084687, 66.86449960836329, 66.34998522291532, 53.442086000386176]</t>
+    <t>[48.50823255639899, 59.81698074200639, 81.20183229973917, 71.86911248038943, 45.91197036071686, 51.151818013623725, 70.24286431855897, 48.85041045211782, 78.51191933949636, 49.915529849419684, 47.23315396671728, 54.569714454176655, 74.55972589281524, 57.68736744964263, 51.315271810472396, 48.05812778315041, 80.66199555781424, 56.196118416067634, 65.7281398718683, 46.37348902791068, 64.12645390250634, 56.38677629933159, 68.6251287695874, 62.987072761547374, 55.40397211950013, 63.83263838761825, 62.15696124615326, 48.21995880484977, 81.22933032027227, 57.491646224144, 61.81325874273764, 53.99827502604382, 66.8905041360918, 71.45295585264515, 50.10798626156586, 60.90836729591357, 63.067201342076075, 56.66420382795066, 53.71866637643355, 69.45428419534691, 54.37937930768585, 70.98059421957964, 45.259094251804356, 56.06509139029672, 71.29680138304866, 59.81518067463733, 55.527875037952, 66.01768981614613, 66.14735417360271, 50.85586096776352]</t>
   </si>
   <si>
     <t>[46.797904349214704, 58.430837754482646, 71.64419662214482, 66.99424491827071, 40.580531180712235, 51.88084299418251, 61.96093788480151, 47.57733275439206, 71.42019323756396, 55.61452872043094, 50.29723868974418, 42.2750027072767, 68.21413122080934, 51.176881619284494, 41.831156187944416, 37.78386568970183, 86.01308355017268, 54.97628923422153, 62.61622191057334, 44.78257147113518, 63.22475327547642, 51.624184441135995, 61.03486067942176, 66.37224158160652, 41.464813241399035, 74.64841554599317, 51.13115725592429, 46.12787840083224, 73.33620749104594, 51.45686835673245, 68.33494536446054, 46.23143971893503, 67.43044466006386, 59.743760221606365, 51.4566526224576, 57.04264819642586, 53.9869372336755, 57.568951432512435, 52.99963164398139, 66.40883880102756, 61.24961444895703, 57.305863462896376, 54.92608005260182, 47.91173793658237, 63.95566722789536, 59.434178747526225, 56.12656149198748, 65.46061187755082, 51.87106783801916, 37.147272031580194]</t>
@@ -2353,13 +2353,13 @@
     <t>[56.23015523288261, 61.120540803059015, 62.42442032209604, 70.60396015575951, 54.541604736647315, 65.97447282580656, 73.75418959249501, 56.72180885491955, 72.74785535388654, 43.55433444569139, 53.05478888007931, 78.04124794849245, 72.51956403879068, 66.69698002704668, 62.82517902879662, 44.050006287340274, 77.18018270347658, 53.39360710814206, 76.61108164480605, 47.92064199559929, 54.474075035454106, 79.61151839878, 61.2458762729113, 80.25016708526823, 55.491029681746355, 49.17518667931836, 69.11686405090913, 47.90159418851338, 68.68580159548274, 59.202271109748345, 75.33794030699886, 54.58311872311593, 54.41434401717263, 79.67515041483603, 40.279466007927624, 61.877936780182765, 83.5374479116294, 45.692109466684585, 56.61075253151383, 55.922467566945585, 48.651154354226186, 76.50869866636287, 42.5330497480034, 63.31938092717562, 52.47432260348089, 50.398816981921904, 63.5790713078102, 58.185784798877016, 69.06795867382104, 60.34664274662366]</t>
   </si>
   <si>
-    <t>[50.937149138782075, 53.78749153875597, 77.51351120429538, 73.29289047758384, 58.58919648394247, 69.7736822771531, 72.72657023301143, 57.4007019143936, 81.99063233840155, 56.136100440350035, 55.564401006593755, 43.47296528290657, 65.0678028694961, 63.569187125087986, 59.38964762652891, 51.52226641078722, 88.11846850456, 57.39867530414011, 62.41790146515359, 44.19679396802297, 69.1358579484208, 57.5391753193298, 60.51352711820485, 86.66307501715232, 56.60036431673213, 72.73263204530134, 70.39396334969292, 57.30794790303648, 72.63286049316007, 55.781877498921745, 70.47448063013348, 63.23688414057453, 65.70935055226158, 66.13280618351968, 65.8861819596058, 70.39223186977888, 67.36733550255538, 55.460905834357874, 62.785669063929866, 74.13361328105655, 51.21766487092221, 78.66434149627632, 59.50960455093407, 36.24337588248804, 77.76105226911477, 60.25711790834913, 68.75283647849477, 66.93772040308116, 55.55803588504706, 73.27109115773757]</t>
+    <t>[50.937149138782075, 53.78749153875597, 77.51351120429538, 73.29289047758384, 58.58919648394247, 69.7736822771531, 72.72657023301143, 57.4007019143936, 81.99063233840155, 56.136100440350035, 55.564401006593755, 56.66385668681097, 65.0678028694961, 63.569187125087986, 59.26045495246732, 51.52226641078722, 88.11846850456, 57.39867530414011, 62.41790146515359, 44.19679396802297, 69.1358579484208, 57.5391753193298, 60.51352711820485, 86.66307501715232, 56.60036431673213, 72.73263204530134, 70.39396334969292, 57.30794790303648, 72.63286049316007, 55.781877498921745, 70.47448063013348, 63.23688414057453, 65.70935055226158, 66.13280618351968, 65.8861819596058, 70.39223186977888, 67.36733550255538, 55.460905834357874, 62.785669063929866, 74.13361328105655, 51.21766487092221, 78.66434149627632, 59.50960455093407, 36.24337588248804, 77.76105226911477, 60.25711790834913, 68.75283647849477, 66.93772040308116, 55.55803588504706, 73.27109115773757]</t>
   </si>
   <si>
     <t>[51.66314258091141, 57.671216868404805, 66.52320101223961, 72.71558441511667, 50.91113013233684, 48.75962942141521, 64.07418589064466, 58.794874860013465, 68.78525919069072, 50.85708902792405, 47.75737534580001, 40.349231119237245, 61.200289373947065, 67.79962269522927, 54.884788236055925, 44.1588317666484, 76.34135938909986, 54.91057894721447, 65.86404239616184, 49.65696462101979, 55.39500485572861, 49.52222779637327, 66.06403265491848, 74.70131118070384, 60.79356018807546, 47.10684467975494, 70.55472888244591, 44.32077335782628, 75.51568159764318, 55.85867623098605, 71.75349571965421, 49.68306983219645, 55.21498583318501, 63.621389213822006, 43.62614861033387, 66.5677889190616, 80.56523348275282, 51.82677168977265, 54.202540315831875, 43.9481904241027, 49.9399725519425, 70.55247941008926, 40.191000750641216, 52.49412417783858, 62.00884492798557, 47.90456231706188, 48.526920665651865, 58.602168456081976, 55.63301498285649, 74.00746472152578]</t>
   </si>
   <si>
-    <t>[43.02390552988996, 57.382478724379155, 74.42410129688925, 69.617954828938, 46.15213636642955, 60.50324071087433, 66.6215562317961, 47.68767425238264, 74.6589376768573, 52.59300392735986, 50.1150279774765, 49.725917325381616, 69.43897997288538, 64.01693241410781, 49.361099639481345, 51.44588898521626, 76.36155274615534, 46.29365240086194, 64.00537129378793, 46.73925043363317, 61.211303773426614, 54.592241537907896, 66.62655869850352, 60.439959632503964, 54.33002104944287, 57.87447733463352, 62.24021381923434, 39.15014269816073, 76.30241062836056, 54.4200136131156, 59.293119630306826, 52.399112854203956, 65.3023829607827, 69.39952017001931, 48.81896401821474, 66.07877178019395, 62.04451986328034, 52.7795288993541, 43.836585529290716, 74.28232902781993, 51.84449514095929, 60.68949586666953, 41.865050991939945, 54.116685295362196, 69.53858328696866, 62.99285361277993, 58.27960326843923, 67.69354261331166, 61.175978550990074, 49.886884546254194]</t>
+    <t>[42.67141547036348, 61.15764689305956, 74.32241885965279, 68.50728625019441, 43.715418378244635, 57.96476840519857, 64.91528611062328, 39.90114413042542, 76.9315265654249, 52.61936003919428, 49.62955187634451, 49.00293525266972, 64.77137912886775, 61.51590691236768, 48.35808863965352, 50.01718491795754, 79.29026329766417, 50.40304976801066, 63.45973336004281, 47.772238014630155, 59.33136523389805, 51.9983365804507, 62.388711439809654, 63.63036127309427, 54.80039097450347, 56.92650910718791, 60.81281503067845, 41.90830308143486, 78.36377632501137, 56.38621847695062, 60.96220082349336, 55.44268121041297, 64.18494629464601, 65.0566791504603, 46.44602752838284, 62.99401201830559, 62.590659134685794, 50.7235945494833, 44.670926974405724, 71.49271882952256, 53.10682017115663, 61.019520223052524, 41.5394474765833, 50.95459146677926, 74.64996161095172, 59.80304552411102, 58.91421177700777, 68.95444887352998, 64.79397397142813, 45.458969939004696]</t>
   </si>
   <si>
     <t>[44.31863076605571, 55.37476448875668, 76.92722367642943, 62.26460706048299, 37.39271036364591, 62.51132362420779, 70.72123666290692, 44.763397342620436, 62.50204600468091, 40.821888371005194, 54.75069183019887, 44.74042272188741, 57.553164158238935, 50.59602684441982, 44.13326512955693, 40.17206867461513, 90.90555397060348, 49.922003842231256, 72.69407617916171, 40.47917201255801, 58.18270076737286, 49.4393095824992, 61.89303321091305, 56.20499835939462, 46.61842596491796, 67.34904191869892, 52.607840730433374, 38.088739476975334, 68.78073762273841, 47.62489643215423, 63.16095981096532, 49.41639696258145, 53.6639386533586, 68.19975321102801, 46.7377122480291, 48.26734054709501, 67.77684739323387, 67.22971004997092, 44.21980276616602, 59.29852673878083, 52.422273211604114, 54.90726719821525, 53.267947767378864, 38.468892870260994, 54.69166028974771, 47.702278252645776, 58.30888330701656, 59.79365967246997, 50.23634671800922, 43.545901418019945]</t>
@@ -2377,7 +2377,7 @@
     <t>[48.63793587975804, 57.50663116594666, 77.96927938202377, 80.49937091016177, 42.43022145587655, 44.6684658861774, 73.12529393298698, 60.89004860235927, 72.04523627741197, 53.45497323192313, 53.80473784197655, 46.47839487749966, 73.05524598481149, 57.78526837524241, 51.795958225138556, 61.61402299997456, 77.46351059056069, 53.877430972497656, 61.45179423588207, 54.60619968735118, 73.20165860589242, 50.42528859312953, 71.46037121891105, 68.99005654228259, 62.38330136033591, 52.80879877117323, 64.32739325435604, 46.40835178114375, 88.17722520091975, 56.33143202422728, 79.71842922699574, 50.53958938589883, 67.1833344881763, 66.2016527052984, 51.179455341832806, 61.48501680949967, 82.57186037683637, 53.66374099043899, 57.27368919217522, 71.59877078791196, 54.50277127358001, 66.70250499091753, 39.413135075041026, 44.85572709145987, 71.23457196661035, 61.56596290723162, 56.683595271012855, 63.37891295573965, 66.53714185088754, 71.06809893150678]</t>
   </si>
   <si>
-    <t>[42.56079983019412, 59.991157741398865, 79.76930091054298, 68.92402529215333, 46.40936905276015, 60.72229175673469, 71.6489672041044, 46.66799633705459, 73.61753824943253, 51.06481166142552, 51.30376963732124, 49.243162342744206, 71.09169417683185, 64.10590271235492, 45.62004570941799, 51.591827102569525, 76.34314902404128, 47.28557513804056, 65.65848143243853, 42.3080313877449, 65.15729453212711, 53.06868559761432, 63.461309926756655, 58.87958656657226, 53.70616404050837, 54.17623926172289, 55.122132031912095, 40.741863140692594, 78.31532368277638, 50.61915556683577, 56.48540699435023, 54.201307395695636, 62.567697173225525, 69.91780852552019, 52.01699489297003, 59.787181357425226, 63.08057619231241, 51.33835002070799, 45.85533250424538, 64.68876234998447, 53.32802589090146, 64.1804865879341, 39.05857857111367, 45.847332240048395, 70.58531497340181, 62.47104846656695, 57.837306124455566, 62.34909122324943, 63.272858008472404, 49.47251648080073]</t>
+    <t>[41.746181894214175, 57.85152227374932, 78.89277677361065, 67.93673238569808, 49.76526430291341, 59.32277996005616, 75.38751124902637, 40.66070629723496, 74.56410164778683, 52.93909126705108, 49.65229355122685, 48.109994686452545, 70.95406373902425, 61.30263151524915, 46.5766705938523, 51.806687314496486, 75.22434728353497, 46.02805639070847, 68.0805657396416, 47.01359973780135, 67.45365353627264, 54.17751405331041, 60.321556294565895, 60.34185405082517, 52.61303420902203, 60.1922195925924, 58.68434050632908, 48.230826625887026, 78.02240218172889, 53.34663290191788, 57.6721113301448, 53.88388811352106, 65.76906101856105, 64.80690013643778, 50.8401070220755, 61.10179634727087, 63.71046218914466, 51.47141524277281, 45.910103126448305, 69.48215501229275, 51.352713223559945, 65.56475507083175, 40.976370144394664, 46.45438605832378, 70.58599724014229, 60.3294204627189, 58.9089633468075, 64.71896243539491, 63.25521095513836, 47.869212602221126]</t>
   </si>
   <si>
     <t>[40.31213444548612, 58.75999195980397, 65.1531312219491, 66.86312513722012, 44.81043682199011, 59.83552998250808, 84.41340809989444, 40.68975301044491, 65.43772018384547, 35.03713627660705, 53.1708735180168, 37.645021575851324, 56.26303892945305, 60.69863534693694, 44.08512127941263, 41.59439262146275, 95.91668445478116, 47.01008534767648, 70.66988687216487, 37.32444824532934, 58.3174020390756, 47.72544915172294, 61.904471318312325, 58.03830244840831, 48.07985418179076, 56.7648957571094, 52.86727892875062, 39.470827400983026, 68.89934727637905, 47.00964428335266, 66.65314577359432, 50.072725843013984, 50.08063934145495, 67.31725222386024, 42.871226681573866, 59.1950199425183, 57.00672469372896, 56.80572781085326, 51.964439200675024, 62.880459961243446, 48.978820914195424, 67.0221835325674, 42.896134434750515, 41.74173858371135, 60.18317918546701, 51.26250437646837, 63.3995265257202, 57.08636663303942, 52.18005729700255, 54.320255151055896]</t>
@@ -2395,7 +2395,7 @@
     <t>[41.777785297723135, 62.93189546721396, 74.41843605433941, 76.78375107320416, 48.17441944852121, 50.753251867777315, 78.01754713046337, 51.6270349634292, 84.14343602808738, 57.18609583054839, 52.7342605646753, 48.31241771977383, 73.79096634131135, 59.05678707109754, 47.33998080943965, 50.954421733586756, 72.40871228638075, 45.79173954216936, 75.2590483359914, 53.12424689123713, 70.1220128934706, 64.57255746470022, 70.36727077309256, 77.13747918287275, 65.69942434345836, 55.917177118567814, 64.57662705178755, 47.913620771176646, 77.16927273684745, 58.943221781200606, 78.99303714403044, 54.694623282036, 67.33516959438955, 55.64989154630131, 54.65686765686903, 63.9301718997951, 70.38521758863467, 46.43480881509113, 58.39847238647672, 71.19984575717726, 59.20255421785047, 71.4134024651509, 49.796928114484935, 46.11293427616678, 68.27775564971105, 55.647679943291514, 63.96961627077572, 61.655610799938714, 66.88604666329394, 56.94900814382238]</t>
   </si>
   <si>
-    <t>[36.92339371947279, 56.25685684253264, 72.51086472103994, 73.66163532207133, 41.35259302621658, 49.2638113328872, 73.81331489087393, 43.53455359654704, 79.80585354592479, 47.35431574998626, 48.11973447218216, 47.46680790873043, 71.33549770195502, 57.684165779491565, 47.044808694941736, 45.780171259748435, 76.26126184496289, 42.65161713405224, 68.462468623387, 49.02375489510413, 57.02842784270124, 54.29973899746977, 62.745697639349856, 60.5862363057601, 54.88090402250383, 56.839587747231434, 59.012863509232105, 40.21719911168612, 80.45189991207845, 54.039891976468624, 57.596786390672285, 53.43886769004349, 64.76325108035044, 66.37919839808201, 48.53196642050234, 60.09687177228608, 61.620596447479265, 53.8991194852025, 50.01730356797413, 72.0043390539498, 54.05776548882107, 66.24290680872363, 45.274976524876436, 42.521907842829165, 72.62244909133894, 58.12072085414627, 57.39458053981093, 62.36507878393941, 64.0682618089399, 49.698884957519795]</t>
+    <t>[40.2814996188458, 57.71906335674698, 73.54150922284929, 71.61375854723985, 45.90308620353445, 47.977431415590125, 76.44851924196792, 41.808963220110655, 77.5948009762091, 51.513737633435056, 47.992919215514966, 50.42419027781001, 70.38170666677323, 58.55971721600127, 44.18091498954047, 46.78655195947451, 75.4490710223792, 43.02903527022626, 64.96574698290698, 48.13566889920998, 57.460257921920274, 55.93865293466898, 63.36432845418448, 61.24727215132754, 54.648525784190646, 57.95763495847711, 60.0338999642484, 39.39882502846734, 75.7803182619939, 56.623723827231636, 60.09622274488425, 55.80064164314107, 66.45588213340872, 69.30535383345988, 47.39743540682937, 60.747804734153426, 62.88169183131337, 53.742830278013315, 54.12734335397029, 70.83064969941972, 52.08146371450504, 65.83330680662083, 40.666108085380806, 44.67767930646663, 70.72062591237612, 60.13794742398339, 56.28192998712362, 65.12971442241766, 63.737545151469, 51.99792971175106]</t>
   </si>
   <si>
     <t>[34.804150614264394, 56.1984487427776, 67.03487410664718, 75.76061813691838, 42.38599324014738, 45.1963488838157, 99.96973539895353, 52.24009323485244, 73.37449323416385, 39.0655852365846, 57.26351376581261, 38.40795117781923, 69.17386220283028, 45.79982954921238, 44.269285179124154, 42.107083295366444, 85.91662190678369, 47.880257186222444, 70.62498754138635, 46.640802717416584, 56.12630934060397, 37.19153206824847, 60.24307283075174, 66.88594456890897, 57.57594605247326, 62.9724677706275, 51.26629483295155, 35.550854411252885, 67.57558588400904, 48.35611279569182, 62.45302366244556, 50.79812209725282, 68.45340138952797, 66.77864938563343, 44.46495281670676, 65.6848038387735, 67.71887187130052, 54.26935389720608, 51.296979331074574, 63.98195597531706, 45.28340013450051, 54.68515660003425, 44.48272466380684, 31.224784997264837, 55.75309163531111, 52.64968292919443, 63.8753382439281, 56.01021550558148, 58.16544708144352, 62.32186105989627]</t>
@@ -2407,13 +2407,13 @@
     <t>[44.45900497779584, 55.795883249720006, 77.11951281483933, 84.84104953779661, 40.83150467024991, 46.03181344376733, 58.4609588424487, 42.28532348404179, 75.28864225723682, 54.84118915607171, 35.84959236350795, 54.700496354941315, 66.6626422013911, 64.41153876333517, 49.13395496679322, 39.778842754946176, 70.19431398766906, 48.49026313706548, 65.810184702981, 47.44080449175733, 50.17819775325053, 68.51409958739133, 65.17586890354175, 70.85599017077037, 57.04516718476987, 52.544234033410454, 55.516872499345425, 38.249240266391205, 77.97623615849606, 50.101631272030836, 77.43491925221669, 47.96295164291459, 63.58867975094136, 75.6234899204048, 42.60970798786898, 67.024580098332, 59.77741453387794, 50.41059199658514, 57.79838336816225, 63.46297396919916, 58.771925170714816, 77.09260244119268, 46.44498972535992, 36.54509007116234, 86.338893809412, 46.90063735790366, 70.2391592371011, 60.96393536940369, 62.77479978877077, 45.97034292636043]</t>
   </si>
   <si>
-    <t>[43.81113726107736, 85.32379335391498, 76.29999854638767, 73.22387501902048, 47.27648966713729, 41.052109054626726, 81.44200297168288, 48.249785824030134, 86.75398623387117, 50.77380996371096, 50.09841097553474, 50.12221199914504, 70.19676561710577, 64.1943135346941, 65.63598694253974, 49.50282279346453, 90.98650244194732, 46.63365483472681, 59.31222334613185, 42.5810192700732, 59.209773345865436, 50.51628857449633, 74.02992138553364, 82.21242067618643, 55.03987814050617, 61.357238998641556, 61.377628342693534, 49.236627988869074, 66.57912784916199, 52.241439893213396, 63.08046298232894, 59.83094630056895, 63.18596553516814, 61.6790445687844, 57.23609922366853, 52.273668830891104, 62.104221031408024, 50.21655454466631, 44.63085486085372, 80.88927442617738, 51.411150499276104, 80.93699226989212, 46.212142120611055, 36.55962458823332, 91.99787566560505, 60.003392180323814, 71.64817143330413, 60.10411353880626, 57.74025469504815, 36.51852397139675]</t>
+    <t>[43.81113726107736, 85.32379335391498, 76.29999854638767, 73.22387501902048, 47.27648966713729, 41.052109054626726, 81.44200297168288, 48.249785824030134, 86.75398623387117, 50.77380996371096, 50.09841097553474, 50.12221199914504, 70.59760139648394, 64.1943135346941, 65.63598694253974, 49.50282279346453, 90.98650244194732, 46.63365483472681, 59.31222334613185, 42.5810192700732, 59.209773345865436, 50.51628857449633, 74.02992138553364, 82.21242067618643, 55.03987814050617, 61.357238998641556, 61.377628342693534, 49.236627988869074, 66.57912784916199, 52.241439893213396, 63.08046298232894, 59.83094630056895, 63.18596553516814, 61.6790445687844, 57.23609922366853, 52.273668830891104, 62.104221031408024, 50.21655454466631, 44.63085486085372, 80.88927442617738, 51.411150499276104, 80.93699226989212, 46.212142120611055, 36.55962458823332, 91.99787566560505, 60.003392180323814, 71.64817143330413, 60.10411353880626, 57.74025469504815, 36.51852397139675]</t>
   </si>
   <si>
     <t>[45.15584393749934, 63.97701745993343, 82.17787021177847, 77.97019036683987, 42.885012281096934, 51.65537387626907, 69.67282994746498, 50.01252106501435, 80.95762879019748, 55.9748324207783, 52.3289701793828, 51.780573255117694, 78.32140362071027, 53.51505224383901, 49.00771892692751, 48.976317165340454, 79.31819717817271, 60.30550105981289, 72.99617822579827, 54.86241093955683, 81.56176021706575, 57.502923317320494, 68.98677231259987, 62.59289369777983, 64.49574957849472, 48.281564349944944, 61.5930101069843, 44.31522774686636, 76.7809302953106, 51.320624260001914, 76.40400972969482, 50.57610140252686, 71.19091474754639, 62.44247842425365, 53.12028551138638, 63.743700954482634, 77.85673383381129, 44.68055954189901, 52.7510488696846, 74.88185074603017, 57.21103619828668, 72.75210722266218, 36.14592195116253, 49.37856286242958, 73.73019217029102, 56.878685122729834, 56.297462221428816, 67.61550568269033, 60.23310822176495, 55.513598080953216]</t>
   </si>
   <si>
-    <t>[39.80153765700003, 59.35404689071436, 77.07877900019976, 73.43121359012633, 46.26452284388579, 50.027804013235325, 64.3471271669405, 40.676388133425434, 78.57012300595974, 55.70039101065702, 53.68014123618451, 51.17993926624519, 74.130925958195, 62.08458358206116, 53.886664267692105, 47.4769712268671, 78.74049039619341, 54.212767684527066, 64.44100959294192, 48.172649563483574, 64.57465999583465, 59.60384806531302, 66.82973174528173, 59.25246372781161, 57.95476495778324, 58.79358791487121, 61.95174685815004, 44.304354642139536, 79.75883051173237, 55.346619065717064, 58.320523599443675, 51.18548611295333, 65.22890579182565, 72.92508001482997, 49.05473847056203, 56.84007939441926, 64.74891598946712, 55.85304956630095, 51.9381351751132, 74.80181704637539, 54.11556036705312, 63.983907178469906, 42.38171403725494, 50.295952730235115, 73.09817179809622, 61.436296141514575, 56.98011307539969, 65.26695352972757, 62.85113173052975, 45.79596175167561]</t>
+    <t>[42.64200295392686, 56.77872942565441, 79.59374992352093, 70.97120541538496, 43.14126309684425, 48.172454183064986, 65.75346970847234, 45.2962294912724, 80.10231624166795, 54.87598321643135, 48.986058488934006, 50.04140249458766, 73.92109672596627, 61.406928588156134, 52.65655965495558, 48.80716333510879, 83.36111047284044, 53.50416964485498, 67.56854633089812, 48.89166604826299, 63.98395328096565, 59.01385986366237, 64.78634424794937, 61.175630157597325, 56.32819002775998, 60.33504101888152, 59.14643377433744, 45.30673275729002, 83.0720485149353, 55.80906590588298, 57.02754235122497, 51.1635929775793, 67.98912410286113, 70.38329400486853, 48.87214136375523, 56.84055814671213, 66.91563538123206, 55.114521464117345, 53.41973787936192, 75.99377164285595, 54.727867314121546, 61.6815484826327, 39.7465115955029, 48.931305436857194, 71.64296991222346, 59.79129337684297, 50.09779872774092, 66.51041109898865, 64.01285464616784, 46.29698126304415]</t>
   </si>
   <si>
     <t>[44.83895273662092, 61.452314256554125, 77.40372121698756, 71.29465651382854, 36.28810770644727, 60.657179404546156, 79.14362635464475, 37.09452324258979, 67.56924814669313, 48.50330194009952, 50.056662832222464, 53.290918308291296, 62.715942545265435, 65.98819606908417, 46.246912930142756, 43.50119176133969, 98.52572547557166, 53.32689469100984, 68.78778617005341, 34.10365162295545, 58.53539774011038, 54.5463590032026, 70.63008774390232, 70.68452949563624, 51.6614127377327, 66.80201217270546, 42.38436615146557, 33.78414011793422, 70.18093790624049, 56.220155945336266, 70.49672623830213, 54.566856512272906, 64.57276941461201, 66.35815375149251, 44.94504626116037, 51.26219158272704, 61.80310519256304, 60.235219133505545, 44.657840778934954, 67.72528101581801, 59.63508490020941, 55.14262446763239, 43.69876001785139, 42.25007052152665, 61.98758020628825, 53.32447250916943, 62.219873819008, 62.46801366004858, 50.926622836903974, 46.23068839991926]</t>
@@ -2425,49 +2425,49 @@
     <t>[49.72648088953986, 61.106703200506836, 62.218849924171124, 64.02296590377702, 55.46893831802139, 64.35528287813358, 65.85228637224662, 58.114006821170165, 69.40480259620561, 45.14779411370349, 52.72546261601083, 72.0064248844323, 60.53445162390256, 84.09839853987995, 52.909468870704586, 44.053139487245595, 73.66618466685432, 55.83176997836742, 68.83490745158112, 46.81045044272173, 57.576408980517385, 59.77574412767574, 63.58599514413051, 82.3284922876144, 50.09585600090991, 52.58040890623524, 59.52004719622323, 54.023374005995926, 66.50951965520153, 65.74937295558043, 70.6462212554984, 52.65773152198495, 50.84971348952715, 74.2359971105929, 40.75563758754643, 66.73077375080675, 81.71616911502814, 50.82311541628218, 56.876596155561316, 50.51131971410302, 52.19554703276287, 69.95219668890506, 42.64336901102307, 60.698007742077614, 50.54776347860327, 46.74240634018142, 59.35303032139629, 65.34101855880914, 67.71622128021987, 81.47588561696206]</t>
   </si>
   <si>
-    <t>[40.360021645364455, 65.64640184896031, 62.777074131429764, 69.73758192048352, 66.79260611881271, 50.61679516643, 74.96457496711363, 59.24436849534898, 72.38422052524355, 50.13938564316782, 55.243967720349694, 56.003029254802684, 76.9072429479639, 67.9479274902167, 62.71101426004693, 50.49599956118934, 89.10339878255584, 56.147947599959906, 65.82817821889839, 44.83581269796601, 65.27141033680306, 61.716879492450964, 66.00497749087889, 99.87827062558372, 48.6396933466838, 81.27789304805759, 68.69699565625619, 53.976181625170014, 74.20878235809985, 64.52495026227612, 71.92889373756798, 62.286797070372096, 50.10669419919287, 56.97330624439172, 43.56092837207978, 73.11815853505225, 66.38366882189847, 50.506529259802015, 82.49791861210396, 63.63012328505413, 51.66714338361899, 73.10394528943415, 49.43446690346185, 71.59969932099676, 71.2696479801485, 57.71714774433383, 69.24357514540816, 64.58729814774927, 60.212587407668344, 82.8723122699459]</t>
+    <t>[40.360021645364455, 79.93116221111653, 62.777074131429764, 69.73758192048352, 66.79260611881271, 46.339052886209956, 74.96457496711363, 59.24436849534898, 72.38422052524355, 54.8792220055688, 55.243967720349694, 56.003029254802684, 76.9072429479639, 67.9479274902167, 62.71101426004693, 52.35443670465121, 89.10339878255584, 56.147947599959906, 65.82817821889839, 44.83581269796601, 65.27141033680306, 61.716879492450964, 67.20103813999545, 99.87827062558372, 48.6396933466838, 81.27789304805759, 68.69699565625619, 53.976181625170014, 74.20878235809985, 64.52495026227612, 77.95788380599859, 62.286797070372096, 50.10669419919287, 56.97330624439172, 124.99192259616505, 73.11815853505225, 66.38366882189847, 50.506529259802015, 82.49791861210396, 63.63012328505413, 51.66714338361899, 73.10394528943415, 49.43446690346185, 71.59969932099676, 71.2696479801485, 57.71714774433383, 69.24357514540816, 64.58729814774927, 60.212587407668344, 82.8723122699459]</t>
   </si>
   <si>
     <t>[44.5008776839246, 58.87533070842336, 61.6019232288686, 72.17153232393954, 48.41255764880638, 50.53081457578934, 62.63207577658977, 57.24726668646502, 68.3288847667051, 44.64888310120818, 48.83601651392805, 54.112083720879596, 61.9036453949005, 66.63414147029195, 48.42055360425583, 37.67864892580106, 68.73602819346577, 57.02357770347376, 65.65178908831876, 48.77698786483534, 56.08229607062023, 53.46817821595782, 60.70636996104734, 76.38848770079936, 41.61496276189629, 46.791776019769294, 62.339073497672985, 44.79597294665074, 78.95882902999557, 53.65284622900643, 67.90905314980611, 51.432532669310234, 50.10689244902814, 65.30656966192377, 40.05992554179659, 56.408467826640155, 79.56624620588212, 53.470756704202, 54.95208418487899, 42.4604097463256, 51.78402261836997, 69.77793250720731, 40.284634513800114, 48.30543978887761, 48.77079691292367, 44.27742303858637, 48.95920171573883, 57.73778690062153, 59.28077114978564, 73.04673836983001]</t>
   </si>
   <si>
-    <t>[44.75201481416055, 57.81688124976626, 75.22188963905903, 65.69739921938013, 40.581078438420086, 43.6617625591187, 64.78085002834322, 49.621339768649996, 76.22292080528076, 50.888755492467006, 46.9761604464337, 48.56883951999235, 68.96415486249631, 59.40954170003152, 48.59410884151798, 47.37826661549913, 79.42527282226473, 50.633309736995194, 60.94696316939848, 50.20098840109132, 58.89109342122106, 52.45770943846433, 65.9523564952115, 65.50742871408755, 56.94919530439018, 57.84354208347575, 59.40350591470539, 43.491790914798756, 68.19498919339811, 51.20868260720898, 64.74160975643993, 52.72688093588726, 62.287646954675495, 71.35184162134753, 46.958275900518714, 66.65224622969178, 60.19479537603454, 52.29128056692322, 46.60609574026655, 64.42430137365493, 52.915297778915125, 56.76490980111921, 46.28040261967827, 51.69657416203148, 69.13924957100163, 57.110634495301085, 52.557048542697814, 68.74498453846753, 62.65628265210913, 45.34309522574885]</t>
+    <t>[44.52416116323599, 57.95798936057251, 76.60742918344499, 65.06606963109303, 42.84917636320022, 44.57958525313698, 68.89887757575136, 39.52753358828453, 76.1112304679221, 51.08759634702222, 47.46083833117756, 44.15169372373079, 69.66325489266463, 57.04243337960797, 49.951142156615695, 48.186834874119945, 79.47096910072118, 52.025375815069815, 63.308820601114206, 50.30494701349753, 59.07189966474135, 51.51930201455044, 63.232973743912595, 62.776685342399574, 54.319754395293124, 53.89255241043222, 57.78091177827747, 47.818771187764895, 68.54744874939098, 52.53438332267074, 66.250012806885, 51.684659217838245, 59.705033400848066, 63.94928611249056, 46.9630820510519, 64.65845642534683, 60.93936871635787, 52.35306773092804, 46.41527819056144, 68.28503560840393, 53.343392972568616, 59.18022805032388, 41.68331833635697, 53.719141709931826, 71.7365271949034, 61.106871291955784, 50.978680239794144, 68.52799463145638, 61.78123242591311, 45.192819444333814]</t>
   </si>
   <si>
     <t>[34.05099694841793, 51.43417356270749, 74.60118677607849, 64.18262070599384, 32.29964489641057, 43.08106890936165, 59.11738832494606, 46.924128286537055, 69.29546957383674, 39.20400318679684, 41.37798905171433, 42.19138047950763, 59.98998174521101, 51.96244617126315, 42.115639571220534, 38.36026909484109, 77.56522150261567, 48.40053724810986, 52.797092591828886, 55.05909408767544, 51.59560441409685, 50.36197197574033, 57.88305723614397, 59.15409601487969, 37.67817942390276, 64.60384071799321, 47.65210740384825, 37.790230909731704, 62.85540449026227, 52.099589646890315, 57.48061123298553, 42.68125785204997, 51.32763178916644, 55.93420382418122, 45.31186180270055, 55.722039466582224, 63.38807370984309, 48.812388481953406, 42.02907341050763, 50.414559107402106, 42.052915636133534, 51.29284907426674, 48.8831107521286, 53.912861818111175, 55.688778011985484, 57.67107363578193, 56.95843078993855, 65.93042513014149, 49.50824022869809, 59.11446906016267]</t>
   </si>
   <si>
-    <t>[62.325036731238846, 72.4125388669182, 86.94539297073965, 80.80837495570651, 65.3811387448606, 50.0346504465843, 81.08908331408384, 69.7101747762754, 85.85621970951618, 73.60417524497542, 63.324197678785715, 64.00538336313087, 69.94431983553473, 79.25570164303043, 76.77229762050311, 63.36353165957351, 77.54248894073115, 62.95013675909427, 81.3019566520114, 56.051908805375525, 81.37659429008116, 68.79017752005332, 79.588270214643, 82.39562953643228, 84.83310313372543, 81.9669444407658, 80.4215566620506, 66.3861470478264, 75.38331252833956, 83.41155170226736, 101.06457379411626, 64.3799406206887, 56.19434532472634, 86.72971473489956, 64.82932923871026, 84.67455636215934, 93.38154644369598, 61.64753806266993, 81.10819447787694, 85.75879022124437, 64.5267431699391, 82.1683593055563, 81.77445271463151, 60.427484410871, 90.04731352706078, 59.96818982635132, 83.00366336809945, 81.19055668213984, 76.62889831997322, 84.67999114579193]</t>
+    <t>[62.325036731238846, 72.4125388669182, 86.94539297073965, 80.80837495570651, 65.3811387448606, 50.0346504465843, 81.08908331408384, 69.7101747762754, 85.85621970951618, 73.60417524497542, 63.324197678785715, 64.00538336313087, 69.94431983553473, 79.25570164303043, 76.772297620503, 63.36353165957351, 77.54248894073115, 62.95013675909428, 81.3019566520114, 56.051908805375525, 81.37659429008116, 68.79017752005325, 79.588270214643, 82.39562953643228, 84.83310313372543, 81.9669444407658, 80.4215566620506, 66.3861470478264, 75.38331252833956, 83.41155170226736, 101.06457379411626, 64.3799406206887, 56.19434532472634, 86.72971473489956, 64.82932923871026, 84.67455636215934, 93.38154644369598, 61.64753806266993, 81.10819447787694, 85.75879022124437, 64.5267431699391, 82.1683593055563, 81.77445271463151, 60.427484410871, 90.04731352706078, 59.96818982635132, 83.00366336809935, 81.19055668213984, 76.62889831997322, 84.67999114579193]</t>
   </si>
   <si>
     <t>[61.597662685134715, 63.90887904391089, 85.20774092419771, 81.26121392478252, 40.73759218823596, 51.42909833409863, 60.86634176483521, 83.74101289551598, 72.49095361910646, 53.95626088422294, 72.70172834642707, 53.130656004726895, 82.9344801422082, 59.39570727918357, 51.91836054369849, 48.54227982243843, 72.26956095294274, 76.25168526284953, 75.47215719459028, 55.793401365539374, 52.307429159666285, 69.91379555885926, 64.29062504063162, 79.00563272194957, 68.83914009408812, 52.628576799423286, 56.21848488694472, 42.3121665213514, 79.90930873338685, 48.92383128396958, 81.00033015873457, 53.121858529697356, 64.23313739844859, 91.1262035086506, 43.845932925060325, 97.2342076919489, 87.25245930018168, 48.51168496149798, 52.65025774018576, 66.21293733370386, 58.711484956698506, 67.651934384561, 84.23193601412585, 61.05244736195347, 95.1009707667236, 62.05227346738246, 68.38392345687595, 64.07805533913911, 60.04329351769381, 75.0307585073601]</t>
   </si>
   <si>
-    <t>[37.24019195105906, 76.4577140315348, 54.265883125851474, 62.64737166944939, 51.49564219778284, 49.05010559154594, 75.72752189520163, 47.94304788988803, 64.94912200999616, 53.18921953251774, 50.589016167080885, 67.38633467130495, 57.05609630004492, 63.1677993231562, 49.68241327454641, 55.19572206974053, 83.73707868100176, 49.048240648511396, 53.39360473331729, 46.176905560494816, 69.01453005706406, 57.85728663579974, 66.22769867875283, 79.94710847179128, 51.75478349818566, 62.551840033703606, 60.40595484889834, 54.71848045381563, 67.6333334545817, 63.07883711108474, 58.786763992327856, 63.29914490758738, 52.96578954679397, 57.648334106288985, 57.79102722452862, 59.26013239275868, 68.19282674237267, 59.28031279380047, 52.23970665264992, 51.733910459668486, 63.96496222479501, 72.26082862641425, 49.060359230109896, 42.08416122595409, 67.91647509467577, 51.1482898727534, 69.9269527028729, 62.517191572506285, 66.90686645383539, 69.87908845872929]</t>
+    <t>[37.24019195105906, 54.97312044921192, 54.265883125851474, 62.30845456839487, 51.49564219778284, 49.05010559154594, 75.72752189520163, 47.94304788988803, 64.94912200999616, 53.18921953251774, 50.589016167080885, 67.38633467130495, 57.05609630004492, 63.1677993231562, 49.68241327454641, 55.19572206974053, 83.73707868100176, 49.048240648511396, 53.39360473331729, 46.176905560494816, 69.01453005706406, 57.85728663579974, 66.22769867875283, 79.94710847179128, 51.75478349818566, 62.551840033703606, 60.40595484889834, 54.71848045381563, 67.6333334545817, 63.07883711108474, 58.786763992327856, 63.29914490758738, 52.96578954679397, 57.648334106288985, 57.79102722452862, 59.26013239275868, 68.19282674237267, 59.28031279380047, 52.23970665264992, 51.733910459668486, 59.78093956157961, 76.84983147351296, 49.060359230109896, 42.08416122595409, 67.91647509467577, 51.1482898727534, 69.9269527028729, 62.517191572506285, 66.90686645383539, 69.87908845872929]</t>
   </si>
   <si>
     <t>[36.219079971268734, 55.38354745322975, 82.3840688810404, 69.77925811485129, 41.80680142180569, 48.63885784200791, 72.74689195774758, 66.21832125184287, 69.88681397175712, 53.976134214739034, 52.27671782238593, 53.19808271501183, 71.41096489297217, 55.4274175501219, 49.322970501220546, 53.71097578246154, 95.8021085384492, 47.454208699330565, 82.14995087766677, 57.50684563929998, 69.02451724043449, 69.17216138818036, 70.7981479638547, 78.10015554673355, 59.265907716401095, 51.72285283197473, 66.06778884838442, 47.69370133206766, 72.21450695619522, 57.90091099048865, 81.19145213788008, 44.726013827616846, 64.16372561739975, 68.90632324869706, 52.60958663203057, 62.72769952106698, 87.68474381911591, 52.853247621453896, 56.522282935822666, 69.25287415137355, 54.81801629799754, 67.26652595773407, 39.709669429777804, 51.38705015997399, 79.47433655070442, 56.740010787389146, 59.35240551135804, 63.528877577178655, 69.15598083592269, 52.34388003370825]</t>
   </si>
   <si>
-    <t>[42.92240920254688, 60.529450623319626, 78.00482865541927, 67.81725963192322, 42.8983701624943, 44.80106353218906, 69.35682402917513, 41.904897657800895, 78.81894961158334, 45.57097856204328, 50.326442669814234, 46.55441789055271, 71.6426809810787, 55.77407152226097, 52.378844708502555, 53.2820051897259, 78.9288427443322, 51.933267068595285, 62.34471642730386, 49.95704248756131, 66.51600068450477, 52.73350517118352, 62.69825092557499, 68.59850507749202, 49.11286642546755, 63.321739624231185, 53.95438782595838, 43.1861515431384, 70.451980338199, 46.769211069433595, 59.01842632678923, 49.76700987170654, 58.62661059469013, 66.60445168522944, 49.79882601655118, 61.29433429762773, 63.29264961765848, 51.03005385684478, 55.83633596461056, 69.59703435726286, 54.01416697101911, 63.82505822662525, 38.54649469000929, 53.9665274278186, 72.8508313987585, 58.96510613107229, 59.941142038171435, 68.54143162600035, 60.74217973808601, 46.58258939603633]</t>
+    <t>[44.41501571094627, 57.05642701700616, 77.7377121611721, 69.65528600592113, 41.822435746011514, 44.5464767916406, 66.76247329609207, 40.58906131569402, 76.95355688708601, 46.804357531250325, 46.04375392896785, 43.371824561789644, 69.42826555832075, 57.66325650843383, 48.93945976948843, 51.414327617721725, 78.1123449595657, 51.02464252680175, 62.14513553749724, 49.44496433403007, 65.92649370484756, 53.55745999785023, 61.58199231337085, 64.11560947969761, 55.9134767062158, 63.364164235242015, 55.70317843511327, 43.09834148802711, 70.74066254114912, 47.70895000385254, 60.41601921876168, 47.755803310523454, 58.784370957250474, 64.86536922159516, 49.448830732013185, 59.47290658313618, 53.77549265264017, 46.4336020707815, 55.60795273387235, 62.44977238025163, 53.14033228588367, 65.90562254618216, 37.55393941539668, 53.663515341841, 70.74965483539009, 59.865051693792886, 60.634771331639136, 66.89989380298535, 61.31106881497249, 43.55814184551007]</t>
   </si>
   <si>
     <t>[36.084917109562774, 56.11019709865499, 78.41675785299286, 68.69375084764108, 34.31845392903547, 38.145358165894365, 59.84690166984186, 41.90179555096897, 75.34405819717108, 40.12589149071575, 48.0042175056213, 39.477476281051345, 61.785166602975785, 52.74082876152063, 39.80102493128943, 40.87026942650218, 89.44417641836561, 47.951956017566175, 59.50311031366359, 47.02455817782078, 52.75062540164694, 42.348770214498124, 57.70067615377224, 73.4100679773463, 44.81245797052826, 56.728924193835454, 47.530539219092866, 39.9654694929227, 62.56430831161647, 48.01422730401401, 53.46023770333668, 41.605474871237135, 53.46713783920001, 50.67447212343134, 45.74019186371821, 63.739594951816755, 49.82049847870745, 47.932412403702024, 47.74417490837279, 54.739359232455115, 55.02357856072421, 84.99849908626837, 35.365535225571456, 47.10115867122336, 50.479471163634265, 48.26771836513725, 79.73001336156989, 72.97183147092815, 61.703731418208946, 48.241068135521964]</t>
   </si>
   <si>
-    <t>[72.57547871501465, 77.27154062457451, 84.61149029135375, 83.12491233513853, 67.06972435370422, 58.88584595459498, 74.3844469463298, 62.62295886615213, 81.98532071622516, 70.24902070034635, 53.93974498401159, 81.68894191305084, 80.48860178072934, 73.49644691745374, 72.45505196118519, 59.7856194864796, 85.63864850324461, 67.09966432372049, 86.08893759444979, 53.98581672551617, 74.44057318774934, 66.84814295963409, 69.0645712294646, 83.12340289864802, 81.224376060492, 70.75234755893058, 77.78870972885032, 60.50245033107313, 79.99785347580955, 76.53943160811687, 75.83029767118853, 53.62498679849416, 65.48803550610381, 77.43953631755348, 67.08598173507653, 73.86796787604355, 85.20806662839757, 62.77228502690512, 57.15394728940358, 82.02808434257656, 70.6182307013503, 80.75739002786344, 70.78493888719689, 60.54411103173444, 92.33516629389392, 52.62622895355357, 73.93241720942635, 76.4250041484613, 72.0099963809583, 73.73445634416142]</t>
+    <t>[72.57547871501465, 77.27154062457451, 84.61149029135375, 83.12491233513853, 67.06972435370422, 58.88584595459498, 74.3844469463298, 62.62295886615213, 81.98532071622516, 70.24902070034635, 53.93974498401159, 81.68894191305084, 80.48860178072934, 73.49644691745374, 72.45505196118519, 59.7856194864796, 85.63864850324461, 67.09966432372049, 86.0889375944501, 53.98581672551617, 74.44057318774934, 66.84814295963409, 69.0645712294646, 83.12340289864802, 81.224376060492, 70.75234755893058, 77.78870972885032, 60.50245033107313, 79.99785347580955, 76.53943160811687, 75.83029767118853, 53.62498679849421, 65.48803550610381, 77.43953631755348, 67.08598173507653, 73.86796787604355, 85.20806662839757, 62.77228502690512, 57.15394728940358, 82.02808434257656, 70.6182307013503, 80.75739002786344, 70.78493888719689, 60.54411103173444, 92.33516629389392, 52.62622895355357, 73.93241720942635, 76.4250041484613, 72.0099963809583, 73.73445634416142]</t>
   </si>
   <si>
     <t>[44.98365913133116, 66.24348146371243, 76.34195438331888, 74.55893102393902, 40.372635661853316, 50.982402822097654, 60.99614165455912, 49.54119794917637, 83.98957671400287, 63.268164573831385, 52.71116457020034, 53.542930532971376, 70.88168609802287, 64.86308178711289, 46.96944868194647, 49.92381579883031, 90.03231379786044, 76.25168526284953, 65.3703912664188, 37.80603476363011, 69.6196427364134, 65.27383882476785, 64.98697811279042, 76.04881848765054, 47.182756931653586, 74.32064308798331, 65.26213863927475, 43.30547308001062, 79.48668867704936, 56.95527168991502, 82.222750746211, 55.097755223485315, 65.87421499773463, 91.1262035086506, 50.033197018482454, 69.33789837322487, 72.61910593396374, 51.697095118306954, 52.00674224605149, 63.686680007630116, 63.66420967036531, 73.1821398837237, 141.73916049412787, 59.45558404133508, 72.37021687812718, 54.56584254123752, 58.4321021723668, 57.45815336390594, 61.67966588630263, 62.01388674664788]</t>
   </si>
   <si>
-    <t>[44.21566779142678, 78.2965614226592, 72.34913008979115, 82.75821432998765, 41.53365484978868, 49.63014988979881, 72.7379684239016, 49.84253303844921, 86.07955732028354, 57.03198977015318, 53.61420487550844, 42.51333862628544, 72.49666315659633, 68.68040964118119, 67.4165833774281, 51.20259743676085, 85.27913108382789, 53.44726549698551, 60.54205416535167, 43.525009526822224, 56.39571067169853, 62.25584851725318, 69.37647443373024, 82.37812626248073, 54.33241614841957, 74.96485973868427, 68.03584613924282, 43.17550224254095, 71.54646332130838, 63.2390795498934, 83.99305686503241, 68.49317038447293, 66.62145216691623, 63.15803844230416, 71.09867320194958, 70.79520914630248, 62.425994053803585, 50.92794474576361, 66.64855496757293, 72.15828236128225, 67.34913844555109, 66.21429951768782, 47.45447441168767, 52.56964416918373, 62.37806845817286, 53.351611002402954, 68.96431420101182, 62.97917746912619, 65.92121555381182, 48.107928437293005]</t>
+    <t>[44.21566779142678, 78.2965614226592, 72.34913008979115, 82.75821432998765, 41.53365484978868, 49.63014988979881, 72.7379684239016, 49.84253303844921, 86.07955732028354, 57.03198977015318, 53.61420487550844, 42.51333862628544, 72.49666315659633, 68.68040964118119, 67.4165833774281, 51.20259743676085, 85.27913108382789, 53.44726549698551, 60.54205416535167, 43.525009526822224, 56.39571067169853, 62.25584851725318, 69.37647443373024, 82.37812626248073, 54.33241614841957, 74.96485973868427, 68.03584613924282, 43.17550224254095, 71.54646332130838, 63.2390795498934, 83.99305686503241, 68.49317038447293, 66.62145216691623, 63.15803844230416, 71.09867320194958, 70.79520914630248, 62.425994053803585, 50.92794474576361, 66.64855496757293, 72.15828236128225, 59.93882576148221, 66.21429951768782, 47.45447441168767, 52.56964416918373, 62.37806845817286, 56.522911085343694, 68.96431420101182, 62.97917746912619, 65.92121555381182, 48.107928437293005]</t>
   </si>
   <si>
     <t>[42.98131096830927, 58.02377244761891, 69.02439131574054, 83.39441408069642, 48.487655006384735, 62.25253687820867, 71.37794276610488, 47.50317734743134, 82.70229788250266, 56.79562366465977, 49.359030633052335, 58.476620382916536, 73.99936989868195, 62.163039137095375, 46.194980829573836, 51.792189827871525, 79.20413618303324, 47.46513173936476, 68.79382853345689, 45.12482736858346, 70.97378603903448, 66.34735817385139, 67.43708737337259, 63.104269401957666, 58.62276515820328, 52.721185947654995, 62.97069047034637, 48.13613079424199, 86.19657914569027, 63.650535846588795, 75.88402560047606, 54.418602054140976, 65.09963385247336, 59.786776269158544, 53.254238653732884, 64.42208283050941, 74.46070022455396, 45.48146859218343, 57.55951056234321, 69.29677728390504, 54.614538914414574, 72.35984446856835, 50.86826981271392, 71.1896361922285, 66.18147445103388, 52.3280676043598, 51.42256419831865, 60.690875226190435, 66.63347772353002, 61.54694517480938]</t>
   </si>
   <si>
-    <t>[39.41454181091402, 60.267012617469156, 67.96234271775327, 71.67537204332174, 41.724083367028555, 43.864213440808044, 69.62889219934489, 42.81312674603216, 85.85116637323232, 48.566053874600875, 50.7840903142014, 49.2884615032023, 71.54553700686392, 60.028058268336174, 47.43458118168693, 50.18869995235767, 79.18056971577059, 46.93664992942268, 65.63411205179585, 50.823150331982575, 62.815484717079364, 50.59212035648477, 64.17053079125957, 63.567447977049, 56.285480475000995, 59.72581899548274, 58.1876591398139, 37.22222335326171, 76.22322687968841, 56.70549952108048, 56.98580925605882, 56.51646848461267, 67.3899288805988, 70.18240341612852, 48.15535946812675, 64.34342416993321, 59.45994936232739, 53.151825837943704, 52.98154962040308, 70.90929073680746, 55.78940160093187, 67.42276085023462, 38.78971641295225, 47.762550115813234, 69.78822603322139, 59.27189477373684, 55.03712579470412, 63.08728632598971, 65.4639447209732, 53.12434161809476]</t>
+    <t>[38.93685668381174, 61.56829596459119, 65.5653250029371, 72.98547658487843, 43.41679422352752, 44.72882694434165, 72.25802898645345, 46.176059849959465, 84.24646512607796, 47.922224494943706, 52.002250366686035, 46.001446682730844, 72.89117285672063, 60.308441702369365, 48.28987476904489, 51.10169383421593, 81.84433383331461, 45.459402518350565, 66.10001070825786, 52.05108374529488, 60.17544579282096, 43.063086922961446, 61.00268168595446, 64.15763771805238, 55.87146736312623, 56.9896480828329, 58.69971072540583, 41.89531065511995, 70.7155452597163, 54.70256279502756, 60.212087744074275, 56.13790799462122, 64.08963669143925, 67.77228363554848, 45.412800731954846, 64.58339926489028, 60.02346441579897, 53.5927986487646, 52.03608407588668, 71.4758187689558, 51.08512060479208, 70.17761867366391, 39.43601574574877, 47.5660760175262, 69.8461742876774, 57.91090937670345, 55.66947662808122, 64.7078535049157, 66.01012646559278, 48.826792305808866]</t>
   </si>
   <si>
     <t>[40.95960816192649, 60.78140839431627, 64.73584180214905, 67.0958147952953, 38.19171060286357, 41.67538498385021, 74.40790195520609, 40.36268417889023, 73.13586447559396, 39.57906136696901, 58.19125150271545, 44.82018819235698, 67.33317310234445, 57.493016682687816, 45.87744053342609, 43.38037202315198, 75.64912658218682, 48.783941164269784, 57.55192165160758, 54.59688226674509, 59.36041295743565, 45.73284803489078, 64.57305861809252, 71.45288312083022, 51.29003468578125, 68.0022412416286, 49.978765618934126, 34.86049029665584, 71.38193702250366, 50.06049904693434, 45.941714371585206, 54.95004263664156, 65.04085443620936, 58.153892289439334, 45.63346666376397, 59.82747883561588, 63.37916913055609, 53.48922989731815, 52.27983030766371, 65.6344928433123, 50.694572922918994, 60.12674992630168, 49.733660132650584, 43.16406123312572, 52.09457851940191, 55.595538794970395, 55.53913386885123, 58.97701285812181, 59.84746084187162, 60.07939232728837]</t>
@@ -2479,13 +2479,13 @@
     <t>[42.626499070946295, 58.03356683163287, 78.80931733632005, 74.7590379339652, 42.460152643802594, 48.63493508256356, 57.329876264313484, 83.74101289551598, 75.91881182011083, 54.05991799411366, 41.39324715579999, 57.82401419540921, 75.81202606258452, 66.31588034056661, 70.38673452486151, 40.69425490164279, 86.2351667434238, 76.25168526284953, 62.68501071448288, 39.78893705024713, 59.517568764801496, 60.94237153401984, 77.83640558523231, 64.18746781062073, 44.0325414194324, 80.168014314025, 56.290977103559946, 39.40360681669665, 76.97750017934186, 43.21096243063745, 78.5804300507252, 50.83460268044061, 62.975168347397805, 91.1262035086506, 44.02332395055925, 66.5242018415026, 68.08717464590791, 53.28468010736095, 49.6105951710679, 67.9074558237949, 59.57995521392847, 73.18381389351583, 46.88697594455459, 45.72910837304305, 66.17724243247389, 52.25070631628394, 50.51581647320037, 63.056235798373564, 62.75844419680355, 75.0307585073601]</t>
   </si>
   <si>
-    <t>[42.80881392941613, 74.29611340765562, 71.8468028631517, 78.93446527043558, 43.96696336828818, 50.65766543063988, 67.02370907112233, 48.570757563830256, 76.54129880880772, 52.274752848564134, 50.24738834479325, 49.50750866979319, 91.43806891239869, 53.90869041807449, 68.51828297237155, 52.07753210488953, 87.31126908655256, 46.271386895133, 60.87305917659063, 47.82775286328518, 58.338471217412994, 54.29537254448067, 72.41243808512434, 82.6226152819185, 46.64006040768022, 64.13849656551726, 70.30679489316432, 41.826811292006745, 69.63133731012812, 54.471435656495, 79.60563020385717, 70.72871121632024, 61.48226993882689, 61.9964070806349, 87.2139010279397, 53.6345300061613, 60.540286532098484, 53.1561665501565, 43.203841288337905, 73.91001624725087, 55.18204495297239, 59.71954392320918, 48.13043559505536, 36.9643564816414, 69.48149656985944, 66.57471079737489, 65.66628814313269, 60.662024178122266, 55.51508913980568, 47.67536613088866]</t>
+    <t>[42.80881392941613, 74.29611340765562, 71.8468028631517, 78.93446527043558, 43.96696336828818, 50.65766543063988, 67.02370907112233, 48.570757563830256, 76.54129880880772, 52.274752848564134, 50.24738834479325, 49.50750866979319, 91.43806891239869, 53.90869041807449, 68.51828297237155, 52.07753210488953, 87.31126908655256, 46.271386895133, 60.87305917659063, 47.82775286328518, 58.338471217412994, 54.29537254448067, 72.41243808512434, 82.6226152819185, 46.64006040768022, 64.13849656551726, 70.30679489316432, 41.826811292006745, 69.63133731012812, 54.471435656495, 79.60563020385717, 70.72871121632024, 61.48226993882689, 61.9964070806349, 56.682201329835344, 53.6345300061613, 60.540286532098484, 47.30109271057075, 43.203841288337905, 73.91001624725087, 50.33269543932468, 59.71954392320918, 48.13043559505536, 36.9643564816414, 69.48149656985944, 66.57471079737489, 65.66628814313269, 60.662024178122266, 55.51508913980568, 47.67536613088866]</t>
   </si>
   <si>
     <t>[38.68096371905073, 64.11101514447094, 84.06479188219745, 74.9436381105257, 43.96364646456644, 45.45777471347259, 71.58115833008127, 44.9597285401294, 77.02700853611674, 53.76372099084754, 53.82941663207908, 59.00710350602008, 75.69911404901099, 53.73009375901138, 47.629773235899535, 49.215610765236725, 82.03446318569665, 52.535073289751956, 69.86459152327271, 49.295648619988064, 71.89869132226495, 53.37889944368744, 66.95569984268583, 65.73538263552872, 58.66655094533779, 52.57132058948323, 71.9332014105192, 46.50957331313566, 73.64715939633757, 61.538089028407384, 77.16097483967168, 50.44140082995879, 67.82276483363388, 63.26462363986824, 55.1155515092269, 59.533264672037504, 80.11863647979249, 42.05782806810172, 51.26887343392439, 74.39317960485101, 57.652856549051904, 74.2825903001964, 47.52803743098425, 49.93709644475501, 70.03922211907582, 54.88627522726682, 52.99051504328425, 66.2018893109678, 69.5314062478174, 54.65054381530452]</t>
   </si>
   <si>
-    <t>[46.22299594654749, 58.628468784088, 81.41697209561914, 73.91278983137933, 44.81281962437573, 44.1451640069544, 66.39506799680375, 42.06470548387701, 82.23742462890287, 50.950030776536686, 47.29112121057925, 48.891698304152264, 72.30518159218721, 61.48168922853404, 53.61248487901765, 48.04509897389592, 83.05889389469156, 53.80811636121539, 63.42563520156021, 48.0041800869188, 67.16597414037388, 56.08635240797315, 65.44592357049315, 64.43541541272558, 61.09924746152028, 60.230730743295254, 60.539067764941834, 44.89318953346269, 78.93075281209572, 52.43297466513363, 64.22247753781342, 54.03404206418074, 64.67362065508435, 69.6176133611547, 49.365162431297406, 66.14204172814644, 58.82357644099729, 52.79837245656183, 49.30289973084299, 74.56120596778062, 53.45653790530923, 63.53744987047811, 42.983006354291874, 50.23881973130858, 69.8066997306524, 59.170140394804676, 56.36388782387703, 68.15781902084858, 64.75803768902732, 47.18675202890367]</t>
+    <t>[44.514124467953735, 59.77286971604858, 80.31936015199597, 72.83215862504069, 41.81660956625826, 44.893421049933835, 69.97527143771181, 41.49660804409046, 81.22308513145707, 54.2986388917611, 49.947342243986256, 45.821789666046186, 72.08225967170145, 58.440319941837984, 50.727286358653195, 48.362686704748626, 79.10332081361855, 53.320412619692426, 64.31968196503598, 51.32037964637959, 70.58795867211136, 58.31074792851117, 65.21595219454012, 67.04880339298732, 54.67129369649285, 58.78851482940989, 61.259079771854296, 44.15397018436741, 82.37711882583604, 52.17121905462199, 62.0998732960494, 54.52998275966778, 64.0081830465457, 68.16779981613897, 47.53714705487537, 63.87945609621345, 60.22986591346059, 55.47787823541414, 53.48552195775372, 74.50311133090338, 52.939379374408325, 68.5797024612143, 43.58410648769608, 53.5292920558514, 70.04122096625568, 60.66376437420708, 58.227701228833254, 66.8887350133511, 64.72124782839197, 49.20302795885721]</t>
   </si>
   <si>
     <t>[40.27351145561995, 54.28851702287776, 84.76737664008238, 67.80660704360251, 39.00414955313647, 44.893568479288255, 68.79826699324207, 34.64640793458993, 75.77583033872457, 50.39881117186529, 47.18517120888172, 54.03652944723136, 61.438534052408016, 63.8790194022312, 39.44267372401327, 37.12881889065872, 102.37201463430762, 50.750975228071184, 57.29447661257174, 51.832671916340615, 55.705761635423464, 49.971008247486665, 59.617124118682575, 61.42483507363554, 37.099624998439694, 74.61384386463715, 45.465885648429825, 41.908829838778075, 70.89347642256634, 42.70623158476316, 60.254669304412246, 51.12043374407739, 59.17347404331661, 61.99195252901612, 41.24999810156846, 67.45245308008906, 55.09789765071174, 62.03391063605123, 42.50280750707621, 61.84016887760585, 45.3086411937844, 59.45545817436771, 36.07164686592533, 48.20618374463743, 65.68645499219053, 51.08134474482347, 78.78285572365498, 68.55246465667642, 56.08336139847857, 47.37329077541976]</t>
@@ -2497,13 +2497,13 @@
     <t>[60.99101183174462, 56.15870090477335, 68.26219172955787, 78.46672593568447, 56.54978553783675, 64.34293502929275, 55.97417947071249, 58.58927728207858, 66.98954618906639, 44.165670653168206, 58.546817351072285, 55.60211304677843, 69.28664073056562, 66.80899474307753, 47.50532197635938, 44.12684847361199, 76.20412327383883, 57.382625923005094, 60.07395021973842, 47.49776359694544, 56.65373585859631, 70.51398727381806, 71.33500217118387, 86.99534072516427, 51.0951281928962, 60.45925049129668, 63.17267143006843, 47.26137410821233, 74.29892321393082, 71.98282741395494, 71.27968477022822, 57.88587027942155, 51.43326223188039, 67.41319974468429, 41.923799957001705, 56.94744101196105, 81.26307415193368, 52.29255223149342, 54.81366339873763, 47.09315201058959, 57.128990989811655, 65.61002115233504, 46.40136119642411, 60.28580948392818, 54.75828502756996, 47.71723543598966, 54.493095219167536, 55.21818593413889, 66.25814867299451, 74.9400435839802]</t>
   </si>
   <si>
-    <t>[50.732919767377744, 68.93065730045679, 76.9051290820918, 68.87921704098103, 58.65830291292767, 51.02837382618446, 75.44162650876132, 56.43838261100359, 70.22296462596728, 63.83784284083719, 53.90387797730727, 71.15996818035103, 71.2501936087595, 64.05393235391563, 66.69247194613283, 53.47611181690538, 84.80846329481847, 71.68662487434248, 62.44098606325726, 50.36482379994998, 75.72957697623603, 60.184685997115814, 69.87345090875397, 97.16359884395571, 45.629916564840286, 77.41602792258425, 80.3238906597177, 53.27191869482994, 73.94163569169858, 57.125847133449895, 76.04678528383315, 69.52132252564162, 57.05395313151353, 57.67368505170254, 59.10454003925661, 71.21790915478441, 75.5570831204834, 53.72602881482744, 64.18266178299172, 72.0800903506191, 49.41655201680892, 59.60412301645122, 63.38097792866091, 53.89915020533388, 83.43448616814786, 54.05678288487088, 55.782401698794885, 64.51328020095733, 56.311503432856604, 72.91885538741192]</t>
+    <t>[50.732919767377744, 68.93065730045679, 76.9051290820918, 68.87921704098103, 58.65830291292767, 51.02837382618446, 75.44162650876132, 56.43838261100359, 70.22296462596728, 63.83784284083719, 53.90387797730727, 71.15996818035103, 71.2501936087595, 64.05393235391563, 66.69247194613283, 53.47611181690538, 84.80846329481847, 71.75869885832044, 62.44098606325726, 50.36482379994998, 75.72957697623603, 60.184685997115814, 69.87345090875397, 97.16359884395571, 45.629916564840286, 77.41602792258425, 80.3238906597177, 53.27191869482994, 73.94163569169858, 57.125847133449895, 76.04678528383315, 69.52132252564162, 57.05395313151353, 57.67368505170254, 59.10454003925661, 71.21790915478441, 75.5570831204834, 53.72602881482744, 64.18266178299172, 72.0800903506191, 49.41655201680892, 59.60412301645122, 63.38097792866091, 53.89915020533388, 80.79355912712703, 54.05678288487088, 55.782401698794885, 64.51328020095733, 56.311503432856604, 72.91885538741192]</t>
   </si>
   <si>
     <t>[44.94982912051511, 51.96658957731117, 58.8336239548395, 73.49891279073172, 47.669906512874725, 51.33515637018423, 56.34128207965038, 56.957981755453226, 68.06167049076755, 46.81992977458013, 51.06242679258689, 55.441507569873735, 61.08732902066851, 68.18243273338568, 45.063263492152366, 37.68496318772769, 66.72294211768632, 58.3780249199292, 65.31858968582502, 49.79708163473618, 55.684744871156454, 46.73182642115372, 61.29336790803801, 75.41201932321032, 44.9981022382379, 48.631043906111955, 61.5661033575791, 45.548667174452135, 78.91262455694195, 70.57623490722848, 63.29389714662264, 50.14513963675332, 52.00319987623914, 66.40062575103657, 40.5671183735692, 55.85775004433449, 67.69320884224435, 53.9370581262962, 46.77972777384251, 44.242002120470836, 53.46460919775374, 70.12534587708619, 42.88701216181712, 48.64928568308249, 72.66574110970514, 49.74536109500325, 48.25145225312839, 54.09139496031862, 66.77027318228834, 74.57121588819608]</t>
   </si>
   <si>
-    <t>[44.225398944016106, 55.716996133334604, 74.93912254186976, 70.52687098012761, 48.32571952484921, 49.391209543157785, 65.57347681957228, 48.56568892730212, 76.50849535991406, 53.36915299454792, 48.55498074376164, 54.80436217064969, 74.3936476324982, 63.16802857896783, 53.476560191053494, 48.13497751200682, 76.93494119328814, 53.64892831359669, 64.29023325345453, 46.11136928521462, 60.22036875171587, 52.341005400538656, 66.95782140034396, 60.94881430877975, 54.34408232792083, 57.79937584434914, 63.162553888185855, 47.751918429086054, 80.88455651880487, 54.10612506760328, 60.02185889938584, 55.65815650377915, 60.45712325413224, 68.89153868027675, 45.979022148219606, 58.35085162037469, 65.56664872436131, 51.69546335574657, 57.2300143527095, 66.97419158595864, 53.419062042722274, 59.708837733459454, 45.28997642346929, 54.2037947546948, 68.47046136494929, 58.49604137018489, 53.79121551112751, 65.2437669825486, 67.972564881973, 45.27219736755417]</t>
+    <t>[47.09314355863806, 58.38438833460215, 75.73729451783824, 71.18789789369514, 46.40218627143144, 51.782014230760915, 63.00014564196538, 51.48788985353068, 76.04804594433512, 50.41558239187399, 48.294227964361376, 56.02367734849859, 69.27728542563653, 63.4430788671142, 53.31835684061135, 45.04423897686616, 78.53152073786181, 50.40939469981957, 65.7436745437118, 47.633376999323886, 60.74679142390855, 50.59356763745488, 70.78803966926692, 60.20271748128165, 59.694975136761066, 60.549086257745046, 63.048264967807114, 49.15380151557323, 83.68709015285458, 55.445058130551544, 60.38049953683284, 60.61502366178718, 61.22891588089588, 71.75755648112097, 45.95706440447586, 59.04551464904411, 65.51229212822192, 52.8536064836719, 57.24956263752191, 65.82613121540513, 54.050639720922504, 58.866447641089486, 47.55537695118779, 51.92553485868244, 69.79721234390718, 59.47000981796605, 50.51978565417937, 69.24574881171318, 66.18899597406694, 47.97794118613542]</t>
   </si>
   <si>
     <t>[37.117844424321866, 54.037237694306064, 78.18096394810514, 69.43551125480492, 39.63018696904327, 41.70251119937732, 52.93476059839103, 49.97875476533807, 62.93433772313991, 51.26626399408065, 47.35004478451966, 51.43098900955244, 70.86127893114109, 52.66924338479287, 37.31870694028092, 38.438388238995664, 65.26280777148216, 42.86087627992275, 57.3217710656834, 51.74079323514902, 50.87465381535758, 52.50939188035401, 64.78514393434241, 64.25047147243977, 43.02158395379056, 61.28466183421569, 52.013147424953814, 53.83530573900471, 65.05980835010583, 53.9548174221717, 60.7816816312204, 45.368180457628114, 53.844215878336136, 68.74278931945439, 48.51499608752019, 54.55666027835808, 64.05336504977154, 54.24888761164299, 56.903683200613024, 59.79938161932605, 52.219320590628406, 54.645777177875516, 64.26194392267122, 45.2910793767303, 55.655378455440115, 47.69496166716805, 47.28383914192194, 60.72006538219135, 53.12879106255059, 54.7310087309542]</t>
@@ -2521,25 +2521,25 @@
     <t>[45.266612075213544, 59.60599033291564, 78.85843679086081, 71.50328240652748, 43.90720963053873, 45.65266529759593, 70.87382732850894, 62.46418463448831, 70.58300703148291, 52.53471784397197, 52.409996847641175, 56.89816625764439, 72.60305401161683, 55.68165856570262, 43.18558063333473, 51.92483065456964, 72.2331618582566, 57.47344147666425, 76.54868871505568, 59.909509807217226, 70.64397074861827, 52.33822133159294, 69.06425992777841, 78.22997025652143, 67.95826255468518, 52.75612520955653, 63.66890136164142, 47.61204877019358, 78.76582511555566, 64.28039262680076, 66.3894052094884, 50.26807858617163, 63.298143021672715, 60.372182653874816, 53.74587296161989, 62.55225486350414, 91.20466688156553, 59.847230260917485, 54.74512150359795, 69.56862791758397, 53.331210062154426, 69.47076038536261, 38.919973913655944, 51.184097546506074, 69.67251727722658, 58.78374218669764, 64.5756799676422, 61.982305301597236, 68.41974988971012, 69.26858509826509]</t>
   </si>
   <si>
-    <t>[42.793186502992604, 55.780387158721155, 76.64367170475842, 69.04020893980628, 49.36156552054038, 47.26107296644195, 68.26449330899034, 48.62762018713692, 78.06455199041095, 46.78902431678809, 45.54907705848048, 54.44181420487913, 70.28603173810461, 62.470954211583404, 49.59499158377584, 49.39766143353864, 73.5125159597796, 52.358765980200495, 67.14488262130288, 47.76060977041633, 66.75979165837288, 53.8763191064325, 62.327303633866045, 58.73315787109832, 60.689519189571136, 59.32946717239818, 60.163377862419566, 48.703833061702795, 82.14867775566626, 53.084653749996335, 59.29558093908031, 59.19347321629592, 63.89384547334333, 69.47992658153858, 48.718054348533066, 52.54974176361039, 61.81763739060679, 51.76749347780246, 59.96132022175703, 69.98196772563287, 56.95309956081258, 65.38227056396073, 43.453371086369636, 54.63392169667899, 67.1308763805043, 61.45786359676281, 51.83248746969841, 69.38435202926667, 61.64802445655875, 42.2577278594277]</t>
+    <t>[42.04638085966905, 56.57249346996168, 74.16357856400123, 70.04190939992736, 51.421213595313816, 51.08512826910851, 69.28523717231488, 47.00763872193961, 77.58103847962624, 46.2073232108547, 47.11817353996764, 56.543254022268464, 72.1957937833831, 64.76601560505715, 50.248482490673766, 47.93787610414227, 72.75012087231823, 51.97897266160752, 66.48833456801296, 48.07382414852979, 67.48726084642448, 46.04110068840771, 62.92702180849918, 61.241626840463496, 54.942901130877765, 58.18510415770619, 59.36238802329366, 49.677701887792445, 74.36657135419617, 51.53186945405131, 54.908624794711265, 54.09363942369326, 64.45048727435858, 66.48689440668974, 46.32329300669535, 54.66142050093292, 66.58468422846792, 56.42423244864664, 58.794309967669484, 73.30722628058601, 55.7028772427857, 68.56827511599174, 44.02587141373848, 48.32562596936776, 66.68153127600793, 60.289408925042046, 50.29435569444168, 67.12996278769393, 63.50236060271625, 46.97850084258462]</t>
   </si>
   <si>
     <t>[36.02416543621406, 55.01810092004375, 70.41192155317533, 73.83025590806066, 38.89813185655249, 49.91276548791084, 53.53142882209483, 50.85417846709535, 66.39087611217067, 47.58998675913587, 52.663849628492635, 55.800518868584255, 67.25025778954996, 54.619709656565846, 46.309251971847814, 57.5967437383244, 67.24392407023547, 45.23468829818127, 64.04311081510517, 52.534281049043656, 58.303646707655254, 47.27873391385412, 65.90940918315248, 70.91711726020387, 54.08104327733708, 62.60705856313406, 48.301834219504606, 49.542932255285834, 70.27672783134757, 50.89339060683882, 58.116184472753915, 54.27120460459987, 57.859295226731575, 57.85697357211209, 52.8562849276131, 42.293657708546476, 60.2150243720725, 58.541626460615575, 55.83866867606826, 51.852996393701176, 51.889052176044345, 67.91458351683785, 46.02263089619546, 46.24992941449978, 54.34705316389541, 55.8749091417934, 63.78346566608408, 57.6257988496761, 55.88870411912424, 64.4610398034318]</t>
   </si>
   <si>
-    <t>[48.58553764805973, 79.33518567542673, 91.68538024332118, 85.18132800888871, 63.94770557304911, 69.91148269382963, 76.96670982682593, 65.00649742960525, 88.72447714040239, 86.91426589167425, 59.348848770036916, 78.88005114654739, 81.18540550267991, 99.30385404803927, 69.83336099580251, 58.8590222099641, 87.07657434656083, 71.70303965545706, 79.30441386116803, 58.927754247462246, 78.36520253016046, 77.69396212154071, 68.55913645595433, 81.25289725793068, 88.09183853328412, 67.9251075867725, 76.56072923530597, 57.9708908869609, 85.26557202877709, 72.62588283515828, 71.05044676355652, 74.51171603854624, 79.82041079160139, 84.22351403928316, 65.83213082034412, 72.92588753925305, 95.68712621262014, 75.56586144535663, 69.13648683672314, 82.03149359045926, 71.12444187862336, 82.10908439928, 62.207402066172676, 65.9469059081316, 93.53541607414097, 63.355087953723604, 82.73494806233491, 78.72533080988377, 74.32830366694617, 78.48650299431628]</t>
+    <t>[48.58553764805973, 79.33518567542673, 91.68538024332118, 85.18132800888871, 63.94770557304911, 69.91148269382963, 76.96670982682593, 65.00649742960525, 88.72447714040239, 86.9142658916744, 59.348848770036916, 78.88005114654739, 81.18540550267991, 99.3038540480389, 69.83336099580251, 58.8590222099641, 87.07657434656083, 71.70303965545706, 79.30441386116803, 58.927754247462246, 78.36520253016046, 77.69396212154071, 68.55913645595433, 81.25289725793068, 88.09183853328412, 67.9251075867725, 76.56072923530597, 57.9708908869609, 85.26557202877709, 72.62588283515828, 71.05044676355652, 74.51171603854624, 79.82041079160139, 84.22351403928316, 65.83213082034412, 72.92588753925305, 95.68712621262014, 75.56586144535663, 69.13648683672314, 82.03149359045926, 71.12444187862336, 82.10908439928, 62.207402066172676, 65.9469059081316, 93.53541607414097, 63.355087953723604, 82.73494806233491, 78.72533080988377, 74.32830366694617, 78.48650299431628]</t>
   </si>
   <si>
     <t>[37.84616610592075, 54.24097093319006, 80.38280654148197, 79.24798767459482, 54.71084565992843, 50.92960987690028, 53.90944803167264, 52.852932827826415, 88.18764599413095, 55.45148344927753, 42.97529704875546, 53.9534284894656, 71.76715199871529, 62.852302376243294, 47.14043095020748, 41.46256902226502, 112.67926810760508, 49.70055511306733, 71.5842189558979, 55.245109505787354, 53.90475095469953, 63.55166561847792, 62.79806836415248, 61.89089147926711, 44.743563452031914, 71.33401254795534, 65.52090263554967, 40.43513470619151, 80.60752086626448, 55.78978011722718, 80.16527387397561, 57.50454566754149, 63.92594611789815, 56.587425199606805, 42.44796326128125, 71.78118502322883, 77.57739996949972, 51.07396698773813, 56.223273473374036, 61.756608154831426, 64.50593645715112, 79.89919043679903, 50.13723197935014, 58.33198308793006, 53.32743572528702, 45.69539878416414, 60.495656156442244, 63.345813959758175, 65.75906871062642, 57.78848867080614]</t>
   </si>
   <si>
-    <t>[36.64187388654961, 69.43417479068557, 61.69316089065191, 82.80046822729896, 52.96031316540568, 69.77094919493028, 88.11306505560857, 48.435006018173816, 86.52283749333208, 59.41200676310342, 54.652473767950994, 57.77943204052304, 76.66068661977842, 74.65015628472142, 41.111359660043405, 52.582890116057, 78.402655472416, 44.116133836982264, 57.67140650696439, 46.901718334948846, 58.86877442361188, 71.21230205719876, 70.87493746562423, 78.04363871560773, 56.60147543183159, 74.92904970285042, 60.736998250814395, 46.23398768772698, 82.8880314036593, 55.45564771787218, 68.03110267327921, 70.54885743137098, 52.12383748499122, 59.64880040226896, 71.09784571061459, 62.047407813045986, 63.182770612048145, 64.79206663416895, 72.61959179611605, 66.50185874627586, 67.41432688826765, 65.21761253805136, 49.29283578699366, 37.889598335382175, 65.18737689506474, 60.648702408502366, 76.52341869506579, 71.02947941101267, 65.14166036840805, 52.62439781553951]</t>
+    <t>[36.64187388654961, 69.43417479068557, 61.69316089065191, 82.80046822729896, 52.96031316540568, 69.77094919493028, 88.11306505560857, 48.435006018173816, 88.69056108177465, 59.41200676310342, 54.652473767950994, 57.77943204052304, 76.66068661977842, 74.65015628472142, 41.111359660043405, 52.582890116057, 78.402655472416, 44.116133836982264, 57.67140650696439, 46.901718334948846, 58.86877442361188, 71.21230205719876, 70.87493746562423, 78.04363871560773, 56.60147543183159, 74.92904970285042, 60.736998250814395, 46.23398768772698, 82.8880314036593, 55.45564771787218, 68.03110267327921, 70.54885743137098, 52.12383748499122, 59.64880040226896, 71.09784571061459, 62.047407813045986, 63.182770612048145, 64.79206663416895, 72.61959179611605, 66.50185874627586, 67.41432688826765, 65.21761253805136, 49.29283578699366, 37.889598335382175, 65.18737689506474, 60.648702408502366, 76.52341869506579, 71.02947941101267, 65.14166036840805, 52.62439781553951]</t>
   </si>
   <si>
     <t>[45.79553397397382, 60.215223416746326, 80.41445961378672, 89.1030563993029, 51.16792954297093, 53.256193205781145, 70.02092450140111, 50.4951465728023, 85.8733991303865, 57.91510015279997, 49.897516265617924, 58.672035809195755, 73.3828702445572, 66.89424127220816, 42.76092475732953, 53.63877974498564, 68.12643103408892, 48.85848968827101, 73.44512075012075, 46.88332072582427, 69.39611306904352, 57.45703210735854, 66.12163916387485, 59.044518280573286, 53.42130801141784, 52.763077936985674, 64.88936172638203, 48.83371309180391, 78.44361467147034, 49.06256837237015, 78.08119820403765, 51.628040792124146, 61.588701309964286, 76.73792352025623, 56.31540832113741, 67.40313564767948, 70.71217656538049, 49.87351770004613, 58.10373515983865, 70.39748803136659, 63.96765153131378, 73.61233347475424, 49.82207482641815, 51.42759345321834, 68.15993618581759, 53.28987459069522, 57.265530143884526, 59.75384406768809, 66.3699052988247, 57.5741438667936]</t>
   </si>
   <si>
-    <t>[42.730860230337925, 60.71640244151213, 70.97916329557115, 73.01214602452161, 43.351697704776655, 46.34158742903303, 72.12396943183276, 46.07266850584061, 81.09470703360397, 46.7617076749798, 52.54311034546704, 46.130213356038084, 70.59542134544564, 58.475671649836, 47.10525570525777, 51.55606538499307, 73.43897857945478, 52.15858491201022, 67.00765103021038, 54.05925882821998, 58.045769816112326, 42.7690722164582, 63.331146795972, 60.650620832121064, 57.462376505555994, 56.207133311420264, 59.94375966901783, 42.12435295206924, 78.95709184268505, 60.20732061859906, 49.00196621439831, 53.81588447190152, 70.02599747451775, 69.74061925717079, 49.16081041201045, 57.067422047271506, 66.33849823409604, 52.04663624110592, 51.506976340918186, 66.2355653397552, 55.15004648644955, 66.58939321514298, 44.92245975050439, 49.603862429467455, 68.10864175630294, 59.88470213802813, 49.18761447202828, 65.54150181001363, 66.7166850772533, 53.57670967985151]</t>
+    <t>[41.36030081528662, 55.24130260194442, 69.09786193361846, 71.07001980175068, 45.58670954439337, 45.07914768031085, 72.89303531051632, 44.860925283260045, 82.02947419822176, 48.33716831378918, 55.42696177655899, 49.78292453725253, 66.86743183196202, 58.590883595719454, 46.37958610829804, 53.21228513504, 74.82316677006209, 52.03852777934637, 72.27001617841314, 53.927668496396684, 58.68084433244642, 45.07339631777002, 66.5608890595413, 61.51460406669384, 54.81269473875849, 59.10340950682499, 59.936115608083384, 42.98807173979643, 80.53505217829786, 59.15971645183806, 61.89868324985265, 55.42205159020096, 68.36037423599085, 70.9535191861021, 47.05561261539736, 57.393109154614145, 64.56521672573977, 51.1824822090755, 55.6079738925341, 63.88601516980309, 55.86036825253797, 67.37973308580177, 44.51011280932083, 42.38258326510476, 66.5840815988143, 59.57812139538274, 50.42040381113165, 64.16682423759795, 67.8380413755897, 53.90914413010202]</t>
   </si>
   <si>
     <t>[44.589512349703476, 48.632907814132736, 66.21431097285888, 66.67104882833503, 40.811255324703644, 40.82973177775437, 84.65688231557812, 54.06517717409648, 76.10748090632578, 43.048679358130336, 65.24066075308467, 48.86012758443812, 72.38682005384906, 53.53924586461346, 40.401738915740964, 49.86077157724919, 67.34558084146428, 41.930028028297386, 61.977282473116865, 56.289980738479755, 55.033550950989145, 42.38687949469313, 62.94429880704217, 61.45815311628517, 59.786563270884166, 66.33007663504536, 56.78189319859983, 40.10405003405579, 66.91746635011395, 52.60333910605946, 51.27437730877294, 55.952188075811726, 81.07293349173874, 70.65554412797849, 45.25037895303269, 51.5039120387501, 63.05705507397835, 49.92266715953179, 57.006399871891496, 63.5554467680625, 50.16893357878162, 56.97533416101092, 49.00741019605288, 38.87754827151596, 56.7105871139255, 55.87453862646831, 45.76534462895168, 60.33652747746769, 59.93434419467321, 65.38949437067896]</t>
@@ -2557,7 +2557,7 @@
     <t>[44.78701948180082, 63.77783628776449, 87.80509384617255, 83.06837298791056, 44.484797066217084, 45.818202612669744, 68.79261009955954, 46.62550718284248, 75.10174173236399, 66.22240663790578, 51.60156892117397, 55.410428786129096, 75.75342312451569, 56.323479899251915, 46.37410142075113, 46.124423640282245, 69.25242057961172, 55.607728753495905, 66.22649950040503, 51.059142033015306, 68.51445566053145, 49.12844880227183, 70.25086676863218, 60.2886554227111, 59.81963416366501, 49.22315093625958, 75.36993467212997, 48.20049969878571, 76.79941311890317, 46.514776314799605, 75.8630662504327, 50.822913497015385, 67.57328064918563, 64.24820992255094, 59.90208441975659, 61.13541780022972, 80.66650514687991, 62.477487278356094, 51.03921230234057, 71.06429758250509, 57.41090366796622, 75.3836130021258, 37.23346614096204, 55.14851978701584, 72.45615445215296, 54.97276424410068, 53.989196499297016, 70.20579396144147, 60.263332826859404, 55.277883131390304]</t>
   </si>
   <si>
-    <t>[43.71667877029413, 57.266531660574366, 79.59146993683757, 75.59348442747958, 47.78220697663547, 47.68201827675699, 65.33121799196515, 48.96791330056572, 85.38377498901413, 49.50715415772456, 49.390705811371994, 53.24160363635627, 76.00760285328275, 60.32702324208895, 53.87963799698601, 49.20896546831118, 78.35000105375737, 54.01522364849027, 65.94042026942712, 51.26258359007047, 66.14204115922357, 55.45608460947288, 67.86709784697747, 59.27423053549773, 58.198261224877726, 64.92159509342308, 60.72842843904726, 48.976112265636715, 81.00771290483446, 54.72929374556001, 59.68589036419678, 55.29758954771804, 66.82592665396935, 71.5282340364954, 47.63810625523842, 60.11603489727973, 64.45662795002166, 58.009706137881835, 57.9707009815088, 72.76763728637053, 52.898469101738854, 65.19491001413402, 46.017342214325396, 54.736490068829184, 69.61116238237362, 61.81600943631741, 47.68835273244659, 64.71164501750162, 64.82055209953673, 49.47816388158088]</t>
+    <t>[44.99085904744434, 56.92952782811551, 82.25950537525446, 74.44455358843717, 47.31701225263706, 47.86742947177824, 67.33894277198375, 45.88175269252232, 82.69264380112541, 52.43001367309729, 49.30425239485041, 54.581576193841386, 75.97324117459458, 60.4072161298088, 51.01182420177891, 46.04993863482217, 78.36608523838501, 56.508118747084616, 68.10748423059252, 43.84231213919094, 66.93914225368472, 57.20751612931267, 67.24728288064539, 59.58740299846815, 56.565304341860504, 62.08364442515943, 61.50500086727522, 47.76246477160394, 79.05653081871681, 54.60228994733528, 61.462393930588995, 51.46920615183708, 67.51812101559507, 69.68020657896449, 48.18698641034722, 59.000824524885196, 62.41549575181371, 54.83331963403237, 55.844770798400454, 70.41326550544991, 54.40700116492164, 69.95169742407225, 46.76179761673739, 52.57234136841405, 70.08773944265941, 58.96802524573813, 48.75894708011573, 66.12468752740149, 64.58599559988699, 51.2454384268473]</t>
   </si>
   <si>
     <t>[40.61868078353613, 52.2902496911244, 90.02703850974399, 84.39972095006048, 48.49499269555708, 45.4435761555667, 66.12780795957913, 44.033328715835424, 71.2686415112994, 52.01918809997868, 46.60639621218587, 56.7989889716019, 68.17294067950498, 57.27723771597027, 44.10929550421821, 38.6467770102913, 70.28116361391183, 46.19124007459833, 64.6338397001567, 50.228049285655416, 58.42421222922159, 55.68770970382952, 71.75032501446054, 69.60962701936522, 42.372733653780124, 60.73632610784063, 46.97787826228883, 48.81196372466289, 70.00411332100089, 54.65780187357984, 52.30438309067811, 47.54270244489589, 62.76112214753068, 69.43787610239185, 47.94382579385638, 45.654747873909905, 53.686311756119906, 66.45785304855676, 48.57095538760614, 69.56468811066723, 51.06263848505852, 52.98172819765597, 46.7732844849039, 49.38795297841727, 55.99024153709553, 56.977588546982496, 42.43931824075372, 55.990694690402705, 52.58257174211637, 51.004692883295945]</t>
@@ -2575,7 +2575,7 @@
     <t>[46.0564239568173, 57.846816605295714, 63.62957683994187, 76.54867935325485, 47.23448667586913, 53.81386685487465, 56.7063254315097, 55.336835052232566, 70.26188613153705, 46.825342345800145, 50.88508930789346, 59.91115875671169, 66.88653847321228, 69.2224084784518, 44.5637939777927, 36.75641358448323, 68.6548539166886, 54.169983276035175, 68.16673721058017, 50.36209022034309, 60.5991716344496, 47.154183296513324, 61.887821608688675, 75.81844633321721, 45.425231678696875, 50.0796585606763, 60.445868037515815, 46.81340882318648, 80.31553953710502, 62.88367108657534, 71.88397439791584, 51.13269209305332, 53.58380385800164, 67.16902583622189, 38.93171189992413, 57.42631018960762, 82.78615657731918, 58.132672945991835, 48.336158105593185, 41.41167551206289, 53.78295745361588, 70.31033852096768, 42.095158174212976, 62.47332558079992, 55.7659610791494, 48.42684559831715, 48.51342881989069, 55.21637402413756, 74.70302450529094, 75.62676210254426]</t>
   </si>
   <si>
-    <t>[48.03758472235579, 58.448088711294496, 78.34045701242157, 71.34603270267354, 50.13173552855221, 53.117921494248634, 65.57622813314299, 54.427439794960605, 76.94314167751057, 54.87503646269623, 49.50805175230397, 50.56455119135824, 72.56724837941968, 64.23619990220074, 50.877454099310995, 53.14972839863778, 78.12383246266135, 51.37819448088856, 63.97707962972439, 46.89712557470911, 64.52505744204862, 50.52693449274876, 65.63171101562116, 62.12810161591045, 59.210962299843914, 61.2969062305237, 62.27252959487919, 50.53714343321209, 81.37523902858949, 59.48571814994841, 60.27986496491723, 55.26712836302924, 63.11615431305426, 71.71425623765562, 48.27549463462196, 63.131304753659684, 64.8921823221807, 57.45402049561036, 59.62940173439202, 69.02486120755849, 57.30435297049861, 60.19651081811619, 45.68044850072024, 54.77085188668754, 74.19344058458572, 59.8201882620291, 47.95304682173845, 68.54320455317463, 67.55582716246376, 47.376358256077104]</t>
+    <t>[44.901111301158394, 60.193064717464594, 77.70924090416105, 69.6977683681117, 48.71339981980061, 53.097428369394365, 61.723535744253184, 47.28930913335341, 76.94137935361702, 53.53085274857892, 47.77256985405335, 51.99717919361055, 70.16723970348184, 64.92492402116761, 51.75449698761187, 50.28581490132406, 79.17324528049971, 54.542665519226695, 67.08895295634896, 49.33857415452878, 63.841011401585114, 49.127145964428586, 68.38819014814159, 63.76713827150919, 56.36405421995553, 66.08358959583227, 64.40220576642642, 49.5240861042493, 84.74316784337954, 59.0747130374841, 62.933108720771365, 57.96791586005218, 61.77919170792639, 72.85654558609104, 49.11688741214006, 64.5255811185382, 63.894144472908145, 55.91936213588267, 56.6632649461576, 70.78131597375875, 53.79886156552958, 61.77799207393825, 46.59576424698666, 55.637925541890276, 72.29130992106934, 63.90766143277216, 54.79406234447271, 70.94439574516734, 67.18992169878292, 47.339066745970456]</t>
   </si>
   <si>
     <t>[45.29955041404894, 53.0493429538157, 67.3788171637004, 68.21769435640775, 37.725211371669126, 53.84569791349438, 61.56827605869426, 49.29397063854328, 64.40645297753682, 36.98809306378275, 49.34327818035477, 44.4915408089875, 79.03019697509312, 61.075732651219326, 33.03838415807313, 44.32022193746004, 63.45049927833178, 46.242164232136574, 65.4650545532284, 48.88298636388486, 57.94241862036841, 48.933224837974855, 66.56117458076781, 63.09650397043004, 49.0717165920726, 72.3888027347358, 42.92015912124988, 51.62173405162137, 82.7570428473261, 70.31354113807024, 66.71840366962313, 53.8131151142811, 55.6566551534574, 61.10983234500723, 42.189903440595174, 50.71353987612313, 57.23451250697837, 56.237131263912715, 70.80077420005459, 60.03960788937553, 54.48106779084062, 59.09025409669304, 61.99377090890256, 44.1545398373293, 65.92717529141377, 48.59712555362801, 50.730943394074735, 55.15233081957827, 55.38685669733495, 52.50606575412622]</t>
@@ -2593,13 +2593,13 @@
     <t>[45.54003976472079, 59.438929872505206, 80.89367675305554, 70.67873012717726, 43.79510613378838, 46.944696367208685, 72.08115912449766, 54.21278171352665, 75.6056678327768, 56.33762770492158, 53.59445167826534, 52.23894443834152, 74.67989689260243, 56.8607368415966, 44.52871766234176, 50.73222169010582, 72.0714456908713, 57.3018403825933, 79.09825935782526, 61.31244095020727, 72.82138606192889, 50.623530192048044, 68.41872046366751, 81.10446146416177, 68.45994796409597, 52.561145445744245, 65.59300344464751, 47.328658149975624, 77.1104136953037, 57.12081436748351, 77.12028946826912, 60.26024455553796, 65.40937669946577, 63.81377061678972, 54.960049013865145, 61.34897038602078, 86.2621770115931, 49.63441845044835, 55.7031039171804, 70.29724430417554, 56.38866704763838, 71.2066642799764, 39.67230198440511, 53.362500180405746, 69.42082113332074, 60.11294515992593, 65.88865346967165, 66.19117891567464, 69.1217402398971, 69.83831274520278]</t>
   </si>
   <si>
-    <t>[45.26371867185224, 56.95103642709481, 78.68109437785418, 71.40907214052862, 49.606095642660485, 53.56204206677363, 67.82873509605164, 44.67079249618268, 76.81706485550161, 51.09522597769755, 50.014121126663326, 52.60293614724969, 72.64673658008452, 63.737087275084654, 52.11776414287351, 55.292137007227666, 73.90605402060133, 53.00229241982653, 66.45797080015755, 49.341721198324095, 71.22146942869564, 48.10875199842293, 63.88438618054736, 59.14896642532811, 61.16011134001394, 54.91570301387851, 61.46279610118828, 50.6704788039253, 87.05476335830731, 54.696747676809416, 59.996046059769206, 58.34047681489585, 65.58044735730722, 72.68185590094512, 51.94385679413344, 56.42172771984212, 67.98478707739294, 56.77602112131322, 57.542391546983346, 73.59528303170285, 55.72491206521578, 66.40583070398458, 45.041210636410824, 54.46171414395293, 71.58716674781438, 64.88135785276909, 52.15608916393698, 71.07480606915769, 67.43903881450774, 54.317912684481065]</t>
+    <t>[44.946205600222356, 57.75938958792698, 78.74225556538208, 70.72821584532659, 51.10032653584492, 53.79626914229662, 66.3141654317043, 43.64759008094318, 77.63415126523248, 52.78063977601533, 49.59584665996001, 55.01060555055021, 73.72345344542937, 64.13945289988521, 52.09429476402972, 52.207061290565555, 74.19042108166452, 53.00245624489783, 66.91804813357837, 49.10148119546708, 68.9827973050201, 53.890829643098115, 65.84487476983338, 60.98927713655366, 53.531104435949494, 54.66794502066319, 63.53124079152493, 49.74886040034505, 84.5911053657918, 53.11593839513074, 59.24725589868148, 57.146554832580996, 64.32931119205502, 69.89173262423196, 51.082275712835404, 57.65555106352548, 66.26515407553029, 57.43560681865304, 60.12594694173147, 73.86668586186234, 57.29500933077613, 69.09972354304294, 43.60929587301975, 50.888450133350226, 70.30287692903751, 63.49139843792329, 52.16617419495394, 65.5525397496868, 63.470614096565, 55.110660924927465]</t>
   </si>
   <si>
     <t>[37.873022732200546, 49.58874231324296, 75.70778839939526, 65.03629929432435, 42.461979838811, 66.97475619821141, 58.99221060124014, 50.92769902810654, 69.77119979841353, 41.5660487763979, 63.465188987215626, 43.792755600247666, 76.12854527446983, 55.759723365929176, 43.3351740879777, 44.16277114643456, 63.48819469471731, 42.59792126345816, 66.36028847789058, 44.75280513402217, 59.66894919306038, 50.180305326579344, 69.49208351983435, 63.14985092585548, 58.17152834037837, 67.03583778807942, 45.7657491468545, 46.78192523137326, 80.38821227995444, 54.49606641299899, 46.87709559175616, 60.26295340609926, 56.62948149593148, 52.59292163442693, 45.96853639717139, 47.29239070534381, 67.62513329140349, 58.930793516341495, 62.806117213803944, 51.49112051918316, 45.71084009164843, 78.13512594983277, 48.28493822712778, 44.18714402420473, 58.45039193528263, 56.24316218600839, 56.84776888932293, 64.33556811787048, 62.58672294413538, 53.645015627565364]</t>
   </si>
   <si>
-    <t>[45.05583109473893, 101.33938341116165, 89.20962928199464, 89.19193427061201, 67.05596556203369, 70.84450258597377, 84.7031040545857, 68.11434225848265, 85.28246160959462, 78.10870389417406, 58.95316552526214, 74.18842532278083, 82.43232959808198, 70.8208682372745, 71.3075978345535, 53.713455218621256, 90.68162981660056, 73.00955022713445, 82.20632267239019, 57.09709850420734, 80.47893828113494, 69.86812014842147, 67.18721790513689, 84.73433852287388, 63.32621601907679, 72.0507979866687, 76.7053509037328, 61.012869469367516, 85.26557202877709, 73.95865320625317, 80.18646315087796, 73.78682309122709, 80.50704944870112, 85.67884278334876, 65.64288743905777, 75.09708845458002, 95.09064827259884, 69.27785109190845, 74.841908172811, 78.25504313175176, 68.00196911696172, 87.58704432534087, 51.94236072652, 64.2673164627058, 94.96243999337115, 67.40160980333597, 81.76160952693395, 85.62486830877731, 76.61060187406166, 84.26846246692607]</t>
+    <t>[45.05583109473893, 101.33938341116163, 89.20962928199464, 89.19193427061201, 67.05596556203369, 70.84450258597377, 84.7031040545857, 68.11434225848265, 85.28246160959462, 78.10870389417406, 58.95316552526214, 74.18842532278083, 82.43232959808198, 70.8208682372745, 71.3075978345535, 53.713455218621256, 90.68162981660056, 73.00955022713445, 82.20632267239019, 57.09709850420734, 80.47893828113494, 69.86812014842147, 67.18721790513689, 84.73433852287388, 63.32621601907679, 72.0507979866687, 76.7053509037328, 61.012869469367516, 85.26557202877709, 73.95865320625317, 80.18646315087796, 73.78682309122709, 80.50704944870112, 85.67884278334876, 65.64288743905777, 75.09708845458002, 95.09064827259884, 69.27785109190845, 74.841908172811, 78.25504313175176, 68.00196911696172, 87.58704432534087, 51.94236072652, 64.2673164627058, 94.96243999337115, 67.40160980333597, 81.76160952693395, 85.62486830877731, 76.61060187406166, 84.26846246692607]</t>
   </si>
   <si>
     <t>[38.651885731355655, 54.26825901395082, 80.45773017645013, 77.50173681918272, 52.065297690974745, 51.352246801633655, 66.04959969799538, 55.076980221989054, 86.47880347139493, 58.87651097169436, 43.49523652472536, 54.32708270206926, 73.55409602657733, 64.86850879432372, 49.01685311918146, 41.61101146030311, 64.40761050939186, 60.76175250985297, 67.79452146660844, 55.357337360014675, 55.578770331070515, 63.37840126570518, 63.94443590510268, 68.65290945167231, 40.95444768294179, 57.59415215036086, 63.687196414725776, 47.921947038255595, 81.24375810195907, 56.967591735140765, 78.70996647427582, 58.037968244827034, 66.87239465063949, 57.238639540722616, 42.73152767224853, 73.45840969473971, 68.35537501928982, 55.11079700607477, 58.72401246931806, 61.48556444260103, 65.19776702453125, 78.15527819731194, 48.899407442954015, 48.97449957707421, 65.68591298267577, 47.91114175252368, 57.26695469053519, 63.04380871282544, 66.10911093381678, 57.68360938637003]</t>
@@ -2611,7 +2611,7 @@
     <t>[44.39007068193615, 56.33048029041057, 73.30751508980798, 89.00770790715622, 46.66982579043283, 52.80068171066206, 84.62852484567982, 51.26035613742492, 83.90843159534357, 59.84349640638703, 50.414982657768654, 53.13022436236982, 75.95472916871593, 61.96342572323373, 44.92549321346897, 47.424858999190114, 66.9516633346909, 48.43751152737443, 74.87926756942157, 48.86286060687581, 75.43587141514197, 54.61053009581722, 70.2411484984352, 65.50855803502655, 52.39190498970726, 52.86806886914396, 63.52131370995359, 49.24263125695781, 78.34330393541676, 51.46662410618924, 77.27533968322165, 62.016526907667064, 67.03897258828603, 59.02323950950648, 53.59948975287773, 65.08711603757244, 73.72285842121042, 49.985970822648746, 58.44666244489931, 71.29356322240541, 55.559229765098266, 75.01192444133775, 44.899288637901755, 52.14562017478464, 67.43581015292195, 54.596478047855896, 58.52874996635623, 60.47238429548768, 66.60410918812717, 58.21141298825554]</t>
   </si>
   <si>
-    <t>[42.99104073509813, 58.327979984890725, 68.70727620385263, 73.31931152078799, 42.55385295043659, 44.963587178383214, 72.72589813139791, 46.99538641080217, 82.12476295183946, 49.213744918591956, 54.18841416421579, 48.613974969984326, 70.67906680275738, 61.40906416796839, 47.633072513757014, 54.867061714124986, 77.65573779159851, 43.23997349565376, 67.71591048828091, 52.59881274734203, 60.04865119339258, 44.279287139384365, 64.08785520378807, 62.81860155692489, 61.84323131214141, 60.277884895656506, 57.36109374166553, 40.719887014316114, 83.59208087598576, 60.834665688658966, 52.63740744460635, 58.7684203155052, 70.2812004522949, 67.83578143705061, 46.531455200800046, 60.49142746297115, 64.24135439453813, 52.27162796515994, 57.13693436572909, 64.03732166327397, 55.58180189436805, 67.82541251863147, 41.62308136939194, 43.54450870986901, 71.30148562863263, 63.68282082616976, 51.891320333951604, 64.77330218539822, 69.19434562581978, 55.00166641471838]</t>
+    <t>[39.42810381395994, 59.163136024120824, 66.570165810402, 73.66108257833699, 40.62861342259605, 48.45081408288601, 73.5706163495456, 44.76484032440003, 78.92426431714391, 46.86864405754989, 52.3351681840616, 50.27244387069138, 71.93200206177166, 59.97685680106105, 47.79504866650425, 55.33197570471609, 80.61617493782451, 44.73051045320036, 65.33731353271239, 53.45477003746284, 59.443048846820425, 45.955923696398415, 62.425858946383116, 57.67894388462301, 59.128129325951775, 58.250856089420694, 59.32585035432712, 40.886363392424684, 81.71692598839006, 59.457312000737495, 48.757030547031405, 62.69595897233073, 69.65725011784181, 68.64105772561105, 45.839314506777285, 57.20944011678462, 61.77456454002639, 52.695033519412405, 53.73027843416883, 73.95329303709838, 53.00750773072149, 70.28062973326908, 41.587995287461894, 44.45151798285381, 71.18119445255338, 60.95382193136692, 49.73248441069403, 62.70041371378557, 65.02060559675401, 50.485130294150935]</t>
   </si>
   <si>
     <t>[34.5409686381039, 51.63905596135503, 76.04026583977688, 71.6409338638349, 43.669478610521665, 46.09152317060416, 69.01310480396786, 58.916510689608145, 80.331159635292, 43.75832787858794, 63.97014308356159, 43.71383842831113, 70.42070313645246, 58.467947147545374, 45.797911102191414, 54.560129431160476, 83.22807381385614, 44.23311833965329, 68.1982904783953, 50.05361120376108, 57.96897415700267, 36.25346838900542, 67.7772568919226, 60.613547411085285, 58.54241640540778, 63.67806710605479, 52.07870044754258, 40.5059222020562, 80.07083173287778, 53.6945810249627, 49.8105536466616, 53.17996079695931, 71.31053446860611, 74.00298441873255, 37.4911753754036, 60.05179449699191, 60.4967336620589, 47.46973208335637, 50.84803409706164, 55.83370732382786, 52.37877709138991, 54.57207336305745, 46.27611964067526, 41.53121645559836, 60.83022554693496, 57.38913880861221, 48.00419998869507, 55.55598371682346, 63.1245356270466, 64.14774049928313]</t>
@@ -2623,13 +2623,13 @@
     <t>[38.30290625236784, 53.29768808666659, 84.03947833574674, 80.30499460446855, 46.38099690311464, 47.99311128046322, 55.81845124628482, 46.697510601262756, 76.67475900835316, 54.66228523018507, 49.38723873608609, 56.59700547727722, 87.18218376242378, 64.19173281520445, 50.82852207713442, 40.72368497810656, 70.96785734232284, 63.69917829102525, 68.94122433619798, 49.14996255544591, 60.6896669930954, 66.71280126964028, 65.6877543279442, 68.01030293987068, 59.6542819046818, 50.19212344397423, 58.756629260459135, 40.588525692616166, 79.71451505923409, 55.91413830885473, 76.65500362851796, 52.94950636091607, 64.73171533342719, 72.21469503022439, 43.28949255387557, 64.95498704307641, 75.37163006709345, 55.43822793746584, 47.611798473629314, 81.33096376268294, 59.887700927763, 66.74562199346951, 45.14237393783364, 52.29508523055466, 99.93503385401439, 56.531342737047886, 53.31734209844976, 66.37139406843139, 62.52725627724227, 53.03565741401408]</t>
   </si>
   <si>
-    <t>[41.02743895756266, 62.79418298148479, 78.93080140734966, 82.72103442169396, 52.95108125831002, 57.195784910555425, 76.97721324402454, 47.59456018903288, 75.36720964575392, 57.132006969464854, 52.76289303325447, 54.81015421768023, 85.63158283257793, 72.66529231999039, 46.62450950836255, 49.44747484967492, 88.78950106381097, 49.36845785360978, 64.18673934933739, 50.604227490624496, 58.75579471630323, 53.134571534005104, 77.53018363837403, 82.17975639683115, 61.85724728356654, 64.84792247362445, 67.11978440892672, 40.52464872347562, 75.46069302631743, 56.485586441881296, 64.0623683475049, 66.5661390429904, 59.59839848269839, 58.313335380779364, 59.49921438890983, 62.94393722636369, 62.199192644899895, 49.458954898494376, 45.71918140114619, 72.42457264832913, 58.134601921683405, 78.06801113110185, 54.47841207032709, 38.820626948724126, 72.00158295290657, 70.31429021947389, 57.748927054020086, 58.67993700364028, 65.04884316102478, 43.32758738016825]</t>
+    <t>[41.02743895756266, 62.79418298148479, 78.93080140734966, 82.72103442169396, 52.95108125831002, 57.195784910555425, 76.97721324402454, 47.59456018903288, 75.36720964575392, 57.132006969464854, 52.76289303325447, 54.81015421768023, 90.14932856680127, 72.66529231999039, 46.62450950836255, 49.44747484967492, 88.78950106381097, 49.36845785360978, 64.18673934933739, 50.604227490624496, 58.75579471630323, 53.134571534005104, 77.53018363837403, 82.17975639683115, 61.85724728356654, 64.84792247362445, 67.11978440892672, 40.52464872347562, 75.46069302631743, 56.485586441881296, 64.0623683475049, 66.5661390429904, 59.59839848269839, 58.313335380779364, 59.49921438890983, 62.94393722636369, 62.199192644899895, 49.458954898494376, 45.71918140114619, 72.42457264832913, 58.134601921683405, 78.06801113110185, 54.47841207032709, 38.820626948724126, 72.00158295290657, 70.31429021947389, 57.748927054020086, 58.67993700364028, 65.04884316102478, 43.32758738016825]</t>
   </si>
   <si>
     <t>[46.287250412990765, 60.710046467752804, 83.88447930235276, 84.35297608469439, 44.486906128323696, 47.14752630319617, 65.08743624185264, 55.36699496167793, 84.38561644797478, 54.03442528493037, 53.80197037449047, 57.344723562994965, 79.6082265375462, 56.85487201433555, 60.164209304503196, 46.01863801672541, 84.11530537630857, 57.766936667905426, 66.0003962725502, 57.78421995867181, 75.89800910626937, 46.026441730063084, 72.30984648041718, 61.89128999699324, 60.54442883192603, 50.881245079479704, 77.14106860797351, 47.65708949017623, 77.4774561965559, 63.59591210292323, 76.02109464347842, 50.80974773683428, 63.84368858705796, 82.53351961796386, 54.71239589133864, 65.94088382761552, 75.9038402974043, 43.94584078233002, 50.90351219670094, 70.24636206962256, 61.08472892202945, 71.06885872139647, 37.02333109585476, 69.6769123643784, 72.45425040845053, 56.62207581015894, 51.004088837342294, 68.72295402923982, 60.8715515033235, 54.75851441970402]</t>
   </si>
   <si>
-    <t>[45.275676000923546, 56.87135012566237, 79.79850937944958, 77.09181035707813, 48.074967743049065, 53.76204481652162, 66.77597810223381, 48.96154255644329, 81.47159226115075, 54.33205843690863, 51.09513337786825, 54.19759221042239, 74.64488234226494, 62.170638706110495, 54.77156402317334, 50.33590650898407, 81.29936970718657, 54.28783428856231, 69.40358131577918, 47.130413545813596, 66.84829069677362, 56.247763198614884, 69.45705842829085, 61.80872097714125, 60.20487344391019, 57.8912011162847, 61.17501845995213, 51.5163719560097, 82.27046892593089, 56.576246504128044, 61.211228499385136, 53.91859512479955, 67.75768444375655, 71.50737219141237, 48.164252757653756, 59.260513904728256, 64.37259813731825, 58.30138976986135, 60.17476962571073, 74.65964956161434, 57.14915644110851, 68.22183712142066, 46.700849252323714, 51.87676713435788, 71.44948451744987, 63.38446497235858, 46.98726144712667, 65.44561891748111, 66.68531351024228, 51.03471118701579]</t>
+    <t>[45.39013169309053, 59.540563729034155, 82.92485377672364, 75.8917416340523, 46.63700768773451, 50.76491951392991, 66.57745425929633, 51.168225393971284, 82.56451576941022, 53.080466123098795, 48.764671277399735, 53.6161725928038, 73.57660268489539, 62.29970161510571, 52.67925147696125, 49.23833554558979, 81.59414372877879, 59.990037528467575, 65.15487834008762, 52.564311975522926, 70.0293021477907, 57.742740186225035, 67.89816859141916, 60.208993761054245, 56.9560688794057, 62.58295046640887, 61.96855919355239, 50.04185272978927, 83.20344755036695, 57.84049215783019, 65.17031516652644, 55.10754056949651, 67.63601916964086, 70.00365609787976, 49.22362477889585, 56.53633530028644, 65.52630233599233, 56.82333824386303, 57.5660791699458, 76.77886942901922, 54.551057584311394, 70.23632347143915, 43.083898416823295, 53.365967282630244, 74.06331221048467, 61.564704523203226, 48.284966100807054, 70.96928838878969, 66.6988585710607, 51.568882263718514]</t>
   </si>
   <si>
     <t>[49.0699787663318, 51.74013007149868, 79.53309964132535, 73.70291747809587, 42.64998465423217, 64.68269731603664, 75.31059247067464, 59.37831105391642, 81.91140262120375, 58.82531115501124, 52.5360072365128, 51.08811573579648, 82.7090381015457, 52.38921714308452, 46.28587545363847, 39.235461096435564, 70.89955500183109, 60.59979945555598, 66.06597603688346, 53.883631657971804, 68.386657539778, 49.384352832486236, 65.3592106519446, 65.88865587126806, 54.55718291008549, 72.62370436553796, 47.09973433981818, 52.578058891192356, 83.88815324033338, 60.76554422304284, 65.13631715453178, 57.691606297162146, 67.21462496548256, 65.60409494238597, 45.61679912952046, 57.80811101230346, 71.00266026394534, 74.93757606386473, 51.172345291151615, 62.02059833253542, 63.88022983285609, 65.96432196763072, 43.23724358686817, 53.23041724328295, 62.98814873313976, 67.23060538122708, 46.459887700116354, 57.52132999486562, 53.232436268486815, 48.62529373216953]</t>
@@ -2647,7 +2647,7 @@
     <t>[49.767446898046494, 58.41502937426305, 65.83315402703727, 74.93043609899219, 48.111122221959626, 53.183364563961476, 53.889245761146576, 55.575021220416716, 68.47789494330615, 48.30039947505667, 55.73562248063418, 57.18854111222477, 60.89186263905367, 71.28083228567074, 45.53035863442893, 36.262942356366324, 70.44223216249488, 53.279074778040446, 61.62608560450096, 49.55493718448908, 62.11872446685707, 44.2868796512451, 60.56642890568314, 76.25257424217995, 44.07886362240857, 50.211072279730274, 69.32450490465432, 46.7849973262371, 80.57823197553071, 58.44602839980446, 65.20691766981332, 51.0066349761081, 52.18646492930236, 66.99341971876184, 37.445539012951095, 57.61321757703545, 82.42052776143609, 50.607461044763966, 48.74951464794528, 40.84687689734804, 52.4147290977195, 72.31154226629519, 42.73984127885951, 69.35829577785228, 54.61024444519612, 46.96261634156088, 48.1415802311863, 56.230798752921274, 59.772253185557254, 76.59653956370904]</t>
   </si>
   <si>
-    <t>[44.87389870876942, 57.41975011338625, 75.3141089991128, 70.57580684841685, 47.652794470987025, 54.91879167591561, 63.05163631946433, 50.96205947377909, 78.16170300814272, 49.90945799677748, 50.75121121116417, 57.76705691504158, 68.10269406783685, 63.30525485914891, 50.931032762454194, 52.661668010053134, 82.93711409464854, 51.22717392361171, 66.25715537729279, 47.05192471822253, 63.21364308278485, 53.115565336254555, 68.00260207867434, 63.89308792290669, 56.500184995908796, 66.54099875081555, 64.52038879557333, 46.259455003428755, 77.44113805180311, 62.6336937594664, 59.20600531364957, 58.3122207256407, 60.91766728410476, 69.53936628479147, 49.140406441047695, 61.33866595134535, 64.52731042923621, 55.00571611615919, 59.94244175772842, 67.86906741582777, 53.55259648151369, 63.55022277097911, 48.724667054338155, 53.17708924718508, 69.2439671908753, 61.6274202334973, 50.75905351541068, 61.94611863182596, 65.69885356378849, 50.583263971274036]</t>
+    <t>[49.29878691285717, 58.98228960997788, 72.64596015639559, 70.1146772640339, 45.963742985625885, 53.217395385615305, 67.3576521480933, 51.81192976992659, 77.0691297236105, 50.522589554151175, 50.073293724375986, 56.14634266617241, 69.44190612150405, 61.68870636615368, 60.8642967699451, 53.69720864621301, 79.21956222921813, 51.58082553505812, 61.59741710122279, 46.00016458014193, 68.56579758459617, 50.07840821089269, 67.55926216985291, 62.19829730623647, 55.642024532766605, 60.94743153239432, 64.1770511689403, 47.838515679139086, 80.67364308515776, 60.10779938621999, 58.50545003123711, 56.97880889841767, 62.34279820777774, 69.37394903765549, 42.76834056799266, 61.01349558358785, 64.4551172875968, 54.889368841087574, 55.480094993147134, 73.09471922100963, 55.09333729487728, 65.126586619893, 48.82331467002079, 54.83713388679103, 68.54712112873709, 60.51369412814653, 50.63663191592006, 69.41091677039493, 67.06288659181173, 50.65019395175085]</t>
   </si>
   <si>
     <t>[49.391315854605374, 42.56170951089129, 65.1212090989484, 62.682405067371256, 45.20577628665869, 44.43354211649437, 57.98944125569704, 48.32012894039421, 65.28175500134545, 36.97264537393828, 46.539510196093346, 55.279341490473, 83.17695507365616, 59.90641816799938, 43.61449637477878, 45.11141722658264, 64.96820847375416, 46.575587233858755, 56.04077179429094, 42.31500666979911, 53.325715632826544, 46.4786246529203, 70.92269030901694, 56.21537910484807, 47.81634987348783, 62.826050179665295, 45.699509111473276, 42.15452748484336, 70.02291913968249, 53.63752216021819, 49.80756044513506, 53.508462828035746, 54.69175706261219, 57.661567936878214, 40.15928187997993, 53.54036844763033, 65.76080575797788, 51.7297017824381, 44.26387862966952, 51.449039048498314, 53.16654060002966, 54.104090400362665, 63.43116596024129, 46.354860969536894, 47.77212990683248, 51.769806275916864, 40.23202926931555, 51.957221362930156, 50.445921309364124, 50.05516303011331]</t>
@@ -2659,19 +2659,19 @@
     <t>[73.61866120878788, 54.03746581139318, 87.17925737368297, 81.6136842692129, 44.52618354726657, 50.37446403477487, 75.40564523614088, 56.9911064911785, 75.6064071095688, 58.88500462667972, 55.01933366367196, 53.19668855137614, 102.047217473024, 57.60544127420708, 52.59443074574948, 48.37952910634084, 65.69855008085278, 48.47912243226933, 58.927715217407325, 54.02631418266588, 55.71026266002491, 55.31903496096247, 61.951033901831636, 100.61041178668903, 69.43102112541095, 54.62463177739208, 57.37421757072127, 42.299721419597134, 80.9425059466897, 51.5881617967158, 82.58747609004358, 55.47876137078929, 61.54164099824481, 74.598211931835, 43.79488929482232, 59.85551829638929, 68.25739251804714, 49.38783345601101, 56.132790863286225, 63.65409397540032, 59.395739744014115, 68.65639489551398, 73.913582111134, 64.92037136457496, 52.731047414939056, 65.44650564087867, 80.6780925164475, 62.304824683281126, 61.26834000777977, 64.28751687392392]</t>
   </si>
   <si>
-    <t>[71.4402510866373, 54.26696596635028, 73.81235894261252, 80.14655506076684, 54.7595391798817, 52.60090099465732, 62.21627051567027, 47.20365388328805, 68.50807519338426, 37.09213471774908, 62.09494011571619, 56.221193993181174, 58.70806558119347, 61.05423391486141, 46.32054334647143, 57.86570748140468, 71.60245412198836, 62.554313885471686, 69.9672442494139, 42.79562023485343, 70.43137799743154, 51.165247065624, 76.49205181199834, 62.49427309616799, 55.22491761978921, 75.74257439844223, 61.34005208794966, 50.31346973193815, 80.61780874727891, 57.54735718703066, 60.62109281551831, 75.06447223134963, 48.741335359663175, 61.785387933995594, 55.1867677555689, 67.24975754217051, 68.92487189984404, 59.859070528016765, 44.332991660568005, 66.89666061146578, 63.84388474552385, 50.13527860938012, 55.45852080102238, 70.68360616509821, 72.20968845759451, 52.27288866809114, 51.90033804596762, 82.15880158483586, 65.45969812950372, 44.54908878258781]</t>
+    <t>[71.4402510866373, 55.67519898398738, 73.81235894261252, 80.14655506076684, 54.7595391798817, 52.60090099465732, 62.21627051567027, 47.20365388328805, 68.50807519338426, 37.09213471774908, 62.09494011571619, 56.221193993181174, 58.70806558119347, 61.05423391486141, 46.32054334647143, 57.86570748140468, 71.60245412198836, 62.554313885471686, 69.9672442494139, 42.79562023485343, 70.43137799743154, 51.165247065624, 76.49205181199834, 62.49427309616799, 55.22491761978921, 75.74257439844223, 61.34005208794966, 50.31346973193815, 80.61780874727891, 57.54735718703066, 60.62109281551831, 75.06447223134963, 48.741335359663175, 61.785387933995594, 55.1867677555689, 67.24975754217051, 68.92487189984404, 59.859070528016765, 44.332991660568005, 66.89666061146578, 63.84388474552385, 50.13527860938012, 55.45852080102238, 70.68360616509821, 72.20968845759451, 52.27288866809114, 51.90033804596762, 82.15880158483586, 65.45969812950372, 44.54908878258781]</t>
   </si>
   <si>
     <t>[45.645290859311, 59.005284660012755, 81.86794997852357, 72.6989066633353, 44.72677839741563, 46.7492607823133, 71.84574232920754, 55.34407515723457, 75.38350835684717, 49.66748605874865, 53.48889715648421, 52.8212226637268, 75.38678942957455, 54.65524824229522, 45.527973099710735, 50.12639724401964, 73.58170596139063, 57.606855247711906, 77.8263993396549, 59.261793558126435, 71.54193642909416, 51.47249850725909, 75.57110851211024, 80.80697238167451, 69.19219932025806, 52.687842540888056, 65.89957422143569, 46.6232140614894, 92.40367820545553, 57.76816692732604, 72.55162559854587, 59.83896009362358, 68.02580896798621, 68.74961648245458, 75.92409257233707, 61.285245666571576, 86.4387121248637, 57.7473737164654, 55.180041621311915, 71.41985838799496, 55.251880762703614, 67.2445369176875, 39.70900444451023, 51.98839393373829, 73.36950893773738, 72.29977257304967, 66.7639821323431, 62.944909743616805, 68.97529032534473, 69.03824851394504]</t>
   </si>
   <si>
-    <t>[45.17798705416699, 60.32383237910823, 79.7704237770998, 68.7877324130865, 51.752815725566194, 48.56687928131635, 68.046795741067, 44.18057837856304, 75.27335437507053, 48.7066994979035, 49.507190094656124, 58.858181145273285, 71.20668679662998, 65.86076198235088, 52.496750072718115, 52.86029069433327, 73.26095433814024, 62.11095263218486, 66.87136835564863, 49.208805270936466, 71.73755919312183, 51.7981582531377, 64.89496179018718, 58.77109472135891, 55.351813628031046, 59.304504974074476, 60.58398740367429, 50.41427630565872, 80.19241467111192, 55.913894791640296, 58.179148171439266, 60.19458091556353, 63.645567957139704, 69.83448081450973, 52.914905390217996, 61.33213632613267, 66.73241406324131, 53.604329899391395, 59.930092309675196, 70.77462586323881, 57.01035039220906, 66.78275051605799, 42.401403459204275, 43.40697662586378, 71.53088364114717, 62.581665358424296, 49.963076092014816, 67.99370096163564, 64.81300941904036, 54.32112303643194]</t>
+    <t>[47.261782489042425, 60.29876850361942, 78.31753591145242, 68.38319361401304, 47.991535758032434, 53.576839496435596, 68.88342869389756, 47.16259149732102, 79.77032183529782, 49.17235958037735, 50.29860882073645, 52.280277985472146, 70.79137656227132, 65.7552540285341, 53.89412080685777, 53.51584849303074, 76.80445053192666, 60.163107120989636, 62.4988747987813, 50.587277187009676, 67.41356681478463, 49.82079159706141, 62.95422001838487, 60.225114449344325, 60.59680838829812, 54.02244626999446, 59.832010540051805, 50.25609418570693, 82.40832374774432, 57.657986691009775, 60.54359509150439, 61.98852098931812, 64.62007034512483, 72.30329354160787, 52.54187017597455, 59.56376899702452, 60.21786629347607, 53.868707099010756, 58.77898106459724, 70.88292914187303, 54.75662094911063, 69.56287151790104, 43.79608001466488, 48.61121854298604, 72.07962785136046, 66.45299043767203, 50.676989996884615, 68.50071841569877, 64.24481930182833, 51.07399125115389]</t>
   </si>
   <si>
     <t>[42.32365317939964, 54.37693789491572, 80.62855577627803, 63.94955613291637, 49.26617914640729, 45.83466408205084, 71.04041590883872, 37.58825217931943, 64.2788619779712, 40.98757348276302, 55.65803009963397, 51.1659705763372, 67.5954600786787, 54.430458271476375, 59.53458236119468, 41.954996077281436, 69.54436401583771, 54.29319136568289, 55.0523891059015, 49.77829950139188, 66.33987550619612, 46.48505855685276, 62.07597836309766, 63.81657151858794, 41.19630798365816, 72.02810469768612, 60.51191781287029, 59.88845843332125, 72.4253308758898, 54.4888523781864, 51.144590427780834, 52.328406934748045, 59.25141054933828, 62.467536512577055, 42.71145709929553, 57.08700534273382, 64.60793919025713, 63.48362773101924, 56.248203706472864, 56.126987005042935, 51.01239933305799, 64.70590149623045, 57.03059588835165, 38.295900982049716, 49.96706165284401, 60.1674792734288, 57.06468583656875, 57.61142163949746, 55.40718546774705, 57.92084396886758]</t>
   </si>
   <si>
-    <t>[52.37194895075097, 68.97828684836173, 87.76798513067014, 89.29057901683069, 63.670455629989995, 59.24056447323269, 84.35917449593862, 60.878391127299, 90.0081844356966, 79.75401595545414, 57.64316382669522, 69.47039958246935, 90.25484637414101, 73.10552493807448, 70.56767028958124, 58.327690296240235, 87.26635642963453, 71.931602728035, 81.58270641405178, 57.55801685829186, 78.05543839196369, 72.72435005072099, 67.98612772304294, 81.77535395796852, 63.32621601907679, 76.4427192470639, 75.30892647350626, 59.26490399338898, 85.26557202877709, 72.1249488196211, 68.14671798472004, 80.06252305898228, 77.95042150999228, 87.61796990225439, 68.4378828759377, 69.22456448022729, 87.9553279221785, 78.58609117788058, 65.70929961265269, 78.1041139236405, 65.18611203001748, 86.59547189285244, 52.66655110169129, 67.48910936427883, 96.05285794617717, 64.56980540334808, 82.32368310813328, 83.76193048482034, 75.09113310677505, 81.81394582062195]</t>
+    <t>[52.37194895075097, 68.97828684836173, 87.76798513067014, 89.29057901683069, 63.670455629989995, 59.24056447323269, 84.35917449593862, 60.878391127299, 90.0081844356966, 79.75401595545414, 57.64316382669522, 69.47039958246935, 90.25484637414101, 73.10552493807448, 70.56767028958124, 58.327690296240235, 87.26635642963453, 71.931602728035, 81.58270641405178, 57.55801685829186, 78.05543839196369, 72.72435005072099, 67.98612772304294, 81.77535395796852, 63.32621601907679, 76.4427192470639, 75.30892647350626, 59.26490399338898, 85.26557202877709, 72.1249488196211, 68.14671798472004, 80.06252305898228, 77.95042150999228, 87.61796990225439, 68.4378828759377, 69.22456448022729, 87.9553279221785, 78.58609117788063, 65.70929961265269, 78.1041139236405, 65.18611203001748, 86.59547189285244, 52.66655110169129, 67.48910936427883, 96.05285794617717, 64.56980540334808, 82.32368310813328, 83.76193048482034, 75.09113310677505, 81.81394582062195]</t>
   </si>
   <si>
     <t>[36.546227458199915, 54.31034772536053, 83.4476597156295, 80.4784324190436, 53.037184105082055, 49.98552890678217, 69.91940213140373, 55.24623438187156, 88.07440165594296, 62.126842167320596, 42.219811159878645, 54.213876174699294, 79.24881071173098, 64.7364906962308, 48.71715303793835, 52.19332321018543, 104.32485417736133, 58.57081256425261, 67.82203838949432, 52.533665460826874, 54.64872797171403, 63.00156471194648, 62.5474678492134, 78.93363733248377, 51.39667505340254, 56.77014430904431, 64.73971973069317, 39.31202860376237, 80.69366939806473, 55.80877777297444, 76.98875010513896, 58.19370058957677, 68.17125008976288, 56.79190027944187, 43.78673470753144, 74.9973097874727, 64.32906558670497, 52.2630274756731, 58.208551388192454, 60.196570482211456, 64.01689206549533, 81.03612070463751, 48.45412683530493, 47.93443763080763, 66.82244852346551, 52.88137214522267, 62.78549690857714, 61.68162380844754, 63.815987407720726, 59.47810021138914]</t>
@@ -2683,7 +2683,7 @@
     <t>[44.692268390640216, 59.38452831255412, 82.66380011127922, 88.20042983235477, 48.50940696211494, 56.47435317576616, 84.61245443488728, 53.538784314279894, 84.18258406598261, 64.10828374443045, 52.221170520264586, 63.562138063607684, 76.53219059984012, 63.20768812824973, 44.825613620258444, 51.20698380170876, 67.21727624635601, 45.9085121735298, 74.21877643931452, 50.191849638286115, 75.14560787509765, 54.657033169209505, 70.83087375731822, 60.87511858838781, 53.4471235932368, 52.29013927976856, 64.35054319387878, 50.199757063765674, 79.24184169153236, 54.946372967019826, 77.02268959998356, 62.79962288770864, 68.31693917076046, 57.81838390518329, 57.07040493565204, 71.37984325328785, 71.46293922473915, 50.32544286134018, 60.21307277167611, 71.75784454836139, 56.64349074761462, 73.79354819426484, 47.425681121241965, 53.37486187045173, 68.55131253056446, 55.4759144539709, 62.47838195158525, 59.90286026715169, 66.36552810586898, 60.63531091307466]</t>
   </si>
   <si>
-    <t>[44.12098156557093, 57.75161412884055, 74.21535536446409, 69.75630747479268, 42.396668184382, 45.31491199211116, 75.76273397363137, 42.81026935000903, 80.28359563760417, 49.53817385179414, 52.807932492541454, 50.467515395162444, 68.69041156546989, 61.54099419157818, 45.610290567346055, 55.014574714641334, 77.08937028433263, 49.388053189322235, 69.51098587142694, 50.874606544048575, 59.858098398718084, 46.975057246466434, 64.04082030654799, 57.31378629096234, 55.292195310306674, 57.24957514399487, 55.95219569739612, 42.44146954387935, 83.29393275102856, 60.75109203221361, 59.77598100026086, 54.84725812166735, 68.18121365873807, 69.32008177631849, 46.13211782312615, 59.74812743668374, 64.25170355046868, 53.0232870731282, 56.37808455233997, 66.59095051269581, 51.353061638715225, 65.5945618939654, 43.15061755540954, 44.61134049221064, 71.68779792443006, 63.2321177725793, 49.44265353081486, 63.189836258947636, 66.81377468094638, 55.74307414653444]</t>
+    <t>[43.200720303307264, 57.80490176697744, 75.08539407074014, 72.00444470200979, 42.56927312915204, 44.00628581129029, 76.86247641071023, 45.74480262180323, 80.14473622179464, 48.63673140524235, 55.21176306561025, 49.226446213817034, 69.58915950228885, 60.26413808409707, 47.25996999807822, 54.37249733231535, 81.88890647852335, 48.63459342658255, 65.15570527393874, 54.231289990243, 59.22964504839094, 41.01013153796257, 64.80476325438521, 58.45327636680631, 59.21841970583249, 56.50608029165626, 58.45289914956762, 43.03720919093062, 81.8059346031777, 62.41942875893201, 60.4057588071983, 59.54385442685014, 66.9553787401034, 69.1616697842019, 42.11708636665031, 58.500934397654206, 64.88824634750092, 53.42496174512619, 53.644929651350836, 66.69291525396692, 51.89064778778972, 65.60523781943382, 44.03220045676988, 44.945036891783396, 70.85841241976436, 60.90820168293283, 51.504057903570754, 64.69591786645707, 70.22975448951945, 56.13347201569661]</t>
   </si>
   <si>
     <t>[30.205812301735875, 48.31436287387948, 65.17228725390672, 70.70408313550932, 43.677602117820676, 41.406144348630534, 75.25220602813313, 55.012681804958895, 73.29680171515122, 41.62809787482531, 64.45650779908793, 45.577383907681785, 78.90775302367896, 50.6174500554289, 48.291721609628986, 52.729242536628846, 80.93349889162879, 60.054096885550145, 61.01641818855737, 46.64534399041252, 61.41697163448802, 42.94560090641791, 61.00118933156751, 56.51937498968231, 56.81272829314129, 64.2145659613675, 60.085929213230884, 42.4181706805245, 79.5481843344336, 55.70882574116455, 53.26605014576717, 59.84077751504221, 70.88786001424972, 68.30923018596938, 37.092588447429264, 59.49451419446565, 57.56682907810877, 57.84260347186524, 51.35206327570962, 60.38993704242863, 47.08983298710188, 62.0674423860424, 47.54137919741636, 45.36550521995258, 62.35801791019436, 57.1529632862271, 67.45503027181333, 59.09441856677885, 61.034723278488805, 62.733716678246864]</t>
@@ -2695,13 +2695,13 @@
     <t>[40.00463817327652, 53.64001525700028, 83.64679857514493, 87.27255605348486, 46.79523651427416, 47.853029928641924, 57.228777186940164, 44.08265300280195, 76.47233151478831, 59.875497473545295, 46.69561439645025, 59.26376469293817, 90.29490290716649, 64.942480721856, 51.48831709384354, 41.08673610092537, 68.73333638099248, 63.15551210662869, 70.95149683571314, 41.82307048564606, 62.60974299913371, 69.55082533252597, 65.05207998839866, 69.86656417794184, 64.61301377730855, 56.00239499659851, 60.771690192310636, 40.27550314486237, 79.28924897134746, 47.55402049339909, 74.6798872812584, 53.852643389302024, 69.68315353633712, 79.23003449681389, 62.11830602629185, 64.1874706213185, 75.29191097794902, 54.810217055781635, 50.03325091168082, 83.2308708138202, 59.53698380774677, 84.90358416146145, 44.9423297573228, 68.07800509186174, 100.97447908765717, 47.11111114755213, 51.47504545733846, 61.70260577543331, 60.765618918111564, 49.829529531833465]</t>
   </si>
   <si>
-    <t>[41.531374562762, 68.97570065638723, 74.07518356844557, 80.528472815732, 55.67232275108099, 52.41315155498639, 73.76684986057155, 45.936092811713415, 72.65710567772318, 61.11005277073555, 53.626616243501935, 51.921146814755105, 89.99752840521577, 63.98127430878189, 56.65514977511363, 49.61679166212919, 87.72125984236426, 48.997988932366304, 59.19494267434651, 48.70891858745524, 58.26016439725966, 49.962835589906355, 90.25428126568491, 70.30490780705146, 59.16377272018541, 64.61386906822892, 66.3546865711917, 41.45031532542038, 87.90350957722671, 51.400696205734526, 69.67302596103907, 61.404302951248724, 60.73169812902329, 58.34578172860721, 61.37046741230377, 62.89578745921888, 61.24136141793299, 50.22735152770887, 52.25280435869303, 72.48029643584039, 59.852126474580636, 71.15856074546954, 47.81006816386824, 39.33698990552707, 78.97604753617718, 71.20453457751506, 47.092153362246734, 61.35946965987922, 58.28962114756162, 44.366587891333005]</t>
+    <t>[41.531374562762, 68.97570065638723, 74.07518356844557, 80.528472815732, 55.67232275108099, 52.41315155498639, 73.76684986057155, 45.936092811713415, 72.65710567772318, 61.11005277073555, 53.626616243501935, 51.921146814755105, 89.99752840521577, 63.98127430878189, 56.65514977511363, 49.61679166212919, 87.72125984236426, 48.997988932366304, 59.19494267434651, 48.70891858745524, 58.26016439725966, 49.962835589906355, 90.25428126568491, 70.30490780705146, 59.16377272018541, 64.61386906822892, 66.3546865711917, 41.45031532542038, 89.5229368153634, 51.400696205734526, 69.67302596103907, 61.404302951248724, 60.73169812902329, 58.34578172860721, 61.37046741230377, 62.89578745921888, 61.24136141793299, 50.22735152770887, 52.25280435869303, 72.48029643584039, 59.852126474580636, 71.15856074546954, 47.81006816386824, 39.33698990552707, 78.97604753617718, 71.20453457751506, 47.092153362246734, 61.35946965987922, 58.28962114756162, 44.366587891333005]</t>
   </si>
   <si>
     <t>[45.521620743419234, 61.80352651442661, 85.51144557816811, 83.5948587601688, 44.779129637110486, 58.20001126333843, 73.75259358750513, 47.28608523833557, 77.12418591866714, 53.754598642103474, 53.812737760416475, 57.61353219872031, 82.8147882674605, 56.23183656186453, 48.2170380550283, 46.02542112637948, 82.30633518203739, 55.5540106125474, 69.43063331497473, 52.83925293007504, 78.76337513237303, 47.355162108327065, 71.96377469426416, 61.69759109507603, 60.133746233813945, 53.29744009316054, 79.55806525324796, 45.95904897835739, 79.11068191995184, 50.22137234617777, 73.94527702998708, 50.63539340623917, 68.07732236496157, 64.39662401394192, 58.67794656553177, 80.68810604966747, 79.04435153396331, 43.70000599104741, 51.763849571437255, 78.66583478489773, 53.03417660152943, 75.91699172885157, 37.98637428211235, 57.124980270792406, 73.11742837465937, 59.21280139313897, 50.87949002798023, 72.03290347037095, 60.2902515736693, 59.227839808464864]</t>
   </si>
   <si>
-    <t>[47.600392575049305, 55.14642011577612, 83.88107799305901, 74.67660632264713, 51.5743471965423, 51.172338668732294, 67.84037943860808, 45.9979502120872, 80.64604367511559, 51.900670646487676, 50.52805475958374, 61.361426786268375, 76.1253866784142, 64.98939595423536, 53.73266964201256, 52.80218130234191, 77.56926255843919, 61.581558006242915, 70.13975762270923, 45.57750220196206, 70.40757939503678, 53.33010215042987, 66.65938273451732, 60.674661375233, 61.828318705921916, 62.948965337100724, 63.249315094662926, 46.00247033632122, 82.23497976809139, 60.343956590399706, 61.01051322775041, 53.03403499204217, 64.7204005823352, 72.67230398388668, 50.511978788822496, 59.839977440752875, 64.66222208202073, 57.14013300613143, 54.36951975127941, 71.88697335691559, 53.99967163052392, 64.98847849628781, 47.018004847677076, 49.99808046002354, 68.70152910390843, 63.7051810472676, 48.13704333480822, 64.78236949311508, 66.96128889125718, 52.550128753200404]</t>
+    <t>[46.68677196340407, 58.04331132540305, 82.99049936151054, 75.88580077296776, 49.104071160410356, 50.725966898945536, 69.6085607453216, 44.55313304195283, 80.60363519628841, 49.56451503378106, 45.432139710152214, 56.62390223057517, 73.0666368280457, 63.46532560910824, 53.971562624545214, 51.066714017707255, 81.51888405479694, 58.39720116546791, 69.43833168125403, 45.75100970672547, 70.59538482938069, 53.75584212388992, 68.0382881040468, 62.91281882581652, 61.59522091398421, 58.53391917379925, 63.78874536034792, 50.77412176829137, 84.55460207787664, 55.51806160982994, 62.54036002330418, 55.634909606527195, 66.0820065606344, 73.96138440157051, 47.74781928263743, 64.11891180218284, 65.96179589622258, 56.76422986994894, 56.255704836706364, 71.11648622126329, 56.12951935755132, 68.9708886264893, 46.436833872499065, 46.01696241603067, 71.6376581626937, 60.5635741353286, 49.01361695875389, 66.61870852566719, 65.85970584307498, 51.5498780765435]</t>
   </si>
   <si>
     <t>[52.11741826562527, 51.37779633061476, 76.16145163235653, 68.66936873663815, 56.401057966067725, 42.04169310314252, 74.96536203722752, 48.338608003203234, 74.13820438672032, 47.219538154257414, 48.3430637327012, 60.06046531947866, 66.72629630193714, 53.8210759448409, 46.792631674051904, 35.307073254348104, 67.97149932807014, 60.334914673603826, 60.2891388760894, 36.806336288770176, 65.00429551463145, 50.65764737071996, 64.1093492528584, 67.0284796286306, 50.60474104621722, 65.06710410520627, 53.179915271290206, 44.165908505386064, 73.86810277340103, 60.337630961675636, 56.670881135878446, 45.5625248126578, 59.60361285407913, 64.34495378119298, 41.31503533451776, 59.27790314549027, 68.01466366281547, 55.88656231524706, 47.631324539133125, 67.57385200555976, 52.80175144237354, 67.35812839524527, 53.07128944770606, 47.7254415964025, 62.11174583313895, 47.37675992356442, 40.00689402152012, 70.32072408192242, 58.00713425033898, 54.13573536704777]</t>
@@ -2719,7 +2719,7 @@
     <t>[0.6382392960019676, 0.6400797378159351, 0.6034588344725925, 0.5737351640186317, 0.8133941652855337, 0.8170322449850471, 0.6903139640745433, 0.6988701192867611, 0.3634300768225478, 0.7333433050679186, 0.7435045611960143, 0.6673102248526708, 0.6885757334467953, 0.6578543480809578, 0.7857477277267488, 0.78981220146945, 0.5463175861701504, 0.7509076250935931, 0.6195400154073696, 0.7354804995658504, 0.6936843624096027, 0.7225908463822942, 0.7211702657674424, 0.18600010788541, 0.8437621212891261, 0.6992642529659175, 0.5644772849764788, 0.8148060054690115, 0.7214425189070097, 0.41991060898558663, 0.6378363183433007, 0.7519179185090504, 0.7682886530892605, 0.6035921575639992, 0.8298648992662166, 0.6506281832833023, 0.4119169210820327, 0.7766723355894665, 0.6884888740086388, 0.7442741537938844, 0.735851730171112, 0.5389330092612006, 0.721023920409655, 0.5472568639624427, 0.8490527330864376, 0.8904994383731071, 0.608242927762309, 0.7016942227043196, 0.7173790062837139, 0.30985781523823663]</t>
   </si>
   <si>
-    <t>[0.8345189401498279, 0.6941233641517109, 0.4281837782785406, 0.6202158247066194, 0.7974773875681329, 0.8292341986230182, 0.6635749371330619, 0.7968301831290876, 0.3300032685645442, 0.7736905575932715, 0.7550185942653088, 0.7138669024791444, 0.6160405592555731, 0.6759349824394305, 0.6850101079801595, 0.8175110038117781, 0.49497167251839247, 0.6920250059103774, 0.6006907673882849, 0.7184928711110224, 0.5887867203296349, 0.7304871278043064, 0.6943502781604195, 0.37682591673669286, 0.7289187623522704, 0.6459226996061914, 0.5968004373757956, 0.7587124415832899, 0.6525061197912122, 0.6170539720964662, 0.6744032699383147, 0.738421407747764, 0.6603322016026292, 0.6061315881723219, 0.7068583578328369, 0.6706431835935921, 0.5398032965667217, 0.7558910755015571, 0.7389171037838267, 0.6216578946879829, 0.7194953999165182, 0.6530388610091431, 0.7310217294857191, 0.6853056737037229, 0.6619739015002731, 0.7342965386207172, 0.6359099314804688, 0.6506694672804226, 0.6556441046826348, 0.6849639982950808]</t>
+    <t>[0.8180655541833454, 0.6938476285102474, 0.41371565211601546, 0.6259254138222843, 0.7630136494162114, 0.779498834427325, 0.6626951404114296, 0.7415335863278423, 0.310043726103184, 0.7654302136545768, 0.712176033919103, 0.6990477607414756, 0.63981998833885, 0.6360177455547457, 0.7156324452783323, 0.7710350865216978, 0.4927663094246786, 0.6854937040878306, 0.6362539248139855, 0.7144563492926472, 0.5931909072607027, 0.6968978672668444, 0.6735457413548078, 0.3263515923333139, 0.7364241527946334, 0.6517448014480349, 0.5716507817216152, 0.771688286201114, 0.6231413020180492, 0.5983336188419861, 0.6857398493427078, 0.7433327607630569, 0.6652100473608367, 0.5701078661854233, 0.7170413955559163, 0.6624053408131922, 0.5437685902077432, 0.7314413372672983, 0.7085350097229297, 0.7008372078026286, 0.7237348350992727, 0.6546369350148262, 0.7517903550931712, 0.7173583759476752, 0.6671658858305207, 0.7565794200113474, 0.5938733296757455, 0.6544654985099086, 0.6515888252539606, 0.6615723090117609]</t>
   </si>
   <si>
     <t>[0.9164264591866265, 0.771920098251069, 0.4628647135191478, 0.6529161011754729, 0.8321655985080086, 0.8155958729977237, 0.7334676438319001, 0.7158808032245434, 0.5151447449145254, 0.7870087841423317, 0.8478322245472562, 0.7423921470286563, 0.6199500660985325, 0.7874351997539735, 0.8312913888796265, 0.7911266075432846, 0.6510690951115645, 0.7015497198102978, 0.7024802194343944, 0.6914159649667532, 0.6882111718202926, 0.7518091429222713, 0.6288490026270136, 0.4141755487227782, 0.816198839767607, 0.6532874915340382, 0.7183725000329451, 0.7259129269104019, 0.7564277628638099, 0.6046036345085952, 0.6453300860123963, 0.7579512339241178, 0.7571084910851595, 0.6185945265211594, 0.761132928298174, 0.7650605685566333, 0.5572213222838804, 0.6634786879863158, 0.8063613668779878, 0.808747283184219, 0.599523597196723, 0.7525300688936845, 0.7458495547298993, 0.7274373754916201, 0.7451369143735653, 0.8587403978301276, 0.5477702453902502, 0.7385476606082466, 0.7887129368253504, 0.6910447085762512]</t>
@@ -2731,31 +2731,31 @@
     <t>[0.6312906573570747, 0.7659604984913897, 0.2572139660047139, 0.47736540575516784, 0.8494098547087798, 0.7906495123195104, 0.7602310322426735, 0.7170186449489311, 0.3966598742280779, 0.6470983099186584, 0.7004986351923201, 0.7621720301010141, 0.5687103964919428, 0.7191543343565646, 0.8060941710921264, 0.8068253601374603, 0.7193390339734373, 0.793979907347491, 0.3898653077527947, 0.6815155812841152, 0.7548754513226206, 0.6934405532611585, 0.7291195326518365, 0.16244796122267768, 0.6332601609965391, 0.7645506911558302, 0.6856244483077212, 0.8340753265505043, 0.6160524046429623, 0.7769661221672115, 0.48822608828462954, 0.7698018311746289, 0.4476352495495365, 0.6139514004690196, 0.7640109124806729, 0.6756121917542353, 0.42665191250186785, 0.7770229391090279, 0.705092694116257, 0.7161047076391165, 0.6593157372756103, 0.6605243398094545, 0.44935299673877704, 0.5127926349202957, 0.8447809293456792, 0.7822164690209826, 0.3095906024378976, 0.7052397699520925, 0.7136174027584032, 0.5884275697415285]</t>
   </si>
   <si>
-    <t>[0.7204070956530747, 0.5418209528132347, 0.5054724743598789, 0.5975565424097194, 0.7058349068537102, 0.7369682958890889, 0.5822061711541566, 0.7587896915607273, 0.5959555921097653, 0.7768426526085218, 0.5651894117720042, 0.7779927907887062, 0.4667274841398379, 0.7113908396134123, 0.800367201715763, 0.7268985101389643, 0.5118137916340884, 0.6325652846610624, 0.6874719128351422, 0.682285186317718, 0.6445346732850632, 0.5940126812661277, 0.5423025033139424, 0.3493620575141114, 0.6858357365515572, 0.4512474520035433, 0.49911166347931635, 0.6493515705155313, 0.7085194575033622, 0.7072708331191695, 0.6299883754757092, 0.5914136905959342, 0.7702961186338517, 0.7256293810509257, 0.497153929561963, 0.622656463144079, 0.5253557547699303, 0.7258361783909538, 0.7128766014419026, 0.6608872721504173, 0.6851156962271512, 0.688214955991777, 0.5866121010758008, 0.7567138344681034, 0.673435750232417, 0.7962692087536569, 0.46956694879469074, 0.6865185944705853, 0.6837055893859112, 0.7429101210710687]</t>
+    <t>[0.7204070956530747, 0.5418209528132347, 0.5054724743598789, 0.5975565424097194, 0.7058349068537102, 0.8274204406461145, 0.5822061711541566, 0.7587896915607273, 0.5959555921097653, 0.7768426526085218, 0.5651894117720042, 0.7779927907887062, 0.4667274841398379, 0.7113908396134123, 0.800367201715763, 0.7268985101389643, 0.5118137916340884, 0.6325652846610624, 0.6874719128351422, 0.682285186317718, 0.6445346732850632, 0.5940126812661277, 0.5423025033139424, 0.3493620575141114, 0.6858357365515572, 0.4512474520035433, 0.49911166347931635, 0.6493515705155313, 0.7085194575033622, 0.7072708331191695, 0.6299883754757092, 0.5914136905959342, 0.7702961186338517, 0.7256293810509257, 0.497153929561963, 0.622656463144079, 0.5253557547699303, 0.7258361783909538, 0.7128766014419026, 0.6608872721504173, 0.6851156962271512, 0.688214955991777, 0.5866121010758008, 0.7567138344681034, 0.673435750232417, 0.7962692087536569, 0.46956694879469074, 0.6865185944705853, 0.6837055893859112, 0.7429101210710687]</t>
   </si>
   <si>
     <t>[0.8252455662864333, 0.6878001897187246, 0.317890367811687, 0.5466152087265959, 0.8265671097299718, 0.7446075966458329, 0.5837655970715147, 0.6584332590808694, 0.38361993870063904, 0.7998193372538007, 0.718457153960912, 0.7125207830103493, 0.6444802399481215, 0.7098617416344735, 0.7313288281312345, 0.7297482835440261, 0.6603758622479594, 0.6199555598170113, 0.3614883950312602, 0.6071836094467865, 0.6290878188910488, 0.6439714266866494, 0.6956254636772143, 0.24805138421142459, 0.5942994991882741, 0.594554959375801, 0.607663152531704, 0.7890527524419234, 0.5373162545915674, 0.5906665685507542, 0.5531954847690976, 0.6641426647827587, 0.6596879945575194, 0.7255752112675706, 0.6327047088826258, 0.6752174835389203, 0.23142678590237042, 0.7012143008173537, 0.6815572660821262, 0.6489449743880069, 0.7011613732447709, 0.5799192663542685, 0.830007024525457, 0.6305475410088223, 0.6894855671750622, 0.663751228198834, 0.4585707185521859, 0.6646505742385149, 0.6104230827717374, 0.5266713424753573]</t>
   </si>
   <si>
-    <t>[0.8174399036355329, 0.6652882232353357, 0.3745608460601, 0.6059809541527921, 0.7442597786315102, 0.8146683116649156, 0.6168651552594893, 0.7889939609412622, 0.25363406056817694, 0.7492513364694577, 0.7828382849314648, 0.7501475738204246, 0.5846613362209685, 0.6300284423758651, 0.7517460754064543, 0.7589506558375787, 0.5406327967592865, 0.6453974757203303, 0.6072137393903172, 0.7140953366124396, 0.5933945371560705, 0.68480272595933, 0.703756393903, 0.36430855523021044, 0.6910557740128962, 0.7323895664536536, 0.6068226835533522, 0.7503656701184067, 0.6185923480823261, 0.6761255714152359, 0.6998660023812538, 0.7147047365800103, 0.6006116991725005, 0.5833041471298877, 0.6424964665169257, 0.7108021738230341, 0.5838689153723141, 0.7144486676704772, 0.6586008512786948, 0.6346018582773989, 0.6967347502194559, 0.5675146559281943, 0.7848525855410887, 0.7093602195966919, 0.6795588706903344, 0.7238328527834132, 0.6544601935269181, 0.6326435827455298, 0.627458526098182, 0.6812838712365599]</t>
+    <t>[0.8231501701352465, 0.6899783821455834, 0.38970029288181296, 0.6032184581787597, 0.7523520740601866, 0.8130413190611927, 0.6351651018852518, 0.7985855195712963, 0.3097938265989679, 0.7406149394686845, 0.7466109202880954, 0.719633213187404, 0.5790341631352245, 0.6472886936833624, 0.6796745831455717, 0.7209148932072345, 0.5554873356493635, 0.6528619659192023, 0.6559921424951001, 0.6931564676287807, 0.5951853950498299, 0.6929593987812821, 0.7131772606632418, 0.4606499786397692, 0.7041664332468653, 0.7079342092064003, 0.5936463534388641, 0.7487604828143595, 0.6286992662314566, 0.6784041034599075, 0.6811075241672387, 0.6686050103958711, 0.6149669681253938, 0.5788916392492576, 0.7055517315848181, 0.702145456161005, 0.5519746757159176, 0.7159622466342849, 0.638297504847662, 0.6266827284405914, 0.732051074704239, 0.5533625379521022, 0.7433750058340332, 0.7233600841746801, 0.5893174959454754, 0.689015355497971, 0.6754527607633194, 0.6549183080824581, 0.627361987867721, 0.6505090654683104]</t>
   </si>
   <si>
     <t>[0.8526774812622538, 0.6140967549277483, 0.43453015527668515, 0.6568207497380205, 0.8757217872416113, 0.8822352829614798, 0.7015904118629341, 0.6827489483829015, 0.37523850438339723, 0.6768494196567728, 0.7034359947882016, 0.7802025126022001, 0.5402804383986061, 0.7406562149841658, 0.7869907016453742, 0.707280040717555, 0.7072207132511397, 0.6873697535022101, 0.6366334473375141, 0.6817638544870483, 0.5961432252393625, 0.8283502582061588, 0.7973299501813738, 0.3538647350392722, 0.8257809917498241, 0.6403562642596408, 0.7042613304970035, 0.7041820651854961, 0.7240140394611011, 0.7389523252878303, 0.755483603297674, 0.7010841120958118, 0.6903183101849663, 0.6019992662920752, 0.7407503998069412, 0.7395438558777643, 0.6174209779647581, 0.7759563919878942, 0.632565219950715, 0.7138367905645251, 0.7663283397969965, 0.37277487634672435, 0.7313911903681773, 0.7603258682523958, 0.7622684450548441, 0.6605917989649572, 0.6106836984002935, 0.7078079486070932, 0.7592558547530676, 0.5085979347068136]</t>
   </si>
   <si>
-    <t>[0.6969305937082058, 0.5458952603550065, 0.19009710333587604, 0.3313326771456683, 0.661754772353472, 0.7156865875312655, 0.29506220589181775, 0.5417970295701464, 0.029437316340277686, 0.4190599121904277, 0.5808547145679552, 0.4700725122542868, 0.3706535086998177, 0.2589306291815888, 0.5233563821007012, 0.6433939251493767, 0.36835051161848764, 0.3790657973338495, 0.2954240884698581, 0.5970997127262225, 0.3577731125654581, 0.29286320089096063, 0.6213801008103126, 0.08792668831834016, 0.4715541176200677, 0.31529055411492646, 0.1256097172176317, 0.5171401684296995, 0.7119460100551087, 0.27811819499995316, 0.5450182807828001, 0.7405111263882314, 0.3633490572556406, 0.341220465092545, 0.504662312291277, 0.3896356802628448, 0.2440824936154633, 0.46770732977396223, 0.4553453274926741, 0.4651173288031959, 0.6000001398082266, 0.3389415918131484, 0.6591486171093526, 0.44665783917358726, 0.5181635279222765, 0.5641625213491461, 0.20881688228267326, 0.4944262345099859, 0.5407972493479403, 0.2725242171204687]</t>
+    <t>[0.6969305937082058, 0.5458952603550065, 0.19009710333587604, 0.3313326771456683, 0.661754772353472, 0.7156865875312655, 0.29506220589181775, 0.5417970295701464, 0.029437316340277686, 0.4190599121904277, 0.5808547145679552, 0.4700725122542868, 0.3706535086998177, 0.25893062918158416, 0.5233563821007012, 0.6433939251493767, 0.36835051161848764, 0.3790657973338495, 0.2954240884698581, 0.5970997127262225, 0.3577731125654581, 0.29286320089096063, 0.6213801008103126, 0.08792668831834016, 0.4715541176200677, 0.31529055411492646, 0.1256097172176317, 0.5171401684296995, 0.7119460100551087, 0.27811819499995316, 0.5450182807828001, 0.7405111263882314, 0.3633490572556406, 0.341220465092545, 0.504662312291277, 0.3896356802628448, 0.2440824936154633, 0.4677073297739627, 0.4553453274926741, 0.4651173288031959, 0.6000001398082266, 0.3389415918131484, 0.6591486171093526, 0.44665783917358726, 0.5181635279222765, 0.5641625213491461, 0.2088168822826757, 0.4944262345099859, 0.5407972493479403, 0.2725242171204687]</t>
   </si>
   <si>
     <t>[0.8490140513548654, 0.7095713544594919, 0.2952502571311252, 0.4015220502195086, 0.7139754362248683, 0.789871409341747, 0.5674267086772257, 0.6151869224630195, 0.0768341533272553, 0.6660649651771344, 0.7635140561107968, 0.731528438893986, 0.5664272754811263, 0.6372509315282877, 0.7839867559136938, 0.7768495770516093, 0.25100295832333497, 0.5887533723466993, 0.4694594627087373, 0.6782528569716187, 0.7889529265188124, 0.5534307873832767, 0.7212836953424586, 0.4311811055801408, 0.8131260971110205, 0.4470150341520769, 0.5755410282735534, 0.8355321206944164, 0.6241711825607158, 0.6175840982153245, 0.508209169731271, 0.7621811847371991, 0.5790522970344311, 0.4609516785393455, 0.6701283673918355, 0.4983621164984986, 0.5615670790422509, 0.7893779873461514, 0.6665250128842453, 0.724781819875161, 0.611830419564344, 0.4446209942350804, 0.6370864390849668, 0.7202292366953721, 0.7348400005097137, 0.8322837777095325, 0.5714182636904476, 0.7048983282132212, 0.7304054995098238, 0.5413537925138101]</t>
   </si>
   <si>
-    <t>[0.73194236144861, 0.5745890429331888, 0.3169300936423226, 0.4338765050114478, 0.8115600937339192, 0.7565074762598737, 0.4775285751682937, 0.7898520746087916, 0.13771142720296548, 0.7575328057457231, 0.6645726331663552, 0.6627351204833565, 0.5225013446341586, 0.5349435576803406, 0.6918165829881282, 0.7686479472861841, 0.4175089731505218, 0.7444641489686127, 0.5197387602162568, 0.8167049546357132, 0.6181389831803517, 0.6597679311567539, 0.643860170148444, 0.01802343950502794, 0.657588279845631, 0.3403020079449317, 0.44123090125282804, 0.6696534977946054, 0.5933220269474762, 0.5813099054825216, 0.3971478076794084, 0.37397712837976815, 0.6182497790425977, 0.7215065631084386, 0.46394431271629166, 0.48553809245576285, 0.5367759814667281, 0.6447201324514424, 0.4915887898342567, 0.5406794160221662, 0.6554833615178088, 0.610866692167082, 0.7662612615052362, 0.8289763013705185, 0.5295937324010516, 0.6924046987558775, 0.30793438210272106, 0.6925473629928238, 0.662055573768444, 0.7979393634372829]</t>
+    <t>[0.73194236144861, 0.5745890429331888, 0.3169300936423226, 0.4338765050114478, 0.8115600937339192, 0.7565074762598737, 0.4775285751682937, 0.7898520746087916, 0.13771142720296548, 0.7575328057457231, 0.6645726331663552, 0.6627351204833565, 0.5225013446341586, 0.5349435576803406, 0.6918165829881282, 0.7686479472861841, 0.4175089731505218, 0.7444641489686127, 0.5197387602162568, 0.8167049546357132, 0.6181389831803517, 0.6597679311567539, 0.643860170148444, 0.01802343950502794, 0.657588279845631, 0.3403020079449317, 0.44123090125282804, 0.7261327328723104, 0.5933220269474762, 0.5813099054825216, 0.3971478076794084, 0.37397712837976815, 0.6182497790425977, 0.7215065631084386, 0.46394431271629166, 0.48553809245576285, 0.5367759814667281, 0.6447201324514424, 0.4915887898342567, 0.5406794160221662, 0.6554833615178088, 0.610866692167082, 0.7662612615052362, 0.8289763013705185, 0.5295937324010516, 0.6924046987558775, 0.30793438210272106, 0.6925473629928238, 0.662055573768444, 0.7979393634372829]</t>
   </si>
   <si>
     <t>[0.8168371215241903, 0.707463280603303, 0.3636802726119116, 0.3904227539820331, 0.7563589775888029, 0.8371290691083557, 0.6529897739982027, 0.7330583369542345, 0.11092875179735284, 0.6296346981152672, 0.7439325021462657, 0.7077829120600019, 0.5570304365212319, 0.7046824586209038, 0.8536845057458488, 0.76198712370904, 0.7259583860649466, 0.7374619099487697, 0.4310518415129082, 0.7124444680951991, 0.6420874196736392, 0.5783052453629005, 0.6836693917107637, 0.5717851966198746, 0.7979181627719691, 0.7162131247373871, 0.46872321768633685, 0.7685578517258577, 0.6767294190446096, 0.6833328609417434, 0.5324544057739952, 0.761488795611398, 0.551884931095757, 0.7118723746127882, 0.5956407809781163, 0.6163329215756665, 0.5059361871242496, 0.7619102975774492, 0.6112114817553307, 0.653546276304948, 0.7358566773361956, 0.5535822784872573, 0.6784229126226229, 0.6664797012528305, 0.7009094452158098, 0.8365687950792609, 0.6678832031802285, 0.6913612144833121, 0.6379414305384842, 0.3108697483999443]</t>
   </si>
   <si>
-    <t>[0.8317283888463327, 0.7139165712140916, 0.5699072167828734, 0.5641843849629476, 0.8385966736254593, 0.8588607651716939, 0.5616897657631615, 0.7763413735794884, 0.25093521282773545, 0.7785801578326026, 0.7111119060109403, 0.7885909206671957, 0.6430738720893756, 0.7452929974723475, 0.8085310402749059, 0.7370598720718254, 0.5316290869091775, 0.8091439451821305, 0.628363723927226, 0.6900447841436661, 0.7132625055530043, 0.8184962890030699, 0.716251460974936, 0.49886911598386197, 0.7518479259664227, 0.678167314035282, 0.6229169727233124, 0.8503737162736309, 0.7013029301852871, 0.5926900871119214, 0.7575928043507208, 0.7186529984875901, 0.5604621062035777, 0.5941970809992823, 0.7743561757777646, 0.719693025262816, 0.6213108709975244, 0.782197583475613, 0.7096250728588213, 0.7396503927052983, 0.747779425581502, 0.6410940423585267, 0.7755061193399306, 0.735385013448054, 0.7349500019294752, 0.7379557449348959, 0.6972236336855246, 0.6943571711467528, 0.6176584080930575, 0.6674660632907052]</t>
+    <t>[0.8273585660193904, 0.7260408300129586, 0.565693844992749, 0.6084159335638212, 0.8428256196949636, 0.8555161714813617, 0.5839947565030432, 0.8020807745482686, 0.24583530437009082, 0.780609487184325, 0.7257642034211782, 0.7923053084045805, 0.6078757894921875, 0.7262992799821, 0.8153030679872312, 0.7460924291141263, 0.5176261204225606, 0.8198832435854846, 0.5957984511959833, 0.672539828535906, 0.6898162506195935, 0.7751666980995233, 0.7289203929226051, 0.49100518912617475, 0.7395122968879129, 0.630272559683221, 0.646446048445437, 0.8332269314501555, 0.6927857024731405, 0.5820062799701138, 0.7638647595841, 0.7095616945372056, 0.5991974156369417, 0.5771915919664847, 0.7895131158759415, 0.6908785351941588, 0.5905802845009402, 0.7439494593824003, 0.6861716136306588, 0.7256775916905098, 0.7516777189579495, 0.6079879753018436, 0.7807053559414168, 0.708604211740276, 0.7151081133286119, 0.7443748923349761, 0.6441471103712719, 0.7060330697843779, 0.6334435630224853, 0.6658572204647838]</t>
   </si>
   <si>
     <t>[0.8136195495501848, 0.824136099271427, 0.5897448812217552, 0.6949278867562987, 0.8211715262089911, 0.875080602860192, 0.5047260927481886, 0.7505522322573803, 0.3527842276938271, 0.8488439822293998, 0.5589991391674787, 0.7685686064876227, 0.6053115852609859, 0.7533977775746372, 0.8263838864930348, 0.8050427707199705, 0.4388908881122474, 0.8072622444952601, 0.6858161493993802, 0.690427227652062, 0.7412442500502887, 0.8433759790867938, 0.6584197129541737, 0.49408676545996766, 0.7502560178918954, 0.6571399232767914, 0.7617862054590321, 0.8379465892587192, 0.6556648804463656, 0.7324784209616877, 0.7109590333585711, 0.6007435486017076, 0.4809179112042039, 0.6226798312413007, 0.8169759057595776, 0.6674986036544832, 0.589117447819516, 0.7312051702083042, 0.723908752077902, 0.7395740216296536, 0.7643133797475686, 0.7502388830447364, 0.7149523807159932, 0.8088510987615233, 0.8122344151080969, 0.7750221190075552, 0.623825137680805, 0.7626729618388124, 0.7283674193362106, 0.5691537791336944]</t>
@@ -2767,13 +2767,13 @@
     <t>[0.8648469673400772, 0.7368213445447274, 0.10036107593675392, 0.4522468660088722, 0.8393973220909459, 0.8342708648466498, 0.7653213428335688, 0.7697765098808893, 0.23363469732023956, 0.6463692255873406, 0.744018912028568, 0.7551452260855447, 0.44143312665256484, 0.7158834617645498, 0.7057455529704597, 0.8672338956743433, 0.6982772539453906, 0.5300721005827082, 0.4484608060117258, 0.726925800178749, 0.5199739014129738, 0.34697199964825653, 0.7009605822045616, 0.504835466625445, 0.7046624934882864, 0.6887677261699106, 0.7104597862737972, 0.8248726933974609, 0.6447242028043179, 0.6135519082565681, 0.5444470003693955, 0.8067020065506724, 0.5292697328410597, 0.4792344506274733, 0.7319274356849409, 0.6031935928355401, 0.22333319403870444, 0.7651626152698451, 0.6910758297489377, 0.4389502991789641, 0.6495920970666582, 0.7340498834693366, 0.7446715938895965, 0.4684856626411964, 0.4338527503437466, 0.7189885894337666, 0.7043090545927508, 0.70688465086691, 0.7283721425971637, 0.5684459003218723]</t>
   </si>
   <si>
-    <t>[0.7887012790978535, 0.5762122881380576, 0.4224531003579657, 0.5794441311634573, 0.7889928976773382, 0.7865969935639009, 0.3620790617329074, 0.7454492160208879, 0.3922036406400595, 0.6307101279655356, 0.721751405576341, 0.6521312593522033, 0.4545619572756956, 0.6900120254406434, 0.8589913626796802, 0.7848231190312399, 0.04657389496773001, 0.545406923505853, 0.5659748219784667, 0.810590430145153, 0.7298246056217766, 0.6890086309199284, 0.5853892051645189, 0.08075268365034982, 0.6917064366547864, 0.3539771709365904, 0.5841127262958147, 0.6463721023505302, 0.6583757954176788, 0.5381846874277623, 0.4550550827811285, 0.5802423831559853, 0.5072868463756237, 0.6869033189483451, 0.6166828543239065, 0.5704585229392147, 0.5886377061666364, 0.7771557522909724, 0.6933392068825641, 0.6629331521706898, 0.695397291956328, 0.371430367414199, 0.7388213118547724, 0.7988811413600883, 0.472639709509054, 0.7128231102944392, 0.6519058709196348, 0.6441112907947982, 0.6695618304690096, 0.7457760379926273]</t>
+    <t>[0.7887012790978535, 0.5762122881380576, 0.37039346003150553, 0.5794441311634573, 0.7889928976773382, 0.7865969935639009, 0.3620790617329074, 0.7454492160208879, 0.3922036406400595, 0.6307101279655356, 0.721751405576341, 0.6521312593522033, 0.45727220549466274, 0.6900120254406434, 0.8589913626796802, 0.7848231190312399, 0.04657389496773001, 0.545406923505853, 0.5659748219784667, 0.810590430145153, 0.7298246056217766, 0.6890086309199284, 0.5853892051645189, 0.08075268365034982, 0.6917064366547864, 0.3539771709365904, 0.5841127262958147, 0.6792172963095646, 0.6583757954176788, 0.5381846874277623, 0.4550550827811285, 0.5802423831559853, 0.5072868463756237, 0.6869033189483451, 0.6166828543239065, 0.5704585229392147, 0.5886377061666364, 0.7771557522909724, 0.6933392068825641, 0.6629331521706898, 0.695397291956328, 0.371430367414199, 0.7388213118547724, 0.7988811413600883, 0.472639709509054, 0.7128231102944392, 0.6519058709196348, 0.6441112907947982, 0.6695618304690096, 0.7457760379926273]</t>
   </si>
   <si>
     <t>[0.8039483953555971, 0.7104752680959711, -0.05181196050980774, 0.5284356154195451, 0.819437385498031, 0.7812548744028066, 0.605450781059623, 0.6971488607623124, 0.2707190813562327, 0.705621595197448, 0.6991866387510863, 0.6837510060960157, 0.41129451606805256, 0.7510607395985454, 0.8288925749838965, 0.8047369939151644, 0.5427703962620973, 0.6242572563658362, 0.6133945984758582, 0.7383252560457387, 0.5988272144278646, 0.6832747773026858, 0.6296218234093536, 0.4835114368271971, 0.7441914076675229, 0.6678872742701027, 0.4197450784488015, 0.7848272007580025, 0.6681182257384252, 0.4772910952960169, 0.662111091994413, 0.7946221977980181, 0.6314390930871416, 0.6432713972444285, 0.5506596811471738, 0.6204211508407058, 0.35937108533882023, 0.6768886515508388, 0.7113992683935748, 0.5851393272960655, 0.706421107374658, 0.5285559781882478, 0.8406419263090932, 0.38113801265576563, 0.6578143193747137, 0.7293009480699029, 0.7048293001698465, 0.633488882698857, 0.698995320304796, 0.5983816943877138]</t>
   </si>
   <si>
-    <t>[0.8247527834689286, 0.7001379391231151, 0.3197299526264117, 0.5449430948504139, 0.7953029948577591, 0.8250853465449041, 0.5952806333925522, 0.8041718185269803, 0.18724011324735013, 0.6863505126915759, 0.781369957660079, 0.6749448335444801, 0.5517792060449148, 0.6919561254475909, 0.7362429397355695, 0.8022752730832536, 0.493815441609637, 0.6308091930342457, 0.576616048949972, 0.7420009291002521, 0.6102439156931494, 0.6528681010335028, 0.686942462525334, 0.4562976347515987, 0.7201455227645077, 0.6481971693445949, 0.5931701177794755, 0.7852861084482662, 0.6484154126932729, 0.6564693363721701, 0.7062159488256704, 0.7881829449478127, 0.5752429684715721, 0.5688362325020431, 0.6864847884983234, 0.6732885232009787, 0.563840670640995, 0.7218570040433164, 0.7154421677839511, 0.623778827349561, 0.7271590033581696, 0.5527050413347347, 0.7640733718799844, 0.7132493436894329, 0.662610037762118, 0.728347848492665, 0.7331353324804684, 0.6372855628203307, 0.6543397979508465, 0.6538866347632712]</t>
+    <t>[0.8268704001024301, 0.691471995398869, 0.3603280172275094, 0.5436358162285193, 0.7908334170084681, 0.8157186113035828, 0.6252622345460996, 0.780708497850567, 0.24145656126811654, 0.6768711282044975, 0.7523764111861195, 0.7010952178482179, 0.5684165289517766, 0.6662727410400882, 0.7466037845511984, 0.8047460336137485, 0.4550207045596092, 0.6422095452403609, 0.5693162426456733, 0.709126858034369, 0.6023686381330137, 0.6439579452160935, 0.6824818973588744, 0.5047603020700828, 0.6932540771726807, 0.6435713434068755, 0.5739569659075368, 0.7674877027520413, 0.616238495650155, 0.6550643619348525, 0.7094760370352292, 0.7417276288799548, 0.6161073109050486, 0.5776898682818012, 0.7142684672843291, 0.6686082254897057, 0.5826730822238269, 0.6954625211497297, 0.7025851720824821, 0.5927426480341551, 0.7103451470906448, 0.5757676728495029, 0.7680429439938099, 0.6759793895346597, 0.6384222418058727, 0.7124962425072565, 0.726306260779593, 0.6865642074477694, 0.6437143229304361, 0.6360079626550932]</t>
   </si>
   <si>
     <t>[0.8358738456735072, 0.7084614742768841, 0.2797830998918487, 0.5418777258217389, 0.821193022819913, 0.881510413064281, 0.475200297549488, 0.7791247711010354, 0.258983817047445, 0.717312461479198, 0.7272704521810995, 0.7083596416670737, 0.5859698797659971, 0.7602146212041522, 0.775299378742014, 0.8553246173989189, 0.46954728240897026, 0.5894065184313333, 0.6649980653825438, 0.793870812364267, 0.661109204848848, 0.6932766607129225, 0.6880481648714183, 0.35075332798628245, 0.7238311059369527, 0.5388163099607731, 0.7029506795765936, 0.6580210712404639, 0.6913963804750592, 0.7146884573181356, 0.5600399989594294, 0.7738277559909237, 0.6312088199903613, 0.5662867140358243, 0.7681343767807046, 0.6159523096997085, 0.7013620997965104, 0.6469414432177348, 0.8067669597346954, 0.6454228555556178, 0.6375606170056254, 0.6139730899644333, 0.7926470413530867, 0.788916968986408, 0.7069501051922292, 0.7272707648054688, 0.4701866523252278, 0.6456781761663599, 0.782129544102432, 0.5884192109803013]</t>
@@ -2785,13 +2785,13 @@
     <t>[0.6133599627687635, 0.629615515908417, 0.6107554034754693, 0.6207129747772488, 0.7699868117802782, 0.7246036632919919, 0.8201527144325226, 0.6882108342613007, 0.4251329844139884, 0.7859505036000894, 0.7150405454185269, 0.7622273030347372, 0.6642661514734693, 0.6612819075972556, 0.8008958683347577, 0.8365920602061148, 0.6452425645567526, 0.5143307837725015, 0.7084003451669119, 0.74327226942531, 0.6636764492293497, 0.6054249744615874, 0.7771305509370245, 0.3106804194729377, 0.7995877681087105, 0.6657093176128938, 0.5422022687141843, 0.7607959473771687, 0.6479002427685162, 0.4816156163345683, 0.6142551047388818, 0.7413711945568273, 0.7640611508662092, 0.6064349619081743, 0.7861468437290726, 0.6957192074319511, 0.3507889219853839, 0.7739697661809605, 0.677454299142719, 0.8003378825448839, 0.8119899584484218, 0.5929357729574996, 0.7905857312208908, 0.570423144052453, 0.7612945649397191, 0.8183301820613544, 0.6131389510291552, 0.6755916388607143, 0.671332650756711, 0.2474503872687298]</t>
   </si>
   <si>
-    <t>[0.7113805577947672, 0.5979226977117726, 0.5641510248357123, 0.7286952911146045, 0.7343242687119065, 0.842717391306099, 0.6061601957971257, 0.642336906516122, 0.5012675218501139, 0.2451680599493874, 0.6080501656032484, 0.5621734523528201, 0.6646703760673827, 0.6848801748143885, 0.7170745294800758, 0.7785955739205229, 0.5999356293350466, 0.6118858535789474, 0.5830485744905327, 0.6871358252425055, 0.702311209161849, 0.5899997588662529, 0.5713139355393912, 0.2917541967425572, 0.7714510504043239, 0.31977786093095983, 0.49453791993677587, 0.793012462436022, 0.7639192582111193, 0.5467645010601285, 0.7148570344628178, 0.5673612016540887, 0.6903231455046513, 0.7075011231821662, 0.6556035940924122, 0.6109129548532484, 0.6180946881093352, 0.6702265683875217, 0.6946002981772225, 0.5804046607697155, 0.6795050768730848, 0.4665432996946649, 0.5748253199866588, 0.48922492432078013, 0.7294731390475833, 0.7713905270136514, 0.37500435795626097, 0.6278806569739938, 0.7196757453871214, 0.558854476492969]</t>
+    <t>[0.7113805577947672, 0.5979226977117726, 0.5641510248357123, 0.7286952911146045, 0.7343242687119065, 0.842717391306099, 0.6061601957971257, 0.642336906516122, 0.5012675218501139, 0.6243739068213342, 0.6080501656032484, 0.5621734523528201, 0.6646703760673827, 0.6848801748143885, 0.7170745294800758, 0.7785955739205229, 0.5999356293350466, 0.6118858535789474, 0.5830485744905327, 0.6871358252425055, 0.702311209161849, 0.5899997588662529, 0.5713139355393912, 0.2917541967425572, 0.7714510504043239, 0.31977786093095983, 0.49453791993677587, 0.793012462436022, 0.7639192582111193, 0.5467645010601285, 0.7148570344628178, 0.5673612016540887, 0.6903231455046513, 0.7075011231821662, 0.6556035940924122, 0.6109129548532484, 0.6180946881093352, 0.6702265683875217, 0.6946002981772225, 0.5804046607697155, 0.6795050768730848, 0.4665432996946649, 0.5748253199866588, 0.48922492432078013, 0.7294731390475833, 0.7713905270136514, 0.37500435795626097, 0.6278806569739938, 0.7196757453871214, 0.558854476492969]</t>
   </si>
   <si>
     <t>[0.7805233748016961, 0.666165308157399, 0.5830867091814684, 0.574523218010832, 0.8008020460530095, 0.805983486749909, 0.8095423092889265, 0.6689665258441089, 0.4300447059041811, 0.6600189836942492, 0.7392703758468182, 0.8231182016405253, 0.7526474796246474, 0.6627990802914898, 0.7820544436649025, 0.8668384839528912, 0.6529365704418486, 0.7220126894515366, 0.6113622111291825, 0.7304204434985104, 0.7091600961967024, 0.7204522818606275, 0.7563685124930419, 0.3540833630857436, 0.8946287994148946, 0.6698134265008309, 0.5480983644054032, 0.7661337501618484, 0.8192244653458481, 0.6232148933636388, 0.6700865444344706, 0.8093603751170342, 0.7772122058019801, 0.6537973018489549, 0.7789039080240288, 0.7112727231304287, 0.3834974421917432, 0.776995934700283, 0.671445008364036, 0.8062717831378106, 0.819304749212586, 0.5866068823132986, 0.7866506104029695, 0.676189710100204, 0.8566144032693512, 0.8437853512246263, 0.71341691021628, 0.6750932209378198, 0.7175903304903606, 0.36074432059168293]</t>
   </si>
   <si>
-    <t>[0.7972359553911927, 0.6884884457980726, 0.46168650029810465, 0.6440686427107731, 0.7647400721411907, 0.8172201328453941, 0.7038210886496354, 0.7727020490189387, 0.32087586220898145, 0.6920904554896152, 0.7594221322935935, 0.7521683956923682, 0.5633397775047004, 0.6814394536487773, 0.7797342842679168, 0.7873403989350245, 0.5323563516519844, 0.7309289527738104, 0.6539702877857101, 0.7351354266458583, 0.6970543963856006, 0.7150484890817568, 0.6059667109190601, 0.45123698283576563, 0.738807209536241, 0.6074924259529868, 0.5790481513969267, 0.7825680766658349, 0.6748337043308321, 0.5920587128521249, 0.73327649970287, 0.7693847531058735, 0.6505389784919233, 0.5970030518690145, 0.7143519743800482, 0.6777587118299522, 0.6146552804326599, 0.7409430811248411, 0.6968570329420113, 0.6005408091335905, 0.7258239642827187, 0.6455366725701713, 0.6550003035158385, 0.7009382204857435, 0.6790979702398902, 0.7369020536183208, 0.6611490512525365, 0.6149352342196697, 0.6586608458976552, 0.7392415023973963]</t>
+    <t>[0.810436807251466, 0.6937766046678664, 0.45167192615332796, 0.6262795222563742, 0.7993683478186586, 0.8069471841920368, 0.6820148005051896, 0.6830766159177177, 0.2890224524760543, 0.6967536780219303, 0.7195580189429958, 0.7239764215401068, 0.5830093278810855, 0.6758935706120979, 0.7801266961405073, 0.7737729264927034, 0.5228274160482536, 0.7067761415260383, 0.6118004454238883, 0.7580969219918984, 0.6514669928774255, 0.7174379605437742, 0.6205228892868412, 0.4108903686481997, 0.7194032937512078, 0.5855338947549479, 0.5830753650061425, 0.7660405451123184, 0.6721642846933851, 0.6536603053462531, 0.713320759086578, 0.7066679096417791, 0.653945521424267, 0.6111049560648817, 0.6841626263252296, 0.6811505110062881, 0.6222376590700991, 0.7104463219979356, 0.7028433215466017, 0.6118704998401713, 0.73127770203128, 0.6320294665733539, 0.6312591416621838, 0.6413942284672922, 0.6828350961028538, 0.7253594664838149, 0.6561120978362858, 0.5897806364059315, 0.6687084328389832, 0.783100685332065]</t>
   </si>
   <si>
     <t>[0.9354508848759586, 0.7773715916223304, 0.6696173134028207, 0.661917469941555, 0.7959296146744111, 0.8362954766798766, 0.7420092856440765, 0.7498752615738205, 0.5748285178268673, 0.8032176748553034, 0.8097279585711189, 0.762300970003307, 0.5620159234173, 0.7501082427968618, 0.8752528706464148, 0.8566084821487175, 0.679218213271118, 0.7067480536682309, 0.7954222825879043, 0.7998466713415241, 0.7972412086233851, 0.7275385976177511, 0.7224049951036913, 0.4506635670637281, 0.7446163924887261, 0.4251884649880313, 0.7831089113985981, 0.7582448027540895, 0.7301046328726873, 0.5498337937233467, 0.6819741164617124, 0.7674092351614863, 0.752667220092661, 0.7533383746497244, 0.7613510838137171, 0.6355964331395916, 0.6977160649037126, 0.7800374116267803, 0.6866541330245801, 0.7395808169898589, 0.6394957047992169, 0.760334303152673, 0.6047463745971573, 0.8238832926887678, 0.7536759093875368, 0.8472096087177261, 0.6413356697158625, 0.6465810496941865, 0.7462850479862786, 0.7358602645714964]</t>
@@ -2809,13 +2809,13 @@
     <t>[0.8326947791521957, 0.6742787490098792, 0.34298076858505766, 0.5552555828552312, 0.8268167920232157, 0.7894216048859477, 0.6604590526297688, 0.7648985198079858, 0.3131394407938972, 0.6470367606822756, 0.7028027025931175, 0.642994197251685, 0.5718532607156299, 0.7360611878601948, 0.834949690345378, 0.6408249034555094, 0.512907823554055, 0.6833016776890979, 0.4436919793476177, 0.5988735515573964, 0.6314852041404984, 0.6622760503424654, 0.6452142377686612, 0.3445970050577152, 0.7240350702499083, 0.6562324480889514, 0.5619243381127527, 0.7916011092307237, 0.5503979807146961, 0.6207119698155856, 0.6684254818489421, 0.7791386638486948, 0.6572510253854962, 0.608197906187085, 0.6906771947508642, 0.6652480663608267, 0.24860586783010308, 0.6974785212871167, 0.6923643451745793, 0.6362610100618985, 0.7088525381380936, 0.6112272945080419, 0.810366499042386, 0.6739123965999625, 0.6907406720801521, 0.7455291938569182, 0.5107794878796055, 0.6955006995266857, 0.6171793318698163, 0.4844420928212433]</t>
   </si>
   <si>
-    <t>[0.8244231422373202, 0.6834036889389378, 0.3493064519861663, 0.584539135084899, 0.7530172067384544, 0.813448693177927, 0.6445006341572418, 0.7650344050827643, 0.30342101059417714, 0.7450099552379343, 0.7371876174074421, 0.7319251789525827, 0.5603405781464884, 0.5629613620054847, 0.7656744805198901, 0.7510161236647732, 0.5471840628730809, 0.7106322486110703, 0.5562801024352381, 0.6554288221424673, 0.6226511117857545, 0.6866226485160549, 0.6856053870621825, 0.5355382304329681, 0.7032401155919652, 0.6245700580990992, 0.5764161166101494, 0.7728332066427094, 0.625701503165232, 0.6412264255912606, 0.7147925026172848, 0.7165678963759385, 0.6112374844394981, 0.5985602314668037, 0.6930867608552251, 0.7092129792973173, 0.5685459891181317, 0.731153616337467, 0.6580573121638349, 0.6309778663790163, 0.7296670713328459, 0.5398560781415764, 0.7810578881722431, 0.6569954422675599, 0.6615558884131836, 0.7262401110590994, 0.7128913243389006, 0.5998965758187819, 0.6598463724794782, 0.6660600333435895]</t>
+    <t>[0.8068944360362076, 0.6811308029998111, 0.36931042603731146, 0.6029473775285437, 0.7711175311527595, 0.8105831627186915, 0.6730709547103614, 0.7650274200598173, 0.27398103471641855, 0.7524056294731213, 0.7760047944807407, 0.7281903202951898, 0.612592229786713, 0.6416744121575952, 0.7580260692026762, 0.7419668104007116, 0.5082339759445371, 0.7025021000860989, 0.6108755669857787, 0.7138646388269776, 0.6481048526561883, 0.7080787445078569, 0.6641328421884378, 0.5557384943561074, 0.7252755329970488, 0.6863703489503684, 0.6001913728294048, 0.7879125551671209, 0.6236057710595377, 0.6672171630757455, 0.7203059823449591, 0.7158664363814635, 0.6239087428432148, 0.6260075432178356, 0.6815004772411046, 0.7110021789882968, 0.596113755687245, 0.7208038514692303, 0.6202807590890833, 0.6293174608748167, 0.7388853785475182, 0.5904178338282087, 0.7381979829993669, 0.6983332213443746, 0.6887437571565187, 0.7273979730624671, 0.7110048937098872, 0.6230757731055756, 0.6595357749042006, 0.6804258713564245]</t>
   </si>
   <si>
     <t>[0.8888271330035978, 0.6140320364569916, 0.5013961752196987, 0.4595926461210973, 0.754003887830602, 0.8353237561732526, 0.604188549594826, 0.72006513680089, 0.5207751273445742, 0.7900482492665999, 0.6916786919267445, 0.8085274480062343, 0.6171768288075297, 0.7593678498391649, 0.7780950220761684, 0.8211985393755092, 0.6402560711039269, 0.7176715374094714, 0.6006717442919072, 0.7558574314040746, 0.6298593354856389, 0.6887575806436905, 0.7513246414536612, 0.480298201132472, 0.807622123243828, 0.4545690559788169, 0.7260391627148832, 0.7609266754355587, 0.7800975956074065, 0.7475936144756328, 0.75116243165436, 0.7670924268231296, 0.6829079728168874, 0.6806683804688142, 0.7432499474890649, 0.6012184212898573, 0.6450596844345213, 0.6436792435818257, 0.6434884105756055, 0.689375711145738, 0.7116583423283862, 0.4188239998637485, 0.6737228217477604, 0.7427214953431227, 0.8263068302739933, 0.7791474020403153, 0.6290021055892931, 0.6804291147266976, 0.7426179758629746, 0.4798450302600541]</t>
   </si>
   <si>
-    <t>[0.845910417117213, 0.7149965926933335, 0.4233962605622571, 0.3457072020409664, 0.5967239565401988, 0.7908807073282755, 0.5360507822862173, 0.5920376412018777, 0.1754568673985748, 0.5599767340425179, 0.6983626978943767, 0.5596104524179806, 0.3814968427804417, 0.2544019621980156, 0.6569822460627168, 0.7414845720538696, 0.3490602234138077, 0.6121016499675502, 0.3379203279057288, 0.5832915590465646, 0.43138475522387276, 0.3739216233916618, 0.5643687991018674, 0.38586829993810623, 0.3690507060218461, 0.5938721478193197, 0.3689688212758312, 0.6144062409163515, 0.6208655485616303, 0.4978834928670659, 0.5956174496154605, 0.6492617562903746, 0.41220087795829163, 0.485022326384852, 0.6036547391097606, 0.40634481905885855, 0.23653978576396295, 0.6062188007145407, 0.6272573010279499, 0.6269432538308843, 0.6669242551607986, 0.2945641122562911, 0.6411017991272392, 0.6546449799650058, 0.5817193346372391, 0.6957600977184071, 0.19071927895490004, 0.5694350441403678, 0.5775244794342782, 0.47626266430885933]</t>
+    <t>[0.845910417117213, 0.7149965926933335, 0.4233962605622571, 0.3457072020409664, 0.5967239565401988, 0.7908807073282755, 0.5360507822862173, 0.5920376412018777, 0.1754568673985748, 0.5599767340425179, 0.6983626978943767, 0.5596104524179806, 0.3814968427804417, 0.2544019621980058, 0.6569822460627168, 0.7414845720538696, 0.3490602234138077, 0.6121016499675502, 0.3379203279057288, 0.5832915590465646, 0.43138475522387276, 0.3739216233916618, 0.5643687991018674, 0.38586829993810623, 0.3690507060218461, 0.5938721478193197, 0.3689688212758312, 0.6144062409163515, 0.6208655485616303, 0.4978834928670659, 0.5956174496154605, 0.6492617562903746, 0.41220087795829163, 0.485022326384852, 0.6036547391097606, 0.40634481905885855, 0.23653978576396295, 0.6062188007145407, 0.6272573010279499, 0.6269432538308874, 0.6669242551607986, 0.2945641122562911, 0.6411017991272392, 0.6546449799650058, 0.5817193346372391, 0.6957600977184071, 0.19071927895490004, 0.5694350441403678, 0.5775244794342782, 0.47626266430885933]</t>
   </si>
   <si>
     <t>[0.8641992251095063, 0.7372709063689578, 0.2810043395850482, 0.38203520170485294, 0.7749380953369599, 0.840727517008125, 0.7657490545689932, 0.7504972281095735, 0.15578644955059073, 0.6978587768413329, 0.7307716190624911, 0.664036599943045, 0.5676072197739008, 0.6982153159548247, 0.8151002634991187, 0.8460901974479429, 0.7135373819337882, 0.6100195567039928, 0.5332300666972003, 0.739339202691401, 0.8016016499151688, 0.5622893642492961, 0.7110579477778398, 0.48146233327786225, 0.7530351359950869, 0.446435231607357, 0.61155026089752, 0.7378835069695111, 0.6383005782609545, 0.7344411216710958, 0.47166417558675755, 0.7821863297472058, 0.5791664931187721, 0.49257090458358344, 0.6963511656214882, 0.5503097130101617, 0.5923643161155245, 0.7701195284471918, 0.7271724680656603, 0.7002458271759147, 0.6042081534990318, 0.6206292691284616, 0.6493829659347217, 0.6979953813872507, 0.7047767477298793, 0.8603115269620074, 0.6777435892320469, 0.6965863014527109, 0.5965659064197024, 0.6498441418693984]</t>
@@ -2827,7 +2827,7 @@
     <t>[0.8509696338321739, 0.7097142420097249, 0.36556314463544737, 0.41568229882601837, 0.7848451690719794, 0.8478701685985179, 0.682006384459565, 0.7347560061470558, 0.19626961746518812, 0.6735594371778201, 0.6673095914796328, 0.7462835403733918, 0.5720993714756255, 0.6945384539636903, 0.8292869735772728, 0.764263963878081, 0.6788280887868252, 0.5376456848011995, 0.5522643486601253, 0.6940177766244758, 0.5836628348943652, 0.6783859973558239, 0.6144866356728549, 0.613635789314827, 0.6941154511980587, 0.5971659313259554, 0.617835493285438, 0.7827524115293002, 0.671044184905695, 0.7103663627678728, 0.5737133652995885, 0.7584102840966398, 0.6862115660530754, 0.7008764155130804, 0.6851733030802456, 0.6207014961335159, 0.49334690229889, 0.7611498008155851, 0.669039723195523, 0.6402623073879771, 0.6969255887774322, 0.5665391131664217, 0.7620132263626579, 0.6603433809580957, 0.7085327701723292, 0.808007918200084, 0.6496080732023546, 0.6836273519342992, 0.6121250811395483, 0.45429646770820564]</t>
   </si>
   <si>
-    <t>[0.8317790222246987, 0.6564470068858665, 0.6348095850913911, 0.6017038459229535, 0.8340300393945144, 0.8721219076724733, 0.6451190103277578, 0.813299680020247, 0.24508024497302583, 0.7658995419061877, 0.711837553636834, 0.7592498297421956, 0.6481625272308462, 0.6960607960870412, 0.7970579553832503, 0.7283398288451439, 0.571430948415316, 0.799953832430391, 0.6082846365358283, 0.6875738376733127, 0.7334781293578041, 0.7731086327782616, 0.6912594471535088, 0.5835502943467779, 0.7812148845810668, 0.6592339992227684, 0.634188515647008, 0.8511672436900924, 0.6408911602724825, 0.5551767838191419, 0.7793238515647589, 0.7498645547114597, 0.608661667306286, 0.6162382581087334, 0.7663902459534858, 0.6472753062689992, 0.602042932651962, 0.7505069265413536, 0.7404141817223238, 0.715909925929233, 0.7669350281942588, 0.6251805092501768, 0.7091614499283853, 0.7533384540023959, 0.719502525187873, 0.7547318689225259, 0.6312646312574336, 0.6661467391841713, 0.6218368476599807, 0.6307600298755429]</t>
+    <t>[0.8167768371992727, 0.6856455357699197, 0.6051252162802988, 0.5952472645704925, 0.8371712339576137, 0.864804900985742, 0.6042784995553645, 0.8033162389608428, 0.23965884818592853, 0.7500690809927231, 0.7048938840404573, 0.7403055008279715, 0.6390869874544648, 0.7174617180852878, 0.8008809564970827, 0.733932360223538, 0.5860205148564784, 0.774522027321072, 0.6057309572892, 0.6911791718944302, 0.722117180234476, 0.7683751816746507, 0.6997632776790108, 0.5514134116089204, 0.7580244420203321, 0.6418189961796361, 0.6179980180130497, 0.8421836993118008, 0.6597802695390906, 0.5347398666328335, 0.7580474405873665, 0.7328248216562331, 0.5942649606928472, 0.5946337621373596, 0.7768015346914146, 0.6314807402313236, 0.6246220554999513, 0.7397399642816951, 0.7430799067245164, 0.7401280885413393, 0.7774205343535283, 0.653434600451992, 0.7133357432795917, 0.7621344653229987, 0.7194080939367373, 0.7535384097980071, 0.6434913623098559, 0.6880685455780904, 0.6167870155460209, 0.6634002875973137]</t>
   </si>
   <si>
     <t>[0.8384072736229505, 0.7916889861853724, 0.6154021189897475, 0.6784811299701534, 0.8522375746524246, 0.8915989342322138, 0.5626961856286075, 0.7479470239653447, 0.28270650294208743, 0.834280672589904, 0.5689229412967568, 0.6925799705812039, 0.6507124924939056, 0.7851259523835871, 0.8383748938050112, 0.7501988002363973, 0.5554490636582319, 0.7552337379153851, 0.6807141354602853, 0.7567081547689106, 0.7542449334782775, 0.7110308510952048, 0.6592089450568581, 0.5460754817992088, 0.753506290039246, 0.590179021153611, 0.7523239672467756, 0.8160830652879376, 0.7143317662159163, 0.6340792202244558, 0.7199405399426713, 0.6518700688330428, 0.5210397323415685, 0.6025091925736588, 0.7609497976016917, 0.5317901323524821, 0.6371746340382709, 0.7615340004932019, 0.7103243074105241, 0.757042676999031, 0.7707208328984628, 0.7499724960347172, 0.5733648997517933, 0.8353625004910543, 0.7338586438290522, 0.829449432759533, 0.555622646597715, 0.7501293358714547, 0.6578657556074134, 0.4701651159343839]</t>
@@ -2839,13 +2839,13 @@
     <t>[0.8645362143382094, 0.7639296111185845, 0.13924503800422539, 0.39886339063434606, 0.8301444200981649, 0.8641314356411534, 0.7544037729825159, 0.8020039660549202, 0.2130917142442913, 0.6274896891811084, 0.7846585072048812, 0.6831882520290101, 0.3803772832024548, 0.7174526370683711, 0.8106067500050634, 0.8649410030823564, 0.6996738186802538, 0.5064291451018896, 0.5971511726178598, 0.6631883939833791, 0.7855113727330327, 0.32334105682210423, 0.6929037200667092, 0.518340379357904, 0.6511866390027674, 0.6868915447757541, 0.5946974694016407, 0.7303301657512666, 0.6548400875766153, 0.7363981084492119, 0.526068528369013, 0.8049338693728556, 0.6181754514025706, 0.49583835155003964, 0.7321056535149819, 0.6278181326924381, 0.40372336700941436, 0.718982961765111, 0.6945986440723326, 0.6955990910232126, 0.6371502005886593, 0.5993200951873319, 0.7082701107923468, 0.43440480565613326, 0.5195143738610171, 0.7716562020897156, 0.7218626626173037, 0.6954526869860935, 0.6280292332507513, 0.723150149901196]</t>
   </si>
   <si>
-    <t>[0.7929191252930409, 0.47609011318092664, 0.36904060211784273, 0.5045027895943165, 0.7419321217981297, 0.8358734734802974, 0.4085231130525552, 0.6852038625250112, 0.3836874151017623, 0.5553989716819163, 0.7305836972817774, 0.6226994353871763, 0.5395632907822246, 0.5287612347442802, 0.7376787800660218, 0.7833819297592435, -0.05516494602038691, 0.690493833216255, 0.618353900031049, 0.721172473755131, 0.7584435633565184, 0.6615479439260212, 0.5547991346897451, 0.31634144690870836, 0.6438177918636949, 0.464520109601971, 0.45737291477157216, 0.6939010039964513, 0.5772108535012044, 0.7025711859340035, 0.5364563318208317, 0.4471381393053413, 0.642921640406988, 0.7548329276034988, 0.49687188060365184, 0.6735032543697856, 0.5624132374687467, 0.7623679387754466, 0.7636402736483346, 0.5827582344102911, 0.7409889041889028, 0.5930809059603768, 0.6877673507640409, 0.7448140921390558, 0.5602097972457731, 0.6239271061767858, 0.6149691921949101, 0.7530212112766149, 0.690640811502923, 0.8313915536613978]</t>
+    <t>[0.7929191252930409, 0.47609011318092664, 0.36904060211784273, 0.5045027895943165, 0.7419321217981297, 0.8358734734802974, 0.4085231130525552, 0.6852038625250112, 0.3836874151017623, 0.5553989716819163, 0.7305836972817774, 0.6226994353871763, 0.5395632907822246, 0.5287612347442802, 0.7376787800660218, 0.7833819297592435, -0.05516494602038691, 0.690493833216255, 0.618353900031049, 0.721172473755131, 0.7584435633565184, 0.6615479439260212, 0.5547991346897451, 0.31634144690870836, 0.6438177918636949, 0.464520109601971, 0.45737291477157216, 0.6955727641616052, 0.5772108535012044, 0.7025711859340035, 0.5364563318208317, 0.4471381393053413, 0.642921640406988, 0.7548329276034988, 0.49687188060365184, 0.6735032543697856, 0.5624132374687467, 0.7623679387754466, 0.7636402736483346, 0.5827582344102911, 0.7409889041889028, 0.5930809059603768, 0.6877673507640409, 0.7448140921390558, 0.5602097972457731, 0.6239271061767858, 0.6149691921949101, 0.7530212112766149, 0.690640811502923, 0.8313915536613978]</t>
   </si>
   <si>
     <t>[0.6860984376905535, 0.6751979567051546, -0.06523966671246217, 0.461600068629032, 0.8185030761890718, 0.7490475979925397, 0.6689042391078586, 0.7995811826136417, 0.15804093804189545, 0.6719654320540402, 0.6966668396190343, 0.6332073428180353, 0.43978372325217396, 0.7365905784830615, 0.8174392645970949, 0.8050052797949455, 0.5297611949388479, 0.6637570110478819, 0.6247434045029938, 0.7605793117095239, 0.48871504158733614, 0.5756409822750082, 0.6287089755866675, 0.5294228171266822, 0.7023058171251346, 0.6620044467177124, 0.5851068746526897, 0.6651823963380915, 0.6418246762465478, 0.48189790864938964, 0.5802891645598365, 0.7975729228548604, 0.541430078343494, 0.6651264045254102, 0.6569868562597515, 0.64587461948995, 0.413626615277762, 0.6745250913621857, 0.7482654619370364, 0.5903456690415376, 0.7159987234793639, 0.5746606039374429, 0.836028530601086, 0.44261010619788654, 0.5378659982264482, 0.7603910938912352, 0.7139219722212149, 0.5659002326148983, 0.6766412388247902, 0.6306349003235368]</t>
   </si>
   <si>
-    <t>[0.8284666806202803, 0.6801793705698074, 0.3755889657304833, 0.5317007397604776, 0.7920958057031069, 0.8291296727808142, 0.6316913370524226, 0.7859559564291618, 0.1848907003004412, 0.7199662139863436, 0.7602079591030253, 0.7276235863393063, 0.5508855979007496, 0.671171459669996, 0.7653779627282385, 0.7927695290421154, 0.528690881542816, 0.6832046981634272, 0.5623902362184319, 0.7596907468450933, 0.6596558322942403, 0.6632653578136175, 0.6588195102755097, 0.528207927256346, 0.6995643087931674, 0.6133777715188049, 0.6072960007565293, 0.7800912801429479, 0.6215595968955188, 0.6094443519800923, 0.7303275262053561, 0.7679513546035293, 0.6006183673483039, 0.5803544080243668, 0.6900531324041871, 0.673881176900369, 0.6171478407868015, 0.6976903469770197, 0.6786067994027036, 0.6216731541983538, 0.7228272173723691, 0.6040198310647767, 0.7501067816342069, 0.652076766338127, 0.6592090009133057, 0.7277884798788963, 0.7224961369413914, 0.6170387411649525, 0.6554996788090401, 0.6603287538096017]</t>
+    <t>[0.8195560435921548, 0.6646568902432903, 0.36767977570217236, 0.5392835594398641, 0.7900759960156468, 0.8188145244311618, 0.6602216724066063, 0.7825391351476977, 0.2531855302505449, 0.7305182832352102, 0.7315873486223543, 0.6896434610183584, 0.5607946838063804, 0.6771949763864132, 0.7284936282861584, 0.796802054868965, 0.5054362788053809, 0.6526121654478605, 0.5652229363837455, 0.7417316408345034, 0.6637514341192726, 0.6395220005594155, 0.6632198029628198, 0.5935123728003183, 0.7337561115773694, 0.5989950668924049, 0.5477250062716463, 0.7755682948486158, 0.613800332749775, 0.6416032328791461, 0.7087269625058197, 0.7421562153213088, 0.6149993818367536, 0.5935071408710597, 0.6921864498978605, 0.6879623439991189, 0.5659508430035037, 0.7267285066417752, 0.6522489771212607, 0.5921526767900194, 0.7203590828174349, 0.5959358614089441, 0.779460623193391, 0.6758857311895035, 0.6794233519397122, 0.7273286539450929, 0.7252421843756545, 0.6112540755841048, 0.6042677518660062, 0.6650495005702232]</t>
   </si>
   <si>
     <t>[0.8970457759559185, 0.7934493724537814, 0.3191265146281924, 0.5962166437438379, 0.8441194521552583, 0.8134301454369997, 0.597629855248442, 0.7577012496802888, 0.4539605160150414, 0.6438762621697226, 0.7869931119666036, 0.7221239779883666, 0.6638904653966465, 0.792136684200503, 0.8407682178228969, 0.8711520786621658, 0.5136319166506172, 0.6735463875236667, 0.6815786764264884, 0.8074270455982738, 0.6902443842173541, 0.7293642501660362, 0.6953013532231795, 0.5000445595520884, 0.7601551307009791, 0.5444874335219732, 0.518390243954688, 0.7280209006543179, 0.729960690861043, 0.6844404392998193, 0.6468244586053922, 0.735929145316972, 0.6377266128768488, 0.6126631377822771, 0.7855337661053817, 0.7017091247528204, 0.7613054369941903, 0.6872175923753898, 0.7629868010961725, 0.5443263887764067, 0.6738456428479453, 0.6479231214359387, 0.5647812241056573, 0.8244359587125356, 0.757593738972673, 0.7380980204898875, 0.6773102858178893, 0.7207787722142611, 0.7313885095393602, 0.7338024238074623]</t>
@@ -2857,13 +2857,13 @@
     <t>[0.7805113514892167, 0.7658154755352957, 0.5447270477132302, 0.6225160679581223, 0.7856379136618808, 0.8050474848609857, 0.6592716132791637, 0.7103554694809548, 0.4816921038287417, 0.803297139998384, 0.6265958224064925, 0.7723908732441792, 0.7166009170003143, 0.7495155170399577, 0.6746208804400682, 0.8530310109157611, 0.6547465239683432, 0.6566048103833715, 0.665923633750006, 0.7610910988886097, 0.7028544872966371, 0.7035205352575601, 0.7803261683071799, 0.2109218890684742, 0.7859996481201398, 0.607539588585382, 0.6272986349362771, 0.7745736202674411, 0.7448987219781791, 0.6082515686578946, 0.5767249412202817, 0.7497226199956444, 0.8088357815774524, 0.635801813705916, 0.884328967930918, 0.7695637030373534, 0.38758088965715154, 0.7984322327928521, 0.7187298796108841, 0.8566479546246883, 0.8508313064225128, 0.6202009522713721, 0.7680332673284075, 0.5780926063197123, 0.824328042620589, 0.8311160631080987, 0.6576098418240306, 0.6576904529995589, 0.692954157702198, 0.46657572872638065]</t>
   </si>
   <si>
-    <t>[0.5066138984204154, 0.6038738963022664, 0.5551880307396027, 0.6250984728283044, 0.7025493668950702, 0.723710061006599, 0.651222296352564, 0.6861799628022104, 0.40330625305714185, 0.6518709427917747, 0.4685782919951774, 0.7307835505017285, 0.6058208706914937, 0.6538870153011384, 0.739318579552994, 0.8040640411755531, 0.566371390155384, 0.6628482170370534, 0.6536950523077567, 0.7862011021169457, 0.6599007527193509, 0.6886997067419327, 0.5288443918987004, 0.6317319296562531, 0.8390237611515343, 0.36343961678793557, 0.48625022676322815, 0.751915112563206, 0.6711041179454567, 0.5060645490365108, 0.59548489476721, 0.651303396768274, 0.7551826256035135, 0.752839338771872, 0.7468624844085715, 0.6158123028887342, 0.5310226167755994, 0.5067777662262402, 0.5430753680920704, 0.7547150579194399, 0.7328823405856424, 0.6173736751054623, 0.5181658074135652, 0.6245192824973196, 0.6669147191050453, 0.7711878844748994, 0.5415560250001831, 0.6458809786358192, 0.7393838316723775, 0.3699291788731064]</t>
+    <t>[0.5066138984204154, 0.6038738963022664, 0.5551880307396027, 0.6250984728283044, 0.7025493668950702, 0.723710061006599, 0.651222296352564, 0.6861799628022104, 0.40330625305714185, 0.6518709427917747, 0.4685782919951774, 0.7307835505017285, 0.6058208706914937, 0.6538870153011384, 0.739318579552994, 0.8040640411755531, 0.566371390155384, 0.6628482170370534, 0.6536950523077567, 0.7862011021169457, 0.6599007527193509, 0.6886997067419327, 0.5288443918987004, 0.6317319296562531, 0.8390237611515343, 0.36343961678793557, 0.48625022676322815, 0.751915112563206, 0.6711041179454567, 0.5060645490365108, 0.59548489476721, 0.651303396768274, 0.7551826256035135, 0.752839338771872, 0.7468624844085715, 0.6158123028887342, 0.5310226167755994, 0.7231330414367354, 0.5430753680920704, 0.7547150579194399, 0.7328823405856424, 0.6173736751054623, 0.5181658074135652, 0.6245192824973196, 0.6669147191050453, 0.7711878844748994, 0.5415560250001831, 0.6458809786358192, 0.7393838316723775, 0.3699291788731064]</t>
   </si>
   <si>
     <t>[0.7498509980290944, 0.6827023214108381, 0.5262113224638967, 0.6069189912126343, 0.8580849150120908, 0.8572069125653881, 0.7549559012029138, 0.6666891491119866, 0.5234890862944719, 0.7158475075654116, 0.7123779537222072, 0.8004402357892006, 0.7626262048720912, 0.6451156044015843, 0.8000935812437897, 0.8982527140872998, 0.7170904316119797, 0.6678160698367144, 0.6337011475632532, 0.7181149747057931, 0.7271209204929068, 0.7282347305727705, 0.7681480039377188, 0.2313975954052252, 0.7555754390525222, 0.6884527765323608, 0.5610433103270213, 0.8301467038491882, 0.6927618685139001, 0.5813365335040369, 0.6188819292037142, 0.8150424988767809, 0.786676935212486, 0.6422728743326221, 0.8180993294971587, 0.7398657496750505, 0.4113603519390222, 0.7751250889039499, 0.7106875941721223, 0.8307759141376968, 0.7815731363728919, 0.5605719254174248, 0.7822857901534783, 0.6798205931324961, 0.8422983392447445, 0.8586314548749241, 0.7451593062639377, 0.7006962995782277, 0.7097485286879632, 0.3850963930429566]</t>
   </si>
   <si>
-    <t>[0.7610091935787306, 0.7174159299042489, 0.41429754634954497, 0.653529133274987, 0.8084101875066887, 0.8388686173163789, 0.6842530406410339, 0.795005808711363, 0.3518758166656011, 0.6578480253002921, 0.7058888189640795, 0.7136257583507413, 0.6105575859872123, 0.6955170113658143, 0.7946949244042087, 0.7972747569845037, 0.6100871741165419, 0.7372663354461408, 0.6177596050589265, 0.7833875930493679, 0.6801275074262543, 0.6828593708820688, 0.63285182088759, 0.5585704367644946, 0.7504741102123469, 0.6103049055172043, 0.6255648257455036, 0.7794209901155189, 0.6296252656907504, 0.5463433546542278, 0.7134744635430659, 0.7673278516424649, 0.6850582132167431, 0.616678385263862, 0.74764100328007, 0.6982638074339855, 0.6323979548638503, 0.7493788558353257, 0.6846137656920384, 0.682794733090888, 0.7273358454538104, 0.6700299638472553, 0.7312097298558304, 0.5908151905921781, 0.71891693159321, 0.7317085961860359, 0.7084329657558882, 0.6303187695207264, 0.6509559035021306, 0.7625567187331179]</t>
+    <t>[0.7837177386005609, 0.7333529466709298, 0.3786650813153877, 0.6346725540742569, 0.8243590209424732, 0.8398314743516928, 0.6926130347857269, 0.8129409230290067, 0.34517448833530373, 0.6464194215619434, 0.7085910232072571, 0.7159639433018161, 0.6198485568960895, 0.7018144515825842, 0.776962163711107, 0.8026348512228109, 0.6064416286499121, 0.7122730967835957, 0.5734158355523236, 0.7721740535551849, 0.6673483622141738, 0.711884515392962, 0.6406345478479076, 0.5460876759304683, 0.795355967019941, 0.5797537753307345, 0.6349809503115946, 0.7803535635774738, 0.6434258319419666, 0.5771668622555777, 0.7546898917403819, 0.7549383032772176, 0.6810185778441337, 0.5666505255130909, 0.7426225299622438, 0.68795673663619, 0.6334623970124432, 0.761842112218893, 0.7167245643232367, 0.6943566435707927, 0.7342379422955397, 0.659143363983917, 0.7504980590543202, 0.5784146427232585, 0.7196872907774587, 0.7620095746028221, 0.7082093837593351, 0.6501319305791902, 0.6274018167624551, 0.7389019257000418]</t>
   </si>
   <si>
     <t>[0.7564074732892643, 0.6981698360209072, 0.5309621493044556, 0.6495337626187813, 0.8218524173657735, 0.9040505633793157, 0.7417425851243228, 0.7721159872490875, 0.5365439849986489, 0.7099736286438082, 0.6628722128111084, 0.8035515724616127, 0.520324918640833, 0.7432182696601453, 0.8233376489833981, 0.8854182522452093, 0.6755343824923166, 0.6515640217201628, 0.686271259274221, 0.7494588721483911, 0.7110224660125586, 0.6390841594283251, 0.5941737700803313, 0.594012183847929, 0.8714065628709615, 0.49277780207791955, 0.7662346070398349, 0.7661808044377252, 0.7989104161807681, 0.669995246501419, 0.7309588718786442, 0.8072758462358102, 0.8012960130294188, 0.7047972878579551, 0.8073724970178919, 0.6977983926860929, 0.6996409920748358, 0.7454583381906716, 0.6582369434407105, 0.679304071126327, 0.6833776845370094, 0.6916373564274707, 0.6128666175620443, 0.6075841302895928, 0.7800939618776741, 0.8631021305261046, 0.69976842308817, 0.6864929612691892, 0.7444341425048763, 0.609812275708414]</t>
@@ -2875,13 +2875,13 @@
     <t>[0.7000301218098086, 0.6676450761860389, 0.4748226307989062, 0.506038743937919, 0.8824464858601716, 0.86395392881251, 0.7180983919982784, 0.7093967381992953, 0.4569571751238649, 0.4019517812567214, 0.6660104340975366, 0.6874890062684236, 0.3197109007991149, 0.7750155646404505, 0.7937175432454783, 0.8073775134287626, 0.7100414702457171, 0.7150174936813765, 0.6962710501320607, 0.41595718889571554, 0.7037963443316442, 0.3183319822268832, 0.7392996116724586, 0.4102025496201931, 0.6381379779288316, 0.6447425899511444, 0.7187875235996982, 0.8569594946596721, 0.6499137490537328, 0.7290246224344623, 0.41226949366118915, 0.7880139516362947, 0.6639802561264179, 0.35538985713428617, 0.7955771326938647, 0.6736545871816826, 0.3506719069457116, 0.7887559606650884, 0.6935001622237303, 0.5420208526208798, 0.6802707203484422, 0.6446633840778693, 0.4148118927676683, 0.7725900173131879, 0.6989195667367524, 0.7339961344288772, 0.5898608797183713, 0.6947315535202236, 0.6405484461908493, 0.3894049182391288]</t>
   </si>
   <si>
-    <t>[0.6267531365137181, 0.5463435476068457, 0.3495313196809553, 0.5246018543575235, 0.868682841650668, 0.8143530872170175, 0.41161231794705877, 0.7865342545059912, 0.485646784058813, 0.7549101388185221, 0.5931483695398505, 0.7815828498823763, 0.7609904079427062, 0.6680268565794836, 0.7435224028583857, 0.7715767350532383, 0.40744440053168396, 0.7736628522612718, 0.5619268309178285, 0.8079890577385718, 0.4998669944676899, 0.6226362781089048, 0.5282293097741135, 0.11606298278854954, 0.7144835037225719, 0.3793431462090465, 0.6609613106082339, 0.7026629859320221, 0.618523394143391, 0.6320722402970174, 0.5974683764992322, 0.6168212601045613, 0.7816975837693109, 0.6753664950448246, 0.5966639863402454, 0.5017622699407841, 0.56702645807256, 0.5128260654253987, 0.58185394343729, 0.6550574286655151, 0.6935188720607055, 0.45996177561884033, 0.619768735875215, 0.6078679670026397, 0.7537688410128899, 0.69752408508442, 0.4906134331148685, 0.6685727680541105, 0.6657508743209928, 0.7302618848062552]</t>
+    <t>[0.6267531365137181, 0.5463435476068457, 0.3495313196809553, 0.5246018543575235, 0.868682841650668, 0.8143530872170175, 0.41161231794705877, 0.7865342545059912, 0.485646784058813, 0.7549101388185221, 0.5931483695398505, 0.7815828498823763, 0.7609904079427062, 0.6680268565794836, 0.7435224028583857, 0.7715767350532383, 0.40744440053168396, 0.7736628522612718, 0.5619268309178285, 0.8079890577385718, 0.4998669944676899, 0.6226362781089048, 0.5282293097741135, 0.11606298278854954, 0.7144835037225719, 0.3793431462090465, 0.6609613106082339, 0.7026629859320221, 0.618523394143391, 0.6320722402970174, 0.5974683764992322, 0.6168212601045613, 0.7816975837693109, 0.6753664950448246, 0.5966639863402454, 0.5017622699407841, 0.56702645807256, 0.4914597874011094, 0.58185394343729, 0.6550574286655151, 0.6935188720607055, 0.45996177561884033, 0.619768735875215, 0.6078679670026397, 0.7537688410128899, 0.69752408508442, 0.4906134331148685, 0.6685727680541105, 0.6657508743209928, 0.7302618848062552]</t>
   </si>
   <si>
     <t>[0.8573644998831098, 0.7162471996608027, 0.29001789687343094, 0.6359189796713962, 0.8362185815242967, 0.9019173171825822, 0.6050680146113097, 0.6399630273002029, 0.40826900882430717, 0.6885371800129987, 0.5792763592840213, 0.7608876018831153, 0.614878491773151, 0.7164428442941848, 0.864310121891569, 0.748889259375618, 0.6232345387247269, 0.6522355181737438, 0.6674606157354922, 0.6155002441533433, 0.697455173069808, 0.6852216564216372, 0.6634369837518546, 0.49415619628125707, 0.6638689810434591, 0.6977664607928484, 0.5801206024556895, 0.795119301315005, 0.6894225148859494, 0.6377024424201405, 0.6141101841304297, 0.7892442600158588, 0.639816106615908, 0.6260316815881004, 0.6860264097926458, 0.6910408793625962, 0.18087748973334195, 0.7109333474571718, 0.6717812033409922, 0.6636339426946705, 0.7220672828474528, 0.5414207216297491, 0.8165335350733746, 0.7252583136933579, 0.7136036829501471, 0.7334881373673053, 0.5793718312821361, 0.7338636831570293, 0.7095833680768776, 0.4261736779836507]</t>
   </si>
   <si>
-    <t>[0.7748054034620098, 0.7065173326672556, 0.3032731942044752, 0.6346501831591222, 0.7966718404626248, 0.823589169945252, 0.6902642629922119, 0.7805284797431126, 0.3303726889983307, 0.7109372575324591, 0.7576552596792482, 0.7199955320529376, 0.6160931376701171, 0.7057847711170251, 0.7964355032975099, 0.7749032711960886, 0.6136531970485313, 0.6634601037534513, 0.5820559942527452, 0.7484847630090341, 0.6113657689144476, 0.6933860667539642, 0.6941575966324871, 0.5528828906982265, 0.7303161777362757, 0.6347986221815964, 0.625437145437573, 0.7863306130045522, 0.648603745129215, 0.6730199445926761, 0.7420560379287877, 0.7533809377415139, 0.6752270000488532, 0.5919216862659473, 0.70709817462464, 0.7204503901714276, 0.5904596227993988, 0.7563877448337608, 0.6779528372844187, 0.6660687737631243, 0.7670557925047331, 0.6037981052319414, 0.7582794220838337, 0.6428370137658719, 0.6944719161872779, 0.7448357045735725, 0.744603772442878, 0.627025287581128, 0.6541373645547637, 0.698405214463557]</t>
+    <t>[0.7623796716266054, 0.7184962507073709, 0.33910056432471924, 0.6312233058915837, 0.8162041697002155, 0.8184417428225629, 0.6720136651064844, 0.8148228663387586, 0.33915695530334267, 0.7222192243304971, 0.7412515650100728, 0.71214492191388, 0.6198544546465738, 0.697388823187141, 0.8005475637140408, 0.796376398754532, 0.617471141342241, 0.6733226634783733, 0.6007737709885643, 0.7370655830029123, 0.6034113302722592, 0.7005924001559497, 0.6767790722189212, 0.5847918062928192, 0.7302194874712968, 0.6493110659845354, 0.6602090451134057, 0.767595921546873, 0.6499739470733503, 0.7025892787412137, 0.7311398071698383, 0.756927808856583, 0.6465216332419168, 0.5756536302944535, 0.6936045590129198, 0.7047807372598993, 0.6194973736016203, 0.7578751821904074, 0.6455121795375507, 0.6922960042050335, 0.7159808747081118, 0.5945525441474864, 0.7817597620155119, 0.6321806412854252, 0.6856023863402351, 0.7492113023836197, 0.7531415355287135, 0.6188176653331011, 0.6678008673185032, 0.6806696307850262]</t>
   </si>
   <si>
     <t>[0.7580584530672074, 0.6200514122515421, 0.6178746316816363, 0.7238652441671949, 0.8477001281032768, 0.8913539911149702, 0.6690922313699711, 0.7345852423720673, 0.46184202160724097, 0.7620154288341818, 0.6643214503602366, 0.8652135456577902, 0.62931527506354, 0.7262517520424963, 0.7559278219869616, 0.8521391055563362, 0.6543746774761421, 0.7419927912499862, 0.6540558691085709, 0.8578328656744219, 0.6988546678554048, 0.7946063109542691, 0.6848790681255016, 0.49106812037838976, 0.8069873849511888, 0.5864638859192941, 0.7575423880444834, 0.792012258147771, 0.7513200264851299, 0.7169696689710355, 0.8029640000868524, 0.7978671617001741, 0.7360894521564039, 0.6117666691367416, 0.7542740266455064, 0.7796181508753524, 0.6920652278255974, 0.8417273550691119, 0.6776994140404473, 0.6888709767034034, 0.6968646185889376, 0.42127344001957623, 0.66911973092731, 0.7271691814629269, 0.7232792149455622, 0.8299402418776914, 0.7126785307731127, 0.7023530386719661, 0.811701221625872, 0.4549441679792292]</t>
@@ -2899,7 +2899,7 @@
     <t>[0.8098419791328462, 0.7132497369237667, 0.3764558064413067, 0.4200988370877725, 0.7929235849193756, 0.8444153366795646, 0.6471664703766122, 0.7600133955184531, 0.3815083081391948, 0.6671894686076967, 0.7551680350223041, 0.711774687465056, 0.5932630755581083, 0.7096884562835801, 0.8456919760361555, 0.7930697842274297, 0.6464918728071549, 0.7570469671820084, 0.6330451308938814, 0.7550922597437504, 0.6172152307717069, 0.7135504131545343, 0.6749896478513591, 0.5597428050540793, 0.7611732228137047, 0.7105935476683345, 0.5758483265271396, 0.7703772699439453, 0.6653214070433238, 0.6914521868867718, 0.581957987653146, 0.7043591352998393, 0.6394017778420353, 0.7165367257000885, 0.6569862221849656, 0.6531511792765105, 0.3978759419554766, 0.7812256390143115, 0.651015535784182, 0.6699752775201648, 0.7202226989823954, 0.5675351833120299, 0.728938753518998, 0.6955085970225108, 0.7134930149646236, 0.7607137472241531, 0.677150220942718, 0.724558507896818, 0.715953747179446, 0.4585783927659033]</t>
   </si>
   <si>
-    <t>[0.8110159352613188, 0.6861550356793831, 0.5669164110292437, 0.6364195335403159, 0.8273294247816048, 0.8685991960396839, 0.6201019804630068, 0.7898265071703748, 0.2696612488026042, 0.7723224553953048, 0.7205550027266051, 0.7898352320928427, 0.6157785466173897, 0.7153355722300179, 0.8461406303347203, 0.7825630843992701, 0.5896691126437288, 0.801485365875193, 0.6026575953852811, 0.693254954271357, 0.7263911218410184, 0.7436540291128715, 0.7417187142989193, 0.5527204565341944, 0.7647406368086591, 0.6107232248005354, 0.651064836245042, 0.8660638600589957, 0.6930560340267871, 0.6059903518758518, 0.7897007773694951, 0.7381864998968117, 0.5994527782299678, 0.6423366725017619, 0.7711549836146211, 0.7081643717770045, 0.6306525856909668, 0.7768254283440958, 0.7059906006104306, 0.7170139125098726, 0.7979594676746271, 0.6271447024180241, 0.6925621486840433, 0.7460956180354776, 0.7105382407299166, 0.765540938057495, 0.74022821491457, 0.7247373197675526, 0.6583007535965, 0.5737510172777158]</t>
+    <t>[0.7885140429750895, 0.7245295482654691, 0.5790253446961067, 0.6349334910881766, 0.8382756086836518, 0.8774403390165277, 0.6326743390274117, 0.7710786969249777, 0.27530613585561137, 0.7588666661233798, 0.7322172345854359, 0.7906082539232614, 0.6222722114522674, 0.717206968258265, 0.855282171506577, 0.7541228692912962, 0.607608290079892, 0.80023924190627, 0.6202475296945429, 0.7000731456726683, 0.738718622042696, 0.738265048330357, 0.7530953275905681, 0.5274235548055093, 0.7561448702549339, 0.607520607810192, 0.6204729564729057, 0.8571899251171505, 0.6978364053255672, 0.6025698345771973, 0.8018766310906251, 0.753046925504046, 0.6101354137477684, 0.6422521906298693, 0.7644167442222218, 0.7096030867642511, 0.685227289656831, 0.779503119903994, 0.7054014206317035, 0.7268031337437096, 0.7996325414911902, 0.6474251814607648, 0.7146431897986327, 0.7437946809867783, 0.7314823106160664, 0.7528358592614974, 0.741034983087363, 0.7063734510891385, 0.632398514781919, 0.5968485388688842]</t>
   </si>
   <si>
     <t>[0.8564926064478046, 0.8679207006750332, 0.549976782512769, 0.5934931240569233, 0.8811518481107125, 0.8750998276369389, 0.6352174065053047, 0.7731457571882847, 0.29605237604569723, 0.8489520845830368, 0.6081436703963445, 0.7647381819111636, 0.6031533291256139, 0.8033067787121744, 0.9035098535167239, 0.7520241026435839, 0.5169262586497501, 0.8210155988771005, 0.6824698029524312, 0.7725069496628243, 0.7563025396395501, 0.8218183683255331, 0.7338769194496522, 0.498890250979114, 0.7496972391436059, 0.5746738075155731, 0.7926189567410417, 0.8902519961052492, 0.7741601838588565, 0.6755518207152227, 0.8551970132560445, 0.773588712524038, 0.5746865779749311, 0.6121958485355455, 0.8104062382708829, 0.6726273080738008, 0.6638065081325253, 0.7927452700591329, 0.6103611303270797, 0.7267579132826096, 0.784338084950517, 0.7746615878887008, 0.6489985026165075, 0.7872540373311757, 0.7758707139436235, 0.82023428483181, 0.790067644060006, 0.7778182607603958, 0.7377242531854509, 0.49886743880481865]</t>
@@ -2911,13 +2911,13 @@
     <t>[0.8674676069010462, 0.7576182663550233, 0.26765126512207027, 0.5508691189276255, 0.8767575928554365, 0.8711916424608007, 0.747235326466714, 0.8120267712242708, 0.2903697158183963, 0.6656789797997467, 0.7215047467562222, 0.6782029264547209, 0.5872331357856866, 0.7517007682325112, 0.765881453765898, 0.8859296778723009, 0.7104708118465688, 0.743490705588079, 0.7054120923694558, 0.7207835307509539, 0.7670841267128718, 0.6283822276286982, 0.7234840624883042, 0.5114364682627566, 0.7036360171747758, 0.7207078992131357, 0.741387891623938, 0.8598915241134789, 0.6638329316811289, 0.6875255381722299, 0.5579179162965275, 0.8232720137640632, 0.6259278005782922, 0.7513639025639738, 0.8056934065142192, 0.5829753937431457, 0.7066515577622046, 0.7790160049586645, 0.7604817106791534, 0.5434994632111863, 0.6975546772771972, 0.6724179468472511, 0.7846603609890541, 0.698195668581097, 0.6552285477326545, 0.7940569434227122, 0.569463549593195, 0.6995971220654578, 0.7253323883114048, 0.5091811427691468]</t>
   </si>
   <si>
-    <t>[0.6941170850334016, 0.4042282494164332, 0.3874592884790804, 0.5355798488131314, 0.8238989270174502, 0.8529644628778312, 0.48489902698166865, 0.7992430560505954, 0.0643952915613627, 0.6358760175401377, 0.5927381396416034, 0.7597549627722997, 0.5256808685982257, 0.6856488100576743, 0.5831430538521107, 0.8080701312747723, 0.45678667282999896, 0.7278747531872716, 0.6503109739335093, 0.8068542723992952, 0.7714719542275242, 0.6848664026182927, 0.6178987533642702, 0.19414300210146385, 0.368941082462913, 0.40917585189363204, 0.5575063824628221, 0.7875858066275365, 0.6726757612666782, 0.6953692323480691, 0.5369661988827373, 0.705091507803548, 0.6101122214164275, 0.7120105667362564, 0.5977600780877763, 0.5219539997486764, 0.5927628535452594, 0.7755537793131297, 0.6898666104307112, 0.6501789910127815, 0.7123904517433474, 0.5292857849565851, 0.6962941622274486, 0.6548420799836436, 0.45435350962708465, 0.758534838875843, 0.5335072506069813, 0.702422666618818, 0.6629399483183582, 0.7407991225724806]</t>
+    <t>[0.6941170850334016, 0.4042282494164332, 0.3874592884790804, 0.5355798488131314, 0.8238989270174502, 0.8529644628778312, 0.48489902698166865, 0.7992430560505954, 0.0643952915613627, 0.6358760175401377, 0.5927381396416034, 0.7597549627722997, 0.5182894058655911, 0.6856488100576743, 0.5831430538521107, 0.8080701312747723, 0.45678667282999896, 0.7278747531872716, 0.6503109739335093, 0.8068542723992952, 0.7714719542275242, 0.6848664026182927, 0.6178987533642702, 0.19414300210146385, 0.368941082462913, 0.40917585189363204, 0.5575063824628221, 0.7875858066275365, 0.6726757612666782, 0.6953692323480691, 0.5369661988827373, 0.705091507803548, 0.6101122214164275, 0.7120105667362564, 0.5977600780877763, 0.5219539997486764, 0.5927628535452594, 0.7755537793131297, 0.6898666104307112, 0.6501789910127815, 0.7123904517433474, 0.5292857849565851, 0.6962941622274486, 0.6548420799836436, 0.45435350962708465, 0.758534838875843, 0.5335072506069813, 0.702422666618818, 0.6629399483183582, 0.7407991225724806]</t>
   </si>
   <si>
     <t>[0.8286661384696443, 0.6917712197860869, 0.32469603141933334, 0.5853019047782313, 0.8182598856060496, 0.8924289138924959, 0.6647870981484567, 0.8017037915984924, 0.297798170740063, 0.7228946549694737, 0.699413531270725, 0.642912244890122, 0.5604434631732509, 0.7587894235540368, 0.8294404272237761, 0.8435161206522467, 0.6651468513467841, 0.6391669487323854, 0.6128152302413047, 0.6571413622470648, 0.6373042024278109, 0.7221079257618885, 0.6733367547735203, 0.5057765919085977, 0.7109825412362176, 0.6713889436786148, 0.4097568455813001, 0.7933564548491381, 0.6659641280888279, 0.5544477819180734, 0.5805412495366102, 0.8012511592962144, 0.6039148489342017, 0.6504651849962351, 0.6216312313386834, 0.6753877905743499, 0.35176396798847176, 0.8486959546251642, 0.7241905583623214, 0.6437772832495807, 0.7446939166938338, 0.5405404962841545, 0.8385031558674356, 0.7848416981670553, 0.6576975950581301, 0.7494374518570419, 0.5322577647684489, 0.6500697165700935, 0.5263999030334996, 0.4196777543521051]</t>
   </si>
   <si>
-    <t>[0.7845794487055586, 0.7249813351218837, 0.28616769967916367, 0.5974776543026935, 0.8255098716437582, 0.8600960932708048, 0.6699790092782864, 0.8081634781325127, 0.25042923222557134, 0.6973318530532087, 0.7611364488948138, 0.723068572460326, 0.5671731598313496, 0.7231828469672515, 0.8057976748185393, 0.7851681815581745, 0.576205006724936, 0.6428897246857539, 0.5455849250819564, 0.7725696770897679, 0.6284108793402374, 0.6384538200295506, 0.6704594101084598, 0.5903597048284365, 0.7445815140743166, 0.60022805974966, 0.6307924789311873, 0.7710872018297749, 0.6462514922728597, 0.6507982343729667, 0.7209494098106446, 0.7993125757026494, 0.6324665826914411, 0.5427275241848322, 0.7148645527657163, 0.7043131956213247, 0.6266435351488897, 0.7349291649524952, 0.6827781433423927, 0.6493206520190307, 0.7458688121779167, 0.6582592792548794, 0.7726619468773309, 0.6101470920959122, 0.663920672523391, 0.7503031153738298, 0.7584725775244715, 0.6470802592990034, 0.6214731781414499, 0.7015026675701082]</t>
+    <t>[0.7893545468870131, 0.7293421161290089, 0.3062713377846502, 0.5946680547935723, 0.7993036938525845, 0.8526891086985342, 0.6474524849911456, 0.8230556603858916, 0.24249978591614485, 0.7001642560881102, 0.7403241429167134, 0.7010093973623456, 0.5953813843669438, 0.7059591445965969, 0.7940292280363026, 0.7897099974699164, 0.5634802748380814, 0.6587958060148069, 0.6100194722032002, 0.7808241636000902, 0.6369915742169641, 0.666649522038575, 0.6575279631916067, 0.5842591368053918, 0.7645212964791952, 0.5424524046239976, 0.6182055542434656, 0.8074025773541638, 0.6348177571827929, 0.6711367969501494, 0.7226164155715729, 0.7885702001693089, 0.6285618153788588, 0.5681438292660217, 0.7374064681045749, 0.7041585387989999, 0.6277404002840226, 0.7426756729360482, 0.703766235959374, 0.6242436456605176, 0.7476414148436213, 0.6085780872589694, 0.7476925959589006, 0.5836206897349066, 0.6667467560490262, 0.7562281635154677, 0.737282990352448, 0.6440097895888308, 0.6535289133205737, 0.6681383337048972]</t>
   </si>
   <si>
     <t>[0.808644745519895, 0.7484987944593807, 0.30236513085857264, 0.6555650079291875, 0.8451964411108128, 0.8526658108484377, 0.5919509849345841, 0.8218294035680911, 0.3324163790172854, 0.7411126627586617, 0.7632252930991402, 0.7334587273453712, 0.6768943677303059, 0.7763560826411209, 0.8038795465980992, 0.8245815061898704, 0.7592876741528243, 0.6410099187631182, 0.5562069683429118, 0.8120694031214876, 0.6337406341063849, 0.6353062173817934, 0.6671518645733248, 0.4370565595392081, 0.7627645733699095, 0.3610843862880454, 0.774264706610747, 0.7228877604511773, 0.7293966859240626, 0.6796200641052015, 0.6905752233875817, 0.7598521728618615, 0.7397511461710438, 0.5569418238872754, 0.8176109012333058, 0.707746320140314, 0.7127040317117785, 0.6537147654506394, 0.802321404202434, 0.6977716222557953, 0.7507558211938982, 0.6393377587909072, 0.6311722143430646, 0.6063563800203176, 0.7278321972254422, 0.7670897381724435, 0.4633815716309696, 0.681397011795233, 0.7728639342234671, 0.604344547377235]</t>
@@ -2929,31 +2929,31 @@
     <t>[0.4443597134371283, 0.705800391137571, 0.10413126135379835, 0.6658426657252215, 0.7595423365742338, 0.6744608885566777, 0.6514176424670355, 0.7163469194657304, 0.4580145646028878, 0.7899449243710512, 0.6912732737242837, 0.758036330611074, 0.7101799283129568, 0.6315373874157901, 0.759250286395438, 0.8370602343129282, 0.62060110691772, 0.5216780119018961, 0.7313342816470896, 0.7202871626651605, 0.5281321023442533, 0.6421024242352245, 0.637496621849245, 0.14116740096898905, 0.7934412287797651, 0.6456235665826902, 0.5358454051499371, 0.7542648993680929, 0.7184786661043261, 0.47151867446889695, 0.36594074390950493, 0.7592137682781606, 0.7673580175019479, 0.5797834449905186, 0.845642870381293, 0.695158455032513, 0.36183113792529686, 0.7662733174364919, 0.6845547064331736, 0.858446161206027, 0.7169697577275614, 0.5873175131042587, 0.765090178944995, 0.5349147246768378, 0.8558576015350303, 0.8177877577425512, 0.5705237563636487, 0.7561123785358721, 0.4669933028807689, 0.22309856895257807]</t>
   </si>
   <si>
-    <t>[0.8232016457223776, 0.5048276646424141, 0.5278049573874752, 0.5812533264571378, 0.7361861457933603, 0.8187417527994417, 0.536402640532418, 0.6570674989078924, 0.47327743136673084, 0.6852436911930619, 0.6918721514276114, 0.4395836484967155, 0.6338940309374612, 0.588981733691126, 0.6990702702659065, 0.7654437014806386, 0.5179517270060037, 0.665866108313088, 0.6122245801122974, 0.6782790059703159, 0.6718955782326572, 0.5962284027952709, 0.6252297384814083, 0.4295476483246323, 0.8218055906240047, 0.48562076995050607, 0.2394609397107048, 0.7674782009255494, 0.7219105016425802, 0.4400194771150038, 0.6944227849859697, 0.6322443201780639, 0.7294277335948809, 0.5789789494158184, 0.7151191004121323, 0.5120150481069833, 0.5326141787693244, 0.776130561629152, 0.6047787497710637, 0.5916138612064115, 0.7643176332378796, 0.8102385144230984, 0.5512185006000253, 0.5170354481446999, 0.6506000567044394, 0.7987811104809993, 0.6403393632725138, 0.6447257260923525, 0.6741159744266406, 0.5579871138414927]</t>
+    <t>[0.8232016457223776, 0.5048276646424141, 0.5278049573874752, 0.5812533264571378, 0.7361861457933603, 0.8187417527994417, 0.536402640532418, 0.6570674989078924, 0.47327743136673084, 0.6852436911930619, 0.6918721514276114, 0.4395836484967155, 0.6338940309374612, 0.588981733691126, 0.6990702702659065, 0.7654437014806386, 0.5179517270060037, 0.6023184206987215, 0.6122245801122974, 0.6782790059703159, 0.6718955782326572, 0.5962284027952709, 0.6252297384814083, 0.4295476483246323, 0.8218055906240047, 0.48562076995050607, 0.2394609397107048, 0.7674782009255494, 0.7219105016425802, 0.4400194771150038, 0.6944227849859697, 0.6322443201780639, 0.7294277335948809, 0.5789789494158184, 0.7151191004121323, 0.5120150481069833, 0.5326141787693244, 0.776130561629152, 0.6047787497710637, 0.5916138612064115, 0.7643176332378796, 0.8102385144230984, 0.5512185006000253, 0.5170354481446999, 0.6506000567044394, 0.7987811104809993, 0.6403393632725138, 0.6447257260923525, 0.6741159744266406, 0.5579871138414927]</t>
   </si>
   <si>
     <t>[0.7839969031611377, 0.7035067934876689, 0.5803653974795498, 0.6183702563381435, 0.8094878143054185, 0.8210076350132873, 0.7205719886576574, 0.7038881422152787, 0.48455782343621034, 0.781624739420203, 0.7539809870438522, 0.8199584711786967, 0.7228014668857885, 0.6187658884414562, 0.7614714906119717, 0.8652972132788692, 0.6344399589893231, 0.6766319276610968, 0.5953895759518355, 0.7208061252883582, 0.7669976990114412, 0.5366617749174334, 0.7040236447150778, 0.13907778377031477, 0.7734221479759282, 0.6962092687173057, 0.5689217793856449, 0.8156263258767213, 0.6768914468930145, 0.6110021329407027, 0.6508634124416846, 0.7680728480450096, 0.7550218375965381, 0.6303256027630477, 0.7997194415279648, 0.717892343441271, 0.3797387748309482, 0.743492840097306, 0.6935042032671843, 0.8326118211717403, 0.7652312626901843, 0.5634842755075355, 0.7782020621128909, 0.551130212282178, 0.793416010275581, 0.8624678635206767, 0.7357064556768684, 0.7516375453936439, 0.7277684140909839, 0.3943257227975968]</t>
   </si>
   <si>
-    <t>[0.7759866915735053, 0.6941918712948852, 0.3937049414240926, 0.6535568674153811, 0.809616686124059, 0.8240569553631232, 0.6741391913675576, 0.8193382804182511, 0.3651070925489682, 0.7218131596213534, 0.6943517702893165, 0.7251868889432854, 0.6257577533921022, 0.7475087597444712, 0.8514128168302939, 0.7701597867285214, 0.6206849242256715, 0.7319879627266166, 0.6906835363591789, 0.7567398527390269, 0.6757339102673365, 0.6659545231522306, 0.6643579737424166, 0.4762954281124746, 0.7876896025676619, 0.5259677395178457, 0.6200894562875086, 0.7962741283315761, 0.6601271371702997, 0.610441222663201, 0.7312805046806081, 0.745451752908325, 0.6980033498698484, 0.607829975002165, 0.7260681099609032, 0.6651866848501791, 0.6474406455038135, 0.7593486759439432, 0.6889868633010725, 0.6617314610749246, 0.7384616562947404, 0.6754232159296066, 0.7175991925198926, 0.6493007092079663, 0.6970692249472854, 0.765027325361125, 0.7183757852895536, 0.6694449653635499, 0.6429254855741268, 0.7158163788345039]</t>
+    <t>[0.7853874317788025, 0.6691336259062942, 0.3920498248951486, 0.6539538704616703, 0.8156636909994113, 0.8113248988557598, 0.6868167840483882, 0.8168368227863245, 0.34980263688320945, 0.7801947940421557, 0.7319053350771597, 0.7466629691732201, 0.6256919024370228, 0.7283509871803573, 0.8301373687191786, 0.7731163855151852, 0.5916990671232008, 0.7008925378006436, 0.6882108407901574, 0.7475064282995137, 0.6907759453996101, 0.6537865569361239, 0.6748030411686121, 0.5440172265480817, 0.7855535246217447, 0.5964426417026079, 0.6238878035803176, 0.825033525185177, 0.7069154899922927, 0.6249794614227009, 0.7242848343724111, 0.748745932492209, 0.682038057630302, 0.5930715706466514, 0.6937824416658658, 0.6716320920204639, 0.5866943359275023, 0.7359894353840799, 0.681088164550856, 0.6493650269249531, 0.7384732445087842, 0.6885572282076415, 0.7664354960621027, 0.5945051500846257, 0.7040461392900583, 0.7713731080686316, 0.7182428901715259, 0.6495158850223216, 0.6548799193887567, 0.6967165131800244]</t>
   </si>
   <si>
     <t>[0.8248327294728042, 0.7479393902455979, 0.4909351483177543, 0.6674666751419613, 0.860087339080396, 0.7693084924447912, 0.7294797842489092, 0.8534904386040931, 0.5746853969242989, 0.9112715587660553, 0.6203226972342013, 0.9020774525161717, 0.5930980238921406, 0.7820612614473195, 0.9042067419694371, 0.9083169236755754, 0.39000416541107497, 0.6631170981850447, 0.6872570104718935, 0.6976614922149487, 0.7970771811842297, 0.7182006397322342, 0.7416567398857741, 0.6378709011609052, 0.9189120349465862, 0.488967088656174, 0.7750068382864488, 0.8500624730879376, 0.7713805280540457, 0.6313455266107779, 0.719955303511048, 0.8767304791029669, 0.744137254414188, 0.7486889374098415, 0.8409573143680675, 0.727742662381558, 0.6413169735454205, 0.7928366959459451, 0.675788912700787, 0.7336238812369339, 0.6784600766767159, 0.7507713128827831, 0.6316211560373317, 0.7768060616828086, 0.7690991274999125, 0.8635005062711028, 0.6297502425989875, 0.693431214234871, 0.7841241501674099, 0.7847153716416989]</t>
   </si>
   <si>
-    <t>[0.785563015856902, 0.5827040920996083, 0.2664256318734617, 0.44801395620810447, 0.6551583564774861, 0.7131813387505254, 0.5836645667004026, 0.6039810762879725, 0.20562309200828188, 0.4576119566944714, 0.7608162957014959, 0.5734854293763331, 0.4156891007987833, 0.5056132276427898, 0.6815911028600092, 0.6943918809337211, 0.4543210573617932, 0.35103227727631836, 0.3332909972596394, 0.5751314672450341, 0.47504852109872675, 0.5119773919268485, 0.672894768805111, 0.09426828092669004, 0.46082682555494814, 0.486590158858516, 0.3341678075502318, 0.6227600949133693, 0.7306466546832138, 0.32548812611887945, 0.56295289101929, 0.6690889271198452, 0.5746722850809508, 0.5622492438388698, 0.48686530617011103, 0.5402654970704547, 0.10491276072031785, 0.5668572425975738, 0.5506944710126602, 0.519642015898958, 0.6974431781778951, 0.2582773533588998, 0.43454463497644524, 0.6374353362406157, 0.6284267746740242, 0.7029625159410816, 0.5052813512769452, 0.5080660612588845, 0.527734144383537, 0.1823191022496553]</t>
+    <t>[0.785563015856902, 0.5827040920996083, 0.2664256318734617, 0.44801395620810447, 0.6551583564774861, 0.7131813387505254, 0.5836645667004026, 0.6039810762879725, 0.20562309200828188, 0.4576119566944714, 0.7608162957014959, 0.5734854293763331, 0.4156891007987833, 0.5056132276427898, 0.6815911028600092, 0.6943918809337211, 0.4543210573617932, 0.35103227727631836, 0.3332909972596394, 0.5751314672450341, 0.47504852109872675, 0.5119773919268485, 0.672894768805111, 0.09426828092669004, 0.46082682555494814, 0.486590158858516, 0.3341678075502318, 0.6227600949133693, 0.7306466546832138, 0.32548812611887945, 0.56295289101929, 0.6690889271198452, 0.5746722850809508, 0.5622492438388698, 0.48686530617011103, 0.5402654970704547, 0.10491276072031785, 0.5668572425975738, 0.5506944710126602, 0.519642015898958, 0.6974431781778951, 0.2582773533589011, 0.43454463497644524, 0.6374353362406157, 0.6284267746740242, 0.7029625159410816, 0.5052813512769452, 0.5080660612588845, 0.527734144383537, 0.1823191022496553]</t>
   </si>
   <si>
     <t>[0.6462835119259689, 0.7539341976972854, 0.21068194322935352, 0.4710140185487117, 0.8822441865150669, 0.79700324575177, 0.7472961020435208, 0.7106873741834432, 0.35848467068607437, 0.5380120440340086, 0.6918582929806079, 0.7045137920351503, 0.516203416860024, 0.7116583915718389, 0.8155771315758372, 0.781275769528953, 0.7180971403902394, 0.7206378527498025, 0.4825821605703974, 0.6232150422194696, 0.7439523620373595, 0.4309950523246199, 0.732844005295554, 0.3442409752846022, 0.6431631093311648, 0.6717636716554343, 0.7089122823635354, 0.8395800996291236, 0.6559397062390875, 0.6992916690062565, 0.4142591344770511, 0.7890953012040722, 0.6590403585576072, 0.7019642628339421, 0.7875474243745376, 0.6934580969822692, 0.31227137570570307, 0.8079963914274749, 0.6599108386634664, 0.7017863095422412, 0.6805221909469825, 0.5854515036003478, 0.36023016634602634, 0.517897484801495, 0.8154252552096141, 0.7475169571083748, 0.6876828067603019, 0.7000500439320974, 0.6720439707250423, 0.475689160350263]</t>
   </si>
   <si>
-    <t>[0.7481605959753552, 0.6272017763785995, 0.5382361606416445, 0.5609381567965324, 0.7236673251800709, 0.8297394375582164, 0.628438876840679, 0.7855163801724221, 0.5233641900940031, 0.7477978728351257, 0.5965661372930495, 0.7894370850723958, 0.7473245660975073, 0.6870528205695157, 0.8400669666623315, 0.7361931284256666, 0.509791595430265, 0.7479655064829503, 0.6865032462231984, 0.7312994957155396, 0.5553151755792898, 0.6759439143871948, 0.5960999819737626, 0.1530419753317097, 0.7879611929164382, 0.44955167023359877, 0.6419221391926371, 0.6710609090578664, 0.6898725262439702, 0.6736119363691927, 0.7067435344583805, 0.7166164297350264, 0.7769264417895893, 0.6820994480341926, 0.6265267787045314, 0.6015883192352053, 0.5786780094104924, 0.7263668930967537, 0.7141971285481944, 0.7318363497838611, 0.7014278003642291, 0.6343577744733231, 0.7098174803541594, 0.7401673844104226, 0.715293840587852, 0.8123958662059564, 0.38967359207935737, 0.6651830688570715, 0.6686779363708071, 0.7326350086734654]</t>
+    <t>[0.7481605959753552, 0.6272017763785995, 0.5382361606416445, 0.5609381567965324, 0.7236673251800709, 0.8297394375582164, 0.628438876840679, 0.7855163801724221, 0.5233641900940031, 0.7477978728351257, 0.5965661372930495, 0.7894370850723958, 0.7473245660975073, 0.6870528205695157, 0.8400669666623315, 0.7361931284256666, 0.509791595430265, 0.7479655064829503, 0.6865032462231984, 0.7312994957155396, 0.5553151755792898, 0.6759439143871948, 0.5960999819737626, 0.1530419753317097, 0.8154483808053217, 0.44955167023359877, 0.6419221391926371, 0.6710609090578664, 0.7316834607255799, 0.6736119363691927, 0.7067435344583805, 0.7166164297350264, 0.7769264417895893, 0.6820994480341926, 0.6265267787045314, 0.6015883192352053, 0.5786780094104924, 0.7263668930967537, 0.7141971285481944, 0.7318363497838611, 0.7014278003642291, 0.6343577744733231, 0.7098174803541594, 0.7401673844104226, 0.715293840587852, 0.8123958662059564, 0.38967359207935737, 0.6651830688570715, 0.6686779363708071, 0.7326350086734654]</t>
   </si>
   <si>
     <t>[0.7941580448425551, 0.7011526576730717, 0.33288424615702517, 0.5852015756703886, 0.846855706786409, 0.8404941456280179, 0.6196888094314831, 0.6905502469427685, 0.34902506703371716, 0.7040912020476644, 0.5928225440513815, 0.680930990261418, 0.6100710846434629, 0.7106720743119592, 0.797155433058121, 0.68708491554802, 0.6199740297655838, 0.6860477986363716, 0.49278968891835107, 0.651929172310455, 0.624303270113987, 0.7115325873378366, 0.6883368822239448, 0.474064790402544, 0.6705279038275964, 0.6634342348186572, 0.6401294871343048, 0.7947768506325192, 0.606698894777685, 0.5847578698126571, 0.5696683526591448, 0.8232384476586005, 0.6328650823784862, 0.5232006980945125, 0.6732394758759571, 0.6492056447213348, 0.5596935370331524, 0.7509186794939403, 0.6776289314410533, 0.674604059237027, 0.7238503884308054, 0.6025145584956991, 0.7452528100064365, 0.6801268895760172, 0.7269236850154033, 0.7538810406546683, 0.5374302364796377, 0.7190278024832475, 0.628255889270172, 0.3773739203376021]</t>
   </si>
   <si>
-    <t>[0.7829756222996351, 0.6910496875211934, 0.36437331047447474, 0.6148759684608892, 0.8041819073044472, 0.8095603805941405, 0.6865331492878404, 0.797035591309187, 0.3561650689461012, 0.7951238989503765, 0.7121376290978936, 0.7663531705808013, 0.638418791142769, 0.7343318899946459, 0.8245587344315104, 0.7764518220171711, 0.6645728007692508, 0.6726971425220787, 0.6305191464924886, 0.7375745795693165, 0.6387203707376572, 0.6674023817860749, 0.7019928047296603, 0.5804159594778402, 0.7792795188072253, 0.6541049305936308, 0.6458147323697434, 0.7824611853015525, 0.6988621736557428, 0.6502296037684687, 0.7441274249181731, 0.7460102354404478, 0.6636058371434603, 0.5929493182846803, 0.6928637768916808, 0.707382870445165, 0.6369339279279707, 0.7548339162281467, 0.6880699178899472, 0.6484141665036689, 0.7411293002945363, 0.5727560815904116, 0.7715128387543848, 0.6301386200455197, 0.7015547617000901, 0.7517471377207965, 0.7293748499288611, 0.6649567738057904, 0.6773587305327846, 0.6820312186610344]</t>
+    <t>[0.7933924481279873, 0.6905880043975238, 0.34353298660611453, 0.6308015663422438, 0.8170417560741811, 0.7978219602925066, 0.6603673162306248, 0.7956927018498609, 0.4053783794401873, 0.795058343732282, 0.7059989497771901, 0.7178053933217146, 0.6131422900137, 0.6907785715692243, 0.825041178503094, 0.7996809232573738, 0.6417531321133771, 0.6858296996482438, 0.6324195725501428, 0.7322549902220663, 0.6362365278389204, 0.6477492122182, 0.6997092399702718, 0.5706252600851223, 0.7554731616359547, 0.6722386035647834, 0.6279367592560585, 0.7655398193982942, 0.6425606279990808, 0.6447410178445648, 0.7455678957055466, 0.7757893480633303, 0.679204014533294, 0.5922502241437686, 0.7458953750541917, 0.7238903226450566, 0.6332814129085458, 0.7829046035204508, 0.6486746367218017, 0.6712702953652345, 0.7781879926098226, 0.5753304336269205, 0.7932777597613379, 0.6644847108365451, 0.710891172983557, 0.7441716141237558, 0.707578127654662, 0.6783947099427863, 0.6417531388271953, 0.6941739055596545]</t>
   </si>
   <si>
     <t>[0.779778945283315, 0.6770020483366185, 0.5320842692760163, 0.6918670358787137, 0.8527386304405181, 0.7279632302735326, 0.7138390671856314, 0.8274498751706512, 0.47585047871206543, 0.8059667552159768, 0.7391792793860112, 0.8804424439886761, 0.6547636690804757, 0.7795672746054689, 0.8838308487384449, 0.8908540135814088, 0.6229867456022667, 0.6682609533853328, 0.6632292592537166, 0.7868938028327704, 0.8230139490152948, 0.7309956395421011, 0.7568294708969866, 0.5672007217809427, 0.8394843706682825, 0.5297255465185864, 0.8088389265138126, 0.819638373680215, 0.8006654347343187, 0.7739672336338448, 0.7002863136624433, 0.8221050019705379, 0.6650738139314833, 0.7493744257855866, 0.7378992746657058, 0.6890060336759641, 0.6891759629935519, 0.7817586925500147, 0.5949916005436693, 0.7322440534133241, 0.8195783187233346, 0.5174653487767022, 0.733135629104336, 0.7605983893952796, 0.7207496860850525, 0.8446782694480104, 0.6687210955531924, 0.6788337650821621, 0.7239035753414838, 0.6472305273844241]</t>
@@ -2971,7 +2971,7 @@
     <t>[0.850946632282232, 0.6442201857107124, 0.4045917544980032, 0.5396963753366498, 0.8071405985928802, 0.8725017443035034, 0.6607923209016207, 0.8132569201814974, 0.20708913122194583, 0.6955096258327707, 0.6626599619872087, 0.7420736251811466, 0.5943954439628215, 0.7122399647860929, 0.8124537310092407, 0.7783853470611308, 0.6386605749217883, 0.5940722722484477, 0.5559747724159622, 0.7462880760705839, 0.6354664122961948, 0.6797156721212396, 0.6460948892589354, 0.4532581418301922, 0.6476755320365559, 0.6393316512116911, 0.6705460399413568, 0.7997485744614833, 0.6799972403487131, 0.6472108576555669, 0.5505055171202271, 0.764714670754693, 0.61203106010652, 0.531883717986549, 0.6890131812693185, 0.6355353033785216, 0.5243386273289826, 0.7795485568304114, 0.6797044854434786, 0.6831395290861298, 0.7182426708380475, 0.5546195422537763, 0.7424642167075127, 0.6719437174334258, 0.7294754849823258, 0.8010569395429034, 0.6741429572399839, 0.7612686198258597, 0.6017254581858358, 0.5606734760492398]</t>
   </si>
   <si>
-    <t>[0.8291439538142212, 0.7002595660785301, 0.5506463906934219, 0.5887287686831877, 0.8606971287591558, 0.8690113545288389, 0.5954157788933438, 0.8428556504764695, 0.23958610414695813, 0.7890495046372153, 0.6909068862554268, 0.7632494961003674, 0.6352517906306294, 0.7238891089277786, 0.8265579848391644, 0.7626218003377256, 0.639578246695492, 0.8217968664328528, 0.6131581412732096, 0.7056546206613816, 0.7147272564875364, 0.7513294139265161, 0.7082891736637291, 0.5941351050079018, 0.7465397847801987, 0.6130557701615731, 0.6682505548833262, 0.8523915332861997, 0.6799780204461939, 0.5557628668110526, 0.7418812668890957, 0.7530432189081815, 0.602534294287216, 0.6184336053286119, 0.7462830220227605, 0.714185866156742, 0.5775720340036954, 0.7450886457987498, 0.7088095825194453, 0.7213811956272863, 0.7829912684157267, 0.5815034235508642, 0.7653710133639058, 0.7523785316106423, 0.7150167698570288, 0.7458609986550297, 0.6643178344332861, 0.7060304849219983, 0.6472907355913132, 0.6668441682625313]</t>
+    <t>[0.8123105573593101, 0.6883217288745058, 0.4248684742826475, 0.5967346887812255, 0.8551787898993441, 0.827988960931817, 0.6017130362830372, 0.8339551332515546, 0.23478046326373936, 0.7757128159562299, 0.6881317727977123, 0.7492533529335679, 0.6281753690035374, 0.7247885789508128, 0.8192928187765155, 0.7451345149808841, 0.5957743218605283, 0.8127856673972731, 0.5882860163335528, 0.6981498875969872, 0.7186718010912685, 0.7809533681664856, 0.7267783489342508, 0.5934101650419698, 0.7688170369430587, 0.6024209474614444, 0.6522049280426078, 0.8454142094091864, 0.6937774784671217, 0.6067917166863643, 0.8084184925976527, 0.747331520023031, 0.6065885061859262, 0.6248027307397384, 0.7391933917552325, 0.6995139192090662, 0.6089249054202798, 0.7381408331999109, 0.7042171472338432, 0.7147896281681966, 0.7557536086052394, 0.5941802583750848, 0.769419515798655, 0.7114051959876517, 0.7304903601126549, 0.7552462438715818, 0.7021868406196711, 0.6801571636234147, 0.6191924758287297, 0.6563785702840302]</t>
   </si>
   <si>
     <t>[0.8649626486866722, 0.7565152786216182, 0.5666521444752084, 0.6104373322730275, 0.8591823977181499, 0.8021592937787914, 0.6730236631057743, 0.7462489781817703, 0.3957815759690183, 0.8355577992500243, 0.581858545582177, 0.693910008679048, 0.544252363898456, 0.7532248213942955, 0.8170310885059822, 0.8058718085051197, 0.46974056706264444, 0.8094384318968944, 0.6962635704951972, 0.7927355109623471, 0.7055409371083514, 0.8911534199875083, 0.7338534263315064, 0.4976918603037197, 0.8056933560738662, 0.5358712419469194, 0.7830136179217272, 0.8309485040719782, 0.6531587016783649, 0.6053069123598196, 0.8337269674775011, 0.7739489074160723, 0.5065395345047188, 0.7386178446887683, 0.7620495591797452, 0.7730479843752865, 0.6734513194964009, 0.7532662985498224, 0.6310474335210132, 0.6949520179255608, 0.7583839747957636, 0.660587392481704, 0.6899384190886055, 0.8194359988491866, 0.8201592447222729, 0.8024147266917286, 0.6510637853007435, 0.7462725545282793, 0.7446209051293061, 0.48910550223365135]</t>
@@ -2989,7 +2989,7 @@
     <t>[0.7924051171080057, 0.7054904250545697, 0.38001868170943065, 0.5503722823185605, 0.8517752242380263, 0.7884125640732613, 0.6942055073479243, 0.8043309066568237, 0.29828395766683424, 0.7310920056235557, 0.7191908183711778, 0.7129563982514042, 0.568544354325643, 0.7623197427616357, 0.8166497938326278, 0.8555715681471938, 0.5237967419326792, 0.5087209531433993, 0.6312402234247538, 0.7478502606436261, 0.5652077135081439, 0.6581448260557441, 0.6528630728164542, 0.5615920707320821, 0.6559452584431256, 0.7116121010757435, 0.6488038677596536, 0.7588769293038254, 0.6872623826047526, 0.6577791542797079, 0.5741076294639951, 0.6886798361686666, 0.5575785131640529, 0.5038642696252669, 0.6739252010216279, 0.7140192513806036, 0.4136996187057136, 0.844270057202925, 0.6376232199989552, 0.6361724846326526, 0.7334760031102381, 0.581747461523437, 0.7892762133407456, 0.6306277373332857, 0.6717309812310637, 0.7748288004352866, 0.6756635470593111, 0.6491317959297427, 0.6818307767180067, 0.6160073938806372]</t>
   </si>
   <si>
-    <t>[0.7951077716585913, 0.7037548057292351, 0.3190785113320498, 0.5754674385278693, 0.8303263924800137, 0.8086912746597882, 0.6447548819069162, 0.8056891246067059, 0.270412407711898, 0.7161648218665733, 0.717268069430298, 0.7202227671112579, 0.6154534896273229, 0.7044326585060972, 0.7960371917296758, 0.771403187955822, 0.5594086758943151, 0.6309308730951003, 0.5710003721270194, 0.7326282351574942, 0.6644012419508813, 0.593274217599657, 0.6594010478664901, 0.5353740416901928, 0.7715778509706148, 0.5693853087995642, 0.6315462904743177, 0.7926854802248584, 0.6763786598834407, 0.5932255782017528, 0.7193437970728938, 0.7639626485883833, 0.6535475153763042, 0.5746374112828909, 0.6912445753799668, 0.6991978044390498, 0.6273095573372276, 0.7159479792557595, 0.6833473705934334, 0.6212402917865633, 0.74219484813247, 0.6659248111429891, 0.7698067868540822, 0.6087568832560112, 0.6900215226205879, 0.7405430550721726, 0.731535414644247, 0.6512683405201949, 0.6407119656758107, 0.6447327583453525]</t>
+    <t>[0.78434448340278, 0.7080388985034987, 0.338448838600806, 0.5994092719270923, 0.8214731903431445, 0.8175635699464934, 0.6626479351515373, 0.7842693756009458, 0.29857747785695987, 0.7540927861227935, 0.7611374638060628, 0.7094400355548142, 0.5881879323557906, 0.7425290520659833, 0.7923111400166367, 0.8012164439580096, 0.5871322124969965, 0.6773546067090652, 0.6162539121994596, 0.7591577999978888, 0.680259489901516, 0.621965474124029, 0.6591000332825405, 0.526530777487932, 0.7828497113820548, 0.5530518509781228, 0.6291872767214265, 0.7874232744758116, 0.6681637637282294, 0.6065545657084577, 0.7159774436938668, 0.7655005029702782, 0.6300715719367675, 0.5807019866623004, 0.6959552490119973, 0.6980115917568335, 0.6167503004634534, 0.7053561530633252, 0.7149596441792484, 0.6847640847516409, 0.7399487436033603, 0.5832893406207094, 0.7602182670096609, 0.6230190471624948, 0.6951343389164978, 0.7594258379671873, 0.6852385441597747, 0.6600454764711936, 0.6429031264455147, 0.6782856868673408]</t>
   </si>
   <si>
     <t>[0.7992837746770167, 0.7214133871534257, 0.4850159098456882, 0.6519101796621533, 0.8605279975719169, 0.8123262784788344, 0.73750870028058, 0.7953670576743161, 0.41956905334220673, 0.6947354163376025, 0.7291415226921343, 0.8256187849803464, 0.6553016789402859, 0.7973650145014488, 0.8619871030692332, 0.8771261298801998, 0.5305361994417166, 0.6912096810595515, 0.6517308569308483, 0.7753993047470245, 0.689188198548575, 0.683128382387994, 0.7303400006005687, 0.4742710742569687, 0.8783707485014168, 0.38875863038331904, 0.7490736190063915, 0.8054689175656263, 0.7295201247028081, 0.6848177696827427, 0.6528835022556354, 0.8281074798028509, 0.6240753397228329, 0.7068651101859282, 0.6793681413027708, 0.7351282043805367, 0.7191644489340212, 0.6958719813417928, 0.7225392158934478, 0.7118030471556371, 0.6700887065341758, 0.7283851755100625, 0.646848065984668, 0.7246924077827419, 0.7546836550344268, 0.76248082499958, 0.6784146096008555, 0.6657585554026941, 0.7804105504312487, 0.8283506302085433]</t>
@@ -3001,13 +3001,13 @@
     <t>[0.710220115435827, 0.6951751326354623, 0.6090323586111843, 0.6133887815692872, 0.7480540365363559, 0.6965121737642742, 0.6280775978701716, 0.7091456856103158, 0.39778869097539116, 0.8127755076589419, 0.6986277031495056, 0.4057340838265371, 0.6104162508599423, 0.6558251507296506, 0.6886940618857071, 0.8329914485338819, 0.6220061966312282, 0.7087329524203521, 0.47865589705116807, 0.7428193460551336, 0.7692705964501676, 0.2464210690203218, 0.7284721883857925, 0.2314346643136398, 0.7821667485313611, 0.7347449953137458, 0.54149599984749, 0.7902210161711837, 0.76273591392065, 0.5827928374055855, 0.5780927020948827, 0.7603933676137083, 0.7551976600399384, 0.4786514258355269, 0.8035323639560196, 0.688320666982961, 0.3275854362431545, 0.8084146876852977, 0.6834416577564727, 0.7956332377862387, 0.7918498335248103, 0.5158532971977894, 0.7882334184659422, 0.5191521714160989, 0.8348562663993883, 0.8292082735586745, 0.5873443486941742, 0.7359209363058743, 0.6106731698836592, 0.5470037685235563]</t>
   </si>
   <si>
-    <t>[0.7622070693006768, 0.7639311966948821, 0.3971814639079394, 0.5833800825939199, 0.7092721308412073, 0.6605524298184905, 0.6383694090297704, 0.7021416547189093, 0.23504305941741954, 0.6889828198631816, 0.669442191573101, 0.8155957441569667, 0.6863662809139457, 0.6873487948335244, 0.7218100527282574, 0.7715260565697895, 0.5072723241202697, 0.6633980948743494, 0.6539334654780893, 0.781236645335908, 0.6283536026087457, 0.6063554893794234, 0.7349269663860005, 0.10369237354519156, 0.7733701767793303, 0.41972994357838833, 0.5243955451115316, 0.6997439563336618, 0.7346834386978913, 0.6296082743725139, 0.6308071172274173, 0.6783947955022195, 0.6430206303188883, 0.6408165573479931, 0.47433108820017045, 0.5966465021380982, 0.5627060733532834, 0.7177371571652538, 0.6106170239911772, 0.6408565516676854, 0.7693093396589252, 0.48818716670152995, 0.5854484850570892, 0.842459715546453, 0.6373458306220228, 0.7558577992243202, 0.5174518247749047, 0.6505041565276464, 0.7480845169000099, 0.3321888295926416]</t>
+    <t>[0.7622070693006768, 0.7639311966948821, 0.3971814639079394, 0.5833800825939199, 0.7092721308412073, 0.6605524298184905, 0.6383694090297704, 0.7021416547189093, 0.23504305941741954, 0.6889828198631816, 0.669442191573101, 0.6867113423295685, 0.6863662809139457, 0.6873487948335244, 0.7230190517255044, 0.7715260565697895, 0.5072723241202697, 0.6633980948743494, 0.6539334654780893, 0.781236645335908, 0.6283536026087457, 0.6063554893794234, 0.7349269663860005, 0.10369237354519156, 0.7733701767793303, 0.41972994357838833, 0.5243955451115316, 0.6997439563336618, 0.7346834386978913, 0.6296082743725139, 0.6308071172274173, 0.6783947955022195, 0.6430206303188883, 0.6408165573479931, 0.47433108820017045, 0.5966465021380982, 0.5627060733532834, 0.7177371571652538, 0.6106170239911772, 0.6408565516676854, 0.7693093396589252, 0.48818716670152995, 0.5854484850570892, 0.842459715546453, 0.6373458306220228, 0.7558577992243202, 0.5174518247749047, 0.6505041565276464, 0.7480845169000099, 0.3321888295926416]</t>
   </si>
   <si>
     <t>[0.7553803670157563, 0.7286097461380996, 0.5560050244089315, 0.589917414159099, 0.7804785024992624, 0.8342283690828884, 0.7192982364572639, 0.6874969164907174, 0.4616071621615786, 0.7447281681573408, 0.7558059666372979, 0.841144250516497, 0.7225418956739459, 0.6443512021409776, 0.7624123177017362, 0.8321652404314579, 0.6301779056295089, 0.6919474017954473, 0.6146653695106699, 0.7238447024744368, 0.7614033050335673, 0.7084068748295869, 0.6840700676659305, 0.3340442828274365, 0.7385469206007408, 0.756589346370054, 0.5222206962918353, 0.8204122527668403, 0.7132044841933853, 0.6285876849737726, 0.61728482705, 0.8014824132385945, 0.7479407156206137, 0.6675788083433797, 0.7695284303229978, 0.6392846525375213, 0.37458247779216924, 0.7535163544127564, 0.7098014827230967, 0.8737824903412389, 0.7806755431127673, 0.5883009075857744, 0.8109128490028457, 0.6695119752032603, 0.7693912932501332, 0.8456950361664534, 0.7596052912716389, 0.7321278571881329, 0.7474041061946741, 0.3186983910834579]</t>
   </si>
   <si>
-    <t>[0.8303517700525304, 0.7313204417361459, 0.444276226367912, 0.6241116625283709, 0.8196005539460769, 0.7447612011816929, 0.6965350804625944, 0.7944167863028344, 0.3657329802040177, 0.7270042712882056, 0.7311004342254579, 0.7587329476434538, 0.6428117789998893, 0.6829290088030331, 0.8078282312606927, 0.7722029412862041, 0.6299822335234071, 0.7810445682265706, 0.6361066493047738, 0.7553436301999559, 0.7086691514866359, 0.6456448191612931, 0.67866696303544, 0.5640494465453875, 0.791186605487236, 0.63259444699327, 0.6281932838686556, 0.8598707680349106, 0.7071976344410893, 0.6474730584538102, 0.7386646533179482, 0.7791842682619663, 0.6474288049191934, 0.6044555077641334, 0.7113970746137127, 0.6445649261981445, 0.6290788815003501, 0.7443705927103077, 0.8101855174750796, 0.6394141868454633, 0.7636281450674098, 0.6953631695995722, 0.7948329438736604, 0.6487658667302887, 0.7099852448433239, 0.7331859413672166, 0.653269049078506, 0.6425669853152619, 0.6945620876824647, 0.6904283893067228]</t>
+    <t>[0.8331202007368874, 0.6948049038316002, 0.44579371183227257, 0.6360096597803909, 0.8381469604935363, 0.7657294874645098, 0.711880336719003, 0.8560717436688332, 0.3265316070690645, 0.7267305881641075, 0.7362849870931576, 0.7656976735458866, 0.6892173596930355, 0.7072198336775609, 0.8155586938326856, 0.7846795643981841, 0.6010552119375151, 0.7404467558792476, 0.6422844961846053, 0.7444097894525322, 0.7262892230678886, 0.6785186117197783, 0.7182443420419697, 0.5168102864173311, 0.7875552902886926, 0.6445318801701949, 0.6450515424221632, 0.8394308179228671, 0.6911633904911729, 0.6215391499535311, 0.7237445676819656, 0.7527874059662027, 0.6593917734367781, 0.6524108691539433, 0.738771376906227, 0.6769759224866185, 0.6225201666022306, 0.7638979059380056, 0.8028912806561077, 0.6659886393963621, 0.7519775114905116, 0.6920409824611035, 0.7980118883178667, 0.6886126347195503, 0.6657837249448767, 0.7595234422039553, 0.6456768074719541, 0.6291273887433041, 0.6573661020495642, 0.7429441200578866]</t>
   </si>
   <si>
     <t>[0.8199876345511429, 0.7497928009210871, 0.40626603217845814, 0.6993239522781542, 0.8815798866439291, 0.7275374560129174, 0.6580373766432286, 0.818857045684924, 0.5554741857550438, 0.8355302319663696, 0.6790529640303056, 0.8046863584133257, 0.7546258128075474, 0.8019387025585699, 0.8463784815148835, 0.8611022685533025, 0.4756105917725537, 0.7453774580647933, 0.5306040685818167, 0.8164914591136438, 0.7367847984865106, 0.7093825231593115, 0.7227036534293453, 0.6230022301787936, 0.8462575426159349, 0.5024526744375604, 0.7343706669171641, 0.8673658851652245, 0.7620795780858656, 0.7300128406715383, 0.7034574660120023, 0.8036077722198958, 0.761903036009599, 0.618013501974017, 0.7354800014558525, 0.8103542571779931, 0.5573734786386688, 0.5852348383083148, 0.8068523141179645, 0.7702130192197415, 0.7583303222253556, 0.7506467655292921, 0.6678484309437707, 0.822518245189425, 0.8206048769898762, 0.8469954356305254, 0.6529205619462004, 0.7211244439489385, 0.7940332144645805, 0.7641244471787328]</t>
@@ -3025,7 +3025,7 @@
     <t>[0.7831896842664614, 0.7301565565342525, 0.390071652128515, 0.497424512667372, 0.8475237584695005, 0.8608793840136509, 0.634393256990964, 0.6648277863696574, 0.40936516484856067, 0.7179824527475045, 0.6900474697577748, 0.78921745014997, 0.6046394991021138, 0.7416544053533944, 0.7884019412690366, 0.6732573007458618, 0.6192258777322882, 0.7034304289438147, 0.6645634266953493, 0.6660534610750929, 0.5833560721177276, 0.697675238933195, 0.6303496260147732, 0.4319822543081321, 0.7246942290782226, 0.6940967227447202, 0.602838644673082, 0.8030960937394696, 0.6089692421813238, 0.622274239303388, 0.5276031230653061, 0.7945786586276677, 0.6268255690468614, 0.6400683234907099, 0.6828133279170099, 0.6922663774942059, 0.34304012719601473, 0.7357337611297332, 0.6759841735826411, 0.6649969626962944, 0.7387672427553111, 0.6320069332984533, 0.8181612901663299, 0.7586928776879069, 0.6956662935734599, 0.7451365858327368, 0.6719997202167243, 0.6866788217986772, 0.6386821845163753, 0.371742390646276]</t>
   </si>
   <si>
-    <t>[0.8339842728394958, 0.7063361396704771, 0.3615846069029234, 0.6315677860396388, 0.8175840078970233, 0.7429096792995087, 0.6490067079785143, 0.8031145255776654, 0.383304046118392, 0.7426386255446579, 0.7181924006320837, 0.7633948020690378, 0.6256065937652098, 0.6820470701486178, 0.835853598124002, 0.7709087105103267, 0.6301605662919554, 0.7715610358313387, 0.6170668665558949, 0.7995349453795602, 0.6698971298796752, 0.6651474613864016, 0.7084730703816151, 0.5862686732603913, 0.795954568807486, 0.6780493835309594, 0.7083734282397948, 0.8482447186870663, 0.6915451822913026, 0.6949965071285009, 0.762828731226219, 0.7637337614699224, 0.6763399397891321, 0.5985254490111792, 0.6723470154964324, 0.7090271180796297, 0.6165877294040568, 0.7581402456744247, 0.7923004284132185, 0.72653906391944, 0.7499070333357082, 0.6593084524005839, 0.8214181792689981, 0.7479060175515695, 0.7011886214460654, 0.737587974351772, 0.6585119184872308, 0.6967781910920845, 0.673264745990039, 0.6955497292402142]</t>
+    <t>[0.8402785690869932, 0.7269101245398337, 0.3755376454778897, 0.6420473035154773, 0.7902489173345815, 0.754623816777482, 0.6114224014249209, 0.8505399226011018, 0.3673433208693274, 0.7233995626154823, 0.7360432482528886, 0.7741588747341478, 0.6270548093715673, 0.7092464497153608, 0.8288973179989173, 0.768996582081049, 0.6409210621759185, 0.7835497440490952, 0.5882936272310145, 0.7524630406324817, 0.646219273665509, 0.6510083144533639, 0.7366061140456606, 0.5654635597122226, 0.8041762767636458, 0.6025776668231269, 0.6694634154600931, 0.7873274425336569, 0.6938482839313608, 0.6612424001169328, 0.7527585659040854, 0.7664929518053166, 0.6423715571151707, 0.6550748170220257, 0.68700563194326, 0.6960904736359739, 0.6088924354058458, 0.7568848555013591, 0.7918039701860224, 0.6845110364220044, 0.7680911870175084, 0.6444536418136115, 0.8034507702287929, 0.7411859858778418, 0.7011828448889834, 0.7552715549516253, 0.6457399351165168, 0.6732893655691221, 0.6734469761141958, 0.7149632033313396]</t>
   </si>
   <si>
     <t>[0.8510634609098544, 0.7182658631259606, 0.5741051750504117, 0.653271394996757, 0.8299369606956026, 0.7503637202410111, 0.5128061280278704, 0.8503263072927706, 0.512735425183724, 0.8788406030535637, 0.697307446554039, 0.8617237758481451, 0.7655032460093897, 0.7149476370929073, 0.8467134622749523, 0.8510925818511896, 0.41620362775360864, 0.7742150916111181, 0.5563810703634089, 0.8439801580063219, 0.7355646260265372, 0.7291823395100656, 0.7226011527663383, 0.5980071720073932, 0.836467193315914, 0.6465473505408865, 0.731744278073573, 0.8575657268732021, 0.7612583019072554, 0.7369435524547665, 0.6697591033425605, 0.7983563219258234, 0.7926383223404384, 0.6278353091174895, 0.7774357369656105, 0.7147624487476191, 0.686868409859746, 0.7038825156815498, 0.7332721302927478, 0.7416139686366581, 0.7890366001246334, 0.6284711924287086, 0.7846024826689777, 0.7910341072257013, 0.782770567080837, 0.8233043805934388, 0.5896717043354878, 0.7458061824147291, 0.7777866247056372, 0.6329612109515331]</t>
@@ -3043,7 +3043,7 @@
     <t>[0.8400366474901292, 0.6768399682307891, 0.44436082772922114, 0.5427486684392329, 0.8034447896981654, 0.8203955201715796, 0.5838369369228141, 0.7590484451655324, 0.19434519250833826, 0.6772391921913425, 0.7022581598591557, 0.7722544214120509, 0.5966362564397423, 0.7301599412171335, 0.8232432163843928, 0.776534484171824, 0.667298526879563, 0.7857666324969929, 0.4968948974623997, 0.6839333934365356, 0.6176756467395096, 0.504238373116848, 0.6415719180982795, 0.2898995521013126, 0.6946473204320879, 0.6570253437270743, 0.5997551125606239, 0.7901156651470176, 0.7005068607593206, 0.586435967251958, 0.5361610912532552, 0.759413411832711, 0.625136906016856, 0.7456621178377953, 0.6382462108419145, 0.6673036001225281, 0.5226492386380052, 0.8021358481970131, 0.663132680788578, 0.6687196186344824, 0.691772522303307, 0.5781920129261914, 0.709725100512802, 0.7449767033287715, 0.7204066155752209, 0.791781041917016, 0.5822591670294754, 0.7034858742075661, 0.6348829214341005, 0.5965769671028675]</t>
   </si>
   <si>
-    <t>[0.8750509689320649, 0.7417579595530974, 0.4724811942600182, 0.5791774129573686, 0.8551704851429888, 0.8307824377350672, 0.6274810531230905, 0.8286659987209681, 0.27526704255846934, 0.7786808316608552, 0.7520862634704549, 0.7801570895697826, 0.6230342834698679, 0.7425576307378731, 0.8254405564429859, 0.8196145161089274, 0.6309535350421547, 0.8141408978369904, 0.583661678273063, 0.7308426861525164, 0.7471249321719255, 0.6494318816619336, 0.7150107234846552, 0.5619367196561944, 0.7869305817465493, 0.645616583374467, 0.6657522782778355, 0.8521280889623415, 0.6744852498947655, 0.6523806321894556, 0.7534039830280775, 0.7703340366565024, 0.6532263795087712, 0.6381351387893835, 0.7147803860677069, 0.7060049018163082, 0.6341302531296538, 0.7334104417317269, 0.752886508298047, 0.6611909921518601, 0.7430156691899978, 0.6370606047491074, 0.760049949582076, 0.7831498021290203, 0.6836919835641728, 0.7728628730292452, 0.6637198675744816, 0.6966226668170363, 0.6649983269022317, 0.6927572448133539]</t>
+    <t>[0.8512897407359474, 0.7281592456005445, 0.4573786787926589, 0.6022508457235047, 0.8215422750184995, 0.8395042989054009, 0.6004077072260267, 0.8419792341329899, 0.3148687690603873, 0.7380936538504885, 0.7533912505746287, 0.7519094184901115, 0.6330473309629089, 0.7346832109297342, 0.8460465778824687, 0.8115965549250395, 0.638772446852627, 0.8108370627505948, 0.625104566714931, 0.7405061537162252, 0.7432807967915505, 0.6279503150068215, 0.7093634115298069, 0.552325452186301, 0.7887311305137452, 0.6315378664729807, 0.6540859573402344, 0.8580849078567221, 0.7111908734350206, 0.6183441925554264, 0.731537330620011, 0.7495848913557089, 0.6348631848657558, 0.6055281868253334, 0.7279596671197872, 0.6996016564440386, 0.6190016101498164, 0.7349542392483165, 0.7106061280215737, 0.6721463200887497, 0.7614624103504659, 0.6415350573151011, 0.8064159377013056, 0.7606047374026701, 0.7000418899366194, 0.7568225242292197, 0.6766317320516991, 0.6691291351962693, 0.6684479190415065, 0.6636739814089003]</t>
   </si>
   <si>
     <t>[0.8889824218521488, 0.742293915438283, 0.5491486502399348, 0.554853104940064, 0.8478414677395597, 0.8575717551326243, 0.3166927437503011, 0.7532919884071767, 0.3873693126831371, 0.8493779452151844, 0.6489167310701918, 0.8560622555127178, 0.6455340588601431, 0.8377089707932415, 0.845430090003799, 0.8473991057498695, 0.5315885941397315, 0.7657790275472363, 0.5569445880522254, 0.7563731929080617, 0.7550619899973837, 0.83553818775318, 0.7372910637628451, 0.4661015852831303, 0.76549032093448, 0.5650163053362839, 0.747745489709535, 0.8844520809258378, 0.770344049429076, 0.7216586143799414, 0.7100677730039779, 0.7924716382504305, 0.6125828569064014, 0.6337668366192626, 0.7605806306862766, 0.6487905673349568, 0.5581303898645257, 0.7297354422938427, 0.7400801241140438, 0.7324822290196106, 0.8196697763348961, 0.7526600500855034, 0.7683740894167747, 0.8830680338233173, 0.813574066209481, 0.8136121219252623, 0.5834895874063044, 0.7552996074251743, 0.72388421571148, 0.5168642345646444]</t>
@@ -3055,13 +3055,13 @@
     <t>[0.8188454913055896, 0.7459727360076953, 0.40329409904647706, 0.4417504337206799, 0.8587975117491841, 0.8522574513508991, 0.7663257724804129, 0.8383578267332832, 0.3549885143278292, 0.7031660133515657, 0.8623986831336803, 0.7080456533323302, 0.6708032722112733, 0.6790080509637733, 0.8095927932348973, 0.8638081721230573, 0.6873366738144124, 0.7597729476349977, 0.6152952959008947, 0.7479439470919875, 0.8042267585984563, 0.44186810342841454, 0.6925076797380048, 0.40084105831913963, 0.7697941682186562, 0.6971541107227436, 0.7041816819451459, 0.8662457256351787, 0.6942104780022844, 0.7012012654917064, 0.5542788402425893, 0.8149905355306919, 0.665690756351373, 0.5303267377058303, 0.7801427828136263, 0.6343171772260495, 0.6556905370652975, 0.7668027689689204, 0.6700202497850435, 0.7368045048184773, 0.6962402001979517, 0.5084352169760765, 0.7474879427346732, 0.8398258558321835, 0.5529239787362284, 0.8520947352364755, 0.49636251549894084, 0.7101013674820922, 0.6783883550479739, 0.7371282914420589]</t>
   </si>
   <si>
-    <t>[0.8240866804900381, 0.405959127386728, 0.41590856568766, 0.5841643244728294, 0.8107037433988088, 0.8824939126685094, 0.5465015159824003, 0.789541657342284, 0.14357882613115236, 0.7455635047414237, 0.7312787266057235, 0.7548720296319138, 0.6349732702884205, 0.6811694640966118, 0.6602151781679084, 0.7890853782315749, 0.47467627217047914, 0.7778165334166433, 0.6875146326702785, 0.7969396422692607, 0.7274099425210163, 0.6965830737619091, 0.6032881343100621, 0.19338968071535312, 0.7856943928426331, 0.5870445810479104, 0.6384275894088588, 0.7783648451553429, 0.7770670479176744, 0.6751332242570343, 0.7042128542243153, 0.7121051566020329, 0.6699117833817697, 0.6875664370425583, 0.6032986607776629, 0.7775654112484685, 0.6283647143786282, 0.7685945317648843, 0.8032447553122315, 0.5724179240520546, 0.7675630813237192, 0.45818693770927155, 0.7500134871198745, 0.8396984232945299, 0.49239719265744974, 0.7579094984421266, 0.4759536996048125, 0.7182210339450608, 0.7279063019019403, 0.8341120683731592]</t>
+    <t>[0.8240866804900381, 0.405959127386728, 0.41590856568766, 0.5841643244728294, 0.8107037433988088, 0.8824939126685094, 0.5465015159824003, 0.789541657342284, 0.14357882613115236, 0.7455635047414237, 0.7312787266057235, 0.7548720296319138, 0.6307926355624152, 0.6811694640966118, 0.6602151781679084, 0.7890853782315749, 0.47467627217047914, 0.7778165334166433, 0.6875146326702785, 0.7969396422692607, 0.7274099425210163, 0.6965830737619091, 0.6032881343100621, 0.19338968071535312, 0.7856943928426331, 0.5870445810479104, 0.6384275894088588, 0.7783648451553429, 0.7770670479176744, 0.6751332242570343, 0.7042128542243153, 0.7121051566020329, 0.6699117833817697, 0.6875664370425583, 0.6032986607776629, 0.7775654112484685, 0.6283647143786282, 0.7685945317648843, 0.8032447553122315, 0.5724179240520546, 0.7675630813237192, 0.45818693770927155, 0.7500134871198745, 0.8396984232945299, 0.49239719265744974, 0.7579094984421266, 0.4759536996048125, 0.7182210339450608, 0.7279063019019403, 0.8341120683731592]</t>
   </si>
   <si>
     <t>[0.8131222498201333, 0.6660172805015028, 0.32244970127336103, 0.5285088789147894, 0.8442375897220118, 0.8139539575361526, 0.6681010723205731, 0.7738831842933106, 0.2541970849193259, 0.6907672358986312, 0.7068171767280919, 0.7383829046991897, 0.545586330238371, 0.7784260507364675, 0.8105699331588586, 0.7935480405404132, 0.6007740667224759, 0.6284419361251206, 0.5266945305113917, 0.6629123677059807, 0.4827548897535042, 0.6068513569703788, 0.6554975885725347, 0.5324382650854418, 0.7057335188841471, 0.7442979450634561, 0.6358855315188415, 0.8204571915798025, 0.7035135821413929, 0.6864845974755011, 0.5660678235070913, 0.7942817406347388, 0.5809769483410023, 0.6797842633937483, 0.6583004459111346, 0.6692415813323115, 0.4159270869061136, 0.8168035723769685, 0.7251358461200409, 0.6335702289723419, 0.7121606989711832, 0.5622294902664302, 0.8470593291181534, 0.7075772003748044, 0.6739688102500248, 0.7824669544006955, 0.6764532262769847, 0.6433906059094785, 0.703904612378639, 0.6166573731806757]</t>
   </si>
   <si>
-    <t>[0.8548124518218236, 0.7125404854243402, 0.40392428166942274, 0.5818060542493602, 0.8187208917959953, 0.8254932230925032, 0.7169016932045114, 0.8504246142044233, 0.2975371136545334, 0.6937921035014418, 0.6914813329963923, 0.7444170117607023, 0.5929110508278576, 0.701781668474631, 0.770975187644705, 0.8059950679522065, 0.6065683391859666, 0.6997272026830261, 0.6311362737660527, 0.7401072835546622, 0.6757742747958052, 0.5775984225170925, 0.676704209553809, 0.581011861480743, 0.7623942728454725, 0.6208321724116472, 0.631631749133024, 0.8205452853735389, 0.6800695196405956, 0.6353659560995677, 0.7471678015129597, 0.7892945316250388, 0.6482217731886835, 0.5632466601767552, 0.7086026887653009, 0.7370060797988555, 0.5960387490042067, 0.713731491601639, 0.7335420934091449, 0.6343530904466972, 0.7424658751854735, 0.6613922750874298, 0.7897376995849857, 0.6966105900530475, 0.6795343777477163, 0.7462090132539554, 0.6685591372576822, 0.6677332665344495, 0.6776057426958892, 0.7391188327902459]</t>
+    <t>[0.8333501749794282, 0.7369445181458052, 0.36439147942404204, 0.6093564187055174, 0.8423705740743009, 0.8381968536766544, 0.704391922463492, 0.8145189819373158, 0.26987256707480245, 0.7027892404867777, 0.7430792743119657, 0.7556618072890227, 0.5952123379124048, 0.7082562625098777, 0.7813120281746615, 0.794971660562528, 0.5590391243142102, 0.7075254458624018, 0.5944630517694395, 0.7322911587546863, 0.6816789539066639, 0.5859193126580725, 0.6961721623452688, 0.5533721449862045, 0.7755445268778636, 0.6006894572121276, 0.6642374871042497, 0.8123331638679582, 0.6529373300408989, 0.6292471242786515, 0.7582542411262213, 0.7894747396157391, 0.6178202594627809, 0.5931619324271593, 0.7107679954665642, 0.7370016494928495, 0.5685505530300802, 0.7212519255211832, 0.7181231482606247, 0.6226071995748057, 0.736605008256083, 0.6853223602411578, 0.8150721100244549, 0.7128505797090885, 0.6921667134943079, 0.7596179470309594, 0.7437896177099077, 0.6549520566354651, 0.6655775049720728, 0.7333793950131469]</t>
   </si>
   <si>
     <t>[0.8157359589239843, 0.6918568608639111, 0.3988879165599003, 0.6057875903624751, 0.8884729473623878, 0.7434607382277538, 0.5717367199935031, 0.8756072830614956, 0.480474713290983, 0.7678105364498857, 0.7317264030749522, 0.7228985366319989, 0.7086289690458918, 0.6631013247230471, 0.8313115175418627, 0.8371270097217639, 0.3840118487104538, 0.7094603424865349, 0.5796955941167955, 0.8697448787825786, 0.7335839644998845, 0.646240210778662, 0.6388895091080273, 0.40373729611900955, 0.8111960120353101, 0.5105023167784867, 0.8275804671809345, 0.8956511223546655, 0.7522940725592981, 0.6237650704636355, 0.6305740054298073, 0.760536120655671, 0.6552632407451082, 0.6383645513503411, 0.7553826402386787, 0.7860901930615478, 0.6319597673200683, 0.6670486475168458, 0.8030067483927912, 0.7002637680985775, 0.6872522832861683, 0.7485045035284301, 0.776466506579986, 0.785913532935792, 0.7695494316298879, 0.8088037896033133, 0.6047993144102248, 0.695620378993783, 0.7883341245272976, 0.7341423989197697]</t>
@@ -3073,49 +3073,49 @@
     <t>[0.7733764067073651, 0.695313140834588, 0.6116031165732001, 0.6821019177163608, 0.7394138747053411, 0.7112261753273987, 0.7035027540650245, 0.694692828107911, 0.45186496157100264, 0.7988254817094571, 0.7023574994111843, 0.4940880840096764, 0.7285463481750012, 0.45280484612097993, 0.7792062686516021, 0.8329676896366001, 0.6556425918194719, 0.6815247971882058, 0.5791195597105017, 0.754597670280873, 0.7422418754296161, 0.5751585173159643, 0.7073263935492127, 0.1911104472198928, 0.822465725127075, 0.6967369695105394, 0.6599822318975497, 0.7331756551710701, 0.7775329551378263, 0.48541366202449776, 0.6290055381893538, 0.7769991931806239, 0.7862206317760707, 0.547403179767896, 0.7988597460019068, 0.6375161364613486, 0.35658571083451807, 0.7629705215057545, 0.6804615662090925, 0.8332695037242064, 0.7604162429530092, 0.5952768352560924, 0.7871334629902123, 0.5581415015783484, 0.8467599424259242, 0.8530910424772341, 0.6403788449802612, 0.6669787251530974, 0.6257631716953092, 0.17425388224584815]</t>
   </si>
   <si>
-    <t>[0.850709404242091, 0.6483603243576914, 0.6046024999462933, 0.6228187471475047, 0.622159628516173, 0.8213600017438749, 0.6157701392639041, 0.6827004067598483, 0.4037940281716692, 0.7518822039316976, 0.6732437733033233, 0.6939760269460002, 0.561847848451431, 0.6427936091488462, 0.6898244328455543, 0.7805373057244649, 0.4961959944790084, 0.6779075071966498, 0.6150848987848696, 0.7748649395013903, 0.6687398399000102, 0.5471182166536672, 0.6846346397720477, -0.19050419526030682, 0.8326366873747066, 0.2753698064640321, 0.5470496837706653, 0.7336416229634102, 0.7230453415213993, 0.5044010496609102, 0.6154114820077504, 0.6879859573040248, 0.7924225030337153, 0.733421418966115, 0.7702170161978092, 0.5648020434521999, 0.5753831675479353, 0.7659143210532734, 0.3277328501165614, 0.7354162660172399, 0.7652425599160959, 0.5579850284644529, 0.7139354196090502, 0.3851676135656782, 0.6953665110083589, 0.7760062677779482, 0.5105386504314848, 0.6746173339209358, 0.7041063314513345, 0.14570616170961936]</t>
+    <t>[0.850709404242091, 0.478675335531902, 0.6046024999462933, 0.6228187471475047, 0.622159628516173, 0.8502786536239912, 0.6157701392639041, 0.6827004067598483, 0.4037940281716692, 0.7027541566001843, 0.6732437733033233, 0.6939760269460002, 0.561847848451431, 0.6427936091488462, 0.6898244328455543, 0.7640859847861347, 0.4961959944790084, 0.6779075071966498, 0.6150848987848696, 0.7748649395013903, 0.6687398399000102, 0.5471182166536672, 0.673101762927085, -0.19050419526030682, 0.8326366873747066, 0.2753698064640321, 0.5470496837706653, 0.7336416229634102, 0.7230453415213993, 0.5044010496609102, 0.5482380645919938, 0.6879859573040248, 0.7924225030337153, 0.733421418966115, -0.891853520435768, 0.5648020434521999, 0.5753831675479353, 0.7659143210532734, 0.3277328501165614, 0.7354162660172399, 0.7652425599160959, 0.5579850284644529, 0.7139354196090502, 0.3851676135656782, 0.6953665110083589, 0.7760062677779482, 0.5105386504314848, 0.6746173339209358, 0.7041063314513345, 0.14570616170961936]</t>
   </si>
   <si>
     <t>[0.8185040980786078, 0.7171587576466747, 0.6192671758075174, 0.5960308672410972, 0.8014967436322822, 0.8219663825779957, 0.7317914869526263, 0.7037319098777517, 0.4687276880885739, 0.8032471204344797, 0.7446507359716048, 0.7142929698278118, 0.716127767894893, 0.6564733738617852, 0.8150818941493961, 0.877809510995152, 0.7001928799187964, 0.6677830748228981, 0.6171449247029404, 0.7335455385439458, 0.7554459915802935, 0.6600870526071931, 0.7332348195347917, 0.3036225065583096, 0.877488282721554, 0.7598345052989742, 0.6270112222555806, 0.8165405909001825, 0.686455301891699, 0.6573422549443559, 0.6571967721523206, 0.7872556849247917, 0.7924208604473646, 0.6497354776283626, 0.805668194195651, 0.7409849710766718, 0.38999633666621236, 0.7376310396058703, 0.7017199245578651, 0.8821835389102525, 0.7641792417994263, 0.5972908077747099, 0.8100307826219821, 0.7201492856625318, 0.8573446311184616, 0.8681771133149188, 0.7553033108336407, 0.7399718026015163, 0.7131936372790538, 0.3362721840602476]</t>
   </si>
   <si>
-    <t>[0.8164498026629682, 0.7272370746436189, 0.4322982197069044, 0.6652560902487229, 0.8605242357856218, 0.8670795065851202, 0.7130724618220445, 0.7774065717791123, 0.33888092036537376, 0.744410176184017, 0.763729673696533, 0.7698304520732087, 0.6476799975665757, 0.7269267272783333, 0.8137539034430701, 0.8068009018272502, 0.5996954686482314, 0.7380698665437833, 0.670052061801824, 0.7177606411355106, 0.7303363244399843, 0.6728133463810763, 0.6851372753293075, 0.48788203864551394, 0.7705681058874612, 0.6329871156080007, 0.6613124496644214, 0.827067497573259, 0.7661146642188658, 0.687850798973751, 0.6884293505716972, 0.7764131253969082, 0.6792308314789892, 0.5818878577703814, 0.7329774757249379, 0.6383687628924286, 0.6508656419803678, 0.749078226169115, 0.7854436596735774, 0.7287704226444361, 0.7537632032617687, 0.7334889302790669, 0.7492744256432138, 0.6794779828449513, 0.7133065703659052, 0.7806891519215268, 0.7180180079911284, 0.6313771810091632, 0.67960159698419, 0.7442529184699749]</t>
+    <t>[0.8183141260236337, 0.7259040373527796, 0.41119219962669584, 0.6716587276342425, 0.8444977998260985, 0.8614324733665392, 0.6754338370571508, 0.8587544418892697, 0.3408169918908974, 0.7424089093850703, 0.7588290706332885, 0.8097927143682577, 0.6405007506076921, 0.7482538261223544, 0.8032064857542596, 0.8001502720321623, 0.5992347163250802, 0.7234693446240322, 0.6439838302855969, 0.7165904811986847, 0.7286779506675694, 0.6844146207774326, 0.7105671460517038, 0.5296884288295594, 0.7912655162737703, 0.6814122610869955, 0.6795621125744522, 0.7909458147815182, 0.7636907866944818, 0.6714796338002604, 0.6737417627659104, 0.785164791972208, 0.7052792864124917, 0.6641434616714528, 0.7329228137469216, 0.6596803529230977, 0.6421750605472524, 0.7484848995492765, 0.787196962655402, 0.6952886072183635, 0.7497628782611554, 0.7103265998836275, 0.7966103035731661, 0.6539072758384183, 0.6913622004883979, 0.7489233992235464, 0.7347003888850929, 0.6337005852168613, 0.6884883969402993, 0.7459452998925755]</t>
   </si>
   <si>
     <t>[0.8937352233673342, 0.7841363336834127, 0.4416284902542613, 0.6805144486700804, 0.9116417559107688, 0.8705916325904579, 0.761048683990506, 0.8009474281953426, 0.45359054986035874, 0.8483086801889055, 0.8166871509196434, 0.8263079735132435, 0.733407502631952, 0.7910963797553529, 0.8601035365453594, 0.8733485839480731, 0.6182252954243129, 0.7606611524925686, 0.7523939267957104, 0.6604910997303661, 0.7930103535828757, 0.698433991685945, 0.7574710777567875, 0.5824018692870268, 0.8995711645753478, 0.542186887347744, 0.7820588177619612, 0.8694366952541853, 0.8013066581023256, 0.6768950389717105, 0.7543977689839063, 0.8534936116148125, 0.782183275793957, 0.7430566823884025, 0.7513734949918228, 0.7472504657081974, 0.6128405956037972, 0.7813548178151629, 0.8255160284975804, 0.8339076771773409, 0.8444812747450983, 0.782394938061635, 0.7202809477148406, 0.651406639911581, 0.8140039190336288, 0.776363741863811, 0.6688113314958, 0.6609436120465488, 0.799960356447744, 0.5653137052408135]</t>
   </si>
   <si>
-    <t>[0.6439960993765358, 0.5721381485105046, 0.24155354207999113, 0.49355874528587285, 0.6379600117282997, 0.8254454564238339, 0.5504233682901343, 0.5606934187861203, 0.16121232100731997, 0.4653066292068193, 0.5706677242022491, 0.600271220561313, 0.6375940110187976, 0.5140094537715119, 0.5351326851888546, 0.6544383728130088, 0.6184490412001794, 0.59513877334044, 0.4128578311539167, 0.6481367948382191, 0.48510077959053033, 0.43736105013284154, 0.5414795123541609, 0.18979064260193468, 0.49089271241426435, 0.2630312991495678, 0.37924528233938715, 0.5970817211180429, 0.7142090327257185, 0.17181488269034695, 0.24074536829398296, 0.6666631814440414, 0.7389197615340943, 0.382242193871853, 0.49105990427506596, 0.4163638058341629, 0.15977262277064908, 0.651252366755795, 0.3501915200957044, 0.5193876752026533, 0.6338407959464917, 0.4415753523532846, 0.217220091073967, 0.5620713393295056, 0.5136936524035023, 0.7581934709097327, 0.29667839573180077, 0.4858246917965613, 0.520767507020671, 0.10803057305807628]</t>
+    <t>[0.6439960993765358, 0.5721381485105046, 0.24155354207999113, 0.49355874528587285, 0.6379600117282997, 0.8254454564238339, 0.5504233682901343, 0.5606934187861203, 0.16121232100731997, 0.4653066292068193, 0.5706677242022491, 0.600271220561313, 0.6375940110187976, 0.5140094537715119, 0.5351326851888559, 0.6544383728130088, 0.6184490412001794, 0.5951387733404399, 0.4128578311539167, 0.6481367948382191, 0.48510077959053033, 0.43736105013284277, 0.5414795123541609, 0.18979064260193468, 0.49089271241426435, 0.2630312991495678, 0.37924528233938715, 0.5970817211180429, 0.7142090327257185, 0.17181488269034695, 0.24074536829398296, 0.6666631814440414, 0.7389197615340943, 0.382242193871853, 0.49105990427506596, 0.4163638058341629, 0.15977262277064908, 0.651252366755795, 0.3501915200957044, 0.5193876752026533, 0.6338407959464917, 0.4415753523532846, 0.217220091073967, 0.5620713393295056, 0.5136936524035023, 0.7581934709097327, 0.29667839573180244, 0.4858246917965613, 0.520767507020671, 0.10803057305807628]</t>
   </si>
   <si>
     <t>[0.6522572080629634, 0.6667283150493186, 0.27156655030523424, 0.4878667877287798, 0.8594462963807639, 0.8155803310144816, 0.7467010742675075, 0.3660547012700254, 0.4020344782738554, 0.7126682684468687, 0.43409488724578493, 0.7245626904712839, 0.49048060887099654, 0.7270538910506353, 0.7874006779675218, 0.7971910583997422, 0.6685760352806294, 0.40596542408211644, 0.4940416072079007, 0.6513748471880465, 0.7872596031202372, 0.4188306610802033, 0.7008039124532057, 0.25508792685144277, 0.6647649030248635, 0.6961810882457424, 0.6966574365840421, 0.8363211483680713, 0.6788611773445163, 0.7150845890829558, 0.5122883492591963, 0.7730507957283963, 0.6588801130114871, 0.3180242057122471, 0.767200393918748, 0.230383240648391, 0.26644943114327235, 0.7840404008484166, 0.7261852054146607, 0.7135008612738445, 0.6968646434854808, 0.6214565061652151, 0.16946499147512295, 0.5529660625760007, 0.45757672395667304, 0.7410943431120975, 0.5226164320961078, 0.6797281082061046, 0.7057678634173546, 0.29972755977880194]</t>
   </si>
   <si>
-    <t>[0.8728976758864955, 0.522999718636592, 0.7045489564471774, 0.695615845828763, 0.7754089019664364, 0.8322473803298771, 0.6079093934657518, 0.7922090415354329, 0.5199846926657087, 0.7207796070749177, 0.7259898731986797, 0.5569261894792474, 0.7588459430550597, 0.691284606761067, 0.8053182231419018, 0.7377849600340146, 0.5550525860063839, 0.7542125529993984, 0.7467673138912263, 0.7611953970642092, 0.6296568773333795, 0.6019908481984262, 0.6825027687041483, 0.23722855984099012, 0.8105129218229219, 0.570807888470676, 0.6497851269831393, 0.7262651452449349, 0.7699513709291248, 0.5263665379205726, 0.7431091349801765, 0.6777612018603553, 0.7680578546093257, 0.7270670749364172, 0.5955689984751718, 0.7141346009847709, 0.5519235786533765, 0.6775214983907208, 0.7304388093759226, 0.8251006377095902, 0.6401887322699789, 0.5681218592774147, 0.7182487667510151, 0.7875915986007899, 0.7233576326040008, 0.8240908704671258, 0.5008298086462306, 0.6951409449426403, 0.63465558420691, 0.39258876126972553]</t>
+    <t>[0.8728976758864955, 0.7534092416913222, 0.7045489564471774, 0.698900323570441, 0.7754089019664364, 0.8322473803298771, 0.6079093934657518, 0.7922090415354329, 0.5199846926657087, 0.7207796070749177, 0.7259898731986797, 0.5569261894792474, 0.7588459430550597, 0.691284606761067, 0.8053182231419018, 0.7377849600340146, 0.5550525860063839, 0.7542125529993984, 0.7467673138912263, 0.7611953970642092, 0.6296568773333795, 0.6019908481984262, 0.6825027687041483, 0.23722855984099012, 0.8105129218229219, 0.570807888470676, 0.6497851269831393, 0.7262651452449349, 0.7699513709291248, 0.5263665379205726, 0.7431091349801765, 0.6777612018603553, 0.7680578546093257, 0.7270670749364172, 0.5955689984751718, 0.7141346009847709, 0.5519235786533765, 0.6775214983907208, 0.7304388093759226, 0.8251006377095902, 0.6857205844370947, 0.5115262984083241, 0.7182487667510151, 0.7875915986007899, 0.7233576326040008, 0.8240908704671258, 0.5008298086462306, 0.6951409449426403, 0.63465558420691, 0.39258876126972553]</t>
   </si>
   <si>
     <t>[0.8797723111458542, 0.7497134241422334, 0.31904525070809564, 0.622367794422516, 0.8519714570277843, 0.8350485437958285, 0.638167282515383, 0.6036017768091031, 0.4442250068589403, 0.7124565677107046, 0.7074023915703516, 0.7238631464573804, 0.6222362630513323, 0.7623071706662632, 0.8081250039816623, 0.7517022154526086, 0.41759752609413703, 0.7699287762297864, 0.4005459570569655, 0.6296331280069489, 0.6295496838976276, 0.43109516391678027, 0.6371689814226706, 0.2720648348672995, 0.751521688215858, 0.7065483918221414, 0.5810573044443752, 0.7920379458942055, 0.7377309976463824, 0.6009330014847964, 0.50998410224971, 0.8391198250094649, 0.6596169584005005, 0.6100575101885037, 0.6648390677807761, 0.6797013722966176, 0.2591628036838569, 0.7436560037746058, 0.6844303005140415, 0.6865897351265491, 0.7357365531706226, 0.6257572931312041, 0.8154147809179942, 0.6833046293973795, 0.6211892985686165, 0.7835263838407827, 0.6403864164125443, 0.6851943317952216, 0.6096801992805172, 0.6591838353834396]</t>
   </si>
   <si>
-    <t>[0.8311512494143874, 0.7010424805837314, 0.389515344497658, 0.6433051794635618, 0.8441405404390707, 0.860052203328599, 0.6711049455858078, 0.8412532163262326, 0.2930807573291171, 0.7950364628775433, 0.7288268954002657, 0.7885273475858827, 0.6197807311413808, 0.7593247178974055, 0.7836127012009708, 0.7556525108109277, 0.6046838599990028, 0.7244476496936869, 0.6547445162802742, 0.7204969956710304, 0.6559865107407574, 0.6693639433118577, 0.7154415639316174, 0.4384115009339493, 0.82936458582892, 0.5601777181292795, 0.7205985747537504, 0.8294895298965961, 0.7503770715675101, 0.7396275023885714, 0.7410804743272057, 0.8008110517156689, 0.715829924614533, 0.6356750442749259, 0.6996955138612755, 0.694172156572995, 0.614005373916986, 0.761036347629437, 0.6920432481386964, 0.6834669373418705, 0.743430026596605, 0.6630714696569314, 0.8260701352532771, 0.6507123051863246, 0.6816994111842057, 0.766215177442853, 0.6332167760328519, 0.6335569228839838, 0.698878449534355, 0.7300796595035984]</t>
+    <t>[0.8192037949472917, 0.7343650834421913, 0.39368922239258386, 0.6237084298748059, 0.8518607210282084, 0.8616382201886033, 0.6952499525165464, 0.8510661618895069, 0.32614583935250185, 0.7837916438929815, 0.7730158170253135, 0.8164527863939776, 0.6429219985745881, 0.7427442315705022, 0.811097251393351, 0.7724823564724587, 0.6128204354801801, 0.7340054292559652, 0.656951474860456, 0.7261976465095389, 0.6620572211602544, 0.6589509237023523, 0.7254837330562232, 0.5094125295803462, 0.7788374432400864, 0.559588172104351, 0.7021929105720628, 0.8301822200982478, 0.7483271835272325, 0.7290589945688963, 0.7286725300852959, 0.8165851680812674, 0.7142985008463112, 0.6544521500701488, 0.7039018702475679, 0.7120781096335769, 0.7213599752119159, 0.8021461322206916, 0.6945573214386792, 0.7451413775301265, 0.7516643923635667, 0.6407471006927804, 0.8349120477716135, 0.6546236653025268, 0.6997955898548021, 0.7590245124156723, 0.6246789475941928, 0.6508990461067539, 0.6932116476336523, 0.7639918228308784]</t>
   </si>
   <si>
     <t>[0.880661357263654, 0.7431026611906872, 0.3830506048362535, 0.6340255298351398, 0.900251353829228, 0.8985451503039246, 0.7551149399957733, 0.8412767186508938, 0.3540386480195187, 0.8410907100486757, 0.7532751257293907, 0.8479343321233053, 0.7172133470584258, 0.7847908704554959, 0.8750580019084481, 0.8562321555997869, 0.4923350094482778, 0.7650770286566964, 0.6855000270180174, 0.7523476299819347, 0.7836392691316871, 0.7867649758046694, 0.7589970165746853, 0.35686794742918526, 0.8579385843262993, 0.6469951701204293, 0.7831694052768898, 0.8539734309658118, 0.8031427751782696, 0.725580537571415, 0.7875526475809762, 0.8607859368719055, 0.76364617143243, 0.7891076274182076, 0.7466507781057624, 0.6692841910706273, 0.7608387351272334, 0.7891671067195387, 0.7748371734777493, 0.8041890247227728, 0.7337509123905823, 0.4024450309680162, 0.8535919864647306, 0.7339290131243614, 0.8471737312123679, 0.8433466509344135, 0.3510621418984786, 0.5846533885649052, 0.6892694535665456, 0.7105175821292213]</t>
   </si>
   <si>
-    <t>[0.5172642212028683, 0.5127911602862929, 0.28172546939611365, 0.46410620290374816, 0.6190178536073323, 0.7582250764086468, 0.621694004540518, 0.645478536325146, 0.2351421690479033, 0.5129422624242592, 0.6884900490986815, 0.34888312239250074, 0.5200906298272903, 0.58207391418082, 0.5859457186339514, 0.6923618244480613, 0.534614673999233, 0.5400045607048256, 0.3416816299213228, 0.6735983143814668, 0.5691335970857399, 0.4686806562285204, 0.6547201343934499, 0.17541481034259054, 0.5332854131693141, 0.4508977026202935, 0.41922459758486175, 0.66533679137738, 0.678149097393115, 0.30265854023683736, 0.5725600859307045, 0.7687314704491162, 0.6454212584540089, 0.5074981186234776, 0.45501171096530946, 0.5558305747092487, 0.30042202649422334, 0.6384106169822523, 0.6773375948280429, 0.5602936369277665, 0.5614449375017143, 0.4605888770402681, 0.4134755771810532, 0.5603792805723802, 0.48866833434471246, 0.8137781462129571, 0.4420063604823833, 0.5444132123818648, 0.5767990138769796, 0.3237156680567508]</t>
+    <t>[0.5172642212028683, 0.5127911602862929, 0.28172546939611365, 0.46410620290374816, 0.6190178536073323, 0.7582250764086468, 0.621694004540518, 0.645478536325146, 0.2351421690479033, 0.5129422624242592, 0.6884900490986815, 0.34888312239250074, 0.5200906298272903, 0.58207391418082, 0.5859457186339514, 0.6923618244480613, 0.534614673999233, 0.5400045607048256, 0.341681629921318, 0.6735983143814668, 0.5691335970857399, 0.4686806562285204, 0.6547201343934499, 0.17541481034259054, 0.5332854131693141, 0.4508977026202935, 0.41922459758486175, 0.66533679137738, 0.678149097393115, 0.30265854023683736, 0.5725600859307045, 0.7687314704491157, 0.6454212584540089, 0.5074981186234776, 0.45501171096530946, 0.5558305747092487, 0.30042202649422334, 0.6384106169822523, 0.6773375948280429, 0.5602936369277665, 0.5614449375017143, 0.4605888770402681, 0.4134755771810532, 0.5603792805723802, 0.48866833434471246, 0.8137781462129571, 0.4420063604823833, 0.5444132123818648, 0.5767990138769796, 0.3237156680567508]</t>
   </si>
   <si>
     <t>[0.8145447084870263, 0.6419346347245363, 0.4152660287773343, 0.5688626230801926, 0.8619533772162145, 0.8187700302836111, 0.7456195823073536, 0.7781249980365936, 0.19728883663637842, 0.6049333501280572, 0.7025189064000689, 0.7202715195661781, 0.6278152767632319, 0.6744917882243043, 0.8259993541556335, 0.7854827089452435, 0.4856367891670812, 0.40596542408211644, 0.6204198909719596, 0.8399280263964779, 0.623134141916529, 0.49341159765686715, 0.6942874274283217, 0.3098017649040947, 0.8425128100796222, 0.39411462440389333, 0.5912124302294879, 0.8285460015848389, 0.6822490383064562, 0.6138617030951492, 0.49745662035382787, 0.755853808979676, 0.6412270640596528, 0.3180242057122471, 0.6968621825610151, 0.6086388557346165, 0.49186805366027964, 0.7547482724076006, 0.732837679575038, 0.7349457140732382, 0.6435643226460679, 0.5570389327034198, -1.3517117562629228, 0.5760451204562507, 0.6858853692403614, 0.7997982474768707, 0.6514521091258916, 0.7424844214206802, 0.68951178697014, 0.5216274351109114]</t>
   </si>
   <si>
-    <t>[0.8208230880880105, 0.4997796039115101, 0.4748318188012284, 0.468823867806591, 0.8538994400695463, 0.82825638844246, 0.6382560458530697, 0.7754176731877392, 0.15684277175239159, 0.678976410881847, 0.6922387864616919, 0.8236470068319742, 0.6106622645517524, 0.635050691861251, 0.641529506933597, 0.7743523862633567, 0.5385139165904902, 0.7081472353446274, 0.6744216019197871, 0.7878364416744312, 0.7527049851738817, 0.5391737106451315, 0.651594448581645, 0.19013483100499562, 0.7911681943119129, 0.38356538537148643, 0.5557262443542944, 0.8295736120990848, 0.7425609615934077, 0.5239570901232993, 0.47558352497213097, 0.6227087956548323, 0.6330414943457255, 0.672403183622336, 0.38786585761241277, 0.5920150947807821, 0.6245037208601113, 0.7619917044123588, 0.5612295388456087, 0.6597407146982168, 0.6011087104839422, 0.6373740110139663, 0.7363919228348162, 0.6685603865734548, 0.7666368585652752, 0.8086091286087103, 0.5144787071554304, 0.6906186377786558, 0.6453405741380869, 0.7121132522954078]</t>
+    <t>[0.8208230880880105, 0.4997796039115101, 0.4748318188012284, 0.468823867806591, 0.8538994400695463, 0.82825638844246, 0.6382560458530697, 0.7754176731877392, 0.15684277175239159, 0.678976410881847, 0.6922387864616919, 0.8236470068319742, 0.6106622645517524, 0.635050691861251, 0.641529506933597, 0.7743523862633567, 0.5385139165904902, 0.7081472353446274, 0.6744216019197871, 0.7878364416744312, 0.7527049851738817, 0.5391737106451315, 0.651594448581645, 0.19013483100499562, 0.7911681943119129, 0.38356538537148643, 0.5557262443542944, 0.8295736120990848, 0.7425609615934077, 0.5239570901232993, 0.47558352497213097, 0.6227087956548323, 0.6330414943457255, 0.672403183622336, 0.38786585761241277, 0.5920150947807821, 0.6245037208601113, 0.7619917044123588, 0.5612295388456087, 0.6597407146982168, 0.6840583185484332, 0.6373740110139663, 0.7363919228348162, 0.6685603865734548, 0.7666368585652752, 0.7851797655635564, 0.5144787071554304, 0.6906186377786558, 0.6453405741380869, 0.7121132522954078]</t>
   </si>
   <si>
     <t>[0.8306875143276211, 0.7252814791373496, 0.5219900364022816, 0.46062569553563104, 0.8008804311447424, 0.7297886880051971, 0.6516570697333124, 0.7960044542000224, 0.22170602063920175, 0.6816318278631108, 0.7391520724765871, 0.6663455350005798, 0.5943546452998445, 0.7010274822804463, 0.8316901559437611, 0.7691258511214207, 0.6019214293197879, 0.769822848157748, 0.5796217512547617, 0.7719531131892938, 0.6083310354491118, 0.4766114675122214, 0.6708012151077964, 0.5247672211747392, 0.7568853073855266, 0.6951109028900044, 0.6194147180573188, 0.7881617402460253, 0.6263386966835753, 0.5177423236394134, 0.571954164603065, 0.7618355673247396, 0.6496147136763, 0.7064428386787036, 0.6565749491548354, 0.6621640354853879, 0.4657691831142824, 0.8101770347602693, 0.6727421358133114, 0.6861922338222421, 0.7376947355962827, 0.5669374810574616, 0.6971006716833628, 0.3921899370680737, 0.7373113587259899, 0.8158823011290104, 0.7300602164255345, 0.712692488990539, 0.6376351583174473, 0.5288042496839577]</t>
   </si>
   <si>
-    <t>[0.8576220830304235, 0.7036292455170375, 0.5365867363115757, 0.6015661376803867, 0.8525566498300953, 0.8658439971893866, 0.6685195508952273, 0.8342974242264753, 0.1613110570450067, 0.7672093500262354, 0.7238726013718341, 0.7629592919958075, 0.62081114956324, 0.7212111619040401, 0.8225360777484041, 0.7832003123408773, 0.6021582833628982, 0.7749199471162979, 0.617351067814057, 0.7107214682581733, 0.6931990890916462, 0.6956714503470898, 0.7019206590852146, 0.5177653031309561, 0.7758847742224286, 0.6087126752890692, 0.675034803666756, 0.8733320725740148, 0.7078050374937375, 0.6172410257858312, 0.7586079336342192, 0.7431188862619773, 0.6245269548633969, 0.5954810424310399, 0.7191898063241751, 0.6629885198914315, 0.6593379350793063, 0.7407515493576142, 0.7227285076467751, 0.6714179047347107, 0.7262879796610326, 0.6240168235616137, 0.8238682756200015, 0.7264042469079939, 0.707899207588995, 0.7637761379795042, 0.6907776128306312, 0.6895555698290248, 0.6502437888186805, 0.6489447417293721]</t>
+    <t>[0.8610522727606731, 0.6906926185108713, 0.568699248716954, 0.5868676284244216, 0.8403506746281206, 0.8605031391067204, 0.6430140125656325, 0.807243464965093, 0.19237102292021058, 0.7733405466873586, 0.71046676528457, 0.7935212364378552, 0.6064133673686719, 0.718600705063643, 0.816078672270766, 0.7752408654997869, 0.5749399275070949, 0.7888649781456482, 0.6118993794874965, 0.6965741386212565, 0.7184459060465551, 0.7795108362348082, 0.7306242676506647, 0.5087691516228197, 0.7791696494994629, 0.6437429212150332, 0.6692902488201142, 0.8395303619145629, 0.7485058704239002, 0.6438029095350888, 0.730501145281045, 0.7465486601987581, 0.6604025753184819, 0.6227870051872415, 0.7502645559703288, 0.6604699975277799, 0.652850278554524, 0.7364320081566595, 0.732536132415259, 0.6661465336583817, 0.7705017860610914, 0.5926641796413298, 0.8179501017228601, 0.7286505221854459, 0.7074139177481401, 0.7744998093310943, 0.6836311513859605, 0.6734015149020727, 0.644383238697253, 0.7034453425596756]</t>
   </si>
   <si>
     <t>[0.8462407482695028, 0.6985484403651459, 0.5795432029894216, 0.6508539026206226, 0.8764650616226537, 0.8788987409266249, 0.6214553909648017, 0.8527228247891013, 0.3913476319065794, 0.8453923854750096, 0.6374486373961381, 0.8039893076781428, 0.664147468648991, 0.7442609870006083, 0.8339960977615826, 0.8380304766907336, 0.636854295002646, 0.7568542979466876, 0.7057876249399793, 0.6661674135172173, 0.7260211482912403, 0.751324253872917, 0.6981693561583769, 0.39070387426431796, 0.8139007630818602, 0.4927547308084206, 0.7602568927456834, 0.88889617138072, 0.7437435998518128, 0.7016916771407061, 0.8431068628402034, 0.757161126263046, 0.6502471640731896, 0.722259008503738, 0.7478316739711371, 0.7086347455117485, 0.6129493621040051, 0.7374497206939254, 0.7300245676223149, 0.7184847802124611, 0.7739974177454575, 0.7009864929311032, 0.7104622319442706, 0.7765507306649, 0.8372378288710909, 0.7921710559934113, 0.6851108891656819, 0.728690049011991, 0.7076840241837807, 0.5510071515548949]</t>
@@ -3127,13 +3127,13 @@
     <t>[0.8334713348457299, 0.725188726609554, 0.376858164588029, 0.5665452791784895, 0.8473085625745798, 0.8350751496339697, 0.775280398375169, 0.3660547012700254, 0.34414577188289674, 0.7115632034974981, 0.816551933027585, 0.6737512276271518, 0.574238222889077, 0.6597470733007822, 0.6092476759016883, 0.857467808734223, 0.5281087869190659, 0.40596542408211644, 0.6509652349758565, 0.8226963339688278, 0.7245685180832437, 0.5584136559680586, 0.5614428874027206, 0.5083122498800432, 0.8628404311095481, 0.2950248550832417, 0.6958746281323709, 0.8580504576365647, 0.7019935457626278, 0.777739186407358, 0.5409940082155132, 0.7921734589550365, 0.6721105501528384, 0.3180242057122471, 0.7653128711082775, 0.6397568743344166, 0.5533109251860093, 0.7394539341732717, 0.7568889039353914, 0.6986490732585751, 0.6878302555987611, 0.5570186673860527, 0.7426590949125689, 0.7492044616565976, 0.737344953252866, 0.8164262942175953, 0.7394961232187536, 0.6898610859391844, 0.6785559211287756, 0.29972755977880194]</t>
   </si>
   <si>
-    <t>[0.8320437920072259, 0.5495898094798992, 0.48209909234027204, 0.51677469141468, 0.8362789487958278, 0.8210714014282706, 0.6928603654451526, 0.7867322825696434, 0.33334648629008135, 0.7302981815327154, 0.7296781603950666, 0.7608477035284489, 0.3806380024716174, 0.7751544200049334, 0.6297177639212046, 0.7665749016792965, 0.5162581320118307, 0.7812551362325515, 0.6708517631992043, 0.7438154151126906, 0.7353735186625223, 0.6494882604840095, 0.6204343047780339, 0.18532051983831332, 0.8461148134648375, 0.5487584280546146, 0.5255726925785792, 0.8400546727145529, 0.7561585480889503, 0.6468065308665218, 0.5289390301533723, 0.5976781387070744, 0.6874722714468062, 0.6843429826054591, 0.07892491219432063, 0.7658332030006639, 0.6468463910558602, 0.7407092039123324, 0.8156255953902849, 0.6430197352283034, 0.7322151239637236, 0.7050228922891906, 0.728828550666683, 0.8361295528536694, 0.7104612164205335, 0.7019804730439965, 0.5598057419003826, 0.7129655828469152, 0.7484738311851975, 0.7172670433114126]</t>
+    <t>[0.8320437920072259, 0.5495898094798992, 0.48209909234027204, 0.51677469141468, 0.8362789487958278, 0.8210714014282706, 0.6928603654451526, 0.7867322825696434, 0.33334648629008135, 0.7302981815327154, 0.7296781603950666, 0.7608477035284489, 0.3806380024716174, 0.7751544200049334, 0.6297177639212046, 0.7665749016792965, 0.5162581320118307, 0.7812551362325515, 0.6708517631992043, 0.7438154151126906, 0.7353735186625223, 0.6494882604840095, 0.6204343047780339, 0.18532051983831332, 0.8461148134648375, 0.5487584280546146, 0.5255726925785792, 0.8400546727145529, 0.7561585480889503, 0.6468065308665218, 0.5289390301533723, 0.5976781387070744, 0.6874722714468062, 0.6843429826054591, 0.6109396013520784, 0.7658332030006639, 0.6468463910558602, 0.7946843089093362, 0.8156255953902849, 0.6430197352283034, 0.7772124892485088, 0.7050228922891906, 0.728828550666683, 0.8361295528536694, 0.7104612164205335, 0.7019804730439965, 0.5598057419003826, 0.7129655828469152, 0.7484738311851975, 0.7172670433114126]</t>
   </si>
   <si>
     <t>[0.8628725999639254, 0.6646167845236908, 0.29097742645092317, 0.5644020036495626, 0.8363036503643925, 0.8559193159807048, 0.6496707565593638, 0.8172645836862674, 0.32485884696478495, 0.7147152639894954, 0.6897630707254159, 0.6602644414186432, 0.5755055104790106, 0.7766417553719535, 0.8210725540034144, 0.7915257030630705, 0.5729627529560282, 0.7180244089610901, 0.5664336924054864, 0.727848826340954, 0.5980563378314675, 0.6612212477712451, 0.6754842933274408, 0.4843116828683458, 0.7565220033497986, 0.6968417960930142, 0.5033689636449403, 0.802236220462365, 0.7272215454791229, 0.5492216676882533, 0.5574269506451021, 0.7953760703954751, 0.6196882452277716, 0.6712965490557101, 0.6321490128561011, 0.7114933985578891, 0.38149700980533585, 0.8376794607934465, 0.7403648691455162, 0.6383371885822826, 0.707697772717411, 0.5436170330395935, 0.7355740089621453, 0.7009244479865802, 0.7057943253773045, 0.7974400122454808, 0.7133475099994793, 0.65814577926534, 0.6054308569001432, 0.6284841586831336]</t>
   </si>
   <si>
-    <t>[0.804185047355839, 0.7195256692395547, 0.33493870785059365, 0.5763028726036504, 0.8299188739542764, 0.864119953456273, 0.6985949063722865, 0.84004011937696, 0.23043107893110293, 0.7437942928582123, 0.7605508123483524, 0.7667602014954503, 0.6127162223931162, 0.7075454558908152, 0.7732998493732112, 0.8013242118667728, 0.5622306393051909, 0.7041930258561738, 0.6426688080098639, 0.7419218995068483, 0.649230478903076, 0.6259830138226989, 0.6899542263164575, 0.5045062650294283, 0.7359109895519266, 0.6020689602952256, 0.6482399320479032, 0.8157434366226405, 0.6866782429930187, 0.6727467146311064, 0.6934059916986073, 0.7651897474792847, 0.6541855641896415, 0.6019655450574941, 0.7049030291404155, 0.6438839472926812, 0.6665908178426392, 0.7441880284719704, 0.759895205302394, 0.6367016216062862, 0.7487002128517806, 0.6661011614532899, 0.7837291665290389, 0.6972994606674736, 0.7077445426496805, 0.7645865112598856, 0.6756892675605307, 0.6376472607427088, 0.6577460625064983, 0.7230326787134498]</t>
+    <t>[0.8183960285312054, 0.7084693433362337, 0.35274970328779864, 0.588601509920933, 0.8519019919841069, 0.8594746030310004, 0.6652133505149652, 0.8443315634442676, 0.2492981594773377, 0.7090101874205388, 0.7328969086862207, 0.7951308780485884, 0.6151005869611488, 0.7357640155751386, 0.7970433919088901, 0.7986889572429772, 0.6029341768531264, 0.7095309704250512, 0.6325239376482434, 0.7050334546303965, 0.6125778387835263, 0.5957275397939417, 0.6921293466400742, 0.46349846964279795, 0.7885550542870987, 0.6208976036218743, 0.6398229674543148, 0.8217614817577967, 0.6587196685879109, 0.6760059829598413, 0.7133374364091406, 0.7608596484884855, 0.6612652380370737, 0.6183713597514018, 0.7263535372049144, 0.6678312468378695, 0.6504586999391798, 0.7175643719886522, 0.7174284826893668, 0.6372675315807885, 0.7535390289872181, 0.611002740804722, 0.7776379486309528, 0.6563492165065314, 0.7057775324845021, 0.7525514825031935, 0.6538863501297969, 0.6510154952967029, 0.658134829628649, 0.6988575210280044]</t>
   </si>
   <si>
     <t>[0.8513487159006314, 0.7595127956763047, 0.27907636492189114, 0.6434172283630244, 0.8711533275007757, 0.8594736800626862, 0.6763810498289521, 0.8914844951150118, 0.3466138480135237, 0.749307995546935, 0.7616225240097365, 0.7150902526380765, 0.720377475129196, 0.6842936825362007, 0.8772977209634845, 0.8813496488514652, 0.3349786689396246, 0.7368510661526019, 0.708413917990677, 0.6991152098480913, 0.7587188206525962, 0.7030979763461476, 0.742721995589596, 0.5497259690064835, 0.9026316867909087, 0.3893246637918709, 0.8015978431577326, 0.8394267814183516, 0.7472386825662114, 0.7829011501847392, 0.7301198351510163, 0.7898297684959426, 0.7105037761492584, 0.6843883420070199, 0.7939505419334165, 0.629633366468077, 0.7074872771645981, 0.6468671542075208, 0.8215604402013991, 0.7500926981335854, 0.8194686874403647, 0.7076259601014134, 0.8476872289991142, 0.7212981557529536, 0.7412263416778642, 0.8245510443093919, 0.3663887562503445, 0.6334389415984596, 0.7432980523156171, 0.720838534973292]</t>
@@ -3145,19 +3145,19 @@
     <t>[0.6590730393589347, 0.7426583254005821, 0.5324885685531859, 0.5224845879390863, 0.7291595630685848, 0.7113369787703465, 0.7857827600953526, 0.6896786556553914, 0.4893508783939692, 0.8074827907565845, 0.6330045080334172, 0.6983418912251274, 0.6443773001214554, 0.6546681261762344, 0.8220063671604936, 0.832408270609204, 0.6315063422620477, 0.6635863046882228, 0.6794368049221032, 0.7473383289504872, 0.7504369292660975, 0.408809455569787, 0.6316455068811049, 0.0968063221720662, 0.8153124615364156, 0.5990436738022562, 0.6169693180380272, 0.7957910690031568, 0.7223721033545627, 0.3832163913344955, 0.6223225170677855, 0.730519542128886, 0.7812858351325396, 0.6267736577334161, 0.7871640967265725, 0.7360116364745466, 0.3637010603132479, 0.7490660217554481, 0.7032207288321362, 0.8550717225098841, 0.7129856762318149, 0.6439625320353035, 0.7479621189732273, 0.5641224185602305, 0.8201675367094764, 0.846899470565917, 0.6968605973302564, 0.7621711979352028, 0.6417058751177664, 0.30141984597994564]</t>
   </si>
   <si>
-    <t>[0.764110078942551, 0.6122954868296846, 0.4066070409047252, 0.6320466738247841, 0.7085858946442356, 0.8184430515847505, 0.6108643375079617, 0.7120450920638342, 0.43886567160399714, 0.5977868134485493, 0.6889041858286382, 0.505912460347105, 0.6239353073050853, 0.6825623871168041, 0.6491887074968037, 0.7538689495610528, 0.543593875414111, 0.47496398155592745, 0.6536774400761866, 0.715915408406413, 0.5540827472479387, 0.5693257248306036, 0.6465849827763916, -0.12666832990822852, 0.8527084080429468, 0.3425945176341877, 0.38075208775199776, 0.7405469854427367, 0.7250357889146302, 0.6115453471206986, 0.5701160091189457, 0.6112967310679185, 0.7308711529911662, 0.7268269767918178, 0.5769757202596899, 0.5871286040732632, 0.4499209919786875, 0.7351199342993653, 0.5930965657898242, 0.6604777373008716, 0.7852489265311606, 0.7061620042743637, 0.5297570973303368, 0.6515839322752488, 0.5824969923219512, 0.8035162965668307, 0.6823463464375844, 0.6753626927504546, 0.7412053238963412, 0.3385941273861647]</t>
+    <t>[0.764110078942551, 0.6122954868296846, 0.4066070409047252, 0.6320466738247841, 0.7085858946442356, 0.8184430515847505, 0.6108643375079617, 0.7120450920638342, 0.43886567160399714, 0.5977868134485493, 0.6889041858286382, 0.505912460347105, 0.6239353073050853, 0.6825623871168041, 0.6491887074968037, 0.7538689495610528, 0.543593875414111, 0.47390770472312727, 0.6536774400761866, 0.715915408406413, 0.5540827472479387, 0.5693257248306036, 0.6465849827763916, -0.12666832990822852, 0.8527084080429468, 0.3425945176341877, 0.38075208775199776, 0.7405469854427367, 0.7250357889146302, 0.6115453471206986, 0.5701160091189457, 0.6112967310679185, 0.7308711529911662, 0.7268269767918178, 0.5769757202596899, 0.5871286040732632, 0.4499209919786875, 0.7351199342993653, 0.5930965657898242, 0.6604777373008716, 0.7852489265311606, 0.7061620042743637, 0.5297570973303368, 0.6515839322752488, 0.6085088964292937, 0.8035162965668307, 0.6823463464375844, 0.6753626927504546, 0.7412053238963412, 0.3385941273861647]</t>
   </si>
   <si>
     <t>[0.8148235473130201, 0.7796442186283593, 0.6527174365162919, 0.5810345990288902, 0.8075401328244072, 0.8162534488988804, 0.7829636894162335, 0.7067185798856161, 0.47287486413837854, 0.783647750913789, 0.7208375191799794, 0.7000820399842915, 0.7235651862921394, 0.6403237377441688, 0.8398358859971742, 0.8777685537197273, 0.7174967478026952, 0.6518137426065813, 0.6210212353572269, 0.7222840494059926, 0.7589008482537389, 0.7403415602028369, 0.7280509257566882, 0.32131220003998384, 0.8567591125422895, 0.7405828185320016, 0.6362035869869576, 0.8103235600732915, 0.6868221495005721, 0.4070856071179183, 0.702207863075057, 0.7977726771645232, 0.7764117874948631, 0.6379014795177111, 0.8007162304661454, 0.7460178275888059, 0.5584652319449681, 0.7330350142584623, 0.7838420130168539, 0.8720892173417581, 0.7486243206493193, 0.5932707733912284, 0.7846940856089251, 0.7161510612843827, 0.6833147532675639, 0.8336084300789925, 0.7623267989239901, 0.7717785071162985, 0.6361457944488642, 0.308279240565106]</t>
   </si>
   <si>
-    <t>[0.8207442115346877, 0.7466905420803257, 0.43655830052862143, 0.6142325662381496, 0.8022082198086947, 0.8299060991431454, 0.7060080965591782, 0.786776791660875, 0.333917781752465, 0.7188872660125345, 0.7475811876187737, 0.7069358693921755, 0.590020472908571, 0.6912823659064786, 0.7744479060423478, 0.8005801862684166, 0.6244045452820876, 0.7059406908178001, 0.6328603578198138, 0.761872759835367, 0.7180253702619557, 0.6742675284094308, 0.6754637277985356, 0.5566778561239399, 0.7910785045443817, 0.6335473645086274, 0.6170919982587277, 0.7915299401875278, 0.670974709965551, 0.6515280022578157, 0.73220131793076, 0.7508621124122509, 0.6978074696522878, 0.6102248246718305, 0.7439981685414782, 0.7228398710363833, 0.5857708313201112, 0.7547637543711506, 0.6764781506165454, 0.7068751943412716, 0.7490524382489132, 0.7051286465397386, 0.7598909291728493, 0.6476342216670301, 0.7188261512956107, 0.7699198786805126, 0.7046192741201827, 0.6679693048173369, 0.6229244191784371, 0.7450520586616876]</t>
+    <t>[0.7967432238374763, 0.721856134294113, 0.42449201666383296, 0.6069673158815974, 0.8176404685994552, 0.8130406036501682, 0.7286298627408168, 0.7603455194340709, 0.34191099276070713, 0.7491411221539113, 0.7502850162944867, 0.6937503257075763, 0.6444733282779269, 0.68858803642767, 0.7757804642685291, 0.8253674210852442, 0.6086538274428255, 0.7403814046237938, 0.6160724960196075, 0.7458934936069872, 0.713074001360172, 0.6956540383384451, 0.637272581336045, 0.567465162288141, 0.7479108475520941, 0.5978512349408356, 0.6184764435327967, 0.7791098928394881, 0.6477792007369318, 0.6340677320888746, 0.7289914730588145, 0.7045100595021045, 0.6900426718840142, 0.577119470985064, 0.7442426226474974, 0.7162014438353701, 0.5864573618911856, 0.7436525227212551, 0.6762570995672288, 0.7168384544494212, 0.7430834148685479, 0.7133902201568822, 0.7352697103055211, 0.6766325541686633, 0.70782397777961, 0.7621943524058209, 0.7394551844503987, 0.6259872471208044, 0.64245337792414, 0.7136668860412874]</t>
   </si>
   <si>
     <t>[0.8737314583895266, 0.7617338772202854, 0.38675527708662827, 0.6260792167973344, 0.8669840183565325, 0.8787410417018495, 0.8084152864403371, 0.7741884098865683, 0.5493038476998556, 0.7406040222748433, 0.7599537450168343, 0.7419034717119672, 0.628029553336608, 0.7853746827229362, 0.8901568168085823, 0.8728322176802419, 0.729725803887362, 0.8123126846002083, 0.708136035066244, 0.7001809622005195, 0.7987545138881078, 0.6721683264081405, 0.6961834204371893, 0.5073465370022288, 0.8690663125640077, 0.5880209420435787, 0.7403422151675577, 0.7350301800572928, 0.7871255089787541, 0.6534742792340082, 0.7253782216851059, 0.8344668932614824, 0.7603006356269864, 0.6119061984924308, 0.7149798185622662, 0.7577119968422131, 0.604671062429868, 0.7299392504552737, 0.6801571382524391, 0.7663149131152563, 0.7601979463448875, 0.7530161466180226, 0.5165939343208727, 0.7539860801941122, 0.8142269558447734, 0.8470423677755863, 0.7717636046481178, 0.7124160531061667, 0.7696326320925018, 0.6273893480552593]</t>
   </si>
   <si>
-    <t>[0.7633878269176356, 0.19300730261163968, 0.16980555751045845, 0.4198170075650033, 0.6685696946446338, 0.6605025955621915, 0.42174335428411613, 0.6366951827242928, 0.2127205201545509, 0.5591288215659415, 0.5595942854749075, 0.37912089279909045, 0.2796273380420756, 0.5045865330314342, 0.6505153900300593, 0.645060645522383, 0.4565846172948249, 0.4384212031419592, 0.44668550012619024, 0.7060186220854158, 0.46890279917879774, 0.11499326428174117, 0.5569408489260816, 0.27551278215025954, 0.33920028225144105, 0.44949948567263776, 0.36066905535981264, 0.6653124467222664, 0.5579443095226193, 0.22000278580009824, 0.5797771298686388, 0.4680265098403513, 0.44693554271766567, 0.3842618564898863, 0.533770465152731, 0.5574784259052425, 0.3127295919359141, 0.6885617926445741, 0.6682398474212917, 0.5027897511680341, 0.4451154289702529, 0.41062671494455594, 0.363507929649292, 0.5988550092518101, 0.5960335818685867, 0.6002127384186156, -0.5859624832595247, 0.6624826275593565, 0.49620627972194997, 0.09516622818287956]</t>
+    <t>[0.7633878269176356, 0.19300730261163968, 0.16980555751045845, 0.4198170075650033, 0.6685696946446338, 0.6605025955621915, 0.42174335428411613, 0.6366951827242928, 0.2127205201545509, 0.5591288215659415, 0.5595942854749075, 0.37912089279909045, 0.2796273380420756, 0.5045865330314342, 0.6505153900300593, 0.645060645522383, 0.4565846172948249, 0.4384212031419592, 0.44668550012619024, 0.7060186220854158, 0.46890279917879774, 0.11499326428174128, 0.5569408489260816, 0.27551278215025954, 0.33920028225144105, 0.44949948567263776, 0.36066905535981264, 0.6653124467222664, 0.5579443095226193, 0.22000278580009824, 0.5797771298686388, 0.4680265098403513, 0.44693554271766567, 0.3842618564898863, 0.533770465152731, 0.5574784259052425, 0.3127295919359141, 0.6885617926445741, 0.6682398474212917, 0.5027897511680341, 0.4451154289702529, 0.41062671494455594, 0.363507929649292, 0.5988550092518101, 0.5960335818685867, 0.6002127384186156, -0.5859624832595247, 0.6624826275593565, 0.49620627972194997, 0.09516622818287956]</t>
   </si>
   <si>
     <t>[0.6382053859092858, 0.7608407483821773, 0.3530578291634062, 0.4777736670832118, 0.8440574555596706, 0.815637066006565, 0.7661231277355491, 0.679188397003661, 0.35551536670054007, 0.5715497754124867, 0.6666986251670912, 0.7184683150802476, 0.6583639534878043, 0.7441635398797471, 0.7993264764283283, 0.7960713019980747, 0.733429830697585, 0.7552347773065982, 0.6073429169645774, 0.6362484344881838, 0.7588230928755608, 0.37591189796782853, 0.7238421738404965, -0.1472627365542849, 0.6564745172851343, 0.6571541006456504, 0.7123622763654943, 0.8308896265194936, 0.6484337156682041, 0.7115859948849463, 0.5391912370691054, 0.7407238607405616, 0.5686339786847108, 0.7323940911603783, 0.7772426272589117, 0.584166734005789, 0.3264379379892237, 0.7775500511975294, 0.7166579690194461, 0.7168288666580802, 0.6821162158039604, 0.6233454105326961, 0.6703622974653636, 0.5619839730610603, 0.6229414350572441, 0.7299601742595263, 0.3677838652097084, 0.6809018358788763, 0.669341860814463, 0.4946300012140711]</t>
@@ -3169,25 +3169,25 @@
     <t>[0.8122042960215136, 0.7100949150370764, 0.3760811517491681, 0.6034770876821345, 0.8367236598336023, 0.8546812368047277, 0.6565601231386851, 0.6472739646033708, 0.4330969013093725, 0.7276090298485813, 0.705908539734208, 0.6841150382246438, 0.6095186983045094, 0.760121614649661, 0.8529051521564062, 0.7679417902983224, 0.6689097994316986, 0.6625206242155651, 0.47950472830722213, 0.5980383936360923, 0.6119627500395978, 0.6743021795413073, 0.6547232470157456, 0.26964293888753044, 0.6732894634765273, 0.6947066581957141, 0.6109281675625909, 0.7927494066709995, 0.6879862616116255, 0.5081506944297219, 0.6723674003706401, 0.7967798754319813, 0.6687386957988584, 0.7006659231440584, 0.6502047938099113, 0.6814905690098012, 0.19849021727798066, 0.6713240657236794, 0.7039624816793375, 0.6837252742796769, 0.7498771667656983, 0.6008285670083111, 0.8226833739892931, 0.685801259497446, 0.7088670098160703, 0.767651109080872, 0.5743061136507279, 0.7003352712198968, 0.6179466101865445, 0.40315577737666386]</t>
   </si>
   <si>
-    <t>[0.8321663949930214, 0.7461138174904498, 0.41063494487040564, 0.6303246236815128, 0.7936381410608428, 0.8442612903672523, 0.6813831868033973, 0.7862326378817693, 0.3065482299750598, 0.7839332813916704, 0.7778668835888979, 0.7108004656536456, 0.6340443033173089, 0.6980583178286608, 0.8060027485185473, 0.7899805396821884, 0.657077762248435, 0.7199138490704307, 0.5995326487174959, 0.7445342007757223, 0.653460168931749, 0.6548779030343294, 0.7187987205949194, 0.5883239460833989, 0.7394410469848782, 0.6138887566656702, 0.6525922505632984, 0.7831355688935255, 0.6606098620277026, 0.6645614292560968, 0.7386429563542507, 0.718207267092178, 0.662474318410111, 0.6035384196515129, 0.7125889363319864, 0.775209719439676, 0.6317866672034942, 0.7540798760598371, 0.6448610715838438, 0.6799558368402862, 0.714750301981528, 0.6464300515502528, 0.7789699475690454, 0.6420197304528685, 0.7297205348673449, 0.7460307933135655, 0.7257393253385122, 0.6244884907917907, 0.6898302637623256, 0.777873361297127]</t>
+    <t>[0.8379731794600787, 0.7388520272101594, 0.4481600563022081, 0.6195196055604304, 0.7760576528395421, 0.8180389668409986, 0.6717835352621819, 0.8002382937088045, 0.31511178224979686, 0.7892723521872744, 0.7622989821627819, 0.6880435226709043, 0.6138871503220769, 0.6754652910932399, 0.8008566372997277, 0.8022099970135494, 0.6641537417081103, 0.7239624183074784, 0.607325963520188, 0.7411725212202983, 0.6458666588005275, 0.7479606629208826, 0.7133612044815486, 0.5524079748988271, 0.7864489151515945, 0.6286399476542318, 0.6617811525807187, 0.774376133752677, 0.7218663204977949, 0.6838983106702399, 0.7758851233207491, 0.764671489434965, 0.6565676678062593, 0.6369599810154614, 0.7401501560995447, 0.7567806159795385, 0.5728077221976893, 0.7078464861622077, 0.6585504833703311, 0.6488188580328025, 0.7271363268840441, 0.6111323662029824, 0.7731074168551351, 0.7199153452451023, 0.733326693412096, 0.7555960637641967, 0.7417752087104164, 0.648493798409028, 0.6708901864697958, 0.7254719860500523]</t>
   </si>
   <si>
     <t>[0.8810628501777377, 0.753005542352047, 0.5025789374137348, 0.5772485780007202, 0.8718528152648334, 0.8262948541662021, 0.8040719490434004, 0.7662085352611256, 0.49843720110788026, 0.7764724457477441, 0.7030527205753261, 0.6961852282929852, 0.6649741093836213, 0.7691841833906434, 0.8308564399950988, 0.7144759982247726, 0.7130678755557089, 0.7909471778387249, 0.6356773975300063, 0.6909145031643606, 0.7356893561106836, 0.7342283764814123, 0.6855472107909186, 0.39980682987482863, 0.7930960752759597, 0.5700498030905519, 0.7760751332223814, 0.775598654070014, 0.7516174237161478, 0.6916827727958306, 0.7489364071449323, 0.7631239976189228, 0.7232197818170358, 0.725087915371702, 0.6616884065728861, 0.8543914593397524, 0.6506309431419706, 0.6855081736218824, 0.6920175161762699, 0.8242945116807588, 0.7632216774257393, 0.618511516604124, 0.7520596207751692, 0.7434591747318038, 0.8228584591154524, 0.7900771065237928, 0.584686868461571, 0.7409795243031668, 0.745076910931109, 0.48312803789141034]</t>
   </si>
   <si>
-    <t>[0.7836565773433924, 0.4864204742361513, 0.15660318051463984, 0.43726342527155915, 0.653660907424636, 0.6592103132632026, 0.5949722392896861, 0.6179775374570888, 0.10423226552371023, 0.254440976277554, 0.6228807124136826, 0.3928908501735079, 0.5117453456857033, 0.23704486707491423, 0.6153676357714978, 0.7018238890368487, 0.5188552557329202, 0.47472350885829806, 0.4413548963904034, 0.6111045862181733, 0.5225040034805567, 0.2822859096888256, 0.659755360597241, 0.2121081402227859, 0.4510283022129139, 0.49390479560179557, 0.4374162270611347, 0.6927570034458546, 0.6343669179262714, 0.37214714945482064, 0.6247478592844444, 0.5534899138582849, 0.4732352734710802, 0.4174286525689678, 0.4751932219011916, 0.5670878211389396, 0.11777019124907506, 0.4760002625235906, 0.5278602984671642, 0.5602570860525039, 0.5551350326365592, 0.44238073850989545, 0.5470101125275085, 0.4784172890399395, 0.4752885007571882, 0.730108541467796, 0.30122487837416667, 0.5165749316996271, 0.5491111087203511, 0.23373618143275854]</t>
+    <t>[0.7836565773433924, 0.4864204742361513, 0.15660318051463984, 0.43726342527155915, 0.653660907424636, 0.6592103132632026, 0.5949722392896861, 0.6179775374570888, 0.10423226552371023, 0.25444097627755125, 0.6228807124136826, 0.3928908501735079, 0.5117453456857033, 0.2370448670749199, 0.6153676357714978, 0.7018238890368487, 0.5188552557329202, 0.47472350885829806, 0.4413548963904034, 0.6111045862181733, 0.5225040034805567, 0.2822859096888256, 0.659755360597241, 0.2121081402227859, 0.4510283022129139, 0.49390479560179557, 0.4374162270611347, 0.6927570034458546, 0.6343669179262714, 0.37214714945482064, 0.6247478592844444, 0.5534899138582849, 0.4732352734710802, 0.4174286525689678, 0.4751932219011916, 0.5670878211389396, 0.11777019124907506, 0.4760002625235906, 0.5278602984671642, 0.5602570860525039, 0.5551350326365592, 0.44238073850989545, 0.5470101125275085, 0.4784172890399395, 0.4752885007571882, 0.730108541467796, 0.30122487837416667, 0.5165749316996271, 0.5491111087203511, 0.23373618143275854]</t>
   </si>
   <si>
     <t>[0.8687275918034315, 0.7599338504312656, 0.35172673911621855, 0.5129283908717357, 0.7464880495319962, 0.8191451679628676, 0.8012950354835815, 0.7474696682987643, 0.11503923232578217, 0.6965226827113937, 0.8022611877716925, 0.7159658850168936, 0.6184584078925128, 0.694360716167029, 0.8247302238134614, 0.852034939944322, 0.19432273158149505, 0.7476314051498576, 0.5448276640526659, 0.6581931842706064, 0.7740682315128744, 0.5197904327743927, 0.7145347920932624, 0.5428672051652093, 0.858375058013674, 0.44183209610413265, 0.5879643229823303, 0.8505211212551219, 0.6732247225535799, 0.6295033201507854, 0.5222924409011211, 0.7340582663470037, 0.6621350834310855, 0.7370202713468194, 0.781808753015399, 0.5805718213970863, 0.4201106342806169, 0.760624897653459, 0.6877602701490367, 0.7507676098160829, 0.6340768946773914, 0.47199248216244205, 0.7057441642335962, 0.5919176406997244, 0.8294428937500412, 0.8595987134174478, 0.6263991802754405, 0.6870059939750348, 0.6470831445919524, 0.5845956556374553]</t>
   </si>
   <si>
-    <t>[0.8769490356996925, 0.6066106723257858, 0.6181385455580818, 0.468281323682992, 0.7624512932903608, 0.6605790220784744, 0.46916498181747, 0.7879227504654083, 0.14813647147890596, 0.6516239088565212, 0.6802034342911668, 0.6742541074937654, 0.5646526823416533, 0.5688501557214909, 0.8666958666633137, 0.7620226276510623, 0.6099371223784181, 0.8011581835212054, 0.7045647147747394, 0.7536397992242398, 0.7305406841177766, 0.39704210786685956, 0.6363814827759461, 0.2731179877812252, 0.7733612788051475, 0.3841541751940928, 0.645936036051866, 0.8045729173014298, 0.6544732193147511, 0.6339279381418623, 0.6559634588840717, 0.5997216400926412, 0.7753732193424615, 0.7077962171017969, 0.38788010633825165, 0.6866110769841789, 0.6153444201006634, 0.6147670207979075, 0.4790890178344842, 0.7109951173527445, 0.6003361486661578, 0.6482086628241279, 0.7155722373685339, 0.8278233150669083, 0.7451436679576195, 0.7526743432730136, 0.4022106615016221, 0.6064703656194284, 0.6536790687217988, 0.6555210891613743]</t>
+    <t>[0.8769490356996925, 0.6066106723257858, 0.6181385455580818, 0.468281323682992, 0.7624512932903608, 0.6605790220784744, 0.46916498181747, 0.7879227504654083, 0.10491697182424242, 0.6516239088565212, 0.6802034342911668, 0.6742541074937654, 0.5646526823416533, 0.5688501557214909, 0.8666958666633137, 0.7620226276510623, 0.6099371223784181, 0.8011581835212054, 0.7045647147747394, 0.7536397992242398, 0.7305406841177766, 0.39704210786685956, 0.6363814827759461, 0.2731179877812252, 0.7733612788051475, 0.3841541751940928, 0.645936036051866, 0.8045729173014298, 0.6544732193147511, 0.6339279381418623, 0.6559634588840717, 0.5997216400926412, 0.7753732193424615, 0.7077962171017969, 0.38788010633825165, 0.6866110769841789, 0.6153444201006634, 0.6147670207979075, 0.4790890178344842, 0.7109951173527445, 0.6003361486661578, 0.6482086628241279, 0.7155722373685339, 0.8278233150669083, 0.7451436679576195, 0.7526743432730136, 0.4022106615016221, 0.6064703656194284, 0.6536790687217988, 0.6555210891613743]</t>
   </si>
   <si>
     <t>[0.8077900239258871, 0.7041383867201072, 0.3512160856213834, 0.3842540948515143, 0.7782583527697807, 0.8022440056255321, 0.6647763669434709, 0.7694980304646235, 0.16087661258032715, 0.6689576763322851, 0.7334295510285282, 0.6641118158546228, 0.6010854727008552, 0.6537862950685212, 0.855783778502357, 0.7523692697420243, 0.7054870799915265, 0.7561106104794151, 0.5208547625088737, 0.7538330352034, 0.6255502836733499, 0.6074786248200865, 0.6835188583438061, 0.5839475635810574, 0.798113331377888, 0.6946261837009267, 0.5958690766683272, 0.7819773883922956, 0.6905337739547203, 0.7134663846092498, 0.5468077330162314, 0.7856352204928068, 0.6863893073623577, 0.5163819599713926, 0.6159585634557874, 0.6301747509016628, 0.5182040830853187, 0.7717452645042328, 0.6665244403208109, 0.6761440077682469, 0.6401584762330583, 0.5518158249017411, 0.7094318574307577, 0.6828047003906201, 0.721370710558636, 0.8090518124950026, 0.6652304037662435, 0.7214957174964288, 0.6404961971488666, 0.5876715150329498]</t>
   </si>
   <si>
-    <t>[0.8326549225511543, 0.6991929027854362, 0.4945321600215491, 0.5865656499378652, 0.8408290528436723, 0.8502622749749644, 0.6443374084153377, 0.8081056886245077, 0.2516693452532974, 0.7841854984152824, 0.7044127465746726, 0.7923636730467971, 0.6308154374269197, 0.7354442357139136, 0.8249916918156412, 0.7712261971745018, 0.6577634955449785, 0.7220514381721905, 0.6011679367385208, 0.6727096390579086, 0.7380222761318973, 0.7825113527750039, 0.7096677240386997, 0.5610051720013989, 0.7664145572741874, 0.6534591599003605, 0.6551239503783187, 0.8377709858806974, 0.6864690984458186, 0.5685071319968722, 0.8215089002825381, 0.7670819705268384, 0.5945779397053239, 0.6005577450447379, 0.7073411390301321, 0.7348980846545448, 0.575960829695813, 0.7514206048297222, 0.7379476741806601, 0.7133050079479183, 0.7325255952783213, 0.6332539346425542, 0.7637719666388186, 0.7049026376542653, 0.7217899231754856, 0.758866288129092, 0.7530147840066763, 0.6649319981242527, 0.6367296001472832, 0.6429406268321723]</t>
+    <t>[0.8432176940845624, 0.7509974248630934, 0.5209718925932969, 0.6082678623509581, 0.8239937568279116, 0.8583094748224633, 0.636712029635674, 0.818066857909783, 0.23431811347415443, 0.769398404216974, 0.6710754467518115, 0.7581794396669782, 0.6687775610741027, 0.7344007244485258, 0.8303422619451905, 0.7562915548712655, 0.6447408717253504, 0.7233295135916189, 0.5360645260399103, 0.6743010714990074, 0.7322583582026798, 0.7584441826779054, 0.6793000866894499, 0.548408906206669, 0.7874598835585009, 0.6168254802354107, 0.6552119023341001, 0.8310500868273102, 0.6738120208699752, 0.5833923997842911, 0.7151918759216356, 0.7529713419882758, 0.6136351296699816, 0.5865430587468256, 0.7318693416451947, 0.731863545951029, 0.5983276558159846, 0.7596066318414496, 0.6945570889985613, 0.7332839121531574, 0.7255911885356348, 0.6244965592830964, 0.7680887760893498, 0.7845685092143065, 0.7341055669030949, 0.7613289443564623, 0.7404792567038001, 0.6788401325830768, 0.6244154717616678, 0.6384958936534939]</t>
   </si>
   <si>
     <t>[0.8177803887981051, 0.8070092510563921, 0.5601186935145515, 0.6552606137970771, 0.8589375285823406, 0.8837635141577302, 0.509991641192735, 0.7357526581345564, 0.3408819385852303, 0.8170975327652568, 0.5442875974209636, 0.7670613230001989, 0.6118411785756479, 0.7782256627098757, 0.871258059521008, 0.7860241553973942, 0.7121996739534462, 0.8203765075760623, 0.6588021098930734, 0.6451414766507821, 0.7645068463200799, 0.7863810265373987, 0.7132037860070505, 0.5492373614877587, 0.7471367091279303, 0.5173941852411232, 0.6905469158135046, 0.852958978929438, 0.7747955116766356, 0.6706166467427698, 0.8045704005099967, 0.7482228622474991, 0.45657383655074457, 0.5900084587331317, 0.7520477508971646, 0.7840681069213727, 0.6168736051708548, 0.7712951609119645, 0.6790014012651864, 0.7360369342337509, 0.7786598484584837, 0.7315093846426376, 0.7188566059682466, 0.8187274360575055, 0.8071157778167446, 0.7900798905781182, 0.7861875886510823, 0.7160376233788557, 0.7068346706109239, 0.4681314395971622]</t>
@@ -3205,7 +3205,7 @@
     <t>[0.8161625473733011, 0.6680936359885987, 0.22648061697349287, 0.4648349563016346, 0.8323996934173664, 0.8536254697044328, 0.6764342663651122, 0.8034728734705614, 0.35818696094724367, 0.5671775113836284, 0.7149113290792877, 0.7004181950880652, 0.5748961989066632, 0.7545597695824143, 0.8303823858333585, 0.8168914327448378, 0.6956712434972829, 0.6840756178080138, 0.6104126218365336, 0.7080287651002022, 0.6350043930983995, 0.7130256789747786, 0.6427567858416373, 0.5662294146151885, 0.7468568894776693, 0.7342272966615965, 0.45478053013013897, 0.7875948100183854, 0.7033708236282173, 0.742452763269627, 0.5721905865230714, 0.7922690254835443, 0.6224810319333631, 0.6609962753301175, 0.5654822915315861, 0.6957559272996816, 0.3730091718308448, 0.6417989095372737, 0.7426857527790649, 0.6699797816765339, 0.7101460456110744, 0.529987676153403, 0.8377176407316225, 0.6352443233647416, 0.6851389219323314, 0.7968011269364218, 0.7024409486762436, 0.6155444904168711, 0.703607380115719, 0.6199058655944192]</t>
   </si>
   <si>
-    <t>[0.8248444144725231, 0.7324051328506378, 0.36442789329342384, 0.5568149946038242, 0.8066322732459955, 0.841474665804258, 0.7081763686566386, 0.7832303075838452, 0.170418188588063, 0.758100025299353, 0.7388171770935252, 0.7234111509916142, 0.5720386634404832, 0.7184272753562271, 0.7710349087441974, 0.7915819973995012, 0.610460870896971, 0.7019115231320292, 0.6137711606814273, 0.7056974521950027, 0.6598437927902838, 0.6343417800846571, 0.6665895786342195, 0.5807039684813884, 0.7603934831425267, 0.5376722990261422, 0.6460359437703654, 0.7807040260677856, 0.6699719866562552, 0.6434547059883831, 0.7351908996100647, 0.7540796072885186, 0.6307855003266758, 0.5798180310738001, 0.7251899644214914, 0.705817379142174, 0.5996776219949047, 0.6911972743208732, 0.6680497419042969, 0.6539696757888722, 0.7539197999663704, 0.6484535402693281, 0.7521166015439915, 0.6406743421451235, 0.709379538132986, 0.743062156318081, 0.7678417723773381, 0.6733632401493663, 0.6570849513558343, 0.6954802178851048]</t>
+    <t>[0.8144853371763775, 0.7355453665858436, 0.3211028811968495, 0.5701843846158987, 0.8103790974167712, 0.8402394195317793, 0.6899644214765739, 0.8096927359710611, 0.22188771510370053, 0.7286937239530151, 0.7397307248907695, 0.7093137046302291, 0.5724255233162285, 0.7176781869181028, 0.7947601711369789, 0.817482348752837, 0.6103009203598837, 0.673762012799304, 0.5879679922978585, 0.7847317697756329, 0.6515957050234453, 0.6108803910004205, 0.6726516947095933, 0.5762616042410045, 0.7736508525353878, 0.5772087818652505, 0.6369253424611223, 0.7914378459004077, 0.6856788762267292, 0.6451075709346964, 0.719192633959232, 0.7869521861035393, 0.6230971129814324, 0.601249477489565, 0.7188208303968515, 0.716630881805757, 0.6246300061334538, 0.7240890908437403, 0.6919501990454802, 0.6759988263917018, 0.7396844918561969, 0.5952826124391305, 0.74403135242766, 0.6685263752493302, 0.7053865819607953, 0.7661920294612263, 0.7573009509295346, 0.6589426256203995, 0.6595621727153693, 0.6733378718911325]</t>
   </si>
   <si>
     <t>[0.8487897265863567, 0.7768908158023302, 0.18683681912403105, 0.4475431650201023, 0.8008201606260952, 0.8560093079989655, 0.701016514269107, 0.8247175637065629, 0.4220297574637939, 0.7329288124853215, 0.767434552058454, 0.6852152954505479, 0.6557178397389568, 0.7461770299700663, 0.8465453058040346, 0.871449632550748, 0.6865624945289854, 0.7820122573457301, 0.6289254315604702, 0.7174562764011534, 0.734595095257268, 0.6312808898087836, 0.6273437928750187, 0.42173418966848075, 0.8729860058858468, 0.5953602081060622, 0.78818248203187, 0.7821715492525145, 0.753540716458641, 0.6443855947374441, 0.7966399122954112, 0.8182184210169486, 0.6743356880691718, 0.6040181655385388, 0.7216514366273699, 0.8303287519115379, 0.7222833981685413, 0.5947039153263962, 0.7669714144483784, 0.6837610957729516, 0.7707037419697507, 0.7678292047698845, 0.7439055814182596, 0.7074659721440336, 0.8119847402101721, 0.781709782588102, 0.8161361987757829, 0.7554701448420406, 0.7743451153698494, 0.6763999092985293]</t>
@@ -3223,7 +3223,7 @@
     <t>[0.805593805693513, 0.7269545492359297, 0.5937907132069156, 0.545544112036776, 0.811039956049781, 0.7980807067625612, 0.7801421588040831, 0.7231758347433995, 0.4382434749897033, 0.7835977256510498, 0.7227731892716435, 0.6497744305457226, 0.6685882476131815, 0.6292678903321373, 0.8433666448713475, 0.8837178591438126, 0.7009005802771955, 0.700200962838817, 0.5872507511713826, 0.7159462452768035, 0.7144668153758171, 0.7356268241652469, 0.7227503500392229, 0.3139770204081541, 0.854026873901486, 0.7248976687949905, 0.6493221656622465, 0.7996438970579993, 0.675587764483673, 0.5292928493027789, 0.6158916803574285, 0.7897289614898887, 0.7626135915994375, 0.6294724494404118, 0.8164600485145034, 0.7315532305532962, 0.3396257269352232, 0.6898867097836131, 0.7692189399587457, 0.8879315883864474, 0.7456218388322339, 0.5911220164993864, 0.7925713841343681, 0.531916223700533, 0.8134879911626244, 0.8423120503607935, 0.7597389456397206, 0.7621868057393228, 0.5445534005935423, 0.2885582057611079]</t>
   </si>
   <si>
-    <t>[0.7885089482243753, 0.7212488646085027, 0.38425062526416776, 0.6052192328003427, 0.7871483304376837, 0.8032695600555708, 0.7059834255817681, 0.7321996264853219, 0.32632823137297207, 0.702799495718771, 0.7375746294386636, 0.750526324935787, 0.6099037504885894, 0.6807532586984935, 0.7958399903974027, 0.7568642287754994, 0.6127065468624919, 0.730306482658765, 0.6364282745963148, 0.7536880455561984, 0.67627218673761, 0.6964551747317513, 0.688191416045894, 0.5393563707505522, 0.7519822030765367, 0.5878563025193393, 0.6278070916980512, 0.7665018611247845, 0.6669705670883987, 0.5787882874132722, 0.7298940856524706, 0.7543504676754553, 0.670640778549261, 0.577629669664121, 0.7177869610327131, 0.6755663539902304, 0.5942491260136441, 0.6970850945344614, 0.6487819631980034, 0.6886501248343269, 0.7112209453116322, 0.7002922412102573, 0.7557328324818795, 0.6402230542257352, 0.6698590174939179, 0.7593855556657993, 0.765257432652075, 0.6335379654366042, 0.627533923106288, 0.7208023816850483]</t>
+    <t>[0.8152247281110261, 0.7043560958602868, 0.39413326089939105, 0.6232492937345755, 0.7990220262518953, 0.8034213296898671, 0.7395163075661275, 0.7978371716898544, 0.32635909089422654, 0.7171812347463333, 0.755650556149135, 0.7361895592844858, 0.6352802781953584, 0.6738707954874709, 0.7887405625188157, 0.7823604874080256, 0.6022318830133381, 0.6960616179890518, 0.6001995253423844, 0.7273746538228898, 0.6830996408307015, 0.713040899322952, 0.6614499867241046, 0.5147307675017965, 0.7752586140190971, 0.520974312387195, 0.6019143132171422, 0.7757693463197355, 0.6388335065907421, 0.584588741789289, 0.7055931417844636, 0.7297550948015906, 0.684446346710883, 0.5640671892843245, 0.7078638607901073, 0.6610776523831906, 0.6066339965967639, 0.7130513328776953, 0.6828541031989231, 0.672602862867043, 0.7454713726955872, 0.6843375481349657, 0.7458458202100317, 0.6287416784605955, 0.6865699690235705, 0.7253801058241298, 0.6935028529726814, 0.6074125910216286, 0.6315578034662921, 0.721241740195915]</t>
   </si>
   <si>
     <t>[0.8119308967651373, 0.7703660821431355, 0.5445103182205135, 0.6390804531980152, 0.8794645080198246, 0.797841764418515, 0.7408251033412105, 0.7803339349780217, 0.5279725207189689, 0.8649720165975431, 0.7393185400475308, 0.8068532949731303, 0.5373244049117508, 0.7113947933839623, 0.91390904359221, 0.8309362052633511, 0.7445280850860764, 0.7815313453257368, 0.619319750161107, 0.7323862024371557, 0.7389543546206533, 0.715301873435366, 0.6792973353190797, 0.524884175560689, 0.8296504041001542, 0.42520320273206547, 0.8231937043021087, 0.7563719881665923, 0.6555644333540972, 0.4114911990853156, 0.6691121308493734, 0.7671059417661675, 0.7438921006459763, 0.693306486721301, 0.7844536496890525, 0.7906445799502937, 0.6843609840741666, 0.7097808195829465, 0.5048555445562513, 0.764433620943639, 0.7389752516932424, 0.7112067333199517, 0.550116064017427, 0.7661781646671826, 0.7393262174301902, 0.8412011663455538, 0.737272632442914, 0.762738145330347, 0.749634472894286, 0.6570685489431312]</t>
@@ -3241,13 +3241,13 @@
     <t>[0.8099287279802435, 0.7117176984469593, 0.34346039647389004, 0.6125695012916921, 0.8375563468666131, 0.846339413475995, 0.6447595012688214, 0.734307833490589, 0.3495450462413229, 0.686745722946513, 0.6924655229420708, 0.7337306385338702, 0.586859393439537, 0.7498550396675097, 0.8436131211366589, 0.7784791940100263, 0.6703906345794417, 0.6645328710419152, 0.4442555549479965, 0.5789920916686697, 0.5876736440675396, 0.6952934516811986, 0.6611476437070964, 0.21498421066524664, 0.6684479357233565, 0.6969591368692061, 0.5870569956941291, 0.7952092076826024, 0.7009635491762332, 0.6116137895276701, 0.5578935466611212, 0.7079589358870719, 0.6462725281685292, 0.6655653865662972, 0.6342217872591525, 0.693626700476411, 0.2830059805903118, 0.7739285761236285, 0.6935111366386726, 0.6770656718339527, 0.7203762078850364, 0.5806307034076652, 0.8157620128577242, 0.6584874424265259, 0.7109666811063453, 0.7570246835595417, 0.556819440265506, 0.6582563832888096, 0.6100666148547523, 0.3932974253645224]</t>
   </si>
   <si>
-    <t>[0.8122283027377394, 0.7353455011248464, 0.3788842217280056, 0.6045212892334099, 0.7915885026417271, 0.7999660687558615, 0.685437908445994, 0.8196057540050989, 0.3285341410430166, 0.7423319642249133, 0.7321822052005211, 0.7300070755449346, 0.6090486806784039, 0.6856950531092141, 0.7857644753066688, 0.7368680945112647, 0.6533963706994739, 0.7129866231737123, 0.6076845329102286, 0.7273398740879137, 0.6055925830113158, 0.72481477322204, 0.7045730799998879, 0.5824742907852898, 0.7353845841412929, 0.6692006500152663, 0.6374234555669478, 0.765268129670244, 0.6188612178422921, 0.6438786360820229, 0.7324316059671478, 0.7262701930835624, 0.6444198420265796, 0.566155173776214, 0.6732677556996336, 0.7408631838547346, 0.5546533518818751, 0.7041921453753577, 0.6729367691325436, 0.646053541283029, 0.7269204065550157, 0.635273116258825, 0.7625213954993658, 0.6442729002016159, 0.6926460733383789, 0.7169481455198816, 0.7223040950386082, 0.6059679524040271, 0.6288206247625094, 0.632992866088441]</t>
+    <t>[0.814853401201324, 0.7277792622136002, 0.37791822237148, 0.6120267923844318, 0.7788438953016349, 0.7982127447262853, 0.6993289846611848, 0.8277751139161386, 0.31417369805833606, 0.7250528649470371, 0.7366430621900852, 0.7047259625493449, 0.5973740106145977, 0.6817141781250174, 0.7859573785399074, 0.7654122903595589, 0.6507239976266821, 0.7129848489085837, 0.6022338632137427, 0.7299885211915067, 0.6299973651900014, 0.6546919741766692, 0.686162694731133, 0.5560890334490236, 0.797282606168914, 0.6721787891311243, 0.6126087980554014, 0.7737293020044723, 0.6401284923532917, 0.6641659413637597, 0.7390687871774786, 0.737359165669446, 0.6578578570511543, 0.5988248536637701, 0.6840167334046965, 0.7294057200844081, 0.5768979508058285, 0.6972792283250728, 0.6429082921439024, 0.6434381780614243, 0.7113151101465196, 0.6050810552083226, 0.7773808465615129, 0.6894204994466369, 0.7035751476565413, 0.7289459320240239, 0.7221966927152178, 0.6648191300415717, 0.6712191655812295, 0.6222020476351053]</t>
   </si>
   <si>
     <t>[0.8685412170513183, 0.799348595345452, 0.42494034793988444, 0.6719591175031967, 0.8472954206983507, 0.6872396428374627, 0.7620595444101634, 0.7655320557673125, 0.4460623296283619, 0.8294791910985955, 0.5687537794888339, 0.8128727832782701, 0.570675645605925, 0.7594485317878449, 0.8518843235633142, 0.832135294242945, 0.7442244474187798, 0.8146085745600359, 0.6088369641893238, 0.7756977832800598, 0.7231656395312138, 0.7006056968147624, 0.6504323137774408, 0.5240804322184064, 0.7606135550855138, 0.5070695635093841, 0.7989721489924758, 0.7999132988714275, 0.6750004162984995, 0.6464870463853956, 0.8366530822808536, 0.707932679326477, 0.734860801444323, 0.7728373110866738, 0.7441149202797639, 0.8179381738016991, 0.5593528426615492, 0.6813129822356545, 0.6103633527908503, 0.8267384092585496, 0.8162493559606478, 0.4950504594736044, 0.7270847913149959, 0.7658327240621547, 0.7950993800602282, 0.7873009234117355, 0.670096983654678, 0.6771487594668456, 0.6803126014429117, 0.6420296031357293]</t>
   </si>
   <si>
-    <t>[0.8139491406749496, 0.16202216387399726, 0.20153617063501983, 0.3830251026829181, 0.6191741481611481, 0.6500534402405733, 0.5094564166269999, 0.580576750406149, 0.17238572569421962, 0.3978582214163737, 0.6278925148898595, 0.4629623702462591, 0.4966319916027978, 0.611948573296633, 0.5989564388037788, 0.7516792908005747, 0.4781908264698549, 0.45540684711245405, 0.39972297678407454, 0.6348921929147059, 0.4963977165568503, 0.41958978098682875, 0.6732362056672836, 0.14314410462158667, 0.7163089184902822, 0.43055846361400874, 0.4352888008966679, 0.6596663087116698, 0.6343669179262714, 0.3488920336204947, 0.522039872300814, 0.5621354690936362, 0.4641335228552349, 0.39712178593925174, 0.4782061415506845, 0.5409261488142745, 0.12873489416738304, 0.5595784002562751, 0.44671918618134476, 0.5998136398920223, 0.5933381413586809, 0.36549493914539577, 0.684174097486513, 0.5046471445070716, 0.45915583690397366, 0.6945313240585973, 0.3175696993840076, 0.4281264478662261, 0.5209963294308815, 0.11667911085836369]</t>
+    <t>[0.8139491406749496, 0.16202216387399748, 0.20153617063501983, 0.3830251026829181, 0.6191741481611481, 0.6500534402405733, 0.5094564166269999, 0.580576750406149, 0.17238572569421962, 0.3978582214163737, 0.6278925148898595, 0.4629623702462591, 0.4966319916027978, 0.611948573296633, 0.5989564388037788, 0.7516792908005747, 0.4781908264698549, 0.45540684711245405, 0.39972297678407454, 0.6348921929147059, 0.4963977165568503, 0.41958978098682875, 0.6732362056672836, 0.14314410462158667, 0.7163089184902822, 0.43055846361400874, 0.4352888008966679, 0.6596663087116698, 0.6343669179262714, 0.3488920336204947, 0.522039872300814, 0.5621354690936362, 0.4641335228552349, 0.39712178593925174, 0.4782061415506845, 0.5409261488142745, 0.12873489416738304, 0.5595784002562751, 0.44671918618134476, 0.5998136398920223, 0.5933381413586809, 0.36549493914539577, 0.684174097486513, 0.5046471445070716, 0.45915583690397366, 0.6945313240585973, 0.3175696993840076, 0.4281264478662261, 0.5209963294308815, 0.11667911085836369]</t>
   </si>
   <si>
     <t>[0.8630786904916625, 0.7596922399946754, 0.3505176839114519, 0.5341574011649002, 0.7704124714265577, 0.8161310832223623, 0.7017233016873456, 0.7257695934814705, 0.14900332774871627, 0.6578756149114624, 0.7974475314759726, 0.7120181082080479, 0.5992217096790666, 0.6744373162730604, 0.8104993135938088, 0.8509735675995438, 0.7367626862236116, 0.62279849785529, 0.5917459736711248, 0.656803044605585, 0.7598176544317077, 0.5224053061487977, 0.704017431148741, 0.4375203740413173, 0.881346445324621, 0.6361450137258952, 0.610704538369818, 0.7900427128281791, 0.668045873159862, 0.613694633194098, 0.5394794580537097, 0.7291015353717327, 0.6302718486942207, 0.7309326436598954, 0.7788838573800243, 0.5607422819541036, 0.5497849121871111, 0.7212895980039222, 0.6593665044175183, 0.7529505221483258, 0.6261857030920157, 0.4947899574205854, 0.7200944107003064, 0.712343393290638, 0.741230612184054, 0.8456526473324579, 0.6652137479931277, 0.6899833178797348, 0.6433159197840495, 0.5861021070649689]</t>
@@ -3259,7 +3259,7 @@
     <t>[0.8194068208848114, 0.7410815936332951, 0.46082620686960973, 0.38557119963280095, 0.8155307675217205, 0.8056124360769624, 0.5103198618792981, 0.7624589867834624, 0.19883913918763718, 0.6465452539499523, 0.7278718990841349, 0.7245671658508673, 0.5726338676429477, 0.7029444769266575, 0.8408137168219283, 0.8064207261348606, 0.7155566284856196, 0.7602953399618602, 0.5019597380907683, 0.732606517190162, 0.557534883434321, 0.6454073593838581, 0.64285561867042, 0.4878643810902241, 0.8058188867820192, 0.6934096746664993, 0.6127298523134788, 0.7783107952977157, 0.6913247353829244, 0.6846982470436467, 0.5561140510285181, 0.6906878182124123, 0.6284275821250989, 0.7138929954258717, 0.6521076157983041, 0.6551530300257767, 0.47630426660683645, 0.7707147819330283, 0.6625764897415867, 0.6678469428559308, 0.728541842737622, 0.5346111615854601, 0.76401559776348, 0.67388557237305, 0.7272595354975777, 0.799573381386033, 0.6502981460660104, 0.7147574152232268, 0.6379545106850721, 0.5784931436801845]</t>
   </si>
   <si>
-    <t>[0.8306108504277875, 0.7223933346514809, 0.5263721388042792, 0.5830796573604444, 0.8466339055095373, 0.8590349916911568, 0.6383760930072995, 0.8003424139614, 0.23253818618587307, 0.7609588187958636, 0.6856112263985067, 0.7694024561224171, 0.629940057535998, 0.708235969918003, 0.8210477648110054, 0.7408983575435144, 0.6173337362381708, 0.8089778763807738, 0.5926922047498768, 0.6901546921578612, 0.719631171138076, 0.7668807300400802, 0.7026882391273371, 0.5290601617571431, 0.7294403965970933, 0.601445642404995, 0.6842015995656141, 0.8484083878733604, 0.6485784936154999, 0.5594681909820819, 0.7940420626223443, 0.7222396973249052, 0.5916175120148759, 0.6220798306511709, 0.7378095432529714, 0.702131880934449, 0.6023471662605413, 0.7492667982975469, 0.6775296590376764, 0.7320190448746533, 0.728321226529135, 0.6195126381510804, 0.7971977196655506, 0.772594413770198, 0.6950942778615459, 0.7273090478325785, 0.7251163686094191, 0.6727405054937761, 0.609247013586854, 0.6236949414785445]</t>
+    <t>[0.8575240855981003, 0.7143867247014348, 0.5553778899713634, 0.5791837284885002, 0.8601972922178187, 0.8363215231957083, 0.6299267140777977, 0.818845366937953, 0.29119038121687124, 0.7831973048037103, 0.7067477216588065, 0.7534003777702352, 0.6167035829747649, 0.7216865499224014, 0.819828642195022, 0.7364887780493641, 0.5876011442325562, 0.7955813389891265, 0.6208039325208563, 0.6799882151964411, 0.7252578030274714, 0.7488923563079106, 0.7179087160640042, 0.6029698373716799, 0.7526756449962217, 0.6278001644243476, 0.66219737320773, 0.8471663407156943, 0.6641679771023186, 0.5791904728894466, 0.823288811416302, 0.6838732535413939, 0.5988364922309799, 0.6130540188634974, 0.745551532386918, 0.7335769768177564, 0.6322996105357417, 0.745188417912277, 0.7148363997640901, 0.6426015650363703, 0.7529042733360669, 0.5914674764451266, 0.7975394790056262, 0.7630222718519117, 0.6961222095717898, 0.750179526064257, 0.7475125782499481, 0.6933513962203324, 0.6549650306351648, 0.6829590769134246]</t>
   </si>
   <si>
     <t>[0.8906550589046796, 0.7824131699303503, 0.4198784067922723, 0.6019489202205467, 0.8384869588008709, 0.8518739170935118, 0.6743567505458091, 0.6862025556677764, 0.26569482244105325, 0.811017611101153, 0.5618641494563046, 0.8135466045314783, 0.6326405825719058, 0.7355141255184997, 0.8345711408609048, 0.743789134479351, 0.5604454671560972, 0.8001022318505376, 0.5868685529813361, 0.7194153730420733, 0.738715020609028, 0.8437298397154607, 0.6674717169742965, 0.5615416897059418, 0.7575512799166975, 0.5552138077622375, 0.7396873007998409, 0.8499972947575842, 0.6775616108435023, 0.6568089630830013, 0.8155696925764044, 0.7725540708413723, 0.5795676243818613, 0.5502399515981288, 0.8297913124398691, 0.7064457742740247, 0.6473543278892753, 0.7932177029926426, 0.7446097928486977, 0.7962814655433512, 0.7587311950528977, 0.7536819391820768, 0.749320829849761, 0.7931366075278384, 0.7780744675108844, 0.7785449647346026, 0.7647563495670013, 0.7592524574874884, 0.6747947969697579, 0.48814012269665696]</t>
@@ -3271,13 +3271,13 @@
     <t>[0.8655399943283478, 0.7682110336863032, 0.29140436317962537, 0.49984865149670044, 0.8178069780391365, 0.8393993761507612, 0.7869730683776589, 0.8028654140720622, 0.33101965673497913, 0.7050995288969897, 0.738853844264502, 0.6874501332403182, 0.43695131340140225, 0.6811950986300581, 0.7962325083922301, 0.8572615756866957, 0.6804075860018398, 0.5854465910294017, 0.5778184392485768, 0.7294550551541116, 0.7136133805575868, 0.470829911543022, 0.6876586782428618, 0.4480009620507225, 0.7482544217267739, 0.723660675851262, 0.6686485883928129, 0.8493848716569015, 0.6804249392267409, 0.6278497682650529, 0.5632121297871315, 0.7745210655816575, 0.6535640124233734, 0.5717143048383466, 0.7730717307855056, 0.656551710368952, 0.45261798959109856, 0.7179679438371744, 0.7760840242849726, 0.5677356205478292, 0.6845970537371693, 0.6315310325449721, 0.7614534357978802, 0.6720134087437477, 0.4010315528354885, 0.7851156703335661, 0.709800660162009, 0.6563929561852043, 0.6809198136960295, 0.6501158459320476]</t>
   </si>
   <si>
-    <t>[0.8457310633001762, 0.6782527487700283, 0.3749355453727652, 0.46930103237115794, 0.7625341038448488, 0.7719041066616836, 0.5948616858871917, 0.7952188383993352, 0.3536416097119264, 0.6778494632064492, 0.7019347496825135, 0.7068739206399961, 0.45680169406924376, 0.5914729283588515, 0.8285456582487147, 0.7895567519404655, 0.4997393917780074, 0.7509927723544324, 0.6340414433315613, 0.7132082594186637, 0.7315739728770443, 0.6643154917197541, 0.5648868193337184, 0.19403051115137238, 0.7293177450049553, 0.5387209968236368, 0.567609459545995, 0.8498585655027523, 0.713622006316381, 0.6202040711946253, 0.6949327882498457, 0.6436400591769006, 0.7063311057366706, 0.7207339312280201, 0.5713073142505719, 0.6774892707858644, 0.6272272139302533, 0.7755241294501373, 0.7935319774056551, 0.657224719928567, 0.7027924279471323, 0.49591754816368616, 0.6525812458445264, 0.8192578563642298, 0.6890772458077516, 0.6675599504787155, 0.6595547519954976, 0.7314164210520987, 0.6546652775753972, 0.7664836065814162]</t>
+    <t>[0.8457310633001762, 0.6782527487700283, 0.3749355453727652, 0.46930103237115794, 0.7625341038448488, 0.7719041066616836, 0.5948616858871917, 0.7952188383993352, 0.3536416097119264, 0.6778494632064492, 0.7019347496825135, 0.7068739206399961, 0.39797371084997313, 0.5914729283588515, 0.8285456582487147, 0.7895567519404655, 0.4997393917780074, 0.7509927723544324, 0.6340414433315613, 0.7132082594186637, 0.7315739728770443, 0.6643154917197541, 0.5648868193337184, 0.19403051115137238, 0.7293177450049553, 0.5387209968236368, 0.567609459545995, 0.8498585655027523, 0.713622006316381, 0.6202040711946253, 0.6949327882498457, 0.6436400591769006, 0.7063311057366706, 0.7207339312280201, 0.5713073142505719, 0.6774892707858644, 0.6272272139302533, 0.7755241294501373, 0.7935319774056551, 0.657224719928567, 0.7027924279471323, 0.49591754816368616, 0.6525812458445264, 0.8192578563642298, 0.6890772458077516, 0.6675599504787155, 0.6595547519954976, 0.7314164210520987, 0.6546652775753972, 0.7664836065814162]</t>
   </si>
   <si>
     <t>[0.8036402652560007, 0.6992558782539026, 0.29401576335532975, 0.4481549530358342, 0.8323838008941511, 0.8450087286672654, 0.7103501699981949, 0.7228740008221259, 0.18970087048699047, 0.7118351721548886, 0.6900793539941399, 0.679137222790996, 0.530531603796733, 0.7499066387640114, 0.7145064097969354, 0.817730382687439, 0.5510239988122287, 0.6590650637604608, 0.6130682535243877, 0.626051710570241, 0.5520969889962355, 0.7481211302391546, 0.6215090557502803, 0.5428613181565043, 0.7406853937020642, 0.7160204855307051, 0.4288549990875432, 0.7923571055003937, 0.6981099706244701, 0.518569698175078, 0.5704064127036376, 0.7923766376513492, 0.6630040280355087, 0.44057336761500676, 0.6375107953677513, 0.6460467660678373, 0.4448604065186029, 0.8227789317943092, 0.7440521983235385, 0.6775329923857861, 0.6718625749279654, 0.5822523352919231, 0.8395442223348804, 0.41774646556819994, 0.685155469908973, 0.7844253360471052, 0.7344358637580686, 0.6316134061598777, 0.6975943957648236, 0.6270147345332885]</t>
   </si>
   <si>
-    <t>[0.8121290822315935, 0.7360855959613175, 0.3611169946791699, 0.5390722893977404, 0.8042554927157, 0.7984694107039831, 0.6951266495182178, 0.7832867075534382, 0.24469749336516133, 0.7086518823117924, 0.7204797854730051, 0.7133893018301712, 0.5872467143091449, 0.7009543777091161, 0.7633915664842783, 0.7819266734983952, 0.5805816446363277, 0.6988950715946625, 0.57213669667468, 0.7512314115634241, 0.6525407901075564, 0.6238271507741979, 0.6507846000839668, 0.5440802397466933, 0.7435859003349731, 0.6323820805653346, 0.6408107779330683, 0.7573654829586908, 0.6596027767277131, 0.6189839385247452, 0.7214829773856332, 0.7661920476920774, 0.6204177631797624, 0.5800630949413192, 0.71908607718648, 0.7141309202159952, 0.6007207137147392, 0.6880840314592902, 0.6423281348299015, 0.6357416583784963, 0.7127830192356274, 0.6150519104373511, 0.74469816612083, 0.6772396731542019, 0.6938271923055996, 0.7298581923683243, 0.774617752716759, 0.6659116457757777, 0.6370711543559873, 0.6760188939929066]</t>
+    <t>[0.8111780163523207, 0.7107309952429786, 0.3100760730458718, 0.5533108860240126, 0.8157901128935747, 0.8203129322657859, 0.6969367213889656, 0.763312089059196, 0.22429713757369807, 0.7219202564719798, 0.7453962777870167, 0.7195057078065225, 0.5989764055950912, 0.6997114836344245, 0.7811235047383169, 0.7913331370749255, 0.5775346894073718, 0.6323190763833941, 0.622918562685495, 0.6905610281882941, 0.6186859470006689, 0.6035652533453231, 0.6662842265074357, 0.5673749719687003, 0.77051271923987, 0.570380861137132, 0.631431787994277, 0.7710562437726418, 0.6518385304407815, 0.6017654091948506, 0.6842893773288461, 0.7557670806875885, 0.6217796903246058, 0.5975389542869249, 0.706592781738813, 0.7398093626392586, 0.5862804656900154, 0.7036988875285755, 0.6726674391687452, 0.6147691690378445, 0.7383041634139222, 0.5919824076162359, 0.7827126895132172, 0.6584430630436346, 0.6710160748941695, 0.7451470043418288, 0.7619965245253184, 0.6071370441561899, 0.6369237038220055, 0.6692012973803907]</t>
   </si>
   <si>
     <t>[0.7793207952331125, 0.7815605626203995, 0.3653597752695299, 0.5787055979714038, 0.845940196433004, 0.7082803648625065, 0.6122149376334838, 0.6812640521027855, 0.23652074136994916, 0.6584703882472899, 0.7044926598700583, 0.7453332879355028, 0.49324691231025153, 0.7876508100623112, 0.8310271613681475, 0.8675035380739812, 0.6810224673349681, 0.6248065874931812, 0.6122989399818093, 0.6748327798190568, 0.6363647556285934, 0.7100282649893277, 0.6907752755662991, 0.4819040490232549, 0.7894367955842545, 0.42146671943599956, 0.7870821884982135, 0.7472616534112329, 0.6460847058239645, 0.5604687029403335, 0.684618690875274, 0.7323252506102215, 0.6264778779007091, 0.6465367202032397, 0.7480158483038478, 0.7279718090104166, 0.5142375435150195, 0.48467753367013655, 0.7413416217855826, 0.7486322746266496, 0.6411413624371491, 0.6401068722082819, 0.7811631892417668, 0.6601759748545715, 0.7620497827057764, 0.6960793651225214, 0.7796486332040662, 0.7419178208676627, 0.7687329405214184, 0.7058879376347325]</t>
@@ -3295,7 +3295,7 @@
     <t>[0.7730028557127009, 0.7215641091872285, 0.5651683947568529, 0.5645554593234866, 0.8039609651428308, 0.8027845043707419, 0.8014439347740658, 0.7207876392310175, 0.466407986780876, 0.7697490961719211, 0.6674018276581792, 0.680882628067881, 0.7253314204848345, 0.6068916082255714, 0.8364983734282724, 0.8868191792440763, 0.6851241923865963, 0.7099811810543953, 0.6626579784200739, 0.7249783388964413, 0.6999675192604166, 0.7668007778690795, 0.7344633025593943, 0.3060983475273189, 0.8625516957723768, 0.723451985860547, 0.5387369867036448, 0.7998870192556774, 0.673462148205514, 0.593383469377, 0.6839346439139182, 0.7907644433731549, 0.7748331112769248, 0.631407324885807, 0.8302054353707673, 0.7298029409452598, 0.34544599162455836, 0.764977796867887, 0.7652549196846314, 0.8909676619985555, 0.7583998748133034, 0.5675154505627931, 0.7861692358633467, 0.42305931503492245, 0.8211385866696806, 0.851703564643021, 0.7634079644696623, 0.7533684206121465, 0.7084182436719342, 0.27019529242088436]</t>
   </si>
   <si>
-    <t>[0.8154486286035475, 0.7309712998813054, 0.43090540209365136, 0.6136970423058838, 0.8076782824637911, 0.7897038294641593, 0.7281860941675649, 0.7652155623458354, 0.30482116015784666, 0.754152608048267, 0.7242300315113824, 0.674393628235302, 0.6564269831270975, 0.6899395920542735, 0.7954097652509262, 0.7613090343321685, 0.5635134009805847, 0.7318896214239061, 0.6100518627144553, 0.7520592972066283, 0.6892974239838829, 0.664555596980262, 0.6652568673086414, 0.512811915491159, 0.7741717097731119, 0.5143200418483014, 0.600451936605028, 0.804357561706317, 0.698392930767336, 0.5330277533935702, 0.7394320046119898, 0.7265352804205794, 0.693185911531185, 0.6028597879962612, 0.7075840220765817, 0.6937296113647105, 0.5987991617498251, 0.7223514304384634, 0.645084663126795, 0.6989896871822137, 0.7477962565012961, 0.6659669009397878, 0.7220913028277504, 0.6608565277244383, 0.7124374666608007, 0.7446275044816029, 0.7369813962154514, 0.7006850711533461, 0.6477291759611102, 0.6817253421585489]</t>
+    <t>[0.7772579892841365, 0.7161301479382642, 0.47051371613162285, 0.6187286183352992, 0.8210703318815431, 0.8025320362295567, 0.6897921176708011, 0.7573194879597998, 0.32412026129119265, 0.7480750952125523, 0.7315481103093369, 0.6924077740768482, 0.6427816746451915, 0.705572672391817, 0.7078235875493779, 0.751829485951294, 0.6017663521556111, 0.728174992976448, 0.6629717689604648, 0.7630199362720784, 0.6344571626522689, 0.7018203742173648, 0.669607325249146, 0.5383148625204369, 0.7809796575794448, 0.5925424509744582, 0.6046929181952847, 0.7907731411382345, 0.6726883962076227, 0.5699324473879626, 0.7455618665573135, 0.7388987955095663, 0.6786625437223004, 0.6047469408210293, 0.7785027134241634, 0.6969682236976863, 0.599696386392198, 0.7235247445108548, 0.6959602975214496, 0.6508519537331656, 0.7330753847956336, 0.6491899861557178, 0.7209648597281595, 0.6393517453441677, 0.7181961924267847, 0.753774246318157, 0.7382485722831266, 0.6242008963892156, 0.6329497040899996, 0.680882525461302]</t>
   </si>
   <si>
     <t>[0.7764210752191725, 0.8521864853851495, 0.5745224116788535, 0.6952753178053298, 0.8269229659573164, 0.8623388832435994, 0.7700799761356951, 0.7889275577359173, 0.5150553636775702, 0.8650847790929418, 0.7681015941642696, 0.7018339905022737, 0.48749689729477963, 0.7223398855006553, 0.8499687736868616, 0.8248461442536429, 0.7321603567691521, 0.7783695086623238, 0.7210351448566432, 0.7994688389917044, 0.7788960003464873, 0.7431476933725667, 0.6358913329918425, 0.6228629586050337, 0.8382547826042603, 0.567036719171827, 0.7995536517776906, 0.8375384867384873, 0.7534082816364152, 0.6575379635173421, 0.8155918573768686, 0.7697354445418021, 0.7526952142090295, 0.7269417508405733, 0.8047030381072784, 0.7666546945039515, 0.5833139546348194, 0.7544388019201146, 0.8064670842785646, 0.8270214919775263, 0.7514193783678426, 0.7578884275306927, 0.5290120816982425, 0.7422937777179657, 0.8631270504112136, 0.8197898601650921, 0.8347645169507012, 0.789432174022511, 0.7923111368911154, 0.6883363723792788]</t>
@@ -3307,19 +3307,19 @@
     <t>[0.5032870293914993, 0.7617318655449693, 0.23746793914168096, 0.4834143990504217, 0.8320876940824193, 0.8230664079238369, 0.6112354391936565, 0.7063773566137879, 0.3495323258033898, 0.6577768965585624, 0.6758956952549882, 0.7238776197201539, 0.22857661844906962, 0.743259840544283, 0.7818277789091815, 0.798548718888039, 0.7261046583841457, 0.7598833199472794, 0.6915530481533463, 0.6731084302976713, 0.7586798280469079, 0.6361468627141325, 0.7221836945642561, -0.20802175420478597, 0.658975397164006, 0.6726980468035557, 0.6840570779720414, 0.8364174185694747, 0.6705030832838847, 0.6832073276433814, 0.49298834784545675, 0.7524655466302265, 0.6868683880399675, 0.5429757529959816, 0.767742109850285, 0.7083615720722736, 0.5510746888533262, 0.7761692530264822, 0.6887644639703245, 0.7352168809129818, 0.68975766872569, 0.6101322258615941, 0.36048184445509845, 0.494528900277571, 0.833236418754339, 0.7119956344842007, 0.3355371870463486, 0.697208600427186, 0.6936391114754603, 0.4859070318401981]</t>
   </si>
   <si>
-    <t>[0.5322480413621502, 0.7597036914646965, 0.45337442394958505, 0.5018202742820204, 0.7460365894084837, 0.8070806526270765, 0.7353408606078603, 0.798568864556302, 0.4659375433142561, 0.8642113235359428, 0.5871744465573012, 0.6915870961066445, 0.7446793126865572, 0.7115979364313683, 0.8307739469270183, 0.7118031070751525, 0.6746664208781192, 0.6002142033729382, 0.5651586699777478, 0.7948877064741671, 0.614294719178783, 0.6887372969585611, 0.5764611674956542, 0.5339104735336464, 0.7842510155062178, 0.370708774086141, 0.6388701734069746, 0.7685641785456581, 0.6731413050344606, 0.6057916776859713, 0.7268274388171766, 0.5468405787449802, 0.8035809458366489, 0.6864881492961328, 0.631197778923291, 0.631855935549047, 0.5422518057151067, 0.6711940013649755, 0.80586225302217, 0.7075534585220953, 0.6415495963516614, 0.792105876350639, 0.639968133842657, 0.4008000950713235, 0.6872773341454914, 0.8162703935154254, 0.7250208213465801, 0.4734878830876975, 0.6502891641340534, 0.7531313105420304]</t>
+    <t>[0.5322480413621502, 0.7470704492084885, 0.45337442394958505, 0.5018202742820204, 0.7460365894084837, 0.8070806526270765, 0.7353408606078603, 0.798568864556302, 0.4659375433142561, 0.8642113235359428, 0.5871744465573012, 0.6915870961066445, 0.7446793126865572, 0.7115979364313683, 0.8307739469270183, 0.7118031070751525, 0.6746664208781192, 0.6002142033729382, 0.5651586699777478, 0.7948877064741671, 0.614294719178783, 0.6887372969585611, 0.5764611674956542, 0.5339104735336464, 0.7842510155062178, 0.370708774086141, 0.6388701734069746, 0.7685641785456581, 0.6731413050344606, 0.6057916776859713, 0.7268274388171766, 0.5468405787449802, 0.8035809458366489, 0.6864881492961328, 0.631197778923291, 0.631855935549047, 0.5422518057151067, 0.6711940013649755, 0.80586225302217, 0.7075534585220953, 0.6415495963516614, 0.792105876350639, 0.639968133842657, 0.4008000950713235, 0.6872773341454914, 0.8162703935154254, 0.7250208213465801, 0.4734878830876975, 0.6502891641340534, 0.7531313105420304]</t>
   </si>
   <si>
     <t>[0.809049135984974, 0.7159087637250724, 0.3275506020714498, 0.5901055023473342, 0.8305713631375468, 0.8476161598768865, 0.6470761402861674, 0.7231033923228757, 0.35336202001157024, 0.7565306729065344, 0.6936757111967, 0.7277616458287669, 0.5790011016108567, 0.7688837227563344, 0.8365155061107483, 0.7837382351802707, 0.6564319414462625, 0.6609520160778083, 0.46198404652483416, 0.6066830855932491, 0.602035258952662, 0.6849877571660999, 0.5865983559172057, 0.22073248455856787, 0.6613174062061925, 0.6954964339153424, 0.5831879213767386, 0.8012686140692513, 0.5705856223704833, 0.6027607119617099, 0.6087234255204572, 0.7120280298190445, 0.6174077230502173, 0.6118291078989455, 0.3019559479324827, 0.6942628452277702, 0.28006832837740214, 0.6939839044255782, 0.6992400843723928, 0.6666690951046395, 0.7315369030965705, 0.6260019287120102, 0.8154209630607971, 0.6758491676558643, 0.6771508541041789, 0.6485204948166249, 0.5449659439207507, 0.6909552224005007, 0.6117171871669467, 0.40711851138464683]</t>
   </si>
   <si>
-    <t>[0.8129389260216964, 0.703070145168776, 0.36156663356402063, 0.633023447945423, 0.7731600471561708, 0.8355363917338539, 0.6834121041228514, 0.8235432970401111, 0.35525043586433724, 0.7658590902528315, 0.7375837640683565, 0.6619771293312282, 0.6243944325315958, 0.6644012820733969, 0.782637424304587, 0.7595051094431919, 0.6594207230571125, 0.6058611806040225, 0.6027886061978036, 0.7288068703774624, 0.5998559106281254, 0.6809890651822427, 0.6951525432476642, 0.5877919557304125, 0.7832583788354628, 0.6142135921415963, 0.6477177305057316, 0.767635853617099, 0.6765816592267646, 0.6278530098348304, 0.7483921024637105, 0.7085950445334379, 0.6650923240394884, 0.5994818296797283, 0.6609375789463954, 0.693794814100293, 0.5709100169038452, 0.7363185751724285, 0.6452308886354632, 0.6726647498068006, 0.7141765319647853, 0.6311209827754201, 0.7895422896115598, 0.7740286324280732, 0.693129177623649, 0.7366578506393551, 0.745165763049258, 0.6393901871316754, 0.6571647516068302, 0.6329494823563224]</t>
+    <t>[0.7952849063362708, 0.7033168359554508, 0.3846108883879549, 0.6373271141618201, 0.8049343150797624, 0.7998555279031605, 0.6755793727270365, 0.7989191613989578, 0.2759122400737578, 0.7613606837857811, 0.7291267657528426, 0.7333091058456545, 0.6287630650904281, 0.6654756690424142, 0.7709118008806607, 0.753503026785747, 0.6256775724331549, 0.6301945176408228, 0.6530349944767501, 0.7134003537620567, 0.6466396421600312, 0.7048803135101878, 0.7131133698725646, 0.5671432741293965, 0.7402365114573232, 0.6798746659981303, 0.6564086103651345, 0.7690917186041102, 0.658461061748733, 0.6042745623071442, 0.7275254374442637, 0.6909671184629318, 0.654758001709388, 0.5706627528729789, 0.6657013176277702, 0.711197666285168, 0.6505979645675746, 0.7337112012739608, 0.6587285061835864, 0.6716621699897537, 0.7363281638120833, 0.599769344165203, 0.7754697504725165, 0.7165951002743529, 0.6884028415764258, 0.7030692312904615, 0.7378311671496309, 0.6339921236898879, 0.6631494066496888, 0.6755199827319528]</t>
   </si>
   <si>
     <t>[0.8358291812899923, 0.7587287843926789, 0.34775683080156994, 0.68283051395857, 0.7944349184917318, 0.853520272531324, 0.654943718231527, 0.872273906351146, 0.5298408677546043, 0.8341924451268887, 0.6683272365541971, 0.7445565067406743, 0.6615258391749039, 0.7707809160059161, 0.7204506042181601, 0.8484994779362073, 0.6930999526947246, 0.6988356431083059, 0.7307884931074509, 0.7224935040229319, 0.6578058991671565, 0.7430765777809236, 0.721061950177955, 0.5139780998231736, 0.8799408679492452, 0.4309171124188578, 0.6485553689330028, 0.6720947943102193, 0.7361974196343672, 0.6465806342761986, 0.8055585001527651, 0.7797797915306202, 0.7097406915810501, 0.6795272074785329, 0.7790915206997332, 0.7347161083282711, 0.5977959109903178, 0.6301690384440399, 0.687483305305697, 0.7941356856550068, 0.7711547168102905, 0.6537074624574062, 0.6192672842478922, 0.8241109018639132, 0.8502606169177716, 0.7565836320085838, 0.6675745245629048, 0.7411087555620752, 0.7494506546510604, 0.5826906420391418]</t>
   </si>
   <si>
-    <t>[0.7486220721601291, 0.6117595113647882, 0.22713429761704684, 0.3816596207374764, 0.6566575540305934, 0.7553034795641336, 0.5134319478414333, 0.6649561123534898, 0.07812397422126105, 0.37222354965962423, 0.6442460212320416, 0.5290964061479471, 0.39656356898836687, 0.5865079244222047, 0.607236162142675, 0.7071829788161417, 0.5167556747655239, 0.4713693927388738, 0.408795822277657, 0.628973708900523, 0.5262714614204442, 0.37116510900912925, 0.6654190378506462, 0.20194326445741917, 0.7163089184902822, 0.3590209911710175, 0.4556628287693716, 0.6788874987969549, 0.6343669179262714, 0.3807784574041322, 0.6547931209412532, 0.48448573554701324, 0.4976276773703441, 0.36952368102592903, 0.43282543948405294, 0.6099171821343397, 0.2545834879483444, 0.43327656781897295, 0.5735092826358293, 0.6013558169059294, 0.6263193400050349, 0.3797800742565911, 0.6753060949039229, 0.45373706627133015, 0.44666390637064435, 0.7196599805809125, 0.30815465728945823, 0.45274021568884704, 0.5398086953726933, 0.16738728538861103]</t>
+    <t>[0.7486220721601291, 0.6117595113647882, 0.22713429761704684, 0.3816596207374764, 0.6566575540305934, 0.7553034795641336, 0.5134319478414333, 0.6649561123534898, 0.07812397422126105, 0.37222354965962423, 0.6442460212320416, 0.5290964061479471, 0.39656356898836687, 0.5865079244222047, 0.607236162142675, 0.7071829788161417, 0.5167556747655239, 0.4713693927388738, 0.408795822277657, 0.628973708900523, 0.5262714614204442, 0.37116510900912925, 0.6654190378506462, 0.20194326445741917, 0.7163089184902822, 0.3590209911710175, 0.4556628287693716, 0.6788874987969549, 0.6343669179262714, 0.3807784574041322, 0.6547931209412532, 0.48448573554701324, 0.4976276773703441, 0.36952368102592903, 0.43282543948405294, 0.6099171821343397, 0.2545834879483444, 0.43327656781897206, 0.5735092826358293, 0.6013558169059294, 0.6263193400050349, 0.3797800742565911, 0.6753060949039229, 0.45373706627133015, 0.44666390637064435, 0.7196599805809125, 0.30815465728945823, 0.45274021568884704, 0.5398086953726933, 0.16738728538861103]</t>
   </si>
   <si>
     <t>[0.877590598106696, 0.7593193455519596, 0.3013492962497556, 0.49768592598478456, 0.761761197493274, 0.8257880261801478, 0.6657477344648322, 0.7240815577878859, 0.11731058109957793, 0.619058351052435, 0.8091523926585314, 0.7132170484396909, 0.5347611533552963, 0.6757611151781202, 0.8128095291126192, 0.7655357357594752, 0.30936489726190386, 0.649510244091947, 0.5914144963138457, 0.6909217467497397, 0.7677887110529602, 0.5280678058354054, 0.7168085878184889, 0.2564449389324841, 0.8131260971110205, 0.6464819861875988, 0.5977308680415839, 0.8587095028542762, 0.6725258732837116, 0.6292509525394165, 0.5594004083833731, 0.727645789931705, 0.615769987734375, 0.7351163164265144, 0.7678285944123798, 0.5421452465905963, 0.6012605635575112, 0.7493493000655496, 0.6653202086949119, 0.7632003203515862, 0.639604270845048, 0.45685894244619574, 0.7251688712687474, 0.7244314747064231, 0.732198387715105, 0.81196808243901, 0.5975813416394999, 0.7032356179368551, 0.6676313297875183, 0.55994948105618]</t>
@@ -3331,7 +3331,7 @@
     <t>[0.8169395749090337, 0.712245158480237, 0.3144131002789088, 0.39666609341106773, 0.8007017377614095, 0.7776219341432833, 0.510505818418667, 0.7408731728238438, 0.1935953504902923, 0.5943717449478533, 0.708023867956413, 0.6057883943896756, 0.5661108877761258, 0.6908945923436919, 0.8415207446590247, 0.774313723569338, 0.7132952448473988, 0.7846726146035545, 0.5107071628022927, 0.7178633914543004, 0.5609333833294885, 0.6448032023334629, 0.6368334732878986, 0.5577492860848614, 0.7979181627719691, 0.7000760484347195, 0.6025527348827964, 0.7696091251726406, 0.6842035929658854, 0.6406206817553775, 0.5590118574944061, 0.6828269969980427, 0.6141259535455819, 0.7254545169129865, 0.6055921784504903, 0.5852489092507718, 0.5079191621089356, 0.7675898961108957, 0.6418726509793456, 0.663506730650103, 0.717843224741717, 0.5496064794246193, 0.7367117173891029, 0.6583291979156796, 0.7181617288611051, 0.7930644605362092, 0.6015085709533154, 0.720104898228318, 0.6405436151951971, 0.5426595881619607]</t>
   </si>
   <si>
-    <t>[0.8215896679366179, 0.7278525489555526, 0.4473892606891383, 0.6226161626560563, 0.8477648156070474, 0.856823513947832, 0.6075446770534698, 0.8343195418393105, 0.2665641277008456, 0.7577967958318865, 0.7014256635907741, 0.7514829100564839, 0.6504714136728593, 0.7069809830819649, 0.8359237909632424, 0.7395032677054343, 0.6228951900415112, 0.7507950611519809, 0.570811404083102, 0.7101354080602893, 0.7214077404950643, 0.7376315742357391, 0.7031244808005169, 0.6079810129991977, 0.7837250234167084, 0.6404857672347194, 0.6995243063810546, 0.8353192375658216, 0.6510808553288692, 0.5606777501849269, 0.7343908838932245, 0.7580687409123509, 0.6156576652527639, 0.6053605121707077, 0.7422905192209442, 0.7094071299871858, 0.6022190337605189, 0.742003930869871, 0.686038395338634, 0.7102202456994411, 0.7680880401216924, 0.6441302938090487, 0.7820391920900501, 0.7613151327345737, 0.6917813617527641, 0.7311552259129963, 0.7504468944122791, 0.6885454794446797, 0.6356715307205316, 0.6134815828517906]</t>
+    <t>[0.8289545026174161, 0.7273500942387602, 0.43435662246727835, 0.5978991969112156, 0.846522735267101, 0.8649735505791598, 0.5960685272925768, 0.8108271170832275, 0.26909905156102243, 0.7665313027504761, 0.6736246295187287, 0.7635554112379248, 0.641265086735396, 0.7190139947244047, 0.8238401960249891, 0.7455483209345835, 0.574476823711108, 0.7583407574143272, 0.6229089909268828, 0.6706232719923566, 0.727226941059852, 0.8000325732582344, 0.6959993789455052, 0.5922381229089619, 0.7519197252580557, 0.6497630867727753, 0.6720654378586228, 0.8306636301927938, 0.6634359813152932, 0.5362172401090766, 0.7287646809800146, 0.7148613881659874, 0.6293536644118842, 0.6071621314040876, 0.7851970460268077, 0.7214122840858566, 0.5942983454011305, 0.7380802582574675, 0.71574162626003, 0.7093321388614402, 0.763207115121532, 0.6440144443384532, 0.7730421772087712, 0.7577310140904554, 0.6988719217116025, 0.7505533371490823, 0.7292039454533363, 0.6735219887460322, 0.5974652359618297, 0.6080486435886969]</t>
   </si>
   <si>
     <t>[0.9163798949295346, 0.809529145304408, 0.5738546988543956, 0.612291502794754, 0.8384268630797185, 0.8804584173471591, 0.6128159849195147, 0.7264095083273439, 0.3886659760961739, 0.8289697099193825, 0.5551765329001805, 0.7973105247973206, 0.5387569697800987, 0.8017709420629557, 0.8160646039026312, 0.7606960732121488, 0.5843481595517896, 0.6315334132932173, 0.6692996174799097, 0.7563257481970836, 0.7067081394200065, 0.7807122854951917, 0.7306374473708845, 0.6187730422262611, 0.7716663609502048, 0.5476874322867415, 0.6534861146905346, 0.8354999957473, 0.6817571858120743, 0.6305777666323107, 0.7890932208416996, 0.7120105370560164, 0.5845368585460824, 0.6167861576260145, 0.8333912167621617, 0.7118688568892444, 0.6806849996207529, 0.6929737851909739, 0.7395216078258576, 0.7616765563804284, 0.8049954412672347, 0.6813726527678122, 0.7354255321822126, 0.7531768772464101, 0.7667868570173189, 0.7803639374206742, 0.5354974309547922, 0.7276087788431242, 0.6959709709077155, 0.5104575045522444]</t>
@@ -3343,13 +3343,13 @@
     <t>[0.8533269362855503, 0.7652239441544622, 0.2980108080903353, 0.4092935387656492, 0.8145380274427164, 0.8403355238506742, 0.7760722686483918, 0.8243246557114222, 0.3345473171032318, 0.6461671358926229, 0.7665433041376775, 0.6573025414007662, 0.39602782080060017, 0.6736943909068991, 0.790908042106254, 0.8547052088670333, 0.7002163613088168, 0.5924927377389586, 0.5528385029197327, 0.8041043155764214, 0.6952055489429902, 0.4248494898235551, 0.6936746144841143, 0.41745741963541305, 0.7046624934882864, 0.6559791591602028, 0.645531449896968, 0.8516990298315718, 0.6838256227772017, 0.7308158389305419, 0.5854309658068467, 0.7667636727319593, 0.5985380756741339, 0.4844603218161868, 0.5327354660158987, 0.6646202155169931, 0.4537752875918293, 0.7243215374874772, 0.7527289055589276, 0.5473041753682844, 0.6882803913986149, 0.40377882435631296, 0.7635629446597411, 0.44416232395491273, 0.388506760610278, 0.8507642615342413, 0.7295089405743143, 0.7030336855253151, 0.6986460112504694, 0.6911398098576598]</t>
   </si>
   <si>
-    <t>[0.8419180514296036, 0.611788623297228, 0.44947473987406805, 0.497061067637511, 0.7374994221379889, 0.8084553765353633, 0.6279499023054589, 0.8092416876705395, 0.39929021686923505, 0.6314255587445112, 0.6920962802058428, 0.7369605038155879, 0.3999994773580905, 0.6832821341888066, 0.7468378827219674, 0.7881130954359815, 0.5117044163644859, 0.7547159314572773, 0.6887491930491508, 0.734288704857013, 0.736083449876074, 0.7031950838585425, 0.4103473723118213, 0.4101247311531705, 0.7523773728659707, 0.5420447451307959, 0.5774109080226733, 0.8429211473477766, 0.6113931131263919, 0.6855055223962887, 0.6391564907642775, 0.6967647019050048, 0.6950563332401776, 0.7204230697475951, 0.5439184827203016, 0.6779824994497933, 0.6386197800714808, 0.7684950128099743, 0.7303036219459962, 0.6566970513689072, 0.684971653350704, 0.5811971203762883, 0.7324264974157995, 0.8144176851266728, 0.6259245498037018, 0.6590886597356531, 0.7736103663724309, 0.7063274371326111, 0.7227040298991482, 0.7551498241824344]</t>
+    <t>[0.8419180514296036, 0.611788623297228, 0.44947473987406805, 0.497061067637511, 0.7374994221379889, 0.8084553765353633, 0.6279499023054589, 0.8092416876705395, 0.39929021686923505, 0.6314255587445112, 0.6920962802058428, 0.7369605038155879, 0.3999994773580905, 0.6832821341888066, 0.7468378827219674, 0.7881130954359815, 0.5117044163644859, 0.7547159314572773, 0.6887491930491508, 0.734288704857013, 0.736083449876074, 0.7031950838585425, 0.4103473723118213, 0.4101247311531705, 0.7523773728659707, 0.5420447451307959, 0.5774109080226733, 0.8429211473477766, 0.59694278005898, 0.6855055223962887, 0.6391564907642775, 0.6967647019050048, 0.6950563332401776, 0.7204230697475951, 0.5439184827203016, 0.6779824994497933, 0.6386197800714808, 0.7684950128099743, 0.7303036219459962, 0.6566970513689072, 0.684971653350704, 0.5811971203762883, 0.7324264974157995, 0.8144176851266728, 0.6259245498037018, 0.6590886597356531, 0.7736103663724309, 0.7063274371326111, 0.7227040298991482, 0.7551498241824344]</t>
   </si>
   <si>
     <t>[0.810082448479293, 0.6883245965759054, 0.26636460768140113, 0.45802972692929744, 0.8301745096013293, 0.7638241130111647, 0.6280936941377986, 0.7978647351933484, 0.32315425432362554, 0.7148120670387919, 0.6899552927711361, 0.6761220250879598, 0.49195023462180176, 0.7553578261959206, 0.8166330792680168, 0.8176766459419391, 0.5701275578905902, 0.6846857011103681, 0.5718030881411518, 0.6873154821301988, 0.5176393740078455, 0.733368418456551, 0.6251232687275947, 0.5457182209337137, 0.7441914076675229, 0.6884094682461659, 0.39250388530018054, 0.8068902908886452, 0.6852481296667393, 0.6997713225877283, 0.5935469068685664, 0.793799117530493, 0.6168280580541183, 0.6594282614802656, 0.5830601311743286, 0.4700249796393654, 0.3979724215913337, 0.8247561494548499, 0.7353273658066677, 0.5956011395259058, 0.7526555756704627, 0.5233129768963025, 0.8310881712023546, 0.6086309616681804, 0.6793655121393091, 0.7642469279897037, 0.735731781756447, 0.595273147371304, 0.7033425325057348, 0.5636448087085065]</t>
   </si>
   <si>
-    <t>[0.7923410091499786, 0.7518520641376794, 0.2940730140430018, 0.5675006331625796, 0.7747218554703561, 0.8174171639675155, 0.68532989572391, 0.8087275926583748, 0.2599268451170268, 0.7341443846806481, 0.7266498575117165, 0.6326134017002496, 0.5707112704579635, 0.6732227663892274, 0.7722823086668776, 0.7600335715575205, 0.618185514371629, 0.6125513291944993, 0.5630117103169032, 0.7673548075678956, 0.6145553330147606, 0.6618403661874945, 0.678350271147991, 0.5606570876598633, 0.7295708639830307, 0.5653409318912346, 0.6160393373064053, 0.8065252247248285, 0.6598963888917961, 0.5665464286645345, 0.7233065305866928, 0.7738005814742227, 0.6536851120841959, 0.5662691988637004, 0.6910328013759615, 0.7085129941116124, 0.5971197720158824, 0.7003858721198853, 0.7080107244198011, 0.6622945964111817, 0.7435677152922107, 0.65067627136675, 0.7412187711971765, 0.7001935298471503, 0.7169251904468645, 0.727117520498733, 0.7634525555680536, 0.6726488760682767, 0.6340609959050649, 0.6564927324776244]</t>
+    <t>[0.8002359364394245, 0.7250964310050495, 0.308983315346248, 0.5533808175883563, 0.7957854967930853, 0.82058857914604, 0.6687131054770272, 0.8205547918311489, 0.26070498929229224, 0.7575391514984073, 0.779005976446921, 0.6871529947564318, 0.6045161995219075, 0.688369600740474, 0.7702529626796097, 0.7755484616618116, 0.5783136653720637, 0.6515849578266129, 0.5717081271920528, 0.7655801372464547, 0.6124963175356425, 0.6564196854069518, 0.6649054458645363, 0.5276464423009739, 0.7316060999252236, 0.6241740540771414, 0.6094620889255963, 0.7643068919482944, 0.6404390133904159, 0.6331034652355405, 0.7092563044981406, 0.7510701851808763, 0.6389600900041934, 0.5507454654515199, 0.723922703309771, 0.6653362730961512, 0.5807629587775835, 0.7043149994433998, 0.6873999467419385, 0.6694948791073922, 0.7229404588614006, 0.6065523177540115, 0.7475766184077441, 0.7460371255884042, 0.6922123585227276, 0.7533681628914553, 0.7547590769048844, 0.6538274739930636, 0.64600211597865, 0.6694450646222974]</t>
   </si>
   <si>
     <t>[0.7510595569581524, 0.7846092926322737, 0.418027847354422, 0.6342852811645763, 0.7305823260185118, 0.8767605325590564, 0.6157620709882432, 0.788766086033659, 0.37454993167200923, 0.7799388549762997, 0.7497797306943383, 0.6480266381450231, 0.6701742924581047, 0.7758846814348134, 0.827306943000871, 0.8927072944016642, 0.7068251070611371, 0.6280793977018946, 0.6771361367917759, 0.8482816116996882, 0.6714455710189424, 0.694882605943812, 0.7024887783969995, 0.46382366793313223, 0.818840538738716, 0.5355975429690134, 0.7285621788158624, 0.8216650847042302, 0.7255824056373936, 0.5666372984982865, 0.76126863417959, 0.8330456623897263, 0.7062797162461913, 0.659974574626403, 0.793300289737378, 0.713963126342058, 0.5542618419176588, 0.7133878569066674, 0.7759003263491668, 0.7016026482686297, 0.7548188257249534, 0.6247373241139196, 0.6702964243445029, 0.7268292153935436, 0.768625288529471, 0.8490765041098919, 0.8366086320520868, 0.6142847173296241, 0.7253852162486214, 0.6354505545392921]</t>
@@ -3367,7 +3367,7 @@
     <t>[0.8368657101361108, 0.8318968390968378, 0.777156320248259, 0.7658692618909225, 0.9027960210120374, 0.9050970502967772, 0.8462323188790881, 0.8401016845524643, 0.6435454328930424, 0.8611798241122058, 0.8641949772737724, 0.856902711094542, 0.8330689781579712, 0.8125680430801869, 0.8901652313721049, 0.8932807624738013, 0.7985459447107015, 0.8774373873134163, 0.819399414561069, 0.8771319932766077, 0.8337373141149264, 0.861124096840787, 0.8772252259153838, 0.5521375448119807, 0.9234377492688403, 0.8628789115602974, 0.7604075265863208, 0.9037531025516539, 0.9133743816688888, 0.6978033471452685, 0.812318506582811, 0.8672425031039853, 0.8833335119805477, 0.7803754117904752, 0.9212899255119217, 0.821319427307128, 0.7402144114170512, 0.8971393470151446, 0.8358309797756663, 0.8704071981816834, 0.8654355661685229, 0.7386307766881084, 0.8635477027618528, 0.752941299743254, 0.9343303371381289, 0.9545380426810522, 0.7880459587476101, 0.8439961911459062, 0.8490520756045661, 0.614445389615788]</t>
   </si>
   <si>
-    <t>[0.9371555470257829, 0.868714134948203, 0.6546648594052672, 0.8018447897235702, 0.9258189373978265, 0.9305257454457632, 0.8617091848397553, 0.9013894547604913, 0.6026456753121621, 0.9005111929411266, 0.8799763640510536, 0.8839410768146503, 0.7959929817121068, 0.8735615145839957, 0.829361824432966, 0.92157991784465, 0.8932610354760615, 0.8420744474281744, 0.8240527410862715, 0.8731400627960223, 0.7850240942591117, 0.883031307072615, 0.8622720929936782, 0.6729266721110283, 0.9135218683659456, 0.834740681392671, 0.7743881347521664, 0.8821837722415262, 0.9169895057228581, 0.8083546027576033, 0.8459967483185928, 0.9179128201148996, 0.8439459230360513, 0.7818684113096411, 0.8479502406820465, 0.8770731368937053, 0.7400295813469899, 0.8961676894792487, 0.8773703983556098, 0.8101396518666919, 0.8845650710568863, 0.8316112935789061, 0.8564299453814683, 0.8333860891838623, 0.9002812354540662, 0.8939023920109983, 0.8243764657202665, 0.8595249529631074, 0.8232054747637478, 0.8305978507264565]</t>
+    <t>[0.9247860838407577, 0.869748935232119, 0.6432940700490255, 0.7944204840156068, 0.9183713750855226, 0.9146667605157285, 0.8665661989351422, 0.870053918710159, 0.5889616122799616, 0.8915627124040865, 0.8661816880182702, 0.886773732063235, 0.8100960794249398, 0.8271351455110674, 0.8505484023979163, 0.9037505901748867, 0.9073709022401629, 0.8416430901084413, 0.8393537447127437, 0.8585518879839237, 0.7959973504060011, 0.8546162553564056, 0.8451240126113009, 0.6428418635598592, 0.9155180767832172, 0.8355861663976045, 0.7573150740414407, 0.8806348135358144, 0.9103364884060595, 0.8004354841673611, 0.8469126126695593, 0.9111780730408665, 0.8483082411012475, 0.7646205317118797, 0.8568154524097389, 0.8536987146926445, 0.7428001523731611, 0.8855708066610207, 0.8572076437380641, 0.8539805085887668, 0.8944378940072779, 0.8315550680763619, 0.8704512952322722, 0.8504572991020478, 0.9031337891059623, 0.9105024756136886, 0.7786707254830326, 0.864858560057691, 0.8228050516715716, 0.8197762199846259]</t>
   </si>
   <si>
     <t>[0.9604888492603765, 0.890404820624958, 0.7027073423797343, 0.8155135873598685, 0.9158492857374204, 0.9032350673387199, 0.8623587747301324, 0.8528326411563023, 0.7207292212649006, 0.8913906443606257, 0.9251416876151364, 0.8626712737428024, 0.7888966363448011, 0.89912909035268, 0.9164885066396882, 0.9020995775601526, 0.8818484095837641, 0.8437634414489668, 0.8800095989823236, 0.8630068323275569, 0.8313377627399027, 0.8743769583803597, 0.8347597947251704, 0.6917158616658843, 0.909384347378796, 0.8429611558752131, 0.8487519639375755, 0.8568122174926928, 0.9061435446828427, 0.7935621789421242, 0.8284950369876052, 0.877615552933063, 0.8745443592916444, 0.7889154431188592, 0.8853082748240126, 0.892620374620555, 0.7647101837970094, 0.8246448781708015, 0.9004645369280041, 0.9059367004292991, 0.7890237749383726, 0.891559514357046, 0.8660600585123305, 0.8571617790904278, 0.875312537436175, 0.9282257179197813, 0.7410743020504813, 0.873524234701608, 0.8960908541042918, 0.8454764461294078]</t>
@@ -3379,31 +3379,31 @@
     <t>[0.8744563418022292, 0.886748144556896, 0.5477148032604581, 0.7746137904600008, 0.9305759823616688, 0.8893746936034493, 0.8816173424114413, 0.8777493185017182, 0.6724222767279204, 0.8547010026039528, 0.8775522197427877, 0.8783794346986817, 0.8091900867505586, 0.8513738794858394, 0.9050125476415106, 0.9020755406978603, 0.8513508569203274, 0.9108574530180054, 0.8368889339921948, 0.8258210222352242, 0.8752671265330967, 0.8792516514841311, 0.8577023650937889, 0.638185899642935, 0.8150828186108318, 0.8953392251584115, 0.8368137619755356, 0.9134208071300132, 0.8275105991730415, 0.8836988821903777, 0.7967428032075967, 0.880920200491385, 0.7019113995721007, 0.789672043752351, 0.8742193084403819, 0.825467445608851, 0.7525818586118063, 0.9061823388867034, 0.8442698705017291, 0.8628096430829658, 0.8152720019132972, 0.821206268942605, 0.7952486921647149, 0.7262876561985379, 0.924638418034275, 0.8869391811887306, 0.6215330384311603, 0.8456875494686307, 0.8628180517928631, 0.8168716370293743]</t>
   </si>
   <si>
-    <t>[0.8597028637577224, 0.8165323013241094, 0.7229616762385962, 0.7814922506655615, 0.8481795444497435, 0.8737055185412591, 0.7906167231763469, 0.8784778834991609, 0.7841628729478654, 0.8828184370855858, 0.7952558193934536, 0.895345950541445, 0.7102548527242107, 0.8472283039479183, 0.8972890538748788, 0.8754215058060743, 0.8298794108510561, 0.7978838246037212, 0.8358693231775554, 0.8495439229707624, 0.8157141899026594, 0.8142397405395347, 0.797435353135826, 0.7036945409627666, 0.8391123606103594, 0.7566191405926552, 0.7548494636002265, 0.843106966015449, 0.8834509893823943, 0.8749960468722677, 0.8011789788831497, 0.8091880634643931, 0.8841745505432527, 0.853471230529923, 0.7611988163336, 0.7930426818644529, 0.7914088794784805, 0.8635141613656598, 0.8580420255883421, 0.8191631617923376, 0.8429020661934783, 0.8322250550262558, 0.8137390587448967, 0.8859540530066788, 0.8692109655178579, 0.8942946704643272, 0.7092587533684506, 0.8443362250788452, 0.8469619672490983, 0.8931062570538093]</t>
+    <t>[0.8597028637577224, 0.8165323013241094, 0.7229616762385962, 0.7814922506655615, 0.8481795444497435, 0.9182160910205943, 0.7906167231763469, 0.8784778834991609, 0.7841628729478654, 0.8828184370855858, 0.7952558193934536, 0.895345950541445, 0.7102548527242107, 0.8472283039479183, 0.8972890538748788, 0.8754215058060743, 0.8298794108510561, 0.7978838246037212, 0.8358693231775554, 0.8495439229707624, 0.8157141899026594, 0.8142397405395347, 0.797435353135826, 0.7036945409627666, 0.8391123606103594, 0.7566191405926552, 0.7548494636002265, 0.843106966015449, 0.8834509893823943, 0.8749960468722677, 0.8011789788831497, 0.8091880634643931, 0.8841745505432527, 0.853471230529923, 0.7611988163336, 0.7930426818644529, 0.7914088794784805, 0.8635141613656598, 0.8580420255883421, 0.8191631617923376, 0.8429020661934783, 0.8322250550262558, 0.8137390587448967, 0.8859540530066788, 0.8692109655178579, 0.8942946704643272, 0.7092587533684506, 0.8443362250788452, 0.8469619672490983, 0.8931062570538093]</t>
   </si>
   <si>
     <t>[0.9222182310802871, 0.8612234810696671, 0.5776048618857967, 0.7555169084812929, 0.9237373633090273, 0.878633963425236, 0.7903924708918605, 0.8443325676360921, 0.6604407933449926, 0.9008881968794411, 0.857014022990654, 0.8599923337782693, 0.8135959837956671, 0.8667930123504225, 0.8595408051455117, 0.8683792609843161, 0.8271308698187223, 0.7953735653619665, 0.8180236943522923, 0.7866664759383876, 0.7992584362986208, 0.8147704256392794, 0.8402831836630726, 0.6499435286522284, 0.7711710152331079, 0.8428533732262716, 0.7802067988944568, 0.8944667788975194, 0.759953480305595, 0.7940686515660855, 0.773643094925941, 0.8359819292671428, 0.8202082983144723, 0.8614785215929027, 0.8011800592587678, 0.8292755634111303, 0.6733352263664627, 0.8899175235508996, 0.8358285496732505, 0.8132100918997947, 0.8490356605652415, 0.7716986853514975, 0.9125003108805738, 0.8174396913229376, 0.8787668688952119, 0.8360196100228043, 0.6893598887798333, 0.8355469896616271, 0.7955982479326036, 0.7988086291124172]</t>
   </si>
   <si>
-    <t>[0.9253631948727769, 0.8625996467886043, 0.6151522625173063, 0.7946978895373447, 0.8999298161214622, 0.9256806375072656, 0.8498413986660174, 0.8913483154530435, 0.5574516030630503, 0.8807032067898355, 0.8875562003148777, 0.8977552929534236, 0.7796419903911165, 0.8605920806268154, 0.8897351151924116, 0.8856232618662676, 0.8988398628124332, 0.8098656607598554, 0.8336747705728453, 0.8593329402270348, 0.7862851676887246, 0.849863653920606, 0.8734501642903503, 0.6670256948830962, 0.8680527208328468, 0.8893075237741777, 0.7807049145066921, 0.869699357250904, 0.8806982015127907, 0.8333831954645877, 0.8576650041872331, 0.9054919656444049, 0.8006627782068617, 0.7700279612912632, 0.813759709927627, 0.8801009100015647, 0.7656548860671629, 0.8927222133654751, 0.8158521577433929, 0.8120685554824292, 0.8739626085457189, 0.7597698033877237, 0.8914341236313668, 0.8478527177069156, 0.9072458290145389, 0.8931272977280469, 0.8183270070205463, 0.845958934461685, 0.8138968349966438, 0.8316046702356037]</t>
+    <t>[0.9262188570242977, 0.8681930850132515, 0.624982982389757, 0.7901444142637486, 0.9039766244797163, 0.9273763177833977, 0.8703374745758038, 0.8968084307479597, 0.5896251351193466, 0.8729491236986768, 0.8656656948829253, 0.8798513275646376, 0.7799267541186746, 0.864361115289157, 0.8544411308892992, 0.8772105683104265, 0.9136173020143157, 0.8202648654645143, 0.8520592730233414, 0.8499696025544952, 0.7798309353155708, 0.8527221454990683, 0.8754683810952296, 0.7126233255149346, 0.8751454459833604, 0.8695982546801629, 0.7740062568531594, 0.8665725391708068, 0.8865936113622693, 0.8370014377381958, 0.8459477969332493, 0.8925582540328578, 0.8008305072044096, 0.7623875040851977, 0.8551483433625059, 0.877440396886322, 0.743698306784893, 0.8942439202305081, 0.8073883287376118, 0.8207222147557719, 0.8917442970851985, 0.7532142482493719, 0.872753612307125, 0.8555065361999368, 0.891408573787142, 0.8842195898720566, 0.8377335730091564, 0.8593847317487051, 0.8138325594364171, 0.8164815633415234]</t>
   </si>
   <si>
     <t>[0.9316930037005806, 0.8215977299336077, 0.6719712080365846, 0.8364538898470468, 0.9393681672329233, 0.947429101534518, 0.8704051903902861, 0.8783488278694334, 0.6568616314266538, 0.8398610046518442, 0.8673252100292574, 0.8838178726613402, 0.7370786097688777, 0.8770100702352398, 0.8879932051259188, 0.85054550632232, 0.9046451414668635, 0.829125543502261, 0.8612122362651595, 0.8357043498204748, 0.7846385851779996, 0.9134840121839962, 0.9028651809069019, 0.6710317512540371, 0.9110390597731026, 0.8501744126306631, 0.8429513045075963, 0.8516011340303639, 0.8668982351450505, 0.866462367569121, 0.8777867759562659, 0.8604040043779695, 0.8442488128870775, 0.8017408390617993, 0.8608994306050417, 0.8611814180160092, 0.8034583040866985, 0.9034984313939741, 0.8084458197989767, 0.8527195816383254, 0.8836030415244989, 0.6257336183563093, 0.868747345413645, 0.8725990004954712, 0.884658675442947, 0.8477326686505221, 0.7849706894105866, 0.8712495874617999, 0.8766441603982864, 0.8112429239823429]</t>
   </si>
   <si>
-    <t>[0.8585199440138548, 0.7707378718414801, 0.5444949724718268, 0.6061240681946596, 0.8271534437434264, 0.8503977921259573, 0.6323823777946953, 0.7572209469558904, 0.5173328734447298, 0.6716607717720087, 0.7690125897899625, 0.7221497338617219, 0.6555118702140669, 0.6167297225948499, 0.7250057323288073, 0.8174515392673225, 0.6527792995079855, 0.6820332527537517, 0.6388285475495177, 0.791259965283075, 0.6367937943272406, 0.6169877436728753, 0.8057075636044224, 0.532738563494561, 0.6904830712176044, 0.7081791635938646, 0.5552956227566309, 0.7245417052953673, 0.8638787272527345, 0.6447910200646385, 0.7490038317935501, 0.8643555502040865, 0.6191795525838879, 0.6549406461253012, 0.7258048585127926, 0.6396174110435888, 0.5696846514961632, 0.7396718858822269, 0.7191784019503897, 0.6842030255227727, 0.8157884793876795, 0.6003944536950989, 0.8201410049507603, 0.7174322821335679, 0.74995203974016, 0.7670904018282801, 0.6343717782305951, 0.7162055913679436, 0.7395151365015079, 0.6421038992906215]</t>
+    <t>[0.8585199440138548, 0.7707378718414801, 0.5444949724718268, 0.6061240681946596, 0.8271534437434264, 0.8503977921259573, 0.6323823777946953, 0.7572209469558904, 0.5173328734447298, 0.6716607717720087, 0.7690125897899625, 0.7221497338617219, 0.6555118702140669, 0.6167297225948503, 0.7250057323288073, 0.8174515392673225, 0.6527792995079855, 0.6820332527537517, 0.6388285475495177, 0.791259965283075, 0.6367937943272406, 0.6169877436728753, 0.8057075636044224, 0.532738563494561, 0.6904830712176044, 0.7081791635938646, 0.5552956227566309, 0.7245417052953673, 0.8638787272527345, 0.6447910200646385, 0.7490038317935501, 0.8643555502040865, 0.6191795525838879, 0.6549406461253012, 0.7258048585127926, 0.6396174110435888, 0.5696846514961632, 0.7396718858822273, 0.7191784019503897, 0.6842030255227727, 0.8157884793876795, 0.6003944536950989, 0.8201410049507603, 0.7174322821335679, 0.74995203974016, 0.7670904018282801, 0.6343717782305964, 0.7162055913679436, 0.7395151365015079, 0.6421038992906215]</t>
   </si>
   <si>
     <t>[0.9244708038402958, 0.853687498112111, 0.5673367671420517, 0.7005463523460782, 0.8534658547772979, 0.8898479496370336, 0.7899650873835266, 0.8183500885665391, 0.5261637369287955, 0.8377093291804469, 0.8804831144648244, 0.858364124399905, 0.7645626083754424, 0.8184110490412688, 0.8868102460566913, 0.9129672508581302, 0.6238012220925828, 0.7817782415436749, 0.8192504495622461, 0.8261780827566542, 0.8922096290508852, 0.769448455736113, 0.854627951465037, 0.7687118900875558, 0.9104062728041985, 0.7185282075713024, 0.7899012322328927, 0.9160802573188169, 0.8369719799462028, 0.820252809638243, 0.7917771272942664, 0.8804587903426795, 0.7738625182497494, 0.7280067728820336, 0.8358614859290796, 0.7233310933739205, 0.754699106839329, 0.8946214082552825, 0.8172228838426789, 0.8586843035301442, 0.789576860198389, 0.6776745090596628, 0.8524511763724201, 0.86317897722827, 0.8776438379250255, 0.9139351148730026, 0.7790033250406435, 0.8433909570771636, 0.8585108843959306, 0.7483909960128768]</t>
   </si>
   <si>
-    <t>[0.8653202282597968, 0.8047684530970453, 0.6165476793971827, 0.6755228170696922, 0.9068610023933917, 0.8846110477684898, 0.7128082742820364, 0.8970970271092831, 0.5410524815741509, 0.8845452003830304, 0.8606771589755763, 0.8500891375768351, 0.728488478688711, 0.7603514851531902, 0.8440757730847732, 0.8877223416067442, 0.7137941368876071, 0.8693169082610082, 0.8227964301760637, 0.9129811287590364, 0.7944390059294848, 0.8311886163334892, 0.8391039368515065, 0.5227817623791797, 0.8117009779585809, 0.6975925746745801, 0.732930102009666, 0.8383324472457704, 0.7942659375372094, 0.808696934152127, 0.7014607933228644, 0.6907966627953244, 0.7887203197571044, 0.8555956324668808, 0.761646576100537, 0.7139903717352452, 0.7575406795467305, 0.8208442173731081, 0.7366886146803593, 0.7477793594253688, 0.8268261851445345, 0.8010835744070399, 0.8813185253568019, 0.9169180432185068, 0.7964243068299717, 0.8369084234814265, 0.6188979455981394, 0.8546591047596587, 0.8247673097304102, 0.9121924886134598]</t>
+    <t>[0.8653202282597968, 0.8047684530970453, 0.6165476793971827, 0.6755228170696922, 0.9068610023933917, 0.8846110477684898, 0.7128082742820364, 0.8970970271092831, 0.5410524815741509, 0.8845452003830304, 0.8606771589755763, 0.8500891375768351, 0.728488478688711, 0.7603514851531902, 0.8440757730847732, 0.8877223416067442, 0.7137941368876071, 0.8693169082610082, 0.8227964301760637, 0.9129811287590364, 0.7944390059294848, 0.8311886163334892, 0.8391039368515065, 0.5227817623791797, 0.8117009779585809, 0.6975925746745801, 0.732930102009666, 0.8652625308728987, 0.7942659375372094, 0.808696934152127, 0.7014607933228644, 0.6907966627953244, 0.7887203197571044, 0.8555956324668808, 0.761646576100537, 0.7139903717352452, 0.7575406795467305, 0.8208442173731081, 0.7366886146803593, 0.7477793594253688, 0.8268261851445345, 0.8010835744070399, 0.8813185253568019, 0.9169180432185068, 0.7964243068299717, 0.8369084234814265, 0.6188979455981394, 0.8546591047596587, 0.8247673097304102, 0.9121924886134598]</t>
   </si>
   <si>
     <t>[0.9085156921790418, 0.8524667009777049, 0.6199495863459898, 0.6374394302630291, 0.8725010504522519, 0.9271385253917902, 0.8182588767381977, 0.8592748823976247, 0.5459831425134747, 0.8000708966946337, 0.8675773041302195, 0.845082420428105, 0.7506148783367722, 0.8414471143938604, 0.924195386963556, 0.894887427067776, 0.8548396827553273, 0.8647865463218553, 0.7901667749856416, 0.8566721425229467, 0.8044647316104521, 0.7997502447784999, 0.8564728360470868, 0.8056874682343338, 0.8947084020567999, 0.8593090282181508, 0.7443515878586615, 0.8825149072214771, 0.8761702793411159, 0.8477290397303142, 0.7500611102210613, 0.8881918169544729, 0.7520545204964997, 0.8448413372321151, 0.8068403114815137, 0.7994608083786345, 0.7469511035534397, 0.8779264961818112, 0.7872386106317298, 0.8108678765969167, 0.8602629046042447, 0.7578460837302974, 0.861843826751314, 0.8446129136998318, 0.8748466651375639, 0.9201635234886281, 0.826020607118124, 0.8643607642383888, 0.8027128478338316, 0.6428442082883685]</t>
   </si>
   <si>
-    <t>[0.920622421321186, 0.8633147039713105, 0.7580354366503305, 0.7518017104594088, 0.9227727137861925, 0.940341108343457, 0.7723338803513666, 0.8817072686066303, 0.6002756001301489, 0.885069247748144, 0.8445772936192705, 0.9105915296414129, 0.8045469336409429, 0.8672718387094056, 0.9039703152405116, 0.8775377040382657, 0.7695909342842961, 0.9139318029732548, 0.8493955573363907, 0.8521149605861931, 0.8457174868719408, 0.9284934221457752, 0.8637956586967479, 0.7488712853938951, 0.8835017062761935, 0.8361221029223312, 0.7946362687234528, 0.924854460377105, 0.9090261779759108, 0.7965223136489363, 0.878190045825624, 0.8720081713215673, 0.7541961335636496, 0.7719239727434435, 0.8817696004485767, 0.8531922035661821, 0.7907261658499669, 0.8892819289701019, 0.842679543548279, 0.8701984311663122, 0.8679986269714189, 0.8111203242197714, 0.8877783841847264, 0.8622956222311463, 0.903249682427648, 0.8816601023718325, 0.8381846132560806, 0.8728018762069929, 0.790571881680324, 0.8522021191779943]</t>
+    <t>[0.9171534791671228, 0.8665175765528914, 0.7555567222422868, 0.7824773003569129, 0.9234173601914095, 0.9386555317687336, 0.7998058420281906, 0.89804234157112, 0.5950710684374925, 0.8844257468075505, 0.8533185509017578, 0.907086541341122, 0.781688735889134, 0.8552591579634115, 0.9080199393325811, 0.8851361545371645, 0.7722259562108036, 0.9214429867245647, 0.8383639813332311, 0.8402230630566525, 0.8332037493491761, 0.8998902579829899, 0.8675792203897189, 0.7473991008492664, 0.875938396077118, 0.8158289175774399, 0.8086526985981652, 0.9145702839076657, 0.8991111852011757, 0.7928670092140682, 0.8874133063551628, 0.8681289140865253, 0.7824655661353102, 0.7623665004758711, 0.8895163657401222, 0.8354693752299842, 0.7743334366463939, 0.8757377810150249, 0.8306919460898365, 0.8595386473827423, 0.8679100331029564, 0.7919781907174643, 0.8877741134747728, 0.8448687232297923, 0.8902791516532997, 0.8897198564368474, 0.8049069575664045, 0.8752889074416459, 0.7983720683130174, 0.8504160028492498]</t>
   </si>
   <si>
     <t>[0.9071315246644954, 0.9195808211644947, 0.7734001694338748, 0.8380393678901984, 0.9073730656913124, 0.9389398214345802, 0.720475625902785, 0.8807526275708669, 0.6591368472737924, 0.9213952778712342, 0.8199479242119616, 0.8786014500072707, 0.7794755851223079, 0.8684857219967947, 0.9096674184609874, 0.9014490466905914, 0.6955443046335636, 0.901026461028384, 0.8747046876295983, 0.8800337915824004, 0.8626187445590824, 0.9222421803523249, 0.8468313899508506, 0.7601472735468905, 0.8676372659391782, 0.838481618928918, 0.8732287907651404, 0.916178753315523, 0.8380091578886051, 0.8667291830981333, 0.8470388414403388, 0.7851459555200376, 0.6990289595678114, 0.7902916858831655, 0.9064589851891114, 0.8186312699449909, 0.7995874268303304, 0.8716406705759525, 0.8524299765073609, 0.8635979422542135, 0.8773123713770847, 0.8690052432865917, 0.8741043543608813, 0.902737731166456, 0.9111513749404453, 0.8944601591964217, 0.7910225049722838, 0.8776265970963224, 0.85530800784822, 0.8467590371363363]</t>
@@ -3415,13 +3415,13 @@
     <t>[0.9333917720103162, 0.8640248389476507, 0.4757247436091282, 0.7384472428759471, 0.9216202524437637, 0.9158956958539199, 0.8823629935433669, 0.8838429988849027, 0.5846286362569388, 0.8070888534348402, 0.8744167145363009, 0.8717959250332417, 0.6733735865128826, 0.85456016312549, 0.8437077238521693, 0.9349123755802247, 0.8373390528182749, 0.7289607361200356, 0.822403389177615, 0.854180149169119, 0.7235949030288703, 0.6376120657249877, 0.8451143424715646, 0.7445168430829789, 0.8474021296296301, 0.8546866620352022, 0.8456786150482576, 0.908687325506149, 0.855423434238108, 0.8064707264226167, 0.8101610021502654, 0.9132154223972639, 0.745968117707944, 0.7099795802772018, 0.8677764979637312, 0.7783913557409032, 0.5945428580449935, 0.880283378185654, 0.8417723607299246, 0.6714955957431478, 0.8118580112411256, 0.8619388546573805, 0.8769102112960891, 0.6911312461196792, 0.6973197457399138, 0.8722894436320161, 0.8537245349851657, 0.8429033879642882, 0.8787933713867657, 0.7572387645455698]</t>
   </si>
   <si>
-    <t>[0.8954525002376605, 0.8276800408771978, 0.6778485621984883, 0.7870491990714665, 0.8891508053555082, 0.9212384227994259, 0.6572929678544058, 0.8728955942328488, 0.6699554695692991, 0.8012875348500239, 0.853507499621538, 0.8421666346970407, 0.6863119101660609, 0.8404696470795248, 0.9287180488444435, 0.9083233235158477, 0.5063163943656478, 0.7744648438351742, 0.8309076217457462, 0.9133290120698654, 0.866903120630992, 0.8665362388640345, 0.7939135274696474, 0.5438017184995303, 0.8407701882976385, 0.7244333386686161, 0.7763030745756767, 0.8295654256025771, 0.8818253209183744, 0.8291444383145229, 0.6847250502859838, 0.7990523258831397, 0.7158138072908442, 0.8304009962138849, 0.8154171435688808, 0.7620746493638748, 0.7851767381942241, 0.8889945199387863, 0.8769176695815039, 0.828208032804808, 0.8462300984509088, 0.6507700629390827, 0.8674484868803831, 0.8999536993529805, 0.7643016902254868, 0.862009656361425, 0.8176366533728835, 0.8281110856116403, 0.8250671712911786, 0.8727585163253673]</t>
+    <t>[0.8954525002376605, 0.8276800408771978, 0.6581515095792243, 0.7870491990714665, 0.8891508053555082, 0.9212384227994259, 0.6572929678544058, 0.8728955942328488, 0.6699554695692991, 0.8012875348500239, 0.853507499621538, 0.8421666346970407, 0.6888823008568028, 0.8404696470795248, 0.9287180488444435, 0.9083233235158477, 0.5063163943656478, 0.7744648438351742, 0.8309076217457462, 0.9133290120698654, 0.866903120630992, 0.8665362388640345, 0.7939135274696474, 0.5438017184995303, 0.8407701882976385, 0.7244333386686161, 0.7763030745756767, 0.8460290504238093, 0.8818253209183744, 0.8291444383145229, 0.6847250502859838, 0.7990523258831397, 0.7158138072908442, 0.8304009962138849, 0.8154171435688808, 0.7620746493638748, 0.7851767381942241, 0.8889945199387863, 0.8769176695815039, 0.828208032804808, 0.8462300984509088, 0.6507700629390827, 0.8674484868803831, 0.8999536993529805, 0.7643016902254868, 0.862009656361425, 0.8176366533728835, 0.8281110856116403, 0.8250671712911786, 0.8727585163253673]</t>
   </si>
   <si>
     <t>[0.9049221899798285, 0.8598043461750666, 0.41523062015936657, 0.7294513956574751, 0.9139113287195526, 0.9115164986042233, 0.7858126568185858, 0.8387084268462757, 0.5840939854030158, 0.8415239472995775, 0.8485666312084947, 0.8322546038528578, 0.6711131037367947, 0.8710783537734592, 0.9141812536854087, 0.9189910175164949, 0.7528746469950666, 0.7981149908619195, 0.8273195945090891, 0.860990290351062, 0.7764083873690141, 0.839579272109339, 0.8271557064298691, 0.7434665956193909, 0.87356275083902, 0.8203521901462669, 0.6856489661641025, 0.8869134933493414, 0.8778014521339897, 0.7348142808299293, 0.8290699016422611, 0.9166939460955268, 0.7971046243771839, 0.8031683945157471, 0.7956586514836791, 0.7929986576888064, 0.6527850338057211, 0.8425059355141414, 0.8580571458824758, 0.766513361850954, 0.850732098487029, 0.7383361398666682, 0.917131873572856, 0.6478934060511803, 0.8514039800114824, 0.8810602881907383, 0.8444033597316146, 0.830290168115701, 0.8420970294323646, 0.7895560524139644]</t>
   </si>
   <si>
-    <t>[0.9268105324945265, 0.8583113238093226, 0.5723658853500203, 0.7444021039470572, 0.9205637544940725, 0.9368605155800228, 0.8178714571972092, 0.9020041617149098, 0.5225182680948294, 0.8297270564425656, 0.8874511003680953, 0.860272657132037, 0.7644524153766434, 0.8576837054956297, 0.8645251708719129, 0.9236203216864711, 0.8700810322781718, 0.8016989587281019, 0.8223327137004266, 0.8911245430265504, 0.7976213988212157, 0.8325473261558766, 0.8467177655633225, 0.7178331332212505, 0.8904614584503596, 0.823428260427326, 0.7732737691604783, 0.8929396766453581, 0.891369486463103, 0.8352176734753876, 0.8588948147985508, 0.9307521904502669, 0.7803229060759422, 0.7579468520911596, 0.8309527111606467, 0.8406886420584454, 0.7523802972128129, 0.874573678660374, 0.8577539782851994, 0.7979773027804105, 0.8707970275564259, 0.7450360457367647, 0.8793706901301785, 0.8464025312629425, 0.8866787685922513, 0.8939613064522309, 0.8749775270390014, 0.8418261051383209, 0.8249921549509851, 0.808693280059303]</t>
+    <t>[0.9244333931048134, 0.8610471323587194, 0.6019421874135251, 0.7426872300690976, 0.9164105376626331, 0.931870360030933, 0.8388443066676299, 0.8883746918936766, 0.5577682862323327, 0.8233630689705091, 0.8725863449137907, 0.870754847607775, 0.774871973896405, 0.8387544997106859, 0.8729136264875468, 0.9246172238629411, 0.8520244967722768, 0.8126909907513687, 0.8282864202357617, 0.8695308447736323, 0.7958015215644474, 0.8253424476521904, 0.8408182430455687, 0.7438238218647811, 0.8758039780203162, 0.8226973648796363, 0.7643006881906744, 0.8787159360078669, 0.905806100250792, 0.8295995465262349, 0.8640453704262552, 0.9151609968177128, 0.8065832990785957, 0.7687186403539035, 0.8487414035616729, 0.8327759058037789, 0.7652625761142211, 0.8625538734584636, 0.8486407913951454, 0.7733907270767196, 0.8652993888539694, 0.7623598537732768, 0.881115735186225, 0.8240142879142007, 0.8711981461036351, 0.8842881187446993, 0.8652417243224579, 0.8722494475704062, 0.8207110578177892, 0.7981402749533228]</t>
   </si>
   <si>
     <t>[0.9183275756174496, 0.8468176472895509, 0.562004611303319, 0.7537959743027737, 0.9202667371537109, 0.9433186425112822, 0.734847190719315, 0.8848650750460508, 0.5835202853484472, 0.8484634540301775, 0.8682337936907841, 0.8488311427049031, 0.7724176333802264, 0.8791624504549641, 0.881917582282002, 0.9312215089146776, 0.7905329202690481, 0.7701844915007243, 0.8728075118263803, 0.9034067756647961, 0.8166710503347099, 0.8410729809645371, 0.8442296810854892, 0.6933686645776116, 0.8622716130214941, 0.7877509110001903, 0.8468602544565188, 0.8189817480688253, 0.8535147782013004, 0.8671269680722975, 0.7564967208237408, 0.8901810140618167, 0.8134687610885398, 0.7653603617427058, 0.8864073592856363, 0.787617203480505, 0.8379870658346359, 0.8385642192319137, 0.9005959288681605, 0.8051095614208152, 0.8051211840774277, 0.7863304806148294, 0.8940508923055994, 0.8984792059069838, 0.8462606927521861, 0.8725814263320357, 0.704214276132884, 0.8104776118889435, 0.8894060387176824, 0.8086735251614441]</t>
@@ -3433,13 +3433,13 @@
     <t>[0.8438074811451619, 0.8174036738804968, 0.7861716480063554, 0.7933990153668999, 0.8874562959104827, 0.8525187781094907, 0.9068469043629344, 0.8363524373917728, 0.6716173372874936, 0.8927195040401386, 0.8464265201595556, 0.8794552336330105, 0.8224789091839322, 0.8211595209421275, 0.9032243781744985, 0.9157316463878813, 0.8508714616677482, 0.7587775927074674, 0.876213353695835, 0.8728762325937881, 0.8210596931217801, 0.8083556430128259, 0.8992115870808267, 0.6424697508588156, 0.8982922205589758, 0.8270221640373525, 0.7464751277730015, 0.873565976522932, 0.8086905278098974, 0.72521625011467, 0.8341414727704524, 0.8644675812497923, 0.8807486533271136, 0.7877761375382548, 0.9037869878046741, 0.891274869490776, 0.7219641302328299, 0.8895817668314671, 0.831220317350553, 0.9027854005989159, 0.9078714046097363, 0.7763762703003958, 0.8917291628940486, 0.7554890899288901, 0.8784960583485302, 0.9059238656427873, 0.81778061440482, 0.8258153170876912, 0.8204026689391779, 0.5923550984913492]</t>
   </si>
   <si>
-    <t>[0.8452345491088764, 0.8152164525674409, 0.7629765359333623, 0.8538838889596168, 0.8575608910536064, 0.9240166822230533, 0.7927685001070719, 0.8312895002554863, 0.7233178362781342, 0.6396997176468563, 0.8085856129611465, 0.7935832140925679, 0.829280561291384, 0.8424804434211253, 0.8473209242768942, 0.8947544016118567, 0.820287169246978, 0.8124142866911861, 0.8109018407907448, 0.8601177372971198, 0.8420963895906168, 0.8023727669694134, 0.8037352166457872, 0.5954880963740142, 0.8826917048309353, 0.7107168797267426, 0.7412266658435986, 0.909358360617565, 0.9042414974741417, 0.8148423616621229, 0.848827787252602, 0.7785138203403132, 0.8492929819511958, 0.843004992413428, 0.8423483222884237, 0.790654491675563, 0.8002113049207318, 0.8419427310607173, 0.8565448158616731, 0.7686448838597987, 0.8487892230309851, 0.7101395137473497, 0.7784670584434686, 0.7617253182006638, 0.9038206564025716, 0.8815095550520351, 0.6525265524008447, 0.808934707860177, 0.8546150163084791, 0.8000799717892727]</t>
+    <t>[0.8452345491088764, 0.8152164525674409, 0.7629765359333623, 0.8538838889596168, 0.8575608910536064, 0.9240166822230533, 0.7927685001070719, 0.8312895002554863, 0.7233178362781342, 0.8030943364185266, 0.8085856129611465, 0.7935832140925679, 0.829280561291384, 0.8424804434211253, 0.8473209242768942, 0.8947544016118567, 0.820287169246978, 0.8124142866911861, 0.8109018407907448, 0.8601177372971198, 0.8420963895906168, 0.8023727669694134, 0.8037352166457872, 0.5954880963740142, 0.8826917048309353, 0.7107168797267426, 0.7412266658435986, 0.909358360617565, 0.9042414974741417, 0.8148423616621229, 0.848827787252602, 0.7785138203403132, 0.8492929819511958, 0.843004992413428, 0.8423483222884237, 0.790654491675563, 0.8002113049207318, 0.8419427310607173, 0.8565448158616731, 0.7686448838597987, 0.8487892230309851, 0.7101395137473497, 0.7784670584434686, 0.7617253182006638, 0.9038206564025716, 0.8815095550520351, 0.6525265524008447, 0.808934707860177, 0.8546150163084791, 0.8000799717892727]</t>
   </si>
   <si>
     <t>[0.8898467717416605, 0.8363136350664677, 0.7679749579603704, 0.7632560406316599, 0.897895135890852, 0.8988448402902551, 0.9064058144698794, 0.8256201397619798, 0.6796544905853694, 0.8305311250711962, 0.862139909097897, 0.9128835880335158, 0.86809686483338, 0.8174949855278064, 0.8901218744920097, 0.9400630104839911, 0.8411742558643329, 0.8779029519860805, 0.8111734588474955, 0.8746460210209764, 0.8426155562020023, 0.86388712052268, 0.8773172948061291, 0.651996927298722, 0.9510850896959395, 0.833983994323706, 0.7514812964683265, 0.8767517473249651, 0.9453738489191079, 0.8060780005494477, 0.8474950966662349, 0.905575697052714, 0.8914483360408926, 0.8105461841947268, 0.8951627326592897, 0.8798599851981909, 0.7286985200306446, 0.8918945348952655, 0.8315049991863578, 0.910990626879306, 0.9077508454115926, 0.7727061840177181, 0.8955174608838868, 0.8250624116730112, 0.9256407601305014, 0.9258133776995194, 0.8529313652451342, 0.8297352285460357, 0.8552669982575128, 0.6507041651490115]</t>
   </si>
   <si>
-    <t>[0.9304256063622811, 0.8549014752057875, 0.6808242126720261, 0.8078626986854684, 0.9142619367388571, 0.9294602802755159, 0.8826751579770564, 0.8842454443437076, 0.5870959436564391, 0.847693168635943, 0.8829192876299644, 0.9046671076983448, 0.7617715192732932, 0.8757529768841203, 0.8947725661664845, 0.9098230056306335, 0.9025072054355465, 0.8723531979822061, 0.8396098779243086, 0.8714989039306895, 0.8530337705027173, 0.8703041031577333, 0.7971506051207131, 0.7183332455209908, 0.9033108728806749, 0.8151241853590143, 0.7651121199491471, 0.8879014803035981, 0.9285151599030099, 0.786601969933689, 0.8872791816876443, 0.9135637223851394, 0.8386549911531647, 0.7877641976004024, 0.8585860051776348, 0.8733630453532155, 0.7929842462245704, 0.8824490539783253, 0.8487918558419886, 0.794668409944745, 0.8692937905835013, 0.8200652972480234, 0.8114285700595835, 0.8496645863939085, 0.8983128938679648, 0.8990162254536435, 0.8263338762319656, 0.8604674986522014, 0.8305731434243742, 0.8616417869425408]</t>
+    <t>[0.9335090632185449, 0.8594444459687848, 0.674544464702966, 0.7954471357268429, 0.9332303854246518, 0.924321100239392, 0.8649731757729799, 0.835288905686503, 0.5720022922295691, 0.854085787690382, 0.8560390363945563, 0.8909262467427234, 0.77562880353972, 0.8536002804036051, 0.9025842621039655, 0.9070132965124567, 0.9243617970615312, 0.8630021685875151, 0.8205125258312305, 0.8880578083010422, 0.8226967456278661, 0.8673941927628999, 0.8093174017721982, 0.6918140993476946, 0.8895883362657142, 0.8078028488494159, 0.7655552188661434, 0.8806635266342014, 0.9226736810955827, 0.8189246124249324, 0.875437450775084, 0.8800162258703675, 0.8301338723904831, 0.7926629125048166, 0.8404548434884371, 0.8750956082019014, 0.7957588918424945, 0.8664136380473533, 0.8525826090880911, 0.8001465337566345, 0.8805974401038066, 0.8104293227844197, 0.7991187427928427, 0.8097188702700019, 0.9002959206774128, 0.8944300104023728, 0.8357586016724711, 0.8678397266572613, 0.8303394880290841, 0.8889699405597526]</t>
   </si>
   <si>
     <t>[0.9683352409488339, 0.8937436976934713, 0.8184598238963673, 0.8142853030756094, 0.896306989239825, 0.917513724200813, 0.8713148130079009, 0.8686340595793454, 0.7590208379582737, 0.8991836040521851, 0.90844097524056, 0.877466361052742, 0.7581700594394767, 0.8750353777956758, 0.9393627231696284, 0.9284879121220291, 0.8853180148797561, 0.8505976333347591, 0.911324003685501, 0.9115283973050186, 0.905736753619807, 0.860006199970849, 0.8628529977957184, 0.7195843240793922, 0.8658949957929547, 0.7707347809946693, 0.8856342697560561, 0.873512573686703, 0.8893786297511961, 0.7651927127594074, 0.854101829676548, 0.8901637074958342, 0.8766018370619699, 0.8730971421646461, 0.8919796371572551, 0.8084048465429434, 0.8375731747170218, 0.8948055020901029, 0.8309098741234759, 0.8622815571668614, 0.8118446886649565, 0.8775475362184519, 0.7993946237180969, 0.9108122064806556, 0.8696347560984408, 0.9239546136811502, 0.803591884480898, 0.8507635541088514, 0.8642107724172898, 0.8660769133516195]</t>
@@ -3457,13 +3457,13 @@
     <t>[0.9272127056920678, 0.8479121928741763, 0.5991052111002575, 0.7588362860288371, 0.9244754101426793, 0.9075788402380268, 0.8257592718975161, 0.8777170547509765, 0.6156797455029881, 0.8061473357053968, 0.8498411868472523, 0.8081699260330799, 0.7584665910977353, 0.8897755482710282, 0.9150414267160851, 0.8229274153133697, 0.7825257230431383, 0.8389015186475628, 0.8154527208640503, 0.7840724093409666, 0.7972050684843339, 0.8548141356554633, 0.834545003899162, 0.6725161465790079, 0.8578206262889977, 0.8202353160829615, 0.7512086203963885, 0.8945592989386132, 0.8246292383484872, 0.8111850615215224, 0.825023728664656, 0.8859244774538462, 0.8207048274105182, 0.7866692120170048, 0.8363529840760182, 0.8267961164194386, 0.6653219657029783, 0.8792655914401064, 0.8413057427464665, 0.80197317686214, 0.851332459782466, 0.7955689436578202, 0.9016127628345801, 0.8381900681401337, 0.8756851301675876, 0.8705884893095952, 0.7148569181888791, 0.8779139714075629, 0.7893211280793702, 0.7948766352816572]</t>
   </si>
   <si>
-    <t>[0.9339893237729482, 0.8634869218402994, 0.5965203607381271, 0.7728125503986599, 0.9084500827145644, 0.9252184734808817, 0.8598594132877968, 0.8763532079162764, 0.5827695584745515, 0.8810546335803168, 0.8604648629976297, 0.8860272363665771, 0.7657077058238388, 0.8090168614729247, 0.8890997839940983, 0.8821882878244491, 0.9015654142081546, 0.8551836809461624, 0.8130553542331362, 0.827048874574231, 0.8062230844071026, 0.8464911131555258, 0.8514316621694313, 0.7573876292433119, 0.864544246557079, 0.8336872920039979, 0.7609196786999506, 0.8821801047689007, 0.8880224647840117, 0.8139369004788176, 0.8680263722065629, 0.8890921389343328, 0.8077100776925595, 0.7779936845631032, 0.8411070537907392, 0.8723052872372481, 0.7566690941611569, 0.8820879463257412, 0.8217958986019851, 0.8173733603394557, 0.8757534869943571, 0.7452039078898384, 0.88593157331266, 0.8238018181292974, 0.8791321247702363, 0.8955432256296907, 0.8589417585686713, 0.8375054243016331, 0.8295040818661521, 0.827533062354569]</t>
+    <t>[0.920539674416146, 0.8623852050635532, 0.6105242618078384, 0.7872345807841231, 0.9209847413251346, 0.9309690909449675, 0.8761060971427997, 0.8781632342233652, 0.5586357609074071, 0.8851257344370018, 0.8832698623536797, 0.8886398574928864, 0.8077267991373558, 0.854170610993422, 0.887218113100712, 0.8805651171621562, 0.8634140507577057, 0.8449465091677897, 0.8264619403065357, 0.8594240603035339, 0.8171429479408823, 0.8567758871924789, 0.8356508165597416, 0.7616172110440093, 0.8770785619697486, 0.859771256428326, 0.7764320113093202, 0.8907341986760047, 0.8785273045794928, 0.8282805973171348, 0.8726074720616647, 0.8839444907835068, 0.8144710497735017, 0.7965645428774839, 0.8342296277380861, 0.870983227858908, 0.7733240530234882, 0.882328377584426, 0.7955079860136784, 0.813599855197896, 0.8979400872231121, 0.780461621555737, 0.8624500895304203, 0.8473224242567997, 0.8933902725503048, 0.9006889860927488, 0.8539719167218451, 0.853651232056417, 0.8285553695503003, 0.8375161878391317]</t>
   </si>
   <si>
     <t>[0.9434025203400342, 0.8256787102700518, 0.7123568500974903, 0.7556280697466927, 0.8812238277912371, 0.9155706685572803, 0.8012259390754988, 0.8742688706001976, 0.7286834587852619, 0.8901110642136714, 0.8641599696276033, 0.8994467188594466, 0.7859719350296233, 0.8958828163545413, 0.8850309092622597, 0.9078093415724833, 0.8689057970485814, 0.8532793742645992, 0.8571209568959854, 0.8867973780758058, 0.7986108015122813, 0.846935777442106, 0.8827651794202167, 0.728414560261807, 0.908978984884985, 0.7902900439602112, 0.8523537722803767, 0.8784627171807502, 0.8982104483454691, 0.8683929524634075, 0.8761103324476902, 0.8765251212576972, 0.8400756126966714, 0.8279300511704528, 0.8676113781486339, 0.778347260417552, 0.8229978693914721, 0.8413715524442971, 0.809299252462521, 0.83789662842027, 0.8475767046631927, 0.6812775268880733, 0.84456603917375, 0.8702659869717396, 0.9173784106436861, 0.8933534034180548, 0.7943656029111756, 0.8747251843727276, 0.8715262437448034, 0.8140012320699195]</t>
   </si>
   <si>
-    <t>[0.9213858057966766, 0.8788110344190581, 0.6648350748255775, 0.6132458282288327, 0.7979752287793587, 0.8902582325643411, 0.7390873127750954, 0.7911423545384642, 0.5887881497630909, 0.7697731497425675, 0.8437277522143063, 0.7762197445220391, 0.6691825213823204, 0.6525685992445742, 0.816283853582241, 0.8709537357640308, 0.636937672477853, 0.814115521364775, 0.6675717237130381, 0.813231416111269, 0.6650317336614617, 0.7027602832454749, 0.7756152357949465, 0.7433589540293977, 0.6252860714667375, 0.8041559717087303, 0.6656381721619045, 0.7850450280455588, 0.8340216311880756, 0.7422056716013725, 0.7964031329504728, 0.8227350584945718, 0.6647337536813388, 0.7176666228889762, 0.7847921092551732, 0.6423335285493422, 0.5484295257703279, 0.813330827938948, 0.811836982302677, 0.7953039832859399, 0.8428519714152739, 0.5734485712135438, 0.8359721791039142, 0.8158244757076293, 0.8003340063602928, 0.844765697255105, 0.5083817256695811, 0.790796716269204, 0.7703915842902527, 0.7359070395419635]</t>
+    <t>[0.9213858057966766, 0.8788110344190581, 0.6648350748255775, 0.6132458282288327, 0.7979752287793587, 0.8902582325643411, 0.7390873127750954, 0.7911423545384642, 0.5887881497630909, 0.7697731497425675, 0.8437277522143063, 0.7762197445220391, 0.6691825213823204, 0.6525685992445732, 0.816283853582241, 0.8709537357640308, 0.636937672477853, 0.814115521364775, 0.6675717237130381, 0.813231416111269, 0.6650317336614617, 0.7027602832454749, 0.7756152357949465, 0.7433589540293977, 0.6252860714667375, 0.8041559717087303, 0.6656381721619045, 0.7850450280455588, 0.8340216311880756, 0.7422056716013725, 0.7964031329504728, 0.8227350584945718, 0.6647337536813388, 0.7176666228889762, 0.7847921092551732, 0.6423335285493422, 0.5484295257703279, 0.813330827938948, 0.811836982302677, 0.7953039832859417, 0.8428519714152739, 0.5734485712135438, 0.8359721791039142, 0.8158244757076293, 0.8003340063602928, 0.844765697255105, 0.5083817256695811, 0.790796716269204, 0.7703915842902527, 0.7359070395419635]</t>
   </si>
   <si>
     <t>[0.939416136769033, 0.8629269394668817, 0.5588976665041067, 0.6835546330445241, 0.885387140282976, 0.9173456976095256, 0.8846627409817698, 0.8688039789731025, 0.5387677512085638, 0.841390902941038, 0.854911680563549, 0.8174798688918231, 0.7677888302222835, 0.8360071848510762, 0.9036770092313892, 0.9213343904134255, 0.8533336272082453, 0.7933183852113344, 0.8228609105870928, 0.8686529672843416, 0.8988070046063203, 0.7808825345513188, 0.8489138987958285, 0.7631203119663952, 0.870301225343193, 0.723475199840545, 0.8114035265300132, 0.8674098771778636, 0.8364717172423992, 0.8618270323461472, 0.7859366561919796, 0.8897389953959792, 0.777285241511111, 0.729611044993678, 0.8521934451044131, 0.7508570248929397, 0.7742913459743879, 0.8851348700144985, 0.8544203266615269, 0.8446396856933601, 0.7829885532340155, 0.7933915907905393, 0.8468989710551478, 0.8485554278992105, 0.8413091051958163, 0.9312745015455142, 0.8422297115873583, 0.8409019748627903, 0.8087741466197647, 0.8354253368530005]</t>
@@ -3475,7 +3475,7 @@
     <t>[0.9237183649330132, 0.8590920412270673, 0.6255238411107626, 0.6608896252110532, 0.8871831295539223, 0.92543542316323, 0.8392709532311757, 0.8608036476362452, 0.5707848315339935, 0.822610851901947, 0.8347094988332433, 0.8734158804610789, 0.7601339858009841, 0.8362420172749645, 0.9114118073682134, 0.8979705142169582, 0.8451867543181459, 0.7751001670861025, 0.8092237670718191, 0.8515951733588992, 0.7709109722190406, 0.8453451720894205, 0.8286480586778215, 0.815045821510028, 0.8389749608076686, 0.7873818884133532, 0.8129938441897366, 0.8931363379475941, 0.8677249535497954, 0.8601864025821706, 0.770968488316051, 0.8852215498864834, 0.8393103589819813, 0.8394707314058003, 0.8476625225624794, 0.8005441655623848, 0.7643598149640012, 0.8769133579439845, 0.8230958383915961, 0.8011156798338008, 0.8371686307453141, 0.7670151012748918, 0.8832938503890093, 0.8377329919915188, 0.8769213026537175, 0.9037831481142715, 0.8348804287636854, 0.8617181226762852, 0.7846932414677522, 0.7678425895748147]</t>
   </si>
   <si>
-    <t>[0.9149306942497861, 0.8243704280467267, 0.8006046400311666, 0.7761594864613583, 0.9264591990218645, 0.9455511986683961, 0.8216695739296931, 0.9029597798573783, 0.5911683427989117, 0.8752233771544212, 0.84974661880029, 0.8834951142177699, 0.8081767522847667, 0.8351788499589754, 0.8974536038827865, 0.8711326217712901, 0.7955001820671024, 0.9076988701973201, 0.8444837640622764, 0.8477892886595009, 0.8596716605265914, 0.8961377532155876, 0.8463052888456503, 0.7865305978384696, 0.9005940667819571, 0.8259485693782553, 0.8043615024615123, 0.9246737337546179, 0.9006250900519972, 0.7827778898653265, 0.8869249816909102, 0.8787604278601031, 0.7859798243246654, 0.7858636184636835, 0.8788525085571469, 0.8083838086793778, 0.7823636587456795, 0.8689758035583894, 0.8606501487981499, 0.8573158969070435, 0.8786107982117451, 0.8030221764637709, 0.8488261401425254, 0.870910488286863, 0.8883430924011246, 0.8877284406643886, 0.7984754103960862, 0.8669142668593433, 0.7935767235340188, 0.8306440176202512]</t>
+    <t>[0.9057539810370097, 0.8410128629668079, 0.7838768566959627, 0.7715542881838708, 0.9291315493924969, 0.9425291727063532, 0.7859933663567636, 0.8994681633687354, 0.5599602975724625, 0.8661623861922767, 0.8444110971787542, 0.8811460947129881, 0.8015279141071936, 0.8506231760656797, 0.9006264839664047, 0.8820190711237175, 0.8079438032487061, 0.8980807206665726, 0.8328663730526863, 0.8559427124719232, 0.8525810239415939, 0.8887619832082103, 0.8524648646102441, 0.772199970600806, 0.8859697632947215, 0.8175550914608478, 0.7944806537544837, 0.9195864433268436, 0.8880350487132082, 0.7753329167408527, 0.877816529321267, 0.8722715634864951, 0.7790011890357341, 0.7738063259387951, 0.8834605650894305, 0.7978841995835084, 0.7944420563583312, 0.8616411067536769, 0.8622143453311557, 0.8705047457055519, 0.8857293764555053, 0.8156414122829481, 0.8491575201425651, 0.8780902892862146, 0.8887296526037001, 0.8873304659590499, 0.8065620044761119, 0.873580784647157, 0.7896908785842004, 0.8454353124946687]</t>
   </si>
   <si>
     <t>[0.9180623284728884, 0.8997072160665445, 0.7874385308651959, 0.8239905745937512, 0.9237034095792134, 0.9467867899806854, 0.7557519682802254, 0.8780269060884949, 0.6278992050874846, 0.9139127288824309, 0.8054801071604816, 0.8399391891889638, 0.8099289692161904, 0.888194806248024, 0.9166246804722284, 0.8735159961170451, 0.7588988714955529, 0.8834301138089614, 0.8789984701093551, 0.8911619433886618, 0.8769555118571768, 0.8544967420907148, 0.8411517595451209, 0.7980575950001604, 0.869201874723013, 0.7973899778739084, 0.8680225899536725, 0.9084490923723348, 0.8609215830079853, 0.8299820050548494, 0.8557681000279534, 0.8107605067294479, 0.7245311053452663, 0.78381784478682, 0.8875425534565738, 0.7400102969869384, 0.8183642462785724, 0.8858858568127745, 0.8461294948543923, 0.8727658596610017, 0.8794328688459656, 0.8693634472692993, 0.8135848134298005, 0.9164795493301815, 0.860522886188819, 0.9167183087580044, 0.7558903507566851, 0.8708678634840161, 0.8146632412908197, 0.7959731396914449]</t>
@@ -3487,13 +3487,13 @@
     <t>[0.9336094771392535, 0.8766386199067755, 0.47934417102917287, 0.7007702794997315, 0.9168579830656833, 0.9321482235094852, 0.8769413894352969, 0.8990909622491008, 0.5481665357088236, 0.816236784754192, 0.8899280245150026, 0.8302481840895474, 0.6490895551400968, 0.8473166799295, 0.9074624713420868, 0.9336812379372011, 0.8477873482579257, 0.7137848804622998, 0.8696346960109308, 0.8147948349400098, 0.8905112424965418, 0.622340393433243, 0.8403329364445218, 0.7512702614252432, 0.8097606136659732, 0.8527910151692754, 0.7897524592118811, 0.8646022889177767, 0.8521681755388175, 0.866672727356729, 0.8076371682134819, 0.9099447939423335, 0.7873929775135335, 0.7145362002900413, 0.8698362681498777, 0.7953927455356183, 0.6384939027585075, 0.864725506027652, 0.8479476491089959, 0.8385721908677982, 0.8024246890864969, 0.7786424765601977, 0.8647034710107183, 0.6698394068018865, 0.7483083308574758, 0.8948194173755897, 0.8609034868706631, 0.8380475052483508, 0.8368666181789621, 0.8562444846476595]</t>
   </si>
   <si>
-    <t>[0.8988438102864182, 0.745263387225606, 0.6215701417657807, 0.7441082438456166, 0.8618476706201684, 0.9317365486608984, 0.69347748087091, 0.8448460621234015, 0.6667088523451912, 0.7671066735631058, 0.8788070220833024, 0.8159814000111829, 0.7612074540370093, 0.7573591299663605, 0.8602171318031149, 0.9096632225224602, 0.452130137836402, 0.836531436796816, 0.8549243235956185, 0.8629933260492586, 0.8737347325691179, 0.8426732092528891, 0.7818005476894831, 0.6622725534995926, 0.8068226442573612, 0.7681051830428876, 0.6887458421147779, 0.8543134372080657, 0.78754965645494, 0.8651729321106323, 0.7392636255231689, 0.7060981713351187, 0.8208912628926168, 0.871929445647788, 0.7634553827478012, 0.8226387471062415, 0.792211636383349, 0.8796458339066451, 0.8981395826322451, 0.7757464345548859, 0.8655484013686181, 0.8048475984609288, 0.8359474834959536, 0.8718853822894435, 0.7853223107304634, 0.8076810747633141, 0.8009742571628755, 0.8960755273177506, 0.8367904836015598, 0.9267113639597546]</t>
+    <t>[0.8988438102864182, 0.745263387225606, 0.6215701417657807, 0.7441082438456166, 0.8618476706201684, 0.9317365486608984, 0.69347748087091, 0.8448460621234015, 0.6667088523451912, 0.7671066735631058, 0.8788070220833024, 0.8159814000111829, 0.7612074540370093, 0.7573591299663605, 0.8602171318031149, 0.9096632225224602, 0.452130137836402, 0.836531436796816, 0.8549243235956185, 0.8629933260492586, 0.8737347325691179, 0.8426732092528891, 0.7818005476894831, 0.6622725534995926, 0.8068226442573612, 0.7681051830428876, 0.6887458421147779, 0.8555007697552519, 0.78754965645494, 0.8651729321106323, 0.7392636255231689, 0.7060981713351187, 0.8208912628926168, 0.871929445647788, 0.7634553827478012, 0.8226387471062415, 0.792211636383349, 0.8796458339066451, 0.8981395826322451, 0.7757464345548859, 0.8655484013686181, 0.8048475984609288, 0.8359474834959536, 0.8718853822894435, 0.7853223107304634, 0.8076810747633141, 0.8009742571628755, 0.8960755273177506, 0.8367904836015598, 0.9267113639597546]</t>
   </si>
   <si>
     <t>[0.8392931416361078, 0.8280523038779777, 0.39227211198189, 0.7135792845890716, 0.9125170156559371, 0.8892855781302222, 0.828981992951581, 0.8982463874304207, 0.5441780152945619, 0.8198887997062868, 0.8488664767100518, 0.8048584390929676, 0.6861159496237965, 0.869989898880935, 0.9068295264295021, 0.902080767261388, 0.7699056717521636, 0.8244959240744094, 0.8280477444161314, 0.876209395179365, 0.7200797555875353, 0.7623575062122967, 0.8336644495218273, 0.7607766382887964, 0.8469137553867938, 0.8166017544707905, 0.782199700182277, 0.8241136457361913, 0.8392720036187481, 0.742496832607072, 0.7702639236617699, 0.913809373969636, 0.7500412371832055, 0.8170242754171304, 0.839057046452873, 0.8140449119866795, 0.6788123735439748, 0.8578282725752073, 0.8741054711910314, 0.7687317306585293, 0.8523561761651023, 0.7712212057178128, 0.9152638791766785, 0.7005176003852709, 0.7739040922666842, 0.8877783963154228, 0.8526643219066544, 0.7767034678751842, 0.8288515588633106, 0.8023784591271217]</t>
   </si>
   <si>
-    <t>[0.9282718728530437, 0.8515702882589886, 0.6137568652207483, 0.735069103965961, 0.92221471374343, 0.9383632861683087, 0.8414631217710327, 0.8956212038942619, 0.5091384329464886, 0.8558376137283752, 0.8811286354640482, 0.8837278742965342, 0.7603993524793267, 0.8440887672585057, 0.8837993022303232, 0.9137559947247551, 0.8935927322636391, 0.8346056810424713, 0.8192307373384293, 0.9059918803650904, 0.8360695356085137, 0.8303711466297341, 0.826293750653727, 0.7556368169715237, 0.879814280926581, 0.8121513429080796, 0.7820824438882323, 0.887200070372768, 0.9067397228307144, 0.8025391503188232, 0.8761389803786228, 0.913412113226536, 0.8005808161446781, 0.7688300950686694, 0.8374271962129483, 0.835980219956079, 0.7905895070603348, 0.8561671050565152, 0.8374447984743003, 0.7999090806363416, 0.8661010145519501, 0.7796439081121027, 0.8730233746866529, 0.8209745376265989, 0.8830424617186738, 0.8914040565061025, 0.8601369944491482, 0.8560863356422146, 0.8277847855876236, 0.8141414966881748]</t>
+    <t>[0.9262883331056814, 0.8370156131792458, 0.6089240568427293, 0.7389959819292495, 0.9278513722557169, 0.9406421969387118, 0.8513324963800253, 0.8890872374539145, 0.5515886788244739, 0.8619660901329429, 0.8702441865869344, 0.8594746749785627, 0.7685264948108974, 0.8417542677488021, 0.86447928929627, 0.9161689939834687, 0.8916251992086341, 0.814925285989095, 0.8146179643688181, 0.8882024709603086, 0.8297656632242432, 0.81648100877492, 0.8269033482415269, 0.7941183268211428, 0.8888267346837553, 0.8038906195446998, 0.7451028344434406, 0.8838526053779575, 0.8872156669437061, 0.8154674922360758, 0.8684024353783624, 0.8994108826065528, 0.8023917948056642, 0.7790422549153715, 0.8385701217408963, 0.8530012083021556, 0.756115581816369, 0.8751703017219377, 0.8179467015306227, 0.7809187099380582, 0.8658105840167476, 0.7764653103613184, 0.8891742280404995, 0.8287841582769924, 0.8888841026886164, 0.888664479092441, 0.8683617509382757, 0.8470169299774614, 0.7938422893679722, 0.8163783791431563]</t>
   </si>
   <si>
     <t>[0.9494078158141104, 0.8960125283225548, 0.6011405534730015, 0.7809776280281231, 0.9204697394243201, 0.9063271229252138, 0.8112333533780544, 0.8717716525578736, 0.6928801362112316, 0.81097334932158, 0.8966148272009367, 0.8548924290495905, 0.8172135347930302, 0.9082702986328504, 0.9190080409194504, 0.9348130241140762, 0.7981387519594817, 0.8230824343131491, 0.8939391785984145, 0.9115939783979334, 0.8379344971739087, 0.8595885014111969, 0.8566052987823153, 0.7556518866711469, 0.8981452267901788, 0.7893990364005128, 0.7647403839488469, 0.8586761659062836, 0.881591264533065, 0.8442860657433023, 0.8116762720621231, 0.8671800043133253, 0.8206036652774185, 0.7928325947225401, 0.8934751461164625, 0.8485762601241505, 0.8725896583815729, 0.8456840215173115, 0.8774082290199079, 0.7411119056095072, 0.8214259976527472, 0.8058700461030137, 0.8012015268178969, 0.9116046642838055, 0.8751626006319142, 0.8728446691865974, 0.8254887124850618, 0.881026103602361, 0.8591612889602374, 0.8656162653867407]</t>
@@ -3505,13 +3505,13 @@
     <t>[0.886574462113552, 0.8888275295109023, 0.7420852546446061, 0.8126322598113151, 0.8961113143340387, 0.9015467943584499, 0.8340106518963482, 0.849710107900124, 0.7066227047745954, 0.9006580269924115, 0.8150810586306496, 0.8850921998085985, 0.8477370745462373, 0.8662799917556234, 0.8263822625152241, 0.9261429299474655, 0.8359137010631694, 0.8434084945757678, 0.8277771697969091, 0.8806606030103754, 0.8384904892265781, 0.843493135316114, 0.9009529817451147, 0.5438880890243498, 0.8929820417982081, 0.808002039040072, 0.7944696536411122, 0.8825301960904138, 0.8849493774456687, 0.7950444361046463, 0.7904418524331484, 0.8742142638700982, 0.9092233408731216, 0.8010496401118424, 0.9539706226513037, 0.8781149712899283, 0.7302089369276119, 0.9127321054553807, 0.857044160003484, 0.9383716268579616, 0.9238807928598918, 0.7884014484903634, 0.8778046285395604, 0.7605117675095376, 0.9145743479522548, 0.9123118350635311, 0.8409559728840909, 0.8117435799363557, 0.840784259924995, 0.7286711262016297]</t>
   </si>
   <si>
-    <t>[0.74956285685044, 0.8409230407028574, 0.7650961716499711, 0.7978545329419212, 0.8397028248708082, 0.8531711763688917, 0.8380951727118181, 0.8554269334650968, 0.672138861041822, 0.8187150380013071, 0.7599965278165561, 0.8847959158818199, 0.7808077096146113, 0.818705761719721, 0.8604863085491318, 0.9090995547886647, 0.8094483520021611, 0.8218182154794529, 0.856226268886889, 0.9145210846091568, 0.8194957295901536, 0.8394825377189914, 0.7758875020026441, 0.8060954043587929, 0.9173497401170441, 0.724542437314611, 0.7304328686834827, 0.8917059782747527, 0.9062646760484291, 0.803698686856364, 0.786007465592516, 0.8219787087182593, 0.8822380500972915, 0.8680295057853624, 0.8796545282386822, 0.7952995780874261, 0.7624704032740979, 0.7648426585171381, 0.7671882686818613, 0.8715838806218799, 0.872726466504468, 0.7886708194344748, 0.7658914560498196, 0.805862697352581, 0.8368973274729102, 0.8786976925500949, 0.7464722149135535, 0.8300236402695518, 0.8688924468090771, 0.7324717083696621]</t>
+    <t>[0.74956285685044, 0.8409230407028574, 0.7650961716499711, 0.7978545329419212, 0.8397028248708082, 0.8531711763688917, 0.8380951727118181, 0.8554269334650968, 0.672138861041822, 0.8187150380013071, 0.7599965278165561, 0.8847959158818199, 0.7808077096146113, 0.818705761719721, 0.8604863085491318, 0.9090995547886647, 0.8094483520021611, 0.8218182154794529, 0.856226268886889, 0.9145210846091568, 0.8194957295901536, 0.8394825377189914, 0.7758875020026441, 0.8060954043587929, 0.9173497401170441, 0.724542437314611, 0.7304328686834827, 0.8917059782747527, 0.9062646760484291, 0.803698686856364, 0.786007465592516, 0.8219787087182593, 0.8822380500972915, 0.8680295057853624, 0.8796545282386822, 0.7952995780874261, 0.7624704032740979, 0.8716151964287318, 0.7671882686818613, 0.8715838806218799, 0.872726466504468, 0.7886708194344748, 0.7658914560498196, 0.805862697352581, 0.8368973274729102, 0.8786976925500949, 0.7464722149135535, 0.8300236402695518, 0.8688924468090771, 0.7324717083696621]</t>
   </si>
   <si>
     <t>[0.8690674156598983, 0.8483960720288111, 0.7313593313712502, 0.7978209291066343, 0.9268393195337074, 0.9266946229140565, 0.8802613604725201, 0.8294899049503257, 0.7391323658157463, 0.8568903387263308, 0.8480840325798911, 0.8978540772189001, 0.8807559466990093, 0.8075017631050943, 0.8987688455496379, 0.9520132551821772, 0.8691547436346105, 0.8507666405532159, 0.8173943765169341, 0.8632678431680256, 0.853252374473881, 0.8643535540364762, 0.8851532907952581, 0.5702168091932546, 0.8695390910299643, 0.8454711255450761, 0.757812597610637, 0.9123277419873537, 0.8541572582738757, 0.7852376964346315, 0.8100930077340462, 0.9151891587110306, 0.8984961652631069, 0.8023554660259788, 0.9102618913345617, 0.8818390061954394, 0.7351974961498929, 0.9016302560755157, 0.8629130209178932, 0.930573561096135, 0.8870451709041027, 0.7498596911849962, 0.8955528308144173, 0.8279166602819381, 0.9180897290772532, 0.9323135269303986, 0.8730071376842541, 0.8385084332288801, 0.8502890196175538, 0.7196778698586201]</t>
   </si>
   <si>
-    <t>[0.8933982334988454, 0.871318302607909, 0.6463753501606935, 0.8194071969375186, 0.9284808172179092, 0.9424744166697326, 0.868106240659426, 0.8953978762233489, 0.6160297135006045, 0.8161010985571813, 0.8518648956645398, 0.8819060747574217, 0.7914507333576459, 0.8770997904945081, 0.9079106127697703, 0.9189535876406796, 0.9154932119805412, 0.8785502272468315, 0.8114374617449417, 0.9088888648087181, 0.8378323885164316, 0.8686872410755409, 0.8132450495242458, 0.7618940116745855, 0.9115314376391951, 0.8161549083715158, 0.7954352793586421, 0.8869093954507885, 0.90670710629943, 0.7807793461676049, 0.8683852218798032, 0.9034211706777604, 0.8560857226667775, 0.7874615689330393, 0.8749614299474505, 0.8791037518015782, 0.8023989686744477, 0.8819519488742291, 0.8473993528733071, 0.8403177137932922, 0.8783695923513808, 0.8287804542320547, 0.8585327497675179, 0.7736341423915797, 0.9016894126857276, 0.8984673501614624, 0.8621759521383381, 0.8596150577069658, 0.8268204931098377, 0.8733714525309627]</t>
+    <t>[0.9126348047280822, 0.8726287948733892, 0.6162701772902455, 0.7995804569236603, 0.9392680937527669, 0.9387737009153967, 0.8781259696641859, 0.9065683537817588, 0.6119749434813199, 0.8101122215862756, 0.8512017094825604, 0.8714796705545562, 0.8262788038062905, 0.8637421772879408, 0.9002642916096847, 0.9204779431351799, 0.9029594659228892, 0.8592232276906668, 0.7890037545821129, 0.8956028257125959, 0.8367319187393373, 0.872948469416598, 0.8177370220172929, 0.7572109061509629, 0.9268225684529446, 0.8038294234868051, 0.8011997862840514, 0.8881135680553793, 0.9315366594107766, 0.7997864375993422, 0.8867744769038008, 0.9050373427189912, 0.8620699424655116, 0.756764725015086, 0.8722770664191385, 0.8702355878465865, 0.8020811843056334, 0.8885573580147033, 0.8723686992202702, 0.8406989166547889, 0.8769134738392745, 0.8223202736277421, 0.873809865938574, 0.7683152203596548, 0.9074244915574009, 0.9098917638022003, 0.8600733769451155, 0.8715661773809382, 0.8147536490744578, 0.8597270140195161]</t>
   </si>
   <si>
     <t>[0.8697564347097294, 0.8476562401703343, 0.7309664471076648, 0.8198851657877206, 0.9321684212425674, 0.9537504518422995, 0.8770449714169859, 0.8816276614914593, 0.7391297867912481, 0.8427845492407182, 0.8342069305947133, 0.9073014204319905, 0.735144640489587, 0.86625232942272, 0.9156787290195503, 0.9420729791179929, 0.8613174409297358, 0.8136424980970887, 0.8532467008094574, 0.8861031109743744, 0.8456934978621586, 0.8134064666585271, 0.813550578931865, 0.8023786077843631, 0.9388309395180304, 0.7933993415144734, 0.8766049951827859, 0.8754734684163422, 0.9222406155217155, 0.8300671697140092, 0.8891027661314717, 0.9104725806730318, 0.9052848264860384, 0.8395559434295159, 0.9122424663223446, 0.8507287598273818, 0.8370581905365796, 0.8824497170644122, 0.8342266164180514, 0.8258310295138733, 0.8337153587242333, 0.8334193339640488, 0.8089970314810224, 0.7895058808113722, 0.8915189635403824, 0.9296769954495062, 0.8384470259452713, 0.8498914377493785, 0.8634233915412723, 0.8098334967843621]</t>
@@ -3523,13 +3523,13 @@
     <t>[0.895530050044349, 0.8342720512710771, 0.6930652475802848, 0.7824758725057213, 0.9479766468579297, 0.9296228944625233, 0.8552547317508219, 0.8758382748108788, 0.7018333317849901, 0.7944737481636872, 0.8612805843098855, 0.8327709508277521, 0.7968301094892088, 0.8816295074832852, 0.8974217650280155, 0.9039421465706343, 0.8521840271030656, 0.8651128230450307, 0.8925589613041495, 0.7473573075132292, 0.8435116940456838, 0.8011590445929582, 0.8644938552298724, 0.6926026497528331, 0.8185443109633512, 0.8469019053800502, 0.8501228370049717, 0.925908228144439, 0.8465711742735454, 0.8625276317385924, 0.7615365930976563, 0.889003505819026, 0.8178280816047011, 0.74533652388893, 0.8929744904449163, 0.8210619581429931, 0.7297306858924297, 0.9055252640388747, 0.8379439363341629, 0.8058972724026401, 0.8265509824788617, 0.8057467182681852, 0.7856505921909873, 0.8809950984181913, 0.8538647323130166, 0.8723614580878287, 0.7781165378805628, 0.8357619097537193, 0.8206306978810455, 0.7730002741634685]</t>
   </si>
   <si>
-    <t>[0.8127925838805977, 0.8060640216430419, 0.6378965324662875, 0.7316410533252771, 0.936891159775145, 0.9119742991658344, 0.6992678022507969, 0.894939007982214, 0.7220843761500628, 0.872179090473486, 0.8110998125378561, 0.8966983110793048, 0.8743996391888234, 0.8194072992522017, 0.8639797455307292, 0.8939253491118293, 0.7582502767948709, 0.8855512483626522, 0.8026862179366144, 0.9010214648245322, 0.7393193960329834, 0.8308759961690284, 0.7864487602770247, 0.5552351470868975, 0.8478686317912775, 0.7377146468462781, 0.8379422859610184, 0.8583044489412085, 0.7993359338784001, 0.849312282140888, 0.7847905356819245, 0.8124484041327324, 0.896446649712652, 0.8279902721946708, 0.8098931161430295, 0.7216673288559677, 0.7988489667337706, 0.766812410216628, 0.7887438377727002, 0.8114673011814773, 0.8420924707375846, 0.6940102981287968, 0.8444435217306538, 0.8025095720476606, 0.887072853874648, 0.8409212685416299, 0.7381647974837731, 0.8310780184255424, 0.8257973984279693, 0.8929220539551221]</t>
+    <t>[0.8127925838805977, 0.8060640216430419, 0.6378965324662875, 0.7316410533252771, 0.936891159775145, 0.9119742991658344, 0.6992678022507969, 0.894939007982214, 0.7220843761500628, 0.872179090473486, 0.8110998125378561, 0.8966983110793048, 0.8743996391888234, 0.8194072992522017, 0.8639797455307292, 0.8939253491118293, 0.7582502767948709, 0.8855512483626522, 0.8026862179366144, 0.9010214648245322, 0.7393193960329834, 0.8308759961690284, 0.7864487602770247, 0.5552351470868975, 0.8478686317912775, 0.7377146468462781, 0.8379422859610184, 0.8583044489412085, 0.7993359338784001, 0.849312282140888, 0.7847905356819245, 0.8124484041327324, 0.896446649712652, 0.8279902721946708, 0.8098931161430295, 0.7216673288559677, 0.7988489667337706, 0.7665837352487505, 0.7887438377727002, 0.8114673011814773, 0.8420924707375846, 0.6940102981287968, 0.8444435217306538, 0.8025095720476606, 0.887072853874648, 0.8409212685416299, 0.7381647974837731, 0.8310780184255424, 0.8257973984279693, 0.8929220539551221]</t>
   </si>
   <si>
     <t>[0.9364911742952217, 0.8733373904048095, 0.5718171182059885, 0.8252637480865341, 0.928305212652647, 0.9563774470335774, 0.7995680893637662, 0.8382680710207933, 0.6874239379966514, 0.8329466082741749, 0.8170826771313273, 0.8746279911385466, 0.7873799429829685, 0.8678160598023089, 0.931523579595551, 0.8769784637316538, 0.8047493964671415, 0.8153723535670108, 0.8474930725475074, 0.7891297064457776, 0.841777783011129, 0.8555834350824794, 0.8334310707586549, 0.7464976494706324, 0.8176665092144678, 0.8639576547140825, 0.7696636892555058, 0.8964668366183038, 0.8335271434362462, 0.8142986601368734, 0.8022678929494216, 0.8926397955546513, 0.8050445922626107, 0.815754870421833, 0.8308052139214529, 0.8392898602314947, 0.653669163878768, 0.8594107191287542, 0.8283686402571878, 0.8206877780761994, 0.8589000567844564, 0.7376840560759547, 0.9056853379690231, 0.8649628917159184, 0.8898383353033019, 0.8759646652388072, 0.7622019297441904, 0.8653489488071449, 0.8579387146718076, 0.777322390225695]</t>
   </si>
   <si>
-    <t>[0.8998058600552887, 0.8658859483423508, 0.5640723898546891, 0.8093775036520069, 0.9325597615538896, 0.9333401269780982, 0.8867224024594004, 0.8890998030715157, 0.5999329320253401, 0.8559727508336052, 0.8771253248453329, 0.87755520509885, 0.806563032087554, 0.892604597928674, 0.9062281444949027, 0.9032728223541748, 0.9262678890937459, 0.8217881902432396, 0.7983473839434972, 0.8840591380343272, 0.7898512992274695, 0.8625314383649083, 0.8499557240905289, 0.7705844460231523, 0.8776142255552104, 0.8427208821160654, 0.7956110592339057, 0.8896208440934399, 0.8859200861631753, 0.8314553201248971, 0.8800326612955274, 0.9161433153649925, 0.8434994971786538, 0.7703434701782574, 0.8534309939225616, 0.8697655660294716, 0.772390191440732, 0.8980325429267264, 0.8374797966065047, 0.8359218492033491, 0.9018508568399168, 0.7888118911044828, 0.8738804861921139, 0.8114968684755637, 0.9075651771631232, 0.9178970779033014, 0.8726052060063513, 0.8597674368485649, 0.8252268741777967, 0.8431311486913381]</t>
+    <t>[0.8946608401154406, 0.8773542281406197, 0.5884008842477529, 0.8022464707048227, 0.94280718186789, 0.9392376467244621, 0.8787537492669919, 0.9077096492954126, 0.6111173277435451, 0.8634372062719827, 0.8644259377648882, 0.8800976285705575, 0.8104660089807714, 0.8757763164195113, 0.9083232027366094, 0.9077577614519562, 0.9031853902447121, 0.8265067540611879, 0.8086411215291285, 0.8759564622622675, 0.7873567961933636, 0.8667780397891351, 0.8487457438467388, 0.7851408677182372, 0.8832050412759707, 0.8386625723437546, 0.8188024462414847, 0.8788755983490815, 0.890052697132296, 0.8493384113519344, 0.8733321947106405, 0.9102815736755686, 0.8248225737978876, 0.7622082897341362, 0.8428369275958165, 0.8658045400909195, 0.789646462140506, 0.8947664967349465, 0.8252634633143954, 0.8469332831707018, 0.8790195526484245, 0.7778702503671284, 0.8886737318302682, 0.8043739934229976, 0.8973268955530141, 0.9144983485890616, 0.8770277122297854, 0.8553442359157553, 0.8355814567826012, 0.8329242842929717]</t>
   </si>
   <si>
     <t>[0.8749237190129502, 0.8193390638576945, 0.7898445504230763, 0.8559076744156348, 0.9263845492728875, 0.9455665950502126, 0.8620912009424764, 0.8912012301718233, 0.6968822128341103, 0.8748488615249561, 0.836790489743156, 0.9309415568554885, 0.7938224912370537, 0.8624365853434475, 0.8717726044644152, 0.9273503534732705, 0.881610562996783, 0.8615879352711495, 0.8482543321154641, 0.9349019840193955, 0.8414612711332239, 0.8964375603602798, 0.8431714771293715, 0.7553522886629412, 0.9004301909124616, 0.8334365890051761, 0.8764411251362554, 0.8931097698824833, 0.878235982729809, 0.8582222970633729, 0.9026176647632785, 0.8943869721830043, 0.8646913871679871, 0.7928731253218302, 0.876194961462531, 0.8888913359900459, 0.8470188261023275, 0.9304726375054202, 0.8335905990622103, 0.8300178000277731, 0.8423193458877204, 0.6614307140102804, 0.8443227051386577, 0.8580149937568285, 0.8548846499967939, 0.9310813283408099, 0.845479675890681, 0.8575528389847173, 0.9039716828433252, 0.7899060293656284]</t>
@@ -3547,7 +3547,7 @@
     <t>[0.9029207911828435, 0.8548882269009728, 0.6464013119483913, 0.6561730157275913, 0.8913754930609393, 0.9296592803115452, 0.8172363067764288, 0.8756414735777586, 0.6706710304535266, 0.8216593199067097, 0.8717741689865013, 0.8475810070480481, 0.7760012138786111, 0.8447427577785724, 0.9196966457986276, 0.9067907170920828, 0.8365662246513529, 0.874607256107571, 0.8385463944443854, 0.8800526302421497, 0.7867671074517464, 0.8733033314399609, 0.8513182674077531, 0.7993910546195993, 0.8736535914576365, 0.8535369869139031, 0.7911196280849604, 0.8832386994653785, 0.8606074614012267, 0.8503838022588646, 0.7732415505308337, 0.8456279443734028, 0.8065358946582049, 0.8469752919101969, 0.8319801870823083, 0.8258645312333346, 0.6413732811375555, 0.8872918106238973, 0.8107283207235505, 0.8199971379689784, 0.8510397514982778, 0.7574737449220299, 0.8832511891662818, 0.8558774501270616, 0.8802407482274026, 0.8855434793798852, 0.8243126923053398, 0.8832423996601139, 0.8516724213047645, 0.7580650285153083]</t>
   </si>
   <si>
-    <t>[0.9044265209374813, 0.8429542804733254, 0.754839494023013, 0.7999687808382938, 0.9116830825498834, 0.9447519870853344, 0.8159149529031724, 0.8891841756786005, 0.6021565026391789, 0.880044966240784, 0.852411539002278, 0.9123535808983604, 0.7854072516519697, 0.8478369224077875, 0.9253702805989156, 0.9026633977290868, 0.8101747388899723, 0.9109126002344434, 0.84055570536033, 0.8497227249099588, 0.8528185195589901, 0.877268597726992, 0.8768076119450343, 0.7771073196238953, 0.87960487158903, 0.8035227610381377, 0.8153519051463132, 0.9347032241737614, 0.893726010412385, 0.8074736403600077, 0.8981302151191277, 0.8767474733044615, 0.7800530697636188, 0.8023576950287082, 0.8833691914745083, 0.8442559793169808, 0.8030569461418271, 0.8847864837966914, 0.8411850201569386, 0.8594449816486112, 0.8970681031960259, 0.7991957881430498, 0.8451749228515513, 0.8672917999762695, 0.8931090296533806, 0.899755939444838, 0.8630999291985555, 0.8942290790205045, 0.8157370873390832, 0.8183889816731111]</t>
+    <t>[0.8928017593033482, 0.8676963491309606, 0.7630313572751948, 0.7982998653155834, 0.9205203095759134, 0.9465393444430245, 0.8369013172442831, 0.879995922726013, 0.606698382305014, 0.8718704935056678, 0.8587869018541225, 0.9163224934370284, 0.789593783113245, 0.8508449865876693, 0.9297005760004162, 0.885941072155551, 0.8180504606536243, 0.9083702235759481, 0.8448527055115354, 0.8562446742871412, 0.8631921675192823, 0.8761956333055705, 0.8796706661431225, 0.7624697403495284, 0.8780244440600333, 0.8090275652930982, 0.7962207902455791, 0.9312754192158166, 0.8879128723578628, 0.7993039790555226, 0.901996787417968, 0.8821170346517102, 0.7878594702941613, 0.8026480632547828, 0.8793980496027729, 0.8483380619547594, 0.8297877553499937, 0.8849608781589273, 0.8428480849385873, 0.8610851440156175, 0.8981070150947849, 0.8118640119689866, 0.8566509581251132, 0.8649884024705086, 0.894691203313517, 0.8880215532788193, 0.8630517375675681, 0.8781321601183554, 0.7995091794847657, 0.8305688285382586]</t>
   </si>
   <si>
     <t>[0.9264980941215831, 0.9354003558167578, 0.744267664487925, 0.799425590887972, 0.9392890818677151, 0.9363730419743442, 0.8032826191098728, 0.896292843089864, 0.6334222587516904, 0.922294124538283, 0.8164276705114962, 0.8800833428415067, 0.7801366396949863, 0.8964258667948701, 0.9525035663679848, 0.8722662188945005, 0.7345637941516451, 0.9068080246245334, 0.8828010586759225, 0.9095140368589295, 0.8709947969306227, 0.9097330614278958, 0.8756333801444287, 0.7749328755166884, 0.8673642447841141, 0.7998458272331922, 0.891539792217023, 0.9441070139813852, 0.9008072804866987, 0.8489709461082506, 0.9297581388363201, 0.8829280673907662, 0.7592603811776837, 0.7876899726770786, 0.9043612458771787, 0.8218647625410076, 0.8323211378347722, 0.9019826040852111, 0.7930434861420818, 0.8569238811683764, 0.886224760729148, 0.8823687612776158, 0.831938491278738, 0.8873270234477941, 0.8907358865033337, 0.919729530944394, 0.8913067489090057, 0.893362403137439, 0.8600329377323069, 0.8137267875968781]</t>
@@ -3559,13 +3559,13 @@
     <t>[0.9347411283696363, 0.8723653489137293, 0.6253359403598716, 0.7677878528691816, 0.9428463884644114, 0.9358478784448574, 0.874890228057309, 0.9065076976054318, 0.6181338970724131, 0.8332611777584051, 0.8634954566932792, 0.8247635648156231, 0.7943546399861042, 0.8732144946683301, 0.8821523245395142, 0.9467853882214776, 0.8435357548166651, 0.8667230193622244, 0.9028300861590527, 0.8498798210390186, 0.88108072868327, 0.8020259630647346, 0.857753150636569, 0.7422212161186427, 0.8460277548528495, 0.8634200463851321, 0.8615345238006508, 0.927785390523287, 0.8629002155331925, 0.8492926799656328, 0.793528101003383, 0.9174326603640317, 0.8060021389339256, 0.8692931356974907, 0.9006914734241711, 0.7732468262712581, 0.8472983411577685, 0.8905031727635535, 0.884389807636476, 0.7444899349882985, 0.8382891836524166, 0.8286156622528484, 0.895290235502111, 0.846041499111044, 0.839436525091168, 0.9098739435836155, 0.7614211735648025, 0.8368618727418973, 0.8702692124870912, 0.7490137500778488]</t>
   </si>
   <si>
-    <t>[0.8455357063429476, 0.724049753518387, 0.6394922011803854, 0.7693940169046352, 0.9083276248385479, 0.9314039940870985, 0.7299363410001083, 0.8997215538011119, 0.5299573323913729, 0.8035930196379022, 0.8117086565248133, 0.8925250901065844, 0.726816636575587, 0.833438310208789, 0.7676381792973933, 0.9168037906713925, 0.7430516404121567, 0.855064501390342, 0.8483701072513743, 0.9023204449389347, 0.9034061605375185, 0.8454426122872193, 0.8168022945656731, 0.6040057786565014, 0.6370992584354918, 0.7323422461087794, 0.7683371467674665, 0.9027839755102658, 0.8599846468678002, 0.8645607036878935, 0.7512635512069472, 0.8484165132544725, 0.8074450806455145, 0.847775057237373, 0.8084715710947421, 0.7320649186388266, 0.7996432423951254, 0.8868858219086103, 0.8597519592228322, 0.8182127039315741, 0.8557897445538806, 0.7342901653811268, 0.8468632386103052, 0.8295016362990447, 0.7437156719258151, 0.878009983548885, 0.7523736894544153, 0.8567915039912408, 0.820941646312929, 0.8992205914562621]</t>
+    <t>[0.8455357063429476, 0.724049753518387, 0.6394922011803854, 0.7693940169046352, 0.9083276248385479, 0.9314039940870985, 0.7299363410001083, 0.8997215538011119, 0.5299573323913729, 0.8035930196379022, 0.8117086565248133, 0.8925250901065844, 0.7213308227980872, 0.833438310208789, 0.7676381792973933, 0.9168037906713925, 0.7430516404121567, 0.855064501390342, 0.8483701072513743, 0.9023204449389347, 0.9034061605375185, 0.8454426122872193, 0.8168022945656731, 0.6040057786565014, 0.6370992584354918, 0.7323422461087794, 0.7683371467674665, 0.9027839755102658, 0.8599846468678002, 0.8645607036878935, 0.7512635512069472, 0.8484165132544725, 0.8074450806455145, 0.847775057237373, 0.8084715710947421, 0.7320649186388266, 0.7996432423951254, 0.8868858219086103, 0.8597519592228322, 0.8182127039315741, 0.8557897445538806, 0.7342901653811268, 0.8468632386103052, 0.8295016362990447, 0.7437156719258151, 0.878009983548885, 0.7523736894544153, 0.8567915039912408, 0.820941646312929, 0.8992205914562621]</t>
   </si>
   <si>
     <t>[0.9171029807633698, 0.8412534527922659, 0.5970670901099497, 0.7874080166903588, 0.9101937025916496, 0.9527957505294959, 0.823648305553246, 0.8969005544136959, 0.6011091745852146, 0.8509330322071635, 0.8480295735421064, 0.8080838282971186, 0.7517015485682159, 0.8756760736518784, 0.9158145369792203, 0.9214017398767662, 0.8326317069931872, 0.8065588010106881, 0.831046305446733, 0.811125390085973, 0.8060532854423164, 0.8641139818369568, 0.844861256681914, 0.7588326115916144, 0.8523994291119322, 0.8410890055404225, 0.6862345404097412, 0.8913231437368088, 0.8682348454572719, 0.7722652299938748, 0.7658979147251671, 0.9162498442099172, 0.7787017415113504, 0.8075813732097913, 0.8255904128158595, 0.8233269446256112, 0.6500550391166463, 0.9224759948609655, 0.8637723622452482, 0.8209026870880536, 0.8712365482772795, 0.7474628900432265, 0.9159676201048722, 0.8883115491382461, 0.8496905692791368, 0.8804916806845744, 0.732721033659516, 0.8314721316822999, 0.7527941450339573, 0.7218324273045138]</t>
   </si>
   <si>
-    <t>[0.902188808833559, 0.8664257779176048, 0.5512246955231326, 0.7784152111136781, 0.9382730859819988, 0.9539870643128732, 0.8571801661147568, 0.9021125111398065, 0.5549843287681658, 0.8382268945542466, 0.8870206614196442, 0.8805267999381713, 0.7758339502592362, 0.8669591330164237, 0.9131586229930242, 0.920323077174012, 0.8975856892476373, 0.8090673740836463, 0.7986649589188903, 0.8956195403488445, 0.8055104455684537, 0.8218194565349004, 0.8273780494150713, 0.795705486053458, 0.8958125619749631, 0.8017829851029874, 0.7996486913852446, 0.8806618240339703, 0.903234117506543, 0.8328741244918569, 0.8701076157598646, 0.9299524407745761, 0.817618439558779, 0.7400602337204221, 0.8537777052299976, 0.8635297524575303, 0.7940320635878, 0.8799713791405404, 0.8502807007768707, 0.8160724306653431, 0.8847278720908025, 0.8158347323386592, 0.8845308330047462, 0.7875270977870004, 0.876575548045216, 0.9047267612190532, 0.880748482207987, 0.8639374522774241, 0.8047924119249965, 0.8376486230799485]</t>
+    <t>[0.9109873511990352, 0.8709788140704913, 0.5638578573125579, 0.7749906565177567, 0.9284901302356497, 0.9501777573048988, 0.8427397152322116, 0.9115493373323582, 0.5570891581241466, 0.841539802606963, 0.8672676264370585, 0.8715563246408053, 0.7940940323434538, 0.858877660957634, 0.9037453278157274, 0.9168738899974649, 0.9042609076559833, 0.8178978356969049, 0.8290524426137025, 0.9096751808420456, 0.8095301161369168, 0.8397263134817461, 0.8263943101359081, 0.7907011377107709, 0.9059687132611932, 0.770656967083482, 0.7924884445220428, 0.9016866540833421, 0.906065271390341, 0.8380689918935476, 0.8672220765748696, 0.9297569277894833, 0.8095699329697543, 0.7579238631608418, 0.867838490803898, 0.8611352838077422, 0.7994313681253196, 0.8790968575561585, 0.855154405455745, 0.7961389438315614, 0.8811529576223174, 0.7837780739771651, 0.8723087880793972, 0.7715498363758542, 0.8760197586979654, 0.9029081499500097, 0.8646807725553802, 0.8655891871571207, 0.8282080941026642, 0.8179355905036736]</t>
   </si>
   <si>
     <t>[0.8993679621005317, 0.8729663966704941, 0.601309116148869, 0.8106395520001524, 0.923047475302387, 0.937354045021741, 0.8204836004651263, 0.9105681452053516, 0.6255290470229433, 0.8626702261266208, 0.8777622204390569, 0.8713441492906683, 0.823477895369828, 0.8934729804024848, 0.9033540938647534, 0.9120877236376725, 0.8975448290330418, 0.8032039480322452, 0.8198535951155443, 0.9129770218448304, 0.7996609027402042, 0.8079772366297782, 0.8440034311058793, 0.7365057159963333, 0.8750120391228673, 0.7059638692429975, 0.8830207955496481, 0.8575145778164032, 0.8772798375815676, 0.8590516288697165, 0.8323374807967747, 0.8734083527655597, 0.8886013917653687, 0.7637241113867064, 0.9090571594333829, 0.8438580231245802, 0.8472380287003987, 0.8399702900232482, 0.8958188047180379, 0.8376681356893383, 0.8693929072504083, 0.8001442643666156, 0.8213652169723489, 0.7952992592084076, 0.8560584969598871, 0.9008656852922919, 0.7025863264364725, 0.8340722007161465, 0.8842076860808128, 0.8088510528082151]</t>
@@ -3577,31 +3577,31 @@
     <t>[0.7690906610179471, 0.8566936788700148, 0.5711715434801762, 0.8192744778607304, 0.8861824749599188, 0.8464518872141207, 0.8347335637328265, 0.8523989659989337, 0.6965881612008049, 0.8965104753075921, 0.8323412612803829, 0.8828608978536259, 0.8451246548912212, 0.795436245981896, 0.8848365551762574, 0.9155770253953377, 0.8121868474173988, 0.7680958838300063, 0.8782918098939648, 0.8767364043773871, 0.7346691739879142, 0.8124804259799984, 0.8488000331728723, 0.5168778439354766, 0.8961848192064719, 0.8341296236591298, 0.7355480089091746, 0.8697952082055856, 0.8606987287756492, 0.7195626245020166, 0.7217220335335036, 0.872236601322333, 0.8836392848540187, 0.7724857052647975, 0.9267008251569275, 0.8340493707415246, 0.7224581387533706, 0.9006001487398572, 0.8354113349046853, 0.9383501543362182, 0.8511722922182208, 0.7744393830932093, 0.8749401545797004, 0.7342445475862889, 0.9368445634444215, 0.9111031917520043, 0.7598255302392458, 0.8743541287533427, 0.711179040630253, 0.6565865030130245]</t>
   </si>
   <si>
-    <t>[0.9079410785712053, 0.804081309288375, 0.7565008160283412, 0.8380111445019783, 0.8592582562250752, 0.9114956906441752, 0.7484643821595927, 0.8475914263488178, 0.7083092050091244, 0.8356618487727839, 0.8655753660644921, 0.7626626894727062, 0.7989592294337006, 0.7699881147095077, 0.8430499494264121, 0.8914142973536052, 0.7687331694281367, 0.8417111010158498, 0.8140345662717384, 0.8593475719462946, 0.8292270968117944, 0.8092358011638625, 0.8221010042452727, 0.7106170596489348, 0.9076053002329647, 0.7617475676194932, 0.6037051236546257, 0.9104568683280329, 0.8746735144855563, 0.7216187903993411, 0.8335089668507281, 0.8195922584369423, 0.8688131101920048, 0.7686398173820475, 0.8684595399304316, 0.7300790698322613, 0.77053197753519, 0.8909076442369219, 0.7979045615195031, 0.7724655329505732, 0.8827702082363913, 0.9087279200213438, 0.7915091093190659, 0.7538611495995401, 0.8330137818325033, 0.9013368063997279, 0.8010127748071858, 0.8225896794828678, 0.8333011669685064, 0.7860286709420156]</t>
+    <t>[0.9079410785712053, 0.804081309288375, 0.7565008160283412, 0.8380111445019783, 0.8592582562250752, 0.9114956906441752, 0.7484643821595927, 0.8475914263488178, 0.7083092050091244, 0.8356618487727839, 0.8655753660644921, 0.7626626894727062, 0.7989592294337006, 0.7699881147095077, 0.8430499494264121, 0.8914142973536052, 0.7687331694281367, 0.7973043574318643, 0.8140345662717384, 0.8593475719462946, 0.8292270968117944, 0.8092358011638625, 0.8221010042452727, 0.7106170596489348, 0.9076053002329647, 0.7617475676194932, 0.6037051236546257, 0.9104568683280329, 0.8746735144855563, 0.7216187903993411, 0.8335089668507281, 0.8195922584369423, 0.8688131101920048, 0.7686398173820475, 0.8684595399304316, 0.7300790698322613, 0.77053197753519, 0.8909076442369219, 0.7979045615195031, 0.7724655329505732, 0.8827702082363913, 0.9087279200213438, 0.7915091093190659, 0.7538611495995401, 0.8330137818325033, 0.9013368063997279, 0.8010127748071858, 0.8225896794828678, 0.8333011669685064, 0.7860286709420156]</t>
   </si>
   <si>
     <t>[0.886588517402761, 0.8651333912901689, 0.7729745143038629, 0.7925593888924842, 0.9017237000202664, 0.906251349877663, 0.866937933371843, 0.8475778566063473, 0.7166806258813814, 0.8863515778731508, 0.8728887730083157, 0.9089569702685807, 0.857575423935123, 0.7912608131134653, 0.8734849338773543, 0.9344283451680149, 0.8247796313022129, 0.842339200709915, 0.8109348279678341, 0.8656781711226631, 0.8789831720077189, 0.7889736150650866, 0.8553073778672302, 0.5176073785280676, 0.8802085094957948, 0.8578994334087646, 0.7641777714770175, 0.9051492496201656, 0.8382417680000356, 0.7987183117325527, 0.8168546400741419, 0.8779770009694564, 0.8806823421870116, 0.7951408424877663, 0.9041864388722516, 0.8706926241514348, 0.7250601043814813, 0.8921044463498555, 0.8454137618416409, 0.9291807862549296, 0.8803410664125813, 0.7531210853706044, 0.8910820696091966, 0.7609851067922954, 0.9199740416571474, 0.9381674216383507, 0.8661485024581488, 0.8716187641374297, 0.8586688569134068, 0.725088325893026]</t>
   </si>
   <si>
-    <t>[0.8995882542342766, 0.859963087919805, 0.6289330778344804, 0.8219046598025228, 0.9275322311784602, 0.9336464159311652, 0.8730562872561773, 0.9089868691757551, 0.6347225109073023, 0.859967837040815, 0.8474031793709231, 0.8858912639335081, 0.8274791436996467, 0.8863191631504909, 0.9286680521907406, 0.8979750353410112, 0.881770380855188, 0.8730657268107596, 0.8560027980513814, 0.8940447173454065, 0.8382257617248269, 0.8296818148989283, 0.8289120862905833, 0.7258719445737616, 0.9386624117548649, 0.7714172463240936, 0.7920997318823456, 0.8983536233803127, 0.9318468300141287, 0.8004758862860586, 0.8790574674284897, 0.8891517772649691, 0.8631478598680407, 0.7901340504200771, 0.8614876496260091, 0.859292133383498, 0.8052781475804324, 0.8798176687157302, 0.85925787318396, 0.8299826920081921, 0.8794748386472973, 0.832679172757799, 0.8480261556861003, 0.8153096858728311, 0.9026495047971606, 0.9071139855901402, 0.8630912235910697, 0.892004373046654, 0.8186759665149244, 0.8536197910168817]</t>
+    <t>[0.9184661092195066, 0.8516345724275074, 0.6262992231000318, 0.8194759421298592, 0.9232375752810669, 0.9269843632306881, 0.8690722039370833, 0.909185508538751, 0.6189793160824149, 0.8912187194958406, 0.8648036084923135, 0.8820976736886652, 0.834741207684889, 0.8817976215269723, 0.9196957503584341, 0.8931732956895216, 0.8772941234659624, 0.8510757007739477, 0.8527827485843537, 0.881050919475075, 0.8478488526404027, 0.8201737602633922, 0.8480718990392975, 0.7635725409539103, 0.9329014489244692, 0.8038561494417225, 0.795879268877253, 0.9137784047034425, 0.9470429015465841, 0.8014652429898155, 0.8730830127648366, 0.895790731817217, 0.8651149786715296, 0.7784912128432072, 0.8388603592694625, 0.8403250809820808, 0.7694308424854445, 0.8787967533196877, 0.8506450967599737, 0.8156456896791999, 0.8817662337695067, 0.8461441013346711, 0.8836289692290732, 0.7762898553671884, 0.9061616460104728, 0.9098021940313238, 0.867338664290771, 0.8843132528692403, 0.825423746737789, 0.8361883145953379]</t>
   </si>
   <si>
     <t>[0.9122350209399009, 0.8678561914089423, 0.7240078259722429, 0.8180468960955674, 0.9300981460747886, 0.877808847698929, 0.8684617137076504, 0.9242724582193773, 0.7624301341271488, 0.9560459488155476, 0.8160371907936643, 0.955301710705436, 0.7798873244618045, 0.8934771076348301, 0.9551321242086469, 0.9537032234309385, 0.6838794934038225, 0.8152895562696139, 0.860826648802934, 0.8776127566482261, 0.9117856310173498, 0.8574816020470983, 0.873726127319305, 0.8183151964784825, 0.9692159701572187, 0.7793247713209368, 0.880889150901605, 0.9238443126968394, 0.9155137611613112, 0.8030976374851881, 0.8715704214457767, 0.9477667302072843, 0.8704007882034923, 0.867018282753922, 0.9239685091797836, 0.8655232989418025, 0.8056760000372674, 0.9052124125883606, 0.8353373922355025, 0.8603245178672287, 0.8288724791013505, 0.8747787771669313, 0.8216756283904856, 0.8887284353178618, 0.8818309506692381, 0.9368249007232561, 0.7959591392947618, 0.882648799032563, 0.8907515975956232, 0.8918258829133721]</t>
   </si>
   <si>
-    <t>[0.8895219970701296, 0.7862202378229524, 0.6040052977144743, 0.7271763397764317, 0.8239687950394958, 0.8458092713519592, 0.8058604242578292, 0.8098642362843099, 0.5796428302307081, 0.7019378346421015, 0.873979236462872, 0.7774777197603147, 0.6938695278680475, 0.7228461573162857, 0.8270262423516078, 0.843216301203773, 0.7181205690139604, 0.6469805976781263, 0.7388835422992222, 0.7796870121616012, 0.741020237767972, 0.7508823382795771, 0.826167958127956, 0.5715745076325502, 0.6952343054288959, 0.7386328832156344, 0.656086612957385, 0.7900479025563549, 0.8592421784397973, 0.6895262159701651, 0.7776348793188727, 0.8260874086101887, 0.7687997768548733, 0.7513524831274545, 0.7473719508044182, 0.7419728968552248, 0.5238484552785082, 0.806811639788674, 0.7490041802087417, 0.7338898124823321, 0.8454447598726781, 0.5840103763461582, 0.8115144989352168, 0.7984429923657489, 0.8171794618652011, 0.8480127963803694, 0.744893626360974, 0.7280154113194414, 0.7496766801608984, 0.653009667633311]</t>
+    <t>[0.8895219970701296, 0.7862202378229524, 0.6040052977144743, 0.7271763397764317, 0.8239687950394958, 0.8458092713519592, 0.8058604242578292, 0.8098642362843099, 0.5796428302307081, 0.7019378346421015, 0.873979236462872, 0.7774777197603147, 0.6938695278680475, 0.7228461573162857, 0.8270262423516078, 0.843216301203773, 0.7181205690139604, 0.6469805976781263, 0.7388835422992222, 0.7796870121616012, 0.741020237767972, 0.7508823382795771, 0.826167958127956, 0.5715745076325502, 0.6952343054288959, 0.7386328832156344, 0.656086612957385, 0.7900479025563549, 0.8592421784397973, 0.6895262159701651, 0.7776348793188727, 0.8260874086101887, 0.7687997768548733, 0.7513524831274545, 0.7473719508044182, 0.7419728968552248, 0.5238484552785082, 0.806811639788674, 0.7490041802087417, 0.7338898124823321, 0.8454447598726781, 0.5840103763461567, 0.8115144989352168, 0.7984429923657489, 0.8171794618652011, 0.8480127963803694, 0.744893626360974, 0.7280154113194414, 0.7496766801608984, 0.653009667633311]</t>
   </si>
   <si>
     <t>[0.8715026656812741, 0.8798639389319088, 0.5535566197329667, 0.7702559250409351, 0.9478616863225677, 0.8941657856717492, 0.8778708664401653, 0.8777361043779874, 0.6569101579082948, 0.8225502121904975, 0.8636257938155304, 0.8418239590908358, 0.7887403560866357, 0.846047165373537, 0.9102100115130809, 0.8920169720485147, 0.8555011854806658, 0.867286425452797, 0.8182668556760867, 0.8011417239613463, 0.8723288169825099, 0.8158519899531316, 0.8620195656246932, 0.6656498811236823, 0.8223643899072356, 0.8604462011034538, 0.8432919690165737, 0.9167119695261237, 0.847412589155727, 0.8508181864646314, 0.7609971588052118, 0.8924423114325744, 0.8163905607116573, 0.8451096080691536, 0.889123488526708, 0.8354549721767788, 0.7026661756022212, 0.9084937508569175, 0.8146652885978276, 0.8566490486750866, 0.8271321965241186, 0.7723417116636754, 0.7749131108642628, 0.7253580279615109, 0.9039625825929406, 0.8764684144671073, 0.8373145473112826, 0.8391448021153904, 0.8399886297707249, 0.7659421412615577]</t>
   </si>
   <si>
-    <t>[0.8735315898377554, 0.8351864225575639, 0.7457919860876742, 0.7701220125017489, 0.8545641116912883, 0.9156815644912988, 0.811223291842899, 0.8946059900002568, 0.7422202515885887, 0.8688101667439948, 0.8159613503981347, 0.8979464913592473, 0.8673101613397, 0.8341626927807657, 0.9171997565051802, 0.8782867995867463, 0.752145002248588, 0.871950919895626, 0.8894776640014477, 0.8697337808468762, 0.7701581210037457, 0.8456508586307068, 0.8215070387170074, 0.5932857448780934, 0.8893027960834329, 0.7496543833627215, 0.8207491058514241, 0.8459884935076085, 0.8738344044010607, 0.8591452249599868, 0.8518667777531539, 0.8528787473626338, 0.8875488221218131, 0.834107837825141, 0.83172953104801, 0.7813252505719914, 0.806289613355115, 0.8696990742789004, 0.8568720566639825, 0.8559417608837587, 0.8493009694022065, 0.8026334391058392, 0.8854520695094885, 0.8811317144948121, 0.8703179431257724, 0.9054628049543649, 0.6930764550364037, 0.8443626795256413, 0.8285427264147237, 0.8877663334061272]</t>
+    <t>[0.8735315898377554, 0.8351864225575639, 0.7457919860876742, 0.7701220125017489, 0.8545641116912883, 0.9156815644912988, 0.811223291842899, 0.8946059900002568, 0.7422202515885887, 0.8688101667439948, 0.8159613503981347, 0.8979464913592473, 0.8673101613397, 0.8341626927807657, 0.9171997565051802, 0.8782867995867463, 0.752145002248588, 0.871950919895626, 0.8894776640014477, 0.8697337808468762, 0.7701581210037457, 0.8456508586307068, 0.8215070387170074, 0.5932857448780934, 0.927367233598331, 0.7496543833627215, 0.8207491058514241, 0.8459884935076085, 0.8984168856954815, 0.8591452249599868, 0.8518667777531539, 0.8528787473626338, 0.8875488221218131, 0.834107837825141, 0.83172953104801, 0.7813252505719914, 0.806289613355115, 0.8696990742789004, 0.8568720566639825, 0.8559417608837587, 0.8493009694022065, 0.8026334391058392, 0.8854520695094885, 0.8811317144948121, 0.8703179431257724, 0.9054628049543649, 0.6930764550364037, 0.8443626795256413, 0.8285427264147237, 0.8877663334061272]</t>
   </si>
   <si>
     <t>[0.9104069070884626, 0.853850667001147, 0.5974549841170609, 0.7841745660787421, 0.9396588397972858, 0.9186404487752666, 0.8085944599692041, 0.8531168741943969, 0.6624627354589037, 0.8414096822765609, 0.8083048265231813, 0.8293384696412288, 0.7830507470226646, 0.8487677413391823, 0.8966029939837168, 0.8430070640226637, 0.8030432616126082, 0.8373989199196253, 0.8260991649073745, 0.8097705375880062, 0.7921149514284923, 0.8598582342944388, 0.8469722285167158, 0.7300667334293587, 0.8215322135065407, 0.8270922462627672, 0.802466839513913, 0.8965962373053543, 0.8625125293176146, 0.7881869878509016, 0.7641274595693016, 0.9265952475569954, 0.8060304635535356, 0.7358301513404857, 0.8256320396163764, 0.8111655497862694, 0.7860708863862447, 0.8709359016918945, 0.8305985544362169, 0.8291117232492682, 0.8589377508120635, 0.7789289266479844, 0.8728393586082186, 0.8393832514310513, 0.9039154531839055, 0.886429059633951, 0.7355968146660032, 0.8978096909954254, 0.8080376049755438, 0.7593845748339462]</t>
   </si>
   <si>
-    <t>[0.9086122584891794, 0.8548282569288095, 0.6084029642680115, 0.7959585253356593, 0.9370653129601636, 0.9230602124559029, 0.8823190303417878, 0.8948368158353028, 0.620276553953062, 0.899871161627708, 0.8476034008999314, 0.8980661997236339, 0.8191420704366055, 0.9058016360242573, 0.9191960441563901, 0.8974871440796112, 0.88782362413137, 0.8363991489278306, 0.8396428569551293, 0.8730918738234043, 0.8102240938197736, 0.8331353757271505, 0.8543474648716377, 0.785592510666973, 0.9217208654532194, 0.8417523183362641, 0.8107894049508615, 0.8868790916728824, 0.9166114666716189, 0.8208624147209374, 0.8842022338754356, 0.8912391317243742, 0.8442489264234219, 0.7734589872934101, 0.8360278127324405, 0.8627085172464672, 0.803035011717522, 0.8864152083878243, 0.838658266167765, 0.8171523028463105, 0.8884158610909118, 0.7630596266002421, 0.8824649780311496, 0.8031012364138415, 0.9051915748639372, 0.9006418606833231, 0.865210703029902, 0.8763891957918213, 0.8386420046024572, 0.8304004490972631]</t>
+    <t>[0.9048837362349544, 0.856893698004035, 0.5949528395266426, 0.7995174188544283, 0.9426102053751599, 0.9124164970310826, 0.8605519850783225, 0.8940418593916628, 0.6541705694169065, 0.9036346888850665, 0.8454648369759312, 0.8713255391989, 0.8018897947487964, 0.8593516866075575, 0.9164975586428485, 0.9094681185550688, 0.8975737604132644, 0.8421488002514689, 0.8452087267992462, 0.8667332069374541, 0.8028370886414046, 0.8185758425830998, 0.8555157238662032, 0.7786409308602833, 0.8971753958247, 0.8389346421090635, 0.7988599652201849, 0.8753871496060679, 0.9016972553962826, 0.8139240994417624, 0.8838662594770167, 0.9148084483106562, 0.8441708128866562, 0.771374341937397, 0.8730227516701455, 0.865641180423072, 0.8000883705686216, 0.8985695322634759, 0.8203222847209521, 0.8314662871022668, 0.909811236080376, 0.7670345308506511, 0.8949514739331925, 0.8243035587587285, 0.9069860843223246, 0.9021460745322392, 0.848904994281465, 0.8892119606838708, 0.8141357290662131, 0.8409666088086549]</t>
   </si>
   <si>
     <t>[0.8875976940535971, 0.8463008763678955, 0.7311231551388312, 0.8409293919206478, 0.9293817969225837, 0.8546694537819345, 0.8681768069837053, 0.9148646433080976, 0.7083138370103916, 0.8978147222368772, 0.8660782811158476, 0.9393388724036726, 0.8119969396542428, 0.904600291376205, 0.9432438496274608, 0.9463766178852666, 0.8325405211041903, 0.8190139019405225, 0.8426672667737808, 0.9178673753274335, 0.9143685140773209, 0.8606699549711004, 0.8836728479886513, 0.7845433521057011, 0.9296451778093636, 0.7952962746380721, 0.9006238125231556, 0.9095722561813199, 0.9241543033675097, 0.8897769286524333, 0.845408232473994, 0.914633240463179, 0.8221779301612578, 0.8665792265352857, 0.864909953867554, 0.8314879284367056, 0.8372359416703601, 0.9030637050069112, 0.7777135305693154, 0.8562322265064437, 0.9159215428913456, 0.7216834896538501, 0.870591133361738, 0.880361629630208, 0.851211919372114, 0.9269075673555021, 0.8182130887698551, 0.8667272092783651, 0.8584870579774808, 0.843904905556061]</t>
@@ -3619,7 +3619,7 @@
     <t>[0.9239386566289307, 0.8154267891559019, 0.6738241801515122, 0.743915824026993, 0.899311642250805, 0.9398406619416302, 0.8237159013535642, 0.9026549392916451, 0.5854341641474469, 0.8377826549824585, 0.8277429723200527, 0.878383029806583, 0.7756270031932124, 0.8530145663091162, 0.9018115217711954, 0.8996142365368764, 0.8121749536443859, 0.7869138710234793, 0.8160592662071946, 0.8820737541273184, 0.8008925132369492, 0.8434167309763687, 0.8412778592813056, 0.7298820056283659, 0.8080481209762598, 0.8246735961305691, 0.8375855173185944, 0.9046175686543069, 0.8672807138065775, 0.8404142875650851, 0.7609797598791083, 0.8953987497214214, 0.7887795094766191, 0.7485595915201584, 0.8479522692602265, 0.81587551248728, 0.7530221344417719, 0.8857779600448147, 0.8273676319224613, 0.8281935400030516, 0.8493950359404776, 0.7529969265029689, 0.891168217803737, 0.842362310673493, 0.8927287204096911, 0.9042364066944781, 0.8459696822608402, 0.8882440941054557, 0.7772086459100248, 0.7703434155906062]</t>
   </si>
   <si>
-    <t>[0.9195713889313645, 0.8485267716591705, 0.744364206097351, 0.7679592582239492, 0.9392887399517964, 0.9480901454139485, 0.7920407786908663, 0.9219267446003432, 0.5908021527860996, 0.8889088590452552, 0.8370873885866763, 0.8882674641061576, 0.8011926618701483, 0.8534124246020018, 0.9159661583674787, 0.8960686163255527, 0.871031606287083, 0.9172358354684724, 0.8429094190299173, 0.8642501378260197, 0.848863657843431, 0.8894321254073922, 0.8579350212919008, 0.7967229160625998, 0.8759587052387358, 0.8051566071379865, 0.8231499793344654, 0.9252557726279704, 0.9256407046722439, 0.7801859764137115, 0.8819520889663375, 0.8854257111613608, 0.7832058676582118, 0.7868653657174549, 0.869450127549672, 0.8510115580264185, 0.7642479139388034, 0.8791575041334596, 0.8421651652339202, 0.8604025482673635, 0.889176694478619, 0.7747749520994685, 0.8769956022480048, 0.8779635967255381, 0.8992936176934504, 0.8883766924001105, 0.8175785134634421, 0.8904073059703109, 0.8082085621927448, 0.8205251599585102]</t>
+    <t>[0.9097674507252534, 0.8432647247148595, 0.6552591572895292, 0.7725465957894277, 0.9337954844819432, 0.9311296861872392, 0.8009525658491927, 0.9149599031681688, 0.5856952724966413, 0.8809421949650962, 0.8363361500197126, 0.8825830756543039, 0.7974686839373057, 0.8573278820316024, 0.9107597212840102, 0.8783942589803269, 0.8032338925344515, 0.916788128569787, 0.8288253385793991, 0.8558088114302176, 0.8508232170780559, 0.8976388013039638, 0.863967387836666, 0.7968579047198523, 0.8837597860292297, 0.8006726956838148, 0.8129634844897445, 0.9226231385621575, 0.9368626128303674, 0.8139105783251674, 0.9062160193875296, 0.8781098381486224, 0.7855371010817649, 0.7910253891594494, 0.8674619842115301, 0.8421961199858856, 0.7854003527655087, 0.8769945296846005, 0.8392403953850495, 0.8534102840258647, 0.8825226814492211, 0.7852464735931515, 0.8835487065851463, 0.8531483078584521, 0.8984587688742802, 0.8920638804582457, 0.841495816510407, 0.8824440103884639, 0.7899945781549202, 0.837405511834939]</t>
   </si>
   <si>
     <t>[0.9335790642179158, 0.8767600081575382, 0.7556762952138839, 0.7871951631001531, 0.9288381543595972, 0.9003128004362468, 0.8357121653334173, 0.879855890885014, 0.6755771394275598, 0.9144210096795289, 0.8075907310224857, 0.843437966057756, 0.7411771426359917, 0.8680335524431528, 0.9049691296741637, 0.9047143695092802, 0.7026497957501562, 0.9029702890782599, 0.8736002353738804, 0.9182284559124165, 0.8412467612584817, 0.9460619023328599, 0.8735667260467692, 0.7596048805798348, 0.9002522767801442, 0.7903880632800131, 0.8864762974098833, 0.9127382869317555, 0.8295291688874067, 0.8119917939414424, 0.9164808811118568, 0.8808539847819539, 0.7151784323044618, 0.8597341294869865, 0.8926839642682112, 0.8798679219219094, 0.8301892640943902, 0.8824729566676082, 0.8046196212864889, 0.8345803258765896, 0.8751023829546736, 0.8147785135256904, 0.8546872953960147, 0.9064767545863572, 0.9127190497617752, 0.9032632594428736, 0.8075429122754825, 0.877349788327668, 0.8648758473721778, 0.8033336020621666]</t>
@@ -3637,7 +3637,7 @@
     <t>[0.8966793109229331, 0.8487163950078698, 0.6777081844009314, 0.7623193250510347, 0.9340403342733021, 0.9064118402642943, 0.8461048997070912, 0.8974818369805106, 0.6081194824003986, 0.857767887810789, 0.8539462802199194, 0.8632519501771346, 0.7551420498646269, 0.8855991226615507, 0.9122046802178903, 0.9288184846470245, 0.7366002463144967, 0.7303258640544807, 0.8388234204374755, 0.8712243341094831, 0.7706751057368124, 0.8202546532430122, 0.8384062764064524, 0.7644260944681309, 0.8105244819014228, 0.8599432411599736, 0.8057261282202127, 0.8743297624153175, 0.8808275889803219, 0.8426183387625886, 0.764581553990421, 0.8422104127348783, 0.7476551021367741, 0.7183724688026294, 0.8476771951812601, 0.8463499945718481, 0.6815918538115592, 0.920226567000022, 0.8026211509263275, 0.8142664503888105, 0.8621051105974522, 0.7739593833149929, 0.8918174330799815, 0.816675143983174, 0.8652135965421274, 0.8937089805048808, 0.8509864375161983, 0.8313495538106553, 0.8308608292356567, 0.7851712221767114]</t>
   </si>
   <si>
-    <t>[0.9064974966535024, 0.85383138528371, 0.5715740541441855, 0.7631776102500656, 0.9379089751438073, 0.9245257176881109, 0.8494108786917559, 0.899842208128895, 0.5672214853599835, 0.8519768785904017, 0.8561463252983879, 0.8717245774172011, 0.8177257596383309, 0.8491233761793391, 0.9096305919525366, 0.9018623990165506, 0.874356516512298, 0.799650894724652, 0.8231722292158008, 0.8831966155016152, 0.8300284249827437, 0.7855503417272147, 0.8249503004756682, 0.758772187997333, 0.9160901437363659, 0.7811396677422608, 0.8019167656353823, 0.8920059988463562, 0.9346655328241543, 0.7906418055161342, 0.8733608347938457, 0.895772029444307, 0.8330210768955082, 0.7638657095163552, 0.8393747435084504, 0.8518177635636843, 0.7960543276581188, 0.8639106388293494, 0.8449700588613271, 0.8005901306016905, 0.874981378182177, 0.8237855179080676, 0.8832821595469935, 0.7872530721614126, 0.8962998412464396, 0.8962321737952874, 0.8610927053023428, 0.869103788045571, 0.813882609857921, 0.8032037648189368]</t>
+    <t>[0.900951662632635, 0.854754792414868, 0.5898487642105772, 0.7808693082639484, 0.9372238421925706, 0.9219634923314327, 0.8593513873423063, 0.8921482212593926, 0.5851981839837466, 0.8702049035521898, 0.8782182884018696, 0.8692336564317972, 0.8069036161714525, 0.879225803599117, 0.9032403500418766, 0.9089711572108365, 0.8704813547154937, 0.8365039556453104, 0.8443918060626423, 0.8986022500432568, 0.8383942809177547, 0.7983336106322805, 0.8254025488953116, 0.7569684680243509, 0.9215257567840385, 0.7696413913554107, 0.7992064248447086, 0.8908352281029748, 0.9222234175652444, 0.7954271598502413, 0.8657254858459262, 0.9091317410472056, 0.8149269595578754, 0.765800425673849, 0.8424310335062457, 0.8503470687380823, 0.7892462679600454, 0.8524163756810456, 0.8643398663211077, 0.8335673067569469, 0.8745604490670272, 0.7696821014179329, 0.8737659276402417, 0.7978500475797388, 0.8992667933274465, 0.9007581281712427, 0.8301936502890275, 0.8691416445190108, 0.8154943887561283, 0.824091989489562]</t>
   </si>
   <si>
     <t>[0.8983908481891671, 0.8529493757718234, 0.7091770257800499, 0.809822236203495, 0.9293340959341725, 0.9104396522462318, 0.876885622940164, 0.8962070878417328, 0.6711922564100774, 0.8356931972645567, 0.8658094421382883, 0.9120302673246619, 0.814362694259771, 0.8964029690813171, 0.9290067693360027, 0.937747206635869, 0.7736000908914971, 0.8335853585987215, 0.8717604021491219, 0.9084714360792089, 0.8368386378504076, 0.836012989576361, 0.8816527744311573, 0.740715881906337, 0.9514472534123336, 0.7232529545657527, 0.8733302825232119, 0.9000251909871556, 0.903226084698272, 0.8418179878980989, 0.8209955877676905, 0.917320573904378, 0.8098203644342292, 0.8429290112654813, 0.858172752415135, 0.8627339583263217, 0.8508890436239767, 0.856339618859153, 0.8570577138033542, 0.8443713568140894, 0.825487278217468, 0.8547057063329976, 0.8244923785394961, 0.8569964254174409, 0.8751546068783365, 0.892939359928723, 0.8271282528135064, 0.867167781745094, 0.887361895753312, 0.9176240291451204]</t>
@@ -3649,19 +3649,19 @@
     <t>[0.854080446959889, 0.8644944818639643, 0.7860418502229667, 0.7904455671794316, 0.8788574229066085, 0.8448884018607538, 0.8176448767967227, 0.8473953707896932, 0.6572986751307058, 0.9029974601244876, 0.8519095236662966, 0.7148215158063599, 0.7890155515731296, 0.8154830045592322, 0.8333286330355124, 0.9137453149546663, 0.8450619702457376, 0.8660616057082041, 0.8201492731643734, 0.8807737630642181, 0.8793542037729164, 0.614745828166766, 0.8682410562458244, 0.5684923968466963, 0.9103269340268328, 0.8899729873102321, 0.7409462928437172, 0.8899218656865154, 0.9065079059642225, 0.7828179350361344, 0.8103453686816223, 0.8726159302854373, 0.8778225860638891, 0.7240826193028702, 0.91509060206047, 0.870756449614897, 0.7289536516957316, 0.9116480286659182, 0.8338197795187301, 0.9028138829270402, 0.8914553171994183, 0.7280781914631711, 0.8916437845827165, 0.7216633840949906, 0.9229896746139565, 0.9151228295174427, 0.7927319288581555, 0.8666722423239599, 0.814540754879588, 0.7462680751954931]</t>
   </si>
   <si>
-    <t>[0.875340793253041, 0.8782985267994126, 0.6701707250804863, 0.8130077031799137, 0.8461069534769764, 0.8207075742090254, 0.8096748971920985, 0.8415271516248889, 0.5801381097171789, 0.84005825749551, 0.8514393863350566, 0.9188550915120653, 0.8286695438056206, 0.8294724585086466, 0.8516710231615208, 0.8892687764824132, 0.7619782001500592, 0.8312568063551875, 0.8505202442057728, 0.9003266560211998, 0.8032219328024844, 0.8015142362172363, 0.8711239353983149, 0.4931206842472726, 0.8885962545440247, 0.7412168104286343, 0.7460397831874144, 0.8645698955013846, 0.8931517514318403, 0.8326455807283103, 0.8015424755262786, 0.8323277249998505, 0.8169600301818627, 0.802291900866419, 0.7452741052826048, 0.781567127212304, 0.7977294352821103, 0.8563890365940217, 0.7985782559017109, 0.8036024210775015, 0.8825510367331395, 0.7106266476067893, 0.8069773794084482, 0.9305992993771552, 0.8414341439737905, 0.8867319377928093, 0.725709037966679, 0.8267399528671184, 0.8761956450606849, 0.6352793617874697]</t>
+    <t>[0.875340793253041, 0.8782985267994126, 0.6701707250804863, 0.8130077031799137, 0.8461069534769764, 0.8207075742090254, 0.8096748971920985, 0.8415271516248889, 0.5801381097171789, 0.84005825749551, 0.8514393863350566, 0.8549465816098245, 0.8286695438056206, 0.8294724585086466, 0.8524820804364025, 0.8892687764824132, 0.7619782001500592, 0.8312568063551875, 0.8505202442057728, 0.9003266560211998, 0.8032219328024844, 0.8015142362172363, 0.8711239353983149, 0.4931206842472726, 0.8885962545440247, 0.7412168104286343, 0.7460397831874144, 0.8645698955013846, 0.8931517514318403, 0.8326455807283103, 0.8015424755262786, 0.8323277249998505, 0.8169600301818627, 0.802291900866419, 0.7452741052826048, 0.781567127212304, 0.7977294352821103, 0.8563890365940217, 0.7985782559017109, 0.8036024210775015, 0.8825510367331395, 0.7106266476067893, 0.8069773794084482, 0.9305992993771552, 0.8414341439737905, 0.8867319377928093, 0.725709037966679, 0.8267399528671184, 0.8761956450606849, 0.6352793617874697]</t>
   </si>
   <si>
     <t>[0.8766994437785725, 0.8725151682335274, 0.7487198237409126, 0.7714247483326453, 0.8878774507644175, 0.913781978684754, 0.8581913532640959, 0.8381068698741634, 0.7052263050494483, 0.8644699700027585, 0.874859907545105, 0.9182697509668106, 0.8508820928268341, 0.8051292199490807, 0.8759046561647807, 0.918029525590095, 0.8386895434173797, 0.8669573634143815, 0.8238943532439307, 0.8700002221901052, 0.8728271564497373, 0.8584577513859423, 0.8401364116069354, 0.6570579583002045, 0.8780664996243344, 0.8881485863126819, 0.7321602930438247, 0.9088264701052058, 0.9113903369209934, 0.8058396386315829, 0.8214484397674267, 0.896352110805708, 0.8791495653865765, 0.8184632441777908, 0.8882318287882489, 0.8434831022245001, 0.7373350505425492, 0.8948706318364041, 0.8466367196098916, 0.9393518232460986, 0.888983638106148, 0.770076097757975, 0.9040938334759427, 0.8238182949289603, 0.8816399204532965, 0.9253633725258212, 0.8822477953221933, 0.866398201878394, 0.8682011498155049, 0.704840417120824]</t>
   </si>
   <si>
-    <t>[0.9357972511204934, 0.8753908426564206, 0.6741364663546371, 0.7954344404296624, 0.9353910643839813, 0.8670571979968313, 0.8813045902123752, 0.8955429146613648, 0.6239992463494739, 0.8667137841475441, 0.8552813312234426, 0.9009012047907166, 0.8370812049548603, 0.850582293058993, 0.9094715488796318, 0.9022451328641592, 0.8321707564164049, 0.8986791925555905, 0.8554925768854863, 0.8894411253100765, 0.8488454445307223, 0.8212134500580821, 0.8387684470030405, 0.7773242107118685, 0.9390187565766555, 0.8243174081335007, 0.7947895485324119, 0.9325357226433645, 0.9334824732335685, 0.8124024670368677, 0.8796775145469864, 0.8994210650188843, 0.8349764329431405, 0.7863146772349072, 0.8535586138820028, 0.8199934639478406, 0.800770859057087, 0.8696811766594166, 0.9120818867442896, 0.8144235569093067, 0.8878024456886005, 0.8447122638548688, 0.8966336803683668, 0.8113250744427423, 0.9051893455326383, 0.8853725928865666, 0.8125944742095605, 0.8879188629966703, 0.8454036888133711, 0.8376733942712606]</t>
+    <t>[0.9319776850431657, 0.8499738335158895, 0.6706211293950753, 0.8027064982124024, 0.9372093320406174, 0.8806942662484759, 0.8889157871685287, 0.9293314396600109, 0.5984075325278231, 0.8640129774379169, 0.8582957852950206, 0.9050425357381955, 0.8471393990504934, 0.8559910626107745, 0.911920052019801, 0.9013563196929871, 0.8909014151328267, 0.8766922132854658, 0.8584245341710945, 0.8792048684983388, 0.8590081089254482, 0.847020139554916, 0.8558752999382042, 0.7472790266743066, 0.9351828990567455, 0.8322188903085572, 0.8057820881561238, 0.9251433776636835, 0.9387756829615609, 0.7992701969441238, 0.870231148204571, 0.895869043723718, 0.8436639868992, 0.8148842875836966, 0.8650773872360197, 0.8414356321888923, 0.7977352347739693, 0.8794730891299987, 0.9122359751035187, 0.829537293393406, 0.8703922364233119, 0.8447486905534674, 0.8976132233007617, 0.8332124640698961, 0.891400260637188, 0.8967967457839824, 0.8073310757750167, 0.8893448529139173, 0.8273498619944244, 0.8639508051808624]</t>
   </si>
   <si>
     <t>[0.9084181440074287, 0.8664810595004102, 0.6711210620147554, 0.8423274863303811, 0.9433678832437438, 0.8547583002537019, 0.8373544334167213, 0.9054643538564204, 0.7533939150383796, 0.9143757299375401, 0.8482864664435196, 0.9060798999380079, 0.8720265874915107, 0.9008126599857784, 0.923995359093002, 0.9324241224385511, 0.7255404017919727, 0.8707106120330335, 0.8301409093573797, 0.9131758636609997, 0.8642157969996686, 0.8534351736422983, 0.8680859585267784, 0.8069633495584028, 0.9249766400063125, 0.775733959502586, 0.8576481816270937, 0.933182426728215, 0.9079659662364317, 0.8607540495979642, 0.8494636509149109, 0.9061900197173883, 0.8798052549372936, 0.7862203664095209, 0.8719900091349924, 0.9067366937262372, 0.7779576602946033, 0.8056995536355488, 0.9052991540594473, 0.885456788115657, 0.8717859187254826, 0.870006634820555, 0.8445429866071759, 0.9109578339399695, 0.9097384706800374, 0.9285309478320907, 0.8116387424333593, 0.8962894706509534, 0.8917207274120763, 0.8789636523364119]</t>
   </si>
   <si>
-    <t>[0.8795347655328202, 0.8394101257666391, 0.5222831185433203, 0.7727386110164882, 0.834473744230454, 0.9227253366403576, 0.48751192902165, 0.8363570756469303, 0.6117985356628762, 0.7126857333157892, 0.8127457056498895, 0.6700598635774543, 0.7640335611529128, 0.7034422156604292, 0.7200764871369549, 0.8402461826666945, 0.7328839237510183, 0.7234842074095621, 0.716755662780308, 0.7858338460937611, 0.7274855163514863, 0.6111770738433249, 0.7372977198352345, 0.5840584285834217, 0.43854521290585446, 0.8029623954571674, 0.6517983008016612, 0.7554493655741314, 0.805014703014404, 0.6173023715718102, 0.710821404280723, 0.8326651888378233, 0.7152851435935532, 0.6688334555155833, 0.770079406627762, 0.6410130618557042, 0.48192941219444696, 0.8626384580118308, 0.7653913723800887, 0.6428390628569078, 0.7940136584126338, 0.6386134546102555, 0.8314245251291994, 0.7721777488530149, 0.8184936808057979, 0.8398272472106715, 0.6492163483142732, 0.8279340564877345, 0.7005239925631146, 0.6257382767994817]</t>
+    <t>[0.8795347655328202, 0.8394101257666391, 0.5222831185433203, 0.7727386110164882, 0.834473744230454, 0.9227253366403576, 0.48751192902165, 0.8363570756469303, 0.6117985356628762, 0.7126857333157892, 0.8127457056498895, 0.6700598635774543, 0.7640335611529128, 0.7034422156604292, 0.7200764871369549, 0.8402461826666945, 0.7328839237510183, 0.7234842074095621, 0.716755662780308, 0.7858338460937611, 0.7274855163514863, 0.6111770738433249, 0.7372977198352345, 0.5840584285834217, 0.43854521290585446, 0.8029623954571674, 0.6517983008016612, 0.7554493655741314, 0.805014703014404, 0.6173023715718102, 0.710821404280723, 0.8326651888378233, 0.7152851435935532, 0.6688334555155833, 0.770079406627762, 0.641013061855704, 0.48192941219444696, 0.8626384580118308, 0.7653913723800887, 0.6428390628569078, 0.7940136584126338, 0.6386134546102555, 0.8314245251291994, 0.7721777488530149, 0.8184936808057979, 0.8398272472106715, 0.6492163483142732, 0.8279340564877345, 0.7005239925631146, 0.6257382767994817]</t>
   </si>
   <si>
     <t>[0.8815690484444099, 0.8745049409151209, 0.5289794823406486, 0.7624828461543183, 0.9365363597801318, 0.8994598542583289, 0.8752618892979092, 0.869615516046533, 0.6516815214596583, 0.8406407430114133, 0.8632876214821811, 0.864504563290929, 0.7880271157587551, 0.8501696549556583, 0.8996681611031752, 0.8966406688182302, 0.8196531823798656, 0.9016968455866399, 0.8860860634595318, 0.8137437993075227, 0.8936319152774809, 0.7011804819853744, 0.8495652370403861, 0.6553804226821227, 0.8491349543886715, 0.8553197423307465, 0.8514148139213111, 0.9195751286382423, 0.673954524279338, 0.8395451537321471, 0.7997866800372722, 0.8845116993815352, 0.7772233735691245, 0.8778091342690225, 0.8819819080108671, 0.8107713534157753, 0.793486936548115, 0.9053149610033577, 0.8263836672660988, 0.8580286819175654, 0.8374306189354093, 0.793796005636743, 0.7727512156757526, 0.7597839657203862, 0.8935867529718622, 0.877076874596652, 0.8327490411069698, 0.8430422169541933, 0.8435601809152362, 0.7984885433181939]</t>
@@ -3673,7 +3673,7 @@
     <t>[0.9051316345434807, 0.8627142475731246, 0.6344108397774936, 0.7061486008281609, 0.9370036760758544, 0.9404711542749109, 0.8117597128765558, 0.8404644342888014, 0.6641745162855862, 0.8483706310300623, 0.8417316651647567, 0.8890727532285565, 0.7780922841275976, 0.8688033753390514, 0.8946597906178374, 0.8377999705562104, 0.8078379232725601, 0.8541939925847812, 0.8618540190230838, 0.8195782310112202, 0.785575371800543, 0.845112598359943, 0.8174433546074361, 0.7156054715763249, 0.8662753288485776, 0.8507070848629077, 0.7768042920565545, 0.901426463774756, 0.800626892818743, 0.8027991936006043, 0.7446430289294454, 0.8945660971913352, 0.8032585418490444, 0.8015092695831088, 0.8391290198574801, 0.837979232084449, 0.7154148078596647, 0.8650135188064043, 0.8280300155213212, 0.8230504180701814, 0.8664095030645084, 0.8001298182238294, 0.9077092678946086, 0.8825594190532615, 0.8873979671547624, 0.8812132485575572, 0.8240915917480409, 0.8685479334517023, 0.8042194978778769, 0.7765676833380828]</t>
   </si>
   <si>
-    <t>[0.9245082449089662, 0.860671492877197, 0.6252721957058555, 0.8021692793248303, 0.9440720418426791, 0.8670644243647705, 0.8533644095749844, 0.8995937168745235, 0.6378819016965959, 0.8730498094574295, 0.8491926462896937, 0.8993951323036363, 0.8093112053660013, 0.8625629145937277, 0.9201099716179316, 0.8951555328822198, 0.8345579968981525, 0.8881560576085303, 0.8529847939764119, 0.9052548691231213, 0.8190637097464097, 0.8349910520265433, 0.8550398219153063, 0.7916176587557029, 0.9124162740773176, 0.8583409030359057, 0.8437645219063241, 0.925990324388929, 0.9199632610921149, 0.8383730598198125, 0.8948848375861868, 0.8942602413620551, 0.8426566616961019, 0.7776648661414554, 0.828099534528418, 0.8565235211048676, 0.7898832746978072, 0.8841702127427241, 0.8984320906933305, 0.8583140148391549, 0.8850803026106365, 0.8235100676205318, 0.910567915235327, 0.8715669149684017, 0.8963454315093986, 0.8972232444576846, 0.8150706002805534, 0.8961766648541655, 0.8355875919814257, 0.8404994658582365]</t>
+    <t>[0.9295994201204634, 0.8641927889112455, 0.6338072204388332, 0.8064808356319568, 0.9220679006121801, 0.8758991309167912, 0.8248815093845066, 0.9252678458730118, 0.6279099737159939, 0.8678655086784681, 0.8591636423163262, 0.9030363405925664, 0.8102167802292528, 0.8800643259355133, 0.917401129412428, 0.8958308866469131, 0.8920139629725824, 0.8952160692571549, 0.8423616518781512, 0.8794127537435783, 0.8039929707350295, 0.822134267370429, 0.8635741015425416, 0.7836772413698923, 0.9099647519816113, 0.8156815886401527, 0.8243596951031438, 0.8899459950958396, 0.9162278517098629, 0.8216158940976137, 0.891544175718508, 0.8987828417075633, 0.8247964460313403, 0.814393558053164, 0.8379691124197786, 0.8455391806461564, 0.7876153862540443, 0.8712539804022736, 0.899911784259257, 0.8390846046481073, 0.879923178401301, 0.8118753431122065, 0.9000576908915363, 0.8638871676949781, 0.8995246382070896, 0.9011908886429592, 0.8074697195439599, 0.8864733402668792, 0.8337052924731694, 0.8558152760534752]</t>
   </si>
   <si>
     <t>[0.9418740387860483, 0.8628440492042543, 0.7623231638080317, 0.8402086473275217, 0.9117746968005253, 0.8664929078856807, 0.7499820223323741, 0.933492600377038, 0.7304878361496419, 0.9377875217808027, 0.8667853724060133, 0.9289710301192395, 0.8765683299284781, 0.8563025591477293, 0.922268841151586, 0.9235391420077597, 0.6930211198369909, 0.8810831758846057, 0.8495615111803184, 0.9213435779492052, 0.8601099128808319, 0.8657152848820113, 0.8673447071472971, 0.7953356748960518, 0.921514083369442, 0.8557992680789515, 0.855620034496837, 0.9265526719918935, 0.8968559016474429, 0.8644491465675291, 0.8265153844471314, 0.8973061103017476, 0.9106419788818314, 0.7985571896343909, 0.8850816077892167, 0.8485870788146233, 0.8421983717802437, 0.854316432971848, 0.8613588460818733, 0.8645843718003822, 0.8920921523965899, 0.7944556706740746, 0.9323642378108028, 0.8920796226832282, 0.8936375864294724, 0.9133433014390916, 0.7748454516413671, 0.9059592239866112, 0.8889957266481434, 0.8428049187987505]</t>
@@ -3691,7 +3691,7 @@
     <t>[0.9215207804494686, 0.8309344276527584, 0.689732868540964, 0.7380892253524209, 0.8974383490313158, 0.9103394927666579, 0.7816527645577249, 0.8774888334141736, 0.5632787947822137, 0.8270750564529743, 0.848175087171684, 0.903002145717822, 0.7743062611773288, 0.8580919937662278, 0.9073562088586216, 0.898835770368867, 0.8274692310970015, 0.8935441846175498, 0.8072256568188225, 0.8366571902950106, 0.7893043424834707, 0.7512107324876389, 0.8349949733902547, 0.6701251687052161, 0.854912052808066, 0.8281303590462623, 0.8020997535610489, 0.9000477849932573, 0.8872845753562143, 0.7836929199224528, 0.7487523721897629, 0.8861081367139222, 0.7981536003197334, 0.8648538472442676, 0.8112977453039845, 0.83569246946491, 0.7549356888648908, 0.8967107621726305, 0.8166686668822264, 0.8200699003194407, 0.8452535823453559, 0.7684374658120761, 0.8732589301686002, 0.8855663343612392, 0.8850176644932135, 0.901811113532153, 0.7634608691867767, 0.8752286100677144, 0.8005850851608405, 0.794628924200284]</t>
   </si>
   <si>
-    <t>[0.9399398435121746, 0.8699091572908741, 0.6932478002965543, 0.7615003018594452, 0.9325872242344403, 0.9222028919711583, 0.8231379454849224, 0.9120996372195005, 0.58935416467489, 0.8827531016668322, 0.867712695037986, 0.9009368401852617, 0.8070711304912823, 0.8652724505263982, 0.9125275304275176, 0.9256532910716933, 0.8734643174853397, 0.9108003931988151, 0.8337596354331157, 0.871873160528466, 0.867939483620735, 0.821585659957814, 0.8547590485595602, 0.7817460766515585, 0.8997498377335678, 0.8191280079534646, 0.81831272243974, 0.9251119457396861, 0.9190490146269096, 0.8196536462385584, 0.8901626571341259, 0.893764296625759, 0.8176061395818028, 0.7999417029902985, 0.8552418908536208, 0.8463964167805145, 0.8020353799635955, 0.8574070342749474, 0.8683987394588457, 0.8205506478255353, 0.8771831536717959, 0.8085481424521168, 0.8736412123748145, 0.8910871009686191, 0.8913911849654848, 0.8958583968577778, 0.8187992154355461, 0.880127494476531, 0.8200565202865829, 0.8565161440852788]</t>
+    <t>[0.9409943431837228, 0.8717258971195745, 0.6846485925944044, 0.7767148884389065, 0.9257526914129303, 0.9303871527054306, 0.8072557829346618, 0.9194210629532515, 0.620935833541951, 0.8654293680892582, 0.8682956658182599, 0.8924055318610673, 0.8127370984326953, 0.8628658039930307, 0.9240807981291159, 0.9163194863960917, 0.8306595389073741, 0.9149464111315462, 0.8485601788958266, 0.8751260263065613, 0.8653776453178197, 0.8155116332591533, 0.8516567052693016, 0.7771769141463004, 0.9067785764636075, 0.8154430333301692, 0.8131835890097254, 0.9304348366247461, 0.9280737120262552, 0.8009580372910559, 0.8707622529823303, 0.8774185415565606, 0.8122887918935078, 0.7797070258125898, 0.860833959785924, 0.8428879119295654, 0.7923767169282221, 0.8581179687601551, 0.8494269984449654, 0.8291960838858324, 0.8739773299576721, 0.8106098258430794, 0.9015346022860145, 0.8778246311480726, 0.8910049244856513, 0.8858190623438119, 0.8267524584154611, 0.8873446699527392, 0.8326646789606151, 0.8426063016512603]</t>
   </si>
   <si>
     <t>[0.9437120057713281, 0.8657851818252879, 0.7452108511178409, 0.775383663813445, 0.9219276958642137, 0.9275812177778102, 0.616691682725538, 0.8874712560554071, 0.6557520108723793, 0.9238319778587523, 0.8382269654205201, 0.9320118568459266, 0.8116639338095446, 0.9184389366716368, 0.9205344143612961, 0.9242384467218786, 0.7503102075460645, 0.8813672784466311, 0.8417573782806229, 0.9032360029960724, 0.873350663566744, 0.9161330450230794, 0.8702742818067387, 0.7611576471987564, 0.8795716696632451, 0.7946698180939777, 0.8661507081944018, 0.941238727583505, 0.9063460813624837, 0.8596768420514499, 0.8442341226507614, 0.8963956133876928, 0.7843339738824573, 0.7982872877432378, 0.8894228954275432, 0.8089355384542722, 0.7800102647153714, 0.8583201194778656, 0.8644476189002978, 0.8600196959259032, 0.9055250047429759, 0.8713415996854135, 0.8913731341271867, 0.9401082050711732, 0.910345929223575, 0.9193707363210926, 0.7710388802652794, 0.8821242309680131, 0.852721790236342, 0.8081763048007535]</t>
@@ -3703,13 +3703,13 @@
     <t>[0.9106527738012478, 0.8671170286410871, 0.6807011686280244, 0.7283648918831316, 0.9324266739249425, 0.9254595635965, 0.8836114263559605, 0.9172736552595223, 0.6521322613874201, 0.8494320483774755, 0.9292011429070609, 0.8484243616426872, 0.8247128425733282, 0.8339248430568272, 0.9068144035476681, 0.9338776015062966, 0.829310889816663, 0.8888557805691546, 0.8805458943374238, 0.8670269156752661, 0.9041005284090484, 0.6944589125187807, 0.8447485260085413, 0.7037639091148451, 0.8884773366880072, 0.8604123621551281, 0.840420087832575, 0.9312273491743841, 0.8857245680700256, 0.8496576000285697, 0.8031474762962522, 0.9112489112634138, 0.8189753969634217, 0.7466954706704934, 0.8897516958333422, 0.8008282554151799, 0.8181141124571399, 0.883622344021763, 0.8265641311213188, 0.8630756516371011, 0.8383187919959391, 0.7146815305606964, 0.879438909277173, 0.9177008558629449, 0.7654791964444503, 0.9309938767394326, 0.7148940804868257, 0.8449327270630489, 0.8582567071540692, 0.8636002172709893]</t>
   </si>
   <si>
-    <t>[0.9093409723923223, 0.7521841177960773, 0.6520794310536379, 0.7865688112543581, 0.9124867549692743, 0.9465206229357938, 0.7585905678583887, 0.8933373290349287, 0.5663974019262021, 0.8651005038329546, 0.8783532674680546, 0.8861698761739083, 0.7980691127095818, 0.8328795648247693, 0.8148585285883169, 0.9017077007367605, 0.7654443945321509, 0.8860547112744102, 0.8815850818092286, 0.9111852545626242, 0.8542394412551121, 0.8463924163771492, 0.797896961800955, 0.5929542682467239, 0.9255360519478817, 0.8062455267898841, 0.8014075828180145, 0.9010225725178665, 0.9334291532125336, 0.849311389385355, 0.8466779729761975, 0.8519386951220056, 0.8198721306627008, 0.8295956356464532, 0.8115536135203498, 0.8828800433646202, 0.8049105565190738, 0.8828766164394126, 0.905748947712202, 0.7730052401330865, 0.8832594589405471, 0.696732249891924, 0.8690145223163263, 0.9234559735635586, 0.7696465925715599, 0.8829114633412406, 0.7151585845558343, 0.8861439111969377, 0.8607565851546688, 0.9208975725524798]</t>
+    <t>[0.9093409723923223, 0.7521841177960773, 0.6520794310536379, 0.7865688112543581, 0.9124867549692743, 0.9465206229357938, 0.7585905678583887, 0.8933373290349287, 0.5663974019262021, 0.8651005038329546, 0.8783532674680546, 0.8861698761739083, 0.7957738845957167, 0.8328795648247693, 0.8148585285883169, 0.9017077007367605, 0.7654443945321509, 0.8860547112744102, 0.8815850818092286, 0.9111852545626242, 0.8542394412551121, 0.8463924163771492, 0.797896961800955, 0.5929542682467239, 0.9255360519478817, 0.8062455267898841, 0.8014075828180145, 0.9010225725178665, 0.9334291532125336, 0.849311389385355, 0.8466779729761975, 0.8519386951220056, 0.8198721306627008, 0.8295956356464532, 0.8115536135203498, 0.8828800433646202, 0.8049105565190738, 0.8828766164394126, 0.905748947712202, 0.7730052401330865, 0.8832594589405471, 0.696732249891924, 0.8690145223163263, 0.9234559735635586, 0.7696465925715599, 0.8829114633412406, 0.7151585845558343, 0.8861439111969377, 0.8607565851546688, 0.9208975725524798]</t>
   </si>
   <si>
     <t>[0.9091171094411623, 0.8222822564411074, 0.5978725415611152, 0.7296499610217221, 0.9306287606333405, 0.9056269286214127, 0.8332127013945452, 0.8819589525446752, 0.5848728916522679, 0.8313068277322252, 0.8517971807624068, 0.8839085339883542, 0.7429246896922657, 0.8929681462029411, 0.9048266444742016, 0.9079725355055932, 0.8255622367987049, 0.7963553024388668, 0.8429921931287578, 0.8176351982461227, 0.714900940780455, 0.7903546582597493, 0.8356239351175893, 0.7499297802077616, 0.8532553551609302, 0.8691126578989976, 0.8086659576427004, 0.9064844532637344, 0.8986169389801721, 0.8444253378173181, 0.7627685705879718, 0.9100363892975705, 0.7700245853812393, 0.8251803101323312, 0.8408183912522775, 0.8265782042297671, 0.6856227579285852, 0.9048992508211865, 0.8573723560869254, 0.7969544286486512, 0.8484976330778561, 0.7526888966807327, 0.921594408829577, 0.8590951330041987, 0.8626192676402776, 0.9012849194532915, 0.8492249397646394, 0.8314793363987723, 0.8460122939470152, 0.7995080838275013]</t>
   </si>
   <si>
-    <t>[0.940704717390826, 0.8593773732644739, 0.641038117263302, 0.764221087911817, 0.9241209297766718, 0.9280055514896547, 0.8879480729518265, 0.9257023544036724, 0.5903205902471071, 0.8362983754306371, 0.8327307325338253, 0.8937842604727397, 0.7957323947775283, 0.8529595255834077, 0.8881443530208722, 0.9183883758418319, 0.906259065078669, 0.8499657350424081, 0.8686197421313191, 0.8750026849249737, 0.8380702477349005, 0.7755909494108675, 0.8332268640800776, 0.7835366393401912, 0.917154408082995, 0.8101367674218816, 0.8001523005288109, 0.9107346907601395, 0.9252073825612714, 0.807790922391934, 0.8794488791516306, 0.912892004175909, 0.8280384486664238, 0.7563223711783675, 0.8514307433383352, 0.8903493446124455, 0.777504084937273, 0.8594836040634277, 0.8672116266689089, 0.804582386283891, 0.8759827796615942, 0.8208556195258997, 0.8940726200809457, 0.8404664916257625, 0.8839510867410827, 0.8915066570560162, 0.8209760356968129, 0.8827845351198487, 0.837958504740826, 0.8598667271518952]</t>
+    <t>[0.9256883468140171, 0.8711921460943579, 0.6052161287548938, 0.7867821035099588, 0.934385653639949, 0.9348722567831922, 0.8767282802639185, 0.9114383526254766, 0.5782312724032026, 0.8408953679002423, 0.8621064423055, 0.8948910423864109, 0.8009578079507687, 0.8591280574320377, 0.8933352586811778, 0.9118774544449038, 0.8632514619031415, 0.8518666290204582, 0.8363069254564459, 0.8836911894459454, 0.8292026755264164, 0.7856204281520665, 0.8436751600463102, 0.7720603011502278, 0.9151384443433394, 0.8011490008506523, 0.819738502521268, 0.9058543274518815, 0.9224601613462724, 0.8071151713413669, 0.8878044620203849, 0.9102820500675318, 0.8088956677610406, 0.7793551121593901, 0.851512586026821, 0.8837199600797148, 0.7616247705759247, 0.8669829983199573, 0.8594216088640503, 0.8008724610011204, 0.8710500470066588, 0.8376307903663015, 0.9082001235558849, 0.8493256764417838, 0.8900468066652649, 0.8958542442323874, 0.8705261481131294, 0.8766729379049328, 0.8332777433538916, 0.8593085451381492]</t>
   </si>
   <si>
     <t>[0.9214373074734012, 0.8384411921024255, 0.6579156443819172, 0.7921002001915913, 0.9458807134263545, 0.8627409762867275, 0.7900945214180912, 0.935989645350861, 0.7136314716770622, 0.8878422310261618, 0.8627584610658263, 0.8531234405146219, 0.8449252908763306, 0.8147801300503336, 0.9147725620801517, 0.9244632252508722, 0.6713697577210808, 0.8452268096243791, 0.8701709403168396, 0.9442894452899447, 0.8606103739601328, 0.8182798093571819, 0.8352066177031195, 0.7345867780554873, 0.9120581963492378, 0.778085694017612, 0.9141472408056964, 0.9516825596548555, 0.918127398701805, 0.8074473942740613, 0.7990922363710219, 0.8777554661279294, 0.8235485125892886, 0.8048211022759018, 0.8850504259164608, 0.8924646475467993, 0.8059851001661551, 0.8383385733734412, 0.8995998113291319, 0.8402167791279063, 0.836232515377799, 0.8674047243268077, 0.8902756201366364, 0.8879083136539689, 0.877497523408211, 0.9096078905793517, 0.7891616223182216, 0.8771379438202639, 0.893228381196701, 0.8689746700997885]</t>
@@ -3721,49 +3721,49 @@
     <t>[0.8797781558021958, 0.8570630971748544, 0.783967946639158, 0.8292309868217062, 0.8741879134703765, 0.8532263733934979, 0.8547376697394233, 0.8385757626951316, 0.6910522886891253, 0.9054808509815583, 0.8521530413170093, 0.7700711729430194, 0.8539427790709504, 0.7158533130684381, 0.8865956468843363, 0.9147880383896418, 0.8388983987327231, 0.8475008874306956, 0.8540437203522018, 0.8871314123164343, 0.8627570427439961, 0.7761407958083749, 0.8599427488539294, 0.5896781030482582, 0.9116700736677964, 0.8747258963271963, 0.8244854771690417, 0.8578411304940239, 0.9200651790313369, 0.7326620146602427, 0.823366781151655, 0.8818642593141445, 0.8931352050705579, 0.7504230801359496, 0.9081224936193235, 0.8418580222953471, 0.7348803173289451, 0.9008090966417237, 0.8321556154820613, 0.9259591575211084, 0.8729480704110798, 0.7732388248242841, 0.8890291961124058, 0.7502043936157372, 0.9269290241144594, 0.9252306472549869, 0.8193819636399968, 0.8406231147752431, 0.8006229807882541, 0.6628422056981707]</t>
   </si>
   <si>
-    <t>[0.9251762522608822, 0.826624510452312, 0.7938092802128401, 0.7920661970651102, 0.8073050025110435, 0.9181453616529363, 0.8039389609925217, 0.8600321712418108, 0.682997082527786, 0.8717684240676016, 0.8573578198780345, 0.8603261993890146, 0.7562355712624644, 0.8038100757856859, 0.8341626470559441, 0.8981834676255258, 0.7519293256799618, 0.8331018410587577, 0.8671842849859027, 0.8901268937485864, 0.8225530928978146, 0.773124724867092, 0.8453339929123124, 0.366210192317584, 0.927962860635176, 0.7006819709393615, 0.7633772939373357, 0.8692988194824649, 0.8763065110328095, 0.7935613951926354, 0.7905655900207339, 0.8419366017719754, 0.903431649033187, 0.8597244195052887, 0.9044421274261267, 0.7547341232622876, 0.7991668887639902, 0.8896586955153365, 0.6387429055001959, 0.8580685047837879, 0.8827655991323208, 0.7673171136647695, 0.848708798698581, 0.6587655381003787, 0.8861437686261274, 0.8848513248375169, 0.7288166185599745, 0.8356399383324309, 0.8463824759016852, 0.5838470173096509]</t>
+    <t>[0.9251762522608822, 0.7951117550767244, 0.7938092802128401, 0.7920661970651102, 0.8073050025110435, 0.9261511813389409, 0.8039389609925217, 0.8600321712418108, 0.682997082527786, 0.8433739350371295, 0.8573578198780345, 0.8603261993890146, 0.7562355712624644, 0.8038100757856859, 0.8341626470559441, 0.8869667125114072, 0.7519293256799618, 0.8331018410587577, 0.8671842849859027, 0.8901268937485864, 0.8225530928978146, 0.773124724867092, 0.8404679214874071, 0.366210192317584, 0.927962860635176, 0.7006819709393615, 0.7633772939373357, 0.8692988194824649, 0.8763065110328095, 0.7935613951926354, 0.7425719521333265, 0.8419366017719754, 0.903431649033187, 0.8597244195052887, 0.2362852535077311, 0.7547341232622876, 0.7991668887639902, 0.8896586955153365, 0.6387429055001959, 0.8580685047837879, 0.8827655991323208, 0.7673171136647695, 0.848708798698581, 0.6587655381003787, 0.8861437686261274, 0.8848513248375169, 0.7288166185599745, 0.8356399383324309, 0.8463824759016852, 0.5838470173096509]</t>
   </si>
   <si>
     <t>[0.9065097630330918, 0.8682280965590106, 0.7911190243690676, 0.7756765562719421, 0.8974014329564929, 0.9067894105798836, 0.8630751732328176, 0.8456071227188453, 0.7032247506934705, 0.9127573028168436, 0.8694035478093499, 0.8469937269254895, 0.8520000309018154, 0.8120325720055647, 0.9036911837444515, 0.940189961002958, 0.8733110156694126, 0.851841048890227, 0.8266818520156061, 0.8740801330536897, 0.8698739392592616, 0.8390468109553464, 0.8681047343926609, 0.6335039467009783, 0.9412402580694613, 0.8889642713593808, 0.79919906235108, 0.9064436981417945, 0.846329622740527, 0.8200899274121727, 0.8262484884860039, 0.8954457873655733, 0.8907388230829729, 0.8080084035402162, 0.9141990190228793, 0.8786053027282075, 0.7364563551694372, 0.8893749226840593, 0.8440682457780642, 0.9439266204767532, 0.8797831656684514, 0.7744580177803639, 0.9033840947527388, 0.851889555168015, 0.9261866467338169, 0.9469210871842066, 0.874620650672166, 0.8698382576634269, 0.8482788503378809, 0.71464957968012]</t>
   </si>
   <si>
-    <t>[0.9127201180459559, 0.8690570453089534, 0.6660512026929986, 0.8185833529573555, 0.9399591983239435, 0.9532836479037967, 0.8805107714016458, 0.8876919642493848, 0.6088008543174254, 0.8631814252984793, 0.8761653323076111, 0.9043766013173495, 0.8427715359466311, 0.8616892102570559, 0.9136675783188719, 0.9195906584340791, 0.9048648920551811, 0.8791185289717758, 0.8471586668513202, 0.8736590909315748, 0.8641944559908994, 0.8403064193781622, 0.8395491155128005, 0.7455560942995352, 0.9237496032613812, 0.8252376238212419, 0.8142673485567735, 0.9121505506952527, 0.9441081661937336, 0.8390332939719514, 0.8356877666588924, 0.9087658929141915, 0.851093623181187, 0.7814189741966039, 0.8670438986046092, 0.8095119774992257, 0.8119499136210215, 0.8679111601201865, 0.9052274241831089, 0.8621189017040862, 0.8830908157660982, 0.8711156648415859, 0.8722327834484118, 0.8332829459871794, 0.891866030118516, 0.9134676949500741, 0.8634412454461223, 0.8742134361988991, 0.8406505213902592, 0.8627062687304308]</t>
+    <t>[0.9157076083482458, 0.8696732661140387, 0.6535132380964738, 0.8222808645344822, 0.927951656944372, 0.9477165942331272, 0.8661708132627436, 0.9299983236245001, 0.6245224191113494, 0.8617896409324358, 0.8736269012092474, 0.9196257366171534, 0.8387435649510538, 0.8765359660182199, 0.9065923517301164, 0.9111371350420078, 0.8116618675600074, 0.8713173768906075, 0.8393320327155458, 0.8717777307035248, 0.8673504836690931, 0.8446124773999736, 0.8534383081878545, 0.7658159874501542, 0.9312699630587894, 0.852127465175921, 0.8254342706315714, 0.8937012806530439, 0.9392761152917471, 0.8245408897972004, 0.8295953467331286, 0.9059072295501516, 0.8660376552111728, 0.8223893523402732, 0.8638998495898185, 0.824257368606526, 0.8080768472201676, 0.8889094862126917, 0.9101874974817082, 0.8495037685699487, 0.883825212302259, 0.860089850207823, 0.8992779485766172, 0.8252861191321982, 0.897770022939635, 0.8973666413181257, 0.871346652647806, 0.8737407725285137, 0.8445447166751182, 0.8640769199911181]</t>
   </si>
   <si>
     <t>[0.9484902221503767, 0.8883495084477091, 0.6876108161566623, 0.8257996369000479, 0.9594231365661361, 0.9353339076672171, 0.879708582666939, 0.9034900595983157, 0.6943256469223598, 0.923122373443199, 0.9050538865755875, 0.9186498624999083, 0.8606862949348975, 0.8992001143162187, 0.9281550785357995, 0.9362848275769455, 0.8044979364415306, 0.8768099497934101, 0.8862391433723883, 0.8561070635583372, 0.9038298417585839, 0.841403534149908, 0.8817671818258226, 0.7961793828250239, 0.9542791456387709, 0.7772790340184352, 0.8873642837864413, 0.9324677180098666, 0.9224739988226225, 0.8248262094671741, 0.8859822443368088, 0.9484834259789021, 0.8953237628541351, 0.8624054584045835, 0.8876881763295044, 0.8677384527171111, 0.8023824837547786, 0.8961605706921931, 0.9151749623793091, 0.9211200093777224, 0.9202507047625873, 0.8915240103106179, 0.8656147212541363, 0.8197669345238541, 0.9074799709581708, 0.9042338767565969, 0.8199809111601707, 0.8651086839808876, 0.8985325751182294, 0.7878623283174276]</t>
   </si>
   <si>
-    <t>[0.8243421410772425, 0.7880002933487682, 0.5765295485654934, 0.7511862983269779, 0.8103018143782887, 0.9092160624793404, 0.7541467342568235, 0.792675325218396, 0.6070129174211669, 0.6973671678068745, 0.7627825727229129, 0.8010477454474982, 0.8154227615143153, 0.7252482065807498, 0.735322424955526, 0.8261114576875775, 0.8083850911148015, 0.7817162136156559, 0.746177082781953, 0.8132290679999802, 0.7094569016729724, 0.7289311710438653, 0.7482803048008562, 0.5659819533419908, 0.7593404826779426, 0.6322599883903466, 0.6344808413006792, 0.7799184722742615, 0.8770622977728134, 0.6464303918370301, 0.5831213565578135, 0.8567387120738431, 0.8881643800824525, 0.6763883966233064, 0.7402013240891866, 0.6560487171775176, 0.5245783161737498, 0.8281661415342667, 0.6336298658645698, 0.7293990915597492, 0.8205422608251507, 0.6780951361920726, 0.7753189745524204, 0.7509223393620524, 0.7826766046683495, 0.8839988653431888, 0.609202517293703, 0.7561013798861931, 0.7418187405546182, 0.6867413147613802]</t>
+    <t>[0.8243421410772425, 0.7880002933487682, 0.5765295485654934, 0.7511862983269779, 0.8103018143782887, 0.9092160624793404, 0.7541467342568235, 0.792675325218396, 0.6070129174211669, 0.6973671678068745, 0.7627825727229129, 0.8010477454474982, 0.8154227615143153, 0.7252482065807498, 0.7353224249555268, 0.8261114576875775, 0.8083850911148015, 0.7817162136156559, 0.746177082781953, 0.8132290679999802, 0.7094569016729724, 0.7289311710438654, 0.7482803048008562, 0.5659819533419908, 0.7593404826779426, 0.6322599883903466, 0.6344808413006792, 0.7799184722742615, 0.8770622977728134, 0.6464303918370301, 0.5831213565578135, 0.8567387120738431, 0.8881643800824525, 0.6763883966233064, 0.7402013240891866, 0.6560487171775176, 0.5245783161737498, 0.8281661415342667, 0.6336298658645696, 0.7293990915597492, 0.8205422608251507, 0.6780951361920726, 0.7753189745524204, 0.7509223393620524, 0.7826766046683495, 0.8839988653431888, 0.6092025172937048, 0.7561013798861931, 0.7418187405546182, 0.6867413147613802]</t>
   </si>
   <si>
     <t>[0.8797636341640921, 0.840155966437085, 0.552169260103892, 0.7661005506669889, 0.9365787951800447, 0.903157105338914, 0.8738751357157999, 0.6504541206080703, 0.6749152935402547, 0.866154721978061, 0.6630017500916179, 0.8560709075601564, 0.7820939184268552, 0.8539915096636853, 0.8929910776662955, 0.8956307032765216, 0.8222722058710468, 0.6601523182078801, 0.8445153435813235, 0.8151252521270872, 0.8930239270417082, 0.7064137112892931, 0.8478624192492958, 0.629888066398693, 0.8319565998336959, 0.8734110201534623, 0.8451521638698003, 0.9153719762551358, 0.8657264754966132, 0.8553611615190785, 0.7905433336382317, 0.8833006263812084, 0.814820282171457, 0.5643963721834628, 0.8795852411917324, 0.4940174851412324, 0.7032059568207647, 0.8969178793566575, 0.87493674344244, 0.8633230319061933, 0.8360398776179756, 0.7944622489771406, 0.7776249234053948, 0.7527169653645343, 0.8044556563602903, 0.8742305696851518, 0.7318497128273526, 0.8278985584000786, 0.8530511690156786, 0.5628656642736645]</t>
   </si>
   <si>
-    <t>[0.9358927883332642, 0.8009245702737201, 0.8398651521933809, 0.8342046002532016, 0.887722616753669, 0.9202032548945394, 0.8002749446444228, 0.8972769047847304, 0.7480534880340686, 0.8661382122053762, 0.863247242635111, 0.7976835358112662, 0.8719633715518925, 0.838460564003308, 0.8977048715273364, 0.8748541236376364, 0.7786574687836216, 0.8920744505149335, 0.8755101399897781, 0.8846581350446729, 0.8039164827629015, 0.8015836848433836, 0.8505984921666166, 0.6183216867333378, 0.921692913947764, 0.7824987775418786, 0.8351913648126313, 0.8749240649811805, 0.8981995283511531, 0.8222499616895202, 0.8758513629944539, 0.8302358751802286, 0.8893910302588861, 0.856085516091929, 0.8107306439078391, 0.8459530788585747, 0.8046141508140363, 0.8363898011618027, 0.8799415850743588, 0.9102496591208172, 0.8233947595471712, 0.774309746507502, 0.873121971623304, 0.8994872865254363, 0.8685725966392428, 0.9136256262426247, 0.7340997209877133, 0.852126152544713, 0.8104699069825698, 0.7846339874916323]</t>
+    <t>[0.9358927883332642, 0.876453895172306, 0.8398651521933809, 0.8366718008452594, 0.887722616753669, 0.9202032548945394, 0.8002749446444228, 0.8972769047847304, 0.7480534880340686, 0.8661382122053762, 0.863247242635111, 0.7976835358112662, 0.8719633715518925, 0.838460564003308, 0.8977048715273364, 0.8748541236376364, 0.7786574687836216, 0.8920744505149335, 0.8755101399897781, 0.8846581350446729, 0.8039164827629015, 0.8015836848433836, 0.8505984921666166, 0.6183216867333378, 0.921692913947764, 0.7824987775418786, 0.8351913648126313, 0.8749240649811805, 0.8981995283511531, 0.8222499616895202, 0.8758513629944539, 0.8302358751802286, 0.8893910302588861, 0.856085516091929, 0.8107306439078391, 0.8459530788585747, 0.8046141508140363, 0.8363898011618027, 0.8799415850743588, 0.9102496591208172, 0.839214434164933, 0.7396559466448125, 0.873121971623304, 0.8994872865254363, 0.8685725966392428, 0.9136256262426247, 0.7340997209877133, 0.852126152544713, 0.8104699069825698, 0.7846339874916323]</t>
   </si>
   <si>
     <t>[0.943411514140454, 0.8745641811229488, 0.6020632583939408, 0.7927792639856994, 0.938709687608661, 0.9362914027299012, 0.8130779138954405, 0.8194853934839148, 0.7051528411477643, 0.8472309041470656, 0.8492986501132834, 0.8595901586579802, 0.7900353798773322, 0.8960980255444322, 0.9017125631967354, 0.8823953249070513, 0.7934850993445972, 0.8854649181630547, 0.8209022279144553, 0.8023232887732099, 0.7992697007133757, 0.7074236267159657, 0.8234951702643469, 0.6690305178316317, 0.8878926516197491, 0.8517515649472698, 0.7695977072940164, 0.8950209683977942, 0.901328096572714, 0.7979772348499143, 0.7667471713693224, 0.9249920136361671, 0.8264373193533399, 0.7848328921962233, 0.8211265293094672, 0.8301791830474506, 0.686279691305506, 0.8716590032387829, 0.8376879634822438, 0.8373895198592611, 0.8666202352954522, 0.7944706128106014, 0.9040498527806544, 0.8453978041937843, 0.853564193089968, 0.9010271787188568, 0.8014888212166205, 0.8671452557665715, 0.7978709137936667, 0.8206628358451578]</t>
   </si>
   <si>
-    <t>[0.9156074135019323, 0.8668016290718371, 0.6458104622372105, 0.8119691209760038, 0.9372094095705039, 0.9449182071826977, 0.8566219093886899, 0.9216360172145327, 0.5888953110969787, 0.8953318700089097, 0.8538129684955053, 0.9048532523330933, 0.8081695239597344, 0.8926475211449048, 0.8988078236040025, 0.8830652733105336, 0.8156871979415419, 0.8656697908023283, 0.855569052774142, 0.8580302551965399, 0.8166740886070323, 0.8336065767567242, 0.8653793359570294, 0.7288743725369295, 0.9264881363799347, 0.7827838964121728, 0.8495282726631952, 0.9117936386205571, 0.9244309312957122, 0.8632277755877633, 0.8667668689620371, 0.9200177544989129, 0.8651288233630816, 0.7999538098002533, 0.8480902638469785, 0.8379886870052564, 0.7873429651714761, 0.8761257063941494, 0.8493209511653877, 0.8375706880589595, 0.8953209707394976, 0.8276619177503468, 0.9140989872489063, 0.8188949882752623, 0.877033466212835, 0.9150817116816685, 0.7962517771048013, 0.868012522856316, 0.846448584175066, 0.860536309935778]</t>
+    <t>[0.9089466818952217, 0.8782283911972444, 0.6520432120116708, 0.7952438281252967, 0.9365778506506292, 0.9458752975406647, 0.8707306830151683, 0.9269444273187453, 0.604005639149587, 0.8862828904383933, 0.8809773664625733, 0.9172793078500379, 0.8199275561060707, 0.8943210727745559, 0.9050898710923261, 0.8904825068671572, 0.8187327721504993, 0.8703865535040858, 0.850468355397287, 0.8641258575020564, 0.8226826837106327, 0.8271704468937532, 0.8633147292051413, 0.7614704142376757, 0.908727589619151, 0.7844527870906435, 0.8400499020008929, 0.9129189377159803, 0.9185724841830707, 0.8575048146533828, 0.8594877904324939, 0.9242548894837472, 0.865153394413541, 0.816081568691549, 0.8491510944765303, 0.8497643661620963, 0.8512172312658561, 0.9009345232159891, 0.8477997056479567, 0.870791952028665, 0.9005242443346498, 0.8131207946859264, 0.9197216795205141, 0.8219251183973346, 0.887546114261885, 0.9109540872706084, 0.7905265979206326, 0.8750403634243274, 0.8440362949258351, 0.8765180747510712]</t>
   </si>
   <si>
     <t>[0.943453890455064, 0.8740754735508116, 0.6697265852504318, 0.8232216359127604, 0.9519820825710512, 0.9487152959625584, 0.889768142727396, 0.9382133485115158, 0.6561519079741523, 0.9215424128292763, 0.8921360752317725, 0.9213543142021847, 0.8472682692898923, 0.9108540634119235, 0.9402799191445999, 0.927198183016086, 0.735825789824931, 0.8777783066575153, 0.8818663260715128, 0.8841428669426404, 0.8880772789882045, 0.8906795647634169, 0.8806565412396674, 0.6483688388285564, 0.9365784975684845, 0.8289013395296263, 0.885235065339242, 0.924490027151777, 0.923376799647734, 0.8588079126821561, 0.8952073811515799, 0.9343072959437908, 0.8880200674266608, 0.8900179787029197, 0.8818161745182811, 0.819221021517504, 0.8781699987606366, 0.8930621993387771, 0.8856265715826385, 0.9005060400393614, 0.8607735883004677, 0.6539867586632362, 0.9323776556108526, 0.8642496209551623, 0.9224519475270843, 0.9248783665913507, 0.6337198344398276, 0.8011787242459165, 0.8522163965710532, 0.8670434254948969]</t>
   </si>
   <si>
-    <t>[0.7707891037315282, 0.7678880346385475, 0.5853913443113715, 0.6899316727412483, 0.7941465377747601, 0.872131557086022, 0.8257430725345472, 0.8140632340929849, 0.6399467011141006, 0.7439448466200904, 0.8370760066744214, 0.6815974963784849, 0.7643596520800054, 0.770005132448788, 0.7661485335716005, 0.8410743478231251, 0.765858649854805, 0.7602737367903296, 0.6617808099159016, 0.8287728472137732, 0.7599817037908274, 0.7271475260480595, 0.8232209770993693, 0.5631755071911722, 0.7331447765772521, 0.7220882741501253, 0.6759621003485589, 0.8238937961706367, 0.8510882689271871, 0.6901486844821784, 0.7609632331967838, 0.8797030412830456, 0.8140007916066537, 0.7581754954554419, 0.7260613884355906, 0.7468670769513681, 0.59935563905423, 0.8278220004963788, 0.8429665929541972, 0.7769756524139612, 0.7856364355968463, 0.686375455628917, 0.8178945337056251, 0.7515656914326886, 0.753630044117262, 0.9086495602446781, 0.7093497859774975, 0.7793675034344159, 0.7660270850607807, 0.6701247698967243]</t>
+    <t>[0.7707891037315282, 0.7678880346385475, 0.5853913443113715, 0.6899316727412483, 0.7941465377747601, 0.872131557086022, 0.8257430725345472, 0.8140632340929849, 0.6399467011141006, 0.7439448466200904, 0.8370760066744214, 0.6815974963784849, 0.7643596520800054, 0.770005132448788, 0.7661485335716005, 0.8410743478231251, 0.765858649854805, 0.7602737367903296, 0.6617808099159004, 0.8287728472137732, 0.7599817037908274, 0.7271475260480595, 0.8232209770993693, 0.5631755071911722, 0.7331447765772521, 0.7220882741501253, 0.6759621003485589, 0.8238937961706367, 0.8510882689271871, 0.6901486844821784, 0.7609632331967838, 0.8797030412830456, 0.8140007916066537, 0.7581754954554419, 0.7260613884355906, 0.7468670769513681, 0.59935563905423, 0.8278220004963788, 0.8429665929541972, 0.7769756524139612, 0.7856364355968463, 0.686375455628917, 0.8178945337056251, 0.7515656914326886, 0.753630044117262, 0.9086495602446781, 0.7093497859774975, 0.7793675034344159, 0.7660270850607807, 0.6701247698967243]</t>
   </si>
   <si>
     <t>[0.9042111406496927, 0.8146841264981909, 0.6586308111243775, 0.7565807500480491, 0.9328056571720635, 0.9051204928780863, 0.8673387169989558, 0.8845412081999535, 0.5958308111569953, 0.7792675162295002, 0.8439343138420047, 0.8766145225824136, 0.8046029663009375, 0.8266535947477608, 0.9104152647386993, 0.9087168100069651, 0.7449545841517418, 0.6601523182078801, 0.8614985915053537, 0.9240809065055433, 0.7896998382250959, 0.7450412785474502, 0.8449977501100334, 0.7473522332704259, 0.9188006654353054, 0.7091692366108303, 0.7993820155066611, 0.9234334913810979, 0.8714919306239512, 0.8042847923547775, 0.7727899838584734, 0.8732580887086255, 0.8185259807149936, 0.5643963721834628, 0.8503563544487607, 0.784005200425556, 0.702488937590884, 0.8794799850025417, 0.8663150834827549, 0.8667161147567253, 0.8042987500005093, 0.7471245641796194, 0.6783776056527262, 0.765248140582703, 0.8302067433269797, 0.9191444076863726, 0.8147346997957912, 0.8776923110856996, 0.8391716345513525, 0.7379159983639451]</t>
   </si>
   <si>
-    <t>[0.9083329088517393, 0.7758511628982203, 0.7094377065538886, 0.7093821449687052, 0.9244236128837363, 0.9176428772791607, 0.8030090860968511, 0.8917182086648325, 0.5544128988144756, 0.8459904601116008, 0.8521792508046349, 0.9147905835463919, 0.7862811228500606, 0.8098486075892649, 0.8020420516044688, 0.8925796234777363, 0.7671533418032934, 0.8635830642141237, 0.8766022036693305, 0.9005475412958924, 0.8843287679673423, 0.7739280825227569, 0.8386769229837473, 0.6169461760339467, 0.9176656850259224, 0.7199537275644915, 0.7679994279160065, 0.9315916254753774, 0.8892991389673378, 0.800581593314899, 0.7282310047422497, 0.8198125780799856, 0.8055219875157915, 0.8311808329004451, 0.733009954091997, 0.7783913898837311, 0.822672708406293, 0.8761289491839162, 0.7741632354834425, 0.8168267279590203, 0.7879973872764262, 0.8185140957654752, 0.8653507897302819, 0.8535800932839313, 0.8821587999533589, 0.9013018238385555, 0.7436698282933032, 0.8571151562638928, 0.8187930221958042, 0.8765425649468173]</t>
+    <t>[0.9083329088517393, 0.7758511628982203, 0.7094377065538886, 0.7093821449687052, 0.9244236128837363, 0.9176428772791607, 0.8030090860968511, 0.8917182086648325, 0.5544128988144756, 0.8459904601116008, 0.8521792508046349, 0.9147905835463919, 0.7862811228500606, 0.8098486075892649, 0.8020420516044688, 0.8925796234777363, 0.7671533418032934, 0.8635830642141237, 0.8766022036693305, 0.9005475412958924, 0.8843287679673423, 0.7739280825227569, 0.8386769229837473, 0.6169461760339467, 0.9176656850259224, 0.7199537275644915, 0.7679994279160065, 0.9315916254753774, 0.8892991389673378, 0.800581593314899, 0.7282310047422497, 0.8198125780799856, 0.8055219875157915, 0.8311808329004451, 0.733009954091997, 0.7783913898837311, 0.822672708406293, 0.8761289491839162, 0.7741632354834425, 0.8168267279590203, 0.8367819209713133, 0.8185140957654752, 0.8653507897302819, 0.8535800932839313, 0.8821587999533589, 0.9020272264722494, 0.7436698282933032, 0.8571151562638928, 0.8187930221958042, 0.8765425649468173]</t>
   </si>
   <si>
     <t>[0.9158056584926566, 0.8669768605261845, 0.7381021139560869, 0.6886364164333647, 0.8970687703565929, 0.8884891947462363, 0.8297528666877332, 0.8966170688130195, 0.597234899932239, 0.8272335073924306, 0.8649484550317649, 0.8308277189689773, 0.7746557743754318, 0.8473306216349231, 0.9123236128704117, 0.8933500993046255, 0.7988526038564714, 0.8828310782472258, 0.834728014790096, 0.8879497327426606, 0.7831559360562127, 0.7313672479909852, 0.8489629635619567, 0.7559509625349268, 0.8914466340567699, 0.8491777365938735, 0.8151470656422759, 0.8987474794819998, 0.8467722222048758, 0.758416564469906, 0.770581293363131, 0.8877587515827142, 0.8156181679046706, 0.8418522335974534, 0.8306753337417595, 0.8292258399518843, 0.6871230125850226, 0.9018816169136422, 0.8244212268000917, 0.8301836353385306, 0.8590562703321262, 0.7608208106474978, 0.8757274228893683, 0.6638856633650139, 0.8852173039346047, 0.9126936328511801, 0.8601239470245943, 0.8802299387903192, 0.802529525257047, 0.7560551623251537]</t>
   </si>
   <si>
-    <t>[0.9298310126069913, 0.8508184742490023, 0.7371817231300183, 0.7759237678077202, 0.9293743966634447, 0.9473064661546369, 0.8462131516022984, 0.9148106466489427, 0.5600207439431619, 0.8778870619007809, 0.8544151595138364, 0.8939175644358612, 0.8060469277554205, 0.8510232171873773, 0.9114952548365505, 0.9091422501479286, 0.8001071747945097, 0.8954994061390305, 0.8430495991499266, 0.8594368881178609, 0.8338075450405582, 0.8570589411530467, 0.8547321331023605, 0.7808226810733374, 0.8957117185524159, 0.8056409755129756, 0.8250786822482588, 0.9424677998898139, 0.9136981410061302, 0.8086862737924694, 0.8766346601799926, 0.8804602953748311, 0.7999304287049411, 0.7720669326719487, 0.857204249390153, 0.8166186560369508, 0.8142835040639413, 0.8626780946893862, 0.8519684219111547, 0.8317132627921253, 0.8692021838492132, 0.8000947394092769, 0.9095823783184998, 0.8582097607513064, 0.8922905851114313, 0.8990498614849007, 0.8318127081996375, 0.8847218338124763, 0.8113777794733457, 0.8320420164243874]</t>
+    <t>[0.9342388227193972, 0.8502524293617193, 0.7550390351852574, 0.7663101520581264, 0.9317688661406227, 0.9431684711759281, 0.8306289455119187, 0.9017473583666336, 0.5664211864659884, 0.8805735993717206, 0.8480537622107863, 0.9048046010438917, 0.793699919708942, 0.8501699300354948, 0.9093089132982521, 0.9058947564119301, 0.7909870758187082, 0.9069943457231822, 0.8361025337252874, 0.8571212976875899, 0.8492972803247283, 0.8981844152574275, 0.8655164351008342, 0.7650733316102318, 0.8950387988426993, 0.819141850982561, 0.8217314688250279, 0.9191739832983105, 0.9173940654681703, 0.8201536398993564, 0.860477118861408, 0.8786835657275616, 0.8226973942549547, 0.7903004887297645, 0.8718371527221063, 0.8144264300796077, 0.8130054569849927, 0.8683580944381566, 0.8569203275135632, 0.8249879991076119, 0.8883824875695372, 0.7806566976227387, 0.906909257073282, 0.8589199421891787, 0.8988358865877698, 0.9007968140966448, 0.8282258025380026, 0.8844607467777186, 0.8088480628216128, 0.8603415339615423]</t>
   </si>
   <si>
     <t>[0.9206270194640137, 0.8480402736716853, 0.7776441460576886, 0.818745488954699, 0.9386976190467138, 0.9418221170011583, 0.7973193671368751, 0.9269939346507897, 0.6801790341922813, 0.9201821576528151, 0.8315287005298033, 0.9071794510939519, 0.8182939547942538, 0.8645354393814751, 0.9209732998276194, 0.9217642471771392, 0.8085009786958776, 0.874998960266046, 0.879033236644834, 0.8503739181636034, 0.8606645916914446, 0.8693868749306038, 0.8711858261216812, 0.7443130027812928, 0.9032784422286613, 0.7723156102598749, 0.879189889168773, 0.9433672072398187, 0.8807830077511857, 0.8560236063074644, 0.9259506492121846, 0.8741463636401536, 0.806382486063991, 0.8508576900558849, 0.8913908312876991, 0.8432477730151289, 0.8066410413754999, 0.8774238243161724, 0.8577515230822819, 0.8490899452386504, 0.8813419212733705, 0.8410911245675006, 0.8600983098772488, 0.8853411694651446, 0.9215173101593562, 0.9006918024357253, 0.8294181952357217, 0.8598107469737408, 0.8436549089729584, 0.8089779266006005]</t>
@@ -3775,13 +3775,13 @@
     <t>[0.9137300381878913, 0.8553612867054627, 0.6795030873027219, 0.76737169453554, 0.926916520031899, 0.917286071987126, 0.8877662289434803, 0.6504541206080703, 0.6410089498212447, 0.8523371471156727, 0.9050424480157788, 0.8440648294199328, 0.7666454060467959, 0.815714111958131, 0.7865484309957254, 0.9296748369154472, 0.751172990221258, 0.6601523182078801, 0.8861678993704492, 0.9124523084628373, 0.8519801974836663, 0.7638757557335352, 0.8160464093916484, 0.7568731674188844, 0.9367672095942956, 0.6401164623619106, 0.8417816232620714, 0.9276622115957753, 0.889767737712003, 0.8943901404131614, 0.7877263371375854, 0.89880016920477, 0.8311205100268175, 0.5643963721834628, 0.8853601134995146, 0.8017009963838406, 0.7490149582495682, 0.870496625117249, 0.8997288297841087, 0.8420510777423633, 0.8316864720494368, 0.7465522978630631, 0.879002482880612, 0.8743988638319584, 0.8603059244098205, 0.9140495682387069, 0.8694043598030743, 0.832331623133177, 0.8426615194986937, 0.5628656642736645]</t>
   </si>
   <si>
-    <t>[0.9165698644001102, 0.7961919081682547, 0.6984471832722339, 0.7416901304683381, 0.9161884094582566, 0.9177882935488301, 0.8470279488779671, 0.8948034500422622, 0.642182758557637, 0.858252320650629, 0.8725340052965892, 0.8933254507360663, 0.6299159677073005, 0.8873944673413094, 0.7957633313667807, 0.8936533633453622, 0.8177100810054161, 0.8873318247590499, 0.8708755066184253, 0.8826339182775447, 0.8650999873041182, 0.8175398021937533, 0.8272259536385962, 0.5713977632905093, 0.9273377140458622, 0.7903766153659717, 0.7495987817258057, 0.9267730389917062, 0.9238850667638838, 0.8323880568580295, 0.7534750378456085, 0.7812000734233014, 0.8387551188595084, 0.8281052497222727, 0.5473701750354057, 0.877034517678833, 0.8208444650114566, 0.8868464440605434, 0.9200254669318573, 0.8092323182574014, 0.8658813659577831, 0.8444270596720631, 0.860296832258019, 0.9211506185225433, 0.879407636459149, 0.8614728335269666, 0.7656522221614683, 0.8738381904319148, 0.873663079918434, 0.8705094521318177]</t>
+    <t>[0.9165698644001102, 0.7961919081682547, 0.6984471832722339, 0.7416901304683381, 0.9161884094582566, 0.9177882935488301, 0.8470279488779671, 0.8948034500422622, 0.642182758557637, 0.858252320650629, 0.8725340052965892, 0.8933254507360663, 0.6299159677073005, 0.8873944673413094, 0.7957633313667807, 0.8936533633453622, 0.8177100810054161, 0.8873318247590499, 0.8708755066184253, 0.8826339182775447, 0.8650999873041182, 0.8175398021937533, 0.8272259536385962, 0.5713977632905093, 0.9273377140458622, 0.7903766153659717, 0.7495987817258057, 0.9267730389917062, 0.9238850667638838, 0.8323880568580295, 0.7534750378456085, 0.7812000734233014, 0.8387551188595084, 0.8281052497222727, 0.8123734292657026, 0.877034517678833, 0.8208444650114566, 0.8971627015429892, 0.9200254669318573, 0.8092323182574014, 0.8884282790881883, 0.8444270596720631, 0.860296832258019, 0.9211506185225433, 0.879407636459149, 0.8614728335269666, 0.7656522221614683, 0.8738381904319148, 0.873663079918434, 0.8705094521318177]</t>
   </si>
   <si>
     <t>[0.9361590506174322, 0.8214969523279301, 0.5817954771713307, 0.7524731214804994, 0.9231951993582576, 0.9452686648426382, 0.8277669025206018, 0.9041364536128622, 0.624764050162208, 0.8466623441188312, 0.8472462478139273, 0.8374649861230912, 0.7598101191651829, 0.8888251293067835, 0.9089404076870219, 0.9065854493840758, 0.7923599553892517, 0.8539451298437992, 0.8616460615411118, 0.8582698941543925, 0.7763631911910432, 0.8225130842591113, 0.846306259816096, 0.7324001838762051, 0.8810154515437261, 0.8371433847724647, 0.7236052377853379, 0.896932714084011, 0.9143420589924942, 0.7733619566505481, 0.7535030542857809, 0.9158730316802639, 0.798581851129755, 0.8198852467929317, 0.8269828500747969, 0.8435653586627442, 0.6655120350596084, 0.9174699513098802, 0.8696408470336332, 0.7997160506609484, 0.8425252676385526, 0.7480850116726907, 0.8585173980603664, 0.856854893708362, 0.8726873605906261, 0.9087588326671843, 0.8484813366388724, 0.8408718785194875, 0.805264086852834, 0.80569757575753]</t>
   </si>
   <si>
-    <t>[0.8996408136661913, 0.8615655249613983, 0.585329386723221, 0.7626727980783224, 0.9301922363445089, 0.9558777711783755, 0.8671588096396754, 0.9222333634417457, 0.5523444519743694, 0.8636279552020321, 0.8740793951727026, 0.9016975821353681, 0.8101089710344332, 0.8573489706056376, 0.8952494712822197, 0.9109055069509522, 0.7946548428134457, 0.8524613937698015, 0.8523669506060494, 0.8796395192896969, 0.8112364878840854, 0.801054914597515, 0.841595866240701, 0.7628498535958825, 0.9013629467783258, 0.8004372834193907, 0.808186194987073, 0.9055725293892977, 0.9168009124589467, 0.8335464847018419, 0.8391631605900468, 0.9093907349018645, 0.8286534496903825, 0.7863664533376982, 0.8511441483949883, 0.8052570368235151, 0.8234659006889162, 0.8790628736714428, 0.8906447797539814, 0.8104695972199384, 0.8766999474604733, 0.8254201975913285, 0.8921858990386416, 0.8415754411246142, 0.8982605921982079, 0.9012486753954154, 0.8224258746280085, 0.8672691289861473, 0.8255364616277252, 0.8504756153176456]</t>
+    <t>[0.9071917824975135, 0.8566640481492178, 0.6157825863707964, 0.7724350155522524, 0.9366671888949099, 0.9481631631738806, 0.8504605521498214, 0.9228956606318093, 0.5646194543809114, 0.842104560932982, 0.860227308430393, 0.9193576484179973, 0.8037690227790697, 0.8652922406727026, 0.9064696355361603, 0.9115899644857348, 0.8934687849441298, 0.853818253747989, 0.8543646797309216, 0.8609651692736728, 0.7886986535451975, 0.7888690538346586, 0.8400057088626065, 0.7483344543541005, 0.9273193839075113, 0.80913337837145, 0.8044652500605862, 0.9087060604847714, 0.9089452728451279, 0.8298318174288462, 0.8533567217710754, 0.8947477486012851, 0.8377292813053002, 0.7892244410120206, 0.8617163240906247, 0.8223882317954974, 0.8075350637006627, 0.8671327914486082, 0.8623300720625003, 0.8133017022405703, 0.8851731755028909, 0.7885653196932019, 0.8973394860417586, 0.8172776718938224, 0.8933560544893479, 0.9015598397981557, 0.8087263294486144, 0.8690953963205134, 0.8283712684622088, 0.8363287328625576]</t>
   </si>
   <si>
     <t>[0.9279831964591714, 0.8750158668273702, 0.6133328247158526, 0.8048418403136203, 0.9347510623650381, 0.9390497164100189, 0.8495391851124923, 0.9445263808008315, 0.6445766414964496, 0.8702732573322236, 0.8822015886139847, 0.8608967350642337, 0.855032590677859, 0.829476480432963, 0.9416686908928038, 0.9408842587912952, 0.6442341210967244, 0.8656287307016206, 0.8782958509494934, 0.8621601036004962, 0.8770865356877059, 0.846280273421916, 0.8747430220245151, 0.789811552629116, 0.9592333674002403, 0.7149028230502295, 0.8957709350036849, 0.9162638970897047, 0.8923012670071571, 0.8934877701056051, 0.8685679925913483, 0.9072737698970382, 0.8474299224217503, 0.8338495052607018, 0.9054071379451518, 0.7974794708499141, 0.8429918162643006, 0.824310095101518, 0.9132262033158738, 0.8671900962247348, 0.9053507829419583, 0.8458230953063868, 0.9277236483160267, 0.8524481768388453, 0.863918199382541, 0.9268835014601902, 0.6476649369284959, 0.8421322456794516, 0.8726656472270027, 0.8577925086238574]</t>
@@ -3793,19 +3793,19 @@
     <t>[0.8444914183093006, 0.8790366360126067, 0.7681582591345713, 0.730468159123492, 0.8694999844718332, 0.8512625245788926, 0.9032768154765257, 0.8355350186132018, 0.7080969868817208, 0.902626137078428, 0.834650777269985, 0.8726200334189697, 0.8087661867043341, 0.8108057051069077, 0.9111032751403114, 0.9140346856697554, 0.8396340113414764, 0.8339122758541491, 0.8586038312317192, 0.8811887320791801, 0.8699748484552079, 0.6843961879779115, 0.8496512544081536, 0.5217477313577021, 0.9116313961759246, 0.8115922275806843, 0.7873867121060248, 0.8962984117808583, 0.8659603185906155, 0.6812281495791515, 0.812292012330656, 0.8562141493132531, 0.8911610409295807, 0.7963619752133789, 0.9116732918499986, 0.8870971693862567, 0.7288762599056533, 0.8937021950751496, 0.8470986806254591, 0.9351082037370241, 0.8466605105172296, 0.8047068586753825, 0.8703563436975569, 0.7533412683924187, 0.9087177517876973, 0.9264745125218498, 0.866916057444973, 0.8806420154197334, 0.8043534495638491, 0.6558223296330215]</t>
   </si>
   <si>
-    <t>[0.8771461666895677, 0.823506312266078, 0.6815713361379945, 0.8056800608774972, 0.8436576650619378, 0.9214231305712546, 0.8001435063669249, 0.8630696318736624, 0.6881615141112731, 0.7909359038470325, 0.8538423861804265, 0.7622335316654143, 0.7979346899670126, 0.8334268108826803, 0.8092138094487036, 0.8914974033434833, 0.7843111492971331, 0.7069705034892864, 0.8567712711023551, 0.8749208444585894, 0.8002328163193311, 0.8039530263025124, 0.8378596104287962, 0.42146878470612015, 0.9251590132288547, 0.7161699135932827, 0.6898312322483808, 0.882310259665966, 0.8920047729248463, 0.8232216912065743, 0.7756268442283797, 0.8065095148091251, 0.8636993955667649, 0.8553267523120325, 0.7933081690835262, 0.7730920123237939, 0.7683180785995779, 0.8774265266815454, 0.7918084391132565, 0.8177310469801378, 0.8923460474457972, 0.8422137711154065, 0.7847382535444456, 0.8404277254914654, 0.8229290305813474, 0.8994648938929296, 0.8295638612861977, 0.8500157444200331, 0.8725491047280174, 0.6710694689681529]</t>
+    <t>[0.8771461666895677, 0.823506312266078, 0.6815713361379945, 0.8056800608774972, 0.8436576650619378, 0.9214231305712546, 0.8001435063669249, 0.8630696318736624, 0.6881615141112731, 0.7909359038470325, 0.8538423861804265, 0.7622335316654143, 0.7979346899670126, 0.8334268108826803, 0.8092138094487036, 0.8914974033434833, 0.7843111492971331, 0.7066263765709007, 0.8567712711023551, 0.8749208444585894, 0.8002328163193311, 0.8039530263025124, 0.8378596104287962, 0.42146878470612015, 0.9251590132288547, 0.7161699135932827, 0.6898312322483808, 0.882310259665966, 0.8920047729248463, 0.8232216912065743, 0.7756268442283797, 0.8065095148091251, 0.8636993955667649, 0.8553267523120325, 0.7933081690835262, 0.7730920123237939, 0.7683180785995779, 0.8774265266815454, 0.7918084391132565, 0.8177310469801378, 0.8923460474457972, 0.8422137711154065, 0.7847382535444456, 0.8404277254914654, 0.8316515618736271, 0.8994648938929296, 0.8295638612861977, 0.8500157444200331, 0.8725491047280174, 0.6710694689681529]</t>
   </si>
   <si>
     <t>[0.9047084302023478, 0.8962400261697614, 0.8189357295664119, 0.7753850312305413, 0.9007719674589728, 0.9035736139887516, 0.8936371115544294, 0.8480576146147867, 0.7021120092308819, 0.8881602478841457, 0.8584031293750396, 0.8645589442692183, 0.852317647779572, 0.8017599842411538, 0.9183391494068489, 0.9395700342745652, 0.8771252670190846, 0.8351251776490186, 0.830363455243915, 0.8685469402428978, 0.8767943351956785, 0.8731436465862685, 0.8655902817620937, 0.6423321126550345, 0.9298022239706063, 0.8770131112850883, 0.8059150265746846, 0.9016720309452084, 0.8448340923187463, 0.7085003891922524, 0.8480992160964553, 0.893445861830845, 0.8887468924038395, 0.7999929061624682, 0.9171903410674478, 0.8932923071353053, 0.7934343225480316, 0.8893722963567356, 0.8897151911868773, 0.9403560384417182, 0.8713440546857221, 0.7719777203545083, 0.8899588772661973, 0.8487659242314008, 0.8712237115141168, 0.9362362461723619, 0.8795747932751421, 0.884895494663646, 0.7993855407184507, 0.6948847799679918]</t>
   </si>
   <si>
-    <t>[0.9295497739024793, 0.8806610241877753, 0.6646911233737076, 0.791956875355755, 0.922960321692262, 0.94459400595791, 0.887378765561686, 0.8958266429640495, 0.6044717495692591, 0.8536182031435625, 0.8731151614687148, 0.8748725684895167, 0.8117320688583906, 0.8507061035236156, 0.8967262718426499, 0.9123392942894717, 0.9067563436112771, 0.8590600330814927, 0.8439479212891869, 0.893173217711754, 0.8638169542245334, 0.8419756798606701, 0.8394098965274526, 0.7664531655656268, 0.9311207516889348, 0.8228954223558593, 0.7865844701029312, 0.896334691106474, 0.9285402528842412, 0.8226966080525464, 0.8854322827438497, 0.9075990433403982, 0.8683597260866899, 0.7909369779623463, 0.870980548792068, 0.8840976606786121, 0.7712165925865107, 0.8838273538122567, 0.8491724470592155, 0.8516779620600147, 0.8844919995707969, 0.8509975193927163, 0.8750156749198377, 0.8150286970443936, 0.9160117784778412, 0.9111217033865813, 0.8532915103149668, 0.8845945542896672, 0.8114417454386514, 0.8670907745087233]</t>
+    <t>[0.9167769063654285, 0.8779803180562731, 0.6544243102147511, 0.7858675846455088, 0.9351869196792173, 0.9288760972427438, 0.8925192345322448, 0.8838432542002326, 0.6123182418052405, 0.8828295846985132, 0.8709826381242822, 0.8675900982394387, 0.8467763048595711, 0.8606585260613142, 0.8914314045392184, 0.9236186525130028, 0.9069667516022311, 0.8932492674943646, 0.8304603995977062, 0.87970682155129, 0.8627007032216172, 0.8574472025062201, 0.8162309522572304, 0.772516731704679, 0.9150813513945537, 0.80480582945832, 0.7885487530722375, 0.887120804223628, 0.9263505033394513, 0.809025541799473, 0.8756209458954929, 0.8863290217882268, 0.8592076099691001, 0.7678935756066054, 0.8709554868945174, 0.885124586076745, 0.7751031058543698, 0.8839903631202723, 0.8503825562513133, 0.8555545550971426, 0.8842279113332445, 0.8603196418668886, 0.8623061355931865, 0.8342176380346291, 0.9103828560113152, 0.9084968312140146, 0.8794868625523566, 0.8785304392886812, 0.8144804465804273, 0.8480153854653547]</t>
   </si>
   <si>
     <t>[0.9377486439645988, 0.8736709967123397, 0.6351152048693668, 0.814522713448203, 0.9336357634777619, 0.9395961275495613, 0.9251331983423702, 0.8895191009267764, 0.7461898752420326, 0.8646529124944431, 0.8760380390857812, 0.8753742972231683, 0.7989382221478916, 0.9022801451923439, 0.9447744213245328, 0.938442163127934, 0.8733868758526833, 0.9050361236794842, 0.8612256136057702, 0.8564963122148186, 0.8988993236129569, 0.8317587154695473, 0.8547341571723176, 0.7673084346633754, 0.9413644150546236, 0.81636042397887, 0.8636155339691174, 0.865669691737232, 0.9269311237922571, 0.817557150723182, 0.8652279139151848, 0.9257744282724945, 0.8774181539122876, 0.7855429090690045, 0.8674052958154879, 0.8756452502159072, 0.7982492408526003, 0.8654976802685095, 0.8267226020004499, 0.8767895272220294, 0.8749805985548834, 0.8778612596892028, 0.7638679043248862, 0.8773126586296749, 0.9091921219481388, 0.9297167145728844, 0.886530355236973, 0.8658353833742861, 0.8858369298732693, 0.828973600409463]</t>
   </si>
   <si>
-    <t>[0.8763888099721903, 0.5551664394940496, 0.5416956191514083, 0.712654285445255, 0.8394685866171459, 0.8154456327816104, 0.7073056944753503, 0.8196445904178442, 0.6064848029678176, 0.7619132993589975, 0.7603968093355604, 0.6700006802076173, 0.645250866947592, 0.7181506226527864, 0.8090612943535846, 0.8232951784178109, 0.7203822493481935, 0.6854734798644788, 0.7288169546463947, 0.8577458978334229, 0.7275237536479604, 0.5249533596956405, 0.7521789952728429, 0.669729117825409, 0.6881368698769779, 0.7567702075473405, 0.615963008133338, 0.8268428060772235, 0.7963007209610541, 0.6955302154776791, 0.7735057437645422, 0.7776691107640847, 0.6700882841072032, 0.684352415827829, 0.7551386052081239, 0.7480316834246072, 0.6004409389934975, 0.8687138944769761, 0.8258353843180954, 0.7177226900797692, 0.7776674787088806, 0.6502266430987289, 0.7977549627406177, 0.7755599115427849, 0.8557414935063548, 0.7953547506637995, 0.3876612290332155, 0.8358243124121811, 0.7150746776315493, 0.6480499795767607]</t>
+    <t>[0.8763888099721903, 0.5551664394940496, 0.5416956191514083, 0.712654285445255, 0.8394685866171459, 0.8154456327816104, 0.7073056944753503, 0.8196445904178442, 0.6064848029678176, 0.7619132993589975, 0.7603968093355604, 0.6700006802076173, 0.645250866947592, 0.7181506226527864, 0.8090612943535846, 0.8232951784178109, 0.7203822493481935, 0.6854734798644788, 0.7288169546463947, 0.8577458978334229, 0.7275237536479604, 0.5249533596956404, 0.7521789952728429, 0.669729117825409, 0.6881368698769779, 0.7567702075473405, 0.615963008133338, 0.8268428060772235, 0.7963007209610541, 0.6955302154776791, 0.7735057437645422, 0.7776691107640847, 0.6700882841072032, 0.684352415827829, 0.7551386052081239, 0.7480316834246072, 0.6004409389934975, 0.8687138944769761, 0.8258353843180954, 0.7177226900797692, 0.7776674787088806, 0.6502266430987289, 0.7977549627406177, 0.7755599115427849, 0.8557414935063548, 0.7953547506637995, 0.3876612290332155, 0.8358243124121811, 0.7150746776315493, 0.6480499795767607]</t>
   </si>
   <si>
     <t>[0.8709717437428355, 0.8849777350720321, 0.6245753617214963, 0.7661196096968786, 0.9276847776519848, 0.90315691753453, 0.8867598514797486, 0.8622282669491763, 0.6502204295606542, 0.8350287739242969, 0.8538701374773339, 0.8501535154828683, 0.8284785204128605, 0.8633311169045753, 0.9013266520603224, 0.8948200728636434, 0.8624071845195251, 0.8882331206998304, 0.8453395219275579, 0.8064456780853918, 0.8782567562965007, 0.6917455378102957, 0.8582478851470678, 0.5394768323527122, 0.8298229225256887, 0.8594334510752439, 0.8550473506767313, 0.9122968440575238, 0.8299622943142861, 0.8523082429731732, 0.803781109185292, 0.8629071096231369, 0.754354670060217, 0.8639190955214948, 0.8842778471533768, 0.7659317413818563, 0.7313466975166041, 0.8970340859293012, 0.851673113245186, 0.8678846249645429, 0.8264285098070165, 0.7952895297820084, 0.86317922928051, 0.7644807168894112, 0.8259183189105903, 0.8712660761489761, 0.6420962894376421, 0.8288173639460799, 0.837462242558306, 0.7861731257053681]</t>
@@ -3817,25 +3817,25 @@
     <t>[0.9148032450531223, 0.869434433179194, 0.6226045339372988, 0.8074533028250843, 0.9308979756651184, 0.9439884256949312, 0.8334448596703713, 0.8394956680913941, 0.6985031682903734, 0.8552976096316228, 0.8497190618154001, 0.8420391292249786, 0.7821189033917898, 0.9001489959477331, 0.9239571696850628, 0.8887752699009995, 0.8301124625098114, 0.8214479916155533, 0.8389949388784008, 0.7783408769713268, 0.7877936544927728, 0.8552336053300251, 0.8313394761175814, 0.6611145328781798, 0.8254288557040497, 0.8445518581683782, 0.7872689520756292, 0.8952992214965978, 0.8353397200517619, 0.7784160405585792, 0.8226380064999177, 0.8950048393616132, 0.8258787065076689, 0.8443662793584379, 0.8138874455180879, 0.8276713414884433, 0.6579627357181856, 0.8355329403318112, 0.8524931282067861, 0.8346942368516135, 0.8663433165603263, 0.7851347315004038, 0.9084519677026447, 0.8486255758189214, 0.895730091126145, 0.8929812452355953, 0.7600527518948437, 0.8790380871778203, 0.7988135551495661, 0.7634015512050615]</t>
   </si>
   <si>
-    <t>[0.9269731276953773, 0.8871894059137307, 0.6491737389447725, 0.8029549258839076, 0.9319079549312228, 0.9365044468608863, 0.8705740651291259, 0.896315545492788, 0.5956402870455513, 0.8925724068296739, 0.8827275626973876, 0.8698586174974532, 0.809549208063135, 0.8785630018052341, 0.9029520588584832, 0.902719892649062, 0.9150003399077982, 0.8638613433887061, 0.8143805533788757, 0.880091830749308, 0.8220471111636142, 0.8360948762654064, 0.8660006863750027, 0.7929423714879252, 0.8834798543010972, 0.819604758371639, 0.8114217276915241, 0.8885302325312319, 0.8907480303055, 0.8265593031365853, 0.8852425626052074, 0.8899227870063077, 0.8352159444702962, 0.7801892632918412, 0.8547394414430542, 0.9083627037568369, 0.7973838420483945, 0.8964662857577845, 0.8139976535287348, 0.837964013262281, 0.8846000678308011, 0.8169282150010844, 0.8836964254197209, 0.812518028321928, 0.9112327819843911, 0.9073004347750513, 0.8631116477512852, 0.8473114454875859, 0.8425740438399303, 0.8838705144691649]</t>
+    <t>[0.9328112370112569, 0.8894247695026686, 0.6757322717887373, 0.7996659183756403, 0.9263847084540202, 0.925517591790762, 0.866980732674205, 0.8977504168434063, 0.5966223955366512, 0.9015770396088834, 0.8752461167859626, 0.8515902626603835, 0.8022332970517407, 0.8638299011531112, 0.9076148423530377, 0.9103580244053593, 0.9278805500323454, 0.8646026183211143, 0.8147923187599426, 0.8744315494640863, 0.8149421898063823, 0.8913935167192708, 0.8633250883886421, 0.7653949320663391, 0.9130698824999932, 0.8338113505829535, 0.8172261135857908, 0.8831508047681857, 0.9410320251271221, 0.8368908606113281, 0.9083819770594377, 0.9171259514152841, 0.8343188546592267, 0.8042810078040298, 0.86604484018952, 0.886186704345683, 0.7595042316484348, 0.8780633890825142, 0.824692227418621, 0.8286977361049755, 0.8741174309639104, 0.7942224976322902, 0.8811568364186866, 0.8583769978590968, 0.9157058789553865, 0.9061729872423325, 0.8711029506320429, 0.8674371006884167, 0.8361152755969472, 0.8585432180055682]</t>
   </si>
   <si>
     <t>[0.9386637907136871, 0.8823907496742898, 0.714022308326281, 0.8131120926850455, 0.9414427392523343, 0.9161613487746683, 0.9265266854903063, 0.8930940720116238, 0.7283184210217688, 0.8817312255054047, 0.8598562928958133, 0.8480730932769527, 0.8196962406981401, 0.8917246142074904, 0.9133935671841527, 0.851600334784626, 0.8591811533172203, 0.8940465098257377, 0.8595791506165211, 0.857467547518596, 0.8658815411502344, 0.861602666095964, 0.8485681086338929, 0.7090120713734949, 0.9000392130869337, 0.8036682283604484, 0.8811287145622229, 0.8823323827948645, 0.8852345905665711, 0.8364305910394421, 0.8714191998884337, 0.8787123137302137, 0.8550751569057966, 0.8515572772338729, 0.8395297656420148, 0.9268329263944657, 0.8293608295148458, 0.8498413432463463, 0.8321763056475553, 0.9123757530863925, 0.8747849127659807, 0.7898748442615343, 0.8770005825258156, 0.873191669143675, 0.9113046278394821, 0.8999575496510904, 0.7678161610770727, 0.8708714586385085, 0.8762233900274958, 0.7901599954967092]</t>
   </si>
   <si>
-    <t>[0.8899383969615028, 0.7428558102021849, 0.5522747496190743, 0.6794522707552222, 0.824061359144691, 0.8167216722586528, 0.813169123678253, 0.800342177211705, 0.6036913741694453, 0.6081669017380655, 0.7969005284154643, 0.6997567576597972, 0.7646019288616988, 0.6206974475002737, 0.7861946669516926, 0.8436680616590972, 0.7370354495278783, 0.7318966446364692, 0.7116597794137874, 0.7918117847345554, 0.7379851053304276, 0.6134770827682052, 0.8324225507981424, 0.6059428674287356, 0.675333372795681, 0.7636621487013868, 0.6859737265610735, 0.8463386312529053, 0.8230393634637547, 0.7019003372138726, 0.8000671259543267, 0.7673793704096132, 0.7042166279711879, 0.7157425712624041, 0.7127545236868826, 0.7555454848673343, 0.4760636611263591, 0.7816110579005535, 0.7517587442677384, 0.7700433965392691, 0.7686040216908119, 0.6751324370138805, 0.819120272550359, 0.7085028666112909, 0.7317857141712496, 0.873842475609242, 0.5998718561655811, 0.7563886551389072, 0.7472553146031521, 0.6450329693288797]</t>
+    <t>[0.8899383969615028, 0.7428558102021849, 0.5522747496190743, 0.6794522707552222, 0.824061359144691, 0.8167216722586528, 0.813169123678253, 0.800342177211705, 0.6036913741694453, 0.6081669017380649, 0.7969005284154643, 0.6997567576597972, 0.7646019288616988, 0.6206974475002733, 0.7861946669516926, 0.8436680616590972, 0.7370354495278783, 0.7318966446364692, 0.7116597794137874, 0.7918117847345554, 0.7379851053304276, 0.6134770827682052, 0.8324225507981424, 0.6059428674287356, 0.675333372795681, 0.7636621487013868, 0.6859737265610735, 0.8463386312529053, 0.8230393634637547, 0.7019003372138726, 0.8000671259543267, 0.7673793704096132, 0.7042166279711879, 0.7157425712624041, 0.7127545236868826, 0.7555454848673343, 0.4760636611263591, 0.7816110579005535, 0.7517587442677384, 0.7700433965392691, 0.7686040216908119, 0.6751324370138805, 0.819120272550359, 0.7085028666112909, 0.7317857141712496, 0.873842475609242, 0.5998718561655811, 0.7563886551389072, 0.7472553146031521, 0.6450329693288797]</t>
   </si>
   <si>
     <t>[0.9344445396185966, 0.8764294890335329, 0.6078722193753779, 0.7213144891385448, 0.8707794358089316, 0.9054885610542076, 0.9051235558980929, 0.86952290936802, 0.544254803898359, 0.85221501555161, 0.9010448562834696, 0.8478388981374698, 0.8011407905789224, 0.8347696246193286, 0.9146888580430736, 0.9240076083538838, 0.6150451316639812, 0.8872490335819636, 0.8416054680443102, 0.8167280412358906, 0.8852827842132284, 0.7607522196259291, 0.8544789586608641, 0.7842753577811085, 0.928830795410373, 0.7159169906313292, 0.7946517464287517, 0.9247083339860378, 0.8674343978270912, 0.8100780546069812, 0.7862628830215941, 0.8588340763079823, 0.8185563375300622, 0.8632826523694591, 0.8887984020712403, 0.7663042574480763, 0.6512140785427766, 0.8843151199000855, 0.829459116444436, 0.8764523125795364, 0.7975899948251769, 0.6943666777432259, 0.8640739920531701, 0.774560686049475, 0.9136696203100734, 0.9344032518245485, 0.8003370674175108, 0.8319006473667463, 0.8277945068221724, 0.786612065934033]</t>
   </si>
   <si>
-    <t>[0.9442284170279287, 0.839175682067381, 0.7876647515016804, 0.6989680972019652, 0.880236452957363, 0.8256235204126515, 0.7123551475283063, 0.8978041330406585, 0.5539657617023729, 0.815119198952807, 0.8465227261536518, 0.8392798976750708, 0.7567580827886299, 0.7747627938862478, 0.9335741222802861, 0.8868611809863336, 0.8144777591975871, 0.9033987507347863, 0.8754980352530755, 0.8951680860195372, 0.8574972005784514, 0.694397166103361, 0.8211822833172392, 0.6533965172123006, 0.8967436574722922, 0.7097498204742076, 0.822502871469981, 0.911617887822779, 0.8467085917925157, 0.8336752763573319, 0.8141406038675154, 0.8005011214525143, 0.8865608324253074, 0.8544837687763416, 0.735971632301071, 0.8380670462171274, 0.8191803647253308, 0.8164406016613428, 0.7355266465521241, 0.848256451274164, 0.8035486606280506, 0.8065315715250816, 0.8547248980322296, 0.9194501000040534, 0.8926449668280849, 0.8859814603166314, 0.6704366910656108, 0.8221110490353531, 0.8167574489819336, 0.8471963779358362]</t>
+    <t>[0.9442284170279287, 0.839175682067381, 0.7876647515016804, 0.6989680972019652, 0.880236452957363, 0.8256235204126515, 0.7123551475283063, 0.8978041330406585, 0.569363260287847, 0.815119198952807, 0.8465227261536518, 0.8392798976750708, 0.7567580827886299, 0.7747627938862478, 0.9335741222802861, 0.8868611809863336, 0.8144777591975871, 0.9033987507347863, 0.8754980352530755, 0.8951680860195372, 0.8574972005784514, 0.694397166103361, 0.8211822833172392, 0.6533965172123006, 0.8967436574722922, 0.7097498204742076, 0.822502871469981, 0.911617887822779, 0.8467085917925157, 0.8336752763573319, 0.8141406038675154, 0.8005011214525143, 0.8865608324253074, 0.8544837687763416, 0.735971632301071, 0.8380670462171274, 0.8191803647253308, 0.8164406016613428, 0.7355266465521241, 0.848256451274164, 0.8035486606280506, 0.8065315715250816, 0.8547248980322296, 0.9194501000040534, 0.8926449668280849, 0.8859814603166314, 0.6704366910656108, 0.8221110490353531, 0.8167574489819336, 0.8471963779358362]</t>
   </si>
   <si>
     <t>[0.903019237973902, 0.849455429883608, 0.6108002201943054, 0.6327459579624456, 0.8827016004228043, 0.9095388266947946, 0.823163872453593, 0.8790337566894383, 0.5660883148626504, 0.8212566204222891, 0.8649593099887258, 0.8268098381363879, 0.779581002257467, 0.8148604644107105, 0.9254003349895067, 0.8861686560340852, 0.845237830292196, 0.8737329629475921, 0.8152277910791057, 0.8790231060548612, 0.7921440690916931, 0.8215673457823375, 0.8543777730784061, 0.7906999560178896, 0.89614039405427, 0.8486778020497113, 0.7998418470972162, 0.8937036728117942, 0.878078080752819, 0.8613721969941059, 0.7599506274258027, 0.9058166659932495, 0.8300008304568951, 0.7517410906480948, 0.8134678290582127, 0.8047102158363094, 0.7529762617071533, 0.882322685447676, 0.8201980083825868, 0.823920097811756, 0.8068851234274987, 0.751073441208455, 0.8747928399283778, 0.8479899472419398, 0.8887077091395224, 0.9095008462787422, 0.8160811380100135, 0.8886403643426347, 0.8044770346197283, 0.783603703973865]</t>
   </si>
   <si>
-    <t>[0.9230484750293183, 0.8477743434014778, 0.7086954711355204, 0.7659526474603686, 0.9280206260292949, 0.9392485468565632, 0.8263936209250239, 0.899799844507039, 0.5946184066131339, 0.8870940205214369, 0.8421707427233178, 0.9097748805983926, 0.7988404507961537, 0.8622982376498955, 0.9134282613636819, 0.8970919437301766, 0.893247832563776, 0.8714144944198441, 0.8328634190995896, 0.8388108523668669, 0.8599612580905636, 0.9049667685401162, 0.8574922980365058, 0.7901217568068928, 0.8855479514839696, 0.8257989175543551, 0.8153192189264957, 0.918208976564391, 0.923531325524971, 0.7843807038074472, 0.9160147314456477, 0.8914484831832613, 0.7786276381308662, 0.7770154189342948, 0.8531651147873608, 0.8678617640413384, 0.7666888354757344, 0.8867236917330303, 0.8596532203706415, 0.857082898988383, 0.8721252634695389, 0.8121722755639253, 0.8756873553444098, 0.8469285733431556, 0.8990550933895411, 0.8928021467839546, 0.8706141639349452, 0.8701241147628177, 0.8014780697945427, 0.8333380421705383]</t>
+    <t>[0.9272105175260272, 0.8752975461905463, 0.7257239217200429, 0.7808417851590795, 0.9184673447607603, 0.9419737209318004, 0.8239356378107007, 0.907421278131777, 0.5859536711753368, 0.8781885535778893, 0.8249164619677674, 0.9001051412310583, 0.8286255813373773, 0.8605075207684731, 0.9151486058262503, 0.8905593612993306, 0.8408317389707856, 0.8719404537949735, 0.8150846220120999, 0.8390201307087393, 0.8588888637335804, 0.8990157547034383, 0.8381316358197828, 0.7795189193151197, 0.8996498768277371, 0.8070842629938834, 0.8152202229382812, 0.9149217697687007, 0.9209195431660988, 0.7869257058665662, 0.8630429076807198, 0.8836260346202709, 0.7919738542658734, 0.7678573053543052, 0.8635774950764787, 0.8616970436115761, 0.778985397228709, 0.8753965590201308, 0.8336752779833504, 0.8632299089351974, 0.8725081410724034, 0.803752228583893, 0.8801370819076936, 0.8953756951333055, 0.9033378555448563, 0.8935796431016791, 0.8675150599942718, 0.8734790936222523, 0.7942811718578133, 0.8310812841047254]</t>
   </si>
   <si>
     <t>[0.9062388060668393, 0.9036878791051189, 0.7517668428514078, 0.8111298137508768, 0.9272723357857613, 0.9512132189307199, 0.7249239615060123, 0.8822047611130606, 0.6398366849478796, 0.9054375429620023, 0.795745686695216, 0.8816578139517424, 0.7866800274308117, 0.882416867747515, 0.9343531816104533, 0.8911313230485858, 0.8483167629221755, 0.9132334290442148, 0.8604401351537032, 0.8571292059143961, 0.8790420732722974, 0.8879685146340854, 0.8700374711783991, 0.8036127151008758, 0.8651591456913059, 0.7895198973314258, 0.8330883541486027, 0.9238812670467917, 0.9060732180531111, 0.8336860676444721, 0.9038579777089476, 0.8664521740557244, 0.6862516744830638, 0.7783080448775446, 0.8866682490116922, 0.8872912211964186, 0.805604957606405, 0.8920775907289085, 0.8241701713244032, 0.8584469592256334, 0.8854394669412393, 0.8581931344075777, 0.8663701859202064, 0.9069573418686405, 0.9046141109187426, 0.9117552201559399, 0.8876485662493832, 0.8488911308718331, 0.8466798484456153, 0.805029964479008]</t>
@@ -3853,7 +3853,7 @@
     <t>[0.9098578700184141, 0.8278885875721054, 0.540696365054266, 0.6859864030190157, 0.9227033090700574, 0.9276797055971436, 0.8358606346748133, 0.8989770951616064, 0.6368999430414449, 0.76092852408073, 0.8564997841545225, 0.8530351712171929, 0.7589085120698292, 0.8734800024213449, 0.914714297029716, 0.9165655092804718, 0.8529862610048403, 0.8312174649967367, 0.8376414822475118, 0.8497662147886127, 0.8084537912185434, 0.8544138010947048, 0.8323937217110916, 0.7776935331736782, 0.8757279501940789, 0.8699496234984813, 0.7015963658678595, 0.8880063460852847, 0.905309517087014, 0.8748521010000545, 0.7631244379226905, 0.917790551204734, 0.7987740565331986, 0.8136527559974341, 0.8011399479539328, 0.8341344666274246, 0.6599981675167743, 0.8388922814175173, 0.87181956512442, 0.831195793454338, 0.8435968887095124, 0.742639218098118, 0.9162171898931306, 0.803307899497818, 0.8661651190450305, 0.9056977788285661, 0.8437814924291135, 0.8189298861442637, 0.8444942924155757, 0.7931652469243469]</t>
   </si>
   <si>
-    <t>[0.9272309531395369, 0.8723833316144343, 0.6143873498672577, 0.7492291356354324, 0.922610613312419, 0.9459175949649268, 0.8800782901212063, 0.895281663713922, 0.5118410869257739, 0.8789715555450599, 0.8626123933308061, 0.8897602464664074, 0.7891297266598128, 0.8668217798251174, 0.8921763645924405, 0.9150665052622341, 0.9008166993491533, 0.8494550723788494, 0.8346793030472408, 0.8650201180000865, 0.8260865552088423, 0.811572508065639, 0.8290322378667151, 0.7940975570856136, 0.9062693692250372, 0.7635183234236719, 0.8083735046597881, 0.8882186249984746, 0.9209002782925588, 0.8205706320864162, 0.8773141840582399, 0.8959338645972476, 0.809585669810932, 0.7695185978542778, 0.8633349093863005, 0.8632201440176952, 0.7795846758530378, 0.8577467184142915, 0.8341310668795134, 0.8236482102211048, 0.8837707677393181, 0.8103247913368665, 0.8745269326520793, 0.810533211689169, 0.9002180255263252, 0.8973243715658901, 0.8811787213567062, 0.8782874527407278, 0.8262150688086727, 0.8355572706114462]</t>
+    <t>[0.9136159365393233, 0.8720985990533926, 0.5752403908028635, 0.7593221256368516, 0.9273741892906195, 0.9424512569824655, 0.8758167598095314, 0.9074688139216025, 0.5442984064953633, 0.8636352739456316, 0.8652063591732493, 0.876207609367835, 0.7889601803108455, 0.8695780244520932, 0.9040897107104557, 0.9227758116633665, 0.8918472257986563, 0.8382466641054358, 0.8278630667355413, 0.9051975125347745, 0.8140027428041928, 0.8036074099238739, 0.8350095781070233, 0.7850789769358851, 0.9143678452904025, 0.78717785670303, 0.8024119351356331, 0.8961110189058452, 0.9338191335493027, 0.8191545096473101, 0.8771251744851212, 0.9155708806034883, 0.8088453769872882, 0.7824811383848751, 0.8558492313984727, 0.8670127218736275, 0.7945230339626849, 0.8701128280437362, 0.8445646598902482, 0.8315764113347466, 0.8818433504156755, 0.7820033504113275, 0.8672100133259849, 0.8262548984984999, 0.9049236046623297, 0.9077224186351277, 0.8789544599678326, 0.864211065580321, 0.8295199576008587, 0.8207836949066453]</t>
   </si>
   <si>
     <t>[0.9233926893122704, 0.8840522907673773, 0.525945917455932, 0.7444989082361756, 0.9142705927917769, 0.9296587207576307, 0.8512966815541623, 0.9099680025753305, 0.6726898651423148, 0.8574717335457056, 0.8830846157319903, 0.8466633785564416, 0.8126074010353631, 0.8644590489144551, 0.9219012204323395, 0.9392072233185949, 0.8370339463574739, 0.8874682425938243, 0.8396099061078454, 0.8801776504750698, 0.8641432981935052, 0.8077838419270649, 0.8300739326262538, 0.7313728543212447, 0.9564593476414774, 0.8129434253582055, 0.8882976270736307, 0.885333066807861, 0.9071369462806432, 0.8189322293632331, 0.9144021180919916, 0.9173149605720344, 0.8358839116659257, 0.7878625100878474, 0.8661417266819613, 0.912855781578175, 0.8504465285196497, 0.8063268936934288, 0.8914647394770425, 0.8280691058177038, 0.8808044674777492, 0.8789755832835229, 0.8739448409330081, 0.8451906936702089, 0.9054623751180337, 0.9032921281822988, 0.905102007610351, 0.8996813882963802, 0.8852874047401039, 0.8383128454313458]</t>
@@ -3871,7 +3871,7 @@
     <t>[0.8992585042370637, 0.8731139666220334, 0.7858710741209083, 0.7568417102592608, 0.901967307845326, 0.8934600690342765, 0.8899562059257028, 0.8541534972673006, 0.6891017607450616, 0.8890940570320016, 0.8586576314169299, 0.8386205751628628, 0.8233215121031354, 0.7961666884702037, 0.9218457852824598, 0.9426102394114795, 0.8650564147725565, 0.8578053418216538, 0.8165592830984376, 0.8628777024784076, 0.8458351092503045, 0.871752670513268, 0.8641135254181989, 0.6478538018335523, 0.9272745992629214, 0.8742739239993234, 0.8117144609843421, 0.8973868015306137, 0.8372333115698527, 0.7506012452912425, 0.8136796272346465, 0.8890302246467944, 0.8780633124012287, 0.7949818523781871, 0.9184404818118098, 0.8921044906055287, 0.7259456575027401, 0.8746072563988532, 0.8807359888223552, 0.9470416174661915, 0.8720481251129056, 0.7715998929657608, 0.8922659342552275, 0.7423203467388717, 0.9232127956607014, 0.9452305980725343, 0.8761362902675209, 0.8771393056349169, 0.7391027483405564, 0.6996657236158159]</t>
   </si>
   <si>
-    <t>[0.904794116263473, 0.8795589437863427, 0.6229390828022477, 0.7863666268441669, 0.9304047578456721, 0.9215210858514443, 0.8908597116676339, 0.8597475040651081, 0.6023855023533252, 0.8447618108893269, 0.8637562359672384, 0.9012186927852686, 0.8372621322244296, 0.8485100811323498, 0.9053856910187511, 0.8938942699168282, 0.9258747633068449, 0.8784787273888295, 0.8164577886757959, 0.8909388344036642, 0.8422903198058811, 0.8535791040957266, 0.8474639476065619, 0.7576855724183487, 0.9243162182288502, 0.7921086754644058, 0.7940063708905207, 0.8827297754181658, 0.9248246746351434, 0.7816201356669923, 0.8785280525677055, 0.9016898786012109, 0.854023410388188, 0.7709257964167601, 0.8558532206951444, 0.8576463565285485, 0.7782098508061062, 0.8627724104249606, 0.829067522962, 0.8463956339498617, 0.8674526430427543, 0.85359471909789, 0.8740750355286109, 0.8118664685927122, 0.9056961331039751, 0.9048618620312225, 0.8938789860374396, 0.8670921004868077, 0.8054421964613689, 0.8511328373985301]</t>
+    <t>[0.9249349128826561, 0.8721978541169173, 0.6299311289060318, 0.796252446699445, 0.9313697567066972, 0.9262790927767526, 0.9012229315863496, 0.9025111642710327, 0.5949617959780766, 0.8551621240189182, 0.8742888594500622, 0.8937036399405583, 0.8350861651175353, 0.8476843541716945, 0.9054365743309464, 0.9016455675018353, 0.9257292769148325, 0.8483284434384107, 0.816891316689561, 0.8853992587944992, 0.84737840097147, 0.8654974880652748, 0.8330557499318514, 0.7372655174306739, 0.9206996341172976, 0.7623731698741785, 0.7778136467905141, 0.8863320003717429, 0.9267295574829612, 0.7854242162046575, 0.8666896361012948, 0.8854505139390376, 0.8609617956285452, 0.7653810897386885, 0.8462037786722695, 0.8491803541964345, 0.7915752888934868, 0.8732266396510535, 0.8582472271702424, 0.8355649735039303, 0.8854191237138878, 0.8447989931779465, 0.8705728418079977, 0.8031218339516547, 0.9044305284072858, 0.8942200508852645, 0.8648380172342429, 0.8513212428601693, 0.8087097786464973, 0.8511187694726616]</t>
   </si>
   <si>
     <t>[0.9029413511921174, 0.88297215991609, 0.7424109455565882, 0.8010212052513646, 0.9392756847401971, 0.8941380426624175, 0.8717418320157533, 0.8851890191516497, 0.7313846668456028, 0.933503666102627, 0.8690839263221802, 0.8985053383507351, 0.7427624729714083, 0.8466826501438134, 0.9573611652917378, 0.9143930229727194, 0.8820820734310609, 0.8909194066017729, 0.8156178388721035, 0.8817091342494007, 0.8653183640437234, 0.8528207224928455, 0.8481751865030093, 0.7707103470924217, 0.9190251547451582, 0.7597352099908787, 0.9078848949463819, 0.8723662037031947, 0.840173466925753, 0.6592921438120387, 0.8596892837948199, 0.887476857291936, 0.8657689070810313, 0.8355870258096052, 0.8941389148397654, 0.8926655303132521, 0.8303794222136135, 0.8653166580959992, 0.7351250690127444, 0.8758484159615532, 0.8610088143634987, 0.849141852828751, 0.7863165615613723, 0.8828204373232453, 0.882575219674615, 0.9289638769409586, 0.8670715259851839, 0.8971705271875768, 0.8698621199445011, 0.8316718295762391]</t>
@@ -3889,13 +3889,13 @@
     <t>[0.9126283776724705, 0.8703520056850946, 0.5975763581269818, 0.8172777655717839, 0.9311115153026414, 0.9221730819810116, 0.8252086015174316, 0.8643193832602627, 0.6689209442644332, 0.835608970494416, 0.8423931901924786, 0.8670121475087795, 0.7672577455222489, 0.8932764011855621, 0.9193453497371719, 0.8963190035594162, 0.833649475859452, 0.822021095332709, 0.8186585869627001, 0.7667436047783838, 0.7737865015188263, 0.8415975350884703, 0.8306607104428585, 0.6534124000489933, 0.8196580038706927, 0.8437870377607519, 0.7669071307072118, 0.8967904091587989, 0.8418726702578827, 0.7986178230612936, 0.751201985675275, 0.8516614583873203, 0.8086250537374603, 0.8286222160315173, 0.8039318502395849, 0.8371414965488899, 0.6968489440693328, 0.8849684955256216, 0.8465975017297753, 0.8317474184379503, 0.8571311141846277, 0.7731081758037562, 0.9045135029654338, 0.8330111554384428, 0.8930645701820212, 0.8889501548178972, 0.7511107312068276, 0.8268162511813154, 0.7947773166165374, 0.762275744369423]</t>
   </si>
   <si>
-    <t>[0.9186408225588576, 0.877332194617468, 0.6280015706744309, 0.7862346717541966, 0.9313148194853327, 0.9150868634756731, 0.8852482018114397, 0.913756217935404, 0.6034738195620212, 0.8731033275572955, 0.8561395254503834, 0.8813693171896617, 0.8017673398811902, 0.8725015800491662, 0.8994913280227749, 0.8750683671315745, 0.9120237627234407, 0.8554484367959783, 0.8183786849126768, 0.8723950665776836, 0.7886052296004659, 0.8643820828409472, 0.8690456814962322, 0.7846013559224134, 0.8834102214413256, 0.8460186104804932, 0.8034887363737246, 0.8756586291968627, 0.8732639005346938, 0.8157918423923809, 0.8794368362371994, 0.9049576635766416, 0.8288053621645524, 0.7553732064949932, 0.8303188201155667, 0.8828448764421362, 0.7474809401263683, 0.8708464616748478, 0.8281519423649458, 0.818060582815471, 0.8786335385213325, 0.807960977255151, 0.8795686371847469, 0.8119696691427288, 0.9057007320597616, 0.8931732336579079, 0.8597510265941388, 0.845343404712042, 0.8092771423283567, 0.8096847629616559]</t>
+    <t>[0.9251228703143487, 0.8821784500453957, 0.6170163845636262, 0.7926773643648755, 0.9302572942534073, 0.9140253908044509, 0.891672025682301, 0.9157553220278452, 0.5872745060734288, 0.8613568085730655, 0.8588351640233558, 0.8640323866100619, 0.7892700782106832, 0.8744621901763074, 0.9039345198684761, 0.895589617471461, 0.91870544295035, 0.8517740256595079, 0.8179927403313104, 0.8732672369321399, 0.8033805673524643, 0.8262422967949462, 0.8629418225863312, 0.769792765581798, 0.9168452270941203, 0.8517839393119018, 0.7893587649004403, 0.8834196394854016, 0.8920884203150629, 0.8223117062765618, 0.8832735231468005, 0.9020150284328288, 0.8306431928103531, 0.775998076432853, 0.8356994381389952, 0.8692140221705902, 0.7635036927392174, 0.874789869172714, 0.8101123589539467, 0.8192510884499207, 0.8840357348590744, 0.7866426819539992, 0.8847610458253918, 0.8404639088924759, 0.9078777070071176, 0.8997880272820471, 0.858919593405166, 0.8820561496468562, 0.8313983216320969, 0.8040216096308213]</t>
   </si>
   <si>
     <t>[0.9331767715283148, 0.9099823037561727, 0.674828887554223, 0.8302642367586979, 0.9338783668951463, 0.8324642042588184, 0.9106791477890918, 0.890628636740997, 0.6980247566977693, 0.9135927345053952, 0.8178312504327366, 0.9028750611594913, 0.7627117191220143, 0.8947925771110921, 0.9327208425038552, 0.9133303417691652, 0.8998640433073573, 0.9037726904598656, 0.817348975507012, 0.9010552918063514, 0.8596823603954471, 0.8500723407128192, 0.8368104710986232, 0.7655064888782737, 0.8778573772801145, 0.7938271432029338, 0.8938935424509309, 0.8953125699545537, 0.8401698343765793, 0.8085780969052063, 0.9261842501233563, 0.8432838159904084, 0.8654313162853906, 0.8800512818079127, 0.8669972994362894, 0.9066148575272732, 0.7934617793349007, 0.848414598209676, 0.7855970579849516, 0.9101942797637255, 0.9043405846796353, 0.7144039515859011, 0.8686528939946045, 0.8850099355335381, 0.9006235965283518, 0.9069560761476959, 0.8207215682309972, 0.866264160566989, 0.8429993465532271, 0.854158113078979]</t>
   </si>
   <si>
-    <t>[0.9060759241324565, 0.5922873765193506, 0.5407682526932109, 0.6396460646728666, 0.7975297041073329, 0.812574571159677, 0.755096330387287, 0.7822491109343334, 0.5884049600015397, 0.6892697900870378, 0.7962133609477993, 0.7242159467576975, 0.7463031532885426, 0.7910870072567366, 0.7746364045175028, 0.873352184724863, 0.7082189500138212, 0.7296218764062549, 0.6989378628079568, 0.8142382687327172, 0.7169562969714898, 0.6983622060833377, 0.8382579143364663, 0.5875841395252454, 0.8464258194152467, 0.733502244919979, 0.7251470477877886, 0.8239521008608772, 0.8230393634637547, 0.6906049162358063, 0.7307830078591542, 0.7650029318497321, 0.6988563782206587, 0.6690326137770073, 0.7112308193262726, 0.7370141059881066, 0.474672267740471, 0.8096679439929542, 0.7171306171454689, 0.7824387685815476, 0.7987269871084423, 0.6282797601369334, 0.8532710290231205, 0.719545733528056, 0.7171982287449953, 0.8478712865302919, 0.6070265116979268, 0.6942351256685357, 0.7324162523643325, 0.5880181358288932]</t>
+    <t>[0.9060759241324565, 0.5922873765193502, 0.5407682526932109, 0.6396460646728666, 0.7975297041073329, 0.812574571159677, 0.755096330387287, 0.7822491109343334, 0.5884049600015397, 0.6892697900870378, 0.7962133609477993, 0.7242159467576975, 0.7463031532885426, 0.7910870072567366, 0.7746364045175028, 0.873352184724863, 0.7082189500138212, 0.7296218764062549, 0.6989378628079568, 0.8142382687327172, 0.7169562969714898, 0.6983622060833377, 0.8382579143364663, 0.5875841395252454, 0.8464258194152467, 0.733502244919979, 0.7251470477877886, 0.8239521008608772, 0.8230393634637547, 0.6906049162358063, 0.7307830078591542, 0.7650029318497321, 0.6988563782206587, 0.6690326137770073, 0.7112308193262726, 0.7370141059881066, 0.474672267740471, 0.8096679439929542, 0.7171306171454689, 0.7824387685815476, 0.7987269871084423, 0.6282797601369334, 0.8532710290231205, 0.719545733528056, 0.7171982287449953, 0.8478712865302919, 0.6070265116979268, 0.6942351256685357, 0.7324162523643325, 0.5880181358288932]</t>
   </si>
   <si>
     <t>[0.9387694515608391, 0.8772598844954974, 0.612795780942368, 0.7373271437465353, 0.8806605678698449, 0.9038043485054422, 0.8647677196824997, 0.8604440432849458, 0.5503582388269115, 0.8163591628048641, 0.8989674729255595, 0.8457223809038191, 0.7902861839119243, 0.8253515881905374, 0.90236403128265, 0.923759468040296, 0.8611309520751923, 0.8055084286171901, 0.8455833860207247, 0.8166681728873918, 0.8787570322767931, 0.755698596635209, 0.849819744471516, 0.7499017935390888, 0.9405113308799101, 0.8175660256260657, 0.8156474928318531, 0.9024040036870671, 0.8632875307776511, 0.8049080094927302, 0.7923170316586672, 0.8568704220899219, 0.7979831607768001, 0.8586135869291586, 0.8862766552301414, 0.7555178102547442, 0.7525153203412644, 0.8739255032897095, 0.8127337679944556, 0.8765003619827538, 0.7922228625829182, 0.709439092410137, 0.8690640833608332, 0.8570381610509463, 0.8750321270309915, 0.9311907108714175, 0.8302328759961499, 0.8348650100230828, 0.8251477328837975, 0.7883204790474658]</t>
@@ -3907,7 +3907,7 @@
     <t>[0.908867487512899, 0.8809496939205346, 0.6974937995435783, 0.6382625423043093, 0.9053564632874898, 0.9076993196565977, 0.7259503799423919, 0.8744540178047748, 0.5822639598568069, 0.810723639733003, 0.8612228387216452, 0.8741477004515558, 0.7616550692848988, 0.8414499798131694, 0.9172238260909377, 0.9138897884856805, 0.8525647028001689, 0.8770865324323909, 0.8033708242034142, 0.8672592823986683, 0.7529826899345939, 0.8330960402379437, 0.8367844530656184, 0.7371385005133477, 0.900293184177007, 0.8487337493024042, 0.8181619608297466, 0.8923933458190134, 0.8781272736875279, 0.8444192650407292, 0.7619559782317307, 0.8372354107955242, 0.7974485298695062, 0.8456006979621769, 0.8292208586049377, 0.8242656549595908, 0.7593491182649792, 0.8820344127226478, 0.8177418847241964, 0.8195038400129493, 0.8549576134475101, 0.7416275349414033, 0.8913039878728523, 0.8452201867532089, 0.8908538754320102, 0.9061198640209662, 0.8078910228739388, 0.8831094344165208, 0.8036235675503597, 0.7806603403799723]</t>
   </si>
   <si>
-    <t>[0.9219356209874687, 0.8653602520783124, 0.7293542904888829, 0.7639000319035445, 0.9310644708742435, 0.9390630559701012, 0.8288606717654082, 0.8970378655233722, 0.5729090428974046, 0.8732024585034506, 0.8349676322255271, 0.8952832580799942, 0.796959792066043, 0.8448725452666165, 0.9122101181201178, 0.8849205971960581, 0.8239367686725932, 0.9118613616454458, 0.8338145246910429, 0.8512395491084696, 0.8508404843639787, 0.8945888509995334, 0.8549050133799658, 0.7761464223385737, 0.8894422654355679, 0.8019752689785185, 0.8342517847539477, 0.9230404796932233, 0.9154236799037909, 0.7784867189469357, 0.9023194784876145, 0.8648957604641251, 0.7739703152089963, 0.7890969486754883, 0.8652134700936015, 0.8468710021949448, 0.7813343267548791, 0.8675572354136118, 0.8232753578800182, 0.8637455185094343, 0.8687167696713188, 0.7987553661957927, 0.8929975368627294, 0.884523640198469, 0.8875138724254513, 0.8755396495282926, 0.8538900105684871, 0.873333476026982, 0.785318548151522, 0.8251991625571464]</t>
+    <t>[0.9316970409930334, 0.8625307015296397, 0.748864466019725, 0.7612165568121765, 0.9367989434135527, 0.9371652898441454, 0.8156737515709203, 0.9077694947515578, 0.6045023824182274, 0.8864535209182515, 0.845264720475896, 0.8867097463747394, 0.7901534790122731, 0.854576125910541, 0.9126819421875842, 0.8799659864883363, 0.7940696199951858, 0.9086474181845838, 0.8445271914412762, 0.8486369101518971, 0.8544132973838903, 0.881686296185196, 0.8611528250770883, 0.8053990169507672, 0.8799478626819198, 0.8101467183192366, 0.8208427060875263, 0.9230339318785383, 0.9128928376360261, 0.7845995057135753, 0.9206437952055618, 0.8443069318973062, 0.7788884432558996, 0.7835924182686814, 0.8705763745601041, 0.8633191916009882, 0.7976043689818476, 0.8692039913045472, 0.8457066756875049, 0.809682937880243, 0.8793549455677013, 0.7837562767821453, 0.8978036016682122, 0.8805463655096462, 0.8891288995121533, 0.8899080693871771, 0.8695903339035261, 0.884578209894856, 0.8217644626402031, 0.846816520021443]</t>
   </si>
   <si>
     <t>[0.9457106010101846, 0.892639050208198, 0.6757711022508536, 0.7931615667802803, 0.9158288319867713, 0.9236813215207293, 0.8287911239109136, 0.8621696104094707, 0.6154805057567818, 0.9039808368603013, 0.8069877490865178, 0.9076977396796221, 0.8018612511942901, 0.8577897404644155, 0.9138796289516103, 0.8714935254176392, 0.7597441259285511, 0.9053995455899808, 0.8459494703103551, 0.8823684339908696, 0.863650244801925, 0.9235790982727243, 0.850473977378807, 0.8123665925687689, 0.872194142281213, 0.7920188166503461, 0.8640021786375651, 0.9222752593114776, 0.8426322213361164, 0.837506850627338, 0.9124303352966506, 0.8800077431554827, 0.7630036772552272, 0.7504636381410146, 0.9171587128667427, 0.845932002296672, 0.8189664596900775, 0.898491258382922, 0.864594495136729, 0.8947190169092223, 0.8748807729519208, 0.8715567206993826, 0.8894039370140061, 0.8923769358678739, 0.8936614008874413, 0.8922395808589942, 0.8757356101362535, 0.8751081101731126, 0.8238586417259237, 0.7933166017526725]</t>
@@ -3919,13 +3919,13 @@
     <t>[0.9362662875852765, 0.882435716938822, 0.6104145755272634, 0.7284049595764793, 0.9109245876561283, 0.9192975370735732, 0.8966013883700134, 0.8976193952488605, 0.6333257763332089, 0.8476051588794005, 0.8656963690435104, 0.8409534455890162, 0.6881000451912034, 0.8377409878816893, 0.8987808846309919, 0.9301233729389223, 0.8263779118017811, 0.766103887620185, 0.8182884941811179, 0.8581919378029326, 0.8518923380287652, 0.7080595334934249, 0.8430144786910816, 0.7373331716893053, 0.8747468821678994, 0.8683523796077327, 0.8282028758454816, 0.9225248306436904, 0.8785618320226362, 0.8125104686595401, 0.7947133650319695, 0.8887048076860046, 0.8192032673361473, 0.764649883472095, 0.8854195627053993, 0.8110762579881008, 0.6734666426640534, 0.8657200853926083, 0.8902524620075936, 0.7584527319758183, 0.8275143021219399, 0.7952656363876376, 0.8849485058634289, 0.8384992337104914, 0.6774208110016984, 0.9115638293122736, 0.8444388790892643, 0.8180399866735244, 0.8549310892832114, 0.8080602398205696]</t>
   </si>
   <si>
-    <t>[0.9212000299506948, 0.869492687837259, 0.6458232379760745, 0.7200183735904109, 0.8739769732088243, 0.8934126592513829, 0.8000989425715861, 0.8987465494021825, 0.6435563681210924, 0.8298484999353345, 0.85563813785595, 0.8592711793226702, 0.676857199487699, 0.7823881517243463, 0.9114558577909171, 0.9022753236078885, 0.7869917432113024, 0.8725309216997943, 0.8442503390320173, 0.8590607729567201, 0.8659756492701876, 0.83270841218038, 0.8092438247793957, 0.6430144659576345, 0.862772037915209, 0.7883933582439502, 0.7793685720137384, 0.9421291326036014, 0.8851571336922214, 0.8440630921949674, 0.8360356886864064, 0.8197618067616703, 0.8457317528337647, 0.8517557028874444, 0.7904414809671143, 0.8351498823919955, 0.8082078989010189, 0.885568952063496, 0.9028102848853216, 0.82329484313277, 0.8416795582755693, 0.7178257714785854, 0.8262181845276008, 0.9136526000733938, 0.8662096336266016, 0.8273690694293403, 0.815082337241025, 0.8896010282564482, 0.8195028556576677, 0.888913052854083]</t>
+    <t>[0.9212000299506948, 0.869492687837259, 0.6458232379760745, 0.7200183735904109, 0.8739769732088243, 0.8934126592513829, 0.8000989425715861, 0.8987465494021825, 0.6435563681210924, 0.8298484999353345, 0.85563813785595, 0.8592711793226702, 0.6334687052405013, 0.7823881517243463, 0.9114558577909171, 0.9022753236078885, 0.7869917432113024, 0.8725309216997943, 0.8442503390320173, 0.8590607729567201, 0.8659756492701876, 0.83270841218038, 0.8092438247793957, 0.6430144659576345, 0.862772037915209, 0.7883933582439502, 0.7793685720137384, 0.9421291326036014, 0.8851571336922214, 0.8440630921949674, 0.8360356886864064, 0.8197618067616703, 0.8457317528337647, 0.8517557028874444, 0.7904414809671143, 0.8351498823919955, 0.8082078989010189, 0.885568952063496, 0.9028102848853216, 0.82329484313277, 0.8416795582755693, 0.7178257714785854, 0.8262181845276008, 0.9136526000733938, 0.8662096336266016, 0.8273690694293403, 0.815082337241025, 0.8896010282564482, 0.8195028556576677, 0.888913052854083]</t>
   </si>
   <si>
     <t>[0.9017546195808303, 0.8563447095258372, 0.600189226996248, 0.6929800798985997, 0.9223246965793376, 0.9400254964259908, 0.8621041089215311, 0.8530518197183445, 0.5663084631930477, 0.8456331613440362, 0.8434992163753623, 0.8364321675779347, 0.730354053894825, 0.870619407238169, 0.8463838263096062, 0.9092159813068055, 0.7809469821067873, 0.8181105191652858, 0.835574386789405, 0.7940484709595437, 0.7470865200427487, 0.8751331016775075, 0.8225562025358614, 0.7745670328892438, 0.871296537079349, 0.865523787709982, 0.6856862707646967, 0.8908316854048332, 0.902735816427047, 0.7530270666355597, 0.7616585430489574, 0.9154163944722119, 0.8179880713337101, 0.6825688952581641, 0.832822884544059, 0.8209313073521011, 0.6990790500862055, 0.9080334361659852, 0.8692241578398616, 0.835157197348879, 0.8239175507117573, 0.7718977055686793, 0.9170351478602847, 0.6731582722823793, 0.866285266313752, 0.9072890248229414, 0.8612147715804646, 0.8237654234132242, 0.8417992678824137, 0.8159407300090253]</t>
   </si>
   <si>
-    <t>[0.9127717063837346, 0.8769791025623446, 0.6095327578049703, 0.7394103433108976, 0.9313194873276682, 0.9311410657427535, 0.8782888381698812, 0.8898632603339837, 0.5600343275999846, 0.8516926058662504, 0.8542163142081778, 0.8747872782650881, 0.7909329124987461, 0.8526415617074344, 0.8901267245796244, 0.907987738084203, 0.8956853313570122, 0.8478365816115065, 0.8261860606111071, 0.8920954277441056, 0.826155405247017, 0.8015539709685784, 0.8212718562651407, 0.7736410935902209, 0.9022997442671, 0.815245984539548, 0.80461448062118, 0.873192570476642, 0.9254313334257478, 0.8083521549544791, 0.870758343838419, 0.9146488324808448, 0.8066788154078973, 0.7659389626832869, 0.8509383587335544, 0.859627510670129, 0.78062220026534, 0.853480243811287, 0.8092730241189328, 0.803401535177924, 0.8701139315011395, 0.7898403716816053, 0.8733433201527949, 0.8335643858630621, 0.8996389962585962, 0.8934866055824695, 0.8921386792954915, 0.866297309617408, 0.8110001413182817, 0.823208332955077]</t>
+    <t>[0.9109195331543183, 0.8638029761503077, 0.5686899748546266, 0.7502066996802821, 0.9324531296346525, 0.9331781772742862, 0.873350303795527, 0.8795061234695899, 0.5518132954063824, 0.862267207515069, 0.867353162379989, 0.8775619065964266, 0.7966001848501446, 0.8533261325436199, 0.8944186228291464, 0.9063394282749017, 0.8988240302887782, 0.801465926443622, 0.8464822247698158, 0.8524852074272412, 0.8032848023972035, 0.7911351854294604, 0.8319817352577115, 0.7794157323877122, 0.916810467224987, 0.7765776999701338, 0.8013423921051501, 0.8807226459076601, 0.908423135091216, 0.7896711676075768, 0.8529954781007787, 0.9091999734971724, 0.8083362343182359, 0.7807033988502222, 0.8492730205524732, 0.8817099536267359, 0.7691594916074016, 0.8650697529174851, 0.8335941615182036, 0.7892833641472563, 0.8755269616386377, 0.7782248937315321, 0.8906795787137096, 0.8186177949881702, 0.8928112278232404, 0.8955695404792005, 0.8806272328824194, 0.85468412462365, 0.8128208957482725, 0.8183960797000469]</t>
   </si>
   <si>
     <t>[0.8860071698920042, 0.8890561462270181, 0.64167741893374, 0.7751349734188928, 0.9328251980748891, 0.8424390634625557, 0.8228540242004136, 0.845191565066856, 0.5821424790640153, 0.8153329363641773, 0.852464031592142, 0.8678323516677742, 0.7319073272198625, 0.90448685395753, 0.9138693842712678, 0.9349934965351797, 0.8521756847159745, 0.7933075877527853, 0.8277835704662717, 0.840055829719484, 0.8082249294979382, 0.851592877397074, 0.8571250338309839, 0.778146244811011, 0.9115468917210685, 0.7346506428902339, 0.8905884431619897, 0.8659607430285674, 0.8327294662225514, 0.7523984759657562, 0.8380308612164225, 0.8678294564699791, 0.81423264214721, 0.8063582020140786, 0.8810146404929383, 0.8551629169356072, 0.7328316325795258, 0.748348088062075, 0.8712310686402888, 0.8669805320926472, 0.8020857404909953, 0.8014619745436862, 0.8877868463014706, 0.821973062768737, 0.8784153163496782, 0.860886881708318, 0.8884414337652725, 0.8915040361715394, 0.8799380606106523, 0.8561532695548159]</t>
@@ -3943,7 +3943,7 @@
     <t>[0.8808972219009804, 0.8720919116590801, 0.7761332744762842, 0.7709630249971668, 0.8986037718595106, 0.8960092475037325, 0.9015714584300383, 0.8518509387767615, 0.7028183298622985, 0.8813496343061636, 0.8236136737197937, 0.8732630840413533, 0.8540522942945156, 0.7834732621522779, 0.9189097093692085, 0.9453433761226558, 0.853534247736969, 0.8590749393920043, 0.8393701368191537, 0.8664700848341087, 0.8367923024016544, 0.8834488212998757, 0.8679916695420138, 0.6324811803259776, 0.9326882838693302, 0.8733346056864568, 0.7448660641489326, 0.8968179677310195, 0.8324036655618423, 0.7806323645542979, 0.8341947913688683, 0.8896330978268685, 0.8845161255060224, 0.7967255434750855, 0.9237250913362992, 0.8894708770464169, 0.7277451927558374, 0.8910333366878976, 0.8786121652528741, 0.948301138526969, 0.8787060090210161, 0.7575073070609326, 0.8897239630707019, 0.6843851943826065, 0.9170747949008262, 0.9491328047503859, 0.8809200867939185, 0.8830844750080904, 0.8432827466341399, 0.6978193373178613]</t>
   </si>
   <si>
-    <t>[0.9223148626243107, 0.8803163873039069, 0.6574060379920227, 0.7935445535122145, 0.9322988247472306, 0.9167386745194777, 0.8989551935450484, 0.8862528662493583, 0.5885084405618977, 0.8872090924837757, 0.8568324915032323, 0.8421279541676518, 0.8524095673156145, 0.8572963611620501, 0.9074737524720153, 0.8923431814426515, 0.9087609787339846, 0.8750706889983132, 0.8206560314023287, 0.8926834805115962, 0.8530632245071883, 0.8327417705464073, 0.8306123431136276, 0.743569718328003, 0.9302776842681821, 0.7666618426913429, 0.7770776741608275, 0.9022855428862697, 0.9382103083112385, 0.7468442179062167, 0.8826798915713221, 0.8868126766251389, 0.8609074226058537, 0.7839955468429736, 0.849333803386923, 0.8542094466210175, 0.7821183314653818, 0.8772339185215016, 0.8265288251432374, 0.8608337932821735, 0.882587457244639, 0.831541395795518, 0.8571442605308668, 0.8194555398057839, 0.9166314263467753, 0.8994374552430198, 0.8844532031243747, 0.9006458559093604, 0.8168820164264743, 0.8302165360547203]</t>
+    <t>[0.9165648553764407, 0.8797836370490018, 0.6862472878235735, 0.7929961153985059, 0.9405161514345657, 0.9182363906405993, 0.8824285363833854, 0.8785297074169698, 0.5994885835655679, 0.8802077625583653, 0.8612651190763366, 0.8483679277701055, 0.8411588415661732, 0.8658977363048532, 0.8654839948888059, 0.8892895155255958, 0.9362327937179249, 0.8733334866963548, 0.8420694694490378, 0.8915472383205916, 0.8184399385267811, 0.8547843109882127, 0.8360502784750088, 0.7596611167979725, 0.9319485410897008, 0.8021552946117548, 0.7814663367056591, 0.8955539320371545, 0.9239747934956652, 0.7663505344727533, 0.8907502743902398, 0.8967037405639886, 0.8635630868913817, 0.7917474019037452, 0.88792715051763, 0.8474662542464937, 0.7803365661473081, 0.8721389068297338, 0.8631381345631318, 0.8255615071297517, 0.8752774137440883, 0.8233478841058738, 0.8540490011661939, 0.8052642673108352, 0.917988337495527, 0.907014001688482, 0.8822094980451864, 0.8698920630862437, 0.8132516384594715, 0.827527261503245]</t>
   </si>
   <si>
     <t>[0.8815118307712316, 0.9240094061776243, 0.7601282091798136, 0.8384523709249266, 0.9099437900666929, 0.9310674306963804, 0.8830050047355527, 0.8891112012080915, 0.7299583954223939, 0.932772057618227, 0.8915904648510652, 0.8480123412709958, 0.7280121042532053, 0.8515832353490052, 0.933078880209601, 0.914801198453127, 0.8763247167778174, 0.8834463565562238, 0.8708240611058192, 0.9086249383147602, 0.8935840990317951, 0.8771511466189457, 0.820126078233115, 0.8186728740949414, 0.9234649009609738, 0.8212695593569045, 0.895093261546996, 0.9159311302838675, 0.8972754836483056, 0.8207182912933102, 0.9243778877227498, 0.8892624951309418, 0.8727370038485965, 0.8557115719782553, 0.9123988600484629, 0.8802060594936993, 0.7863271337687104, 0.880436558532484, 0.9128098513870915, 0.9101501363640713, 0.8675917110155047, 0.8732736954312762, 0.7769120748830182, 0.8717186564710494, 0.9335985159719813, 0.918946681942056, 0.9276426451995765, 0.919486971503484, 0.8952618935879351, 0.8578331193666923]</t>
@@ -3955,19 +3955,19 @@
     <t>[0.8296971836838202, 0.8882188293631006, 0.5640260921838263, 0.769777580773827, 0.9203150006830481, 0.9077976460846463, 0.8040515156104229, 0.871042149273864, 0.6491153458300754, 0.8383851286726315, 0.8555984270110071, 0.8529131975039148, 0.7953645984805922, 0.8627660444532003, 0.8912278366044525, 0.8956935712060511, 0.8581763573618556, 0.8890730860582966, 0.8839491626391, 0.824647729206507, 0.8794362785293273, 0.8289162986506434, 0.8570885002558423, 0.5603095170431908, 0.8296850790548675, 0.8668615047824775, 0.8389806158112795, 0.9150906794789018, 0.8584944085417385, 0.8372228184624974, 0.770773125153102, 0.8701925524357677, 0.8340441330477782, 0.8020986213705534, 0.8784640470705327, 0.8455019920363949, 0.8030246834935019, 0.8971284025473236, 0.8340011669748986, 0.8739931794422717, 0.8312132222137318, 0.787842883173492, 0.7689299923738395, 0.7133713658311134, 0.9137766930148246, 0.8615465698226402, 0.6444015607535261, 0.8413881503662719, 0.8537820027800518, 0.7779242200496519]</t>
   </si>
   <si>
-    <t>[0.7622770726976786, 0.8820675920353224, 0.6871715889686135, 0.7328671426308121, 0.8676842253388948, 0.9125175379841794, 0.8678664986399448, 0.9017860533593497, 0.7251384014202746, 0.9311174393040477, 0.7975269661461191, 0.8411128410660282, 0.8634578520850484, 0.850483666369352, 0.9122134546873978, 0.8668831328221536, 0.8582153493820487, 0.7781912181343035, 0.8059007799156798, 0.902836443218461, 0.8046172918039963, 0.8428219098386593, 0.8182890489189413, 0.7845129934824187, 0.9106697935503579, 0.7157481960039633, 0.8267801137267076, 0.8944435297885385, 0.8749310012372203, 0.8377970084546452, 0.8532886306702412, 0.7582662548010797, 0.9043084113153764, 0.8435871965315811, 0.8278390983410204, 0.8003565065695517, 0.792754606035412, 0.8419827398892015, 0.910288555120905, 0.8415077539562621, 0.8149135841489608, 0.8919003011540589, 0.8527347041011217, 0.6944734357392854, 0.8396583800713449, 0.9078690428108156, 0.8587822222887382, 0.7308299587024675, 0.8241115449558667, 0.8881773792712417]</t>
+    <t>[0.7622770726976786, 0.8742489725546323, 0.6871715889686135, 0.7328671426308121, 0.8676842253388948, 0.9125175379841794, 0.8678664986399448, 0.9017860533593497, 0.7251384014202746, 0.9311174393040477, 0.7975269661461191, 0.8411128410660282, 0.8634578520850484, 0.850483666369352, 0.9122134546873978, 0.8668831328221536, 0.8582153493820487, 0.7781912181343035, 0.8059007799156798, 0.902836443218461, 0.8046172918039963, 0.8428219098386593, 0.8182890489189413, 0.7845129934824187, 0.9106697935503579, 0.7157481960039633, 0.8267801137267076, 0.8944435297885385, 0.8749310012372203, 0.8377970084546452, 0.8532886306702412, 0.7582662548010797, 0.9043084113153764, 0.8435871965315811, 0.8278390983410204, 0.8003565065695517, 0.792754606035412, 0.8419827398892015, 0.910288555120905, 0.8415077539562621, 0.8149135841489608, 0.8919003011540589, 0.8527347041011217, 0.6944734357392854, 0.8396583800713449, 0.9078690428108156, 0.8587822222887382, 0.7308299587024675, 0.8241115449558667, 0.8881773792712417]</t>
   </si>
   <si>
     <t>[0.9099378270499222, 0.8724882728455639, 0.5866984549800474, 0.8070855780933539, 0.9270978364052563, 0.9228333855967374, 0.8232615747484447, 0.8567627841726597, 0.6711765932503708, 0.8761332626890744, 0.8437957336672793, 0.8627242369965469, 0.7628958718534175, 0.889768034202181, 0.9154941031484174, 0.9004976704903414, 0.8225782931377892, 0.8223368610948494, 0.8119028247275404, 0.7833736689938388, 0.7814495293751074, 0.8366605609417228, 0.8023672956892752, 0.654923802329344, 0.8152953423104201, 0.8437233442782011, 0.764867292348525, 0.9002758035530423, 0.8412372659167702, 0.795148288134368, 0.8023281623106837, 0.8553069388423816, 0.7890210229171544, 0.7865738656294802, 0.6552989278465251, 0.8389532116744407, 0.6928655644657538, 0.8823426932619363, 0.8497605916988676, 0.8227786857757755, 0.8634187263196438, 0.7917329449534306, 0.9036257801861574, 0.8405806186205844, 0.8377855808946678, 0.8273754873045261, 0.7455631383675494, 0.8760778073099788, 0.7961772116725961, 0.7611906584662124]</t>
   </si>
   <si>
-    <t>[0.9205868228728192, 0.8733509915995222, 0.6053849659527982, 0.8051794096761546, 0.9134736261787354, 0.9316347589419156, 0.8894050656034103, 0.9119111531124015, 0.6181731301807061, 0.8914758471454428, 0.8596667684972156, 0.8283084124866101, 0.8055649246781367, 0.8640915390813474, 0.9000695441532913, 0.8870787284264191, 0.9033599820602387, 0.7848381535889796, 0.8319498508992893, 0.8674795998415508, 0.7833242844052448, 0.8440898484899014, 0.8492453391470512, 0.7896747834799647, 0.9118699221985036, 0.8267045237185018, 0.8085357624883502, 0.8774927232807592, 0.9095368280760618, 0.8027087721911916, 0.8822955614794148, 0.887108069877873, 0.8342962661625628, 0.7771529976253371, 0.8202415294729911, 0.8442159963501784, 0.7569379652943866, 0.890527520070913, 0.8158360949588138, 0.8385274323681154, 0.8733199361779428, 0.8013133248702845, 0.8919830147178703, 0.8860203631058554, 0.9043308498387904, 0.8977159444809866, 0.8719587110065855, 0.8564438509021514, 0.8258720761527353, 0.8041890798283738]</t>
+    <t>[0.9085445384456838, 0.8690433973127096, 0.6232082589925139, 0.8092776508012498, 0.9339899077931462, 0.9193266449560881, 0.8780225719837349, 0.8996886460640678, 0.5693454890496547, 0.8887858187978169, 0.8541853333697992, 0.878046108950518, 0.812571708609326, 0.8615708724714697, 0.8943428585559744, 0.8842486099010309, 0.8923601595592203, 0.7988363288518177, 0.8423695897101489, 0.855327331908181, 0.8197793903542939, 0.8556050985324499, 0.8647894243763501, 0.7842131703825589, 0.8836071002809112, 0.8513656253830223, 0.8149849112943948, 0.8792042921569527, 0.8953355533912788, 0.7881172096378549, 0.8792414493302805, 0.8747752071070879, 0.83280574731548, 0.756666995129974, 0.8250441863194928, 0.8614732572012652, 0.8076132941673229, 0.8901022535465734, 0.8252669677451054, 0.8382534073154726, 0.8931250286993899, 0.7831822342936335, 0.88456975321203, 0.8512747813896759, 0.8973803768311222, 0.8823920517948428, 0.8669675845277794, 0.8656443669990969, 0.8284037791078789, 0.8271910290947526]</t>
   </si>
   <si>
     <t>[0.9159126320877985, 0.8881532134627766, 0.6154357494081858, 0.8447636745888788, 0.8983185110647282, 0.9256815431541032, 0.8230881959899047, 0.9368122458806258, 0.7361889070002021, 0.9162626908778476, 0.8442380656060072, 0.8640085014694496, 0.8161766276940663, 0.8785179039742983, 0.8508652505096584, 0.9226813832604283, 0.8664381619989945, 0.8361601720837021, 0.896617911197052, 0.8595501328359845, 0.8226878249731536, 0.8771074523076633, 0.8684005631764867, 0.7618418707826087, 0.9469860854535183, 0.7657787413457666, 0.8178509991856924, 0.83268949949922, 0.8703470032366512, 0.8110001238051108, 0.907366161452084, 0.8832820266450478, 0.8518293485693255, 0.8304580282633266, 0.8871093181092076, 0.8656274048181446, 0.7964386826085663, 0.822872906949024, 0.8291493845697187, 0.8931688850916174, 0.8804376276273058, 0.8096787138870724, 0.8206596740001761, 0.9099599564932557, 0.9256964482886664, 0.9007098485483431, 0.8187453945624076, 0.8916147516482416, 0.8772266509811806, 0.8129268307262737]</t>
   </si>
   <si>
-    <t>[0.8709558026941406, 0.818059431239021, 0.5409438265659818, 0.6381712171531089, 0.8224734126531001, 0.8701722927246676, 0.7574637948769288, 0.8236713098447837, 0.5562370283415514, 0.6796984477947008, 0.8089354612941208, 0.7678466651897766, 0.6647794218201539, 0.781110124269762, 0.7803498593909297, 0.8465258512010785, 0.7404270125880308, 0.733624044087583, 0.6990010072424655, 0.8119808184272704, 0.7409606493810309, 0.6603492247894612, 0.8347721706785086, 0.5771833614467473, 0.8464258194152467, 0.7108273598849516, 0.7230134535452702, 0.8365721072619119, 0.8230393634637547, 0.722220292020077, 0.8199055960311004, 0.7180756450834614, 0.7198006962703358, 0.65392119523913, 0.6873396127103919, 0.7830210651012498, 0.563101249296752, 0.7402376451216313, 0.7728794893430393, 0.783102122819821, 0.8254540732997868, 0.6384170408252701, 0.8430910124963527, 0.6985686043963931, 0.7057066694841784, 0.8623147598812422, 0.5967763841161067, 0.7105595473505943, 0.7512551232657394, 0.6011728022015046]</t>
+    <t>[0.8709558026941406, 0.818059431239021, 0.5409438265659818, 0.6381712171531089, 0.8224734126531001, 0.8701722927246676, 0.7574637948769288, 0.8236713098447837, 0.5562370283415514, 0.6796984477947008, 0.8089354612941208, 0.7678466651897766, 0.6647794218201539, 0.781110124269762, 0.7803498593909297, 0.8465258512010785, 0.7404270125880308, 0.733624044087583, 0.6990010072424655, 0.8119808184272704, 0.7409606493810309, 0.6603492247894612, 0.8347721706785086, 0.5771833614467473, 0.8464258194152467, 0.7108273598849516, 0.7230134535452702, 0.8365721072619119, 0.8230393634637547, 0.722220292020077, 0.8199055960311004, 0.7180756450834614, 0.7198006962703358, 0.65392119523913, 0.6873396127103919, 0.7830210651012498, 0.563101249296752, 0.7402376451216308, 0.7728794893430393, 0.783102122819821, 0.8254540732997868, 0.6384170408252701, 0.8430910124963527, 0.6985686043963931, 0.7057066694841784, 0.8623147598812422, 0.5967763841161067, 0.7105595473505943, 0.7512551232657394, 0.6011728022015046]</t>
   </si>
   <si>
     <t>[0.937837468605089, 0.8771437820926102, 0.5816308488667385, 0.7125877142328323, 0.8769031306082714, 0.909142637672933, 0.840315957165914, 0.8580441992063137, 0.5389624183148269, 0.7905056957012047, 0.9041240604006932, 0.846321840203833, 0.76424169791542, 0.8272804276055763, 0.9076921850709562, 0.9061082438646515, 0.6754820497690699, 0.8137080117967418, 0.8452185328274286, 0.8351981193763449, 0.8834336932050697, 0.7580357594478122, 0.8553556066118473, 0.7358692117286725, 0.9104062728041985, 0.8236931620571497, 0.7991842492919705, 0.9288256418268265, 0.8658780462778966, 0.8141186056821026, 0.7959434367618563, 0.8551526849332063, 0.788215906384586, 0.861348763693878, 0.8811084359661184, 0.7473027840206772, 0.7829689335075427, 0.8822067710905923, 0.816325796907024, 0.8813177733003367, 0.8014153286609401, 0.6853153433357295, 0.86952380509373, 0.8617327610668748, 0.874263142161398, 0.9150050526867672, 0.8027967008392044, 0.8433654413779569, 0.8406376662126047, 0.7738114812299413]</t>
@@ -3979,7 +3979,7 @@
     <t>[0.9058533588451009, 0.8551655195378933, 0.5841016498690267, 0.6439848562410506, 0.8960831949206503, 0.8983312275116617, 0.7268255624075783, 0.8631001784113501, 0.578479005145929, 0.780960903080613, 0.8517273274082755, 0.7947433929843387, 0.7593119811301461, 0.840148627681034, 0.9175643037764278, 0.9017890034555522, 0.8502613710215761, 0.8995337340877432, 0.8020265394775615, 0.859538829714528, 0.7547081993171934, 0.8335384113473581, 0.8351112684034783, 0.7744749715566301, 0.8947084020567999, 0.8507710266900264, 0.80712169961513, 0.8822801807671669, 0.8716547007917896, 0.825782963246724, 0.7629107767020646, 0.8314858017566376, 0.7867088071704892, 0.8520882926672553, 0.8066285963007958, 0.78481628615296, 0.7667454606063389, 0.8802077078013839, 0.8040135833077344, 0.8154071223800763, 0.8485225568840504, 0.7660134964399521, 0.8827466002806895, 0.8304933088239741, 0.8866980814900394, 0.9009957175376931, 0.77976202672915, 0.8834628898899531, 0.8052720490824963, 0.7610480275606744]</t>
   </si>
   <si>
-    <t>[0.9172306789291017, 0.8666018567031984, 0.6692590033083639, 0.7908582261738333, 0.928597270009244, 0.9365632600820955, 0.7984288576347495, 0.9143397152745707, 0.597495419617046, 0.8709941686850349, 0.8421242426252811, 0.8886193374079004, 0.8115982908436568, 0.8442032370311281, 0.918400204609004, 0.8797608880762409, 0.819877293546962, 0.8803183554399977, 0.8250775602430127, 0.8582184477488597, 0.8511871377024008, 0.8860198547309591, 0.8567404282466609, 0.8080332928010118, 0.8960975608429554, 0.8188278285229169, 0.8420360471476049, 0.9160019928268252, 0.9166355589177492, 0.7749535653228206, 0.8755779111806272, 0.8822699339908457, 0.7912824103942797, 0.7782750121736104, 0.8676450325266252, 0.8475888427174726, 0.7820391637742092, 0.8639009907521664, 0.8283207068697163, 0.8497374875473215, 0.8801627041691917, 0.8131795827266339, 0.8856835920266106, 0.8803112088008065, 0.876955962958075, 0.881064503792798, 0.8699160304462304, 0.8652273265434162, 0.8024872012250186, 0.8226146998337862]</t>
+    <t>[0.9174753453349576, 0.8627319522024027, 0.6591612800010939, 0.7733768719834508, 0.9306631989227898, 0.9404015931496512, 0.7864271144150463, 0.9020433718641894, 0.5982244597536844, 0.8762088304044402, 0.8268514448165984, 0.8915232492959919, 0.8046726081963389, 0.8510718929116341, 0.9121685757819926, 0.8878755893828174, 0.7861484246112059, 0.886090244337248, 0.8429434960630192, 0.837579104999415, 0.8550434564529517, 0.9140511206339619, 0.8500990508789852, 0.8030155402472161, 0.8801359403939018, 0.820514275267969, 0.8259376586428606, 0.9123420289560896, 0.9101535361405486, 0.7619182601826011, 0.8854584998678547, 0.8579411233492551, 0.8039435821303959, 0.7797182022738381, 0.8897224706051577, 0.8543421684076085, 0.7781741505687647, 0.8606718232364723, 0.846042922072344, 0.84889710839918, 0.8768524075462304, 0.8127710919189575, 0.8836447158004972, 0.874651934307412, 0.8786396993854372, 0.88671393050658, 0.8560114732141537, 0.8789081143606383, 0.7766798951110754, 0.8229838829821882]</t>
   </si>
   <si>
     <t>[0.9605268614594143, 0.9031480269803096, 0.7660472024934423, 0.7826880283527085, 0.9158684971969847, 0.9450534732172511, 0.7902294763369704, 0.8710015533734452, 0.6772850765886631, 0.9111091054955458, 0.8028635852117947, 0.9080145576383365, 0.7445298018331197, 0.8994937393206671, 0.9035699078605818, 0.882118628438874, 0.7716203176229659, 0.8021482490442369, 0.8838410174165847, 0.8994149877749199, 0.8475021805991823, 0.8928387444793483, 0.8795855753820158, 0.8290734571382804, 0.8786461416356159, 0.7967877471351217, 0.8158518205272847, 0.9141766874021364, 0.8440856707945572, 0.8185032925518916, 0.8975315423546284, 0.8461605737669089, 0.7652176118981556, 0.7884563962695013, 0.9160596625432752, 0.8458283407256235, 0.8325385539407523, 0.8582772136885959, 0.8606455453776992, 0.8747309236268221, 0.8976067148162411, 0.8306786332584324, 0.8797278631443372, 0.8731216222523166, 0.8887030295141913, 0.8860256538537041, 0.7498419880148061, 0.8581513303743887, 0.8402641931101582, 0.8081691492695973]</t>
@@ -3991,13 +3991,13 @@
     <t>[0.9363725743906696, 0.8804771269517051, 0.6197655879144962, 0.7423781153067238, 0.9093535104291853, 0.9196163255036328, 0.8905961125845993, 0.9085837549606682, 0.6357687987955868, 0.8070937844863926, 0.8768389536191799, 0.8253969737621389, 0.6595679223714442, 0.8327197440733194, 0.8961416246755773, 0.9298324699577452, 0.8379028969771238, 0.7706171020035963, 0.803896461288059, 0.903203369651947, 0.8375742739162563, 0.6839520250453861, 0.844794517137422, 0.7189316707585056, 0.8474021296296301, 0.8276538122776365, 0.8132218957821951, 0.9237899973406701, 0.879006677929666, 0.8651865921870909, 0.8012623660281657, 0.8833089705215569, 0.7906148686540007, 0.7190831012927487, 0.7521660995039088, 0.8154509662421842, 0.6745158507019388, 0.8678706049812126, 0.8745458969509399, 0.7717695417114623, 0.8310067665031873, 0.6489033855631734, 0.8839287962122293, 0.6758298954200379, 0.6843403249373247, 0.9334450469970965, 0.8566088423715097, 0.8412090690049185, 0.865620171090003, 0.8335647064253018]</t>
   </si>
   <si>
-    <t>[0.9188279786566007, 0.8476635964104501, 0.6810341766389817, 0.7272052618970366, 0.8588567400726569, 0.9184642732348527, 0.8277408565220807, 0.9101513478680399, 0.6730303264679286, 0.8008107063391232, 0.8483604591659109, 0.8692781975680496, 0.635133145939957, 0.8302068300909065, 0.8670679905643608, 0.901227887871437, 0.7845250785052422, 0.8757800670167075, 0.8766828847170339, 0.8741771650236299, 0.8680528436366661, 0.8443949746202807, 0.7258151654270779, 0.6978348648251482, 0.8809581999450373, 0.7849757929165098, 0.7829085976838283, 0.930405516267052, 0.811099448823361, 0.8544117418226527, 0.8230963875420172, 0.8546259137225, 0.841138272476764, 0.8497150790742202, 0.7790892175884045, 0.839484788815934, 0.8205170038014195, 0.8827802136097772, 0.861350088200258, 0.8248741736144236, 0.8432082247211796, 0.7631727133514374, 0.8607463771949561, 0.9103425278749325, 0.8219992784878112, 0.8645589957583306, 0.883988988571071, 0.8811144121849492, 0.8605121622914158, 0.8876790981065741]</t>
+    <t>[0.9188279786566007, 0.8476635964104501, 0.6810341766389817, 0.7272052618970366, 0.8588567400726569, 0.9184642732348527, 0.8277408565220807, 0.9101513478680399, 0.6730303264679286, 0.8008107063391232, 0.8483604591659109, 0.8692781975680496, 0.635133145939957, 0.8302068300909065, 0.8670679905643608, 0.901227887871437, 0.7845250785052422, 0.8757800670167075, 0.8766828847170339, 0.8741771650236299, 0.8680528436366661, 0.8443949746202807, 0.7258151654270779, 0.6978348648251482, 0.8809581999450373, 0.7849757929165098, 0.7829085976838283, 0.930405516267052, 0.8033361482869007, 0.8544117418226527, 0.8230963875420172, 0.8546259137225, 0.841138272476764, 0.8497150790742202, 0.7790892175884045, 0.839484788815934, 0.8205170038014195, 0.8827802136097772, 0.861350088200258, 0.8248741736144236, 0.8432082247211796, 0.7631727133514374, 0.8607463771949561, 0.9103425278749325, 0.8219992784878112, 0.8645589957583306, 0.883988988571071, 0.8811144121849492, 0.8605121622914158, 0.8876790981065741]</t>
   </si>
   <si>
     <t>[0.9062432833369887, 0.8364494844913959, 0.590833060140029, 0.7146641544009289, 0.9215919106475475, 0.8993442163510855, 0.7989351575873189, 0.8962257058719554, 0.6188503496057767, 0.8476533544036203, 0.8437677594928228, 0.8290459073215969, 0.7076135394114518, 0.8750138264422225, 0.9069176504302846, 0.9093887362925361, 0.7882436158434989, 0.8321897553904563, 0.8366158914309195, 0.8382482072956607, 0.7332688556288717, 0.8734274521847887, 0.8259718847402345, 0.7614123268792286, 0.87356275083902, 0.832828726668033, 0.6661458354731584, 0.8988543721384596, 0.8871283289152563, 0.8525703284298393, 0.7754425526512739, 0.9170958209173212, 0.786873184277562, 0.8126818878528091, 0.8091361154654617, 0.7017168369002353, 0.6738851246975017, 0.910284328725796, 0.8654685754174092, 0.7719172240909575, 0.8737992166086995, 0.7407411263090378, 0.9122593623037517, 0.8041381177957657, 0.8616560139574124, 0.8947424837078033, 0.8618192414611773, 0.8069250664886035, 0.8449089882894505, 0.7658285769793137]</t>
   </si>
   <si>
-    <t>[0.9099681790919981, 0.883639036169465, 0.5607900080956152, 0.7606320128825104, 0.8930028393274849, 0.9281583000529992, 0.8673666040926263, 0.9071061052298842, 0.566551336630093, 0.8729710729757016, 0.8583702651890536, 0.817180532299679, 0.7816522166711501, 0.8398633696697724, 0.8928591645159584, 0.8970497514604945, 0.8934984226234804, 0.7881656610781512, 0.8180236085357394, 0.9084481718318564, 0.8021805690355819, 0.826537926422868, 0.8360982785009896, 0.7855742909475234, 0.9072199255338269, 0.7864078167060655, 0.7896976296191379, 0.9070123617579897, 0.9097219350145274, 0.7692948970858177, 0.8738313644478295, 0.9125633689168338, 0.8262224363787578, 0.7554020290610687, 0.8355703917163697, 0.8648083539662672, 0.7764603187278067, 0.8598606316066802, 0.8550036572132105, 0.8226606210681211, 0.8818471843875711, 0.8093027379585829, 0.8703115248074206, 0.8432251161485286, 0.9138127516373243, 0.8906733078072606, 0.884950703352605, 0.8736858674868326, 0.8141105793229306, 0.810395681253153]</t>
+    <t>[0.9189060830240001, 0.8709306902594285, 0.5622012290531833, 0.748187540815948, 0.9269793018969791, 0.9356758159386588, 0.8582328991865644, 0.914009361088473, 0.5658273546403836, 0.8772324480413004, 0.8885344437936782, 0.8581569186365818, 0.8051485643368492, 0.8530746182071506, 0.8901634892412018, 0.9070879275951758, 0.8909253549883546, 0.8170515311018144, 0.8188542248227775, 0.8961117035261938, 0.7959124447393406, 0.8274037204933835, 0.8295657851195605, 0.7660150643579371, 0.9000166492917032, 0.8081356687973397, 0.7869885211976556, 0.8766360703917225, 0.9118271007418302, 0.811889332842485, 0.8655459166310717, 0.8975771573337982, 0.8202126473517855, 0.7482251921702187, 0.858722160701239, 0.8208408147534973, 0.7640895407374252, 0.8687834268663406, 0.8471929568224337, 0.8246656355824338, 0.8664955523774595, 0.7814927219210597, 0.8711974352691977, 0.8679128593507917, 0.8935642682661586, 0.9011628889387765, 0.8774853568566068, 0.8688078207424017, 0.8212995290725307, 0.8183075090817901]</t>
   </si>
   <si>
     <t>[0.8673986146134904, 0.8893285321487732, 0.6623723273107792, 0.8190997736268916, 0.8583820035117458, 0.9437649773595248, 0.7953309851662338, 0.8918141710952641, 0.6596601501134721, 0.8859332722823868, 0.8749348394644272, 0.8163946053650832, 0.823202375595693, 0.8835972724773816, 0.9157498908727646, 0.9459779817703633, 0.851604787189945, 0.7952446235933492, 0.8684836758416725, 0.9333591099053834, 0.8360274789393867, 0.8413705705848169, 0.8640934495471814, 0.7682455719245542, 0.9311628450631082, 0.7964244515092698, 0.8546187776449023, 0.9065518728871442, 0.8924031488303046, 0.7642493904461949, 0.8879316113658974, 0.917580745484187, 0.8575086176558413, 0.816369121076937, 0.8989709455180739, 0.8502234612380737, 0.7624055971751589, 0.8637972974597962, 0.8820548339825015, 0.8407988839532285, 0.8689229319883569, 0.7963520949586318, 0.8321616567558174, 0.8540233455080227, 0.8785028107553196, 0.9343784134908761, 0.9191026975798632, 0.8043519481606165, 0.8534941060430683, 0.8108035915286944]</t>
@@ -4015,7 +4015,7 @@
     <t>[0.7968961755235873, 0.8368910782703886, 0.696223316912972, 0.7184891267502997, 0.8752052545155994, 0.8983865076149993, 0.8408375609054937, 0.8438483724842568, 0.6894758515367638, 0.8571428571428572, 0.8796649900447389, 0.8331057423636838, 0.8583550100910248, 0.7332694745005917, 0.8513550825426252, 0.8673482021695675, 0.8407224958949097, 0.8836573011085511, 0.7804544502665672, 0.8606625014514514, 0.8158640288513511, 0.8744696151523164, 0.8894362342638205, 0.5887992616464282, 0.9237717343932427, 0.88262101913478, 0.8052552422473837, 0.878576391679331, 0.7847755831814225, 0.6891078270388615, 0.8605225293523092, 0.86582707397755, 0.8703628386253017, 0.7728516694033934, 0.8981937602627257, 0.862986797763971, 0.6982345761295294, 0.9106336475040943, 0.7880115032053764, 0.8407224958949097, 0.8916256157635466, 0.7220473586161107, 0.810840435527735, 0.741034793711539, 0.9250136836343732, 0.9301638203329415, 0.8513550825426252, 0.8165891354420101, 0.8283602828855253, 0.63199672139674]</t>
   </si>
   <si>
-    <t>[0.9164818920916483, 0.8779419813902573, 0.6496989600437876, 0.803886691529764, 0.8910187535493193, 0.914398331852722, 0.8731353578413166, 0.890379096883324, 0.6703161414900892, 0.8872160201031023, 0.8741069228874108, 0.8802419883132081, 0.8550704883687377, 0.8008758799510008, 0.8305502638052492, 0.8570021003544235, 0.9146141215106732, 0.8680536870555191, 0.7922255977100827, 0.8497125968528324, 0.8000985403711319, 0.9025192014143107, 0.8752052545155994, 0.7155964979916823, 0.8828360251847798, 0.8471486700542865, 0.7886668491650699, 0.8440367051604801, 0.8526835889835833, 0.8555008210180624, 0.8597659244318981, 0.9277109824908095, 0.8139631076543006, 0.7482211275314723, 0.8308702791461413, 0.9081947632310577, 0.6451658048257214, 0.9229506039626708, 0.8553441985122616, 0.8341543513957307, 0.9251231527093594, 0.8099083146872903, 0.8688749299004155, 0.7563646601496057, 0.9003831417624522, 0.8978938360999925, 0.8508075873126942, 0.8765398631194489, 0.7898699594885221, 0.8274257638728215]</t>
+    <t>[0.9238728750923872, 0.8839627805145046, 0.6382047071702245, 0.7693992134457496, 0.877755036373928, 0.9057649667405766, 0.8821677925776062, 0.8725879375542688, 0.6621048371843714, 0.8832626331517017, 0.8712578604987942, 0.859688392695683, 0.8671137346837904, 0.7771694497673146, 0.8584725205317275, 0.828159645232816, 0.9211822660098522, 0.8538188110773146, 0.8119354259875968, 0.8694224251303465, 0.8072422773387312, 0.8691128474784655, 0.8582375478927203, 0.6830071435098568, 0.884752258417739, 0.8511948755851195, 0.7546188656954577, 0.8607803600622675, 0.8302301354522238, 0.8416586913360654, 0.8760474203457786, 0.9162104331210886, 0.8410678327325973, 0.715927750410509, 0.8527640941434045, 0.8855207012996444, 0.6367743940803943, 0.9196660822403838, 0.8405638507619697, 0.8565955117679256, 0.9261083743842363, 0.7948542567934745, 0.8729811441248977, 0.76758831236319, 0.9107339810402691, 0.9018352082200474, 0.8127566688324933, 0.8824093169606608, 0.7840131692611184, 0.818393329136532]</t>
   </si>
   <si>
     <t>[0.9268292682926831, 0.9107827038861521, 0.5960591133004925, 0.7808950394737543, 0.8902272438677227, 0.8895184203448758, 0.8512385463594028, 0.8364581986091109, 0.7491446628249793, 0.8832626331517017, 0.921788404577825, 0.8092635714473548, 0.8235938218634865, 0.875598749133032, 0.8935122152473083, 0.8037935767336832, 0.926655719759168, 0.8395839350991098, 0.8445113921684884, 0.8283602828855253, 0.8609434724744784, 0.8695414833198987, 0.8828680897646416, 0.7205259801822107, 0.872040517267221, 0.8707969027746154, 0.8420476320832194, 0.8439211707399592, 0.8209201669148307, 0.8757525998905309, 0.8459833457235043, 0.9173057235372524, 0.8736482598469134, 0.7739463601532567, 0.8724685276409413, 0.9170672222476977, 0.7245961098138171, 0.8731353578413166, 0.8370056188961588, 0.916256157635468, 0.7679802955665023, 0.8717668071236971, 0.8614837442963478, 0.8289077781154562, 0.8757525998905309, 0.921788404577825, 0.7856556549509114, 0.8196003592066302, 0.8870636633423957, 0.8564390390863573]</t>
@@ -4027,13 +4027,13 @@
     <t>[0.9072545948851227, 0.896551724137931, 0.5637657361795292, 0.7480498222508836, 0.9146141215106732, 0.9402635863905819, 0.9144655895134292, 0.8660188941096947, 0.6883810109626681, 0.8752052545155994, 0.8961694857974685, 0.8618807762282191, 0.832626256599776, 0.8389215899008262, 0.9041883722309618, 0.8912427706473999, 0.8856048166392994, 0.9282781623479235, 0.8344969277369204, 0.8045442403835291, 0.9094716167026536, 0.8922656467693797, 0.8888888888888888, 0.749555153081988, 0.8235938218634865, 0.9264687839703899, 0.8706719665496014, 0.878028821475729, 0.8121578435855197, 0.8992884510125888, 0.8462297725646707, 0.9277109824908095, 0.6360027914836666, 0.7876299945265463, 0.9003831417624522, 0.8920651650215806, 0.7636513004317472, 0.9243191546802904, 0.8353633580350152, 0.883415435139573, 0.8211822660098521, 0.8468591840630201, 0.7949630738597375, 0.6715028995103086, 0.9419813902572524, 0.9166153536702529, 0.7632083505237425, 0.8592937633766239, 0.8382151970242824, 0.8093608944002425]</t>
   </si>
   <si>
-    <t>[0.8785415126878543, 0.7980295566502463, 0.6480569239189928, 0.7540714454084099, 0.7940293011975541, 0.901663647566031, 0.8591761405215965, 0.8485014449241636, 0.8099083146872903, 0.8718861536650359, 0.8069959415812279, 0.8619987370549165, 0.8246886624375821, 0.8438483724842568, 0.8595675109915895, 0.8589554077358956, 0.8713738368910783, 0.8572210894830373, 0.812482921217528, 0.8574558481043035, 0.8286734882415294, 0.7939767952228295, 0.8160919540229885, 0.7859491729770357, 0.8764198795636038, 0.7491070385679224, 0.7943068365064266, 0.8124914471500448, 0.8784229137634346, 0.9020251778872468, 0.8430262236295102, 0.8270574434644009, 0.8815880277991416, 0.8144499178981938, 0.7571859029945021, 0.8564387523006581, 0.7655672714364147, 0.8901053867398, 0.782537300334898, 0.8330596606458676, 0.8788177339901475, 0.7997810393769051, 0.773884507507396, 0.8475226159331086, 0.8659003831417624, 0.8651311803520365, 0.8283602828855253, 0.8193266115916648, 0.8223378353562849, 0.8843574737257975]</t>
+    <t>[0.8785415126878543, 0.7980295566502463, 0.6480569239189928, 0.7540714454084099, 0.7940293011975541, 0.9376463980224041, 0.8591761405215965, 0.8485014449241636, 0.8099083146872903, 0.8718861536650359, 0.8069959415812279, 0.8619987370549165, 0.8246886624375821, 0.8438483724842568, 0.8595675109915895, 0.8589554077358956, 0.8713738368910783, 0.8572210894830373, 0.812482921217528, 0.8574558481043035, 0.8286734882415294, 0.7939767952228295, 0.8160919540229885, 0.7859491729770357, 0.8764198795636038, 0.7491070385679224, 0.7943068365064266, 0.8124914471500448, 0.8784229137634346, 0.9020251778872468, 0.8430262236295102, 0.8270574434644009, 0.8815880277991416, 0.8144499178981938, 0.7571859029945021, 0.8564387523006581, 0.7655672714364147, 0.8901053867398, 0.782537300334898, 0.8330596606458676, 0.8788177339901475, 0.7997810393769051, 0.773884507507396, 0.8475226159331086, 0.8659003831417624, 0.8651311803520365, 0.8283602828855253, 0.8193266115916648, 0.8223378353562849, 0.8843574737257975]</t>
   </si>
   <si>
     <t>[0.9432196154806232, 0.8669950738916257, 0.6223316912972086, 0.8345422276044435, 0.8592169430344005, 0.9284394700304175, 0.8441220826277808, 0.8360251847796333, 0.7269741411995414, 0.9140667761357416, 0.865697414161047, 0.8999734401060321, 0.8553441985122616, 0.8275390090336711, 0.8352039732596623, 0.8328815406926029, 0.8757525998905309, 0.8229979543232226, 0.7885010340821295, 0.7411362150209461, 0.8136470070338203, 0.8295221219763446, 0.819376026272578, 0.7232645813991707, 0.8271520537292975, 0.8565094288394167, 0.7900355871886122, 0.8385595039589196, 0.8258489737875682, 0.8423645320197045, 0.8462297725646707, 0.9151151427049247, 0.8646133514874812, 0.840175150519978, 0.8056923918992885, 0.8618608105886049, 0.5923847437636794, 0.9248665749673383, 0.8200355899976755, 0.8078817733990148, 0.8901477832512312, 0.7673145359978102, 0.9043121234629423, 0.7714207789727068, 0.8828680897646416, 0.877447968227208, 0.8357514684895931, 0.8603887538364859, 0.7636911281489597, 0.7781579380385152]</t>
   </si>
   <si>
-    <t>[0.9379157427937915, 0.8572601695169292, 0.632183908045977, 0.7776105177514673, 0.8793977469847339, 0.9276915496427692, 0.8690297056884578, 0.9029697634854243, 0.6545305228579251, 0.8839627805145046, 0.9046563192904656, 0.9025094675546977, 0.8567127492298814, 0.8141253764029566, 0.8694224251303465, 0.8626678227770024, 0.9146141215106732, 0.8472488683181431, 0.8157678925971136, 0.8421629100127188, 0.7899987743134913, 0.8595290574149034, 0.8719211822660098, 0.7205259801822107, 0.8836572679989051, 0.8836063621647938, 0.804817957842869, 0.8171984192728335, 0.8440367684626766, 0.8728616476977927, 0.8506654557056619, 0.9107339810402693, 0.8214677197338994, 0.7339901477832512, 0.8011495900945247, 0.9008010473838577, 0.7437371732930919, 0.8887368360221803, 0.857807589803977, 0.8117131910235358, 0.8679802955665022, 0.753524025121362, 0.8899534962527571, 0.7864768977958078, 0.916256157635468, 0.8941987997374411, 0.8392881666592943, 0.8720054838720773, 0.8330139923399383, 0.8260572131552018]</t>
+    <t>[0.9275683665927568, 0.8709456766931253, 0.628352490421456, 0.7546188656954577, 0.8894060010228262, 0.929917484575438, 0.8780621404247473, 0.8947584591797065, 0.6818119675180939, 0.8653530377668308, 0.8961439023286524, 0.8811847184838018, 0.8572601695169292, 0.8168628524500412, 0.8190280706446841, 0.8466559985392796, 0.9255610290093048, 0.8464276254732467, 0.8280865352705599, 0.8616016507834935, 0.7885207597684707, 0.8655531540262853, 0.866447728516694, 0.7199782599388185, 0.8805255317164626, 0.8754772821671806, 0.7905830823980292, 0.8359803161158649, 0.8566343321710749, 0.8859997345869411, 0.8431300637756983, 0.9058051741675317, 0.8058598330589554, 0.7246852764094143, 0.8520596767899745, 0.8983364754347911, 0.7054635676702969, 0.9062542852077115, 0.8088134741131947, 0.8171866447728516, 0.8689655172413792, 0.7592719381353644, 0.8707911632051739, 0.7727895170475341, 0.8649240535355989, 0.9020815439775507, 0.8447638682848647, 0.869148677515381, 0.8320328620054136, 0.8203093001411994]</t>
   </si>
   <si>
     <t>[0.9418576003941859, 0.8642583470169677, 0.6951286261631088, 0.8263309232987258, 0.9199397923839077, 0.9740115851685514, 0.9065279953512353, 0.8797044012858908, 0.675335340815768, 0.8538587848932675, 0.9025742154925577, 0.8468081394420339, 0.7954016770805223, 0.8520596767899746, 0.8910484867126189, 0.8658701876245469, 0.9447181171319102, 0.8494388492378669, 0.8387626922542135, 0.7892143739454625, 0.7688138991681965, 0.9253936440872977, 0.9058565955117679, 0.7227168611557787, 0.9019983575143719, 0.8579874433844372, 0.8717668071236971, 0.8082136205164802, 0.8669223643937138, 0.9051594446336159, 0.9100543244267119, 0.883899365844254, 0.900479199823409, 0.7991242474001095, 0.8440065681444991, 0.9241006543731842, 0.8289077470572133, 0.8797044012858908, 0.7937594162193787, 0.8368910782703886, 0.8886699507389161, 0.688654721106192, 0.8718861536650359, 0.8390364398691789, 0.8877941981390256, 0.8705505670171121, 0.886942272488137, 0.8250753115059396, 0.858746268146693, 0.8400164304749219]</t>
@@ -4045,13 +4045,13 @@
     <t>[0.950117016690719, 0.8505747126436781, 0.5303776683087027, 0.6029834461832039, 0.823610247913434, 0.9530730457807602, 0.7202299479879551, 0.8212428141253765, 0.5638428956592828, 0.825944170771757, 0.9061114124310189, 0.8657174474101571, 0.8312577058821564, 0.7800739090431826, 0.7869952161350977, 0.8599951747488878, 0.8144499178981938, 0.8205338885917159, 0.7572895348163786, 0.778538216961809, 0.9119349742776878, 0.7983020751274496, 0.8916256157635468, 0.8434676696925532, 0.8791238959853187, 0.7347542251152163, 0.7892143443744868, 0.8643395663856802, 0.8242060381633225, 0.922782175618072, 0.879250969280939, 0.912376916664515, 0.7953457207318343, 0.7411056376573617, 0.8278127876555945, 0.7790511930999657, 0.6474457072302687, 0.9243191546802904, 0.8133041335888311, 0.8396278051450465, 0.8256157635467979, 0.6556255132767589, 0.8495551072072388, 0.8601150062215204, 0.8379857690202517, 0.9153836748827358, 0.7927447028419464, 0.8571037824569002, 0.84259515886373, 0.7828110104784218]</t>
   </si>
   <si>
-    <t>[0.9007144616900714, 0.8171866447728516, 0.6376573617952929, 0.6456822285729361, 0.8418171866447729, 0.8678503360088353, 0.7394935045332749, 0.8479540246371158, 0.6051731273313953, 0.8548345805579738, 0.8323685246040807, 0.7695266199201397, 0.7731690695305325, 0.7068163153572408, 0.8488011942881335, 0.8225290622347488, 0.6974134456989577, 0.8891322534078606, 0.7844912102330546, 0.8957021961670321, 0.8195590652139026, 0.8292950733551553, 0.829341734877489, 0.6919178341871963, 0.8353633580350152, 0.7791055867921909, 0.7393922803175473, 0.8353895368687324, 0.8154437148340113, 0.8544061302681991, 0.6660917516721911, 0.7800466604150189, 0.7859197443942948, 0.8013136288998358, 0.735833589027195, 0.8196156737187228, 0.682085677661618, 0.8321927183137149, 0.7317273473857105, 0.8139025725232621, 0.8364532019704431, 0.7492471940870519, 0.8677799394405538, 0.8502600920827633, 0.7574685104911916, 0.8565094288394167, 0.7467834936258141, 0.8343827304147658, 0.7829181788012566, 0.8947584591797065]</t>
+    <t>[0.9007144616900714, 0.8171866447728516, 0.6376573617952929, 0.6456822285729361, 0.8418171866447729, 0.8678503360088353, 0.7394935045332749, 0.8479540246371158, 0.6051731273313953, 0.8548345805579738, 0.8323685246040807, 0.7695266199201397, 0.7731690695305325, 0.7068163153572408, 0.8488011942881335, 0.8225290622347488, 0.6974134456989577, 0.8891322534078606, 0.7844912102330546, 0.8957021961670321, 0.8195590652139026, 0.8292950733551553, 0.829341734877489, 0.6919178341871963, 0.8353633580350152, 0.7791055867921909, 0.7393922803175473, 0.8684102505074246, 0.8154437148340113, 0.8544061302681991, 0.6660917516721911, 0.7800466604150189, 0.7859197443942948, 0.8013136288998358, 0.735833589027195, 0.8196156737187228, 0.682085677661618, 0.8321927183137149, 0.7317273473857105, 0.8139025725232621, 0.8364532019704431, 0.7492471940870519, 0.8677799394405538, 0.8502600920827633, 0.7574685104911916, 0.8565094288394167, 0.7467834936258141, 0.8343827304147658, 0.7829181788012566, 0.8947584591797065]</t>
   </si>
   <si>
     <t>[0.9380465645730511, 0.8578075898039769, 0.6392993979200876, 0.5652114463769026, 0.8378529259618206, 0.9265738643681322, 0.8892842563092282, 0.8483438269915139, 0.5676748376686178, 0.8248494800218937, 0.8814687305590848, 0.8431590458915338, 0.8312577058821564, 0.7629345743224747, 0.8647501792181965, 0.8289377393753252, 0.8812260536398466, 0.8880372629479987, 0.7394935045332749, 0.8355920680620345, 0.7964035040085804, 0.8059701568096345, 0.8352490421455938, 0.8275816086949341, 0.91581109687664, 0.8771713753890575, 0.7344648234327951, 0.8512736236647493, 0.8411830396138626, 0.9178533687453344, 0.8197287548893456, 0.8992334316705484, 0.8076660503128782, 0.8281335522714832, 0.7856556549509114, 0.8298213752507385, 0.7293523145760906, 0.8630080825309315, 0.8280865042430879, 0.8056923918992885, 0.8605911330049258, 0.7363810566657542, 0.8468172563944536, 0.8029017546937363, 0.8812260536398466, 0.9240054263953557, 0.7440109583743704, 0.8584725205317275, 0.7760131434830232, 0.6506090111563668]</t>
   </si>
   <si>
-    <t>[0.9441912108120417, 0.8544061302681991, 0.702791461412151, 0.7338168947876395, 0.8673874448273143, 0.9584924324458355, 0.890379096883324, 0.8728616476977927, 0.6630166986038873, 0.8625787347562097, 0.8977580684897759, 0.877227460955971, 0.8454906333454004, 0.8605446912392162, 0.8551875491521418, 0.8651311803520365, 0.8341543513957307, 0.9241719481234413, 0.8239803210460779, 0.8527238206174527, 0.8636531658070161, 0.9388091140755456, 0.8981937602627257, 0.7772150253732854, 0.8895579664527521, 0.8863160554973314, 0.7985217629345744, 0.8921139436310147, 0.8576123958563209, 0.8538587848932675, 0.9090686170620472, 0.912924561872597, 0.7843943166597953, 0.7257799671592775, 0.8708264915161467, 0.8840419581302047, 0.7157520253150605, 0.9245928648238143, 0.8160416096359159, 0.8604269293924467, 0.9182266009852215, 0.8123717059790057, 0.873254891739863, 0.7889406263304971, 0.9013275026242809, 0.8863160554973314, 0.8921434771724809, 0.8560087919970383, 0.7914043548651863, 0.8621869521003597]</t>
+    <t>[0.9483926663881951, 0.870279146141215, 0.6814449917898193, 0.7392910976581181, 0.8762999452654625, 0.9545510603257807, 0.8996852417631372, 0.8709456766931253, 0.6500615908693189, 0.8693034158319817, 0.8940625769894064, 0.8613326803450851, 0.8342685174609196, 0.8153825175577687, 0.8612099966813823, 0.8646385088370298, 0.8467432950191571, 0.9255406861982688, 0.8198741068215957, 0.812482921217528, 0.8619288155044921, 0.9289528504107104, 0.8943623426382047, 0.7783104658600694, 0.8724336162058582, 0.8662232076866224, 0.8133041335888311, 0.8870637298351612, 0.8652794287694681, 0.8582375478927203, 0.8866437745159246, 0.9173057235372524, 0.810130116229087, 0.7307060755336617, 0.866447728516694, 0.8643253825376714, 0.7218724336162059, 0.9177501112357163, 0.8105666575417466, 0.8461959496442255, 0.8931034482758619, 0.7923908655017592, 0.8762661155044833, 0.7941418310148411, 0.8909265171703717, 0.8720285815621325, 0.8653162109058643, 0.8551875491521418, 0.7930468405549792, 0.8460380536324483]</t>
   </si>
   <si>
     <t>[0.9461623824421294, 0.9408866995073891, 0.7706622879036672, 0.8400164304749219, 0.9024223431983764, 0.9589851039608424, 0.8367319087526348, 0.8764198795636038, 0.6815382573745701, 0.9166552706616204, 0.9038058942800747, 0.8859969950861151, 0.8208567204282472, 0.8088134741131947, 0.8874897677180678, 0.9023278797350541, 0.8018609742747673, 0.9165070149044081, 0.8540925586922798, 0.9019983913112379, 0.8855770482248211, 0.9275839249017057, 0.8850574712643678, 0.8037794571777985, 0.8962496578154943, 0.8719970498600771, 0.8977692707584698, 0.8594114345532626, 0.8340636519087974, 0.8679348651143621, 0.897979409209569, 0.8537788793997473, 0.7871321676778051, 0.7914614121510672, 0.9217296113847838, 0.8869994444690845, 0.7853818779085684, 0.9002326620501852, 0.8182315904735835, 0.8916256157635468, 0.8812807881773397, 0.836184488465587, 0.8683274346704847, 0.9310156384975783, 0.9195402298850575, 0.9040522300375781, 0.8579250253017966, 0.8603887538364859, 0.8572210894830373, 0.8474066043500679]</t>
@@ -4063,13 +4063,13 @@
     <t>[0.9508560239632294, 0.8390804597701149, 0.6064586754241927, 0.6840016486662854, 0.8921729611384784, 0.9321345063929689, 0.9360886908518191, 0.8630080825309315, 0.7032575964960307, 0.8204216020515267, 0.8725973650851885, 0.8613326803450851, 0.7710414743068931, 0.8493225753547353, 0.8456063826283503, 0.9077472664001296, 0.876847290640394, 0.7520876182720867, 0.8043805687962834, 0.8123203361533605, 0.7173297258499803, 0.6049568727123622, 0.8801313628899835, 0.8500618177444248, 0.844353190662947, 0.8668555306545606, 0.8758724592765559, 0.8535049608035215, 0.7951808421349795, 0.8604269293924467, 0.9058650681268868, 0.9255204016584816, 0.7105695775698229, 0.6414887794198139, 0.8469751207031775, 0.7682070765240724, 0.5476939971913714, 0.904338314203044, 0.8116616479605805, 0.6611932129173508, 0.8433497536945811, 0.8307102855951085, 0.8625787347562097, 0.6496030903130707, 0.6912972085385879, 0.8836063621647938, 0.8757186202745525, 0.8584725205317275, 0.869148677515381, 0.7518817642602185]</t>
   </si>
   <si>
-    <t>[0.9195713827602939, 0.8117131910235358, 0.6376573617952929, 0.7732311554550846, 0.8582375478927203, 0.9099642882176604, 0.6755166342170438, 0.8635555028179794, 0.7514371749247195, 0.7870243930257388, 0.8747382748946704, 0.7826809211153557, 0.8213945221620311, 0.8170247784189123, 0.8428473727159153, 0.8323685246040807, 0.531472359058566, 0.7695045456679483, 0.8271047305424004, 0.9092402549259556, 0.8858233839823244, 0.8147692152793298, 0.8429118773946359, 0.7172008745218219, 0.8476803144935917, 0.763887184018128, 0.8066237929650032, 0.8167123594187417, 0.8581600410644028, 0.9151614668856047, 0.7938386247943655, 0.8515882985674195, 0.7500000281170501, 0.7859879584017515, 0.8289077781154562, 0.8358798452356909, 0.7710414743068931, 0.8912002273138957, 0.8330139611278402, 0.8390804597701149, 0.8754801446832373, 0.6862852450041064, 0.9143170339846842, 0.8598412586065549, 0.7350848385331145, 0.8602044652019681, 0.9173282577493045, 0.8012592690039434, 0.7818231883413947, 0.8873682853045607]</t>
+    <t>[0.9195713827602939, 0.8117131910235358, 0.629447181171319, 0.7732311554550846, 0.8582375478927203, 0.9099642882176604, 0.6755166342170438, 0.8635555028179794, 0.7514371749247195, 0.7870243930257388, 0.8747382748946704, 0.7826809211153557, 0.8213945221620311, 0.8170247784189123, 0.8428473727159153, 0.8323685246040807, 0.531472359058566, 0.7695045456679483, 0.8271047305424004, 0.9092402549259556, 0.8858233839823244, 0.8147692152793298, 0.8429118773946359, 0.7172008745218219, 0.8476803144935917, 0.763887184018128, 0.8066237929650032, 0.8216438664531386, 0.8581600410644028, 0.9151614668856047, 0.7938386247943655, 0.8515882985674195, 0.7500000281170501, 0.7859879584017515, 0.8289077781154562, 0.8358798452356909, 0.7710414743068931, 0.8912002273138957, 0.8330139611278402, 0.8390804597701149, 0.8754801446832373, 0.6862852450041064, 0.9143170339846842, 0.8598412586065549, 0.7350848385331145, 0.8602044652019681, 0.9173282577493045, 0.8012592690039434, 0.7818231883413947, 0.8873682853045607]</t>
   </si>
   <si>
     <t>[0.9237590906378523, 0.8954570333880678, 0.6239737274220033, 0.6916655326849552, 0.8455220602955672, 0.9223851246541956, 0.8575338796604529, 0.8200355899976755, 0.6797153024911032, 0.8280865352705599, 0.8509118050378865, 0.7645937569719335, 0.7844532713395653, 0.8039967150287436, 0.8283367634081537, 0.8875477342848485, 0.8111658456486042, 0.8331280023305278, 0.8073922046903471, 0.8435318354191115, 0.8087202918837518, 0.8528405921100393, 0.8472906403940886, 0.7939204927967421, 0.9155373117953615, 0.7916718059340005, 0.6848227790968572, 0.8134757600657355, 0.8707558808502874, 0.79584017515052, 0.8937901529097438, 0.9271633372827275, 0.8302300420777277, 0.7848932676518883, 0.7774432265019472, 0.8288355464711118, 0.6151213605185395, 0.8457643434889243, 0.8499863126197647, 0.7651888341543513, 0.866502463054187, 0.7013413632630715, 0.9219819672037176, 0.5830824198764604, 0.8336070060207991, 0.9055302445825987, 0.8861210296432405, 0.8015330166189089, 0.8173603504928808, 0.771588894593941]</t>
   </si>
   <si>
-    <t>[0.9343515282104996, 0.8638292129615033, 0.6464148877941982, 0.732174633926496, 0.8713386584351048, 0.9269614554853969, 0.8545230680816898, 0.9040646040595202, 0.6539830276485082, 0.8334473870303477, 0.8918452820891846, 0.8737844113612316, 0.8367319087526348, 0.8141253764029566, 0.8779086011942763, 0.8698115597446018, 0.8960043787629994, 0.8365727113344895, 0.8100191926828386, 0.8553045939140876, 0.8119226567312964, 0.8851472341225544, 0.876847290640394, 0.7265509028595228, 0.9063783191897072, 0.8621411917096382, 0.7919518204215714, 0.8529170090386196, 0.8400877491976987, 0.8943623426382047, 0.8533580373643249, 0.9331874345716288, 0.8088718813646463, 0.7361795292829775, 0.8237547892720307, 0.8672828688765515, 0.6695866411168903, 0.8933899084620871, 0.8450588557350124, 0.7969348659003832, 0.9187192118226598, 0.7387436773710702, 0.8680536870555191, 0.7807281978815328, 0.8637110016420361, 0.8922281136774137, 0.8798083586885148, 0.8350444978994774, 0.8169746825350953, 0.8389215899008262]</t>
+    <t>[0.9288001970928801, 0.8599972709521684, 0.6371100164203612, 0.7305323730653525, 0.8569864593734052, 0.9166050751416607, 0.8662926042532185, 0.882988923008178, 0.6715028743498495, 0.832626256599776, 0.8436999694492384, 0.8762511804020884, 0.8430272420536851, 0.7968792773063237, 0.8787298440391726, 0.8855770482248211, 0.8981937602627257, 0.8499863444677979, 0.8113879307576659, 0.8271047305424004, 0.7998522046136285, 0.8655531540262853, 0.8762999452654625, 0.7840615284156857, 0.8779085683000275, 0.8534121704853413, 0.7697782644401862, 0.8460695699808273, 0.8674700096017959, 0.8845101258894362, 0.8841795061042628, 0.9501644360221689, 0.8138006876830496, 0.7536945812807883, 0.8336070060207991, 0.8746765847237514, 0.6947412710424293, 0.8955795896102784, 0.8319189707090063, 0.749863163656267, 0.8940886699507388, 0.7477761121073596, 0.8792773392691036, 0.7495209697754688, 0.8073344280240832, 0.8875477342848485, 0.8888432663707061, 0.848343858778005, 0.8049281389588405, 0.8203093001411994]</t>
   </si>
   <si>
     <t>[0.9171080251852597, 0.8177339901477831, 0.4696223316912972, 0.7223210687596348, 0.9051594446336159, 0.9397709148755752, 0.8383741696137784, 0.8783358505682713, 0.668217903093348, 0.8516288301575907, 0.8754772821671806, 0.7895321196545306, 0.8257835030116779, 0.832626256599776, 0.8644949680609679, 0.8717822458046292, 0.8719211822660098, 0.7856556549509114, 0.8447851397834538, 0.9103353952510697, 0.8047789197636969, 0.8265572223371456, 0.8799781114294148, 0.7448995310131558, 0.8658636736928553, 0.8343392106641082, 0.8320788363127282, 0.8288609292115044, 0.8055861010885365, 0.8794306911423669, 0.807024084721872, 0.9079957549998594, 0.8578861219754356, 0.7805145046524357, 0.886152162014231, 0.8475662932840183, 0.7910223147841396, 0.8693034158319817, 0.8718861209964415, 0.7805145046524357, 0.7995073891625614, 0.7636513004317472, 0.8937859628622737, 0.8371202065644205, 0.8412698412698413, 0.8873013985273451, 0.8516288301575907, 0.8023542594638052, 0.8837782423670534, 0.797043937941666]</t>
@@ -4081,13 +4081,13 @@
     <t>[0.8131543355188136, 0.8379857690202517, 0.7328954570333881, 0.7379225469404984, 0.8571428571428572, 0.8385269185416665, 0.918844951809812, 0.7871903727748047, 0.688928431249716, 0.89272030651341, 0.8402512688441905, 0.860236488578817, 0.8772410099941755, 0.7505132135425988, 0.8562825396120038, 0.8845917051948073, 0.8943623426382047, 0.7867506454107733, 0.8565562872269692, 0.8163153878270445, 0.7946791537060564, 0.7720739870787514, 0.916256157635468, 0.625496517953694, 0.8953058794667546, 0.8794186542872354, 0.7743259960291803, 0.8358659157983788, 0.8450165560704361, 0.69896004378763, 0.825037064224379, 0.8499453629431737, 0.8487338155830246, 0.7575259989053093, 0.8790366721401204, 0.8664367735402976, 0.7234159093337305, 0.9193923720968598, 0.7836321409089937, 0.8866995073891626, 0.927093596059113, 0.7381962570840224, 0.853545063462349, 0.7215987130489903, 0.8856048166392994, 0.913166653065205, 0.7883931311005661, 0.7634820981387079, 0.8138516592923551, 0.6456822285729361]</t>
   </si>
   <si>
-    <t>[0.8286734882415294, 0.8221922745385754, 0.5818281335522714, 0.8284971256501507, 0.835457547021439, 0.9321345063929689, 0.8475761337436616, 0.7789043726830752, 0.7413085135505064, 0.5993155878423359, 0.8508437064168378, 0.7068020811063445, 0.863263071448125, 0.8279924551000449, 0.8601150062215204, 0.8427146264192248, 0.8729811441248977, 0.8256228067358706, 0.7924993453250483, 0.8465434713131752, 0.8402512688441905, 0.7900287705936376, 0.8199233716475095, 0.6418790335848347, 0.8452169232018765, 0.7796526724983474, 0.7769105520645971, 0.8572211537388549, 0.8824014484026206, 0.8467432950191571, 0.8866437745159246, 0.8406353944057806, 0.810677686432689, 0.7985769020251778, 0.8292282430213463, 0.856086846211318, 0.7327220542135437, 0.8619132419568358, 0.8208567204282472, 0.7705797268646217, 0.8068965517241378, 0.7253318803383979, 0.773884507507396, 0.6575380042473435, 0.9083442992378058, 0.8168493718813649, 0.622483916557356, 0.7440460174761593, 0.8196003592066302, 0.8276994740163454]</t>
+    <t>[0.8286734882415294, 0.8221922745385754, 0.5818281335522714, 0.8284971256501507, 0.835457547021439, 0.9321345063929689, 0.8475761337436616, 0.7789043726830752, 0.7413085135505064, 0.7858123715542541, 0.8508437064168378, 0.7068020811063445, 0.863263071448125, 0.8279924551000449, 0.8601150062215204, 0.8427146264192248, 0.8729811441248977, 0.8256228067358706, 0.7924993453250483, 0.8465434713131752, 0.8402512688441905, 0.7900287705936376, 0.8199233716475095, 0.6418790335848347, 0.8452169232018765, 0.7796526724983474, 0.7769105520645971, 0.8572211537388549, 0.8824014484026206, 0.8467432950191571, 0.8866437745159246, 0.8406353944057806, 0.810677686432689, 0.7985769020251778, 0.8292282430213463, 0.856086846211318, 0.7327220542135437, 0.8619132419568358, 0.8208567204282472, 0.7705797268646217, 0.8068965517241378, 0.7253318803383979, 0.773884507507396, 0.6575380042473435, 0.9083442992378058, 0.8168493718813649, 0.622483916557356, 0.7440460174761593, 0.8196003592066302, 0.8276994740163454]</t>
   </si>
   <si>
     <t>[0.8730139245921463, 0.8461959496442255, 0.7093596059113301, 0.7209525180420151, 0.8434592227695675, 0.875723617924684, 0.9210346329580033, 0.8145613871271971, 0.6842753588098093, 0.8429118773946359, 0.8599581294444646, 0.9062765427620734, 0.8966744301843741, 0.7332694745005917, 0.8521763253875216, 0.8752309464096772, 0.8626163108921729, 0.8921434771724809, 0.7922255977100827, 0.8362989637195242, 0.8207907440014198, 0.8821355980027435, 0.8992884510125888, 0.626318098318782, 0.9311619082683885, 0.8710432385321188, 0.7729574453115605, 0.84462703905601, 0.9052575289594498, 0.8045977011494253, 0.8679153345872946, 0.893756979589729, 0.888706440445967, 0.810071154898741, 0.8954570333880678, 0.9053722144445543, 0.7165731557456324, 0.9122759083652378, 0.7912960249276635, 0.8631636562671045, 0.939901477832512, 0.7557137062695535, 0.8718861536650359, 0.7957843167046339, 0.9354132457580733, 0.921295733062818, 0.8675061918255882, 0.7692307980529829, 0.8538188110773146, 0.685370199383905]</t>
   </si>
   <si>
-    <t>[0.9182064547918207, 0.8565955117679256, 0.668856048166393, 0.7776105177514673, 0.889831676596276, 0.9215323971421532, 0.929245937263721, 0.8671137346837904, 0.6679441554886396, 0.8334473870303477, 0.8672086720867209, 0.9140749723618906, 0.8320788363127282, 0.8356370681785391, 0.8387626922542135, 0.8419756191467146, 0.9386973180076628, 0.8883110105629642, 0.8226115829712504, 0.8516288301575907, 0.8333538676340946, 0.8825301535674526, 0.8434592227695675, 0.730111084441571, 0.8962496578154943, 0.8695652239870983, 0.7793594306049824, 0.8336300228775151, 0.8411830396138626, 0.8476803144935917, 0.8762785564906447, 0.9381162414443663, 0.8041068439894655, 0.7717569786535304, 0.8757525998905309, 0.8963648178755379, 0.7434633882118133, 0.9169289808051444, 0.8602709810956923, 0.8319649698960043, 0.9073891625615761, 0.7962228075110941, 0.832740244724973, 0.7810019454964983, 0.9064039408866994, 0.8890257488298691, 0.8831098058786203, 0.8212428448964231, 0.7985217928542887, 0.8246886624375821]</t>
+    <t>[0.9154964276915496, 0.8490488652112114, 0.6590038314176244, 0.7524291845472663, 0.890500991482688, 0.9195713827602939, 0.9068017054947594, 0.8060763726779553, 0.6549883734527494, 0.8352490421455938, 0.8516876077851688, 0.8915999655451966, 0.832626256599776, 0.8140139668401492, 0.8546201312108913, 0.8368025682391425, 0.939792008757526, 0.8855735344133094, 0.7883931311005661, 0.8707911632051739, 0.8385269185416665, 0.8928132169729817, 0.8516694033935412, 0.7227168611557787, 0.8831097727894883, 0.861049519586105, 0.7851081303038598, 0.8116101070970926, 0.8132531340016836, 0.8723142274107448, 0.8449211045364889, 0.9178533687453345, 0.8098563311272859, 0.7619047619047619, 0.8210180623973727, 0.8943931603162846, 0.7451409800164249, 0.8977692707584698, 0.8619132419568358, 0.8336070060207991, 0.914285714285714, 0.7781579380385152, 0.8007117737740125, 0.7558171649196747, 0.9085933223864259, 0.8845917051948073, 0.8595482626739046, 0.8301163664364641, 0.809745445067873, 0.8471328942065439]</t>
   </si>
   <si>
     <t>[0.9619411330508835, 0.9211822660098522, 0.7091829818704865, 0.771588894593941, 0.8854523142998932, 0.9284394700304175, 0.8750513288459841, 0.8624606622438836, 0.7707677641633692, 0.8992609151615832, 0.9099642882176604, 0.8616067282866521, 0.7836321409089937, 0.8495962854982593, 0.8883110105629642, 0.8629141585345058, 0.91351943076081, 0.8707911632051739, 0.8847522915684131, 0.9154120244445462, 0.9119349742776878, 0.84462703905601, 0.8850574712643678, 0.7013557716634896, 0.8603887215986862, 0.7956644967360701, 0.8984396386531618, 0.8796715320865349, 0.864731783561386, 0.7777777777777778, 0.9063579218092191, 0.9162104331210886, 0.834223205187573, 0.8615216201423097, 0.9020251778872468, 0.8934073315366577, 0.8495962854982593, 0.9224031836756229, 0.8088134741131947, 0.9020251778872468, 0.7817733990147782, 0.8619132419568358, 0.8174103782869063, 0.8677799394405538, 0.8877941981390256, 0.9129203173077015, 0.8562825396120038, 0.8145106168035885, 0.8651608568401142, 0.8597235608086444]</t>
@@ -4105,7 +4105,7 @@
     <t>[0.9432196154806232, 0.8478379857690203, 0.615216201423098, 0.8159299378448166, 0.8367573353427139, 0.9385392360880579, 0.904338314203044, 0.8890105461657042, 0.621322025799307, 0.8270388615216201, 0.8661902677984856, 0.8012067421447355, 0.8383741696137784, 0.868053654530523, 0.8967830337277831, 0.8171063354234918, 0.8730158730158729, 0.8810403915542683, 0.7906913147323577, 0.7345653730702616, 0.8143860143063307, 0.855030872924447, 0.8330596606458676, 0.7596879775847405, 0.9035171837724721, 0.8574596590881799, 0.7853818779085684, 0.8306175622166568, 0.8116101983774376, 0.8489326765188835, 0.8752158095975594, 0.8964952056301387, 0.8629706408766753, 0.7432950191570881, 0.8505747126436781, 0.8643253825376714, 0.5943022897550531, 0.9057068649206635, 0.8416586913360654, 0.8199233716475095, 0.8857142857142855, 0.7629345743224747, 0.8952772157807511, 0.7571859029945021, 0.8669950738916257, 0.8858233839823244, 0.8601150062215204, 0.8365727113344895, 0.7562979189485216, 0.7981387785157616]</t>
   </si>
   <si>
-    <t>[0.9238728750923872, 0.8550704883687377, 0.5905856595511768, 0.7294375324912568, 0.8970709342418595, 0.9269524513426953, 0.9120021982217139, 0.8619132419568358, 0.6467770691470318, 0.8845101258894362, 0.8784033576578624, 0.891752001859022, 0.8416586913360654, 0.8029017246099097, 0.8305502638052492, 0.8446853124792522, 0.9107827038861521, 0.8792773392691036, 0.8001642785440816, 0.8245278162760087, 0.8151250215788409, 0.899657844518006, 0.8500273672687465, 0.7552726413954264, 0.874623597043526, 0.8505973706593344, 0.771420750068437, 0.8270573814356424, 0.8170866504582572, 0.8821677925776061, 0.8632163251605914, 0.90251930291904, 0.8087611907200821, 0.756431308155446, 0.8318051261692041, 0.8963648178755379, 0.6779359430604983, 0.9120021982217139, 0.8194881697106277, 0.8122605363984675, 0.8793103448275861, 0.742129756364632, 0.885847282028275, 0.7872981406407042, 0.8802518215729387, 0.8890257488298691, 0.8715948062501595, 0.8300027685753183, 0.8089242022229768, 0.8427535319101611]</t>
+    <t>[0.9442049585106369, 0.8693034158319817, 0.6343732895457033, 0.7529766048343142, 0.8933607871765836, 0.9242424242424244, 0.9051594446336159, 0.8824415027211302, 0.6626522574714193, 0.886152162014231, 0.9012071938901208, 0.8906558100927542, 0.8739564882718884, 0.8205830102847234, 0.8398576827140752, 0.8265582655826559, 0.8866995073891626, 0.8724336488949667, 0.8157678925971136, 0.8476386116382892, 0.8212834155164267, 0.8958248530927924, 0.8456486042692939, 0.7561277960026923, 0.901450862304955, 0.8492239467849224, 0.7944155488639476, 0.8480285093386287, 0.850609410397493, 0.8865471548739889, 0.8612446676013381, 0.9156627879130067, 0.8114990417380918, 0.759168035030104, 0.8170247784189123, 0.9175601366375108, 0.7352781163466988, 0.9021486330548526, 0.8296154450210128, 0.8232074438970991, 0.9118226600985219, 0.7855481119136611, 0.8625787347562097, 0.7793594598067055, 0.8981381412543845, 0.9136593245802117, 0.8658453195433106, 0.8495551072072388, 0.8139630466410316, 0.8591761405215965]</t>
   </si>
   <si>
     <t>[0.9745042566835583, 0.8839627805145046, 0.6611932129173508, 0.7146571847409648, 0.8821677925776061, 0.9471609876006779, 0.8881894157351325, 0.8783358505682713, 0.6982345761295294, 0.9003831417624522, 0.9102106239751637, 0.8775015088975381, 0.8515122565029267, 0.8788832708553191, 0.8828360582636547, 0.8978938360999925, 0.9102353585112206, 0.8458801302433158, 0.84259515886373, 0.8398576827140752, 0.7949254894635599, 0.8591376494514616, 0.8669950738916257, 0.7898125909713019, 0.9244456611004654, 0.8033009052186764, 0.8728616476977927, 0.8733744747451123, 0.884994656260418, 0.8669950738916257, 0.9167078491381989, 0.9085434002079414, 0.8750171853559183, 0.8292282430213463, 0.8555008210180624, 0.8605225293523092, 0.839469010187874, 0.8676611549708383, 0.7959490973675702, 0.8828680897646416, 0.8689655172413792, 0.6965923152683858, 0.8439638969385574, 0.8592937633766239, 0.9222769567597153, 0.9082399379151364, 0.8915959819425499, 0.8332877399549039, 0.8453326350133847, 0.8531545173640703]</t>
@@ -4123,7 +4123,7 @@
     <t>[0.9557827391132978, 0.870279146141215, 0.5632183908045977, 0.6109210403453977, 0.8422352884382472, 0.9360758785130235, 0.9087176764994269, 0.8154941144264989, 0.573696460826144, 0.8226115829712505, 0.8849187060211556, 0.8724982387079221, 0.8257835030116779, 0.7831918970709008, 0.8587269074300691, 0.827458813881346, 0.8773946360153256, 0.7942505207889783, 0.7326488775013119, 0.8208076736729945, 0.7153590397899529, 0.8755306120694534, 0.8292282430213463, 0.8275816086949341, 0.8569473044017588, 0.7931501846565663, 0.8160416096359159, 0.8465014457011824, 0.8422783300300265, 0.8992334316705484, 0.8310727749630248, 0.8992334316705484, 0.8511978814992333, 0.8226600985221675, 0.8174103782869064, 0.781022850659219, 0.662512140019634, 0.889831676596276, 0.8271520537292975, 0.8232074438970991, 0.8556650246305417, 0.7372022994798797, 0.845448330988061, 0.7760744884271198, 0.8856048166392994, 0.9173543609427633, 0.8861210296432405, 0.8447851397834538, 0.7472617743702084, 0.8033392712427161]</t>
   </si>
   <si>
-    <t>[0.9373075573005408, 0.8330596606458676, 0.7504105090311987, 0.7420281990933573, 0.8727073965099321, 0.9501108647450113, 0.9193923720968598, 0.8816203722905583, 0.6662104893372304, 0.8609742747673782, 0.8933234786893325, 0.8400719011361905, 0.857807589803977, 0.7973176480851898, 0.853545063462349, 0.8382805827841631, 0.8565955117679256, 0.9173282577493045, 0.8212428448964231, 0.8508075873126942, 0.8863160554973314, 0.9215606526620841, 0.8839627805145046, 0.812269120950375, 0.9040646040595202, 0.858972786414451, 0.7974267725157406, 0.8933607871765836, 0.8598029766886486, 0.8434592227695675, 0.8982258360507351, 0.8997810768786303, 0.8071184801092762, 0.7613574165298304, 0.8604269293924467, 0.8584104098599115, 0.7160848800839618, 0.911181067791142, 0.8594498506651205, 0.8461959496442255, 0.902463054187192, 0.8003284596639529, 0.8625787347562097, 0.8143991545222862, 0.8954570333880678, 0.8818820118622697, 0.8642212204460026, 0.8491651016229015, 0.7823706835713257, 0.8457643434889243]</t>
+    <t>[0.9274541270004036, 0.8549534756431307, 0.7099069512862616, 0.7294375324912568, 0.8909265171703717, 0.9483863020448389, 0.9100862272170464, 0.875598749133032, 0.6470507792905558, 0.8583550100910248, 0.892338014289234, 0.8422645847280631, 0.8564390390863573, 0.8345422276044435, 0.8568300348419348, 0.8528143924768653, 0.8752052545155994, 0.9044621198459273, 0.8034492499236672, 0.8631262299861406, 0.8840990336798006, 0.9106092485900451, 0.8949096880131362, 0.8150077221673351, 0.8896797153024912, 0.8508069548366336, 0.8190528332877088, 0.889254010649569, 0.8510406533593375, 0.8549534756431307, 0.8799902498044376, 0.8953999152139748, 0.7885010931868099, 0.7443897099069513, 0.870279146141215, 0.8549600091312183, 0.7191349575691213, 0.9018749229113286, 0.8693034158319817, 0.8582375478927203, 0.9251231527093594, 0.8257835030116779, 0.853545063462349, 0.8204216020515267, 0.9053092501368363, 0.8683335451995813, 0.8828360582636547, 0.8402464144437692, 0.7856556549509114, 0.8474066043500679]</t>
   </si>
   <si>
     <t>[0.9401330376940134, 0.9151614668856047, 0.7865353037766831, 0.8006021698074769, 0.896948140327898, 0.9562754106283047, 0.8712193868366492, 0.8616395318133119, 0.7124675035927736, 0.9095388069299984, 0.8681941364868194, 0.7896401785231206, 0.86848228540141, 0.8671137346837904, 0.907199595995582, 0.8653775161095401, 0.8286808976464148, 0.8839310487235166, 0.8579250253017966, 0.9326581241873712, 0.9099642882176604, 0.8630887508670837, 0.8856048166392994, 0.855265160056649, 0.911454777934666, 0.8347911853421704, 0.8996852417631372, 0.9065024720630305, 0.8751370425149431, 0.8427535319101611, 0.9068507754915515, 0.8499453629431737, 0.8232718011155339, 0.783798576902025, 0.8949096880131362, 0.8551011388466532, 0.7974267725157406, 0.8854523142998932, 0.8504174159288309, 0.8921729611384784, 0.9152709359605908, 0.8627343723874076, 0.8234328258161469, 0.9405968050213698, 0.8856048166392994, 0.9225274118503353, 0.9039146246159963, 0.8740761345847595, 0.8087611300967398, 0.8208567204282472]</t>
@@ -4135,13 +4135,13 @@
     <t>[0.950117016690719, 0.8817733990147782, 0.4926108374384236, 0.570411939103857, 0.866447728516694, 0.9461756445706642, 0.9322567488424842, 0.8876419954480846, 0.5986040838868213, 0.8117131910235358, 0.8780187550970141, 0.8322835985389829, 0.7431230396674529, 0.7656720503695592, 0.8981659247017213, 0.8870550627698417, 0.8686371100164203, 0.7266256057131846, 0.875444872659587, 0.7697782932829138, 0.9237590906378523, 0.5740106859235452, 0.8735632183908046, 0.8295223086172238, 0.789869959488522, 0.8678408736845744, 0.7924993156309883, 0.7912389442048198, 0.8236583929552405, 0.8970990695128626, 0.8745688592987817, 0.9189486591614984, 0.7898700186958147, 0.6343732895457033, 0.8557350443820728, 0.7741220492018324, 0.5849884949398091, 0.8909265171703716, 0.8063500828214792, 0.8056923918992885, 0.8113300492610835, 0.7495209416917603, 0.8661374537507608, 0.6173008717471447, 0.7104542966611932, 0.902820551250061, 0.8874897677180678, 0.8573775300718657, 0.7941418310148411, 0.8192144595671037]</t>
   </si>
   <si>
-    <t>[0.906269251855109, 0.7610572781932206, 0.5987958401751505, 0.7606404888529841, 0.8680897646414888, 0.9208030615478112, 0.6690865834186297, 0.8538187790856832, 0.7168468658891562, 0.7563646601496056, 0.8606971367169749, 0.7385592025230685, 0.8569864593734052, 0.7462359704352588, 0.8313715066501456, 0.8372952397541493, 0.47132886714819666, 0.8521763253875216, 0.8455640744797374, 0.8672324442106227, 0.8929671209499238, 0.8035592737858636, 0.8325123152709359, 0.7435302304046756, 0.8589024303780727, 0.8173420433963717, 0.7075407210093428, 0.8492671851789163, 0.7552027419449977, 0.8970990695128626, 0.8230656494950495, 0.7135224070253587, 0.8662560620982871, 0.8341543513957307, 0.7643033409836044, 0.865877712031558, 0.7516080541166946, 0.889831676596276, 0.8947584591797065, 0.776135741652983, 0.9157635467980293, 0.7566383794141802, 0.8551875491521418, 0.822699890470975, 0.749863163656267, 0.8385269185416665, 0.8929647200173774, 0.8464276254732467, 0.7829181788012566, 0.9363624009953431]</t>
+    <t>[0.906269251855109, 0.7610572781932206, 0.5987958401751505, 0.7606404888529841, 0.8680897646414888, 0.9208030615478112, 0.6690865834186297, 0.8538187790856832, 0.7168468658891562, 0.7563646601496056, 0.8606971367169749, 0.7385592025230685, 0.8569864593734052, 0.7462359704352588, 0.8313715066501456, 0.8372952397541493, 0.47132886714819666, 0.8521763253875216, 0.8455640744797374, 0.8672324442106227, 0.8929671209499238, 0.8035592737858636, 0.8325123152709359, 0.7435302304046756, 0.8589024303780727, 0.8173420433963717, 0.7075407210093428, 0.8487185629662685, 0.7552027419449977, 0.8970990695128626, 0.8230656494950495, 0.7135224070253587, 0.8662560620982871, 0.8341543513957307, 0.7643033409836044, 0.865877712031558, 0.7516080541166946, 0.889831676596276, 0.8947584591797065, 0.776135741652983, 0.9157635467980293, 0.7566383794141802, 0.8551875491521418, 0.822699890470975, 0.749863163656267, 0.8385269185416665, 0.8929647200173774, 0.8464276254732467, 0.7829181788012566, 0.9363624009953431]</t>
   </si>
   <si>
     <t>[0.8371520078837152, 0.8348159377479674, 0.5610290093048714, 0.6549883734527494, 0.8345661541045006, 0.9226315211079568, 0.8991378214760894, 0.8625787024363538, 0.5988777940303451, 0.8171366306719409, 0.8533760732250799, 0.771319153200938, 0.7833584307654697, 0.7922255680262799, 0.8329911097898886, 0.8720285815621325, 0.856048166392994, 0.8580424447268727, 0.8073922046903471, 0.8636737252160716, 0.6931888216146445, 0.7605093868366818, 0.849480021893815, 0.7993976952306624, 0.8383299188748197, 0.8145866761337708, 0.7966055297016152, 0.7687251886390226, 0.8822564302200082, 0.8067870826491516, 0.8639725051286358, 0.9299015633231372, 0.8358659157983788, 0.7558839627805145, 0.8163153878270445, 0.8451017213349516, 0.620600063351036, 0.8876419954480846, 0.8471328942065439, 0.7728516694033934, 0.8610837438423643, 0.711743772241993, 0.9132220435248224, 0.7276211605782309, 0.7542419266557197, 0.8914891064049033, 0.8770873583493798, 0.7473309888557449, 0.8105147864184011, 0.7934857060758549]</t>
   </si>
   <si>
-    <t>[0.941118502094112, 0.849480021893815, 0.6288998357963875, 0.7130149238798213, 0.8749830888187621, 0.9363143631436316, 0.9158341402310488, 0.8786095607117952, 0.6508827212998907, 0.8790035916541382, 0.8823457009180379, 0.9049063030542382, 0.8235938218634865, 0.7859293731179853, 0.852997568232418, 0.8556294653855631, 0.922824302134647, 0.8551875491521418, 0.8152203973671827, 0.8977412815122578, 0.8387732542991698, 0.876232234382826, 0.8697318007662834, 0.7646174597752687, 0.901450862304955, 0.8530245229204824, 0.794141801259239, 0.8300698420965007, 0.8106258386273597, 0.8794306911423669, 0.8732741617357, 0.9392115318605301, 0.7616701532103144, 0.7274220032840722, 0.8400164304749219, 0.877141156672818, 0.705133476832821, 0.8873682853045607, 0.8422061116231133, 0.8237547892720307, 0.9039408866995071, 0.782537300334898, 0.869148677515381, 0.7845606644910494, 0.8565955117679256, 0.8703042312596087, 0.8861210296432405, 0.8376677017943515, 0.7941418310148411, 0.836184488465587]</t>
+    <t>[0.9348441997255065, 0.8348159377479674, 0.6568144499178982, 0.7447653005285965, 0.8892842563092281, 0.9321261394432128, 0.9224031836756229, 0.8824415027211302, 0.642397706850649, 0.8642212204460026, 0.8653443456085308, 0.8944340838042872, 0.8290680247339649, 0.7993430057486998, 0.8488913540079359, 0.8619288155044921, 0.9277504105090312, 0.8464276254732467, 0.8078292117631148, 0.8614837442963478, 0.8313831815740671, 0.8693866700517101, 0.866447728516694, 0.8054226179079746, 0.9078965460688551, 0.8490821796603067, 0.7760744593484808, 0.833082302757359, 0.8073395176599516, 0.8910782703886152, 0.8321627186023517, 0.9222345304099899, 0.810130116229087, 0.7465790914066777, 0.8230464015764387, 0.886506530079271, 0.6846070597163619, 0.911454777934666, 0.8022444306686204, 0.7887246852764094, 0.8950738916256156, 0.7767893873208955, 0.885847282028275, 0.762387107678846, 0.897495560614946, 0.8895184203448758, 0.8622861134866898, 0.8254620200547294, 0.7749178532311065, 0.8263309232987258]</t>
   </si>
   <si>
     <t>[0.9645232815964524, 0.8992884510125888, 0.5675971538040504, 0.7464075613897401, 0.9078965460688551, 0.9294248130604312, 0.8676611549708383, 0.8725879375542688, 0.7288901122042089, 0.8506911260723549, 0.904544901552585, 0.8163888179280968, 0.875598749133032, 0.8857260244434172, 0.8924172247874463, 0.9067619233701157, 0.8987411056376573, 0.8516288301575907, 0.8746236298146906, 0.8921434771724809, 0.8606971367169749, 0.8317591392713641, 0.90311986863711, 0.768999221722405, 0.8773610730906105, 0.8220224227889369, 0.8384889132220095, 0.8793977469847339, 0.8450165560704361, 0.8400164304749219, 0.8590265528471781, 0.9014240125028763, 0.877755036373928, 0.7920087575259989, 0.8839627805145046, 0.89403657975091, 0.8328999667432998, 0.8884631258786564, 0.8564390390863573, 0.7712096332785988, 0.8088669950738915, 0.7737785757421324, 0.80509173561346, 0.9099370721452367, 0.8620689655172413, 0.8860697197398278, 0.8776348535793107, 0.8141254069073207, 0.8432580503378329, 0.864924053535599]</t>
@@ -4153,13 +4153,13 @@
     <t>[0.8308905100590602, 0.8856048166392994, 0.6573617952928298, 0.7847269814830893, 0.88232074438971, 0.8831136906497868, 0.8328999667432998, 0.8285206044469171, 0.6987819964165773, 0.8620689655172413, 0.8436999694492384, 0.862428872111353, 0.9029697634854243, 0.8268783435857736, 0.8163153878270445, 0.8599581294444646, 0.8149972632731254, 0.8519025777725562, 0.7777169741169125, 0.832192749495042, 0.8020692264311592, 0.8199863798939222, 0.9102353585112206, 0.5737369549531476, 0.9130970387958095, 0.8439463052067419, 0.8082660538261468, 0.8355921306965777, 0.8450165560704361, 0.7805145046524357, 0.8215870884480524, 0.8778752685553527, 0.8752909704577192, 0.7597153804050356, 0.9414340448823207, 0.8989651165742337, 0.6848227790968572, 0.9314356184119125, 0.8411112710490176, 0.8970990695128626, 0.9600985221674873, 0.7830847206219459, 0.8439638969385574, 0.7361073366421604, 0.9255610290093048, 0.923020083365342, 0.8045442403835291, 0.7210512178190595, 0.8278127876555944, 0.7119200833057256]</t>
   </si>
   <si>
-    <t>[0.739864499109806, 0.7720739870787514, 0.5845648604269293, 0.7650198511493669, 0.8111658456486042, 0.8622692234643848, 0.8851001054104516, 0.843300952197209, 0.7075407210093428, 0.7824183676855095, 0.7981278543111044, 0.8235140644088388, 0.8248840253387227, 0.8162148581535342, 0.8431722393771457, 0.8441926409642453, 0.8604269293924467, 0.809993162962493, 0.8551875491521418, 0.8874897677180678, 0.8368025682391425, 0.8177335070308956, 0.7892648707279099, 0.7875925585974791, 0.8717668071236971, 0.7558007329404182, 0.7475024019638357, 0.8197125947921211, 0.7979190681753893, 0.8133552271483305, 0.8260227715890437, 0.8338817042686462, 0.8345042264016267, 0.8018609742747673, 0.8736137882102819, 0.8504500126280014, 0.6793485762263787, 0.8011495900945248, 0.6820050324839934, 0.8341543513957307, 0.8660098522167486, 0.7747057213249385, 0.7563646601496057, 0.7660915105218572, 0.8542095176190441, 0.8846439329818739, 0.8456063826283503, 0.7536271839999509, 0.8458801302433158, 0.6897495616802879]</t>
+    <t>[0.739864499109806, 0.7720739870787514, 0.5845648604269293, 0.7650198511493669, 0.8111658456486042, 0.8622692234643848, 0.8851001054104516, 0.843300952197209, 0.7075407210093428, 0.7824183676855095, 0.7981278543111044, 0.8235140644088388, 0.8248840253387227, 0.8162148581535342, 0.8431722393771457, 0.8441926409642453, 0.8604269293924467, 0.809993162962493, 0.8551875491521418, 0.8874897677180678, 0.8368025682391425, 0.8177335070308956, 0.7892648707279099, 0.7875925585974791, 0.8717668071236971, 0.7558007329404182, 0.7475024019638357, 0.8197125947921211, 0.7979190681753893, 0.8133552271483305, 0.8260227715890437, 0.8338817042686462, 0.8345042264016267, 0.8018609742747673, 0.8736137882102819, 0.8504500126280014, 0.6793485762263787, 0.889831676596276, 0.6820050324839934, 0.8341543513957307, 0.8660098522167486, 0.7747057213249385, 0.7563646601496057, 0.7660915105218572, 0.8542095176190441, 0.8846439329818739, 0.8456063826283503, 0.7536271839999509, 0.8458801302433158, 0.6897495616802879]</t>
   </si>
   <si>
     <t>[0.8409902761167007, 0.8429118773946359, 0.665024630541872, 0.7403859382322137, 0.9014778325123153, 0.9232664191228456, 0.8843574737257975, 0.8126454161225296, 0.7343643150746874, 0.8423645320197045, 0.8488730203568106, 0.8865450909692492, 0.9193923720968598, 0.7472286918203117, 0.8601150062215204, 0.8954304785249582, 0.8949096880131362, 0.8965234390119285, 0.7829181788012566, 0.8037229975386327, 0.8168493718813649, 0.8492813857866266, 0.8872468527640941, 0.5923594432284763, 0.8599972709521684, 0.8737529318646565, 0.7756945467467998, 0.8681725578108939, 0.8077766819208642, 0.8078817733990148, 0.8272549057948746, 0.9211392399938261, 0.9125257443026519, 0.7936507936507936, 0.9014778325123153, 0.9098078975855458, 0.6916655326849552, 0.9352675604212474, 0.8088134741131947, 0.8686371100164203, 0.9039408866995071, 0.7477761121073596, 0.8486176063929705, 0.8376677017943515, 0.9239189928845101, 0.9200640542753009, 0.9000821580064797, 0.799890530929116, 0.8362989637195242, 0.6971397355554337]</t>
   </si>
   <si>
-    <t>[0.9115545700911556, 0.8572601695169292, 0.6535303776683087, 0.8137402566966252, 0.8970709342418595, 0.9050375730675918, 0.9161078503745728, 0.8851786041563694, 0.6930340834025749, 0.8160919540229885, 0.878758035553172, 0.8990002726677666, 0.8512385463594028, 0.8334473870303477, 0.8486176063929705, 0.840004933086687, 0.939792008757526, 0.8981659247017213, 0.8029017546937363, 0.8965234390119285, 0.8101983064287723, 0.8923877662042594, 0.8418171866447729, 0.7673560609922288, 0.8913222009307419, 0.8449316482367556, 0.7979742677251576, 0.8393810841391537, 0.8303437644318091, 0.8099083146872903, 0.8656974930167991, 0.9162104331210886, 0.8443532539542089, 0.7712096332785988, 0.8686371100164203, 0.9008010473838577, 0.6862423062246032, 0.9095388069299984, 0.8115505755484339, 0.8325123152709359, 0.908374384236453, 0.7945805466499506, 0.8620312395262787, 0.719682479744232, 0.8943623426382047, 0.8794186542872354, 0.8622861134866898, 0.8300027685753183, 0.8145106168035885, 0.8378267493267305]</t>
+    <t>[0.924119241192412, 0.886152162014231, 0.6436781609195401, 0.7562611265566013, 0.9132220435248224, 0.9052839088250952, 0.915560430087525, 0.8961270098973263, 0.6750615932110595, 0.7912960249276635, 0.8441542505850874, 0.88188627596261, 0.8805255317164626, 0.8280865042430879, 0.8497125968528324, 0.8438038925843805, 0.9354132457580733, 0.8784560964242072, 0.7749794979672578, 0.8642212204460026, 0.8358172252091288, 0.8843258788171514, 0.8522167487684729, 0.7577709567328684, 0.8936636186056109, 0.861049519586105, 0.8094716671229127, 0.8437628451004021, 0.8599206531384831, 0.8357963875205253, 0.89403657975091, 0.9255204016584816, 0.8358659157983788, 0.7405582922824301, 0.866447728516694, 0.9165743078578842, 0.7106091784583912, 0.915560430087525, 0.8772410099941755, 0.8232074438970991, 0.9162561576354679, 0.7956753872240462, 0.880646077343931, 0.7257049272734725, 0.9189486591614984, 0.8954304785249582, 0.8568104118611195, 0.8539356685076951, 0.8121577217962762, 0.8230464015764386]</t>
   </si>
   <si>
     <t>[0.86449864498645, 0.8642583470169677, 0.6371100164203612, 0.775420836603276, 0.9085933223864259, 0.9294248130604312, 0.9144655895134292, 0.882988923008178, 0.7798001988996587, 0.8356370681785391, 0.8685798809570846, 0.8892855703849192, 0.8170247784189123, 0.8257835030116779, 0.8776348535793107, 0.8855770482248211, 0.9118773946360154, 0.8248015638909741, 0.8401314303290407, 0.8245278162760087, 0.8476413415692934, 0.8062971248038733, 0.8210180623973727, 0.7459949714999398, 0.9362168081029292, 0.8175883791538752, 0.8765398302764852, 0.8984118628156412, 0.8949747434575039, 0.8281335522714832, 0.8957615676390732, 0.912924561872597, 0.8900753659549719, 0.8264915161466886, 0.8604269293924467, 0.9022797905532979, 0.8085397639696708, 0.91172848807819, 0.7852744017701372, 0.8084291187739463, 0.8374384236453201, 0.7762419670338477, 0.8261703019658015, 0.7662195742883627, 0.8921729611384784, 0.8735065961071532, 0.821790340126354, 0.7779907217318781, 0.8588637999707084, 0.7945805466499506]</t>
@@ -4171,13 +4171,13 @@
     <t>[0.9259761124553832, 0.8571428571428572, 0.6902025177887248, 0.7075407210093428, 0.9184455391351943, 0.9486390021456984, 0.8961270098973263, 0.8662926042532185, 0.7258793006254457, 0.8013136288998358, 0.8996181864025163, 0.8100857152720559, 0.8879157055916085, 0.8816203722905583, 0.9093895769153058, 0.8969084930699788, 0.8839627805145046, 0.8883110105629642, 0.8822885630337238, 0.7287161510380926, 0.828427152484026, 0.8287475031515533, 0.8828680897646416, 0.7550323555159081, 0.8235938218634865, 0.8836063621647938, 0.8920213577444674, 0.8955510679909915, 0.8154437148340113, 0.8960043787629994, 0.8408083820590145, 0.9151151427049247, 0.8109514715344899, 0.7739463601532567, 0.8899835796387521, 0.8974865555272364, 0.72478446005135, 0.9122759083652378, 0.8307102855951085, 0.8565955117679256, 0.8088669950738915, 0.8096346045437663, 0.7979742976243577, 0.8664112013657262, 0.8905309250136835, 0.9446976300256436, 0.8642212204460026, 0.8428689064786955, 0.8223378353562849, 0.786095532200709]</t>
   </si>
   <si>
-    <t>[0.8658701876245469, 0.7935943357849101, 0.5649377362333785, 0.7152046050280126, 0.9170902567728729, 0.9342121544347224, 0.7133862578702438, 0.8569864593734052, 0.744045989597591, 0.8510813349276597, 0.8143860143063307, 0.8729621550142795, 0.9148412172103192, 0.8304365754515847, 0.8770873583493798, 0.8501046991443275, 0.7383689107827038, 0.8888585057928953, 0.8067342213032528, 0.8889801589113453, 0.743687651902847, 0.7822040358453876, 0.8199233716475095, 0.6942885122486602, 0.8759923350670683, 0.7688138991681965, 0.8498699956417832, 0.8336756349839709, 0.817634295666339, 0.8708264915161467, 0.8176442589893934, 0.8285871998279778, 0.8835045235117485, 0.8106185002736727, 0.810840435527735, 0.8112371611190727, 0.760914198996508, 0.7904748944970917, 0.7891063437794721, 0.840175150519978, 0.8320197044334974, 0.7193102571808716, 0.8286340305004908, 0.7744320027373269, 0.88232074438971, 0.8570021003544235, 0.8716124060500703, 0.8056392308433911, 0.7856556549509114, 0.872040517267221]</t>
+    <t>[0.8658701876245469, 0.7935943357849101, 0.5649377362333785, 0.7152046050280126, 0.9170902567728729, 0.9342121544347224, 0.7133862578702438, 0.8569864593734052, 0.744045989597591, 0.8510813349276597, 0.8143860143063307, 0.8729621550142795, 0.9148412172103192, 0.8304365754515847, 0.8770873583493798, 0.8501046991443275, 0.7383689107827038, 0.8888585057928953, 0.8067342213032528, 0.8889801589113453, 0.743687651902847, 0.7822040358453876, 0.8199233716475095, 0.6942885122486602, 0.8759923350670683, 0.7688138991681965, 0.8498699956417832, 0.8336756349839709, 0.817634295666339, 0.8708264915161467, 0.8176442589893934, 0.8285871998279778, 0.8835045235117485, 0.8106185002736727, 0.810840435527735, 0.8112371611190727, 0.760914198996508, 0.7403859382322137, 0.7891063437794721, 0.840175150519978, 0.8320197044334974, 0.7193102571808716, 0.8286340305004908, 0.7744320027373269, 0.88232074438971, 0.8570021003544235, 0.8716124060500703, 0.8056392308433911, 0.7856556549509114, 0.872040517267221]</t>
   </si>
   <si>
     <t>[0.9634191475959041, 0.8817733990147782, 0.5862068965517241, 0.7762419670338477, 0.8657904867490405, 0.9292842253595028, 0.8673874448273142, 0.8278127566383795, 0.7414807788063094, 0.8653530377668308, 0.8533760732250799, 0.8528371941565079, 0.8734090679848406, 0.8313714754995896, 0.8732375167378306, 0.8461918701384155, 0.8604269293924467, 0.8492813221259603, 0.8339493575743633, 0.7248836844285761, 0.8631604942920093, 0.8481862453794227, 0.8440065681444991, 0.8040533172994946, 0.8452169232018765, 0.907993602157633, 0.8230464015764386, 0.8333561628174371, 0.8406353944057806, 0.8719211822660098, 0.8632332246051372, 0.8959475604220567, 0.8602327898586656, 0.8084291187739463, 0.8341543513957307, 0.8569316666904715, 0.5940283546134282, 0.8586287202345487, 0.8129191262660536, 0.8226600985221675, 0.8857142857142855, 0.7340906049311635, 0.8922655798866875, 0.8113879307576659, 0.8921729611384784, 0.899371850645013, 0.8773611059643452, 0.8239803210460779, 0.8551875491521418, 0.786095532200709]</t>
   </si>
   <si>
-    <t>[0.9196846513919684, 0.8697318007662834, 0.5971538040503558, 0.7737785757421324, 0.9058308579207546, 0.9331198494229825, 0.9136444590828574, 0.8832626331517018, 0.660462576323228, 0.8450588873984193, 0.9063808819906382, 0.8570651989732031, 0.8805255317164626, 0.8222252711458669, 0.8565562872269692, 0.8619288155044921, 0.9441707717569787, 0.8592937633766239, 0.7875718882556696, 0.8721599012800013, 0.8131543355188136, 0.8793977469847339, 0.8489326765188835, 0.7758457247648053, 0.8839310156036135, 0.8614361439894853, 0.7905830823980292, 0.8450164610329378, 0.854874169815911, 0.8849048940128454, 0.8730746129568581, 0.9320921441554648, 0.8364134860019807, 0.7662835249042145, 0.8275862068965517, 0.8950222871155747, 0.6783074148379958, 0.9166552706616206, 0.843300952197209, 0.8133552271483305, 0.8852216748768472, 0.7803476191867065, 0.8592937633766239, 0.76758831236319, 0.9133707489393335, 0.9124276457926946, 0.8705174155902083, 0.8320328620054136, 0.8111141831427005, 0.8624606622438836]</t>
+    <t>[0.9290465631929047, 0.8764198795636037, 0.6316365626710454, 0.768304372871654, 0.9221294735320991, 0.9377925597437793, 0.904612024346568, 0.9089913866429508, 0.6716846922077089, 0.8641029231050272, 0.9103227395910322, 0.8764053171312701, 0.8624606622438836, 0.8285206044469171, 0.8636550388930824, 0.8510900421743413, 0.9326765188834154, 0.8603887538364859, 0.7859294025658768, 0.8610540806209366, 0.808227620368745, 0.899110274314404, 0.8445539135194308, 0.8043271774211905, 0.8976183958390366, 0.8547492980968091, 0.8007117437722421, 0.8287005417961105, 0.8369164063666255, 0.9177501112357163, 0.8928044455450791, 0.9238774660342358, 0.8167009586723105, 0.739463601532567, 0.8235938218634865, 0.9072089344514309, 0.70158871112761, 0.9243191546802904, 0.8449432130583526, 0.8352490421455938, 0.891133004926108, 0.7666621120105104, 0.8817410678037929, 0.7560909125346401, 0.8991378214760894, 0.9067619233701157, 0.8847364901515283, 0.8451745459067825, 0.8205338885917159, 0.8427535319101611]</t>
   </si>
   <si>
     <t>[0.882729736388273, 0.8620689655172413, 0.6896551724137931, 0.8334473870303477, 0.9062542852077115, 0.9796773075911304, 0.9341727198471517, 0.8947584591797065, 0.749965793255551, 0.8357963875205253, 0.8865623912548348, 0.9227194192560934, 0.8356370681785391, 0.8413849811925416, 0.8343827304147658, 0.9087326094301433, 0.9512862616310892, 0.8847522915684131, 0.8237065734311123, 0.9019983913112379, 0.8422219549042179, 0.8900753659549719, 0.8598795840175151, 0.8108998203418949, 0.8844785108130304, 0.8885330773148622, 0.8676611549708383, 0.9309967490317527, 0.9058051741675317, 0.893663618605611, 0.9334648743374993, 0.8768999781367588, 0.8588638643496607, 0.7816091954022988, 0.8795840175150519, 0.931986313290502, 0.8291814946619218, 0.9453948357316326, 0.7912960249276635, 0.8155446086480569, 0.84679802955665, 0.692212952972003, 0.838488944639248, 0.8316452542651112, 0.8555008210180624, 0.9313954991204586, 0.9145907815996498, 0.8442376445535228, 0.8831098058786203, 0.8208567204282472]</t>
@@ -4195,7 +4195,7 @@
     <t>[0.8728750923872876, 0.8523333869334985, 0.5927750410509032, 0.5832763158494815, 0.8460698556051206, 0.9278058466369372, 0.8783358505682713, 0.8447851081303039, 0.7083618514399146, 0.8467432950191571, 0.8760473405472593, 0.8450784323374657, 0.8501437057853071, 0.7640295647413086, 0.8663928897058676, 0.8264728635520265, 0.8992884510125888, 0.8863947772582059, 0.8346564780297313, 0.8574948745643158, 0.8052715912787038, 0.9089415393989727, 0.8226600985221675, 0.8193646805927173, 0.8879157055916085, 0.8429222683162825, 0.7930468108404052, 0.8518214187893728, 0.8444689108623542, 0.8964952056301387, 0.8565796998936502, 0.894304624797811, 0.8457221794632139, 0.8297755883962781, 0.800438026159047, 0.8544670947414049, 0.5693741918671942, 0.8851786041563694, 0.8335614563372571, 0.8171866447728516, 0.8733990147783249, 0.677799069258144, 0.8555783789953662, 0.8029017546937363, 0.8976464148877942, 0.8912427706473999, 0.8800821437697934, 0.8592937633766239, 0.8239803210460779, 0.7592719381353644]</t>
   </si>
   <si>
-    <t>[0.9223946784922394, 0.8582375478927203, 0.7000547345374931, 0.7617353294270797, 0.8498699956417832, 0.9624338045658903, 0.9243191546802904, 0.8909265171703716, 0.6722321124947568, 0.8746579091406678, 0.896279871889628, 0.8764053171312701, 0.8452169232018765, 0.8343826991513826, 0.8885847581779297, 0.8712895742896223, 0.8593322386425835, 0.9266356766581306, 0.8091979498379421, 0.8313715066501456, 0.8680872094420777, 0.9021219104342147, 0.9129720853858784, 0.812269120950375, 0.8965234054202027, 0.8466559985392796, 0.8228852997536272, 0.9023956955360158, 0.8882805275089095, 0.840175150519978, 0.9070972023327176, 0.9079957549998594, 0.8068446950074752, 0.7635467980295566, 0.8697318007662834, 0.8889711020283378, 0.753524025121362, 0.9303407778378168, 0.8264440186148372, 0.8451012588943623, 0.9305418719211821, 0.8025181408121442, 0.8305502638052492, 0.7651245838285009, 0.9009304871373838, 0.8912427706473999, 0.90610460553572, 0.8718861536650359, 0.7955105690896684, 0.8233201117199627]</t>
+    <t>[0.9278147326927816, 0.8549534756431307, 0.7208538587848933, 0.7475024019638357, 0.8931161983185631, 0.9612021257783733, 0.911181067791142, 0.8742301984154124, 0.6864650399580007, 0.8697318007662834, 0.8982508006898251, 0.8757030095041202, 0.8353633580350152, 0.8079923436826228, 0.8880372629479987, 0.8412366118742042, 0.8587848932676518, 0.9189707434390973, 0.826991544810698, 0.8540925586922798, 0.8769552967122012, 0.8807666724937387, 0.9102353585112206, 0.79337277255335, 0.885999734586941, 0.8580931263858094, 0.807281686285245, 0.8941530961547592, 0.8789705589715165, 0.8516694033935412, 0.8965008481625718, 0.903614593335204, 0.7887748782886108, 0.7821565407772304, 0.8609742747673782, 0.8871366281982569, 0.7987955105392829, 0.9289722271201971, 0.8450588557350124, 0.8680897646414888, 0.933990147783251, 0.7934857060758549, 0.8261703019658015, 0.8056392308433911, 0.9025725232621784, 0.8784333112572217, 0.9126745482948915, 0.8654346419213927, 0.7935943357849101, 0.8238675320070105]</t>
   </si>
   <si>
     <t>[0.9460458240946047, 0.9474548440065682, 0.6863711001642036, 0.7718626047374649, 0.9281510966896254, 0.9511023597207328, 0.9084439663559029, 0.9084439663559029, 0.6538935328786538, 0.9210346329580034, 0.8951841427674547, 0.8622728225039006, 0.8345422276044435, 0.8624606622438836, 0.8948809533221356, 0.8954304785249582, 0.8385331143951834, 0.9197919862839938, 0.8614837442963478, 0.9025458865411689, 0.8821283476197731, 0.9190965867458754, 0.8998357963875205, 0.8495140975010328, 0.9249931563098823, 0.8545029016430482, 0.8961270098973263, 0.9201698018621718, 0.9266156920746456, 0.8547967782252137, 0.9492361921721347, 0.9320921441554648, 0.8517454517028353, 0.7969348659003832, 0.8872468527640941, 0.8748152861399477, 0.8523333869334985, 0.9267825459720058, 0.8187790856830004, 0.8949096880131362, 0.9201970443349751, 0.8567127492298814, 0.8354777208746276, 0.863947472831037, 0.9068017054947592, 0.904544901552585, 0.923350705278545, 0.8721599012800013, 0.8729811441248977, 0.8296154450210128]</t>
@@ -4207,13 +4207,13 @@
     <t>[0.9506096882057259, 0.8817733990147782, 0.655719759168035, 0.7075407210093428, 0.9261083743842365, 0.9572607536583184, 0.9152867199440009, 0.8991378214760894, 0.7507869236861228, 0.8275862068965517, 0.8592903168743441, 0.7952871264274377, 0.8646503433920751, 0.8662926042532185, 0.8727073965099321, 0.9077472664001296, 0.8921729611384784, 0.8978921770867558, 0.9069258483806165, 0.8056392308433911, 0.8799113258022423, 0.8251882968281407, 0.8773946360153256, 0.8360949515379281, 0.8405201995250478, 0.8666091948970572, 0.864924053535599, 0.9205914912484565, 0.8094196175451099, 0.90311986863711, 0.8794973961221053, 0.9200439495776622, 0.8506503112956313, 0.8478379857690203, 0.9091406677613574, 0.8309513084123673, 0.8082660538261468, 0.9062542852077115, 0.8598412263892693, 0.7695675971538041, 0.8334975369458125, 0.7672095322975582, 0.8787298440391726, 0.7960580643195994, 0.8139025725232621, 0.9210493973053145, 0.8658453195433106, 0.8560087919970383, 0.8434164017086264, 0.7817161699043261]</t>
   </si>
   <si>
-    <t>[0.8939524639799377, 0.7490074328385958, 0.6179529282977558, 0.7278948809197922, 0.8691844553913519, 0.9474073233581813, 0.7013004856949218, 0.8764198795636038, 0.5997810019162333, 0.7755269931971889, 0.8402512688441905, 0.870376262416796, 0.8263309232987258, 0.8096346045437663, 0.779633207421671, 0.8609434724744784, 0.779967159277504, 0.8631262299861406, 0.8447851397834538, 0.8917180097241304, 0.8914891064049033, 0.832032924373165, 0.8461959496442255, 0.7525676144206441, 0.7332694745005917, 0.8028082337036695, 0.7954016770805223, 0.8858160244463882, 0.8674700096017959, 0.8905309250136835, 0.8578118340994813, 0.8674700096017959, 0.8681725578108939, 0.819376026272578, 0.8261703019658015, 0.814194283213067, 0.7631038801446993, 0.900780082337233, 0.8560087599233508, 0.8522167487684729, 0.8793103448275861, 0.7202299479879551, 0.8409526731739372, 0.7993430356991851, 0.7254049013278524, 0.8508437064168378, 0.8653162109058643, 0.7949630738597375, 0.7810019454964983, 0.9052833287708735]</t>
+    <t>[0.8939524639799377, 0.7490074328385958, 0.6179529282977558, 0.7278948809197922, 0.8691844553913519, 0.9474073233581813, 0.7013004856949218, 0.8764198795636038, 0.5997810019162333, 0.7755269931971889, 0.8402512688441905, 0.870376262416796, 0.8115505755484339, 0.8096346045437663, 0.779633207421671, 0.8609434724744784, 0.779967159277504, 0.8631262299861406, 0.8447851397834538, 0.8917180097241304, 0.8914891064049033, 0.832032924373165, 0.8461959496442255, 0.7525676144206441, 0.7332694745005917, 0.8028082337036695, 0.7954016770805223, 0.8858160244463882, 0.8674700096017959, 0.8905309250136835, 0.8578118340994813, 0.8674700096017959, 0.8681725578108939, 0.819376026272578, 0.8261703019658015, 0.814194283213067, 0.7631038801446993, 0.900780082337233, 0.8560087599233508, 0.8522167487684729, 0.8793103448275861, 0.7202299479879551, 0.8409526731739372, 0.7993430356991851, 0.7254049013278524, 0.8508437064168378, 0.8653162109058643, 0.7949630738597375, 0.7810019454964983, 0.9052833287708735]</t>
   </si>
   <si>
     <t>[0.9427269439656163, 0.8424798217666374, 0.5670498084291188, 0.7551662859825056, 0.8899835796387521, 0.9636654833534074, 0.9136444590828574, 0.8748973446482345, 0.6982345761295294, 0.8461538778582812, 0.8518975123127638, 0.7695266199201397, 0.8498699956417832, 0.807281686285245, 0.8343600351962811, 0.9003571936750268, 0.8418171866447729, 0.8399726293624906, 0.8073922046903471, 0.8061867260733219, 0.7951718252210632, 0.8591376494514616, 0.8472906403940886, 0.8224019454531274, 0.8826831020419393, 0.835324553694122, 0.6610099966102758, 0.8178581210627226, 0.8680176548098778, 0.8144499178981938, 0.8723510177282858, 0.9326397893635469, 0.8104039013308879, 0.7531472359058566, 0.8053654832284255, 0.8738295787752831, 0.6101905279692929, 0.9106336475040943, 0.8631261976457707, 0.8385331143951834, 0.8945812807881771, 0.7068163153572408, 0.9134957911397878, 0.8998084103915142, 0.8363437328954569, 0.8845917051948073, 0.8056392308433911, 0.8070079689182184, 0.7237886939687141, 0.775147126459752]</t>
   </si>
   <si>
-    <t>[0.917220990391722, 0.8895579664527521, 0.6185002736726873, 0.7562611265566013, 0.8981659247017213, 0.9358295427555202, 0.8969481403278982, 0.8980429809019937, 0.6486930401516993, 0.8294552733453873, 0.8978686775049791, 0.9102377760761138, 0.8096346045437663, 0.8266046334422497, 0.8642212204460026, 0.8471486700542865, 0.9310344827586207, 0.8352039732596623, 0.7856556549509114, 0.8727073965099321, 0.8161103646088546, 0.8548740736697447, 0.8615216201423097, 0.8092566596117189, 0.9074733096085411, 0.8236018723823603, 0.7968792773063237, 0.8347254631178271, 0.8308914845930437, 0.9040646040595202, 0.8676689077461286, 0.9364733058201204, 0.8147844629597036, 0.746031746031746, 0.8533114395183361, 0.8850277869098313, 0.6933717830253932, 0.8988641113325655, 0.8488913222009308, 0.8210180623973727, 0.9182266009852215, 0.8030655610991922, 0.8814673201888273, 0.731179879572782, 0.8243021346469621, 0.8914891064049033, 0.8891322534078606, 0.8249144498921722, 0.7963318119345648, 0.8599972709521684]</t>
+    <t>[0.9311491633629553, 0.8850574712643678, 0.6212370005473454, 0.7584508077047927, 0.8766935897071277, 0.9375461936437547, 0.8881894157351325, 0.9161078503745728, 0.6596414458926562, 0.850417415928831, 0.8798817363804282, 0.8781697785449769, 0.8569864593734052, 0.814287676983673, 0.8664112013657262, 0.8466559985392796, 0.9370552818828681, 0.8174103782869063, 0.8316452542651112, 0.8935122152473083, 0.8003448761286353, 0.8725531194397095, 0.8648056923918993, 0.7777627456166774, 0.9134957569121271, 0.8181818181818182, 0.7881193539556529, 0.8542864968501781, 0.8313254258683878, 0.9051594446336159, 0.8765402740281111, 0.9545455976868247, 0.8186174543849173, 0.7482211275314723, 0.8680897646414888, 0.875662413503378, 0.736344976098572, 0.9081702562123789, 0.8368464275937586, 0.7876299945265463, 0.9118226600985219, 0.7666621120105104, 0.8751711250446215, 0.703531370461269, 0.8205830102847232, 0.8843453694373039, 0.8770705078757297, 0.8566735193204803, 0.8169746825350953, 0.8490488652112115]</t>
   </si>
   <si>
     <t>[0.8711505296871151, 0.896551724137931, 0.6037219485495348, 0.7672095322975582, 0.8947584591797066, 0.958738768203339, 0.8928424881750392, 0.8994115316196133, 0.6963186051248619, 0.8495962854982594, 0.9249907694253696, 0.8468081394420339, 0.8723142274107448, 0.8441220826277808, 0.8694224251303465, 0.862421487019499, 0.9184455391351943, 0.8226115829712504, 0.810840435527735, 0.8817410678037929, 0.8210370797589231, 0.787953522983208, 0.8734090679848406, 0.7717378229393651, 0.9225294278675064, 0.7170833900924769, 0.8816203722905583, 0.8495139063620406, 0.8713035260583694, 0.8613658216697879, 0.8814688108514348, 0.8997810768786303, 0.867351202505491, 0.7427476737821566, 0.8916256157635468, 0.8309513084123673, 0.839742720331398, 0.885999734586941, 0.840678894059677, 0.840175150519978, 0.8748768472906402, 0.8044341118168118, 0.8467013730882121, 0.7886668787155315, 0.8379857690202517, 0.8919817779199101, 0.7807281978815328, 0.7889406263304971, 0.865042463290899, 0.8293417348774889]</t>
@@ -4225,13 +4225,13 @@
     <t>[0.7826087015883885, 0.8434592227695675, 0.4482758620689655, 0.7603667787094601, 0.870279146141215, 0.8222687585464402, 0.8449432130583526, 0.8120979958354817, 0.7256055904819217, 0.8631636562671045, 0.784579387648416, 0.8520150503318069, 0.8766935897071276, 0.7392910976581181, 0.8406789255589717, 0.8833600264072902, 0.8248494800218937, 0.7752224576401214, 0.8677799394405538, 0.8387626922542135, 0.6956521791896787, 0.7975360015462422, 0.8812260536398466, 0.5737369549531476, 0.904612024346568, 0.8533070639918722, 0.7433967498109768, 0.82217666070833, 0.8247536833714043, 0.6830870279146142, 0.7735338544206467, 0.8636364931452222, 0.855304658026248, 0.7389162561576355, 0.920087575259989, 0.8679153345872946, 0.6982345761295294, 0.9215820532450513, 0.8148350972707209, 0.8910782703886152, 0.841871921182266, 0.7559874164130773, 0.8406789255589717, 0.6969614277020977, 0.939792008757526, 0.9153836748827358, 0.8524500730024871, 0.798795540469254, 0.7369285794870569, 0.6651156487631347]</t>
   </si>
   <si>
-    <t>[0.8974011645849858, 0.7732130794345273, 0.5894909688013136, 0.8245277853818779, 0.8538560286658465, 0.921788404577825, 0.7678302604456014, 0.7893153351037424, 0.7190365470373475, 0.8351835366747609, 0.865771149257469, 0.7112697772496386, 0.8517811096277457, 0.7232411716397482, 0.869696172745312, 0.848626684599307, 0.822225271145867, 0.8557929655436335, 0.8174103782869063, 0.8172484676163738, 0.8397585973291837, 0.7858904404537607, 0.8489326765188835, 0.7845796849599995, 0.8880066050323452, 0.8316295173315705, 0.6804434168004744, 0.8469863331576787, 0.8170866504582572, 0.7411056376573617, 0.857565407258315, 0.8315286394553099, 0.8314853541695632, 0.7475024019638357, 0.8555008210180624, 0.7563771311685524, 0.7387436773710702, 0.9002326620501852, 0.7809419788936935, 0.8039431654642906, 0.8916256157635466, 0.8872605736665984, 0.7459622507809176, 0.7427084829316101, 0.8397981311273409, 0.8861228584758531, 0.7544484268448473, 0.7908568596352554, 0.8185053687467683, 0.7921171553582352]</t>
+    <t>[0.8974011645849858, 0.7732130794345273, 0.5894909688013136, 0.8245277853818779, 0.8538560286658465, 0.921788404577825, 0.7678302604456014, 0.7893153351037424, 0.7190365470373475, 0.8351835366747609, 0.865771149257469, 0.7112697772496386, 0.8517811096277457, 0.7232411716397482, 0.869696172745312, 0.848626684599307, 0.822225271145867, 0.8171984192728335, 0.8174103782869063, 0.8172484676163738, 0.8397585973291837, 0.7858904404537607, 0.8489326765188835, 0.7845796849599995, 0.8880066050323452, 0.8316295173315705, 0.6804434168004744, 0.8469863331576787, 0.8170866504582572, 0.7411056376573617, 0.857565407258315, 0.8315286394553099, 0.8314853541695632, 0.7475024019638357, 0.8555008210180624, 0.7563771311685524, 0.7387436773710702, 0.9002326620501852, 0.7809419788936935, 0.8039431654642906, 0.8916256157635466, 0.8872605736665984, 0.7459622507809176, 0.7427084829316101, 0.8397981311273409, 0.8861228584758531, 0.7544484268448473, 0.7908568596352554, 0.8185053687467683, 0.7921171553582352]</t>
   </si>
   <si>
     <t>[0.8614361439894853, 0.8593322386425835, 0.6896551724137931, 0.749965793255551, 0.8817733990147782, 0.8944451354949444, 0.889831676596276, 0.8389215899008262, 0.7316272136394482, 0.896551724137931, 0.8892720845873725, 0.9035360633464031, 0.8942110388926588, 0.7217736484725868, 0.8910484867126189, 0.8693188882295949, 0.8653530377668308, 0.853545063462349, 0.7727895170475341, 0.810840435527735, 0.875723617924684, 0.7342916430302168, 0.866447728516694, 0.5704506334927952, 0.8750513288459841, 0.8592191221719544, 0.7896537640665199, 0.8643395663856802, 0.8127054887936017, 0.7744937055281882, 0.8422869431060118, 0.8981381412543845, 0.9078713975720353, 0.7551662859825056, 0.88232074438971, 0.8969937018449043, 0.6944026341201945, 0.9141918793699052, 0.817845908849484, 0.8735632183908046, 0.9044334975369456, 0.7277952716301131, 0.8434164017086264, 0.7456885031659521, 0.9184455391351943, 0.9200640542753009, 0.8842047963384821, 0.8113879307576659, 0.8551875491521418, 0.7253318803383979]</t>
   </si>
   <si>
-    <t>[0.9041635870904163, 0.8528808072205464, 0.6442255062944717, 0.7929382857888071, 0.890379096883324, 0.9193151022419317, 0.9300670676942928, 0.897221850471422, 0.6894758515367638, 0.8521763253875216, 0.8622474386989761, 0.9051278082887652, 0.900780082337233, 0.8572601695169292, 0.8729811441248977, 0.8309928553830993, 0.9321291735084838, 0.8765398631194489, 0.8275390400406291, 0.8675061918255882, 0.8481340130843001, 0.889254010649569, 0.856048166392994, 0.7432563702829798, 0.9170544757733371, 0.8288776704519072, 0.8119353955652889, 0.8195509617211869, 0.8483024273189279, 0.8221127531472359, 0.8826140835586546, 0.9293539181150552, 0.8596852196550636, 0.7586206896551723, 0.8527640941434045, 0.9012939617736712, 0.7758456083889562, 0.9024223431983764, 0.8635555028179794, 0.8221127531472359, 0.9118226600985219, 0.811003155261386, 0.8472488683181431, 0.7347385985673331, 0.9002326620501852, 0.8838526979222971, 0.8653162109058643, 0.8621492209460505, 0.8001642785440816, 0.8605446912392162]</t>
+    <t>[0.9228874106922887, 0.8402901406184459, 0.649514170582271, 0.7819898800478501, 0.8958248530927924, 0.9143877802414389, 0.9297933575507689, 0.901053792480757, 0.695045168354777, 0.8812260536398466, 0.8713968957871397, 0.9036597253004958, 0.8917476476009435, 0.8356370681785391, 0.8762661155044833, 0.8372952397541493, 0.9211822660098522, 0.8705174155902083, 0.8253490591209052, 0.8283602828855253, 0.8525680567193618, 0.8803395729814955, 0.8571428571428572, 0.7366837273622753, 0.9099370380509171, 0.855981280365614, 0.7933205584451137, 0.8543264285232552, 0.8619935575209763, 0.8520596767899745, 0.8652046393344667, 0.9397591770686121, 0.8484600304812236, 0.7640941434044882, 0.8332877399549039, 0.8978435610449779, 0.6832375716993259, 0.9139181692263814, 0.846585473919496, 0.8018609742747673, 0.9187192118226598, 0.8197618798541516, 0.8918697295575154, 0.7257049272734725, 0.9062542852077115, 0.8929671209499238, 0.8721423764127165, 0.8462696862318967, 0.8064604736882874, 0.8049815321038597]</t>
   </si>
   <si>
     <t>[0.8967726040896773, 0.8839627805145046, 0.5325670498084292, 0.7759682568903238, 0.9159595196744772, 0.8345855464216118, 0.904612024346568, 0.911181067791142, 0.7776105177514673, 0.9538798501808743, 0.8488730203568106, 0.9553311243025666, 0.8047078219603359, 0.8654714738226469, 0.9022721389262034, 0.9003571936750268, 0.7536945812807883, 0.8204216020515267, 0.8461538778582812, 0.8423214112487646, 0.9094716167026536, 0.8722793343379085, 0.8877941981390256, 0.7550323555159081, 0.9597591021078568, 0.8109373137012826, 0.8729811114152752, 0.8981380402423967, 0.8362542327411251, 0.7772304324028462, 0.8960079944802396, 0.9791896320505119, 0.8818618129009427, 0.8511220580186097, 0.8784893267651889, 0.9397412841791106, 0.8226115521489188, 0.9215820532450513, 0.7839058510525174, 0.88232074438971, 0.850246305418719, 0.8564390390863573, 0.8179578735168372, 0.852997568232418, 0.8799781114294148, 0.9279467985154105, 0.7900356167903589, 0.7674195828236837, 0.8813141766355468, 0.8619132419568358]</t>
@@ -4243,13 +4243,13 @@
     <t>[0.914398331852722, 0.8762999452654625, 0.5643130815544608, 0.7080881412963906, 0.9184455391351943, 0.9291784773029276, 0.9415628937222976, 0.8750513288459841, 0.6987819964165773, 0.8505747126436781, 0.8772016324697046, 0.8232400164672719, 0.8285206044469171, 0.846585473919496, 0.907199595995582, 0.8914891064049033, 0.8883415435139572, 0.8872160201031023, 0.8095824853405753, 0.762387107678846, 0.8816356761047663, 0.8542095176190441, 0.8828680897646416, 0.7221691409123866, 0.8219515610023429, 0.8974011645849858, 0.8725879375542688, 0.877481251272127, 0.8165390052501752, 0.8746579091406678, 0.8437655041530088, 0.9419497579009399, 0.8572211537388549, 0.8325123152709359, 0.8806787082649151, 0.9034007997152249, 0.7135623441668693, 0.9185712416662881, 0.8153825175577687, 0.8368910782703886, 0.8113300492610835, 0.7713151844504171, 0.7820969359563602, 0.6808103184191346, 0.9277504105090312, 0.9343515282104996, 0.8631262299861406, 0.8387626922542135, 0.8294552733453872, 0.7759682568903238]</t>
   </si>
   <si>
-    <t>[0.9067619233701157, 0.8352490421455938, 0.6272577996715927, 0.7513343439731706, 0.8214190666752206, 0.9589851039608424, 0.86848228540141, 0.8616395318133119, 0.7644724308623191, 0.8450588873984193, 0.8158640288513511, 0.8657174474101571, 0.8770033559118702, 0.8099083146872903, 0.8866685248731715, 0.8392659258141767, 0.7980295566502463, 0.8757186202745525, 0.8476386116382892, 0.8591375850519869, 0.7577287900805423, 0.8284737180497523, 0.8500273672687465, 0.6994387508116175, 0.8982610644249123, 0.8023155621886626, 0.8370056188961588, 0.8303902137623592, 0.7903601926616758, 0.8883415435139572, 0.8557336881666753, 0.8619935575209763, 0.8755647555595203, 0.8156562277012928, 0.8462277760406806, 0.8758009935046125, 0.7622827497141275, 0.8635555028179794, 0.8600767025613927, 0.8598795840175151, 0.8551724137931034, 0.7847269814830893, 0.8787298440391726, 0.8286340305004908, 0.8558909249111994, 0.8776943039847114, 0.7361073366421604, 0.8420476636337991, 0.8015330166189089, 0.8835363432952258]</t>
+    <t>[0.9067619233701157, 0.8352490421455938, 0.6272577996715927, 0.7513343439731706, 0.8214190666752206, 0.9589851039608424, 0.86848228540141, 0.8616395318133119, 0.7644724308623191, 0.8450588873984193, 0.8158640288513511, 0.8657174474101571, 0.8770033559118702, 0.8099083146872903, 0.8866685248731715, 0.8392659258141767, 0.7980295566502463, 0.8757186202745525, 0.8476386116382892, 0.8591375850519869, 0.7577287900805423, 0.8284737180497523, 0.8500273672687465, 0.6994387508116175, 0.8583550100910248, 0.8023155621886626, 0.8370056188961588, 0.8303902137623592, 0.8090934294177928, 0.8883415435139572, 0.8557336881666753, 0.8619935575209763, 0.8755647555595203, 0.8156562277012928, 0.8462277760406806, 0.8758009935046125, 0.7622827497141275, 0.8635555028179794, 0.8600767025613927, 0.8598795840175151, 0.8551724137931034, 0.7847269814830893, 0.8787298440391726, 0.8286340305004908, 0.8558909249111994, 0.8776943039847114, 0.7361073366421604, 0.8420476636337991, 0.8015330166189089, 0.8835363432952258]</t>
   </si>
   <si>
     <t>[0.9350905354830099, 0.8654714738226468, 0.6540777230432404, 0.7485972425379314, 0.8904412756789405, 0.9390319076030649, 0.8783358505682713, 0.820969066520668, 0.7217736484725868, 0.8538587848932675, 0.8413011591078321, 0.8201264085403505, 0.8531545173640703, 0.8293417348774889, 0.8754277973880588, 0.8151344347648528, 0.8565955117679256, 0.8752909048474194, 0.7876796788382939, 0.7615658648339497, 0.8018228906736559, 0.8585900792478597, 0.8363437328954569, 0.7807752069553334, 0.8312115067615782, 0.8532709193742433, 0.8200355899976755, 0.8533479472031331, 0.8029577563700739, 0.8407224958949097, 0.8327990388872804, 0.9446879839413497, 0.855578443128049, 0.7049808429118773, 0.8226600985221675, 0.8421442349960717, 0.7932119959323309, 0.8725879375542688, 0.8307102855951085, 0.8319649698960043, 0.8891625615763544, 0.7458601411026922, 0.8668035673277854, 0.7599233791441569, 0.9053092501368363, 0.895923150039965, 0.8406789255589717, 0.863947472831037, 0.8261703019658015, 0.7693992134457496]</t>
   </si>
   <si>
-    <t>[0.9216555801921658, 0.8402901406184459, 0.6239737274220033, 0.7688517931587018, 0.8968918985544431, 0.9269614554853969, 0.9254139952543862, 0.8906528070268477, 0.6928551875171093, 0.9161078503745728, 0.8824544378339623, 0.9021658236385683, 0.8846311838693215, 0.8698508361190296, 0.8770873583493798, 0.852075385204355, 0.9173508483853311, 0.8598412586065549, 0.8034492499236672, 0.8499863444677979, 0.8313831815740671, 0.8662560620982871, 0.8642583470169677, 0.7955636535269182, 0.9118532712838764, 0.8662232076866224, 0.8341089515466741, 0.8452902836061824, 0.8822564302200082, 0.8980429809019937, 0.903647226556391, 0.9184010139534164, 0.8484600304812236, 0.7416529830322934, 0.8197618798541516, 0.9022797905532979, 0.7284306762615183, 0.9125496185087617, 0.8498699956417832, 0.7969348659003832, 0.9256157635467978, 0.7756945467467998, 0.8721599012800013, 0.7456885031659521, 0.9057068649206635, 0.8927207851924204, 0.8795510868840691, 0.852840528182581, 0.836960993468427, 0.8438483724842568]</t>
+    <t>[0.9161226821552461, 0.8516694033935412, 0.5960591133004925, 0.7885589234924242, 0.9237301904806523, 0.9166050751416607, 0.8909265171703716, 0.8824415027211302, 0.7191349575691213, 0.9139181692263812, 0.8695330853224674, 0.8781697785449769, 0.8862734447304651, 0.8198740761018343, 0.869148677515381, 0.8675945379270709, 0.9118773946360154, 0.8666849489806918, 0.8176841259018719, 0.8347707128181989, 0.8195590652139026, 0.865982276996486, 0.856048166392994, 0.7889910106062138, 0.8940596769778266, 0.8534121704853413, 0.798248015329866, 0.8440367051604801, 0.8510406533593375, 0.8876419954480846, 0.8927911885493912, 0.9501644360221689, 0.8315991549439509, 0.7411056376573617, 0.8587848932676518, 0.9165743078578842, 0.7380529172637617, 0.91172848807819, 0.8579249931563099, 0.8133552271483305, 0.9014778325123151, 0.7789790684690869, 0.8937859628622737, 0.7560909125346401, 0.9184455391351943, 0.9082399379151364, 0.8767967227944512, 0.8617574919113131, 0.7977005500093923, 0.8400164304749219]</t>
   </si>
   <si>
     <t>[0.9015888724625438, 0.8555008210180624, 0.6639299397920088, 0.8137402566966252, 0.8916256157635468, 0.9104569597326674, 0.8813466621470344, 0.9355412705647713, 0.7515400481095296, 0.8888888888888888, 0.872274917319636, 0.9292965698537012, 0.8745039085589363, 0.889831676596276, 0.912400800679926, 0.921788404577825, 0.9036672140120415, 0.821790340126354, 0.8762661155044833, 0.9299206480377163, 0.9193250470027906, 0.8750171853559183, 0.8981937602627257, 0.8092566596117189, 0.9518204215713114, 0.8151250215788409, 0.8980429809019937, 0.9065024720630305, 0.90251930291904, 0.8839627805145046, 0.8987186897330675, 0.9353780154039566, 0.860624347707882, 0.8423645320197045, 0.8177339901477831, 0.9186792638675283, 0.7881193539556529, 0.9035171837724721, 0.7689570216260609, 0.8719211822660098, 0.9182266009852215, 0.753524025121362, 0.8480701111630395, 0.8237065734311123, 0.8883415435139572, 0.9104569597326674, 0.8842047963384821, 0.8595675109915895, 0.8464276254732467, 0.8263309232987258]</t>
@@ -4267,7 +4267,7 @@
     <t>[0.9348441997255065, 0.824962372581106, 0.5862068965517241, 0.6850964892403811, 0.8389485165809273, 0.9695775415334897, 0.8717668071236971, 0.851355050643307, 0.5931298810163427, 0.8691486775153809, 0.8607688777866602, 0.8947665292162592, 0.8402901406184459, 0.7722419928825625, 0.8376454561716233, 0.8294307145399848, 0.8724685276409413, 0.7964408014392065, 0.7679671529862406, 0.869267633059292, 0.8074886130962348, 0.8862111544124963, 0.8292282430213463, 0.8051487577862787, 0.8495551072072388, 0.8444006470388484, 0.8217903093347934, 0.8537387017255547, 0.8576123958563209, 0.8603506218967305, 0.8347719119435725, 0.9162104331210886, 0.832580494576767, 0.7164750957854407, 0.8086504546080112, 0.8485521220636449, 0.6277223770332815, 0.9037908939159962, 0.8467013413632631, 0.8226600985221675, 0.8763546798029554, 0.7381962570840224, 0.8495551072072388, 0.7752532455822233, 0.9250136836343732, 0.8944451354949444, 0.8759923678895178, 0.8924172247874463, 0.7573932092004383, 0.7702203438763213]</t>
   </si>
   <si>
-    <t>[0.9432196154806232, 0.8440065681444991, 0.6670316197678021, 0.7277952716301131, 0.9013275026242809, 0.9535599901453561, 0.922676893819147, 0.9059805750641875, 0.6648419386196107, 0.876847290640394, 0.8854397634885441, 0.849390806401649, 0.8468591840630201, 0.8350896478914914, 0.8666849489806918, 0.855524085809403, 0.9146141215106732, 0.9225294624336485, 0.8258965543508361, 0.8913222343275845, 0.8715359100471257, 0.9065024720630305, 0.9036672140120415, 0.8330824901992719, 0.9050095811661649, 0.8489775806848978, 0.807829181494662, 0.8750171853559183, 0.8905929821676265, 0.825944170771757, 0.9041400802387235, 0.9162104331210886, 0.7980835717498441, 0.7553366174055829, 0.8471328942065439, 0.8820703005709514, 0.69172839740495, 0.9059805750641875, 0.8483438269915139, 0.8648056923918993, 0.9369458128078817, 0.7557137062695535, 0.8636737252160716, 0.8056392308433911, 0.9133707489393335, 0.8860697197398278, 0.8727073965099321, 0.8565562872269692, 0.8015330166189089, 0.8422061116231133]</t>
+    <t>[0.9294248130604312, 0.849480021893815, 0.6316365626710454, 0.7190365470373475, 0.8701245462625535, 0.9520877027507465, 0.9232243141061948, 0.8895579664527521, 0.6755166342170438, 0.8580812999475008, 0.8917087661609548, 0.838427388442286, 0.8328999667432998, 0.8186670392800559, 0.8612099966813823, 0.8412366118742042, 0.866447728516694, 0.9244456957384068, 0.8179578735168372, 0.8450588873984194, 0.8776943039847114, 0.9067762571648313, 0.8960043787629994, 0.8177463233842952, 0.8894059676977827, 0.8552420910043311, 0.801806734191076, 0.8796385129706237, 0.8933315829737999, 0.8538587848932675, 0.9260720691025136, 0.9019716577109582, 0.832854279678568, 0.7728516694033934, 0.8724685276409413, 0.8850277869098313, 0.7158110950026831, 0.8994115316196133, 0.8438483724842568, 0.8604269293924467, 0.8965517241379309, 0.7839058510525174, 0.8757186202745525, 0.7714207789727068, 0.8964007200408501, 0.8749846106521737, 0.8565562872269692, 0.8366872083871484, 0.7889406263304971, 0.8449432130583526]</t>
   </si>
   <si>
     <t>[0.9475240206947526, 0.8762999452654625, 0.6905706921108595, 0.7505132135425988, 0.8964007200408501, 0.9281931342729139, 0.918297531522764, 0.8849048940128453, 0.7130149238798213, 0.9024223431983764, 0.8948016752894801, 0.8151301252786396, 0.7929382857888071, 0.8211304305717712, 0.8842047963384821, 0.8811430045897595, 0.7750410509031198, 0.9050096150758582, 0.8672324442106227, 0.9373118336417842, 0.8584801148994441, 0.9357974779557349, 0.876847290640394, 0.813638421558855, 0.9180238213792402, 0.829863256266951, 0.9085683000273749, 0.9073238273684333, 0.8439212656542723, 0.8509648362158788, 0.9324791669728345, 0.9244251112423176, 0.8153320331633056, 0.8544061302681991, 0.8850574712643678, 0.9215034517560176, 0.7891063437794721, 0.9078965460688551, 0.8368464275937586, 0.8757525998905309, 0.9054187192118225, 0.8006021698074769, 0.8538188110773146, 0.8984396723166868, 0.9195402298850575, 0.9102106239751637, 0.8965234390119285, 0.8707911632051739, 0.8803723297289654, 0.8235938218634865]</t>
@@ -4285,7 +4285,7 @@
     <t>[0.9087326094301433, 0.8709456766931253, 0.5998905309250135, 0.7026139384259122, 0.8614081242726139, 0.9387855718455616, 0.8846311838693215, 0.8716123733917329, 0.6934026827265263, 0.8653162109058643, 0.8560867682309927, 0.8711984062414971, 0.8509648362158788, 0.8327402135231318, 0.8327173247086099, 0.8747382748946704, 0.8062397372742199, 0.749075982378023, 0.8147844018848671, 0.8671960569550933, 0.789259767040981, 0.8703272709279708, 0.8626163108921729, 0.83390407056436, 0.8476386116382891, 0.8700578955021052, 0.8408375609054937, 0.8373048479868529, 0.8751370425149431, 0.865279428769468, 0.8723510177282858, 0.8992334316705484, 0.7790252208809813, 0.7077175697865353, 0.8174103782869064, 0.829328460860925, 0.623887285050534, 0.9243191546802904, 0.7503421845058857, 0.8456486042692939, 0.8931034482758619, 0.7330960854092528, 0.8943334580922047, 0.7744320027373269, 0.8555008210180624, 0.8855770482248211, 0.8852997867983441, 0.798795540469254, 0.7924424972617746, 0.7614616192835559]</t>
   </si>
   <si>
-    <t>[0.9223946784922394, 0.870279146141215, 0.6239737274220033, 0.7584508077047927, 0.9051077022053234, 0.9170978073417098, 0.9174764010921923, 0.8999589519066613, 0.6534355324390912, 0.8692676982180977, 0.8719970498600771, 0.8702213005244386, 0.8840837635822736, 0.8289077470572133, 0.850787140072992, 0.8303978385440534, 0.9058565955117679, 0.8182316211318028, 0.8141254069073207, 0.865279299014239, 0.8336002033915979, 0.8756845892363367, 0.8675424192665572, 0.7698208020874929, 0.9113057760744595, 0.8296168598131901, 0.8105666575417466, 0.8786966375420276, 0.8751370425149431, 0.8443957927713047, 0.8706260298401227, 0.9233298208261539, 0.8225630100268779, 0.7449370552818828, 0.8396278051450465, 0.896857732265351, 0.7150486704919041, 0.8933899084620871, 0.84724883657268, 0.8144499178981938, 0.9197044334975367, 0.8151088074142449, 0.8850260391833785, 0.7585546410693293, 0.8932676518883416, 0.8850843767098141, 0.8822724244200216, 0.852292958020024, 0.8012592690039434, 0.8252360827246301]</t>
+    <t>[0.9147573293914759, 0.8680897646414888, 0.6223316912972086, 0.7551662859825056, 0.8861210296432405, 0.9225178615422519, 0.9177501112357163, 0.8936636186056109, 0.6840952641664387, 0.8738023869697942, 0.8887520087158232, 0.8980551045150632, 0.8884631258786564, 0.8498699956417832, 0.8606625014514514, 0.8487312145848732, 0.9009304871373838, 0.8814673201888273, 0.815494144982148, 0.876112260091255, 0.8441926409642453, 0.8285871066382599, 0.8686371100164203, 0.7826624017361491, 0.9148644949356693, 0.838630204483863, 0.8083766767040789, 0.8256880811352523, 0.869231895879473, 0.8608184013827401, 0.8734286683866523, 0.9490691456060051, 0.8138006876830496, 0.7515051997810619, 0.8292282430213463, 0.9091805920106845, 0.6873460357504343, 0.904338314203044, 0.8543662742951, 0.8149972632731254, 0.9206896551724136, 0.803886691529764, 0.8836573011085511, 0.7558171649196747, 0.8816203722905583, 0.8944451354949444, 0.8880372629479987, 0.8446269757442255, 0.7924993453250483, 0.8624606622438836]</t>
   </si>
   <si>
     <t>[0.9146446676102256, 0.8675424192665572, 0.668856048166393, 0.7672095322975582, 0.9128233286522855, 0.8683335451995813, 0.9057068649206635, 0.9062542852077115, 0.741582261155215, 0.8205830102847232, 0.8879034244887903, 0.9155941727753513, 0.8476803144935917, 0.8857260244434172, 0.8924172247874463, 0.8969084930699788, 0.8544061302681991, 0.8680536870555191, 0.8540925586922798, 0.8958247859433082, 0.8230077658189505, 0.8421629731398013, 0.89272030651341, 0.7750241443997171, 0.9497741980280152, 0.7510777246279499, 0.8863947440459897, 0.9063527174397357, 0.8729464616826151, 0.8460380536324483, 0.892558018703913, 0.9370209510282024, 0.857612299402191, 0.8264915161466886, 0.8330596606458676, 0.9098078975855458, 0.8542493579381659, 0.8958532997538023, 0.8445113605255955, 0.8067870826491516, 0.8374384236453201, 0.8230464015764386, 0.837941449409317, 0.8089242022229768, 0.8515122565029267, 0.9001108579175233, 0.8926909724024118, 0.7990692880842196, 0.8750171197661409, 0.9106336475040943]</t>
@@ -4297,13 +4297,13 @@
     <t>[0.814632350063834, 0.8604269293924467, 0.7088122605363985, 0.7480498222508836, 0.8533114395183361, 0.8313831815740671, 0.7989599089463334, 0.7808950394737543, 0.6777063153652351, 0.8949096880131362, 0.8550314142943961, 0.7184973579438797, 0.8129191262660536, 0.7505132135425988, 0.8354777208746276, 0.8343392106641082, 0.8741105637657363, 0.8688749299004155, 0.7906913147323577, 0.8201478544365611, 0.8528143924768653, 0.6542516835264073, 0.8899835796387521, 0.5748323954399316, 0.9075975444382844, 0.8865623912548348, 0.775147126459752, 0.8249145117263397, 0.8335160067007154, 0.8013136288998358, 0.8270084789537083, 0.8384448135734529, 0.8618755004694714, 0.6535303776683087, 0.9074986316365626, 0.8536225777996561, 0.6935815036896227, 0.9144655895134292, 0.7978650683722377, 0.8281335522714832, 0.898029556650246, 0.6925814399124008, 0.8579250253017966, 0.6854640278735478, 0.9102353585112206, 0.9030668870075644, 0.7651245838285009, 0.7552696696897437, 0.7680722891566267, 0.7620090395706036]</t>
   </si>
   <si>
-    <t>[0.8752309464096772, 0.8692800706505281, 0.5550082101806239, 0.785821822057185, 0.8347016967706623, 0.834914383569051, 0.8535619321470703, 0.8153825175577687, 0.6528880372296744, 0.8167009586723105, 0.858972786414451, 0.8480203791567286, 0.8487751550676875, 0.8050917054475775, 0.858746268146693, 0.8348534413512418, 0.7728516694033934, 0.8744695496035838, 0.8447851397834538, 0.8787298440391726, 0.818081050668882, 0.7979993650814321, 0.8725183477234979, 0.5499456329520858, 0.8747433346848624, 0.7772301862408033, 0.7756945467467998, 0.8295191751396029, 0.7973714229673072, 0.8608982671048125, 0.8410548089001808, 0.8554218150239931, 0.8356474956073017, 0.7832512315270936, 0.7633128638211202, 0.8491868946586649, 0.7693992134457496, 0.8876419954480846, 0.7667763407385298, 0.8078817733990148, 0.8931034482758619, 0.688475225841774, 0.781489594742607, 0.8601150062215204, 0.8431177728567654, 0.8728125290300405, 0.7205037225891285, 0.8187791163617338, 0.8494388492378669, 0.6807171269439982]</t>
+    <t>[0.8752309464096772, 0.8692800706505281, 0.5550082101806239, 0.785821822057185, 0.8347016967706623, 0.834914383569051, 0.8535619321470703, 0.8153825175577687, 0.6528880372296744, 0.8167009586723105, 0.858972786414451, 0.8163994788545533, 0.8487751550676875, 0.8050917054475775, 0.858746268146693, 0.8348534413512418, 0.7728516694033934, 0.8744695496035838, 0.8447851397834538, 0.8787298440391726, 0.818081050668882, 0.7979993650814321, 0.8725183477234979, 0.5499456329520858, 0.8747433346848624, 0.7772301862408033, 0.7756945467467998, 0.8295191751396029, 0.7973714229673072, 0.8608982671048125, 0.8410548089001808, 0.8554218150239931, 0.8356474956073017, 0.7832512315270936, 0.7633128638211202, 0.8491868946586649, 0.7693992134457496, 0.8876419954480846, 0.7667763407385298, 0.8078817733990148, 0.8931034482758619, 0.688475225841774, 0.781489594742607, 0.8601150062215204, 0.8431177728567654, 0.8728125290300405, 0.7205037225891285, 0.8187791163617338, 0.8494388492378669, 0.6807171269439982]</t>
   </si>
   <si>
     <t>[0.8565094288394167, 0.876847290640394, 0.7011494252873564, 0.7409333585192616, 0.8582375478927203, 0.8964158215549718, 0.8591761405215965, 0.8079923436826228, 0.7102778224445819, 0.8380561966127866, 0.872274917319636, 0.8953146250993932, 0.8936636186056109, 0.7291638223477328, 0.8658637061357953, 0.835324553694122, 0.8812260536398466, 0.8790035916541382, 0.778538216961809, 0.8220640877413194, 0.8340928749066048, 0.8632444259784763, 0.7848932676518883, 0.6490484884195511, 0.9078713295195631, 0.9018352082200474, 0.7439441700980247, 0.8585900792478597, 0.7869661640137504, 0.8122605363984675, 0.8501726020233296, 0.8461118464866001, 0.867351202505491, 0.7695675971538041, 0.8741105637657363, 0.7875801843671192, 0.7141097644539169, 0.9032434736289483, 0.792664575645283, 0.9085933223864259, 0.914285714285714, 0.7436704599545007, 0.8631262299861406, 0.8122091736025624, 0.856048166392994, 0.9153836748827358, 0.880646077343931, 0.7637558457536734, 0.8598412586065549, 0.7086355615834385]</t>
   </si>
   <si>
-    <t>[0.9317565902931756, 0.8669950738916257, 0.6787082649151615, 0.7644724308623191, 0.8953058794667544, 0.8419756191467146, 0.929245937263721, 0.8712193868366492, 0.6908444022543836, 0.8549138015371763, 0.835920177383592, 0.9244902194232856, 0.8854523142998932, 0.8163153572406242, 0.8571037824569002, 0.8291661597565362, 0.8960043787629994, 0.9050096150758582, 0.7960580643195994, 0.8508075873126942, 0.852075385204355, 0.8828039761406972, 0.8609742747673782, 0.7815967873204215, 0.91172848807819, 0.8632668144863268, 0.7987955105392829, 0.8843258788171514, 0.8243188426582274, 0.8680897646414888, 0.8758009935046125, 0.9529026620625788, 0.8454483943614128, 0.7531472359058566, 0.8374384236453202, 0.872704927164498, 0.7520197813752466, 0.9158341402310488, 0.8816203722905583, 0.8029556650246306, 0.9280788177339899, 0.8257835030116779, 0.8946072057071701, 0.7393923080217463, 0.893663618605611, 0.8848380409523108, 0.799890530929116, 0.8759923678895178, 0.8231590782011814, 0.8011495900945248]</t>
+    <t>[0.9191919191919192, 0.840175150519978, 0.6737821565407772, 0.7814424597608023, 0.9023691009883632, 0.8419756191467146, 0.9248665749673383, 0.9130970387958095, 0.6862852450041064, 0.859293763376624, 0.8396156688839616, 0.8681838788842601, 0.8994115316196133, 0.8027918509556683, 0.8601150062215204, 0.8239931088489643, 0.9195402298850575, 0.907199595995582, 0.8023542594638052, 0.8603887538364859, 0.8629141585345058, 0.8969199934999963, 0.8631636562671045, 0.7569493763677803, 0.894880919791952, 0.8877664229007792, 0.8176840952641665, 0.8655531540262853, 0.8549911716873707, 0.8708264915161467, 0.8856439298970978, 0.9309968537393011, 0.8336756349839709, 0.7504105090311987, 0.8615216201423097, 0.8983364754347911, 0.732001094990419, 0.911454777934666, 0.8849048940128453, 0.8128078817733991, 0.9246305418719208, 0.8337210971738717, 0.8847522915684131, 0.736381084257126, 0.872040517267221, 0.8754772821671806, 0.7963318119345648, 0.8481861818008462, 0.7924993453250483, 0.8383741696137784]</t>
   </si>
   <si>
     <t>[0.8743532889874355, 0.8719211822660098, 0.6365626710454296, 0.8164773581318646, 0.9074986316365626, 0.8471486700542865, 0.9234980242497187, 0.8912002273138957, 0.7532503149778381, 0.9157088122605364, 0.8609434724744784, 0.8854488992029811, 0.918149466192171, 0.8646503433920751, 0.8995346627765486, 0.8752309464096772, 0.8073344280240832, 0.8784560964242072, 0.757733398224433, 0.92909940519282, 0.8717822458046292, 0.8418891880380002, 0.8713738368910783, 0.7780366057383733, 0.9215820532450513, 0.7924109952952835, 0.8844785108130304, 0.8928132169729817, 0.8203725217067488, 0.875598749133032, 0.8863973476747583, 0.9518073716464148, 0.8807666724937387, 0.7203065134099617, 0.8297755883962781, 0.9436845992976175, 0.7612594184949171, 0.8635555028179794, 0.8922950678879914, 0.9009304871373838, 0.9152709359605908, 0.8493225753547353, 0.8302765161902836, 0.8628524823711751, 0.9085933223864259, 0.9208030615478112, 0.7626608552938116, 0.8116616783726315, 0.8676249225716209, 0.8621869521003597]</t>
@@ -4321,7 +4321,7 @@
     <t>[0.9215420688203215, 0.8912002273138956, 0.638752052545156, 0.6834542283792375, 0.8909890709884938, 0.944807201946444, 0.8761461694200797, 0.8146728716123735, 0.7152046050280126, 0.8385331143951834, 0.8607688777866602, 0.8430868410750153, 0.8531545173640703, 0.8482277347806396, 0.8858316304766423, 0.8190782360821306, 0.8478379857690203, 0.9010267024876001, 0.8540925586922798, 0.7689570504380174, 0.7828550373458919, 0.8714227111682828, 0.8106185002736727, 0.7588663972196524, 0.9125256759012979, 0.8801281328341892, 0.7919518204215714, 0.8295221219763446, 0.78269211040439, 0.8516694033935412, 0.8615082367169739, 0.922782175618072, 0.844079468852408, 0.7870826491516147, 0.8354777208746277, 0.8662970400969248, 0.620600063351036, 0.8695771259755057, 0.8246886624375821, 0.810071154898741, 0.8985221674876845, 0.8000547495204291, 0.8943334580922047, 0.8305502638052492, 0.8883415435139572, 0.8905037633748898, 0.8420476636337991, 0.9007529174063215, 0.7894304490690035, 0.7672095322975582]</t>
   </si>
   <si>
-    <t>[0.9359448139935945, 0.8610921115262641, 0.6573617952928298, 0.7841795611960415, 0.9100862272170464, 0.8599581294444646, 0.9147392996569531, 0.8950321693232306, 0.7059950725431153, 0.8739564882718884, 0.8487312145848732, 0.8655618478917094, 0.8701245462625535, 0.8260572131552018, 0.8721599012800013, 0.8530607282343686, 0.8516694033935412, 0.9019983913112379, 0.7815494407264293, 0.8936345052930801, 0.8264564664239986, 0.8186174543849173, 0.8516694033935412, 0.7900864510929979, 0.9169289808051444, 0.8530245229204824, 0.8452169232018765, 0.9027930239875553, 0.8696605904341235, 0.8905309250136835, 0.8957615676390732, 0.9359256606120385, 0.8107886393773587, 0.7378215654077723, 0.8022444306686204, 0.9175601366375108, 0.6958368614560583, 0.9016012127678048, 0.8980429809019937, 0.8352490421455938, 0.9054187192118225, 0.8167510682753885, 0.9003559056214451, 0.8018067642338744, 0.9057068649206635, 0.892474449434917, 0.8078292117631148, 0.8494388492378669, 0.8149466497522171, 0.8482277347806396]</t>
+    <t>[0.932249322493225, 0.8478379857690203, 0.6825396825396826, 0.7880115032053764, 0.9001782200147952, 0.8700578955021052, 0.890379096883324, 0.9133707489393335, 0.7113726630186779, 0.8564390390863574, 0.8620349839862035, 0.8635250638776211, 0.8734090679848406, 0.8524500410621408, 0.8727073965099321, 0.8372952397541493, 0.9299397920087575, 0.9069258483806165, 0.7708732837427758, 0.8613278657022151, 0.8116763209737928, 0.8639102185868176, 0.8719211822660098, 0.7722855431827571, 0.9021486330548526, 0.845177983994259, 0.830550232685464, 0.8508832066624308, 0.8708750563631771, 0.8938149972632732, 0.8903957656131378, 0.9430450483171037, 0.8495551708884276, 0.7575259989053093, 0.8006021698074769, 0.9022797905532979, 0.7335067068163155, 0.9040646040595202, 0.8959759102107858, 0.8215654077723044, 0.8635467980295565, 0.7995073292333812, 0.8954284485520666, 0.8020805118488399, 0.9098125170735224, 0.8991255148875097, 0.8100191926828386, 0.8676249225716209, 0.8161533272912598, 0.8471328942065439]</t>
   </si>
   <si>
     <t>[0.9483926663881951, 0.8489326765188835, 0.7197591680350302, 0.8159299378448166, 0.8799781114294148, 0.8833600264072902, 0.8534282275075942, 0.9270562561155297, 0.7382972898987135, 0.9376026272577997, 0.877447968227208, 0.8676357830011261, 0.9002326620501852, 0.8244149522940583, 0.8981659247017213, 0.8761857895740136, 0.8292282430213463, 0.8891322534078606, 0.7799069550366364, 0.8785763258227617, 0.831875853089074, 0.8350445604929758, 0.8708264915161467, 0.8410244337284564, 0.9386805365453055, 0.8919817779199101, 0.8724336162058582, 0.9159365075032978, 0.8526835889835833, 0.8668400245402664, 0.8915723113392481, 0.9157881095844228, 0.8992333305353751, 0.7416529830322934, 0.8472906403940886, 0.9275506301495108, 0.8044341118168118, 0.8635555028179794, 0.8224989812893908, 0.8845101258894362, 0.9438423645320195, 0.8156562277012928, 0.9093895769153058, 0.9033671293860653, 0.8870945751610368, 0.9274541270004036, 0.8078292117631148, 0.8508075873126942, 0.8889801589113453, 0.8758724592765559]</t>
@@ -4339,7 +4339,7 @@
     <t>[0.9243656072924367, 0.8452169232018765, 0.6053639846743295, 0.7184891267502997, 0.8181322948179006, 0.9252371051828729, 0.8772410099941755, 0.8113879003558719, 0.5767072724049073, 0.8308702791461413, 0.8736907559441247, 0.8983291524566303, 0.843300952197209, 0.8490488652112115, 0.8652977493807535, 0.8338674910219224, 0.8866995073891626, 0.9028196341561344, 0.7529089735159222, 0.8150581869661456, 0.7690602349257, 0.7468163838327805, 0.819376026272578, 0.7517460340555561, 0.8744695496035838, 0.8554884874580921, 0.794689296468656, 0.8540125992878664, 0.8483024273189279, 0.8527640941434045, 0.8399507037163391, 0.9096386906241053, 0.8402464774271943, 0.8451012588943623, 0.8067870826491516, 0.8707332696052447, 0.7249693523100935, 0.9095388069299984, 0.834656446756091, 0.8084291187739463, 0.8581280788177337, 0.7546188656954577, 0.8457221160693397, 0.8669586965956573, 0.9184455391351943, 0.911442302762681, 0.880646077343931, 0.8524500730024871, 0.7776560788608984, 0.7833584307654697]</t>
   </si>
   <si>
-    <t>[0.9498706809332155, 0.8582375478927203, 0.6606458675424193, 0.7442178802415486, 0.9073491257818073, 0.9010962009475371, 0.9426577342963932, 0.8991378214760894, 0.6689475907724696, 0.8799781114294148, 0.8706577974870658, 0.8696731296264706, 0.8463117637759722, 0.8328999667432998, 0.8738023869697942, 0.8717822458046292, 0.9211822660098522, 0.9129482959098569, 0.7927730929400136, 0.8779086011942763, 0.8602044652019681, 0.888432655344166, 0.8642583470169677, 0.8065180583947587, 0.8961270098973263, 0.8570021003544235, 0.8135778811935396, 0.8639102185868176, 0.8763522579755241, 0.8691844553913519, 0.8959951320831777, 0.9326397893635469, 0.834223205187573, 0.7629994526546251, 0.8582375478927203, 0.8889711020283378, 0.7284306762615183, 0.9109073576476182, 0.8761461694200797, 0.793103448275862, 0.9133004926108371, 0.8082660538261468, 0.8694224251303465, 0.8519025777725562, 0.8839627805145046, 0.8801576615597456, 0.8064604736882874, 0.847796363548074, 0.810292940297804, 0.8657451839661707]</t>
+    <t>[0.9315102241931511, 0.8845101258894362, 0.6611932129173508, 0.7425756193804051, 0.9000821580064796, 0.9247351564424735, 0.9303407778378168, 0.9098125170735225, 0.7094566920140104, 0.8614837442963477, 0.8755851194875585, 0.8651693515270231, 0.8632817926744554, 0.8419324014795895, 0.8740761345847595, 0.86449864498645, 0.8954570333880678, 0.9247194433533723, 0.812482921217528, 0.8973446818568249, 0.8779406397422148, 0.8844469115801649, 0.8779419813902573, 0.8024101565693185, 0.9006296194908295, 0.8702722746837503, 0.8023542294004927, 0.8955223964551493, 0.8725182168468812, 0.8631636562671045, 0.8836722723378445, 0.9058051741675317, 0.8339494200857719, 0.7613574165298304, 0.8582375478927203, 0.8948860747060978, 0.6786203120722694, 0.9172026909486684, 0.8647686832740216, 0.8226600985221675, 0.9088669950738913, 0.8252360827246301, 0.8929647200173774, 0.8278127876555944, 0.890379096883324, 0.8905037633748898, 0.8234328258161469, 0.8664112013657262, 0.7961670163579279, 0.857807589803977]</t>
   </si>
   <si>
     <t>[0.9536831731953684, 0.8648056923918993, 0.6973180076628351, 0.7376488367969745, 0.8921729611384784, 0.9169746242916975, 0.7225947789031586, 0.8884631258786564, 0.6957711848378141, 0.9146141215106732, 0.869179600886918, 0.8939443853915582, 0.8818940824340822, 0.890379096883324, 0.8957021961670321, 0.8865623912548348, 0.8456486042692939, 0.906652100765651, 0.8015330166189089, 0.9225294624336485, 0.8811430045897595, 0.911704388997249, 0.866447728516694, 0.8032317369344065, 0.8753250389895082, 0.8444006470388484, 0.8914739374574195, 0.9185266415017036, 0.8910187535493191, 0.8914739374574195, 0.8853974727021912, 0.9479738551898413, 0.844079468852408, 0.7744937055281882, 0.8746579091406678, 0.908822190220881, 0.7785381877908569, 0.8564390390863573, 0.8379414180125925, 0.8817733990147782, 0.9458128078817732, 0.8651977636791228, 0.8946072057071701, 0.9296469004227509, 0.9102353585112206, 0.9402635863905819, 0.8362989637195242, 0.8574948745643158, 0.8618754358647721, 0.817845908849484]</t>
@@ -4351,13 +4351,13 @@
     <t>[0.9136593245802117, 0.8615216201423097, 0.6141215106732347, 0.6183112142205437, 0.9020251778872468, 0.9439586227531334, 0.9442999951575369, 0.9048857344900919, 0.7273473857103752, 0.8456486042692939, 0.9306564918479483, 0.8439816400826475, 0.8372793290396827, 0.8293417348774889, 0.8885847581779297, 0.8954304785249582, 0.8686371100164203, 0.8937859628622737, 0.8680536870555191, 0.8262833752985649, 0.9363222142705272, 0.6750650480923372, 0.8724685276409413, 0.7670822008705328, 0.8646132866775573, 0.8629141585345058, 0.8435746623407329, 0.9014239111213324, 0.8012049394238808, 0.8740417520987791, 0.8856580671512599, 0.9222345304099899, 0.8096933490843802, 0.7203065134099617, 0.9042145593869731, 0.8308072040303651, 0.7710414743068931, 0.9005063721937091, 0.8242540377771697, 0.8461959496442255, 0.8576354679802953, 0.6931289351218177, 0.8768136107344142, 0.8795510868840691, 0.7717569786535304, 0.9378002288155476, 0.8258726976766471, 0.8573775300718657, 0.832192749495042, 0.8356370681785391]</t>
   </si>
   <si>
-    <t>[0.9422342724506094, 0.7320093871245588, 0.6212370005473454, 0.7759682568903238, 0.8741105637657363, 0.9446976300256436, 0.8290680247339649, 0.8657451839661707, 0.6198494240145629, 0.8582375478927203, 0.8735065961071532, 0.8268026397076429, 0.8408375609054937, 0.7943068365064266, 0.8165891354420101, 0.8658701876245469, 0.8297755883962781, 0.8891322534078606, 0.8699699203602774, 0.9114305355761837, 0.858972786414451, 0.8585900792478597, 0.8160919540229885, 0.729289504076483, 0.8832626331517018, 0.8530607282343686, 0.8140139668401492, 0.8659542401864893, 0.8680176548098778, 0.8938149972632732, 0.8390833941708512, 0.8833517206361722, 0.8107886393773587, 0.7859879584017515, 0.8223378353562849, 0.9071174785573038, 0.7089092717269625, 0.8950321693232306, 0.9030933479332057, 0.7744937055281882, 0.8650246305418716, 0.7439441700980247, 0.8571037824569002, 0.8423214112487646, 0.7373618429106895, 0.8695652239870983, 0.8612099966813823, 0.8263014939090345, 0.8171366306719409, 0.9215820532450513]</t>
+    <t>[0.9422342724506094, 0.7320093871245588, 0.6212370005473454, 0.7759682568903238, 0.8741105637657363, 0.9446976300256436, 0.8290680247339649, 0.8657451839661707, 0.6198494240145629, 0.8582375478927203, 0.8735065961071532, 0.8268026397076429, 0.8400164304749219, 0.7943068365064266, 0.8165891354420101, 0.8658701876245469, 0.8297755883962781, 0.8891322534078606, 0.8699699203602774, 0.9114305355761837, 0.858972786414451, 0.8585900792478597, 0.8160919540229885, 0.729289504076483, 0.8832626331517018, 0.8530607282343686, 0.8140139668401492, 0.8659542401864893, 0.8680176548098778, 0.8938149972632732, 0.8390833941708512, 0.8833517206361722, 0.8107886393773587, 0.7859879584017515, 0.8223378353562849, 0.9071174785573038, 0.7089092717269625, 0.8950321693232306, 0.9030933479332057, 0.7744937055281882, 0.8650246305418716, 0.7439441700980247, 0.8571037824569002, 0.8423214112487646, 0.7373618429106895, 0.8695652239870983, 0.8612099966813823, 0.8263014939090345, 0.8171366306719409, 0.9215820532450513]</t>
   </si>
   <si>
     <t>[0.9326271779079757, 0.8282468943033932, 0.6562671045429667, 0.6965923152683858, 0.8887978897502804, 0.9116886385201844, 0.9130970387958095, 0.8762660826717766, 0.6791678072816864, 0.8264440495807671, 0.8511582318566058, 0.8958627209825271, 0.8318051261692041, 0.8655899260881468, 0.8590006925113476, 0.8373183171745404, 0.8730158730158729, 0.7945243058702569, 0.812046551072082, 0.8030116433898908, 0.7037812591872918, 0.8396549441992316, 0.8500273672687465, 0.8081612191249349, 0.9078713295195631, 0.8705505670171121, 0.8258965234054203, 0.8526431114763079, 0.8576123958563209, 0.8641841383533042, 0.8721045908871198, 0.9337350797797107, 0.8398138321412898, 0.779967159277504, 0.8305502638052491, 0.8623537249784181, 0.6244351553337836, 0.8925687780315152, 0.835203941965508, 0.7969348659003832, 0.8660098522167486, 0.7196824527785383, 0.8976184294717905, 0.7949630738597375, 0.8719211822660098, 0.9013425367050404, 0.8765398631194489, 0.7949630738597375, 0.8310514786418404, 0.7912960249276635]</t>
   </si>
   <si>
-    <t>[0.9363222142705272, 0.8567127492298813, 0.6469622331691298, 0.7666621120105104, 0.8805255317164626, 0.9331116038433113, 0.9338990097036277, 0.9196660822403838, 0.668217903093348, 0.8543663063072453, 0.7888642522788865, 0.9191567960157223, 0.8641029231050272, 0.811003155261386, 0.8439638969385574, 0.8738605567873862, 0.9381499726327313, 0.8790035916541382, 0.8029017546937363, 0.8410677696876048, 0.8345855464216118, 0.8285871066382599, 0.8675424192665572, 0.7851569689024697, 0.9225294278675064, 0.8546440009854644, 0.7998905009581168, 0.8707557829179333, 0.8346112971168793, 0.8887368360221803, 0.8905866039745833, 0.9419497579009399, 0.8417305901540023, 0.735632183908046, 0.8350896478914913, 0.9136168215190043, 0.6706382819425935, 0.9070754156382832, 0.8707911305776076, 0.8056923918992885, 0.9221674876847287, 0.8014233002380486, 0.8774811854976475, 0.7569121553795366, 0.8631636562671045, 0.8897647561023795, 0.8045442403835291, 0.8626967911086076, 0.7983572970081562, 0.8745039085589363]</t>
+    <t>[0.937669376693767, 0.8790366721401204, 0.6316365626710454, 0.7693992134457496, 0.8979873390412271, 0.9180832717418083, 0.925961415541434, 0.9002326620501852, 0.6654804270462634, 0.8227242309119319, 0.8398620349839864, 0.8711984062414971, 0.8569864593734052, 0.8047078219603359, 0.8494388492378669, 0.85675576459692, 0.9244663382594416, 0.8817410678037929, 0.8171366306719409, 0.8531143132638596, 0.8397585973291837, 0.8528405921100393, 0.8795840175150519, 0.7769411652515892, 0.9165069805639202, 0.8479921162847992, 0.8064604434711197, 0.8451321454007923, 0.8571820523323095, 0.8766935897071277, 0.873982763937377, 0.9512597264383328, 0.8159912682690067, 0.746031746031746, 0.8505747126436781, 0.8958719034857244, 0.7286789938227735, 0.9054331547771396, 0.8729811114152752, 0.7832512315270936, 0.9364532019704431, 0.8208567204282472, 0.8998084103915142, 0.7768957312720162, 0.8810729520035104, 0.8828673548922835, 0.8644763941369181, 0.8731006241971913, 0.8038329986337265, 0.8350896478914914]</t>
   </si>
   <si>
     <t>[0.9406257698940627, 0.8451012588943623, 0.6776135741652982, 0.7863692423442329, 0.9374572415694388, 0.8668555306545606, 0.9169289808051444, 0.9286985169766732, 0.7486996988776349, 0.8879157055916086, 0.8407439403591974, 0.8004940373172108, 0.907622835925331, 0.7975913582287137, 0.8450588873984194, 0.8900110918598828, 0.78544061302682, 0.8653162109058643, 0.8026280070787707, 0.9407255392729851, 0.8678408736845744, 0.821355305402927, 0.8533114395183361, 0.7605095579498284, 0.8940596769778266, 0.8020692264311592, 0.9099370380509171, 0.9364732004966453, 0.845132208785146, 0.8330596606458676, 0.8698706694230713, 0.9211392399938261, 0.8535049608035215, 0.742200328407225, 0.8998357963875205, 0.9229821949254576, 0.8241412421505343, 0.8753250389895082, 0.8976183958390366, 0.8418171866447729, 0.8793103448275861, 0.8082398029017247, 0.8699699203602774, 0.7867506454107733, 0.8626163108921729, 0.9196846513919684, 0.8059129784583565, 0.8412264207889026, 0.877754970578926, 0.8602709810956923]</t>
@@ -4369,13 +4369,13 @@
     <t>[0.8414829476317077, 0.8495962854982594, 0.6814449917898193, 0.7885589234924242, 0.8505747126436781, 0.8360635609666321, 0.8353633580350152, 0.7866429524877568, 0.7143834745974409, 0.8839627805145046, 0.8547850785368927, 0.7585357603331188, 0.8621869521003597, 0.7194087051738298, 0.8609362490664169, 0.8313831815740671, 0.8505747126436781, 0.8595675109915895, 0.8071184196090687, 0.8245278162760087, 0.8354274451835427, 0.8278789616158765, 0.8916256157635468, 0.6211147560065579, 0.8780287556602046, 0.8969084930699788, 0.7842868874897345, 0.8146221554027835, 0.7891567448460781, 0.6841817186644772, 0.8351405647121923, 0.875684687723025, 0.8492813857866266, 0.6874657909140668, 0.8905309250136835, 0.8240513568597142, 0.7006979674212448, 0.9013275026242809, 0.7863692423442329, 0.886152162014231, 0.8620689655172412, 0.7548925758389816, 0.8781823488092417, 0.6966876800871322, 0.9272030651340997, 0.8845917051948073, 0.8237065734311123, 0.7588283886842948, 0.7810019454964983, 0.6719584023512327]</t>
   </si>
   <si>
-    <t>[0.9102106239751637, 0.856048166392994, 0.6185002736726873, 0.7496920831120272, 0.8044943778468169, 0.929917484575438, 0.7927116948672238, 0.8244797680395904, 0.7002463728442376, 0.8336756349839709, 0.8816356761047663, 0.862215811319001, 0.819340008599845, 0.8047078219603359, 0.8312099497876252, 0.8235150125640682, 0.7784316481820391, 0.8352039732596623, 0.820112536579648, 0.8733744092784698, 0.8680872094420777, 0.8001370163309075, 0.8522526987179929, 0.4899357577141675, 0.9054331547771396, 0.7147961123605775, 0.7702203438763213, 0.8192771391479423, 0.8121578435855197, 0.8282196754182318, 0.8432413458324213, 0.8676350010651366, 0.8236124003573286, 0.8139025725232621, 0.8894362342638205, 0.7955638251587122, 0.7521554744037424, 0.9059805750641875, 0.705721324938407, 0.7969348659003832, 0.8931034482758619, 0.7653983027648509, 0.8718861536650359, 0.5950979105495534, 0.840505036785993, 0.8289198239990329, 0.726526170118369, 0.7681358075931211, 0.8204216020515267, 0.6159321105940323]</t>
+    <t>[0.9102106239751637, 0.790303061501754, 0.6185002736726873, 0.7496920831120272, 0.8044943778468169, 0.9435752196776392, 0.7927116948672238, 0.8244797680395904, 0.7002463728442376, 0.8331280647803689, 0.8816356761047663, 0.862215811319001, 0.819340008599845, 0.8047078219603359, 0.8312099497876252, 0.8547850785368927, 0.7784316481820391, 0.8352039732596623, 0.820112536579648, 0.8733744092784698, 0.8680872094420777, 0.8001370163309075, 0.8620689655172413, 0.4899357577141675, 0.9054331547771396, 0.7147961123605775, 0.7702203438763213, 0.8192771391479423, 0.8121578435855197, 0.8282196754182318, 0.8473489776774342, 0.8676350010651366, 0.8236124003573286, 0.8139025725232621, 0.18829209041572662, 0.7955638251587122, 0.7521554744037424, 0.9059805750641875, 0.705721324938407, 0.7969348659003832, 0.8931034482758619, 0.7653983027648509, 0.8718861536650359, 0.5950979105495534, 0.840505036785993, 0.8289198239990329, 0.726526170118369, 0.7681358075931211, 0.8204216020515267, 0.6159321105940323]</t>
   </si>
   <si>
     <t>[0.8646385088370298, 0.8675424192665572, 0.6934865900383141, 0.7392910976581181, 0.8620689655172413, 0.8937061282224341, 0.8413849811925416, 0.8241412421505343, 0.7179417064632518, 0.9064039408866994, 0.8784333112572217, 0.8314614547142819, 0.8849048940128453, 0.7403859382322137, 0.9058308579207546, 0.8752309464096772, 0.8899835796387521, 0.8631262299861406, 0.7766219836570507, 0.8546400539222109, 0.8414829476317077, 0.7980835717498441, 0.8888888888888888, 0.6331646013611824, 0.929519647407245, 0.9067619233701157, 0.8088134741131947, 0.8662560620982871, 0.7940855517188156, 0.8243021346469621, 0.8541154314819884, 0.8800658493876804, 0.8331280647803689, 0.8089764641488779, 0.9042145593869731, 0.8851652134689275, 0.6905706921108595, 0.9174764010921923, 0.8060763726779553, 0.8987411056376573, 0.898029556650246, 0.7524291845472663, 0.8724336488949667, 0.8133041640624242, 0.9299397920087575, 0.9286858057879209, 0.8899534962527571, 0.798795540469254, 0.8557350443820727, 0.7149308948844887]</t>
   </si>
   <si>
-    <t>[0.9196846513919684, 0.88232074438971, 0.7120963327859879, 0.775420836603276, 0.8854523142998932, 0.9272077912429002, 0.9319830386989603, 0.8328999667432998, 0.6623785473278954, 0.8490488652112114, 0.8869179600886917, 0.877775556839105, 0.8963865316178484, 0.8318051261692041, 0.853545063462349, 0.8466559985392796, 0.9107827038861521, 0.9113058102200641, 0.8343827304147658, 0.8565562872269692, 0.8752309464096772, 0.8900753659549719, 0.8582375478927203, 0.7657129002620526, 0.8869422392554067, 0.863759546686376, 0.8083766767040789, 0.8944559275837876, 0.8603506218967306, 0.883415435139573, 0.8706260298401227, 0.9463309195655955, 0.8498289559902286, 0.7454844006568144, 0.8527640941434045, 0.9012939617736712, 0.7546885765442326, 0.9202135025274315, 0.8944847490361827, 0.8434592227695675, 0.9251231527093594, 0.8274257638728215, 0.8707911632051739, 0.7621133600638805, 0.8975904960463027, 0.8912427706473999, 0.8560087919970383, 0.8539356685076951, 0.8078292117631148, 0.8504174159288309]</t>
+    <t>[0.914398331852722, 0.8582375478927203, 0.6743295019157088, 0.7803476191867065, 0.8509648362158788, 0.9405099221480855, 0.9325304589860082, 0.9191186619533359, 0.7108252427316298, 0.8463117637759723, 0.877309682187731, 0.9388711784343865, 0.890379096883324, 0.8331736768868239, 0.8568300348419348, 0.8577411076269338, 0.8697318007662834, 0.8913222343275845, 0.8294552733453872, 0.8502600920827633, 0.8828673548922835, 0.8878850851405641, 0.866447728516694, 0.768451501479013, 0.897892143443745, 0.8944451354949444, 0.8260572131552018, 0.8477546867653841, 0.8707558808502874, 0.882715212864654, 0.8689010419519594, 0.940854467484776, 0.8484600304812236, 0.7887246852764094, 0.8505747126436781, 0.9047443625023645, 0.7801505891031347, 0.9166552706616206, 0.9059805750641875, 0.8472906403940886, 0.9187192118226598, 0.8350896478914914, 0.8874897677180678, 0.764029593368639, 0.8986857864624664, 0.8914891064049033, 0.8779086011942763, 0.8427104801752759, 0.8182316211318028, 0.8493225753547353]</t>
   </si>
   <si>
     <t>[0.93113219876271, 0.9009304871373838, 0.7160257354585845, 0.7606404888529841, 0.9390995024305823, 0.9180933682152737, 0.9333515894165799, 0.8849048940128453, 0.750239503399075, 0.909688013136289, 0.9279467985154105, 0.88188627596261, 0.9092650967864746, 0.8599972709521684, 0.918149500594201, 0.9052839088250952, 0.8773946360153256, 0.8822885630337238, 0.8765398631194489, 0.8445113921684884, 0.9284394700304175, 0.821355305402927, 0.8877941981390256, 0.8015885762042305, 0.94141801259239, 0.7933965811103273, 0.8888584724883658, 0.8906229361585739, 0.9140198522887608, 0.8427535319101611, 0.9078364828562162, 0.968236727888873, 0.9084189677756372, 0.8440065681444991, 0.8741105637657363, 0.9200247085865775, 0.7377139015049645, 0.9396469227176302, 0.8964007200408503, 0.9042145593869731, 0.9374384236453199, 0.8088134741131947, 0.8606625014514514, 0.751984698310158, 0.9146141215106732, 0.9156300106402393, 0.8926909724024118, 0.809745445067873, 0.8699699203602774, 0.8115505755484339]</t>
@@ -4387,13 +4387,13 @@
     <t>[0.9010962009475371, 0.8544061302681991, 0.4893267651888341, 0.713836054310393, 0.9178981937602627, 0.9466683160856711, 0.9374572415694388, 0.45952307227054073, 0.7080881412963906, 0.8653530377668308, 0.4707121313342012, 0.849548618857704, 0.8257835030116779, 0.8624606622438836, 0.8932384676323428, 0.8860697197398278, 0.8571428571428572, 0.5315962953626724, 0.821081458754273, 0.7933205881699447, 0.9042985657950817, 0.6526085231659391, 0.8730158730158729, 0.6972478698380494, 0.8389215899008262, 0.902820551250061, 0.8635555028179794, 0.8733744747451123, 0.8242060381633225, 0.8938149972632732, 0.8634796514463033, 0.9277109824908095, 0.7983573568516451, 0.43891693899726264, 0.8839627805145046, 0.2916139545763107, 0.7182154166067759, 0.9147392996569531, 0.8562825075280592, 0.8456486042692939, 0.8556650246305417, 0.8000547495204291, 0.7578371049789355, 0.7259786748884379, 0.8456800557972886, 0.9151373391252323, 0.8420476636337991, 0.8341089827998004, 0.8248015638909741, 0.416496544077763]</t>
   </si>
   <si>
-    <t>[0.9611642095035001, 0.8133552271483305, 0.7366117616562275, 0.8135778811935396, 0.8208712713656674, 0.9407562579055888, 0.8575338796604529, 0.8545230680816898, 0.7989599089463334, 0.8434164017086264, 0.8636531658070161, 0.7516798695130436, 0.883198759990958, 0.832626256599776, 0.8929647200173774, 0.8314026151986238, 0.8155446086480569, 0.9077707342580598, 0.8699699203602774, 0.8658269441401975, 0.845177983994259, 0.8435318986488061, 0.8445539135194308, 0.7574970966111724, 0.8619132419568358, 0.8020204569919613, 0.86848228540141, 0.8426752697725787, 0.8745893973068611, 0.8877941981390256, 0.8601038625619808, 0.8383561643835616, 0.879123961882933, 0.8325123152709359, 0.790035616790359, 0.9093150439032133, 0.7685780830151779, 0.8879157055916085, 0.8657451839661707, 0.9026960533419004, 0.866502463054187, 0.803886691529764, 0.8896797486377916, 0.858746268146693, 0.8581618631069532, 0.8880404057998554, 0.8149466497522171, 0.8174103782869063, 0.7914043548651863, 0.8430272420536851]</t>
+    <t>[0.9611642095035001, 0.8572601695169292, 0.7366117616562275, 0.8165891048453328, 0.8208712713656674, 0.9407562579055888, 0.8575338796604529, 0.8545230680816898, 0.7989599089463334, 0.8434164017086264, 0.8636531658070161, 0.7516798695130436, 0.883198759990958, 0.832626256599776, 0.8929647200173774, 0.8314026151986238, 0.8155446086480569, 0.9077707342580598, 0.8699699203602774, 0.8658269441401975, 0.845177983994259, 0.8435318986488061, 0.8445539135194308, 0.7574970966111724, 0.8619132419568358, 0.8020204569919613, 0.86848228540141, 0.8426752697725787, 0.8745893973068611, 0.8877941981390256, 0.8601038625619808, 0.8383561643835616, 0.879123961882933, 0.8325123152709359, 0.790035616790359, 0.9093150439032133, 0.7685780830151779, 0.8879157055916085, 0.8657451839661707, 0.9026960533419004, 0.8507389162561575, 0.7566383794141802, 0.8896797486377916, 0.858746268146693, 0.8581618631069532, 0.8880404057998554, 0.8149466497522171, 0.8174103782869063, 0.7914043548651863, 0.8430272420536851]</t>
   </si>
   <si>
     <t>[0.9490022172949003, 0.8676611549708383, 0.608648056923919, 0.7566383794141802, 0.876746392940107, 0.9329801721659177, 0.8458800985491378, 0.8239802901724611, 0.7458601411026922, 0.8280865352705599, 0.8504189514004479, 0.875634375540003, 0.8635555028179794, 0.8595674787845607, 0.858179337267512, 0.8402761681624988, 0.8160919540229885, 0.9149897416328044, 0.7991786522519917, 0.7630390215232273, 0.7966498397660838, 0.6200191760166538, 0.8363437328954569, 0.7446256708914597, 0.8944558605369156, 0.8875200264470183, 0.7661146917234625, 0.8295221219763446, 0.846659491694682, 0.8527640941434045, 0.8339084305063614, 0.949616790814087, 0.8514716666010343, 0.7482211275314723, 0.8314176245210728, 0.8569316666904715, 0.605259695420046, 0.8682085752578861, 0.8252360827246301, 0.8275862068965517, 0.8940886699507388, 0.7726837351680367, 0.9004791323250431, 0.7900356167903589, 0.8593730618820893, 0.905776580340102, 0.8409526731739372, 0.8878850185862311, 0.8264440495807671, 0.8093608944002425]</t>
   </si>
   <si>
-    <t>[0.9243656072924367, 0.8593322386425835, 0.6732348111658456, 0.7655672714364147, 0.8728616476977927, 0.9523340385082498, 0.9185712416662881, 0.9054331547771396, 0.6752429240735198, 0.8766935897071277, 0.8759393931202527, 0.8710435568713909, 0.8723142274107448, 0.8709456766931253, 0.865042463290899, 0.8397585973291837, 0.8675424192665572, 0.8926909724024118, 0.843142654093661, 0.8371202065644205, 0.8459169912667693, 0.8587075896951695, 0.8593322386425835, 0.7561277960026923, 0.9297933575507689, 0.8508437064168378, 0.8268783435857736, 0.8907448307647916, 0.8953999152139748, 0.9025725232621784, 0.8883687624040879, 0.9518073716464148, 0.8739220449487144, 0.7772304324028462, 0.8188286808976464, 0.9195317941967642, 0.7196659529524869, 0.9147392996569531, 0.8624606622438836, 0.8133552271483305, 0.9261083743842363, 0.839469010187874, 0.9143170339846842, 0.7443197650911247, 0.86848228540141, 0.9025742154925577, 0.8866685248731715, 0.8464276254732467, 0.8264440495807671, 0.8435746623407329]</t>
+    <t>[0.9273220004927323, 0.8845101258894362, 0.675424192665572, 0.7792527786126109, 0.8909265171703717, 0.9498706809332155, 0.9051594446336159, 0.9166552706616206, 0.6777063153652351, 0.8746236298146906, 0.8973758845974571, 0.8872145983614514, 0.879430691142367, 0.885999734586941, 0.8560087919970383, 0.8668555306545606, 0.8686371100164203, 0.8932384676323428, 0.8395839350991098, 0.8524500730024871, 0.8515827136893481, 0.8736482598469134, 0.8653530377668308, 0.8032317369344065, 0.9041883383520396, 0.8409902761167007, 0.8245277853818779, 0.871029605491178, 0.8674700096017959, 0.8921729611384784, 0.8721045908871198, 0.940306822276694, 0.8739220449487144, 0.7816091954022988, 0.8115505755484338, 0.9091805920106845, 0.8279496304407338, 0.9089913866429508, 0.8520596767899746, 0.8593322386425835, 0.898029556650246, 0.8058026625344316, 0.9192444910540629, 0.7834656740311876, 0.8691844553913519, 0.8998645221600198, 0.9009034008513761, 0.8546400539222109, 0.8258965543508361, 0.8712193868366492]</t>
   </si>
   <si>
     <t>[0.9482631189948263, 0.8976464148877942, 0.6770662287903666, 0.807171213252051, 0.922824302134647, 0.9607094542633664, 0.9418366038658216, 0.9322567488424842, 0.7639250105752712, 0.9140667761357416, 0.9240054263953557, 0.8844737438716105, 0.900780082337233, 0.8857260244434172, 0.9113058102200641, 0.9008498651900336, 0.8199233716475095, 0.8921434771724809, 0.863947472831037, 0.8264440495807671, 0.9003571936750268, 0.8804928873919378, 0.8757525998905309, 0.7402439089443235, 0.9002326620501852, 0.8732602603496497, 0.9024223431983764, 0.9034908359432198, 0.9205915947857441, 0.8626163108921729, 0.9300148985611726, 0.9415309571624537, 0.8980151339072002, 0.8407224958949097, 0.8456486042692939, 0.910300751267878, 0.8485014449241636, 0.9358149807082952, 0.8443957927713047, 0.8719211822660098, 0.8458128078817733, 0.7433967498109768, 0.9222557148186831, 0.8445113921684884, 0.916256157635468, 0.9392782433605683, 0.8519025777725562, 0.8187791163617338, 0.838488944639248, 0.8569864593734052]</t>
@@ -4405,13 +4405,13 @@
     <t>[0.9472776545947278, 0.8368910782703886, 0.5900383141762452, 0.7108252427316298, 0.912424740010947, 0.9382929003305546, 0.9055570763755817, 0.8510813030385984, 0.688928431249716, 0.7892143739454625, 0.841729283389211, 0.8659174851790127, 0.8422061116231133, 0.8192144595671037, 0.8151950795067848, 0.8762633551826586, 0.8708264915161467, 0.5315962953626724, 0.8224503841606656, 0.9092402549259556, 0.7700455779557137, 0.7794057309820658, 0.8735632183908046, 0.8522323930015845, 0.8438056205003899, 0.7680177463729473, 0.8045442102381605, 0.8552649676236792, 0.8389924587815349, 0.8767799781391888, 0.8543618583231547, 0.9178533687453345, 0.7920602995102226, 0.43891693899726264, 0.8546400539222109, 0.8327788615896184, 0.6356664961404014, 0.911181067791142, 0.8360251847796333, 0.8341543513957307, 0.8344827586206895, 0.7229674240350398, 0.7060917246172959, 0.7434985222462283, 0.8725183477234979, 0.8840990336798006, 0.8518822803981062, 0.8725530540346342, 0.8146729021372516, 0.7477761121073596]</t>
   </si>
   <si>
-    <t>[0.9397709148755752, 0.7203421034764844, 0.5582922824302136, 0.682085677661618, 0.870279146141215, 0.944807201946444, 0.839742720331398, 0.832626256599776, 0.6440399677117925, 0.8381709909694119, 0.8478876773267967, 0.8824902663600781, 0.8033392712427161, 0.7731690695305325, 0.8035323110624318, 0.8526005472789918, 0.8487751550676874, 0.8673511374903424, 0.8357514684895931, 0.8921139101861996, 0.8675945379270709, 0.7659313844135539, 0.8483853311439519, 0.7659546479283081, 0.8690297056884578, 0.8344012081836906, 0.7918434452147114, 0.8563997984334519, 0.8970428508382207, 0.8916256157635468, 0.7410243355937833, 0.8417306848219446, 0.8076660503128782, 0.8117131910235358, 0.681631561264031, 0.8324298694593645, 0.7817161699043261, 0.9044620859567479, 0.7644724308623191, 0.810071154898741, 0.8123152709359605, 0.7489734464823434, 0.8447851397834538, 0.8056392308433911, 0.8516694033935412, 0.8884644905079868, 0.8215165925113884, 0.8034492499236672, 0.7993430356991851, 0.8805255317164626]</t>
+    <t>[0.9397709148755752, 0.7203421034764844, 0.5582922824302136, 0.682085677661618, 0.870279146141215, 0.944807201946444, 0.839742720331398, 0.832626256599776, 0.6440399677117925, 0.8381709909694119, 0.8478876773267967, 0.8824902663600781, 0.8033392712427161, 0.7731690695305325, 0.8035323110624318, 0.8526005472789918, 0.8487751550676874, 0.8673511374903424, 0.8357514684895931, 0.8921139101861996, 0.8675945379270709, 0.7659313844135539, 0.8483853311439519, 0.7659546479283081, 0.8690297056884578, 0.8344012081836906, 0.7918434452147114, 0.8563997984334519, 0.8970428508382207, 0.8916256157635468, 0.7410243355937833, 0.8417306848219446, 0.8076660503128782, 0.8117131910235358, 0.681631561264031, 0.8324298694593645, 0.7817161699043261, 0.9044620859567479, 0.7644724308623191, 0.810071154898741, 0.8408866995073889, 0.7489734464823434, 0.8447851397834538, 0.8056392308433911, 0.8516694033935412, 0.8946914712524479, 0.8215165925113884, 0.8034492499236672, 0.7993430356991851, 0.8805255317164626]</t>
   </si>
   <si>
     <t>[0.9142645971914265, 0.876847290640394, 0.6475095785440612, 0.660188866179704, 0.7880035527924674, 0.9215420688203215, 0.8754448398576514, 0.8595674787845607, 0.6407554459895055, 0.827539040040629, 0.8829472914714008, 0.7993978455509427, 0.8463117637759722, 0.8307102855951085, 0.848049289260207, 0.8151344347648528, 0.8817733990147782, 0.9074733436105474, 0.7816564070501666, 0.8553045939140876, 0.8166030361238614, 0.7405176024509857, 0.8248494800218937, 0.7873478498760378, 0.90841889968212, 0.8697794817762284, 0.8100191623323297, 0.8495139063620406, 0.7635219047611754, 0.8007662835249042, 0.8443896680929961, 0.9178533687453345, 0.8533881623136412, 0.8292282430213463, 0.8075554641481493, 0.8707332696052447, 0.6047118251367963, 0.9106336475040943, 0.8290680247339649, 0.8215654077723044, 0.8635467980295565, 0.7628301700011754, 0.8769336153350905, 0.5630988439839807, 0.9233716475095786, 0.9173543609427633, 0.8154688645880634, 0.870243667975243, 0.7740963855421689, 0.7403859382322137]</t>
   </si>
   <si>
-    <t>[0.9320029563932005, 0.8441220826277808, 0.6852764094143404, 0.750239503399075, 0.8810729520035104, 0.9520877027507465, 0.9355412705647713, 0.9084439663559029, 0.6248802576651179, 0.8565955117679256, 0.8736141906873615, 0.8572219612215801, 0.8646503433920751, 0.8309839957386325, 0.8677799394405538, 0.858972786414451, 0.8779419813902573, 0.9165070149044081, 0.8039967451535981, 0.857651277686831, 0.845177983994259, 0.8970427499494181, 0.8790366721401204, 0.8248666865483916, 0.8957021626060773, 0.8631267775246821, 0.8019707205250965, 0.9200438461019673, 0.8736136571693506, 0.8724685276409413, 0.8930508723862453, 0.9069004645836956, 0.832306709474966, 0.7378215654077723, 0.8569864593734052, 0.8934073315366577, 0.7664932931836848, 0.9133707489393335, 0.846585473919496, 0.8171866447728516, 0.9064039408866992, 0.8052552422473837, 0.9047358674608927, 0.8045442403835291, 0.8390804597701149, 0.8932134567074274, 0.9102108197602021, 0.8623049871412442, 0.8029017546937363, 0.8266046334422497]</t>
+    <t>[0.9344666173934466, 0.8522167487684729, 0.6825396825396826, 0.7354591556487831, 0.9029432657396177, 0.9523340385082498, 0.9423840241528694, 0.879156980998843, 0.6404817358459814, 0.8647687156759335, 0.8859324956885932, 0.863799111819188, 0.8537019376511182, 0.8296154450210128, 0.8666849489806918, 0.8629141585345058, 0.870279146141215, 0.9271831718880617, 0.8094716974529077, 0.8461538778582812, 0.8565094288394167, 0.9300479908179143, 0.876847290640394, 0.8117214007069828, 0.9095388069299984, 0.8517925406516774, 0.8228852997536272, 0.8852683792998989, 0.922782175618072, 0.8728616476977927, 0.86692962722263, 0.9074481097917775, 0.8468173198704178, 0.7602627257799672, 0.8662926042532186, 0.8820703005709514, 0.7664932931836848, 0.9144655895134292, 0.8558916187993095, 0.8051450465243569, 0.9290640394088666, 0.7600930685659362, 0.9063783531506856, 0.799890530929116, 0.8981937602627257, 0.8937061282224341, 0.8973446818568249, 0.8623049871412442, 0.8018067642338744, 0.8638292129615033]</t>
   </si>
   <si>
     <t>[0.9448139935944813, 0.8669950738916257, 0.7805145046524357, 0.8153825175577687, 0.9233716475095786, 0.9567680821433115, 0.9232243141061948, 0.9147392996569531, 0.7286164020606849, 0.9293731528077854, 0.8496120276293208, 0.8388607491365909, 0.8703982564060775, 0.8307102855951085, 0.8787298440391726, 0.8944451354949444, 0.8648056923918993, 0.8932384676323428, 0.852997568232418, 0.912400800679926, 0.8422219549042179, 0.8952772828891904, 0.8812260536398466, 0.8076134988815427, 0.9263618943334248, 0.8360231676109753, 0.8671137346837904, 0.9451061714169681, 0.9058051741675317, 0.8646503433920751, 0.9327255938140007, 0.8997810768786303, 0.8421629731398013, 0.8303229337712097, 0.8483853311439519, 0.9038936533975575, 0.7779906925814399, 0.8840837635822736, 0.8304365754515847, 0.8325123152709359, 0.914285714285714, 0.8296154450210128, 0.874897377429656, 0.8680536870555191, 0.9376026272577997, 0.9033132227650678, 0.9299206480377163, 0.8467013730882121, 0.8332877399549039, 0.8276994740163454]</t>
@@ -4423,13 +4423,13 @@
     <t>[0.917960088691796, 0.8483853311439519, 0.6146688560481663, 0.7162994456021085, 0.9080459770114943, 0.9382929003305546, 0.9448474154445847, 0.45952307227054073, 0.7157520253150605, 0.8511220580186097, 0.8903400960329811, 0.8692078619434673, 0.8386478797573024, 0.798248015329866, 0.7248836844285761, 0.8772016324697046, 0.8576902025177887, 0.5315962953626724, 0.8687200628967351, 0.8950034306994726, 0.8614361439894853, 0.7867999526041725, 0.8801313628899835, 0.8224019454531274, 0.8952772157807511, 0.6458051053075056, 0.8309839957386325, 0.9054073316558267, 0.8439212656542723, 0.9255204016584816, 0.8809759571691023, 0.9074481097917775, 0.8495551708884276, 0.43891693899726264, 0.875444872659587, 0.8347505191488718, 0.6762088971008752, 0.8933899084620871, 0.8825622775800713, 0.8128078817733991, 0.8487684729064038, 0.7095537914043254, 0.873254891739863, 0.8302765161902836, 0.8412982938501524, 0.8952944074895295, 0.8907747390976534, 0.8404051779440063, 0.80750273822563, 0.416496544077763]</t>
   </si>
   <si>
-    <t>[0.9437122869956298, 0.8062397372742199, 0.6124794745484401, 0.7628301700011754, 0.8713738368910783, 0.9407562579055888, 0.8503764624510743, 0.8610921115262641, 0.7195839673243954, 0.8538587848932675, 0.8816356761047663, 0.8670876871179921, 0.7122313682245393, 0.8892842563092282, 0.7736107598924304, 0.8582337791419405, 0.8713738368910783, 0.8970709342418595, 0.8623049871412442, 0.895154700937101, 0.8784333112572217, 0.8465435347686168, 0.8357963875205253, 0.6914544998015427, 0.904612024346568, 0.8602044652019681, 0.7841795611960415, 0.9085431297665519, 0.8723988164745333, 0.8555008210180624, 0.8298584217788522, 0.8066813915047002, 0.8492813857866266, 0.7816091954022988, 0.5676648981344501, 0.8822876931313861, 0.7548925758389816, 0.8991378214760894, 0.9221294735320991, 0.8264915161466886, 0.8960591133004924, 0.8490488652112115, 0.8305502638052492, 0.8488913540079359, 0.8549534756431307, 0.8582337791419405, 0.8787298440391726, 0.8250753115059396, 0.8404051779440063, 0.8623049548316453]</t>
+    <t>[0.9437122869956298, 0.8062397372742199, 0.6124794745484401, 0.7628301700011754, 0.8713738368910783, 0.9407562579055888, 0.8503764624510743, 0.8610921115262641, 0.7195839673243954, 0.8538587848932675, 0.8816356761047663, 0.8670876871179921, 0.7122313682245393, 0.8892842563092282, 0.7736107598924304, 0.8582337791419405, 0.8713738368910783, 0.8970709342418595, 0.8623049871412442, 0.895154700937101, 0.8784333112572217, 0.8465435347686168, 0.8357963875205253, 0.6914544998015427, 0.904612024346568, 0.8602044652019681, 0.7841795611960415, 0.9085431297665519, 0.8723988164745333, 0.8555008210180624, 0.8298584217788522, 0.8066813915047002, 0.8492813857866266, 0.7816091954022988, 0.8289077781154562, 0.8822876931313861, 0.7548925758389816, 0.9021486330548526, 0.9221294735320991, 0.8264915161466886, 0.8960591133004924, 0.8490488652112115, 0.8305502638052492, 0.8488913540079359, 0.8549534756431307, 0.8582337791419405, 0.8787298440391726, 0.8250753115059396, 0.8404051779440063, 0.8623049548316453]</t>
   </si>
   <si>
     <t>[0.9255974377925598, 0.8233201117199626, 0.6584564860426929, 0.717394286176204, 0.8690772586063605, 0.9488853379032017, 0.8858472488365728, 0.8817410347659459, 0.70316135871296, 0.8423214112487646, 0.8454904150260609, 0.8341105097892831, 0.8479540246371158, 0.8373939228031756, 0.8346338202775596, 0.8254869132227071, 0.8292282430213463, 0.8833835534935857, 0.82162902891683, 0.8361396382245915, 0.8092129633987586, 0.8653977898465662, 0.8576902025177887, 0.7755718646431092, 0.9108829654136267, 0.8409510966861947, 0.7256055904819217, 0.8421196847399339, 0.8828040754280903, 0.8232074438970991, 0.8790045424397729, 0.9320921441554648, 0.854483302720845, 0.7832512315270936, 0.809745445067873, 0.8667899544867381, 0.611286268535792, 0.911181067791142, 0.8591761405215965, 0.8018609742747673, 0.8842364532019702, 0.7360065759358309, 0.8344969277369204, 0.7916781024801517, 0.8850574712643678, 0.9082399379151364, 0.8833835534935857, 0.810840435527735, 0.794359255202629, 0.8334473870303477]</t>
   </si>
   <si>
-    <t>[0.9150036954915004, 0.8888888888888888, 0.6288998357963875, 0.7425756193804051, 0.8782694102791142, 0.9525803742657534, 0.9297933575507689, 0.9073491257818072, 0.6475981995776036, 0.8561653289428335, 0.8944191271523255, 0.8846267553782802, 0.8739564882718884, 0.8066237929650032, 0.8486176063929705, 0.8487312145848732, 0.8795840175150519, 0.874897377429656, 0.8538188110773146, 0.858746268146693, 0.8387732542991698, 0.8758385406613212, 0.8555008210180624, 0.7758457247648053, 0.9099370380509171, 0.8504557772850457, 0.8037229674240352, 0.876232234382826, 0.8533480112036667, 0.9018749229113286, 0.8706260298401227, 0.9414021126928579, 0.8369610562055827, 0.7723043240284619, 0.8471328942065439, 0.9121380783495643, 0.7724846068273363, 0.9150130098004771, 0.8712193868366492, 0.8188286808976464, 0.9221674876847287, 0.7978650683722377, 0.8905009914826881, 0.779633207421671, 0.8937569795897291, 0.8897647561023795, 0.8915959819425499, 0.8458801302433158, 0.7915126699761931, 0.8438483724842568]</t>
+    <t>[0.9237590906378523, 0.8609742747673782, 0.6694033935413245, 0.7436704599545007, 0.882715212864654, 0.9382929003305546, 0.9278773865461014, 0.9024223431983764, 0.6705898516336131, 0.8396989072235924, 0.8721045114477499, 0.9169644124831863, 0.8567127492298814, 0.8463117637759722, 0.8560087919970383, 0.8545387427793893, 0.9293924466338259, 0.8872160201031023, 0.8395839350991098, 0.832740244724973, 0.8220224227889369, 0.8501027410920294, 0.8675424192665572, 0.7654390401403568, 0.9165069805639202, 0.8398620349839864, 0.8029017246099097, 0.879123961882933, 0.8751370425149431, 0.8883415435139572, 0.8861509208335921, 0.9370209510282024, 0.834223205187573, 0.7613574165298304, 0.8569864593734052, 0.9062231056718043, 0.7648590575146793, 0.9081702562123789, 0.8761461694200797, 0.8144499178981938, 0.921182266009852, 0.7896537640665199, 0.8929647200173774, 0.7601971267591222, 0.8943046247978109, 0.8951841427674547, 0.8880372629479987, 0.8508075873126942, 0.7963318119345648, 0.8383741696137784]</t>
   </si>
   <si>
     <t>[0.9327420546932741, 0.8604269293924467, 0.6759715380405036, 0.7666621120105104, 0.897495560614946, 0.9185860397302804, 0.8920213577444674, 0.9352675604212474, 0.7340906049311635, 0.8488913540079359, 0.9084862736726398, 0.8328316944221168, 0.9078965460688551, 0.7915697350711873, 0.9030933817710998, 0.9254834409403764, 0.7088122605363985, 0.8705174155902083, 0.8908966544802949, 0.8905009914826881, 0.8890257488298691, 0.8394251221217914, 0.883415435139573, 0.8188417638710792, 0.9214344374486725, 0.7894542378501518, 0.8896797153024912, 0.8929354113507486, 0.8740417520987791, 0.91351943076081, 0.9063579218092191, 0.9178533687453345, 0.8468173198704178, 0.8062397372742199, 0.8801313628899835, 0.8442583578353412, 0.8135778811935396, 0.875598749133032, 0.9276036764025775, 0.8631636562671045, 0.9133004926108371, 0.8096346045437663, 0.9230769576635794, 0.7859294025658768, 0.8669950738916257, 0.9254834409403764, 0.8486176063929705, 0.8245278162760087, 0.8468172563944536, 0.8753250389895082]</t>
@@ -4441,13 +4441,13 @@
     <t>[0.8188200579413923, 0.8713738368910783, 0.6710454296661192, 0.6618311270408476, 0.8368910782703886, 0.8291661597565362, 0.8928424881750392, 0.7863692423442329, 0.7161237339173283, 0.8779419813902573, 0.808227620368745, 0.846534091500467, 0.8134665465531014, 0.7447653005285965, 0.8738023869697942, 0.8210370797589231, 0.883415435139573, 0.8606625014514514, 0.8135779116773897, 0.8083767069930458, 0.8435575264843558, 0.6463097417841445, 0.9014778325123153, 0.5175956300054648, 0.8761461694200797, 0.8018228906736559, 0.8074449233955749, 0.821902875606529, 0.8329683614926334, 0.6704980842911876, 0.8314441620946997, 0.8587076862724847, 0.8251882968281407, 0.7695675971538041, 0.9020251778872468, 0.9117793123148752, 0.6653893589066586, 0.91172848807819, 0.7656720503695592, 0.8669950738916257, 0.8443349753694579, 0.7762419670338477, 0.8447851397834538, 0.71557626551975, 0.8845101258894362, 0.9180933682152737, 0.8598412586065549, 0.7831919264162222, 0.7684513285789446, 0.6621048371843714]</t>
   </si>
   <si>
-    <t>[0.905776580340102, 0.7868497875624088, 0.5577449370552819, 0.8180200608040283, 0.7952928297755884, 0.9258853896029441, 0.7621133315083494, 0.8229011654409677, 0.7179417064632518, 0.7703487637448405, 0.8678408736845744, 0.7347694840834246, 0.8078347326516024, 0.8178582437739775, 0.7960275167615052, 0.8619288155044921, 0.7389758725874443, 0.7336436081074713, 0.8362989637195242, 0.8396988442812122, 0.7679231337767923, 0.8110959208517896, 0.8511220580186097, 0.5441720771678688, 0.8795729486774243, 0.7538263963319207, 0.7520876182720867, 0.8415356855748519, 0.8291348450360598, 0.8355274459076499, 0.8294727473653702, 0.7913412870542381, 0.8052019843966695, 0.819376026272578, 0.7933205881699447, 0.8248922313526051, 0.7425756193804051, 0.8873682853045607, 0.7228684890466825, 0.8440065681444991, 0.8999999999999998, 0.8083766767040789, 0.7478784840856758, 0.7853719331690308, 0.8294293193945214, 0.8784519168180341, 0.7706536949984163, 0.7779907217318781, 0.8469751207031776, 0.6400218998083766]</t>
+    <t>[0.905776580340102, 0.7868497875624088, 0.5577449370552819, 0.8180200608040283, 0.7952928297755884, 0.9258853896029441, 0.7621133315083494, 0.8229011654409677, 0.7179417064632518, 0.7703487637448405, 0.8678408736845744, 0.7347694840834246, 0.8078347326516024, 0.8178582437739775, 0.7960275167615052, 0.8619288155044921, 0.7389758725874443, 0.7336436081074713, 0.8362989637195242, 0.8396988442812122, 0.7679231337767923, 0.8110959208517896, 0.8511220580186097, 0.5441720771678688, 0.8795729486774243, 0.7538263963319207, 0.7520876182720867, 0.8415356855748519, 0.8291348450360598, 0.8355274459076499, 0.8294727473653702, 0.7913412870542381, 0.8052019843966695, 0.819376026272578, 0.7933205881699447, 0.8248922313526051, 0.7425756193804051, 0.8873682853045607, 0.7228684890466825, 0.8440065681444991, 0.8999999999999998, 0.8083766767040789, 0.7478784840856758, 0.7853719331690308, 0.8234010917676038, 0.8784519168180341, 0.7706536949984163, 0.7779907217318781, 0.8469751207031776, 0.6400218998083766]</t>
   </si>
   <si>
     <t>[0.8737529318646565, 0.89272030651341, 0.6803503010399562, 0.692486663115527, 0.8675424192665572, 0.8877940700423519, 0.8799781114294147, 0.8192144595671037, 0.7165731557456324, 0.8680897646414888, 0.8643921730795263, 0.8410531326691268, 0.8786095607117952, 0.7135623441668693, 0.9121270530649606, 0.8737529318646565, 0.9173508483853311, 0.8439638969385574, 0.7793594598067055, 0.8412264207889026, 0.862421487019499, 0.8542095176190441, 0.8773946360153256, 0.6334384614828784, 0.9333515894165799, 0.8870550627698417, 0.8315314160256804, 0.8566735835352529, 0.7951808421349795, 0.685823754789272, 0.8905866039745833, 0.86582707397755, 0.8832307384099476, 0.8024083196496988, 0.8888888888888888, 0.8935437260685777, 0.7674832424410821, 0.9087176764994269, 0.8435746623407329, 0.8719211822660098, 0.8921182266009852, 0.7403859382322137, 0.8557350443820727, 0.8105666879127695, 0.8341543513957307, 0.9134129888227083, 0.8822885630337238, 0.7966055595495304, 0.772011509359959, 0.6946763442637185]</t>
   </si>
   <si>
-    <t>[0.9300320275930033, 0.8653530377668308, 0.6633825944170771, 0.7759682568903238, 0.8820148154187584, 0.9279379157427938, 0.9180238213792402, 0.8616395318133119, 0.6954974746942901, 0.8604269293924467, 0.8784033576578624, 0.8807900841963421, 0.885999734586941, 0.7880115032053764, 0.8590006925113476, 0.8305001231830501, 0.9343185550082101, 0.8820148154187583, 0.8078292117631148, 0.8885847581779297, 0.8816356761047663, 0.889254010649569, 0.8779419813902573, 0.7736548437912372, 0.9165069805639202, 0.8797733431879774, 0.7831918970709008, 0.8276051015557986, 0.86539785475083, 0.8723142274107448, 0.8738295787752831, 0.931544498947383, 0.8479124602776217, 0.7558839627805145, 0.8872468527640941, 0.9008010473838577, 0.6827833404998709, 0.918844951809812, 0.8416586913360654, 0.8423645320197045, 0.9374384236453199, 0.8219515610023429, 0.8735286393548286, 0.7462359983958831, 0.9299397920087575, 0.8843453694373039, 0.8464065787725359, 0.8718861536650359, 0.7944155786298065, 0.8279731841598692]</t>
+    <t>[0.9113082039911309, 0.8839627805145046, 0.6551724137931034, 0.771588894593941, 0.8810729520035104, 0.9294161123429417, 0.9128233286522857, 0.8534282275075942, 0.6736006632123762, 0.8706719665496014, 0.8869179600886917, 0.848452427091436, 0.8925687780315152, 0.8082660538261468, 0.8510609251542707, 0.8707969027746154, 0.9419813902572524, 0.8926909724024118, 0.8089242022229768, 0.8694224251303465, 0.8875477342848485, 0.8982889190090012, 0.8330596606458676, 0.7870739897543418, 0.8876419954480846, 0.8681941364868194, 0.7831918970709008, 0.8254142210751743, 0.7958373942740228, 0.8390804597701149, 0.8546082851643207, 0.9233298208261539, 0.8438056837506069, 0.7389162561576355, 0.8762999452654625, 0.8963648178755379, 0.6697687212030413, 0.9144655895134292, 0.8454906333454004, 0.8412698412698413, 0.9320197044334974, 0.8219515610023429, 0.8592937633766239, 0.773884507507396, 0.9125496185087617, 0.911442302762681, 0.8592744775926262, 0.8746236298146906, 0.7876796788382939, 0.8312577058821564]</t>
   </si>
   <si>
     <t>[0.9258438038925844, 0.8856048166392994, 0.5840974462800533, 0.7837393922803177, 0.9118773946360154, 0.9486390021456984, 0.9412891835787738, 0.8780621404247473, 0.7763482069531893, 0.8910782703886152, 0.8907500991323931, 0.851192906507106, 0.8383741696137784, 0.885999734586941, 0.873254891739863, 0.8717506534063162, 0.9091406677613574, 0.9173282577493045, 0.8510813349276597, 0.8603887538364859, 0.9102106239751637, 0.8522930219064373, 0.8806787082649151, 0.7739287039129331, 0.9158341402310488, 0.8466559985392796, 0.8510813030385984, 0.8440367051604801, 0.8521359437755014, 0.8580812999475008, 0.8785116887574406, 0.9326397893635469, 0.9010267700270109, 0.8007662835249042, 0.883415435139573, 0.9146026502986309, 0.762120081480607, 0.8914739374574195, 0.807718633539099, 0.8511220580186097, 0.8975369458128076, 0.8547967782252138, 0.7919518500951173, 0.9009034008513761, 0.8888888888888888, 0.924744433667866, 0.9077470912255129, 0.8439638969385574, 0.8605065104583796, 0.8320788363127282]</t>
@@ -4465,7 +4465,7 @@
     <t>[0.924744433667866, 0.8949096880131362, 0.6683087027914614, 0.7510606338296467, 0.8745552117018938, 0.958738768203339, 0.8624606622438836, 0.8387626608267179, 0.7532503149778381, 0.8538587848932675, 0.8484475368506931, 0.7851473525894587, 0.8454906333454004, 0.8822885299753628, 0.8691307405186528, 0.83830426750386, 0.8735632183908046, 0.8413415547688833, 0.8002737925771056, 0.7511634554652616, 0.7993595330986216, 0.8514716666010343, 0.8505747126436781, 0.7336712660236192, 0.8547967782252138, 0.8700258782299893, 0.8227726914329148, 0.8295221219763446, 0.8362542327411251, 0.8149972632731254, 0.8466091502813247, 0.9003287220867123, 0.855304658026248, 0.8308702791461413, 0.8139025725232621, 0.8628466393682315, 0.5989591871626752, 0.8438483724842568, 0.8307102855951085, 0.8281335522714832, 0.8679802955665022, 0.7727894880919792, 0.8971937113497008, 0.784286916876084, 0.9058565955117679, 0.9020815439775507, 0.8442376445535228, 0.8944558605369156, 0.7782037239868567, 0.7767893873208955]</t>
   </si>
   <si>
-    <t>[0.9344666173934466, 0.9037908939159961, 0.655719759168035, 0.7589982279918405, 0.8926909724024118, 0.9584924324458355, 0.9177501112357163, 0.8920213577444674, 0.661647960580345, 0.8779419813902573, 0.9098300073909831, 0.827898831473911, 0.8690297056884578, 0.8427535319101611, 0.8655899585208299, 0.8582337791419405, 0.9376026272577997, 0.8798248344990345, 0.7914043548651863, 0.8698152032218491, 0.8523217209618584, 0.8959474596564395, 0.8741105637657363, 0.7783104658600694, 0.894880919791952, 0.8643921730795263, 0.8187790856830004, 0.8529573156570323, 0.8736136571693506, 0.8914739374574195, 0.872335241372138, 0.9167580783291706, 0.8183436692831163, 0.7493158182813355, 0.8352490421455938, 0.9239680237050842, 0.7426420329679778, 0.9070754156382832, 0.8438056205003899, 0.8248494800218937, 0.8793103448275861, 0.8093608944002425, 0.8620312395262787, 0.7404872984816081, 0.9215820532450512, 0.898879179130006, 0.8825623106486894, 0.8458801302433158, 0.8276523007049574, 0.8693034158319817]</t>
+    <t>[0.9350905354830099, 0.9025725232621784, 0.6683087027914614, 0.7732311554550846, 0.8640286839509215, 0.9400172506330785, 0.918297531522764, 0.9032434736289483, 0.6786203120722694, 0.8958532997538023, 0.9162355259916235, 0.8309133588311479, 0.8813466621470344, 0.8193265808924173, 0.8439425130410292, 0.898879179130006, 0.9627805145046523, 0.8866685248731715, 0.7982480452393232, 0.8560087919970383, 0.8446853124792522, 0.8974675637035983, 0.8932676518883416, 0.7884432903628218, 0.9145907473309609, 0.8727675888346429, 0.8313714754995896, 0.8573384768289464, 0.8933315829737999, 0.9014778325123153, 0.8932972992274114, 0.9452356291494316, 0.8192771391479423, 0.779967159277504, 0.8609742747673782, 0.8978435610449779, 0.6678987057789427, 0.9040646040595202, 0.8471328942065439, 0.8215654077723044, 0.8940886699507388, 0.782263590191374, 0.8718861536650359, 0.7903093644053245, 0.8981381412543845, 0.9116886385201844, 0.8754277973880588, 0.8561259491579232, 0.8223378353562849, 0.8391953000443502]</t>
   </si>
   <si>
     <t>[0.9386548410938655, 0.8987411056376573, 0.6880131362889983, 0.7828110104784218, 0.9325304589860082, 0.9370612215430375, 0.9533324298938264, 0.875598749133032, 0.7914043252121544, 0.866447728516694, 0.875723617924684, 0.8577700571047141, 0.8630080825309315, 0.886547154873989, 0.863947472831037, 0.8570021003544235, 0.9009304871373838, 0.906652100765651, 0.8376677017943515, 0.8524500730024871, 0.8919817779199101, 0.8845996639189524, 0.8779419813902573, 0.7651651800186607, 0.8967971530249111, 0.8183273864263855, 0.8554612647139339, 0.8844469115801649, 0.8866375918846638, 0.8378267493267305, 0.8851652134689275, 0.9059291466821979, 0.8871851373126114, 0.8368910782703886, 0.8122605363984675, 0.9329720206551667, 0.8469750889679716, 0.8501437057853071, 0.8044341118168118, 0.8981937602627257, 0.8802955665024629, 0.8085397639696708, 0.8874897677180678, 0.8546400539222109, 0.920087575259989, 0.9200640542753009, 0.8836573011085511, 0.875444872659587, 0.8664112013657262, 0.8162036479883406]</t>
@@ -4477,13 +4477,13 @@
     <t>[0.9543047245682774, 0.8735632183908046, 0.5440613026819923, 0.6848227790968572, 0.8334705634853938, 0.9407562579055888, 0.9522375893197307, 0.8669586641116891, 0.5769809825484313, 0.8281335522714832, 0.9262224482128866, 0.849822666799271, 0.8449432130583526, 0.8172984885624361, 0.8959759437819975, 0.8964158215549718, 0.638752052545156, 0.8863947772582059, 0.7997262224145487, 0.79058311202029, 0.9052839088250952, 0.8084348973503366, 0.8806787082649151, 0.8289745883738318, 0.8807666064729898, 0.7276087279561481, 0.7903093347933207, 0.8977413488053994, 0.8324207162845515, 0.883899365844254, 0.8782652619162743, 0.9167580783291706, 0.8364134860019807, 0.8297755883962781, 0.8850574712643678, 0.8431300637756983, 0.5838927543733098, 0.8996852417631372, 0.8122091431699975, 0.8445539135194308, 0.827093596059113, 0.6802627977005202, 0.8565562872269692, 0.7174924988245082, 0.8954570333880678, 0.9111959670051777, 0.8036961060930872, 0.8510813349276597, 0.8122091736025624, 0.8115505755484339]</t>
   </si>
   <si>
-    <t>[0.977213950016096, 0.8062397372742199, 0.5966064586754242, 0.6823593878051418, 0.7863601668638074, 0.8754772821671806, 0.6860114973993978, 0.8413849811925416, 0.6188586345075915, 0.8159411135796873, 0.8419756191467146, 0.8265285917660758, 0.7913701303183479, 0.7200767993575978, 0.8825462095013001, 0.8579874433844372, 0.8308702791461413, 0.9145907815996498, 0.858198772916762, 0.896249691396963, 0.8747382748946704, 0.7792245216989564, 0.8446695029148286, 0.7517460340555561, 0.8662926042532185, 0.7899470307576737, 0.8386478797573024, 0.8487338155830246, 0.8384448135734529, 0.8533114395183361, 0.7974372580137665, 0.8641841383533041, 0.876386110864923, 0.8188286808976464, 0.6991514086218215, 0.8876294818805893, 0.7765156771773716, 0.8367319087526348, 0.7853818779085684, 0.8407224958949097, 0.8300492610837437, 0.7357328657923069, 0.8549138015371763, 0.8688749299004155, 0.8773946360153256, 0.8685798809570846, 0.7517109506951926, 0.7730632646624995, 0.7862031501808424, 0.843300952197209]</t>
+    <t>[0.977213950016096, 0.8062397372742199, 0.5966064586754242, 0.6823593878051418, 0.7863601668638074, 0.8754772821671806, 0.6860114973993978, 0.8413849811925416, 0.6053137035299699, 0.8159411135796873, 0.8419756191467146, 0.8265285917660758, 0.7913701303183479, 0.7200767993575978, 0.8825462095013001, 0.8579874433844372, 0.8308702791461413, 0.9145907815996498, 0.858198772916762, 0.896249691396963, 0.8747382748946704, 0.7792245216989564, 0.8446695029148286, 0.7517460340555561, 0.8662926042532185, 0.7899470307576737, 0.8386478797573024, 0.8487338155830246, 0.8384448135734529, 0.8533114395183361, 0.7974372580137665, 0.8641841383533041, 0.876386110864923, 0.8188286808976464, 0.6991514086218215, 0.8876294818805893, 0.7765156771773716, 0.8367319087526348, 0.7853818779085684, 0.8407224958949097, 0.8300492610837437, 0.7357328657923069, 0.8549138015371763, 0.8688749299004155, 0.8773946360153256, 0.8685798809570846, 0.7517109506951926, 0.7730632646624995, 0.7862031501808424, 0.843300952197209]</t>
   </si>
   <si>
     <t>[0.9363222142705272, 0.8627343723874076, 0.638752052545156, 0.5578212725017566, 0.849904422771994, 0.9493780094182088, 0.8783358505682713, 0.8571037503421847, 0.5966881128821537, 0.8374384236453202, 0.8721045114477499, 0.7799404416996857, 0.8339948073173956, 0.7842868874897345, 0.871321021168881, 0.8225290622347488, 0.9042145593869731, 0.8954284485520666, 0.7446954210775667, 0.8698152032218491, 0.7646261912906382, 0.8013145357883078, 0.8347016967706623, 0.8081612191249349, 0.8969199262684223, 0.855734883911853, 0.7919518204215714, 0.8463434675431389, 0.8307777806603057, 0.8762323329311068, 0.8320592114911709, 0.921686885201908, 0.8355921306965777, 0.7608100711548987, 0.7872981406407042, 0.8165126867257786, 0.732091665992339, 0.8821677925776062, 0.8395839036408432, 0.8078817733990148, 0.8187192118226599, 0.7305323730653525, 0.8788501109040402, 0.7982480452393232, 0.91351943076081, 0.8991255148875097, 0.906652100765651, 0.8762661155044833, 0.7853231106243157, 0.7841795611960415]</t>
   </si>
   <si>
-    <t>[0.9476536591156847, 0.8341543513957307, 0.6666666666666666, 0.7299849527783047, 0.8817733990147782, 0.9385316580438532, 0.9163815605180966, 0.8876419954480846, 0.682085677661618, 0.8686371100164203, 0.8833600264072902, 0.882006974830754, 0.836184488465587, 0.832352546456252, 0.8590200157616585, 0.8515827136893481, 0.9332238642583469, 0.880098582114, 0.826991544810698, 0.8524500730024871, 0.8786796470147251, 0.9262149993927007, 0.8954570333880678, 0.8076134988815427, 0.8874897344648235, 0.8727675888346429, 0.8089241719134959, 0.8711488511082048, 0.9015473853923205, 0.8478379857690203, 0.913011446520706, 0.9255204016584816, 0.7854894570669992, 0.7509578544061303, 0.8475226159331085, 0.8820703005709514, 0.7154783151715367, 0.911181067791142, 0.8653161784834383, 0.8308702791461413, 0.9118226600985219, 0.7945805466499506, 0.869148677515381, 0.810840435527735, 0.9040646040595202, 0.8772016324697046, 0.8929647200173774, 0.8551875491521418, 0.7919518500951173, 0.8416586913360654]</t>
+    <t>[0.9437122869956298, 0.8752052545155994, 0.666119321291735, 0.7365539962228786, 0.8739564882718884, 0.9612021257783733, 0.9196660822403838, 0.8955795896102784, 0.6651156487631347, 0.8653162109058643, 0.8669623059866963, 0.8795402057898972, 0.8660188941096947, 0.8405638507619697, 0.8636737252160716, 0.8540460712643825, 0.8921729611384784, 0.8907747390976534, 0.8119354259875968, 0.8343827304147658, 0.8823746833772765, 0.9136208847098558, 0.8877941981390256, 0.8139122816805511, 0.9093895428415002, 0.8752309464096772, 0.8165891048453328, 0.882256330994208, 0.8450165560704361, 0.8363437328954569, 0.883353910954764, 0.9156627879130067, 0.7950719356300333, 0.7235905856595511, 0.8544061302681991, 0.8717190983848714, 0.712525674027341, 0.9193923720968598, 0.8494388174103478, 0.870279146141215, 0.910837438423645, 0.8047078219603359, 0.8872160201031023, 0.8699699203602774, 0.9113300492610837, 0.8863160554973314, 0.8765229377131727, 0.8473648265570106, 0.7878456358706352, 0.8457643434889243]</t>
   </si>
   <si>
     <t>[0.9307711258930771, 0.8976464148877942, 0.6885604816639298, 0.8000547495204291, 0.9233716475095786, 0.9570144179008151, 0.8660188941096947, 0.8783358505682713, 0.6796222863699026, 0.918992884510126, 0.8630204483863021, 0.842423372376962, 0.8370056188961588, 0.8430272420536851, 0.8943334580922047, 0.8772016324697046, 0.8910782703886152, 0.9359430955669568, 0.8505338396977287, 0.8683274346704847, 0.909717952460157, 0.9029432657396178, 0.9036672140120415, 0.8514311183529047, 0.9085683000273749, 0.8195146052089902, 0.8693034158319817, 0.8867588745326525, 0.9003287220867123, 0.8328999667432999, 0.9058650681268868, 0.9047098837513678, 0.8309377839659612, 0.7777777777777778, 0.8779419813902573, 0.9038936533975575, 0.7617353294270797, 0.9141918793699052, 0.8291814946619218, 0.8615216201423097, 0.9241379310344826, 0.846585473919496, 0.8874897677180678, 0.8970709342418595, 0.926655719759168, 0.911442302762681, 0.9362168431819222, 0.8486176063929705, 0.843142654093661, 0.8241412421505343]</t>
@@ -4501,7 +4501,7 @@
     <t>[0.9316418348779619, 0.8359107783220631, 0.632183908045977, 0.6681264603418978, 0.8515478087006538, 0.9419879366931059, 0.8738023542294007, 0.8765398302764852, 0.7109225294278675, 0.742200328407225, 0.8425332932014289, 0.7930947428949017, 0.8457643434889243, 0.820969066520668, 0.8302532589771033, 0.8614361439894853, 0.8817733990147782, 0.8561259491579232, 0.812594121234639, 0.8110624315443595, 0.8084739561262483, 0.8870637298351612, 0.856048166392994, 0.8204849246012553, 0.9122518908200192, 0.8870550627698417, 0.6965923152683858, 0.8304574089290606, 0.864731783561386, 0.9047098837513678, 0.8883687624040879, 0.9397591770686121, 0.8469332190456502, 0.7662835249042145, 0.790035616790359, 0.8071473133193254, 0.611286268535792, 0.8764198795636038, 0.8658636736928553, 0.8336070060207991, 0.8605911330049258, 0.7040788393101561, 0.9162332672894427, 0.7935943357849101, 0.8631636562671045, 0.9003571936750268, 0.8614837442963478, 0.7801807026516019, 0.8184556407447976, 0.810729445117862]</t>
   </si>
   <si>
-    <t>[0.934959349593496, 0.886273444730465, 0.6513409961685823, 0.7398385179451659, 0.8729118257732337, 0.9503572308450359, 0.9325304589860082, 0.8698508361190296, 0.6709553791404326, 0.8729811441248977, 0.8763242177876325, 0.9022892980555756, 0.8493019436079935, 0.8427535319101611, 0.8447851397834538, 0.8404190346317251, 0.9441707717569787, 0.880646077343931, 0.8053654832284256, 0.8725530540346342, 0.8523217209618584, 0.8614458154276159, 0.8587848932676518, 0.791181891579782, 0.9169289808051444, 0.8329637841832964, 0.8033392712427161, 0.8489661862418847, 0.8593729329772483, 0.8810729520035104, 0.881207700388778, 0.9386638866524483, 0.8414567675807576, 0.7515051997810619, 0.8680897646414888, 0.8879852732487112, 0.6933607183378447, 0.8920213577444674, 0.8603887215986862, 0.8347016967706623, 0.9152709359605908, 0.786095532200709, 0.880646077343931, 0.764029593368639, 0.872040517267221, 0.8983865076149993, 0.901450896081307, 0.8480701111630395, 0.7927730929400136, 0.8558916187993095]</t>
+    <t>[0.9305247597930526, 0.8784893267651889, 0.6436781609195401, 0.7403859382322137, 0.8624606622438836, 0.9409953190440996, 0.9278773865461014, 0.8999589519066613, 0.6621954557897619, 0.8657451839661707, 0.8778024143877804, 0.9065505907036402, 0.8427535319101611, 0.8280865042430879, 0.8540725610483343, 0.8570021003544235, 0.9206349206349206, 0.874897377429656, 0.8253490591209052, 0.8928131500492446, 0.8419756191467146, 0.8596852196550636, 0.8675424192665572, 0.7983022547438783, 0.9132220093074186, 0.8218773096821878, 0.7952367916780728, 0.8556559846617365, 0.864731783561386, 0.8746579091406678, 0.8930376457442978, 0.9490691456060051, 0.8162650908422514, 0.7640941434044882, 0.8598795840175151, 0.9077018488412443, 0.69172839740495, 0.911181067791142, 0.8658636736928553, 0.8177339901477831, 0.9201970443349751, 0.7647461410058429, 0.8625787347562097, 0.7673145647482246, 0.8986857864624664, 0.906269251855109, 0.8762491526318942, 0.851745387857467, 0.797262156683042, 0.8405638507619697]</t>
   </si>
   <si>
     <t>[0.913279132791328, 0.8790366721401204, 0.5692391899288451, 0.7187628368938237, 0.9221294735320991, 0.9629264760808974, 0.9016012127678048, 0.8964007200408503, 0.7640295647413086, 0.8528808072205464, 0.8870550627698417, 0.7933687908364687, 0.8728616476977927, 0.8427535319101611, 0.8998084103915142, 0.9124276457926946, 0.8730158730158729, 0.90610460553572, 0.8347707128181989, 0.8821355318793824, 0.9020815439775507, 0.7816564656417856, 0.8698508361190297, 0.7599618377064364, 0.9578428688748974, 0.8205444082439163, 0.8696961401587737, 0.8651239297864882, 0.8674700096017959, 0.8471328942065439, 0.9470183506016394, 0.931544498947383, 0.8830777987139419, 0.7870826491516147, 0.8708264915161467, 0.9382625410096707, 0.8014233002380486, 0.8339948073173956, 0.8653161784834383, 0.8226600985221675, 0.9123152709359604, 0.8441220826277808, 0.8669586965956573, 0.8349302256446968, 0.9013275026242809, 0.9121813100351912, 0.9359430955669568, 0.8395839350991098, 0.8668035673277854, 0.8424798217666373]</t>
@@ -4519,7 +4519,7 @@
     <t>[0.8552777500518997, 0.8850574712643678, 0.6934865900383141, 0.6850964892403811, 0.8724685276409413, 0.8917354421624067, 0.8876419954480846, 0.8370056188961588, 0.7130149238798213, 0.88232074438971, 0.872274917319636, 0.8057009482069838, 0.8506911260723549, 0.7119200833057256, 0.9132220435248224, 0.8772016324697046, 0.8877941981390256, 0.8688749299004155, 0.779633207421671, 0.8332877399549039, 0.7991131973411181, 0.8522930219064373, 0.876847290640394, 0.6364509228215345, 0.9185712416662881, 0.9047912373100885, 0.8446695029148286, 0.8662560620982871, 0.7918949708864877, 0.7208538587848933, 0.8541154314819884, 0.8652794287694681, 0.867351202505491, 0.8128078817733991, 0.8899835796387521, 0.8935437260685777, 0.6684001704854218, 0.8906528070268477, 0.8318051261692041, 0.9003831417624522, 0.8950738916256156, 0.7425756193804051, 0.8625787347562097, 0.7246099368136106, 0.9173508483853311, 0.9193250470027906, 0.8842047963384821, 0.7558171649196747, 0.704819277108434, 0.7154783151715367]</t>
   </si>
   <si>
-    <t>[0.9061345158906136, 0.8797044012858908, 0.6305418719211823, 0.7732311554550846, 0.8849048940128454, 0.9156300106402393, 0.9133707489393335, 0.8268783435857736, 0.6456822285729361, 0.8226600985221675, 0.881606511556755, 0.9021658236385683, 0.8931161983185631, 0.7866429524877568, 0.8606625014514514, 0.8271741808327175, 0.9403393541324575, 0.8798248344990345, 0.8037229975386327, 0.8590200157616585, 0.8594654579294577, 0.8995071531086198, 0.8527640941434045, 0.7692730818441009, 0.886547154873989, 0.8573540280857355, 0.7930468108404052, 0.8380117838387635, 0.86582707397755, 0.8308702791461413, 0.8969809608628045, 0.9266156920746456, 0.832854279678568, 0.7608100711548987, 0.8593322386425835, 0.8889711020283378, 0.681046390872068, 0.8873682853045607, 0.8438483724842568, 0.8418171866447729, 0.9009852216748767, 0.8164773581318646, 0.8757186202745525, 0.7347385985673331, 0.8964952056301387, 0.8905037633748898, 0.8858316304766423, 0.8683274346704847, 0.7849418280255088, 0.8274257638728215]</t>
+    <t>[0.9233801428923382, 0.8648056923918993, 0.6447728516694033, 0.7951279669369984, 0.9035171837724721, 0.9156196107415622, 0.9317093285554363, 0.8832626331517018, 0.6538935328786538, 0.8427535319101611, 0.8766785824815356, 0.8942184333331252, 0.9021486330548526, 0.7829181494661922, 0.8716124060500703, 0.8408474993840849, 0.9480021893814996, 0.8683274346704847, 0.7982480452393232, 0.8839310487235166, 0.862421487019499, 0.8980151339072002, 0.8533114395183361, 0.7199782599388185, 0.897495560614946, 0.8378911061837893, 0.777443197372023, 0.829956219504483, 0.8423936079789726, 0.8423645320197045, 0.8615082367169739, 0.9189486591614984, 0.8317591392713641, 0.7361795292829775, 0.8472906403940886, 0.8835490437403912, 0.7410347659457981, 0.8955795896102784, 0.8597235608086444, 0.840175150519978, 0.9182266009852215, 0.8055289523909075, 0.8729811441248977, 0.7328223652625748, 0.9016012127678048, 0.8821283476197731, 0.833264894871167, 0.84259515886373, 0.7852156131067872, 0.8200355899976755]</t>
   </si>
   <si>
     <t>[0.8999753633899975, 0.8910782703886152, 0.671592775041051, 0.7765156771773716, 0.9222769567597153, 0.9099642882176604, 0.8969481403278982, 0.8802518215729387, 0.7792527786126109, 0.9281510966896254, 0.8999753633899975, 0.8901077142096201, 0.796496517654618, 0.8123717059790057, 0.9143170339846842, 0.8461633270242727, 0.8998357963875205, 0.8992609151615832, 0.7881193834856006, 0.8926909724024118, 0.8939524639799377, 0.8443532539542089, 0.8806787082649151, 0.7599618377064364, 0.9186969614015879, 0.7724528825406448, 0.8925687780315152, 0.8728269045415104, 0.8159913600420933, 0.6288998357963875, 0.8957615676390732, 0.9578314689353161, 0.8681725578108939, 0.8149972632731254, 0.8719211822660098, 0.9122721659972074, 0.7977005201204491, 0.9032434736289483, 0.7184891267502997, 0.8659003831417624, 0.9009852216748767, 0.8553441985122616, 0.8072817165331838, 0.9085683340704094, 0.8659003831417624, 0.9358295427555202, 0.8978921770867558, 0.8866685248731715, 0.8325804321679707, 0.8170247784189123]</t>
@@ -4537,7 +4537,7 @@
     <t>[0.9269614554853969, 0.8883415435139572, 0.6179529282977558, 0.7532503149778381, 0.8690772586063605, 0.9218923317466738, 0.8504174159288309, 0.8580812999475008, 0.7253318803383979, 0.8149972632731254, 0.8523903659502026, 0.8821603239041771, 0.8520596767899746, 0.8565562551327678, 0.8661191046245891, 0.8323885655279432, 0.8856048166392994, 0.8558521640766448, 0.7849418280255088, 0.7341911033374022, 0.7848257234059194, 0.8744351718291411, 0.8609742747673782, 0.7440779506480676, 0.8619132419568358, 0.8520389371054384, 0.7719682452778539, 0.8295221219763446, 0.8400877491976987, 0.8587848932676518, 0.8362515667357915, 0.9003287220867123, 0.8479124602776217, 0.8166392993979201, 0.8045977011494253, 0.8731978415543113, 0.612929879385541, 0.8772410099941755, 0.8350896478914914, 0.8314176245210728, 0.8891625615763544, 0.7514371749247195, 0.8955510008620297, 0.7747057503522924, 0.90311986863711, 0.9124276457926946, 0.8330139923399383, 0.8510813349276597, 0.7609529025191678, 0.7644724308623191]</t>
   </si>
   <si>
-    <t>[0.9354520817935453, 0.8828680897646416, 0.6267104542966612, 0.7568085468436492, 0.9091158293003403, 0.9313954991204586, 0.9174764010921923, 0.8991378214760894, 0.6687653983027649, 0.8735632183908046, 0.8903400960329811, 0.8780496047806721, 0.8564390390863573, 0.8200355899976755, 0.8595675109915895, 0.8323685246040807, 0.9376026272577997, 0.869696172745312, 0.8042704927685637, 0.8633625410733846, 0.799605868856125, 0.8766598959667241, 0.8713738368910783, 0.7870739897543418, 0.8836572679989051, 0.8598176890859819, 0.8226115521489188, 0.8337897355299079, 0.8307777806603057, 0.8801313628899835, 0.8720887841772313, 0.9320921441554648, 0.8184556714282084, 0.7268746579091406, 0.8232074438970991, 0.9091805920106845, 0.693729489315278, 0.8835363432952258, 0.8515122565029267, 0.8133552271483305, 0.8822660098522165, 0.7844532713395653, 0.8612099966813823, 0.7610183696040187, 0.912376916664515, 0.892474449434917, 0.8754277973880588, 0.8527238206174527, 0.819986318429159, 0.8164773581318646]</t>
+    <t>[0.9263365360926338, 0.8905309250136835, 0.6398467432950191, 0.7606404888529841, 0.9150130098004771, 0.9296711488179346, 0.9254139952543862, 0.9032434736289483, 0.6709553791404326, 0.8750513288459841, 0.8903670854890368, 0.8598060534630438, 0.8575338796604529, 0.8070079386805367, 0.858746268146693, 0.8631604942920093, 0.9337712096332785, 0.8822885630337238, 0.8141254069073207, 0.8490075370446818, 0.833107531876591, 0.8651609216910832, 0.8680897646414888, 0.7681776413573169, 0.9103599373605703, 0.8721359940872137, 0.8091979195182043, 0.8502190899245858, 0.8566343321710749, 0.8805255317164626, 0.8767714708804579, 0.912376916664515, 0.8225630100268779, 0.7416529830322934, 0.8203093001411994, 0.8805915574015113, 0.6969199243944655, 0.8818940824340822, 0.8542493579381659, 0.7980295566502463, 0.9044334975369456, 0.7992336190898572, 0.8724336488949667, 0.7755269931971889, 0.911454777934666, 0.8939524639799377, 0.8633999776011061, 0.8491651016229015, 0.827378515623679, 0.8214041407152951]</t>
   </si>
   <si>
     <t>[0.9496243451757121, 0.9239189928845101, 0.6310892172961139, 0.8159299378448166, 0.9363624009953431, 0.9373075573005408, 0.9451211255881087, 0.8922950678879914, 0.7372022994798797, 0.9157088122605364, 0.8755851194875585, 0.85174100239024, 0.8246886624375821, 0.8662926042532185, 0.9063783531506856, 0.9107032954901707, 0.9157088122605364, 0.9178757529792354, 0.7930468405549792, 0.8820148154187583, 0.8848380409523108, 0.8722793343379085, 0.866447728516694, 0.8150077221673351, 0.8698508361190296, 0.7981278543111044, 0.894333424582535, 0.8799453171883358, 0.8608982671048125, 0.8060763726779553, 0.9672253515772662, 0.8604683732997177, 0.8929354113507486, 0.8779419813902573, 0.8418171866447729, 0.9369148501138257, 0.8170247784189123, 0.8569864593734052, 0.7870243635368191, 0.91351943076081, 0.9192118226600984, 0.7379225469404984, 0.8779086011942763, 0.9096633245302712, 0.904612024346568, 0.936814885785534, 0.8877635153330333, 0.8278127876555944, 0.8442376445535228, 0.8980429809019937]</t>
@@ -4555,7 +4555,7 @@
     <t>[0.9390319076030649, 0.9085933223864259, 0.6464148877941982, 0.5622006347981394, 0.8712684398445739, 0.9154860239488884, 0.8126454161225296, 0.8239802901724611, 0.5865608375717685, 0.8291815257304217, 0.8696402432605564, 0.8942184333331252, 0.8266046334422497, 0.7563646318094718, 0.8628336836492468, 0.8934597924649308, 0.8976464148877942, 0.8978921770867558, 0.7509924779469725, 0.8375085636309841, 0.7343268931177167, 0.8456798655209483, 0.8128078817733991, 0.8015885762042305, 0.899931562162486, 0.8754466002127307, 0.8176840952641665, 0.8403177211722815, 0.8428259752381084, 0.8899234631331554, 0.8469690530881692, 0.8806134945957623, 0.8331280647803689, 0.819376026272578, 0.7916781024801518, 0.8406654918266317, 0.6430627449642715, 0.8996852417631372, 0.834656446756091, 0.8095238095238094, 0.8748768472906402, 0.7267004310560174, 0.8684462778154565, 0.7977005500093923, 0.912424740010947, 0.898879179130006, 0.8847522915684131, 0.8735286393548286, 0.7803943044906901, 0.7869166626312807]</t>
   </si>
   <si>
-    <t>[0.9353368712405135, 0.856048166392994, 0.6830870279146142, 0.7157520253150605, 0.8781823488092417, 0.9469146518431745, 0.9265088358284819, 0.8810729520035104, 0.6634733879019912, 0.8686011822854501, 0.8952944074895295, 0.855577673572178, 0.8364581986091109, 0.8171366000547496, 0.8497125968528324, 0.8429609621767281, 0.8762999452654625, 0.918149500594201, 0.8061867260733219, 0.863947472831037, 0.8752309464096772, 0.9284052802071084, 0.9047619047619048, 0.8237712460616076, 0.8874897344648235, 0.8462675535846268, 0.8400164304749219, 0.8821355980027435, 0.8632069741058913, 0.8483853311439519, 0.903647226556391, 0.9008763672947943, 0.7917865144084216, 0.7608100711548987, 0.8472906403940886, 0.8894640164181512, 0.7292523690717398, 0.8936636186056109, 0.8280865042430879, 0.8407224958949097, 0.8837438423645319, 0.7959490973675702, 0.8768136107344142, 0.8256228067358706, 0.8883415435139572, 0.8636531658070161, 0.8921434771724809, 0.8461538778582812, 0.7867506454107733, 0.8594498506651205]</t>
+    <t>[0.9379157427937915, 0.8533114395183361, 0.6787082649151615, 0.7332694745005917, 0.9029697634854243, 0.9446908105444691, 0.9122759083652378, 0.8769672998506516, 0.6979608659860056, 0.8675424192665572, 0.8893816210889383, 0.8436350119729835, 0.8383741696137784, 0.836184488465587, 0.8669586965956573, 0.848626684599307, 0.8648056923918993, 0.9260881814281997, 0.8332877399549039, 0.8644949680609679, 0.8735065961071532, 0.9212868675602831, 0.8949096880131362, 0.8317131895907919, 0.8905009581166166, 0.8615422517861543, 0.8276994740163454, 0.871029605491178, 0.8686841757182383, 0.8253968253968254, 0.9181864101851958, 0.9014240125028763, 0.7923340846120236, 0.7482211275314723, 0.856048166392994, 0.8781269854524447, 0.7314168446355587, 0.8851786041563694, 0.8467013413632631, 0.8155446086480569, 0.9201970443349751, 0.7748734163162281, 0.8880372629479987, 0.8245278162760087, 0.8870945751610368, 0.8863160554973314, 0.8612099966813823, 0.8792773392691036, 0.8059129784583565, 0.853975647794642]</t>
   </si>
   <si>
     <t>[0.9577534251733253, 0.8970990695128626, 0.6830870279146142, 0.7655672714364147, 0.9024223431983764, 0.9594777754758494, 0.9109073576476182, 0.8627343723874076, 0.6670316197678021, 0.9109073576476182, 0.8780487804878049, 0.847082187383601, 0.8537019376511182, 0.8424798217666373, 0.875444872659587, 0.8377879112691562, 0.8160919540229885, 0.9356693479519913, 0.837941449409317, 0.9006296532364106, 0.8983865076149993, 0.9399042544827495, 0.8769672998506517, 0.8506095379878168, 0.8709456766931253, 0.8335592030733656, 0.8802518215729387, 0.9106092485900451, 0.8953999152139748, 0.8695771259755056, 0.9208971054380238, 0.9101863358321872, 0.8161533884687084, 0.7454844006568144, 0.8960043787629994, 0.8840419581302047, 0.7974267725157406, 0.9035171837724721, 0.8362989323843417, 0.8806787082649151, 0.9192118226600984, 0.8832626331517018, 0.8822885630337238, 0.8891322534078606, 0.9020251778872468, 0.9003571936750268, 0.9359430955669568, 0.8672324442106227, 0.8320328620054136, 0.828794314590441]</t>
@@ -4567,13 +4567,13 @@
     <t>[0.9446976300256436, 0.8757525998905309, 0.6141215106732347, 0.6785274457958069, 0.8553823758675272, 0.9442049585106369, 0.9442999951575369, 0.8505338078291815, 0.7202299479879551, 0.8522167487684729, 0.8740759259975046, 0.8065230920316848, 0.7633775902882233, 0.8192144595671037, 0.8861210296432405, 0.8786796470147251, 0.8708264915161467, 0.7939767357076999, 0.7946893262447721, 0.8172484676163738, 0.8414829476317077, 0.6953306925381113, 0.8697318007662834, 0.7993976952306624, 0.8646132866775573, 0.8858233839823244, 0.8194881697106277, 0.906078894866491, 0.8318730710764697, 0.8264915161466886, 0.8923115918627467, 0.8997810768786303, 0.8428258804469808, 0.7361795292829775, 0.90311986863711, 0.819963087454472, 0.6156692308017893, 0.8868208650175129, 0.8620312072269368, 0.7285166940339354, 0.8211822660098521, 0.7735048655986084, 0.8743498821997251, 0.8100191926828386, 0.6808976464148878, 0.9077472664001296, 0.8636550388930824, 0.8338352351848348, 0.8267177971957325, 0.8214041407152951]</t>
   </si>
   <si>
-    <t>[0.9456829730556575, 0.8555008210180624, 0.5960591133004925, 0.7190365470373475, 0.8615216201423097, 0.9259761124553832, 0.8220640569395019, 0.8668400245402664, 0.7180399671502874, 0.8204707170224411, 0.85675576459692, 0.859688392695683, 0.7693992134457496, 0.760744593484807, 0.8603887538364859, 0.858972786414451, 0.7679255610290093, 0.8677799394405538, 0.7782644693468436, 0.845448330988061, 0.8671018664120641, 0.8616017153676705, 0.8299563128481828, 0.7492812929602919, 0.8567127492298814, 0.8510900421743413, 0.8118242856919577, 0.8493976222048519, 0.7935379065107336, 0.918992884510126, 0.8075407585015799, 0.8608982671048125, 0.8335159129566633, 0.8144499178981938, 0.7955105690896684, 0.8960079944802396, 0.7516080541166946, 0.8912002273138957, 0.9025458527237887, 0.8270388615216201, 0.8300492610837437, 0.7811687496172783, 0.8039967451535981, 0.8480701111630395, 0.8527640941434045, 0.841729283389211, 0.852997568232418, 0.8751711250446215, 0.773337012277465, 0.8868208650175129]</t>
+    <t>[0.9456829730556575, 0.8555008210180624, 0.5960591133004925, 0.7190365470373475, 0.8615216201423097, 0.9259761124553832, 0.8220640569395019, 0.8668400245402664, 0.7180399671502874, 0.8204707170224411, 0.85675576459692, 0.859688392695683, 0.6979608659860056, 0.760744593484807, 0.8603887538364859, 0.858972786414451, 0.7679255610290093, 0.8677799394405538, 0.7782644693468436, 0.845448330988061, 0.8671018664120641, 0.8616017153676705, 0.8299563128481828, 0.7492812929602919, 0.8567127492298814, 0.8510900421743413, 0.8118242856919577, 0.8493976222048519, 0.7935379065107336, 0.918992884510126, 0.8075407585015799, 0.8608982671048125, 0.8335159129566633, 0.8144499178981938, 0.7955105690896684, 0.8960079944802396, 0.7516080541166946, 0.8912002273138957, 0.9025458527237887, 0.8270388615216201, 0.8300492610837437, 0.7811687496172783, 0.8039967451535981, 0.8480701111630395, 0.8527640941434045, 0.841729283389211, 0.852997568232418, 0.8751711250446215, 0.773337012277465, 0.8868208650175129]</t>
   </si>
   <si>
     <t>[0.9134129888227083, 0.8757525998905309, 0.5621237000547346, 0.6339126924014074, 0.8510000133911005, 0.9469146518431745, 0.9136444590828574, 0.8476803144935917, 0.5970435258691488, 0.8494388492378669, 0.8501725245817284, 0.7615792296146966, 0.8200355899976755, 0.8171366000547496, 0.826991544810698, 0.8764626251971943, 0.8615216201423097, 0.845448330988061, 0.8180698228602094, 0.7991786522519917, 0.7880280882534639, 0.9190965867458754, 0.8489326765188835, 0.8169247430192073, 0.9002053472437644, 0.9107032954901707, 0.6790748660828548, 0.8331963845521775, 0.8789705589715165, 0.8177339901477831, 0.8762938471869449, 0.9331874345716288, 0.8639102185868176, 0.6431308155446086, 0.8228853305862159, 0.7520947192391889, 0.6353925609987765, 0.9051594446336159, 0.8554612647139339, 0.8352490421455938, 0.8492610837438421, 0.7254311524774159, 0.9102108197602021, 0.7281686558081618, 0.8615216201423097, 0.9111959670051777, 0.8866685248731715, 0.7982480452393232, 0.8151697699890473, 0.8027918509556683]</t>
   </si>
   <si>
-    <t>[0.9384084749938408, 0.866447728516694, 0.6704980842911876, 0.7108252427316298, 0.8984396723166868, 0.9338588566954928, 0.9163815605180966, 0.8747776187024603, 0.6775253216534355, 0.8609362490664169, 0.8738605567873862, 0.8863923420144991, 0.8454906333454004, 0.8279731841598692, 0.8565562872269692, 0.8279344809690191, 0.926655719759168, 0.8738023869697942, 0.8291815257304218, 0.8542094535889735, 0.8476413415692934, 0.8531143772118402, 0.8642583470169677, 0.7574970966111724, 0.9071995620038326, 0.8410938654841095, 0.7937594162193787, 0.8430997030202253, 0.8325346450767479, 0.8881894157351324, 0.8620010903993063, 0.9539979524787428, 0.8012048493137965, 0.7597153804050356, 0.8427535319101611, 0.8869994444690845, 0.7281314236602165, 0.8813466621470344, 0.814946619217082, 0.7974822112753147, 0.9019704433497534, 0.7740522858856562, 0.8686011822854501, 0.7807281978815328, 0.8708264915161467, 0.8860697197398278, 0.8841889199889712, 0.8637919314337218, 0.7862031501808424, 0.8654714738226469]</t>
+    <t>[0.914891003367729, 0.8762999452654625, 0.632183908045977, 0.7584508077047927, 0.8832626331517017, 0.9348361665434838, 0.9276036764025775, 0.8766935897071276, 0.661647960580345, 0.849986344467798, 0.8752002037589697, 0.8973557599738622, 0.8427535319101611, 0.8097454147276212, 0.8669586965956573, 0.8497844080381783, 0.9310344827586207, 0.837393954179386, 0.8331280023305278, 0.8339493575743633, 0.8116763209737928, 0.8306639988641603, 0.8698508361190297, 0.7818706474421175, 0.9170544757733371, 0.8396156688839616, 0.7971530249110321, 0.8470491658213384, 0.8473230894300848, 0.8341543513957307, 0.838570605669925, 0.9326397893635469, 0.8220153648803886, 0.752599890530925, 0.8626163108921729, 0.9042514481125511, 0.6895372165776921, 0.8994115316196133, 0.8264440186148372, 0.7728516694033934, 0.9103448275862068, 0.7625564598576515, 0.8831098058786203, 0.7481522317006414, 0.9040646040595202, 0.8895184203448758, 0.8918549022647697, 0.8562825396120038, 0.7788119645767745, 0.8572601695169292]</t>
   </si>
   <si>
     <t>[0.907993602157633, 0.8921729611384784, 0.6737821565407772, 0.7558171366000548, 0.9204872126709555, 0.9331198494229825, 0.8575338796604529, 0.8348159377479674, 0.6200383246646592, 0.7899274742100438, 0.8850843767098141, 0.8303652629480138, 0.8192144595671037, 0.8632817926744554, 0.8532713158473836, 0.9039172209903918, 0.8981937602627257, 0.8163153878270445, 0.7874058937570154, 0.8689938479780135, 0.818081050668882, 0.8457221794632139, 0.8856048166392994, 0.792277332066566, 0.884204763208322, 0.7690602349257, 0.882715212864654, 0.8526834930837875, 0.8680176548098778, 0.7332694745005917, 0.8844259329454289, 0.9211392399938261, 0.8406352998610237, 0.7848932676518883, 0.8839627805145046, 0.8580582609406474, 0.713836054310393, 0.7034350688564839, 0.8532712838762663, 0.8483853311439519, 0.8068965517241378, 0.775147126459752, 0.8877635153330333, 0.7968793071644958, 0.8651977636791228, 0.8949378070099514, 0.8948809533221356, 0.8655899585208299, 0.8479123967195676, 0.885999734586941]</t>
@@ -4591,7 +4591,7 @@
     <t>[0.8488730203568106, 0.876847290640394, 0.6819923371647509, 0.6908444022543836, 0.8675424192665572, 0.8895184203448758, 0.9196660822403838, 0.8339948073173956, 0.7015190978518165, 0.8746579091406678, 0.8291661597565362, 0.8654433994685901, 0.8846311838693215, 0.6990557065601012, 0.9192444910540629, 0.8772016324697046, 0.8669950738916257, 0.8631262299861406, 0.8248015638909741, 0.8289077781154562, 0.7914767888585119, 0.8755647555595203, 0.8741105637657363, 0.6334384614828784, 0.9158341402310488, 0.8919817779199101, 0.7650198511493669, 0.8632444259784763, 0.8263966189956501, 0.7531472359058566, 0.8674224809049623, 0.8641841383533041, 0.867898772709093, 0.7991242474001095, 0.8938149972632732, 0.8807295303279362, 0.6829068080921897, 0.9037908939159962, 0.8372793290396827, 0.8992884510125888, 0.9078817733990147, 0.7272478513430654, 0.84259515886373, 0.667670432900792, 0.89272030651341, 0.9210493973053145, 0.880646077343931, 0.798795540469254, 0.837393954179386, 0.682085677661618]</t>
   </si>
   <si>
-    <t>[0.9076127124907614, 0.8922950678879913, 0.6573617952928298, 0.785821822057185, 0.8958532997538023, 0.9111850209411184, 0.9344464299906756, 0.8413849811925416, 0.6544409531657017, 0.8697318007662834, 0.8692866888687064, 0.8410531326691268, 0.9035171837724721, 0.7882852133489003, 0.8461538778582812, 0.8368025682391425, 0.9178981937602627, 0.8825623106486894, 0.7930468405549792, 0.8659822120839499, 0.8550314142943961, 0.8637919961820782, 0.8593322386425835, 0.7583186769762603, 0.8810729520035104, 0.7993595330986216, 0.7949630440733645, 0.8310515097974616, 0.8522525708811972, 0.7920087575259989, 0.8688848406434447, 0.9162104331210886, 0.8506503112956313, 0.7744937055281882, 0.8509648362158788, 0.8800986430116979, 0.6802246980618464, 0.9054331547771396, 0.828794314590441, 0.8549534756431307, 0.9266009852216747, 0.7918434452147114, 0.8779086011942763, 0.7539009316149164, 0.9191186619533359, 0.8934597924649308, 0.8573775300718657, 0.8601150062215204, 0.7832991175378377, 0.8205830102847234]</t>
+    <t>[0.9073663463907367, 0.8784893267651889, 0.6787082649151615, 0.7650198511493669, 0.9018749229113286, 0.9057649667405766, 0.9005063721937091, 0.8424798217666373, 0.6861913298144768, 0.870279146141215, 0.8652377432865238, 0.844341707967931, 0.8969481403278982, 0.7956753872240462, 0.8305502638052492, 0.7988668615836148, 0.9408866995073891, 0.9011771484663416, 0.7927730929400136, 0.8445113921684884, 0.8343392106641082, 0.8962212822296842, 0.8949096880131362, 0.7739287039129331, 0.8929646865589927, 0.8239931088489643, 0.7903093347933207, 0.8274918163452814, 0.8121578435855197, 0.7980295566502463, 0.878250214049898, 0.922782175618072, 0.8391513370199905, 0.7712096332785988, 0.8845101258894362, 0.8973506466551645, 0.70349076634515, 0.8964007200408503, 0.8531545173640703, 0.8226600985221675, 0.9034482758620689, 0.7973176480851898, 0.8672324442106227, 0.741034793711539, 0.9338990097036277, 0.8892720845873725, 0.8839310487235166, 0.8599589402958225, 0.7904175296510791, 0.8118242856919577]</t>
   </si>
   <si>
     <t>[0.863759546686376, 0.9157088122605364, 0.6781609195402298, 0.8241412421505343, 0.8757525998905309, 0.9210493973053145, 0.925961415541434, 0.8589024303780727, 0.7518817642602185, 0.9199397923839077, 0.9113082039911309, 0.7967664001967065, 0.7672095322975582, 0.7992336190898572, 0.8653162109058643, 0.8540460712643825, 0.9151614668856047, 0.8918697295575154, 0.8494388492378669, 0.9050096150758582, 0.8978938360999925, 0.8687201280144958, 0.840175150519978, 0.7673560609922288, 0.8973446482343281, 0.8050252555212004, 0.8833835203941965, 0.8786966375420276, 0.8614459123128945, 0.7880115032053764, 0.922622093326187, 0.9019716577109582, 0.8900753659549719, 0.8319649698960043, 0.8877941981390256, 0.9224892805356443, 0.7689675215657877, 0.8955795896102784, 0.8928424881750392, 0.9064039408866994, 0.8985221674876845, 0.8605446912392162, 0.7752532455822233, 0.8190528639766992, 0.9423840241528694, 0.8969084930699788, 0.8664112013657262, 0.8736481943597483, 0.8662559971652283, 0.8835363432952258]</t>
@@ -4603,13 +4603,13 @@
     <t>[0.8693188882295949, 0.8790366721401204, 0.5374931581828133, 0.7242370397643023, 0.8905309250136835, 0.9417416009356026, 0.8372793290396827, 0.8621869521003597, 0.6982345761295294, 0.8839627805145046, 0.8789259827722284, 0.8262545438245089, 0.8846311838693215, 0.8706719665496014, 0.8943334580922047, 0.8801576615597456, 0.8801313628899835, 0.8978921770867558, 0.8716124060500703, 0.8239803210460779, 0.8875477342848485, 0.8522930219064373, 0.8812260536398466, 0.6821855631447687, 0.8413849811925416, 0.898879179130006, 0.8490488652112115, 0.8687201280144958, 0.8203725217067488, 0.8609742747673782, 0.818383539512892, 0.9167580783291706, 0.8150582480615045, 0.7777777777777778, 0.8784893267651889, 0.9058650681268868, 0.8000547495204291, 0.9073491257818072, 0.8534282275075942, 0.8593322386425835, 0.8231527093596057, 0.7819898800478501, 0.7725157694325686, 0.6646592091361717, 0.9386973180076628, 0.912673981550198, 0.8119354259875968, 0.8614837442963478, 0.8467013730882121, 0.7943068365064266]</t>
   </si>
   <si>
-    <t>[0.7624091694731074, 0.8671137346837904, 0.6310892172961139, 0.6998768369906729, 0.795672687126214, 0.936814885785534, 0.8849048940128453, 0.8651977636791228, 0.7480498222508836, 0.917054510134339, 0.8084739561262483, 0.8243362082335399, 0.8730659370081159, 0.8331736768868239, 0.8954284485520666, 0.8368025682391425, 0.8478379857690203, 0.7818231883413947, 0.7652698178041006, 0.9037645533003852, 0.799605868856125, 0.8640657812838792, 0.8325123152709359, 0.8182940436276872, 0.8635555028179794, 0.7855647306784297, 0.8246886624375821, 0.865434706792884, 0.8072290367127822, 0.8888888888888888, 0.8898473234510847, 0.8269442642037321, 0.878028821475729, 0.8374384236453202, 0.8281335522714832, 0.8510166940127116, 0.7360065759358309, 0.8537019376511182, 0.8953058794667546, 0.8680897646414888, 0.827093596059113, 0.832352546456252, 0.8762661155044833, 0.6422119047090028, 0.8223050503808915, 0.8949378070099514, 0.8976017797478518, 0.7133862846000262, 0.8078292117631148, 0.8662926042532185]</t>
+    <t>[0.7624091694731074, 0.8660188941096946, 0.6310892172961139, 0.6998768369906729, 0.795672687126214, 0.936814885785534, 0.8849048940128453, 0.8651977636791228, 0.7480498222508836, 0.917054510134339, 0.8084739561262483, 0.8243362082335399, 0.8730659370081159, 0.8331736768868239, 0.8954284485520666, 0.8368025682391425, 0.8478379857690203, 0.7818231883413947, 0.7652698178041006, 0.9037645533003852, 0.799605868856125, 0.8640657812838792, 0.8325123152709359, 0.8182940436276872, 0.8635555028179794, 0.7855647306784297, 0.8246886624375821, 0.865434706792884, 0.8072290367127822, 0.8888888888888888, 0.8898473234510847, 0.8269442642037321, 0.878028821475729, 0.8374384236453202, 0.8281335522714832, 0.8510166940127116, 0.7360065759358309, 0.8537019376511182, 0.8953058794667546, 0.8680897646414888, 0.827093596059113, 0.832352546456252, 0.8762661155044833, 0.6422119047090028, 0.8223050503808915, 0.8949378070099514, 0.8976017797478518, 0.7133862846000262, 0.8078292117631148, 0.8662926042532185]</t>
   </si>
   <si>
     <t>[0.9274541270004036, 0.8949096880131362, 0.6163108921729611, 0.7691255033022256, 0.8745552117018938, 0.9297770182670249, 0.8766935897071276, 0.8572601695169292, 0.7160257354585845, 0.8730158730158729, 0.8652045605236084, 0.874212933598734, 0.8526070970770224, 0.9040646040595202, 0.8655715344620319, 0.8407691433271586, 0.8828680897646416, 0.8539356685076951, 0.7690622933113548, 0.7426772794013319, 0.8052715912787038, 0.8549911075636012, 0.8440065681444991, 0.7369575874839713, 0.8454906333454004, 0.8591844342645065, 0.7782644401861485, 0.8322607225771249, 0.8121578435855197, 0.8418171866447729, 0.877772408233942, 0.8904711083412373, 0.8416154029361993, 0.7542419266557197, 0.7007938943116143, 0.8761553278931914, 0.6167649713682886, 0.9026960533419004, 0.8416586913360654, 0.8199233716475095, 0.891133004926108, 0.7562611265566013, 0.8952772157807511, 0.7900356167903589, 0.8264915161466886, 0.8333538676340946, 0.8417739160188336, 0.902121842812714, 0.7623220153340637, 0.7598193584224123]</t>
   </si>
   <si>
-    <t>[0.9366839122936685, 0.8784893267651889, 0.6376573617952929, 0.7721363148809888, 0.8526070970770224, 0.9424735156442475, 0.9152867199440009, 0.901053792480757, 0.6927603732590509, 0.8925687780315152, 0.8840704760943647, 0.7769259143424487, 0.8679348651143621, 0.7987955105392829, 0.8341089827998004, 0.8334565163833457, 0.9304871373836892, 0.8163153878270445, 0.8015330166189089, 0.8596851552145439, 0.8111836494587861, 0.8824093831045446, 0.8576902025177887, 0.79063417133639, 0.9066520667944156, 0.8579874433844372, 0.8100191623323297, 0.8276051015557986, 0.8740417520987791, 0.8500273672687465, 0.8611042903933316, 0.9140198522887608, 0.8224504458101309, 0.7268746579091406, 0.8066237929650032, 0.878619899842258, 0.7004791304510862, 0.8920213577444674, 0.8378267493267305, 0.8352490421455938, 0.8793103448275861, 0.7981387785157616, 0.8839310487235166, 0.8442376445535228, 0.9092650967864746, 0.9038058942800747, 0.8872160201031023, 0.8457221160693397, 0.8179578735168372, 0.8099083146872903]</t>
+    <t>[0.920670115792067, 0.8549534756431307, 0.6206896551724138, 0.7836321409089937, 0.9143170339846842, 0.9232569598423257, 0.9122759083652378, 0.8906528070268477, 0.6588203154620844, 0.889831676596276, 0.8743532889874355, 0.8826759692142261, 0.8586287202345487, 0.8186670392800559, 0.8456063826283503, 0.8557704215669065, 0.9173508483853311, 0.8352039732596623, 0.8182316211318028, 0.8341089827998004, 0.831875853089074, 0.897864217669152, 0.8669950738916257, 0.7772150253732854, 0.8811935395565289, 0.8588322246858833, 0.8050917054475775, 0.8559693639627232, 0.8297960442705744, 0.8341543513957307, 0.8713494125925114, 0.9101863358321872, 0.8139631076543006, 0.7504105090311987, 0.8117131910235358, 0.9106593351801242, 0.7915411990145086, 0.8991378214760894, 0.8608184013827402, 0.8243021346469621, 0.9064039408866992, 0.7663884018669864, 0.8820148154187583, 0.7892143739454625, 0.8970428508382207, 0.8951841427674547, 0.8825462095013001, 0.8519025777725562, 0.8165891354420101, 0.832352546456252]</t>
   </si>
   <si>
     <t>[0.9115545700911556, 0.9261083743842365, 0.6781609195402298, 0.818119618993008, 0.9040646040595202, 0.9592314397183459, 0.8690297056884578, 0.9278773865461014, 0.757355967130697, 0.9182975315227642, 0.8680872094420777, 0.8117300029214577, 0.8504174159288309, 0.8342685174609196, 0.8620312395262787, 0.9087326094301433, 0.8746579091406678, 0.8464276254732467, 0.8735286393548286, 0.8001642785440816, 0.8377879112691562, 0.8818618129009427, 0.8675424192665572, 0.8032317369344065, 0.9381330413358885, 0.7739869500757685, 0.8286339994525048, 0.8032854886840627, 0.8806134945957623, 0.818119618993008, 0.922622093326187, 0.9014240125028763, 0.8766598959667241, 0.7936507936507936, 0.8741105637657363, 0.8905866039745833, 0.8105666575417466, 0.8419324014795895, 0.8419324014795895, 0.8773946360153256, 0.8768472906403939, 0.8345422276044435, 0.8091979498379421, 0.8757186202745525, 0.9173508483853311, 0.9210493973053145, 0.8658637061357953, 0.8762661155044833, 0.8850260391833785, 0.8148350972707209]</t>
@@ -4627,7 +4627,7 @@
     <t>[0.9382929003305546, 0.8660188941096946, 0.6639299397920088, 0.5627480550851871, 0.8619559195821671, 0.9348441997255065, 0.8208567204282472, 0.820969066520668, 0.5980566635997734, 0.7925561029009304, 0.8939524639799377, 0.7741854349267786, 0.8129191262660536, 0.8383741696137784, 0.8694045255999313, 0.83830426750386, 0.8949096880131362, 0.9145907815996498, 0.7438740658337312, 0.8334017874118064, 0.7269368203926139, 0.8544433874434451, 0.8171866447728516, 0.7887171504845178, 0.91581109687664, 0.872982635675121, 0.801806734191076, 0.8614078334702822, 0.8236583929552405, 0.8767799781391888, 0.8229346736058201, 0.8751370425149431, 0.8254620819299416, 0.8264915161466886, 0.7840131692611184, 0.8066543989295121, 0.6666211671440062, 0.8876419954480846, 0.814946619217082, 0.7974822112753147, 0.8684729064039407, 0.7459622228305504, 0.8468172563944536, 0.7862031501808424, 0.8992884510125888, 0.9042985657950817, 0.8601150062215204, 0.8661374537507608, 0.7853231106243157, 0.7622827497141275]</t>
   </si>
   <si>
-    <t>[0.9478999948731882, 0.8653530377668308, 0.6677613574165299, 0.7518817642602185, 0.8892842563092281, 0.9483926663881951, 0.9237717343932427, 0.9018749229113286, 0.6588203154620844, 0.8638292129615033, 0.8892720845873725, 0.8520150503318069, 0.8419324014795895, 0.8033392712427161, 0.8488913540079359, 0.8515827136893481, 0.8724685276409413, 0.9030933817710998, 0.8048179879984946, 0.8811935725738619, 0.8695652239870983, 0.927710878152817, 0.8856048166392994, 0.8297961687389197, 0.8980429809019937, 0.8791425470191452, 0.835203941965508, 0.8687201280144958, 0.8303437644318091, 0.8440065681444991, 0.8570548952879249, 0.9244251112423176, 0.811225256636291, 0.7542419266557197, 0.8527640941434045, 0.8672828688765515, 0.719917871221861, 0.8799781114294147, 0.8456063509444294, 0.8325123152709359, 0.8995073891625613, 0.8156562277012928, 0.8885847581779297, 0.8215165925113884, 0.8734090679848406, 0.8656238518670435, 0.8915959819425499, 0.8560087919970383, 0.7820969359563602, 0.8400164304749219]</t>
+    <t>[0.9461756445706642, 0.8522167487684729, 0.6398467432950191, 0.732174633926496, 0.9024223431983764, 0.9543047245682774, 0.9120021982217139, 0.8813466621470344, 0.6850964892403811, 0.8719211822660098, 0.888149790588815, 0.8468081394420339, 0.8460380536324483, 0.8411112710490176, 0.8532713158473836, 0.855524085809403, 0.8593322386425835, 0.90610460553572, 0.8231590782011814, 0.832740244724973, 0.8636531658070161, 0.9352499077521329, 0.8899835796387521, 0.8232235258182156, 0.8776348206953191, 0.8717822458046292, 0.8343826991513826, 0.8760783321896093, 0.8685653000179597, 0.8270388615216201, 0.878250214049898, 0.8877328823008276, 0.821355305402927, 0.7438423645320197, 0.8762999452654625, 0.8608749818089783, 0.6961107590594655, 0.8892842563092282, 0.8537019376511182, 0.8341543513957307, 0.8901477832512312, 0.8131928364095773, 0.8721599012800013, 0.8111141831427005, 0.8812260536398466, 0.8781869754997182, 0.8792773392691036, 0.8451745459067825, 0.7730632646624995, 0.8328999667432998]</t>
   </si>
   <si>
     <t>[0.9693312057759864, 0.9091406677613574, 0.779967159277504, 0.7365539962228786, 0.9177501112357163, 0.9592314397183459, 0.8914739374574195, 0.8695771259755057, 0.7220473586161107, 0.9180238213792402, 0.8550314142943961, 0.8769534130144041, 0.8118242856919577, 0.8624606622438836, 0.8935122152473083, 0.8678408736845744, 0.8374384236453202, 0.8146729021372516, 0.8647687156759335, 0.9206132291288901, 0.8951841427674547, 0.9070500422666324, 0.8970990695128626, 0.8308916092257039, 0.8877634820695319, 0.8581988484494627, 0.8502600602244731, 0.8992333305353751, 0.8789705589715165, 0.8383741696137784, 0.9228685201673534, 0.8811611398038443, 0.8147844629597036, 0.7755883962780514, 0.9020251778872468, 0.8761553278931914, 0.8214041407152951, 0.8550704883687377, 0.8198740761018343, 0.8708264915161467, 0.9246305418719208, 0.8307102855951085, 0.8751711250446215, 0.8603887538364859, 0.8987411056376573, 0.8781869754997182, 0.8642212204460026, 0.8635181463524432, 0.8461538778582812, 0.8506911260723549]</t>
@@ -4639,13 +4639,13 @@
     <t>[0.9019462921901947, 0.8593322386425835, 0.615216201423098, 0.6985082862730534, 0.8635993055108271, 0.9469146518431745, 0.9284248068331493, 0.9059805750641875, 0.7121937934492495, 0.8313715066501456, 0.8745687796349433, 0.7936428387780357, 0.7371014165099266, 0.8356370681785391, 0.885847282028275, 0.8836063621647938, 0.8872468527640941, 0.7961670163579279, 0.7971530547794613, 0.8966461411871437, 0.8299051670290465, 0.6257702372782923, 0.8708264915161467, 0.7972068142570943, 0.844353190662947, 0.8239931088489643, 0.8068975031085271, 0.9071741851594696, 0.8242060381633225, 0.8762323329311068, 0.8871366281982569, 0.8970428508382207, 0.8337897355299079, 0.6655719759168035, 0.7391185604067808, 0.8179914298952186, 0.6134777496687908, 0.8922950678879914, 0.8505338078291815, 0.7941981390257252, 0.8487684729064038, 0.5997810019162333, 0.8828360582636547, 0.6372844476396243, 0.6803503010399562, 0.9363222142705272, 0.8587269074300691, 0.8666849489806918, 0.852997568232418, 0.8115505755484339]</t>
   </si>
   <si>
-    <t>[0.9491316736607055, 0.8275862068965517, 0.5670498084291188, 0.7332694745005917, 0.8308702791461413, 0.9318881706354656, 0.8269915138242542, 0.8569864593734052, 0.7130149238798213, 0.7782644693468436, 0.8592191221719544, 0.867909830942693, 0.7438679085427801, 0.8055289523909075, 0.8571037824569002, 0.8609434724744784, 0.8095238095238094, 0.8768136107344142, 0.8620312395262787, 0.8825623106486894, 0.8794186542872354, 0.8405202625289954, 0.7744937055281882, 0.7728332634261491, 0.8460380536324483, 0.8316295173315705, 0.8112768654049098, 0.8305038646509724, 0.69067512331696, 0.8784893267651889, 0.8186299663540582, 0.857064750648239, 0.8358659157983788, 0.8007662835249042, 0.7653983314434661, 0.9024150923505602, 0.7765156771773716, 0.8873682853045607, 0.874623597043526, 0.8385331143951834, 0.8487684729064038, 0.7826444018614839, 0.8614837442963478, 0.8346564780297313, 0.768472906403941, 0.8890257488298691, 0.8957021961670321, 0.8497125968528324, 0.8031755023087017, 0.8736827781283646]</t>
+    <t>[0.9491316736607055, 0.8275862068965517, 0.5670498084291188, 0.7332694745005917, 0.8308702791461413, 0.9318881706354656, 0.8269915138242542, 0.8569864593734052, 0.7130149238798213, 0.7782644693468436, 0.8592191221719544, 0.867909830942693, 0.7438679085427801, 0.8055289523909075, 0.8571037824569002, 0.8609434724744784, 0.8095238095238094, 0.8768136107344142, 0.8620312395262787, 0.8825623106486894, 0.8794186542872354, 0.8405202625289954, 0.7744937055281882, 0.7728332634261491, 0.8460380536324483, 0.8316295173315705, 0.8112768654049098, 0.8305038646509724, 0.6736957983186841, 0.8784893267651889, 0.8186299663540582, 0.857064750648239, 0.8358659157983788, 0.8007662835249042, 0.7653983314434661, 0.9024150923505602, 0.7765156771773716, 0.8873682853045607, 0.874623597043526, 0.8385331143951834, 0.8487684729064038, 0.7826444018614839, 0.8614837442963478, 0.8346564780297313, 0.768472906403941, 0.8890257488298691, 0.8957021961670321, 0.8497125968528324, 0.8031755023087017, 0.8736827781283646]</t>
   </si>
   <si>
     <t>[0.9146446676102256, 0.84685918406302, 0.5342090859332238, 0.6577254748879887, 0.8460698556051206, 0.9238635033767616, 0.8542493579381659, 0.8655899260881468, 0.6944026341201945, 0.8368464589494551, 0.8501725245817284, 0.8064165053551222, 0.7986861988028093, 0.8108404051464551, 0.8444900832035862, 0.8801576615597456, 0.8637110016420361, 0.8558521640766448, 0.8262833752985649, 0.8109514107469679, 0.7412242943278127, 0.9163587357278656, 0.8478379857690203, 0.8333563503209679, 0.9155373117953615, 0.8163114513100976, 0.6563569241703692, 0.834565872363736, 0.8608982671048125, 0.8943046247978109, 0.8863973476747583, 0.9364733058201204, 0.8142368927561017, 0.7646414887794198, 0.7911306072502209, 0.6149107012921272, 0.6184085822180374, 0.889831676596276, 0.8527237886668493, 0.7777777777777778, 0.889655172413793, 0.6996988776348207, 0.9080208388404785, 0.76758831236319, 0.8445539135194308, 0.9023278797350541, 0.8743498821997251, 0.7766219836570507, 0.822015334063527, 0.782537300334898]</t>
   </si>
   <si>
-    <t>[0.917960088691796, 0.8998357963875205, 0.645320197044335, 0.7551662859825056, 0.8126454161225296, 0.9345898004434591, 0.886547154873989, 0.8988641113325655, 0.6681264603418978, 0.8835045235117485, 0.8493285761140678, 0.7629494693225316, 0.8457643434889243, 0.7987955105392829, 0.8497125968528324, 0.8511948755851195, 0.920087575259989, 0.8113879307576659, 0.8081029593780803, 0.8895277290739023, 0.793201139161036, 0.8741958300505154, 0.8741105637657363, 0.7900864510929979, 0.9248460045588309, 0.8309928553830993, 0.8039967150287436, 0.8430566967953986, 0.8444689108623542, 0.8199233716475095, 0.8686383834485382, 0.9457832743575135, 0.8301164286605583, 0.7465790914066777, 0.8341543513957307, 0.8884781876385246, 0.6862423062246032, 0.901053792480757, 0.8587462359704354, 0.810071154898741, 0.9300492610837438, 0.8063500828214792, 0.8598412586065549, 0.7684095552080865, 0.9200439495776622, 0.8840990336798006, 0.8746064421442232, 0.8508075873126942, 0.7975359417643205, 0.8443957927713047]</t>
+    <t>[0.9226410445922643, 0.8921729611384784, 0.6245210727969349, 0.7372022994798797, 0.8805255317164626, 0.9304015767430402, 0.9095388069299984, 0.8947584591797065, 0.6536198227351299, 0.8795840175150519, 0.8978686775049791, 0.877775556839105, 0.8701245462625535, 0.8016970103815727, 0.8554612967671074, 0.8466559985392796, 0.9277504105090312, 0.8546400539222109, 0.8242540686610432, 0.8721599012800013, 0.7870427452234502, 0.9188228016440744, 0.8901053867398, 0.7657129002620526, 0.8983166910455176, 0.8481340130843001, 0.7859293731179853, 0.851588202790809, 0.8445844886239113, 0.8810729520035104, 0.8661903466991314, 0.9167580783291706, 0.8301164286605583, 0.7465790914066777, 0.8735632183908046, 0.8598891530293514, 0.6873374465497174, 0.8999589519066613, 0.8592937311798523, 0.8106185002736727, 0.9128078817733989, 0.7836321409089937, 0.8762661155044833, 0.8220640877413194, 0.9014240125028762, 0.9025742154925577, 0.8905009914826881, 0.8440794055816684, 0.7975359417643205, 0.8454906333454004]</t>
   </si>
   <si>
     <t>[0.8793889434729062, 0.8992884510125888, 0.6392993979200876, 0.7951279669369984, 0.843300952197209, 0.9397709148755752, 0.8011495900945248, 0.879430691142367, 0.7310797933524004, 0.8883110105629642, 0.906269251855109, 0.7536318393092536, 0.8624606622438836, 0.8556179086557855, 0.8472488683181431, 0.9210493973053145, 0.8850574712643678, 0.8502600920827633, 0.8588637999707084, 0.9229295089898814, 0.8436999694492384, 0.8536619474154422, 0.8972218504714221, 0.7553062156376043, 0.9148644949356693, 0.8015765549161523, 0.863947440459896, 0.8644578637333068, 0.8543265246078291, 0.7453127208156443, 0.9241006543731842, 0.9370209510282024, 0.8588638643496607, 0.79584017515052, 0.8730158730158729, 0.8531297241173238, 0.7363737067603278, 0.8786095607117952, 0.8592937311798523, 0.8149972632731254, 0.8807881773399013, 0.7455864309591682, 0.821790340126354, 0.8417739160188336, 0.8905309250136835, 0.9203103900328042, 0.8776348535793107, 0.7749794979672578, 0.8486176063929705, 0.8079923436826228]</t>
@@ -4663,190 +4663,196 @@
     <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.001}</t>
   </si>
   <si>
+    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'sqrt', 'regressor__regressor__n_estimators': 200}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__alpha': 0.1, 'regressor__regressor__kernel__k1__constant_value': 1.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 2, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.75, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.01}</t>
+  </si>
+  <si>
     <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'sqrt', 'regressor__regressor__n_estimators': 100}</t>
   </si>
   <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 150}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__alpha': 0.1, 'regressor__regressor__kernel__k1__constant_value': 1.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 2, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.75, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.01}</t>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 0.1, 'regressor__regressor__kernel__k1__constant_value': 10.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.01}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'auto', 'regressor__regressor__n_estimators': 200}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.4, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 4, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 100.0, 'regressor__regressor__gamma': 0.01}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.2, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 10.0, 'regressor__regressor__kernel__k2__length_scale': 100.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 3, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.001}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 10, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'euclidean', 'regressor__regressor__n_neighbors': 2, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.1}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.4, 'regressor__regressor__max_depth': 4, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'auto', 'regressor__regressor__n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 1.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 5, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'log2', 'regressor__regressor__n_estimators': 200}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 4, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 5, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__max_depth': 4, 'regressor__regressor__max_features': 'sqrt', 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 10, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 100.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.01}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'log2', 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 0.1, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__alpha': 1.0, 'regressor__regressor__kernel__k1__constant_value': 10.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'euclidean', 'regressor__regressor__n_neighbors': 4, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'sqrt', 'regressor__regressor__n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 0.1, 'regressor__regressor__kernel__k1__constant_value': 100.0, 'regressor__regressor__kernel__k2__length_scale': 100.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 4, 'regressor__regressor__min_child_weight': 10, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'euclidean', 'regressor__regressor__n_neighbors': 3, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 100.0, 'regressor__regressor__gamma': 0.1}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.4, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 6, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'auto', 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 1.0, 'regressor__regressor__kernel__k1__constant_value': 100.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 6, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 10.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'euclidean', 'regressor__regressor__n_neighbors': 3, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 200}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'euclidean', 'regressor__regressor__n_neighbors': 5, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__max_depth': 4, 'regressor__regressor__max_features': 'log2', 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.2, 'regressor__regressor__max_depth': 4, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 4, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__max_depth': 4, 'regressor__regressor__max_features': 'auto', 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 200}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 10, 'regressor__regressor__n_estimators': 200}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 0.1, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
+  </si>
+  <si>
+    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 2, 'regressor__regressor__weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'regressor__regressor__learning_rate': 0.2, 'regressor__regressor__max_depth': 4, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 100}</t>
   </si>
   <si>
     <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'log2', 'regressor__regressor__n_estimators': 150}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 0.1, 'regressor__regressor__kernel__k1__constant_value': 10.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__max_depth': 4, 'regressor__regressor__max_features': 'auto', 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.4, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 4, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 100.0, 'regressor__regressor__gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.2, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 10.0, 'regressor__regressor__kernel__k2__length_scale': 100.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 3, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.001}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 10, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'euclidean', 'regressor__regressor__n_neighbors': 2, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.1}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'log2', 'regressor__regressor__n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.4, 'regressor__regressor__max_depth': 4, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'auto', 'regressor__regressor__n_estimators': 150}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 1.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 5, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'sqrt', 'regressor__regressor__n_estimators': 150}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 4, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 5, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 10, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 100.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 1000.0, 'regressor__regressor__gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'log2', 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 0.1, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__alpha': 1.0, 'regressor__regressor__kernel__k1__constant_value': 10.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'euclidean', 'regressor__regressor__n_neighbors': 4, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 0.1, 'regressor__regressor__kernel__k1__constant_value': 100.0, 'regressor__regressor__kernel__k2__length_scale': 100.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 4, 'regressor__regressor__min_child_weight': 10, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'euclidean', 'regressor__regressor__n_neighbors': 3, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__C': 100.0, 'regressor__regressor__gamma': 0.1}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.4, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 150}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 6, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 1.0, 'regressor__regressor__kernel__k1__constant_value': 100.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 6, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 10.0, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'euclidean', 'regressor__regressor__n_neighbors': 3, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 150}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'auto', 'regressor__regressor__n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'euclidean', 'regressor__regressor__n_neighbors': 5, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.2, 'regressor__regressor__max_depth': 4, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 100, 'regressor__feature_selection__estimator__l1_ratio': 0.5}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 0.5, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 4, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'auto', 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 5, 'regressor__regressor__n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.1, 'regressor__regressor__max_depth': 3, 'regressor__regressor__min_child_weight': 10, 'regressor__regressor__n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__alpha': 0.01, 'regressor__regressor__kernel__k1__constant_value': 0.1, 'regressor__regressor__kernel__k2__length_scale': 10.0}</t>
-  </si>
-  <si>
-    <t>{'regressor__feature_selection__estimator__alpha': 10, 'regressor__feature_selection__estimator__l1_ratio': 1, 'regressor__regressor__metric': 'manhattan', 'regressor__regressor__n_neighbors': 2, 'regressor__regressor__weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__max_depth': 5, 'regressor__regressor__max_features': 'sqrt', 'regressor__regressor__n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'regressor__regressor__learning_rate': 0.2, 'regressor__regressor__max_depth': 4, 'regressor__regressor__min_child_weight': 1, 'regressor__regressor__n_estimators': 100}</t>
   </si>
   <si>
     <t>{'regressor__regressor__learning_rate': 0.4, 'regressor__regressor__max_depth': 5, 'regressor__regressor__min_child_weight': 10, 'regressor__regressor__n_estimators': 200}</t>
@@ -5658,7 +5664,7 @@
         <v>1545</v>
       </c>
       <c r="AA2" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="AB2">
         <v>20</v>
@@ -5744,7 +5750,7 @@
         <v>1546</v>
       </c>
       <c r="AA3" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="AB3">
         <v>20</v>
@@ -5767,10 +5773,10 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>6.795838023258457</v>
+        <v>6.774409451829886</v>
       </c>
       <c r="G4">
-        <v>11.5152605687607</v>
+        <v>11.46843821187055</v>
       </c>
       <c r="H4">
         <v>45.35745751969995</v>
@@ -5779,10 +5785,10 @@
         <v>7.088346651060832</v>
       </c>
       <c r="J4">
-        <v>50.4045446493009</v>
+        <v>50.40347217111454</v>
       </c>
       <c r="K4">
-        <v>2.629700180075734</v>
+        <v>2.629815355829062</v>
       </c>
       <c r="L4">
         <v>64.67778403383215</v>
@@ -5830,7 +5836,7 @@
         <v>1547</v>
       </c>
       <c r="AA4" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -5916,7 +5922,7 @@
         <v>1548</v>
       </c>
       <c r="AA5" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -5939,46 +5945,46 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>23.5415885379438</v>
+        <v>23.56416137054395</v>
       </c>
       <c r="G6">
-        <v>3.095376625285501</v>
+        <v>3.691178020977675</v>
       </c>
       <c r="H6">
-        <v>45.76220192657242</v>
+        <v>46.09601756517932</v>
       </c>
       <c r="I6">
-        <v>7.969238655811208</v>
+        <v>7.514436349557798</v>
       </c>
       <c r="J6">
-        <v>57.03875758334957</v>
+        <v>57.15123118033122</v>
       </c>
       <c r="K6">
-        <v>3.474079573277723</v>
+        <v>3.495233229462514</v>
       </c>
       <c r="L6">
-        <v>60.98279703081621</v>
+        <v>61.67941952155243</v>
       </c>
       <c r="M6">
-        <v>10.651877445503</v>
+        <v>10.10390158972958</v>
       </c>
       <c r="N6">
-        <v>0.6690631673659163</v>
+        <v>0.6616124594531366</v>
       </c>
       <c r="O6">
-        <v>0.1016557092353993</v>
+        <v>0.1025379243452297</v>
       </c>
       <c r="P6">
-        <v>0.8462337918387669</v>
+        <v>0.8415996822858048</v>
       </c>
       <c r="Q6">
-        <v>0.06774792551521043</v>
+        <v>0.06984985771013144</v>
       </c>
       <c r="R6">
-        <v>0.8422150275945625</v>
+        <v>0.8374190029241962</v>
       </c>
       <c r="S6">
-        <v>0.06667745350663781</v>
+        <v>0.07094709038926025</v>
       </c>
       <c r="T6" t="s">
         <v>253</v>
@@ -6002,7 +6008,7 @@
         <v>1549</v>
       </c>
       <c r="AA6" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -6088,7 +6094,7 @@
         <v>1550</v>
       </c>
       <c r="AA7" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -6174,7 +6180,7 @@
         <v>1545</v>
       </c>
       <c r="AA8" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AB8">
         <v>16</v>
@@ -6260,7 +6266,7 @@
         <v>1551</v>
       </c>
       <c r="AA9" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -6283,46 +6289,46 @@
         <v>4</v>
       </c>
       <c r="F10">
-        <v>1.320562669938832</v>
+        <v>1.318464455653118</v>
       </c>
       <c r="G10">
-        <v>4.459823099464427</v>
+        <v>4.456055689734729</v>
       </c>
       <c r="H10">
-        <v>43.89993099455143</v>
+        <v>43.82786202903419</v>
       </c>
       <c r="I10">
-        <v>7.357069556896466</v>
+        <v>7.427675877281637</v>
       </c>
       <c r="J10">
-        <v>51.21373221975892</v>
+        <v>51.21938357747295</v>
       </c>
       <c r="K10">
-        <v>2.65749858568357</v>
+        <v>2.658441561353454</v>
       </c>
       <c r="L10">
-        <v>63.28062508314493</v>
+        <v>63.04724218892029</v>
       </c>
       <c r="M10">
-        <v>10.04419958007739</v>
+        <v>10.21877505682656</v>
       </c>
       <c r="N10">
-        <v>0.6429452396653426</v>
+        <v>0.6447542825604831</v>
       </c>
       <c r="O10">
-        <v>0.1027456590921349</v>
+        <v>0.1051532839220231</v>
       </c>
       <c r="P10">
-        <v>0.8264442490547692</v>
+        <v>0.8273344605043559</v>
       </c>
       <c r="Q10">
-        <v>0.05093491544918782</v>
+        <v>0.05212813063095062</v>
       </c>
       <c r="R10">
-        <v>0.8298470604843133</v>
+        <v>0.8305667154934409</v>
       </c>
       <c r="S10">
-        <v>0.04728318485671316</v>
+        <v>0.04862554027189469</v>
       </c>
       <c r="T10" t="s">
         <v>257</v>
@@ -6346,7 +6352,7 @@
         <v>1552</v>
       </c>
       <c r="AA10" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AB10">
         <v>123</v>
@@ -6432,7 +6438,7 @@
         <v>1553</v>
       </c>
       <c r="AA11" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AB11">
         <v>88</v>
@@ -6455,46 +6461,46 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>24.39852511448175</v>
+        <v>25.24670779138174</v>
       </c>
       <c r="G12">
-        <v>2.248972373877345</v>
+        <v>3.110582873929519</v>
       </c>
       <c r="H12">
-        <v>46.02320216038933</v>
+        <v>46.28144525892649</v>
       </c>
       <c r="I12">
-        <v>7.63405640618249</v>
+        <v>7.867774046406413</v>
       </c>
       <c r="J12">
-        <v>57.5812046368941</v>
+        <v>57.59975925726543</v>
       </c>
       <c r="K12">
-        <v>3.583341053236583</v>
+        <v>3.549670350344414</v>
       </c>
       <c r="L12">
-        <v>61.99163517618158</v>
+        <v>62.29118622891158</v>
       </c>
       <c r="M12">
-        <v>10.86916493561288</v>
+        <v>10.55126101279619</v>
       </c>
       <c r="N12">
-        <v>0.658385474002941</v>
+        <v>0.657054930109413</v>
       </c>
       <c r="O12">
-        <v>0.1071827525644265</v>
+        <v>0.09466750809287908</v>
       </c>
       <c r="P12">
-        <v>0.8380208341960953</v>
+        <v>0.8386837454094095</v>
       </c>
       <c r="Q12">
-        <v>0.0720581752598861</v>
+        <v>0.06702235076080461</v>
       </c>
       <c r="R12">
-        <v>0.8420030207548512</v>
+        <v>0.8387596027257226</v>
       </c>
       <c r="S12">
-        <v>0.06432969434288319</v>
+        <v>0.06426875271409783</v>
       </c>
       <c r="T12" t="s">
         <v>259</v>
@@ -6518,7 +6524,7 @@
         <v>1554</v>
       </c>
       <c r="AA12" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -6604,7 +6610,7 @@
         <v>1550</v>
       </c>
       <c r="AA13" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -6630,37 +6636,37 @@
         <v>40.54647863192139</v>
       </c>
       <c r="G14">
-        <v>2.682756827329923</v>
+        <v>2.682756827329919</v>
       </c>
       <c r="H14">
         <v>60.28002660013762</v>
       </c>
       <c r="I14">
-        <v>7.877949671520834</v>
+        <v>7.877949671520823</v>
       </c>
       <c r="J14">
-        <v>71.96520109566809</v>
+        <v>71.96520109566781</v>
       </c>
       <c r="K14">
-        <v>5.191490620030798</v>
+        <v>5.191490620030761</v>
       </c>
       <c r="L14">
         <v>79.09948228411831</v>
       </c>
       <c r="M14">
-        <v>11.85859960395999</v>
+        <v>11.85859960396</v>
       </c>
       <c r="N14">
-        <v>0.4370829065548442</v>
+        <v>0.4370829065548441</v>
       </c>
       <c r="O14">
-        <v>0.1678207500771813</v>
+        <v>0.1678207500771814</v>
       </c>
       <c r="P14">
-        <v>0.7010963834606102</v>
+        <v>0.7010963834606103</v>
       </c>
       <c r="Q14">
-        <v>0.08996973216716136</v>
+        <v>0.08996973216716135</v>
       </c>
       <c r="R14">
         <v>0.7023682780029307</v>
@@ -6690,7 +6696,7 @@
         <v>1545</v>
       </c>
       <c r="AA14" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AB14">
         <v>19</v>
@@ -6776,7 +6782,7 @@
         <v>1555</v>
       </c>
       <c r="AA15" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AB15">
         <v>32</v>
@@ -6799,46 +6805,46 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>6.502845235668798</v>
+        <v>5.909211017379712</v>
       </c>
       <c r="G16">
-        <v>10.02668850382562</v>
+        <v>9.436807127934205</v>
       </c>
       <c r="H16">
-        <v>47.06699368941839</v>
+        <v>46.90954862586322</v>
       </c>
       <c r="I16">
-        <v>8.820478898909579</v>
+        <v>8.904262469662378</v>
       </c>
       <c r="J16">
-        <v>50.69955943230144</v>
+        <v>50.69145045835687</v>
       </c>
       <c r="K16">
-        <v>2.724446544173604</v>
+        <v>2.732957412119737</v>
       </c>
       <c r="L16">
-        <v>67.87837663145841</v>
+        <v>67.77079122216831</v>
       </c>
       <c r="M16">
-        <v>14.98233678443881</v>
+        <v>15.05685519022961</v>
       </c>
       <c r="N16">
-        <v>0.5834610471079809</v>
+        <v>0.584590631809535</v>
       </c>
       <c r="O16">
-        <v>0.1716583459178794</v>
+        <v>0.172406012624078</v>
       </c>
       <c r="P16">
-        <v>0.7911103723983741</v>
+        <v>0.7916489740709167</v>
       </c>
       <c r="Q16">
-        <v>0.09137562801312428</v>
+        <v>0.09173106163182651</v>
       </c>
       <c r="R16">
-        <v>0.7926563651136053</v>
+        <v>0.7933167793863791</v>
       </c>
       <c r="S16">
-        <v>0.07057742266932084</v>
+        <v>0.07112655613280046</v>
       </c>
       <c r="T16" t="s">
         <v>263</v>
@@ -6862,7 +6868,7 @@
         <v>1547</v>
       </c>
       <c r="AA16" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -6948,7 +6954,7 @@
         <v>1556</v>
       </c>
       <c r="AA17" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AB17">
         <v>32</v>
@@ -6971,46 +6977,46 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>19.22139371070962</v>
+        <v>19.24328684235213</v>
       </c>
       <c r="G18">
-        <v>2.106983116959953</v>
+        <v>2.146782753760137</v>
       </c>
       <c r="H18">
-        <v>41.01125955212542</v>
+        <v>41.47377153341547</v>
       </c>
       <c r="I18">
-        <v>6.548928763870932</v>
+        <v>6.570070858371237</v>
       </c>
       <c r="J18">
-        <v>50.24627310587442</v>
+        <v>50.15629156563519</v>
       </c>
       <c r="K18">
-        <v>3.631484651959256</v>
+        <v>3.478726511667125</v>
       </c>
       <c r="L18">
-        <v>58.22713503338132</v>
+        <v>58.79947609090306</v>
       </c>
       <c r="M18">
-        <v>11.10924452034423</v>
+        <v>11.05410335951935</v>
       </c>
       <c r="N18">
-        <v>0.6961774942418667</v>
+        <v>0.6900308530687504</v>
       </c>
       <c r="O18">
-        <v>0.107481024218657</v>
+        <v>0.1081505950419573</v>
       </c>
       <c r="P18">
-        <v>0.8478674654840408</v>
+        <v>0.8449220939900668</v>
       </c>
       <c r="Q18">
-        <v>0.06243099707649452</v>
+        <v>0.0613917011429173</v>
       </c>
       <c r="R18">
-        <v>0.8525634810570808</v>
+        <v>0.8474455348885901</v>
       </c>
       <c r="S18">
-        <v>0.0631365051094761</v>
+        <v>0.0622709824417238</v>
       </c>
       <c r="T18" t="s">
         <v>265</v>
@@ -7034,7 +7040,7 @@
         <v>1557</v>
       </c>
       <c r="AA18" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -7120,7 +7126,7 @@
         <v>1558</v>
       </c>
       <c r="AA19" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -7206,7 +7212,7 @@
         <v>1545</v>
       </c>
       <c r="AA20" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="AB20">
         <v>15</v>
@@ -7292,7 +7298,7 @@
         <v>1555</v>
       </c>
       <c r="AA21" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AB21">
         <v>31</v>
@@ -7315,46 +7321,46 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>2.560041990767779</v>
+        <v>2.559157035015567</v>
       </c>
       <c r="G22">
-        <v>5.951163151408257</v>
+        <v>5.947685689469869</v>
       </c>
       <c r="H22">
-        <v>45.49117900978885</v>
+        <v>45.41721679371096</v>
       </c>
       <c r="I22">
-        <v>9.349631591911198</v>
+        <v>9.36978650220486</v>
       </c>
       <c r="J22">
-        <v>50.00676573881086</v>
+        <v>50.01646963747243</v>
       </c>
       <c r="K22">
-        <v>3.003619088234896</v>
+        <v>3.016078742037259</v>
       </c>
       <c r="L22">
-        <v>65.92260093085157</v>
+        <v>65.92607350086764</v>
       </c>
       <c r="M22">
-        <v>15.81782197746544</v>
+        <v>15.88100612512596</v>
       </c>
       <c r="N22">
-        <v>0.6080281353870145</v>
+        <v>0.6076980514240453</v>
       </c>
       <c r="O22">
-        <v>0.1670944036288198</v>
+        <v>0.1685720500641593</v>
       </c>
       <c r="P22">
-        <v>0.805172609575322</v>
+        <v>0.8051593488331761</v>
       </c>
       <c r="Q22">
-        <v>0.09131519466592351</v>
+        <v>0.09195616675111157</v>
       </c>
       <c r="R22">
-        <v>0.8152949213684567</v>
+        <v>0.8152293478966652</v>
       </c>
       <c r="S22">
-        <v>0.07530513348215011</v>
+        <v>0.07570541874694936</v>
       </c>
       <c r="T22" t="s">
         <v>269</v>
@@ -7378,7 +7384,7 @@
         <v>1559</v>
       </c>
       <c r="AA22" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -7464,7 +7470,7 @@
         <v>1560</v>
       </c>
       <c r="AA23" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="AB23">
         <v>131</v>
@@ -7487,46 +7493,46 @@
         <v>6</v>
       </c>
       <c r="F24">
-        <v>23.83955941480137</v>
+        <v>23.97542215686951</v>
       </c>
       <c r="G24">
-        <v>2.044264815571518</v>
+        <v>2.326912960139747</v>
       </c>
       <c r="H24">
-        <v>45.19536853619729</v>
+        <v>45.4933072106785</v>
       </c>
       <c r="I24">
-        <v>7.999300240634956</v>
+        <v>7.901784780611875</v>
       </c>
       <c r="J24">
-        <v>55.74409220399626</v>
+        <v>55.82881096082454</v>
       </c>
       <c r="K24">
-        <v>3.215450546026072</v>
+        <v>3.215163594498575</v>
       </c>
       <c r="L24">
-        <v>61.89249937973415</v>
+        <v>62.34935187506519</v>
       </c>
       <c r="M24">
-        <v>11.67591431502498</v>
+        <v>11.33300493491526</v>
       </c>
       <c r="N24">
-        <v>0.657456059394842</v>
+        <v>0.6545293965874585</v>
       </c>
       <c r="O24">
-        <v>0.1191289210274663</v>
+        <v>0.1076068061082745</v>
       </c>
       <c r="P24">
-        <v>0.8326213287332892</v>
+        <v>0.8323394746149003</v>
       </c>
       <c r="Q24">
-        <v>0.07837854259956069</v>
+        <v>0.07027128726366624</v>
       </c>
       <c r="R24">
-        <v>0.8378408165368491</v>
+        <v>0.8345878106658919</v>
       </c>
       <c r="S24">
-        <v>0.06721784304094333</v>
+        <v>0.06462099494708318</v>
       </c>
       <c r="T24" t="s">
         <v>271</v>
@@ -7550,7 +7556,7 @@
         <v>1554</v>
       </c>
       <c r="AA24" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -7636,7 +7642,7 @@
         <v>1561</v>
       </c>
       <c r="AA25" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -7722,7 +7728,7 @@
         <v>1545</v>
       </c>
       <c r="AA26" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="AB26">
         <v>20</v>
@@ -7808,7 +7814,7 @@
         <v>1562</v>
       </c>
       <c r="AA27" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AB27">
         <v>143</v>
@@ -7831,46 +7837,46 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <v>7.498757893016882</v>
+        <v>7.791554345267746</v>
       </c>
       <c r="G28">
-        <v>11.21138598233162</v>
+        <v>11.39335611479059</v>
       </c>
       <c r="H28">
-        <v>45.48864245779367</v>
+        <v>45.18632945709278</v>
       </c>
       <c r="I28">
-        <v>6.565071832135295</v>
+        <v>6.251491317114144</v>
       </c>
       <c r="J28">
-        <v>50.74676142985607</v>
+        <v>50.76445097812748</v>
       </c>
       <c r="K28">
-        <v>2.940540177232922</v>
+        <v>2.929011778539311</v>
       </c>
       <c r="L28">
-        <v>64.67792482477614</v>
+        <v>64.16270029914875</v>
       </c>
       <c r="M28">
-        <v>8.921906277314395</v>
+        <v>8.314993574645314</v>
       </c>
       <c r="N28">
-        <v>0.6203735803340482</v>
+        <v>0.6279576972714872</v>
       </c>
       <c r="O28">
-        <v>0.1253172086753256</v>
+        <v>0.1132767423708502</v>
       </c>
       <c r="P28">
-        <v>0.8118610878081948</v>
+        <v>0.8151289801836282</v>
       </c>
       <c r="Q28">
-        <v>0.06687318862536812</v>
+        <v>0.06221005230208881</v>
       </c>
       <c r="R28">
-        <v>0.8015217771858331</v>
+        <v>0.8052517128600714</v>
       </c>
       <c r="S28">
-        <v>0.07538776318433416</v>
+        <v>0.06968924785167994</v>
       </c>
       <c r="T28" t="s">
         <v>275</v>
@@ -7894,7 +7900,7 @@
         <v>1563</v>
       </c>
       <c r="AA28" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -7980,7 +7986,7 @@
         <v>1564</v>
       </c>
       <c r="AA29" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AB29">
         <v>143</v>
@@ -8003,46 +8009,46 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <v>23.77894218666362</v>
+        <v>24.49658307525954</v>
       </c>
       <c r="G30">
-        <v>3.16496387561259</v>
+        <v>3.131038758151061</v>
       </c>
       <c r="H30">
-        <v>45.30622512988825</v>
+        <v>46.12217290193865</v>
       </c>
       <c r="I30">
-        <v>7.401862140615148</v>
+        <v>7.270164632790248</v>
       </c>
       <c r="J30">
-        <v>56.39824615049471</v>
+        <v>56.35349879387228</v>
       </c>
       <c r="K30">
-        <v>3.132244512120501</v>
+        <v>3.175294611422261</v>
       </c>
       <c r="L30">
-        <v>60.58601277893513</v>
+        <v>61.48220868154956</v>
       </c>
       <c r="M30">
-        <v>9.925901718396185</v>
+        <v>9.854286370897571</v>
       </c>
       <c r="N30">
-        <v>0.67390951034403</v>
+        <v>0.6642997753123714</v>
       </c>
       <c r="O30">
-        <v>0.09454339540631344</v>
+        <v>0.09639051716558766</v>
       </c>
       <c r="P30">
-        <v>0.8473082292788899</v>
+        <v>0.8426240859140139</v>
       </c>
       <c r="Q30">
-        <v>0.06477546920929528</v>
+        <v>0.06637353343059836</v>
       </c>
       <c r="R30">
-        <v>0.8454768750991678</v>
+        <v>0.8372863135319105</v>
       </c>
       <c r="S30">
-        <v>0.06068961906593303</v>
+        <v>0.06227880121505997</v>
       </c>
       <c r="T30" t="s">
         <v>277</v>
@@ -8066,7 +8072,7 @@
         <v>1554</v>
       </c>
       <c r="AA30" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -8152,7 +8158,7 @@
         <v>1565</v>
       </c>
       <c r="AA31" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -8238,7 +8244,7 @@
         <v>1545</v>
       </c>
       <c r="AA32" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AB32">
         <v>20</v>
@@ -8324,7 +8330,7 @@
         <v>1551</v>
       </c>
       <c r="AA33" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -8359,10 +8365,10 @@
         <v>8.969846689476668</v>
       </c>
       <c r="J34">
-        <v>49.92259411736212</v>
+        <v>49.92204484245524</v>
       </c>
       <c r="K34">
-        <v>2.986696172000068</v>
+        <v>2.98938290784558</v>
       </c>
       <c r="L34">
         <v>64.10371942855804</v>
@@ -8410,7 +8416,7 @@
         <v>1566</v>
       </c>
       <c r="AA34" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AB34">
         <v>134</v>
@@ -8496,7 +8502,7 @@
         <v>1567</v>
       </c>
       <c r="AA35" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AB35">
         <v>30</v>
@@ -8519,46 +8525,46 @@
         <v>4</v>
       </c>
       <c r="F36">
-        <v>25.00511870436697</v>
+        <v>24.20677665404669</v>
       </c>
       <c r="G36">
-        <v>2.182940043090249</v>
+        <v>2.094562611676065</v>
       </c>
       <c r="H36">
-        <v>46.25047724780951</v>
+        <v>45.18174786183283</v>
       </c>
       <c r="I36">
-        <v>7.663199814672255</v>
+        <v>7.358814197322169</v>
       </c>
       <c r="J36">
-        <v>56.44795724208799</v>
+        <v>56.38314211026916</v>
       </c>
       <c r="K36">
-        <v>3.51326830202113</v>
+        <v>3.456287998865475</v>
       </c>
       <c r="L36">
-        <v>62.11228309254272</v>
+        <v>61.09712799666898</v>
       </c>
       <c r="M36">
-        <v>10.65246512876642</v>
+        <v>10.36386336391637</v>
       </c>
       <c r="N36">
-        <v>0.6577079825581897</v>
+        <v>0.6693630603907934</v>
       </c>
       <c r="O36">
-        <v>0.1000945884721947</v>
+        <v>0.09663655676720742</v>
       </c>
       <c r="P36">
-        <v>0.8357541628516749</v>
+        <v>0.8420404993026943</v>
       </c>
       <c r="Q36">
-        <v>0.06757047838140116</v>
+        <v>0.06609516059311818</v>
       </c>
       <c r="R36">
-        <v>0.8354771160928699</v>
+        <v>0.8458288038352886</v>
       </c>
       <c r="S36">
-        <v>0.06940069816032804</v>
+        <v>0.06298744255958388</v>
       </c>
       <c r="T36" t="s">
         <v>283</v>
@@ -8579,10 +8585,10 @@
         <v>1363</v>
       </c>
       <c r="Z36" t="s">
-        <v>1568</v>
+        <v>1554</v>
       </c>
       <c r="AA36" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -8665,10 +8671,10 @@
         <v>1364</v>
       </c>
       <c r="Z37" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="AA37" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -8694,37 +8700,37 @@
         <v>37.5699424746454</v>
       </c>
       <c r="G38">
-        <v>2.754363897187955</v>
+        <v>2.75436389718796</v>
       </c>
       <c r="H38">
         <v>55.60207700689737</v>
       </c>
       <c r="I38">
-        <v>9.56984037593222</v>
+        <v>9.569840375932225</v>
       </c>
       <c r="J38">
-        <v>69.8978019932223</v>
+        <v>69.89780199322115</v>
       </c>
       <c r="K38">
-        <v>5.017082954408804</v>
+        <v>5.017082954408572</v>
       </c>
       <c r="L38">
-        <v>72.91081021007039</v>
+        <v>72.91081021007041</v>
       </c>
       <c r="M38">
-        <v>13.54538491720693</v>
+        <v>13.54538491720696</v>
       </c>
       <c r="N38">
-        <v>0.5234831457105672</v>
+        <v>0.5234831457105671</v>
       </c>
       <c r="O38">
-        <v>0.1546504809289112</v>
+        <v>0.1546504809289116</v>
       </c>
       <c r="P38">
         <v>0.7495090591331539</v>
       </c>
       <c r="Q38">
-        <v>0.09393103126716251</v>
+        <v>0.09393103126716257</v>
       </c>
       <c r="R38">
         <v>0.7516867279528624</v>
@@ -8754,7 +8760,7 @@
         <v>1545</v>
       </c>
       <c r="AA38" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="AB38">
         <v>21</v>
@@ -8840,7 +8846,7 @@
         <v>1555</v>
       </c>
       <c r="AA39" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AB39">
         <v>38</v>
@@ -8875,10 +8881,10 @@
         <v>8.918598057605251</v>
       </c>
       <c r="J40">
-        <v>50.25038431997307</v>
+        <v>50.25369425378874</v>
       </c>
       <c r="K40">
-        <v>3.017025654208285</v>
+        <v>3.022884805700553</v>
       </c>
       <c r="L40">
         <v>67.14468329221326</v>
@@ -8926,7 +8932,7 @@
         <v>1563</v>
       </c>
       <c r="AA40" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -9012,7 +9018,7 @@
         <v>1556</v>
       </c>
       <c r="AA41" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AB41">
         <v>38</v>
@@ -9035,46 +9041,46 @@
         <v>5</v>
       </c>
       <c r="F42">
-        <v>19.00577153490738</v>
+        <v>20.09272519767667</v>
       </c>
       <c r="G42">
-        <v>1.462737987840032</v>
+        <v>2.262720720156987</v>
       </c>
       <c r="H42">
-        <v>41.6779094807515</v>
+        <v>42.07648615514904</v>
       </c>
       <c r="I42">
-        <v>7.087343734325242</v>
+        <v>7.141575541508047</v>
       </c>
       <c r="J42">
-        <v>51.47697144954428</v>
+        <v>51.51950870418813</v>
       </c>
       <c r="K42">
-        <v>3.44944619874667</v>
+        <v>3.490326494808166</v>
       </c>
       <c r="L42">
-        <v>58.54933452653606</v>
+        <v>58.83929872229075</v>
       </c>
       <c r="M42">
-        <v>10.65217448951882</v>
+        <v>10.40330169458679</v>
       </c>
       <c r="N42">
-        <v>0.6933399331097906</v>
+        <v>0.6903792882212033</v>
       </c>
       <c r="O42">
-        <v>0.1015755583082367</v>
+        <v>0.1018706382972204</v>
       </c>
       <c r="P42">
-        <v>0.8461700154201403</v>
+        <v>0.843611769085105</v>
       </c>
       <c r="Q42">
-        <v>0.0575218245876436</v>
+        <v>0.06092968856351393</v>
       </c>
       <c r="R42">
-        <v>0.8503639923053739</v>
+        <v>0.8505954394072966</v>
       </c>
       <c r="S42">
-        <v>0.05619302319171351</v>
+        <v>0.05861280075617539</v>
       </c>
       <c r="T42" t="s">
         <v>289</v>
@@ -9095,10 +9101,10 @@
         <v>1369</v>
       </c>
       <c r="Z42" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="AA42" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -9181,10 +9187,10 @@
         <v>1370</v>
       </c>
       <c r="Z43" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="AA43" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -9270,7 +9276,7 @@
         <v>1545</v>
       </c>
       <c r="AA44" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="AB44">
         <v>16</v>
@@ -9353,10 +9359,10 @@
         <v>1372</v>
       </c>
       <c r="Z45" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="AA45" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AB45">
         <v>38</v>
@@ -9379,10 +9385,10 @@
         <v>6</v>
       </c>
       <c r="F46">
-        <v>3.644919329813516</v>
+        <v>3.661615495005257</v>
       </c>
       <c r="G46">
-        <v>8.362023460357099</v>
+        <v>8.413186796091287</v>
       </c>
       <c r="H46">
         <v>45.74444650141084</v>
@@ -9397,28 +9403,28 @@
         <v>2.714597822063305</v>
       </c>
       <c r="L46">
-        <v>65.88807930505237</v>
+        <v>65.88491479709764</v>
       </c>
       <c r="M46">
-        <v>15.83793657070006</v>
+        <v>15.83955546156077</v>
       </c>
       <c r="N46">
-        <v>0.6112987189780432</v>
+        <v>0.6113321541813462</v>
       </c>
       <c r="O46">
-        <v>0.1575182245907086</v>
+        <v>0.1575359308358664</v>
       </c>
       <c r="P46">
-        <v>0.8039663640017778</v>
+        <v>0.8039901106527216</v>
       </c>
       <c r="Q46">
-        <v>0.08680279607794973</v>
+        <v>0.08681672757576839</v>
       </c>
       <c r="R46">
-        <v>0.8090801752043123</v>
+        <v>0.8090692027600593</v>
       </c>
       <c r="S46">
-        <v>0.08518997674269579</v>
+        <v>0.08518483513689443</v>
       </c>
       <c r="T46" t="s">
         <v>293</v>
@@ -9439,10 +9445,10 @@
         <v>1373</v>
       </c>
       <c r="Z46" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="AA46" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="AB46">
         <v>134</v>
@@ -9528,7 +9534,7 @@
         <v>1567</v>
       </c>
       <c r="AA47" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AB47">
         <v>38</v>
@@ -9551,46 +9557,46 @@
         <v>6</v>
       </c>
       <c r="F48">
-        <v>24.79354313013141</v>
+        <v>24.93510993123359</v>
       </c>
       <c r="G48">
-        <v>2.406684725517684</v>
+        <v>2.947332988476647</v>
       </c>
       <c r="H48">
-        <v>45.43732351774298</v>
+        <v>45.63911407442846</v>
       </c>
       <c r="I48">
-        <v>7.936970717772168</v>
+        <v>7.821918631656842</v>
       </c>
       <c r="J48">
-        <v>56.12305298884325</v>
+        <v>56.10057329274754</v>
       </c>
       <c r="K48">
-        <v>3.230202440759665</v>
+        <v>3.324277320333954</v>
       </c>
       <c r="L48">
-        <v>61.70742028621519</v>
+        <v>62.0188342378086</v>
       </c>
       <c r="M48">
-        <v>11.1498734254849</v>
+        <v>10.99806713497275</v>
       </c>
       <c r="N48">
-        <v>0.6606531106598195</v>
+        <v>0.658166611109276</v>
       </c>
       <c r="O48">
-        <v>0.1105809827780757</v>
+        <v>0.1045823572937132</v>
       </c>
       <c r="P48">
-        <v>0.8363868919781347</v>
+        <v>0.8337937477985085</v>
       </c>
       <c r="Q48">
-        <v>0.07407347643960974</v>
+        <v>0.07071917293735462</v>
       </c>
       <c r="R48">
-        <v>0.8396203048618616</v>
+        <v>0.8377521378866812</v>
       </c>
       <c r="S48">
-        <v>0.0680762579027973</v>
+        <v>0.06622576034367159</v>
       </c>
       <c r="T48" t="s">
         <v>295</v>
@@ -9611,10 +9617,10 @@
         <v>1375</v>
       </c>
       <c r="Z48" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="AA48" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -9697,10 +9703,10 @@
         <v>1376</v>
       </c>
       <c r="Z49" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="AA49" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -9786,7 +9792,7 @@
         <v>1545</v>
       </c>
       <c r="AA50" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AB50">
         <v>22</v>
@@ -9872,7 +9878,7 @@
         <v>1562</v>
       </c>
       <c r="AA51" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="AB51">
         <v>135</v>
@@ -9895,46 +9901,46 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <v>9.304609290791785</v>
+        <v>9.093742017499418</v>
       </c>
       <c r="G52">
-        <v>11.81682324509137</v>
+        <v>11.88670145296408</v>
       </c>
       <c r="H52">
-        <v>44.71225992250654</v>
+        <v>44.52766389247118</v>
       </c>
       <c r="I52">
-        <v>6.687419165325199</v>
+        <v>6.69796136954272</v>
       </c>
       <c r="J52">
-        <v>49.07573368264284</v>
+        <v>49.10394660945251</v>
       </c>
       <c r="K52">
-        <v>2.380487924931697</v>
+        <v>2.389692805997957</v>
       </c>
       <c r="L52">
-        <v>63.99125473751145</v>
+        <v>63.62355803092673</v>
       </c>
       <c r="M52">
-        <v>9.356381555269225</v>
+        <v>9.344063053396907</v>
       </c>
       <c r="N52">
-        <v>0.6317805006576046</v>
+        <v>0.6361076061618145</v>
       </c>
       <c r="O52">
-        <v>0.1103721018540057</v>
+        <v>0.1096251298172829</v>
       </c>
       <c r="P52">
-        <v>0.8197489477251816</v>
+        <v>0.8218843984834134</v>
       </c>
       <c r="Q52">
-        <v>0.05560232027951501</v>
+        <v>0.05550284689747506</v>
       </c>
       <c r="R52">
-        <v>0.8041570264527457</v>
+        <v>0.8059306681827807</v>
       </c>
       <c r="S52">
-        <v>0.06041467935478741</v>
+        <v>0.06159066241428652</v>
       </c>
       <c r="T52" t="s">
         <v>299</v>
@@ -9955,10 +9961,10 @@
         <v>1379</v>
       </c>
       <c r="Z52" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="AA52" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AB52">
         <v>22</v>
@@ -10044,7 +10050,7 @@
         <v>1564</v>
       </c>
       <c r="AA53" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="AB53">
         <v>135</v>
@@ -10067,46 +10073,46 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <v>23.65995301539013</v>
+        <v>23.633048040886</v>
       </c>
       <c r="G54">
-        <v>3.354553477942827</v>
+        <v>3.019241142220424</v>
       </c>
       <c r="H54">
-        <v>44.06886929924168</v>
+        <v>43.60395316589479</v>
       </c>
       <c r="I54">
-        <v>7.451802160956022</v>
+        <v>7.305074556170339</v>
       </c>
       <c r="J54">
-        <v>53.77659764172157</v>
+        <v>53.89482464982665</v>
       </c>
       <c r="K54">
-        <v>3.165139813600706</v>
+        <v>3.165735897377433</v>
       </c>
       <c r="L54">
-        <v>59.71082249528867</v>
+        <v>59.50281705038437</v>
       </c>
       <c r="M54">
-        <v>9.48734018787543</v>
+        <v>9.805259082249508</v>
       </c>
       <c r="N54">
-        <v>0.6828925019954969</v>
+        <v>0.6836351310457945</v>
       </c>
       <c r="O54">
-        <v>0.09070430495736109</v>
+        <v>0.09813987076809237</v>
       </c>
       <c r="P54">
-        <v>0.8504552875554851</v>
+        <v>0.8504749750500887</v>
       </c>
       <c r="Q54">
-        <v>0.06220291618850401</v>
+        <v>0.06700523805024607</v>
       </c>
       <c r="R54">
-        <v>0.843450115038696</v>
+        <v>0.8461205898700962</v>
       </c>
       <c r="S54">
-        <v>0.06128446100022442</v>
+        <v>0.06599217593039647</v>
       </c>
       <c r="T54" t="s">
         <v>301</v>
@@ -10127,10 +10133,10 @@
         <v>1381</v>
       </c>
       <c r="Z54" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="AA54" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -10216,7 +10222,7 @@
         <v>1577</v>
       </c>
       <c r="AA55" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -10302,7 +10308,7 @@
         <v>1545</v>
       </c>
       <c r="AA56" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AB56">
         <v>17</v>
@@ -10388,7 +10394,7 @@
         <v>1578</v>
       </c>
       <c r="AA57" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -10411,46 +10417,46 @@
         <v>4</v>
       </c>
       <c r="F58">
-        <v>2.88117497819092</v>
+        <v>2.886307712331472</v>
       </c>
       <c r="G58">
-        <v>6.696542748285093</v>
+        <v>6.700025827314842</v>
       </c>
       <c r="H58">
-        <v>44.07154116771773</v>
+        <v>44.06209290347789</v>
       </c>
       <c r="I58">
-        <v>7.931672453722097</v>
+        <v>7.928120589194484</v>
       </c>
       <c r="J58">
-        <v>49.11372365411025</v>
+        <v>49.10941118548566</v>
       </c>
       <c r="K58">
-        <v>2.933361876488648</v>
+        <v>2.941740116144998</v>
       </c>
       <c r="L58">
-        <v>64.89877315998682</v>
+        <v>64.93038586350016</v>
       </c>
       <c r="M58">
-        <v>12.93086710319663</v>
+        <v>12.95221147470398</v>
       </c>
       <c r="N58">
-        <v>0.6197567059192941</v>
+        <v>0.6193293803588084</v>
       </c>
       <c r="O58">
-        <v>0.1408166862154829</v>
+        <v>0.1411725017773351</v>
       </c>
       <c r="P58">
-        <v>0.8118645579367219</v>
+        <v>0.8118599844373644</v>
       </c>
       <c r="Q58">
-        <v>0.07320887999608162</v>
+        <v>0.07321170143594473</v>
       </c>
       <c r="R58">
-        <v>0.8173570934670447</v>
+        <v>0.8163553143417471</v>
       </c>
       <c r="S58">
-        <v>0.06631515777611435</v>
+        <v>0.06708751531983834</v>
       </c>
       <c r="T58" t="s">
         <v>305</v>
@@ -10474,7 +10480,7 @@
         <v>1559</v>
       </c>
       <c r="AA58" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -10560,7 +10566,7 @@
         <v>1579</v>
       </c>
       <c r="AA59" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AB59">
         <v>125</v>
@@ -10583,46 +10589,46 @@
         <v>4</v>
       </c>
       <c r="F60">
-        <v>22.93432949618867</v>
+        <v>23.76300225250369</v>
       </c>
       <c r="G60">
-        <v>2.983601745491039</v>
+        <v>2.660221338339429</v>
       </c>
       <c r="H60">
-        <v>43.99432325896487</v>
+        <v>43.98116249581089</v>
       </c>
       <c r="I60">
-        <v>7.419577572107642</v>
+        <v>7.092675499586524</v>
       </c>
       <c r="J60">
-        <v>54.11373300973018</v>
+        <v>54.15055847005916</v>
       </c>
       <c r="K60">
-        <v>3.366490185697375</v>
+        <v>3.446250273953289</v>
       </c>
       <c r="L60">
-        <v>59.96047359271474</v>
+        <v>59.89050257086308</v>
       </c>
       <c r="M60">
-        <v>9.838164235439706</v>
+        <v>9.869702766594612</v>
       </c>
       <c r="N60">
-        <v>0.6799376543235196</v>
+        <v>0.6811850956455412</v>
       </c>
       <c r="O60">
-        <v>0.0982938731102993</v>
+        <v>0.09455013075956127</v>
       </c>
       <c r="P60">
-        <v>0.8481143887898512</v>
+        <v>0.8482471249848007</v>
       </c>
       <c r="Q60">
-        <v>0.06961226437552046</v>
+        <v>0.06581074100408302</v>
       </c>
       <c r="R60">
-        <v>0.8452829734302211</v>
+        <v>0.8488872745757461</v>
       </c>
       <c r="S60">
-        <v>0.06824428780520686</v>
+        <v>0.06689651959184587</v>
       </c>
       <c r="T60" t="s">
         <v>307</v>
@@ -10646,7 +10652,7 @@
         <v>1580</v>
       </c>
       <c r="AA60" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -10732,7 +10738,7 @@
         <v>1581</v>
       </c>
       <c r="AA61" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -10818,7 +10824,7 @@
         <v>1545</v>
       </c>
       <c r="AA62" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AB62">
         <v>22</v>
@@ -10904,7 +10910,7 @@
         <v>1582</v>
       </c>
       <c r="AA63" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -10939,10 +10945,10 @@
         <v>7.324321043464152</v>
       </c>
       <c r="J64">
-        <v>48.85050886895286</v>
+        <v>48.86057679271412</v>
       </c>
       <c r="K64">
-        <v>3.212583885074579</v>
+        <v>3.203427910129755</v>
       </c>
       <c r="L64">
         <v>63.69515489435499</v>
@@ -10990,7 +10996,7 @@
         <v>1559</v>
       </c>
       <c r="AA64" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -11076,7 +11082,7 @@
         <v>1567</v>
       </c>
       <c r="AA65" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AB65">
         <v>34</v>
@@ -11099,46 +11105,46 @@
         <v>5</v>
       </c>
       <c r="F66">
-        <v>18.24607119638615</v>
+        <v>18.58391062248036</v>
       </c>
       <c r="G66">
-        <v>1.693003810454608</v>
+        <v>1.766088472324925</v>
       </c>
       <c r="H66">
-        <v>39.87218781888171</v>
+        <v>39.72068963083789</v>
       </c>
       <c r="I66">
-        <v>6.858997713812783</v>
+        <v>6.736303687088168</v>
       </c>
       <c r="J66">
-        <v>48.49326817180519</v>
+        <v>48.57809367502525</v>
       </c>
       <c r="K66">
-        <v>3.542183550496125</v>
+        <v>3.517828412431485</v>
       </c>
       <c r="L66">
-        <v>57.64563540720386</v>
+        <v>57.356597858923</v>
       </c>
       <c r="M66">
-        <v>10.27604956737086</v>
+        <v>9.954935581774521</v>
       </c>
       <c r="N66">
-        <v>0.7015616624408613</v>
+        <v>0.7044898897738241</v>
       </c>
       <c r="O66">
-        <v>0.1017061268358875</v>
+        <v>0.09973582239942065</v>
       </c>
       <c r="P66">
-        <v>0.851363113257491</v>
+        <v>0.8526596127029332</v>
       </c>
       <c r="Q66">
-        <v>0.05740872672968514</v>
+        <v>0.05596077356330406</v>
       </c>
       <c r="R66">
-        <v>0.8553050338991847</v>
+        <v>0.8557181626773077</v>
       </c>
       <c r="S66">
-        <v>0.05950317503931647</v>
+        <v>0.055165203013231</v>
       </c>
       <c r="T66" t="s">
         <v>313</v>
@@ -11159,10 +11165,10 @@
         <v>1393</v>
       </c>
       <c r="Z66" t="s">
-        <v>1570</v>
+        <v>1557</v>
       </c>
       <c r="AA66" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -11248,7 +11254,7 @@
         <v>1558</v>
       </c>
       <c r="AA67" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -11334,7 +11340,7 @@
         <v>1545</v>
       </c>
       <c r="AA68" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="AB68">
         <v>19</v>
@@ -11420,7 +11426,7 @@
         <v>1583</v>
       </c>
       <c r="AA69" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -11449,40 +11455,40 @@
         <v>6.454846694180945</v>
       </c>
       <c r="H70">
-        <v>44.73434308859711</v>
+        <v>44.76703546969101</v>
       </c>
       <c r="I70">
-        <v>8.825138766696069</v>
+        <v>8.855890941061626</v>
       </c>
       <c r="J70">
-        <v>48.5926391727313</v>
+        <v>48.58268152193043</v>
       </c>
       <c r="K70">
-        <v>3.137495589534452</v>
+        <v>3.129107964212542</v>
       </c>
       <c r="L70">
-        <v>65.03612407502833</v>
+        <v>65.04854539372653</v>
       </c>
       <c r="M70">
-        <v>14.39614702557854</v>
+        <v>14.40933064488675</v>
       </c>
       <c r="N70">
-        <v>0.617535694883979</v>
+        <v>0.6173878656293263</v>
       </c>
       <c r="O70">
-        <v>0.1570703854337442</v>
+        <v>0.1571602190831227</v>
       </c>
       <c r="P70">
-        <v>0.807826840311488</v>
+        <v>0.8077171240359381</v>
       </c>
       <c r="Q70">
-        <v>0.08459791049584807</v>
+        <v>0.08470639043973795</v>
       </c>
       <c r="R70">
-        <v>0.8202145942944342</v>
+        <v>0.8199189873394284</v>
       </c>
       <c r="S70">
-        <v>0.07016969548244426</v>
+        <v>0.07017443904609398</v>
       </c>
       <c r="T70" t="s">
         <v>317</v>
@@ -11506,7 +11512,7 @@
         <v>1584</v>
       </c>
       <c r="AA70" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -11592,7 +11598,7 @@
         <v>1567</v>
       </c>
       <c r="AA71" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AB71">
         <v>33</v>
@@ -11615,46 +11621,46 @@
         <v>6</v>
       </c>
       <c r="F72">
-        <v>23.45628398056969</v>
+        <v>23.38726125759887</v>
       </c>
       <c r="G72">
-        <v>1.995600846372853</v>
+        <v>2.470305865194747</v>
       </c>
       <c r="H72">
-        <v>43.9299105292845</v>
+        <v>43.78192509406226</v>
       </c>
       <c r="I72">
-        <v>7.992787425359824</v>
+        <v>7.710453938632026</v>
       </c>
       <c r="J72">
-        <v>53.81734992035842</v>
+        <v>53.75630515588862</v>
       </c>
       <c r="K72">
-        <v>3.23472163085034</v>
+        <v>3.000693117468001</v>
       </c>
       <c r="L72">
-        <v>60.29984187760934</v>
+        <v>60.4084234526735</v>
       </c>
       <c r="M72">
-        <v>11.03549558754225</v>
+        <v>10.99972271361642</v>
       </c>
       <c r="N72">
-        <v>0.6743381925228293</v>
+        <v>0.6733929919294979</v>
       </c>
       <c r="O72">
-        <v>0.112511584981735</v>
+        <v>0.1113964106279559</v>
       </c>
       <c r="P72">
-        <v>0.8421731733874873</v>
+        <v>0.8418877617546612</v>
       </c>
       <c r="Q72">
-        <v>0.07558105620063027</v>
+        <v>0.07471015585638939</v>
       </c>
       <c r="R72">
-        <v>0.8418788078986307</v>
+        <v>0.8429018514699367</v>
       </c>
       <c r="S72">
-        <v>0.06807266229065581</v>
+        <v>0.06817675532921025</v>
       </c>
       <c r="T72" t="s">
         <v>319</v>
@@ -11675,10 +11681,10 @@
         <v>1399</v>
       </c>
       <c r="Z72" t="s">
-        <v>1568</v>
+        <v>1585</v>
       </c>
       <c r="AA72" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -11764,7 +11770,7 @@
         <v>1565</v>
       </c>
       <c r="AA73" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -11850,7 +11856,7 @@
         <v>1545</v>
       </c>
       <c r="AA74" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AB74">
         <v>20</v>
@@ -11933,10 +11939,10 @@
         <v>1402</v>
       </c>
       <c r="Z75" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="AA75" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="AB75">
         <v>137</v>
@@ -11959,46 +11965,46 @@
         <v>3</v>
       </c>
       <c r="F76">
-        <v>10.02956360677984</v>
+        <v>9.87316242683884</v>
       </c>
       <c r="G76">
-        <v>11.47453775999145</v>
+        <v>11.22031779539586</v>
       </c>
       <c r="H76">
-        <v>45.16398108257457</v>
+        <v>45.13040965400315</v>
       </c>
       <c r="I76">
-        <v>7.311805894452725</v>
+        <v>7.335237206953114</v>
       </c>
       <c r="J76">
-        <v>50.02785851921805</v>
+        <v>50.05340753202855</v>
       </c>
       <c r="K76">
-        <v>2.55722346784696</v>
+        <v>2.552254484942382</v>
       </c>
       <c r="L76">
-        <v>64.17368807792306</v>
+        <v>64.2777203418682</v>
       </c>
       <c r="M76">
-        <v>10.53525425548271</v>
+        <v>10.49134844509817</v>
       </c>
       <c r="N76">
-        <v>0.6282615057919947</v>
+        <v>0.6269905520397073</v>
       </c>
       <c r="O76">
-        <v>0.1203638685557153</v>
+        <v>0.1202955704958616</v>
       </c>
       <c r="P76">
-        <v>0.8163766617147509</v>
+        <v>0.815488526843071</v>
       </c>
       <c r="Q76">
-        <v>0.06340916627647498</v>
+        <v>0.06335907167759418</v>
       </c>
       <c r="R76">
-        <v>0.8094470556052639</v>
+        <v>0.8086751646798479</v>
       </c>
       <c r="S76">
-        <v>0.06386648043028315</v>
+        <v>0.06353404057955726</v>
       </c>
       <c r="T76" t="s">
         <v>323</v>
@@ -12022,7 +12028,7 @@
         <v>1552</v>
       </c>
       <c r="AA76" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="AB76">
         <v>137</v>
@@ -12108,7 +12114,7 @@
         <v>1564</v>
       </c>
       <c r="AA77" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="AB77">
         <v>137</v>
@@ -12131,46 +12137,46 @@
         <v>3</v>
       </c>
       <c r="F78">
-        <v>23.84877848111809</v>
+        <v>24.16063211533356</v>
       </c>
       <c r="G78">
-        <v>3.067390446950608</v>
+        <v>3.203576363527235</v>
       </c>
       <c r="H78">
-        <v>44.42303930198653</v>
+        <v>44.06105656139773</v>
       </c>
       <c r="I78">
-        <v>7.030700985000568</v>
+        <v>6.950508749305873</v>
       </c>
       <c r="J78">
-        <v>54.02493836763678</v>
+        <v>53.95342181439475</v>
       </c>
       <c r="K78">
-        <v>2.796217802254438</v>
+        <v>2.879039806936998</v>
       </c>
       <c r="L78">
-        <v>59.19626456062059</v>
+        <v>59.09658252541919</v>
       </c>
       <c r="M78">
-        <v>9.373976475194636</v>
+        <v>9.337766793033198</v>
       </c>
       <c r="N78">
-        <v>0.6869937774672067</v>
+        <v>0.6880194176985968</v>
       </c>
       <c r="O78">
-        <v>0.09452634149920883</v>
+        <v>0.09431432085542024</v>
       </c>
       <c r="P78">
-        <v>0.8522344009231996</v>
+        <v>0.8518179477878237</v>
       </c>
       <c r="Q78">
-        <v>0.06275513872054017</v>
+        <v>0.06419956376654397</v>
       </c>
       <c r="R78">
-        <v>0.8503162942029584</v>
+        <v>0.8481431956089232</v>
       </c>
       <c r="S78">
-        <v>0.05972652255458777</v>
+        <v>0.06457961862939947</v>
       </c>
       <c r="T78" t="s">
         <v>325</v>
@@ -12191,10 +12197,10 @@
         <v>1405</v>
       </c>
       <c r="Z78" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="AA78" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB78">
         <v>0</v>
@@ -12277,10 +12283,10 @@
         <v>1406</v>
       </c>
       <c r="Z79" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AA79" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB79">
         <v>0</v>
@@ -12306,19 +12312,19 @@
         <v>38.45497698264445</v>
       </c>
       <c r="G80">
-        <v>2.679996561626384</v>
+        <v>2.679996561626381</v>
       </c>
       <c r="H80">
-        <v>55.86286163488564</v>
+        <v>55.86286163488563</v>
       </c>
       <c r="I80">
-        <v>7.81282914857493</v>
+        <v>7.812829148574925</v>
       </c>
       <c r="J80">
         <v>69.74976105161934</v>
       </c>
       <c r="K80">
-        <v>4.551551923178943</v>
+        <v>4.551551923178937</v>
       </c>
       <c r="L80">
         <v>73.42116426275497</v>
@@ -12330,13 +12336,13 @@
         <v>0.5116529928583337</v>
       </c>
       <c r="O80">
-        <v>0.1633569940224577</v>
+        <v>0.1633569940224576</v>
       </c>
       <c r="P80">
-        <v>0.7504296613050356</v>
+        <v>0.7504296613050354</v>
       </c>
       <c r="Q80">
-        <v>0.08220270920923117</v>
+        <v>0.08220270920923123</v>
       </c>
       <c r="R80">
         <v>0.7484044660662746</v>
@@ -12366,7 +12372,7 @@
         <v>1545</v>
       </c>
       <c r="AA80" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="AB80">
         <v>19</v>
@@ -12452,7 +12458,7 @@
         <v>1582</v>
       </c>
       <c r="AA81" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB81">
         <v>0</v>
@@ -12475,46 +12481,46 @@
         <v>4</v>
       </c>
       <c r="F82">
-        <v>3.519028082669456</v>
+        <v>2.926927787684205</v>
       </c>
       <c r="G82">
-        <v>7.568351262686428</v>
+        <v>6.600564766868402</v>
       </c>
       <c r="H82">
-        <v>42.97371807493452</v>
+        <v>42.86416300592291</v>
       </c>
       <c r="I82">
-        <v>7.180743442907702</v>
+        <v>7.028062532731026</v>
       </c>
       <c r="J82">
-        <v>49.51701191336393</v>
+        <v>49.51694531836619</v>
       </c>
       <c r="K82">
-        <v>2.821843189118805</v>
+        <v>2.791533156590238</v>
       </c>
       <c r="L82">
-        <v>60.87923370468958</v>
+        <v>60.69609919051408</v>
       </c>
       <c r="M82">
-        <v>10.33207710033046</v>
+        <v>10.22829742318194</v>
       </c>
       <c r="N82">
-        <v>0.6662170365380721</v>
+        <v>0.6676029989854817</v>
       </c>
       <c r="O82">
-        <v>0.1187189167698217</v>
+        <v>0.1196484550971649</v>
       </c>
       <c r="P82">
-        <v>0.8370298956908209</v>
+        <v>0.8382828340670073</v>
       </c>
       <c r="Q82">
-        <v>0.06009703107662203</v>
+        <v>0.0613752936722404</v>
       </c>
       <c r="R82">
-        <v>0.8343759920920023</v>
+        <v>0.8339525357404467</v>
       </c>
       <c r="S82">
-        <v>0.0557189130656254</v>
+        <v>0.05484822806796101</v>
       </c>
       <c r="T82" t="s">
         <v>329</v>
@@ -12535,10 +12541,10 @@
         <v>1409</v>
       </c>
       <c r="Z82" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="AA82" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AB82">
         <v>133</v>
@@ -12621,10 +12627,10 @@
         <v>1410</v>
       </c>
       <c r="Z83" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AA83" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="AB83">
         <v>34</v>
@@ -12647,46 +12653,46 @@
         <v>4</v>
       </c>
       <c r="F84">
-        <v>23.52920796929132</v>
+        <v>23.28281992488238</v>
       </c>
       <c r="G84">
-        <v>2.337518708730132</v>
+        <v>1.876186800736422</v>
       </c>
       <c r="H84">
-        <v>43.74336562060584</v>
+        <v>43.86826470620093</v>
       </c>
       <c r="I84">
-        <v>6.391163463682298</v>
+        <v>7.062369543764603</v>
       </c>
       <c r="J84">
-        <v>53.68624808399782</v>
+        <v>53.56882786282242</v>
       </c>
       <c r="K84">
-        <v>3.428901935178287</v>
+        <v>3.241667622223714</v>
       </c>
       <c r="L84">
-        <v>59.06595898956363</v>
+        <v>59.1791314203992</v>
       </c>
       <c r="M84">
-        <v>9.148149596693408</v>
+        <v>9.832325975289587</v>
       </c>
       <c r="N84">
-        <v>0.6891305131540273</v>
+        <v>0.688483241769367</v>
       </c>
       <c r="O84">
-        <v>0.09162411395204487</v>
+        <v>0.09217492135603615</v>
       </c>
       <c r="P84">
-        <v>0.8504412797372976</v>
+        <v>0.8492533228231167</v>
       </c>
       <c r="Q84">
-        <v>0.06391868661125097</v>
+        <v>0.06295801929720053</v>
       </c>
       <c r="R84">
-        <v>0.8530111791615763</v>
+        <v>0.8505033749132853</v>
       </c>
       <c r="S84">
-        <v>0.06394565372577582</v>
+        <v>0.06378619561945492</v>
       </c>
       <c r="T84" t="s">
         <v>331</v>
@@ -12707,10 +12713,10 @@
         <v>1411</v>
       </c>
       <c r="Z84" t="s">
-        <v>1580</v>
+        <v>1554</v>
       </c>
       <c r="AA84" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB84">
         <v>0</v>
@@ -12793,10 +12799,10 @@
         <v>1412</v>
       </c>
       <c r="Z85" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="AA85" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB85">
         <v>0</v>
@@ -12882,7 +12888,7 @@
         <v>1545</v>
       </c>
       <c r="AA86" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AB86">
         <v>20</v>
@@ -12968,7 +12974,7 @@
         <v>1555</v>
       </c>
       <c r="AA87" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AB87">
         <v>40</v>
@@ -13003,10 +13009,10 @@
         <v>7.879878253139966</v>
       </c>
       <c r="J88">
-        <v>49.38435534597991</v>
+        <v>49.38151213572042</v>
       </c>
       <c r="K88">
-        <v>3.087013703270054</v>
+        <v>3.08389024456631</v>
       </c>
       <c r="L88">
         <v>62.63043633342374</v>
@@ -13051,10 +13057,10 @@
         <v>1415</v>
       </c>
       <c r="Z88" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AA88" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB88">
         <v>0</v>
@@ -13140,7 +13146,7 @@
         <v>1556</v>
       </c>
       <c r="AA89" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AB89">
         <v>40</v>
@@ -13163,46 +13169,46 @@
         <v>5</v>
       </c>
       <c r="F90">
-        <v>19.48890302274994</v>
+        <v>19.33924135293161</v>
       </c>
       <c r="G90">
-        <v>2.221684645604517</v>
+        <v>2.261590795597644</v>
       </c>
       <c r="H90">
-        <v>41.42545610521389</v>
+        <v>41.33331384645457</v>
       </c>
       <c r="I90">
-        <v>7.201573879243309</v>
+        <v>6.751164578766779</v>
       </c>
       <c r="J90">
-        <v>50.69158756932116</v>
+        <v>50.74390412844081</v>
       </c>
       <c r="K90">
-        <v>3.352150217663247</v>
+        <v>3.410491331741954</v>
       </c>
       <c r="L90">
-        <v>58.01874526036235</v>
+        <v>58.45628384441638</v>
       </c>
       <c r="M90">
-        <v>10.77875798080251</v>
+        <v>10.64591021679804</v>
       </c>
       <c r="N90">
-        <v>0.6977867316504741</v>
+        <v>0.6931381651479627</v>
       </c>
       <c r="O90">
-        <v>0.1055443357354144</v>
+        <v>0.1081683390505162</v>
       </c>
       <c r="P90">
-        <v>0.8504877354356658</v>
+        <v>0.8469567867018104</v>
       </c>
       <c r="Q90">
-        <v>0.06241214072796948</v>
+        <v>0.06488959064928256</v>
       </c>
       <c r="R90">
-        <v>0.8543408997619265</v>
+        <v>0.8488917771771719</v>
       </c>
       <c r="S90">
-        <v>0.06576924786632332</v>
+        <v>0.06333447826049636</v>
       </c>
       <c r="T90" t="s">
         <v>337</v>
@@ -13223,10 +13229,10 @@
         <v>1417</v>
       </c>
       <c r="Z90" t="s">
-        <v>1570</v>
+        <v>1592</v>
       </c>
       <c r="AA90" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB90">
         <v>0</v>
@@ -13309,10 +13315,10 @@
         <v>1418</v>
       </c>
       <c r="Z91" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AA91" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB91">
         <v>0</v>
@@ -13398,7 +13404,7 @@
         <v>1545</v>
       </c>
       <c r="AA92" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AB92">
         <v>18</v>
@@ -13481,10 +13487,10 @@
         <v>1420</v>
       </c>
       <c r="Z93" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AA93" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AB93">
         <v>40</v>
@@ -13519,10 +13525,10 @@
         <v>8.346685755471995</v>
       </c>
       <c r="J94">
-        <v>48.98917780228307</v>
+        <v>48.98950583019107</v>
       </c>
       <c r="K94">
-        <v>2.729478265692226</v>
+        <v>2.729856474288752</v>
       </c>
       <c r="L94">
         <v>61.03539335443994</v>
@@ -13567,10 +13573,10 @@
         <v>1421</v>
       </c>
       <c r="Z94" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="AA94" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AB94">
         <v>129</v>
@@ -13656,7 +13662,7 @@
         <v>1556</v>
       </c>
       <c r="AA95" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AB95">
         <v>40</v>
@@ -13679,46 +13685,46 @@
         <v>6</v>
       </c>
       <c r="F96">
-        <v>24.61799826263087</v>
+        <v>23.93874376530528</v>
       </c>
       <c r="G96">
-        <v>2.564992597461767</v>
+        <v>2.581079413234925</v>
       </c>
       <c r="H96">
-        <v>45.18643528975986</v>
+        <v>44.31697130477164</v>
       </c>
       <c r="I96">
-        <v>7.021407546568545</v>
+        <v>6.84212193268079</v>
       </c>
       <c r="J96">
-        <v>54.33358901196259</v>
+        <v>54.28795349806654</v>
       </c>
       <c r="K96">
-        <v>2.868026348095416</v>
+        <v>2.963263195464674</v>
       </c>
       <c r="L96">
-        <v>60.88710747322659</v>
+        <v>60.2648867551587</v>
       </c>
       <c r="M96">
-        <v>10.00333394381001</v>
+        <v>9.861965327587663</v>
       </c>
       <c r="N96">
-        <v>0.6682151601230442</v>
+        <v>0.6750845916424066</v>
       </c>
       <c r="O96">
-        <v>0.1060664791502029</v>
+        <v>0.1032340415707987</v>
       </c>
       <c r="P96">
-        <v>0.8380034293882507</v>
+        <v>0.8409796546965065</v>
       </c>
       <c r="Q96">
-        <v>0.07177555577741497</v>
+        <v>0.0692398195286882</v>
       </c>
       <c r="R96">
-        <v>0.8451916493230144</v>
+        <v>0.8480704702265343</v>
       </c>
       <c r="S96">
-        <v>0.06403802340472783</v>
+        <v>0.06491484491033624</v>
       </c>
       <c r="T96" t="s">
         <v>343</v>
@@ -13739,10 +13745,10 @@
         <v>1423</v>
       </c>
       <c r="Z96" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="AA96" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB96">
         <v>0</v>
@@ -13825,10 +13831,10 @@
         <v>1424</v>
       </c>
       <c r="Z97" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AA97" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB97">
         <v>0</v>
@@ -13914,7 +13920,7 @@
         <v>1545</v>
       </c>
       <c r="AA98" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AB98">
         <v>21</v>
@@ -13997,10 +14003,10 @@
         <v>1426</v>
       </c>
       <c r="Z99" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="AA99" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AB99">
         <v>25</v>
@@ -14023,46 +14029,46 @@
         <v>3</v>
       </c>
       <c r="F100">
-        <v>6.744418205928032</v>
+        <v>6.852323810647796</v>
       </c>
       <c r="G100">
-        <v>9.108252998920582</v>
+        <v>9.059541323893029</v>
       </c>
       <c r="H100">
-        <v>44.19200812649147</v>
+        <v>44.36124711602216</v>
       </c>
       <c r="I100">
-        <v>6.899505085275216</v>
+        <v>6.754084875868162</v>
       </c>
       <c r="J100">
-        <v>49.68829840472011</v>
+        <v>49.68350130213967</v>
       </c>
       <c r="K100">
-        <v>2.499244831353618</v>
+        <v>2.501254268337251</v>
       </c>
       <c r="L100">
-        <v>63.83839233080235</v>
+        <v>64.09962630539921</v>
       </c>
       <c r="M100">
-        <v>10.58059085416439</v>
+        <v>10.22929372512791</v>
       </c>
       <c r="N100">
-        <v>0.6295324379016202</v>
+        <v>0.6269789298450171</v>
       </c>
       <c r="O100">
-        <v>0.1423771472930873</v>
+        <v>0.1401507078354719</v>
       </c>
       <c r="P100">
-        <v>0.8116559339710347</v>
+        <v>0.8103939849184876</v>
       </c>
       <c r="Q100">
-        <v>0.08198374313772999</v>
+        <v>0.08080037980614589</v>
       </c>
       <c r="R100">
-        <v>0.8088182933527931</v>
+        <v>0.8081858753467495</v>
       </c>
       <c r="S100">
-        <v>0.07435177160338481</v>
+        <v>0.07414984426734954</v>
       </c>
       <c r="T100" t="s">
         <v>347</v>
@@ -14083,10 +14089,10 @@
         <v>1427</v>
       </c>
       <c r="Z100" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="AA100" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AB100">
         <v>25</v>
@@ -14172,7 +14178,7 @@
         <v>1548</v>
       </c>
       <c r="AA101" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB101">
         <v>0</v>
@@ -14195,46 +14201,46 @@
         <v>3</v>
       </c>
       <c r="F102">
-        <v>22.04737776282727</v>
+        <v>21.56289070061628</v>
       </c>
       <c r="G102">
-        <v>2.898513254146182</v>
+        <v>3.013573083907918</v>
       </c>
       <c r="H102">
-        <v>42.48921640925662</v>
+        <v>42.00330067544585</v>
       </c>
       <c r="I102">
-        <v>6.703424077019478</v>
+        <v>7.404092384787799</v>
       </c>
       <c r="J102">
-        <v>52.60087279675466</v>
+        <v>52.45013909978686</v>
       </c>
       <c r="K102">
-        <v>3.112750254997808</v>
+        <v>3.108098713862979</v>
       </c>
       <c r="L102">
-        <v>58.39348026854429</v>
+        <v>57.94465654682026</v>
       </c>
       <c r="M102">
-        <v>9.663004339065282</v>
+        <v>10.03786667897917</v>
       </c>
       <c r="N102">
-        <v>0.6963014362304455</v>
+        <v>0.7004250522127043</v>
       </c>
       <c r="O102">
-        <v>0.09012104511409931</v>
+        <v>0.0950858118720906</v>
       </c>
       <c r="P102">
-        <v>0.8538067432744146</v>
+        <v>0.8571331534359679</v>
       </c>
       <c r="Q102">
-        <v>0.05974161993211199</v>
+        <v>0.06174473478247892</v>
       </c>
       <c r="R102">
-        <v>0.8481233684373158</v>
+        <v>0.8480374069532682</v>
       </c>
       <c r="S102">
-        <v>0.05962888926586599</v>
+        <v>0.06011374449981517</v>
       </c>
       <c r="T102" t="s">
         <v>349</v>
@@ -14255,10 +14261,10 @@
         <v>1429</v>
       </c>
       <c r="Z102" t="s">
-        <v>1568</v>
+        <v>1585</v>
       </c>
       <c r="AA102" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB102">
         <v>0</v>
@@ -14341,10 +14347,10 @@
         <v>1430</v>
       </c>
       <c r="Z103" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AA103" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB103">
         <v>0</v>
@@ -14430,7 +14436,7 @@
         <v>1545</v>
       </c>
       <c r="AA104" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AB104">
         <v>21</v>
@@ -14516,7 +14522,7 @@
         <v>1583</v>
       </c>
       <c r="AA105" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB105">
         <v>0</v>
@@ -14551,10 +14557,10 @@
         <v>7.292360649887868</v>
       </c>
       <c r="J106">
-        <v>48.97747872040551</v>
+        <v>48.97460890181569</v>
       </c>
       <c r="K106">
-        <v>3.035552733541515</v>
+        <v>3.037687678828155</v>
       </c>
       <c r="L106">
         <v>60.84487169520462</v>
@@ -14602,7 +14608,7 @@
         <v>1563</v>
       </c>
       <c r="AA106" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB106">
         <v>0</v>
@@ -14685,10 +14691,10 @@
         <v>1434</v>
       </c>
       <c r="Z107" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AA107" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AB107">
         <v>30</v>
@@ -14711,46 +14717,46 @@
         <v>4</v>
       </c>
       <c r="F108">
-        <v>21.04555185714068</v>
+        <v>20.88940013888057</v>
       </c>
       <c r="G108">
-        <v>2.627443184805522</v>
+        <v>2.765301784494785</v>
       </c>
       <c r="H108">
-        <v>41.64246216793281</v>
+        <v>41.94603563822489</v>
       </c>
       <c r="I108">
-        <v>6.833178561425786</v>
+        <v>6.781041503870274</v>
       </c>
       <c r="J108">
-        <v>51.93165859184023</v>
+        <v>51.83648140741327</v>
       </c>
       <c r="K108">
-        <v>3.386742040655752</v>
+        <v>3.361352342532942</v>
       </c>
       <c r="L108">
-        <v>57.75035254040412</v>
+        <v>58.23727207267966</v>
       </c>
       <c r="M108">
-        <v>10.11878459457235</v>
+        <v>10.01610614772718</v>
       </c>
       <c r="N108">
-        <v>0.7030219491283486</v>
+        <v>0.6974574169568339</v>
       </c>
       <c r="O108">
-        <v>0.093758244773431</v>
+        <v>0.09557307349860276</v>
       </c>
       <c r="P108">
-        <v>0.8560081335764016</v>
+        <v>0.8530935528068356</v>
       </c>
       <c r="Q108">
-        <v>0.06004170131423971</v>
+        <v>0.0599394680280535</v>
       </c>
       <c r="R108">
-        <v>0.8500333183420504</v>
+        <v>0.8509023228962961</v>
       </c>
       <c r="S108">
-        <v>0.06033584346254332</v>
+        <v>0.05608129394234439</v>
       </c>
       <c r="T108" t="s">
         <v>355</v>
@@ -14771,10 +14777,10 @@
         <v>1435</v>
       </c>
       <c r="Z108" t="s">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="AA108" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB108">
         <v>0</v>
@@ -14857,10 +14863,10 @@
         <v>1436</v>
       </c>
       <c r="Z109" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="AA109" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB109">
         <v>0</v>
@@ -14946,7 +14952,7 @@
         <v>1545</v>
       </c>
       <c r="AA110" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AB110">
         <v>19</v>
@@ -15032,7 +15038,7 @@
         <v>1582</v>
       </c>
       <c r="AA111" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB111">
         <v>0</v>
@@ -15115,10 +15121,10 @@
         <v>1439</v>
       </c>
       <c r="Z112" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="AA112" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AB112">
         <v>39</v>
@@ -15204,7 +15210,7 @@
         <v>1567</v>
       </c>
       <c r="AA113" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AB113">
         <v>39</v>
@@ -15227,46 +15233,46 @@
         <v>5</v>
       </c>
       <c r="F114">
-        <v>19.60296831561633</v>
+        <v>20.35623552573469</v>
       </c>
       <c r="G114">
-        <v>2.273561401811572</v>
+        <v>2.618671049404054</v>
       </c>
       <c r="H114">
-        <v>41.27510566991993</v>
+        <v>41.66910799612821</v>
       </c>
       <c r="I114">
-        <v>7.445863596094545</v>
+        <v>6.851700321188565</v>
       </c>
       <c r="J114">
-        <v>50.75341706408659</v>
+        <v>50.79905449791556</v>
       </c>
       <c r="K114">
-        <v>3.004892927204895</v>
+        <v>3.118430803264155</v>
       </c>
       <c r="L114">
-        <v>57.38251522268156</v>
+        <v>57.78822874807529</v>
       </c>
       <c r="M114">
-        <v>10.89698356787044</v>
+        <v>10.44324183015522</v>
       </c>
       <c r="N114">
-        <v>0.7046646840539498</v>
+        <v>0.7005362493181434</v>
       </c>
       <c r="O114">
-        <v>0.10359493950933</v>
+        <v>0.1005181323229392</v>
       </c>
       <c r="P114">
-        <v>0.8537510485436371</v>
+        <v>0.8519402314521565</v>
       </c>
       <c r="Q114">
-        <v>0.06148372285553504</v>
+        <v>0.06024119035927855</v>
       </c>
       <c r="R114">
-        <v>0.8539321278172244</v>
+        <v>0.8563637920928637</v>
       </c>
       <c r="S114">
-        <v>0.06053880913020362</v>
+        <v>0.0600254733925534</v>
       </c>
       <c r="T114" t="s">
         <v>361</v>
@@ -15287,10 +15293,10 @@
         <v>1441</v>
       </c>
       <c r="Z114" t="s">
-        <v>1597</v>
+        <v>1569</v>
       </c>
       <c r="AA114" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB114">
         <v>0</v>
@@ -15373,10 +15379,10 @@
         <v>1442</v>
       </c>
       <c r="Z115" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="AA115" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB115">
         <v>0</v>
@@ -15462,7 +15468,7 @@
         <v>1545</v>
       </c>
       <c r="AA116" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AB116">
         <v>18</v>
@@ -15548,7 +15554,7 @@
         <v>1583</v>
       </c>
       <c r="AA117" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB117">
         <v>0</v>
@@ -15577,40 +15583,40 @@
         <v>7.661097432166676</v>
       </c>
       <c r="H118">
-        <v>42.2093837594837</v>
+        <v>42.21934991511801</v>
       </c>
       <c r="I118">
-        <v>8.846603532378531</v>
+        <v>8.856356975413835</v>
       </c>
       <c r="J118">
-        <v>48.33961147659485</v>
+        <v>48.33717440866498</v>
       </c>
       <c r="K118">
-        <v>2.628496741756168</v>
+        <v>2.626285482841852</v>
       </c>
       <c r="L118">
-        <v>60.47061156226005</v>
+        <v>60.47862827784761</v>
       </c>
       <c r="M118">
-        <v>14.15137947478801</v>
+        <v>14.15699946244967</v>
       </c>
       <c r="N118">
-        <v>0.6669737890188998</v>
+        <v>0.6668901763243796</v>
       </c>
       <c r="O118">
-        <v>0.1531186525064097</v>
+        <v>0.1531372443516743</v>
       </c>
       <c r="P118">
-        <v>0.8344877147253278</v>
+        <v>0.8344418101630505</v>
       </c>
       <c r="Q118">
-        <v>0.08215905107131054</v>
+        <v>0.08218002486687283</v>
       </c>
       <c r="R118">
-        <v>0.8338838769291044</v>
+        <v>0.8338674543204929</v>
       </c>
       <c r="S118">
-        <v>0.06869689965408678</v>
+        <v>0.06869533348215563</v>
       </c>
       <c r="T118" t="s">
         <v>365</v>
@@ -15631,10 +15637,10 @@
         <v>1445</v>
       </c>
       <c r="Z118" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="AA118" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB118">
         <v>0</v>
@@ -15720,7 +15726,7 @@
         <v>1567</v>
       </c>
       <c r="AA119" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="AB119">
         <v>40</v>
@@ -15743,46 +15749,46 @@
         <v>6</v>
       </c>
       <c r="F120">
-        <v>22.70916819671881</v>
+        <v>22.9716093509488</v>
       </c>
       <c r="G120">
-        <v>1.878531665799188</v>
+        <v>2.339745633812587</v>
       </c>
       <c r="H120">
-        <v>42.7262535507924</v>
+        <v>43.02976029997691</v>
       </c>
       <c r="I120">
-        <v>7.376515919688357</v>
+        <v>7.728600876888076</v>
       </c>
       <c r="J120">
-        <v>53.01845755747358</v>
+        <v>53.08241299995786</v>
       </c>
       <c r="K120">
-        <v>2.999059867257729</v>
+        <v>2.880102160775799</v>
       </c>
       <c r="L120">
-        <v>59.17462354144835</v>
+        <v>59.05177732317516</v>
       </c>
       <c r="M120">
-        <v>10.286455289836</v>
+        <v>10.8319034556394</v>
       </c>
       <c r="N120">
-        <v>0.6868630565007201</v>
+        <v>0.6875294696554388</v>
       </c>
       <c r="O120">
-        <v>0.1008371379419527</v>
+        <v>0.1081626850215747</v>
       </c>
       <c r="P120">
-        <v>0.8483321952465586</v>
+        <v>0.8485444218040024</v>
       </c>
       <c r="Q120">
-        <v>0.06679876871910215</v>
+        <v>0.06866146039544833</v>
       </c>
       <c r="R120">
-        <v>0.846187558107422</v>
+        <v>0.84802442411616</v>
       </c>
       <c r="S120">
-        <v>0.06844577107147246</v>
+        <v>0.06407478906897454</v>
       </c>
       <c r="T120" t="s">
         <v>367</v>
@@ -15803,10 +15809,10 @@
         <v>1447</v>
       </c>
       <c r="Z120" t="s">
-        <v>1549</v>
+        <v>1601</v>
       </c>
       <c r="AA120" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB120">
         <v>0</v>
@@ -15889,10 +15895,10 @@
         <v>1448</v>
       </c>
       <c r="Z121" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AA121" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB121">
         <v>0</v>
@@ -15978,7 +15984,7 @@
         <v>1545</v>
       </c>
       <c r="AA122" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AB122">
         <v>17</v>
@@ -16061,10 +16067,10 @@
         <v>1450</v>
       </c>
       <c r="Z123" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="AA123" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AB123">
         <v>22</v>
@@ -16087,46 +16093,46 @@
         <v>3</v>
       </c>
       <c r="F124">
-        <v>9.425580299639163</v>
+        <v>11.39520650713887</v>
       </c>
       <c r="G124">
-        <v>12.08016133668512</v>
+        <v>14.67742272886318</v>
       </c>
       <c r="H124">
-        <v>45.15462386692941</v>
+        <v>46.58816556509987</v>
       </c>
       <c r="I124">
-        <v>7.084895667392192</v>
+        <v>9.852186183488634</v>
       </c>
       <c r="J124">
-        <v>49.86691604496722</v>
+        <v>49.90068428406152</v>
       </c>
       <c r="K124">
-        <v>2.468288490299393</v>
+        <v>2.305001578210663</v>
       </c>
       <c r="L124">
-        <v>63.8956884993769</v>
+        <v>66.00091522996554</v>
       </c>
       <c r="M124">
-        <v>11.95924511317954</v>
+        <v>14.57408812753324</v>
       </c>
       <c r="N124">
-        <v>0.6210789063366883</v>
+        <v>0.582136455614492</v>
       </c>
       <c r="O124">
-        <v>0.1835308360456686</v>
+        <v>0.2791256214682226</v>
       </c>
       <c r="P124">
-        <v>0.8107280384483131</v>
+        <v>0.7950453431870155</v>
       </c>
       <c r="Q124">
-        <v>0.09789439995105824</v>
+        <v>0.1256403621357113</v>
       </c>
       <c r="R124">
-        <v>0.8026070053044253</v>
+        <v>0.7884353029199522</v>
       </c>
       <c r="S124">
-        <v>0.0849625801371542</v>
+        <v>0.1204463829471831</v>
       </c>
       <c r="T124" t="s">
         <v>371</v>
@@ -16147,10 +16153,10 @@
         <v>1451</v>
       </c>
       <c r="Z124" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="AA124" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AB124">
         <v>22</v>
@@ -16236,7 +16242,7 @@
         <v>1548</v>
       </c>
       <c r="AA125" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB125">
         <v>0</v>
@@ -16259,46 +16265,46 @@
         <v>3</v>
       </c>
       <c r="F126">
-        <v>21.09820880029723</v>
+        <v>21.02042119300134</v>
       </c>
       <c r="G126">
-        <v>3.022290171240882</v>
+        <v>3.09615598430263</v>
       </c>
       <c r="H126">
-        <v>41.37547439837194</v>
+        <v>41.29641229791024</v>
       </c>
       <c r="I126">
-        <v>6.624529063189685</v>
+        <v>6.645738508444632</v>
       </c>
       <c r="J126">
-        <v>51.41738317648619</v>
+        <v>51.46397245626835</v>
       </c>
       <c r="K126">
-        <v>3.613663623376924</v>
+        <v>3.595786922337052</v>
       </c>
       <c r="L126">
-        <v>57.23372492119676</v>
+        <v>56.97448255979333</v>
       </c>
       <c r="M126">
-        <v>9.458207808681237</v>
+        <v>9.75865988441349</v>
       </c>
       <c r="N126">
-        <v>0.7062739938718638</v>
+        <v>0.709478692704141</v>
       </c>
       <c r="O126">
-        <v>0.09639043623332547</v>
+        <v>0.09551811097776348</v>
       </c>
       <c r="P126">
-        <v>0.8595570257426762</v>
+        <v>0.860466631755788</v>
       </c>
       <c r="Q126">
-        <v>0.06115889008803022</v>
+        <v>0.05917714569453471</v>
       </c>
       <c r="R126">
-        <v>0.8558563254506756</v>
+        <v>0.8596786554746489</v>
       </c>
       <c r="S126">
-        <v>0.057600389947313</v>
+        <v>0.05493248628096305</v>
       </c>
       <c r="T126" t="s">
         <v>373</v>
@@ -16319,10 +16325,10 @@
         <v>1453</v>
       </c>
       <c r="Z126" t="s">
-        <v>1580</v>
+        <v>1554</v>
       </c>
       <c r="AA126" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB126">
         <v>0</v>
@@ -16405,10 +16411,10 @@
         <v>1454</v>
       </c>
       <c r="Z127" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="AA127" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB127">
         <v>0</v>
@@ -16434,7 +16440,7 @@
         <v>42.26593895269082</v>
       </c>
       <c r="G128">
-        <v>5.543425193257873</v>
+        <v>5.543425193257874</v>
       </c>
       <c r="H128">
         <v>58.10960216317963</v>
@@ -16443,28 +16449,28 @@
         <v>8.514316492509979</v>
       </c>
       <c r="J128">
-        <v>70.15888635046512</v>
+        <v>70.15888635046501</v>
       </c>
       <c r="K128">
-        <v>5.051753189789122</v>
+        <v>5.051753189788457</v>
       </c>
       <c r="L128">
-        <v>75.02832355092114</v>
+        <v>75.02832355092113</v>
       </c>
       <c r="M128">
         <v>10.88946064696443</v>
       </c>
       <c r="N128">
-        <v>0.4872696966720463</v>
+        <v>0.4872696966720464</v>
       </c>
       <c r="O128">
         <v>0.1721459278263635</v>
       </c>
       <c r="P128">
-        <v>0.7402043633517736</v>
+        <v>0.7402043633517738</v>
       </c>
       <c r="Q128">
-        <v>0.08907570641170878</v>
+        <v>0.08907570641170873</v>
       </c>
       <c r="R128">
         <v>0.7154582423123567</v>
@@ -16491,10 +16497,10 @@
         <v>1455</v>
       </c>
       <c r="Z128" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AA128" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="AB128">
         <v>27</v>
@@ -16580,7 +16586,7 @@
         <v>1582</v>
       </c>
       <c r="AA129" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB129">
         <v>0</v>
@@ -16603,46 +16609,46 @@
         <v>4</v>
       </c>
       <c r="F130">
-        <v>5.242145811529586</v>
+        <v>5.494181350752201</v>
       </c>
       <c r="G130">
-        <v>8.752247428145509</v>
+        <v>8.69357816203518</v>
       </c>
       <c r="H130">
-        <v>41.60177460602432</v>
+        <v>41.45036904631193</v>
       </c>
       <c r="I130">
-        <v>6.159505845623037</v>
+        <v>5.99413713324924</v>
       </c>
       <c r="J130">
-        <v>49.08627100462105</v>
+        <v>49.14420568070945</v>
       </c>
       <c r="K130">
-        <v>2.883218058267386</v>
+        <v>2.889023566962459</v>
       </c>
       <c r="L130">
-        <v>59.56904017698255</v>
+        <v>59.14066956699266</v>
       </c>
       <c r="M130">
-        <v>9.637932486973421</v>
+        <v>9.473648216705779</v>
       </c>
       <c r="N130">
-        <v>0.6767708970785662</v>
+        <v>0.681223502920455</v>
       </c>
       <c r="O130">
-        <v>0.1193107635981</v>
+        <v>0.1189425976380407</v>
       </c>
       <c r="P130">
-        <v>0.8437566370451026</v>
+        <v>0.8449398850500169</v>
       </c>
       <c r="Q130">
-        <v>0.0567225811582426</v>
+        <v>0.05755278339074266</v>
       </c>
       <c r="R130">
-        <v>0.8469966251997353</v>
+        <v>0.8466747113418708</v>
       </c>
       <c r="S130">
-        <v>0.04523811105339304</v>
+        <v>0.04626882922918448</v>
       </c>
       <c r="T130" t="s">
         <v>377</v>
@@ -16663,10 +16669,10 @@
         <v>1457</v>
       </c>
       <c r="Z130" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AA130" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AB130">
         <v>121</v>
@@ -16749,10 +16755,10 @@
         <v>1458</v>
       </c>
       <c r="Z131" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AA131" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="AB131">
         <v>27</v>
@@ -16775,46 +16781,46 @@
         <v>4</v>
       </c>
       <c r="F132">
-        <v>19.84517258301622</v>
+        <v>19.68602296012373</v>
       </c>
       <c r="G132">
-        <v>2.348272938268706</v>
+        <v>2.269805162913475</v>
       </c>
       <c r="H132">
-        <v>41.38753281028165</v>
+        <v>40.75189841726917</v>
       </c>
       <c r="I132">
-        <v>7.111477617586638</v>
+        <v>6.932069187136507</v>
       </c>
       <c r="J132">
-        <v>51.21586384324145</v>
+        <v>51.27615572166255</v>
       </c>
       <c r="K132">
-        <v>3.539988811805267</v>
+        <v>3.534314019515449</v>
       </c>
       <c r="L132">
-        <v>57.71862444551949</v>
+        <v>56.75866436890444</v>
       </c>
       <c r="M132">
-        <v>10.30788052374874</v>
+        <v>10.16348232964844</v>
       </c>
       <c r="N132">
-        <v>0.6996673042535586</v>
+        <v>0.7100048347320727</v>
       </c>
       <c r="O132">
-        <v>0.1088485300561157</v>
+        <v>0.1039080796585002</v>
       </c>
       <c r="P132">
-        <v>0.8526309757775128</v>
+        <v>0.8577616959134161</v>
       </c>
       <c r="Q132">
-        <v>0.06571722792320778</v>
+        <v>0.06298972567493313</v>
       </c>
       <c r="R132">
-        <v>0.8562757951943906</v>
+        <v>0.8613539601804281</v>
       </c>
       <c r="S132">
-        <v>0.06190405397559977</v>
+        <v>0.05406741765457935</v>
       </c>
       <c r="T132" t="s">
         <v>379</v>
@@ -16835,10 +16841,10 @@
         <v>1459</v>
       </c>
       <c r="Z132" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AA132" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB132">
         <v>0</v>
@@ -16921,10 +16927,10 @@
         <v>1460</v>
       </c>
       <c r="Z133" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AA133" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB133">
         <v>0</v>
@@ -16956,31 +16962,31 @@
         <v>56.06992738817039</v>
       </c>
       <c r="I134">
-        <v>7.336270164932825</v>
+        <v>7.336270164932826</v>
       </c>
       <c r="J134">
-        <v>68.89619561025715</v>
+        <v>68.8961956102568</v>
       </c>
       <c r="K134">
-        <v>5.081221004797949</v>
+        <v>5.081221004797705</v>
       </c>
       <c r="L134">
-        <v>72.23994403804774</v>
+        <v>72.23994403804775</v>
       </c>
       <c r="M134">
-        <v>9.631499035271071</v>
+        <v>9.631499035271078</v>
       </c>
       <c r="N134">
-        <v>0.5292083847235659</v>
+        <v>0.5292083847235658</v>
       </c>
       <c r="O134">
-        <v>0.1385739598267998</v>
+        <v>0.1385739598267999</v>
       </c>
       <c r="P134">
         <v>0.7582457341824977</v>
       </c>
       <c r="Q134">
-        <v>0.07395212326997641</v>
+        <v>0.07395212326997644</v>
       </c>
       <c r="R134">
         <v>0.745999797012161</v>
@@ -17010,7 +17016,7 @@
         <v>1545</v>
       </c>
       <c r="AA134" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AB134">
         <v>15</v>
@@ -17093,10 +17099,10 @@
         <v>1462</v>
       </c>
       <c r="Z135" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="AA135" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="AB135">
         <v>35</v>
@@ -17119,46 +17125,46 @@
         <v>5</v>
       </c>
       <c r="F136">
-        <v>5.502567658784529</v>
+        <v>4.996659499281789</v>
       </c>
       <c r="G136">
-        <v>9.959881862838898</v>
+        <v>9.574813515467406</v>
       </c>
       <c r="H136">
-        <v>44.20354745385649</v>
+        <v>44.08476166469535</v>
       </c>
       <c r="I136">
-        <v>7.4418825487114</v>
+        <v>7.449438530802941</v>
       </c>
       <c r="J136">
-        <v>49.10986129122082</v>
+        <v>49.12772736583162</v>
       </c>
       <c r="K136">
-        <v>2.98831746017134</v>
+        <v>2.970469255880638</v>
       </c>
       <c r="L136">
-        <v>63.01006518679137</v>
+        <v>62.92528493476882</v>
       </c>
       <c r="M136">
-        <v>11.88701975421855</v>
+        <v>11.83562835954995</v>
       </c>
       <c r="N136">
-        <v>0.6362956445947749</v>
+        <v>0.6374860494951617</v>
       </c>
       <c r="O136">
-        <v>0.1491846542506911</v>
+        <v>0.1487447409085967</v>
       </c>
       <c r="P136">
-        <v>0.820754850710899</v>
+        <v>0.8217450494374706</v>
       </c>
       <c r="Q136">
-        <v>0.07728337861464712</v>
+        <v>0.0771865539561364</v>
       </c>
       <c r="R136">
-        <v>0.8179795105521863</v>
+        <v>0.8186754787385041</v>
       </c>
       <c r="S136">
-        <v>0.07172715307888039</v>
+        <v>0.07191999083213889</v>
       </c>
       <c r="T136" t="s">
         <v>383</v>
@@ -17182,7 +17188,7 @@
         <v>1563</v>
       </c>
       <c r="AA136" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB136">
         <v>0</v>
@@ -17268,7 +17274,7 @@
         <v>1567</v>
       </c>
       <c r="AA137" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="AB137">
         <v>35</v>
@@ -17291,46 +17297,46 @@
         <v>5</v>
       </c>
       <c r="F138">
-        <v>19.63690073661373</v>
+        <v>19.50654602347872</v>
       </c>
       <c r="G138">
-        <v>2.329259341298838</v>
+        <v>2.176009756834766</v>
       </c>
       <c r="H138">
-        <v>41.47820671024488</v>
+        <v>41.27766741411135</v>
       </c>
       <c r="I138">
-        <v>7.274774542083279</v>
+        <v>6.905618482060754</v>
       </c>
       <c r="J138">
-        <v>49.92201551582527</v>
+        <v>49.79087407737997</v>
       </c>
       <c r="K138">
-        <v>3.181555274455377</v>
+        <v>3.35020915097957</v>
       </c>
       <c r="L138">
-        <v>58.09438930263838</v>
+        <v>57.75399214923941</v>
       </c>
       <c r="M138">
-        <v>10.80361630349832</v>
+        <v>10.80533199207336</v>
       </c>
       <c r="N138">
-        <v>0.6961074781733143</v>
+        <v>0.7006721448887848</v>
       </c>
       <c r="O138">
-        <v>0.1118466280784909</v>
+        <v>0.1085013421483975</v>
       </c>
       <c r="P138">
-        <v>0.8492629626161313</v>
+        <v>0.8510412506257695</v>
       </c>
       <c r="Q138">
-        <v>0.06269954623308548</v>
+        <v>0.06225628924789541</v>
       </c>
       <c r="R138">
-        <v>0.8534399519848803</v>
+        <v>0.8565433935901237</v>
       </c>
       <c r="S138">
-        <v>0.06165688305433205</v>
+        <v>0.06302150451888051</v>
       </c>
       <c r="T138" t="s">
         <v>385</v>
@@ -17351,10 +17357,10 @@
         <v>1465</v>
       </c>
       <c r="Z138" t="s">
-        <v>1597</v>
+        <v>1557</v>
       </c>
       <c r="AA138" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB138">
         <v>0</v>
@@ -17437,10 +17443,10 @@
         <v>1466</v>
       </c>
       <c r="Z139" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="AA139" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB139">
         <v>0</v>
@@ -17526,7 +17532,7 @@
         <v>1545</v>
       </c>
       <c r="AA140" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AB140">
         <v>15</v>
@@ -17612,7 +17618,7 @@
         <v>1555</v>
       </c>
       <c r="AA141" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="AB141">
         <v>36</v>
@@ -17635,46 +17641,46 @@
         <v>6</v>
       </c>
       <c r="F142">
-        <v>3.016758705624856</v>
+        <v>2.465690964245033</v>
       </c>
       <c r="G142">
-        <v>8.279356230316987</v>
+        <v>6.506202640117027</v>
       </c>
       <c r="H142">
-        <v>42.38153956113778</v>
+        <v>41.77356857726847</v>
       </c>
       <c r="I142">
-        <v>8.414034161415604</v>
+        <v>7.866536548240962</v>
       </c>
       <c r="J142">
-        <v>47.71795739990812</v>
+        <v>47.80937599934763</v>
       </c>
       <c r="K142">
-        <v>2.643649188274496</v>
+        <v>2.533421776879642</v>
       </c>
       <c r="L142">
-        <v>60.81258462526735</v>
+        <v>59.9878621642406</v>
       </c>
       <c r="M142">
-        <v>13.09294071180934</v>
+        <v>12.6959377771027</v>
       </c>
       <c r="N142">
-        <v>0.6606502042313545</v>
+        <v>0.6732699474201453</v>
       </c>
       <c r="O142">
-        <v>0.158376805595694</v>
+        <v>0.1364027482574555</v>
       </c>
       <c r="P142">
-        <v>0.831421822438859</v>
+        <v>0.8373791509357218</v>
       </c>
       <c r="Q142">
-        <v>0.08735877269601158</v>
+        <v>0.07781940934756752</v>
       </c>
       <c r="R142">
-        <v>0.8366448827865568</v>
+        <v>0.8419299566177522</v>
       </c>
       <c r="S142">
-        <v>0.07361629715510017</v>
+        <v>0.06287549039645618</v>
       </c>
       <c r="T142" t="s">
         <v>389</v>
@@ -17698,7 +17704,7 @@
         <v>1559</v>
       </c>
       <c r="AA142" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB142">
         <v>0</v>
@@ -17784,7 +17790,7 @@
         <v>1560</v>
       </c>
       <c r="AA143" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="AB143">
         <v>123</v>
@@ -17807,46 +17813,46 @@
         <v>6</v>
       </c>
       <c r="F144">
-        <v>21.53309514173665</v>
+        <v>21.43119268457848</v>
       </c>
       <c r="G144">
-        <v>2.877810653045688</v>
+        <v>3.110484460971173</v>
       </c>
       <c r="H144">
-        <v>42.56651158059142</v>
+        <v>42.86991824151323</v>
       </c>
       <c r="I144">
-        <v>7.541800304902671</v>
+        <v>7.324320670841244</v>
       </c>
       <c r="J144">
-        <v>52.38855067667899</v>
+        <v>52.36090825990087</v>
       </c>
       <c r="K144">
-        <v>3.273900965647341</v>
+        <v>3.289573324237717</v>
       </c>
       <c r="L144">
-        <v>59.22340660686425</v>
+        <v>59.42938565041545</v>
       </c>
       <c r="M144">
-        <v>10.81299908472506</v>
+        <v>10.75448912113406</v>
       </c>
       <c r="N144">
-        <v>0.6855862146254755</v>
+        <v>0.6826255874276899</v>
       </c>
       <c r="O144">
-        <v>0.1110309808572685</v>
+        <v>0.11095266303065</v>
       </c>
       <c r="P144">
-        <v>0.8447303031472839</v>
+        <v>0.8447174281397787</v>
       </c>
       <c r="Q144">
-        <v>0.07160399861336862</v>
+        <v>0.06985541436828833</v>
       </c>
       <c r="R144">
-        <v>0.8523462082371058</v>
+        <v>0.8526116457245324</v>
       </c>
       <c r="S144">
-        <v>0.06391673316195953</v>
+        <v>0.06165949302278794</v>
       </c>
       <c r="T144" t="s">
         <v>391</v>
@@ -17870,7 +17876,7 @@
         <v>1554</v>
       </c>
       <c r="AA144" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB144">
         <v>0</v>
@@ -17953,10 +17959,10 @@
         <v>1472</v>
       </c>
       <c r="Z145" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="AA145" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB145">
         <v>0</v>
@@ -18042,7 +18048,7 @@
         <v>1545</v>
       </c>
       <c r="AA146" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="AB146">
         <v>15</v>
@@ -18125,10 +18131,10 @@
         <v>1474</v>
       </c>
       <c r="Z147" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AA147" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="AB147">
         <v>15</v>
@@ -18151,46 +18157,46 @@
         <v>3</v>
       </c>
       <c r="F148">
-        <v>10.62495633388783</v>
+        <v>10.61265544893207</v>
       </c>
       <c r="G148">
-        <v>11.98250046509853</v>
+        <v>11.97039375998131</v>
       </c>
       <c r="H148">
-        <v>45.5215610625255</v>
+        <v>45.47713651468922</v>
       </c>
       <c r="I148">
-        <v>7.400656872517923</v>
+        <v>7.305706230645168</v>
       </c>
       <c r="J148">
-        <v>50.45729138504322</v>
+        <v>50.45845736537503</v>
       </c>
       <c r="K148">
-        <v>2.472264032717175</v>
+        <v>2.475212577639672</v>
       </c>
       <c r="L148">
-        <v>65.02111184042917</v>
+        <v>64.96973477928832</v>
       </c>
       <c r="M148">
-        <v>10.73289177212097</v>
+        <v>10.64922538364165</v>
       </c>
       <c r="N148">
-        <v>0.6125757053551818</v>
+        <v>0.6130748179006726</v>
       </c>
       <c r="O148">
-        <v>0.1589439344896282</v>
+        <v>0.1589056259365855</v>
       </c>
       <c r="P148">
-        <v>0.8097358685886981</v>
+        <v>0.809903436676176</v>
       </c>
       <c r="Q148">
-        <v>0.08243611535779444</v>
+        <v>0.08248167517454168</v>
       </c>
       <c r="R148">
-        <v>0.7961864646193757</v>
+        <v>0.7960659000668374</v>
       </c>
       <c r="S148">
-        <v>0.07389194381175235</v>
+        <v>0.07384250669642893</v>
       </c>
       <c r="T148" t="s">
         <v>395</v>
@@ -18211,10 +18217,10 @@
         <v>1475</v>
       </c>
       <c r="Z148" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="AA148" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="AB148">
         <v>15</v>
@@ -18300,7 +18306,7 @@
         <v>1548</v>
       </c>
       <c r="AA149" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB149">
         <v>0</v>
@@ -18323,46 +18329,46 @@
         <v>3</v>
       </c>
       <c r="F150">
-        <v>23.7756933266411</v>
+        <v>24.6617082378187</v>
       </c>
       <c r="G150">
-        <v>2.769171525031175</v>
+        <v>3.153536621778471</v>
       </c>
       <c r="H150">
-        <v>43.70500239430813</v>
+        <v>44.57736061404769</v>
       </c>
       <c r="I150">
-        <v>6.862557542266658</v>
+        <v>7.098913922291837</v>
       </c>
       <c r="J150">
-        <v>53.80924803669571</v>
+        <v>53.7547461758954</v>
       </c>
       <c r="K150">
-        <v>3.109075146991468</v>
+        <v>2.997841081768828</v>
       </c>
       <c r="L150">
-        <v>58.63739140276279</v>
+        <v>59.18381346909018</v>
       </c>
       <c r="M150">
-        <v>9.24749234826583</v>
+        <v>9.401684328374959</v>
       </c>
       <c r="N150">
-        <v>0.6936976047360673</v>
+        <v>0.6886588862909651</v>
       </c>
       <c r="O150">
-        <v>0.09078783920161328</v>
+        <v>0.08973995242232799</v>
       </c>
       <c r="P150">
-        <v>0.8566070382941986</v>
+        <v>0.8554503528698774</v>
       </c>
       <c r="Q150">
-        <v>0.06228509985433642</v>
+        <v>0.06160837541676886</v>
       </c>
       <c r="R150">
-        <v>0.851999927059178</v>
+        <v>0.8477550906410067</v>
       </c>
       <c r="S150">
-        <v>0.06415172467600141</v>
+        <v>0.06487849646171871</v>
       </c>
       <c r="T150" t="s">
         <v>397</v>
@@ -18383,10 +18389,10 @@
         <v>1477</v>
       </c>
       <c r="Z150" t="s">
-        <v>1609</v>
+        <v>1554</v>
       </c>
       <c r="AA150" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB150">
         <v>0</v>
@@ -18469,10 +18475,10 @@
         <v>1478</v>
       </c>
       <c r="Z151" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="AA151" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB151">
         <v>0</v>
@@ -18507,10 +18513,10 @@
         <v>8.311514259489456</v>
       </c>
       <c r="J152">
-        <v>72.05684201293597</v>
+        <v>72.05684201293724</v>
       </c>
       <c r="K152">
-        <v>4.750073265834555</v>
+        <v>4.750073265836877</v>
       </c>
       <c r="L152">
         <v>77.64834675776252</v>
@@ -18528,7 +18534,7 @@
         <v>0.7273817007736837</v>
       </c>
       <c r="Q152">
-        <v>0.09800062570374193</v>
+        <v>0.09800062570374195</v>
       </c>
       <c r="R152">
         <v>0.7072773470791303</v>
@@ -18558,7 +18564,7 @@
         <v>1545</v>
       </c>
       <c r="AA152" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AB152">
         <v>19</v>
@@ -18644,7 +18650,7 @@
         <v>1582</v>
       </c>
       <c r="AA153" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB153">
         <v>0</v>
@@ -18730,7 +18736,7 @@
         <v>1563</v>
       </c>
       <c r="AA154" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB154">
         <v>0</v>
@@ -18813,10 +18819,10 @@
         <v>1482</v>
       </c>
       <c r="Z155" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AA155" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="AB155">
         <v>26</v>
@@ -18839,46 +18845,46 @@
         <v>4</v>
       </c>
       <c r="F156">
-        <v>22.60037516952073</v>
+        <v>22.34063506038535</v>
       </c>
       <c r="G156">
-        <v>3.271009625958209</v>
+        <v>2.786339678767414</v>
       </c>
       <c r="H156">
-        <v>43.18595441250392</v>
+        <v>42.99371616728129</v>
       </c>
       <c r="I156">
-        <v>6.922657596969084</v>
+        <v>6.955352763439638</v>
       </c>
       <c r="J156">
-        <v>53.73597070939123</v>
+        <v>53.85863333687098</v>
       </c>
       <c r="K156">
-        <v>3.297526774180223</v>
+        <v>3.554135871126968</v>
       </c>
       <c r="L156">
-        <v>58.63504448116828</v>
+        <v>58.33619835866423</v>
       </c>
       <c r="M156">
-        <v>9.644143775851704</v>
+        <v>9.495797915441122</v>
       </c>
       <c r="N156">
-        <v>0.6935987158168764</v>
+        <v>0.6967374986754256</v>
       </c>
       <c r="O156">
-        <v>0.09434856853967528</v>
+        <v>0.09322676761822593</v>
       </c>
       <c r="P156">
-        <v>0.8539913473480738</v>
+        <v>0.8567106284090344</v>
       </c>
       <c r="Q156">
-        <v>0.06182303132985589</v>
+        <v>0.06300475279349396</v>
       </c>
       <c r="R156">
-        <v>0.8534736407321116</v>
+        <v>0.856941456039617</v>
       </c>
       <c r="S156">
-        <v>0.06379802116045075</v>
+        <v>0.06505069734896071</v>
       </c>
       <c r="T156" t="s">
         <v>403</v>
@@ -18899,10 +18905,10 @@
         <v>1483</v>
       </c>
       <c r="Z156" t="s">
-        <v>1580</v>
+        <v>1612</v>
       </c>
       <c r="AA156" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB156">
         <v>0</v>
@@ -18985,10 +18991,10 @@
         <v>1484</v>
       </c>
       <c r="Z157" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="AA157" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB157">
         <v>0</v>
@@ -19011,7 +19017,7 @@
         <v>5</v>
       </c>
       <c r="F158">
-        <v>42.09153514909225</v>
+        <v>42.09153514909226</v>
       </c>
       <c r="G158">
         <v>2.80200193551128</v>
@@ -19020,31 +19026,31 @@
         <v>58.89338197540535</v>
       </c>
       <c r="I158">
-        <v>8.618270689201132</v>
+        <v>8.618270689201113</v>
       </c>
       <c r="J158">
-        <v>71.21856843660412</v>
+        <v>71.21856843660308</v>
       </c>
       <c r="K158">
-        <v>4.437116169127666</v>
+        <v>4.437116169126109</v>
       </c>
       <c r="L158">
         <v>75.56661224555886</v>
       </c>
       <c r="M158">
-        <v>10.58268704242665</v>
+        <v>10.58268704242663</v>
       </c>
       <c r="N158">
         <v>0.485131222986616</v>
       </c>
       <c r="O158">
-        <v>0.1574178339291755</v>
+        <v>0.1574178339291753</v>
       </c>
       <c r="P158">
-        <v>0.7332338243656545</v>
+        <v>0.7332338243656544</v>
       </c>
       <c r="Q158">
-        <v>0.08507348377430676</v>
+        <v>0.08507348377430678</v>
       </c>
       <c r="R158">
         <v>0.7193569260540242</v>
@@ -19074,7 +19080,7 @@
         <v>1545</v>
       </c>
       <c r="AA158" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="AB158">
         <v>20</v>
@@ -19160,7 +19166,7 @@
         <v>1583</v>
       </c>
       <c r="AA159" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB159">
         <v>0</v>
@@ -19183,46 +19189,46 @@
         <v>5</v>
       </c>
       <c r="F160">
-        <v>2.906566362827978</v>
+        <v>3.366017690261606</v>
       </c>
       <c r="G160">
-        <v>7.229686986267468</v>
+        <v>7.742170429782613</v>
       </c>
       <c r="H160">
-        <v>44.1550280625186</v>
+        <v>44.14339905392786</v>
       </c>
       <c r="I160">
-        <v>8.071320406368766</v>
+        <v>8.056631017092235</v>
       </c>
       <c r="J160">
-        <v>50.32736455446747</v>
+        <v>50.32248097038058</v>
       </c>
       <c r="K160">
-        <v>3.070475577503598</v>
+        <v>3.076123575882083</v>
       </c>
       <c r="L160">
-        <v>63.15442318858781</v>
+        <v>63.19777766035667</v>
       </c>
       <c r="M160">
-        <v>12.22005643764345</v>
+        <v>12.30642640073073</v>
       </c>
       <c r="N160">
-        <v>0.6362105076331099</v>
+        <v>0.6353461176400166</v>
       </c>
       <c r="O160">
-        <v>0.1468647649711972</v>
+        <v>0.1498320498040172</v>
       </c>
       <c r="P160">
-        <v>0.8199485232714898</v>
+        <v>0.8202564732431992</v>
       </c>
       <c r="Q160">
-        <v>0.07768619088893951</v>
+        <v>0.07665489099268634</v>
       </c>
       <c r="R160">
-        <v>0.8153079235281885</v>
+        <v>0.8150370249086362</v>
       </c>
       <c r="S160">
-        <v>0.07183339949241963</v>
+        <v>0.07259524007877322</v>
       </c>
       <c r="T160" t="s">
         <v>407</v>
@@ -19243,10 +19249,10 @@
         <v>1487</v>
       </c>
       <c r="Z160" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AA160" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB160">
         <v>0</v>
@@ -19332,7 +19338,7 @@
         <v>1567</v>
       </c>
       <c r="AA161" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="AB161">
         <v>34</v>
@@ -19355,46 +19361,46 @@
         <v>5</v>
       </c>
       <c r="F162">
-        <v>19.73484976236374</v>
+        <v>19.84128331799299</v>
       </c>
       <c r="G162">
-        <v>2.396106886303875</v>
+        <v>2.756179577932001</v>
       </c>
       <c r="H162">
-        <v>41.76126496173936</v>
+        <v>42.09443501000607</v>
       </c>
       <c r="I162">
-        <v>6.615978201551586</v>
+        <v>7.278732932184758</v>
       </c>
       <c r="J162">
-        <v>50.17325470589557</v>
+        <v>50.19790410416131</v>
       </c>
       <c r="K162">
-        <v>3.376803122758889</v>
+        <v>3.417814944304391</v>
       </c>
       <c r="L162">
-        <v>58.00351516634282</v>
+        <v>58.32389287365773</v>
       </c>
       <c r="M162">
-        <v>10.14900171047976</v>
+        <v>10.16158963303984</v>
       </c>
       <c r="N162">
-        <v>0.6976312010887902</v>
+        <v>0.6945235934319</v>
       </c>
       <c r="O162">
-        <v>0.1043550608525612</v>
+        <v>0.1049550620776644</v>
       </c>
       <c r="P162">
-        <v>0.8514904637754901</v>
+        <v>0.8494027837746703</v>
       </c>
       <c r="Q162">
-        <v>0.06181681007230837</v>
+        <v>0.06079863121177406</v>
       </c>
       <c r="R162">
-        <v>0.853306040805707</v>
+        <v>0.85376683368096</v>
       </c>
       <c r="S162">
-        <v>0.06223534291807308</v>
+        <v>0.06278930541280259</v>
       </c>
       <c r="T162" t="s">
         <v>409</v>
@@ -19415,10 +19421,10 @@
         <v>1489</v>
       </c>
       <c r="Z162" t="s">
-        <v>1603</v>
+        <v>1557</v>
       </c>
       <c r="AA162" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -19501,10 +19507,10 @@
         <v>1490</v>
       </c>
       <c r="Z163" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="AA163" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -19590,7 +19596,7 @@
         <v>1545</v>
       </c>
       <c r="AA164" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="AB164">
         <v>16</v>
@@ -19676,7 +19682,7 @@
         <v>1582</v>
       </c>
       <c r="AA165" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB165">
         <v>0</v>
@@ -19711,10 +19717,10 @@
         <v>7.504226093363687</v>
       </c>
       <c r="J166">
-        <v>49.79207058142502</v>
+        <v>49.78588376294961</v>
       </c>
       <c r="K166">
-        <v>2.973225814055829</v>
+        <v>2.976235033512092</v>
       </c>
       <c r="L166">
         <v>61.00492878731132</v>
@@ -19759,10 +19765,10 @@
         <v>1493</v>
       </c>
       <c r="Z166" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="AA166" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB166">
         <v>0</v>
@@ -19848,7 +19854,7 @@
         <v>1560</v>
       </c>
       <c r="AA167" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="AB167">
         <v>117</v>
@@ -19871,46 +19877,46 @@
         <v>6</v>
       </c>
       <c r="F168">
-        <v>23.61584776533684</v>
+        <v>23.30229326292376</v>
       </c>
       <c r="G168">
-        <v>2.370855253269358</v>
+        <v>1.899255835000841</v>
       </c>
       <c r="H168">
-        <v>44.09755365849194</v>
+        <v>43.86270765155179</v>
       </c>
       <c r="I168">
-        <v>7.296191245178806</v>
+        <v>7.189300262657316</v>
       </c>
       <c r="J168">
-        <v>53.72271458168108</v>
+        <v>53.87581774842286</v>
       </c>
       <c r="K168">
-        <v>3.034695997214613</v>
+        <v>2.96621419354033</v>
       </c>
       <c r="L168">
-        <v>60.0203325388401</v>
+        <v>59.66298260440232</v>
       </c>
       <c r="M168">
-        <v>10.14569115318557</v>
+        <v>10.33009871598458</v>
       </c>
       <c r="N168">
-        <v>0.677170797299735</v>
+        <v>0.6804517082501056</v>
       </c>
       <c r="O168">
-        <v>0.1110538704617384</v>
+        <v>0.1112927532571984</v>
       </c>
       <c r="P168">
-        <v>0.8440812805956942</v>
+        <v>0.8454624639060259</v>
       </c>
       <c r="Q168">
-        <v>0.07383693543345515</v>
+        <v>0.07443204611886921</v>
       </c>
       <c r="R168">
-        <v>0.8502204426748449</v>
+        <v>0.8497465462904448</v>
       </c>
       <c r="S168">
-        <v>0.06489778364101446</v>
+        <v>0.06645004577533144</v>
       </c>
       <c r="T168" t="s">
         <v>415</v>
@@ -19931,10 +19937,10 @@
         <v>1495</v>
       </c>
       <c r="Z168" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="AA168" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB168">
         <v>0</v>
@@ -20017,10 +20023,10 @@
         <v>1496</v>
       </c>
       <c r="Z169" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AA169" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB169">
         <v>0</v>
@@ -20106,7 +20112,7 @@
         <v>1545</v>
       </c>
       <c r="AA170" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AB170">
         <v>19</v>
@@ -20189,10 +20195,10 @@
         <v>1498</v>
       </c>
       <c r="Z171" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="AA171" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="AB171">
         <v>92</v>
@@ -20227,10 +20233,10 @@
         <v>7.50361361260588</v>
       </c>
       <c r="J172">
-        <v>50.75978243741937</v>
+        <v>50.76007273272594</v>
       </c>
       <c r="K172">
-        <v>2.618931274679793</v>
+        <v>2.616683650493578</v>
       </c>
       <c r="L172">
         <v>63.48101188497553</v>
@@ -20275,10 +20281,10 @@
         <v>1499</v>
       </c>
       <c r="Z172" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="AA172" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="AB172">
         <v>131</v>
@@ -20364,7 +20370,7 @@
         <v>1548</v>
       </c>
       <c r="AA173" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB173">
         <v>0</v>
@@ -20387,46 +20393,46 @@
         <v>3</v>
       </c>
       <c r="F174">
-        <v>24.42763705598869</v>
+        <v>24.7807023668948</v>
       </c>
       <c r="G174">
-        <v>2.456803545984792</v>
+        <v>3.036261305808779</v>
       </c>
       <c r="H174">
-        <v>45.3051115205162</v>
+        <v>45.3065795269198</v>
       </c>
       <c r="I174">
-        <v>6.796325036061449</v>
+        <v>6.990886010266527</v>
       </c>
       <c r="J174">
-        <v>55.13597164061029</v>
+        <v>55.31686833362281</v>
       </c>
       <c r="K174">
-        <v>3.268805779604645</v>
+        <v>3.250379103501757</v>
       </c>
       <c r="L174">
-        <v>60.11384668514336</v>
+        <v>60.33744669271088</v>
       </c>
       <c r="M174">
-        <v>9.198598960831188</v>
+        <v>9.61047151765244</v>
       </c>
       <c r="N174">
-        <v>0.6788041861711559</v>
+        <v>0.6757185530131535</v>
       </c>
       <c r="O174">
-        <v>0.09177870180671409</v>
+        <v>0.09598279223095861</v>
       </c>
       <c r="P174">
-        <v>0.8495189253708227</v>
+        <v>0.8484523704637205</v>
       </c>
       <c r="Q174">
-        <v>0.0650745371227384</v>
+        <v>0.0667939535335878</v>
       </c>
       <c r="R174">
-        <v>0.8437354112255688</v>
+        <v>0.8439438727237122</v>
       </c>
       <c r="S174">
-        <v>0.06640312500762957</v>
+        <v>0.06596904247032864</v>
       </c>
       <c r="T174" t="s">
         <v>421</v>
@@ -20447,10 +20453,10 @@
         <v>1501</v>
       </c>
       <c r="Z174" t="s">
-        <v>1549</v>
+        <v>1573</v>
       </c>
       <c r="AA174" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB174">
         <v>0</v>
@@ -20536,7 +20542,7 @@
         <v>1565</v>
       </c>
       <c r="AA175" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB175">
         <v>0</v>
@@ -20571,10 +20577,10 @@
         <v>9.493174141613993</v>
       </c>
       <c r="J176">
-        <v>73.04304561767239</v>
+        <v>73.04304561767256</v>
       </c>
       <c r="K176">
-        <v>4.632675527278773</v>
+        <v>4.632675527278637</v>
       </c>
       <c r="L176">
         <v>77.86962971257184</v>
@@ -20622,7 +20628,7 @@
         <v>1545</v>
       </c>
       <c r="AA176" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="AB176">
         <v>16</v>
@@ -20708,7 +20714,7 @@
         <v>1583</v>
       </c>
       <c r="AA177" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB177">
         <v>0</v>
@@ -20743,10 +20749,10 @@
         <v>7.910761653838644</v>
       </c>
       <c r="J178">
-        <v>50.57948141282972</v>
+        <v>50.57835001791508</v>
       </c>
       <c r="K178">
-        <v>3.374363619000646</v>
+        <v>3.372838012045352</v>
       </c>
       <c r="L178">
         <v>59.68842005036204</v>
@@ -20791,10 +20797,10 @@
         <v>1505</v>
       </c>
       <c r="Z178" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="AA178" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AB178">
         <v>128</v>
@@ -20877,10 +20883,10 @@
         <v>1506</v>
       </c>
       <c r="Z179" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AA179" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AB179">
         <v>30</v>
@@ -20903,46 +20909,46 @@
         <v>4</v>
       </c>
       <c r="F180">
-        <v>23.96859554383177</v>
+        <v>23.60792381661505</v>
       </c>
       <c r="G180">
-        <v>2.458405446093602</v>
+        <v>2.269961736580229</v>
       </c>
       <c r="H180">
-        <v>44.68087510343881</v>
+        <v>44.55089648428072</v>
       </c>
       <c r="I180">
-        <v>7.1741230890816</v>
+        <v>6.960466961591528</v>
       </c>
       <c r="J180">
-        <v>55.42233649406096</v>
+        <v>55.45062749196307</v>
       </c>
       <c r="K180">
-        <v>3.563495803491781</v>
+        <v>3.550861524917238</v>
       </c>
       <c r="L180">
-        <v>60.42561610207846</v>
+        <v>60.08718243191607</v>
       </c>
       <c r="M180">
-        <v>9.752318643639429</v>
+        <v>9.480835571626731</v>
       </c>
       <c r="N180">
-        <v>0.6759359835449379</v>
+        <v>0.6786794096625627</v>
       </c>
       <c r="O180">
-        <v>0.09220533986805775</v>
+        <v>0.09378180365751936</v>
       </c>
       <c r="P180">
-        <v>0.8445676404975346</v>
+        <v>0.8465566007843738</v>
       </c>
       <c r="Q180">
-        <v>0.06353923938734357</v>
+        <v>0.06680209733719533</v>
       </c>
       <c r="R180">
-        <v>0.8448194287496915</v>
+        <v>0.8473973405039642</v>
       </c>
       <c r="S180">
-        <v>0.06596861412663081</v>
+        <v>0.06379594739368413</v>
       </c>
       <c r="T180" t="s">
         <v>427</v>
@@ -20963,10 +20969,10 @@
         <v>1507</v>
       </c>
       <c r="Z180" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="AA180" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB180">
         <v>0</v>
@@ -21049,10 +21055,10 @@
         <v>1508</v>
       </c>
       <c r="Z181" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="AA181" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB181">
         <v>0</v>
@@ -21078,7 +21084,7 @@
         <v>42.16567945865832</v>
       </c>
       <c r="G182">
-        <v>2.586854859873146</v>
+        <v>2.586854859873147</v>
       </c>
       <c r="H182">
         <v>57.93002725877513</v>
@@ -21090,7 +21096,7 @@
         <v>71.44625775467789</v>
       </c>
       <c r="K182">
-        <v>4.841660047986045</v>
+        <v>4.841660047986044</v>
       </c>
       <c r="L182">
         <v>75.37394526186998</v>
@@ -21108,7 +21114,7 @@
         <v>0.7305395530972376</v>
       </c>
       <c r="Q182">
-        <v>0.08915519015661785</v>
+        <v>0.08915519015661787</v>
       </c>
       <c r="R182">
         <v>0.7133276283521158</v>
@@ -21138,7 +21144,7 @@
         <v>1545</v>
       </c>
       <c r="AA182" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="AB182">
         <v>18</v>
@@ -21221,10 +21227,10 @@
         <v>1510</v>
       </c>
       <c r="Z183" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="AA183" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AB183">
         <v>38</v>
@@ -21259,10 +21265,10 @@
         <v>8.564594388959886</v>
       </c>
       <c r="J184">
-        <v>50.19595031827892</v>
+        <v>50.19951440017645</v>
       </c>
       <c r="K184">
-        <v>2.985979680761596</v>
+        <v>2.983280660040577</v>
       </c>
       <c r="L184">
         <v>64.47574992464506</v>
@@ -21310,7 +21316,7 @@
         <v>1559</v>
       </c>
       <c r="AA184" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB184">
         <v>0</v>
@@ -21396,7 +21402,7 @@
         <v>1556</v>
       </c>
       <c r="AA185" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AB185">
         <v>38</v>
@@ -21419,46 +21425,46 @@
         <v>5</v>
       </c>
       <c r="F186">
-        <v>19.51761331104336</v>
+        <v>20.08308384051637</v>
       </c>
       <c r="G186">
-        <v>2.215632968824586</v>
+        <v>2.335423783708898</v>
       </c>
       <c r="H186">
-        <v>42.15540571182249</v>
+        <v>41.79583029357742</v>
       </c>
       <c r="I186">
-        <v>7.137826384904572</v>
+        <v>7.430830756902601</v>
       </c>
       <c r="J186">
-        <v>50.89882228914803</v>
+        <v>50.80405471888159</v>
       </c>
       <c r="K186">
-        <v>3.456507165734146</v>
+        <v>3.383999995650328</v>
       </c>
       <c r="L186">
-        <v>58.70079689345116</v>
+        <v>58.04872560414236</v>
       </c>
       <c r="M186">
-        <v>10.80785962295726</v>
+        <v>11.00481526735516</v>
       </c>
       <c r="N186">
-        <v>0.6911269818720469</v>
+        <v>0.6991267675524928</v>
       </c>
       <c r="O186">
-        <v>0.1064521013222272</v>
+        <v>0.09937723577249975</v>
       </c>
       <c r="P186">
-        <v>0.8471184464545406</v>
+        <v>0.8503758619987409</v>
       </c>
       <c r="Q186">
-        <v>0.06241447688227794</v>
+        <v>0.05940474362748134</v>
       </c>
       <c r="R186">
-        <v>0.850411885478871</v>
+        <v>0.8527664638682498</v>
       </c>
       <c r="S186">
-        <v>0.05961887998360841</v>
+        <v>0.05780858657374364</v>
       </c>
       <c r="T186" t="s">
         <v>433</v>
@@ -21479,10 +21485,10 @@
         <v>1513</v>
       </c>
       <c r="Z186" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
       <c r="AA186" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB186">
         <v>0</v>
@@ -21568,7 +21574,7 @@
         <v>1581</v>
       </c>
       <c r="AA187" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB187">
         <v>0</v>
@@ -21654,7 +21660,7 @@
         <v>1545</v>
       </c>
       <c r="AA188" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="AB188">
         <v>16</v>
@@ -21737,10 +21743,10 @@
         <v>1516</v>
       </c>
       <c r="Z189" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AA189" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="AB189">
         <v>37</v>
@@ -21769,40 +21775,40 @@
         <v>3.169872569193591</v>
       </c>
       <c r="H190">
-        <v>43.39402583997976</v>
+        <v>43.47736827786751</v>
       </c>
       <c r="I190">
-        <v>8.224025440655536</v>
+        <v>8.384343431853178</v>
       </c>
       <c r="J190">
-        <v>49.76990449075262</v>
+        <v>49.76703932672807</v>
       </c>
       <c r="K190">
-        <v>3.334218306320551</v>
+        <v>3.347165423149807</v>
       </c>
       <c r="L190">
-        <v>61.65772898905295</v>
+        <v>61.74808390373742</v>
       </c>
       <c r="M190">
-        <v>12.29259296568381</v>
+        <v>12.48359681250289</v>
       </c>
       <c r="N190">
-        <v>0.6575757249754238</v>
+        <v>0.6563991653110384</v>
       </c>
       <c r="O190">
-        <v>0.1298975696667048</v>
+        <v>0.1319608055359851</v>
       </c>
       <c r="P190">
-        <v>0.8300906402463351</v>
+        <v>0.8292228703613911</v>
       </c>
       <c r="Q190">
-        <v>0.06981039390792264</v>
+        <v>0.07194673051765636</v>
       </c>
       <c r="R190">
-        <v>0.8294495533335973</v>
+        <v>0.8280207863844024</v>
       </c>
       <c r="S190">
-        <v>0.06013543137303683</v>
+        <v>0.06235297397094259</v>
       </c>
       <c r="T190" t="s">
         <v>437</v>
@@ -21823,10 +21829,10 @@
         <v>1517</v>
       </c>
       <c r="Z190" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="AA190" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB190">
         <v>0</v>
@@ -21909,10 +21915,10 @@
         <v>1518</v>
       </c>
       <c r="Z191" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="AA191" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AB191">
         <v>80</v>
@@ -21935,46 +21941,46 @@
         <v>6</v>
       </c>
       <c r="F192">
-        <v>24.70653534160592</v>
+        <v>24.03850682033661</v>
       </c>
       <c r="G192">
-        <v>2.472525978386874</v>
+        <v>2.156494787567958</v>
       </c>
       <c r="H192">
-        <v>45.00723104427394</v>
+        <v>44.86416785201102</v>
       </c>
       <c r="I192">
-        <v>6.826228263279832</v>
+        <v>7.151986346440059</v>
       </c>
       <c r="J192">
-        <v>55.15960899190641</v>
+        <v>55.31191133056014</v>
       </c>
       <c r="K192">
-        <v>2.986648438061062</v>
+        <v>3.230500521975959</v>
       </c>
       <c r="L192">
-        <v>60.88023956059496</v>
+        <v>61.14499802169222</v>
       </c>
       <c r="M192">
-        <v>10.04017287648081</v>
+        <v>10.46550112734242</v>
       </c>
       <c r="N192">
-        <v>0.6698482719883063</v>
+        <v>0.6657239645071809</v>
       </c>
       <c r="O192">
-        <v>0.1022992120417163</v>
+        <v>0.1097096893922556</v>
       </c>
       <c r="P192">
-        <v>0.8406657584307733</v>
+        <v>0.8371538474036475</v>
       </c>
       <c r="Q192">
-        <v>0.06969653592755992</v>
+        <v>0.07367680636050356</v>
       </c>
       <c r="R192">
-        <v>0.8437805222269291</v>
+        <v>0.8410493039552394</v>
       </c>
       <c r="S192">
-        <v>0.06207807416012429</v>
+        <v>0.06679331386361052</v>
       </c>
       <c r="T192" t="s">
         <v>439</v>
@@ -21995,10 +22001,10 @@
         <v>1519</v>
       </c>
       <c r="Z192" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="AA192" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB192">
         <v>0</v>
@@ -22081,10 +22087,10 @@
         <v>1520</v>
       </c>
       <c r="Z193" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="AA193" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB193">
         <v>0</v>
@@ -22170,7 +22176,7 @@
         <v>1545</v>
       </c>
       <c r="AA194" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="AB194">
         <v>19</v>
@@ -22253,10 +22259,10 @@
         <v>1522</v>
       </c>
       <c r="Z195" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="AA195" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="AB195">
         <v>131</v>
@@ -22291,10 +22297,10 @@
         <v>7.036515691979612</v>
       </c>
       <c r="J196">
-        <v>50.83420667390234</v>
+        <v>50.83541355773352</v>
       </c>
       <c r="K196">
-        <v>2.604986374483012</v>
+        <v>2.602339342178411</v>
       </c>
       <c r="L196">
         <v>61.44771400403963</v>
@@ -22339,10 +22345,10 @@
         <v>1523</v>
       </c>
       <c r="Z196" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="AA196" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="AB196">
         <v>88</v>
@@ -22428,7 +22434,7 @@
         <v>1548</v>
       </c>
       <c r="AA197" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB197">
         <v>0</v>
@@ -22451,46 +22457,46 @@
         <v>3</v>
       </c>
       <c r="F198">
-        <v>24.19364169524181</v>
+        <v>24.61712267978008</v>
       </c>
       <c r="G198">
-        <v>2.659430439998455</v>
+        <v>3.206373252734395</v>
       </c>
       <c r="H198">
-        <v>44.63195033659404</v>
+        <v>44.88435340089788</v>
       </c>
       <c r="I198">
-        <v>6.59280280798064</v>
+        <v>6.665936352951447</v>
       </c>
       <c r="J198">
-        <v>54.98802425247154</v>
+        <v>55.13413537128649</v>
       </c>
       <c r="K198">
-        <v>3.223550296064674</v>
+        <v>3.230297828135436</v>
       </c>
       <c r="L198">
-        <v>59.81230343424123</v>
+        <v>59.89372135068683</v>
       </c>
       <c r="M198">
-        <v>8.893931704478254</v>
+        <v>9.036643429294903</v>
       </c>
       <c r="N198">
-        <v>0.6801219073869785</v>
+        <v>0.6814690694445491</v>
       </c>
       <c r="O198">
-        <v>0.09681402027272525</v>
+        <v>0.08755055301013778</v>
       </c>
       <c r="P198">
-        <v>0.8498838510103007</v>
+        <v>0.8511036923590393</v>
       </c>
       <c r="Q198">
-        <v>0.06670463479657374</v>
+        <v>0.06210391052726</v>
       </c>
       <c r="R198">
-        <v>0.8415364058697431</v>
+        <v>0.8427858062594854</v>
       </c>
       <c r="S198">
-        <v>0.06403707387310474</v>
+        <v>0.06165936662814783</v>
       </c>
       <c r="T198" t="s">
         <v>445</v>
@@ -22511,10 +22517,10 @@
         <v>1525</v>
       </c>
       <c r="Z198" t="s">
-        <v>1580</v>
+        <v>1549</v>
       </c>
       <c r="AA198" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB198">
         <v>0</v>
@@ -22600,7 +22606,7 @@
         <v>1565</v>
       </c>
       <c r="AA199" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB199">
         <v>0</v>
@@ -22635,10 +22641,10 @@
         <v>9.953204353959046</v>
       </c>
       <c r="J200">
-        <v>72.47756537646687</v>
+        <v>72.47756537646688</v>
       </c>
       <c r="K200">
-        <v>4.830733461364714</v>
+        <v>4.830733461364701</v>
       </c>
       <c r="L200">
         <v>79.02036908005606</v>
@@ -22686,7 +22692,7 @@
         <v>1545</v>
       </c>
       <c r="AA200" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="AB200">
         <v>16</v>
@@ -22772,7 +22778,7 @@
         <v>1583</v>
       </c>
       <c r="AA201" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB201">
         <v>0</v>
@@ -22795,46 +22801,46 @@
         <v>4</v>
       </c>
       <c r="F202">
-        <v>2.088355366779595</v>
+        <v>2.088355309383123</v>
       </c>
       <c r="G202">
-        <v>5.922591269263349</v>
+        <v>5.922591226481022</v>
       </c>
       <c r="H202">
-        <v>43.07778904790555</v>
+        <v>43.05524121635715</v>
       </c>
       <c r="I202">
-        <v>7.640970084508708</v>
+        <v>7.641531680337513</v>
       </c>
       <c r="J202">
-        <v>51.95141607373764</v>
+        <v>51.94924643381635</v>
       </c>
       <c r="K202">
-        <v>3.359250933483982</v>
+        <v>3.357213115521248</v>
       </c>
       <c r="L202">
-        <v>60.99868709073939</v>
+        <v>61.02685175109214</v>
       </c>
       <c r="M202">
-        <v>10.63682153248751</v>
+        <v>10.62081203074515</v>
       </c>
       <c r="N202">
-        <v>0.6633029769441328</v>
+        <v>0.6630503120990086</v>
       </c>
       <c r="O202">
-        <v>0.1167897244126053</v>
+        <v>0.1165943983295854</v>
       </c>
       <c r="P202">
-        <v>0.8347111289897139</v>
+        <v>0.8345547566000999</v>
       </c>
       <c r="Q202">
-        <v>0.06077024876463821</v>
+        <v>0.0606581471215801</v>
       </c>
       <c r="R202">
-        <v>0.8294557907259958</v>
+        <v>0.8294338939145139</v>
       </c>
       <c r="S202">
-        <v>0.06423446904315</v>
+        <v>0.06422181350213815</v>
       </c>
       <c r="T202" t="s">
         <v>449</v>
@@ -22855,10 +22861,10 @@
         <v>1529</v>
       </c>
       <c r="Z202" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="AA202" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB202">
         <v>0</v>
@@ -22941,10 +22947,10 @@
         <v>1530</v>
       </c>
       <c r="Z203" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AA203" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AB203">
         <v>30</v>
@@ -22967,46 +22973,46 @@
         <v>4</v>
       </c>
       <c r="F204">
-        <v>23.19897950391004</v>
+        <v>23.50198438048889</v>
       </c>
       <c r="G204">
-        <v>2.644889870489941</v>
+        <v>2.377287258476811</v>
       </c>
       <c r="H204">
-        <v>44.20249662259944</v>
+        <v>44.30951047852552</v>
       </c>
       <c r="I204">
-        <v>6.583017374963338</v>
+        <v>6.691863804046116</v>
       </c>
       <c r="J204">
-        <v>55.52587315504358</v>
+        <v>55.46585395294847</v>
       </c>
       <c r="K204">
-        <v>3.51335624118204</v>
+        <v>3.639317174271953</v>
       </c>
       <c r="L204">
-        <v>59.99477853900791</v>
+        <v>60.15320894872503</v>
       </c>
       <c r="M204">
-        <v>9.403842237430437</v>
+        <v>9.398048159508402</v>
       </c>
       <c r="N204">
-        <v>0.6794106062655456</v>
+        <v>0.6789252179180565</v>
       </c>
       <c r="O204">
-        <v>0.09309247338799188</v>
+        <v>0.09237578673056143</v>
       </c>
       <c r="P204">
-        <v>0.8451290529438935</v>
+        <v>0.8456293470600496</v>
       </c>
       <c r="Q204">
-        <v>0.06445491843126118</v>
+        <v>0.06381160314538507</v>
       </c>
       <c r="R204">
-        <v>0.842960856105631</v>
+        <v>0.8462481035670838</v>
       </c>
       <c r="S204">
-        <v>0.06222362840390908</v>
+        <v>0.06064907717837945</v>
       </c>
       <c r="T204" t="s">
         <v>451</v>
@@ -23027,10 +23033,10 @@
         <v>1531</v>
       </c>
       <c r="Z204" t="s">
-        <v>1580</v>
+        <v>1549</v>
       </c>
       <c r="AA204" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB204">
         <v>0</v>
@@ -23113,10 +23119,10 @@
         <v>1532</v>
       </c>
       <c r="Z205" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="AA205" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB205">
         <v>0</v>
@@ -23154,7 +23160,7 @@
         <v>69.6372112563796</v>
       </c>
       <c r="K206">
-        <v>4.52658678077194</v>
+        <v>4.526586780771938</v>
       </c>
       <c r="L206">
         <v>74.07295266427504</v>
@@ -23202,7 +23208,7 @@
         <v>1545</v>
       </c>
       <c r="AA206" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="AB206">
         <v>20</v>
@@ -23288,7 +23294,7 @@
         <v>1555</v>
       </c>
       <c r="AA207" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AB207">
         <v>38</v>
@@ -23323,10 +23329,10 @@
         <v>8.961490142846682</v>
       </c>
       <c r="J208">
-        <v>50.6267108890234</v>
+        <v>50.63107452538703</v>
       </c>
       <c r="K208">
-        <v>3.295470297767291</v>
+        <v>3.298443778322553</v>
       </c>
       <c r="L208">
         <v>63.73062828934101</v>
@@ -23374,7 +23380,7 @@
         <v>1559</v>
       </c>
       <c r="AA208" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB208">
         <v>0</v>
@@ -23460,7 +23466,7 @@
         <v>1567</v>
       </c>
       <c r="AA209" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AB209">
         <v>38</v>
@@ -23483,46 +23489,46 @@
         <v>5</v>
       </c>
       <c r="F210">
-        <v>19.51599528265632</v>
+        <v>19.48461974870956</v>
       </c>
       <c r="G210">
-        <v>2.65259198986709</v>
+        <v>2.223327255870243</v>
       </c>
       <c r="H210">
-        <v>42.14356621227089</v>
+        <v>42.35741643046987</v>
       </c>
       <c r="I210">
-        <v>6.949006855771342</v>
+        <v>7.232448874608347</v>
       </c>
       <c r="J210">
-        <v>51.27646453799008</v>
+        <v>51.13840966056676</v>
       </c>
       <c r="K210">
-        <v>3.47598291606836</v>
+        <v>3.438056553072258</v>
       </c>
       <c r="L210">
-        <v>58.38362420921129</v>
+        <v>58.65941397140969</v>
       </c>
       <c r="M210">
-        <v>10.57533468225903</v>
+        <v>10.89358613424612</v>
       </c>
       <c r="N210">
-        <v>0.6948791148844813</v>
+        <v>0.691904113777852</v>
       </c>
       <c r="O210">
-        <v>0.1027144257519926</v>
+        <v>0.1055183791883201</v>
       </c>
       <c r="P210">
-        <v>0.8473867977100126</v>
+        <v>0.8451923742453817</v>
       </c>
       <c r="Q210">
-        <v>0.06046420481527061</v>
+        <v>0.06305093147768648</v>
       </c>
       <c r="R210">
-        <v>0.8502927491109176</v>
+        <v>0.8483077695930612</v>
       </c>
       <c r="S210">
-        <v>0.05984025542664504</v>
+        <v>0.06105544045641631</v>
       </c>
       <c r="T210" t="s">
         <v>457</v>
@@ -23543,10 +23549,10 @@
         <v>1537</v>
       </c>
       <c r="Z210" t="s">
-        <v>1557</v>
+        <v>1569</v>
       </c>
       <c r="AA210" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB210">
         <v>0</v>
@@ -23629,10 +23635,10 @@
         <v>1538</v>
       </c>
       <c r="Z211" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AA211" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB211">
         <v>0</v>
@@ -23667,10 +23673,10 @@
         <v>8.025388921633516</v>
       </c>
       <c r="J212">
-        <v>68.37556846803359</v>
+        <v>68.37556846803358</v>
       </c>
       <c r="K212">
-        <v>6.541395504537085</v>
+        <v>6.541395504537064</v>
       </c>
       <c r="L212">
         <v>74.46553754301885</v>
@@ -23718,7 +23724,7 @@
         <v>1545</v>
       </c>
       <c r="AA212" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="AB212">
         <v>13</v>
@@ -23801,10 +23807,10 @@
         <v>1540</v>
       </c>
       <c r="Z213" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AA213" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="AB213">
         <v>37</v>
@@ -23827,46 +23833,46 @@
         <v>6</v>
       </c>
       <c r="F214">
-        <v>1.558938910507657</v>
+        <v>1.562773718767244</v>
       </c>
       <c r="G214">
-        <v>4.40964269581492</v>
+        <v>4.432519494000058</v>
       </c>
       <c r="H214">
-        <v>43.50017364597931</v>
+        <v>43.52164055258744</v>
       </c>
       <c r="I214">
-        <v>9.276995748169854</v>
+        <v>9.329551780642953</v>
       </c>
       <c r="J214">
-        <v>50.55254514830414</v>
+        <v>50.5526282748088</v>
       </c>
       <c r="K214">
-        <v>3.135097259027205</v>
+        <v>3.129641210556778</v>
       </c>
       <c r="L214">
-        <v>61.33651999299664</v>
+        <v>61.36890853775937</v>
       </c>
       <c r="M214">
-        <v>12.7615490133968</v>
+        <v>12.83080150878382</v>
       </c>
       <c r="N214">
-        <v>0.6649098115892832</v>
+        <v>0.6646208049279351</v>
       </c>
       <c r="O214">
-        <v>0.1151088685183077</v>
+        <v>0.1152609113877217</v>
       </c>
       <c r="P214">
-        <v>0.8332215206705395</v>
+        <v>0.8330662546598103</v>
       </c>
       <c r="Q214">
-        <v>0.06546553213903468</v>
+        <v>0.06552699275189451</v>
       </c>
       <c r="R214">
-        <v>0.8272188299160674</v>
+        <v>0.826879243416102</v>
       </c>
       <c r="S214">
-        <v>0.06435247988946441</v>
+        <v>0.06511243427574738</v>
       </c>
       <c r="T214" t="s">
         <v>461</v>
@@ -23890,7 +23896,7 @@
         <v>1559</v>
       </c>
       <c r="AA214" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB214">
         <v>0</v>
@@ -23973,10 +23979,10 @@
         <v>1542</v>
       </c>
       <c r="Z215" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="AA215" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB215">
         <v>0</v>
@@ -23999,46 +24005,46 @@
         <v>6</v>
       </c>
       <c r="F216">
-        <v>23.62629238618154</v>
+        <v>23.84941112030194</v>
       </c>
       <c r="G216">
-        <v>3.353772476943268</v>
+        <v>3.118416749406249</v>
       </c>
       <c r="H216">
-        <v>44.7249445605661</v>
+        <v>44.62241733192235</v>
       </c>
       <c r="I216">
-        <v>6.673545015981832</v>
+        <v>7.367410926529162</v>
       </c>
       <c r="J216">
-        <v>55.3512763671929</v>
+        <v>55.32003685558109</v>
       </c>
       <c r="K216">
-        <v>3.142740018933869</v>
+        <v>3.183092219907434</v>
       </c>
       <c r="L216">
-        <v>60.8642597422807</v>
+        <v>60.79091864782513</v>
       </c>
       <c r="M216">
-        <v>10.03599027637053</v>
+        <v>10.69637946146803</v>
       </c>
       <c r="N216">
-        <v>0.6686549114289707</v>
+        <v>0.6704431956321466</v>
       </c>
       <c r="O216">
-        <v>0.1078507682056886</v>
+        <v>0.107707451090457</v>
       </c>
       <c r="P216">
-        <v>0.838794818326264</v>
+        <v>0.8400252649798935</v>
       </c>
       <c r="Q216">
-        <v>0.0732473534153727</v>
+        <v>0.07321180523533838</v>
       </c>
       <c r="R216">
-        <v>0.8398858410180583</v>
+        <v>0.8470268608110508</v>
       </c>
       <c r="S216">
-        <v>0.06546753222603734</v>
+        <v>0.06741068216678954</v>
       </c>
       <c r="T216" t="s">
         <v>463</v>
@@ -24059,10 +24065,10 @@
         <v>1543</v>
       </c>
       <c r="Z216" t="s">
-        <v>1549</v>
+        <v>1612</v>
       </c>
       <c r="AA216" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB216">
         <v>0</v>
@@ -24145,10 +24151,10 @@
         <v>1544</v>
       </c>
       <c r="Z217" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="AA217" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AB217">
         <v>0</v>
